--- a/rheology_dataset_em.xlsx
+++ b/rheology_dataset_em.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,21 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>embedding</t>
         </is>
       </c>
@@ -461,20 +476,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>물성학이란?</t>
+          <t>안녕하세요?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>물질의 변형과 흐름에 대한 학문입니다</t>
+          <t>안녕하세요?</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[-0.27483538, -0.5575143, 0.06729993, -0.25729096, -0.37879044, -0.25989318, 0.51276684, -0.39009064, 0.2441032, -0.4347509, -0.14311238, -0.40028885, 0.10875955, -0.101591654, -0.019869378, -0.5442782, 0.26708648, 0.4117826, 0.5377715, -0.65011996, -0.07935464, 0.6796493, 0.5098974, 0.37957674, -0.04267495, 0.35614383, -0.16924235, -0.7143584, 0.052989848, -0.7714808, 0.43939206, 0.540224, 0.29870453, 0.25823873, 0.40500945, -0.07692395, -0.9237441, 0.2734716, 0.38063288, -0.59752727, -0.23595297, -0.324145, -0.0030246843, -0.014060937, 0.09672947, -0.036236465, 0.09316886, 0.048288785, -0.1270541, 0.24317084, -0.26086962, 0.10934377, 0.339069, 0.74098665, -0.064542085, -0.16465484, 0.08122274, -0.3284533, 0.18623683, -0.33401057, 0.6256417, -0.9806358, 0.024374295, 0.28707647, 0.44654593, -0.09190036, -0.31688452, 0.22035936, -0.055647574, 0.32023248, 0.14646398, 0.17098856, 0.077906474, -0.59676135, 0.054402538, -0.20361139, -0.38084203, 0.10568021, 0.0016905256, 0.70662904, 0.32742923, -0.586897, 0.37734592, -0.18265411, 0.31666344, -0.29018134, 0.079242304, -0.4852523, -0.71182024, -0.4121049, -0.42944935, -0.33534053, 0.120308585, -0.003058724, -0.77547413, -0.59131205, 0.22485873, 0.49712357, 0.28815994, 0.2387969, 0.18351163, 0.019513492, -0.16715395, 0.35861495, 0.38676453, -0.40670145, -0.61134064, 0.6089525, 0.4246364, -0.43221536, 0.5059783, -0.57464576, 0.8834592, -0.29289255, 0.2904908, 0.46097365, -0.2308206, -0.068262614, -0.33346793, 0.49512982, 0.22455353, -0.5623126, -0.2373307, 0.18778008, -0.20545802, 0.38367128, 0.40077326, 0.06682569, -0.1961817, -0.09178674, -0.11002323, 0.69120204, 0.69102204, -0.1369028, -0.19410375, -0.104245424, 0.38963965, 0.319989, 0.91124415, 0.67200863, -0.34183475, -0.28807756, -0.60696864, 0.09464311, -0.13915955, -0.23229486, 0.4997258, -0.08305869, 0.07724843, -0.3006243, -0.296681, -0.20331691, -0.69855654, -0.03133984, -0.047396336, -0.441817, -0.09958452, -0.39562792, 0.33743113, 0.47762996, 0.6947611, -0.25997785, -0.24012816, -0.02512296, -0.2721581, -0.49463898, 0.32297817, -0.10388861, -0.37715262, -0.21634007, -0.31947783, -0.18636769, 0.09188854, -0.2956776, 0.24095905, 0.089725204, -0.5543706, -0.1534775, 0.2838802, 0.007996625, 0.5331074, 0.012372337, 0.082538456, -0.076211676, -0.021226496, 0.5301857, 0.18267033, -0.4006482, -0.75822365, -0.4379001, 0.33146176, -0.59892845, 0.08180794, -0.44389403, 0.1534069, 0.6127627, -0.3443203, 0.12540661, -0.0151853785, 0.2561773, -1.1196785, -0.034212694, 0.0787655, 0.5936365, 0.02312561, 0.14638549, -0.24649745, -0.41058284, 0.6602767, -0.23878045, 0.017886508, 0.4976211, 0.248998, -0.002535887, -0.40435007, -0.5221064, -0.48092997, -0.21626438, 0.2563863, -0.40392542, -0.09099929, -0.5459009, 0.9959434, -0.4560513, -0.35350177, -0.39913782, 0.28281742, 0.65844643, -0.6354774, -0.05798305, 0.12558588, -0.79286397, -0.911612, -0.58055377, 0.23641065, -0.40827072, 0.43626583, 0.3626238, 0.31503743, -0.39483672, 0.351006, 0.24100664, 0.13583598, -0.35306665, 0.1944283, -0.23950683, -0.37877172, -0.58436793, 0.47624612, -0.5190161, 0.012672855, 0.606177, -0.067675486, -0.117250904, 0.17286827, -0.42669797, 0.13726898, 0.9228056, -0.32751545, 0.77466726, -0.2113815, 0.25497094, -0.3173898, 0.112080306, 0.047569722, -0.26569176, 0.16741806, -0.31978133, 0.66578615, -1.0824778, -0.4249689, -0.18373008, 0.57048565, -0.043217402, 0.041402247, 0.49633875, 0.057902917, 0.23637879, 0.032888364, 0.33204925, 0.060032435, 0.4018288, 0.14698237, -0.240691, -0.47977304, -0.49542132, -0.13785145, -0.26913178, -0.3113898, -0.3335157, -0.6294458, -0.15134628, -0.22200224, -1.6276547, -0.27039135, 0.49777097, -0.6678053, 0.15344408, 0.24508236, 0.80099374, -0.05245222, 0.14172336, -0.520422, 0.2385711, 0.11223097, 1.0807294, -0.12608221, -0.26314023, -0.08787303, 0.936345, 0.23627238, 0.08452977, -0.3189978, 0.07641842, 0.42048037, 0.19402978, -0.061136127, 0.16174316, -0.2577888, 0.1558872, -0.062910534, 0.48976976, 0.1517381, 0.21060656, 0.44606185, 0.07918146, -0.17904125, -0.17609131, -0.097510196, -0.13037746, -0.44167492, -0.37425184, 0.3191433, -0.05191713, -0.35158357, 0.037597258, 0.25431857, -0.61417353, -0.048706897, -0.0033779405, -0.057569847, -0.117690906, -1.1266432, 0.015044777, 0.15666053, 1.3725069, -0.32107636, -0.20929396, 0.05386348, -0.75445855, -0.047311887, -0.26049158, -0.28026545, 0.054012418, 0.72676754, 0.0019413596, 0.45010045, 0.7516143, -0.10622062, 0.023118485, 0.6266075, -1.0165817, -0.2268314, 0.27318802, -0.27182773, 0.19351338, -1.3620416, 0.14763579, -0.38941747, -0.17304222, -0.22759207, -0.68352526, 0.20696822, -0.32200816, -0.55669904, 0.39670599, 0.15948741, 0.37797457, 0.10694185, 0.928442, 0.016593961, 0.5359546, -0.2755768, -1.0730176, 0.4271202, -0.18339963, -0.3798124, 0.036696117, -0.27684098, -0.21679252, 0.59329927, -0.112614155, -0.37256545, -0.24076262, -0.7024428, 0.16704696, -0.113780096, -0.20489484, -0.49911702, 0.04656227, -0.5367528, 0.39882424, 0.47541463, 0.3197627, -0.31503615, -0.51727, 0.871725, -0.55399805, -0.5119171, 0.029576067, -0.4365036, 0.009516824, -0.1158825, -0.61306906, 0.07278596, -0.020320278, -0.67776495, 0.92595184, -0.7233688, -0.2787908, -0.090469465, -0.13297358, 0.14908636, -0.17195684, 0.018678091, 0.33306485, 0.53243065, -0.16750291, 0.46677268, 0.6132183, 0.4972543, -0.06200369, 0.96492165, -0.093445644, -0.029957708, -1.1992059, 0.18549651, 0.12498255, -0.11995801, 0.074897796, -0.035769403, 0.1846003, -0.21937506, 0.3274856, 0.08905797, -0.08008852, 0.24854931, -0.45655024, -0.7332895, -0.67460287, -0.64209116, -0.48062935, -0.54068035, -0.39719254, -0.77034867, -0.2887604, 0.26503515, -0.02096675, 0.88106996, 0.26178327, 0.24731272, 0.34276935, 0.15555397, -0.2843294, 0.114232086, 0.17771763, -0.09485935, 0.98743725, 0.5912009, 0.09483845, -0.3845673, 0.0043098405, 0.40556595, -0.7628172, -0.08205817, -0.6779652, -0.34833854, -0.08376046, -0.25944602, -0.04108802, 0.16432278, -0.3406861, 0.10132841, 0.25398618, 0.49732777, 0.01878149, -0.44654188, -0.5919266, 0.37533233, 0.3821757, -0.25474086, 0.35869014, -0.22982953, -0.43521142, 1.2359898, -0.06977246, -0.42889637, 0.95481676, -0.061125718, -0.21307969, -0.024801873, 0.5100354, -0.5611073, -0.71908015, -0.10772566, 0.04331362, 0.5201305, 0.121125504, -0.30030462, -0.26514253, -0.2969005, -0.4514475, 0.29360583, -0.083526775, -0.5786369, 0.07898986, 0.27622855, -0.14106525, -0.35380808, 0.09702863, 0.12020779, -0.4343564, 0.38486785, 0.266779, -0.74986404, -0.09048021, 0.07811713, 0.39483842, -0.15386875, 0.088635206, 0.18930821, -0.5124121, -0.06302741, -0.49728292, -0.26764727, -0.24333706, -0.2331986, 0.1049431, 0.147314, 0.18202336, 0.1629261, 0.38976082, 0.26633048, -0.49159873, -0.18408573, -0.061137952, -0.00378901, 0.69504315, -0.1852778, -0.7958852, 0.17018619, -0.3192372, 0.13872693, -0.33451182, -0.19064452, -0.4207685, 0.10601087, 0.07422942, -0.5110998, 0.69244826, -0.013008115, 0.059064843, -0.38726476, -0.25645417, -0.6747028, -0.37942713, 0.17385378, 0.87162906, -0.0375505, 0.3536392, 0.83749574, 0.22809145, 0.041571435, 0.65180135, -0.2859546, -1.1447066, -1.0249989, -0.20774147, 0.058785595, -0.02072528, 0.36356828, 0.23481339, 0.235867, 0.043925315, 0.60022354, -0.25043786, -0.8263006, 0.01633194, -0.34845734, 0.18194447, -0.3709116, -0.21587567, 0.340615, 0.3726156, -0.54228187, 0.31697443, -0.8331554, -0.613061, -0.4031286, 0.32964844, -0.31614083, 0.77862096, -0.20791484, -0.20326895, -0.34667403, -1.0337166, 0.86575854, -0.3444118, -0.418323, 0.07815246, -0.05438471, 0.36641407, 0.5095743, -0.21986005, -0.2906766, -0.061141707, 0.2774352, -0.2069466, -0.16598538, 0.54174566, -0.40018183, -0.3400101, -0.4243285, -0.05516686, -0.71554, -0.19243869, -0.61022633, -0.12728892, 0.34027094, -0.105593555, 0.5820111, -0.6247672, -0.0015423894, 0.23039123, -0.15312836, 0.028294336, 0.2864554, 0.31673396, -0.76993775, -1.1721314, -0.1853369, -0.255018, 0.07686092, 0.029360715, -0.645238, -0.1928204, -0.698422, 0.58314073, 0.33590806, 0.39419624, -0.32960284, -0.4079727, 0.35235634, -0.14307688, 0.052072328, -0.21798794, -0.18635194, 0.28640693, -0.4941822, -0.11100771, 0.13563697, 0.032524213, 0.08917625, -0.27851337, -0.83152986, -0.24921913, 0.14717734, 0.24986278, -0.407215, 0.62624335, 0.41959155, -0.19067112, 0.28083953, 0.048958614, -0.7686865, -0.4467709, 0.1428281, -0.055141047, 1.0467498, -0.08285468, 0.0710119, 0.024105545, -0.10250419, 0.19640326, -0.2651679, 1.453834, 0.3122226, -0.003348004, 0.39467782, 0.013495289, -0.57224655, -0.011636041, 0.8526532, -0.5084667, 0.24481472, 0.8478081, -0.31035322, -0.20872407, -0.026040643, -0.07233451, 0.68846804, 0.37781152, -0.4532252, -0.18969706, 0.02119138, -0.11477899, -0.48959485, 0.18648347, -0.4010131, 0.06300725, -0.20702375, -0.13633022, -0.5913256, -0.30676237, -0.28249392, -0.17277423, 0.12889177, -0.2955454, 0.115689486, -1.1103001, 0.39223024, -0.045461684, -0.33793384, -0.61020136, -0.24652772, 0.03417211, 0.9151843, -0.3639688, -0.046127297, 0.123784505, -0.1353876, -0.49813545, 0.05674209, 0.47143057, 0.64392006, 0.23750666, -0.3703612, 0.44725943, -0.13993081, -0.28510553, -0.19430657, 0.18517177, 0.10307763, 0.25588775, 0.8958021, 0.5144903, -0.23608579, 0.39291745, 0.505783, 0.4649707, 0.1483556, -0.012214499, -0.29741892, -0.09817095, -0.051678035, 0.41971034, -0.079588965, -0.2213245, 0.32398257, -0.16351411, -0.15824737, -0.52274996, -0.19138876, 0.024146285, 0.18398619, 0.76225084, 0.009169726, 0.39907956]</t>
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>일상대화</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[-0.37510443, -0.77338433, 0.59277123, -0.35786262, -0.12521341, -0.5053022, 0.14771359, 0.36545506, 0.15172288, -0.34170738, -0.7584302, -0.11001643, -0.7761047, -0.14770837, -0.091216505, 0.33651796, 0.40692937, -0.10602199, 0.4296074, -0.31994715, 0.30074197, 0.26233426, 0.4478217, 0.7488447, 0.03311114, 0.724925, 0.100861646, -0.22255194, 0.55832213, -0.17033912, -0.50248766, -0.08529184, -0.16063222, 0.01786918, 0.47078702, 0.42612183, -0.4034907, -0.15401983, -0.46814165, -0.14802842, -0.55316335, -0.09327125, -0.030440984, 0.51075155, -0.23175241, -1.0154573, -0.28128478, -0.29746646, 0.15240687, -0.13366096, -0.37161073, 0.17619938, 0.31966114, 0.6136667, -0.34167853, -0.07035042, 0.19830418, -0.233949, 0.8678436, -0.18708174, 0.59204584, 0.15269536, 0.04372346, 0.30872694, 0.71033937, 0.19727068, -0.37264347, 0.17845313, -0.8709523, 0.1798592, 0.5719039, 0.23945518, 0.41772604, -0.21030365, -0.027462825, -0.07659249, -0.5086141, 0.09819295, 0.027806448, 0.4154931, -0.41747797, -0.21563911, -0.023296019, -0.63602084, 0.0051321103, -0.5245644, -0.3833389, -0.06050915, 0.08858224, -0.59241575, -0.6595513, -0.441772, -0.39240113, -0.57498896, -0.22949634, -0.31347805, 0.32650632, 0.49007174, 0.25347254, 0.030807832, -0.10092879, -0.011488055, 0.43192777, 0.19335318, 0.12653123, 0.025908887, -0.27926484, 0.29054862, -0.64218295, -0.12421901, 0.17512171, -0.38610685, 0.36558256, -0.22430398, 0.10085044, -0.062321667, -0.42095506, 0.26882955, 0.04728149, -0.43738928, 0.14961524, -0.640419, -0.19601989, 0.09823525, -0.777114, 0.4873438, 0.5143021, -0.6809106, 0.19589083, -0.5162388, -0.065575, 0.15741664, -0.34594372, -0.06740497, -0.29453778, -0.95818996, 0.49686834, -0.07944491, 0.32469594, 0.4995915, 0.5720058, 0.06476919, -0.26026264, 0.122928835, -0.06594071, 0.2393529, 0.5236207, -0.5659984, -0.018552886, -0.19760096, -0.4444786, 1.0139906, -0.4591814, 0.024405101, -0.11814659, -0.46744958, -0.42088974, -0.21310596, 0.09915123, -0.008695937, -0.3380127, -0.30732659, 0.01952733, -0.37941632, 0.09086134, -0.58585596, 0.442621, -0.021628045, -0.20782925, -0.27857333, 0.09382849, 0.043520067, 0.1454837, -0.2552034, -0.04944955, 0.08372122, -0.61428684, 0.15927498, 0.27231088, 0.09482611, 0.19176002, 0.47118878, 0.4338685, -0.0008991311, -0.21729986, 0.19332416, -0.053922817, 0.25040343, -0.46568874, -0.80948883, 0.8085747, -0.16168962, 0.21634175, -0.39312175, -0.10450208, 0.20010245, -0.09301105, -0.27229288, -0.26737842, 0.28465283, -0.41121635, -0.09206722, 0.3802416, 0.36331454, 0.1987847, -0.10540569, -0.11999928, -0.5532791, 0.3297691, -0.826266, -0.007999902, 0.35240245, 0.608921, 0.10383815, 0.7633849, -0.22604483, -0.60109663, -0.2852002, 0.069794014, -0.16333966, 0.35001993, -0.19164883, 0.66482186, -0.44623283, -0.064963125, -0.7244223, 0.4635042, -0.0453279, -0.028215615, -0.3249371, -0.17570506, -0.26831326, -0.5664702, -0.22579634, -0.27370548, -0.433064, -0.1474035, 0.2774794, 0.28516635, -0.6379616, -0.18738787, 0.3196961, 0.36754382, -0.07168599, -0.08039445, -0.67950994, -0.18834777, -0.93251705, -0.01286972, -0.56695896, 0.30044052, 0.902365, -0.10348794, 0.09003214, 0.41525352, -0.97529197, -0.0769553, 0.37313142, -0.5194629, 0.33168983, -0.038116295, -0.013378288, -0.035069074, -0.13926058, -0.022910252, -0.042985618, 0.31231412, -0.46279275, 0.15894909, -0.4957718, -0.2854394, -0.5776302, 0.47722194, -0.22901951, -0.18858816, 0.15778857, -0.3070511, 0.8964979, 0.57180595, -0.19026566, 1.1278557, 0.8218429, 0.20412123, 0.17467181, 0.07297642, 0.17155933, -0.17605798, -0.07619181, -0.4249868, -0.92174244, 0.3443348, -0.042820204, -0.03103822, -0.33543396, -0.24835984, -0.056135044, -0.4761987, -0.1253383, -0.06940422, -0.7884281, 0.36149082, 0.1896137, -0.50807405, 0.30246606, 0.3439112, 0.2714412, -0.52150685, -0.39900044, -0.44482908, 0.14635576, 0.06889275, -0.6863356, -0.028664023, -0.09910449, 0.20753281, -0.16579966, 0.40862417, -0.49899212, -0.13377215, 0.35018405, -0.37137356, -0.1402177, 0.29603246, 0.0347133, 0.4803815, 0.35442355, 0.34516773, 0.03455786, -0.54485685, 0.27840203, -0.9135814, -1.0595433, 0.4932866, 0.00045303255, 0.025625372, 0.38501772, 0.06317153, -0.69660807, 0.4300879, -0.13498078, 0.33088002, 0.35809174, -0.69313127, 0.32377842, -0.0031241078, 1.6677723, 0.032876786, -0.4391478, 0.2373451, -0.33535135, 0.010237862, 0.3694156, 0.09802142, 0.23179467, 0.15270644, 0.22932069, 0.059282944, 0.5153766, -0.3303882, 0.01235341, 0.19249626, 0.37159014, 0.27669045, -0.041297313, -0.195468, 0.5251556, -1.1397237, 0.5492591, 0.3859731, 0.8751666, 0.3379515, -0.29934627, 0.6261735, -0.283842, -0.24237238, 0.1740073, -0.24201138, 0.563817, 0.09991715, 0.24196504, -0.11122956, 0.77656454, -0.305645, -0.81042725, -0.13914156, -0.5705282, -0.6912649, 0.19339688, -0.31130123, -0.10131993, 0.2135679, 0.45014417, 0.24316365, -0.0009962817, -1.2162571, -0.3137937, -0.6203291, -0.6652344, -0.39891994, -0.20678937, -0.17928374, -0.1726886, 0.13139053, 0.09759361, 0.05199787, 0.09226143, 0.36983022, -0.9750519, 0.09306084, 0.06768314, -1.0852433, -0.27532127, -0.23827338, -0.70945287, 0.047822814, -0.033276573, 0.096903056, 0.07361751, -0.3127185, 0.10078296, 0.23017216, -0.20124896, 0.76965755, -0.02554012, 0.32885632, 0.55390555, -0.6534407, -0.19340022, -0.028138762, 0.3084753, 0.29437602, 0.3028539, -0.2158119, 0.09444953, 0.26948985, -1.0570159, -0.15511565, -0.18233688, -0.26216847, -0.12825435, 0.112373255, 0.5201325, -0.19403125, 0.48828682, -0.56864446, 0.2903507, 0.14584675, -0.30548653, -0.5722957, 0.022078818, -0.58970875, -0.17536084, 0.051804226, -1.0111114, -0.3721834, 0.43508375, 0.7312536, 0.06123114, 0.1036286, -0.28544286, -0.34104788, -0.36517754, -0.5873768, -0.31606078, 0.15442687, 0.7442789, 0.24838202, 0.6472227, -0.13187866, 0.48303422, -0.2890426, -0.26402998, 0.18435906, 0.009280264, 0.23021041, -0.033376675, 0.11255788, -0.32043517, -0.042696808, 0.10325631, 0.07409848, -0.65364856, 0.23090905, -0.44994363, 0.3857018, 0.33637643, -0.40759134, -0.13653155, 0.22667675, -0.23787248, -0.012324152, 0.51588285, -0.24107003, 0.27149546, 0.09981064, -0.5188056, -0.2747369, 0.25603378, -0.20698984, 0.1165809, -0.06499203, -0.007834469, -0.25616333, -0.22764428, 0.13799913, 0.2283045, 0.10308323, 0.25973776, -0.16638461, 0.061374906, -0.6435953, 0.3270299, 0.82291865, 0.056385186, 0.36508486, 0.81371737, -0.13142152, -0.22677314, -0.32164684, 0.28013065, -1.0102303, -0.37811723, 0.31785926, 0.008125648, -0.28021413, 0.172072, 0.45479998, -0.36721084, -0.1606385, 0.34451652, -0.071452074, -0.26228362, -0.107578784, 0.3901938, 0.1223914, 0.4625719, -0.7986539, 0.44816932, -0.71698123, 0.47397402, 0.052875977, -0.45310876, 0.09136777, -0.39150086, -0.2220378, -0.08842797, 0.4506233, 0.322625, -0.53973633, -0.119203925, -0.17241196, -0.78084564, -0.38362202, -0.749708, -0.65037173, -0.4256471, 0.056782033, -0.2843618, -0.45847023, -0.22319375, 0.08754406, 0.92851144, -0.4223598, -0.007999174, -0.25096488, 0.3789316, 0.37777784, 0.2099623, -0.27951297, 0.1225545, 0.53100526, 0.016502907, 0.085320264, 0.041536067, -0.41445938, -0.8592171, -0.3828443, -0.5167667, 0.2145781, -0.35990533, -0.014324685, 0.42726398, 0.028030122, 0.021076223, 0.75461906, 0.22781157, 0.41693902, 0.7413547, -0.13294105, -0.45631263, 0.026379287, -0.13811441, 0.7156529, 0.25990105, -0.489108, -0.47014678, -0.43399858, -0.45896578, 0.028081713, -0.23102987, -0.14916594, 0.8064843, 0.04932648, -0.17300503, -0.4228014, -0.3660785, 0.81941265, -0.36663827, 0.038650565, 0.22808532, 0.26677847, -0.36459914, 0.2480458, 0.041401226, 0.28633413, 0.2826681, -0.53087455, 0.5796949, -0.109419204, 0.9177925, -0.585873, 0.11813545, -0.6971994, 0.6641615, -0.1374126, -0.2722223, 0.07048852, 0.006487856, 0.26397726, -0.13886863, 0.6022301, -0.30040815, 0.3377737, -0.55578166, 0.02590322, -0.5697344, 0.1425538, 0.08314848, 0.035256118, -0.48494613, -0.281583, -0.17346728, -0.0609861, 0.057659466, -0.068683326, -0.51289207, -0.3019134, -0.5748889, -0.2221684, -0.3519226, -0.16945887, 0.29407385, -0.23162712, 0.06240067, 0.38723505, -0.5533016, -0.27807435, 0.4057254, -0.06576263, 0.12784606, 0.2663768, -0.19853686, 0.16394143, -0.24439806, -0.09943286, -0.20142567, -0.26811156, -0.23985517, 0.58125585, 0.33173966, 0.7715427, 0.19334269, -0.20150639, -0.031262796, -0.32932875, -0.00826022, 0.5793806, 0.16168265, -0.0093987435, -0.49124154, -0.36726785, -0.18214174, 0.0101656215, -0.10522167, 0.05530021, 0.5959829, 0.42330393, -0.6803573, 0.13939188, -0.46496907, 0.20034437, 0.32674187, 0.6564996, -0.2001605, 0.23934986, 0.5629564, -0.020358762, 0.04728508, 0.16448699, -0.18537961, 0.24820451, -0.27353275, -0.5955836, -0.41379204, -0.018003002, -0.22017829, -0.28373003, -0.41050175, -0.070509695, 0.047187325, -0.7493929, -0.3480537, -0.3836727, 0.38334045, -0.22284712, -0.0016738772, -0.27507934, -0.14951073, 0.17676288, -0.87244755, 0.12124944, 0.03524938, -0.08199234, -0.20162983, 0.26786768, -0.43647575, 0.019690137, -0.25364226, -0.6995514, -0.0026986871, -0.44972482, -0.14755355, 0.20808749, 0.5338395, 0.31018177, 0.048010748, 0.4704461, 0.20387109, 0.083259396, 0.23881005, -0.5938236, -0.04696245, -0.14122598, 0.26968926, 0.44303036, -0.18759502, 0.17487748, 0.5831438, 0.7118885, 0.24205364, 0.33583984, 0.72938585, 0.24688685, 0.13539846, -0.077942096, -0.32022026, -0.4188535, -0.09441426, 0.5295149, -0.15065923, 0.12552162, -0.06180918, -0.63298017, -0.25043094, 0.15040404, 0.57923514, 0.32683465, -0.6508966]</t>
         </is>
       </c>
     </row>
@@ -484,20 +508,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>물성학의 정의는?</t>
+          <t>누구세요?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>물질의 변형과 흐름에 대한 학문입니다</t>
+          <t>저는 식풀 물성 챗봇입니다.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[-0.43290207, -0.42784932, 0.12969638, -0.036350325, -0.29253113, -0.25891194, 0.30390495, -0.17621514, 0.27435672, -0.6182519, -0.26556528, -0.347217, -0.012066245, 0.119046606, -0.14632143, -0.6143916, 0.22733063, 0.42886913, 0.4025037, -0.5572796, -0.30590895, 0.55641025, 0.56047136, 0.16114993, -0.08926365, 0.29692286, -0.16801345, -0.6793506, 0.05053074, -0.9321481, 0.45767075, 0.60001665, 0.16878079, 0.02105299, 0.25597873, -0.08229784, -0.7624107, 0.09997645, 0.18023713, -0.504487, -0.25605565, -0.25735006, -0.007781398, -0.012820817, 0.19999945, -0.094953574, 0.05930982, 0.1500937, -0.0062878663, 0.025792046, 0.045442156, -0.154863, 0.17369695, 0.57004845, -0.17283575, -0.40054193, 0.362192, -0.33375645, 0.096598, -0.36434975, 0.59543455, -1.0277717, -0.04604551, 0.024971114, 0.40966284, -0.21979997, -0.06507417, 0.10307282, 0.028872695, 0.30062762, 0.15205151, 0.30074793, 0.18014723, -0.6597051, 0.3104285, -0.329682, -0.28279078, 0.09668205, 0.014555974, 0.4466728, 0.62547123, -0.55298096, 0.39619562, -0.3325183, 0.45428377, -0.29114383, 0.10244194, -0.48718724, -0.6191523, -0.22297056, -0.40714014, -0.4195054, 0.05904036, -0.007507271, -0.7436519, -0.69429195, 0.2244418, 0.53459686, 0.1354286, 0.2399435, -0.032264456, 0.22180027, -0.27024704, 0.3855227, 0.32126218, -0.53894585, -0.5549469, 0.58269155, 0.35360992, -0.35550055, 0.38703144, -0.5556128, 0.8903333, -0.20039286, 0.30882838, 0.721901, -0.33163685, 0.007788425, -0.27485365, 0.44795024, 0.32720265, -0.5399524, -0.35487723, 0.22955468, -0.068791784, 0.3244569, 0.13426812, 0.017579297, 0.14512765, -0.1251423, -0.099635534, 0.46561685, 0.6736178, -0.11703309, -0.23272869, -0.09083311, 0.3833528, 0.29461825, 0.90106606, 0.76848704, -0.44056457, -0.15892349, -0.40791622, -0.11059131, -0.3151938, -0.32764065, 0.36223564, -0.24045645, 0.15111744, -0.19812566, -0.11939715, -0.2683046, -0.69823486, -0.10448137, -0.07762918, -0.19914891, -0.007349024, -0.39933762, 0.43133393, 0.40805307, 0.7587467, -0.2836605, -0.3326794, 0.02601789, -0.36270702, -0.51484543, 0.31356686, -0.20943545, -0.58155704, -0.26958916, -0.32359293, -0.12605396, 0.2778971, -0.3408712, 0.20616807, 0.07744475, -0.57403123, -0.10455045, 0.35642183, 0.037812367, 0.44552305, 0.057333007, 0.08655464, 0.0074693244, -0.20744652, 0.48348776, 0.1849559, -0.4605078, -0.96053654, -0.30305687, 0.44989878, -0.71734375, 0.09050495, -0.45653433, 0.16036388, 0.6762617, -0.43370426, 0.18703736, -0.048753142, 0.24016635, -0.9110245, 0.25761983, 0.16559395, 0.64563257, -0.18085808, 0.3800192, -0.12604544, -0.27748138, 0.6349106, -0.21683148, 0.0683961, 0.5945069, 0.11515995, 0.00946128, -0.3825227, -0.3708242, -0.46947968, -0.17162278, 0.3063216, -0.37281543, 0.13772371, -0.4746151, 0.8086522, -0.17095979, -0.4224443, -0.34008446, 0.17963484, 0.65820307, -0.61014557, 0.2255134, 0.20143795, -0.76201266, -1.0224175, -0.5675457, 0.28426388, -0.62785995, 0.31843257, 0.48555982, 0.11090636, -0.39786685, 0.3285042, 0.5148064, 0.07997105, -0.3203674, 0.20060778, -0.38827458, -0.23732986, -0.39967686, 0.5356328, -0.53177494, 0.3052965, 0.46245638, -0.20967278, -0.11880502, 0.24099663, -0.037415605, 0.017103001, 0.88860965, -0.3656364, 0.59266794, -0.22209628, 0.37574628, -0.26506296, -0.024969397, 0.19196826, -0.09877871, 0.10191985, -0.22817728, 0.49540472, -1.0069544, -0.086132035, -0.28797427, 0.5038541, -0.14330313, 0.2022999, 0.5690843, -0.0015983151, 0.40336546, 0.18287939, 0.42293465, 0.17176604, 0.40345028, 0.114239484, -0.08108488, -0.34862912, -0.44666323, -0.07014403, -0.27780193, -0.5168858, -0.25429904, -0.37127665, -0.22816603, -0.22524397, -1.3829364, -0.14714324, 0.4804734, -0.8879862, 0.093475305, 0.054081354, 0.6973983, -0.28948814, 0.29304874, -0.61120725, 0.3501261, 0.112977415, 1.0585988, -0.11721979, -0.31020537, 0.0073121455, 0.7261082, 0.12978442, 0.26435104, -0.28828493, -0.11611904, 0.3519568, -0.043424524, -0.10821896, 0.14504422, -0.28244555, 0.18553059, -0.0039788396, 0.5168272, 0.10064148, 0.24494849, 0.4490368, 0.1400271, -0.36301085, -0.032347746, -0.09455141, -0.15870403, -0.8075159, -0.44364965, 0.3054696, -0.17550321, -0.32128146, 0.013162719, 0.29125836, -0.59578365, -0.08194712, 0.15467831, -0.12809514, -0.18527065, -1.0550545, -0.3675716, 0.13400722, 1.1165148, -0.49286875, -0.28262895, 0.09624982, -0.97396636, 0.05178041, -0.25912872, -0.3056899, -0.004618259, 0.8769968, -0.04675645, 0.39919844, 0.9034225, -0.012609462, 0.020055665, 0.59604776, -0.9779099, -0.2524546, 0.4841751, -0.17935804, 0.333415, -1.4360193, 0.23120607, -0.43744788, -0.25811467, -0.23760557, -0.69295746, 0.18184155, -0.27316722, -0.5669642, 0.1925687, -0.22317556, 0.23428175, 0.19524483, 0.8891593, 0.19348904, 0.44045502, -0.45522213, -0.96074826, 0.48963726, -0.13363658, -0.40070632, -0.028867457, -0.1791736, -0.2710651, 0.6843278, -0.2295369, -0.5119846, -0.15426861, -0.59301597, 0.19471247, 0.23254745, -0.16928671, -0.40707615, -0.029094385, -0.42194828, 0.4943275, 0.38914046, 0.2467764, -0.23392272, -0.4904861, 0.7434592, -0.27994204, -0.5826253, 0.007292274, -0.46743786, -0.1378631, -0.1549387, -0.47303036, 0.046543572, -0.023003016, -0.67579854, 0.67611206, -0.59879977, -0.42262897, -0.195665, -0.28720737, 0.39785668, -0.37394226, -0.12173806, 0.34565726, 0.51561064, -0.0022718725, 0.44945398, 0.71063447, 0.42159507, -0.20477492, 0.85096526, -0.066608824, -0.005349751, -1.0288128, 0.20440109, 0.18800096, 0.039157737, -0.053177845, -0.054883055, 0.14704557, -0.22006665, 0.39334524, 0.050248437, -0.0088524595, 0.15131259, -0.0656933, -0.88772345, -0.6589534, -0.7583401, -0.4647919, -0.716537, -0.2776643, -0.6312276, -0.17110865, 0.13312732, -0.0015462753, 0.9256559, 0.22936964, 0.010039393, 0.44401988, 0.15553287, -0.3794206, 0.18184656, 0.07324811, -0.02242274, 0.7869351, 0.5472518, 0.22198372, -0.13208541, 0.119847775, 0.4324211, -0.6829267, -0.041996703, -0.78400546, -0.42645445, -0.18835092, -0.264548, -0.079504095, 0.33131012, -0.2002461, 0.15235871, 0.30081293, 0.66348225, -0.1409719, -0.3279549, -0.5544491, 0.58480144, 0.46721384, -0.33781943, 0.4215685, -0.29106253, -0.47974527, 1.01294, -0.18094155, -0.4041676, 0.9591305, -0.2269037, -0.056583125, 0.03411951, 0.5339967, -0.75861186, -0.4527094, -0.21309617, 0.0223523, 0.40217254, 0.063527994, -0.36139542, -0.18184613, -0.1203842, -0.50812435, 0.12904572, -0.21404588, -0.5579511, 0.054140046, 0.4574407, -0.4638851, -0.32359686, 0.2334022, 0.37319887, -0.6291746, 0.56361127, 0.6610157, -0.48833096, 0.08388349, 0.097623736, 0.4365007, -0.100305766, -0.02270759, 0.012477353, -0.6407242, -0.060321067, -0.37560335, -0.37908697, -0.22412236, -0.232784, 0.00842587, 0.07773807, 0.07659536, 0.04687261, 0.31108844, 0.28843316, -0.45812953, 0.022363495, -0.23783138, -0.02377228, 0.49626935, -0.29270798, -0.5601152, -0.005578965, -0.38146618, 0.05231499, -0.28912762, -0.20376211, -0.21636185, -0.0016187956, 0.15712772, -0.61384475, 0.68629235, -0.21054567, 0.046554375, -0.37451813, -0.17254442, -0.6329414, -0.17229304, 0.16652891, 0.82531375, 0.14874129, 0.3000901, 0.6284681, 0.46419537, 0.0647177, 0.5141663, -0.46980244, -1.0084252, -1.1445208, -0.38149074, -0.078664094, -0.13175055, 0.39377752, 0.3244225, 0.32185575, -0.04755841, 0.8699589, -0.23028257, -0.9308544, 0.022382881, -0.14758904, 0.26019615, -0.31781524, 0.03560904, 0.08589658, 0.4645248, -0.70255524, 0.12569638, -0.71238446, -0.8500984, -0.60137486, 0.3987871, -0.35871893, 0.6408105, -0.09901283, -0.22670129, -0.4021825, -0.8981887, 0.68205804, -0.19256881, -0.33236706, 0.2851413, -0.05991833, 0.2832146, 0.4301044, -0.32429424, -0.33710343, -0.23839988, 0.2742096, 0.016662197, -0.09914532, 0.4891643, -0.37006855, -0.4187835, -0.48551443, -0.22607844, -0.87761194, -0.16629499, -0.27890274, 0.09705401, 0.22367471, -0.16786626, 0.40392527, -0.7080573, -0.20120293, 0.26778165, -0.048764177, -0.19502099, 0.3507065, 0.39092582, -0.85959584, -0.9711695, -0.07210339, -0.27803516, 0.060880993, -0.041530736, -0.4557556, -0.2128305, -0.6016763, 0.46112496, 0.5255867, 0.42740005, -0.2857652, -0.5800371, 0.45947, -0.12193293, -0.002163218, -0.31698325, -0.04306373, 0.30714682, -0.47184986, -0.093944564, 0.088001624, 0.0865644, -0.055711534, -0.19165066, -0.5693209, -0.2203284, -0.14188106, 0.22752121, -0.30866206, 0.6782694, 0.49249113, -0.13218795, 0.24532908, 0.22146036, -0.6828415, -0.5986172, 0.22750251, -0.09762775, 1.0509119, 0.030844944, 0.27603543, 0.10227136, -0.043229982, 0.050323524, -0.29015636, 1.3835034, 0.22110969, 0.029717658, 0.47957584, 0.010934462, -0.4758801, 0.09770043, 0.64300674, -0.32752195, 0.28339368, 0.7699989, -0.2560028, -0.16448864, -0.18432675, -0.07234033, 0.5921261, 0.3879817, -0.5067331, -0.023237577, -0.15227503, -0.010669423, -0.43094233, 0.29556867, -0.44567972, -0.10934262, -0.3409679, -0.008945897, -0.66542685, -0.19555531, -0.3548343, -0.23474294, 0.15635724, -0.33032334, -0.0053721154, -0.92344826, 0.47055224, -0.2934595, -0.42722476, -0.52554196, -0.41308126, -0.020418394, 1.1855857, -0.1504957, 0.04986252, 0.19360724, -0.066610485, -0.62423587, 0.18265887, 0.4797989, 0.6728083, 0.0723479, -0.37064195, 0.55551994, -0.10478655, -0.4099667, -0.22450678, 0.12132716, -0.027211707, 0.39825368, 1.0340123, 0.4803238, -0.2433122, 0.56003255, 0.4771488, 0.24834411, 0.19329555, -0.010620453, -0.3303146, -0.20347527, -0.0046562064, 0.4496327, -0.03315157, -0.23576826, 0.40688854, 0.03315058, -0.17737845, -0.2498284, -0.21154507, -0.009418149, 0.25766182, 0.72957253, 0.13811994, 0.17474663]</t>
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>이론</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[0.0069260662, -1.0377825, 0.34661636, -0.21079275, 0.15136698, -0.56473076, 0.048994824, 0.30708447, 0.5464368, -0.64985406, -0.37713838, -0.6242519, -0.47166067, 0.32355767, -0.13263325, 0.37605485, -0.074903786, -0.2668693, 0.31864005, -0.40845174, 0.26535946, 0.15519747, 0.55910265, 0.58558375, -0.08368154, 0.5919824, -0.15135178, -0.24649271, 0.38890642, 0.094615296, -0.6547527, 0.0047285645, -0.1416299, 0.03785702, 0.57862145, 0.2739718, -0.74532366, -0.2166328, -0.40402466, -0.22597441, -0.42869505, -0.23112774, -0.044341173, 0.3707747, -0.118515514, -0.79657817, -0.36768135, -0.32480043, -0.09737879, 0.123070225, -0.44577652, 0.27372998, 0.3436697, 0.3652227, -0.37036854, -0.57318217, 0.28701845, -0.634615, 0.69383264, 0.08891691, 0.53022546, -0.2668091, 0.08931477, 0.39632294, 0.5505844, 0.23864183, -0.27508774, 0.060107745, -0.74393827, 0.7840836, 0.07055394, 0.2618056, 0.44408196, -0.38316092, 0.19830205, -0.38514048, -0.2932717, 0.165961, 0.47479114, 0.45311365, -0.50414836, 0.019687384, 0.24715629, -0.5947073, 0.21998353, -0.27757964, -0.41467825, -0.09208157, -0.21923251, -0.23178963, -0.7264004, -0.12375084, -0.0715815, -0.60273993, -0.17838539, -0.27502546, 0.29387024, 0.19159156, 0.18781418, 0.22617236, -0.33700246, -0.08995031, 0.23451734, 0.18858984, 0.31703913, -0.16981213, -0.25073478, 0.15938923, -0.6383174, -0.043205064, 0.52600616, -0.63565767, 0.051988564, 0.020000344, 0.2558649, -0.36572045, -0.20158303, 0.18852922, 0.11107929, -0.2576202, -0.016558092, -0.62868726, -0.0837296, 0.3442882, -0.24119163, 0.58811176, 0.5562434, -0.5475702, -0.35904092, -0.1225435, 0.13755755, 0.025548074, -0.25563258, 0.05457024, -0.4151341, -0.53421414, 0.252803, -0.4911223, 0.52537024, 0.62575257, 0.9439432, -0.16910101, -0.22502944, 0.19420728, -0.048430756, 0.22033508, 0.5732985, -0.36786017, 0.2754046, -0.27226406, -0.19219205, 0.5866418, -0.08845776, -0.0071794568, 0.24847424, -0.7875978, -0.5543607, -0.24012896, -0.030328363, 0.26548308, -0.32702228, 0.2276895, 0.077786975, -0.7336954, -0.032483503, -0.31457537, 0.6473452, -0.33212212, 0.13037303, -0.054022886, 0.26834607, -0.24144685, -0.027852377, -0.1543489, -0.29126924, 0.27530235, -0.51976717, 0.11055656, 0.29742834, 0.065818034, 0.15823826, 0.5120155, 0.1384227, 0.20383401, -0.021010783, 0.32661566, 0.09546295, 0.13734464, -0.6575222, -1.1258043, 0.45730096, 0.05120628, 0.3182799, -0.22829208, 0.037096016, 0.15623052, -0.39782456, -0.40597516, -0.07162027, 0.08897209, -0.56946725, -0.37466866, 0.25819135, 0.38326257, 0.14382029, -0.13315156, -0.07539022, -0.2089221, 0.34506172, -0.77713656, 0.26413262, 0.31115022, 0.18175915, 0.25765, 0.3343085, -0.13578162, -0.6142498, -0.10234509, 0.13299288, -0.2371943, 0.44319063, -0.49719208, 0.39134583, -0.5512296, -0.09327326, -0.48668194, 0.34153628, -0.21101165, -0.05191835, -0.107394025, -0.05177746, -0.48764792, -0.11372773, -0.35664943, -0.18699083, -0.19885154, -0.21780808, 0.34940138, 0.3539748, -0.5903094, 0.19477472, 0.20602293, -0.0048807086, -0.11245078, -0.17320497, -0.71410197, -0.50431734, -0.4734528, 0.36399224, -0.33790603, 0.20850515, 0.8367504, -0.06436737, 0.21628852, 0.09949637, -0.9322931, -0.019687403, 0.5087696, -0.6102505, -0.08286394, -0.018909425, 0.20551679, 0.028940309, 0.10310843, -0.28365663, -0.3329146, 0.2248939, -0.4064146, 0.2360522, -0.40033883, -0.42517462, -0.22611639, 0.3923294, -0.21394551, 0.19223814, 0.106077686, 0.13544509, 0.38116625, 0.6134248, 0.25112414, 0.5106533, 0.6804428, 0.1938694, 0.05583909, 0.2372679, -0.008450156, -0.18927462, -0.34585342, -0.15760328, -1.3493395, 0.22107148, -0.021658123, -0.16039476, -0.42299372, -0.08820493, -0.08421993, -0.21482888, 0.0053828745, 0.29542536, -0.17791763, 0.03207116, 0.4624291, -0.18256432, -0.15798049, 0.11355324, 0.5192931, -0.525525, -0.37278533, -0.7299995, 0.58314604, 0.41378516, -0.0728222, 0.17692187, -0.23846753, 0.18019268, -0.27829993, 0.36108536, 0.10628555, 0.21634082, 0.20922223, -0.89230424, -0.20604798, -0.14365986, 0.1903384, 0.34961367, 0.5342169, -0.117265664, 0.1612446, -0.69795567, 0.2957851, -0.5263926, -0.9781796, 0.3548011, -0.10837978, -0.040155172, 0.089039326, 0.13220677, -0.64472455, 0.658219, -0.11547824, 0.11126347, 0.37478843, -0.45306617, 0.31757423, 0.11965217, 2.2091413, 0.3288129, -0.25065508, 0.66272575, -0.62950075, -0.1342983, -0.2780158, 0.0047617345, -0.0074845217, 0.23092496, 0.43046647, 0.07087837, 0.99047786, -0.43074828, 0.009662896, 0.00047203302, -0.35856622, 0.39787036, -0.11879738, -0.47055346, 0.6845074, -0.87836874, 0.37937596, 0.21932018, 1.075046, 0.16480947, -0.08652554, 0.56315225, -0.33297974, -0.5930533, 0.3373703, -0.34251037, 0.40712324, 0.08567335, 0.18753603, 0.07674598, 0.768791, -0.2902166, -0.56779605, -0.15201533, -0.42318907, -0.26421797, 0.35725152, -0.2221967, -0.19379711, 0.122693375, 0.31275082, 0.30493513, -0.18427327, -0.9500371, -0.04751132, -0.6544624, -0.73560846, 0.012366303, -0.5929983, -0.08738677, 0.29185674, 0.064541675, 0.2377131, 0.22773859, 0.05740968, 0.7204146, -0.69849473, 0.13156886, -0.2433652, -1.1241938, -0.01021204, -0.53840905, -0.6156773, 0.20776275, -0.16237, 0.34822527, -0.010135603, -0.27409294, -0.12792444, 0.2793134, -0.38199192, 0.5959629, -0.49247622, 0.30650747, 0.50972474, -0.8663098, -0.26808426, -0.2299598, 0.6792513, 0.43635935, 0.47458214, -0.07482193, 0.0326187, -0.11463646, -0.98646945, -0.08938531, -0.22321638, -0.05966891, 0.09671372, 0.20171893, 0.09043815, -0.017207002, 0.5210346, -0.33667627, 0.21013467, 0.5197519, -0.039069243, -0.42413387, -0.20166159, -0.2675597, -0.6690643, -0.3229456, -0.77998817, -0.6729771, 0.05299636, 0.43271455, -0.32574958, 0.35247886, 0.042410843, -0.37514645, -0.5900424, -0.4107092, -0.35752207, 0.36967558, 0.2512277, 0.51867783, 0.12830111, -0.40554014, 0.17382059, -0.5041763, -0.3232541, 0.07089198, -0.07619533, 0.3874404, -0.18082303, -0.009758411, -0.28911328, -0.15673578, 0.17274621, -0.09383794, -0.69614494, 0.031175505, -0.47646713, 0.22033879, 0.0013760924, -0.41960636, 0.05347665, 0.23826675, -0.09190643, -0.17188601, 0.4883701, -0.2889905, 0.21960878, 0.54788196, -0.35109, -0.17213428, 0.15202278, -0.22844267, 0.018886238, -0.061599392, -0.14996287, -0.4709366, -0.339644, -0.03895407, -0.026046833, -0.28498438, 0.34254915, -0.39482468, 0.09518311, -0.47019386, 0.49390537, 0.69095, -0.04296486, 0.037255514, 1.0863547, -0.26201886, -0.15039301, -0.4630602, 0.13792339, -0.7281951, -0.4296475, 0.17120466, 0.023581196, -0.12861623, 0.21487239, 0.049399827, -0.41860056, 0.05496194, 0.37034696, 0.18102124, 0.16012898, 0.25358623, 0.59626627, -0.2602031, 0.042936075, -0.45901412, 0.508148, -0.10331519, 0.13395554, 0.33454558, -0.4952641, 0.4349503, -0.094254985, -0.120965935, 0.013920355, 0.30532438, 0.40540877, -0.057660766, -0.35257864, -0.11234599, -0.44280672, -0.38856712, -0.7473208, -0.55233866, -0.27060774, -0.57715213, -0.6471969, -0.68688077, -0.021778626, 0.068991, 0.6274809, -0.45377627, -0.26281148, -0.4450082, 0.12629798, 0.8452587, 0.3129714, 0.040637575, 0.26488414, 0.27012998, -0.08148963, -0.2503351, 0.29823363, -0.61735797, -0.6322118, -0.5250624, -0.3762962, 0.3626182, -0.33528662, -0.026309863, 0.5194236, 0.22763896, 0.18169238, 0.7214428, 0.25144944, 0.2361886, 0.8635937, -0.33050886, -0.35634986, -0.032600276, 0.30579266, 0.94209015, 0.45325842, -0.62864286, -0.27150923, -0.104606606, -0.26335502, 0.24678496, -0.078137144, -0.0568374, 0.5304171, 0.24853115, -0.052585077, -0.16018716, -0.6396109, 0.82351226, -0.18431748, -0.49703115, 0.554775, 0.2538899, -0.33747798, -0.22008947, -0.14434758, 0.6630708, 0.01057297, -0.3392601, 0.30024529, -0.44669908, 0.749347, -0.13642144, -0.077945605, -0.8519122, 0.39954132, -0.08721579, -0.0507916, 0.10880474, -0.33273992, 0.21739626, 0.2503734, 0.51684684, -0.3522517, 0.11225482, -0.9764581, -0.55140793, -0.46699563, 0.3897342, 0.4432199, 0.0003400095, -0.69887096, -0.42402464, -0.049470343, -0.30033022, 0.31354478, 0.08421938, -0.7038407, -0.2696873, -0.1059276, -0.39282244, -0.12540315, -0.4966832, 0.29993817, -0.33229938, 0.13724363, 0.14423259, -0.44010687, -0.4585824, 0.05831592, 0.053200413, -0.026261479, -0.05090285, -0.17034367, 0.46168727, -0.33130497, -0.55757535, -0.2207568, -0.24498074, -0.22919789, 0.75073284, 0.038396664, 0.57667017, 0.07502479, 0.084939405, 0.17572957, -0.6241461, 0.03502981, 0.6158358, -0.18639112, -0.11756573, -0.348614, -0.149986, -0.22745457, -0.2820639, 0.3002327, -0.35117775, 0.7818483, 0.28928518, -0.4018859, 0.3554967, -0.056425966, 0.08333322, 0.36984223, 0.64400226, -0.4116313, 0.37743527, 0.6539266, 0.096444145, -0.17701739, 0.06230268, -0.33976045, 0.59691346, -0.2346274, -0.18610904, -0.38317055, 0.2216502, 0.01193738, -0.39911467, -0.85094035, 0.39217028, -0.13016894, -0.40900755, 0.09061978, -0.8440369, -0.15700445, 0.11823809, -0.34816286, -0.1324677, 0.3722493, 0.040114284, -0.61591196, -0.0033331276, -0.23193061, -0.03189969, -0.5631303, -0.15704066, -0.53678334, -0.14975548, -0.117574334, -0.98560745, 0.2070978, -0.66344434, -0.21374798, -0.07089194, 0.04212887, 0.5291308, 0.1395256, 0.30981222, 0.5690006, -0.06882853, 0.5287659, -0.46929517, -0.09891032, 0.11669961, 0.05089764, 0.25139695, -0.037001025, 0.66736615, 0.38895553, 0.6029008, 0.20396432, 0.3483224, 0.39480546, 0.12423301, -0.04320416, -0.25490052, -0.4839708, -0.6911961, 0.039039787, 0.43283138, -0.2270989, 0.15743901, -0.04415568, -0.38191146, -0.102394916, -0.009414038, 0.77235824, 0.37785164, -0.57468575]</t>
         </is>
       </c>
     </row>
@@ -507,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rheology의 정의는?</t>
+          <t>물성학이란?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -516,11 +549,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[-0.54886514, -0.0897772, 0.5265508, -0.08862519, -0.30825147, 0.17130154, 0.102592774, 0.14487338, 0.16520096, -0.3326659, -0.045089863, -0.5436663, -0.19109675, -0.5067798, -0.5381097, -0.31539014, 0.5391884, 0.049459264, 0.38020384, -0.20494564, -0.83143246, 0.47647178, 0.22353591, -0.45117098, -0.12465068, -0.031524662, -0.19517934, 0.0617167, 0.35674846, -0.10128213, -0.21944553, 0.6290164, 0.014569691, -0.058545515, 0.5196932, 0.094826266, -0.6822353, -0.32391044, 0.50106275, -1.0104401, -0.3334529, -0.50545615, 0.04470699, 0.32214424, -0.03531535, -0.3833461, -0.3746439, -0.1442716, 0.13795431, -0.15803188, -0.0032834809, 0.061901134, 0.65595, 0.6357458, 0.770262, -0.5050089, 0.5065915, -1.0790122, -0.070520654, -0.14413449, 0.12872316, -0.65379214, -0.42862475, 0.24515183, 0.12144579, -0.044400595, -0.13762638, 0.18672314, -0.31883138, 0.66441715, 0.54484373, 0.1529364, 0.041775115, -0.18744758, -0.09757748, -0.41018304, 0.30932185, 0.04461591, 0.3154026, 0.21868569, -0.02971827, -0.11634559, -0.3844283, -0.34137923, -0.39304435, 0.6802809, 0.03151929, -0.3127177, -0.5662024, -0.09433764, -0.88406616, -0.65122694, -0.26750025, -0.13366911, -0.6236295, -0.765901, 0.55324244, -0.010141169, 0.5108754, -0.17557232, 0.37828958, 0.22362846, 0.2572191, 0.59254843, -0.39018324, 0.32756203, -0.40923446, 0.14033881, -0.44665438, -0.58659726, 0.8121655, -0.3565719, 0.32977185, -0.26567268, 0.17538504, 0.8903126, -0.51702, -0.43257937, -0.5749776, -0.20499922, 0.072096266, -0.19349511, -0.47240987, 0.9189858, -0.6181112, 0.51488, 0.46266297, -0.701546, 0.63129497, -0.06693827, 0.03458052, -0.7391476, 0.6673424, -0.2988322, -0.17805454, 0.029094914, -0.040091533, -0.061570246, 0.6292764, 0.51709706, -0.045650974, 0.022788009, 0.3900676, -0.16930251, 0.44873115, -0.17750692, 0.12239288, -0.6741376, -0.5024028, -0.21477664, -0.56378675, 0.19575666, -0.37958145, 0.6184284, -0.032846443, 0.006094334, 0.41331196, -0.4922465, -0.055213325, -0.28956705, -0.21473815, -0.3704498, 0.71468747, 0.24972256, 0.15034929, 0.19306575, 0.24757855, 0.1516698, -0.8806669, -0.839465, -0.24359734, 0.040928088, -0.5750401, -0.24226697, -0.23001266, 0.67857295, 0.40312994, -0.07833791, 0.23093922, 0.19259718, -0.15171774, 0.09416492, 0.092764765, 0.18065423, 0.20714748, 0.3350115, 0.14735071, -0.1392363, -0.21273988, -0.12195304, 0.010099671, -0.09386054, 0.51330435, -0.47867882, 0.15767413, 0.79129106, 0.1507475, -0.601799, -0.19135273, 0.07398371, -0.85696507, 0.6023283, 0.7055052, 0.7078045, -0.56093633, 0.60833097, 0.2960406, -0.36040938, 0.1372551, -0.7839426, -0.8642971, 0.5646282, 0.31479785, 0.5671718, -0.47490564, 1.0371782, -0.6064229, 0.018686892, -0.016798185, -0.17649081, 0.57300264, -0.2427249, 0.75017834, 0.14107054, -0.6436249, -0.04293802, 0.12762873, 0.28389868, 0.12942167, 0.36120054, 0.04731295, -0.33002388, -0.084742256, -0.21541215, 0.74252146, -0.2808896, 0.20774505, 0.16919893, 0.45346573, -0.6203242, -0.2881582, 0.9508972, 0.586159, -0.4855203, 0.22537354, 0.058790114, 0.046069972, -0.59474486, 0.60489804, -0.99246174, 0.5499226, 1.0575883, -0.883754, -0.36357045, 0.2031445, -0.10639109, -0.9993215, 0.9245784, -0.09500524, 0.09736957, -0.48782286, 0.48632902, -0.07489445, -0.36509955, -0.22003488, 0.6736627, 0.19117935, -0.609835, 0.4458343, -0.2993999, -0.110297255, -0.2618017, 0.24424314, 0.062129293, 0.29254562, 0.27833706, -0.36760968, -0.19970542, 0.07986274, 0.3716437, 0.41413462, 0.2721634, 0.71327066, 0.066262156, -0.02062081, 0.3558222, 0.64826274, 0.05198613, 0.39322093, -0.7553264, 0.32895443, -0.23082441, -0.2559647, -1.6046233, -0.3269077, 0.8403632, -0.6330425, -0.095037624, -0.21415155, 0.0649835, -0.7906222, 0.6379156, -0.39381832, 0.25729162, -0.010285098, 0.46809372, -0.42677093, -0.18620896, 0.40318716, 0.8579287, 0.09277156, -0.20742722, -0.1830266, -0.32801762, -0.086800724, -0.32630485, -0.15329045, -0.45585382, -0.42166138, -0.05383906, -0.017496852, 0.16732518, 0.5556786, 0.5934918, 0.5305747, -0.21985483, -0.17024474, 0.09557187, -0.4447003, -0.3240167, -0.24362043, -0.71945924, 0.84546876, -0.023764333, -0.25859347, -0.40064055, -0.031911988, -0.22367668, 0.22655576, 0.16487391, 0.13292922, -0.22781402, -0.49972555, -0.11289888, 0.14155968, 0.7949946, -0.36958635, 0.12532504, 0.022851791, -0.71953493, 0.030091695, -0.19694225, -0.268575, 0.43148398, 0.6744262, 0.36925277, 0.69192666, 0.5862715, -0.18013056, 0.096881956, 0.5941414, -0.3880706, 0.048682794, 0.18143375, -0.012134287, -0.38691574, -0.34827498, 0.7123049, -0.2933972, -0.077741906, -0.23895216, -0.07886516, -0.07872228, -0.7088571, -0.2192175, -0.12316365, -0.32864872, -0.2824696, -0.025360547, -0.56353635, 0.80074334, 0.5913823, -0.043372888, -0.5598174, 0.5332837, -0.5390356, -0.42681488, -0.18875761, -0.15225607, -0.158015, -0.06688607, -0.5430069, -0.20251036, -0.039430365, -0.44750798, -0.32278526, 0.12167614, 0.033449367, -0.3190571, -0.67879415, 0.41417646, 0.035199616, 0.5954639, 0.16136469, -0.5568233, 0.44510174, 0.70565593, -0.20605598, 0.0097977985, -0.17182322, -0.48504987, 0.10560351, -1.1551499, -0.59443766, -0.34774953, 0.043415077, 0.33353794, 0.51605654, 0.31620383, -0.36933112, 0.0038284378, 0.29964456, 0.18821236, 0.2016871, -0.1470722, 0.18316308, -0.13480528, 0.27822173, 0.33206585, 0.5549106, -0.0041578105, 0.57005, 0.42238325, -0.78209674, 0.71100956, -0.7484448, -0.15246288, 0.23656283, -0.4802272, 0.22441323, 0.24581872, -0.096694514, 0.56532323, 0.0826449, -0.82173514, -0.41738704, 0.19607858, -0.3516115, -0.9895363, -0.13977297, -0.3405763, -0.8775291, -0.08678969, -0.062790886, -0.02201929, 0.012258728, 0.55088305, 0.22168285, -0.18122521, 0.4720565, -0.3550061, -0.20064668, -0.044067398, -0.8695596, -0.060952518, 0.6757787, -0.06598804, -0.1165186, -0.62196195, 0.3565203, -0.26057634, -0.08920508, 0.17470077, -0.03882402, 0.43799204, -0.28869358, 0.09842846, 0.1688518, -0.019312732, 0.47284925, -0.098750435, -0.29016596, 0.83636385, -0.12742388, 1.0865695, -0.23405822, -0.60440713, 0.08074299, 0.572802, 0.4327391, -0.42803082, 0.07248697, 0.4550403, -0.22215874, 0.1616182, 0.35647658, -0.6100882, 0.80237466, -0.31398946, 0.7498136, 0.3470718, -0.3505057, -0.59463406, -0.168825, -0.08181667, -0.20077467, 0.054183517, -0.48866653, -0.54704964, 0.4125039, 0.14470457, -0.46399656, 0.5087151, -0.02920165, -0.24202459, 0.664843, -0.38672638, 0.10203746, -0.23895764, 0.07507025, -0.19670469, -0.28688562, -0.092374876, 0.367172, 8.311537e-05, 0.12675628, 0.011493463, 0.01384319, -0.18519297, -0.008313353, 0.8019154, -0.33167392, 0.19889933, 0.026709931, 0.5100516, -0.35069236, -0.2075972, 0.3742804, -0.12970679, 0.41535082, -0.3315242, -0.6330792, 0.45680395, -0.155707, -0.7271855, 0.4417548, -0.09176168, 0.46686262, -0.37333146, -0.103568494, -0.58701754, -0.19039355, -0.8226482, -0.4304355, 0.008137492, -0.29080474, -0.3519308, -0.0008568524, -0.5590755, -0.06173941, -0.28418243, 0.24481566, -0.44078887, -0.20986307, -0.12742679, 0.12458042, -0.2981007, 0.55126786, 0.5919316, 0.52701783, -0.19588923, 0.17564522, 0.09236833, -0.2341121, -0.12922294, -0.6973576, -0.7898229, -0.22297658, 0.31584752, -0.367831, 0.6715463, -0.52508146, -0.13020784, -0.91634464, 0.22795826, -0.029978748, -0.08251167, 0.09303149, 0.026688065, -0.08966067, -0.67319894, -0.40634117, 0.5434997, 0.05174033, -0.2639744, -1.043621, -0.487517, -0.10106328, -0.26600862, 0.21711206, -0.0015464856, 0.55778337, -0.09962952, -0.43592703, -0.5910337, -0.45167583, 0.5973091, -0.3230897, -0.4172757, 0.3454168, -0.1328888, -0.21078926, 0.60170376, 0.22260812, -0.27670023, 0.39815295, 0.06495854, 0.10047441, 0.47192138, 0.40228507, -0.75395626, 0.07353452, -0.22960912, -0.13788766, -0.35040125, -0.07686179, 0.22646935, -0.032118812, -0.17114301, 0.12227086, -0.1696111, -0.52028143, 0.69688845, 0.10583654, 0.0022592975, -0.44148958, 0.008012973, 0.06085904, -0.25700578, -0.91250443, 0.14074565, 0.06576594, -0.15274717, -0.1976303, -0.055637915, -0.61094445, -0.29566184, -0.6698838, 0.11154473, 0.24091768, -0.18885161, -0.58836436, 0.21045215, -0.45435148, 0.22213036, -0.13015905, -0.414773, 0.079025425, -0.18156864, 0.13194187, 0.048515406, 0.0005600883, 0.42513365, -0.755474, -0.1876222, -0.5008262, -0.6115937, 0.14166671, 0.10950824, 0.36012852, 0.2547375, -0.3606788, -0.20960964, -0.12585643, -0.31968725, -0.27288267, 0.7808398, -0.071082026, 0.62313473, 0.40707752, -0.040255383, -0.28386343, -0.06852769, 0.28412235, -0.31447375, 0.7546739, -0.12620263, -0.58623576, 0.18694721, 0.055632446, -0.3667773, 0.18635234, -0.21455011, -0.13748749, -0.014903471, 1.3462404, -0.2261219, -0.038421616, -0.1291763, -0.08641249, -0.086520895, 0.27008235, -1.0754074, -0.28941792, 0.48396778, -0.41519827, 0.28961614, -0.0778384, -0.5832348, 0.090525165, 0.17513683, 0.08229648, -0.3272412, 0.30011743, -0.012133815, -0.32936117, 0.063786924, -0.2176256, 0.4735514, -0.98297715, -0.09722345, -0.14776227, -0.5199956, -0.8357732, 0.10360585, -0.6482761, 0.2021396, -0.17157836, 0.58714944, 0.6832272, 0.43751806, -0.29247454, 0.23358996, 0.37040746, -0.09400924, 0.27019155, 0.014646611, 0.29948536, 0.1371271, -0.7560902, -0.07843337, 0.28801495, -0.5957508, -0.44926542, 0.010530595, 0.45621362, -0.42165896, -0.07645219, 0.2021015, 0.47313437, 0.5959906, 0.09457268, -0.6536734, 0.50121456, -0.2827701, 0.09095587, -0.5221433, 0.05244769, 0.31605586, 0.35869297, -0.06575037, 0.17909066, -0.41820922, 0.033504926, 0.16894704, 0.10804321, 0.14675708, -0.29897872]</t>
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>측정</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[-0.27483538, -0.5575143, 0.06729993, -0.25729096, -0.37879044, -0.25989318, 0.51276684, -0.39009064, 0.2441032, -0.4347509, -0.14311238, -0.40028885, 0.10875955, -0.101591654, -0.019869378, -0.5442782, 0.26708648, 0.4117826, 0.5377715, -0.65011996, -0.07935464, 0.6796493, 0.5098974, 0.37957674, -0.04267495, 0.35614383, -0.16924235, -0.7143584, 0.052989848, -0.7714808, 0.43939206, 0.540224, 0.29870453, 0.25823873, 0.40500945, -0.07692395, -0.9237441, 0.2734716, 0.38063288, -0.59752727, -0.23595297, -0.324145, -0.0030246843, -0.014060937, 0.09672947, -0.036236465, 0.09316886, 0.048288785, -0.1270541, 0.24317084, -0.26086962, 0.10934377, 0.339069, 0.74098665, -0.064542085, -0.16465484, 0.08122274, -0.3284533, 0.18623683, -0.33401057, 0.6256417, -0.9806358, 0.024374295, 0.28707647, 0.44654593, -0.09190036, -0.31688452, 0.22035936, -0.055647574, 0.32023248, 0.14646398, 0.17098856, 0.077906474, -0.59676135, 0.054402538, -0.20361139, -0.38084203, 0.10568021, 0.0016905256, 0.70662904, 0.32742923, -0.586897, 0.37734592, -0.18265411, 0.31666344, -0.29018134, 0.079242304, -0.4852523, -0.71182024, -0.4121049, -0.42944935, -0.33534053, 0.120308585, -0.003058724, -0.77547413, -0.59131205, 0.22485873, 0.49712357, 0.28815994, 0.2387969, 0.18351163, 0.019513492, -0.16715395, 0.35861495, 0.38676453, -0.40670145, -0.61134064, 0.6089525, 0.4246364, -0.43221536, 0.5059783, -0.57464576, 0.8834592, -0.29289255, 0.2904908, 0.46097365, -0.2308206, -0.068262614, -0.33346793, 0.49512982, 0.22455353, -0.5623126, -0.2373307, 0.18778008, -0.20545802, 0.38367128, 0.40077326, 0.06682569, -0.1961817, -0.09178674, -0.11002323, 0.69120204, 0.69102204, -0.1369028, -0.19410375, -0.104245424, 0.38963965, 0.319989, 0.91124415, 0.67200863, -0.34183475, -0.28807756, -0.60696864, 0.09464311, -0.13915955, -0.23229486, 0.4997258, -0.08305869, 0.07724843, -0.3006243, -0.296681, -0.20331691, -0.69855654, -0.03133984, -0.047396336, -0.441817, -0.09958452, -0.39562792, 0.33743113, 0.47762996, 0.6947611, -0.25997785, -0.24012816, -0.02512296, -0.2721581, -0.49463898, 0.32297817, -0.10388861, -0.37715262, -0.21634007, -0.31947783, -0.18636769, 0.09188854, -0.2956776, 0.24095905, 0.089725204, -0.5543706, -0.1534775, 0.2838802, 0.007996625, 0.5331074, 0.012372337, 0.082538456, -0.076211676, -0.021226496, 0.5301857, 0.18267033, -0.4006482, -0.75822365, -0.4379001, 0.33146176, -0.59892845, 0.08180794, -0.44389403, 0.1534069, 0.6127627, -0.3443203, 0.12540661, -0.0151853785, 0.2561773, -1.1196785, -0.034212694, 0.0787655, 0.5936365, 0.02312561, 0.14638549, -0.24649745, -0.41058284, 0.6602767, -0.23878045, 0.017886508, 0.4976211, 0.248998, -0.002535887, -0.40435007, -0.5221064, -0.48092997, -0.21626438, 0.2563863, -0.40392542, -0.09099929, -0.5459009, 0.9959434, -0.4560513, -0.35350177, -0.39913782, 0.28281742, 0.65844643, -0.6354774, -0.05798305, 0.12558588, -0.79286397, -0.911612, -0.58055377, 0.23641065, -0.40827072, 0.43626583, 0.3626238, 0.31503743, -0.39483672, 0.351006, 0.24100664, 0.13583598, -0.35306665, 0.1944283, -0.23950683, -0.37877172, -0.58436793, 0.47624612, -0.5190161, 0.012672855, 0.606177, -0.067675486, -0.117250904, 0.17286827, -0.42669797, 0.13726898, 0.9228056, -0.32751545, 0.77466726, -0.2113815, 0.25497094, -0.3173898, 0.112080306, 0.047569722, -0.26569176, 0.16741806, -0.31978133, 0.66578615, -1.0824778, -0.4249689, -0.18373008, 0.57048565, -0.043217402, 0.041402247, 0.49633875, 0.057902917, 0.23637879, 0.032888364, 0.33204925, 0.060032435, 0.4018288, 0.14698237, -0.240691, -0.47977304, -0.49542132, -0.13785145, -0.26913178, -0.3113898, -0.3335157, -0.6294458, -0.15134628, -0.22200224, -1.6276547, -0.27039135, 0.49777097, -0.6678053, 0.15344408, 0.24508236, 0.80099374, -0.05245222, 0.14172336, -0.520422, 0.2385711, 0.11223097, 1.0807294, -0.12608221, -0.26314023, -0.08787303, 0.936345, 0.23627238, 0.08452977, -0.3189978, 0.07641842, 0.42048037, 0.19402978, -0.061136127, 0.16174316, -0.2577888, 0.1558872, -0.062910534, 0.48976976, 0.1517381, 0.21060656, 0.44606185, 0.07918146, -0.17904125, -0.17609131, -0.097510196, -0.13037746, -0.44167492, -0.37425184, 0.3191433, -0.05191713, -0.35158357, 0.037597258, 0.25431857, -0.61417353, -0.048706897, -0.0033779405, -0.057569847, -0.117690906, -1.1266432, 0.015044777, 0.15666053, 1.3725069, -0.32107636, -0.20929396, 0.05386348, -0.75445855, -0.047311887, -0.26049158, -0.28026545, 0.054012418, 0.72676754, 0.0019413596, 0.45010045, 0.7516143, -0.10622062, 0.023118485, 0.6266075, -1.0165817, -0.2268314, 0.27318802, -0.27182773, 0.19351338, -1.3620416, 0.14763579, -0.38941747, -0.17304222, -0.22759207, -0.68352526, 0.20696822, -0.32200816, -0.55669904, 0.39670599, 0.15948741, 0.37797457, 0.10694185, 0.928442, 0.016593961, 0.5359546, -0.2755768, -1.0730176, 0.4271202, -0.18339963, -0.3798124, 0.036696117, -0.27684098, -0.21679252, 0.59329927, -0.112614155, -0.37256545, -0.24076262, -0.7024428, 0.16704696, -0.113780096, -0.20489484, -0.49911702, 0.04656227, -0.5367528, 0.39882424, 0.47541463, 0.3197627, -0.31503615, -0.51727, 0.871725, -0.55399805, -0.5119171, 0.029576067, -0.4365036, 0.009516824, -0.1158825, -0.61306906, 0.07278596, -0.020320278, -0.67776495, 0.92595184, -0.7233688, -0.2787908, -0.090469465, -0.13297358, 0.14908636, -0.17195684, 0.018678091, 0.33306485, 0.53243065, -0.16750291, 0.46677268, 0.6132183, 0.4972543, -0.06200369, 0.96492165, -0.093445644, -0.029957708, -1.1992059, 0.18549651, 0.12498255, -0.11995801, 0.074897796, -0.035769403, 0.1846003, -0.21937506, 0.3274856, 0.08905797, -0.08008852, 0.24854931, -0.45655024, -0.7332895, -0.67460287, -0.64209116, -0.48062935, -0.54068035, -0.39719254, -0.77034867, -0.2887604, 0.26503515, -0.02096675, 0.88106996, 0.26178327, 0.24731272, 0.34276935, 0.15555397, -0.2843294, 0.114232086, 0.17771763, -0.09485935, 0.98743725, 0.5912009, 0.09483845, -0.3845673, 0.0043098405, 0.40556595, -0.7628172, -0.08205817, -0.6779652, -0.34833854, -0.08376046, -0.25944602, -0.04108802, 0.16432278, -0.3406861, 0.10132841, 0.25398618, 0.49732777, 0.01878149, -0.44654188, -0.5919266, 0.37533233, 0.3821757, -0.25474086, 0.35869014, -0.22982953, -0.43521142, 1.2359898, -0.06977246, -0.42889637, 0.95481676, -0.061125718, -0.21307969, -0.024801873, 0.5100354, -0.5611073, -0.71908015, -0.10772566, 0.04331362, 0.5201305, 0.121125504, -0.30030462, -0.26514253, -0.2969005, -0.4514475, 0.29360583, -0.083526775, -0.5786369, 0.07898986, 0.27622855, -0.14106525, -0.35380808, 0.09702863, 0.12020779, -0.4343564, 0.38486785, 0.266779, -0.74986404, -0.09048021, 0.07811713, 0.39483842, -0.15386875, 0.088635206, 0.18930821, -0.5124121, -0.06302741, -0.49728292, -0.26764727, -0.24333706, -0.2331986, 0.1049431, 0.147314, 0.18202336, 0.1629261, 0.38976082, 0.26633048, -0.49159873, -0.18408573, -0.061137952, -0.00378901, 0.69504315, -0.1852778, -0.7958852, 0.17018619, -0.3192372, 0.13872693, -0.33451182, -0.19064452, -0.4207685, 0.10601087, 0.07422942, -0.5110998, 0.69244826, -0.013008115, 0.059064843, -0.38726476, -0.25645417, -0.6747028, -0.37942713, 0.17385378, 0.87162906, -0.0375505, 0.3536392, 0.83749574, 0.22809145, 0.041571435, 0.65180135, -0.2859546, -1.1447066, -1.0249989, -0.20774147, 0.058785595, -0.02072528, 0.36356828, 0.23481339, 0.235867, 0.043925315, 0.60022354, -0.25043786, -0.8263006, 0.01633194, -0.34845734, 0.18194447, -0.3709116, -0.21587567, 0.340615, 0.3726156, -0.54228187, 0.31697443, -0.8331554, -0.613061, -0.4031286, 0.32964844, -0.31614083, 0.77862096, -0.20791484, -0.20326895, -0.34667403, -1.0337166, 0.86575854, -0.3444118, -0.418323, 0.07815246, -0.05438471, 0.36641407, 0.5095743, -0.21986005, -0.2906766, -0.061141707, 0.2774352, -0.2069466, -0.16598538, 0.54174566, -0.40018183, -0.3400101, -0.4243285, -0.05516686, -0.71554, -0.19243869, -0.61022633, -0.12728892, 0.34027094, -0.105593555, 0.5820111, -0.6247672, -0.0015423894, 0.23039123, -0.15312836, 0.028294336, 0.2864554, 0.31673396, -0.76993775, -1.1721314, -0.1853369, -0.255018, 0.07686092, 0.029360715, -0.645238, -0.1928204, -0.698422, 0.58314073, 0.33590806, 0.39419624, -0.32960284, -0.4079727, 0.35235634, -0.14307688, 0.052072328, -0.21798794, -0.18635194, 0.28640693, -0.4941822, -0.11100771, 0.13563697, 0.032524213, 0.08917625, -0.27851337, -0.83152986, -0.24921913, 0.14717734, 0.24986278, -0.407215, 0.62624335, 0.41959155, -0.19067112, 0.28083953, 0.048958614, -0.7686865, -0.4467709, 0.1428281, -0.055141047, 1.0467498, -0.08285468, 0.0710119, 0.024105545, -0.10250419, 0.19640326, -0.2651679, 1.453834, 0.3122226, -0.003348004, 0.39467782, 0.013495289, -0.57224655, -0.011636041, 0.8526532, -0.5084667, 0.24481472, 0.8478081, -0.31035322, -0.20872407, -0.026040643, -0.07233451, 0.68846804, 0.37781152, -0.4532252, -0.18969706, 0.02119138, -0.11477899, -0.48959485, 0.18648347, -0.4010131, 0.06300725, -0.20702375, -0.13633022, -0.5913256, -0.30676237, -0.28249392, -0.17277423, 0.12889177, -0.2955454, 0.115689486, -1.1103001, 0.39223024, -0.045461684, -0.33793384, -0.61020136, -0.24652772, 0.03417211, 0.9151843, -0.3639688, -0.046127297, 0.123784505, -0.1353876, -0.49813545, 0.05674209, 0.47143057, 0.64392006, 0.23750666, -0.3703612, 0.44725943, -0.13993081, -0.28510553, -0.19430657, 0.18517177, 0.10307763, 0.25588775, 0.8958021, 0.5144903, -0.23608579, 0.39291745, 0.505783, 0.4649707, 0.1483556, -0.012214499, -0.29741892, -0.09817095, -0.051678035, 0.41971034, -0.079588965, -0.2213245, 0.32398257, -0.16351411, -0.15824737, -0.52274996, -0.19138876, 0.024146285, 0.18398619, 0.76225084, 0.009169726, 0.39907956]</t>
         </is>
       </c>
     </row>
@@ -530,20 +572,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>레오미터란?</t>
+          <t>물성학의 정의는?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>물성을 측정하는 기기를 통칭합니다.</t>
+          <t>물질의 변형과 흐름에 대한 학문입니다</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[-0.0023564498, -0.22102602, 0.17461914, -0.20473431, 0.13635786, 0.19385354, 0.25956127, 0.0023127235, 0.37615624, -0.22063194, -0.32046404, -0.35025963, -0.2307316, 0.52173823, -0.4646561, -0.14948069, -0.028846204, 0.42959622, 0.6126346, -0.1374958, -0.3115249, 0.4527869, 0.2313223, 0.4999075, 0.09957707, 0.7193511, -0.23936492, -0.13446964, 0.9254341, -0.95392156, 0.043246914, -0.08867297, 0.057679325, 0.27266708, 0.5232107, 0.092624836, -0.79584104, -0.47957098, -0.3402206, -0.69031626, -0.19219293, 0.08175019, -1.0161089, 0.7621414, 0.00693581, 0.105494194, 0.0862058, -0.581135, -0.15658988, -0.17635383, -0.13572954, -0.17380393, 0.08008319, -0.04165779, 0.0034848202, -0.21384405, 0.096198566, -0.9985402, 0.088798486, 0.22040619, 0.5923734, -0.50203747, -0.7496255, 0.5996358, 0.56236273, -0.24151671, -0.28699505, 0.021366717, -0.3603016, 0.41220534, -0.09371304, 0.63021344, 0.3673412, -0.09240705, 0.7363258, 0.033820737, -0.22052813, -0.33796832, 0.8264208, -0.23201305, -0.014442283, -0.6304285, -0.17619538, -0.23603755, 0.057507288, 0.2097771, -0.29609868, 0.12192613, 0.50408465, 0.6062443, -0.40707436, -0.6687619, -0.22071612, 0.19689447, -0.09098005, -0.10641897, 3.3006072e-06, 0.1862696, 0.5714641, 0.4869168, -0.3426614, 0.4322883, -0.5593403, -0.0010248534, 0.11962805, 0.014557724, -0.24967052, 0.50961256, 0.08331358, -0.31656936, 0.25185692, -0.0053309775, 0.5118987, -0.50950384, 0.03607259, 0.2786511, -0.7840287, -0.32255474, 0.42431653, 0.12904815, 0.28035992, -0.68821293, 0.2893083, 0.4237008, -0.606849, 0.08744791, 0.28056553, -0.6421085, -0.73970586, -0.26795194, -0.02006855, -0.082862526, -0.06419896, 0.038690697, -0.79402584, -0.25012168, 0.010991752, -0.18041979, 0.41764164, 0.20491724, 0.1432725, -0.09762689, -0.034146216, -0.29411885, 0.019188896, -0.15224211, 0.9026424, -0.18119602, 0.16775964, -0.19379877, -0.43778944, 0.5271973, -0.9356646, -0.3671867, 0.5254749, 0.014977959, 0.07176603, -0.38674536, -0.12733673, 0.16455738, -0.13717686, 0.397704, -0.35090563, -0.54811686, 0.12680797, 0.12425164, 0.2648031, 0.41402924, -0.256609, -0.65278846, -0.1048511, -0.8744332, 0.1984172, -0.019902224, 0.2922015, 0.5269145, -0.5603052, 0.09561366, -0.19753337, 0.09652934, -0.595323, 0.6652189, -0.19041692, 0.56847864, 0.12068472, -0.0058880723, 0.5341468, -0.037053864, -0.91406995, -0.50372964, 0.2399304, -0.26842192, 0.477823, -0.053716034, -0.021679057, 0.86915374, -0.4938893, -0.25092345, -0.008891801, 0.02692466, -0.5332907, 0.4492416, 0.11587548, -0.17944412, 0.58705145, -0.19049089, -0.1687028, -0.42578566, 0.1085146, -0.8557539, 0.3473408, 0.8101967, -0.34400627, 0.19518675, -0.46416533, -0.50883603, -0.31816116, -0.34017968, 0.41679338, -0.26551166, 0.6779377, -0.013554241, 0.6093595, -0.106842674, -0.24672808, -0.4038804, 0.05454884, -0.0046962104, -0.098916344, 0.18993877, -0.44951966, -0.30563313, -0.060170833, -0.6479883, 0.086543344, -0.10239887, 0.32290238, -0.09697672, -0.6644135, -0.20253138, 0.3463315, 0.31706896, -0.2413138, -0.6524851, -0.43827066, 0.04028889, 0.023019046, -0.95913047, -0.2311486, -0.30014393, 0.42432228, 0.025207018, -0.015285417, -0.12077162, 0.0096639125, -0.5554512, -0.38102463, 1.089326, 0.13941191, 0.2410986, -0.7643917, -0.3436323, 0.1210295, -0.19693266, 0.07775506, 0.054460954, 0.41271713, -1.1319808, 0.70021915, -0.52871627, -0.5673743, 0.20710371, 0.15588449, -0.358389, -0.0756528, 0.29661283, 0.20492364, -0.26141962, 0.37089205, -0.37844864, 0.25669855, -0.030600747, -0.0922079, -0.4128958, 0.022059353, -0.48637888, 0.5040297, 0.20700037, 0.17054333, -0.6581226, 0.09742018, 0.09299878, -0.0702789, -1.122336, 0.44934034, 0.6594861, 0.25205198, -0.99369246, 0.29224542, 0.2778333, -0.016885763, 0.5485596, 0.46495688, 0.33932233, 0.11613221, 0.35645783, 0.1763487, -0.30244052, 0.025377907, 0.63650364, 0.7839656, 0.5384526, 0.15955094, 0.04400937, -0.35669482, -0.16315067, -0.38354206, -0.8105843, 0.13886027, -0.07688576, -0.8049237, 0.36518642, 0.0067732334, 0.035260737, -0.28146043, 0.09334079, -0.5822082, 0.37588373, -0.5463785, -0.22570805, -0.7586166, -0.13203377, 0.32712743, 0.12960309, -0.11111037, 0.30294478, 0.44309008, -0.675661, -0.39598384, -0.044308748, 0.9865315, -0.2774947, -0.43640265, 0.41421497, -0.4846728, 1.1511241, 0.121148326, -0.28754368, 0.39185452, -0.55120516, -0.5458829, 0.15743415, 0.1941198, 0.50395876, 0.23595685, -0.06317238, 0.1713311, 0.8524492, 0.14215015, 0.3231583, 0.19703056, -1.3432126, 0.8143471, 0.24391173, -0.39218533, 0.29155812, -0.4903488, -0.03867372, -0.11668291, 0.14882481, 0.51047516, -0.113094, -0.5434752, 0.15494786, 0.19981979, 0.29220054, 0.13666098, 0.54793, -0.21326418, -0.30650547, 0.6963623, 0.9629955, 0.3787849, -0.65848225, 0.008193031, -0.2114036, -0.19509888, 0.7287431, -0.6414076, 0.08703739, -0.70851994, -0.2529299, 0.40121546, 0.32667816, -0.54165787, -0.31199405, -0.1613251, 0.36760214, -0.7092504, -0.54061335, 0.14728631, -0.08303755, 0.18843865, -0.21105812, 0.17685974, -0.2704214, 0.47625148, -0.3932803, -0.14382939, -0.07542477, 0.11957687, 0.049704105, -0.5272947, -0.3465518, -0.008269106, 0.5646387, -0.13069801, 0.17097218, -0.6845514, -0.28145435, 0.2229504, -0.41106012, 0.63851714, -0.40764937, -0.050983217, 0.61532277, 0.075879194, 0.0767348, 0.37242723, -0.0645042, 0.50003296, -0.019832684, 0.23353057, -0.49812832, -0.05934878, -1.0899113, -0.71790886, -0.13233511, -0.4223586, 0.030730799, 0.55823845, -0.3266645, 0.5250017, 0.48490405, -1.2316439, -0.1396475, -0.16177727, 0.042531762, -0.939903, 0.07564916, -0.33282146, -0.94373083, -0.20433812, -0.026349341, -0.2563585, 0.34893838, 0.47205913, -0.21273388, -0.2863891, 0.264307, -0.6302988, -0.28780717, 0.2790435, -0.006811475, 0.20354898, 0.43605098, 0.43609032, -0.17778595, -0.47703817, 0.07124473, -0.8175891, -0.027302206, -0.0505735, -0.7898438, 0.15424435, -0.067514226, 1.1342946, -0.06719692, 0.24660055, -0.32972085, -1.1173242, -0.029524207, 0.36836323, 0.14157246, 0.26041165, 0.9653177, 0.3224124, -0.06261206, 0.4755068, 0.18646628, 0.072019786, 0.5110866, -0.07336905, 0.5433635, 0.09895357, 0.09995327, 0.2820579, -0.26285473, -0.00021020074, 0.058865625, -0.47248903, -0.07247939, 0.16925825, -0.9034682, 0.7626079, -0.27856615, 0.009327112, 0.018895037, -0.25798783, -0.11443781, -0.16675882, -0.05411753, 0.4157469, 0.6032191, 0.3205614, 0.1667925, 0.22472246, 0.11888047, -0.52373314, -0.16803163, -0.7517745, -0.21229012, -0.5309965, -0.1743338, -0.0046155155, -0.16468017, -0.001627254, 0.17531861, 0.13566239, 0.24544244, -0.07135672, 0.48279893, -0.2560997, 0.7541134, -0.081616394, -0.64628416, 0.008892079, -0.17278081, 0.2461489, 0.2764243, 0.24544765, -0.14323288, 0.72078484, -0.09416139, -0.4661866, 0.4194465, 0.5598495, -0.25218573, -0.3744835, 0.103212155, -0.42319784, -0.6578327, -0.14478196, -0.7866667, 0.09652091, -0.19994469, -0.7104804, -0.823886, -0.59967625, 0.5455116, -0.17393637, 0.6790181, 0.31022274, 0.15042533, -0.4548339, -0.07626744, 0.35665908, 0.5535182, 0.30375835, 0.4943336, 0.19903821, -0.08334244, -0.05016543, 0.30151188, 0.5179879, -1.1626127, -0.12938772, -0.087746836, 0.13380148, -0.58165437, 0.43203595, -0.13903518, -0.10592377, -0.038081888, 0.28721562, -0.40037724, 0.10842154, 0.4736283, -0.37978676, 0.50704324, 0.051365662, -0.10242307, 0.5501901, 0.2582165, -0.736505, -0.9024963, -0.9330904, -0.24491368, -0.050438955, 0.29038644, -0.10269713, 0.07268906, 0.19370449, -0.21289085, -0.14907202, -0.6679447, 1.027426, -0.14163636, -0.4794215, 0.45789513, -0.32401514, 0.09579718, -0.64298296, -0.2986529, 0.06827874, 0.3256696, -0.14399809, -0.2815803, -0.055473387, 0.76332504, 0.08941218, -0.26456922, -0.464357, -0.34152713, 0.026404202, 0.38603878, -0.09381381, -0.6470513, -0.25070894, 0.28810266, 0.10004357, -0.49317136, 0.32620278, -0.22969663, -0.10904985, -0.98164994, -0.33055636, -0.2622992, -0.27455792, -0.5959639, -0.524466, -0.43167076, 0.12837498, -0.31215823, -0.14472112, -0.11807229, -0.4049728, -0.1647072, -0.6568078, 0.44754338, -0.45526278, -0.24958654, -0.49458334, 0.11423489, 0.36544383, -0.12817152, 0.19237715, 0.24262214, -0.34310797, -0.10881158, -0.43575215, -0.5724712, 1.1047416, 0.06408048, -0.28133377, -0.874898, -0.84403545, 0.48955122, -0.040887572, 0.0011589652, 0.32400975, -0.39228907, 0.20376284, -0.2552503, -0.030109217, 0.32855716, 0.37455857, -0.14181562, -0.009277155, -0.37194896, -0.24569197, -0.17709696, 0.13632703, 0.40645424, 0.2889062, 0.5434057, -0.0026141752, -0.09158828, 1.379477, -0.5284669, 0.059563804, -0.46820602, 0.6328226, -0.621431, 0.62973326, 0.35974228, 0.40004435, 0.0049448735, -0.6863926, -0.32476524, 0.3542494, -0.16675335, -0.24084215, 0.028754206, 0.047422588, 0.09056748, 0.43081462, -0.52245134, 0.025533736, -0.0025708925, -0.27319363, -0.35753962, -0.27696362, 0.06261465, 0.3569175, -0.3054179, -0.08046529, 0.20861709, -0.06508496, -0.7628587, 0.20656045, -0.029762939, -0.58461905, -0.5325919, -0.42906132, -0.14416955, 0.31390163, 0.38016725, -0.48543528, 0.17735751, 0.08180276, 0.24933667, -0.47668564, 0.2325655, -0.26847866, 0.18558772, -0.037230622, -0.20241146, -0.360811, -0.024871968, -0.40988886, 0.39138016, 0.26670888, 0.2827981, -0.21614265, 0.38837922, 0.5994883, 0.38915947, 0.0709155, 0.12545648, 0.13888843, 0.49124685, -0.44171035, 0.22021417, 0.06259122, -0.7930069, -0.40084875, 0.11718627, 0.09513497, 0.36219144, -0.27978542, 0.1353613, -0.3010038, -0.31540945, 0.6442047, 0.0091498345, 0.32845154, 0.43211553]</t>
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>정보</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[-0.43290207, -0.42784932, 0.12969638, -0.036350325, -0.29253113, -0.25891194, 0.30390495, -0.17621514, 0.27435672, -0.6182519, -0.26556528, -0.347217, -0.012066245, 0.119046606, -0.14632143, -0.6143916, 0.22733063, 0.42886913, 0.4025037, -0.5572796, -0.30590895, 0.55641025, 0.56047136, 0.16114993, -0.08926365, 0.29692286, -0.16801345, -0.6793506, 0.05053074, -0.9321481, 0.45767075, 0.60001665, 0.16878079, 0.02105299, 0.25597873, -0.08229784, -0.7624107, 0.09997645, 0.18023713, -0.504487, -0.25605565, -0.25735006, -0.007781398, -0.012820817, 0.19999945, -0.094953574, 0.05930982, 0.1500937, -0.0062878663, 0.025792046, 0.045442156, -0.154863, 0.17369695, 0.57004845, -0.17283575, -0.40054193, 0.362192, -0.33375645, 0.096598, -0.36434975, 0.59543455, -1.0277717, -0.04604551, 0.024971114, 0.40966284, -0.21979997, -0.06507417, 0.10307282, 0.028872695, 0.30062762, 0.15205151, 0.30074793, 0.18014723, -0.6597051, 0.3104285, -0.329682, -0.28279078, 0.09668205, 0.014555974, 0.4466728, 0.62547123, -0.55298096, 0.39619562, -0.3325183, 0.45428377, -0.29114383, 0.10244194, -0.48718724, -0.6191523, -0.22297056, -0.40714014, -0.4195054, 0.05904036, -0.007507271, -0.7436519, -0.69429195, 0.2244418, 0.53459686, 0.1354286, 0.2399435, -0.032264456, 0.22180027, -0.27024704, 0.3855227, 0.32126218, -0.53894585, -0.5549469, 0.58269155, 0.35360992, -0.35550055, 0.38703144, -0.5556128, 0.8903333, -0.20039286, 0.30882838, 0.721901, -0.33163685, 0.007788425, -0.27485365, 0.44795024, 0.32720265, -0.5399524, -0.35487723, 0.22955468, -0.068791784, 0.3244569, 0.13426812, 0.017579297, 0.14512765, -0.1251423, -0.099635534, 0.46561685, 0.6736178, -0.11703309, -0.23272869, -0.09083311, 0.3833528, 0.29461825, 0.90106606, 0.76848704, -0.44056457, -0.15892349, -0.40791622, -0.11059131, -0.3151938, -0.32764065, 0.36223564, -0.24045645, 0.15111744, -0.19812566, -0.11939715, -0.2683046, -0.69823486, -0.10448137, -0.07762918, -0.19914891, -0.007349024, -0.39933762, 0.43133393, 0.40805307, 0.7587467, -0.2836605, -0.3326794, 0.02601789, -0.36270702, -0.51484543, 0.31356686, -0.20943545, -0.58155704, -0.26958916, -0.32359293, -0.12605396, 0.2778971, -0.3408712, 0.20616807, 0.07744475, -0.57403123, -0.10455045, 0.35642183, 0.037812367, 0.44552305, 0.057333007, 0.08655464, 0.0074693244, -0.20744652, 0.48348776, 0.1849559, -0.4605078, -0.96053654, -0.30305687, 0.44989878, -0.71734375, 0.09050495, -0.45653433, 0.16036388, 0.6762617, -0.43370426, 0.18703736, -0.048753142, 0.24016635, -0.9110245, 0.25761983, 0.16559395, 0.64563257, -0.18085808, 0.3800192, -0.12604544, -0.27748138, 0.6349106, -0.21683148, 0.0683961, 0.5945069, 0.11515995, 0.00946128, -0.3825227, -0.3708242, -0.46947968, -0.17162278, 0.3063216, -0.37281543, 0.13772371, -0.4746151, 0.8086522, -0.17095979, -0.4224443, -0.34008446, 0.17963484, 0.65820307, -0.61014557, 0.2255134, 0.20143795, -0.76201266, -1.0224175, -0.5675457, 0.28426388, -0.62785995, 0.31843257, 0.48555982, 0.11090636, -0.39786685, 0.3285042, 0.5148064, 0.07997105, -0.3203674, 0.20060778, -0.38827458, -0.23732986, -0.39967686, 0.5356328, -0.53177494, 0.3052965, 0.46245638, -0.20967278, -0.11880502, 0.24099663, -0.037415605, 0.017103001, 0.88860965, -0.3656364, 0.59266794, -0.22209628, 0.37574628, -0.26506296, -0.024969397, 0.19196826, -0.09877871, 0.10191985, -0.22817728, 0.49540472, -1.0069544, -0.086132035, -0.28797427, 0.5038541, -0.14330313, 0.2022999, 0.5690843, -0.0015983151, 0.40336546, 0.18287939, 0.42293465, 0.17176604, 0.40345028, 0.114239484, -0.08108488, -0.34862912, -0.44666323, -0.07014403, -0.27780193, -0.5168858, -0.25429904, -0.37127665, -0.22816603, -0.22524397, -1.3829364, -0.14714324, 0.4804734, -0.8879862, 0.093475305, 0.054081354, 0.6973983, -0.28948814, 0.29304874, -0.61120725, 0.3501261, 0.112977415, 1.0585988, -0.11721979, -0.31020537, 0.0073121455, 0.7261082, 0.12978442, 0.26435104, -0.28828493, -0.11611904, 0.3519568, -0.043424524, -0.10821896, 0.14504422, -0.28244555, 0.18553059, -0.0039788396, 0.5168272, 0.10064148, 0.24494849, 0.4490368, 0.1400271, -0.36301085, -0.032347746, -0.09455141, -0.15870403, -0.8075159, -0.44364965, 0.3054696, -0.17550321, -0.32128146, 0.013162719, 0.29125836, -0.59578365, -0.08194712, 0.15467831, -0.12809514, -0.18527065, -1.0550545, -0.3675716, 0.13400722, 1.1165148, -0.49286875, -0.28262895, 0.09624982, -0.97396636, 0.05178041, -0.25912872, -0.3056899, -0.004618259, 0.8769968, -0.04675645, 0.39919844, 0.9034225, -0.012609462, 0.020055665, 0.59604776, -0.9779099, -0.2524546, 0.4841751, -0.17935804, 0.333415, -1.4360193, 0.23120607, -0.43744788, -0.25811467, -0.23760557, -0.69295746, 0.18184155, -0.27316722, -0.5669642, 0.1925687, -0.22317556, 0.23428175, 0.19524483, 0.8891593, 0.19348904, 0.44045502, -0.45522213, -0.96074826, 0.48963726, -0.13363658, -0.40070632, -0.028867457, -0.1791736, -0.2710651, 0.6843278, -0.2295369, -0.5119846, -0.15426861, -0.59301597, 0.19471247, 0.23254745, -0.16928671, -0.40707615, -0.029094385, -0.42194828, 0.4943275, 0.38914046, 0.2467764, -0.23392272, -0.4904861, 0.7434592, -0.27994204, -0.5826253, 0.007292274, -0.46743786, -0.1378631, -0.1549387, -0.47303036, 0.046543572, -0.023003016, -0.67579854, 0.67611206, -0.59879977, -0.42262897, -0.195665, -0.28720737, 0.39785668, -0.37394226, -0.12173806, 0.34565726, 0.51561064, -0.0022718725, 0.44945398, 0.71063447, 0.42159507, -0.20477492, 0.85096526, -0.066608824, -0.005349751, -1.0288128, 0.20440109, 0.18800096, 0.039157737, -0.053177845, -0.054883055, 0.14704557, -0.22006665, 0.39334524, 0.050248437, -0.0088524595, 0.15131259, -0.0656933, -0.88772345, -0.6589534, -0.7583401, -0.4647919, -0.716537, -0.2776643, -0.6312276, -0.17110865, 0.13312732, -0.0015462753, 0.9256559, 0.22936964, 0.010039393, 0.44401988, 0.15553287, -0.3794206, 0.18184656, 0.07324811, -0.02242274, 0.7869351, 0.5472518, 0.22198372, -0.13208541, 0.119847775, 0.4324211, -0.6829267, -0.041996703, -0.78400546, -0.42645445, -0.18835092, -0.264548, -0.079504095, 0.33131012, -0.2002461, 0.15235871, 0.30081293, 0.66348225, -0.1409719, -0.3279549, -0.5544491, 0.58480144, 0.46721384, -0.33781943, 0.4215685, -0.29106253, -0.47974527, 1.01294, -0.18094155, -0.4041676, 0.9591305, -0.2269037, -0.056583125, 0.03411951, 0.5339967, -0.75861186, -0.4527094, -0.21309617, 0.0223523, 0.40217254, 0.063527994, -0.36139542, -0.18184613, -0.1203842, -0.50812435, 0.12904572, -0.21404588, -0.5579511, 0.054140046, 0.4574407, -0.4638851, -0.32359686, 0.2334022, 0.37319887, -0.6291746, 0.56361127, 0.6610157, -0.48833096, 0.08388349, 0.097623736, 0.4365007, -0.100305766, -0.02270759, 0.012477353, -0.6407242, -0.060321067, -0.37560335, -0.37908697, -0.22412236, -0.232784, 0.00842587, 0.07773807, 0.07659536, 0.04687261, 0.31108844, 0.28843316, -0.45812953, 0.022363495, -0.23783138, -0.02377228, 0.49626935, -0.29270798, -0.5601152, -0.005578965, -0.38146618, 0.05231499, -0.28912762, -0.20376211, -0.21636185, -0.0016187956, 0.15712772, -0.61384475, 0.68629235, -0.21054567, 0.046554375, -0.37451813, -0.17254442, -0.6329414, -0.17229304, 0.16652891, 0.82531375, 0.14874129, 0.3000901, 0.6284681, 0.46419537, 0.0647177, 0.5141663, -0.46980244, -1.0084252, -1.1445208, -0.38149074, -0.078664094, -0.13175055, 0.39377752, 0.3244225, 0.32185575, -0.04755841, 0.8699589, -0.23028257, -0.9308544, 0.022382881, -0.14758904, 0.26019615, -0.31781524, 0.03560904, 0.08589658, 0.4645248, -0.70255524, 0.12569638, -0.71238446, -0.8500984, -0.60137486, 0.3987871, -0.35871893, 0.6408105, -0.09901283, -0.22670129, -0.4021825, -0.8981887, 0.68205804, -0.19256881, -0.33236706, 0.2851413, -0.05991833, 0.2832146, 0.4301044, -0.32429424, -0.33710343, -0.23839988, 0.2742096, 0.016662197, -0.09914532, 0.4891643, -0.37006855, -0.4187835, -0.48551443, -0.22607844, -0.87761194, -0.16629499, -0.27890274, 0.09705401, 0.22367471, -0.16786626, 0.40392527, -0.7080573, -0.20120293, 0.26778165, -0.048764177, -0.19502099, 0.3507065, 0.39092582, -0.85959584, -0.9711695, -0.07210339, -0.27803516, 0.060880993, -0.041530736, -0.4557556, -0.2128305, -0.6016763, 0.46112496, 0.5255867, 0.42740005, -0.2857652, -0.5800371, 0.45947, -0.12193293, -0.002163218, -0.31698325, -0.04306373, 0.30714682, -0.47184986, -0.093944564, 0.088001624, 0.0865644, -0.055711534, -0.19165066, -0.5693209, -0.2203284, -0.14188106, 0.22752121, -0.30866206, 0.6782694, 0.49249113, -0.13218795, 0.24532908, 0.22146036, -0.6828415, -0.5986172, 0.22750251, -0.09762775, 1.0509119, 0.030844944, 0.27603543, 0.10227136, -0.043229982, 0.050323524, -0.29015636, 1.3835034, 0.22110969, 0.029717658, 0.47957584, 0.010934462, -0.4758801, 0.09770043, 0.64300674, -0.32752195, 0.28339368, 0.7699989, -0.2560028, -0.16448864, -0.18432675, -0.07234033, 0.5921261, 0.3879817, -0.5067331, -0.023237577, -0.15227503, -0.010669423, -0.43094233, 0.29556867, -0.44567972, -0.10934262, -0.3409679, -0.008945897, -0.66542685, -0.19555531, -0.3548343, -0.23474294, 0.15635724, -0.33032334, -0.0053721154, -0.92344826, 0.47055224, -0.2934595, -0.42722476, -0.52554196, -0.41308126, -0.020418394, 1.1855857, -0.1504957, 0.04986252, 0.19360724, -0.066610485, -0.62423587, 0.18265887, 0.4797989, 0.6728083, 0.0723479, -0.37064195, 0.55551994, -0.10478655, -0.4099667, -0.22450678, 0.12132716, -0.027211707, 0.39825368, 1.0340123, 0.4803238, -0.2433122, 0.56003255, 0.4771488, 0.24834411, 0.19329555, -0.010620453, -0.3303146, -0.20347527, -0.0046562064, 0.4496327, -0.03315157, -0.23576826, 0.40688854, 0.03315058, -0.17737845, -0.2498284, -0.21154507, -0.009418149, 0.25766182, 0.72957253, 0.13811994, 0.17474663]</t>
         </is>
       </c>
     </row>
@@ -553,20 +604,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rheometer란?</t>
+          <t>Rheology의 정의는?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>물성을 측정하는 기기를 통칭합니다.</t>
+          <t>물질의 변형과 흐름에 대한 학문입니다</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[0.040086553, -0.22363555, 0.6421491, -0.859074, 0.10174708, 0.42158595, 0.6981038, 0.1987095, -0.12110046, -0.13386646, -0.34168783, -0.60161096, 0.19876447, -0.6610338, -0.2768041, 0.14038068, 0.50846004, 0.25259754, 0.28793296, -0.5832224, -0.32367185, 0.53208053, 0.34031737, 0.337327, -0.07915077, 0.4000504, -0.0968283, -0.13170014, 0.6271035, 0.380911, 0.0031255176, 1.1589004, -0.06993957, 0.2106751, 0.47973037, 0.19811437, -1.1221931, -0.25871438, 0.5505903, -0.63183933, 0.07068075, -0.31252304, -0.39950722, 0.4041045, 0.16249083, 0.19777513, 0.49938083, -0.5227518, -0.5323389, -0.24620748, -0.46272793, -0.37814003, 0.8340135, 0.5711557, -0.42843089, -0.2694213, 0.3343378, -0.5726214, 0.23640463, -0.30289182, 0.24820358, -0.7106317, -0.631697, 0.39065486, 0.45812064, 0.22695635, -0.10999513, 0.3899289, -0.3613513, 0.36499268, 0.20976761, 0.106007904, 0.19952047, -0.76513755, -0.1974897, -0.2629469, 0.4011455, 0.17924869, 1.239501, -0.06626247, 0.11170741, 0.11838791, -0.74611384, -0.2195491, -0.4586756, 0.61123765, -0.17240304, -0.37920788, 0.04261622, -0.046593662, -0.92035705, -0.17671159, -0.10216038, -0.14140004, -0.6537489, -0.21157743, 0.15581438, 0.11424267, 0.19973534, 0.11494462, 0.3092305, 0.25995418, 0.14886776, 0.5727776, 0.41270575, -0.1867768, -0.7445129, 0.41299498, 0.110522896, -0.6006291, 0.5555268, -0.24787807, 0.30833805, -0.7524605, 0.2573458, 0.45138925, -0.5347842, -0.530365, -0.27835605, 0.4945869, 0.37464908, -0.25445515, -0.65036196, 0.5972459, -0.47918862, 0.4291327, 0.92832446, -0.23241824, 0.06507044, -0.54075485, -0.25806418, 0.49128097, 0.45825168, -0.2770571, -0.55741096, -0.06965482, 0.030760638, -0.12523583, 0.33730936, 0.3638604, -0.031038303, 0.07827963, 0.22319996, 0.14217088, 0.104069255, -0.094404235, 0.22684066, -0.26219225, 0.077929735, -0.24942659, -0.42832413, 0.16360956, -0.26193625, 0.014415199, 0.2649719, -0.8392748, 0.059498098, -0.35874698, -0.31404436, 0.0016470775, -0.5677748, 0.085332416, -0.11331269, 0.18783136, -0.00047700666, -0.11792882, 0.6709922, -0.018716048, -0.16324422, -0.81768525, -0.3619454, -0.06318354, -0.41287583, 0.107710384, -0.031541992, 0.69933033, 0.054143257, -0.04082015, -0.5982437, 0.28228068, -0.5538965, 0.8134571, -0.44432718, -0.7127912, 0.49593893, 0.18406576, 0.22317247, -0.22849435, -0.49026847, -0.25734192, 0.07948488, 0.26923582, -0.08764922, 0.00043437956, -0.1455247, 0.7450222, -0.229967, -0.46076956, -0.04052088, 0.23572865, -0.39174625, 0.1001013, 0.14867029, 0.8628099, 0.50512755, -0.047658958, -0.0017565768, 0.15585817, 0.379013, -0.27474046, -0.45721984, 0.6598715, 0.27154532, -0.16944171, -0.26101604, 0.37007034, -0.25836128, 0.0105731, 0.57568914, -0.60815394, 0.5718842, 0.2560213, 0.29895136, -0.4337172, -0.23906563, -0.634386, 0.13133028, -0.062220514, 0.5106902, 0.21495886, -0.074164204, -0.39926726, -0.061534572, -0.21927603, 0.40661678, -0.40077606, 0.12289673, -0.11816621, 0.12674381, -0.6276649, -0.04105194, 0.21297702, 0.110672146, -0.3645702, -0.15373369, 0.4730434, -0.05121893, -0.2855884, 0.6896986, -0.3682712, 0.29669032, 0.5762534, -0.28649083, -0.05994041, 0.29983974, -0.60833937, -0.2421533, 0.6637701, 0.36263627, -0.09784386, -0.91835725, -0.15153177, -0.4713062, -0.021821557, 0.1413302, -0.32237878, 0.5160978, -0.6255754, 0.20808399, -0.22773026, -0.5425056, -0.12934372, 0.28866798, -0.07170447, -0.10489038, 0.09963871, -0.6296935, -0.0004178509, 0.24775313, 0.6638312, 0.16597337, 0.07116482, -0.03787148, -0.13493568, 0.09015188, 0.2843526, 0.5006005, 0.28088927, -0.053076364, -1.0108087, 0.38617274, 0.047176603, -0.08935244, -1.9356571, -0.32828027, 0.4671011, -0.36616638, -0.36817273, 0.013810468, 0.0033737104, -0.47088864, 0.51011235, -0.13434742, 0.5480205, -0.49553844, 0.48776984, -0.45202842, -0.095233515, 0.17955534, 0.71747464, 0.18562046, -0.18377754, -0.0075288676, -0.16189894, -0.46001238, 0.1651823, -0.36023057, -0.7601634, -0.1917771, -0.31531632, 0.22433351, 0.1532349, 0.34441707, -0.09238276, 0.5320219, -0.19223736, -0.53633386, 0.30241162, -0.58772266, -0.16693637, -0.2900331, -1.0598017, 0.92244047, 0.5416713, 0.2918557, -0.5717287, -0.5484636, -0.37831134, 0.6550453, -0.03406173, -0.27591828, -0.2158213, -0.95665693, -0.37431175, -0.022182908, 1.2355986, 0.25024232, 0.029577289, 0.71205354, -0.77269346, 0.23766112, -0.2213042, -0.17628908, 0.3457692, 0.5726733, 0.73786694, 0.87428546, 0.6068314, -0.20854917, 0.26792136, 0.55254894, -0.29467127, 0.5185761, 0.28071848, 0.12747082, -0.55972505, -0.55619735, 0.49832004, -0.032305904, -0.14068976, -0.058460705, -0.020868845, -0.31563488, -0.86185575, -0.33110422, -0.3019181, -0.34658778, 0.023019869, 0.19400413, -0.35826164, 0.014767288, 0.6319724, 0.0062698936, -0.8746138, 0.45289108, -0.6505072, -0.37673193, -0.4510671, -0.31599653, 0.10518227, -0.099646844, -0.32834277, -0.49568933, -0.0073106997, -0.43192112, 0.00537955, 0.073208496, 0.044929255, -0.13322029, -0.29593232, 0.320828, 0.48014465, -0.086970285, -0.2587985, 0.043930765, -0.22649619, 0.42030326, -0.18250012, -0.37015975, -0.43731514, -0.27933723, 0.1270512, -0.6565094, -0.16502057, 0.099312186, -0.052613005, -0.41805816, 0.2801696, 0.14818275, -0.3107353, -0.235531, -0.2538814, 0.44936606, 0.21151602, -0.004708004, -0.18589488, 0.2515271, -0.007086925, 0.6181347, -0.11559882, 0.512977, 0.4223452, 0.23265348, -0.62659776, -0.18899615, -0.8456268, 0.042867545, -0.10354695, -0.47991592, -0.019403953, 0.10477665, -0.2697357, 0.7876355, 0.1274077, -0.5299947, -0.5417096, 0.32378617, -0.077926174, -1.2560599, -0.03358241, -0.24898355, -0.6083212, 0.41521117, 0.20008835, -0.5097518, 0.6895604, 0.95470977, 0.14380768, 0.1848877, 0.13668403, -0.0045336653, -0.3995479, -0.26203316, -0.18637013, 0.33909672, 0.3668361, 0.11275151, 0.3351042, -0.22797109, 0.45441574, -0.86792254, -0.019760253, 0.3793256, -0.14122862, 0.10515455, -0.016948197, -0.098222844, 0.3920052, 0.21366692, -0.04296535, -0.4618994, -0.094389826, 0.38886008, 0.23411237, 0.71333456, 0.30049324, 0.07366219, 0.099555515, 0.4804762, 0.5953841, 0.17592505, -0.2080535, -0.14930123, -0.5177649, 0.78862596, 0.08430897, -0.37493113, 0.6970952, 0.12550172, -0.28517222, -0.1619693, 0.16664015, 0.1484138, -0.48574293, 0.5223743, -0.3785542, 0.0012186305, -0.3567146, -0.190606, -0.061390642, 0.018878676, -0.6032603, -0.107624784, 0.39963904, 0.32342595, 0.7962056, -0.5370589, 0.05235663, 0.32405087, -0.031890023, -0.65684325, -0.13927697, -0.24847887, 0.32584083, -0.12291227, 0.15951036, -0.28643847, 0.50535536, -0.06322757, -0.045748338, 0.6584775, 0.15381166, 0.4099248, -0.001229614, 0.26136634, -0.8914472, -0.47127065, 0.20790292, 0.48037207, 0.15719123, 0.19773641, -0.5208426, 0.16437143, 0.10985545, -0.13525163, 0.8055705, 0.57235837, 0.35881105, -0.12775627, -0.062122896, -0.38168144, -0.60489345, -0.59408927, -0.54516083, 0.33482203, -0.35704505, 0.028695434, -0.17582886, -0.64187825, -0.067195654, -0.04084955, 0.405101, -0.1603003, -0.46621534, -0.15253049, -0.4809316, 0.12219753, 0.37383625, 0.039679885, 0.626826, 0.37669152, 0.083847016, 0.33947912, 0.03375385, 0.32792, -1.1550803, -0.08655754, -0.7004883, 0.058918096, -0.48475224, 0.29906425, -0.028832544, 0.044093985, -0.85166657, 0.61062825, 0.18222234, 0.09033008, -0.08242144, 0.09614149, -0.3510567, -0.62092966, -0.09020621, 0.3163623, 0.43516403, -0.8453529, -0.77757096, -0.65647274, -0.6356835, 0.62725776, 0.3733959, -0.34165424, 0.07574375, -0.012272939, -0.040031552, -0.16822577, -0.6223115, 0.78735125, -0.78069973, -0.94891495, 0.1334253, -0.70482576, -0.40076205, 0.12924126, 0.114812866, -0.06604789, 0.096600495, -0.072634846, -0.46014836, 0.20283312, 0.50066864, -0.15258962, -0.08086732, -0.41750115, -0.2710768, -0.6389032, 0.15159082, 0.017164394, -0.10612952, -0.18337959, 0.13712704, 0.8429977, -0.29794168, 0.39474866, -0.37144023, 0.020697694, -0.030425198, 0.16284017, -0.1959407, -0.4515572, -1.2600086, -0.13452584, -0.10295704, 0.35211292, -0.40624222, -0.14389685, -0.54124075, -0.5332971, 0.3058344, -0.5420961, 0.07149538, -0.60763025, -0.79093987, -0.30719954, -0.24208522, 0.1611016, -0.30987856, -0.34670293, 0.051652633, -0.108468056, 0.06499213, -0.5250037, -0.17434102, 0.36918598, -0.5583073, -0.5391289, -0.67174023, -0.59484, -0.0110612195, 0.057268076, 0.39232045, 0.056638807, -0.41494915, 0.16035126, 0.18940143, -0.26111603, 0.1276285, 0.4836253, -0.1179922, 0.26776543, -0.09557903, 0.27169445, 0.003549138, 0.26573837, 0.20693997, -0.5849078, 1.2857225, -0.5975049, -0.17626347, 0.45108587, -0.19027492, -0.2236376, 0.10547729, 0.24030268, -0.3287425, 0.6204938, 0.6876083, 0.2399667, -0.027591093, -0.27462196, -0.1777626, 0.8296956, -0.36359906, -0.5913441, -0.53036726, -0.01249234, -0.3513926, 0.0007412182, 0.30144656, -0.6925705, -0.22171079, 0.12560505, 0.057480678, -0.16509485, 0.29202712, 0.0819835, -0.3439144, -0.029748641, 0.517654, 0.029914223, -1.2410976, -0.501705, 0.20951071, -0.6841106, -0.54706484, -0.5916418, -0.33106512, 0.31648126, 0.010821952, -0.21968506, 0.22246808, 0.17433494, -0.033785857, 0.42763433, 0.35462618, -0.24783479, 0.11663146, -0.12093155, 0.53773993, -0.07335499, -0.3442886, 0.019157972, 0.8090639, -0.16042855, 0.0797147, -0.31189212, 0.26957124, 0.43044126, -0.011079665, -0.23271188, 0.28515032, 0.9516423, 0.745323, -0.48409256, 0.39369094, -0.44984058, -0.31310114, -0.710459, 0.12962013, -0.0015654173, 0.4106322, -0.16396193, -0.5873673, -0.1691733, -0.056794725, 0.40887555, 0.08811679, -0.06625867, 0.10922197]</t>
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[-0.54886514, -0.0897772, 0.5265508, -0.08862519, -0.30825147, 0.17130154, 0.102592774, 0.14487338, 0.16520096, -0.3326659, -0.045089863, -0.5436663, -0.19109675, -0.5067798, -0.5381097, -0.31539014, 0.5391884, 0.049459264, 0.38020384, -0.20494564, -0.83143246, 0.47647178, 0.22353591, -0.45117098, -0.12465068, -0.031524662, -0.19517934, 0.0617167, 0.35674846, -0.10128213, -0.21944553, 0.6290164, 0.014569691, -0.058545515, 0.5196932, 0.094826266, -0.6822353, -0.32391044, 0.50106275, -1.0104401, -0.3334529, -0.50545615, 0.04470699, 0.32214424, -0.03531535, -0.3833461, -0.3746439, -0.1442716, 0.13795431, -0.15803188, -0.0032834809, 0.061901134, 0.65595, 0.6357458, 0.770262, -0.5050089, 0.5065915, -1.0790122, -0.070520654, -0.14413449, 0.12872316, -0.65379214, -0.42862475, 0.24515183, 0.12144579, -0.044400595, -0.13762638, 0.18672314, -0.31883138, 0.66441715, 0.54484373, 0.1529364, 0.041775115, -0.18744758, -0.09757748, -0.41018304, 0.30932185, 0.04461591, 0.3154026, 0.21868569, -0.02971827, -0.11634559, -0.3844283, -0.34137923, -0.39304435, 0.6802809, 0.03151929, -0.3127177, -0.5662024, -0.09433764, -0.88406616, -0.65122694, -0.26750025, -0.13366911, -0.6236295, -0.765901, 0.55324244, -0.010141169, 0.5108754, -0.17557232, 0.37828958, 0.22362846, 0.2572191, 0.59254843, -0.39018324, 0.32756203, -0.40923446, 0.14033881, -0.44665438, -0.58659726, 0.8121655, -0.3565719, 0.32977185, -0.26567268, 0.17538504, 0.8903126, -0.51702, -0.43257937, -0.5749776, -0.20499922, 0.072096266, -0.19349511, -0.47240987, 0.9189858, -0.6181112, 0.51488, 0.46266297, -0.701546, 0.63129497, -0.06693827, 0.03458052, -0.7391476, 0.6673424, -0.2988322, -0.17805454, 0.029094914, -0.040091533, -0.061570246, 0.6292764, 0.51709706, -0.045650974, 0.022788009, 0.3900676, -0.16930251, 0.44873115, -0.17750692, 0.12239288, -0.6741376, -0.5024028, -0.21477664, -0.56378675, 0.19575666, -0.37958145, 0.6184284, -0.032846443, 0.006094334, 0.41331196, -0.4922465, -0.055213325, -0.28956705, -0.21473815, -0.3704498, 0.71468747, 0.24972256, 0.15034929, 0.19306575, 0.24757855, 0.1516698, -0.8806669, -0.839465, -0.24359734, 0.040928088, -0.5750401, -0.24226697, -0.23001266, 0.67857295, 0.40312994, -0.07833791, 0.23093922, 0.19259718, -0.15171774, 0.09416492, 0.092764765, 0.18065423, 0.20714748, 0.3350115, 0.14735071, -0.1392363, -0.21273988, -0.12195304, 0.010099671, -0.09386054, 0.51330435, -0.47867882, 0.15767413, 0.79129106, 0.1507475, -0.601799, -0.19135273, 0.07398371, -0.85696507, 0.6023283, 0.7055052, 0.7078045, -0.56093633, 0.60833097, 0.2960406, -0.36040938, 0.1372551, -0.7839426, -0.8642971, 0.5646282, 0.31479785, 0.5671718, -0.47490564, 1.0371782, -0.6064229, 0.018686892, -0.016798185, -0.17649081, 0.57300264, -0.2427249, 0.75017834, 0.14107054, -0.6436249, -0.04293802, 0.12762873, 0.28389868, 0.12942167, 0.36120054, 0.04731295, -0.33002388, -0.084742256, -0.21541215, 0.74252146, -0.2808896, 0.20774505, 0.16919893, 0.45346573, -0.6203242, -0.2881582, 0.9508972, 0.586159, -0.4855203, 0.22537354, 0.058790114, 0.046069972, -0.59474486, 0.60489804, -0.99246174, 0.5499226, 1.0575883, -0.883754, -0.36357045, 0.2031445, -0.10639109, -0.9993215, 0.9245784, -0.09500524, 0.09736957, -0.48782286, 0.48632902, -0.07489445, -0.36509955, -0.22003488, 0.6736627, 0.19117935, -0.609835, 0.4458343, -0.2993999, -0.110297255, -0.2618017, 0.24424314, 0.062129293, 0.29254562, 0.27833706, -0.36760968, -0.19970542, 0.07986274, 0.3716437, 0.41413462, 0.2721634, 0.71327066, 0.066262156, -0.02062081, 0.3558222, 0.64826274, 0.05198613, 0.39322093, -0.7553264, 0.32895443, -0.23082441, -0.2559647, -1.6046233, -0.3269077, 0.8403632, -0.6330425, -0.095037624, -0.21415155, 0.0649835, -0.7906222, 0.6379156, -0.39381832, 0.25729162, -0.010285098, 0.46809372, -0.42677093, -0.18620896, 0.40318716, 0.8579287, 0.09277156, -0.20742722, -0.1830266, -0.32801762, -0.086800724, -0.32630485, -0.15329045, -0.45585382, -0.42166138, -0.05383906, -0.017496852, 0.16732518, 0.5556786, 0.5934918, 0.5305747, -0.21985483, -0.17024474, 0.09557187, -0.4447003, -0.3240167, -0.24362043, -0.71945924, 0.84546876, -0.023764333, -0.25859347, -0.40064055, -0.031911988, -0.22367668, 0.22655576, 0.16487391, 0.13292922, -0.22781402, -0.49972555, -0.11289888, 0.14155968, 0.7949946, -0.36958635, 0.12532504, 0.022851791, -0.71953493, 0.030091695, -0.19694225, -0.268575, 0.43148398, 0.6744262, 0.36925277, 0.69192666, 0.5862715, -0.18013056, 0.096881956, 0.5941414, -0.3880706, 0.048682794, 0.18143375, -0.012134287, -0.38691574, -0.34827498, 0.7123049, -0.2933972, -0.077741906, -0.23895216, -0.07886516, -0.07872228, -0.7088571, -0.2192175, -0.12316365, -0.32864872, -0.2824696, -0.025360547, -0.56353635, 0.80074334, 0.5913823, -0.043372888, -0.5598174, 0.5332837, -0.5390356, -0.42681488, -0.18875761, -0.15225607, -0.158015, -0.06688607, -0.5430069, -0.20251036, -0.039430365, -0.44750798, -0.32278526, 0.12167614, 0.033449367, -0.3190571, -0.67879415, 0.41417646, 0.035199616, 0.5954639, 0.16136469, -0.5568233, 0.44510174, 0.70565593, -0.20605598, 0.0097977985, -0.17182322, -0.48504987, 0.10560351, -1.1551499, -0.59443766, -0.34774953, 0.043415077, 0.33353794, 0.51605654, 0.31620383, -0.36933112, 0.0038284378, 0.29964456, 0.18821236, 0.2016871, -0.1470722, 0.18316308, -0.13480528, 0.27822173, 0.33206585, 0.5549106, -0.0041578105, 0.57005, 0.42238325, -0.78209674, 0.71100956, -0.7484448, -0.15246288, 0.23656283, -0.4802272, 0.22441323, 0.24581872, -0.096694514, 0.56532323, 0.0826449, -0.82173514, -0.41738704, 0.19607858, -0.3516115, -0.9895363, -0.13977297, -0.3405763, -0.8775291, -0.08678969, -0.062790886, -0.02201929, 0.012258728, 0.55088305, 0.22168285, -0.18122521, 0.4720565, -0.3550061, -0.20064668, -0.044067398, -0.8695596, -0.060952518, 0.6757787, -0.06598804, -0.1165186, -0.62196195, 0.3565203, -0.26057634, -0.08920508, 0.17470077, -0.03882402, 0.43799204, -0.28869358, 0.09842846, 0.1688518, -0.019312732, 0.47284925, -0.098750435, -0.29016596, 0.83636385, -0.12742388, 1.0865695, -0.23405822, -0.60440713, 0.08074299, 0.572802, 0.4327391, -0.42803082, 0.07248697, 0.4550403, -0.22215874, 0.1616182, 0.35647658, -0.6100882, 0.80237466, -0.31398946, 0.7498136, 0.3470718, -0.3505057, -0.59463406, -0.168825, -0.08181667, -0.20077467, 0.054183517, -0.48866653, -0.54704964, 0.4125039, 0.14470457, -0.46399656, 0.5087151, -0.02920165, -0.24202459, 0.664843, -0.38672638, 0.10203746, -0.23895764, 0.07507025, -0.19670469, -0.28688562, -0.092374876, 0.367172, 8.311537e-05, 0.12675628, 0.011493463, 0.01384319, -0.18519297, -0.008313353, 0.8019154, -0.33167392, 0.19889933, 0.026709931, 0.5100516, -0.35069236, -0.2075972, 0.3742804, -0.12970679, 0.41535082, -0.3315242, -0.6330792, 0.45680395, -0.155707, -0.7271855, 0.4417548, -0.09176168, 0.46686262, -0.37333146, -0.103568494, -0.58701754, -0.19039355, -0.8226482, -0.4304355, 0.008137492, -0.29080474, -0.3519308, -0.0008568524, -0.5590755, -0.06173941, -0.28418243, 0.24481566, -0.44078887, -0.20986307, -0.12742679, 0.12458042, -0.2981007, 0.55126786, 0.5919316, 0.52701783, -0.19588923, 0.17564522, 0.09236833, -0.2341121, -0.12922294, -0.6973576, -0.7898229, -0.22297658, 0.31584752, -0.367831, 0.6715463, -0.52508146, -0.13020784, -0.91634464, 0.22795826, -0.029978748, -0.08251167, 0.09303149, 0.026688065, -0.08966067, -0.67319894, -0.40634117, 0.5434997, 0.05174033, -0.2639744, -1.043621, -0.487517, -0.10106328, -0.26600862, 0.21711206, -0.0015464856, 0.55778337, -0.09962952, -0.43592703, -0.5910337, -0.45167583, 0.5973091, -0.3230897, -0.4172757, 0.3454168, -0.1328888, -0.21078926, 0.60170376, 0.22260812, -0.27670023, 0.39815295, 0.06495854, 0.10047441, 0.47192138, 0.40228507, -0.75395626, 0.07353452, -0.22960912, -0.13788766, -0.35040125, -0.07686179, 0.22646935, -0.032118812, -0.17114301, 0.12227086, -0.1696111, -0.52028143, 0.69688845, 0.10583654, 0.0022592975, -0.44148958, 0.008012973, 0.06085904, -0.25700578, -0.91250443, 0.14074565, 0.06576594, -0.15274717, -0.1976303, -0.055637915, -0.61094445, -0.29566184, -0.6698838, 0.11154473, 0.24091768, -0.18885161, -0.58836436, 0.21045215, -0.45435148, 0.22213036, -0.13015905, -0.414773, 0.079025425, -0.18156864, 0.13194187, 0.048515406, 0.0005600883, 0.42513365, -0.755474, -0.1876222, -0.5008262, -0.6115937, 0.14166671, 0.10950824, 0.36012852, 0.2547375, -0.3606788, -0.20960964, -0.12585643, -0.31968725, -0.27288267, 0.7808398, -0.071082026, 0.62313473, 0.40707752, -0.040255383, -0.28386343, -0.06852769, 0.28412235, -0.31447375, 0.7546739, -0.12620263, -0.58623576, 0.18694721, 0.055632446, -0.3667773, 0.18635234, -0.21455011, -0.13748749, -0.014903471, 1.3462404, -0.2261219, -0.038421616, -0.1291763, -0.08641249, -0.086520895, 0.27008235, -1.0754074, -0.28941792, 0.48396778, -0.41519827, 0.28961614, -0.0778384, -0.5832348, 0.090525165, 0.17513683, 0.08229648, -0.3272412, 0.30011743, -0.012133815, -0.32936117, 0.063786924, -0.2176256, 0.4735514, -0.98297715, -0.09722345, -0.14776227, -0.5199956, -0.8357732, 0.10360585, -0.6482761, 0.2021396, -0.17157836, 0.58714944, 0.6832272, 0.43751806, -0.29247454, 0.23358996, 0.37040746, -0.09400924, 0.27019155, 0.014646611, 0.29948536, 0.1371271, -0.7560902, -0.07843337, 0.28801495, -0.5957508, -0.44926542, 0.010530595, 0.45621362, -0.42165896, -0.07645219, 0.2021015, 0.47313437, 0.5959906, 0.09457268, -0.6536734, 0.50121456, -0.2827701, 0.09095587, -0.5221433, 0.05244769, 0.31605586, 0.35869297, -0.06575037, 0.17909066, -0.41820922, 0.033504926, 0.16894704, 0.10804321, 0.14675708, -0.29897872]</t>
         </is>
       </c>
     </row>
@@ -576,20 +636,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TPA란?</t>
+          <t>레오미터란?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Texture profile analysis</t>
+          <t>물성을 측정하는 기기를 통칭합니다.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[0.4885334, -0.11603614, 0.2511666, -0.30305386, -0.34362522, -0.050081413, 0.3188912, 0.76404923, 0.4751886, -0.17285335, -0.2155328, -0.08490473, -0.52112937, 0.20814234, -0.30167708, -0.14540413, -0.06460733, 0.13168643, 0.25948268, -1.0287849, -0.6278779, 0.058240455, 0.36083746, 0.10047832, -0.0026055078, 0.07033342, -0.10123489, -0.17302822, 0.96450996, -0.84660596, -0.17058848, -0.08814504, -0.025447607, 0.3729366, 0.27626196, 0.09471894, -0.57218, 0.089420654, -0.33137473, 0.1828603, 0.10448307, -0.59266084, 0.16355897, 0.073578775, 0.18550326, 0.007676676, 0.3492802, -0.39072287, 0.023468869, 0.6233842, -0.1265993, 0.24205196, -0.023913361, 0.4316875, -0.36046317, -0.844708, -0.39071357, -1.0317355, 0.2943777, -0.18773109, 0.29446566, -0.6841247, 0.07934774, 0.5602292, -0.31024867, -0.39779234, -0.7820325, 0.047475863, -0.034707714, 0.2174939, 0.36129963, -0.1755618, 0.45609346, -0.14170934, 0.37940493, -0.9352234, 0.028161263, -0.5098231, 0.24898864, 0.9504154, -0.14894171, -0.797942, -0.8480614, -0.8126077, -0.26923996, -0.27233124, 0.013319761, -0.4501276, -1.213358, -0.2961175, -0.3738071, 0.20253712, 0.21950345, -0.015078659, -0.28374, -0.18323822, -0.075198345, 0.16270894, 0.093613714, 0.17774312, -0.047182526, 0.1610366, -0.065746635, 0.33262733, -0.028250583, -0.1288283, -0.63305956, -0.11273381, -0.49240324, 0.24523707, 0.36004767, -1.008127, 0.20028527, 0.5554094, -0.27101722, -0.03710978, 0.050466884, 0.47504643, -0.1026448, 0.4884704, 0.29143366, 0.22451441, -0.22192872, 0.6755059, -0.56223255, 0.31262484, 1.1013864, 0.1424696, 0.27456608, -0.50515395, -0.040403564, 0.012183118, 0.24621366, -0.10992346, -0.47196782, -0.74672705, 0.38531193, -0.5088623, 0.5977191, 0.24844652, 0.32416388, 0.28257215, -0.15251447, -0.14506604, 0.540649, -0.03865852, 0.59323794, -0.16245116, -0.056780133, -0.566637, -0.29988995, 0.022838116, -0.79674894, 0.2573212, -0.028704727, -0.67731994, -0.26716033, 0.23293024, 0.34614506, -0.18182981, 0.4991264, -0.37109342, 0.11821569, -0.11244132, 0.26266667, 0.17318638, 0.59357995, -0.23354472, 0.5461173, 0.17384648, 0.04722759, -0.08448241, -0.11153951, 0.20275743, -0.06258676, 0.115576126, -0.04126553, -0.019533707, 0.16394255, -0.67651963, 0.014015156, 0.31414977, -0.43382052, 0.44561782, 0.1800158, -0.04651919, 0.57761306, 0.08854715, -0.36439928, -0.30603775, 0.32406726, 0.20198154, 0.1494198, -0.22077413, -0.29360044, 0.72808355, -0.14947076, 0.049168646, -0.4005898, -0.63691586, -0.048878044, 0.022402754, 0.60071504, 0.36209285, 0.6042838, 0.325693, -0.4440982, 0.070207745, -0.17337996, -0.60533905, -0.034046814, 0.93132013, 0.097009696, 0.21047051, 0.024842985, 0.007735466, -0.09331423, -0.13856314, -0.2229683, -0.001745599, 0.11161695, 0.14932707, 0.04977885, -0.35974348, 0.10560288, -0.7554681, 0.17391719, 0.41755626, 0.13505627, -0.39926967, -0.5354284, -0.07514741, -0.21907789, -0.6219506, 0.90046215, 0.50892127, 0.640693, 0.36513612, -0.5397989, -0.5001065, -0.15581013, 0.41950896, -0.41297475, -0.15241994, -0.22206073, 0.19899613, -0.09723526, -0.2889937, 0.35042787, -0.32966682, 0.17236269, 0.5475258, -0.45567465, 0.17975523, 0.16018343, -0.9855415, -0.33271107, 0.3711479, -0.70002896, 0.017387934, -0.006086389, -0.049539465, 0.085069954, 0.25377062, -0.68818855, -0.26349318, 0.12680261, -1.426835, 0.40310684, -0.6141007, -0.71351916, -0.5180694, 0.34561095, 0.3583562, -0.40449405, 0.8523887, 0.28901702, 0.21941751, -0.058133196, -0.19161393, 0.6386488, 0.359602, 0.21922083, 0.49411213, -0.016762128, -0.4981135, -0.18041037, -0.37083077, -0.280417, -0.52749974, -0.22666454, 0.20654304, -0.39177093, -1.1096077, 0.27091715, 0.06137311, -0.17791454, -0.10723001, 0.36885312, 0.04224668, 0.4457488, 0.30819103, -0.039256185, 0.34405303, 0.5741324, 0.1849159, -0.21718483, 0.114855565, -0.19112527, 0.4136912, 0.21060677, -0.002656389, 0.21538877, 0.26239964, 0.19362901, -0.046669547, -0.05036986, -0.53690416, -0.09029257, -0.101661004, -0.19005185, 0.32420075, 0.055035073, -0.17833017, 0.3969876, 0.42715254, 0.32738104, 0.33321753, 0.21385966, -0.4179351, -0.7219617, -0.2971972, 0.56056505, 0.09808987, 0.17834143, -0.52838486, 0.44249848, -0.4310424, -0.2049048, -0.18006746, -0.5477054, 0.29473835, -0.41113126, 0.6941972, -0.4569812, 1.242805, 0.015790896, -0.07163963, -0.32707784, -0.4654487, -0.8483301, -0.066575505, 0.1620688, 0.078553475, 0.5062613, -0.16166644, 0.54277045, 0.49465743, -0.3740714, -0.38381192, 0.6574344, -0.96539336, 0.4798795, -0.9433145, -0.28490415, 0.3959186, -0.35501707, 0.24940874, 0.35985306, 0.3920965, -0.12401152, 0.10106331, 0.8500075, -0.35823408, -0.61173606, 0.0457121, -0.7250075, -0.66831326, -0.21624161, -0.10359442, 0.89228445, 0.6526451, 0.040783025, -0.15814495, -0.085675664, -0.7033758, -0.17038834, 0.32817248, 0.1650917, 0.28830326, -0.74298173, -0.36444604, 0.2706101, -0.16018675, 0.026364595, 0.3495665, 0.2126442, 0.40720913, -0.24301879, -0.6757085, 0.59541816, -0.13836862, 0.45280036, 0.29908848, -0.41776755, -0.5473711, 0.43042898, -0.37777218, -0.57477826, -0.2270649, -0.849919, -0.07629036, -0.8635633, -0.43188098, -0.063109525, -0.4821135, -0.2260225, 0.77927035, -0.12941016, 0.17122169, 0.41828692, -0.7176607, 0.50416213, -0.53851753, 0.31573653, 0.6211794, 0.49129522, 0.49932036, 0.0069941827, -0.45760843, 0.31916532, 0.036963526, 0.6820325, 0.13251027, 0.149166, -0.66129637, -0.11568994, 0.2079109, -0.14704162, 0.7818608, 0.2771267, 0.24228191, 0.3775762, 0.107162766, -0.32599974, -0.2918907, -0.39061952, -0.8833048, -0.9255295, -1.108967, -0.5497353, -0.851161, 0.34671512, -0.047374442, -0.62633103, -0.6587823, 0.8186082, -0.10488271, -0.21169846, 0.32643387, -0.14201893, 0.062285144, -0.61152285, -0.69672936, 0.60036314, 0.2941086, 0.06337479, 1.1127139, -0.11741093, 0.5586703, -0.55130404, -0.121858425, -0.016277257, -0.015789272, 0.3541715, -0.22733723, -0.30572143, 0.12504886, 0.38607848, 0.13377906, 0.6292489, -0.2884449, 0.5246002, -0.14511342, 0.4956565, -0.14200167, -0.26469138, -0.5422291, -0.102481365, 0.22403228, -0.321534, -0.022581005, -0.31965622, 0.25018254, 0.6622656, -0.27020893, -0.21906729, 0.5989695, -0.4516835, 0.7276414, 0.08799386, -0.025237694, 0.14432937, -0.22288209, 0.03988947, 0.4935595, 0.5995271, -0.23435883, -0.48233715, 0.09578667, -0.101523936, -0.47804794, 0.74551183, -0.12006255, 0.075945534, 0.4008062, 0.12770502, -0.18722458, -0.3116354, 0.5387573, -0.49055168, -0.085525356, 0.14610694, -0.47886273, -0.010766834, -0.11870686, 0.8086951, -0.10672051, -0.054782417, -0.40686032, 0.112581275, 0.09613305, 0.20892853, -0.0940091, 0.8003257, -0.0816046, -0.15781733, 0.6698007, 0.50055766, 0.060164306, 0.2801762, -0.25690198, -0.034323547, -0.001974058, -0.7592694, 0.06663614, 0.1112395, 0.5706807, 0.19964404, 0.19739169, 0.20091438, -0.39245453, -0.53291875, -0.6050269, -0.578274, -0.42022052, -0.19622189, -0.57724434, -0.5615567, 0.18958545, 0.09638085, 0.46320888, -0.89467984, -0.3340344, -0.3703519, 0.58818984, -0.38579535, 0.18926243, 0.068527244, 0.20290332, -0.35014486, 0.23746574, 0.10367086, 0.21325767, 0.1263361, -0.66691756, -1.043198, -0.42913926, -0.19516653, -0.32644227, -0.21978335, 0.0121258395, -0.462603, -0.22189848, 0.8637641, -0.56743777, -0.6588631, -0.11022047, -0.23684381, -0.49810922, 0.1990747, -0.8001587, 0.06906921, -0.09644624, -0.5802385, -0.04504021, 0.25357038, -0.13862084, 0.043264214, -0.10970744, -0.5941724, 0.4425497, -0.16924728, 0.06987097, -0.89901596, -0.3508301, 1.0452162, -0.39414373, 0.050527927, 0.6561899, 0.13104981, -0.046209354, 0.30959573, -0.06675818, -0.41604754, 0.0743085, -0.6896371, -0.4195429, 0.18589135, 0.49302015, -0.024171809, 0.2814063, -0.41054735, -0.21576114, -0.16321413, -0.25754657, -0.10254536, -0.5432554, -0.07525734, -0.334554, 0.61999196, -0.4908599, 0.26421016, -0.85131717, -0.13631898, -0.27883437, 0.074662246, 0.48806635, -0.5179183, -0.86075383, -0.24847479, -0.3726217, -0.2771426, 0.12133432, -0.061537787, -0.8423831, -0.06562846, -0.13033326, -0.66729873, -0.08519676, -0.281975, -0.050435215, 0.79217696, -0.22553492, 0.30526808, 0.24636339, 0.63341063, -0.07726174, -0.14871624, -0.46087456, 0.10576537, 0.19432335, 0.4933537, -0.37345544, -0.8783471, -0.2955036, -0.42979407, -0.20549451, 0.14030565, 0.13879411, 0.9383761, -0.16829067, 0.07518154, 0.6417275, -0.2743506, -0.29780883, 1.0747975, -0.33571646, 0.7823264, 0.20264328, -0.53257376, 0.23356332, 0.3532515, 0.6053083, 0.044956177, 1.2569257, 0.4745244, -0.047113508, -0.028916577, 0.19918181, -0.123829015, 0.3928465, 0.44560578, -0.42202553, 0.9122791, 0.80628115, -0.3401345, -0.22115707, -0.4369501, -0.2802387, -0.50893146, 0.06265982, -0.51538044, -0.46200332, -0.3708078, -0.45200464, -0.11704438, -0.11307871, -0.11447147, 0.02782861, -0.008910462, 0.017106002, -0.42494026, 0.18517776, -0.5811972, -0.0129392585, 0.23632468, -0.7170189, -0.07660102, -0.89050007, 0.5770984, -0.15686077, -0.2213183, -0.32220525, 0.40205863, -0.23357742, -0.08433985, -0.4667021, -0.71952534, -0.4637549, 0.14901398, -0.02874546, 0.16437127, 0.31107807, 0.010703936, -0.081041574, 0.05976671, -0.052495155, 0.16079856, 0.1040011, -0.22649781, 0.5135649, -0.08228018, -0.39795196, 0.24215855, 0.23885645, -0.2310612, 0.8006139, 0.6019363, 0.545127, 0.17909081, -0.26487663, -0.3073562, -0.1946736, -0.85128623, -0.25623772, 0.44997975, -0.020184476, -0.19073933, -0.36075678, 0.10699437, 0.30974042, 0.019065859, 0.22457041, 0.6285601, 0.37750015, -0.055243447, 0.026250869]</t>
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[-0.0023564498, -0.22102602, 0.17461914, -0.20473431, 0.13635786, 0.19385354, 0.25956127, 0.0023127235, 0.37615624, -0.22063194, -0.32046404, -0.35025963, -0.2307316, 0.52173823, -0.4646561, -0.14948069, -0.028846204, 0.42959622, 0.6126346, -0.1374958, -0.3115249, 0.4527869, 0.2313223, 0.4999075, 0.09957707, 0.7193511, -0.23936492, -0.13446964, 0.9254341, -0.95392156, 0.043246914, -0.08867297, 0.057679325, 0.27266708, 0.5232107, 0.092624836, -0.79584104, -0.47957098, -0.3402206, -0.69031626, -0.19219293, 0.08175019, -1.0161089, 0.7621414, 0.00693581, 0.105494194, 0.0862058, -0.581135, -0.15658988, -0.17635383, -0.13572954, -0.17380393, 0.08008319, -0.04165779, 0.0034848202, -0.21384405, 0.096198566, -0.9985402, 0.088798486, 0.22040619, 0.5923734, -0.50203747, -0.7496255, 0.5996358, 0.56236273, -0.24151671, -0.28699505, 0.021366717, -0.3603016, 0.41220534, -0.09371304, 0.63021344, 0.3673412, -0.09240705, 0.7363258, 0.033820737, -0.22052813, -0.33796832, 0.8264208, -0.23201305, -0.014442283, -0.6304285, -0.17619538, -0.23603755, 0.057507288, 0.2097771, -0.29609868, 0.12192613, 0.50408465, 0.6062443, -0.40707436, -0.6687619, -0.22071612, 0.19689447, -0.09098005, -0.10641897, 3.3006072e-06, 0.1862696, 0.5714641, 0.4869168, -0.3426614, 0.4322883, -0.5593403, -0.0010248534, 0.11962805, 0.014557724, -0.24967052, 0.50961256, 0.08331358, -0.31656936, 0.25185692, -0.0053309775, 0.5118987, -0.50950384, 0.03607259, 0.2786511, -0.7840287, -0.32255474, 0.42431653, 0.12904815, 0.28035992, -0.68821293, 0.2893083, 0.4237008, -0.606849, 0.08744791, 0.28056553, -0.6421085, -0.73970586, -0.26795194, -0.02006855, -0.082862526, -0.06419896, 0.038690697, -0.79402584, -0.25012168, 0.010991752, -0.18041979, 0.41764164, 0.20491724, 0.1432725, -0.09762689, -0.034146216, -0.29411885, 0.019188896, -0.15224211, 0.9026424, -0.18119602, 0.16775964, -0.19379877, -0.43778944, 0.5271973, -0.9356646, -0.3671867, 0.5254749, 0.014977959, 0.07176603, -0.38674536, -0.12733673, 0.16455738, -0.13717686, 0.397704, -0.35090563, -0.54811686, 0.12680797, 0.12425164, 0.2648031, 0.41402924, -0.256609, -0.65278846, -0.1048511, -0.8744332, 0.1984172, -0.019902224, 0.2922015, 0.5269145, -0.5603052, 0.09561366, -0.19753337, 0.09652934, -0.595323, 0.6652189, -0.19041692, 0.56847864, 0.12068472, -0.0058880723, 0.5341468, -0.037053864, -0.91406995, -0.50372964, 0.2399304, -0.26842192, 0.477823, -0.053716034, -0.021679057, 0.86915374, -0.4938893, -0.25092345, -0.008891801, 0.02692466, -0.5332907, 0.4492416, 0.11587548, -0.17944412, 0.58705145, -0.19049089, -0.1687028, -0.42578566, 0.1085146, -0.8557539, 0.3473408, 0.8101967, -0.34400627, 0.19518675, -0.46416533, -0.50883603, -0.31816116, -0.34017968, 0.41679338, -0.26551166, 0.6779377, -0.013554241, 0.6093595, -0.106842674, -0.24672808, -0.4038804, 0.05454884, -0.0046962104, -0.098916344, 0.18993877, -0.44951966, -0.30563313, -0.060170833, -0.6479883, 0.086543344, -0.10239887, 0.32290238, -0.09697672, -0.6644135, -0.20253138, 0.3463315, 0.31706896, -0.2413138, -0.6524851, -0.43827066, 0.04028889, 0.023019046, -0.95913047, -0.2311486, -0.30014393, 0.42432228, 0.025207018, -0.015285417, -0.12077162, 0.0096639125, -0.5554512, -0.38102463, 1.089326, 0.13941191, 0.2410986, -0.7643917, -0.3436323, 0.1210295, -0.19693266, 0.07775506, 0.054460954, 0.41271713, -1.1319808, 0.70021915, -0.52871627, -0.5673743, 0.20710371, 0.15588449, -0.358389, -0.0756528, 0.29661283, 0.20492364, -0.26141962, 0.37089205, -0.37844864, 0.25669855, -0.030600747, -0.0922079, -0.4128958, 0.022059353, -0.48637888, 0.5040297, 0.20700037, 0.17054333, -0.6581226, 0.09742018, 0.09299878, -0.0702789, -1.122336, 0.44934034, 0.6594861, 0.25205198, -0.99369246, 0.29224542, 0.2778333, -0.016885763, 0.5485596, 0.46495688, 0.33932233, 0.11613221, 0.35645783, 0.1763487, -0.30244052, 0.025377907, 0.63650364, 0.7839656, 0.5384526, 0.15955094, 0.04400937, -0.35669482, -0.16315067, -0.38354206, -0.8105843, 0.13886027, -0.07688576, -0.8049237, 0.36518642, 0.0067732334, 0.035260737, -0.28146043, 0.09334079, -0.5822082, 0.37588373, -0.5463785, -0.22570805, -0.7586166, -0.13203377, 0.32712743, 0.12960309, -0.11111037, 0.30294478, 0.44309008, -0.675661, -0.39598384, -0.044308748, 0.9865315, -0.2774947, -0.43640265, 0.41421497, -0.4846728, 1.1511241, 0.121148326, -0.28754368, 0.39185452, -0.55120516, -0.5458829, 0.15743415, 0.1941198, 0.50395876, 0.23595685, -0.06317238, 0.1713311, 0.8524492, 0.14215015, 0.3231583, 0.19703056, -1.3432126, 0.8143471, 0.24391173, -0.39218533, 0.29155812, -0.4903488, -0.03867372, -0.11668291, 0.14882481, 0.51047516, -0.113094, -0.5434752, 0.15494786, 0.19981979, 0.29220054, 0.13666098, 0.54793, -0.21326418, -0.30650547, 0.6963623, 0.9629955, 0.3787849, -0.65848225, 0.008193031, -0.2114036, -0.19509888, 0.7287431, -0.6414076, 0.08703739, -0.70851994, -0.2529299, 0.40121546, 0.32667816, -0.54165787, -0.31199405, -0.1613251, 0.36760214, -0.7092504, -0.54061335, 0.14728631, -0.08303755, 0.18843865, -0.21105812, 0.17685974, -0.2704214, 0.47625148, -0.3932803, -0.14382939, -0.07542477, 0.11957687, 0.049704105, -0.5272947, -0.3465518, -0.008269106, 0.5646387, -0.13069801, 0.17097218, -0.6845514, -0.28145435, 0.2229504, -0.41106012, 0.63851714, -0.40764937, -0.050983217, 0.61532277, 0.075879194, 0.0767348, 0.37242723, -0.0645042, 0.50003296, -0.019832684, 0.23353057, -0.49812832, -0.05934878, -1.0899113, -0.71790886, -0.13233511, -0.4223586, 0.030730799, 0.55823845, -0.3266645, 0.5250017, 0.48490405, -1.2316439, -0.1396475, -0.16177727, 0.042531762, -0.939903, 0.07564916, -0.33282146, -0.94373083, -0.20433812, -0.026349341, -0.2563585, 0.34893838, 0.47205913, -0.21273388, -0.2863891, 0.264307, -0.6302988, -0.28780717, 0.2790435, -0.006811475, 0.20354898, 0.43605098, 0.43609032, -0.17778595, -0.47703817, 0.07124473, -0.8175891, -0.027302206, -0.0505735, -0.7898438, 0.15424435, -0.067514226, 1.1342946, -0.06719692, 0.24660055, -0.32972085, -1.1173242, -0.029524207, 0.36836323, 0.14157246, 0.26041165, 0.9653177, 0.3224124, -0.06261206, 0.4755068, 0.18646628, 0.072019786, 0.5110866, -0.07336905, 0.5433635, 0.09895357, 0.09995327, 0.2820579, -0.26285473, -0.00021020074, 0.058865625, -0.47248903, -0.07247939, 0.16925825, -0.9034682, 0.7626079, -0.27856615, 0.009327112, 0.018895037, -0.25798783, -0.11443781, -0.16675882, -0.05411753, 0.4157469, 0.6032191, 0.3205614, 0.1667925, 0.22472246, 0.11888047, -0.52373314, -0.16803163, -0.7517745, -0.21229012, -0.5309965, -0.1743338, -0.0046155155, -0.16468017, -0.001627254, 0.17531861, 0.13566239, 0.24544244, -0.07135672, 0.48279893, -0.2560997, 0.7541134, -0.081616394, -0.64628416, 0.008892079, -0.17278081, 0.2461489, 0.2764243, 0.24544765, -0.14323288, 0.72078484, -0.09416139, -0.4661866, 0.4194465, 0.5598495, -0.25218573, -0.3744835, 0.103212155, -0.42319784, -0.6578327, -0.14478196, -0.7866667, 0.09652091, -0.19994469, -0.7104804, -0.823886, -0.59967625, 0.5455116, -0.17393637, 0.6790181, 0.31022274, 0.15042533, -0.4548339, -0.07626744, 0.35665908, 0.5535182, 0.30375835, 0.4943336, 0.19903821, -0.08334244, -0.05016543, 0.30151188, 0.5179879, -1.1626127, -0.12938772, -0.087746836, 0.13380148, -0.58165437, 0.43203595, -0.13903518, -0.10592377, -0.038081888, 0.28721562, -0.40037724, 0.10842154, 0.4736283, -0.37978676, 0.50704324, 0.051365662, -0.10242307, 0.5501901, 0.2582165, -0.736505, -0.9024963, -0.9330904, -0.24491368, -0.050438955, 0.29038644, -0.10269713, 0.07268906, 0.19370449, -0.21289085, -0.14907202, -0.6679447, 1.027426, -0.14163636, -0.4794215, 0.45789513, -0.32401514, 0.09579718, -0.64298296, -0.2986529, 0.06827874, 0.3256696, -0.14399809, -0.2815803, -0.055473387, 0.76332504, 0.08941218, -0.26456922, -0.464357, -0.34152713, 0.026404202, 0.38603878, -0.09381381, -0.6470513, -0.25070894, 0.28810266, 0.10004357, -0.49317136, 0.32620278, -0.22969663, -0.10904985, -0.98164994, -0.33055636, -0.2622992, -0.27455792, -0.5959639, -0.524466, -0.43167076, 0.12837498, -0.31215823, -0.14472112, -0.11807229, -0.4049728, -0.1647072, -0.6568078, 0.44754338, -0.45526278, -0.24958654, -0.49458334, 0.11423489, 0.36544383, -0.12817152, 0.19237715, 0.24262214, -0.34310797, -0.10881158, -0.43575215, -0.5724712, 1.1047416, 0.06408048, -0.28133377, -0.874898, -0.84403545, 0.48955122, -0.040887572, 0.0011589652, 0.32400975, -0.39228907, 0.20376284, -0.2552503, -0.030109217, 0.32855716, 0.37455857, -0.14181562, -0.009277155, -0.37194896, -0.24569197, -0.17709696, 0.13632703, 0.40645424, 0.2889062, 0.5434057, -0.0026141752, -0.09158828, 1.379477, -0.5284669, 0.059563804, -0.46820602, 0.6328226, -0.621431, 0.62973326, 0.35974228, 0.40004435, 0.0049448735, -0.6863926, -0.32476524, 0.3542494, -0.16675335, -0.24084215, 0.028754206, 0.047422588, 0.09056748, 0.43081462, -0.52245134, 0.025533736, -0.0025708925, -0.27319363, -0.35753962, -0.27696362, 0.06261465, 0.3569175, -0.3054179, -0.08046529, 0.20861709, -0.06508496, -0.7628587, 0.20656045, -0.029762939, -0.58461905, -0.5325919, -0.42906132, -0.14416955, 0.31390163, 0.38016725, -0.48543528, 0.17735751, 0.08180276, 0.24933667, -0.47668564, 0.2325655, -0.26847866, 0.18558772, -0.037230622, -0.20241146, -0.360811, -0.024871968, -0.40988886, 0.39138016, 0.26670888, 0.2827981, -0.21614265, 0.38837922, 0.5994883, 0.38915947, 0.0709155, 0.12545648, 0.13888843, 0.49124685, -0.44171035, 0.22021417, 0.06259122, -0.7930069, -0.40084875, 0.11718627, 0.09513497, 0.36219144, -0.27978542, 0.1353613, -0.3010038, -0.31540945, 0.6442047, 0.0091498345, 0.32845154, 0.43211553]</t>
         </is>
       </c>
     </row>
@@ -599,20 +662,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TPA란?</t>
+          <t>rheometer란?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>저작을 모방한 물성 측정 방법입니다.</t>
+          <t>물성을 측정하는 기기를 통칭합니다.</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[0.4885334, -0.11603614, 0.2511666, -0.30305386, -0.34362522, -0.050081413, 0.3188912, 0.76404923, 0.4751886, -0.17285335, -0.2155328, -0.08490473, -0.52112937, 0.20814234, -0.30167708, -0.14540413, -0.06460733, 0.13168643, 0.25948268, -1.0287849, -0.6278779, 0.058240455, 0.36083746, 0.10047832, -0.0026055078, 0.07033342, -0.10123489, -0.17302822, 0.96450996, -0.84660596, -0.17058848, -0.08814504, -0.025447607, 0.3729366, 0.27626196, 0.09471894, -0.57218, 0.089420654, -0.33137473, 0.1828603, 0.10448307, -0.59266084, 0.16355897, 0.073578775, 0.18550326, 0.007676676, 0.3492802, -0.39072287, 0.023468869, 0.6233842, -0.1265993, 0.24205196, -0.023913361, 0.4316875, -0.36046317, -0.844708, -0.39071357, -1.0317355, 0.2943777, -0.18773109, 0.29446566, -0.6841247, 0.07934774, 0.5602292, -0.31024867, -0.39779234, -0.7820325, 0.047475863, -0.034707714, 0.2174939, 0.36129963, -0.1755618, 0.45609346, -0.14170934, 0.37940493, -0.9352234, 0.028161263, -0.5098231, 0.24898864, 0.9504154, -0.14894171, -0.797942, -0.8480614, -0.8126077, -0.26923996, -0.27233124, 0.013319761, -0.4501276, -1.213358, -0.2961175, -0.3738071, 0.20253712, 0.21950345, -0.015078659, -0.28374, -0.18323822, -0.075198345, 0.16270894, 0.093613714, 0.17774312, -0.047182526, 0.1610366, -0.065746635, 0.33262733, -0.028250583, -0.1288283, -0.63305956, -0.11273381, -0.49240324, 0.24523707, 0.36004767, -1.008127, 0.20028527, 0.5554094, -0.27101722, -0.03710978, 0.050466884, 0.47504643, -0.1026448, 0.4884704, 0.29143366, 0.22451441, -0.22192872, 0.6755059, -0.56223255, 0.31262484, 1.1013864, 0.1424696, 0.27456608, -0.50515395, -0.040403564, 0.012183118, 0.24621366, -0.10992346, -0.47196782, -0.74672705, 0.38531193, -0.5088623, 0.5977191, 0.24844652, 0.32416388, 0.28257215, -0.15251447, -0.14506604, 0.540649, -0.03865852, 0.59323794, -0.16245116, -0.056780133, -0.566637, -0.29988995, 0.022838116, -0.79674894, 0.2573212, -0.028704727, -0.67731994, -0.26716033, 0.23293024, 0.34614506, -0.18182981, 0.4991264, -0.37109342, 0.11821569, -0.11244132, 0.26266667, 0.17318638, 0.59357995, -0.23354472, 0.5461173, 0.17384648, 0.04722759, -0.08448241, -0.11153951, 0.20275743, -0.06258676, 0.115576126, -0.04126553, -0.019533707, 0.16394255, -0.67651963, 0.014015156, 0.31414977, -0.43382052, 0.44561782, 0.1800158, -0.04651919, 0.57761306, 0.08854715, -0.36439928, -0.30603775, 0.32406726, 0.20198154, 0.1494198, -0.22077413, -0.29360044, 0.72808355, -0.14947076, 0.049168646, -0.4005898, -0.63691586, -0.048878044, 0.022402754, 0.60071504, 0.36209285, 0.6042838, 0.325693, -0.4440982, 0.070207745, -0.17337996, -0.60533905, -0.034046814, 0.93132013, 0.097009696, 0.21047051, 0.024842985, 0.007735466, -0.09331423, -0.13856314, -0.2229683, -0.001745599, 0.11161695, 0.14932707, 0.04977885, -0.35974348, 0.10560288, -0.7554681, 0.17391719, 0.41755626, 0.13505627, -0.39926967, -0.5354284, -0.07514741, -0.21907789, -0.6219506, 0.90046215, 0.50892127, 0.640693, 0.36513612, -0.5397989, -0.5001065, -0.15581013, 0.41950896, -0.41297475, -0.15241994, -0.22206073, 0.19899613, -0.09723526, -0.2889937, 0.35042787, -0.32966682, 0.17236269, 0.5475258, -0.45567465, 0.17975523, 0.16018343, -0.9855415, -0.33271107, 0.3711479, -0.70002896, 0.017387934, -0.006086389, -0.049539465, 0.085069954, 0.25377062, -0.68818855, -0.26349318, 0.12680261, -1.426835, 0.40310684, -0.6141007, -0.71351916, -0.5180694, 0.34561095, 0.3583562, -0.40449405, 0.8523887, 0.28901702, 0.21941751, -0.058133196, -0.19161393, 0.6386488, 0.359602, 0.21922083, 0.49411213, -0.016762128, -0.4981135, -0.18041037, -0.37083077, -0.280417, -0.52749974, -0.22666454, 0.20654304, -0.39177093, -1.1096077, 0.27091715, 0.06137311, -0.17791454, -0.10723001, 0.36885312, 0.04224668, 0.4457488, 0.30819103, -0.039256185, 0.34405303, 0.5741324, 0.1849159, -0.21718483, 0.114855565, -0.19112527, 0.4136912, 0.21060677, -0.002656389, 0.21538877, 0.26239964, 0.19362901, -0.046669547, -0.05036986, -0.53690416, -0.09029257, -0.101661004, -0.19005185, 0.32420075, 0.055035073, -0.17833017, 0.3969876, 0.42715254, 0.32738104, 0.33321753, 0.21385966, -0.4179351, -0.7219617, -0.2971972, 0.56056505, 0.09808987, 0.17834143, -0.52838486, 0.44249848, -0.4310424, -0.2049048, -0.18006746, -0.5477054, 0.29473835, -0.41113126, 0.6941972, -0.4569812, 1.242805, 0.015790896, -0.07163963, -0.32707784, -0.4654487, -0.8483301, -0.066575505, 0.1620688, 0.078553475, 0.5062613, -0.16166644, 0.54277045, 0.49465743, -0.3740714, -0.38381192, 0.6574344, -0.96539336, 0.4798795, -0.9433145, -0.28490415, 0.3959186, -0.35501707, 0.24940874, 0.35985306, 0.3920965, -0.12401152, 0.10106331, 0.8500075, -0.35823408, -0.61173606, 0.0457121, -0.7250075, -0.66831326, -0.21624161, -0.10359442, 0.89228445, 0.6526451, 0.040783025, -0.15814495, -0.085675664, -0.7033758, -0.17038834, 0.32817248, 0.1650917, 0.28830326, -0.74298173, -0.36444604, 0.2706101, -0.16018675, 0.026364595, 0.3495665, 0.2126442, 0.40720913, -0.24301879, -0.6757085, 0.59541816, -0.13836862, 0.45280036, 0.29908848, -0.41776755, -0.5473711, 0.43042898, -0.37777218, -0.57477826, -0.2270649, -0.849919, -0.07629036, -0.8635633, -0.43188098, -0.063109525, -0.4821135, -0.2260225, 0.77927035, -0.12941016, 0.17122169, 0.41828692, -0.7176607, 0.50416213, -0.53851753, 0.31573653, 0.6211794, 0.49129522, 0.49932036, 0.0069941827, -0.45760843, 0.31916532, 0.036963526, 0.6820325, 0.13251027, 0.149166, -0.66129637, -0.11568994, 0.2079109, -0.14704162, 0.7818608, 0.2771267, 0.24228191, 0.3775762, 0.107162766, -0.32599974, -0.2918907, -0.39061952, -0.8833048, -0.9255295, -1.108967, -0.5497353, -0.851161, 0.34671512, -0.047374442, -0.62633103, -0.6587823, 0.8186082, -0.10488271, -0.21169846, 0.32643387, -0.14201893, 0.062285144, -0.61152285, -0.69672936, 0.60036314, 0.2941086, 0.06337479, 1.1127139, -0.11741093, 0.5586703, -0.55130404, -0.121858425, -0.016277257, -0.015789272, 0.3541715, -0.22733723, -0.30572143, 0.12504886, 0.38607848, 0.13377906, 0.6292489, -0.2884449, 0.5246002, -0.14511342, 0.4956565, -0.14200167, -0.26469138, -0.5422291, -0.102481365, 0.22403228, -0.321534, -0.022581005, -0.31965622, 0.25018254, 0.6622656, -0.27020893, -0.21906729, 0.5989695, -0.4516835, 0.7276414, 0.08799386, -0.025237694, 0.14432937, -0.22288209, 0.03988947, 0.4935595, 0.5995271, -0.23435883, -0.48233715, 0.09578667, -0.101523936, -0.47804794, 0.74551183, -0.12006255, 0.075945534, 0.4008062, 0.12770502, -0.18722458, -0.3116354, 0.5387573, -0.49055168, -0.085525356, 0.14610694, -0.47886273, -0.010766834, -0.11870686, 0.8086951, -0.10672051, -0.054782417, -0.40686032, 0.112581275, 0.09613305, 0.20892853, -0.0940091, 0.8003257, -0.0816046, -0.15781733, 0.6698007, 0.50055766, 0.060164306, 0.2801762, -0.25690198, -0.034323547, -0.001974058, -0.7592694, 0.06663614, 0.1112395, 0.5706807, 0.19964404, 0.19739169, 0.20091438, -0.39245453, -0.53291875, -0.6050269, -0.578274, -0.42022052, -0.19622189, -0.57724434, -0.5615567, 0.18958545, 0.09638085, 0.46320888, -0.89467984, -0.3340344, -0.3703519, 0.58818984, -0.38579535, 0.18926243, 0.068527244, 0.20290332, -0.35014486, 0.23746574, 0.10367086, 0.21325767, 0.1263361, -0.66691756, -1.043198, -0.42913926, -0.19516653, -0.32644227, -0.21978335, 0.0121258395, -0.462603, -0.22189848, 0.8637641, -0.56743777, -0.6588631, -0.11022047, -0.23684381, -0.49810922, 0.1990747, -0.8001587, 0.06906921, -0.09644624, -0.5802385, -0.04504021, 0.25357038, -0.13862084, 0.043264214, -0.10970744, -0.5941724, 0.4425497, -0.16924728, 0.06987097, -0.89901596, -0.3508301, 1.0452162, -0.39414373, 0.050527927, 0.6561899, 0.13104981, -0.046209354, 0.30959573, -0.06675818, -0.41604754, 0.0743085, -0.6896371, -0.4195429, 0.18589135, 0.49302015, -0.024171809, 0.2814063, -0.41054735, -0.21576114, -0.16321413, -0.25754657, -0.10254536, -0.5432554, -0.07525734, -0.334554, 0.61999196, -0.4908599, 0.26421016, -0.85131717, -0.13631898, -0.27883437, 0.074662246, 0.48806635, -0.5179183, -0.86075383, -0.24847479, -0.3726217, -0.2771426, 0.12133432, -0.061537787, -0.8423831, -0.06562846, -0.13033326, -0.66729873, -0.08519676, -0.281975, -0.050435215, 0.79217696, -0.22553492, 0.30526808, 0.24636339, 0.63341063, -0.07726174, -0.14871624, -0.46087456, 0.10576537, 0.19432335, 0.4933537, -0.37345544, -0.8783471, -0.2955036, -0.42979407, -0.20549451, 0.14030565, 0.13879411, 0.9383761, -0.16829067, 0.07518154, 0.6417275, -0.2743506, -0.29780883, 1.0747975, -0.33571646, 0.7823264, 0.20264328, -0.53257376, 0.23356332, 0.3532515, 0.6053083, 0.044956177, 1.2569257, 0.4745244, -0.047113508, -0.028916577, 0.19918181, -0.123829015, 0.3928465, 0.44560578, -0.42202553, 0.9122791, 0.80628115, -0.3401345, -0.22115707, -0.4369501, -0.2802387, -0.50893146, 0.06265982, -0.51538044, -0.46200332, -0.3708078, -0.45200464, -0.11704438, -0.11307871, -0.11447147, 0.02782861, -0.008910462, 0.017106002, -0.42494026, 0.18517776, -0.5811972, -0.0129392585, 0.23632468, -0.7170189, -0.07660102, -0.89050007, 0.5770984, -0.15686077, -0.2213183, -0.32220525, 0.40205863, -0.23357742, -0.08433985, -0.4667021, -0.71952534, -0.4637549, 0.14901398, -0.02874546, 0.16437127, 0.31107807, 0.010703936, -0.081041574, 0.05976671, -0.052495155, 0.16079856, 0.1040011, -0.22649781, 0.5135649, -0.08228018, -0.39795196, 0.24215855, 0.23885645, -0.2310612, 0.8006139, 0.6019363, 0.545127, 0.17909081, -0.26487663, -0.3073562, -0.1946736, -0.85128623, -0.25623772, 0.44997975, -0.020184476, -0.19073933, -0.36075678, 0.10699437, 0.30974042, 0.019065859, 0.22457041, 0.6285601, 0.37750015, -0.055243447, 0.026250869]</t>
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[0.040086553, -0.22363555, 0.6421491, -0.859074, 0.10174708, 0.42158595, 0.6981038, 0.1987095, -0.12110046, -0.13386646, -0.34168783, -0.60161096, 0.19876447, -0.6610338, -0.2768041, 0.14038068, 0.50846004, 0.25259754, 0.28793296, -0.5832224, -0.32367185, 0.53208053, 0.34031737, 0.337327, -0.07915077, 0.4000504, -0.0968283, -0.13170014, 0.6271035, 0.380911, 0.0031255176, 1.1589004, -0.06993957, 0.2106751, 0.47973037, 0.19811437, -1.1221931, -0.25871438, 0.5505903, -0.63183933, 0.07068075, -0.31252304, -0.39950722, 0.4041045, 0.16249083, 0.19777513, 0.49938083, -0.5227518, -0.5323389, -0.24620748, -0.46272793, -0.37814003, 0.8340135, 0.5711557, -0.42843089, -0.2694213, 0.3343378, -0.5726214, 0.23640463, -0.30289182, 0.24820358, -0.7106317, -0.631697, 0.39065486, 0.45812064, 0.22695635, -0.10999513, 0.3899289, -0.3613513, 0.36499268, 0.20976761, 0.106007904, 0.19952047, -0.76513755, -0.1974897, -0.2629469, 0.4011455, 0.17924869, 1.239501, -0.06626247, 0.11170741, 0.11838791, -0.74611384, -0.2195491, -0.4586756, 0.61123765, -0.17240304, -0.37920788, 0.04261622, -0.046593662, -0.92035705, -0.17671159, -0.10216038, -0.14140004, -0.6537489, -0.21157743, 0.15581438, 0.11424267, 0.19973534, 0.11494462, 0.3092305, 0.25995418, 0.14886776, 0.5727776, 0.41270575, -0.1867768, -0.7445129, 0.41299498, 0.110522896, -0.6006291, 0.5555268, -0.24787807, 0.30833805, -0.7524605, 0.2573458, 0.45138925, -0.5347842, -0.530365, -0.27835605, 0.4945869, 0.37464908, -0.25445515, -0.65036196, 0.5972459, -0.47918862, 0.4291327, 0.92832446, -0.23241824, 0.06507044, -0.54075485, -0.25806418, 0.49128097, 0.45825168, -0.2770571, -0.55741096, -0.06965482, 0.030760638, -0.12523583, 0.33730936, 0.3638604, -0.031038303, 0.07827963, 0.22319996, 0.14217088, 0.104069255, -0.094404235, 0.22684066, -0.26219225, 0.077929735, -0.24942659, -0.42832413, 0.16360956, -0.26193625, 0.014415199, 0.2649719, -0.8392748, 0.059498098, -0.35874698, -0.31404436, 0.0016470775, -0.5677748, 0.085332416, -0.11331269, 0.18783136, -0.00047700666, -0.11792882, 0.6709922, -0.018716048, -0.16324422, -0.81768525, -0.3619454, -0.06318354, -0.41287583, 0.107710384, -0.031541992, 0.69933033, 0.054143257, -0.04082015, -0.5982437, 0.28228068, -0.5538965, 0.8134571, -0.44432718, -0.7127912, 0.49593893, 0.18406576, 0.22317247, -0.22849435, -0.49026847, -0.25734192, 0.07948488, 0.26923582, -0.08764922, 0.00043437956, -0.1455247, 0.7450222, -0.229967, -0.46076956, -0.04052088, 0.23572865, -0.39174625, 0.1001013, 0.14867029, 0.8628099, 0.50512755, -0.047658958, -0.0017565768, 0.15585817, 0.379013, -0.27474046, -0.45721984, 0.6598715, 0.27154532, -0.16944171, -0.26101604, 0.37007034, -0.25836128, 0.0105731, 0.57568914, -0.60815394, 0.5718842, 0.2560213, 0.29895136, -0.4337172, -0.23906563, -0.634386, 0.13133028, -0.062220514, 0.5106902, 0.21495886, -0.074164204, -0.39926726, -0.061534572, -0.21927603, 0.40661678, -0.40077606, 0.12289673, -0.11816621, 0.12674381, -0.6276649, -0.04105194, 0.21297702, 0.110672146, -0.3645702, -0.15373369, 0.4730434, -0.05121893, -0.2855884, 0.6896986, -0.3682712, 0.29669032, 0.5762534, -0.28649083, -0.05994041, 0.29983974, -0.60833937, -0.2421533, 0.6637701, 0.36263627, -0.09784386, -0.91835725, -0.15153177, -0.4713062, -0.021821557, 0.1413302, -0.32237878, 0.5160978, -0.6255754, 0.20808399, -0.22773026, -0.5425056, -0.12934372, 0.28866798, -0.07170447, -0.10489038, 0.09963871, -0.6296935, -0.0004178509, 0.24775313, 0.6638312, 0.16597337, 0.07116482, -0.03787148, -0.13493568, 0.09015188, 0.2843526, 0.5006005, 0.28088927, -0.053076364, -1.0108087, 0.38617274, 0.047176603, -0.08935244, -1.9356571, -0.32828027, 0.4671011, -0.36616638, -0.36817273, 0.013810468, 0.0033737104, -0.47088864, 0.51011235, -0.13434742, 0.5480205, -0.49553844, 0.48776984, -0.45202842, -0.095233515, 0.17955534, 0.71747464, 0.18562046, -0.18377754, -0.0075288676, -0.16189894, -0.46001238, 0.1651823, -0.36023057, -0.7601634, -0.1917771, -0.31531632, 0.22433351, 0.1532349, 0.34441707, -0.09238276, 0.5320219, -0.19223736, -0.53633386, 0.30241162, -0.58772266, -0.16693637, -0.2900331, -1.0598017, 0.92244047, 0.5416713, 0.2918557, -0.5717287, -0.5484636, -0.37831134, 0.6550453, -0.03406173, -0.27591828, -0.2158213, -0.95665693, -0.37431175, -0.022182908, 1.2355986, 0.25024232, 0.029577289, 0.71205354, -0.77269346, 0.23766112, -0.2213042, -0.17628908, 0.3457692, 0.5726733, 0.73786694, 0.87428546, 0.6068314, -0.20854917, 0.26792136, 0.55254894, -0.29467127, 0.5185761, 0.28071848, 0.12747082, -0.55972505, -0.55619735, 0.49832004, -0.032305904, -0.14068976, -0.058460705, -0.020868845, -0.31563488, -0.86185575, -0.33110422, -0.3019181, -0.34658778, 0.023019869, 0.19400413, -0.35826164, 0.014767288, 0.6319724, 0.0062698936, -0.8746138, 0.45289108, -0.6505072, -0.37673193, -0.4510671, -0.31599653, 0.10518227, -0.099646844, -0.32834277, -0.49568933, -0.0073106997, -0.43192112, 0.00537955, 0.073208496, 0.044929255, -0.13322029, -0.29593232, 0.320828, 0.48014465, -0.086970285, -0.2587985, 0.043930765, -0.22649619, 0.42030326, -0.18250012, -0.37015975, -0.43731514, -0.27933723, 0.1270512, -0.6565094, -0.16502057, 0.099312186, -0.052613005, -0.41805816, 0.2801696, 0.14818275, -0.3107353, -0.235531, -0.2538814, 0.44936606, 0.21151602, -0.004708004, -0.18589488, 0.2515271, -0.007086925, 0.6181347, -0.11559882, 0.512977, 0.4223452, 0.23265348, -0.62659776, -0.18899615, -0.8456268, 0.042867545, -0.10354695, -0.47991592, -0.019403953, 0.10477665, -0.2697357, 0.7876355, 0.1274077, -0.5299947, -0.5417096, 0.32378617, -0.077926174, -1.2560599, -0.03358241, -0.24898355, -0.6083212, 0.41521117, 0.20008835, -0.5097518, 0.6895604, 0.95470977, 0.14380768, 0.1848877, 0.13668403, -0.0045336653, -0.3995479, -0.26203316, -0.18637013, 0.33909672, 0.3668361, 0.11275151, 0.3351042, -0.22797109, 0.45441574, -0.86792254, -0.019760253, 0.3793256, -0.14122862, 0.10515455, -0.016948197, -0.098222844, 0.3920052, 0.21366692, -0.04296535, -0.4618994, -0.094389826, 0.38886008, 0.23411237, 0.71333456, 0.30049324, 0.07366219, 0.099555515, 0.4804762, 0.5953841, 0.17592505, -0.2080535, -0.14930123, -0.5177649, 0.78862596, 0.08430897, -0.37493113, 0.6970952, 0.12550172, -0.28517222, -0.1619693, 0.16664015, 0.1484138, -0.48574293, 0.5223743, -0.3785542, 0.0012186305, -0.3567146, -0.190606, -0.061390642, 0.018878676, -0.6032603, -0.107624784, 0.39963904, 0.32342595, 0.7962056, -0.5370589, 0.05235663, 0.32405087, -0.031890023, -0.65684325, -0.13927697, -0.24847887, 0.32584083, -0.12291227, 0.15951036, -0.28643847, 0.50535536, -0.06322757, -0.045748338, 0.6584775, 0.15381166, 0.4099248, -0.001229614, 0.26136634, -0.8914472, -0.47127065, 0.20790292, 0.48037207, 0.15719123, 0.19773641, -0.5208426, 0.16437143, 0.10985545, -0.13525163, 0.8055705, 0.57235837, 0.35881105, -0.12775627, -0.062122896, -0.38168144, -0.60489345, -0.59408927, -0.54516083, 0.33482203, -0.35704505, 0.028695434, -0.17582886, -0.64187825, -0.067195654, -0.04084955, 0.405101, -0.1603003, -0.46621534, -0.15253049, -0.4809316, 0.12219753, 0.37383625, 0.039679885, 0.626826, 0.37669152, 0.083847016, 0.33947912, 0.03375385, 0.32792, -1.1550803, -0.08655754, -0.7004883, 0.058918096, -0.48475224, 0.29906425, -0.028832544, 0.044093985, -0.85166657, 0.61062825, 0.18222234, 0.09033008, -0.08242144, 0.09614149, -0.3510567, -0.62092966, -0.09020621, 0.3163623, 0.43516403, -0.8453529, -0.77757096, -0.65647274, -0.6356835, 0.62725776, 0.3733959, -0.34165424, 0.07574375, -0.012272939, -0.040031552, -0.16822577, -0.6223115, 0.78735125, -0.78069973, -0.94891495, 0.1334253, -0.70482576, -0.40076205, 0.12924126, 0.114812866, -0.06604789, 0.096600495, -0.072634846, -0.46014836, 0.20283312, 0.50066864, -0.15258962, -0.08086732, -0.41750115, -0.2710768, -0.6389032, 0.15159082, 0.017164394, -0.10612952, -0.18337959, 0.13712704, 0.8429977, -0.29794168, 0.39474866, -0.37144023, 0.020697694, -0.030425198, 0.16284017, -0.1959407, -0.4515572, -1.2600086, -0.13452584, -0.10295704, 0.35211292, -0.40624222, -0.14389685, -0.54124075, -0.5332971, 0.3058344, -0.5420961, 0.07149538, -0.60763025, -0.79093987, -0.30719954, -0.24208522, 0.1611016, -0.30987856, -0.34670293, 0.051652633, -0.108468056, 0.06499213, -0.5250037, -0.17434102, 0.36918598, -0.5583073, -0.5391289, -0.67174023, -0.59484, -0.0110612195, 0.057268076, 0.39232045, 0.056638807, -0.41494915, 0.16035126, 0.18940143, -0.26111603, 0.1276285, 0.4836253, -0.1179922, 0.26776543, -0.09557903, 0.27169445, 0.003549138, 0.26573837, 0.20693997, -0.5849078, 1.2857225, -0.5975049, -0.17626347, 0.45108587, -0.19027492, -0.2236376, 0.10547729, 0.24030268, -0.3287425, 0.6204938, 0.6876083, 0.2399667, -0.027591093, -0.27462196, -0.1777626, 0.8296956, -0.36359906, -0.5913441, -0.53036726, -0.01249234, -0.3513926, 0.0007412182, 0.30144656, -0.6925705, -0.22171079, 0.12560505, 0.057480678, -0.16509485, 0.29202712, 0.0819835, -0.3439144, -0.029748641, 0.517654, 0.029914223, -1.2410976, -0.501705, 0.20951071, -0.6841106, -0.54706484, -0.5916418, -0.33106512, 0.31648126, 0.010821952, -0.21968506, 0.22246808, 0.17433494, -0.033785857, 0.42763433, 0.35462618, -0.24783479, 0.11663146, -0.12093155, 0.53773993, -0.07335499, -0.3442886, 0.019157972, 0.8090639, -0.16042855, 0.0797147, -0.31189212, 0.26957124, 0.43044126, -0.011079665, -0.23271188, 0.28515032, 0.9516423, 0.745323, -0.48409256, 0.39369094, -0.44984058, -0.31310114, -0.710459, 0.12962013, -0.0015654173, 0.4106322, -0.16396193, -0.5873673, -0.1691733, -0.056794725, 0.40887555, 0.08811679, -0.06625867, 0.10922197]</t>
         </is>
       </c>
     </row>
@@ -622,20 +688,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>TPA란?</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Texture profile analysis</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>저작을 모방한 물성 측정 방법입니다.</t>
-        </is>
-      </c>
       <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[0.6726091, -0.22903202, -0.2968077, -0.24405096, -0.2650757, 0.43850192, -0.23096766, 0.11515281, -0.16237797, -0.790759, -0.04874988, -0.0776201, -0.14712867, 0.09700029, -0.6038639, 0.5379603, -0.011812225, 0.115114816, -0.06142132, -0.19974776, -1.07401, 0.37255943, -0.18640856, 0.107576996, -0.24815512, -0.93930495, 0.017107422, 0.24336945, -0.17684875, -0.040579174, 0.3301028, -0.15522324, -0.5774593, -0.07026598, -0.0011775765, -0.0011992123, -0.7687827, -0.07088068, 0.10346698, -0.36578587, -0.2583488, -0.06468696, 0.039833006, 0.18412389, -0.24544592, 0.74836636, -0.3670689, 0.3587892, -0.700983, 0.44061518, 0.025437009, -0.14088623, 0.4963322, -0.09623289, -0.32685715, 0.043648567, -0.7349606, -0.36634362, 0.28056276, -0.42968282, 0.26483068, -0.21422535, 0.070842214, 0.49901712, -0.28398564, -0.38023338, -0.3331729, -0.30616376, 0.14603385, -0.29307333, 0.25564596, 0.28935096, 0.44638994, -0.011192975, -0.17685783, 0.18469639, 0.021462802, -0.13237989, 0.71969235, 0.15743509, 0.40070906, -0.6160181, -0.4599286, -0.11529278, -0.47876674, -0.27949575, 0.16595821, -0.6149808, -0.79303074, 0.17113025, -0.17399955, -0.2676866, -0.28642198, -0.23450288, -0.2611852, 0.23640881, 0.18590383, 0.09283329, 0.3117789, -0.1187776, -0.5247385, -0.07302037, -0.14531454, 0.9271809, 0.3620934, 0.03052214, -0.50677305, 0.10689354, 0.45892018, 0.039701875, -0.046603657, -0.23582597, 0.023663439, -0.25549698, 0.62248063, 0.36809227, -0.40052462, -0.111046724, -0.29299703, 0.12226686, -0.7659139, -0.6204253, -0.423115, 0.3543959, -0.3272044, 0.15448835, 0.38453162, 0.4926507, 0.2449703, -0.52616066, -0.27333304, -0.10431874, 0.8333135, -0.38554665, -0.9401074, 0.24937235, -0.22271396, -0.121823356, 0.6464458, 0.41712752, 0.22685312, -0.5995916, 0.53671044, 0.28810886, 0.26967457, -0.26296416, 0.7593451, -0.28086355, 0.1423573, -0.08876285, -0.57919794, -0.16116644, -0.2589719, 0.016104905, 0.029799847, -0.44378737, 0.101676345, 0.42899868, 0.18126656, 0.1560029, 0.07711932, 0.12181249, -0.2584677, -0.16639414, -0.04497903, 0.18401437, 0.004647076, -0.11546698, 0.2729892, -0.7294655, -0.12041378, 0.24620257, 0.29557154, 0.76718765, -0.6368933, 0.9264605, 0.007296917, 0.16305853, -0.33802822, -0.335436, 0.46170065, 0.41136894, 0.093608506, -0.34144157, 0.34368575, 0.02903827, 0.25257695, -0.10105042, 0.6596078, -0.43443185, 0.11676849, 0.20473957, -0.37925673, 0.37753087, -0.28728944, 0.44537404, -0.81148756, 0.017972596, 0.56682575, -0.22366767, -0.4572487, 0.37753904, -0.22139272, 0.6282327, 0.44136044, 0.6264646, -0.6538296, -0.20214048, 0.1408397, -0.38993075, -1.0621886, 0.23757766, 0.18299814, -0.031931754, 0.5905871, 0.25434005, 0.638369, 0.47973844, -0.14574052, 0.005328849, -0.10809155, 0.1117621, 0.10818061, -0.019286186, 0.026428014, -0.7661876, -0.004646438, 0.8024016, 0.25882828, -0.13745487, -0.5339182, -0.2907729, -0.4040325, -0.069973394, 1.310535, 0.007496709, 0.80463123, 0.55034775, 0.26479247, -0.7884648, -0.20860082, 0.6135146, 0.19110551, 0.11929303, 0.11317664, 0.016432293, 0.43032864, -0.39206454, 0.4963442, 0.29977456, -0.0004580793, 0.30895782, -0.6436483, 0.19735478, 0.159113, -0.28736386, -0.25360537, 0.31745335, 0.024416568, -0.5383456, -0.28292197, 0.47819215, -0.53163475, -0.6492912, -0.3176393, -0.3223709, 0.621128, -0.319533, 0.2951998, -0.42011833, 0.15537858, 0.113663, 0.44414502, 0.23386782, 0.20459582, 0.1902012, -0.1942315, 0.16042429, -0.08908746, -0.5186791, 0.37003615, 0.2880488, -0.05703586, 0.018370707, 0.286145, -0.5640438, -0.15059118, -0.23520042, -0.25077128, -0.4677591, 0.43052423, 0.34944347, -0.30900264, -2.0872462, -0.13439673, -0.14172374, -0.0977149, -0.60637814, -0.033912823, 0.026254596, 0.18343934, 0.29407498, -0.26832047, 0.8653339, 0.5327601, 0.03926352, -0.45932344, -0.23562093, 0.06991467, 0.5990764, -0.44779614, -0.27391386, -0.8027478, -0.015524733, 0.39469194, -0.5961092, 0.03811626, -0.1244074, -0.11955855, -0.26172155, 0.4770857, 0.56100816, -0.25306603, 0.26006854, -0.62777334, 0.09476911, 0.004446041, -0.095749386, 0.43869153, -0.1930802, -0.44556695, -0.7394152, 0.80639803, -0.201336, -0.019168025, -0.8496444, -0.020505222, -0.35352817, -0.24824294, 0.2802935, -0.23019503, -0.15268718, -0.5023671, -0.106019616, 0.51414925, 0.91988236, 0.16492678, 0.17626712, 0.019458922, -0.20137958, 0.20466524, -0.67514515, -0.30682835, -0.13911761, 0.30925962, -0.15134138, 0.5304379, 0.15696922, -0.21947195, 0.2430338, 0.96652883, -0.35456374, -0.11283608, 0.11042015, -0.09582627, -0.26269868, -0.17918353, 0.68618816, -0.17538816, -0.2236709, -0.4239666, -0.18031022, -0.24885298, -0.30322018, 0.3009552, 0.38985145, 0.10565758, -0.51726675, 0.06493383, 0.02332818, 0.79065627, 0.35722134, 0.42629054, -0.53641087, -0.4103138, -0.47523987, 0.11172903, 0.19946527, 0.49833795, 0.19015656, -0.15444177, -0.59060997, -0.051450957, -0.07001105, 0.061202273, 0.16556233, 0.19100094, 0.41428795, 0.21867208, 0.38064864, 0.36933085, 0.35305375, -0.41380513, 0.09934661, 0.05140827, 0.068915196, 0.07276982, 0.6851399, -0.5041689, -0.24836016, -0.32815287, -0.43491614, -0.76989424, 0.41960242, 0.081914775, -0.3224722, 0.2751732, -0.3894374, 0.20052442, -0.43397415, 0.20459269, -0.5695709, 0.1252142, 0.123629354, -0.44031903, 0.6665431, 0.5429482, 0.32126638, 0.34013858, -0.34281698, 0.114939995, 0.10584805, 0.020228885, 0.0676605, -0.30808952, -0.1638909, 0.1314104, -0.028658645, -0.7306944, 0.2592993, -0.045046188, -0.38877127, 0.43444088, -0.357279, -0.21851377, -0.49993324, 0.3542944, 0.08401948, -0.10103347, -0.80412096, -0.79734784, -0.7059272, -0.3372234, 0.76933724, 0.5505569, -0.49759862, 0.3515074, -0.7844349, 0.02868224, -0.19763665, -0.36693898, 0.29679108, 0.30710796, -0.007977551, 0.25790143, 0.044098675, -0.17980137, 0.34923446, 0.41762152, 0.09058741, -0.2099083, -0.037694808, 0.48902044, -0.25424168, 0.44403073, 0.02603534, -0.27892348, 0.34743777, -0.42716962, -0.27651688, -1.5324439, -0.37433326, 0.35039192, -0.27477044, 0.5691962, 0.5716789, -0.2821321, -0.19182052, -0.1372599, 0.68511623, 0.42159262, -0.023770057, -0.30095047, -0.43516147, 0.19890231, -0.35765573, -0.09224393, 0.38168848, 0.28211647, 0.10177469, 0.044166334, 0.09189821, -0.23413795, -0.06460652, 0.21615623, 0.44314033, -0.08799246, -0.28118914, -0.363601, 0.114044905, -0.029048564, -0.9515535, -0.27090824, 0.90661544, 0.6236688, -0.04943875, 0.15517908, -0.19913465, 0.6716476, 0.31160885, -0.11080561, -0.08349543, 0.39713427, 0.68720156, 0.32843426, -0.43263882, -0.56338745, 0.13674603, 0.09277713, -1.1503137, -0.25290263, -0.037090335, 0.2632213, 0.36333972, 1.2923743, -0.82019496, 0.14789425, 0.010708739, 0.504905, 0.9298969, -0.1187015, -0.40410078, 0.68804526, -0.23842564, 0.11468086, 0.4397273, 0.35782498, -0.0046660225, 0.88377535, -0.5887752, -0.2671916, 0.40196344, -0.39026135, 0.2832511, -0.1309163, 0.20115323, -0.16594228, -0.061515633, -0.79073817, 0.48082495, -1.0506275, 0.1238438, -0.11183047, -0.43589708, -0.59690547, 0.46134272, -0.25114396, 0.47357473, -0.38107097, 0.3191127, 0.12760745, 0.62491333, 0.76013905, 0.11501659, 0.19101481, -0.22335096, -0.5252007, -1.0013499, 0.11715437, -0.5912559, 0.35087335, 0.21936521, -0.07156151, -0.13238299, 0.5228197, -0.0863264, -0.7048815, 0.045610547, -0.050816953, 0.5272659, -0.32903698, -0.6315493, 0.41745663, 0.21134669, -0.6473999, 0.11500285, -0.20345306, -0.6406427, -0.20235114, 0.3042032, 0.09335425, -0.27221882, -0.23282155, -0.09603036, -0.077646114, -0.32309726, 0.8627861, -0.1675212, -0.70170563, -0.30599496, 0.09274661, -0.57576555, 0.028667653, -0.17305182, -0.64657587, -0.1467966, 0.08890199, 0.08157998, 0.7688804, 0.14371213, 0.17872562, -0.054415356, -0.14459743, -0.0621775, 0.03638524, -0.10683063, -0.58158594, 0.19937533, -0.45682785, -0.75951385, 0.36802703, -0.28526357, 0.5577818, -0.31783837, -0.031303808, 0.08427482, -0.24066776, 0.26786488, 0.4844572, -0.33946216, -0.44378135, -0.5684921, 0.038108896, -0.41783664, 0.053465486, 0.46379086, 0.0018207702, -0.6109851, -0.36741382, 0.14298311, -0.3488163, 0.15104757, 0.6806448, -0.5682852, 0.1156621, 0.08956614, 0.47956276, -0.010261644, -0.9498392, 0.2530078, 0.34649178, 0.13417482, 0.26239145, -0.47776616, -0.58164304, -0.24363531, -0.52967143, -0.16386507, -0.28057376, -0.43597716, 0.7885012, -0.18305917, 0.069599755, 0.033819973, 0.19109993, -0.46644923, 0.40836012, -0.43949786, 0.5170115, -0.48152637, 0.585929, 0.27624094, 0.47541615, -0.6266343, 0.5739613, 0.19832025, -0.09265893, 0.5420584, -0.22807854, 0.02709533, -0.6535867, -0.35863188, -0.22602035, -0.54505473, 0.6645637, 0.4022597, 0.098583296, -0.12604104, -0.35824153, -0.19159012, 0.016799588, 0.43442422, -0.7614014, -0.69588536, -0.4799894, -1.06986, 0.0935764, 0.1754878, -0.8058697, -0.095204026, -1.3280936, 0.022884734, -0.13279554, 0.28333476, 0.021575868, -0.8648646, -0.14471865, -0.40864447, -0.15154625, -0.2056564, -0.036977466, -0.33671418, -0.62321997, -0.2903673, -0.041893132, -0.1767059, 0.06338466, -0.34854135, 0.3266493, -0.15982899, 0.58598924, -0.36678293, 0.046913102, -0.4889862, -0.033829052, 0.28181884, -0.1949984, -0.027112067, -0.05769014, -0.21312557, -0.13174202, 0.31983346, -0.48405325, -0.41353634, 0.6188814, 0.98005486, -0.29649282, -0.14365445, 0.54575664, 0.49809924, 0.20140864, -0.10196479, -0.25457272, 0.02201045, -0.224756, 0.28277814, 0.22118114, -0.2504163, -0.026430054, -0.85014343, 0.17023931, -0.35068056, 0.068129204, -0.43870717, 0.3507803, 0.5298933, 0.5999489, -0.098183826]</t>
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[0.4885334, -0.11603614, 0.2511666, -0.30305386, -0.34362522, -0.050081413, 0.3188912, 0.76404923, 0.4751886, -0.17285335, -0.2155328, -0.08490473, -0.52112937, 0.20814234, -0.30167708, -0.14540413, -0.06460733, 0.13168643, 0.25948268, -1.0287849, -0.6278779, 0.058240455, 0.36083746, 0.10047832, -0.0026055078, 0.07033342, -0.10123489, -0.17302822, 0.96450996, -0.84660596, -0.17058848, -0.08814504, -0.025447607, 0.3729366, 0.27626196, 0.09471894, -0.57218, 0.089420654, -0.33137473, 0.1828603, 0.10448307, -0.59266084, 0.16355897, 0.073578775, 0.18550326, 0.007676676, 0.3492802, -0.39072287, 0.023468869, 0.6233842, -0.1265993, 0.24205196, -0.023913361, 0.4316875, -0.36046317, -0.844708, -0.39071357, -1.0317355, 0.2943777, -0.18773109, 0.29446566, -0.6841247, 0.07934774, 0.5602292, -0.31024867, -0.39779234, -0.7820325, 0.047475863, -0.034707714, 0.2174939, 0.36129963, -0.1755618, 0.45609346, -0.14170934, 0.37940493, -0.9352234, 0.028161263, -0.5098231, 0.24898864, 0.9504154, -0.14894171, -0.797942, -0.8480614, -0.8126077, -0.26923996, -0.27233124, 0.013319761, -0.4501276, -1.213358, -0.2961175, -0.3738071, 0.20253712, 0.21950345, -0.015078659, -0.28374, -0.18323822, -0.075198345, 0.16270894, 0.093613714, 0.17774312, -0.047182526, 0.1610366, -0.065746635, 0.33262733, -0.028250583, -0.1288283, -0.63305956, -0.11273381, -0.49240324, 0.24523707, 0.36004767, -1.008127, 0.20028527, 0.5554094, -0.27101722, -0.03710978, 0.050466884, 0.47504643, -0.1026448, 0.4884704, 0.29143366, 0.22451441, -0.22192872, 0.6755059, -0.56223255, 0.31262484, 1.1013864, 0.1424696, 0.27456608, -0.50515395, -0.040403564, 0.012183118, 0.24621366, -0.10992346, -0.47196782, -0.74672705, 0.38531193, -0.5088623, 0.5977191, 0.24844652, 0.32416388, 0.28257215, -0.15251447, -0.14506604, 0.540649, -0.03865852, 0.59323794, -0.16245116, -0.056780133, -0.566637, -0.29988995, 0.022838116, -0.79674894, 0.2573212, -0.028704727, -0.67731994, -0.26716033, 0.23293024, 0.34614506, -0.18182981, 0.4991264, -0.37109342, 0.11821569, -0.11244132, 0.26266667, 0.17318638, 0.59357995, -0.23354472, 0.5461173, 0.17384648, 0.04722759, -0.08448241, -0.11153951, 0.20275743, -0.06258676, 0.115576126, -0.04126553, -0.019533707, 0.16394255, -0.67651963, 0.014015156, 0.31414977, -0.43382052, 0.44561782, 0.1800158, -0.04651919, 0.57761306, 0.08854715, -0.36439928, -0.30603775, 0.32406726, 0.20198154, 0.1494198, -0.22077413, -0.29360044, 0.72808355, -0.14947076, 0.049168646, -0.4005898, -0.63691586, -0.048878044, 0.022402754, 0.60071504, 0.36209285, 0.6042838, 0.325693, -0.4440982, 0.070207745, -0.17337996, -0.60533905, -0.034046814, 0.93132013, 0.097009696, 0.21047051, 0.024842985, 0.007735466, -0.09331423, -0.13856314, -0.2229683, -0.001745599, 0.11161695, 0.14932707, 0.04977885, -0.35974348, 0.10560288, -0.7554681, 0.17391719, 0.41755626, 0.13505627, -0.39926967, -0.5354284, -0.07514741, -0.21907789, -0.6219506, 0.90046215, 0.50892127, 0.640693, 0.36513612, -0.5397989, -0.5001065, -0.15581013, 0.41950896, -0.41297475, -0.15241994, -0.22206073, 0.19899613, -0.09723526, -0.2889937, 0.35042787, -0.32966682, 0.17236269, 0.5475258, -0.45567465, 0.17975523, 0.16018343, -0.9855415, -0.33271107, 0.3711479, -0.70002896, 0.017387934, -0.006086389, -0.049539465, 0.085069954, 0.25377062, -0.68818855, -0.26349318, 0.12680261, -1.426835, 0.40310684, -0.6141007, -0.71351916, -0.5180694, 0.34561095, 0.3583562, -0.40449405, 0.8523887, 0.28901702, 0.21941751, -0.058133196, -0.19161393, 0.6386488, 0.359602, 0.21922083, 0.49411213, -0.016762128, -0.4981135, -0.18041037, -0.37083077, -0.280417, -0.52749974, -0.22666454, 0.20654304, -0.39177093, -1.1096077, 0.27091715, 0.06137311, -0.17791454, -0.10723001, 0.36885312, 0.04224668, 0.4457488, 0.30819103, -0.039256185, 0.34405303, 0.5741324, 0.1849159, -0.21718483, 0.114855565, -0.19112527, 0.4136912, 0.21060677, -0.002656389, 0.21538877, 0.26239964, 0.19362901, -0.046669547, -0.05036986, -0.53690416, -0.09029257, -0.101661004, -0.19005185, 0.32420075, 0.055035073, -0.17833017, 0.3969876, 0.42715254, 0.32738104, 0.33321753, 0.21385966, -0.4179351, -0.7219617, -0.2971972, 0.56056505, 0.09808987, 0.17834143, -0.52838486, 0.44249848, -0.4310424, -0.2049048, -0.18006746, -0.5477054, 0.29473835, -0.41113126, 0.6941972, -0.4569812, 1.242805, 0.015790896, -0.07163963, -0.32707784, -0.4654487, -0.8483301, -0.066575505, 0.1620688, 0.078553475, 0.5062613, -0.16166644, 0.54277045, 0.49465743, -0.3740714, -0.38381192, 0.6574344, -0.96539336, 0.4798795, -0.9433145, -0.28490415, 0.3959186, -0.35501707, 0.24940874, 0.35985306, 0.3920965, -0.12401152, 0.10106331, 0.8500075, -0.35823408, -0.61173606, 0.0457121, -0.7250075, -0.66831326, -0.21624161, -0.10359442, 0.89228445, 0.6526451, 0.040783025, -0.15814495, -0.085675664, -0.7033758, -0.17038834, 0.32817248, 0.1650917, 0.28830326, -0.74298173, -0.36444604, 0.2706101, -0.16018675, 0.026364595, 0.3495665, 0.2126442, 0.40720913, -0.24301879, -0.6757085, 0.59541816, -0.13836862, 0.45280036, 0.29908848, -0.41776755, -0.5473711, 0.43042898, -0.37777218, -0.57477826, -0.2270649, -0.849919, -0.07629036, -0.8635633, -0.43188098, -0.063109525, -0.4821135, -0.2260225, 0.77927035, -0.12941016, 0.17122169, 0.41828692, -0.7176607, 0.50416213, -0.53851753, 0.31573653, 0.6211794, 0.49129522, 0.49932036, 0.0069941827, -0.45760843, 0.31916532, 0.036963526, 0.6820325, 0.13251027, 0.149166, -0.66129637, -0.11568994, 0.2079109, -0.14704162, 0.7818608, 0.2771267, 0.24228191, 0.3775762, 0.107162766, -0.32599974, -0.2918907, -0.39061952, -0.8833048, -0.9255295, -1.108967, -0.5497353, -0.851161, 0.34671512, -0.047374442, -0.62633103, -0.6587823, 0.8186082, -0.10488271, -0.21169846, 0.32643387, -0.14201893, 0.062285144, -0.61152285, -0.69672936, 0.60036314, 0.2941086, 0.06337479, 1.1127139, -0.11741093, 0.5586703, -0.55130404, -0.121858425, -0.016277257, -0.015789272, 0.3541715, -0.22733723, -0.30572143, 0.12504886, 0.38607848, 0.13377906, 0.6292489, -0.2884449, 0.5246002, -0.14511342, 0.4956565, -0.14200167, -0.26469138, -0.5422291, -0.102481365, 0.22403228, -0.321534, -0.022581005, -0.31965622, 0.25018254, 0.6622656, -0.27020893, -0.21906729, 0.5989695, -0.4516835, 0.7276414, 0.08799386, -0.025237694, 0.14432937, -0.22288209, 0.03988947, 0.4935595, 0.5995271, -0.23435883, -0.48233715, 0.09578667, -0.101523936, -0.47804794, 0.74551183, -0.12006255, 0.075945534, 0.4008062, 0.12770502, -0.18722458, -0.3116354, 0.5387573, -0.49055168, -0.085525356, 0.14610694, -0.47886273, -0.010766834, -0.11870686, 0.8086951, -0.10672051, -0.054782417, -0.40686032, 0.112581275, 0.09613305, 0.20892853, -0.0940091, 0.8003257, -0.0816046, -0.15781733, 0.6698007, 0.50055766, 0.060164306, 0.2801762, -0.25690198, -0.034323547, -0.001974058, -0.7592694, 0.06663614, 0.1112395, 0.5706807, 0.19964404, 0.19739169, 0.20091438, -0.39245453, -0.53291875, -0.6050269, -0.578274, -0.42022052, -0.19622189, -0.57724434, -0.5615567, 0.18958545, 0.09638085, 0.46320888, -0.89467984, -0.3340344, -0.3703519, 0.58818984, -0.38579535, 0.18926243, 0.068527244, 0.20290332, -0.35014486, 0.23746574, 0.10367086, 0.21325767, 0.1263361, -0.66691756, -1.043198, -0.42913926, -0.19516653, -0.32644227, -0.21978335, 0.0121258395, -0.462603, -0.22189848, 0.8637641, -0.56743777, -0.6588631, -0.11022047, -0.23684381, -0.49810922, 0.1990747, -0.8001587, 0.06906921, -0.09644624, -0.5802385, -0.04504021, 0.25357038, -0.13862084, 0.043264214, -0.10970744, -0.5941724, 0.4425497, -0.16924728, 0.06987097, -0.89901596, -0.3508301, 1.0452162, -0.39414373, 0.050527927, 0.6561899, 0.13104981, -0.046209354, 0.30959573, -0.06675818, -0.41604754, 0.0743085, -0.6896371, -0.4195429, 0.18589135, 0.49302015, -0.024171809, 0.2814063, -0.41054735, -0.21576114, -0.16321413, -0.25754657, -0.10254536, -0.5432554, -0.07525734, -0.334554, 0.61999196, -0.4908599, 0.26421016, -0.85131717, -0.13631898, -0.27883437, 0.074662246, 0.48806635, -0.5179183, -0.86075383, -0.24847479, -0.3726217, -0.2771426, 0.12133432, -0.061537787, -0.8423831, -0.06562846, -0.13033326, -0.66729873, -0.08519676, -0.281975, -0.050435215, 0.79217696, -0.22553492, 0.30526808, 0.24636339, 0.63341063, -0.07726174, -0.14871624, -0.46087456, 0.10576537, 0.19432335, 0.4933537, -0.37345544, -0.8783471, -0.2955036, -0.42979407, -0.20549451, 0.14030565, 0.13879411, 0.9383761, -0.16829067, 0.07518154, 0.6417275, -0.2743506, -0.29780883, 1.0747975, -0.33571646, 0.7823264, 0.20264328, -0.53257376, 0.23356332, 0.3532515, 0.6053083, 0.044956177, 1.2569257, 0.4745244, -0.047113508, -0.028916577, 0.19918181, -0.123829015, 0.3928465, 0.44560578, -0.42202553, 0.9122791, 0.80628115, -0.3401345, -0.22115707, -0.4369501, -0.2802387, -0.50893146, 0.06265982, -0.51538044, -0.46200332, -0.3708078, -0.45200464, -0.11704438, -0.11307871, -0.11447147, 0.02782861, -0.008910462, 0.017106002, -0.42494026, 0.18517776, -0.5811972, -0.0129392585, 0.23632468, -0.7170189, -0.07660102, -0.89050007, 0.5770984, -0.15686077, -0.2213183, -0.32220525, 0.40205863, -0.23357742, -0.08433985, -0.4667021, -0.71952534, -0.4637549, 0.14901398, -0.02874546, 0.16437127, 0.31107807, 0.010703936, -0.081041574, 0.05976671, -0.052495155, 0.16079856, 0.1040011, -0.22649781, 0.5135649, -0.08228018, -0.39795196, 0.24215855, 0.23885645, -0.2310612, 0.8006139, 0.6019363, 0.545127, 0.17909081, -0.26487663, -0.3073562, -0.1946736, -0.85128623, -0.25623772, 0.44997975, -0.020184476, -0.19073933, -0.36075678, 0.10699437, 0.30974042, 0.019065859, 0.22457041, 0.6285601, 0.37750015, -0.055243447, 0.026250869]</t>
         </is>
       </c>
     </row>
@@ -645,20 +714,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Texture analyzer는 무엇이죠?</t>
+          <t>TPA란?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>식품의 물성을 측정하는 대표 장치입니다.</t>
+          <t>저작을 모방한 물성 측정 방법입니다.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[0.38710812, -0.5600051, -0.077770784, -0.24344571, -0.17384873, 0.29451075, -0.10321265, 0.16023733, 0.31723884, -0.6001947, -0.41446057, -0.42005485, 0.058524046, -0.05889704, -0.37318543, 0.124687545, 0.35492307, 0.049418937, 0.14110614, -0.029517744, -0.8815936, 0.15990601, 0.08692587, 0.36003727, -0.36890817, -0.7980931, -0.3193937, 0.38772535, -0.02417288, -0.23464713, 0.16889364, -0.025449004, -0.074586816, 0.035176758, 0.08766088, 0.02050422, -0.8510138, -0.359388, 0.1575275, -0.24443178, -0.1209799, -0.5227548, 0.05755808, 0.27763543, -0.1269385, 0.78495467, -0.18185689, 0.40231898, -0.30620542, 0.16636172, -0.59880674, 0.1622259, 0.37802628, 0.3127282, -0.34389487, -0.12341925, -0.29268375, -0.4557421, 0.21971586, -0.33403444, 0.6413238, -0.27943566, -0.13859388, 0.6263751, -0.067126885, -0.60629725, -0.5523579, 0.06791936, -0.047999337, -0.25862092, 0.076397724, 0.5385365, 0.4941193, 0.053418487, -0.2817475, -0.42404634, 0.14753537, 0.11538381, 0.774472, 0.45793265, 0.24762325, -0.7861579, -0.4151104, -0.0067602163, -0.60221225, -0.24593844, -0.035993252, -0.501073, -0.6566798, -0.061035376, -0.6716301, -0.37722948, -0.3605919, -0.010870049, -0.5848838, -0.23741578, -0.2460474, 0.09742515, 0.030716773, -0.22119984, -0.2787048, 0.19949014, 0.0011423137, 0.7282018, 0.40400526, -0.026502011, -0.40404168, 0.099771194, 0.3474499, -0.2912944, 0.55302685, -0.17011939, 0.18104926, -0.2962256, 0.021310583, 0.3911675, -0.26697713, 0.42703217, -0.33777982, 0.87565, -0.5257403, -0.090323254, -0.29806206, 0.6524578, 0.00027364213, -0.0069585084, 0.48440108, 0.4956651, 0.20219094, -0.551306, -0.21318774, 0.0703519, 0.887325, -0.2995858, -0.70299894, 0.20369232, 0.11741282, -0.48690334, 0.4128834, 0.37659773, 0.13679063, -0.42782196, 0.22907624, 0.31083488, 0.32210606, 0.08538606, 0.6945601, -0.20074189, 0.08320621, -0.4395964, -0.38977364, -0.2203353, -0.5908405, -0.078768946, 0.13710126, -0.4631127, -0.25982973, 0.24630222, 0.16727138, 0.18683751, -0.07265432, 0.6296575, -0.594334, 0.0014392463, 0.17290321, 0.027178247, 0.6463659, -0.1571265, 0.13763304, -0.70948356, -0.30395803, 0.2858939, -0.06336104, 0.2835782, -0.17345831, 0.25646365, -0.007284362, 0.08900504, -0.32814166, -0.45379972, 0.3499776, 0.68978363, 0.048204057, -0.17555419, 0.1651912, 0.048795275, 0.64986396, -0.32474875, -0.033736028, -0.1624138, 0.10263282, 0.29571217, -0.067167, 0.55612093, 0.081367224, 0.42063105, -0.1575038, 0.09544897, 0.27978468, -0.004869558, -0.70344704, 0.45709947, -0.14902428, 1.0746412, 0.6676043, 0.44303504, -0.2077382, -0.04389292, 0.17486377, 0.014273228, -0.6516625, 0.3358362, 0.36417884, 0.15583692, 0.6959126, -0.25648797, 0.4919228, 0.025005464, -0.122157454, -0.20546177, 0.13862574, -0.16398785, 0.42400843, 0.17704551, -0.16426083, -0.9162121, 0.4078449, 0.7368433, 0.31491214, -0.024016334, -0.39020786, -0.46561792, -0.2464069, -0.071717545, 1.1412605, -0.013303333, 0.30074754, 0.6283498, -0.17810333, -0.46824688, -0.16022821, 0.56534183, 0.2565388, -0.121434025, 0.063726194, 0.29167104, 0.2952027, -0.6559325, 0.52603525, -0.09399553, 0.3657947, 0.5537559, -0.56732315, -0.24998668, 0.1595357, -0.0737862, -0.0885345, 0.4677994, -0.20381305, -0.3254033, 0.020038115, 0.40922508, -0.60782444, -0.61838377, -0.711165, -0.23903868, 0.35656613, -0.56780505, 0.2826453, -0.5814708, -0.14393127, -0.25774914, 0.17623356, -0.17179379, -0.14148743, 0.31639755, -0.2906626, -0.15263478, -0.061692975, -0.25490734, 0.19065547, 0.3126115, 0.14478032, 0.23112948, 0.7406871, -0.34415403, -0.12040175, -0.2937097, -0.4645023, -0.44231677, 0.14910495, -0.006369319, -0.34732285, -1.4818877, 0.21365239, -0.16970861, -0.32784984, -0.52063787, 0.29851672, 0.17550954, 0.43259582, 0.39034837, 0.012401866, 0.4478098, 0.37662256, 0.12960295, -0.4415213, -0.47130874, 0.21749973, 0.20619246, -0.16549967, 0.07774371, -0.9163397, 0.227949, 0.20071831, -0.55115443, 0.009930169, -0.1521877, 0.04579617, -0.024241358, -0.8324981, 0.2943382, -0.030452799, 0.0846049, -0.30904472, 0.34868938, -0.16351397, 0.030184606, 0.14288568, -0.030372448, -0.44939584, -0.5817421, 1.1590388, -0.028591614, 0.13944796, -0.6015745, 0.16357593, -0.63676035, 0.275456, 0.38240767, -0.42222923, -0.23507214, -0.90023553, 0.019127341, -0.06719775, 0.7602483, 0.073323496, 0.044156585, 0.37614745, -0.51685554, -0.034413118, -0.38665798, -0.29325974, 0.11948324, 0.7070976, 0.26951033, 0.6543943, 0.2778756, -0.48986235, -0.3491226, 0.9086955, -0.6995172, -0.05972431, -0.15764189, 0.056993492, 0.06087462, -0.591273, 0.53887737, 0.045140505, 0.43165416, -0.17059298, -0.19478495, 0.053992383, -0.15608151, -0.16111027, 0.57487476, -0.34335804, -0.18000725, 0.043661404, -0.115904495, 0.5912041, 0.575643, 0.41623482, -1.0555209, -0.2268709, -0.472345, -0.29477763, 0.41286466, 0.28788865, 0.10119839, -0.028362315, -0.67960805, 0.104730986, -0.28965947, -0.18498206, 0.19177595, 0.10818748, 0.69160086, -0.07880397, 0.15030965, 0.4282607, 0.7608738, -0.023457851, 0.082088545, -0.12131026, 0.43254492, 0.4672052, 0.26473185, -0.4286188, -0.37407732, -0.46793532, -0.3810263, -0.6597689, 0.25186533, -0.16385414, -0.36757886, -0.45042253, 0.07682523, 0.04539459, -0.18773556, 0.100300886, -0.78733665, 0.109839246, -0.37404293, -0.49635383, 0.121155664, 0.3853145, 0.1448003, 0.5044786, -0.048951015, 0.5249852, -0.10951643, 0.2947169, -0.16711959, 0.20371304, 0.040919043, -0.01307324, -0.32207716, -0.33880916, 0.09239989, 0.17644425, -0.19626756, 0.07149043, -0.19010888, 0.3957311, -0.3472017, 0.6912372, -0.15073723, -0.31399214, -1.030484, -0.6947699, -0.74373114, -0.3646886, 0.60634816, 0.018070428, -0.15830854, 0.5766393, -0.613233, 0.008812599, 0.10376804, -0.011181528, -0.00624044, 0.024851171, 0.19950402, 0.44804642, 0.2763263, -0.08875351, 0.42457247, 0.0005104523, 0.2477172, -0.5636937, -0.49243528, 0.13625935, -0.070135735, 0.19527167, -0.22993824, -0.4817744, 0.012580359, -0.40986693, 0.016233815, -1.1380334, -0.34442073, 0.39514297, -0.052302368, 0.20916143, 0.029156927, -0.27752182, -0.49710542, -0.030077795, 0.5912545, 0.3880399, -0.11254465, -0.06160229, -0.5952789, 0.66687477, -0.27994806, -0.32204127, 0.5227291, 0.22789413, 0.28106585, 0.06989945, 0.37842926, -0.0016375612, -0.04574679, 0.15937552, 0.4664097, -0.16455203, -0.20856081, -0.5585192, 0.22081608, -0.15166642, -0.5788173, -0.3233606, 1.0192777, 0.3127776, 0.6651011, 0.2859634, -0.16312687, 0.3642844, 0.37503532, -0.1525413, -0.2966376, -0.008810029, 0.75385267, 0.18549564, 0.114618674, -0.28984958, -0.17024586, 0.16872689, -0.39493978, -0.21216579, 0.2903586, 0.04884814, 0.5311374, 0.5288773, -0.9596192, 0.062956646, 0.30812606, 0.8405993, 0.44290146, -0.026651496, -0.047980517, 0.5377583, -0.0049163583, 0.04777715, 0.10369634, 0.6606211, 0.4340265, 0.3381045, -0.70400417, -0.39682263, -0.039879303, -0.3841676, 0.18967164, -0.2358771, 0.2340327, -0.2276228, 0.13576217, -0.9381365, 0.124001406, -0.6750157, 0.2006789, -0.3294852, -0.17709789, -0.46622363, 0.26624247, -0.0716171, 0.19222292, -0.15378198, 0.14287129, 0.10860109, 0.58427787, 0.29566222, 0.29034162, 0.037318733, -0.26631436, -0.5477065, -0.6574115, 0.020575589, -0.4194661, 0.2678248, 0.40502682, -0.0825673, -0.3496922, 0.5714996, -0.3293031, -0.80221444, -0.088383645, -0.55441874, 0.40693995, -0.603642, -0.46782947, -0.053338632, 0.3058648, -0.5777041, 0.065799035, -0.13516961, -0.64492995, -0.25744474, 0.36138877, -0.038449332, 0.39887595, -0.032977838, 0.25235525, -0.018171893, -0.19451442, 0.8497033, -0.19890419, -0.5059694, -0.18124965, -0.009346638, -0.17484832, -0.0019997982, -0.16637929, -0.53861934, -0.032221228, -0.37120828, -0.30931094, 0.47787815, 0.049981534, 0.12854454, -0.51624113, -0.34183002, -0.6140597, -0.015734166, 0.2560806, -0.15384203, -0.013179693, -0.26500198, -0.5390761, 0.7410022, -0.54337513, 0.3178535, -0.46833527, -0.23909982, -0.6392229, 0.124109775, 0.36437467, 0.025032397, -0.605798, -0.65081775, 0.07030028, -0.25960633, -0.18736202, 0.07661274, 0.04696104, 0.046625845, -0.2042439, -0.4834059, -0.29449683, -0.39811903, -0.16903843, -0.010376733, -0.3082342, 0.16370809, -0.013021097, 0.21031794, 0.21488735, -0.9314131, 0.2397115, -0.0048317034, 0.2578361, -0.16083948, -0.37399608, -0.4320414, -0.6692275, -0.34897745, -0.55917317, 0.27266493, -0.00908418, 0.8009196, -0.268201, 0.20741834, 0.3302687, -0.18054579, -0.5403363, 0.73913455, -0.27321893, 0.6325129, -0.327723, -0.08913329, 0.5758694, 0.4802297, -0.39220205, 0.25146008, 0.45808002, -0.22741987, 0.23435958, -0.011078934, -0.1278124, -0.5989348, -0.065163, 0.007219581, -0.34486318, 0.7914626, 1.0037068, -0.30543163, 0.096700616, -0.096089914, -0.002644891, 0.24239175, 0.45072848, -0.82356447, -0.6396973, -0.0007723123, -0.7331812, 0.0820724, -0.3024759, -0.413317, -0.5905216, -0.93463737, -0.24565576, -0.31060088, 0.03613293, 0.048677474, -0.8430683, -0.3997652, -0.0635562, -0.14237328, -0.6422485, -0.03805814, -0.33900604, -0.110856205, -0.23010682, -0.3062035, -0.36913458, -0.008761755, -0.15630408, 0.36729428, 0.021391982, 0.003543894, -0.32895917, -0.21864063, -0.1959314, 0.0017530047, 0.053945586, 0.045842376, -0.08875047, 0.07862969, -0.03732869, -0.06386043, 0.6003726, -0.7343985, -0.4169946, 0.78218216, 0.6735072, 0.023280915, 0.41249767, 0.32114726, 0.11952123, 0.39245257, -0.15748887, -0.5610762, 0.06695819, -0.5223247, 0.32548374, -0.06817445, -0.37572387, 0.10736108, -0.7197957, -0.109496996, -0.3447372, 0.01823644, -0.128877, 0.8450819, 0.4171451, 0.3347417, -0.3408388]</t>
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[0.4885334, -0.11603614, 0.2511666, -0.30305386, -0.34362522, -0.050081413, 0.3188912, 0.76404923, 0.4751886, -0.17285335, -0.2155328, -0.08490473, -0.52112937, 0.20814234, -0.30167708, -0.14540413, -0.06460733, 0.13168643, 0.25948268, -1.0287849, -0.6278779, 0.058240455, 0.36083746, 0.10047832, -0.0026055078, 0.07033342, -0.10123489, -0.17302822, 0.96450996, -0.84660596, -0.17058848, -0.08814504, -0.025447607, 0.3729366, 0.27626196, 0.09471894, -0.57218, 0.089420654, -0.33137473, 0.1828603, 0.10448307, -0.59266084, 0.16355897, 0.073578775, 0.18550326, 0.007676676, 0.3492802, -0.39072287, 0.023468869, 0.6233842, -0.1265993, 0.24205196, -0.023913361, 0.4316875, -0.36046317, -0.844708, -0.39071357, -1.0317355, 0.2943777, -0.18773109, 0.29446566, -0.6841247, 0.07934774, 0.5602292, -0.31024867, -0.39779234, -0.7820325, 0.047475863, -0.034707714, 0.2174939, 0.36129963, -0.1755618, 0.45609346, -0.14170934, 0.37940493, -0.9352234, 0.028161263, -0.5098231, 0.24898864, 0.9504154, -0.14894171, -0.797942, -0.8480614, -0.8126077, -0.26923996, -0.27233124, 0.013319761, -0.4501276, -1.213358, -0.2961175, -0.3738071, 0.20253712, 0.21950345, -0.015078659, -0.28374, -0.18323822, -0.075198345, 0.16270894, 0.093613714, 0.17774312, -0.047182526, 0.1610366, -0.065746635, 0.33262733, -0.028250583, -0.1288283, -0.63305956, -0.11273381, -0.49240324, 0.24523707, 0.36004767, -1.008127, 0.20028527, 0.5554094, -0.27101722, -0.03710978, 0.050466884, 0.47504643, -0.1026448, 0.4884704, 0.29143366, 0.22451441, -0.22192872, 0.6755059, -0.56223255, 0.31262484, 1.1013864, 0.1424696, 0.27456608, -0.50515395, -0.040403564, 0.012183118, 0.24621366, -0.10992346, -0.47196782, -0.74672705, 0.38531193, -0.5088623, 0.5977191, 0.24844652, 0.32416388, 0.28257215, -0.15251447, -0.14506604, 0.540649, -0.03865852, 0.59323794, -0.16245116, -0.056780133, -0.566637, -0.29988995, 0.022838116, -0.79674894, 0.2573212, -0.028704727, -0.67731994, -0.26716033, 0.23293024, 0.34614506, -0.18182981, 0.4991264, -0.37109342, 0.11821569, -0.11244132, 0.26266667, 0.17318638, 0.59357995, -0.23354472, 0.5461173, 0.17384648, 0.04722759, -0.08448241, -0.11153951, 0.20275743, -0.06258676, 0.115576126, -0.04126553, -0.019533707, 0.16394255, -0.67651963, 0.014015156, 0.31414977, -0.43382052, 0.44561782, 0.1800158, -0.04651919, 0.57761306, 0.08854715, -0.36439928, -0.30603775, 0.32406726, 0.20198154, 0.1494198, -0.22077413, -0.29360044, 0.72808355, -0.14947076, 0.049168646, -0.4005898, -0.63691586, -0.048878044, 0.022402754, 0.60071504, 0.36209285, 0.6042838, 0.325693, -0.4440982, 0.070207745, -0.17337996, -0.60533905, -0.034046814, 0.93132013, 0.097009696, 0.21047051, 0.024842985, 0.007735466, -0.09331423, -0.13856314, -0.2229683, -0.001745599, 0.11161695, 0.14932707, 0.04977885, -0.35974348, 0.10560288, -0.7554681, 0.17391719, 0.41755626, 0.13505627, -0.39926967, -0.5354284, -0.07514741, -0.21907789, -0.6219506, 0.90046215, 0.50892127, 0.640693, 0.36513612, -0.5397989, -0.5001065, -0.15581013, 0.41950896, -0.41297475, -0.15241994, -0.22206073, 0.19899613, -0.09723526, -0.2889937, 0.35042787, -0.32966682, 0.17236269, 0.5475258, -0.45567465, 0.17975523, 0.16018343, -0.9855415, -0.33271107, 0.3711479, -0.70002896, 0.017387934, -0.006086389, -0.049539465, 0.085069954, 0.25377062, -0.68818855, -0.26349318, 0.12680261, -1.426835, 0.40310684, -0.6141007, -0.71351916, -0.5180694, 0.34561095, 0.3583562, -0.40449405, 0.8523887, 0.28901702, 0.21941751, -0.058133196, -0.19161393, 0.6386488, 0.359602, 0.21922083, 0.49411213, -0.016762128, -0.4981135, -0.18041037, -0.37083077, -0.280417, -0.52749974, -0.22666454, 0.20654304, -0.39177093, -1.1096077, 0.27091715, 0.06137311, -0.17791454, -0.10723001, 0.36885312, 0.04224668, 0.4457488, 0.30819103, -0.039256185, 0.34405303, 0.5741324, 0.1849159, -0.21718483, 0.114855565, -0.19112527, 0.4136912, 0.21060677, -0.002656389, 0.21538877, 0.26239964, 0.19362901, -0.046669547, -0.05036986, -0.53690416, -0.09029257, -0.101661004, -0.19005185, 0.32420075, 0.055035073, -0.17833017, 0.3969876, 0.42715254, 0.32738104, 0.33321753, 0.21385966, -0.4179351, -0.7219617, -0.2971972, 0.56056505, 0.09808987, 0.17834143, -0.52838486, 0.44249848, -0.4310424, -0.2049048, -0.18006746, -0.5477054, 0.29473835, -0.41113126, 0.6941972, -0.4569812, 1.242805, 0.015790896, -0.07163963, -0.32707784, -0.4654487, -0.8483301, -0.066575505, 0.1620688, 0.078553475, 0.5062613, -0.16166644, 0.54277045, 0.49465743, -0.3740714, -0.38381192, 0.6574344, -0.96539336, 0.4798795, -0.9433145, -0.28490415, 0.3959186, -0.35501707, 0.24940874, 0.35985306, 0.3920965, -0.12401152, 0.10106331, 0.8500075, -0.35823408, -0.61173606, 0.0457121, -0.7250075, -0.66831326, -0.21624161, -0.10359442, 0.89228445, 0.6526451, 0.040783025, -0.15814495, -0.085675664, -0.7033758, -0.17038834, 0.32817248, 0.1650917, 0.28830326, -0.74298173, -0.36444604, 0.2706101, -0.16018675, 0.026364595, 0.3495665, 0.2126442, 0.40720913, -0.24301879, -0.6757085, 0.59541816, -0.13836862, 0.45280036, 0.29908848, -0.41776755, -0.5473711, 0.43042898, -0.37777218, -0.57477826, -0.2270649, -0.849919, -0.07629036, -0.8635633, -0.43188098, -0.063109525, -0.4821135, -0.2260225, 0.77927035, -0.12941016, 0.17122169, 0.41828692, -0.7176607, 0.50416213, -0.53851753, 0.31573653, 0.6211794, 0.49129522, 0.49932036, 0.0069941827, -0.45760843, 0.31916532, 0.036963526, 0.6820325, 0.13251027, 0.149166, -0.66129637, -0.11568994, 0.2079109, -0.14704162, 0.7818608, 0.2771267, 0.24228191, 0.3775762, 0.107162766, -0.32599974, -0.2918907, -0.39061952, -0.8833048, -0.9255295, -1.108967, -0.5497353, -0.851161, 0.34671512, -0.047374442, -0.62633103, -0.6587823, 0.8186082, -0.10488271, -0.21169846, 0.32643387, -0.14201893, 0.062285144, -0.61152285, -0.69672936, 0.60036314, 0.2941086, 0.06337479, 1.1127139, -0.11741093, 0.5586703, -0.55130404, -0.121858425, -0.016277257, -0.015789272, 0.3541715, -0.22733723, -0.30572143, 0.12504886, 0.38607848, 0.13377906, 0.6292489, -0.2884449, 0.5246002, -0.14511342, 0.4956565, -0.14200167, -0.26469138, -0.5422291, -0.102481365, 0.22403228, -0.321534, -0.022581005, -0.31965622, 0.25018254, 0.6622656, -0.27020893, -0.21906729, 0.5989695, -0.4516835, 0.7276414, 0.08799386, -0.025237694, 0.14432937, -0.22288209, 0.03988947, 0.4935595, 0.5995271, -0.23435883, -0.48233715, 0.09578667, -0.101523936, -0.47804794, 0.74551183, -0.12006255, 0.075945534, 0.4008062, 0.12770502, -0.18722458, -0.3116354, 0.5387573, -0.49055168, -0.085525356, 0.14610694, -0.47886273, -0.010766834, -0.11870686, 0.8086951, -0.10672051, -0.054782417, -0.40686032, 0.112581275, 0.09613305, 0.20892853, -0.0940091, 0.8003257, -0.0816046, -0.15781733, 0.6698007, 0.50055766, 0.060164306, 0.2801762, -0.25690198, -0.034323547, -0.001974058, -0.7592694, 0.06663614, 0.1112395, 0.5706807, 0.19964404, 0.19739169, 0.20091438, -0.39245453, -0.53291875, -0.6050269, -0.578274, -0.42022052, -0.19622189, -0.57724434, -0.5615567, 0.18958545, 0.09638085, 0.46320888, -0.89467984, -0.3340344, -0.3703519, 0.58818984, -0.38579535, 0.18926243, 0.068527244, 0.20290332, -0.35014486, 0.23746574, 0.10367086, 0.21325767, 0.1263361, -0.66691756, -1.043198, -0.42913926, -0.19516653, -0.32644227, -0.21978335, 0.0121258395, -0.462603, -0.22189848, 0.8637641, -0.56743777, -0.6588631, -0.11022047, -0.23684381, -0.49810922, 0.1990747, -0.8001587, 0.06906921, -0.09644624, -0.5802385, -0.04504021, 0.25357038, -0.13862084, 0.043264214, -0.10970744, -0.5941724, 0.4425497, -0.16924728, 0.06987097, -0.89901596, -0.3508301, 1.0452162, -0.39414373, 0.050527927, 0.6561899, 0.13104981, -0.046209354, 0.30959573, -0.06675818, -0.41604754, 0.0743085, -0.6896371, -0.4195429, 0.18589135, 0.49302015, -0.024171809, 0.2814063, -0.41054735, -0.21576114, -0.16321413, -0.25754657, -0.10254536, -0.5432554, -0.07525734, -0.334554, 0.61999196, -0.4908599, 0.26421016, -0.85131717, -0.13631898, -0.27883437, 0.074662246, 0.48806635, -0.5179183, -0.86075383, -0.24847479, -0.3726217, -0.2771426, 0.12133432, -0.061537787, -0.8423831, -0.06562846, -0.13033326, -0.66729873, -0.08519676, -0.281975, -0.050435215, 0.79217696, -0.22553492, 0.30526808, 0.24636339, 0.63341063, -0.07726174, -0.14871624, -0.46087456, 0.10576537, 0.19432335, 0.4933537, -0.37345544, -0.8783471, -0.2955036, -0.42979407, -0.20549451, 0.14030565, 0.13879411, 0.9383761, -0.16829067, 0.07518154, 0.6417275, -0.2743506, -0.29780883, 1.0747975, -0.33571646, 0.7823264, 0.20264328, -0.53257376, 0.23356332, 0.3532515, 0.6053083, 0.044956177, 1.2569257, 0.4745244, -0.047113508, -0.028916577, 0.19918181, -0.123829015, 0.3928465, 0.44560578, -0.42202553, 0.9122791, 0.80628115, -0.3401345, -0.22115707, -0.4369501, -0.2802387, -0.50893146, 0.06265982, -0.51538044, -0.46200332, -0.3708078, -0.45200464, -0.11704438, -0.11307871, -0.11447147, 0.02782861, -0.008910462, 0.017106002, -0.42494026, 0.18517776, -0.5811972, -0.0129392585, 0.23632468, -0.7170189, -0.07660102, -0.89050007, 0.5770984, -0.15686077, -0.2213183, -0.32220525, 0.40205863, -0.23357742, -0.08433985, -0.4667021, -0.71952534, -0.4637549, 0.14901398, -0.02874546, 0.16437127, 0.31107807, 0.010703936, -0.081041574, 0.05976671, -0.052495155, 0.16079856, 0.1040011, -0.22649781, 0.5135649, -0.08228018, -0.39795196, 0.24215855, 0.23885645, -0.2310612, 0.8006139, 0.6019363, 0.545127, 0.17909081, -0.26487663, -0.3073562, -0.1946736, -0.85128623, -0.25623772, 0.44997975, -0.020184476, -0.19073933, -0.36075678, 0.10699437, 0.30974042, 0.019065859, 0.22457041, 0.6285601, 0.37750015, -0.055243447, 0.026250869]</t>
         </is>
       </c>
     </row>
@@ -668,20 +740,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Texture analyser는 무엇이죠?</t>
+          <t>Texture profile analysis</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>식품의 물성을 측정하는 대표 장치입니다.</t>
+          <t>저작을 모방한 물성 측정 방법입니다.</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[0.6813852, -0.65505517, 0.22202887, -0.32376048, 0.12807368, 0.39365324, 0.05497856, 0.29477882, 0.17341402, -0.5304877, -0.3838658, -0.31864336, -0.29746288, 0.2525377, -0.50290436, 0.15044604, 0.46508345, -0.21241303, 0.29286948, 0.032255523, -0.6929015, 0.18580663, 0.3125185, 0.23102975, -0.44958478, -0.51413137, -0.21569203, 0.14047824, 0.20928575, -0.4138719, 0.03353932, -0.21416858, -0.005282871, -0.19451222, 0.1357698, 0.15534261, -0.84706116, -0.24580178, 0.115742035, -0.17250447, -0.1000201, -0.42817825, 0.012775627, 0.20349936, -0.02328916, 0.5341242, -0.317395, 0.4981567, -0.35332742, 0.30996206, -0.4368779, 0.4072415, 0.47212332, 0.36086836, -0.25807127, -0.33064485, -0.4567782, -0.82479084, 0.29038268, -0.2743989, 0.6487509, -0.35907987, 0.10920912, 0.83041006, -0.16155836, -0.64417785, -0.58527327, 0.07226229, 0.056522515, -0.09896298, 0.03728505, 0.6310641, 0.82964104, -0.27439094, -0.44286463, -0.6437277, 0.44564697, 0.2462736, 0.9569324, 0.46750632, 0.023457473, -0.6914279, -0.17379467, -0.011379433, -0.66485673, -0.15008569, -0.023659894, -0.1173734, -1.0321711, 0.07217314, -0.79705626, -0.22103015, -0.10746241, -0.3553806, -0.4675729, -0.39827782, -0.23031959, 0.11336904, 0.42304, -0.27020568, -0.29365468, 0.35874325, -0.01723122, 0.51928526, 0.28578493, -0.106343254, -0.38086715, -0.10789519, 0.71988046, -0.42954615, 0.6649025, -0.38670322, -0.14515707, 0.053437777, -0.29230165, 0.09085936, -0.27358395, 0.36122403, -0.29324356, 0.7580062, -0.46120486, -0.037899025, -0.2990613, 0.78510207, 0.0012904768, 0.13546555, 0.6140143, 0.5127817, 0.3109507, -0.38814893, -0.32670885, -0.16223364, 0.91654605, -0.04385678, -0.5733159, 0.1919236, 0.08688497, -0.42005867, 0.53763545, 0.0998831, 0.13248055, -0.31473443, 0.16808519, 0.24306591, 0.290993, 0.4059294, 0.5953803, -0.15741648, 0.12949832, -0.34534648, -0.39535934, -0.077678, -0.49720457, -0.07047353, -0.23024891, -0.3835524, -0.18688455, 0.52275497, 0.13734655, 0.286375, -0.21210113, 0.5764517, -0.47586635, -0.0629027, 0.239967, -0.016959783, 0.63427967, 0.09426781, 0.15101406, -0.78983444, -0.30811745, 0.1868707, -0.0905608, 0.37551457, -0.44564128, 0.42983446, 0.31960514, 0.2860009, -0.2626234, -0.43155223, 0.25054303, 0.70852786, 0.117001235, -0.2659598, 0.19971666, 0.10573178, 0.4235862, -0.4462795, -0.07416604, -0.49523368, 0.12001891, 0.14398964, 0.093629904, 0.33748373, 0.11524175, 0.37103653, 0.12889467, -0.0074928873, 0.2957008, -0.02367195, -1.0997255, -0.079510935, -0.34530503, 1.0252329, 0.48913914, 0.37731203, -0.5885602, -0.105716154, 0.13390777, -0.25372356, -0.8186127, 0.36195213, 0.48207304, -0.043850917, 0.19569843, 0.07984649, 0.4010816, 0.038280036, -0.24594699, 0.14346646, 0.15845266, -0.1827549, 0.35940364, 0.29957578, 0.14285226, -0.57092726, 0.086147174, 0.6561675, 0.45852965, -0.3488963, -0.2188665, -0.6630474, 0.014075908, 0.025287284, 1.1255559, 0.061014798, 0.26317337, 0.5048641, -0.35651731, -0.63288414, -0.21539906, 0.68423355, 0.60500115, 0.01775657, 0.28438357, 0.015866714, 0.22011113, -0.8388529, 0.7786512, -0.18926157, 0.46325207, 0.38020587, -0.5929593, -0.4659585, 0.22422217, 0.061773006, 0.059592042, 0.528612, -0.2724665, -0.31280366, 0.2080834, 0.5421503, -0.32464856, -0.38010192, -0.943579, -0.25438145, 0.3355647, -0.8267583, 0.30065614, -0.62718755, -0.5157155, -0.053675212, 0.25502047, -0.18543804, -0.053428046, 0.3873343, 0.051083528, -0.12205702, -0.23296547, -0.3062615, 0.33681628, 0.30370474, 0.028801862, 0.25946116, 0.2877882, -0.519133, -0.23925652, -0.35393947, -0.6832671, -0.5225896, 0.25851208, 0.102685936, -0.3258145, -1.494194, 0.43650565, -0.2387552, -0.09273527, -0.6302515, 0.4484946, -0.20343874, 0.409143, 0.37322405, -0.2101845, 0.5485189, 0.48336533, 0.507561, -0.44782606, -0.39037606, 0.09619705, 0.25829977, 0.099218726, -0.24262059, -0.9472479, 0.22188315, 0.2274692, -0.44556734, 0.117287815, -0.34532142, 0.015179021, -0.043428313, -0.60509795, 0.45960543, 0.0787313, 0.13219021, -0.577985, 0.44655547, 0.044868387, -0.09166312, 0.36219725, -0.05844407, -0.54704666, -0.5193324, 1.124799, -0.014884399, 0.3057136, -0.46704242, 0.19788496, -0.5779711, 0.59515, 0.30534917, -0.7178735, -0.07619684, -0.6359467, -0.08256335, 0.0022440676, 0.79236, 0.34848067, -0.073333405, 0.34981626, -0.4345419, -0.092305526, -0.52528465, -0.28573915, 0.27194735, 0.59799343, 0.2493823, 0.95750576, 0.1236696, -0.38294768, -0.4728336, 0.7752219, -0.49177942, 0.07930523, -0.43057266, -0.03943671, 0.26448563, -0.61676896, 0.34129348, -0.10693852, 0.8634413, -0.29230183, -0.15299855, 0.1531607, 0.24326195, -0.2526541, 0.57380813, -0.26996973, -0.22989419, 0.36873695, -0.34619597, 0.7628664, 0.6699072, 0.42292356, -1.1824347, -0.023183078, -0.7447877, -0.30732754, 0.49158534, 0.38243127, 0.16162677, -0.17845848, -0.8323229, 0.25545135, -0.049253438, -0.47030607, 0.27166435, -0.16504526, 0.7925463, -0.109541476, -0.30635408, 0.3887937, 0.7787229, -0.03736332, 0.06213826, -0.39379007, 0.55737233, 0.41446668, 0.17416272, -0.4150448, -0.07344586, -0.7340799, -0.27161494, -0.5904644, 0.32985806, -0.0017618388, -0.46420607, -0.6928333, 0.013572736, -0.10487913, 0.17536342, 0.15024802, -1.0806568, 0.49205709, -0.4564805, -0.12827209, 0.24900351, 0.0975141, -0.028801326, 0.48926857, -0.0527297, 0.25908485, -0.2863069, 0.5075001, -0.047498982, 0.68704736, -0.10211359, 0.111798726, -0.2738974, -0.016229186, 0.1462884, 0.07747152, -0.3747901, 0.12808278, -0.23606001, 0.41563588, -0.59897286, 0.8408729, -0.3618347, -0.5141638, -1.007489, -0.6084857, -0.65124464, -0.28198487, 0.52775025, -0.213766, -0.12014147, 0.16477677, -0.81306857, 0.16277815, 0.2049507, -0.034776073, 0.041510396, -0.42894745, -0.05143077, 0.3030746, 0.25956714, -0.24019174, 0.1308008, -0.20588963, 0.27568185, -0.65333986, -0.518154, 0.54719526, -0.2698135, 0.24746753, -0.25233206, -0.3403984, 0.36565652, -0.3221565, -0.1001366, -0.8707321, -0.32944208, 0.25990146, -0.22477688, 0.31836256, 0.30254593, -0.23729284, -0.3492599, 0.004995014, 0.5149208, 0.054965053, 0.130073, -0.18496124, -0.47045118, 0.8279852, -0.09192252, -0.43541354, 0.6501264, 0.12577538, 0.17439474, -0.0724317, 0.46124244, -0.03676216, -0.21969189, 0.30936688, 0.47240067, -0.30068454, -0.18181035, -0.4336227, 0.2560273, -0.025926013, -0.56534994, -0.2615816, 0.93650275, 0.2356217, 0.418979, 0.05480779, -0.21735607, 0.56464815, 0.27054888, -0.4261873, -0.34457403, -0.16625555, 0.5758049, -0.0226526, 0.06154113, -0.14285538, -0.15156256, -0.16410848, -0.4563828, -0.064022444, 0.4082566, 0.37213692, 0.40524775, 0.6087591, -0.8948022, 0.17309618, 0.39254305, 0.8593337, 0.2035876, -0.15682869, 0.14687298, 0.86334044, 0.11842426, -0.19321108, 0.06992387, 0.4361465, 0.31894636, 0.39520794, -0.73058873, -0.62501436, -0.014583844, -0.5979567, -0.0033770981, -0.39692566, 0.3934973, -0.44834906, 0.06560717, -0.8244071, 0.15121447, -0.711359, 0.14562096, -0.5348261, -0.43600723, -0.5849567, 0.26493046, -0.07720673, 0.23750496, 0.22361736, 0.31430343, -0.104471385, 0.36762455, 0.5440387, 0.17117943, -0.057225414, -0.11858664, -0.5372041, -0.528758, 0.005372835, -0.6287427, 0.33652642, 0.21403901, -0.27399528, -0.043218393, 0.31612486, -0.3771474, -0.94568443, 0.022873236, -0.6968713, 0.10467497, -0.5731782, -0.544757, -0.0139154885, 0.16364396, -0.8185248, -0.019149678, -0.25111184, -0.517111, -0.038077183, 0.27532586, -0.18098064, 0.39727727, 0.10128409, 0.33732018, -0.19491439, -0.19581504, 0.82164395, -0.12134351, -0.26222652, -0.009895818, -0.15106943, -0.24358144, 0.14416194, -0.22153236, -0.5114307, -0.07391434, -0.2941389, -0.25633657, 0.58395, 0.25448564, 0.16929166, -0.28388113, -0.60031563, -0.3851227, 0.06375556, 0.42839178, -0.22927652, 0.04701271, -0.08358519, -0.44510436, 0.678934, -0.6146242, 0.30470857, -0.4779208, -0.2439775, -0.55893785, -0.049736835, 0.12633966, 0.12508297, -0.4485192, -0.653277, 0.11552827, -0.4390862, -0.09415257, 0.0029420618, -0.2578301, 0.12605089, -0.51047665, -0.3486219, -0.37426305, -0.7614473, -0.099327266, 0.23596999, -0.27242306, 0.40437385, 0.011355468, 0.24270765, 0.5138677, -0.8263227, 0.16587438, 0.16938958, 0.37925574, 0.08715039, -0.58275795, -0.6622568, -0.3906607, -0.6160728, -0.49264783, 0.30871797, 0.21473698, 0.7270075, -0.3030263, 0.33744287, 0.37998366, -0.4931232, -0.13201545, 0.8581231, -0.3352943, 0.6553031, -0.15765302, -0.02852927, 0.57535416, 0.37530017, -0.47122547, 0.18064788, 0.43429574, -0.010506973, 0.10964421, 0.15890394, 0.1898867, -0.49789205, -0.0054107993, 0.066006705, -0.76358616, 0.78275925, 0.745523, -0.6128351, -0.046986286, -0.046173446, -0.07903782, 0.10721283, 0.52673596, -0.8306168, -1.006468, 0.049600415, -0.6096381, 0.1267628, -0.67221934, -0.28578788, -0.34047696, -0.9543013, -0.31362677, -0.61314243, -0.0639673, 0.0067893094, -0.5599362, -0.35383645, -0.53843457, -0.2840461, -0.57389593, -0.18836541, -0.26146007, -0.0050892746, -0.2731468, -0.087006554, -0.45635024, 0.31654024, -0.1649077, 0.06571212, 0.10378783, 0.3088154, -0.4301636, -0.20862718, -0.33998686, 0.12280412, -0.008101685, -0.029335143, -0.31529573, 0.17161758, 0.18791844, -0.08218158, 0.46873394, -0.66693646, -0.6427075, 0.8878829, 0.9329986, 0.22458223, 0.60068095, 0.634415, -0.08061937, 0.18344012, 0.036762234, -0.71711797, 0.28197697, -0.33304328, 0.1719356, 0.28120264, -0.40254807, 0.23520651, -0.6465932, -0.201416, -0.35210928, 0.11677408, 0.012678853, 0.3056614, 0.49676824, 0.106286846, -0.36614642]</t>
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[0.6726091, -0.22903202, -0.2968077, -0.24405096, -0.2650757, 0.43850192, -0.23096766, 0.11515281, -0.16237797, -0.790759, -0.04874988, -0.0776201, -0.14712867, 0.09700029, -0.6038639, 0.5379603, -0.011812225, 0.115114816, -0.06142132, -0.19974776, -1.07401, 0.37255943, -0.18640856, 0.107576996, -0.24815512, -0.93930495, 0.017107422, 0.24336945, -0.17684875, -0.040579174, 0.3301028, -0.15522324, -0.5774593, -0.07026598, -0.0011775765, -0.0011992123, -0.7687827, -0.07088068, 0.10346698, -0.36578587, -0.2583488, -0.06468696, 0.039833006, 0.18412389, -0.24544592, 0.74836636, -0.3670689, 0.3587892, -0.700983, 0.44061518, 0.025437009, -0.14088623, 0.4963322, -0.09623289, -0.32685715, 0.043648567, -0.7349606, -0.36634362, 0.28056276, -0.42968282, 0.26483068, -0.21422535, 0.070842214, 0.49901712, -0.28398564, -0.38023338, -0.3331729, -0.30616376, 0.14603385, -0.29307333, 0.25564596, 0.28935096, 0.44638994, -0.011192975, -0.17685783, 0.18469639, 0.021462802, -0.13237989, 0.71969235, 0.15743509, 0.40070906, -0.6160181, -0.4599286, -0.11529278, -0.47876674, -0.27949575, 0.16595821, -0.6149808, -0.79303074, 0.17113025, -0.17399955, -0.2676866, -0.28642198, -0.23450288, -0.2611852, 0.23640881, 0.18590383, 0.09283329, 0.3117789, -0.1187776, -0.5247385, -0.07302037, -0.14531454, 0.9271809, 0.3620934, 0.03052214, -0.50677305, 0.10689354, 0.45892018, 0.039701875, -0.046603657, -0.23582597, 0.023663439, -0.25549698, 0.62248063, 0.36809227, -0.40052462, -0.111046724, -0.29299703, 0.12226686, -0.7659139, -0.6204253, -0.423115, 0.3543959, -0.3272044, 0.15448835, 0.38453162, 0.4926507, 0.2449703, -0.52616066, -0.27333304, -0.10431874, 0.8333135, -0.38554665, -0.9401074, 0.24937235, -0.22271396, -0.121823356, 0.6464458, 0.41712752, 0.22685312, -0.5995916, 0.53671044, 0.28810886, 0.26967457, -0.26296416, 0.7593451, -0.28086355, 0.1423573, -0.08876285, -0.57919794, -0.16116644, -0.2589719, 0.016104905, 0.029799847, -0.44378737, 0.101676345, 0.42899868, 0.18126656, 0.1560029, 0.07711932, 0.12181249, -0.2584677, -0.16639414, -0.04497903, 0.18401437, 0.004647076, -0.11546698, 0.2729892, -0.7294655, -0.12041378, 0.24620257, 0.29557154, 0.76718765, -0.6368933, 0.9264605, 0.007296917, 0.16305853, -0.33802822, -0.335436, 0.46170065, 0.41136894, 0.093608506, -0.34144157, 0.34368575, 0.02903827, 0.25257695, -0.10105042, 0.6596078, -0.43443185, 0.11676849, 0.20473957, -0.37925673, 0.37753087, -0.28728944, 0.44537404, -0.81148756, 0.017972596, 0.56682575, -0.22366767, -0.4572487, 0.37753904, -0.22139272, 0.6282327, 0.44136044, 0.6264646, -0.6538296, -0.20214048, 0.1408397, -0.38993075, -1.0621886, 0.23757766, 0.18299814, -0.031931754, 0.5905871, 0.25434005, 0.638369, 0.47973844, -0.14574052, 0.005328849, -0.10809155, 0.1117621, 0.10818061, -0.019286186, 0.026428014, -0.7661876, -0.004646438, 0.8024016, 0.25882828, -0.13745487, -0.5339182, -0.2907729, -0.4040325, -0.069973394, 1.310535, 0.007496709, 0.80463123, 0.55034775, 0.26479247, -0.7884648, -0.20860082, 0.6135146, 0.19110551, 0.11929303, 0.11317664, 0.016432293, 0.43032864, -0.39206454, 0.4963442, 0.29977456, -0.0004580793, 0.30895782, -0.6436483, 0.19735478, 0.159113, -0.28736386, -0.25360537, 0.31745335, 0.024416568, -0.5383456, -0.28292197, 0.47819215, -0.53163475, -0.6492912, -0.3176393, -0.3223709, 0.621128, -0.319533, 0.2951998, -0.42011833, 0.15537858, 0.113663, 0.44414502, 0.23386782, 0.20459582, 0.1902012, -0.1942315, 0.16042429, -0.08908746, -0.5186791, 0.37003615, 0.2880488, -0.05703586, 0.018370707, 0.286145, -0.5640438, -0.15059118, -0.23520042, -0.25077128, -0.4677591, 0.43052423, 0.34944347, -0.30900264, -2.0872462, -0.13439673, -0.14172374, -0.0977149, -0.60637814, -0.033912823, 0.026254596, 0.18343934, 0.29407498, -0.26832047, 0.8653339, 0.5327601, 0.03926352, -0.45932344, -0.23562093, 0.06991467, 0.5990764, -0.44779614, -0.27391386, -0.8027478, -0.015524733, 0.39469194, -0.5961092, 0.03811626, -0.1244074, -0.11955855, -0.26172155, 0.4770857, 0.56100816, -0.25306603, 0.26006854, -0.62777334, 0.09476911, 0.004446041, -0.095749386, 0.43869153, -0.1930802, -0.44556695, -0.7394152, 0.80639803, -0.201336, -0.019168025, -0.8496444, -0.020505222, -0.35352817, -0.24824294, 0.2802935, -0.23019503, -0.15268718, -0.5023671, -0.106019616, 0.51414925, 0.91988236, 0.16492678, 0.17626712, 0.019458922, -0.20137958, 0.20466524, -0.67514515, -0.30682835, -0.13911761, 0.30925962, -0.15134138, 0.5304379, 0.15696922, -0.21947195, 0.2430338, 0.96652883, -0.35456374, -0.11283608, 0.11042015, -0.09582627, -0.26269868, -0.17918353, 0.68618816, -0.17538816, -0.2236709, -0.4239666, -0.18031022, -0.24885298, -0.30322018, 0.3009552, 0.38985145, 0.10565758, -0.51726675, 0.06493383, 0.02332818, 0.79065627, 0.35722134, 0.42629054, -0.53641087, -0.4103138, -0.47523987, 0.11172903, 0.19946527, 0.49833795, 0.19015656, -0.15444177, -0.59060997, -0.051450957, -0.07001105, 0.061202273, 0.16556233, 0.19100094, 0.41428795, 0.21867208, 0.38064864, 0.36933085, 0.35305375, -0.41380513, 0.09934661, 0.05140827, 0.068915196, 0.07276982, 0.6851399, -0.5041689, -0.24836016, -0.32815287, -0.43491614, -0.76989424, 0.41960242, 0.081914775, -0.3224722, 0.2751732, -0.3894374, 0.20052442, -0.43397415, 0.20459269, -0.5695709, 0.1252142, 0.123629354, -0.44031903, 0.6665431, 0.5429482, 0.32126638, 0.34013858, -0.34281698, 0.114939995, 0.10584805, 0.020228885, 0.0676605, -0.30808952, -0.1638909, 0.1314104, -0.028658645, -0.7306944, 0.2592993, -0.045046188, -0.38877127, 0.43444088, -0.357279, -0.21851377, -0.49993324, 0.3542944, 0.08401948, -0.10103347, -0.80412096, -0.79734784, -0.7059272, -0.3372234, 0.76933724, 0.5505569, -0.49759862, 0.3515074, -0.7844349, 0.02868224, -0.19763665, -0.36693898, 0.29679108, 0.30710796, -0.007977551, 0.25790143, 0.044098675, -0.17980137, 0.34923446, 0.41762152, 0.09058741, -0.2099083, -0.037694808, 0.48902044, -0.25424168, 0.44403073, 0.02603534, -0.27892348, 0.34743777, -0.42716962, -0.27651688, -1.5324439, -0.37433326, 0.35039192, -0.27477044, 0.5691962, 0.5716789, -0.2821321, -0.19182052, -0.1372599, 0.68511623, 0.42159262, -0.023770057, -0.30095047, -0.43516147, 0.19890231, -0.35765573, -0.09224393, 0.38168848, 0.28211647, 0.10177469, 0.044166334, 0.09189821, -0.23413795, -0.06460652, 0.21615623, 0.44314033, -0.08799246, -0.28118914, -0.363601, 0.114044905, -0.029048564, -0.9515535, -0.27090824, 0.90661544, 0.6236688, -0.04943875, 0.15517908, -0.19913465, 0.6716476, 0.31160885, -0.11080561, -0.08349543, 0.39713427, 0.68720156, 0.32843426, -0.43263882, -0.56338745, 0.13674603, 0.09277713, -1.1503137, -0.25290263, -0.037090335, 0.2632213, 0.36333972, 1.2923743, -0.82019496, 0.14789425, 0.010708739, 0.504905, 0.9298969, -0.1187015, -0.40410078, 0.68804526, -0.23842564, 0.11468086, 0.4397273, 0.35782498, -0.0046660225, 0.88377535, -0.5887752, -0.2671916, 0.40196344, -0.39026135, 0.2832511, -0.1309163, 0.20115323, -0.16594228, -0.061515633, -0.79073817, 0.48082495, -1.0506275, 0.1238438, -0.11183047, -0.43589708, -0.59690547, 0.46134272, -0.25114396, 0.47357473, -0.38107097, 0.3191127, 0.12760745, 0.62491333, 0.76013905, 0.11501659, 0.19101481, -0.22335096, -0.5252007, -1.0013499, 0.11715437, -0.5912559, 0.35087335, 0.21936521, -0.07156151, -0.13238299, 0.5228197, -0.0863264, -0.7048815, 0.045610547, -0.050816953, 0.5272659, -0.32903698, -0.6315493, 0.41745663, 0.21134669, -0.6473999, 0.11500285, -0.20345306, -0.6406427, -0.20235114, 0.3042032, 0.09335425, -0.27221882, -0.23282155, -0.09603036, -0.077646114, -0.32309726, 0.8627861, -0.1675212, -0.70170563, -0.30599496, 0.09274661, -0.57576555, 0.028667653, -0.17305182, -0.64657587, -0.1467966, 0.08890199, 0.08157998, 0.7688804, 0.14371213, 0.17872562, -0.054415356, -0.14459743, -0.0621775, 0.03638524, -0.10683063, -0.58158594, 0.19937533, -0.45682785, -0.75951385, 0.36802703, -0.28526357, 0.5577818, -0.31783837, -0.031303808, 0.08427482, -0.24066776, 0.26786488, 0.4844572, -0.33946216, -0.44378135, -0.5684921, 0.038108896, -0.41783664, 0.053465486, 0.46379086, 0.0018207702, -0.6109851, -0.36741382, 0.14298311, -0.3488163, 0.15104757, 0.6806448, -0.5682852, 0.1156621, 0.08956614, 0.47956276, -0.010261644, -0.9498392, 0.2530078, 0.34649178, 0.13417482, 0.26239145, -0.47776616, -0.58164304, -0.24363531, -0.52967143, -0.16386507, -0.28057376, -0.43597716, 0.7885012, -0.18305917, 0.069599755, 0.033819973, 0.19109993, -0.46644923, 0.40836012, -0.43949786, 0.5170115, -0.48152637, 0.585929, 0.27624094, 0.47541615, -0.6266343, 0.5739613, 0.19832025, -0.09265893, 0.5420584, -0.22807854, 0.02709533, -0.6535867, -0.35863188, -0.22602035, -0.54505473, 0.6645637, 0.4022597, 0.098583296, -0.12604104, -0.35824153, -0.19159012, 0.016799588, 0.43442422, -0.7614014, -0.69588536, -0.4799894, -1.06986, 0.0935764, 0.1754878, -0.8058697, -0.095204026, -1.3280936, 0.022884734, -0.13279554, 0.28333476, 0.021575868, -0.8648646, -0.14471865, -0.40864447, -0.15154625, -0.2056564, -0.036977466, -0.33671418, -0.62321997, -0.2903673, -0.041893132, -0.1767059, 0.06338466, -0.34854135, 0.3266493, -0.15982899, 0.58598924, -0.36678293, 0.046913102, -0.4889862, -0.033829052, 0.28181884, -0.1949984, -0.027112067, -0.05769014, -0.21312557, -0.13174202, 0.31983346, -0.48405325, -0.41353634, 0.6188814, 0.98005486, -0.29649282, -0.14365445, 0.54575664, 0.49809924, 0.20140864, -0.10196479, -0.25457272, 0.02201045, -0.224756, 0.28277814, 0.22118114, -0.2504163, -0.026430054, -0.85014343, 0.17023931, -0.35068056, 0.068129204, -0.43870717, 0.3507803, 0.5298933, 0.5999489, -0.098183826]</t>
         </is>
       </c>
     </row>
@@ -691,20 +766,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>점도는 어떻게 측정하나요?</t>
+          <t>Texture analyzer는 무엇이죠?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>회전형 점도계를 고려해 보시죠.</t>
+          <t>식품의 물성을 측정하는 대표 장치입니다.</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[-0.08294659, -0.23402815, 0.6442835, -0.55079985, 0.49848518, -0.12253289, 0.25834376, -0.08707752, 0.26456866, -0.11447735, -0.4753282, 0.0999246, 0.4524358, -0.07687895, -0.386733, 0.20310001, -0.1199374, 0.0061246245, -0.8632244, -0.043602068, -0.39500412, -0.094395325, 0.32788348, 0.31434703, -0.4111634, -0.084045276, -0.5529601, -0.45604977, 0.105844975, -0.63877696, 0.1952852, -0.2080979, -0.64304626, 0.34581858, 0.008588296, 0.25501585, 0.5185056, -0.052154668, 0.1266481, -0.14378938, -0.50987995, -0.3213017, 0.0011507332, 0.54600567, 0.3107334, -0.32634193, 0.19550028, 0.26934475, -0.512212, -0.055590052, -0.8594905, -0.009889727, 0.04291505, 0.41181225, -0.5328791, -0.5113652, 0.25118932, 0.11503426, -0.17005016, -0.18484166, -0.1254914, -0.8404215, 0.07692538, 0.28111693, -0.23345919, -0.09824618, 0.266046, 0.12668043, -0.55741805, 0.27520576, 0.22819488, -0.5128901, -0.38081664, -0.4488093, 0.66424346, -0.3308701, -0.06746107, -0.22071645, 0.1769382, 0.14136052, 0.2254202, -0.13482746, -0.8976375, -0.43148407, 0.07431033, -0.92532843, -0.15248092, -0.24349794, 0.5516469, 0.38806865, -0.23874469, -0.0714775, -0.30657884, 0.22643828, -0.36410576, 0.27787158, 0.089127526, -0.61798394, 0.15146221, 0.03816658, 0.03446, 0.6695229, -0.72381, 0.7705128, 0.10328265, -0.20552377, 0.06967079, 0.3387209, 0.39389557, 0.17185393, 0.2928992, -0.1821732, 0.10664799, -0.01699256, 0.11991918, -0.4657628, 0.06503807, -0.6829693, 0.002956571, 0.23087311, 0.78850293, -0.31350827, -0.3203893, -0.16360721, -0.16848436, 0.5801524, 0.4494505, -0.31829524, 0.5657256, -0.3837769, -0.3393175, 0.14617845, 0.8457902, -0.0024073715, 0.02066421, -0.59747493, 0.10918596, -0.5431079, -0.29905576, 0.6218454, -0.15133555, -0.07232727, 0.072260246, -0.15523097, 0.01202206, 0.34842393, 0.6791117, 0.12369803, -0.13462687, -0.58866936, 0.0840264, -0.08644533, -0.3399037, -0.165435, 0.6356988, -0.32071942, -0.12567773, -0.28313035, -0.035781004, -0.48047248, -0.17564622, -0.46207398, 0.2672535, -0.05766496, 0.4293427, 0.18219693, 0.15483281, 0.29257676, -0.555497, -0.36020473, -0.4555532, -0.36353055, 0.0346481, -0.4049882, 0.4195198, 0.17455892, -0.78867877, -0.14538395, -0.65081763, -0.3778514, 0.38385835, 0.13897873, -0.17664167, -0.37420338, -0.062280297, 0.08831322, 0.3201123, 0.022629604, -0.48277014, -0.013047096, 0.1843462, -1.171063, -0.5104076, 0.27539426, 0.6220017, 0.73033345, -0.10243168, -0.25322825, -0.12653749, 0.39622518, 0.033493157, 0.8667718, -0.3488829, 0.010871688, 0.58243096, -0.1405702, 0.19327128, -0.29869717, 0.72017884, 0.14764988, 0.471139, 0.5423409, -0.4074556, -0.03721689, 0.041444365, -0.8749757, -0.44379455, -0.45701274, 0.33770293, -0.2482641, -0.14952107, -0.21135089, 0.5798954, -0.18799272, 0.07347668, -0.805402, 0.46689105, -0.0067996206, 0.8661621, -0.2003859, 0.18861744, -0.2766487, 0.0009787992, -0.562129, 0.29806834, 0.035130627, 0.2582554, 0.7275452, -0.79761666, -0.26390165, 0.07274507, 0.008710803, -0.1786294, 0.086208776, 0.4694416, 0.2785965, 0.0016422853, -0.60218585, -0.16233876, -0.2939351, -0.22857681, 0.11918869, 0.60896266, -0.07705206, 0.8340642, 0.027343553, 0.14871548, 0.6115668, 0.2644611, -0.27664787, 0.14706334, 0.07584841, -0.15266646, 0.21428283, -0.25943774, -0.3191301, 0.5059672, -0.6749086, -0.15368168, -0.67053396, -0.12317266, -0.07145761, 0.39265886, 0.11494185, -0.1084618, 0.22448778, -0.05044798, 0.72022533, 0.19204083, 0.4517873, -0.16877985, 0.6798085, -0.4958497, 0.18483596, 0.778086, 0.061365645, -0.14813295, -0.36244592, 0.37567073, -0.37287784, -0.34980142, 0.38171282, -0.11163832, -1.3575871, 0.07390912, 0.09469993, 0.25759906, -0.0674502, 0.65663314, 0.4305626, 0.34333053, 0.36280948, 0.6991596, -0.023769598, 0.10931202, 0.17362772, -0.32591373, -0.6239607, -0.41308743, 0.0248245, 0.9171696, 0.70292246, 0.3188551, 0.43853393, -0.092978135, -0.6260654, 0.1318725, 0.026602928, 0.4581185, -0.02413485, -0.2708066, 0.540522, -0.3271931, -0.4272028, -0.21952292, 0.9174881, 0.18740408, -0.31927174, -0.0867664, 0.0051542968, -1.0814419, -0.28869328, 0.14176773, -0.10104535, -0.21046314, -0.7280834, 0.6460659, -0.81381863, -0.2479231, 0.28123552, -0.13415895, -0.1907808, -0.26264364, 0.84805614, 0.28238815, 0.9289444, -0.019244213, -0.4084832, -0.0908819, -0.3237038, 0.17025793, 0.0021485686, 0.24186695, 0.19788317, 0.8908661, 0.40389305, -0.15933618, 1.2147213, 0.41125876, -0.21967319, 0.87787074, 0.13989983, -0.018773014, 0.7958359, -0.28532252, -0.45728883, -0.843516, -0.38412565, -0.055011384, 0.23906657, 0.13737457, -0.16838305, -0.19009566, -0.106953405, -0.44249374, 0.102298595, 0.17227094, 0.5048532, -0.47308117, -0.24278875, 0.34939623, 0.7651404, 0.18210803, -0.5243042, 0.63788813, -0.4441402, -0.2562149, 0.04497952, 0.10239478, -0.002551803, -0.1372155, -0.16222389, 0.31247625, -0.17586009, -0.9636816, 0.09203404, -0.5846642, -0.27324122, -0.24339278, 0.7311013, 0.45536438, 0.07665019, -0.12580465, 0.21808422, 0.39390436, -0.07708548, 0.05384987, 0.12060894, -0.034263127, -0.86022455, -0.16755942, -0.4306901, -0.3916778, 0.11199429, -0.5623899, -0.08171518, -0.0025351346, -0.22703373, -0.22644608, -0.12641627, -0.02351127, -0.277139, 0.45960408, -0.47062522, -0.025229866, 0.15506849, 0.6074551, -0.24655107, 0.80809325, -0.18670747, 0.68947774, 0.18987441, -0.09882295, -0.32348076, -0.47802132, -0.09447764, 0.029344212, -0.29483828, -0.576764, 0.009890045, 0.62941587, 0.41871053, 0.14403374, 0.13856706, -0.34960026, 0.016287256, 0.2441382, 0.438186, -0.05090226, -0.43259424, -0.04081531, -0.08872193, -0.46788788, -0.24886608, -0.40507832, 0.5786356, -0.19224653, 0.17282784, -0.43845168, 0.08989842, -0.040944606, 0.034493383, 0.06607874, -0.07031238, 0.18431015, -0.28296694, 0.52199334, 0.77724075, 0.06836793, 0.16992053, -0.37944388, -0.36958355, 0.17871492, -0.08110295, -0.8639429, -0.21531253, 0.26216343, 0.18067971, -0.6777198, 0.47199026, -0.29978016, 0.025034403, 0.17370388, 0.5431425, 0.5055641, -0.6438519, -0.058749903, 0.11070807, 0.048437305, 0.35593152, 0.8110409, -0.25926387, -0.50019705, 0.067276075, 0.20311472, -0.4507462, -0.31591764, 0.72611696, -0.17569868, -0.37262326, 0.1104121, 0.44108972, 0.3903356, 0.3660289, -0.25484997, 0.15604088, -0.05456101, 0.16560905, -0.2476176, -0.02600202, -0.23858282, -0.117595986, 0.3523856, 0.53671473, 0.43102163, 0.84833544, 0.05001702, -0.2684782, -0.36071163, 0.69806767, -0.49161243, -0.27622122, 0.19628459, 0.1737397, 0.17281717, -0.43782893, -0.5982114, -0.035127543, 0.3448134, 0.20968886, -0.13913006, 0.34421614, -0.41012502, 0.2897313, 0.104297265, -0.08994175, -0.22386432, 0.24329285, 0.69785726, -0.22225097, 0.23780525, -0.5409701, 0.34567672, -0.49469417, 0.20898315, -0.17302635, 0.5722539, 0.25876936, -0.34703237, -0.47712374, -0.16471389, -0.6892928, -0.022824595, -0.736675, 0.3790217, -0.17971313, 0.013873652, -0.6044235, -0.72807044, 0.09426657, 0.16552421, 0.1288888, -0.49239153, 0.5706481, -0.1589578, -0.34128675, 0.034629174, 0.004372108, -0.14229959, 0.0362458, 0.9607196, 0.5176314, -0.59001577, 0.85218287, -0.13008443, -0.9689242, -0.8787961, -1.3635571, -0.03892439, -0.48786575, -0.0760987, 0.64298534, 0.13029248, -0.8195753, 0.74130666, 0.2215416, -0.48718676, -0.20260783, -0.5241045, -0.25236613, 0.31670696, -0.5876891, 0.3115439, 0.23989344, -0.7661911, -0.64282256, 0.21761553, -0.6800617, -0.24669933, -0.56456244, -0.096025415, 0.15283151, -0.05583071, -0.013207582, 0.1585683, -0.5679357, -0.05568918, -0.18995567, -0.2836718, 0.058006745, -1.2360141, -0.30720526, -0.054512095, -0.8622425, -0.27523524, 0.0973256, -0.5180377, -0.8563267, -0.63351744, 0.31980434, -0.52634275, -0.2790397, 0.2362136, -0.79241985, -0.6333274, -0.55290425, 0.12444539, -0.2895501, 0.09106218, -0.59003866, 0.7313972, 0.054334737, 0.18808287, -0.3594564, -0.18230493, 0.10674286, -0.35233817, 0.8257624, 0.40811223, -0.9620005, -0.76031905, 0.15041037, 0.4941662, -0.5802328, -0.20965283, 0.67796296, -0.31392926, 0.9524382, -0.64237726, -0.18647511, 0.22077724, 0.23791811, -0.35585484, 0.2942212, 0.080246136, -0.27503946, 0.006198874, 0.27541122, -0.73874, 0.052865088, -0.4513662, -0.55795085, 0.6311598, -0.31677565, -0.3458526, -0.7524689, -0.58904386, -0.2657532, 0.5164274, 0.1657033, 0.22875957, -0.15838356, -0.31509468, 0.2297093, -0.13521029, -0.05353763, 0.22919777, -0.16978475, -0.26788867, -0.20760374, -0.32494897, 0.20297225, 0.73982304, 0.3336755, -0.87806094, 1.4362981, -0.85121715, -0.0636118, 0.26907903, -0.39652115, -0.2680191, -0.008642423, 0.4162709, -0.13003473, 0.87525684, 0.29340902, 0.28049108, -0.75276434, -0.21777824, -0.6718527, -0.07107707, 0.46198696, -0.47319326, 0.29390627, -0.29693708, 0.070628405, 0.17554715, 0.2581197, -0.60843647, -0.043052983, -0.39524326, 0.049080037, -0.00924312, -0.13071494, 0.3643841, -0.8305108, 0.10673988, 0.4354802, -0.091940686, -0.29771328, 0.4270676, 0.5813019, -0.34474015, -0.3035909, -0.12430388, -0.14743826, 0.66632265, 0.5939205, -0.3109564, -0.59629935, -0.505299, 0.29151386, -0.6461901, 0.1411961, 0.18882158, -0.18961366, -0.4785084, -0.18252173, -0.56063616, -0.049791276, -0.23791905, 0.074346855, -0.18114898, -0.22323361, 0.53642654, -0.17964199, 0.3028267, 0.6873098, 0.19836988, -0.5158987, 0.0077413274, 0.31134906, 0.060500123, 0.35869884, -0.34930745, -0.2334404, -0.20393157, 0.22828022, 0.19957317, -0.6858946, 0.4847908, 0.13567838, 0.100524165, -0.26621613, 0.20539263, 0.3355426, 0.559507, -0.3521033]</t>
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[0.38710812, -0.5600051, -0.077770784, -0.24344571, -0.17384873, 0.29451075, -0.10321265, 0.16023733, 0.31723884, -0.6001947, -0.41446057, -0.42005485, 0.058524046, -0.05889704, -0.37318543, 0.124687545, 0.35492307, 0.049418937, 0.14110614, -0.029517744, -0.8815936, 0.15990601, 0.08692587, 0.36003727, -0.36890817, -0.7980931, -0.3193937, 0.38772535, -0.02417288, -0.23464713, 0.16889364, -0.025449004, -0.074586816, 0.035176758, 0.08766088, 0.02050422, -0.8510138, -0.359388, 0.1575275, -0.24443178, -0.1209799, -0.5227548, 0.05755808, 0.27763543, -0.1269385, 0.78495467, -0.18185689, 0.40231898, -0.30620542, 0.16636172, -0.59880674, 0.1622259, 0.37802628, 0.3127282, -0.34389487, -0.12341925, -0.29268375, -0.4557421, 0.21971586, -0.33403444, 0.6413238, -0.27943566, -0.13859388, 0.6263751, -0.067126885, -0.60629725, -0.5523579, 0.06791936, -0.047999337, -0.25862092, 0.076397724, 0.5385365, 0.4941193, 0.053418487, -0.2817475, -0.42404634, 0.14753537, 0.11538381, 0.774472, 0.45793265, 0.24762325, -0.7861579, -0.4151104, -0.0067602163, -0.60221225, -0.24593844, -0.035993252, -0.501073, -0.6566798, -0.061035376, -0.6716301, -0.37722948, -0.3605919, -0.010870049, -0.5848838, -0.23741578, -0.2460474, 0.09742515, 0.030716773, -0.22119984, -0.2787048, 0.19949014, 0.0011423137, 0.7282018, 0.40400526, -0.026502011, -0.40404168, 0.099771194, 0.3474499, -0.2912944, 0.55302685, -0.17011939, 0.18104926, -0.2962256, 0.021310583, 0.3911675, -0.26697713, 0.42703217, -0.33777982, 0.87565, -0.5257403, -0.090323254, -0.29806206, 0.6524578, 0.00027364213, -0.0069585084, 0.48440108, 0.4956651, 0.20219094, -0.551306, -0.21318774, 0.0703519, 0.887325, -0.2995858, -0.70299894, 0.20369232, 0.11741282, -0.48690334, 0.4128834, 0.37659773, 0.13679063, -0.42782196, 0.22907624, 0.31083488, 0.32210606, 0.08538606, 0.6945601, -0.20074189, 0.08320621, -0.4395964, -0.38977364, -0.2203353, -0.5908405, -0.078768946, 0.13710126, -0.4631127, -0.25982973, 0.24630222, 0.16727138, 0.18683751, -0.07265432, 0.6296575, -0.594334, 0.0014392463, 0.17290321, 0.027178247, 0.6463659, -0.1571265, 0.13763304, -0.70948356, -0.30395803, 0.2858939, -0.06336104, 0.2835782, -0.17345831, 0.25646365, -0.007284362, 0.08900504, -0.32814166, -0.45379972, 0.3499776, 0.68978363, 0.048204057, -0.17555419, 0.1651912, 0.048795275, 0.64986396, -0.32474875, -0.033736028, -0.1624138, 0.10263282, 0.29571217, -0.067167, 0.55612093, 0.081367224, 0.42063105, -0.1575038, 0.09544897, 0.27978468, -0.004869558, -0.70344704, 0.45709947, -0.14902428, 1.0746412, 0.6676043, 0.44303504, -0.2077382, -0.04389292, 0.17486377, 0.014273228, -0.6516625, 0.3358362, 0.36417884, 0.15583692, 0.6959126, -0.25648797, 0.4919228, 0.025005464, -0.122157454, -0.20546177, 0.13862574, -0.16398785, 0.42400843, 0.17704551, -0.16426083, -0.9162121, 0.4078449, 0.7368433, 0.31491214, -0.024016334, -0.39020786, -0.46561792, -0.2464069, -0.071717545, 1.1412605, -0.013303333, 0.30074754, 0.6283498, -0.17810333, -0.46824688, -0.16022821, 0.56534183, 0.2565388, -0.121434025, 0.063726194, 0.29167104, 0.2952027, -0.6559325, 0.52603525, -0.09399553, 0.3657947, 0.5537559, -0.56732315, -0.24998668, 0.1595357, -0.0737862, -0.0885345, 0.4677994, -0.20381305, -0.3254033, 0.020038115, 0.40922508, -0.60782444, -0.61838377, -0.711165, -0.23903868, 0.35656613, -0.56780505, 0.2826453, -0.5814708, -0.14393127, -0.25774914, 0.17623356, -0.17179379, -0.14148743, 0.31639755, -0.2906626, -0.15263478, -0.061692975, -0.25490734, 0.19065547, 0.3126115, 0.14478032, 0.23112948, 0.7406871, -0.34415403, -0.12040175, -0.2937097, -0.4645023, -0.44231677, 0.14910495, -0.006369319, -0.34732285, -1.4818877, 0.21365239, -0.16970861, -0.32784984, -0.52063787, 0.29851672, 0.17550954, 0.43259582, 0.39034837, 0.012401866, 0.4478098, 0.37662256, 0.12960295, -0.4415213, -0.47130874, 0.21749973, 0.20619246, -0.16549967, 0.07774371, -0.9163397, 0.227949, 0.20071831, -0.55115443, 0.009930169, -0.1521877, 0.04579617, -0.024241358, -0.8324981, 0.2943382, -0.030452799, 0.0846049, -0.30904472, 0.34868938, -0.16351397, 0.030184606, 0.14288568, -0.030372448, -0.44939584, -0.5817421, 1.1590388, -0.028591614, 0.13944796, -0.6015745, 0.16357593, -0.63676035, 0.275456, 0.38240767, -0.42222923, -0.23507214, -0.90023553, 0.019127341, -0.06719775, 0.7602483, 0.073323496, 0.044156585, 0.37614745, -0.51685554, -0.034413118, -0.38665798, -0.29325974, 0.11948324, 0.7070976, 0.26951033, 0.6543943, 0.2778756, -0.48986235, -0.3491226, 0.9086955, -0.6995172, -0.05972431, -0.15764189, 0.056993492, 0.06087462, -0.591273, 0.53887737, 0.045140505, 0.43165416, -0.17059298, -0.19478495, 0.053992383, -0.15608151, -0.16111027, 0.57487476, -0.34335804, -0.18000725, 0.043661404, -0.115904495, 0.5912041, 0.575643, 0.41623482, -1.0555209, -0.2268709, -0.472345, -0.29477763, 0.41286466, 0.28788865, 0.10119839, -0.028362315, -0.67960805, 0.104730986, -0.28965947, -0.18498206, 0.19177595, 0.10818748, 0.69160086, -0.07880397, 0.15030965, 0.4282607, 0.7608738, -0.023457851, 0.082088545, -0.12131026, 0.43254492, 0.4672052, 0.26473185, -0.4286188, -0.37407732, -0.46793532, -0.3810263, -0.6597689, 0.25186533, -0.16385414, -0.36757886, -0.45042253, 0.07682523, 0.04539459, -0.18773556, 0.100300886, -0.78733665, 0.109839246, -0.37404293, -0.49635383, 0.121155664, 0.3853145, 0.1448003, 0.5044786, -0.048951015, 0.5249852, -0.10951643, 0.2947169, -0.16711959, 0.20371304, 0.040919043, -0.01307324, -0.32207716, -0.33880916, 0.09239989, 0.17644425, -0.19626756, 0.07149043, -0.19010888, 0.3957311, -0.3472017, 0.6912372, -0.15073723, -0.31399214, -1.030484, -0.6947699, -0.74373114, -0.3646886, 0.60634816, 0.018070428, -0.15830854, 0.5766393, -0.613233, 0.008812599, 0.10376804, -0.011181528, -0.00624044, 0.024851171, 0.19950402, 0.44804642, 0.2763263, -0.08875351, 0.42457247, 0.0005104523, 0.2477172, -0.5636937, -0.49243528, 0.13625935, -0.070135735, 0.19527167, -0.22993824, -0.4817744, 0.012580359, -0.40986693, 0.016233815, -1.1380334, -0.34442073, 0.39514297, -0.052302368, 0.20916143, 0.029156927, -0.27752182, -0.49710542, -0.030077795, 0.5912545, 0.3880399, -0.11254465, -0.06160229, -0.5952789, 0.66687477, -0.27994806, -0.32204127, 0.5227291, 0.22789413, 0.28106585, 0.06989945, 0.37842926, -0.0016375612, -0.04574679, 0.15937552, 0.4664097, -0.16455203, -0.20856081, -0.5585192, 0.22081608, -0.15166642, -0.5788173, -0.3233606, 1.0192777, 0.3127776, 0.6651011, 0.2859634, -0.16312687, 0.3642844, 0.37503532, -0.1525413, -0.2966376, -0.008810029, 0.75385267, 0.18549564, 0.114618674, -0.28984958, -0.17024586, 0.16872689, -0.39493978, -0.21216579, 0.2903586, 0.04884814, 0.5311374, 0.5288773, -0.9596192, 0.062956646, 0.30812606, 0.8405993, 0.44290146, -0.026651496, -0.047980517, 0.5377583, -0.0049163583, 0.04777715, 0.10369634, 0.6606211, 0.4340265, 0.3381045, -0.70400417, -0.39682263, -0.039879303, -0.3841676, 0.18967164, -0.2358771, 0.2340327, -0.2276228, 0.13576217, -0.9381365, 0.124001406, -0.6750157, 0.2006789, -0.3294852, -0.17709789, -0.46622363, 0.26624247, -0.0716171, 0.19222292, -0.15378198, 0.14287129, 0.10860109, 0.58427787, 0.29566222, 0.29034162, 0.037318733, -0.26631436, -0.5477065, -0.6574115, 0.020575589, -0.4194661, 0.2678248, 0.40502682, -0.0825673, -0.3496922, 0.5714996, -0.3293031, -0.80221444, -0.088383645, -0.55441874, 0.40693995, -0.603642, -0.46782947, -0.053338632, 0.3058648, -0.5777041, 0.065799035, -0.13516961, -0.64492995, -0.25744474, 0.36138877, -0.038449332, 0.39887595, -0.032977838, 0.25235525, -0.018171893, -0.19451442, 0.8497033, -0.19890419, -0.5059694, -0.18124965, -0.009346638, -0.17484832, -0.0019997982, -0.16637929, -0.53861934, -0.032221228, -0.37120828, -0.30931094, 0.47787815, 0.049981534, 0.12854454, -0.51624113, -0.34183002, -0.6140597, -0.015734166, 0.2560806, -0.15384203, -0.013179693, -0.26500198, -0.5390761, 0.7410022, -0.54337513, 0.3178535, -0.46833527, -0.23909982, -0.6392229, 0.124109775, 0.36437467, 0.025032397, -0.605798, -0.65081775, 0.07030028, -0.25960633, -0.18736202, 0.07661274, 0.04696104, 0.046625845, -0.2042439, -0.4834059, -0.29449683, -0.39811903, -0.16903843, -0.010376733, -0.3082342, 0.16370809, -0.013021097, 0.21031794, 0.21488735, -0.9314131, 0.2397115, -0.0048317034, 0.2578361, -0.16083948, -0.37399608, -0.4320414, -0.6692275, -0.34897745, -0.55917317, 0.27266493, -0.00908418, 0.8009196, -0.268201, 0.20741834, 0.3302687, -0.18054579, -0.5403363, 0.73913455, -0.27321893, 0.6325129, -0.327723, -0.08913329, 0.5758694, 0.4802297, -0.39220205, 0.25146008, 0.45808002, -0.22741987, 0.23435958, -0.011078934, -0.1278124, -0.5989348, -0.065163, 0.007219581, -0.34486318, 0.7914626, 1.0037068, -0.30543163, 0.096700616, -0.096089914, -0.002644891, 0.24239175, 0.45072848, -0.82356447, -0.6396973, -0.0007723123, -0.7331812, 0.0820724, -0.3024759, -0.413317, -0.5905216, -0.93463737, -0.24565576, -0.31060088, 0.03613293, 0.048677474, -0.8430683, -0.3997652, -0.0635562, -0.14237328, -0.6422485, -0.03805814, -0.33900604, -0.110856205, -0.23010682, -0.3062035, -0.36913458, -0.008761755, -0.15630408, 0.36729428, 0.021391982, 0.003543894, -0.32895917, -0.21864063, -0.1959314, 0.0017530047, 0.053945586, 0.045842376, -0.08875047, 0.07862969, -0.03732869, -0.06386043, 0.6003726, -0.7343985, -0.4169946, 0.78218216, 0.6735072, 0.023280915, 0.41249767, 0.32114726, 0.11952123, 0.39245257, -0.15748887, -0.5610762, 0.06695819, -0.5223247, 0.32548374, -0.06817445, -0.37572387, 0.10736108, -0.7197957, -0.109496996, -0.3447372, 0.01823644, -0.128877, 0.8450819, 0.4171451, 0.3347417, -0.3408388]</t>
         </is>
       </c>
     </row>
@@ -714,20 +792,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>점도는 어떻게 측정하나요?</t>
+          <t>Texture analyser는 무엇이죠?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Brookfield 점도계를 고려해 보시죠.</t>
+          <t>식품의 물성을 측정하는 대표 장치입니다.</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[-0.08294659, -0.23402815, 0.6442835, -0.55079985, 0.49848518, -0.12253289, 0.25834376, -0.08707752, 0.26456866, -0.11447735, -0.4753282, 0.0999246, 0.4524358, -0.07687895, -0.386733, 0.20310001, -0.1199374, 0.0061246245, -0.8632244, -0.043602068, -0.39500412, -0.094395325, 0.32788348, 0.31434703, -0.4111634, -0.084045276, -0.5529601, -0.45604977, 0.105844975, -0.63877696, 0.1952852, -0.2080979, -0.64304626, 0.34581858, 0.008588296, 0.25501585, 0.5185056, -0.052154668, 0.1266481, -0.14378938, -0.50987995, -0.3213017, 0.0011507332, 0.54600567, 0.3107334, -0.32634193, 0.19550028, 0.26934475, -0.512212, -0.055590052, -0.8594905, -0.009889727, 0.04291505, 0.41181225, -0.5328791, -0.5113652, 0.25118932, 0.11503426, -0.17005016, -0.18484166, -0.1254914, -0.8404215, 0.07692538, 0.28111693, -0.23345919, -0.09824618, 0.266046, 0.12668043, -0.55741805, 0.27520576, 0.22819488, -0.5128901, -0.38081664, -0.4488093, 0.66424346, -0.3308701, -0.06746107, -0.22071645, 0.1769382, 0.14136052, 0.2254202, -0.13482746, -0.8976375, -0.43148407, 0.07431033, -0.92532843, -0.15248092, -0.24349794, 0.5516469, 0.38806865, -0.23874469, -0.0714775, -0.30657884, 0.22643828, -0.36410576, 0.27787158, 0.089127526, -0.61798394, 0.15146221, 0.03816658, 0.03446, 0.6695229, -0.72381, 0.7705128, 0.10328265, -0.20552377, 0.06967079, 0.3387209, 0.39389557, 0.17185393, 0.2928992, -0.1821732, 0.10664799, -0.01699256, 0.11991918, -0.4657628, 0.06503807, -0.6829693, 0.002956571, 0.23087311, 0.78850293, -0.31350827, -0.3203893, -0.16360721, -0.16848436, 0.5801524, 0.4494505, -0.31829524, 0.5657256, -0.3837769, -0.3393175, 0.14617845, 0.8457902, -0.0024073715, 0.02066421, -0.59747493, 0.10918596, -0.5431079, -0.29905576, 0.6218454, -0.15133555, -0.07232727, 0.072260246, -0.15523097, 0.01202206, 0.34842393, 0.6791117, 0.12369803, -0.13462687, -0.58866936, 0.0840264, -0.08644533, -0.3399037, -0.165435, 0.6356988, -0.32071942, -0.12567773, -0.28313035, -0.035781004, -0.48047248, -0.17564622, -0.46207398, 0.2672535, -0.05766496, 0.4293427, 0.18219693, 0.15483281, 0.29257676, -0.555497, -0.36020473, -0.4555532, -0.36353055, 0.0346481, -0.4049882, 0.4195198, 0.17455892, -0.78867877, -0.14538395, -0.65081763, -0.3778514, 0.38385835, 0.13897873, -0.17664167, -0.37420338, -0.062280297, 0.08831322, 0.3201123, 0.022629604, -0.48277014, -0.013047096, 0.1843462, -1.171063, -0.5104076, 0.27539426, 0.6220017, 0.73033345, -0.10243168, -0.25322825, -0.12653749, 0.39622518, 0.033493157, 0.8667718, -0.3488829, 0.010871688, 0.58243096, -0.1405702, 0.19327128, -0.29869717, 0.72017884, 0.14764988, 0.471139, 0.5423409, -0.4074556, -0.03721689, 0.041444365, -0.8749757, -0.44379455, -0.45701274, 0.33770293, -0.2482641, -0.14952107, -0.21135089, 0.5798954, -0.18799272, 0.07347668, -0.805402, 0.46689105, -0.0067996206, 0.8661621, -0.2003859, 0.18861744, -0.2766487, 0.0009787992, -0.562129, 0.29806834, 0.035130627, 0.2582554, 0.7275452, -0.79761666, -0.26390165, 0.07274507, 0.008710803, -0.1786294, 0.086208776, 0.4694416, 0.2785965, 0.0016422853, -0.60218585, -0.16233876, -0.2939351, -0.22857681, 0.11918869, 0.60896266, -0.07705206, 0.8340642, 0.027343553, 0.14871548, 0.6115668, 0.2644611, -0.27664787, 0.14706334, 0.07584841, -0.15266646, 0.21428283, -0.25943774, -0.3191301, 0.5059672, -0.6749086, -0.15368168, -0.67053396, -0.12317266, -0.07145761, 0.39265886, 0.11494185, -0.1084618, 0.22448778, -0.05044798, 0.72022533, 0.19204083, 0.4517873, -0.16877985, 0.6798085, -0.4958497, 0.18483596, 0.778086, 0.061365645, -0.14813295, -0.36244592, 0.37567073, -0.37287784, -0.34980142, 0.38171282, -0.11163832, -1.3575871, 0.07390912, 0.09469993, 0.25759906, -0.0674502, 0.65663314, 0.4305626, 0.34333053, 0.36280948, 0.6991596, -0.023769598, 0.10931202, 0.17362772, -0.32591373, -0.6239607, -0.41308743, 0.0248245, 0.9171696, 0.70292246, 0.3188551, 0.43853393, -0.092978135, -0.6260654, 0.1318725, 0.026602928, 0.4581185, -0.02413485, -0.2708066, 0.540522, -0.3271931, -0.4272028, -0.21952292, 0.9174881, 0.18740408, -0.31927174, -0.0867664, 0.0051542968, -1.0814419, -0.28869328, 0.14176773, -0.10104535, -0.21046314, -0.7280834, 0.6460659, -0.81381863, -0.2479231, 0.28123552, -0.13415895, -0.1907808, -0.26264364, 0.84805614, 0.28238815, 0.9289444, -0.019244213, -0.4084832, -0.0908819, -0.3237038, 0.17025793, 0.0021485686, 0.24186695, 0.19788317, 0.8908661, 0.40389305, -0.15933618, 1.2147213, 0.41125876, -0.21967319, 0.87787074, 0.13989983, -0.018773014, 0.7958359, -0.28532252, -0.45728883, -0.843516, -0.38412565, -0.055011384, 0.23906657, 0.13737457, -0.16838305, -0.19009566, -0.106953405, -0.44249374, 0.102298595, 0.17227094, 0.5048532, -0.47308117, -0.24278875, 0.34939623, 0.7651404, 0.18210803, -0.5243042, 0.63788813, -0.4441402, -0.2562149, 0.04497952, 0.10239478, -0.002551803, -0.1372155, -0.16222389, 0.31247625, -0.17586009, -0.9636816, 0.09203404, -0.5846642, -0.27324122, -0.24339278, 0.7311013, 0.45536438, 0.07665019, -0.12580465, 0.21808422, 0.39390436, -0.07708548, 0.05384987, 0.12060894, -0.034263127, -0.86022455, -0.16755942, -0.4306901, -0.3916778, 0.11199429, -0.5623899, -0.08171518, -0.0025351346, -0.22703373, -0.22644608, -0.12641627, -0.02351127, -0.277139, 0.45960408, -0.47062522, -0.025229866, 0.15506849, 0.6074551, -0.24655107, 0.80809325, -0.18670747, 0.68947774, 0.18987441, -0.09882295, -0.32348076, -0.47802132, -0.09447764, 0.029344212, -0.29483828, -0.576764, 0.009890045, 0.62941587, 0.41871053, 0.14403374, 0.13856706, -0.34960026, 0.016287256, 0.2441382, 0.438186, -0.05090226, -0.43259424, -0.04081531, -0.08872193, -0.46788788, -0.24886608, -0.40507832, 0.5786356, -0.19224653, 0.17282784, -0.43845168, 0.08989842, -0.040944606, 0.034493383, 0.06607874, -0.07031238, 0.18431015, -0.28296694, 0.52199334, 0.77724075, 0.06836793, 0.16992053, -0.37944388, -0.36958355, 0.17871492, -0.08110295, -0.8639429, -0.21531253, 0.26216343, 0.18067971, -0.6777198, 0.47199026, -0.29978016, 0.025034403, 0.17370388, 0.5431425, 0.5055641, -0.6438519, -0.058749903, 0.11070807, 0.048437305, 0.35593152, 0.8110409, -0.25926387, -0.50019705, 0.067276075, 0.20311472, -0.4507462, -0.31591764, 0.72611696, -0.17569868, -0.37262326, 0.1104121, 0.44108972, 0.3903356, 0.3660289, -0.25484997, 0.15604088, -0.05456101, 0.16560905, -0.2476176, -0.02600202, -0.23858282, -0.117595986, 0.3523856, 0.53671473, 0.43102163, 0.84833544, 0.05001702, -0.2684782, -0.36071163, 0.69806767, -0.49161243, -0.27622122, 0.19628459, 0.1737397, 0.17281717, -0.43782893, -0.5982114, -0.035127543, 0.3448134, 0.20968886, -0.13913006, 0.34421614, -0.41012502, 0.2897313, 0.104297265, -0.08994175, -0.22386432, 0.24329285, 0.69785726, -0.22225097, 0.23780525, -0.5409701, 0.34567672, -0.49469417, 0.20898315, -0.17302635, 0.5722539, 0.25876936, -0.34703237, -0.47712374, -0.16471389, -0.6892928, -0.022824595, -0.736675, 0.3790217, -0.17971313, 0.013873652, -0.6044235, -0.72807044, 0.09426657, 0.16552421, 0.1288888, -0.49239153, 0.5706481, -0.1589578, -0.34128675, 0.034629174, 0.004372108, -0.14229959, 0.0362458, 0.9607196, 0.5176314, -0.59001577, 0.85218287, -0.13008443, -0.9689242, -0.8787961, -1.3635571, -0.03892439, -0.48786575, -0.0760987, 0.64298534, 0.13029248, -0.8195753, 0.74130666, 0.2215416, -0.48718676, -0.20260783, -0.5241045, -0.25236613, 0.31670696, -0.5876891, 0.3115439, 0.23989344, -0.7661911, -0.64282256, 0.21761553, -0.6800617, -0.24669933, -0.56456244, -0.096025415, 0.15283151, -0.05583071, -0.013207582, 0.1585683, -0.5679357, -0.05568918, -0.18995567, -0.2836718, 0.058006745, -1.2360141, -0.30720526, -0.054512095, -0.8622425, -0.27523524, 0.0973256, -0.5180377, -0.8563267, -0.63351744, 0.31980434, -0.52634275, -0.2790397, 0.2362136, -0.79241985, -0.6333274, -0.55290425, 0.12444539, -0.2895501, 0.09106218, -0.59003866, 0.7313972, 0.054334737, 0.18808287, -0.3594564, -0.18230493, 0.10674286, -0.35233817, 0.8257624, 0.40811223, -0.9620005, -0.76031905, 0.15041037, 0.4941662, -0.5802328, -0.20965283, 0.67796296, -0.31392926, 0.9524382, -0.64237726, -0.18647511, 0.22077724, 0.23791811, -0.35585484, 0.2942212, 0.080246136, -0.27503946, 0.006198874, 0.27541122, -0.73874, 0.052865088, -0.4513662, -0.55795085, 0.6311598, -0.31677565, -0.3458526, -0.7524689, -0.58904386, -0.2657532, 0.5164274, 0.1657033, 0.22875957, -0.15838356, -0.31509468, 0.2297093, -0.13521029, -0.05353763, 0.22919777, -0.16978475, -0.26788867, -0.20760374, -0.32494897, 0.20297225, 0.73982304, 0.3336755, -0.87806094, 1.4362981, -0.85121715, -0.0636118, 0.26907903, -0.39652115, -0.2680191, -0.008642423, 0.4162709, -0.13003473, 0.87525684, 0.29340902, 0.28049108, -0.75276434, -0.21777824, -0.6718527, -0.07107707, 0.46198696, -0.47319326, 0.29390627, -0.29693708, 0.070628405, 0.17554715, 0.2581197, -0.60843647, -0.043052983, -0.39524326, 0.049080037, -0.00924312, -0.13071494, 0.3643841, -0.8305108, 0.10673988, 0.4354802, -0.091940686, -0.29771328, 0.4270676, 0.5813019, -0.34474015, -0.3035909, -0.12430388, -0.14743826, 0.66632265, 0.5939205, -0.3109564, -0.59629935, -0.505299, 0.29151386, -0.6461901, 0.1411961, 0.18882158, -0.18961366, -0.4785084, -0.18252173, -0.56063616, -0.049791276, -0.23791905, 0.074346855, -0.18114898, -0.22323361, 0.53642654, -0.17964199, 0.3028267, 0.6873098, 0.19836988, -0.5158987, 0.0077413274, 0.31134906, 0.060500123, 0.35869884, -0.34930745, -0.2334404, -0.20393157, 0.22828022, 0.19957317, -0.6858946, 0.4847908, 0.13567838, 0.100524165, -0.26621613, 0.20539263, 0.3355426, 0.559507, -0.3521033]</t>
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[0.6813852, -0.65505517, 0.22202887, -0.32376048, 0.12807368, 0.39365324, 0.05497856, 0.29477882, 0.17341402, -0.5304877, -0.3838658, -0.31864336, -0.29746288, 0.2525377, -0.50290436, 0.15044604, 0.46508345, -0.21241303, 0.29286948, 0.032255523, -0.6929015, 0.18580663, 0.3125185, 0.23102975, -0.44958478, -0.51413137, -0.21569203, 0.14047824, 0.20928575, -0.4138719, 0.03353932, -0.21416858, -0.005282871, -0.19451222, 0.1357698, 0.15534261, -0.84706116, -0.24580178, 0.115742035, -0.17250447, -0.1000201, -0.42817825, 0.012775627, 0.20349936, -0.02328916, 0.5341242, -0.317395, 0.4981567, -0.35332742, 0.30996206, -0.4368779, 0.4072415, 0.47212332, 0.36086836, -0.25807127, -0.33064485, -0.4567782, -0.82479084, 0.29038268, -0.2743989, 0.6487509, -0.35907987, 0.10920912, 0.83041006, -0.16155836, -0.64417785, -0.58527327, 0.07226229, 0.056522515, -0.09896298, 0.03728505, 0.6310641, 0.82964104, -0.27439094, -0.44286463, -0.6437277, 0.44564697, 0.2462736, 0.9569324, 0.46750632, 0.023457473, -0.6914279, -0.17379467, -0.011379433, -0.66485673, -0.15008569, -0.023659894, -0.1173734, -1.0321711, 0.07217314, -0.79705626, -0.22103015, -0.10746241, -0.3553806, -0.4675729, -0.39827782, -0.23031959, 0.11336904, 0.42304, -0.27020568, -0.29365468, 0.35874325, -0.01723122, 0.51928526, 0.28578493, -0.106343254, -0.38086715, -0.10789519, 0.71988046, -0.42954615, 0.6649025, -0.38670322, -0.14515707, 0.053437777, -0.29230165, 0.09085936, -0.27358395, 0.36122403, -0.29324356, 0.7580062, -0.46120486, -0.037899025, -0.2990613, 0.78510207, 0.0012904768, 0.13546555, 0.6140143, 0.5127817, 0.3109507, -0.38814893, -0.32670885, -0.16223364, 0.91654605, -0.04385678, -0.5733159, 0.1919236, 0.08688497, -0.42005867, 0.53763545, 0.0998831, 0.13248055, -0.31473443, 0.16808519, 0.24306591, 0.290993, 0.4059294, 0.5953803, -0.15741648, 0.12949832, -0.34534648, -0.39535934, -0.077678, -0.49720457, -0.07047353, -0.23024891, -0.3835524, -0.18688455, 0.52275497, 0.13734655, 0.286375, -0.21210113, 0.5764517, -0.47586635, -0.0629027, 0.239967, -0.016959783, 0.63427967, 0.09426781, 0.15101406, -0.78983444, -0.30811745, 0.1868707, -0.0905608, 0.37551457, -0.44564128, 0.42983446, 0.31960514, 0.2860009, -0.2626234, -0.43155223, 0.25054303, 0.70852786, 0.117001235, -0.2659598, 0.19971666, 0.10573178, 0.4235862, -0.4462795, -0.07416604, -0.49523368, 0.12001891, 0.14398964, 0.093629904, 0.33748373, 0.11524175, 0.37103653, 0.12889467, -0.0074928873, 0.2957008, -0.02367195, -1.0997255, -0.079510935, -0.34530503, 1.0252329, 0.48913914, 0.37731203, -0.5885602, -0.105716154, 0.13390777, -0.25372356, -0.8186127, 0.36195213, 0.48207304, -0.043850917, 0.19569843, 0.07984649, 0.4010816, 0.038280036, -0.24594699, 0.14346646, 0.15845266, -0.1827549, 0.35940364, 0.29957578, 0.14285226, -0.57092726, 0.086147174, 0.6561675, 0.45852965, -0.3488963, -0.2188665, -0.6630474, 0.014075908, 0.025287284, 1.1255559, 0.061014798, 0.26317337, 0.5048641, -0.35651731, -0.63288414, -0.21539906, 0.68423355, 0.60500115, 0.01775657, 0.28438357, 0.015866714, 0.22011113, -0.8388529, 0.7786512, -0.18926157, 0.46325207, 0.38020587, -0.5929593, -0.4659585, 0.22422217, 0.061773006, 0.059592042, 0.528612, -0.2724665, -0.31280366, 0.2080834, 0.5421503, -0.32464856, -0.38010192, -0.943579, -0.25438145, 0.3355647, -0.8267583, 0.30065614, -0.62718755, -0.5157155, -0.053675212, 0.25502047, -0.18543804, -0.053428046, 0.3873343, 0.051083528, -0.12205702, -0.23296547, -0.3062615, 0.33681628, 0.30370474, 0.028801862, 0.25946116, 0.2877882, -0.519133, -0.23925652, -0.35393947, -0.6832671, -0.5225896, 0.25851208, 0.102685936, -0.3258145, -1.494194, 0.43650565, -0.2387552, -0.09273527, -0.6302515, 0.4484946, -0.20343874, 0.409143, 0.37322405, -0.2101845, 0.5485189, 0.48336533, 0.507561, -0.44782606, -0.39037606, 0.09619705, 0.25829977, 0.099218726, -0.24262059, -0.9472479, 0.22188315, 0.2274692, -0.44556734, 0.117287815, -0.34532142, 0.015179021, -0.043428313, -0.60509795, 0.45960543, 0.0787313, 0.13219021, -0.577985, 0.44655547, 0.044868387, -0.09166312, 0.36219725, -0.05844407, -0.54704666, -0.5193324, 1.124799, -0.014884399, 0.3057136, -0.46704242, 0.19788496, -0.5779711, 0.59515, 0.30534917, -0.7178735, -0.07619684, -0.6359467, -0.08256335, 0.0022440676, 0.79236, 0.34848067, -0.073333405, 0.34981626, -0.4345419, -0.092305526, -0.52528465, -0.28573915, 0.27194735, 0.59799343, 0.2493823, 0.95750576, 0.1236696, -0.38294768, -0.4728336, 0.7752219, -0.49177942, 0.07930523, -0.43057266, -0.03943671, 0.26448563, -0.61676896, 0.34129348, -0.10693852, 0.8634413, -0.29230183, -0.15299855, 0.1531607, 0.24326195, -0.2526541, 0.57380813, -0.26996973, -0.22989419, 0.36873695, -0.34619597, 0.7628664, 0.6699072, 0.42292356, -1.1824347, -0.023183078, -0.7447877, -0.30732754, 0.49158534, 0.38243127, 0.16162677, -0.17845848, -0.8323229, 0.25545135, -0.049253438, -0.47030607, 0.27166435, -0.16504526, 0.7925463, -0.109541476, -0.30635408, 0.3887937, 0.7787229, -0.03736332, 0.06213826, -0.39379007, 0.55737233, 0.41446668, 0.17416272, -0.4150448, -0.07344586, -0.7340799, -0.27161494, -0.5904644, 0.32985806, -0.0017618388, -0.46420607, -0.6928333, 0.013572736, -0.10487913, 0.17536342, 0.15024802, -1.0806568, 0.49205709, -0.4564805, -0.12827209, 0.24900351, 0.0975141, -0.028801326, 0.48926857, -0.0527297, 0.25908485, -0.2863069, 0.5075001, -0.047498982, 0.68704736, -0.10211359, 0.111798726, -0.2738974, -0.016229186, 0.1462884, 0.07747152, -0.3747901, 0.12808278, -0.23606001, 0.41563588, -0.59897286, 0.8408729, -0.3618347, -0.5141638, -1.007489, -0.6084857, -0.65124464, -0.28198487, 0.52775025, -0.213766, -0.12014147, 0.16477677, -0.81306857, 0.16277815, 0.2049507, -0.034776073, 0.041510396, -0.42894745, -0.05143077, 0.3030746, 0.25956714, -0.24019174, 0.1308008, -0.20588963, 0.27568185, -0.65333986, -0.518154, 0.54719526, -0.2698135, 0.24746753, -0.25233206, -0.3403984, 0.36565652, -0.3221565, -0.1001366, -0.8707321, -0.32944208, 0.25990146, -0.22477688, 0.31836256, 0.30254593, -0.23729284, -0.3492599, 0.004995014, 0.5149208, 0.054965053, 0.130073, -0.18496124, -0.47045118, 0.8279852, -0.09192252, -0.43541354, 0.6501264, 0.12577538, 0.17439474, -0.0724317, 0.46124244, -0.03676216, -0.21969189, 0.30936688, 0.47240067, -0.30068454, -0.18181035, -0.4336227, 0.2560273, -0.025926013, -0.56534994, -0.2615816, 0.93650275, 0.2356217, 0.418979, 0.05480779, -0.21735607, 0.56464815, 0.27054888, -0.4261873, -0.34457403, -0.16625555, 0.5758049, -0.0226526, 0.06154113, -0.14285538, -0.15156256, -0.16410848, -0.4563828, -0.064022444, 0.4082566, 0.37213692, 0.40524775, 0.6087591, -0.8948022, 0.17309618, 0.39254305, 0.8593337, 0.2035876, -0.15682869, 0.14687298, 0.86334044, 0.11842426, -0.19321108, 0.06992387, 0.4361465, 0.31894636, 0.39520794, -0.73058873, -0.62501436, -0.014583844, -0.5979567, -0.0033770981, -0.39692566, 0.3934973, -0.44834906, 0.06560717, -0.8244071, 0.15121447, -0.711359, 0.14562096, -0.5348261, -0.43600723, -0.5849567, 0.26493046, -0.07720673, 0.23750496, 0.22361736, 0.31430343, -0.104471385, 0.36762455, 0.5440387, 0.17117943, -0.057225414, -0.11858664, -0.5372041, -0.528758, 0.005372835, -0.6287427, 0.33652642, 0.21403901, -0.27399528, -0.043218393, 0.31612486, -0.3771474, -0.94568443, 0.022873236, -0.6968713, 0.10467497, -0.5731782, -0.544757, -0.0139154885, 0.16364396, -0.8185248, -0.019149678, -0.25111184, -0.517111, -0.038077183, 0.27532586, -0.18098064, 0.39727727, 0.10128409, 0.33732018, -0.19491439, -0.19581504, 0.82164395, -0.12134351, -0.26222652, -0.009895818, -0.15106943, -0.24358144, 0.14416194, -0.22153236, -0.5114307, -0.07391434, -0.2941389, -0.25633657, 0.58395, 0.25448564, 0.16929166, -0.28388113, -0.60031563, -0.3851227, 0.06375556, 0.42839178, -0.22927652, 0.04701271, -0.08358519, -0.44510436, 0.678934, -0.6146242, 0.30470857, -0.4779208, -0.2439775, -0.55893785, -0.049736835, 0.12633966, 0.12508297, -0.4485192, -0.653277, 0.11552827, -0.4390862, -0.09415257, 0.0029420618, -0.2578301, 0.12605089, -0.51047665, -0.3486219, -0.37426305, -0.7614473, -0.099327266, 0.23596999, -0.27242306, 0.40437385, 0.011355468, 0.24270765, 0.5138677, -0.8263227, 0.16587438, 0.16938958, 0.37925574, 0.08715039, -0.58275795, -0.6622568, -0.3906607, -0.6160728, -0.49264783, 0.30871797, 0.21473698, 0.7270075, -0.3030263, 0.33744287, 0.37998366, -0.4931232, -0.13201545, 0.8581231, -0.3352943, 0.6553031, -0.15765302, -0.02852927, 0.57535416, 0.37530017, -0.47122547, 0.18064788, 0.43429574, -0.010506973, 0.10964421, 0.15890394, 0.1898867, -0.49789205, -0.0054107993, 0.066006705, -0.76358616, 0.78275925, 0.745523, -0.6128351, -0.046986286, -0.046173446, -0.07903782, 0.10721283, 0.52673596, -0.8306168, -1.006468, 0.049600415, -0.6096381, 0.1267628, -0.67221934, -0.28578788, -0.34047696, -0.9543013, -0.31362677, -0.61314243, -0.0639673, 0.0067893094, -0.5599362, -0.35383645, -0.53843457, -0.2840461, -0.57389593, -0.18836541, -0.26146007, -0.0050892746, -0.2731468, -0.087006554, -0.45635024, 0.31654024, -0.1649077, 0.06571212, 0.10378783, 0.3088154, -0.4301636, -0.20862718, -0.33998686, 0.12280412, -0.008101685, -0.029335143, -0.31529573, 0.17161758, 0.18791844, -0.08218158, 0.46873394, -0.66693646, -0.6427075, 0.8878829, 0.9329986, 0.22458223, 0.60068095, 0.634415, -0.08061937, 0.18344012, 0.036762234, -0.71711797, 0.28197697, -0.33304328, 0.1719356, 0.28120264, -0.40254807, 0.23520651, -0.6465932, -0.201416, -0.35210928, 0.11677408, 0.012678853, 0.3056614, 0.49676824, 0.106286846, -0.36614642]</t>
         </is>
       </c>
     </row>
@@ -737,20 +818,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>점탄성이 무엇이죠?</t>
+          <t>식품 물성 측정 기기는?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Viscoelasticity를 의미합니다.</t>
+          <t>다양한 장치가 있는데, 보편적으로 texture analyzer 를 추천합니다.</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[0.052185517, -0.37008393, 0.69081306, -0.43496436, 0.117184624, -0.2033031, 0.19061199, -0.3308664, 0.20545228, -0.231116, -0.31498218, 0.046174698, -0.40320933, 0.025529958, 0.055348482, -0.045979932, -0.20568106, 0.2451442, 0.35588706, -0.19374838, 0.14222391, 0.25003102, 0.21698047, 0.9458829, -0.45514816, 0.29112685, -0.49495888, -0.1461732, 0.1143807, -0.45905983, -0.0058806986, -0.21996349, -0.21708073, 0.42791212, 0.4674333, 0.18484627, -0.31881368, -0.22169818, 0.24863932, 0.0029597217, -0.16690819, -0.28012475, 0.010471225, 0.6401579, -0.2075291, -0.8107719, -0.0659177, -0.2383444, 0.020628115, 0.29003936, -0.92866355, 0.26930577, 0.8830304, 0.58051383, -0.3166876, -0.26119882, 0.18474248, -0.68651384, 0.26608986, 0.34443393, -0.14669119, -0.6087331, -0.05675798, 0.7605435, -0.16809359, 0.43634573, -0.37883574, 0.09199587, -0.95657253, 0.09251037, 0.18983723, -0.14051528, 0.45289278, -0.3995282, 0.42441642, -0.1828061, -0.21486014, -0.35630137, 0.15025982, 0.75273275, -0.34106216, -0.2243573, -0.54268056, -0.45100886, 0.17172222, -0.6054391, 0.024101213, -0.34389195, -0.65062004, 0.3301479, -0.47259098, -0.09255223, -0.06358332, 0.34423625, -0.764164, 0.08080569, 0.07979278, -0.449252, 0.3580175, 0.040794726, -0.29785436, 0.31486034, -0.025600007, 0.55833673, 0.059361286, 0.15353568, -0.3367542, 0.59058404, 0.3431229, -0.119450726, 0.39616638, -0.5363297, 0.049227424, -0.11886748, 0.24261345, 0.13895209, -0.23849933, 0.1514087, -0.05295716, 0.001237919, 0.32587832, -0.43404323, -0.6321437, -0.17925885, -0.47318092, 0.111869186, 0.82594866, -0.36570847, -0.0015339537, 0.32241923, 0.08382007, 0.38632858, 1.0600768, -0.063345574, -0.033185873, -0.06464941, 0.0719405, 0.037111994, 0.18085998, 0.43970147, 0.09849168, 0.16758317, 0.022982044, 0.3710514, 0.24791616, 0.2334697, 0.33652744, 0.1963529, -0.07963278, -0.1925084, -0.2349783, 0.21874832, -0.9456407, -0.13346145, 0.37431285, -0.3935229, -0.22479868, -0.076893285, 0.09004435, -0.043682262, 0.053065315, -0.94017136, 0.0895825, -0.094134316, 0.47727197, 0.12202915, 0.07473544, -0.09147236, 0.3374373, 0.049906645, -0.1925757, -0.06536904, 0.034896538, -0.052044243, 0.4065337, 0.25123954, -0.8052344, 0.31220236, -0.17558962, -0.45019415, -0.10178443, 0.3468711, -0.06332767, 0.13913716, -0.2730585, 0.29470313, -0.09348851, -0.54192585, -0.66997087, -0.34359336, 0.02715366, -0.39006832, 0.030134873, -0.0073638028, 0.086536035, 0.3913336, 0.02740003, 0.0366493, 0.05769664, 0.06655204, -0.867359, 0.3515446, 0.1861363, 0.16151519, 0.8581301, -0.1576526, -0.37735742, -0.26231384, 0.93242764, -0.27997434, 0.61196494, 0.899283, -0.3426386, -0.09032592, -0.15112765, -0.20509958, -0.31376374, -0.15192994, -0.085955344, -0.17984514, 0.18635091, -0.12762791, 0.6888416, 0.062351823, 0.21461171, -0.54487866, 0.32768747, -0.23326248, 0.27705604, -0.36384496, -0.32647225, -1.003318, -0.6506458, -0.657478, 0.61456406, 0.074434176, 0.25399214, -0.063483015, 0.14675052, -0.7214842, 0.93503433, -0.055205356, 0.10209356, -0.06481981, -0.13536912, 0.03972212, -0.2547283, -1.4585364, 0.3675862, -0.5133544, -0.11544296, 0.61933607, -0.04099888, -0.0005046096, 0.624995, -0.67851776, -0.055561192, 0.6524529, -0.1897527, 0.01281985, 0.28232187, 0.020914497, 0.09267713, 0.4725843, -0.29626024, -0.12539457, 0.2226713, -0.71872675, 0.47170666, -0.45624453, -0.39878708, -0.49871737, 0.17936254, -0.3019962, -0.115255386, -0.029634532, 0.27281094, 0.43218777, 0.071052395, 0.41580805, -0.25586313, 0.47550428, 0.6224894, -0.085180454, 0.5084294, -0.11275359, -0.48709795, 0.052104965, 0.12010513, -1.0644393, -0.10030641, 0.118998736, 0.2564769, -2.3080766, -0.48922533, -0.090557575, 0.12619434, -0.000650184, 0.17377898, 0.14583868, 0.9617936, -0.3115974, 0.24597403, -0.12898773, -0.2685649, 0.51392853, -0.5398111, -0.8433239, -0.15173265, 1.0053189, 0.39829794, 0.138494, -0.22967155, 0.66962266, 0.12434035, -0.50430024, 0.37860718, 0.32677308, -0.02748279, 0.166149, -0.21179658, 0.40232033, -0.14051735, 0.0026549597, -0.068513736, 0.94052166, -0.23169059, -0.42359948, -0.035463683, 0.49026686, -0.4550312, -0.28668648, 0.22361165, -0.21571377, 0.06723973, -0.8147094, 0.5841989, -0.76566386, 0.19186565, 0.27945188, 0.20125085, -0.16700517, -0.7952779, 0.45471007, 0.4010966, 1.380356, 0.2830929, -0.18366589, 0.30026746, -0.081557274, 0.16415778, -0.49662054, -0.09995839, 0.6235819, 0.60479426, 0.23101918, 0.3558277, 0.57280225, -0.13998862, 0.0059221718, 0.21250129, 0.14342463, -0.3157295, -0.05110363, -0.6563707, -0.44631433, -0.3931981, -0.2168845, 0.40241608, 0.2452757, -0.34338522, -0.15934655, 0.366983, -0.24152385, -1.0144129, 0.18857917, 0.2013974, 0.46848196, 0.09181886, 0.6234326, -0.21954864, 0.7580657, -0.24529141, -0.9236619, 0.5427073, 0.12081814, -0.06761595, 0.20454355, 0.13851245, -0.08909779, -0.14272608, 0.07939335, -0.14259267, -0.389758, -1.1179434, 0.015995422, -0.70036995, 0.075764865, -0.41043675, 0.10277699, 0.5157683, 0.22976357, -0.014374223, 0.37411687, 0.12662892, -0.33163366, 0.6363628, -0.5704675, 0.08560597, -0.3196011, -0.2336517, -0.43604502, -0.6664497, -0.17362946, 0.24036129, 0.0035676227, 0.32690063, 0.2100103, -0.46503055, -0.1330606, -0.77587247, -0.4760711, 0.24730995, -0.08484282, 0.51583767, 0.18657014, 0.3735412, 0.07530699, 0.45760712, -0.4343708, 0.6438377, 0.33165085, 0.56557447, 0.08439144, -0.14530183, -0.5566428, -0.08050361, -0.5821253, -0.41949743, 0.007419204, 0.4813915, -0.011589999, 0.07888833, 0.26941603, -0.080023974, -0.3563567, 0.3331785, 0.27104706, -0.59934884, -0.30393422, -0.105071776, -0.43714657, 0.20591444, 0.2109397, -0.6851783, -0.13416693, 0.44437116, 0.3160008, 0.2799698, 0.5424666, -0.018343007, 0.30683753, -0.1674432, -0.3263387, 0.017323246, -0.07512483, 0.49089372, 0.7705152, -0.1262684, 0.13100432, -0.75748324, -0.4255574, 0.2006744, -0.40840694, -0.83202815, -0.081249565, 0.002785772, 0.13672057, -0.34504026, 0.1041913, 0.07547262, -0.41875663, 0.19193546, -0.41438085, 0.28834507, -0.40052956, 0.15647143, -0.09335963, 0.25791714, 0.3364476, -0.46065876, -0.37131518, -0.5048928, -0.11083327, 0.53445375, -0.22524974, -0.33310506, 0.31192958, -0.6929196, -0.208267, -0.17903338, 0.37688726, -0.06403583, 0.15660499, -0.39457628, 0.18224043, 0.28152764, 0.3263642, -0.42381275, -0.1312534, 0.17984843, 0.026027935, 0.67116123, -0.38720855, 0.17999443, 0.6813328, -0.43154722, -0.3294925, 0.08192738, 0.2620948, -1.0042052, 0.12997386, -0.19397193, -0.39755958, 0.008223455, -0.021102598, -0.23503134, 0.29829037, -0.30808246, 0.26926818, 0.12685125, 0.01463942, 0.19434616, -0.18162932, -0.07388087, 0.23733322, 0.2152777, 0.63355297, 0.6286199, 0.027277501, 0.20156983, -0.21570267, 0.36568162, -0.24633704, -0.16577525, -0.594877, 0.721405, 0.6373566, -0.30503932, -0.3932209, -0.09121689, -0.530594, -0.56688666, -0.90778947, -0.15873271, -0.44832665, 0.00968076, -0.45092148, -0.89391303, 0.21908446, 0.37972006, 1.0590086, -0.3406578, -0.07255134, -0.35396445, -0.14555958, 0.12231374, 0.57901645, 0.08914161, -0.30974692, 0.40481883, -0.12510112, -0.19784907, 0.48959053, -0.5750969, -0.96674854, -1.1797395, -0.7219905, 0.33709192, -0.67463726, -0.23234361, 0.53452075, 0.20110196, -0.12763338, -0.18321826, -0.024475135, 0.0006941855, -0.37432104, 0.035987202, -0.62511885, 0.06125664, -0.21269585, 0.5921279, 0.7556856, -0.6621358, -0.3281483, -0.19012181, -0.3130206, 0.4832492, 0.13020562, -0.08913281, 0.53591186, -0.32952654, 0.17128581, -0.28797698, -0.46797472, 0.99993896, -0.57255846, -0.19889154, -0.11123284, -0.6362543, -0.22513673, -0.22614795, -0.6640037, -0.55795336, 0.06256773, -0.015961245, -0.5362744, -0.37763345, 0.13923617, 0.24760434, -0.0077269324, -0.4080034, 0.015543282, -0.49036783, -0.04412404, -0.54314613, -0.3388432, 0.34663546, -0.4892522, 0.51118267, -0.5017798, 0.4323598, -0.29117674, -0.67249197, -0.075007826, 0.58964115, 0.01853772, -0.271793, -1.1060817, -0.28881487, 0.03650333, 0.047616795, -0.397143, -0.42504653, -0.100192815, -0.42519337, 0.26863864, -0.39963114, 0.37337148, -0.17470855, -0.07279894, 0.45593658, -0.27017683, 0.48130634, -0.4620932, 0.1025882, 0.09167985, -0.3867579, -0.068047136, 0.12652841, -0.4429652, 0.21687852, -0.18600093, -0.18662101, -0.59198564, -0.41784918, 0.22200043, 0.38738313, 0.40269312, 0.33683214, -0.040302314, 0.05765061, 0.33897054, -0.7722187, 0.13439237, 0.104871005, -0.23480044, 0.19587594, -0.50818306, -0.09049032, 0.18863052, 0.32138503, 0.25862834, -0.89404446, 0.678842, -0.11648977, 0.3060352, 0.116012454, -0.3700303, -0.7446329, -0.33703554, 0.98771065, -0.5872891, 1.2459712, 0.40510523, -0.15742765, -0.9487929, 0.30621508, -0.32546607, 0.20639855, 0.55837715, -0.68565506, -0.054621484, -0.024146173, -0.2520043, -0.52785665, -0.19889444, 0.19733638, 0.7290981, -0.40877387, 0.093962476, -0.5613123, -0.08888837, -0.22000392, -0.21260393, 0.3246735, -0.021298869, 0.04212504, -0.7483048, -0.34449977, 0.24873087, -0.22284862, -0.15695158, -0.19189835, -0.23712867, 0.07457039, -0.048560344, -0.27867863, -0.46066272, 0.10236698, -0.09915478, -0.08440489, 0.19676198, 0.967952, -0.2931345, -0.15186772, 0.36958778, -0.40544686, -0.20541917, -0.0652029, 0.62656206, 0.15071584, -0.06622079, 0.9303939, -0.15059811, 0.59854084, 0.42792952, 0.3587248, 0.05763542, -0.13625649, 0.16284439, -0.54382545, 0.30166575, 0.0027812293, 0.084544405, -0.65500873, 0.054928496, 0.49778715, -0.38949665, 0.44566303, -0.32463038, -0.3623729, -0.09559942, -0.20506124, 0.26360247, -0.08721969, 0.068853065]</t>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[-0.18089508, -0.5900386, 0.17993852, -0.7245032, -0.19455369, -0.47292784, -0.11462527, -0.5185354, -0.022468116, -0.09525918, -0.13263345, -0.09121365, -0.19078489, -0.13466269, -0.21483856, -0.02509795, 0.3002953, 0.1344393, -0.37697136, -0.62219214, -0.32800773, -0.15979838, 0.317102, 1.0950075, -0.56736195, -0.38147396, -0.39538172, 0.15661184, -0.10209963, -0.46858773, 0.85776764, 0.13707595, -0.15906484, 0.31452143, 0.13202333, 0.19608091, -0.5844386, -0.16757402, -0.17047885, 0.04437081, -0.5544381, 0.28413522, 0.15439384, 0.36957076, 0.29927337, 0.108327955, 0.4395675, 0.0154679185, -0.1984775, -0.02258783, -0.46018314, -0.04383598, 0.054476116, 0.5777687, -0.6760029, -0.18885577, 0.19876558, 0.12771672, 0.4083888, -0.46468845, 0.14500439, -0.34364316, -0.3371293, -0.25978807, 0.044380486, -0.63141185, -0.27065697, -0.31506464, -0.6507902, 0.21784271, -0.5287664, -0.27321994, 0.13121095, -0.35470068, 0.6176068, 0.23407109, -0.27130422, -0.0037128925, 0.44184786, 0.43588936, -0.28209665, -0.2976527, -0.040095646, -1.0194755, 0.31689933, -1.1147467, -0.402952, -0.6138307, -0.25856367, 0.2049811, -0.13520677, -0.052271314, -0.10251231, 0.1405359, -0.45346102, 0.52067655, -0.17030089, 0.26614994, 0.1519769, -0.0434253, -0.23569706, -0.030222366, -0.38403732, 0.9015, 0.43258068, -0.42811775, -0.24372666, 0.2396761, 0.053545725, -0.27089554, 0.115869254, -0.7255372, 0.11686519, -0.3882502, 0.057197265, 0.41633114, -0.2300364, -0.45409304, -0.18288857, 0.2164593, 0.33016562, -0.22035684, 0.10750096, 0.42704073, -0.094833985, 0.27453056, 0.41268757, -0.3018435, 0.5027602, -0.42790133, 0.037327185, 0.51666665, 0.19210576, 0.29929194, -0.55473375, -0.4132781, -0.07345683, -0.26748598, 0.60527694, 0.7509862, -0.37406382, 0.1504984, -0.26527023, 0.22080618, -0.22103888, -0.3080286, 0.22924, -0.32451883, 0.17338504, -0.71058685, -0.45409408, 0.13115695, -0.9557088, 0.034692626, -0.19709818, 0.1938294, -0.29860404, -0.4246037, 0.08929958, -0.2001294, 0.18761745, 0.34142503, -0.47653204, -0.05115274, 0.514807, -0.5241624, 0.50610435, 0.023754185, 0.7777803, -0.26682228, -0.49589074, -0.045693085, 0.6944794, -0.38419604, 0.0137794, -0.3177115, -0.59537834, -0.14683233, -0.39366955, -0.4537167, 0.43161097, 0.41579157, 0.16536437, 0.12156439, 0.5190085, 0.3013924, 0.42244133, 0.040528078, -0.69086856, -0.5709001, 0.6580226, -0.7044456, -0.32907665, -0.33695897, -0.051641688, 1.031736, -0.40712276, 0.3895716, -0.30962202, 0.18761641, -0.054598257, 0.51679856, -0.21403213, 0.8864352, 0.2969639, 0.21357688, 0.38156796, -0.036539767, 0.21959966, -0.26949868, 0.4307235, 0.452422, 0.11680523, -0.12990397, -0.13336256, -1.0051408, -0.4665363, -0.3005606, 0.18801974, 0.31864947, 0.41744062, -0.42382786, -0.13554676, -0.72509295, 0.15642701, -0.6499301, 0.25693962, 0.82873666, 0.26442423, 0.11133695, -0.15507573, -0.1012261, -0.319443, -0.32399714, 0.124960385, -0.6691499, 0.40588453, 0.57357967, -0.9151437, 0.19565915, -0.055002324, -0.05360542, -0.080881156, -0.13435449, -0.2173521, 0.061974924, 0.17110954, 0.05013697, 0.02828851, -0.17143923, -0.05523717, 0.06552979, 0.02154664, -0.33099908, -0.12448515, -0.50301856, 0.37224212, 0.13257334, 0.058544356, -0.14990298, 0.26500052, -0.023139024, -0.3801404, -0.21565282, 0.059840456, -0.31569305, 0.4919723, -0.51046807, -0.15625398, -0.4508353, -0.03542252, -0.16603172, 0.37417275, 0.22329704, -0.049132314, 0.7678806, -0.51531154, 0.6242005, 0.44543117, 0.43318504, -0.21789564, 0.3148801, 0.29045713, 0.40220818, 0.46854442, -0.38534784, 0.10526414, -0.28739068, -0.01497821, -0.43680742, -0.584798, -0.12036385, -0.25956306, -0.73885316, 0.1388987, -0.31934932, -0.78544074, -0.3631968, -0.21774791, 0.95430684, 0.30725515, 0.9599142, 0.16658087, 0.20231888, -0.1704389, 0.09625787, -0.18567751, -0.3897237, -0.6111874, 0.58745426, 0.2669229, 0.109057695, -0.19734687, 0.38907602, -0.3172222, -0.7135536, 0.3326186, 0.35236943, -0.0076150023, 0.24484822, -0.4668088, 0.28675655, -0.46450105, -0.65583014, 0.5686352, 0.63573146, 0.33756086, 0.06038232, -0.22493315, -0.20130932, -0.8477952, -0.5209996, 0.08715071, 0.052757874, -0.41204596, -0.69508886, -0.004003283, -0.2163118, -0.08613196, 0.09622845, 0.10675016, -0.1150879, -0.37566853, 0.33681247, -0.6564006, 1.6785929, 0.03224023, -0.39824653, 0.09466588, -0.5442671, -0.006513804, -0.17906764, -0.29534853, -0.28595626, 0.19522034, 0.025310714, -0.1667536, 0.71652937, 0.14041708, -0.21233442, 0.82924706, -0.122011065, -0.12454687, 0.6248623, 0.022039419, -0.22571251, -0.43628716, 0.4803753, 0.33926287, 0.4776443, 0.41498867, -0.5727522, -0.2733254, -0.7913544, -0.10314139, 0.03793908, -0.48188707, 0.030619264, -0.42658418, 0.53042066, 0.37321725, 0.73142445, 0.075656705, -1.1743312, 0.63198096, -0.6749517, -0.48216426, 0.103360094, -0.23179626, 0.25548095, 0.30823338, 0.2707937, 0.063509226, -0.40514156, -0.45292363, 0.3683286, 0.1309823, 0.030058093, 0.021711873, 0.3363693, 0.3992645, 0.28424707, -0.25638497, 0.6806493, 0.73074496, 0.041116565, 0.25340855, 0.13253202, -0.15396442, -0.2992204, -0.26385742, -0.09723084, -0.034622677, -0.694252, -0.16363049, -0.21738397, -0.88250834, 0.33562636, -0.20585698, -0.28589237, 0.25054052, -0.48652384, 0.9858924, -0.3619292, 0.23167065, 0.3176471, 0.49889362, -0.14514288, 0.611153, 0.19402635, 0.56827486, -0.73201597, 0.008753359, -0.3513509, -0.62204736, -0.26438835, 0.14024878, -0.02690481, 0.05035701, 0.26624092, 0.3392997, -0.2933991, -0.73597634, 0.19425382, 0.6618843, 0.1327045, 0.49419737, -0.34141007, -0.428896, -0.5020241, -0.09917171, -0.43322027, -0.6984434, -0.08940152, -0.4299623, -0.16136903, 0.3846766, -0.024875207, -0.13066214, -0.56452286, -0.20305282, 0.35755712, 0.2888802, -0.437, -0.14341052, 0.43735814, -0.03570421, 0.48441374, 0.55602086, 0.41649377, -0.12702411, -0.23310038, -0.337052, -0.03446831, -0.0062359474, -0.15331915, 0.23281042, 0.028298855, -0.24876963, -0.23900639, -0.13751823, 0.37086317, 0.4042041, 0.6504827, 0.2714127, 0.015529132, -0.33563328, -0.42174834, 0.021057332, 0.50941014, 0.5860427, 0.49825996, -0.48788774, -0.34728408, 0.9774956, -0.5854573, 0.10829088, 0.52805746, 0.26883885, 0.30113423, -0.024426877, 0.38957274, 0.17870401, 0.2909084, -0.18321806, -0.25469437, 0.5251614, 0.030575322, -0.28496042, -0.35760206, -0.4139222, -0.7804077, -0.40287882, -0.012916234, -0.111810975, 0.64630896, 0.6287937, -0.3898197, 0.06965414, 0.33995888, 0.44475645, -0.020839296, 0.060640916, 0.37416163, 0.47731176, -0.42565268, -0.31540903, 0.014955395, 0.8708529, 0.40925315, 0.06219501, -0.21396434, -0.5050086, 0.56276155, -0.016739033, -0.18445215, -0.09797872, 0.5825917, 0.36395705, 0.43346792, -0.056368604, -0.49181026, 0.88468814, -0.100762986, 0.30209032, 0.15123636, 0.6177176, 0.3067167, -0.0675126, -0.5847731, -0.26046693, -0.37940955, -0.0758039, -0.3159898, -0.59109, 0.07100912, -0.02250912, -0.3565877, -0.3801483, -0.5004453, -0.4014102, 0.42306927, -0.4230074, -0.037765905, -0.64346075, 0.18768585, 0.40486556, 0.31654084, 0.040197115, -0.08076392, 0.45164695, 0.5197124, -0.45061842, 0.7233889, -0.22736637, -0.7493971, -0.61943233, -1.1800504, 0.47997606, -0.7601299, -0.19024992, 0.64274514, -0.0605696, -0.11759509, 0.665419, 0.31180972, -0.48907962, 0.11326279, -0.48191378, 0.11950232, -0.010843847, -0.3894071, 0.12771648, 0.16594394, -0.79857844, -0.12780476, -0.9182377, -0.86882675, -0.31980765, -0.056103256, -0.2214563, -0.038074724, 0.20324992, -0.3244909, 0.00016763475, -0.27978933, 0.41634, -0.16454695, -0.53554237, -0.14756319, -0.46640015, 0.35767308, 0.08038556, 0.27442655, 0.23703116, 0.10024308, 0.24211237, -0.29409233, -0.06106036, 0.40749153, -0.7264261, -0.49612066, -0.3329896, -0.5470497, -0.85390466, -0.0417464, 0.10590728, 0.1729402, -0.31307894, 0.11293402, 0.76272064, -0.120574184, -0.43975386, -0.29942197, -0.3227723, -0.21998128, -0.08799548, 0.9785494, 0.47722352, -0.5336008, -0.8616401, -0.1782892, 0.28229344, -0.058352742, -0.14647418, 0.37039366, -0.7722261, 0.4074692, -0.2619846, -0.21045001, 0.43141866, 0.21482748, -0.032694977, -0.15196103, -0.32539585, -0.2862116, -0.031403635, 0.38239256, -0.5745722, 0.055896215, -0.3226241, -0.029293315, -0.26893908, -0.111046724, -0.34245354, -1.0006534, -0.16642568, -0.026003549, 0.16077657, 0.48190615, 0.05037364, 0.20483665, 0.066524945, 0.054914545, 0.23527053, -0.3696401, 0.70053566, 0.09646395, 0.23699014, -0.4102364, -0.81150615, 0.99220437, -0.0039065084, 0.20087327, -0.3453235, 1.1345172, -0.37053218, 0.50313926, 0.0026374012, -0.10368165, -0.26217216, 0.40415892, 0.21122749, -0.13676469, 0.59630716, 0.51215726, -0.42586297, -0.15966111, -0.0861417, 0.31288084, -0.18960628, -0.12683505, 0.26567414, -0.01593204, -0.2750746, -0.521599, -0.018218355, 0.4192288, -0.23669614, -0.25830853, -0.17474534, -0.39831132, -0.477186, -0.70806736, -0.13103037, -0.22963794, -0.031503543, 0.038736448, -0.2785744, -0.18213148, 0.0950421, 0.45802006, -0.26503575, -0.06849918, -0.625225, -0.13644935, 0.3508538, -0.29084283, 0.069510855, -0.30549645, -0.677696, -0.45708954, -0.4646795, -0.21358448, 0.40557122, -0.42487055, -0.34348375, 0.028657947, -0.015347172, 0.10400848, -0.16391431, 0.71624815, -0.5712374, 0.4657329, 0.022584358, -0.005467268, 0.053748842, 0.4512761, -0.2618197, 0.043855112, -0.1329537, 0.3481065, -0.13119002, -0.4118221, -0.2682758, -0.022477295, -0.3920062, 0.14953409, 0.9495329, -0.3702748, 0.46040976, -0.19908859, 0.0697905, -0.6748298, 0.7965111, 0.64357305, 1.0204542, 0.21661197]</t>
         </is>
       </c>
     </row>
@@ -760,20 +844,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>점탄성이 무엇이죠?</t>
+          <t>식품 물성 측정 장치는?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>점성과 탄성을 동시에 가진 것을 의미합니다.</t>
+          <t>다양한 장치가 있는데, 보편적으로 texture analyzer 를 추천합니다.</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[0.052185517, -0.37008393, 0.69081306, -0.43496436, 0.117184624, -0.2033031, 0.19061199, -0.3308664, 0.20545228, -0.231116, -0.31498218, 0.046174698, -0.40320933, 0.025529958, 0.055348482, -0.045979932, -0.20568106, 0.2451442, 0.35588706, -0.19374838, 0.14222391, 0.25003102, 0.21698047, 0.9458829, -0.45514816, 0.29112685, -0.49495888, -0.1461732, 0.1143807, -0.45905983, -0.0058806986, -0.21996349, -0.21708073, 0.42791212, 0.4674333, 0.18484627, -0.31881368, -0.22169818, 0.24863932, 0.0029597217, -0.16690819, -0.28012475, 0.010471225, 0.6401579, -0.2075291, -0.8107719, -0.0659177, -0.2383444, 0.020628115, 0.29003936, -0.92866355, 0.26930577, 0.8830304, 0.58051383, -0.3166876, -0.26119882, 0.18474248, -0.68651384, 0.26608986, 0.34443393, -0.14669119, -0.6087331, -0.05675798, 0.7605435, -0.16809359, 0.43634573, -0.37883574, 0.09199587, -0.95657253, 0.09251037, 0.18983723, -0.14051528, 0.45289278, -0.3995282, 0.42441642, -0.1828061, -0.21486014, -0.35630137, 0.15025982, 0.75273275, -0.34106216, -0.2243573, -0.54268056, -0.45100886, 0.17172222, -0.6054391, 0.024101213, -0.34389195, -0.65062004, 0.3301479, -0.47259098, -0.09255223, -0.06358332, 0.34423625, -0.764164, 0.08080569, 0.07979278, -0.449252, 0.3580175, 0.040794726, -0.29785436, 0.31486034, -0.025600007, 0.55833673, 0.059361286, 0.15353568, -0.3367542, 0.59058404, 0.3431229, -0.119450726, 0.39616638, -0.5363297, 0.049227424, -0.11886748, 0.24261345, 0.13895209, -0.23849933, 0.1514087, -0.05295716, 0.001237919, 0.32587832, -0.43404323, -0.6321437, -0.17925885, -0.47318092, 0.111869186, 0.82594866, -0.36570847, -0.0015339537, 0.32241923, 0.08382007, 0.38632858, 1.0600768, -0.063345574, -0.033185873, -0.06464941, 0.0719405, 0.037111994, 0.18085998, 0.43970147, 0.09849168, 0.16758317, 0.022982044, 0.3710514, 0.24791616, 0.2334697, 0.33652744, 0.1963529, -0.07963278, -0.1925084, -0.2349783, 0.21874832, -0.9456407, -0.13346145, 0.37431285, -0.3935229, -0.22479868, -0.076893285, 0.09004435, -0.043682262, 0.053065315, -0.94017136, 0.0895825, -0.094134316, 0.47727197, 0.12202915, 0.07473544, -0.09147236, 0.3374373, 0.049906645, -0.1925757, -0.06536904, 0.034896538, -0.052044243, 0.4065337, 0.25123954, -0.8052344, 0.31220236, -0.17558962, -0.45019415, -0.10178443, 0.3468711, -0.06332767, 0.13913716, -0.2730585, 0.29470313, -0.09348851, -0.54192585, -0.66997087, -0.34359336, 0.02715366, -0.39006832, 0.030134873, -0.0073638028, 0.086536035, 0.3913336, 0.02740003, 0.0366493, 0.05769664, 0.06655204, -0.867359, 0.3515446, 0.1861363, 0.16151519, 0.8581301, -0.1576526, -0.37735742, -0.26231384, 0.93242764, -0.27997434, 0.61196494, 0.899283, -0.3426386, -0.09032592, -0.15112765, -0.20509958, -0.31376374, -0.15192994, -0.085955344, -0.17984514, 0.18635091, -0.12762791, 0.6888416, 0.062351823, 0.21461171, -0.54487866, 0.32768747, -0.23326248, 0.27705604, -0.36384496, -0.32647225, -1.003318, -0.6506458, -0.657478, 0.61456406, 0.074434176, 0.25399214, -0.063483015, 0.14675052, -0.7214842, 0.93503433, -0.055205356, 0.10209356, -0.06481981, -0.13536912, 0.03972212, -0.2547283, -1.4585364, 0.3675862, -0.5133544, -0.11544296, 0.61933607, -0.04099888, -0.0005046096, 0.624995, -0.67851776, -0.055561192, 0.6524529, -0.1897527, 0.01281985, 0.28232187, 0.020914497, 0.09267713, 0.4725843, -0.29626024, -0.12539457, 0.2226713, -0.71872675, 0.47170666, -0.45624453, -0.39878708, -0.49871737, 0.17936254, -0.3019962, -0.115255386, -0.029634532, 0.27281094, 0.43218777, 0.071052395, 0.41580805, -0.25586313, 0.47550428, 0.6224894, -0.085180454, 0.5084294, -0.11275359, -0.48709795, 0.052104965, 0.12010513, -1.0644393, -0.10030641, 0.118998736, 0.2564769, -2.3080766, -0.48922533, -0.090557575, 0.12619434, -0.000650184, 0.17377898, 0.14583868, 0.9617936, -0.3115974, 0.24597403, -0.12898773, -0.2685649, 0.51392853, -0.5398111, -0.8433239, -0.15173265, 1.0053189, 0.39829794, 0.138494, -0.22967155, 0.66962266, 0.12434035, -0.50430024, 0.37860718, 0.32677308, -0.02748279, 0.166149, -0.21179658, 0.40232033, -0.14051735, 0.0026549597, -0.068513736, 0.94052166, -0.23169059, -0.42359948, -0.035463683, 0.49026686, -0.4550312, -0.28668648, 0.22361165, -0.21571377, 0.06723973, -0.8147094, 0.5841989, -0.76566386, 0.19186565, 0.27945188, 0.20125085, -0.16700517, -0.7952779, 0.45471007, 0.4010966, 1.380356, 0.2830929, -0.18366589, 0.30026746, -0.081557274, 0.16415778, -0.49662054, -0.09995839, 0.6235819, 0.60479426, 0.23101918, 0.3558277, 0.57280225, -0.13998862, 0.0059221718, 0.21250129, 0.14342463, -0.3157295, -0.05110363, -0.6563707, -0.44631433, -0.3931981, -0.2168845, 0.40241608, 0.2452757, -0.34338522, -0.15934655, 0.366983, -0.24152385, -1.0144129, 0.18857917, 0.2013974, 0.46848196, 0.09181886, 0.6234326, -0.21954864, 0.7580657, -0.24529141, -0.9236619, 0.5427073, 0.12081814, -0.06761595, 0.20454355, 0.13851245, -0.08909779, -0.14272608, 0.07939335, -0.14259267, -0.389758, -1.1179434, 0.015995422, -0.70036995, 0.075764865, -0.41043675, 0.10277699, 0.5157683, 0.22976357, -0.014374223, 0.37411687, 0.12662892, -0.33163366, 0.6363628, -0.5704675, 0.08560597, -0.3196011, -0.2336517, -0.43604502, -0.6664497, -0.17362946, 0.24036129, 0.0035676227, 0.32690063, 0.2100103, -0.46503055, -0.1330606, -0.77587247, -0.4760711, 0.24730995, -0.08484282, 0.51583767, 0.18657014, 0.3735412, 0.07530699, 0.45760712, -0.4343708, 0.6438377, 0.33165085, 0.56557447, 0.08439144, -0.14530183, -0.5566428, -0.08050361, -0.5821253, -0.41949743, 0.007419204, 0.4813915, -0.011589999, 0.07888833, 0.26941603, -0.080023974, -0.3563567, 0.3331785, 0.27104706, -0.59934884, -0.30393422, -0.105071776, -0.43714657, 0.20591444, 0.2109397, -0.6851783, -0.13416693, 0.44437116, 0.3160008, 0.2799698, 0.5424666, -0.018343007, 0.30683753, -0.1674432, -0.3263387, 0.017323246, -0.07512483, 0.49089372, 0.7705152, -0.1262684, 0.13100432, -0.75748324, -0.4255574, 0.2006744, -0.40840694, -0.83202815, -0.081249565, 0.002785772, 0.13672057, -0.34504026, 0.1041913, 0.07547262, -0.41875663, 0.19193546, -0.41438085, 0.28834507, -0.40052956, 0.15647143, -0.09335963, 0.25791714, 0.3364476, -0.46065876, -0.37131518, -0.5048928, -0.11083327, 0.53445375, -0.22524974, -0.33310506, 0.31192958, -0.6929196, -0.208267, -0.17903338, 0.37688726, -0.06403583, 0.15660499, -0.39457628, 0.18224043, 0.28152764, 0.3263642, -0.42381275, -0.1312534, 0.17984843, 0.026027935, 0.67116123, -0.38720855, 0.17999443, 0.6813328, -0.43154722, -0.3294925, 0.08192738, 0.2620948, -1.0042052, 0.12997386, -0.19397193, -0.39755958, 0.008223455, -0.021102598, -0.23503134, 0.29829037, -0.30808246, 0.26926818, 0.12685125, 0.01463942, 0.19434616, -0.18162932, -0.07388087, 0.23733322, 0.2152777, 0.63355297, 0.6286199, 0.027277501, 0.20156983, -0.21570267, 0.36568162, -0.24633704, -0.16577525, -0.594877, 0.721405, 0.6373566, -0.30503932, -0.3932209, -0.09121689, -0.530594, -0.56688666, -0.90778947, -0.15873271, -0.44832665, 0.00968076, -0.45092148, -0.89391303, 0.21908446, 0.37972006, 1.0590086, -0.3406578, -0.07255134, -0.35396445, -0.14555958, 0.12231374, 0.57901645, 0.08914161, -0.30974692, 0.40481883, -0.12510112, -0.19784907, 0.48959053, -0.5750969, -0.96674854, -1.1797395, -0.7219905, 0.33709192, -0.67463726, -0.23234361, 0.53452075, 0.20110196, -0.12763338, -0.18321826, -0.024475135, 0.0006941855, -0.37432104, 0.035987202, -0.62511885, 0.06125664, -0.21269585, 0.5921279, 0.7556856, -0.6621358, -0.3281483, -0.19012181, -0.3130206, 0.4832492, 0.13020562, -0.08913281, 0.53591186, -0.32952654, 0.17128581, -0.28797698, -0.46797472, 0.99993896, -0.57255846, -0.19889154, -0.11123284, -0.6362543, -0.22513673, -0.22614795, -0.6640037, -0.55795336, 0.06256773, -0.015961245, -0.5362744, -0.37763345, 0.13923617, 0.24760434, -0.0077269324, -0.4080034, 0.015543282, -0.49036783, -0.04412404, -0.54314613, -0.3388432, 0.34663546, -0.4892522, 0.51118267, -0.5017798, 0.4323598, -0.29117674, -0.67249197, -0.075007826, 0.58964115, 0.01853772, -0.271793, -1.1060817, -0.28881487, 0.03650333, 0.047616795, -0.397143, -0.42504653, -0.100192815, -0.42519337, 0.26863864, -0.39963114, 0.37337148, -0.17470855, -0.07279894, 0.45593658, -0.27017683, 0.48130634, -0.4620932, 0.1025882, 0.09167985, -0.3867579, -0.068047136, 0.12652841, -0.4429652, 0.21687852, -0.18600093, -0.18662101, -0.59198564, -0.41784918, 0.22200043, 0.38738313, 0.40269312, 0.33683214, -0.040302314, 0.05765061, 0.33897054, -0.7722187, 0.13439237, 0.104871005, -0.23480044, 0.19587594, -0.50818306, -0.09049032, 0.18863052, 0.32138503, 0.25862834, -0.89404446, 0.678842, -0.11648977, 0.3060352, 0.116012454, -0.3700303, -0.7446329, -0.33703554, 0.98771065, -0.5872891, 1.2459712, 0.40510523, -0.15742765, -0.9487929, 0.30621508, -0.32546607, 0.20639855, 0.55837715, -0.68565506, -0.054621484, -0.024146173, -0.2520043, -0.52785665, -0.19889444, 0.19733638, 0.7290981, -0.40877387, 0.093962476, -0.5613123, -0.08888837, -0.22000392, -0.21260393, 0.3246735, -0.021298869, 0.04212504, -0.7483048, -0.34449977, 0.24873087, -0.22284862, -0.15695158, -0.19189835, -0.23712867, 0.07457039, -0.048560344, -0.27867863, -0.46066272, 0.10236698, -0.09915478, -0.08440489, 0.19676198, 0.967952, -0.2931345, -0.15186772, 0.36958778, -0.40544686, -0.20541917, -0.0652029, 0.62656206, 0.15071584, -0.06622079, 0.9303939, -0.15059811, 0.59854084, 0.42792952, 0.3587248, 0.05763542, -0.13625649, 0.16284439, -0.54382545, 0.30166575, 0.0027812293, 0.084544405, -0.65500873, 0.054928496, 0.49778715, -0.38949665, 0.44566303, -0.32463038, -0.3623729, -0.09559942, -0.20506124, 0.26360247, -0.08721969, 0.068853065]</t>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[-0.23906857, -0.521544, 0.15166576, -0.7127284, -0.18477726, -0.51940984, -0.15941088, -0.5053481, 0.008428167, -0.34057352, -0.30270207, -0.1769926, -0.11565953, -0.056491844, -0.25629508, -0.17486578, 0.18354627, 0.062874526, -0.33869866, -0.6002647, -0.4141424, -0.12143854, 0.13642819, 1.1428454, -0.67885864, -0.44965655, -0.26238945, 0.3241553, -0.05684264, -0.5998665, 1.1519622, 0.036908053, -0.1832661, 0.36944658, 0.16417892, 0.22670895, -0.6139482, -0.14941938, -0.06343505, 0.092337124, -0.5835015, 0.3014672, 0.19479339, 0.32082072, 0.25027812, 0.33322415, 0.27614117, 0.011170823, -0.107600845, -0.11362954, -0.47141397, -0.027151778, 0.0007850677, 0.54906297, -0.6407602, -0.10671794, 0.20371604, 0.30929682, 0.39906803, -0.6631048, 0.25606358, -0.32915804, -0.31642395, -0.2657706, 0.1972487, -0.6336604, -0.30836856, -0.12057707, -0.68278337, 0.1816417, -0.52845436, -0.18148226, 0.2545235, -0.24882287, 0.57118005, 0.2732427, -0.3433746, -0.009294851, 0.3761914, 0.52237993, -0.31609568, -0.23282059, -0.026178796, -1.0108181, 0.28105927, -1.0463594, -0.3569405, -0.6393422, -0.22743805, 0.26746318, -0.07468318, -0.21537341, -0.18949643, 0.12598453, -0.52477014, 0.41799197, -0.27298817, 0.36446774, 0.198665, -0.1332569, -0.23561017, -0.10677556, -0.4650582, 0.96835285, 0.46285275, -0.31365696, -0.29662472, 0.27072027, 0.12338429, -0.30735582, 0.13019389, -0.6765968, 0.3655166, -0.3651747, 0.16349599, 0.4558886, -0.31151786, -0.41442135, -0.08499119, 0.18538111, 0.15025145, -0.16426073, 0.10310154, 0.4878818, -0.13469207, 0.24238685, 0.40656096, -0.2434625, 0.51040417, -0.4555972, 0.120633245, 0.58973336, 0.345268, 0.34939507, -0.61130553, -0.3491655, -0.13405429, -0.26481995, 0.66066384, 0.6764781, -0.44608772, 0.17477739, -0.11238878, 0.22406133, -0.4666438, -0.25149846, 0.34308562, -0.3295691, 0.13685386, -0.5609647, -0.26568562, 0.060334206, -0.9294213, 0.0016638371, -0.09636445, 0.16118209, -0.21777885, -0.41055772, 0.12680188, -0.039953135, 0.17098041, 0.5012085, -0.60625446, -0.11371977, 0.58837247, -0.6038047, 0.5730414, 0.057495527, 0.73810494, -0.3445643, -0.51027113, -0.109682746, 0.74796325, -0.27117562, 0.18115981, -0.3281635, -0.53635484, -0.10395053, -0.40872848, -0.4956052, 0.41930825, 0.42644385, 0.28825057, 0.071624964, 0.55999136, 0.25315765, 0.2779268, -0.03577326, -0.71197087, -0.5161871, 0.6342447, -0.5439362, -0.3468331, -0.25763345, 0.06502385, 1.0830729, -0.53126174, 0.34298724, -0.28890947, 0.16235922, -0.17835172, 0.6233879, -0.3889867, 0.8312176, 0.40622517, 0.39388597, 0.36882907, -0.14675872, 0.30364108, -0.39100063, 0.45206293, 0.41487488, 0.033286892, -0.08470691, -0.21504936, -0.9889926, -0.33872253, -0.21713267, 0.15738997, 0.41034874, 0.4208627, -0.30806696, 0.033147845, -0.71198356, 0.15583614, -0.49799055, 0.35945842, 0.9066894, 0.12415102, 0.05248777, -0.022148972, -0.12383078, -0.25898218, -0.17237335, 0.07446941, -0.61715174, 0.5365719, 0.52978665, -0.9186223, 0.09020539, -0.12430331, -0.1419833, -0.32620397, -0.05896701, -0.24014372, 0.08525515, 0.20270115, 0.22838221, 0.02874342, -0.2907025, -0.0032921385, 0.13121809, 0.03577662, -0.3568371, -0.040234733, -0.5075848, 0.3583187, 0.22174531, 0.04593423, -0.11709668, 0.14052719, -0.012181312, -0.4915734, -0.16179334, -0.063005954, -0.38381004, 0.46561277, -0.53907484, -0.18795982, -0.32017195, 0.04126192, -0.02556976, 0.32792795, 0.1657557, -0.21176349, 0.5946208, -0.6010043, 0.6020763, 0.46162975, 0.23189323, -0.31351832, 0.21770905, 0.3001012, 0.3679717, 0.4738777, -0.41103226, 0.032934155, -0.39157173, -0.087436974, -0.37230238, -0.4917052, -0.14181533, -0.22121446, -0.8277526, 0.15904401, -0.33533183, -0.8569712, -0.31816092, -0.33328688, 0.9697822, 0.3487766, 0.960657, 0.15626977, 0.24170388, -0.26433095, 0.04084704, -0.17989169, -0.27003524, -0.4971836, 0.817618, 0.2528361, 0.18473348, -0.15026477, 0.2631337, -0.33180928, -0.7302182, 0.31422243, 0.23247825, -0.10953042, 0.22954294, -0.43507153, 0.3959053, -0.40304744, -0.6513906, 0.47488308, 0.5622415, 0.40357342, 0.23407534, -0.33776188, -0.30383515, -0.9282923, -0.515641, 0.073247716, 0.1214094, -0.51531196, -0.64460695, 0.05052992, -0.33968803, -0.1809248, 0.13084142, 0.16419643, -0.12690999, -0.44308, 0.25532353, -0.61853254, 1.7369022, -0.06432964, -0.4939227, 0.071909614, -0.42663965, -0.15376197, -0.15965354, -0.2646429, -0.22665869, 0.18446228, 0.15208581, 0.014692253, 0.7390325, 0.1552797, -0.24319202, 0.7677157, -0.16842169, -0.070510596, 0.5812609, -0.09772977, -0.13446277, -0.39636856, 0.526733, 0.3229993, 0.34071243, 0.44629124, -0.50727427, -0.25622818, -0.846008, 0.07992833, 0.033681653, -0.3361498, -0.11134113, -0.30623245, 0.41691703, 0.24279097, 0.72270834, 0.11485115, -1.200638, 0.7059965, -0.7652133, -0.30906495, 0.02711085, -0.20242406, 0.3493313, 0.30140278, 0.3619403, 0.102506086, -0.51285416, -0.41334438, 0.20952876, 0.25467497, -0.049531225, -0.23830527, 0.4136523, 0.33540237, 0.32076, -0.28582677, 0.77264553, 0.7695725, 0.021619108, 0.21474828, 0.09034088, -0.11183858, -0.3185096, -0.1407147, -0.084661305, -0.061942738, -0.78988713, -0.22098155, -0.20750567, -0.84866595, 0.37644613, -0.20063305, -0.23271288, 0.22292572, -0.40471366, 0.91520953, -0.14471471, 0.19622473, 0.25506645, 0.41443574, 0.031787124, 0.7629459, 0.013575243, 0.69059926, -0.75095123, 0.051386252, -0.28722984, -0.67464143, -0.3821841, 0.19627182, -0.21147889, 0.15503639, 0.14970748, 0.3264057, -0.42469734, -0.6491301, 0.2919349, 0.51062554, 0.16532493, 0.49192742, -0.22609244, -0.32449436, -0.5564973, -0.05315384, -0.66133577, -0.8174785, 0.12666534, -0.4677957, -0.093013234, 0.4267834, -0.11503932, -0.1797167, -0.59068614, -0.3871199, 0.35489044, 0.30940568, -0.46202707, -0.18484238, 0.5385877, -0.11126476, 0.3555976, 0.5618732, 0.3559048, -0.19701529, -0.114612035, -0.25385454, -0.05289634, -0.056965385, -0.20419866, 0.17733508, 0.11243983, -0.34319946, -0.21169901, -0.39361942, 0.3624162, 0.2655244, 0.56308365, 0.35447124, 0.12985665, -0.33971953, -0.22145802, -0.06327399, 0.47379643, 0.5761166, 0.35182562, -0.4052245, -0.5487269, 0.92296493, -0.33475104, 0.15341419, 0.59837896, 0.15025122, 0.23464483, -0.038681146, 0.41646275, 0.27197665, 0.31478608, -0.2144528, -0.3701093, 0.393826, -0.032611314, -0.33643734, -0.25354183, -0.45228386, -0.8606567, -0.33978766, 0.16917652, 0.02363061, 0.6950214, 0.4803039, -0.3632282, 0.2551452, 0.3208834, 0.4055832, 0.027628165, 0.119538106, 0.32398865, 0.563069, -0.26861754, -0.24811567, -0.03465501, 0.655698, 0.4091771, 0.15094025, -0.2768129, -0.48754132, 0.5820712, -0.016388671, -0.20071384, -0.27375615, 0.4642682, 0.17219847, 0.46585834, 0.09218972, -0.34390947, 0.94299984, -0.15344515, 0.3423617, 0.117365055, 0.60309345, 0.27670628, -0.030636184, -0.5617674, -0.26301625, -0.44809887, -0.16041052, -0.24117327, -0.44116056, 0.0028128326, -0.06647583, -0.259071, -0.3266084, -0.49885193, -0.37341404, 0.35094044, -0.43058217, -0.052260093, -0.5137514, 0.3536998, 0.29867768, 0.28675932, -0.09386925, -0.1713277, 0.2806073, 0.5084273, -0.4832842, 0.7544593, -0.27863443, -0.6718328, -0.5124234, -1.3267163, 0.37863493, -0.82809174, -0.28306296, 0.48944172, -0.06305829, -0.13673688, 0.70458657, 0.37001333, -0.54229724, 0.08753635, -0.5755923, -0.0013796339, 0.23793228, -0.35148537, 0.043754518, 0.09366056, -0.7745464, -0.1788379, -1.0100169, -0.9834192, -0.39133245, 0.027104363, -0.24992892, 0.18945253, -0.00818889, -0.44042417, 0.1617015, -0.22091098, 0.44940773, -0.19663447, -0.4785007, -0.23132282, -0.38217464, 0.43846905, 0.13217045, 0.17205842, 0.18038586, 0.0033949646, 0.49725458, -0.35170963, 0.017659616, 0.32635915, -0.5126912, -0.4878869, -0.28154537, -0.50616586, -0.8221641, 0.0026433368, 0.15055707, -0.09125482, -0.35488495, 0.12078839, 0.5924126, -0.23019242, -0.32717255, -0.30922744, -0.369607, -0.24853022, 0.08601568, 0.978544, 0.39107287, -0.55875546, -0.950016, -0.20806265, 0.27719033, -0.107986696, -0.08303864, 0.30701578, -0.89118385, 0.35734698, -0.2111969, -0.1162052, 0.2589576, 0.20790043, -0.02156941, -0.207253, -0.10047574, -0.10592233, 0.05171456, 0.4412771, -0.47587436, 0.05222528, -0.3449813, -0.19440204, -0.17376307, 0.07395362, -0.29394817, -1.0188775, -0.11193219, 0.002825588, 0.104024224, 0.46412054, 0.01232279, 0.13255058, 0.081753, -0.062980145, 0.2465828, -0.29715255, 0.5828873, 0.23008639, 0.24327803, -0.4389758, -0.67441547, 0.8933911, 0.052082375, 0.2284028, -0.33207583, 1.0875373, -0.3754276, 0.48447418, -0.13264579, 0.0733421, -0.21899109, 0.39627245, 0.16621852, -0.14859255, 0.63937867, 0.43162465, -0.6368181, 0.0069087753, -0.08740672, 0.40641478, -0.11328268, -0.023685707, 0.17409433, -0.10411303, -0.3803245, -0.46666846, 0.12825435, 0.3406565, -0.14964277, -0.28572014, -0.2998408, -0.385376, -0.3634776, -0.6722532, -0.16475596, -0.14423826, -0.13902813, -0.029745089, -0.39708197, -0.14442185, 0.13092797, 0.5168345, -0.17083131, -0.057941947, -0.77898824, -0.20549828, 0.39321503, -0.36682135, 0.25810453, -0.24150413, -0.53696615, -0.44506025, -0.48831373, -0.25565526, 0.36958134, -0.4311835, -0.2549903, -0.10148898, -0.06617277, 0.038521886, -0.15636876, 0.6188871, -0.4111128, 0.5276452, -0.09588688, 0.10169339, -0.031428184, 0.44696835, -0.13715354, -0.061550293, -0.11426466, 0.3499053, 0.006989335, -0.39425442, -0.24308906, -0.012795915, -0.38561606, 0.10956468, 0.9777994, -0.35398996, 0.40477479, -0.14484297, -0.030893113, -0.6583775, 0.70653707, 0.6473757, 0.8395513, 0.32451934]</t>
         </is>
       </c>
     </row>
@@ -783,18 +870,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>점탄성은 어떻게 측정하나요?</t>
+          <t>점도는 어떻게 측정하나요?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rheometer라는 장치를 고려해 보시죠.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[-0.33630884, -0.52852994, 0.8164539, -0.61318374, -0.023262769, 0.0026794835, 0.15650508, -0.0068123993, 0.051421512, 0.03691374, -0.4660257, -0.05581945, -0.03506446, 0.11921174, 0.030154891, -0.15284146, 0.08841283, 0.6311546, -0.3341113, 0.12658022, -0.17415912, 0.17548503, 0.24434847, 0.65151745, -0.64676577, 0.23760694, -0.64232117, -0.12401295, -0.100457616, -0.84988046, 0.2939919, -0.27890527, -0.21933423, 0.5140983, 0.29525292, 0.28971875, 0.14649646, 0.21838702, 0.46477365, 0.06884209, -0.3317382, -0.34384176, 0.049638137, 0.68308616, 0.23729175, -0.23161577, 0.119803526, 0.08322313, -0.29672667, 0.002300658, -1.0452267, 0.02703029, 0.33701724, 0.59890306, -0.4709258, -0.45747212, 0.3919687, -0.304355, -0.025292385, 0.35958478, -0.19760685, -0.7648383, -0.23676805, 0.31396565, -0.40604132, -0.06891579, -0.15475531, 0.20402862, -0.64019257, 0.09019346, 0.10284311, -0.39918488, 0.012272439, -0.61848265, 0.51520324, -0.24221565, -0.2762242, -0.34303752, 0.32390374, 0.27633256, 0.17171656, 0.0781953, -1.0552233, -0.16108662, 0.16263591, -0.52410877, 0.048446957, -0.43840778, -0.0599893, 0.5888594, -0.20352712, -0.20012704, -0.6903703, 0.4095876, -0.994459, -0.097557545, 0.12750293, -0.51201195, 0.48285103, 0.0073629944, -0.40104818, 0.33358532, -0.10206032, 0.6882808, 0.18484224, -0.28800222, -0.09161992, 0.6858797, 0.6689454, -0.04739168, 0.66391337, -0.4217851, -0.06818814, -0.24168119, 0.09516621, 0.017423006, 0.050855502, -0.2470551, -0.1873778, 0.22395958, 0.44109857, -0.41536617, -0.27366617, -0.13952574, -0.17850175, 0.121017806, 0.6442936, -0.34655687, 0.34240896, -0.32428658, -0.09330277, 0.33187282, 1.024395, -0.20604558, -0.07413983, -0.33956492, -0.05887749, -0.13865575, 0.067368634, 0.73163456, -0.42865583, 0.540741, 0.16675967, 0.22942814, 0.15395002, 0.15621342, 0.36261782, -0.10306862, 0.040797114, -0.5003014, -0.0051351283, -0.060822606, -0.7925635, -0.01593315, 0.35949862, -0.17544486, 0.0439769, -0.10023152, -0.0011641607, -0.40579307, 0.1796029, -0.73419935, 0.1512401, -0.2896573, 0.5626878, 0.07636425, -0.16296896, -0.026573302, 0.03861009, -0.21855289, -0.459805, 0.058401205, 0.19166459, -0.19938636, 0.69986844, 0.35288483, -0.9356301, 0.16709252, -0.24868947, -0.8860462, 0.033960447, 0.3406557, 0.09631672, 0.18396282, -0.0117506655, 0.16056207, 0.33590627, -0.424003, -0.76506007, -0.44317925, 0.3491076, -0.5843826, -0.3682247, 0.008328915, 0.31428683, 0.39124793, -0.196033, -0.22486216, 0.0015275452, 0.094180934, -0.66284794, 0.7455687, 0.012082738, 0.19327034, 0.7322301, -0.11653981, -0.18883944, -0.06892324, 0.92889154, -0.0020291582, 0.36953858, 0.784174, -0.34031045, -0.00094484334, -0.27884132, -0.68296903, -0.15189116, -0.23476633, 0.08957889, 0.090322584, -0.16377269, -0.32456887, 0.7124944, -0.16648732, -0.039872345, -0.83024883, 0.5347344, 0.37229425, 0.2964116, -0.0561762, -0.056401264, -0.7808693, -0.4266055, -0.38521984, 0.6664801, -0.022329925, 0.38938522, 0.33969128, -0.59331363, -0.5332158, 0.37723744, -0.14540416, -0.112670854, -0.10859665, 0.12417738, 0.19537458, 0.1625455, -1.1653572, 0.25338215, -0.54560786, -0.27761334, 0.13230266, -0.0056062164, -0.015280789, 0.72751236, -0.2898042, 0.29099903, 0.4725028, -0.027379425, 0.070199594, 0.09995634, 0.061566886, -0.16041599, 0.20738988, -0.2541639, -0.10445419, 0.5204416, -0.56198317, 0.032333598, -0.39608344, -0.20399752, -0.3989133, 0.2112795, -0.20458804, -0.43953198, 0.26696846, 0.21356077, 0.4835912, 0.016183333, 0.45279667, -0.25784168, 0.41077015, 0.17817912, 0.20330778, 0.79053897, -0.0998187, -0.4521797, -0.15311593, -0.17894778, -0.59907895, -0.21216752, 0.27176848, 0.12918128, -1.8280036, -0.024055094, 0.099866174, 0.14638196, -0.13672505, 0.3603032, 0.36978683, 1.0734185, -0.13261472, 0.5425616, -0.007426855, -0.05575826, 0.08026998, -0.26239383, -0.9751018, -0.12176904, 0.41721547, 0.7775877, 0.59506756, -0.00789935, 0.5658421, -0.110247895, -0.6287536, 0.16691597, 0.19318973, 0.38875276, 0.019394439, -0.6524743, 0.6221007, -0.49498177, -0.06246485, -0.12534079, 1.0604075, 0.046633903, -0.41040242, 0.058086373, 0.20154285, -0.7958639, -0.16162053, 0.10627244, -0.2784748, 0.015554171, -1.0471003, 0.93094164, -0.7185743, -0.15404244, -0.11088855, 0.19906984, -0.28941748, -0.73787534, 0.7626211, 0.24473104, 1.1642709, -0.10811431, -0.1618743, 0.099878766, -0.44919148, 0.058766615, -0.23621696, 0.16402927, 0.35063216, 0.7887582, 0.22990745, 0.23265177, 0.9888453, 0.12696598, -0.047882725, 0.5801778, 0.08322303, -0.1884708, 0.5076506, -0.4388077, -0.9104673, -0.918031, -0.34656674, 0.053254507, 0.09160137, -0.18619919, -0.09091189, -0.07068325, -0.13833705, -0.732811, 0.3709911, 0.22645687, 0.37546414, -0.0872524, 0.18547462, 0.076305, 0.8768864, -0.21790475, -0.74644494, 0.61488765, -0.08530922, -0.013135231, 0.21761388, 0.17153153, 0.1435408, -0.16394344, -0.6362466, -0.123641364, -0.15862, -0.8283934, 0.13139196, -0.52399325, 0.14013003, -0.20118661, 0.4648017, 0.2487131, 0.24988507, -0.27581173, 0.4477546, 0.16299959, -0.12501022, 0.4125974, -0.052064106, -0.035213917, -0.54979867, -0.24478827, -0.54637045, -0.36042923, -0.1661543, -0.19466424, 0.08986722, -0.0072896103, -0.007827959, 0.042102534, -0.13367437, -0.33675745, -0.7878426, 0.42751014, -0.47552025, 0.3263743, -0.005561005, 0.82521725, -0.0055905487, 0.66743207, -0.40827367, 0.42431334, 0.17144598, 0.31165564, -0.28864095, -0.5808205, -0.26151025, 0.025804209, -0.552035, -0.6214604, 0.31581646, 0.5437312, 0.299259, -0.049445618, 0.2720805, -0.34335652, -0.06341467, 0.19772612, 0.5053621, -0.45379496, -0.35229373, -0.2294557, -0.27146208, 0.058552884, 0.23191522, -0.45106086, 0.5889163, 0.15791497, 0.17261438, -0.054843556, 0.49848375, -0.040730514, 0.284457, 0.11540773, -0.45973986, 0.02541865, -0.07099077, 0.17560174, 0.7088883, 0.10913113, 0.10415929, -0.4570379, -0.30288675, 0.3939415, -0.32089004, -0.81944424, -0.35894653, -0.1611657, 0.29890242, -0.36017743, 0.33390033, -0.20582439, 0.1256935, 0.15671064, 0.36365083, 0.46172532, -0.5617275, 0.024640363, -0.21467227, 0.23502241, 0.5877185, 0.47394225, -0.4763135, -0.60187817, -0.09629733, 0.3279296, -0.4296694, -0.5120159, 0.57199675, -0.4385147, -0.15835053, -0.13296388, 0.5982067, 0.1270937, 0.46136972, -0.2828533, 0.50332016, 0.07408536, 0.085190415, -0.46434453, 0.05060319, 0.1646919, -0.2550921, 0.3700305, 0.18666722, 0.12070645, 0.90726244, -0.06177741, -0.6736769, -0.088330604, 0.52313304, -0.8128685, -0.12557584, -0.007816919, -0.06717076, 0.1653052, -0.19819394, -0.30521318, 0.29656497, 0.2095818, 0.04189873, 0.011488928, 0.16920736, -0.24105702, -0.035345152, -0.19014306, 0.019735856, 0.1954527, 0.46907565, 0.82086504, 0.15071823, 0.43456605, -0.28893253, 0.11011373, -0.64133984, 0.12680337, -0.41009855, 0.45502627, 0.3571207, -0.30456963, -0.6892918, -0.043681264, -0.5293376, -0.25101832, -0.49672258, 0.007273071, -0.10382759, 0.33333957, -0.22542487, -1.1630684, 0.049340736, 0.286948, 0.72410446, -0.23671646, 0.44705483, -0.38692734, 0.05025985, 0.05884752, 0.15549172, -0.2652219, -0.14651118, 0.5014784, 0.11347504, -0.5514453, 0.8663256, -0.4915171, -0.75707775, -1.1305169, -1.4443123, 0.34386072, -0.5428158, -0.30599624, 0.395469, 0.2245861, -0.6711823, 0.22022937, 0.23273776, 0.04061317, -0.5135524, -0.31323144, -0.07658958, 0.14864872, 0.033043325, 0.46397322, 0.45252466, -0.4431999, -0.5323027, -0.08440049, -0.7493945, 0.14875206, -0.19294314, -0.28533852, 0.32727015, 0.006998724, 0.14797768, 0.15434615, -0.6680708, 0.4480684, -0.3226658, -0.18202685, -0.12499742, -0.79962975, 0.08849153, -0.022479402, -0.4519111, -0.58303213, 0.25645024, 0.18606925, -0.51510817, -0.49247897, 0.10946346, -0.021659147, -0.020809442, -0.2323102, -0.4513503, -0.36847275, -0.085607015, -0.506629, -0.29037726, 0.058856998, -0.73767567, 0.6036798, -0.16878572, 0.1998856, -0.054605532, -0.44607314, -0.28922853, 0.28918326, 0.59622073, -0.053996444, -1.0812318, -0.57704914, 0.052274704, 0.45886162, -0.7093621, -0.27183434, 0.28541958, -0.55091614, 0.80745846, -0.61330014, 0.16102625, 0.16323568, -0.16043125, 0.06166987, -0.019232672, 0.49838027, -0.3369088, -0.20883551, 0.25179812, -0.4859667, 0.015067365, -0.28286168, -0.44022304, -0.06990078, -0.13037747, -0.16128914, -0.97914976, -0.6531689, -0.20162994, 0.33749288, 0.27949774, 0.30766985, 0.045878146, -0.1351221, 0.28071544, -0.65093094, -0.15149121, 0.10430456, -0.046493195, 0.114437096, -0.62089545, -0.21770857, 0.63747734, 0.31348902, 0.0137785515, -0.70362526, 1.1835293, -0.34864432, 0.33096585, 0.30082414, -0.77056164, -0.7274324, -0.45270288, 0.58866173, -0.4272402, 1.1241006, 0.55006474, -0.033562545, -0.9198709, 0.06431001, -0.32302377, 0.0049874764, 0.41084358, -0.7256696, 0.23936506, -0.26459333, -0.28873357, 0.030816447, 0.12755775, 0.09346041, 0.42460373, -0.3723834, 0.09683227, -0.34198773, -0.32412374, -0.37836102, -0.31829917, -0.28227663, 0.12010635, 0.028435158, -0.42452946, 0.14743747, 0.36323336, -0.63201964, -0.44515297, -0.5249638, -0.25424325, 0.6230321, 0.13826218, -0.20212597, -0.47981566, -0.11351409, 0.08867807, -0.48583686, 0.3565776, 0.47711155, -0.19431615, -0.4577583, -0.023023052, -0.5842666, -0.1487254, -0.19710065, 0.6024787, -0.06361959, 0.26047525, 0.8815318, 0.17236833, 0.15201847, 0.42674872, -0.063911624, -0.13183948, 0.1835029, 0.31163844, -0.26064503, 0.1938455, -0.11792648, 0.055159256, -0.32272813, -0.105059296, 0.37741974, -0.48914117, 0.4169612, 0.045944378, 0.07310706, -0.10467546, 0.21301231, 0.19223982, 0.2817738, -0.3822718]</t>
+          <t>회전형 점도계를 고려해 보시죠.</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[-0.08294659, -0.23402815, 0.6442835, -0.55079985, 0.49848518, -0.12253289, 0.25834376, -0.08707752, 0.26456866, -0.11447735, -0.4753282, 0.0999246, 0.4524358, -0.07687895, -0.386733, 0.20310001, -0.1199374, 0.0061246245, -0.8632244, -0.043602068, -0.39500412, -0.094395325, 0.32788348, 0.31434703, -0.4111634, -0.084045276, -0.5529601, -0.45604977, 0.105844975, -0.63877696, 0.1952852, -0.2080979, -0.64304626, 0.34581858, 0.008588296, 0.25501585, 0.5185056, -0.052154668, 0.1266481, -0.14378938, -0.50987995, -0.3213017, 0.0011507332, 0.54600567, 0.3107334, -0.32634193, 0.19550028, 0.26934475, -0.512212, -0.055590052, -0.8594905, -0.009889727, 0.04291505, 0.41181225, -0.5328791, -0.5113652, 0.25118932, 0.11503426, -0.17005016, -0.18484166, -0.1254914, -0.8404215, 0.07692538, 0.28111693, -0.23345919, -0.09824618, 0.266046, 0.12668043, -0.55741805, 0.27520576, 0.22819488, -0.5128901, -0.38081664, -0.4488093, 0.66424346, -0.3308701, -0.06746107, -0.22071645, 0.1769382, 0.14136052, 0.2254202, -0.13482746, -0.8976375, -0.43148407, 0.07431033, -0.92532843, -0.15248092, -0.24349794, 0.5516469, 0.38806865, -0.23874469, -0.0714775, -0.30657884, 0.22643828, -0.36410576, 0.27787158, 0.089127526, -0.61798394, 0.15146221, 0.03816658, 0.03446, 0.6695229, -0.72381, 0.7705128, 0.10328265, -0.20552377, 0.06967079, 0.3387209, 0.39389557, 0.17185393, 0.2928992, -0.1821732, 0.10664799, -0.01699256, 0.11991918, -0.4657628, 0.06503807, -0.6829693, 0.002956571, 0.23087311, 0.78850293, -0.31350827, -0.3203893, -0.16360721, -0.16848436, 0.5801524, 0.4494505, -0.31829524, 0.5657256, -0.3837769, -0.3393175, 0.14617845, 0.8457902, -0.0024073715, 0.02066421, -0.59747493, 0.10918596, -0.5431079, -0.29905576, 0.6218454, -0.15133555, -0.07232727, 0.072260246, -0.15523097, 0.01202206, 0.34842393, 0.6791117, 0.12369803, -0.13462687, -0.58866936, 0.0840264, -0.08644533, -0.3399037, -0.165435, 0.6356988, -0.32071942, -0.12567773, -0.28313035, -0.035781004, -0.48047248, -0.17564622, -0.46207398, 0.2672535, -0.05766496, 0.4293427, 0.18219693, 0.15483281, 0.29257676, -0.555497, -0.36020473, -0.4555532, -0.36353055, 0.0346481, -0.4049882, 0.4195198, 0.17455892, -0.78867877, -0.14538395, -0.65081763, -0.3778514, 0.38385835, 0.13897873, -0.17664167, -0.37420338, -0.062280297, 0.08831322, 0.3201123, 0.022629604, -0.48277014, -0.013047096, 0.1843462, -1.171063, -0.5104076, 0.27539426, 0.6220017, 0.73033345, -0.10243168, -0.25322825, -0.12653749, 0.39622518, 0.033493157, 0.8667718, -0.3488829, 0.010871688, 0.58243096, -0.1405702, 0.19327128, -0.29869717, 0.72017884, 0.14764988, 0.471139, 0.5423409, -0.4074556, -0.03721689, 0.041444365, -0.8749757, -0.44379455, -0.45701274, 0.33770293, -0.2482641, -0.14952107, -0.21135089, 0.5798954, -0.18799272, 0.07347668, -0.805402, 0.46689105, -0.0067996206, 0.8661621, -0.2003859, 0.18861744, -0.2766487, 0.0009787992, -0.562129, 0.29806834, 0.035130627, 0.2582554, 0.7275452, -0.79761666, -0.26390165, 0.07274507, 0.008710803, -0.1786294, 0.086208776, 0.4694416, 0.2785965, 0.0016422853, -0.60218585, -0.16233876, -0.2939351, -0.22857681, 0.11918869, 0.60896266, -0.07705206, 0.8340642, 0.027343553, 0.14871548, 0.6115668, 0.2644611, -0.27664787, 0.14706334, 0.07584841, -0.15266646, 0.21428283, -0.25943774, -0.3191301, 0.5059672, -0.6749086, -0.15368168, -0.67053396, -0.12317266, -0.07145761, 0.39265886, 0.11494185, -0.1084618, 0.22448778, -0.05044798, 0.72022533, 0.19204083, 0.4517873, -0.16877985, 0.6798085, -0.4958497, 0.18483596, 0.778086, 0.061365645, -0.14813295, -0.36244592, 0.37567073, -0.37287784, -0.34980142, 0.38171282, -0.11163832, -1.3575871, 0.07390912, 0.09469993, 0.25759906, -0.0674502, 0.65663314, 0.4305626, 0.34333053, 0.36280948, 0.6991596, -0.023769598, 0.10931202, 0.17362772, -0.32591373, -0.6239607, -0.41308743, 0.0248245, 0.9171696, 0.70292246, 0.3188551, 0.43853393, -0.092978135, -0.6260654, 0.1318725, 0.026602928, 0.4581185, -0.02413485, -0.2708066, 0.540522, -0.3271931, -0.4272028, -0.21952292, 0.9174881, 0.18740408, -0.31927174, -0.0867664, 0.0051542968, -1.0814419, -0.28869328, 0.14176773, -0.10104535, -0.21046314, -0.7280834, 0.6460659, -0.81381863, -0.2479231, 0.28123552, -0.13415895, -0.1907808, -0.26264364, 0.84805614, 0.28238815, 0.9289444, -0.019244213, -0.4084832, -0.0908819, -0.3237038, 0.17025793, 0.0021485686, 0.24186695, 0.19788317, 0.8908661, 0.40389305, -0.15933618, 1.2147213, 0.41125876, -0.21967319, 0.87787074, 0.13989983, -0.018773014, 0.7958359, -0.28532252, -0.45728883, -0.843516, -0.38412565, -0.055011384, 0.23906657, 0.13737457, -0.16838305, -0.19009566, -0.106953405, -0.44249374, 0.102298595, 0.17227094, 0.5048532, -0.47308117, -0.24278875, 0.34939623, 0.7651404, 0.18210803, -0.5243042, 0.63788813, -0.4441402, -0.2562149, 0.04497952, 0.10239478, -0.002551803, -0.1372155, -0.16222389, 0.31247625, -0.17586009, -0.9636816, 0.09203404, -0.5846642, -0.27324122, -0.24339278, 0.7311013, 0.45536438, 0.07665019, -0.12580465, 0.21808422, 0.39390436, -0.07708548, 0.05384987, 0.12060894, -0.034263127, -0.86022455, -0.16755942, -0.4306901, -0.3916778, 0.11199429, -0.5623899, -0.08171518, -0.0025351346, -0.22703373, -0.22644608, -0.12641627, -0.02351127, -0.277139, 0.45960408, -0.47062522, -0.025229866, 0.15506849, 0.6074551, -0.24655107, 0.80809325, -0.18670747, 0.68947774, 0.18987441, -0.09882295, -0.32348076, -0.47802132, -0.09447764, 0.029344212, -0.29483828, -0.576764, 0.009890045, 0.62941587, 0.41871053, 0.14403374, 0.13856706, -0.34960026, 0.016287256, 0.2441382, 0.438186, -0.05090226, -0.43259424, -0.04081531, -0.08872193, -0.46788788, -0.24886608, -0.40507832, 0.5786356, -0.19224653, 0.17282784, -0.43845168, 0.08989842, -0.040944606, 0.034493383, 0.06607874, -0.07031238, 0.18431015, -0.28296694, 0.52199334, 0.77724075, 0.06836793, 0.16992053, -0.37944388, -0.36958355, 0.17871492, -0.08110295, -0.8639429, -0.21531253, 0.26216343, 0.18067971, -0.6777198, 0.47199026, -0.29978016, 0.025034403, 0.17370388, 0.5431425, 0.5055641, -0.6438519, -0.058749903, 0.11070807, 0.048437305, 0.35593152, 0.8110409, -0.25926387, -0.50019705, 0.067276075, 0.20311472, -0.4507462, -0.31591764, 0.72611696, -0.17569868, -0.37262326, 0.1104121, 0.44108972, 0.3903356, 0.3660289, -0.25484997, 0.15604088, -0.05456101, 0.16560905, -0.2476176, -0.02600202, -0.23858282, -0.117595986, 0.3523856, 0.53671473, 0.43102163, 0.84833544, 0.05001702, -0.2684782, -0.36071163, 0.69806767, -0.49161243, -0.27622122, 0.19628459, 0.1737397, 0.17281717, -0.43782893, -0.5982114, -0.035127543, 0.3448134, 0.20968886, -0.13913006, 0.34421614, -0.41012502, 0.2897313, 0.104297265, -0.08994175, -0.22386432, 0.24329285, 0.69785726, -0.22225097, 0.23780525, -0.5409701, 0.34567672, -0.49469417, 0.20898315, -0.17302635, 0.5722539, 0.25876936, -0.34703237, -0.47712374, -0.16471389, -0.6892928, -0.022824595, -0.736675, 0.3790217, -0.17971313, 0.013873652, -0.6044235, -0.72807044, 0.09426657, 0.16552421, 0.1288888, -0.49239153, 0.5706481, -0.1589578, -0.34128675, 0.034629174, 0.004372108, -0.14229959, 0.0362458, 0.9607196, 0.5176314, -0.59001577, 0.85218287, -0.13008443, -0.9689242, -0.8787961, -1.3635571, -0.03892439, -0.48786575, -0.0760987, 0.64298534, 0.13029248, -0.8195753, 0.74130666, 0.2215416, -0.48718676, -0.20260783, -0.5241045, -0.25236613, 0.31670696, -0.5876891, 0.3115439, 0.23989344, -0.7661911, -0.64282256, 0.21761553, -0.6800617, -0.24669933, -0.56456244, -0.096025415, 0.15283151, -0.05583071, -0.013207582, 0.1585683, -0.5679357, -0.05568918, -0.18995567, -0.2836718, 0.058006745, -1.2360141, -0.30720526, -0.054512095, -0.8622425, -0.27523524, 0.0973256, -0.5180377, -0.8563267, -0.63351744, 0.31980434, -0.52634275, -0.2790397, 0.2362136, -0.79241985, -0.6333274, -0.55290425, 0.12444539, -0.2895501, 0.09106218, -0.59003866, 0.7313972, 0.054334737, 0.18808287, -0.3594564, -0.18230493, 0.10674286, -0.35233817, 0.8257624, 0.40811223, -0.9620005, -0.76031905, 0.15041037, 0.4941662, -0.5802328, -0.20965283, 0.67796296, -0.31392926, 0.9524382, -0.64237726, -0.18647511, 0.22077724, 0.23791811, -0.35585484, 0.2942212, 0.080246136, -0.27503946, 0.006198874, 0.27541122, -0.73874, 0.052865088, -0.4513662, -0.55795085, 0.6311598, -0.31677565, -0.3458526, -0.7524689, -0.58904386, -0.2657532, 0.5164274, 0.1657033, 0.22875957, -0.15838356, -0.31509468, 0.2297093, -0.13521029, -0.05353763, 0.22919777, -0.16978475, -0.26788867, -0.20760374, -0.32494897, 0.20297225, 0.73982304, 0.3336755, -0.87806094, 1.4362981, -0.85121715, -0.0636118, 0.26907903, -0.39652115, -0.2680191, -0.008642423, 0.4162709, -0.13003473, 0.87525684, 0.29340902, 0.28049108, -0.75276434, -0.21777824, -0.6718527, -0.07107707, 0.46198696, -0.47319326, 0.29390627, -0.29693708, 0.070628405, 0.17554715, 0.2581197, -0.60843647, -0.043052983, -0.39524326, 0.049080037, -0.00924312, -0.13071494, 0.3643841, -0.8305108, 0.10673988, 0.4354802, -0.091940686, -0.29771328, 0.4270676, 0.5813019, -0.34474015, -0.3035909, -0.12430388, -0.14743826, 0.66632265, 0.5939205, -0.3109564, -0.59629935, -0.505299, 0.29151386, -0.6461901, 0.1411961, 0.18882158, -0.18961366, -0.4785084, -0.18252173, -0.56063616, -0.049791276, -0.23791905, 0.074346855, -0.18114898, -0.22323361, 0.53642654, -0.17964199, 0.3028267, 0.6873098, 0.19836988, -0.5158987, 0.0077413274, 0.31134906, 0.060500123, 0.35869884, -0.34930745, -0.2334404, -0.20393157, 0.22828022, 0.19957317, -0.6858946, 0.4847908, 0.13567838, 0.100524165, -0.26621613, 0.20539263, 0.3355426, 0.559507, -0.3521033]</t>
         </is>
       </c>
     </row>
@@ -804,20 +896,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Viscoelastic가 무엇이죠?</t>
+          <t>점도는 어떻게 측정하나요?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>점탄성을 의미합니다.</t>
+          <t>Brookfield 점도계를 고려해 보시죠.</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>3</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[0.37471226, 0.021817027, -0.3537319, 0.14987321, -0.020575128, 0.38596278, 0.4780553, 0.69334257, 0.29211062, -0.02278652, 0.57603174, -0.1273683, 0.13517928, 0.053350117, -0.32786, 0.2810245, -0.06191992, 0.17534801, 0.55225074, -0.08770171, -0.34990212, 0.27500957, 0.09354225, -0.29414722, -0.20029429, 0.20364562, -0.26892582, -0.265351, 0.7191671, -0.48941687, 0.059633333, 0.01480402, 0.40933985, 0.17990956, 0.11179424, -0.21701644, -0.35680577, 0.15881227, 0.18315075, -0.29041827, 0.38376063, -1.0417397, -0.37323046, 0.118848786, -0.03991204, -0.280248, -0.09931807, -0.24253495, 0.5877309, -0.024559375, -0.66846335, 0.38150403, 0.6733402, 0.2541811, -0.38660443, -0.52888876, -0.46478435, -0.696164, 0.2769557, -0.23352805, 0.501644, -0.36162314, -0.30414024, -0.32979125, 0.03293318, 0.1910331, -0.13197486, 0.35582626, -0.68146694, -0.6069521, 0.46624085, 0.288955, 0.116061576, -0.12639922, 0.15770146, -0.13697068, 0.4406239, 0.21232574, 0.7696546, 1.4067645, 0.9834845, -0.83322483, -0.099930726, -0.6349942, -0.15075421, -0.74759376, 0.11230573, -0.32939637, -0.36798066, 0.04660897, -0.12021197, -0.17544042, -0.6159737, 0.17958449, -1.0049707, -0.52394634, 0.13329753, -0.2144869, 0.4960344, -0.1545821, 0.4393835, -0.02919212, 0.059429422, 0.29091975, 0.36542013, 0.48712465, -0.24289864, 0.76858914, 0.71955913, -0.10566732, 0.2981448, -0.04958052, 0.50604403, -0.09183702, 0.36710575, 0.11667137, -0.7228614, 0.06441016, 0.1884225, 0.57897234, -0.5000402, -0.3650963, -0.005759645, 0.2992417, -0.114495106, -0.034547564, 0.5475864, 0.10009137, -0.28181946, 0.03805808, 0.037484426, 0.64385116, -0.20974423, -0.22692378, -0.26689708, 0.33142287, 0.185344, 0.17642285, 0.19678468, 0.7174343, 0.005432608, 0.05893364, -0.15476285, 0.1980837, -0.4595429, 0.12613495, 0.30199087, -0.36884058, -0.317379, -0.44984663, -0.25718692, 0.28495467, -0.6188735, -0.35820526, -0.19663477, -0.6689638, 0.2647438, -0.014776606, 0.2685525, -0.049847282, 0.053380106, -0.31946358, 0.18634692, 0.30545968, -0.30770355, -0.0130719, 0.60151637, 0.069755904, -0.00796039, -0.29630783, -0.0016969397, -0.09352536, -0.42250094, -0.026629744, -0.12068072, 0.53758514, -0.5442361, -0.41276476, -0.4594007, -0.0066862446, 0.41577324, 0.037530445, -0.4495951, 0.43584412, 0.018207747, 0.19616888, 0.023844847, -0.27478, -0.48228088, -0.59979177, -0.08014385, -0.2654678, -0.1761226, 0.43926796, 0.2429658, 0.67790514, 0.009389402, 0.35971624, -0.17287949, 0.21778382, -1.4548997, 0.52414376, 0.046220336, 1.0605595, 0.5086812, -0.08547011, -0.057072766, -0.31234774, 0.023981554, -0.46357965, 0.26525992, 0.66838497, 0.094619475, -0.61647063, 0.103059396, -0.037697755, 0.52114964, 0.5020062, -0.291485, -0.57592636, 0.088801354, -0.02855843, 0.7666025, -0.6485766, -0.4270054, -0.38997227, 0.19479927, 0.349864, -0.1844931, -0.45478094, -0.28199357, -0.5925482, -0.7525428, -0.4893966, 0.9025239, -0.15988582, 0.6415689, 0.54235625, 0.09965627, -0.052829508, 0.51168597, 0.03092498, -0.13712256, -0.2640672, 0.25326318, 0.48634794, 0.34251437, -0.33130926, 0.21848439, -0.8090166, -0.24906462, 0.8843454, 0.306853, -0.24868879, 0.48947996, -0.2756402, -0.07876035, 0.777543, -0.256022, -0.388112, -0.15661488, 0.298654, -0.4857834, -0.32033226, -0.21570587, 0.2559064, 0.32968804, -0.78861463, 0.58971876, -0.6921212, -0.06441761, -0.5226178, 0.5458592, 0.32063574, 0.025663419, 0.018328963, -0.5431734, -0.03914227, 0.21906675, -0.38306078, -0.07829758, 0.48501232, 0.08926083, -0.43777767, 0.293653, 0.00628218, -0.52782816, 0.26349527, -0.3535775, -1.0165778, 0.4346166, -0.3161313, 0.06865044, -1.566208, 0.2361709, -0.013636451, 0.0073453933, 0.03933716, -0.027665852, -0.11032815, -0.12455522, 0.13621701, 0.15416974, 0.3051822, 0.28362387, 1.1239667, -0.46440235, -0.87948287, -0.024540586, 0.43092126, 0.17661856, 0.18498336, -0.4515152, 0.29062822, 0.2976091, -0.2196104, -0.31439054, -0.1426058, -0.24985668, -0.057793513, -0.27121735, 0.088480674, 0.5240837, -0.09207645, 0.5022994, 0.025084466, -0.49859205, -0.11566313, -0.24559508, -0.070843756, -0.7104473, -0.33851072, 0.24213125, -0.504918, -0.04268217, -0.2659489, -0.18624853, -0.59740216, 0.44848758, 0.040732168, -0.03834046, -0.4829726, -1.3283719, -0.3800499, 0.3903138, 1.2355963, 0.04293326, -0.8684386, -0.111188576, -0.34652278, 0.2956742, -0.3796702, -0.30354717, -0.11272008, 0.2990412, -0.44445398, -0.024744097, 0.89597285, -0.40059063, -0.27569836, 0.54582536, 0.48521715, 0.20033024, 0.27965453, -0.024139034, -0.12779532, -0.40646464, 0.11695345, -0.058433175, -0.39058793, -0.1595649, -0.5635151, -0.041980844, -0.45099163, -0.36903268, 0.23140475, -0.3921085, 0.20947737, 0.33394554, 0.13327545, 0.27095768, 0.5073873, 0.010064483, -0.79831326, 0.08521269, -0.5560467, -0.32538012, -0.08637676, -0.3898048, -0.008090338, 0.008372621, -0.055142872, -0.40409687, -0.2674535, -0.8691431, 0.17688982, -0.37954363, -0.2561654, -0.0011993761, 0.39363554, -0.050015386, 0.30651438, 0.07650013, -0.3856335, 0.046368122, 0.31521127, 0.24829213, -0.4747688, -0.45612174, 0.31593317, -0.697047, -0.3454438, -0.016806347, -0.25774673, 0.006781264, -0.72077656, -0.39722076, 0.59348774, 0.052597743, 0.2930992, -0.17406486, -0.053474165, 0.6035863, -0.7231213, -0.28894076, 0.39499867, 0.33224332, 0.16447537, -0.33648527, -0.08210339, 0.56201875, 0.20458561, 0.4248772, 0.053835712, 0.1972263, -0.7894708, 0.26914832, -0.41903967, -0.72813886, 0.32876018, -0.24569376, 0.07262519, 0.41710588, -0.041115567, 0.1457784, -0.31830263, 0.34417975, 0.21217273, -0.56392276, -0.8158421, 0.35117343, -0.36483592, 0.119597405, 0.5372087, -0.30581796, -0.20223448, 0.7533213, 0.03696686, 0.035303287, 0.5789535, -0.18544525, 0.83929294, -0.43156755, -0.03600829, 0.53071827, 0.1699353, 0.27061313, 0.33748224, 0.21449879, 1.1245383, -0.6173738, 0.042896952, -0.02542742, -0.1327185, 0.40944105, -0.36452782, -0.09514153, 0.13285463, -0.0683569, -0.16425893, -0.12851061, -0.508463, -0.34243742, -0.006831974, 0.51897186, 0.33301622, -0.397558, -0.4099971, 0.25021842, -0.3581364, -0.37991366, 0.31658652, 0.56236005, -0.2050419, 0.8501126, 0.31232092, -0.4254166, 0.0733801, -0.07230355, 0.27647775, 0.026900802, 0.06825292, -0.4551334, 0.42881218, -0.48084912, -0.15861915, 0.19242905, 0.27134803, -0.4311902, 0.06668666, -0.23316301, -0.039189465, -0.0067391833, -0.12651616, 0.06382983, 0.37141004, 0.019824823, 0.22543098, -0.48527485, 0.49526218, 0.17920215, -0.43130285, 0.22406028, -0.31369832, 0.038464528, 0.3030194, 0.16485423, 0.11889989, -0.25272173, 0.63305414, -0.36640012, -0.38012615, -0.17133568, -0.46060532, 0.4983764, 0.15160169, -0.2949252, 0.26876205, 0.45393103, 0.1499858, 0.22334944, 0.093335375, 0.3539553, -0.077318154, -0.10778638, -0.40530074, 0.7620343, 0.57640636, -0.2963653, -0.0899001, -0.5541764, -0.5089932, -0.31521088, -0.6918732, -0.74111307, -0.14363089, -0.26863793, 0.09974186, -0.8058537, -0.111325026, -0.13971198, 0.5103748, -0.3840825, 0.072541565, -0.29960966, -0.13772568, -0.30787262, 1.1184785, -0.057235166, -0.47476843, 0.49953556, 0.22553016, -0.20888186, 0.22498395, -0.7586574, -0.8236862, -1.0025389, 0.09331623, 0.098736204, -0.31684873, -0.14125782, 0.4755996, 0.83707726, -0.12895295, 0.29831967, 0.31967142, -0.4498943, 0.112929545, -0.09761167, -0.06594267, -0.6249195, -0.40038264, 0.04358708, 0.17923021, -0.685666, -0.49940506, -0.15650105, -0.45490107, -0.50612277, 0.14802411, -0.017259782, 1.0070126, -0.61808026, 0.17705947, -0.6350625, -1.1631535, 0.18128215, 0.10866685, -0.066683926, 0.2573247, 0.16467112, 0.08644361, -0.006454374, 0.26639348, -0.2232907, -0.07719669, -0.36479217, -0.7694774, -0.58159745, -0.15516135, 0.32058674, -0.15330999, 0.10149201, -0.12962268, -0.06297722, 0.4451527, -0.14652953, -0.2565721, 0.4046984, -0.62943864, 0.7269494, -0.4727742, 0.68190074, 0.2818368, -0.34324858, -0.20126623, -0.013201015, 0.13959572, -0.19030884, -0.5232163, -0.45201117, 0.3309633, 0.3488592, -0.29017755, -0.40781972, -0.33280855, -0.44833535, 0.23768164, -0.58372796, -0.64933103, -0.4944262, 0.20711337, 0.19533613, -0.7919535, 0.4832398, 0.11289554, -0.89097023, 0.18013437, -0.20303106, -0.025648292, -0.050499976, 0.60301435, 0.41351894, -0.30131933, 0.12131177, -0.25233433, -0.56563246, -0.40743378, 0.4002046, 0.013215819, 0.33227238, 0.2024423, -0.099703535, -0.02650205, -0.8315792, 0.49048743, 0.092240766, -0.38121653, 0.5879798, -0.09458142, 0.31759602, 0.293983, 0.46430066, 0.017740868, -0.2358632, 0.29541594, 0.13990735, 0.10862923, 0.0054994742, 0.25966266, -0.65170085, -0.18082131, 0.97252667, -0.61969745, 0.07079491, 0.67418694, -0.2755847, 0.5995437, 0.22147512, -0.21696955, 0.5202228, 0.37143835, -0.51504385, -0.74893034, -0.21204504, -0.11423199, -0.25381893, -0.40663272, -0.45646894, 0.0895243, 0.24389726, 0.086375244, -0.031782493, -0.3281943, 0.08310409, -0.4708328, -0.3733055, -0.5955481, -0.040741876, -0.8398273, 0.1853055, 0.02150086, 0.31711772, -0.20092212, 0.3676172, 0.24495906, -0.17756775, -0.7290967, 0.07001711, 0.19478917, -0.19501346, 0.33683836, 0.32595763, 0.03924883, 0.28967324, -0.34856004, -0.46068922, 0.037849754, -0.15663345, -0.24422322, -0.10534502, 0.4504426, -0.8455394, 0.01219159, 0.21045814, -0.056299254, -0.1584475, 0.35280725, 0.20009424, -0.045380212, 0.045476038, 0.1591164, 0.26257184, 0.27037293, -0.15042052, 0.073717065, -0.4010308, -0.1379554, 0.5007469, -0.70519155, -0.29121682, -0.27379075, -0.16325328, -0.39463717, 0.32372057, 0.74459875, -0.4060344, 0.051085904]</t>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[-0.08294659, -0.23402815, 0.6442835, -0.55079985, 0.49848518, -0.12253289, 0.25834376, -0.08707752, 0.26456866, -0.11447735, -0.4753282, 0.0999246, 0.4524358, -0.07687895, -0.386733, 0.20310001, -0.1199374, 0.0061246245, -0.8632244, -0.043602068, -0.39500412, -0.094395325, 0.32788348, 0.31434703, -0.4111634, -0.084045276, -0.5529601, -0.45604977, 0.105844975, -0.63877696, 0.1952852, -0.2080979, -0.64304626, 0.34581858, 0.008588296, 0.25501585, 0.5185056, -0.052154668, 0.1266481, -0.14378938, -0.50987995, -0.3213017, 0.0011507332, 0.54600567, 0.3107334, -0.32634193, 0.19550028, 0.26934475, -0.512212, -0.055590052, -0.8594905, -0.009889727, 0.04291505, 0.41181225, -0.5328791, -0.5113652, 0.25118932, 0.11503426, -0.17005016, -0.18484166, -0.1254914, -0.8404215, 0.07692538, 0.28111693, -0.23345919, -0.09824618, 0.266046, 0.12668043, -0.55741805, 0.27520576, 0.22819488, -0.5128901, -0.38081664, -0.4488093, 0.66424346, -0.3308701, -0.06746107, -0.22071645, 0.1769382, 0.14136052, 0.2254202, -0.13482746, -0.8976375, -0.43148407, 0.07431033, -0.92532843, -0.15248092, -0.24349794, 0.5516469, 0.38806865, -0.23874469, -0.0714775, -0.30657884, 0.22643828, -0.36410576, 0.27787158, 0.089127526, -0.61798394, 0.15146221, 0.03816658, 0.03446, 0.6695229, -0.72381, 0.7705128, 0.10328265, -0.20552377, 0.06967079, 0.3387209, 0.39389557, 0.17185393, 0.2928992, -0.1821732, 0.10664799, -0.01699256, 0.11991918, -0.4657628, 0.06503807, -0.6829693, 0.002956571, 0.23087311, 0.78850293, -0.31350827, -0.3203893, -0.16360721, -0.16848436, 0.5801524, 0.4494505, -0.31829524, 0.5657256, -0.3837769, -0.3393175, 0.14617845, 0.8457902, -0.0024073715, 0.02066421, -0.59747493, 0.10918596, -0.5431079, -0.29905576, 0.6218454, -0.15133555, -0.07232727, 0.072260246, -0.15523097, 0.01202206, 0.34842393, 0.6791117, 0.12369803, -0.13462687, -0.58866936, 0.0840264, -0.08644533, -0.3399037, -0.165435, 0.6356988, -0.32071942, -0.12567773, -0.28313035, -0.035781004, -0.48047248, -0.17564622, -0.46207398, 0.2672535, -0.05766496, 0.4293427, 0.18219693, 0.15483281, 0.29257676, -0.555497, -0.36020473, -0.4555532, -0.36353055, 0.0346481, -0.4049882, 0.4195198, 0.17455892, -0.78867877, -0.14538395, -0.65081763, -0.3778514, 0.38385835, 0.13897873, -0.17664167, -0.37420338, -0.062280297, 0.08831322, 0.3201123, 0.022629604, -0.48277014, -0.013047096, 0.1843462, -1.171063, -0.5104076, 0.27539426, 0.6220017, 0.73033345, -0.10243168, -0.25322825, -0.12653749, 0.39622518, 0.033493157, 0.8667718, -0.3488829, 0.010871688, 0.58243096, -0.1405702, 0.19327128, -0.29869717, 0.72017884, 0.14764988, 0.471139, 0.5423409, -0.4074556, -0.03721689, 0.041444365, -0.8749757, -0.44379455, -0.45701274, 0.33770293, -0.2482641, -0.14952107, -0.21135089, 0.5798954, -0.18799272, 0.07347668, -0.805402, 0.46689105, -0.0067996206, 0.8661621, -0.2003859, 0.18861744, -0.2766487, 0.0009787992, -0.562129, 0.29806834, 0.035130627, 0.2582554, 0.7275452, -0.79761666, -0.26390165, 0.07274507, 0.008710803, -0.1786294, 0.086208776, 0.4694416, 0.2785965, 0.0016422853, -0.60218585, -0.16233876, -0.2939351, -0.22857681, 0.11918869, 0.60896266, -0.07705206, 0.8340642, 0.027343553, 0.14871548, 0.6115668, 0.2644611, -0.27664787, 0.14706334, 0.07584841, -0.15266646, 0.21428283, -0.25943774, -0.3191301, 0.5059672, -0.6749086, -0.15368168, -0.67053396, -0.12317266, -0.07145761, 0.39265886, 0.11494185, -0.1084618, 0.22448778, -0.05044798, 0.72022533, 0.19204083, 0.4517873, -0.16877985, 0.6798085, -0.4958497, 0.18483596, 0.778086, 0.061365645, -0.14813295, -0.36244592, 0.37567073, -0.37287784, -0.34980142, 0.38171282, -0.11163832, -1.3575871, 0.07390912, 0.09469993, 0.25759906, -0.0674502, 0.65663314, 0.4305626, 0.34333053, 0.36280948, 0.6991596, -0.023769598, 0.10931202, 0.17362772, -0.32591373, -0.6239607, -0.41308743, 0.0248245, 0.9171696, 0.70292246, 0.3188551, 0.43853393, -0.092978135, -0.6260654, 0.1318725, 0.026602928, 0.4581185, -0.02413485, -0.2708066, 0.540522, -0.3271931, -0.4272028, -0.21952292, 0.9174881, 0.18740408, -0.31927174, -0.0867664, 0.0051542968, -1.0814419, -0.28869328, 0.14176773, -0.10104535, -0.21046314, -0.7280834, 0.6460659, -0.81381863, -0.2479231, 0.28123552, -0.13415895, -0.1907808, -0.26264364, 0.84805614, 0.28238815, 0.9289444, -0.019244213, -0.4084832, -0.0908819, -0.3237038, 0.17025793, 0.0021485686, 0.24186695, 0.19788317, 0.8908661, 0.40389305, -0.15933618, 1.2147213, 0.41125876, -0.21967319, 0.87787074, 0.13989983, -0.018773014, 0.7958359, -0.28532252, -0.45728883, -0.843516, -0.38412565, -0.055011384, 0.23906657, 0.13737457, -0.16838305, -0.19009566, -0.106953405, -0.44249374, 0.102298595, 0.17227094, 0.5048532, -0.47308117, -0.24278875, 0.34939623, 0.7651404, 0.18210803, -0.5243042, 0.63788813, -0.4441402, -0.2562149, 0.04497952, 0.10239478, -0.002551803, -0.1372155, -0.16222389, 0.31247625, -0.17586009, -0.9636816, 0.09203404, -0.5846642, -0.27324122, -0.24339278, 0.7311013, 0.45536438, 0.07665019, -0.12580465, 0.21808422, 0.39390436, -0.07708548, 0.05384987, 0.12060894, -0.034263127, -0.86022455, -0.16755942, -0.4306901, -0.3916778, 0.11199429, -0.5623899, -0.08171518, -0.0025351346, -0.22703373, -0.22644608, -0.12641627, -0.02351127, -0.277139, 0.45960408, -0.47062522, -0.025229866, 0.15506849, 0.6074551, -0.24655107, 0.80809325, -0.18670747, 0.68947774, 0.18987441, -0.09882295, -0.32348076, -0.47802132, -0.09447764, 0.029344212, -0.29483828, -0.576764, 0.009890045, 0.62941587, 0.41871053, 0.14403374, 0.13856706, -0.34960026, 0.016287256, 0.2441382, 0.438186, -0.05090226, -0.43259424, -0.04081531, -0.08872193, -0.46788788, -0.24886608, -0.40507832, 0.5786356, -0.19224653, 0.17282784, -0.43845168, 0.08989842, -0.040944606, 0.034493383, 0.06607874, -0.07031238, 0.18431015, -0.28296694, 0.52199334, 0.77724075, 0.06836793, 0.16992053, -0.37944388, -0.36958355, 0.17871492, -0.08110295, -0.8639429, -0.21531253, 0.26216343, 0.18067971, -0.6777198, 0.47199026, -0.29978016, 0.025034403, 0.17370388, 0.5431425, 0.5055641, -0.6438519, -0.058749903, 0.11070807, 0.048437305, 0.35593152, 0.8110409, -0.25926387, -0.50019705, 0.067276075, 0.20311472, -0.4507462, -0.31591764, 0.72611696, -0.17569868, -0.37262326, 0.1104121, 0.44108972, 0.3903356, 0.3660289, -0.25484997, 0.15604088, -0.05456101, 0.16560905, -0.2476176, -0.02600202, -0.23858282, -0.117595986, 0.3523856, 0.53671473, 0.43102163, 0.84833544, 0.05001702, -0.2684782, -0.36071163, 0.69806767, -0.49161243, -0.27622122, 0.19628459, 0.1737397, 0.17281717, -0.43782893, -0.5982114, -0.035127543, 0.3448134, 0.20968886, -0.13913006, 0.34421614, -0.41012502, 0.2897313, 0.104297265, -0.08994175, -0.22386432, 0.24329285, 0.69785726, -0.22225097, 0.23780525, -0.5409701, 0.34567672, -0.49469417, 0.20898315, -0.17302635, 0.5722539, 0.25876936, -0.34703237, -0.47712374, -0.16471389, -0.6892928, -0.022824595, -0.736675, 0.3790217, -0.17971313, 0.013873652, -0.6044235, -0.72807044, 0.09426657, 0.16552421, 0.1288888, -0.49239153, 0.5706481, -0.1589578, -0.34128675, 0.034629174, 0.004372108, -0.14229959, 0.0362458, 0.9607196, 0.5176314, -0.59001577, 0.85218287, -0.13008443, -0.9689242, -0.8787961, -1.3635571, -0.03892439, -0.48786575, -0.0760987, 0.64298534, 0.13029248, -0.8195753, 0.74130666, 0.2215416, -0.48718676, -0.20260783, -0.5241045, -0.25236613, 0.31670696, -0.5876891, 0.3115439, 0.23989344, -0.7661911, -0.64282256, 0.21761553, -0.6800617, -0.24669933, -0.56456244, -0.096025415, 0.15283151, -0.05583071, -0.013207582, 0.1585683, -0.5679357, -0.05568918, -0.18995567, -0.2836718, 0.058006745, -1.2360141, -0.30720526, -0.054512095, -0.8622425, -0.27523524, 0.0973256, -0.5180377, -0.8563267, -0.63351744, 0.31980434, -0.52634275, -0.2790397, 0.2362136, -0.79241985, -0.6333274, -0.55290425, 0.12444539, -0.2895501, 0.09106218, -0.59003866, 0.7313972, 0.054334737, 0.18808287, -0.3594564, -0.18230493, 0.10674286, -0.35233817, 0.8257624, 0.40811223, -0.9620005, -0.76031905, 0.15041037, 0.4941662, -0.5802328, -0.20965283, 0.67796296, -0.31392926, 0.9524382, -0.64237726, -0.18647511, 0.22077724, 0.23791811, -0.35585484, 0.2942212, 0.080246136, -0.27503946, 0.006198874, 0.27541122, -0.73874, 0.052865088, -0.4513662, -0.55795085, 0.6311598, -0.31677565, -0.3458526, -0.7524689, -0.58904386, -0.2657532, 0.5164274, 0.1657033, 0.22875957, -0.15838356, -0.31509468, 0.2297093, -0.13521029, -0.05353763, 0.22919777, -0.16978475, -0.26788867, -0.20760374, -0.32494897, 0.20297225, 0.73982304, 0.3336755, -0.87806094, 1.4362981, -0.85121715, -0.0636118, 0.26907903, -0.39652115, -0.2680191, -0.008642423, 0.4162709, -0.13003473, 0.87525684, 0.29340902, 0.28049108, -0.75276434, -0.21777824, -0.6718527, -0.07107707, 0.46198696, -0.47319326, 0.29390627, -0.29693708, 0.070628405, 0.17554715, 0.2581197, -0.60843647, -0.043052983, -0.39524326, 0.049080037, -0.00924312, -0.13071494, 0.3643841, -0.8305108, 0.10673988, 0.4354802, -0.091940686, -0.29771328, 0.4270676, 0.5813019, -0.34474015, -0.3035909, -0.12430388, -0.14743826, 0.66632265, 0.5939205, -0.3109564, -0.59629935, -0.505299, 0.29151386, -0.6461901, 0.1411961, 0.18882158, -0.18961366, -0.4785084, -0.18252173, -0.56063616, -0.049791276, -0.23791905, 0.074346855, -0.18114898, -0.22323361, 0.53642654, -0.17964199, 0.3028267, 0.6873098, 0.19836988, -0.5158987, 0.0077413274, 0.31134906, 0.060500123, 0.35869884, -0.34930745, -0.2334404, -0.20393157, 0.22828022, 0.19957317, -0.6858946, 0.4847908, 0.13567838, 0.100524165, -0.26621613, 0.20539263, 0.3355426, 0.559507, -0.3521033]</t>
         </is>
       </c>
     </row>
@@ -827,20 +922,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Viscoelastic가 무엇이죠?</t>
+          <t>점도 측정 장치에는 어느 것이 있나요?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>점성과 탄성을 동시에 가진 것을 의미합니다.</t>
+          <t>오리피스 점도계, 보스트윅 점도계, 회전형 점도계 등이 있습니다.</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>3</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[0.37471226, 0.021817027, -0.3537319, 0.14987321, -0.020575128, 0.38596278, 0.4780553, 0.69334257, 0.29211062, -0.02278652, 0.57603174, -0.1273683, 0.13517928, 0.053350117, -0.32786, 0.2810245, -0.06191992, 0.17534801, 0.55225074, -0.08770171, -0.34990212, 0.27500957, 0.09354225, -0.29414722, -0.20029429, 0.20364562, -0.26892582, -0.265351, 0.7191671, -0.48941687, 0.059633333, 0.01480402, 0.40933985, 0.17990956, 0.11179424, -0.21701644, -0.35680577, 0.15881227, 0.18315075, -0.29041827, 0.38376063, -1.0417397, -0.37323046, 0.118848786, -0.03991204, -0.280248, -0.09931807, -0.24253495, 0.5877309, -0.024559375, -0.66846335, 0.38150403, 0.6733402, 0.2541811, -0.38660443, -0.52888876, -0.46478435, -0.696164, 0.2769557, -0.23352805, 0.501644, -0.36162314, -0.30414024, -0.32979125, 0.03293318, 0.1910331, -0.13197486, 0.35582626, -0.68146694, -0.6069521, 0.46624085, 0.288955, 0.116061576, -0.12639922, 0.15770146, -0.13697068, 0.4406239, 0.21232574, 0.7696546, 1.4067645, 0.9834845, -0.83322483, -0.099930726, -0.6349942, -0.15075421, -0.74759376, 0.11230573, -0.32939637, -0.36798066, 0.04660897, -0.12021197, -0.17544042, -0.6159737, 0.17958449, -1.0049707, -0.52394634, 0.13329753, -0.2144869, 0.4960344, -0.1545821, 0.4393835, -0.02919212, 0.059429422, 0.29091975, 0.36542013, 0.48712465, -0.24289864, 0.76858914, 0.71955913, -0.10566732, 0.2981448, -0.04958052, 0.50604403, -0.09183702, 0.36710575, 0.11667137, -0.7228614, 0.06441016, 0.1884225, 0.57897234, -0.5000402, -0.3650963, -0.005759645, 0.2992417, -0.114495106, -0.034547564, 0.5475864, 0.10009137, -0.28181946, 0.03805808, 0.037484426, 0.64385116, -0.20974423, -0.22692378, -0.26689708, 0.33142287, 0.185344, 0.17642285, 0.19678468, 0.7174343, 0.005432608, 0.05893364, -0.15476285, 0.1980837, -0.4595429, 0.12613495, 0.30199087, -0.36884058, -0.317379, -0.44984663, -0.25718692, 0.28495467, -0.6188735, -0.35820526, -0.19663477, -0.6689638, 0.2647438, -0.014776606, 0.2685525, -0.049847282, 0.053380106, -0.31946358, 0.18634692, 0.30545968, -0.30770355, -0.0130719, 0.60151637, 0.069755904, -0.00796039, -0.29630783, -0.0016969397, -0.09352536, -0.42250094, -0.026629744, -0.12068072, 0.53758514, -0.5442361, -0.41276476, -0.4594007, -0.0066862446, 0.41577324, 0.037530445, -0.4495951, 0.43584412, 0.018207747, 0.19616888, 0.023844847, -0.27478, -0.48228088, -0.59979177, -0.08014385, -0.2654678, -0.1761226, 0.43926796, 0.2429658, 0.67790514, 0.009389402, 0.35971624, -0.17287949, 0.21778382, -1.4548997, 0.52414376, 0.046220336, 1.0605595, 0.5086812, -0.08547011, -0.057072766, -0.31234774, 0.023981554, -0.46357965, 0.26525992, 0.66838497, 0.094619475, -0.61647063, 0.103059396, -0.037697755, 0.52114964, 0.5020062, -0.291485, -0.57592636, 0.088801354, -0.02855843, 0.7666025, -0.6485766, -0.4270054, -0.38997227, 0.19479927, 0.349864, -0.1844931, -0.45478094, -0.28199357, -0.5925482, -0.7525428, -0.4893966, 0.9025239, -0.15988582, 0.6415689, 0.54235625, 0.09965627, -0.052829508, 0.51168597, 0.03092498, -0.13712256, -0.2640672, 0.25326318, 0.48634794, 0.34251437, -0.33130926, 0.21848439, -0.8090166, -0.24906462, 0.8843454, 0.306853, -0.24868879, 0.48947996, -0.2756402, -0.07876035, 0.777543, -0.256022, -0.388112, -0.15661488, 0.298654, -0.4857834, -0.32033226, -0.21570587, 0.2559064, 0.32968804, -0.78861463, 0.58971876, -0.6921212, -0.06441761, -0.5226178, 0.5458592, 0.32063574, 0.025663419, 0.018328963, -0.5431734, -0.03914227, 0.21906675, -0.38306078, -0.07829758, 0.48501232, 0.08926083, -0.43777767, 0.293653, 0.00628218, -0.52782816, 0.26349527, -0.3535775, -1.0165778, 0.4346166, -0.3161313, 0.06865044, -1.566208, 0.2361709, -0.013636451, 0.0073453933, 0.03933716, -0.027665852, -0.11032815, -0.12455522, 0.13621701, 0.15416974, 0.3051822, 0.28362387, 1.1239667, -0.46440235, -0.87948287, -0.024540586, 0.43092126, 0.17661856, 0.18498336, -0.4515152, 0.29062822, 0.2976091, -0.2196104, -0.31439054, -0.1426058, -0.24985668, -0.057793513, -0.27121735, 0.088480674, 0.5240837, -0.09207645, 0.5022994, 0.025084466, -0.49859205, -0.11566313, -0.24559508, -0.070843756, -0.7104473, -0.33851072, 0.24213125, -0.504918, -0.04268217, -0.2659489, -0.18624853, -0.59740216, 0.44848758, 0.040732168, -0.03834046, -0.4829726, -1.3283719, -0.3800499, 0.3903138, 1.2355963, 0.04293326, -0.8684386, -0.111188576, -0.34652278, 0.2956742, -0.3796702, -0.30354717, -0.11272008, 0.2990412, -0.44445398, -0.024744097, 0.89597285, -0.40059063, -0.27569836, 0.54582536, 0.48521715, 0.20033024, 0.27965453, -0.024139034, -0.12779532, -0.40646464, 0.11695345, -0.058433175, -0.39058793, -0.1595649, -0.5635151, -0.041980844, -0.45099163, -0.36903268, 0.23140475, -0.3921085, 0.20947737, 0.33394554, 0.13327545, 0.27095768, 0.5073873, 0.010064483, -0.79831326, 0.08521269, -0.5560467, -0.32538012, -0.08637676, -0.3898048, -0.008090338, 0.008372621, -0.055142872, -0.40409687, -0.2674535, -0.8691431, 0.17688982, -0.37954363, -0.2561654, -0.0011993761, 0.39363554, -0.050015386, 0.30651438, 0.07650013, -0.3856335, 0.046368122, 0.31521127, 0.24829213, -0.4747688, -0.45612174, 0.31593317, -0.697047, -0.3454438, -0.016806347, -0.25774673, 0.006781264, -0.72077656, -0.39722076, 0.59348774, 0.052597743, 0.2930992, -0.17406486, -0.053474165, 0.6035863, -0.7231213, -0.28894076, 0.39499867, 0.33224332, 0.16447537, -0.33648527, -0.08210339, 0.56201875, 0.20458561, 0.4248772, 0.053835712, 0.1972263, -0.7894708, 0.26914832, -0.41903967, -0.72813886, 0.32876018, -0.24569376, 0.07262519, 0.41710588, -0.041115567, 0.1457784, -0.31830263, 0.34417975, 0.21217273, -0.56392276, -0.8158421, 0.35117343, -0.36483592, 0.119597405, 0.5372087, -0.30581796, -0.20223448, 0.7533213, 0.03696686, 0.035303287, 0.5789535, -0.18544525, 0.83929294, -0.43156755, -0.03600829, 0.53071827, 0.1699353, 0.27061313, 0.33748224, 0.21449879, 1.1245383, -0.6173738, 0.042896952, -0.02542742, -0.1327185, 0.40944105, -0.36452782, -0.09514153, 0.13285463, -0.0683569, -0.16425893, -0.12851061, -0.508463, -0.34243742, -0.006831974, 0.51897186, 0.33301622, -0.397558, -0.4099971, 0.25021842, -0.3581364, -0.37991366, 0.31658652, 0.56236005, -0.2050419, 0.8501126, 0.31232092, -0.4254166, 0.0733801, -0.07230355, 0.27647775, 0.026900802, 0.06825292, -0.4551334, 0.42881218, -0.48084912, -0.15861915, 0.19242905, 0.27134803, -0.4311902, 0.06668666, -0.23316301, -0.039189465, -0.0067391833, -0.12651616, 0.06382983, 0.37141004, 0.019824823, 0.22543098, -0.48527485, 0.49526218, 0.17920215, -0.43130285, 0.22406028, -0.31369832, 0.038464528, 0.3030194, 0.16485423, 0.11889989, -0.25272173, 0.63305414, -0.36640012, -0.38012615, -0.17133568, -0.46060532, 0.4983764, 0.15160169, -0.2949252, 0.26876205, 0.45393103, 0.1499858, 0.22334944, 0.093335375, 0.3539553, -0.077318154, -0.10778638, -0.40530074, 0.7620343, 0.57640636, -0.2963653, -0.0899001, -0.5541764, -0.5089932, -0.31521088, -0.6918732, -0.74111307, -0.14363089, -0.26863793, 0.09974186, -0.8058537, -0.111325026, -0.13971198, 0.5103748, -0.3840825, 0.072541565, -0.29960966, -0.13772568, -0.30787262, 1.1184785, -0.057235166, -0.47476843, 0.49953556, 0.22553016, -0.20888186, 0.22498395, -0.7586574, -0.8236862, -1.0025389, 0.09331623, 0.098736204, -0.31684873, -0.14125782, 0.4755996, 0.83707726, -0.12895295, 0.29831967, 0.31967142, -0.4498943, 0.112929545, -0.09761167, -0.06594267, -0.6249195, -0.40038264, 0.04358708, 0.17923021, -0.685666, -0.49940506, -0.15650105, -0.45490107, -0.50612277, 0.14802411, -0.017259782, 1.0070126, -0.61808026, 0.17705947, -0.6350625, -1.1631535, 0.18128215, 0.10866685, -0.066683926, 0.2573247, 0.16467112, 0.08644361, -0.006454374, 0.26639348, -0.2232907, -0.07719669, -0.36479217, -0.7694774, -0.58159745, -0.15516135, 0.32058674, -0.15330999, 0.10149201, -0.12962268, -0.06297722, 0.4451527, -0.14652953, -0.2565721, 0.4046984, -0.62943864, 0.7269494, -0.4727742, 0.68190074, 0.2818368, -0.34324858, -0.20126623, -0.013201015, 0.13959572, -0.19030884, -0.5232163, -0.45201117, 0.3309633, 0.3488592, -0.29017755, -0.40781972, -0.33280855, -0.44833535, 0.23768164, -0.58372796, -0.64933103, -0.4944262, 0.20711337, 0.19533613, -0.7919535, 0.4832398, 0.11289554, -0.89097023, 0.18013437, -0.20303106, -0.025648292, -0.050499976, 0.60301435, 0.41351894, -0.30131933, 0.12131177, -0.25233433, -0.56563246, -0.40743378, 0.4002046, 0.013215819, 0.33227238, 0.2024423, -0.099703535, -0.02650205, -0.8315792, 0.49048743, 0.092240766, -0.38121653, 0.5879798, -0.09458142, 0.31759602, 0.293983, 0.46430066, 0.017740868, -0.2358632, 0.29541594, 0.13990735, 0.10862923, 0.0054994742, 0.25966266, -0.65170085, -0.18082131, 0.97252667, -0.61969745, 0.07079491, 0.67418694, -0.2755847, 0.5995437, 0.22147512, -0.21696955, 0.5202228, 0.37143835, -0.51504385, -0.74893034, -0.21204504, -0.11423199, -0.25381893, -0.40663272, -0.45646894, 0.0895243, 0.24389726, 0.086375244, -0.031782493, -0.3281943, 0.08310409, -0.4708328, -0.3733055, -0.5955481, -0.040741876, -0.8398273, 0.1853055, 0.02150086, 0.31711772, -0.20092212, 0.3676172, 0.24495906, -0.17756775, -0.7290967, 0.07001711, 0.19478917, -0.19501346, 0.33683836, 0.32595763, 0.03924883, 0.28967324, -0.34856004, -0.46068922, 0.037849754, -0.15663345, -0.24422322, -0.10534502, 0.4504426, -0.8455394, 0.01219159, 0.21045814, -0.056299254, -0.1584475, 0.35280725, 0.20009424, -0.045380212, 0.045476038, 0.1591164, 0.26257184, 0.27037293, -0.15042052, 0.073717065, -0.4010308, -0.1379554, 0.5007469, -0.70519155, -0.29121682, -0.27379075, -0.16325328, -0.39463717, 0.32372057, 0.74459875, -0.4060344, 0.051085904]</t>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[0.060694985, -0.23113355, 0.40575653, -0.7099961, 0.34560034, -0.070824645, -0.12753507, -0.03252227, 0.03850331, -0.15384598, -0.64594173, 0.13139813, 0.073388785, -0.1527717, -0.318024, 0.15840834, -0.13864389, 0.08655882, -0.62201893, -0.25781336, -0.44811732, -0.017506126, 0.41794822, 0.91517174, -0.45602086, -0.16245557, -0.6163265, -0.13247532, -0.06271819, -0.35777518, -0.28905305, -0.21401851, -0.6539274, 0.5477237, 0.21180521, 0.34783366, 0.21482445, -0.040136464, 0.0799649, -0.24127486, -0.4810302, 0.068972155, -0.060147688, 0.39294156, 0.3429268, -0.20138814, 0.4389507, -0.07209111, -0.66332245, -0.05740042, -0.66872704, -0.40512994, -0.13093288, 0.58574665, -0.6133039, -0.272701, 0.5288193, -0.066823795, -0.033942915, 0.11148581, 0.05185555, -0.7997789, -0.09485708, 0.45936826, -0.18735225, 0.044331033, 0.29603237, -0.18181683, -0.57496065, 0.4574763, 0.014736704, -0.7924299, -0.20866495, -0.44055638, 0.8244427, 0.007937247, -0.08943575, -0.0076553854, 0.367624, -0.14489348, 0.0024988889, -0.5472892, -1.0282359, -0.23294695, 0.0010834341, -0.7941383, -0.22808339, -0.2861475, 0.36453238, 0.16527592, -0.17707597, -0.1608622, 0.08098429, 0.100494765, -0.5214962, 0.84968364, 0.0042364663, -0.5599421, 0.09416245, 0.48551887, -0.044882074, 0.79902226, -0.4714728, 0.6868505, 0.5872694, -0.24808094, -0.082410425, 0.57628787, 0.16069217, 0.1608757, 0.22504392, -0.15026833, 0.21809395, -0.25300974, 0.35554108, -0.40253535, 0.08534979, -0.46798044, -0.3881336, 0.3708262, 0.7548877, -0.3506803, -0.08618677, 0.066130884, -0.6265926, 0.8663352, 0.58760923, -0.22251974, 0.52217954, -0.055732027, -0.41614762, -0.05064615, 0.71308035, -0.04838778, -0.43774664, -0.378988, -0.17466635, -0.4152743, -0.55075085, 0.4588088, -0.261492, -0.17811623, 0.1328532, -0.084915966, 0.13435012, 0.34786743, 0.6000177, 0.036789812, -0.30062696, -0.5713135, 0.104986034, -0.1707363, -0.4940298, -0.4821175, 0.10866227, -0.35752165, -0.34092918, -0.43428236, -0.043620262, -0.15621905, -0.14748403, -0.28222832, -0.20488946, -0.06512184, 0.5361202, 0.2121941, 0.47329548, 0.22158323, -0.012209226, -0.5119583, -0.47046033, -0.080438346, 0.1866573, -0.236694, 0.5782528, 0.14583643, -0.7013857, 0.020001661, -0.69217414, -0.27619138, 0.08453438, 0.4851588, 0.08814201, -0.27747905, 0.2355842, -0.1629128, 0.4123576, 0.011494607, -0.5889673, 0.007928147, 0.44788182, -0.60868984, -0.45967168, -0.11269472, 0.47081077, 0.9257792, 0.031076776, -0.22875355, -0.06760822, 0.31482056, 0.1940277, 0.43627316, -0.19575977, -0.20775755, 0.70310324, 0.16592884, 0.35773122, -0.56769186, 0.7084182, 0.13954367, 0.8091275, 0.6483296, 0.084957205, -0.4390984, 0.1381122, -0.4848499, -0.5107227, -0.28222957, 0.4608866, -0.29152113, 0.1476907, -0.378901, 0.36686197, -0.5464564, 0.18039757, -0.62292415, 0.1787991, 0.10877587, 0.7025279, 0.11734105, -0.087225646, -0.16328166, 0.038620643, -0.05643773, 0.07020693, 0.0036317667, 0.24758203, 0.1789361, -0.62177813, 0.08887955, 0.1728618, 0.23800959, -0.077590816, 0.06403252, 0.35489768, -0.049868885, 0.069496125, -0.5884598, 0.2404868, -0.100909285, -0.16309564, -0.094120294, 0.48702374, 0.116915375, 0.5916798, 0.040961195, 0.40050894, 0.6765223, 0.27983984, -0.5053351, -0.14064316, -0.25077653, -0.08770247, -0.12478047, -0.16105992, -0.35393187, 0.4637142, -0.59364897, -0.36357385, -0.5683058, -0.3271761, -0.07399627, 0.24568075, 0.19555984, -0.34010765, -0.056671035, 0.026502907, 0.679603, 0.25098526, 0.2707634, -0.11773002, 0.531881, -0.33161652, 0.018900847, 0.30400366, 0.14071149, -0.27707407, -0.23325136, 0.6253807, -0.7350302, -0.44602007, 0.14329351, -0.3369793, -1.9440522, -0.26125658, -0.10065361, 0.45519578, -0.20995654, 0.2931582, 0.32617232, 0.55823106, 0.36687738, 0.74479926, 0.21789862, 0.30107018, 0.1149956, -0.07574694, -0.7916561, -0.19659595, 0.2153359, 1.0724877, 0.43658763, 0.25320613, 0.3293621, -0.23376808, -0.6238854, 0.21514487, -0.05143382, 0.3666138, -0.015951242, -0.1750711, 0.17095357, -0.7471155, -0.37050822, -0.15803893, 0.6789177, 0.1355129, -0.43937546, -0.20727219, 0.18180032, -0.8872158, -0.550332, 0.2687439, 0.09608218, 0.1168566, -0.70261437, 0.49202034, -0.6613994, -0.6253699, 0.14611357, -0.4094713, -0.03620713, -0.4452061, 0.95669806, 0.26608706, 0.66858083, -0.048533186, -0.31477123, 0.15214805, -0.28916284, 0.39348745, -0.19146472, 0.08989761, -0.06197193, 0.8176249, 0.5528765, -0.29993317, 1.0722877, 0.4643431, -0.20592077, 0.6356538, 0.4132956, -0.25226134, 0.6154996, -0.23404975, -0.5344755, -0.74674815, -0.2739259, 0.2827676, -0.029071178, 0.23023847, -0.17042497, -0.26201382, -0.24727075, -0.14240223, 0.27190673, 0.22975688, 0.33726606, -0.19904432, -0.04258114, 0.37699047, 0.8094108, 0.0845397, -0.8374409, 0.69995135, -0.413156, -0.3976978, 0.18759356, 0.15471616, 0.1816979, -0.30386958, -0.27874357, 0.1429664, -0.31310585, -0.68495065, 0.25946367, -0.19588265, 0.072070934, -0.26626414, 0.63083595, 0.6199806, 0.40830722, -0.38170367, 0.23392424, 0.46678016, 0.0036195735, 0.3864894, 0.07848222, 0.12311886, -0.85459083, -0.09443425, -0.5416644, -0.35072786, 0.19183801, -0.4674292, 0.10704398, 0.14218871, -0.37846926, -0.034996875, -0.001929162, 0.08520427, -0.39837816, 0.61126834, -0.38422537, -0.09844894, 0.22720858, 0.66356176, -0.4203078, 0.6092648, -0.22916159, 0.5891648, -0.10157813, 0.0039180694, -0.5561914, -0.6653095, -0.281816, -0.12040958, -0.45270923, -0.38336167, -0.31715667, 0.4497505, 0.2715843, -0.10343688, 0.08814673, -0.20400698, 0.21511704, 0.12238885, 0.54296803, -0.14761089, -0.32029197, 0.056871668, -0.34718865, -0.3689011, -0.15809774, -0.36652154, 0.31241882, -0.26241904, -0.04240707, -0.37738326, -0.03895741, 0.055255134, 0.20134167, 0.23468092, 0.32189575, 0.18081278, -0.33972448, 0.42093933, 0.9390694, 0.30125847, 0.30197918, -0.2842117, -0.46340883, 0.13228144, 0.15643936, -0.67468715, -0.14255966, 0.24561228, -0.1653317, -0.4940496, -0.115187086, -0.5464505, 0.35157356, 0.24820478, 0.4308603, 0.3093248, -0.6553272, -0.2582881, -0.026170181, -0.21094592, 0.5451896, 0.72641146, -0.21484119, -0.7831604, 0.031190164, 0.5102495, -0.32983944, -0.21579316, 1.0146471, -0.31447047, -0.5129588, 0.10438432, 0.70169455, 0.27193898, 0.2806965, 0.19573154, 0.32469317, -0.11279941, 0.48978347, -0.3327994, 0.07713757, -0.1101763, -0.43365327, 0.08703283, 0.2814949, 0.37419906, 0.9056298, 0.102454804, -0.27141866, -0.0072627463, 0.58586514, -0.06162622, -0.23310536, 0.049868807, 0.43345678, 0.5698711, -0.27956882, -0.4398154, 0.0721579, 0.4092726, -0.09862306, -0.03604779, 0.21651487, -0.083386384, 0.15912732, -0.30737206, -0.12302124, -0.14299151, 0.1759523, 0.5657286, -0.19168732, 0.284304, -0.63034594, 0.37999347, -0.40909043, 0.64113945, 0.19259967, 0.6140088, 0.3777518, -0.42729867, -0.39531332, -0.24675867, -0.6101124, -0.3108968, -0.50267214, 0.019401375, -0.21267346, -0.09401491, -0.45024493, -0.52373004, 0.035718184, 0.23558895, 0.17813085, -0.33500102, 0.023357915, -0.16072072, -0.4008861, 0.11678681, -0.12174682, -0.017491188, 0.029583698, 0.9401504, 0.44586962, -0.36702603, 0.6112198, -0.17493601, -1.0007035, -0.9502658, -1.4998909, 0.12653053, -0.6733868, -0.119974226, 0.692815, 0.33263084, -0.82849234, 0.61935765, 0.30407676, -0.51787, 0.013913574, -0.21036787, -0.05668683, 0.2935799, -0.4337472, 0.372085, 0.3415831, -0.9220997, -0.6091592, 0.022168847, -0.8673338, -0.25588512, -0.21186139, -0.44132927, 0.05623757, 0.11223445, 0.067396015, 0.3844773, -0.17857495, -0.24571468, -0.108031705, -0.34683827, 0.14092442, -1.0863554, -0.26166755, 0.09089146, -0.64694625, -0.23543276, 0.0053999005, -0.49858493, -0.44288033, -0.45247275, 0.31620345, -0.29920468, -0.12387321, 0.0343435, -0.7668415, -0.6104089, -0.6290542, 0.20485835, -0.11027057, -0.18088242, -0.55977196, 0.39909932, -0.30419138, -0.17537782, -0.45921418, -0.35539073, 0.13640592, 0.05890237, 1.0907744, 0.25264928, -0.9504216, -1.0574012, -0.0632744, 0.6826486, -0.7749015, -0.33142456, 0.45250612, -0.39474136, 0.7744809, -0.5570555, -0.11838169, 0.15787274, 0.4210275, -0.55800766, 0.078221545, -0.17449519, -0.39144078, -0.01323927, 0.4690483, -0.7192608, -0.06338559, -0.14825974, -0.5312093, 0.3835092, -0.40254638, -0.18022536, -0.5400323, -0.4389831, -0.14216094, 0.4843059, 0.4002477, 0.18120864, -0.07686725, -0.09081769, 0.091331854, -0.25647342, 0.062241904, 0.7610244, -0.31420067, -0.47373745, -0.22633241, 0.13087758, 0.26290387, 0.20348437, 0.21774054, -0.6791109, 1.31493, -0.8607815, 0.07555151, 0.021320695, -0.547599, -0.014170727, 0.14647941, 0.10914018, -0.3963544, 0.9478445, -0.019351104, 0.079509355, -0.5542057, 0.1322561, -0.8709031, -0.23276876, -0.07343324, -0.8565455, 0.41042927, -0.7454183, -0.35933357, 0.14438479, 0.6766237, -0.3749857, 0.20175728, -0.14360043, -0.120213985, 0.12292835, -0.17323694, 0.075006984, -0.6011592, 0.0019188107, 0.5723812, -0.18281452, 0.047463562, 0.18087535, 0.78023, -0.5801466, -0.66548055, -0.6324729, -0.48922622, 0.57948995, 0.25802913, -0.36396542, -0.45256248, -0.3800947, 0.47801092, -0.23639533, 0.037226457, 0.2218358, -0.098902754, -0.34867173, -0.3122682, -0.3661232, 0.11673047, -0.192452, 0.23775584, 0.15572712, 0.13677566, 0.36726263, -0.3845936, 0.37136993, 0.5093799, 0.27685353, -0.4185142, -0.061798327, 0.27701247, -0.081517324, 0.029891856, -0.33576205, -0.05199402, -0.095707014, 0.19853176, 0.17556672, -0.63832885, 0.6352768, 0.12357431, 0.2986769, -0.12672573, 0.122309305, 0.28122118, 0.61453176, -0.4004091]</t>
         </is>
       </c>
     </row>
@@ -850,20 +948,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>부서짐성의 의미는?</t>
+          <t>점탄성이 무엇이죠?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>시료를 압축하여 텍스처 분석 시 표면이 깨지는 특성</t>
+          <t>Viscoelasticity를 의미합니다.</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[-0.47638035, -0.3889591, -0.01671528, -0.23134764, -0.3289818, -0.15959297, -0.040078238, -0.22992863, -0.106729284, -0.16377813, -0.6015678, -0.2263932, -0.3672763, -0.13525721, -0.19228536, -0.4369868, -0.30592677, 0.25351605, 0.3718307, -0.7854824, -0.48424923, 0.15230536, 0.42307907, 0.17703038, -0.19817819, -0.013103399, -0.39923626, 0.2858671, 0.2293413, -0.4059839, 0.20285836, 0.14295477, -0.12111468, 0.364938, 0.4942552, -0.21345557, -0.5771403, -0.07975632, 0.43773815, -0.38998973, 0.08001534, -0.037462175, 0.33288553, 0.072265334, -0.004436695, -0.39459783, 0.13101651, 0.10025172, -0.47670767, -0.119938254, -0.2791799, 0.041735496, 0.72448456, 0.1487435, 0.1230073, -0.21415348, 0.0021034544, -0.10058822, 0.5056891, -0.21242908, 0.2341076, -0.62289596, 0.18391536, 0.58493453, -0.1995707, -0.44844353, -0.01570222, -0.11113897, -0.9166938, 0.058569808, 0.13571092, 0.30026233, 0.23196422, -0.49738666, 0.44867802, -0.2665728, 0.019246519, -0.25087225, 0.47327763, 0.42691183, 0.12105671, -0.51842904, -0.11808775, -0.7480304, 0.5954793, -0.18920165, 0.09530125, -0.2966499, -0.40751845, 0.04811649, -0.97749436, -0.564092, 0.08083837, -0.009951174, -0.64932734, 0.068556815, 0.28479263, -0.22359136, -0.14969987, 0.0029431183, -0.37007248, 0.3120377, -0.013829516, 1.2503203, -0.24292248, 0.52229947, -0.082362466, 0.662771, 0.11063975, -0.010581401, 0.68087155, -0.104295306, 0.113472715, 0.27290052, 0.24855113, 0.33881128, -0.48256594, -0.062033635, -0.43509942, -0.043287203, -0.02550278, -0.60935044, -0.529576, 0.24930994, -0.34441966, 0.33656213, -0.09272757, -0.2892398, 0.14168978, 0.37057328, 0.3339029, -0.15777929, 0.5424335, 0.10967437, -0.5291023, -0.19197331, 0.40938282, 0.23214006, 0.82265234, 0.42807677, -0.33532602, 0.19051902, 0.07091632, -0.34629476, -0.6700757, -0.524512, 0.25250858, 0.14384799, 0.06798618, -0.23864311, -0.2118842, 0.06568775, -0.71654695, 0.08156239, 0.010625654, -0.7855229, 0.070377745, -0.2817378, 0.526963, 0.43432888, 0.12125405, -0.35629168, -0.099141724, -0.033093818, -0.20392318, -0.28567642, 0.08247373, -0.16304295, 0.33004227, -1.087865, 0.16587599, 0.15815541, 0.063592464, -0.042354025, -0.08603854, 0.12860963, 0.05440788, -0.2223342, 0.22585712, -0.6099934, 0.26569903, -0.0667083, -0.23603354, 0.2284442, -0.11415466, 0.47590038, 0.09334931, -0.32335865, -0.7542501, -0.24560839, 0.4843885, 0.3743839, 0.49782383, 0.17527741, -0.068474695, 0.045573678, -0.092750564, 0.1997611, -0.1142338, 0.16215606, -0.55359215, 0.3223922, 0.08337226, 0.19453931, -0.0966363, 0.33425415, -0.18898255, 0.23542176, 0.5099599, -0.25917688, -0.50864726, 0.80279434, 0.24081606, 0.22422774, 0.13746195, 0.065634705, -0.23459572, -0.08335456, -0.3162037, -0.2527357, 0.51479983, -0.7177721, 0.9866435, -0.3425762, -0.24327604, -0.5476594, -0.033826947, 0.40096867, -0.3186618, 0.117248654, -0.257928, -0.9765179, -0.7424561, -0.4772251, 0.6254307, -0.60239637, 0.099208646, 0.4687589, 0.727454, -0.22945997, 0.2911653, 0.6474071, -0.47658524, 0.1855005, 0.5297019, -0.08895775, -0.040290654, -0.8172337, 0.023771655, -0.41394755, 0.3499962, 0.82751775, -0.4162467, 0.18379112, 0.027791116, 0.13868125, -0.35773954, 1.0081651, -0.35514224, -0.3357837, -0.28398347, 0.02183425, 0.2264655, 0.2530876, 0.09207499, -0.31511185, 0.569333, -0.3736107, -0.083889075, -0.21822101, -0.45183215, -0.34353712, 0.23073418, -0.09408066, -0.17187594, 0.30975163, -0.07565841, 0.5233486, 0.032882027, -0.08517049, 0.053374562, -0.08781832, 0.7011159, -0.14667661, 0.4081999, -0.060118694, 0.099888235, -0.3524276, 0.2601279, -0.025485354, -0.5071877, -0.13443041, -0.20514618, -2.639148, -0.16953133, -0.3943986, -0.4402629, -0.14257388, 0.26459286, 0.6307826, 0.3855063, -0.123062186, -0.81602156, 0.1988339, -0.2918149, 0.47919402, -0.6947203, -0.61019623, 0.06394881, 0.61491174, 0.651118, -0.1361877, -0.44063446, 0.18236773, 0.017495105, -0.430863, -0.13436045, -0.23652345, -0.1503766, 0.85856014, -0.28028092, 0.053565305, -0.44830024, 0.5230016, 0.29541337, 0.31676605, -0.35857284, 0.041901596, -0.05054299, 0.04126525, -0.22861046, -0.7139233, 0.47191843, 0.22549555, -0.50447834, -0.18125148, 0.53718364, 0.033303697, 0.24825253, -0.25865597, 0.32917118, 0.14840741, -0.25545433, 0.6636897, 0.72945863, 1.14662, 0.054052696, -0.23464411, 0.4684151, -0.48281485, -0.026572304, -0.3466051, -0.020081839, 0.34426513, 0.008746786, -0.20472758, 0.5114873, 0.2386645, 0.392908, -0.69191146, 0.57865775, -0.18403071, 0.10312358, 0.6453635, -0.30594793, -0.19085237, -0.8130932, 0.4739576, 0.52740693, -0.189379, -0.4753719, -0.3617609, 0.7747975, -0.3614148, -0.5045456, -0.51840514, -0.42116547, 0.28093114, 0.16224492, -0.034940317, 0.560338, 0.44835317, 0.0117766, -0.4666754, -0.069463104, 0.066615015, -0.036919434, 0.042613223, -0.66676784, -0.11331117, 0.45112833, 0.1242593, -0.13692407, -0.2199679, -1.1305705, -0.29679364, 0.42596278, -0.23798455, -0.27017722, -0.13643016, 0.50308555, 0.26118174, 0.11280412, 0.70585966, -0.14259511, -0.09844066, 0.9599423, -0.7934863, -0.6126046, 0.003927534, -0.39223474, -0.0532593, -0.57112104, -0.56166434, 0.030702718, -0.16054513, 0.12623557, 0.11491055, -0.56056213, 0.036867637, -0.47261578, -0.55311936, 0.23572296, -0.22809699, 0.21892798, -0.21200766, 0.11628434, 0.23076585, 0.3268972, 0.21328296, 7.3363385e-06, 0.12566644, 0.31667614, 0.07198196, 0.015158843, -0.61744326, 0.44107303, 0.33758864, -0.41149676, 0.13803846, 0.51009506, -0.2030025, 0.056379423, 0.4442121, 0.3886725, -0.48955405, -0.13248318, 0.026173435, -0.8531692, -0.49854618, 0.105630256, -0.21957906, -0.3792104, -0.09635249, -0.5514487, -0.32842278, 1.4960799, 0.10228957, -0.091249414, 0.088029236, -0.09323028, 0.054797363, -0.05413952, -0.08060512, 0.04735631, 0.029434707, 0.14392321, 0.8752221, 0.1782685, 0.2634243, 0.17233758, -0.5198623, 0.23491253, -0.2425909, -0.10533301, 0.14190657, 0.067504965, 0.09449956, 0.06635001, 0.57284814, 0.33984774, -0.64208215, 0.10914002, -0.4758642, 0.11837777, -0.18133065, -0.19561613, -0.4282029, 0.21993232, 0.26616895, -0.41026488, 0.010373218, -0.2066697, -0.14882201, 0.49172893, -0.18781833, -0.3846016, -0.1312712, -0.64048386, 0.30950186, -0.08355362, 0.21510114, 0.099153385, 0.20724596, -0.38236725, -0.049973216, -0.23604544, -0.47103918, -0.7432865, 0.57321095, -0.50670093, -0.42685267, 0.46138212, -0.54761165, -0.058352247, 0.37341732, -0.38405138, -0.06768691, 0.11320901, 0.021957627, -0.4730576, -0.45495498, -0.07770973, 0.13468494, -0.06295098, 0.08280354, 0.33155963, 0.39444762, 0.16755019, 0.012390531, 0.32943904, -0.8370687, 0.058612585, 0.2727216, -0.12332874, 0.017294083, -0.10195728, 0.6259527, 0.27261552, 0.623231, 0.04916968, -0.36055896, 0.5672352, 0.2545211, 0.0737731, -0.048779197, -0.13366956, 0.5361965, -0.48352787, 0.10584077, -0.11032203, -0.7130939, -0.6321598, -0.1663813, -0.5500768, -0.24664924, 0.035683725, -0.11652907, 0.038340442, -0.0005745656, -0.08608413, 0.55887, -0.19476251, -0.2912647, 0.056682367, 0.16935863, 0.014040383, 0.4914459, -0.058986306, -0.27060303, 0.17569083, -0.15796082, -0.09785644, -0.3935507, -0.53042245, -0.55292016, -0.88484824, -0.5273579, 0.33122873, -0.009893861, 0.5837951, -0.06396977, 0.4823314, 0.16498822, 0.13758771, -0.24067433, -0.21786341, 0.38796943, -0.08961315, -0.004653952, 0.16908127, -1.0582805, 0.54255885, 0.4377093, -0.9777053, -0.3107671, -0.24955636, 0.018009279, -0.35878637, 0.12727387, -0.24384625, 0.43416965, -0.22180341, -0.3200814, -0.62310815, -0.4322151, 0.40041426, 0.06144665, -0.4406439, 0.09469378, -0.07842399, 0.06714985, 0.049207505, 0.30469918, -0.38842162, 0.021627806, -0.45454052, -0.37582868, 0.11637828, -0.1692254, 0.07600859, -0.3051766, -1.0265646, 0.24497744, -0.31713355, 0.01603635, -0.14482675, -0.29970697, 0.09964539, -0.25316542, 0.65909266, -0.10702928, 0.04864478, 0.13678418, -0.4634971, -0.21800418, 0.59838873, 0.8332673, -0.62726957, -0.81044126, -0.07327901, 0.4442138, -0.3457938, 0.03623781, 0.11778002, -0.22205089, -0.12943985, -0.3037351, 0.07519339, 0.25199148, -0.17128581, -0.06926615, 0.77204925, -0.2739412, 0.67603534, 0.0010529277, -0.10525024, -0.46231037, 0.07053593, 0.037395764, 0.18588232, -0.0786197, -0.017751519, -0.07055898, -0.2924725, 0.7253568, -0.27648643, 0.26534396, 0.19350249, 0.21598248, 0.06998548, 0.2011314, 0.18353896, -0.14997432, -0.8841149, 0.017673587, 0.43009618, -0.53102446, 0.10712796, -0.61064506, 0.31549746, -0.23603122, -0.04869759, 0.48597845, -0.23842205, 0.11133867, 0.32186127, -0.117250256, 0.30515328, 0.2023057, -0.8889073, -0.25059855, -0.21314748, -0.56833994, 0.5499699, 0.3295178, -0.20859875, -0.25640917, -0.07047075, 0.13215351, 0.24741891, 0.31769767, -1.1435499, 0.092776634, -0.12362334, -0.05589876, -0.43465865, -0.06765189, 0.22480798, 0.39989278, -0.25414646, 0.079799935, -0.34119973, 0.14880867, -0.21534215, -0.24083737, 0.19780174, -0.019090142, 0.09296462, -0.77629685, -0.1619095, -0.35264283, -0.18167424, -0.40629768, -0.07237968, -0.15181823, 0.18213749, 0.12605947, 0.0800505, -0.064539924, 0.29841405, -0.40416324, 0.42677066, 0.68276644, 0.69881415, -0.16884536, -0.42913544, -0.07859248, -0.79196703, -0.05522333, -0.36506692, -0.10950646, -0.1514623, 0.42852095, 0.5531042, 0.40634668, 0.064214796, 0.32778585, 0.54345953, 0.13340443, 0.04390861, -0.05939809, 0.055448055, -0.22485256, -0.49449286, -0.0634698, -0.18044135, 0.15730341, 0.45013052, 0.21252495, 0.009507275, -0.1537105, -0.3482025, 0.3994368, 0.40946648, 0.36563057, -0.061645284, -0.31870657]</t>
+        <v>2</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[0.052185517, -0.37008393, 0.69081306, -0.43496436, 0.117184624, -0.2033031, 0.19061199, -0.3308664, 0.20545228, -0.231116, -0.31498218, 0.046174698, -0.40320933, 0.025529958, 0.055348482, -0.045979932, -0.20568106, 0.2451442, 0.35588706, -0.19374838, 0.14222391, 0.25003102, 0.21698047, 0.9458829, -0.45514816, 0.29112685, -0.49495888, -0.1461732, 0.1143807, -0.45905983, -0.0058806986, -0.21996349, -0.21708073, 0.42791212, 0.4674333, 0.18484627, -0.31881368, -0.22169818, 0.24863932, 0.0029597217, -0.16690819, -0.28012475, 0.010471225, 0.6401579, -0.2075291, -0.8107719, -0.0659177, -0.2383444, 0.020628115, 0.29003936, -0.92866355, 0.26930577, 0.8830304, 0.58051383, -0.3166876, -0.26119882, 0.18474248, -0.68651384, 0.26608986, 0.34443393, -0.14669119, -0.6087331, -0.05675798, 0.7605435, -0.16809359, 0.43634573, -0.37883574, 0.09199587, -0.95657253, 0.09251037, 0.18983723, -0.14051528, 0.45289278, -0.3995282, 0.42441642, -0.1828061, -0.21486014, -0.35630137, 0.15025982, 0.75273275, -0.34106216, -0.2243573, -0.54268056, -0.45100886, 0.17172222, -0.6054391, 0.024101213, -0.34389195, -0.65062004, 0.3301479, -0.47259098, -0.09255223, -0.06358332, 0.34423625, -0.764164, 0.08080569, 0.07979278, -0.449252, 0.3580175, 0.040794726, -0.29785436, 0.31486034, -0.025600007, 0.55833673, 0.059361286, 0.15353568, -0.3367542, 0.59058404, 0.3431229, -0.119450726, 0.39616638, -0.5363297, 0.049227424, -0.11886748, 0.24261345, 0.13895209, -0.23849933, 0.1514087, -0.05295716, 0.001237919, 0.32587832, -0.43404323, -0.6321437, -0.17925885, -0.47318092, 0.111869186, 0.82594866, -0.36570847, -0.0015339537, 0.32241923, 0.08382007, 0.38632858, 1.0600768, -0.063345574, -0.033185873, -0.06464941, 0.0719405, 0.037111994, 0.18085998, 0.43970147, 0.09849168, 0.16758317, 0.022982044, 0.3710514, 0.24791616, 0.2334697, 0.33652744, 0.1963529, -0.07963278, -0.1925084, -0.2349783, 0.21874832, -0.9456407, -0.13346145, 0.37431285, -0.3935229, -0.22479868, -0.076893285, 0.09004435, -0.043682262, 0.053065315, -0.94017136, 0.0895825, -0.094134316, 0.47727197, 0.12202915, 0.07473544, -0.09147236, 0.3374373, 0.049906645, -0.1925757, -0.06536904, 0.034896538, -0.052044243, 0.4065337, 0.25123954, -0.8052344, 0.31220236, -0.17558962, -0.45019415, -0.10178443, 0.3468711, -0.06332767, 0.13913716, -0.2730585, 0.29470313, -0.09348851, -0.54192585, -0.66997087, -0.34359336, 0.02715366, -0.39006832, 0.030134873, -0.0073638028, 0.086536035, 0.3913336, 0.02740003, 0.0366493, 0.05769664, 0.06655204, -0.867359, 0.3515446, 0.1861363, 0.16151519, 0.8581301, -0.1576526, -0.37735742, -0.26231384, 0.93242764, -0.27997434, 0.61196494, 0.899283, -0.3426386, -0.09032592, -0.15112765, -0.20509958, -0.31376374, -0.15192994, -0.085955344, -0.17984514, 0.18635091, -0.12762791, 0.6888416, 0.062351823, 0.21461171, -0.54487866, 0.32768747, -0.23326248, 0.27705604, -0.36384496, -0.32647225, -1.003318, -0.6506458, -0.657478, 0.61456406, 0.074434176, 0.25399214, -0.063483015, 0.14675052, -0.7214842, 0.93503433, -0.055205356, 0.10209356, -0.06481981, -0.13536912, 0.03972212, -0.2547283, -1.4585364, 0.3675862, -0.5133544, -0.11544296, 0.61933607, -0.04099888, -0.0005046096, 0.624995, -0.67851776, -0.055561192, 0.6524529, -0.1897527, 0.01281985, 0.28232187, 0.020914497, 0.09267713, 0.4725843, -0.29626024, -0.12539457, 0.2226713, -0.71872675, 0.47170666, -0.45624453, -0.39878708, -0.49871737, 0.17936254, -0.3019962, -0.115255386, -0.029634532, 0.27281094, 0.43218777, 0.071052395, 0.41580805, -0.25586313, 0.47550428, 0.6224894, -0.085180454, 0.5084294, -0.11275359, -0.48709795, 0.052104965, 0.12010513, -1.0644393, -0.10030641, 0.118998736, 0.2564769, -2.3080766, -0.48922533, -0.090557575, 0.12619434, -0.000650184, 0.17377898, 0.14583868, 0.9617936, -0.3115974, 0.24597403, -0.12898773, -0.2685649, 0.51392853, -0.5398111, -0.8433239, -0.15173265, 1.0053189, 0.39829794, 0.138494, -0.22967155, 0.66962266, 0.12434035, -0.50430024, 0.37860718, 0.32677308, -0.02748279, 0.166149, -0.21179658, 0.40232033, -0.14051735, 0.0026549597, -0.068513736, 0.94052166, -0.23169059, -0.42359948, -0.035463683, 0.49026686, -0.4550312, -0.28668648, 0.22361165, -0.21571377, 0.06723973, -0.8147094, 0.5841989, -0.76566386, 0.19186565, 0.27945188, 0.20125085, -0.16700517, -0.7952779, 0.45471007, 0.4010966, 1.380356, 0.2830929, -0.18366589, 0.30026746, -0.081557274, 0.16415778, -0.49662054, -0.09995839, 0.6235819, 0.60479426, 0.23101918, 0.3558277, 0.57280225, -0.13998862, 0.0059221718, 0.21250129, 0.14342463, -0.3157295, -0.05110363, -0.6563707, -0.44631433, -0.3931981, -0.2168845, 0.40241608, 0.2452757, -0.34338522, -0.15934655, 0.366983, -0.24152385, -1.0144129, 0.18857917, 0.2013974, 0.46848196, 0.09181886, 0.6234326, -0.21954864, 0.7580657, -0.24529141, -0.9236619, 0.5427073, 0.12081814, -0.06761595, 0.20454355, 0.13851245, -0.08909779, -0.14272608, 0.07939335, -0.14259267, -0.389758, -1.1179434, 0.015995422, -0.70036995, 0.075764865, -0.41043675, 0.10277699, 0.5157683, 0.22976357, -0.014374223, 0.37411687, 0.12662892, -0.33163366, 0.6363628, -0.5704675, 0.08560597, -0.3196011, -0.2336517, -0.43604502, -0.6664497, -0.17362946, 0.24036129, 0.0035676227, 0.32690063, 0.2100103, -0.46503055, -0.1330606, -0.77587247, -0.4760711, 0.24730995, -0.08484282, 0.51583767, 0.18657014, 0.3735412, 0.07530699, 0.45760712, -0.4343708, 0.6438377, 0.33165085, 0.56557447, 0.08439144, -0.14530183, -0.5566428, -0.08050361, -0.5821253, -0.41949743, 0.007419204, 0.4813915, -0.011589999, 0.07888833, 0.26941603, -0.080023974, -0.3563567, 0.3331785, 0.27104706, -0.59934884, -0.30393422, -0.105071776, -0.43714657, 0.20591444, 0.2109397, -0.6851783, -0.13416693, 0.44437116, 0.3160008, 0.2799698, 0.5424666, -0.018343007, 0.30683753, -0.1674432, -0.3263387, 0.017323246, -0.07512483, 0.49089372, 0.7705152, -0.1262684, 0.13100432, -0.75748324, -0.4255574, 0.2006744, -0.40840694, -0.83202815, -0.081249565, 0.002785772, 0.13672057, -0.34504026, 0.1041913, 0.07547262, -0.41875663, 0.19193546, -0.41438085, 0.28834507, -0.40052956, 0.15647143, -0.09335963, 0.25791714, 0.3364476, -0.46065876, -0.37131518, -0.5048928, -0.11083327, 0.53445375, -0.22524974, -0.33310506, 0.31192958, -0.6929196, -0.208267, -0.17903338, 0.37688726, -0.06403583, 0.15660499, -0.39457628, 0.18224043, 0.28152764, 0.3263642, -0.42381275, -0.1312534, 0.17984843, 0.026027935, 0.67116123, -0.38720855, 0.17999443, 0.6813328, -0.43154722, -0.3294925, 0.08192738, 0.2620948, -1.0042052, 0.12997386, -0.19397193, -0.39755958, 0.008223455, -0.021102598, -0.23503134, 0.29829037, -0.30808246, 0.26926818, 0.12685125, 0.01463942, 0.19434616, -0.18162932, -0.07388087, 0.23733322, 0.2152777, 0.63355297, 0.6286199, 0.027277501, 0.20156983, -0.21570267, 0.36568162, -0.24633704, -0.16577525, -0.594877, 0.721405, 0.6373566, -0.30503932, -0.3932209, -0.09121689, -0.530594, -0.56688666, -0.90778947, -0.15873271, -0.44832665, 0.00968076, -0.45092148, -0.89391303, 0.21908446, 0.37972006, 1.0590086, -0.3406578, -0.07255134, -0.35396445, -0.14555958, 0.12231374, 0.57901645, 0.08914161, -0.30974692, 0.40481883, -0.12510112, -0.19784907, 0.48959053, -0.5750969, -0.96674854, -1.1797395, -0.7219905, 0.33709192, -0.67463726, -0.23234361, 0.53452075, 0.20110196, -0.12763338, -0.18321826, -0.024475135, 0.0006941855, -0.37432104, 0.035987202, -0.62511885, 0.06125664, -0.21269585, 0.5921279, 0.7556856, -0.6621358, -0.3281483, -0.19012181, -0.3130206, 0.4832492, 0.13020562, -0.08913281, 0.53591186, -0.32952654, 0.17128581, -0.28797698, -0.46797472, 0.99993896, -0.57255846, -0.19889154, -0.11123284, -0.6362543, -0.22513673, -0.22614795, -0.6640037, -0.55795336, 0.06256773, -0.015961245, -0.5362744, -0.37763345, 0.13923617, 0.24760434, -0.0077269324, -0.4080034, 0.015543282, -0.49036783, -0.04412404, -0.54314613, -0.3388432, 0.34663546, -0.4892522, 0.51118267, -0.5017798, 0.4323598, -0.29117674, -0.67249197, -0.075007826, 0.58964115, 0.01853772, -0.271793, -1.1060817, -0.28881487, 0.03650333, 0.047616795, -0.397143, -0.42504653, -0.100192815, -0.42519337, 0.26863864, -0.39963114, 0.37337148, -0.17470855, -0.07279894, 0.45593658, -0.27017683, 0.48130634, -0.4620932, 0.1025882, 0.09167985, -0.3867579, -0.068047136, 0.12652841, -0.4429652, 0.21687852, -0.18600093, -0.18662101, -0.59198564, -0.41784918, 0.22200043, 0.38738313, 0.40269312, 0.33683214, -0.040302314, 0.05765061, 0.33897054, -0.7722187, 0.13439237, 0.104871005, -0.23480044, 0.19587594, -0.50818306, -0.09049032, 0.18863052, 0.32138503, 0.25862834, -0.89404446, 0.678842, -0.11648977, 0.3060352, 0.116012454, -0.3700303, -0.7446329, -0.33703554, 0.98771065, -0.5872891, 1.2459712, 0.40510523, -0.15742765, -0.9487929, 0.30621508, -0.32546607, 0.20639855, 0.55837715, -0.68565506, -0.054621484, -0.024146173, -0.2520043, -0.52785665, -0.19889444, 0.19733638, 0.7290981, -0.40877387, 0.093962476, -0.5613123, -0.08888837, -0.22000392, -0.21260393, 0.3246735, -0.021298869, 0.04212504, -0.7483048, -0.34449977, 0.24873087, -0.22284862, -0.15695158, -0.19189835, -0.23712867, 0.07457039, -0.048560344, -0.27867863, -0.46066272, 0.10236698, -0.09915478, -0.08440489, 0.19676198, 0.967952, -0.2931345, -0.15186772, 0.36958778, -0.40544686, -0.20541917, -0.0652029, 0.62656206, 0.15071584, -0.06622079, 0.9303939, -0.15059811, 0.59854084, 0.42792952, 0.3587248, 0.05763542, -0.13625649, 0.16284439, -0.54382545, 0.30166575, 0.0027812293, 0.084544405, -0.65500873, 0.054928496, 0.49778715, -0.38949665, 0.44566303, -0.32463038, -0.3623729, -0.09559942, -0.20506124, 0.26360247, -0.08721969, 0.068853065]</t>
         </is>
       </c>
     </row>
@@ -873,20 +974,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fracturability의 의미는?</t>
+          <t>점탄성이 무엇이죠?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>시료를 압축하여 텍스처 분석 시 표면이 깨지는 특성</t>
+          <t>점성과 탄성을 동시에 가진 것을 의미합니다.</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[-1.0776442, 0.3463881, 0.34599254, -0.4346811, -0.20650569, 0.2859985, 0.67047226, -0.2541176, 0.32887346, -0.041161034, 0.31433633, -0.035005502, -0.5031279, 0.10311464, -0.07961851, -0.2350972, -0.2282202, 0.21812682, 0.27327356, -0.72831345, -0.17332089, 0.28559238, -0.12422681, 0.40252572, -0.20452425, -0.05618944, -0.13182014, -0.03139134, 0.71561587, -0.17166404, 0.57760984, 0.018063962, -0.036575392, 0.34411877, 0.483488, -0.31647345, -0.41968006, -0.043044157, 0.119345844, -0.6850151, -0.06382395, 0.20812544, -0.33561316, 0.73056495, 0.16811904, -0.33217508, 0.8295759, -0.2192909, -0.14445107, -0.08529031, -0.48490158, -0.47731766, 0.32253048, 0.42688793, 0.006219956, -0.1309246, -0.38199034, -0.4133605, 0.04276335, -0.047390867, 0.5446948, -0.30099663, -0.5304842, 0.40964046, -0.33568922, 0.0022042007, -0.43639508, 0.5114687, -0.72362626, 0.19614998, 0.07997664, 0.19029236, -0.26783586, -0.13256249, 0.38011983, -0.17001054, -0.29874533, -0.080148086, 0.51465034, 0.58403, 0.2507147, -0.33653322, -0.116688386, -0.6232604, 0.007869632, 0.077305906, 0.22734602, -0.075321294, -0.5343979, 0.34459934, -0.8044802, -0.30835262, -0.07162466, 0.53827965, -0.9396613, 0.11413939, 0.37737224, 0.113011494, 0.8909195, 0.13306573, 0.17957993, 0.3736469, -0.6086648, 0.97470695, -0.37865534, 0.8195823, -0.19647343, 0.37571448, 0.34181935, 0.16472803, -0.1373038, -0.1421443, 0.36081383, -0.14747648, 0.48794636, 0.7437267, -0.70578885, -0.31427392, -0.10419972, 0.071754925, 0.27038342, -0.09750784, -0.42810065, 0.05333826, -0.15213223, 0.113783315, 0.3619595, -0.1344338, 0.38272923, 0.32157975, -0.06130129, 0.20002523, 0.3759182, 0.19826576, -0.4181478, -0.3444417, 0.050017864, 0.26292422, 0.51354724, 0.27342728, -0.13691165, 0.18131451, -0.3668365, -0.1247144, -0.39506727, -0.35383528, 0.3366943, -0.49356842, 0.28443712, -0.85460913, -0.40195194, -0.0015922158, -0.43963838, 0.017738348, 0.1664237, -0.43114763, 0.16200134, -0.14074871, -0.008344309, -0.07119317, 0.39723164, -0.53907526, -0.3590185, 0.43252826, -0.2278517, 0.02498539, 0.23071161, -0.1942362, 0.35896653, -0.86467427, -0.7804627, -0.32463557, 0.00197348, -0.5610255, 0.38784796, 0.13712862, -0.74916613, -0.12939961, -0.027364457, -0.12456169, 0.13933264, 0.57430744, -0.19581762, 0.5271368, 0.04542517, 0.739594, 0.19974142, -0.25195307, -0.78675103, -0.786966, -0.37747636, 0.08769411, -0.37416524, -0.07984356, -0.25883806, 0.37732977, -0.24821202, 0.40404552, -0.48482236, -0.034776784, -0.39385742, 0.4859775, 0.331384, -0.028509896, 0.3995203, 0.24854457, -0.47015452, -0.0678402, 0.60860866, -0.36538178, 0.2043912, 0.99273807, 0.27435142, 0.43864316, -0.020163018, -0.4430221, -0.1061943, 0.00979283, -0.40367198, -0.28361437, 0.5905527, -0.24588256, 0.9188938, -0.3428984, -0.30477232, -0.12631807, 0.083372205, 0.095391676, -0.27646407, 0.25835174, -0.3831262, -0.8673779, -0.7136141, -0.66417086, 0.85890466, 0.04553614, 0.3256208, 0.195366, 0.042937864, -0.012389342, 0.39123207, 0.9077672, -0.29792413, -0.33803934, -0.37014812, -0.033458956, 0.08579795, -0.6440868, 0.22832322, -0.64840823, 0.4726634, 0.27978238, -0.28578687, -0.06283329, 0.34558362, -0.4567836, -0.24658588, 0.9023448, -0.45764947, -0.22946575, -0.43419877, -0.046495043, -0.32693017, 0.26267803, 0.1873305, 0.1531893, 0.20733628, -0.58047473, 0.44740456, -0.36784148, -0.12790018, -0.099079534, 0.48810753, 0.17208062, 0.2960217, 0.5172461, -0.10718106, 0.48799878, 0.13577506, 0.026147911, 0.3227425, 0.43232042, 0.186986, 0.21972463, 0.384526, 0.035769854, -0.05144151, -0.83785933, -0.1640641, -0.7085805, -0.31952187, 0.20127635, 0.27177972, -1.8257666, -0.16162482, 0.046200275, -0.46297914, -0.35271752, -0.08490936, 0.43879223, 0.3662023, 0.105675064, -1.0074486, 0.2561763, -0.62394917, 0.5729157, -0.5623403, -0.34241167, 0.42530757, 0.44214916, 0.51964253, -0.19858804, -0.24501595, -0.086360395, 0.13858704, -0.5915276, 0.063180566, -0.4516809, -0.029532468, 0.23582351, 0.24707499, 0.2973314, -0.2667308, 0.16193572, 0.22718947, -0.08468556, -0.21540578, 0.55491143, -0.19425592, -0.4574589, -0.5345295, -0.62023747, 0.8753026, -0.1937463, -0.10410665, -0.056736052, -0.15778881, 0.1512827, -0.5018692, -0.17126602, 0.03774592, -0.19396342, -0.8069385, 0.80554503, 0.035163693, 1.3177141, 0.40148997, -0.16949749, 0.17181022, -0.6949979, -0.43375033, 0.03015778, -0.40917134, 0.1613032, 0.087598264, 0.096085064, 0.64927745, 0.8570019, 0.16083054, -0.5459496, 0.58577603, -0.2198697, 0.27811822, 0.25875366, -0.44400176, -0.08372302, -0.47681004, 0.19593063, -0.10625247, 0.1299555, -0.18835612, -0.18560556, 0.274832, -0.1824933, -0.38115934, -0.27725673, -0.1497843, 0.11878331, 0.0101482365, 0.17492208, 0.7082741, 0.39383528, -0.0093846405, -0.8864647, 0.059719563, -0.55446464, -0.5352832, 0.4196661, 0.182116, 0.11131976, -0.2291419, -0.06320455, -0.015302544, -0.14060722, -1.281009, -0.02984252, -0.20119703, -0.13152671, -0.48530212, -0.28351936, 0.09642512, 0.3708845, 0.26123354, 0.7298277, -0.32054743, -0.43640298, 0.34914774, -0.3511138, -0.6857427, 0.23873642, 0.27910537, 0.1800867, -0.67189825, -0.69017375, 0.09787161, 0.1460033, -0.31590286, 0.09753728, -0.8290308, 0.20399246, -0.4755559, -0.4227726, 0.32192904, -0.186432, 0.3095622, 0.14494202, 0.6316249, 0.20967507, 0.25271726, 0.21521917, 0.39290962, -0.12045431, 0.19687492, -0.19969022, -0.3261905, -0.79517585, 0.08410637, 0.1175277, -0.69788074, 0.23733053, 0.69928294, 0.10990423, 0.44166955, 0.05179279, 0.0833761, -0.2898373, -0.31580362, -0.16741756, -1.0058601, -0.3339754, 0.04347747, -0.663754, -0.43383116, 0.24040326, -0.44710246, -0.59644425, 0.41235366, 0.0011875692, 0.3130589, 0.2136511, -0.2896879, 0.13475034, -0.017948132, 0.014748933, -0.41388837, 0.27032822, -0.41543856, 0.7594862, 0.16957395, 0.09816267, -0.20155974, -0.24411015, 0.26996177, -0.26809022, 0.38066217, -0.5157226, -0.49643928, 0.47493443, 0.44579315, 0.33923993, -0.3557139, -0.67317426, 0.4590072, -0.20188026, 0.7161348, 0.52965355, -0.5124465, -0.43197852, 0.5299176, 0.16433336, -0.32428235, -0.24470131, -0.08398833, -0.31179667, 0.95541155, -0.30975485, -0.08122529, 0.33293927, -0.1814616, 0.30691993, 0.5242702, 0.10827504, -0.005431175, -0.07503267, -0.44302025, -0.20114973, 0.33440015, -0.02475985, -0.49682993, -0.23665762, -0.39492023, -0.2111886, 0.43589792, 0.3294035, 0.20046702, 0.7792617, -0.3413167, -0.06920461, 0.036073837, 0.21794045, -0.39666164, -0.29678488, 0.23586302, -0.2645901, -0.09279547, 0.21951644, 0.7383483, 0.41625705, -0.62995857, -0.19866984, 0.28285432, -0.733024, -0.036256928, 0.3326002, 0.8062784, -0.25428107, -0.12841666, 0.65767694, 0.0716218, 0.3431842, -0.03830578, -0.23580053, 0.2859818, -0.1303097, 0.15262263, -0.12615424, 0.53298056, 0.63397616, 0.014105821, 0.06863383, -0.39947614, -0.33872983, -0.74243957, -0.455482, 0.17350101, -0.22093467, -0.47254714, -0.0798126, -0.16443563, 0.3444604, -0.6353239, 0.44512695, 0.015683401, 0.22346961, -0.46172708, -0.034718074, 0.14818226, 0.3385746, -0.32769245, -0.3305278, 0.5028402, -0.4013454, 0.0939281, 0.21424249, -0.5189809, -0.2599317, -0.81874496, -0.27765584, 0.43220216, -0.5766264, 0.523654, 0.62400556, 0.077324495, -0.26997882, -0.23963904, -0.025895465, -0.29815784, 0.3081848, 0.20187488, 0.1502569, 0.40659732, -0.77467144, 0.2667517, 0.061220504, -0.85404074, -0.2758469, -0.87543184, 0.17167309, -0.07846788, -0.117157206, -0.121458255, 0.32614946, -0.08962781, -0.38433072, -0.64923745, -0.7021901, 1.0341704, -0.0035659045, -0.47505814, 0.197418, -0.59304637, -0.33346033, -0.12044449, -0.06867459, -0.04362321, 0.20717344, -0.02972785, 0.07324874, 0.024229567, -0.0437649, 0.24953, 0.03863413, -0.44905743, 0.2807084, -0.62682784, 0.36452687, -0.31877962, -0.7149739, -0.05284515, 0.093581505, 0.40662593, -0.40595168, 0.103475474, 0.15866366, -0.13401668, 0.28401783, 0.01633592, 0.3600582, -0.2413907, -0.9358698, 0.07609847, 0.25683528, 0.14401789, -0.16033208, -0.41621274, -0.35070693, 0.14285597, -0.18268783, -0.36365387, -0.01738596, -0.23674572, -0.28149793, 0.0963485, -0.20543273, 0.5623666, -0.2947484, 0.0968678, -0.19986805, -0.6080141, 0.034318764, -0.45450273, -0.50895303, 0.17763755, -0.53310364, -0.2671885, -0.08782697, -0.65372694, 0.31612983, 0.3299648, 0.50651205, 0.18928984, -0.44806695, 0.36470842, -0.28562608, -0.09538885, 0.20515689, 0.038527183, -0.202827, -0.089806296, -0.5773664, -0.37643903, -0.5756111, 0.2776579, 0.15673645, -0.62735647, 0.7549806, 0.07745458, 0.17501898, 0.2585562, -0.077605866, -0.45648384, -0.3672928, 0.20226133, -0.7449792, 0.7668449, 0.46638474, -0.07365354, 0.31149763, -0.20274448, -0.0685716, 0.4085753, 0.31649572, -0.66963595, -0.38491425, -0.2232025, -0.25935885, -0.5218388, -0.16232847, -0.20006141, 0.6086897, 0.19038232, 0.20227833, -0.04357577, 0.4738539, -0.32322153, -0.07404398, -0.15621099, -0.9242485, -0.42809716, -0.90982544, 0.0927099, 0.17180856, -0.4582282, -0.3920049, 0.306902, -0.049675632, 0.35408372, 0.10522596, -0.00445807, -0.40817887, 0.05369828, -0.011771278, 0.2674206, 0.5246215, 0.09587209, 0.15835501, -0.051801883, 0.028611815, -0.677542, -0.14246628, -0.36743993, 0.4534842, -0.13730718, 0.15326269, 0.2176831, 0.5172273, 0.40860015, 0.4150977, 0.68840396, -0.029886935, -0.15570094, 0.21967459, -0.10462135, -0.09829356, -0.48281056, 0.26221824, -0.88304824, -0.0650184, 0.42772388, -0.15455677, -0.14150308, 0.4558333, -0.5641171, 0.110924795, 0.09671777, 0.26718715, -0.19785205, 0.07547091]</t>
+        <v>2</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[0.052185517, -0.37008393, 0.69081306, -0.43496436, 0.117184624, -0.2033031, 0.19061199, -0.3308664, 0.20545228, -0.231116, -0.31498218, 0.046174698, -0.40320933, 0.025529958, 0.055348482, -0.045979932, -0.20568106, 0.2451442, 0.35588706, -0.19374838, 0.14222391, 0.25003102, 0.21698047, 0.9458829, -0.45514816, 0.29112685, -0.49495888, -0.1461732, 0.1143807, -0.45905983, -0.0058806986, -0.21996349, -0.21708073, 0.42791212, 0.4674333, 0.18484627, -0.31881368, -0.22169818, 0.24863932, 0.0029597217, -0.16690819, -0.28012475, 0.010471225, 0.6401579, -0.2075291, -0.8107719, -0.0659177, -0.2383444, 0.020628115, 0.29003936, -0.92866355, 0.26930577, 0.8830304, 0.58051383, -0.3166876, -0.26119882, 0.18474248, -0.68651384, 0.26608986, 0.34443393, -0.14669119, -0.6087331, -0.05675798, 0.7605435, -0.16809359, 0.43634573, -0.37883574, 0.09199587, -0.95657253, 0.09251037, 0.18983723, -0.14051528, 0.45289278, -0.3995282, 0.42441642, -0.1828061, -0.21486014, -0.35630137, 0.15025982, 0.75273275, -0.34106216, -0.2243573, -0.54268056, -0.45100886, 0.17172222, -0.6054391, 0.024101213, -0.34389195, -0.65062004, 0.3301479, -0.47259098, -0.09255223, -0.06358332, 0.34423625, -0.764164, 0.08080569, 0.07979278, -0.449252, 0.3580175, 0.040794726, -0.29785436, 0.31486034, -0.025600007, 0.55833673, 0.059361286, 0.15353568, -0.3367542, 0.59058404, 0.3431229, -0.119450726, 0.39616638, -0.5363297, 0.049227424, -0.11886748, 0.24261345, 0.13895209, -0.23849933, 0.1514087, -0.05295716, 0.001237919, 0.32587832, -0.43404323, -0.6321437, -0.17925885, -0.47318092, 0.111869186, 0.82594866, -0.36570847, -0.0015339537, 0.32241923, 0.08382007, 0.38632858, 1.0600768, -0.063345574, -0.033185873, -0.06464941, 0.0719405, 0.037111994, 0.18085998, 0.43970147, 0.09849168, 0.16758317, 0.022982044, 0.3710514, 0.24791616, 0.2334697, 0.33652744, 0.1963529, -0.07963278, -0.1925084, -0.2349783, 0.21874832, -0.9456407, -0.13346145, 0.37431285, -0.3935229, -0.22479868, -0.076893285, 0.09004435, -0.043682262, 0.053065315, -0.94017136, 0.0895825, -0.094134316, 0.47727197, 0.12202915, 0.07473544, -0.09147236, 0.3374373, 0.049906645, -0.1925757, -0.06536904, 0.034896538, -0.052044243, 0.4065337, 0.25123954, -0.8052344, 0.31220236, -0.17558962, -0.45019415, -0.10178443, 0.3468711, -0.06332767, 0.13913716, -0.2730585, 0.29470313, -0.09348851, -0.54192585, -0.66997087, -0.34359336, 0.02715366, -0.39006832, 0.030134873, -0.0073638028, 0.086536035, 0.3913336, 0.02740003, 0.0366493, 0.05769664, 0.06655204, -0.867359, 0.3515446, 0.1861363, 0.16151519, 0.8581301, -0.1576526, -0.37735742, -0.26231384, 0.93242764, -0.27997434, 0.61196494, 0.899283, -0.3426386, -0.09032592, -0.15112765, -0.20509958, -0.31376374, -0.15192994, -0.085955344, -0.17984514, 0.18635091, -0.12762791, 0.6888416, 0.062351823, 0.21461171, -0.54487866, 0.32768747, -0.23326248, 0.27705604, -0.36384496, -0.32647225, -1.003318, -0.6506458, -0.657478, 0.61456406, 0.074434176, 0.25399214, -0.063483015, 0.14675052, -0.7214842, 0.93503433, -0.055205356, 0.10209356, -0.06481981, -0.13536912, 0.03972212, -0.2547283, -1.4585364, 0.3675862, -0.5133544, -0.11544296, 0.61933607, -0.04099888, -0.0005046096, 0.624995, -0.67851776, -0.055561192, 0.6524529, -0.1897527, 0.01281985, 0.28232187, 0.020914497, 0.09267713, 0.4725843, -0.29626024, -0.12539457, 0.2226713, -0.71872675, 0.47170666, -0.45624453, -0.39878708, -0.49871737, 0.17936254, -0.3019962, -0.115255386, -0.029634532, 0.27281094, 0.43218777, 0.071052395, 0.41580805, -0.25586313, 0.47550428, 0.6224894, -0.085180454, 0.5084294, -0.11275359, -0.48709795, 0.052104965, 0.12010513, -1.0644393, -0.10030641, 0.118998736, 0.2564769, -2.3080766, -0.48922533, -0.090557575, 0.12619434, -0.000650184, 0.17377898, 0.14583868, 0.9617936, -0.3115974, 0.24597403, -0.12898773, -0.2685649, 0.51392853, -0.5398111, -0.8433239, -0.15173265, 1.0053189, 0.39829794, 0.138494, -0.22967155, 0.66962266, 0.12434035, -0.50430024, 0.37860718, 0.32677308, -0.02748279, 0.166149, -0.21179658, 0.40232033, -0.14051735, 0.0026549597, -0.068513736, 0.94052166, -0.23169059, -0.42359948, -0.035463683, 0.49026686, -0.4550312, -0.28668648, 0.22361165, -0.21571377, 0.06723973, -0.8147094, 0.5841989, -0.76566386, 0.19186565, 0.27945188, 0.20125085, -0.16700517, -0.7952779, 0.45471007, 0.4010966, 1.380356, 0.2830929, -0.18366589, 0.30026746, -0.081557274, 0.16415778, -0.49662054, -0.09995839, 0.6235819, 0.60479426, 0.23101918, 0.3558277, 0.57280225, -0.13998862, 0.0059221718, 0.21250129, 0.14342463, -0.3157295, -0.05110363, -0.6563707, -0.44631433, -0.3931981, -0.2168845, 0.40241608, 0.2452757, -0.34338522, -0.15934655, 0.366983, -0.24152385, -1.0144129, 0.18857917, 0.2013974, 0.46848196, 0.09181886, 0.6234326, -0.21954864, 0.7580657, -0.24529141, -0.9236619, 0.5427073, 0.12081814, -0.06761595, 0.20454355, 0.13851245, -0.08909779, -0.14272608, 0.07939335, -0.14259267, -0.389758, -1.1179434, 0.015995422, -0.70036995, 0.075764865, -0.41043675, 0.10277699, 0.5157683, 0.22976357, -0.014374223, 0.37411687, 0.12662892, -0.33163366, 0.6363628, -0.5704675, 0.08560597, -0.3196011, -0.2336517, -0.43604502, -0.6664497, -0.17362946, 0.24036129, 0.0035676227, 0.32690063, 0.2100103, -0.46503055, -0.1330606, -0.77587247, -0.4760711, 0.24730995, -0.08484282, 0.51583767, 0.18657014, 0.3735412, 0.07530699, 0.45760712, -0.4343708, 0.6438377, 0.33165085, 0.56557447, 0.08439144, -0.14530183, -0.5566428, -0.08050361, -0.5821253, -0.41949743, 0.007419204, 0.4813915, -0.011589999, 0.07888833, 0.26941603, -0.080023974, -0.3563567, 0.3331785, 0.27104706, -0.59934884, -0.30393422, -0.105071776, -0.43714657, 0.20591444, 0.2109397, -0.6851783, -0.13416693, 0.44437116, 0.3160008, 0.2799698, 0.5424666, -0.018343007, 0.30683753, -0.1674432, -0.3263387, 0.017323246, -0.07512483, 0.49089372, 0.7705152, -0.1262684, 0.13100432, -0.75748324, -0.4255574, 0.2006744, -0.40840694, -0.83202815, -0.081249565, 0.002785772, 0.13672057, -0.34504026, 0.1041913, 0.07547262, -0.41875663, 0.19193546, -0.41438085, 0.28834507, -0.40052956, 0.15647143, -0.09335963, 0.25791714, 0.3364476, -0.46065876, -0.37131518, -0.5048928, -0.11083327, 0.53445375, -0.22524974, -0.33310506, 0.31192958, -0.6929196, -0.208267, -0.17903338, 0.37688726, -0.06403583, 0.15660499, -0.39457628, 0.18224043, 0.28152764, 0.3263642, -0.42381275, -0.1312534, 0.17984843, 0.026027935, 0.67116123, -0.38720855, 0.17999443, 0.6813328, -0.43154722, -0.3294925, 0.08192738, 0.2620948, -1.0042052, 0.12997386, -0.19397193, -0.39755958, 0.008223455, -0.021102598, -0.23503134, 0.29829037, -0.30808246, 0.26926818, 0.12685125, 0.01463942, 0.19434616, -0.18162932, -0.07388087, 0.23733322, 0.2152777, 0.63355297, 0.6286199, 0.027277501, 0.20156983, -0.21570267, 0.36568162, -0.24633704, -0.16577525, -0.594877, 0.721405, 0.6373566, -0.30503932, -0.3932209, -0.09121689, -0.530594, -0.56688666, -0.90778947, -0.15873271, -0.44832665, 0.00968076, -0.45092148, -0.89391303, 0.21908446, 0.37972006, 1.0590086, -0.3406578, -0.07255134, -0.35396445, -0.14555958, 0.12231374, 0.57901645, 0.08914161, -0.30974692, 0.40481883, -0.12510112, -0.19784907, 0.48959053, -0.5750969, -0.96674854, -1.1797395, -0.7219905, 0.33709192, -0.67463726, -0.23234361, 0.53452075, 0.20110196, -0.12763338, -0.18321826, -0.024475135, 0.0006941855, -0.37432104, 0.035987202, -0.62511885, 0.06125664, -0.21269585, 0.5921279, 0.7556856, -0.6621358, -0.3281483, -0.19012181, -0.3130206, 0.4832492, 0.13020562, -0.08913281, 0.53591186, -0.32952654, 0.17128581, -0.28797698, -0.46797472, 0.99993896, -0.57255846, -0.19889154, -0.11123284, -0.6362543, -0.22513673, -0.22614795, -0.6640037, -0.55795336, 0.06256773, -0.015961245, -0.5362744, -0.37763345, 0.13923617, 0.24760434, -0.0077269324, -0.4080034, 0.015543282, -0.49036783, -0.04412404, -0.54314613, -0.3388432, 0.34663546, -0.4892522, 0.51118267, -0.5017798, 0.4323598, -0.29117674, -0.67249197, -0.075007826, 0.58964115, 0.01853772, -0.271793, -1.1060817, -0.28881487, 0.03650333, 0.047616795, -0.397143, -0.42504653, -0.100192815, -0.42519337, 0.26863864, -0.39963114, 0.37337148, -0.17470855, -0.07279894, 0.45593658, -0.27017683, 0.48130634, -0.4620932, 0.1025882, 0.09167985, -0.3867579, -0.068047136, 0.12652841, -0.4429652, 0.21687852, -0.18600093, -0.18662101, -0.59198564, -0.41784918, 0.22200043, 0.38738313, 0.40269312, 0.33683214, -0.040302314, 0.05765061, 0.33897054, -0.7722187, 0.13439237, 0.104871005, -0.23480044, 0.19587594, -0.50818306, -0.09049032, 0.18863052, 0.32138503, 0.25862834, -0.89404446, 0.678842, -0.11648977, 0.3060352, 0.116012454, -0.3700303, -0.7446329, -0.33703554, 0.98771065, -0.5872891, 1.2459712, 0.40510523, -0.15742765, -0.9487929, 0.30621508, -0.32546607, 0.20639855, 0.55837715, -0.68565506, -0.054621484, -0.024146173, -0.2520043, -0.52785665, -0.19889444, 0.19733638, 0.7290981, -0.40877387, 0.093962476, -0.5613123, -0.08888837, -0.22000392, -0.21260393, 0.3246735, -0.021298869, 0.04212504, -0.7483048, -0.34449977, 0.24873087, -0.22284862, -0.15695158, -0.19189835, -0.23712867, 0.07457039, -0.048560344, -0.27867863, -0.46066272, 0.10236698, -0.09915478, -0.08440489, 0.19676198, 0.967952, -0.2931345, -0.15186772, 0.36958778, -0.40544686, -0.20541917, -0.0652029, 0.62656206, 0.15071584, -0.06622079, 0.9303939, -0.15059811, 0.59854084, 0.42792952, 0.3587248, 0.05763542, -0.13625649, 0.16284439, -0.54382545, 0.30166575, 0.0027812293, 0.084544405, -0.65500873, 0.054928496, 0.49778715, -0.38949665, 0.44566303, -0.32463038, -0.3623729, -0.09559942, -0.20506124, 0.26360247, -0.08721969, 0.068853065]</t>
         </is>
       </c>
     </row>
@@ -896,20 +1000,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>경도의 의미는?</t>
+          <t>점탄성은 어떻게 측정하나요?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>시료를 압축 시 필요한 가장 큰 힘으로 시료의 단단함을 나타냄.</t>
+          <t>Rheometer라는 장치를 고려해 보시죠.</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>3</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[0.039109625, -0.47170767, 0.49251175, -0.21084973, 0.15362224, -0.40199772, -0.32649678, 0.14843288, 0.2619222, 0.38635364, -0.86037344, -0.24958828, 0.31826448, -0.23494951, -0.28417966, 0.42958817, 0.7497367, -0.34849635, -0.44119695, -0.29723853, -0.48426005, -0.49118683, 0.35241836, -0.5277581, -0.2845048, 0.15123618, -0.4198375, -0.19003126, 0.7144056, -0.4865927, -0.039462548, 0.41751987, -0.6536304, 0.4091051, -0.123683825, 0.06183054, -0.25830278, -0.5505122, 0.6009115, -1.0232589, -0.11043046, -0.50458497, -0.017125975, -0.24138246, 0.07387232, -0.5086023, -0.24087109, -0.4507058, -0.88995045, -0.08752056, 0.58005583, -0.083172984, -0.31847045, 0.37541336, 0.00601995, -0.6566928, 0.34159, -0.62031317, 0.26169997, 0.14276458, 0.34752545, -0.8746818, 0.15893526, 0.41884533, 0.085531555, -0.0809015, -0.2791806, -0.04137162, -0.290138, 0.46275952, 0.53987604, 0.46216556, -0.26472887, -0.5543074, 0.51439184, -0.539643, 0.14218839, 0.37531254, 0.9069438, 0.54272556, -0.2599488, -0.13482401, -0.046858642, -0.46746376, 0.20889059, -0.32325342, -0.10785205, -0.26319543, 0.40887645, 0.20017524, -0.4268865, -0.43973443, -0.14897095, 0.20191531, -0.54915994, 0.23961021, 0.10570296, 0.26456094, 0.0764799, 0.3649151, 0.23000768, 0.070596404, -0.7798619, 1.1548936, 0.16813663, 0.2821336, -0.03900116, 0.5866588, 0.0699234, -0.42710087, 0.11594258, 0.25836727, 0.17060736, 0.22199903, 0.32446927, -0.3895704, -0.46024275, -0.5124334, -0.3273552, 0.09373975, 0.06004659, -0.121954955, -0.6612727, 0.40083528, -0.139161, 0.31563786, 0.0038504729, -0.0996568, 1.2356303, -0.407519, -0.18615559, 0.29854086, 0.32288867, -0.15237929, 0.025032092, -0.8233004, -0.008145039, -0.52745736, -0.70861, 0.508362, -0.421912, 0.3476145, -0.23191603, -0.6662505, -0.19722673, 0.38358015, 0.81410223, -0.26143017, -0.3863048, -0.45956436, 0.0065061725, 0.10310642, -0.3299223, 0.07424084, -0.008317982, 0.11688224, 0.54221135, 0.22707953, 0.38317457, -0.31771758, -0.58559227, -0.31921884, 0.29234737, -0.2977964, -0.1922959, -0.14628734, 0.4803285, -0.2344998, -0.21652956, -1.1978099, 0.027227048, -0.20991047, -0.27760634, -0.2192518, -0.21637778, -0.25483158, -0.71750265, -0.61507857, 0.0314323, -0.2967476, 0.034446098, 0.32087275, -0.1299863, -0.3170555, -0.08600296, 0.28290844, -0.14602302, 0.061481357, -0.32867393, -0.009665932, 0.23743919, -0.12826715, -0.27713755, -0.083687685, 0.4690918, 0.6343531, -0.09056483, -0.16265523, 0.09525035, 0.8210735, -0.2267436, -0.051167775, -0.18791544, 0.19306853, 0.38441423, 0.4245391, 0.3509592, -0.22899497, 0.23902689, -0.17570095, 0.09577294, 1.0851762, 0.3462086, 0.04466385, -0.29745808, -0.13673963, -0.73513323, -0.8206846, -0.2784615, -0.55687666, 0.5448591, -0.6721634, 0.35456434, 0.18397121, -0.26967567, -0.74516135, -0.065591976, -0.22575057, 0.088658296, -0.2412981, 0.2168716, -0.035962578, -0.67305356, -0.601136, 0.05175515, -0.3336698, -0.26615125, 0.7371459, -0.21666788, 0.40606424, 0.09255522, 0.055359144, 0.028518243, 0.19268689, -0.009656197, -0.001821982, -0.085566215, 0.05690532, 0.1483279, -0.470279, 0.11204173, -0.05647232, 0.17506394, -0.4156663, 0.08677731, 0.12186319, -0.38040513, 1.0953737, -0.13016373, 0.16144967, 0.21246214, -0.96237093, -0.8323689, 0.03533115, -0.029516667, -0.16209993, 0.28985873, -0.60744804, 0.29550233, -0.21353662, 0.06509141, -0.44012198, 0.4617264, -0.11610595, 0.16887574, 0.20244615, -0.30711475, 0.2431923, 0.38957626, 0.02796813, 0.07481978, -0.13005735, -0.6347888, -0.060677774, 0.32859945, -0.3292922, 0.22052486, -0.23907416, 0.038414042, -0.66837513, -0.095317684, -0.30946562, 0.032691836, -1.4414982, 0.9567889, -0.28106382, -0.3887835, -0.60655683, -0.066739716, 0.50405174, 0.2603825, 0.14722826, 0.38693509, 0.047006253, -0.015399849, 0.6994223, -0.614715, -0.44432214, -0.2932337, -0.19655986, 0.03827966, 0.6211571, -0.02552201, 0.03040216, 0.3321302, -0.68178207, 0.07597937, -0.8206665, -0.22391544, 0.42990834, -0.3678549, 0.31391975, 0.64004326, 0.6122673, 0.3848571, 0.37484172, -0.37248978, -0.16199677, -0.9244169, 0.41004506, -0.6721036, -0.8570855, -0.032347694, 0.09696432, 0.22136031, -0.55158734, 0.34045666, -0.4311347, 0.08363085, -0.03559821, -0.22078969, -0.06311412, -0.34841728, 0.50743204, 0.07733587, 1.4899327, -0.34005684, -0.25801638, 0.24589089, -0.8050385, -0.12300845, -0.05500424, -0.51460505, -0.008922413, 1.1051965, 0.048495132, 0.36028716, 1.4237758, 0.5306888, -0.22280715, 0.7493431, 0.34662002, -0.4545114, 0.98399746, -0.030861067, 0.2205396, -0.9781304, 0.4058523, 0.20409791, 0.5296652, 0.22956577, 0.08011437, 0.60565656, -0.6643118, -0.5468534, -0.50976557, 0.06386639, 0.35175785, -0.1499014, -0.43060592, -0.026118506, 0.5320714, -0.846301, -0.7975386, 0.7930545, -0.42305848, -0.497065, 0.1012404, -0.14743647, -0.33314577, -0.51347136, 0.04797309, 0.18734059, 0.6324392, -0.3460607, 0.3094964, -0.6106286, -0.19152704, -0.46667382, 0.09096343, -0.1722597, 0.4733213, 0.3331728, 0.5341893, 0.36157957, -0.09669817, 0.1106274, -0.37997523, -0.4519092, -0.07288044, -0.60393924, -0.5045909, 0.13177632, -0.5933, -0.5767975, -0.050412573, 0.11938483, -0.06787295, 0.2722774, -0.3153088, -0.34134242, -0.4451635, 0.567005, -0.24693033, -0.222788, 0.6332846, 0.36364248, 0.0491316, 0.25880408, 0.25769833, 0.79584247, 0.5576539, -0.06719117, -0.19813566, -0.20300458, -0.37629434, 0.24694493, -0.40491787, -0.03342266, -0.44834378, -0.044145495, 0.62860787, -0.074061975, 0.34210274, -0.012322982, -0.2977565, 0.5074522, -0.18548353, -0.4575649, -0.8051956, -0.4412701, -0.01794919, -0.39184788, -0.15841033, -0.42457518, 0.52644145, 1.0527092, 0.7829948, 0.2547838, 0.2532666, -0.523824, -0.818767, -0.11371662, -0.30360088, 0.06198148, 0.30685765, 0.3087221, 0.4953317, 0.2747009, 0.5085684, 0.017951606, -0.33722273, 0.30469793, -0.275016, -0.16141583, -0.3050971, -0.20828445, 0.27746043, -0.39275885, 0.1683157, -0.21313891, 0.2584855, 0.22241469, 0.29529783, -0.30648097, -0.68676704, -0.32303613, -0.0014744912, 0.3234444, 0.62600607, 0.42772415, 0.20212083, -0.018071095, 0.4006503, 0.57418984, -0.51353556, -0.25953624, 0.27169916, -0.1459969, -0.651816, 0.066486955, 0.22085802, 0.41790694, 0.3850864, 0.084101334, -0.044362042, -0.3846796, -0.3661155, -0.36154693, 0.018943753, 0.108392514, 0.1832297, 0.35973665, 0.17351507, -0.0019805303, 1.0205141, -0.16940495, -0.4872305, -0.9861159, 0.57730097, -0.17248282, -0.28783298, 0.5981069, 0.66757387, -0.35892817, -0.2767951, -0.008083322, -0.17174949, 0.17116545, -0.031052856, -0.38441876, -0.25157225, 0.029486222, 0.5061418, -0.13887756, -0.15475143, -0.36722627, -0.15535593, 0.34455785, 0.39228138, 0.6857917, -0.68792725, 0.7926696, 0.22607538, 0.06513449, -0.4591805, 0.4617866, 0.074908085, 0.05702732, -0.08452313, -0.71772134, -0.5836352, -0.15751901, -0.5167221, -0.19912572, 0.3385798, -0.22646062, -0.15284397, -0.6623835, 0.26888654, -0.5317889, 0.64098203, -0.7108394, 0.4678938, -0.21066408, -0.5022506, 0.6208277, 0.3425586, 0.12785701, -0.11495038, 0.75800693, 0.4603085, -0.04055664, -0.18682174, 0.023635583, -0.7542529, -0.706849, -0.5464507, -0.70398396, -0.038963225, 0.4701467, 0.06521245, 0.32451132, -0.31541133, 1.031108, 0.25747007, -0.48930278, 0.3265481, -0.2513472, 0.09123312, -0.64186805, -0.27457035, -0.051894892, 0.5763145, -0.83029896, -1.0576394, 0.37586245, -0.7477671, -0.4189711, 0.046721082, -0.41264492, 0.14329386, 0.039846342, -0.4089074, -0.4313805, -0.26195434, -0.16170906, -0.098793335, -0.41932303, 0.2533365, -0.46366772, 0.14247258, 0.4458308, -0.23270454, -0.20775405, -0.384543, -0.9078049, -0.5668696, -0.2509478, 0.5845952, -0.6251219, -0.44498876, -0.760701, -0.037884437, 0.2553042, -0.2603344, 0.060430944, -0.16413927, 0.4742627, -0.6407937, 0.64348996, 0.15359542, 0.60743153, -0.44260547, 0.4265887, 0.26006454, 0.026902784, 0.7612937, -0.15148929, -1.1045004, -0.19541012, 0.54907113, 0.46334103, -0.6604279, -0.034621455, 0.30388507, -0.34509724, -0.06793026, 0.2971825, 0.41653076, -0.23402011, 0.35208988, -0.03397159, -0.042720843, -0.06574001, -0.48253843, -0.5507473, -0.043385867, -0.2867466, 0.20742361, -0.45557743, -0.0792187, 0.5330869, -0.055119608, -0.2257124, -0.34680456, -0.12411244, 0.37514025, -0.07650791, -0.3088043, 0.5864005, 0.034010954, -0.754955, 0.16464116, -0.43646762, -0.094635986, 0.5671421, -0.7789788, -0.41367933, 0.20716803, 0.06235214, 0.56705326, 0.42788768, 0.45176077, -0.43097374, 1.0861789, -0.764746, -0.11989003, 0.37674305, -0.08374702, 0.22444592, 0.24225794, 0.11868139, -0.1938942, 0.22892642, 1.249152, 0.42183208, -0.16563508, 0.04605663, -0.56646603, 0.60855514, 0.0917389, -0.7127759, 0.032831125, -0.021397665, 0.23113368, -0.021195093, -0.24503975, -0.23344612, -0.13164636, -0.25072187, 0.16683003, -0.25135928, 0.4801765, 0.28896695, -0.06484844, 0.33755, -0.09385137, -0.18715787, -0.8167709, 0.46925098, 0.07007646, 0.112266116, -0.5625388, 0.20697902, 0.1566964, 0.34157684, 0.17935851, -0.30881855, 0.32082728, -0.5158908, 0.32763782, -0.057666514, 0.2813479, 0.21844399, -0.28606278, -0.5140505, 0.3229877, -0.41560057, 0.16336063, -0.4281023, -0.026207594, -0.765952, -0.17705318, 0.13202225, 0.8491749, 0.7993628, 0.18105556, -0.31908923, -0.33863974, -0.10983051, 0.26910743, 0.38251165, -0.13498153, -0.31841585, -0.035587467, -0.20242408, 0.26600736, 0.2944222, -0.15825026, 0.1938063, 0.07493203, -0.24026428, 0.15603554, 0.20451812, -0.1892943, 0.11828709, 0.15482791]</t>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[-0.33630884, -0.52852994, 0.8164539, -0.61318374, -0.023262769, 0.0026794835, 0.15650508, -0.0068123993, 0.051421512, 0.03691374, -0.4660257, -0.05581945, -0.03506446, 0.11921174, 0.030154891, -0.15284146, 0.08841283, 0.6311546, -0.3341113, 0.12658022, -0.17415912, 0.17548503, 0.24434847, 0.65151745, -0.64676577, 0.23760694, -0.64232117, -0.12401295, -0.100457616, -0.84988046, 0.2939919, -0.27890527, -0.21933423, 0.5140983, 0.29525292, 0.28971875, 0.14649646, 0.21838702, 0.46477365, 0.06884209, -0.3317382, -0.34384176, 0.049638137, 0.68308616, 0.23729175, -0.23161577, 0.119803526, 0.08322313, -0.29672667, 0.002300658, -1.0452267, 0.02703029, 0.33701724, 0.59890306, -0.4709258, -0.45747212, 0.3919687, -0.304355, -0.025292385, 0.35958478, -0.19760685, -0.7648383, -0.23676805, 0.31396565, -0.40604132, -0.06891579, -0.15475531, 0.20402862, -0.64019257, 0.09019346, 0.10284311, -0.39918488, 0.012272439, -0.61848265, 0.51520324, -0.24221565, -0.2762242, -0.34303752, 0.32390374, 0.27633256, 0.17171656, 0.0781953, -1.0552233, -0.16108662, 0.16263591, -0.52410877, 0.048446957, -0.43840778, -0.0599893, 0.5888594, -0.20352712, -0.20012704, -0.6903703, 0.4095876, -0.994459, -0.097557545, 0.12750293, -0.51201195, 0.48285103, 0.0073629944, -0.40104818, 0.33358532, -0.10206032, 0.6882808, 0.18484224, -0.28800222, -0.09161992, 0.6858797, 0.6689454, -0.04739168, 0.66391337, -0.4217851, -0.06818814, -0.24168119, 0.09516621, 0.017423006, 0.050855502, -0.2470551, -0.1873778, 0.22395958, 0.44109857, -0.41536617, -0.27366617, -0.13952574, -0.17850175, 0.121017806, 0.6442936, -0.34655687, 0.34240896, -0.32428658, -0.09330277, 0.33187282, 1.024395, -0.20604558, -0.07413983, -0.33956492, -0.05887749, -0.13865575, 0.067368634, 0.73163456, -0.42865583, 0.540741, 0.16675967, 0.22942814, 0.15395002, 0.15621342, 0.36261782, -0.10306862, 0.040797114, -0.5003014, -0.0051351283, -0.060822606, -0.7925635, -0.01593315, 0.35949862, -0.17544486, 0.0439769, -0.10023152, -0.0011641607, -0.40579307, 0.1796029, -0.73419935, 0.1512401, -0.2896573, 0.5626878, 0.07636425, -0.16296896, -0.026573302, 0.03861009, -0.21855289, -0.459805, 0.058401205, 0.19166459, -0.19938636, 0.69986844, 0.35288483, -0.9356301, 0.16709252, -0.24868947, -0.8860462, 0.033960447, 0.3406557, 0.09631672, 0.18396282, -0.0117506655, 0.16056207, 0.33590627, -0.424003, -0.76506007, -0.44317925, 0.3491076, -0.5843826, -0.3682247, 0.008328915, 0.31428683, 0.39124793, -0.196033, -0.22486216, 0.0015275452, 0.094180934, -0.66284794, 0.7455687, 0.012082738, 0.19327034, 0.7322301, -0.11653981, -0.18883944, -0.06892324, 0.92889154, -0.0020291582, 0.36953858, 0.784174, -0.34031045, -0.00094484334, -0.27884132, -0.68296903, -0.15189116, -0.23476633, 0.08957889, 0.090322584, -0.16377269, -0.32456887, 0.7124944, -0.16648732, -0.039872345, -0.83024883, 0.5347344, 0.37229425, 0.2964116, -0.0561762, -0.056401264, -0.7808693, -0.4266055, -0.38521984, 0.6664801, -0.022329925, 0.38938522, 0.33969128, -0.59331363, -0.5332158, 0.37723744, -0.14540416, -0.112670854, -0.10859665, 0.12417738, 0.19537458, 0.1625455, -1.1653572, 0.25338215, -0.54560786, -0.27761334, 0.13230266, -0.0056062164, -0.015280789, 0.72751236, -0.2898042, 0.29099903, 0.4725028, -0.027379425, 0.070199594, 0.09995634, 0.061566886, -0.16041599, 0.20738988, -0.2541639, -0.10445419, 0.5204416, -0.56198317, 0.032333598, -0.39608344, -0.20399752, -0.3989133, 0.2112795, -0.20458804, -0.43953198, 0.26696846, 0.21356077, 0.4835912, 0.016183333, 0.45279667, -0.25784168, 0.41077015, 0.17817912, 0.20330778, 0.79053897, -0.0998187, -0.4521797, -0.15311593, -0.17894778, -0.59907895, -0.21216752, 0.27176848, 0.12918128, -1.8280036, -0.024055094, 0.099866174, 0.14638196, -0.13672505, 0.3603032, 0.36978683, 1.0734185, -0.13261472, 0.5425616, -0.007426855, -0.05575826, 0.08026998, -0.26239383, -0.9751018, -0.12176904, 0.41721547, 0.7775877, 0.59506756, -0.00789935, 0.5658421, -0.110247895, -0.6287536, 0.16691597, 0.19318973, 0.38875276, 0.019394439, -0.6524743, 0.6221007, -0.49498177, -0.06246485, -0.12534079, 1.0604075, 0.046633903, -0.41040242, 0.058086373, 0.20154285, -0.7958639, -0.16162053, 0.10627244, -0.2784748, 0.015554171, -1.0471003, 0.93094164, -0.7185743, -0.15404244, -0.11088855, 0.19906984, -0.28941748, -0.73787534, 0.7626211, 0.24473104, 1.1642709, -0.10811431, -0.1618743, 0.099878766, -0.44919148, 0.058766615, -0.23621696, 0.16402927, 0.35063216, 0.7887582, 0.22990745, 0.23265177, 0.9888453, 0.12696598, -0.047882725, 0.5801778, 0.08322303, -0.1884708, 0.5076506, -0.4388077, -0.9104673, -0.918031, -0.34656674, 0.053254507, 0.09160137, -0.18619919, -0.09091189, -0.07068325, -0.13833705, -0.732811, 0.3709911, 0.22645687, 0.37546414, -0.0872524, 0.18547462, 0.076305, 0.8768864, -0.21790475, -0.74644494, 0.61488765, -0.08530922, -0.013135231, 0.21761388, 0.17153153, 0.1435408, -0.16394344, -0.6362466, -0.123641364, -0.15862, -0.8283934, 0.13139196, -0.52399325, 0.14013003, -0.20118661, 0.4648017, 0.2487131, 0.24988507, -0.27581173, 0.4477546, 0.16299959, -0.12501022, 0.4125974, -0.052064106, -0.035213917, -0.54979867, -0.24478827, -0.54637045, -0.36042923, -0.1661543, -0.19466424, 0.08986722, -0.0072896103, -0.007827959, 0.042102534, -0.13367437, -0.33675745, -0.7878426, 0.42751014, -0.47552025, 0.3263743, -0.005561005, 0.82521725, -0.0055905487, 0.66743207, -0.40827367, 0.42431334, 0.17144598, 0.31165564, -0.28864095, -0.5808205, -0.26151025, 0.025804209, -0.552035, -0.6214604, 0.31581646, 0.5437312, 0.299259, -0.049445618, 0.2720805, -0.34335652, -0.06341467, 0.19772612, 0.5053621, -0.45379496, -0.35229373, -0.2294557, -0.27146208, 0.058552884, 0.23191522, -0.45106086, 0.5889163, 0.15791497, 0.17261438, -0.054843556, 0.49848375, -0.040730514, 0.284457, 0.11540773, -0.45973986, 0.02541865, -0.07099077, 0.17560174, 0.7088883, 0.10913113, 0.10415929, -0.4570379, -0.30288675, 0.3939415, -0.32089004, -0.81944424, -0.35894653, -0.1611657, 0.29890242, -0.36017743, 0.33390033, -0.20582439, 0.1256935, 0.15671064, 0.36365083, 0.46172532, -0.5617275, 0.024640363, -0.21467227, 0.23502241, 0.5877185, 0.47394225, -0.4763135, -0.60187817, -0.09629733, 0.3279296, -0.4296694, -0.5120159, 0.57199675, -0.4385147, -0.15835053, -0.13296388, 0.5982067, 0.1270937, 0.46136972, -0.2828533, 0.50332016, 0.07408536, 0.085190415, -0.46434453, 0.05060319, 0.1646919, -0.2550921, 0.3700305, 0.18666722, 0.12070645, 0.90726244, -0.06177741, -0.6736769, -0.088330604, 0.52313304, -0.8128685, -0.12557584, -0.007816919, -0.06717076, 0.1653052, -0.19819394, -0.30521318, 0.29656497, 0.2095818, 0.04189873, 0.011488928, 0.16920736, -0.24105702, -0.035345152, -0.19014306, 0.019735856, 0.1954527, 0.46907565, 0.82086504, 0.15071823, 0.43456605, -0.28893253, 0.11011373, -0.64133984, 0.12680337, -0.41009855, 0.45502627, 0.3571207, -0.30456963, -0.6892918, -0.043681264, -0.5293376, -0.25101832, -0.49672258, 0.007273071, -0.10382759, 0.33333957, -0.22542487, -1.1630684, 0.049340736, 0.286948, 0.72410446, -0.23671646, 0.44705483, -0.38692734, 0.05025985, 0.05884752, 0.15549172, -0.2652219, -0.14651118, 0.5014784, 0.11347504, -0.5514453, 0.8663256, -0.4915171, -0.75707775, -1.1305169, -1.4443123, 0.34386072, -0.5428158, -0.30599624, 0.395469, 0.2245861, -0.6711823, 0.22022937, 0.23273776, 0.04061317, -0.5135524, -0.31323144, -0.07658958, 0.14864872, 0.033043325, 0.46397322, 0.45252466, -0.4431999, -0.5323027, -0.08440049, -0.7493945, 0.14875206, -0.19294314, -0.28533852, 0.32727015, 0.006998724, 0.14797768, 0.15434615, -0.6680708, 0.4480684, -0.3226658, -0.18202685, -0.12499742, -0.79962975, 0.08849153, -0.022479402, -0.4519111, -0.58303213, 0.25645024, 0.18606925, -0.51510817, -0.49247897, 0.10946346, -0.021659147, -0.020809442, -0.2323102, -0.4513503, -0.36847275, -0.085607015, -0.506629, -0.29037726, 0.058856998, -0.73767567, 0.6036798, -0.16878572, 0.1998856, -0.054605532, -0.44607314, -0.28922853, 0.28918326, 0.59622073, -0.053996444, -1.0812318, -0.57704914, 0.052274704, 0.45886162, -0.7093621, -0.27183434, 0.28541958, -0.55091614, 0.80745846, -0.61330014, 0.16102625, 0.16323568, -0.16043125, 0.06166987, -0.019232672, 0.49838027, -0.3369088, -0.20883551, 0.25179812, -0.4859667, 0.015067365, -0.28286168, -0.44022304, -0.06990078, -0.13037747, -0.16128914, -0.97914976, -0.6531689, -0.20162994, 0.33749288, 0.27949774, 0.30766985, 0.045878146, -0.1351221, 0.28071544, -0.65093094, -0.15149121, 0.10430456, -0.046493195, 0.114437096, -0.62089545, -0.21770857, 0.63747734, 0.31348902, 0.0137785515, -0.70362526, 1.1835293, -0.34864432, 0.33096585, 0.30082414, -0.77056164, -0.7274324, -0.45270288, 0.58866173, -0.4272402, 1.1241006, 0.55006474, -0.033562545, -0.9198709, 0.06431001, -0.32302377, 0.0049874764, 0.41084358, -0.7256696, 0.23936506, -0.26459333, -0.28873357, 0.030816447, 0.12755775, 0.09346041, 0.42460373, -0.3723834, 0.09683227, -0.34198773, -0.32412374, -0.37836102, -0.31829917, -0.28227663, 0.12010635, 0.028435158, -0.42452946, 0.14743747, 0.36323336, -0.63201964, -0.44515297, -0.5249638, -0.25424325, 0.6230321, 0.13826218, -0.20212597, -0.47981566, -0.11351409, 0.08867807, -0.48583686, 0.3565776, 0.47711155, -0.19431615, -0.4577583, -0.023023052, -0.5842666, -0.1487254, -0.19710065, 0.6024787, -0.06361959, 0.26047525, 0.8815318, 0.17236833, 0.15201847, 0.42674872, -0.063911624, -0.13183948, 0.1835029, 0.31163844, -0.26064503, 0.1938455, -0.11792648, 0.055159256, -0.32272813, -0.105059296, 0.37741974, -0.48914117, 0.4169612, 0.045944378, 0.07310706, -0.10467546, 0.21301231, 0.19223982, 0.2817738, -0.3822718]</t>
         </is>
       </c>
     </row>
@@ -919,20 +1026,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>hardness의 의미는?</t>
+          <t>Viscoelastic가 무엇이죠?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>시료를 압축 시 필요한 가장 큰 힘으로 시료의 단단함을 나타냄.</t>
+          <t>점탄성을 의미합니다.</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>[-0.96144915, 0.11198763, -0.18239005, 0.19372858, 0.14158797, 0.3120198, 0.14970273, -0.13251987, 0.40952078, 0.07223195, -0.3931591, -0.5455706, 0.09016309, -0.15292215, -0.2834367, -0.30538747, -0.11722324, -0.087766334, 0.32524994, -0.57797754, -0.21748018, 0.313321, 0.66893107, -0.1445534, 0.36731133, -0.25710928, -0.35034734, -0.48681617, 0.016534377, -0.3653837, 0.20553204, 0.6873442, -0.58582747, 0.52969027, 0.38530958, -0.2575091, -0.43188697, -0.381075, -0.1511316, -0.854066, -0.40203756, -0.12048539, -0.90036887, 0.30193797, -0.34663397, -0.37674388, -0.01986722, 0.35366395, -0.5708429, -0.37014022, -0.13190599, -0.22988749, 0.3341488, 0.63043654, 0.362556, 0.2765312, 0.40622377, 0.018561488, 0.41853872, 0.088672794, 0.29095408, -0.9392208, -0.13752076, 0.7732949, -0.019719163, 0.0932837, 0.018678423, -0.048297167, -0.67120737, 0.5053309, 0.46128145, 0.8049637, 0.49488863, -0.5387516, 0.10778041, -0.10823317, 0.21347937, 0.10552702, 0.100181654, 0.26661178, -0.2807979, 0.0118233515, 0.50691307, -0.822734, 0.08648751, -0.2863571, 0.011701487, -0.46436062, -0.5632545, 0.37203425, -0.81789047, -0.33433038, 0.09353646, 0.23718765, 0.07987446, -0.35373944, 0.32932585, -0.21227343, 0.19182596, -0.31863266, 0.1705569, 0.36629528, -0.7042178, 0.3568887, -0.46703735, -0.07479855, -0.19911465, 0.5365089, 0.29219085, -0.38740352, 0.2967503, -0.0484404, 0.2334516, 0.250759, 0.28808042, 0.4993906, -0.4947795, -0.2343293, -0.24603887, 0.10330963, 0.617502, -0.32857892, -0.55427784, 0.48766622, -0.009758035, 0.23331149, -0.16524021, 0.08805572, -0.2585626, -0.22839543, 0.2656453, -0.1803847, 0.21400961, -0.25920397, -0.34020337, -0.4220291, 0.3386101, -0.2857137, -0.16024132, 0.09651853, -0.7424619, -0.11038246, 0.02816779, -0.46196494, -0.32388383, -0.3129337, 0.30780143, -0.41088662, -0.29902565, -0.20936842, -0.12586118, 0.29428655, -0.5463875, -0.19335708, 0.011254598, -0.37282857, -0.15116179, 0.2078011, 0.088600196, -0.002871892, -0.1510612, -0.41539064, -0.20087686, -0.24650177, -0.38932163, -0.09743754, 0.23379946, -0.44948992, -0.4534493, -0.742981, -0.72811043, 0.049920302, -0.0699071, -0.4261268, -0.25395995, -0.26806876, 0.22618465, -0.33345416, 0.24405792, -0.4231139, -0.012464789, 0.08804687, -0.33108854, -0.350968, 0.31481, 0.52221453, 0.14274429, -0.69134223, -0.19626519, 0.0375548, 0.23406103, 0.24518946, 0.2622233, 0.25648814, 0.06060753, 0.17492665, -0.4765513, 0.32008198, 0.117805935, 0.66795766, -0.35647595, -0.2567644, -0.27198246, 0.44551212, -0.37391728, 0.33998892, -0.20349865, -0.048413653, 0.27616647, -0.20650733, -0.96112585, 1.2055777, -0.21544039, -0.32908374, 0.11493796, 0.03772208, -0.6760031, -0.19207302, -0.40819278, -0.37487382, 0.30332488, 0.024528418, 1.513097, 0.6079779, -0.3997827, -0.61592925, 0.1618843, -0.2298946, 0.016218755, -0.11284604, 0.113077804, -0.7229597, -0.94943476, -1.0330815, 0.14600682, -0.0019381016, -0.32186705, 0.24672253, 0.7697979, -0.1324749, -0.23096362, 0.47831196, 0.39996016, 0.0120137185, 0.6008877, 0.3223577, 0.22321036, -0.995052, 0.3641726, -0.7162245, 0.33616817, 0.45401993, -0.1847745, -0.23923233, 0.28178385, 0.45118824, 0.0133696245, 0.62977725, 0.109764256, -0.16180873, 0.07458131, -0.20162562, -0.46888322, 0.08184943, 0.37690943, 0.13156864, 0.03360526, -0.0100305015, 0.2925894, -0.25216457, 0.12778322, 0.04277121, 0.03998251, -0.04477746, 0.49779025, 0.26177257, -0.26479062, 0.77722853, 0.015422681, 0.45241618, 0.44619074, 0.06290151, -0.08457298, -0.1916463, 0.12860867, 0.16152664, 0.2118252, 0.2365402, -0.087643266, -0.010750478, -0.35703224, -0.21423459, -0.37665623, -1.465745, 0.1790637, -0.6728139, -0.59747916, -0.654068, -0.29092517, 0.014223394, 0.24029522, 0.24213877, -0.80364114, 0.52258, -0.8333856, 0.20756471, -0.8172739, -0.12169796, 0.15876606, 0.5336482, 0.9679416, -0.3547457, -0.297476, -0.13415928, -0.12511876, -0.31983167, 0.12256789, -0.6869619, -0.09801575, 0.23889467, -0.46294802, 0.40891713, 0.34360576, 0.41394407, 0.27859437, 0.021402687, -0.46094555, 0.55517614, -0.14098057, 0.1800265, -0.9716814, -1.317674, 0.25272125, -0.17946737, -0.0027235835, -0.23388977, 0.31238502, 0.16078202, 0.2540384, -0.04919248, 0.20713672, 0.13886727, -0.39574257, 0.22658524, 0.0334462, 0.97089803, 0.17941149, 0.0620986, 0.37969577, -0.23362097, -0.038192786, 0.13916732, 0.2001321, 0.3246681, 1.0337598, -0.4137048, 0.54209816, 0.27864692, 0.33701047, -0.4327558, 0.50096565, -0.48734817, 0.6331793, 1.0791763, -0.23714754, -0.07615799, -0.92816275, 0.66683495, 0.2698223, -0.0088036945, -0.13179477, -0.5663915, 0.8311081, -0.36979654, -0.11414623, -0.64927566, -0.48366904, 0.7392764, -0.3146638, 0.022762824, 0.4030965, 0.083543494, -0.6326724, -0.79823434, 0.5973723, 0.2934752, -0.5836569, -0.064750165, -0.23726311, -0.293065, 0.438234, 0.051372267, -0.6389122, -0.5061526, -0.76172864, -0.06597601, -0.22481307, -0.18677153, -0.22352846, -0.23165298, -0.073275834, 0.2771787, 0.2968079, 0.6491066, 0.26240546, 0.34985673, 0.65132296, -0.5724346, 0.118265375, 0.05685643, -0.5240439, 0.04207908, -0.08010964, -0.71546435, 0.1299264, 0.34387884, -0.08561009, 0.14616875, -0.0787646, 0.022719627, -0.40253085, -0.69272846, 0.29475805, -0.11011889, -0.056162953, 0.028472697, 0.26091722, 0.27701047, 0.9292423, 0.091382034, -0.12943846, -0.18411513, 0.27613696, -0.065602794, -0.14203905, -0.31960827, 0.05594132, 0.38835466, 0.16941452, -0.20368388, 0.52237904, 0.35918856, -0.6422627, 0.40052718, 0.35681036, 0.02064209, -0.20690803, -0.09687163, -1.0082706, -0.43106908, 0.036503278, 0.55816174, 0.008173349, -0.55454767, -0.19138479, 0.20342067, 0.8461417, 0.39825505, 0.3982169, 0.33035627, -0.072542116, -0.45453653, 0.26816124, -0.12306102, -0.015185937, 0.54606277, 0.37441015, 0.60522103, -0.07681412, 0.060808223, 0.3614208, -0.29480156, 0.60939795, -0.12135659, 0.23699228, 0.33187118, -0.8604105, 0.3191821, -0.019811247, 0.5821825, -0.24165908, -0.52970517, 0.509779, -0.08531655, 0.026502902, -0.32150808, -0.22234035, -0.46823922, 0.43988436, 0.0696691, -0.3444789, 0.10706586, 0.064492516, -0.27916414, 0.36573344, -0.46726966, 0.12496364, 0.38834316, -0.02281635, 0.0016286492, -0.012611335, -0.09260465, 0.19267926, 0.37882042, -0.645604, -0.13938837, -0.16363561, -0.63201135, -0.22082381, 0.0033766225, -0.71508026, -0.1438343, 0.022630448, -0.10867977, 0.2994747, 0.33232313, -0.4341089, -0.43639833, -0.15122029, 0.23856509, 0.17265375, -0.43988642, 0.5530098, 0.21452132, 0.2022719, 0.31624937, -0.048890848, -0.0023349957, -0.13820067, -0.09272542, 0.20350924, -0.7499301, 0.28043646, 0.3517811, 0.24404375, -0.026368314, 0.23685391, 0.36506456, -0.106834054, 0.41083613, 0.41923434, -0.23740883, 0.46642175, 0.12215619, 0.03695294, 0.4138255, 0.42206413, -0.2852464, 0.054153703, -0.10254214, -0.2430437, -0.78350514, -0.52225, -0.38816327, -0.1314629, 0.32595247, 0.2146811, 0.570931, -0.12565285, 0.2609169, -0.5787174, 0.5488854, -0.28534126, 0.3701826, 0.11803051, -0.4811732, -0.19484992, 0.35523683, -0.023365472, 0.026801297, 0.38627768, -0.26715228, 0.39014265, -0.35190755, -0.61933357, -0.6097108, -0.90890425, -0.5208445, 0.072324626, -0.15901887, 0.5093306, 0.85871947, 0.09064539, -0.15492474, 0.45800614, -0.26244062, -0.27282202, 0.025297368, -0.35212263, -0.9327547, -0.54022384, -0.5289906, -0.030642295, -0.15880573, -0.960405, -0.43475786, -0.47287846, -0.13180676, -0.5753809, -0.5109183, -0.06805569, -0.022416987, -0.5151255, -0.5463772, -0.5509554, -0.32343164, 0.5259661, 0.043889455, -0.37323698, 0.9098749, -0.3835867, -0.70819104, 0.5180205, -0.028120693, -0.39609903, -0.02992273, -0.5605925, -0.33362976, -0.21106362, 0.2836891, -0.22500002, -0.11821773, -0.84796154, 0.26476005, -0.17761154, -0.17531243, 0.45144755, -0.17804423, -0.033296723, -0.242787, 0.7216695, -0.31300873, 0.002249801, 0.013006518, 0.09154229, 0.0064200596, 0.111517094, 0.47214478, -0.720157, -0.531792, 0.22177677, 0.39496464, 0.14529504, -0.1285763, -0.44609037, -0.18131247, -0.36415914, -0.39325294, 0.020232428, 0.12307235, -0.48068723, 0.34335536, 0.030167341, -0.026469659, -0.09379865, -0.7549851, -0.08353839, 0.6122301, 0.033038884, 0.15157971, -0.13676348, -0.25032777, 0.32010275, -0.25831085, -0.2001833, 0.3691863, -0.52584714, 0.22503588, 0.41238588, -0.053910166, -0.008786334, -0.42487684, -0.28512338, 0.44977945, -1.1494825, -0.012407845, 0.75385624, -0.44227856, 0.28726906, 0.46409172, -0.16500114, 0.01994441, 0.4084045, 0.7614873, -0.46095031, 0.38939247, -0.20386548, -0.5777236, 0.17357013, 0.13180517, -0.46882218, 0.46619898, 0.16471115, -0.65030134, 0.13375868, 0.920602, 0.35824814, -0.12474277, 0.22441502, -0.18010405, 0.4453485, -0.30421072, -0.36838078, -0.4994251, 0.0077591417, 0.7216392, -0.705662, 0.1339293, -0.13805293, 0.4286316, -0.34715995, 0.053453512, -0.41602784, 0.6690637, 0.07005595, -0.36564237, 0.45285758, -0.23221257, -0.37472987, -0.57877755, -0.52984685, 0.1467261, 0.07887821, -0.5798601, 0.34777147, 0.18942583, 0.6439796, 0.35051572, -0.005503231, 0.033068348, 0.10096121, -0.2666221, -0.09968819, 0.5541299, 0.33347335, -0.48323217, -0.41000813, 0.44728738, -0.32887727, -0.014878596, -0.23592325, -0.3950533, -0.6344632, -0.009340584, 0.7730938, 0.5880956, 0.016508177, 0.44628754, -0.13147756, -0.07763235, -0.3248494, 0.38178998, -0.079997286, -0.34450358, -0.12750569, -0.05368824, -0.39238328, 0.09806825, 0.47917396, 0.14987442, -0.021091646, -0.57709044, -0.31574887, 0.27055463, 0.29929382, 0.10057042, -0.2135711, 0.17950022]</t>
+        <v>2</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[0.37471226, 0.021817027, -0.3537319, 0.14987321, -0.020575128, 0.38596278, 0.4780553, 0.69334257, 0.29211062, -0.02278652, 0.57603174, -0.1273683, 0.13517928, 0.053350117, -0.32786, 0.2810245, -0.06191992, 0.17534801, 0.55225074, -0.08770171, -0.34990212, 0.27500957, 0.09354225, -0.29414722, -0.20029429, 0.20364562, -0.26892582, -0.265351, 0.7191671, -0.48941687, 0.059633333, 0.01480402, 0.40933985, 0.17990956, 0.11179424, -0.21701644, -0.35680577, 0.15881227, 0.18315075, -0.29041827, 0.38376063, -1.0417397, -0.37323046, 0.118848786, -0.03991204, -0.280248, -0.09931807, -0.24253495, 0.5877309, -0.024559375, -0.66846335, 0.38150403, 0.6733402, 0.2541811, -0.38660443, -0.52888876, -0.46478435, -0.696164, 0.2769557, -0.23352805, 0.501644, -0.36162314, -0.30414024, -0.32979125, 0.03293318, 0.1910331, -0.13197486, 0.35582626, -0.68146694, -0.6069521, 0.46624085, 0.288955, 0.116061576, -0.12639922, 0.15770146, -0.13697068, 0.4406239, 0.21232574, 0.7696546, 1.4067645, 0.9834845, -0.83322483, -0.099930726, -0.6349942, -0.15075421, -0.74759376, 0.11230573, -0.32939637, -0.36798066, 0.04660897, -0.12021197, -0.17544042, -0.6159737, 0.17958449, -1.0049707, -0.52394634, 0.13329753, -0.2144869, 0.4960344, -0.1545821, 0.4393835, -0.02919212, 0.059429422, 0.29091975, 0.36542013, 0.48712465, -0.24289864, 0.76858914, 0.71955913, -0.10566732, 0.2981448, -0.04958052, 0.50604403, -0.09183702, 0.36710575, 0.11667137, -0.7228614, 0.06441016, 0.1884225, 0.57897234, -0.5000402, -0.3650963, -0.005759645, 0.2992417, -0.114495106, -0.034547564, 0.5475864, 0.10009137, -0.28181946, 0.03805808, 0.037484426, 0.64385116, -0.20974423, -0.22692378, -0.26689708, 0.33142287, 0.185344, 0.17642285, 0.19678468, 0.7174343, 0.005432608, 0.05893364, -0.15476285, 0.1980837, -0.4595429, 0.12613495, 0.30199087, -0.36884058, -0.317379, -0.44984663, -0.25718692, 0.28495467, -0.6188735, -0.35820526, -0.19663477, -0.6689638, 0.2647438, -0.014776606, 0.2685525, -0.049847282, 0.053380106, -0.31946358, 0.18634692, 0.30545968, -0.30770355, -0.0130719, 0.60151637, 0.069755904, -0.00796039, -0.29630783, -0.0016969397, -0.09352536, -0.42250094, -0.026629744, -0.12068072, 0.53758514, -0.5442361, -0.41276476, -0.4594007, -0.0066862446, 0.41577324, 0.037530445, -0.4495951, 0.43584412, 0.018207747, 0.19616888, 0.023844847, -0.27478, -0.48228088, -0.59979177, -0.08014385, -0.2654678, -0.1761226, 0.43926796, 0.2429658, 0.67790514, 0.009389402, 0.35971624, -0.17287949, 0.21778382, -1.4548997, 0.52414376, 0.046220336, 1.0605595, 0.5086812, -0.08547011, -0.057072766, -0.31234774, 0.023981554, -0.46357965, 0.26525992, 0.66838497, 0.094619475, -0.61647063, 0.103059396, -0.037697755, 0.52114964, 0.5020062, -0.291485, -0.57592636, 0.088801354, -0.02855843, 0.7666025, -0.6485766, -0.4270054, -0.38997227, 0.19479927, 0.349864, -0.1844931, -0.45478094, -0.28199357, -0.5925482, -0.7525428, -0.4893966, 0.9025239, -0.15988582, 0.6415689, 0.54235625, 0.09965627, -0.052829508, 0.51168597, 0.03092498, -0.13712256, -0.2640672, 0.25326318, 0.48634794, 0.34251437, -0.33130926, 0.21848439, -0.8090166, -0.24906462, 0.8843454, 0.306853, -0.24868879, 0.48947996, -0.2756402, -0.07876035, 0.777543, -0.256022, -0.388112, -0.15661488, 0.298654, -0.4857834, -0.32033226, -0.21570587, 0.2559064, 0.32968804, -0.78861463, 0.58971876, -0.6921212, -0.06441761, -0.5226178, 0.5458592, 0.32063574, 0.025663419, 0.018328963, -0.5431734, -0.03914227, 0.21906675, -0.38306078, -0.07829758, 0.48501232, 0.08926083, -0.43777767, 0.293653, 0.00628218, -0.52782816, 0.26349527, -0.3535775, -1.0165778, 0.4346166, -0.3161313, 0.06865044, -1.566208, 0.2361709, -0.013636451, 0.0073453933, 0.03933716, -0.027665852, -0.11032815, -0.12455522, 0.13621701, 0.15416974, 0.3051822, 0.28362387, 1.1239667, -0.46440235, -0.87948287, -0.024540586, 0.43092126, 0.17661856, 0.18498336, -0.4515152, 0.29062822, 0.2976091, -0.2196104, -0.31439054, -0.1426058, -0.24985668, -0.057793513, -0.27121735, 0.088480674, 0.5240837, -0.09207645, 0.5022994, 0.025084466, -0.49859205, -0.11566313, -0.24559508, -0.070843756, -0.7104473, -0.33851072, 0.24213125, -0.504918, -0.04268217, -0.2659489, -0.18624853, -0.59740216, 0.44848758, 0.040732168, -0.03834046, -0.4829726, -1.3283719, -0.3800499, 0.3903138, 1.2355963, 0.04293326, -0.8684386, -0.111188576, -0.34652278, 0.2956742, -0.3796702, -0.30354717, -0.11272008, 0.2990412, -0.44445398, -0.024744097, 0.89597285, -0.40059063, -0.27569836, 0.54582536, 0.48521715, 0.20033024, 0.27965453, -0.024139034, -0.12779532, -0.40646464, 0.11695345, -0.058433175, -0.39058793, -0.1595649, -0.5635151, -0.041980844, -0.45099163, -0.36903268, 0.23140475, -0.3921085, 0.20947737, 0.33394554, 0.13327545, 0.27095768, 0.5073873, 0.010064483, -0.79831326, 0.08521269, -0.5560467, -0.32538012, -0.08637676, -0.3898048, -0.008090338, 0.008372621, -0.055142872, -0.40409687, -0.2674535, -0.8691431, 0.17688982, -0.37954363, -0.2561654, -0.0011993761, 0.39363554, -0.050015386, 0.30651438, 0.07650013, -0.3856335, 0.046368122, 0.31521127, 0.24829213, -0.4747688, -0.45612174, 0.31593317, -0.697047, -0.3454438, -0.016806347, -0.25774673, 0.006781264, -0.72077656, -0.39722076, 0.59348774, 0.052597743, 0.2930992, -0.17406486, -0.053474165, 0.6035863, -0.7231213, -0.28894076, 0.39499867, 0.33224332, 0.16447537, -0.33648527, -0.08210339, 0.56201875, 0.20458561, 0.4248772, 0.053835712, 0.1972263, -0.7894708, 0.26914832, -0.41903967, -0.72813886, 0.32876018, -0.24569376, 0.07262519, 0.41710588, -0.041115567, 0.1457784, -0.31830263, 0.34417975, 0.21217273, -0.56392276, -0.8158421, 0.35117343, -0.36483592, 0.119597405, 0.5372087, -0.30581796, -0.20223448, 0.7533213, 0.03696686, 0.035303287, 0.5789535, -0.18544525, 0.83929294, -0.43156755, -0.03600829, 0.53071827, 0.1699353, 0.27061313, 0.33748224, 0.21449879, 1.1245383, -0.6173738, 0.042896952, -0.02542742, -0.1327185, 0.40944105, -0.36452782, -0.09514153, 0.13285463, -0.0683569, -0.16425893, -0.12851061, -0.508463, -0.34243742, -0.006831974, 0.51897186, 0.33301622, -0.397558, -0.4099971, 0.25021842, -0.3581364, -0.37991366, 0.31658652, 0.56236005, -0.2050419, 0.8501126, 0.31232092, -0.4254166, 0.0733801, -0.07230355, 0.27647775, 0.026900802, 0.06825292, -0.4551334, 0.42881218, -0.48084912, -0.15861915, 0.19242905, 0.27134803, -0.4311902, 0.06668666, -0.23316301, -0.039189465, -0.0067391833, -0.12651616, 0.06382983, 0.37141004, 0.019824823, 0.22543098, -0.48527485, 0.49526218, 0.17920215, -0.43130285, 0.22406028, -0.31369832, 0.038464528, 0.3030194, 0.16485423, 0.11889989, -0.25272173, 0.63305414, -0.36640012, -0.38012615, -0.17133568, -0.46060532, 0.4983764, 0.15160169, -0.2949252, 0.26876205, 0.45393103, 0.1499858, 0.22334944, 0.093335375, 0.3539553, -0.077318154, -0.10778638, -0.40530074, 0.7620343, 0.57640636, -0.2963653, -0.0899001, -0.5541764, -0.5089932, -0.31521088, -0.6918732, -0.74111307, -0.14363089, -0.26863793, 0.09974186, -0.8058537, -0.111325026, -0.13971198, 0.5103748, -0.3840825, 0.072541565, -0.29960966, -0.13772568, -0.30787262, 1.1184785, -0.057235166, -0.47476843, 0.49953556, 0.22553016, -0.20888186, 0.22498395, -0.7586574, -0.8236862, -1.0025389, 0.09331623, 0.098736204, -0.31684873, -0.14125782, 0.4755996, 0.83707726, -0.12895295, 0.29831967, 0.31967142, -0.4498943, 0.112929545, -0.09761167, -0.06594267, -0.6249195, -0.40038264, 0.04358708, 0.17923021, -0.685666, -0.49940506, -0.15650105, -0.45490107, -0.50612277, 0.14802411, -0.017259782, 1.0070126, -0.61808026, 0.17705947, -0.6350625, -1.1631535, 0.18128215, 0.10866685, -0.066683926, 0.2573247, 0.16467112, 0.08644361, -0.006454374, 0.26639348, -0.2232907, -0.07719669, -0.36479217, -0.7694774, -0.58159745, -0.15516135, 0.32058674, -0.15330999, 0.10149201, -0.12962268, -0.06297722, 0.4451527, -0.14652953, -0.2565721, 0.4046984, -0.62943864, 0.7269494, -0.4727742, 0.68190074, 0.2818368, -0.34324858, -0.20126623, -0.013201015, 0.13959572, -0.19030884, -0.5232163, -0.45201117, 0.3309633, 0.3488592, -0.29017755, -0.40781972, -0.33280855, -0.44833535, 0.23768164, -0.58372796, -0.64933103, -0.4944262, 0.20711337, 0.19533613, -0.7919535, 0.4832398, 0.11289554, -0.89097023, 0.18013437, -0.20303106, -0.025648292, -0.050499976, 0.60301435, 0.41351894, -0.30131933, 0.12131177, -0.25233433, -0.56563246, -0.40743378, 0.4002046, 0.013215819, 0.33227238, 0.2024423, -0.099703535, -0.02650205, -0.8315792, 0.49048743, 0.092240766, -0.38121653, 0.5879798, -0.09458142, 0.31759602, 0.293983, 0.46430066, 0.017740868, -0.2358632, 0.29541594, 0.13990735, 0.10862923, 0.0054994742, 0.25966266, -0.65170085, -0.18082131, 0.97252667, -0.61969745, 0.07079491, 0.67418694, -0.2755847, 0.5995437, 0.22147512, -0.21696955, 0.5202228, 0.37143835, -0.51504385, -0.74893034, -0.21204504, -0.11423199, -0.25381893, -0.40663272, -0.45646894, 0.0895243, 0.24389726, 0.086375244, -0.031782493, -0.3281943, 0.08310409, -0.4708328, -0.3733055, -0.5955481, -0.040741876, -0.8398273, 0.1853055, 0.02150086, 0.31711772, -0.20092212, 0.3676172, 0.24495906, -0.17756775, -0.7290967, 0.07001711, 0.19478917, -0.19501346, 0.33683836, 0.32595763, 0.03924883, 0.28967324, -0.34856004, -0.46068922, 0.037849754, -0.15663345, -0.24422322, -0.10534502, 0.4504426, -0.8455394, 0.01219159, 0.21045814, -0.056299254, -0.1584475, 0.35280725, 0.20009424, -0.045380212, 0.045476038, 0.1591164, 0.26257184, 0.27037293, -0.15042052, 0.073717065, -0.4010308, -0.1379554, 0.5007469, -0.70519155, -0.29121682, -0.27379075, -0.16325328, -0.39463717, 0.32372057, 0.74459875, -0.4060344, 0.051085904]</t>
         </is>
       </c>
     </row>
@@ -942,20 +1052,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>firmness의 의미는?</t>
+          <t>Viscoelastic가 무엇이죠?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>시료를 압축 시 필요한 가장 큰 힘으로 시료의 단단함을 나타냄.</t>
+          <t>점성과 탄성을 동시에 가진 것을 의미합니다.</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>[-0.37998778, -0.014641735, 0.18232338, 0.23672919, -0.13196278, 0.44615507, 0.38594544, 0.41871363, 0.16303417, -0.08745848, -0.26515034, -0.69695795, -0.8346117, 0.2374438, -0.07685674, -0.06523807, -0.12397623, 0.19744101, 0.18051425, -0.038692806, -0.4458856, 0.74374235, -0.0054283277, 0.29124525, -0.31073552, -0.15815036, -0.27517858, -0.35145593, 0.77166337, -0.14795378, 0.71221614, 0.050531417, -0.67350096, 0.15042908, 0.74327624, -0.32089573, -0.70165825, 0.2518649, 0.2562334, -0.12135265, -0.41710982, 0.043818988, -0.81347704, 0.4960398, -0.3307131, 0.050311923, 0.27556965, 0.2892701, -0.34089753, -0.25525406, 0.0768143, -0.3780072, 0.42309037, 0.6545427, 0.10815966, -0.17798357, 0.21793714, -0.8775772, -0.0025426685, 0.005354941, 0.4996809, -0.9853076, -0.3528902, -0.2850319, 0.11560415, -0.0972474, 0.097376004, 0.3446825, -0.99596834, 0.24927552, 0.27008313, 0.39865887, 0.5327242, -0.42939702, 0.4337495, -0.30037522, 0.2855764, 0.048823282, 0.56628203, 0.54041433, -0.4648233, -0.7598103, -0.044306558, -0.24031098, 0.18303804, 0.091062024, 0.21770096, 0.04018898, -0.6739887, 0.5570758, -0.7356309, 0.15034524, -0.14732915, 0.10262726, -0.595273, -0.058160327, 0.23173562, -0.3327702, 0.51160496, 0.11229525, -0.29758978, 0.24283817, -0.84655607, 0.23524399, -0.75571835, 0.46148252, -0.0351947, 0.32684168, 0.24147086, -0.1531094, 0.19478635, -0.47686347, 0.18998583, -0.010727579, -0.0046408265, -0.063377224, -0.4458188, 0.018520359, -0.054367114, 0.3901394, 0.4044198, -0.50550234, -0.2039961, -0.020042535, -0.43650508, 0.49872464, 0.25512728, -0.0105049815, 0.06596331, 0.11251204, 0.35961133, -0.14086817, 0.42562467, -0.08663408, 0.099082865, -0.17720915, -0.023990512, 0.13039419, 0.2839933, 0.5521954, -0.5655076, 0.17980212, 0.16985098, -0.4302722, -0.634319, -0.4499089, -0.10281497, -0.24673715, 0.032021992, -0.37257043, -0.3316398, 0.35616538, -0.6994639, 0.32729945, 0.09211163, -0.7275032, -0.20017977, -0.034980174, 0.30495584, 0.17736076, 0.040231768, -0.34862, 0.5010333, -0.22640419, -0.2094022, -0.28321433, -0.22565603, -0.43873724, -0.04838577, -0.43638462, -0.48406297, -0.4184255, 0.36445245, -0.98841846, -0.49424928, 0.1936285, -0.110798836, -0.10589665, -0.22474024, -0.75452465, -0.11551062, 0.66077745, -0.46385962, 0.06687712, 0.16234437, 0.5365866, -0.56880105, -0.26446885, -1.0558573, -0.35368985, 0.06972416, 0.13407467, 0.03614273, 0.24303754, 0.46678716, 0.6955462, -0.10340194, 0.29808885, -0.21247764, 0.12619919, -0.9243496, 0.5005607, -0.043021, 0.63206655, -0.13530591, 0.3618206, -0.17247671, -0.15767121, 0.011652034, -0.5500835, -0.5610735, 1.0849869, -0.18058993, 0.037820466, -0.3276692, 0.28614968, -0.27061185, -0.2718041, -0.39180368, -0.60042197, 0.4575553, -0.4511652, 0.6607962, 0.60870993, -0.61431354, -0.22355688, 0.09731315, 0.47999412, 0.2951436, 0.6005365, 0.30388516, -0.6938635, -0.87925833, -0.92021835, 0.26438886, 0.1216988, 0.39430112, 0.32585207, 0.11380067, 0.21046877, -0.0019794956, 0.7479376, 0.30944592, -0.036715504, 0.068603314, -0.46252316, -0.041298885, -1.2288651, 0.56209874, -0.95217294, 0.65544116, 0.64009255, -0.39733657, 0.058627985, 0.14505178, -0.4809614, -0.5701517, 0.27903756, -0.2400636, 0.1752245, -0.19612017, -0.03314296, -0.42642817, 0.3692594, -0.42346162, 0.116533324, -0.24839087, -0.29214066, 0.054761987, -0.4498551, -0.15444836, -0.64605075, -0.3046317, 0.5399388, 0.3364764, 0.20977488, -0.4104871, 0.40551797, 0.04989897, 0.39906058, 0.27412444, 0.37151608, -0.1024943, 0.24992685, 0.119966015, 0.21051165, 0.4303658, -0.3821407, -0.42770046, -0.57019854, -0.08814599, 0.1484886, -0.09295447, -2.1080618, -0.04285139, -0.0005500518, -0.49924833, -0.41873306, -0.86101323, 0.6200655, -0.05320242, -0.024974812, -0.48169222, 0.17842634, -0.43578094, 0.63815534, -0.20526958, -0.008350383, -0.1296967, 0.62904114, 0.79614466, -0.12974572, -0.29912692, -0.24852057, -0.05211665, -0.5550689, 0.07423589, 0.09686887, -0.32165295, 0.5430969, 0.097345896, 0.26351127, 0.1776662, -0.3474945, 0.3432181, -0.48314667, -0.37624654, 0.071618415, 0.09165977, -0.18613155, -0.6792936, -0.98338115, 0.12586711, -0.044849254, -0.11191423, -0.25126952, -0.012522784, -0.2197148, -0.007818309, -0.13153018, 0.069416724, 0.258104, -0.9029498, 0.30943537, 0.36487532, 1.0426241, 0.08771224, -0.44402432, 0.13558051, -0.3222667, -0.23589411, -0.0045097647, 0.052947085, 0.5711819, 0.6322599, 0.15863098, 0.6089573, 0.4688445, 0.36141762, -0.19577861, 0.30878884, 0.023154195, 0.12487118, 0.6399969, -0.5001844, -0.5595926, -0.51800907, 0.37800896, -0.2976097, -0.08743069, -0.066739656, -0.16455278, 0.7616021, -0.57388616, -0.32563022, -0.37537268, -0.47925243, 0.7390356, 0.28033993, 0.08044531, 0.583933, 0.56859505, -0.15561967, -0.9188962, -0.0482279, -0.49254256, -0.59819436, 0.1525459, -0.29315037, 0.31989202, 0.23116656, 0.036673173, -0.33076864, -0.6193939, -1.1203783, 0.04563169, -0.4823784, -0.8425106, -0.2797949, 0.23443818, 0.030604672, 0.38919574, 0.1515044, 0.9069641, -0.3076408, -0.22964616, 0.80740803, -0.3886189, -0.4407679, -0.051147293, -0.26424158, 0.04224362, 0.05573825, -0.58718145, 0.7386652, 0.4580497, 0.031371556, 0.4790005, -0.0073177083, -0.29037386, -0.116634764, -0.47110295, 0.7400323, 0.20645833, 0.7549818, 0.29497054, 0.06365608, 0.20109585, 0.1956903, 0.2452269, 0.5321607, 0.14671008, 0.19043909, -0.17557395, -0.15908201, -0.76584226, 0.31154707, -0.39425412, -0.22872165, 0.3505248, 0.40753737, 0.30595902, 0.10786577, 0.4208483, 0.18932243, -0.3024828, -0.31086573, -0.453225, -1.1494995, -0.58321303, -0.2432661, -0.3077324, 0.07783593, 0.041317258, -0.5683995, 0.02341888, 0.54977864, 0.1557153, 0.25635076, 0.2015504, -0.29343897, 0.21683863, -0.3659733, -0.3929296, 0.24249437, -0.13081035, -0.17944308, -0.32623678, -0.3839975, 0.7414402, 0.0858169, -0.3792943, 0.26148477, -0.25315142, 0.33721337, -0.06359457, 0.09805299, 0.036423862, 0.15445046, -0.13828306, -0.2412016, -0.6586088, 0.21257183, 0.059833247, 0.5607915, 0.12196545, -0.20347588, -0.4883813, 0.52791756, 0.35063243, -0.84578866, -0.2635569, 0.08696034, 0.009994092, 0.5728515, -0.3839836, 0.046572782, -0.11868508, -0.3408695, 0.43457827, 0.10772717, -0.10255233, 0.14043424, -0.07537372, -0.044179447, -0.44849545, 0.097944126, -0.34800196, -0.39264175, 0.16396512, -0.32441354, 0.059358973, 0.6846453, 0.33946082, -0.17705055, 0.19639689, -0.6363597, -0.30408305, -0.7829559, -0.2045523, 0.054701887, -0.6907258, -0.08824333, -0.17940958, 0.27504256, -0.040111028, 0.2012827, 0.14920923, 0.15074965, 0.33370793, 0.31712988, -0.91442716, 0.2712378, 0.5670102, 0.47989807, -0.49191028, -0.22267835, 0.28675976, -0.20797575, 0.7223576, -0.059892904, -0.4695347, 0.38205755, 0.12889858, 0.06458115, -0.6091345, 0.39940825, 0.29882684, 0.45944363, -0.2075007, -0.018404767, -0.47402754, -0.4410324, -0.37971705, -0.053550966, -0.3427828, -0.28031912, -0.0067661824, 0.4039843, 0.18009964, -0.4299988, 0.56268436, -0.37940085, 0.19134118, 0.10751955, 0.39398554, 0.19947477, 0.41548967, 0.2681438, 0.28886655, 0.3482252, -0.56357706, -0.22180402, -0.15711513, -0.4785591, -0.06059308, -0.7471353, -0.9435999, 0.026873568, -0.8554117, 0.07601856, 0.37910223, 0.1886315, 0.026290711, 0.4927279, 0.021857198, -0.4623043, 0.5635933, -0.17350402, -0.12093283, -0.02777881, -0.18849063, -0.18008739, 0.38972998, -0.9998406, -0.45348287, -0.5491792, -0.12519701, 0.062150586, -0.08985009, -0.16415843, 0.26703674, -0.07339475, -0.6296948, -0.4211479, -0.46320954, 0.9807793, 0.109585784, -0.32068205, 0.11037463, -0.6487879, -0.36044303, 0.5661645, 0.28334576, 0.066818185, 0.31040728, -0.4172054, -0.24007371, -0.31506318, 0.123587824, 0.3345688, -0.050337743, -0.35851938, 0.13122317, -0.12970646, 0.053740215, -0.3293393, -0.4101502, -0.07673414, 0.1217587, 0.08598577, -0.57079667, 0.18766806, 0.17773421, 0.08502929, 0.306282, 0.027498102, 0.48187417, -0.20455973, -0.7528571, -0.07790889, 0.48619944, -0.05561001, 0.1514434, 0.0041283816, -0.5873916, -0.31861758, -0.5431907, -0.46722168, -0.105604485, -0.18712026, 0.3543332, 0.40823174, 0.3265432, 0.3585815, -0.3812778, 0.29259092, 0.055478834, -0.17414382, -0.16980422, 0.023448553, -0.10188297, -0.2885503, -0.10317032, -0.4083394, 0.42359456, -0.6251229, 0.27309948, 0.33406478, 0.35999718, 0.41933456, -0.34986505, 0.029319877, 0.40585622, -0.84159744, -0.4355685, 0.2971107, -0.5682742, 0.49684983, -0.5224651, -0.21673317, 0.043403704, 0.061421044, 0.7220523, -0.41482455, 0.7493118, 0.23747249, -0.38198704, 0.79325694, 0.20826817, -0.31876525, -0.10860032, 0.53820753, -0.35964832, 0.5482505, 0.9132515, -0.10297926, 0.042785615, -0.4498918, -0.21070275, 0.25448257, 0.28321072, -0.49315062, -0.1678146, 0.03709139, -0.3352625, -0.39159974, -0.40296537, -0.11539511, 0.39858514, 0.118838, 0.7718511, -0.28783923, 0.38474673, -0.29821295, -0.21963736, 0.08984469, -0.4011901, -0.18892418, -0.56685823, -0.39974865, 0.0528365, -0.2885682, -0.41291124, 0.292013, -0.047813423, 0.3100469, 0.37896192, -0.22690728, 0.44832015, 0.2301422, -0.5876974, 0.011917442, 0.45817694, 0.7486409, -0.027412843, 0.107512966, 0.5489916, -0.058264326, -0.33244896, -0.29571897, -0.2589607, -0.53185976, 0.3396361, 0.7434362, 0.34020165, 0.21985106, 0.36854568, 0.27789816, 0.004318823, -0.35337082, -0.011301277, -0.11571769, 0.1481559, -0.45879024, -0.047486197, -0.71327436, 0.2673726, 0.63494235, 0.452401, 0.035956167, -0.155062, -0.5817314, 0.18188074, 0.2557304, 0.14835803, -0.102845654, 0.33128503]</t>
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[0.37471226, 0.021817027, -0.3537319, 0.14987321, -0.020575128, 0.38596278, 0.4780553, 0.69334257, 0.29211062, -0.02278652, 0.57603174, -0.1273683, 0.13517928, 0.053350117, -0.32786, 0.2810245, -0.06191992, 0.17534801, 0.55225074, -0.08770171, -0.34990212, 0.27500957, 0.09354225, -0.29414722, -0.20029429, 0.20364562, -0.26892582, -0.265351, 0.7191671, -0.48941687, 0.059633333, 0.01480402, 0.40933985, 0.17990956, 0.11179424, -0.21701644, -0.35680577, 0.15881227, 0.18315075, -0.29041827, 0.38376063, -1.0417397, -0.37323046, 0.118848786, -0.03991204, -0.280248, -0.09931807, -0.24253495, 0.5877309, -0.024559375, -0.66846335, 0.38150403, 0.6733402, 0.2541811, -0.38660443, -0.52888876, -0.46478435, -0.696164, 0.2769557, -0.23352805, 0.501644, -0.36162314, -0.30414024, -0.32979125, 0.03293318, 0.1910331, -0.13197486, 0.35582626, -0.68146694, -0.6069521, 0.46624085, 0.288955, 0.116061576, -0.12639922, 0.15770146, -0.13697068, 0.4406239, 0.21232574, 0.7696546, 1.4067645, 0.9834845, -0.83322483, -0.099930726, -0.6349942, -0.15075421, -0.74759376, 0.11230573, -0.32939637, -0.36798066, 0.04660897, -0.12021197, -0.17544042, -0.6159737, 0.17958449, -1.0049707, -0.52394634, 0.13329753, -0.2144869, 0.4960344, -0.1545821, 0.4393835, -0.02919212, 0.059429422, 0.29091975, 0.36542013, 0.48712465, -0.24289864, 0.76858914, 0.71955913, -0.10566732, 0.2981448, -0.04958052, 0.50604403, -0.09183702, 0.36710575, 0.11667137, -0.7228614, 0.06441016, 0.1884225, 0.57897234, -0.5000402, -0.3650963, -0.005759645, 0.2992417, -0.114495106, -0.034547564, 0.5475864, 0.10009137, -0.28181946, 0.03805808, 0.037484426, 0.64385116, -0.20974423, -0.22692378, -0.26689708, 0.33142287, 0.185344, 0.17642285, 0.19678468, 0.7174343, 0.005432608, 0.05893364, -0.15476285, 0.1980837, -0.4595429, 0.12613495, 0.30199087, -0.36884058, -0.317379, -0.44984663, -0.25718692, 0.28495467, -0.6188735, -0.35820526, -0.19663477, -0.6689638, 0.2647438, -0.014776606, 0.2685525, -0.049847282, 0.053380106, -0.31946358, 0.18634692, 0.30545968, -0.30770355, -0.0130719, 0.60151637, 0.069755904, -0.00796039, -0.29630783, -0.0016969397, -0.09352536, -0.42250094, -0.026629744, -0.12068072, 0.53758514, -0.5442361, -0.41276476, -0.4594007, -0.0066862446, 0.41577324, 0.037530445, -0.4495951, 0.43584412, 0.018207747, 0.19616888, 0.023844847, -0.27478, -0.48228088, -0.59979177, -0.08014385, -0.2654678, -0.1761226, 0.43926796, 0.2429658, 0.67790514, 0.009389402, 0.35971624, -0.17287949, 0.21778382, -1.4548997, 0.52414376, 0.046220336, 1.0605595, 0.5086812, -0.08547011, -0.057072766, -0.31234774, 0.023981554, -0.46357965, 0.26525992, 0.66838497, 0.094619475, -0.61647063, 0.103059396, -0.037697755, 0.52114964, 0.5020062, -0.291485, -0.57592636, 0.088801354, -0.02855843, 0.7666025, -0.6485766, -0.4270054, -0.38997227, 0.19479927, 0.349864, -0.1844931, -0.45478094, -0.28199357, -0.5925482, -0.7525428, -0.4893966, 0.9025239, -0.15988582, 0.6415689, 0.54235625, 0.09965627, -0.052829508, 0.51168597, 0.03092498, -0.13712256, -0.2640672, 0.25326318, 0.48634794, 0.34251437, -0.33130926, 0.21848439, -0.8090166, -0.24906462, 0.8843454, 0.306853, -0.24868879, 0.48947996, -0.2756402, -0.07876035, 0.777543, -0.256022, -0.388112, -0.15661488, 0.298654, -0.4857834, -0.32033226, -0.21570587, 0.2559064, 0.32968804, -0.78861463, 0.58971876, -0.6921212, -0.06441761, -0.5226178, 0.5458592, 0.32063574, 0.025663419, 0.018328963, -0.5431734, -0.03914227, 0.21906675, -0.38306078, -0.07829758, 0.48501232, 0.08926083, -0.43777767, 0.293653, 0.00628218, -0.52782816, 0.26349527, -0.3535775, -1.0165778, 0.4346166, -0.3161313, 0.06865044, -1.566208, 0.2361709, -0.013636451, 0.0073453933, 0.03933716, -0.027665852, -0.11032815, -0.12455522, 0.13621701, 0.15416974, 0.3051822, 0.28362387, 1.1239667, -0.46440235, -0.87948287, -0.024540586, 0.43092126, 0.17661856, 0.18498336, -0.4515152, 0.29062822, 0.2976091, -0.2196104, -0.31439054, -0.1426058, -0.24985668, -0.057793513, -0.27121735, 0.088480674, 0.5240837, -0.09207645, 0.5022994, 0.025084466, -0.49859205, -0.11566313, -0.24559508, -0.070843756, -0.7104473, -0.33851072, 0.24213125, -0.504918, -0.04268217, -0.2659489, -0.18624853, -0.59740216, 0.44848758, 0.040732168, -0.03834046, -0.4829726, -1.3283719, -0.3800499, 0.3903138, 1.2355963, 0.04293326, -0.8684386, -0.111188576, -0.34652278, 0.2956742, -0.3796702, -0.30354717, -0.11272008, 0.2990412, -0.44445398, -0.024744097, 0.89597285, -0.40059063, -0.27569836, 0.54582536, 0.48521715, 0.20033024, 0.27965453, -0.024139034, -0.12779532, -0.40646464, 0.11695345, -0.058433175, -0.39058793, -0.1595649, -0.5635151, -0.041980844, -0.45099163, -0.36903268, 0.23140475, -0.3921085, 0.20947737, 0.33394554, 0.13327545, 0.27095768, 0.5073873, 0.010064483, -0.79831326, 0.08521269, -0.5560467, -0.32538012, -0.08637676, -0.3898048, -0.008090338, 0.008372621, -0.055142872, -0.40409687, -0.2674535, -0.8691431, 0.17688982, -0.37954363, -0.2561654, -0.0011993761, 0.39363554, -0.050015386, 0.30651438, 0.07650013, -0.3856335, 0.046368122, 0.31521127, 0.24829213, -0.4747688, -0.45612174, 0.31593317, -0.697047, -0.3454438, -0.016806347, -0.25774673, 0.006781264, -0.72077656, -0.39722076, 0.59348774, 0.052597743, 0.2930992, -0.17406486, -0.053474165, 0.6035863, -0.7231213, -0.28894076, 0.39499867, 0.33224332, 0.16447537, -0.33648527, -0.08210339, 0.56201875, 0.20458561, 0.4248772, 0.053835712, 0.1972263, -0.7894708, 0.26914832, -0.41903967, -0.72813886, 0.32876018, -0.24569376, 0.07262519, 0.41710588, -0.041115567, 0.1457784, -0.31830263, 0.34417975, 0.21217273, -0.56392276, -0.8158421, 0.35117343, -0.36483592, 0.119597405, 0.5372087, -0.30581796, -0.20223448, 0.7533213, 0.03696686, 0.035303287, 0.5789535, -0.18544525, 0.83929294, -0.43156755, -0.03600829, 0.53071827, 0.1699353, 0.27061313, 0.33748224, 0.21449879, 1.1245383, -0.6173738, 0.042896952, -0.02542742, -0.1327185, 0.40944105, -0.36452782, -0.09514153, 0.13285463, -0.0683569, -0.16425893, -0.12851061, -0.508463, -0.34243742, -0.006831974, 0.51897186, 0.33301622, -0.397558, -0.4099971, 0.25021842, -0.3581364, -0.37991366, 0.31658652, 0.56236005, -0.2050419, 0.8501126, 0.31232092, -0.4254166, 0.0733801, -0.07230355, 0.27647775, 0.026900802, 0.06825292, -0.4551334, 0.42881218, -0.48084912, -0.15861915, 0.19242905, 0.27134803, -0.4311902, 0.06668666, -0.23316301, -0.039189465, -0.0067391833, -0.12651616, 0.06382983, 0.37141004, 0.019824823, 0.22543098, -0.48527485, 0.49526218, 0.17920215, -0.43130285, 0.22406028, -0.31369832, 0.038464528, 0.3030194, 0.16485423, 0.11889989, -0.25272173, 0.63305414, -0.36640012, -0.38012615, -0.17133568, -0.46060532, 0.4983764, 0.15160169, -0.2949252, 0.26876205, 0.45393103, 0.1499858, 0.22334944, 0.093335375, 0.3539553, -0.077318154, -0.10778638, -0.40530074, 0.7620343, 0.57640636, -0.2963653, -0.0899001, -0.5541764, -0.5089932, -0.31521088, -0.6918732, -0.74111307, -0.14363089, -0.26863793, 0.09974186, -0.8058537, -0.111325026, -0.13971198, 0.5103748, -0.3840825, 0.072541565, -0.29960966, -0.13772568, -0.30787262, 1.1184785, -0.057235166, -0.47476843, 0.49953556, 0.22553016, -0.20888186, 0.22498395, -0.7586574, -0.8236862, -1.0025389, 0.09331623, 0.098736204, -0.31684873, -0.14125782, 0.4755996, 0.83707726, -0.12895295, 0.29831967, 0.31967142, -0.4498943, 0.112929545, -0.09761167, -0.06594267, -0.6249195, -0.40038264, 0.04358708, 0.17923021, -0.685666, -0.49940506, -0.15650105, -0.45490107, -0.50612277, 0.14802411, -0.017259782, 1.0070126, -0.61808026, 0.17705947, -0.6350625, -1.1631535, 0.18128215, 0.10866685, -0.066683926, 0.2573247, 0.16467112, 0.08644361, -0.006454374, 0.26639348, -0.2232907, -0.07719669, -0.36479217, -0.7694774, -0.58159745, -0.15516135, 0.32058674, -0.15330999, 0.10149201, -0.12962268, -0.06297722, 0.4451527, -0.14652953, -0.2565721, 0.4046984, -0.62943864, 0.7269494, -0.4727742, 0.68190074, 0.2818368, -0.34324858, -0.20126623, -0.013201015, 0.13959572, -0.19030884, -0.5232163, -0.45201117, 0.3309633, 0.3488592, -0.29017755, -0.40781972, -0.33280855, -0.44833535, 0.23768164, -0.58372796, -0.64933103, -0.4944262, 0.20711337, 0.19533613, -0.7919535, 0.4832398, 0.11289554, -0.89097023, 0.18013437, -0.20303106, -0.025648292, -0.050499976, 0.60301435, 0.41351894, -0.30131933, 0.12131177, -0.25233433, -0.56563246, -0.40743378, 0.4002046, 0.013215819, 0.33227238, 0.2024423, -0.099703535, -0.02650205, -0.8315792, 0.49048743, 0.092240766, -0.38121653, 0.5879798, -0.09458142, 0.31759602, 0.293983, 0.46430066, 0.017740868, -0.2358632, 0.29541594, 0.13990735, 0.10862923, 0.0054994742, 0.25966266, -0.65170085, -0.18082131, 0.97252667, -0.61969745, 0.07079491, 0.67418694, -0.2755847, 0.5995437, 0.22147512, -0.21696955, 0.5202228, 0.37143835, -0.51504385, -0.74893034, -0.21204504, -0.11423199, -0.25381893, -0.40663272, -0.45646894, 0.0895243, 0.24389726, 0.086375244, -0.031782493, -0.3281943, 0.08310409, -0.4708328, -0.3733055, -0.5955481, -0.040741876, -0.8398273, 0.1853055, 0.02150086, 0.31711772, -0.20092212, 0.3676172, 0.24495906, -0.17756775, -0.7290967, 0.07001711, 0.19478917, -0.19501346, 0.33683836, 0.32595763, 0.03924883, 0.28967324, -0.34856004, -0.46068922, 0.037849754, -0.15663345, -0.24422322, -0.10534502, 0.4504426, -0.8455394, 0.01219159, 0.21045814, -0.056299254, -0.1584475, 0.35280725, 0.20009424, -0.045380212, 0.045476038, 0.1591164, 0.26257184, 0.27037293, -0.15042052, 0.073717065, -0.4010308, -0.1379554, 0.5007469, -0.70519155, -0.29121682, -0.27379075, -0.16325328, -0.39463717, 0.32372057, 0.74459875, -0.4060344, 0.051085904]</t>
         </is>
       </c>
     </row>
@@ -965,20 +1078,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>부착성의 의미는?</t>
+          <t>부서짐성의 의미는?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TPA 곡선에서 피크 사이에 음의 방향으로 위치한 피크의 면적으로 시료의 끈적한 특성을 나타냄.</t>
+          <t>시료를 압축하여 텍스처 분석 시 표면이 깨지는 특성</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>[-0.08502101, -0.38516578, -0.13854872, 0.5498657, 0.0537936, -0.25679308, -0.080473326, -0.056911178, 0.14317751, -0.23877715, -0.63218623, -0.46862507, -0.4152056, 0.44535846, -0.061647907, -0.47395414, -0.15756147, 0.4279096, 0.4099844, -0.49482137, -0.5959773, 0.18694922, 0.18098332, 0.40897444, -0.5806131, 0.14275049, 0.012326099, -0.2774002, 0.4227652, -0.5014809, 0.53896123, -0.17912625, 0.4035411, 0.17495574, 0.8456978, -0.08480516, -0.9026904, -0.6029972, 0.52129453, -0.22708069, -0.15409356, 0.041821018, 0.0520988, 0.18193929, -0.07866633, -0.17785308, -0.24787115, -0.3082478, -0.26972362, -0.14162129, -0.6111197, -0.10308489, 0.8323394, 0.24919106, -0.27313846, 0.04122335, 0.48167977, -0.46656093, 0.44967902, -0.2393571, 0.7586886, -0.61129594, -0.3463194, 0.66782564, 0.04436151, -0.24005233, -0.32795987, -0.09569772, -0.6006149, 0.11942863, -0.0005975347, -0.01885113, 0.6810612, -0.27459064, 0.0023945868, -0.22629307, -0.008000761, 0.17733811, 0.24849485, 0.47031683, 0.20528065, -0.76087093, -0.26802668, -0.86364824, 0.2983655, -0.008049255, -0.0468518, -0.30276394, -0.78229696, -0.043760084, -0.63347423, -0.24399915, -0.31867355, 0.11028394, -0.92582834, 0.06517971, -0.031100689, 0.26303625, 0.35967547, 0.013100225, 0.26833543, 0.58542144, -0.26242524, 0.97227436, 0.031690046, -0.035271544, -0.83093244, 0.64218986, 0.079908535, -0.16810724, 0.6852887, -0.32536137, 0.46556363, -0.05502005, 0.29737714, 0.46371272, -0.45878062, 0.44924402, 0.022520622, 0.35517427, -0.06337124, -0.658221, -0.46112534, 0.2916884, -0.45496142, 0.17565581, 0.5740443, -0.0052893357, 0.053779714, 0.17026405, 0.22599345, 0.09337197, 0.41466212, 0.08202191, -0.5209735, 0.013930449, -0.43265858, -0.24411711, 0.5988323, 0.03696898, -0.3243003, 0.03535726, -0.37566176, -0.49790502, 0.5128705, -0.39642054, 0.46549776, 0.0741359, -0.035473987, -0.28718355, -0.19483007, 0.26183942, -0.80366004, -0.3843294, 0.32514262, -0.42949158, -0.055212907, 0.10693759, 0.08927908, 0.51877654, 0.13453057, -0.5816909, -0.31556535, -0.012570173, -0.21704215, -0.45257688, 0.34442288, -0.34329122, 0.10115762, -0.46744204, 0.026150607, -0.06249273, -0.051232357, 0.018765928, 0.17370379, 0.20543373, -0.24431914, 0.5726666, 0.1798936, -0.6859117, -0.46016842, 0.21837273, -0.39499992, 0.12083837, 0.19996771, 0.040871467, -0.09653189, -0.34595278, -0.79763484, -0.001188077, 0.83812976, 0.023561746, 0.017072676, -0.45809257, 0.23154683, 0.5441297, 0.0061151646, -0.35431105, -0.22836885, 0.21597722, -1.2201489, 0.49409178, 0.45807514, 0.090576485, 0.51835, 0.63610184, -0.02607749, -0.42005646, -0.0022447333, -0.40307948, -0.42449796, 0.51472753, 0.071328685, -0.49855167, -0.3685311, -0.009363249, -0.35494003, 0.070373535, -0.57453674, 0.054706424, 0.3336354, -0.35795742, 0.81981957, -0.12717313, -0.16025105, -0.20059642, 0.10859963, 0.2758875, -0.07351494, -0.15661119, -0.17513075, -0.9902622, -0.76526606, -0.1301938, 0.49556443, -0.3247199, -0.025450502, 0.29273733, 0.09502244, -0.2473899, 0.33178538, 0.18798418, -0.07059874, -0.100089476, -0.03608223, -0.1133076, 0.15679534, -0.69576365, 0.7420784, -0.6167778, 0.3114971, 0.9142227, -0.86244017, -0.33513376, 0.991512, -0.2817056, -0.5777943, 0.6556061, -0.35332316, -0.26415652, 0.31266922, 0.06724117, -0.61032796, -0.6042954, -0.28606156, 0.01629113, 0.21830282, -0.74650955, 0.45442975, -0.28239995, -0.7644101, -0.49553302, 0.35397714, -0.28068215, 0.28466135, -0.075435884, -0.30256692, 0.83629, -0.38901055, -0.14548363, 0.4662617, -0.19785193, 0.83517283, 0.14106722, 0.3524087, -0.022143021, -0.049978293, -0.35416907, -0.03207408, 0.18653876, -0.14195523, 0.27024075, 0.014271144, -2.3826382, -0.048872724, 0.09141552, -0.5960565, -0.34187979, -0.35766345, 0.3608532, 0.6890682, 0.29139665, -0.6481445, 0.36264333, -0.26909494, 1.1801097, -0.37483454, -0.36575067, 0.42106318, 0.93242794, 0.27010298, 0.07086939, -0.33055547, -0.35370645, 0.2639235, -0.25432852, -0.025697626, -0.8820494, -0.07989927, 0.7684995, -0.59093016, 0.46808818, -0.17921704, 0.32412994, -0.05302877, 0.27800697, -0.493417, 0.5915146, -0.31001467, -0.10324784, -0.48390403, -0.09817367, 0.7723883, 0.27481362, 0.086249, -0.047259726, 0.4806824, -0.2129094, -0.19356127, -0.2112746, 0.44281095, -0.085527755, -0.69789565, 0.42180982, 0.49741864, 1.2037565, -0.008271962, -0.2707197, 0.36040503, -0.77681994, 0.1549377, -0.5452897, -0.17910108, 0.21080062, 0.5224105, 0.24634542, 0.5957974, 0.6241605, 0.19536996, -0.29630214, 0.51424146, -0.04230049, 0.35693553, 0.14679487, 0.06113829, 0.48976284, -0.72547954, -0.014631186, 0.6539843, 0.17016369, -0.14195977, -0.6883446, 0.25598186, -0.6850685, -0.5686667, -0.24656452, -0.06549121, 0.43196726, -0.08690982, 0.5133027, 0.6658871, 0.65325516, -0.32686502, -0.79572284, 0.67425025, 0.21898402, -0.46741956, 0.34800407, -0.3666638, -0.09142254, -0.016122263, -0.38533399, 0.052380502, -0.40294436, -0.75950533, 0.12486396, 0.4033276, 0.21767402, -0.27158377, -0.24154231, 0.10303716, 0.3269479, -0.13463792, 0.5970045, -0.03919117, 0.33802557, 0.66530704, -0.67984706, -0.14530598, -0.31874967, -0.44051445, 0.033483922, -0.49169022, -0.03581281, 0.080951266, -0.2920006, 0.21043909, 0.054894764, -0.56644297, -0.13783683, 0.011538692, -0.8814897, 0.7757423, -0.98890036, 0.163251, -0.13634598, 0.26384804, -0.18801805, 0.746171, 0.17059055, 0.650605, 0.23996177, 0.6293604, -1.0888855, 0.042693023, -0.45698583, 0.3207432, 0.30971196, -0.333211, -0.1194682, 0.13210598, -0.12611888, 0.48013574, -0.010378018, 0.19304785, -0.06775059, -0.42018262, -0.16359963, -0.29644042, -0.41305685, -0.84386814, -0.7513531, 0.14856829, 0.16327429, -0.45809245, 0.15721081, 0.60236293, 0.14871073, -0.24165958, 0.5789211, -0.13907978, 0.035374727, 0.0056966487, -0.34823504, 0.016670402, -0.1905908, 0.2449246, 0.032673657, 0.19631001, 0.66593605, -0.762882, -0.1588843, 0.16066945, -0.59282166, -0.24673516, -0.2948032, -0.28385666, -0.028666168, 0.1634323, 0.37696114, -0.19562763, 0.013901386, -0.10298767, -0.20089605, 0.4613096, 0.090686575, -0.18080857, -0.18806517, 0.39705437, 0.15746418, -0.7475164, -0.09648197, -0.15748432, -0.53899175, 0.79038477, -0.13077894, 0.110537305, 0.47459543, -0.6296823, -0.06738613, -0.21222077, 0.31912106, 0.23282558, 0.25792018, 0.08336499, 0.04803124, 0.1592979, 0.3834212, -0.7331369, -0.29215792, -0.18017057, -0.722454, 0.3822814, 0.09170202, -0.019110959, 1.0454454, 0.2882947, -0.2892576, -0.09627229, 0.44447374, -0.34579226, -0.06346646, -0.06928659, 0.15489402, 0.1987758, -0.22615366, 0.48339286, 0.3144802, -0.06182966, 0.3899097, 0.13604242, -0.6705243, 0.0831064, -0.13818797, 0.100044206, -0.33530542, 0.19968516, 0.61320513, 0.4258963, 0.43008316, -0.46276993, 0.13112755, 0.5765054, -0.3081022, 0.1460285, -0.15840891, 0.21009582, 0.3277772, -0.5093074, -0.64190453, 0.028137237, -0.30127785, -0.8482568, -0.23725538, -0.5655426, -0.21703003, 0.18088585, 0.3959295, -0.6594103, 0.4312194, -0.25270045, 0.91459996, -0.63810426, -0.45648566, -0.35382673, 0.32678705, -0.22618707, -0.11437644, 0.11882418, -0.31508595, 0.042474914, 0.4132527, -0.062006183, -0.0029787398, -0.09284585, -0.7661269, -1.1902392, -0.44922796, 0.46076345, -0.71642876, 0.50084996, -0.043301277, 0.2567063, 0.32993138, -0.017971285, -0.30681872, -0.07626797, -0.011540361, 0.18077813, 0.059670057, 0.6615313, -0.85111785, 0.47883177, 0.80483085, -0.740323, 0.027762745, 0.06484524, -0.8927002, 0.019017939, 0.8508287, -0.51859695, 0.44618255, -0.20814034, -0.09847709, -0.46271336, -0.27966386, 0.29874867, 0.01839663, 0.03004678, 0.21213025, -0.4691167, 0.27712953, -0.11139634, 0.31290773, -0.21399534, 0.34997144, 0.19507368, -0.049581364, -0.09418816, 0.14645873, 0.24606782, -0.39668694, -0.72831506, 0.19555429, -0.33392203, -0.21103632, 0.017306287, -0.6524323, 0.20084007, -0.9620155, 0.15764016, -1.0794233, 0.11143936, 0.008813936, -0.11589956, -0.5754492, 0.35800886, 0.13672628, -0.08435929, -1.1544416, -0.38023204, 0.14691588, -0.3118074, -0.27217725, 0.21090049, -0.3235043, -0.2858681, -0.31669208, -0.38078701, 0.25370327, -0.10967214, 0.22535801, 0.33484396, -0.4746261, 0.52021235, -0.28711393, 0.075099856, -0.029554889, -0.43154442, -0.019529246, 0.29787707, -0.08765587, 0.09861687, -0.032704897, -0.4592117, -0.17732522, -0.27106622, 0.12978451, -0.0834746, 0.012044277, 0.008910005, -0.24461007, 0.38160214, -0.022187736, -0.24214303, 0.09725326, 0.4653263, -0.3178179, 0.18712263, 0.019563809, 0.42673257, 0.25336072, -0.12920251, -0.23254375, -0.19465618, 0.95620793, 0.60187745, 0.37379572, -0.061403908, -0.42722452, -0.48934722, 0.23885953, 0.015431031, -0.56594175, 0.7136151, 0.62332016, -0.2202602, -0.3084923, -0.0044917297, 0.11644972, 0.351329, 0.0229248, -0.83879554, -0.5813524, -0.08740643, -0.46898198, -0.05278442, 0.06901515, -0.01148369, 0.12530236, -0.78926176, 0.18308294, -0.32935417, -0.124662444, -0.33170807, 0.19420367, -0.15668708, 0.24419838, -0.1743994, -0.4491802, -0.069619924, -0.19184935, -0.2565028, -0.43443483, -0.12800372, -0.25939345, 0.15336433, -0.20543669, -0.20581505, 0.060688596, -0.12700364, -0.5602931, -0.031990632, 0.75108993, 0.4130561, -0.08168785, -0.037712194, 0.36591336, -0.5663473, -0.13585083, 0.07023302, 0.23073316, 0.10206431, -0.02946794, 0.49331766, 0.47560686, 0.24335179, 0.5595081, 0.3555051, 0.12383725, -0.1523104, -0.087386996, -0.39457664, -0.09184466, -0.20806368, 0.4582536, -0.7490901, -0.0070772897, 0.23863295, -0.10594633, 0.20436111, -0.14998162, -0.04046338, 0.3940242, 0.29590878, 0.06579274, 0.07490764, -0.11227105]</t>
+        <v>2</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[-0.47638035, -0.3889591, -0.01671528, -0.23134764, -0.3289818, -0.15959297, -0.040078238, -0.22992863, -0.106729284, -0.16377813, -0.6015678, -0.2263932, -0.3672763, -0.13525721, -0.19228536, -0.4369868, -0.30592677, 0.25351605, 0.3718307, -0.7854824, -0.48424923, 0.15230536, 0.42307907, 0.17703038, -0.19817819, -0.013103399, -0.39923626, 0.2858671, 0.2293413, -0.4059839, 0.20285836, 0.14295477, -0.12111468, 0.364938, 0.4942552, -0.21345557, -0.5771403, -0.07975632, 0.43773815, -0.38998973, 0.08001534, -0.037462175, 0.33288553, 0.072265334, -0.004436695, -0.39459783, 0.13101651, 0.10025172, -0.47670767, -0.119938254, -0.2791799, 0.041735496, 0.72448456, 0.1487435, 0.1230073, -0.21415348, 0.0021034544, -0.10058822, 0.5056891, -0.21242908, 0.2341076, -0.62289596, 0.18391536, 0.58493453, -0.1995707, -0.44844353, -0.01570222, -0.11113897, -0.9166938, 0.058569808, 0.13571092, 0.30026233, 0.23196422, -0.49738666, 0.44867802, -0.2665728, 0.019246519, -0.25087225, 0.47327763, 0.42691183, 0.12105671, -0.51842904, -0.11808775, -0.7480304, 0.5954793, -0.18920165, 0.09530125, -0.2966499, -0.40751845, 0.04811649, -0.97749436, -0.564092, 0.08083837, -0.009951174, -0.64932734, 0.068556815, 0.28479263, -0.22359136, -0.14969987, 0.0029431183, -0.37007248, 0.3120377, -0.013829516, 1.2503203, -0.24292248, 0.52229947, -0.082362466, 0.662771, 0.11063975, -0.010581401, 0.68087155, -0.104295306, 0.113472715, 0.27290052, 0.24855113, 0.33881128, -0.48256594, -0.062033635, -0.43509942, -0.043287203, -0.02550278, -0.60935044, -0.529576, 0.24930994, -0.34441966, 0.33656213, -0.09272757, -0.2892398, 0.14168978, 0.37057328, 0.3339029, -0.15777929, 0.5424335, 0.10967437, -0.5291023, -0.19197331, 0.40938282, 0.23214006, 0.82265234, 0.42807677, -0.33532602, 0.19051902, 0.07091632, -0.34629476, -0.6700757, -0.524512, 0.25250858, 0.14384799, 0.06798618, -0.23864311, -0.2118842, 0.06568775, -0.71654695, 0.08156239, 0.010625654, -0.7855229, 0.070377745, -0.2817378, 0.526963, 0.43432888, 0.12125405, -0.35629168, -0.099141724, -0.033093818, -0.20392318, -0.28567642, 0.08247373, -0.16304295, 0.33004227, -1.087865, 0.16587599, 0.15815541, 0.063592464, -0.042354025, -0.08603854, 0.12860963, 0.05440788, -0.2223342, 0.22585712, -0.6099934, 0.26569903, -0.0667083, -0.23603354, 0.2284442, -0.11415466, 0.47590038, 0.09334931, -0.32335865, -0.7542501, -0.24560839, 0.4843885, 0.3743839, 0.49782383, 0.17527741, -0.068474695, 0.045573678, -0.092750564, 0.1997611, -0.1142338, 0.16215606, -0.55359215, 0.3223922, 0.08337226, 0.19453931, -0.0966363, 0.33425415, -0.18898255, 0.23542176, 0.5099599, -0.25917688, -0.50864726, 0.80279434, 0.24081606, 0.22422774, 0.13746195, 0.065634705, -0.23459572, -0.08335456, -0.3162037, -0.2527357, 0.51479983, -0.7177721, 0.9866435, -0.3425762, -0.24327604, -0.5476594, -0.033826947, 0.40096867, -0.3186618, 0.117248654, -0.257928, -0.9765179, -0.7424561, -0.4772251, 0.6254307, -0.60239637, 0.099208646, 0.4687589, 0.727454, -0.22945997, 0.2911653, 0.6474071, -0.47658524, 0.1855005, 0.5297019, -0.08895775, -0.040290654, -0.8172337, 0.023771655, -0.41394755, 0.3499962, 0.82751775, -0.4162467, 0.18379112, 0.027791116, 0.13868125, -0.35773954, 1.0081651, -0.35514224, -0.3357837, -0.28398347, 0.02183425, 0.2264655, 0.2530876, 0.09207499, -0.31511185, 0.569333, -0.3736107, -0.083889075, -0.21822101, -0.45183215, -0.34353712, 0.23073418, -0.09408066, -0.17187594, 0.30975163, -0.07565841, 0.5233486, 0.032882027, -0.08517049, 0.053374562, -0.08781832, 0.7011159, -0.14667661, 0.4081999, -0.060118694, 0.099888235, -0.3524276, 0.2601279, -0.025485354, -0.5071877, -0.13443041, -0.20514618, -2.639148, -0.16953133, -0.3943986, -0.4402629, -0.14257388, 0.26459286, 0.6307826, 0.3855063, -0.123062186, -0.81602156, 0.1988339, -0.2918149, 0.47919402, -0.6947203, -0.61019623, 0.06394881, 0.61491174, 0.651118, -0.1361877, -0.44063446, 0.18236773, 0.017495105, -0.430863, -0.13436045, -0.23652345, -0.1503766, 0.85856014, -0.28028092, 0.053565305, -0.44830024, 0.5230016, 0.29541337, 0.31676605, -0.35857284, 0.041901596, -0.05054299, 0.04126525, -0.22861046, -0.7139233, 0.47191843, 0.22549555, -0.50447834, -0.18125148, 0.53718364, 0.033303697, 0.24825253, -0.25865597, 0.32917118, 0.14840741, -0.25545433, 0.6636897, 0.72945863, 1.14662, 0.054052696, -0.23464411, 0.4684151, -0.48281485, -0.026572304, -0.3466051, -0.020081839, 0.34426513, 0.008746786, -0.20472758, 0.5114873, 0.2386645, 0.392908, -0.69191146, 0.57865775, -0.18403071, 0.10312358, 0.6453635, -0.30594793, -0.19085237, -0.8130932, 0.4739576, 0.52740693, -0.189379, -0.4753719, -0.3617609, 0.7747975, -0.3614148, -0.5045456, -0.51840514, -0.42116547, 0.28093114, 0.16224492, -0.034940317, 0.560338, 0.44835317, 0.0117766, -0.4666754, -0.069463104, 0.066615015, -0.036919434, 0.042613223, -0.66676784, -0.11331117, 0.45112833, 0.1242593, -0.13692407, -0.2199679, -1.1305705, -0.29679364, 0.42596278, -0.23798455, -0.27017722, -0.13643016, 0.50308555, 0.26118174, 0.11280412, 0.70585966, -0.14259511, -0.09844066, 0.9599423, -0.7934863, -0.6126046, 0.003927534, -0.39223474, -0.0532593, -0.57112104, -0.56166434, 0.030702718, -0.16054513, 0.12623557, 0.11491055, -0.56056213, 0.036867637, -0.47261578, -0.55311936, 0.23572296, -0.22809699, 0.21892798, -0.21200766, 0.11628434, 0.23076585, 0.3268972, 0.21328296, 7.3363385e-06, 0.12566644, 0.31667614, 0.07198196, 0.015158843, -0.61744326, 0.44107303, 0.33758864, -0.41149676, 0.13803846, 0.51009506, -0.2030025, 0.056379423, 0.4442121, 0.3886725, -0.48955405, -0.13248318, 0.026173435, -0.8531692, -0.49854618, 0.105630256, -0.21957906, -0.3792104, -0.09635249, -0.5514487, -0.32842278, 1.4960799, 0.10228957, -0.091249414, 0.088029236, -0.09323028, 0.054797363, -0.05413952, -0.08060512, 0.04735631, 0.029434707, 0.14392321, 0.8752221, 0.1782685, 0.2634243, 0.17233758, -0.5198623, 0.23491253, -0.2425909, -0.10533301, 0.14190657, 0.067504965, 0.09449956, 0.06635001, 0.57284814, 0.33984774, -0.64208215, 0.10914002, -0.4758642, 0.11837777, -0.18133065, -0.19561613, -0.4282029, 0.21993232, 0.26616895, -0.41026488, 0.010373218, -0.2066697, -0.14882201, 0.49172893, -0.18781833, -0.3846016, -0.1312712, -0.64048386, 0.30950186, -0.08355362, 0.21510114, 0.099153385, 0.20724596, -0.38236725, -0.049973216, -0.23604544, -0.47103918, -0.7432865, 0.57321095, -0.50670093, -0.42685267, 0.46138212, -0.54761165, -0.058352247, 0.37341732, -0.38405138, -0.06768691, 0.11320901, 0.021957627, -0.4730576, -0.45495498, -0.07770973, 0.13468494, -0.06295098, 0.08280354, 0.33155963, 0.39444762, 0.16755019, 0.012390531, 0.32943904, -0.8370687, 0.058612585, 0.2727216, -0.12332874, 0.017294083, -0.10195728, 0.6259527, 0.27261552, 0.623231, 0.04916968, -0.36055896, 0.5672352, 0.2545211, 0.0737731, -0.048779197, -0.13366956, 0.5361965, -0.48352787, 0.10584077, -0.11032203, -0.7130939, -0.6321598, -0.1663813, -0.5500768, -0.24664924, 0.035683725, -0.11652907, 0.038340442, -0.0005745656, -0.08608413, 0.55887, -0.19476251, -0.2912647, 0.056682367, 0.16935863, 0.014040383, 0.4914459, -0.058986306, -0.27060303, 0.17569083, -0.15796082, -0.09785644, -0.3935507, -0.53042245, -0.55292016, -0.88484824, -0.5273579, 0.33122873, -0.009893861, 0.5837951, -0.06396977, 0.4823314, 0.16498822, 0.13758771, -0.24067433, -0.21786341, 0.38796943, -0.08961315, -0.004653952, 0.16908127, -1.0582805, 0.54255885, 0.4377093, -0.9777053, -0.3107671, -0.24955636, 0.018009279, -0.35878637, 0.12727387, -0.24384625, 0.43416965, -0.22180341, -0.3200814, -0.62310815, -0.4322151, 0.40041426, 0.06144665, -0.4406439, 0.09469378, -0.07842399, 0.06714985, 0.049207505, 0.30469918, -0.38842162, 0.021627806, -0.45454052, -0.37582868, 0.11637828, -0.1692254, 0.07600859, -0.3051766, -1.0265646, 0.24497744, -0.31713355, 0.01603635, -0.14482675, -0.29970697, 0.09964539, -0.25316542, 0.65909266, -0.10702928, 0.04864478, 0.13678418, -0.4634971, -0.21800418, 0.59838873, 0.8332673, -0.62726957, -0.81044126, -0.07327901, 0.4442138, -0.3457938, 0.03623781, 0.11778002, -0.22205089, -0.12943985, -0.3037351, 0.07519339, 0.25199148, -0.17128581, -0.06926615, 0.77204925, -0.2739412, 0.67603534, 0.0010529277, -0.10525024, -0.46231037, 0.07053593, 0.037395764, 0.18588232, -0.0786197, -0.017751519, -0.07055898, -0.2924725, 0.7253568, -0.27648643, 0.26534396, 0.19350249, 0.21598248, 0.06998548, 0.2011314, 0.18353896, -0.14997432, -0.8841149, 0.017673587, 0.43009618, -0.53102446, 0.10712796, -0.61064506, 0.31549746, -0.23603122, -0.04869759, 0.48597845, -0.23842205, 0.11133867, 0.32186127, -0.117250256, 0.30515328, 0.2023057, -0.8889073, -0.25059855, -0.21314748, -0.56833994, 0.5499699, 0.3295178, -0.20859875, -0.25640917, -0.07047075, 0.13215351, 0.24741891, 0.31769767, -1.1435499, 0.092776634, -0.12362334, -0.05589876, -0.43465865, -0.06765189, 0.22480798, 0.39989278, -0.25414646, 0.079799935, -0.34119973, 0.14880867, -0.21534215, -0.24083737, 0.19780174, -0.019090142, 0.09296462, -0.77629685, -0.1619095, -0.35264283, -0.18167424, -0.40629768, -0.07237968, -0.15181823, 0.18213749, 0.12605947, 0.0800505, -0.064539924, 0.29841405, -0.40416324, 0.42677066, 0.68276644, 0.69881415, -0.16884536, -0.42913544, -0.07859248, -0.79196703, -0.05522333, -0.36506692, -0.10950646, -0.1514623, 0.42852095, 0.5531042, 0.40634668, 0.064214796, 0.32778585, 0.54345953, 0.13340443, 0.04390861, -0.05939809, 0.055448055, -0.22485256, -0.49449286, -0.0634698, -0.18044135, 0.15730341, 0.45013052, 0.21252495, 0.009507275, -0.1537105, -0.3482025, 0.3994368, 0.40946648, 0.36563057, -0.061645284, -0.31870657]</t>
         </is>
       </c>
     </row>
@@ -988,20 +1104,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Adhesiveness의 의미는?</t>
+          <t>Fracturability의 의미는?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TPA 곡선에서 피크 사이에 음의 방향으로 위치한 피크의 면적으로 시료의 끈적한 특성을 나타냄.</t>
+          <t>시료를 압축하여 텍스처 분석 시 표면이 깨지는 특성</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>[-0.6719083, 0.05639435, -0.07384386, 0.45490447, -0.27058923, 0.27796638, 0.008726419, -0.18176101, 0.18879424, -0.51960754, -0.5743958, -0.16293603, -0.15013123, 0.22849368, 0.09120095, -0.9158608, -0.124536306, 0.10970613, 0.10298728, -0.73575383, -0.7706435, 0.4513946, 0.34621388, -0.02980532, -0.12620622, 0.20024543, -0.17575608, -0.30866876, 0.10486243, -0.22642894, 0.8341866, 0.0007340915, 0.044215742, 0.229493, 0.50127876, 0.1226311, -0.84333384, -0.57550114, -0.056059062, -0.577166, -0.25201362, -0.21536766, -0.22567354, 0.42944396, -0.16857304, -0.2593923, -0.22525716, 0.3672411, 0.007253926, -0.33689925, -0.62270194, -0.2662656, 0.74931276, 0.4325124, 0.13825406, 0.14942177, 0.45413125, -0.16849186, 0.13537948, -0.27061707, 0.20425962, -0.7503605, -0.4316454, 0.41113645, 0.008537696, -0.015626706, 0.038699325, -0.2672444, -0.6433529, 0.4167154, 0.42809913, -0.22468218, 0.38134107, -0.017235545, 0.03693474, -0.471535, -0.08071136, -0.042269703, 0.5264311, -0.30582094, 0.17620803, -0.44288823, -0.5507779, -0.54495716, 0.4517933, -0.14925653, -0.018747486, -0.74657893, -0.53331476, 0.035153307, -0.5177095, -0.4022067, -0.50146097, 0.16548483, -0.411507, -0.59740025, 0.30714557, -0.35418263, 0.40134287, -0.39333355, 0.32554784, 0.1283875, -0.61594063, 0.16864546, 0.0064601763, -0.12584572, -0.7169255, 0.23084067, 0.41414464, -0.07428699, 0.9597711, 0.012192983, 0.5401694, 0.2112484, 0.46733934, 0.6311149, 0.06654623, -0.31536987, -0.26943898, 0.14089344, -0.19794698, -0.6214916, -0.35952842, 0.21762754, -0.29395324, 0.4646726, 0.19459113, -0.4261465, -0.15923405, -0.16817427, 0.42182496, -0.35631692, 0.3797248, -0.3581699, -0.4657056, 0.1160204, -0.043156575, -0.0365001, 0.597211, 0.24974519, -0.3597298, 0.11080813, 0.13099664, -0.37147322, -0.08850977, -0.6451299, 0.11360704, 0.18503188, -0.21898542, 0.025933154, 0.19599344, 0.36597607, -0.08398872, -0.421847, 0.05357276, -0.27228877, 0.12521276, 0.23574768, 0.09428739, 0.40113688, -0.11249189, -0.80664355, 0.09844577, -0.15556882, -0.50250435, -0.93352723, 0.35513115, -0.47227392, -0.31054714, -0.25942644, -0.7898392, 0.32786232, -0.5065529, -0.3427647, -0.3361075, 0.33340442, 0.4654318, 0.15148363, 0.06640497, -0.35611358, -0.15701064, 0.3512301, 0.33192074, 0.20088296, -0.03016681, 0.5318705, 0.13345408, -0.42793503, -0.02957155, 0.07308425, 0.40813515, 0.4411752, -0.007861375, -0.15083723, 0.28379634, 0.23778749, -0.40055224, -0.31322163, 0.27146733, 0.24936685, -0.947452, 0.09310787, -0.2841983, 0.76276946, 0.016051086, 0.765653, -0.48807457, -0.36221653, 0.10372534, -0.2957321, -0.71139795, 0.6725267, -0.1572573, 0.06687131, -0.028167767, -0.0023294904, -0.12565643, -0.13198374, -0.34554577, 0.026737833, 0.39539516, -0.21985334, 1.070033, 0.49252522, -0.8033771, 0.06349919, -0.27000454, 0.05953844, 0.04500563, -0.53036886, 0.43245593, -0.47300413, -0.4313733, -0.4919448, 0.9109011, -0.3297156, 0.08593296, -0.011210046, 0.56341475, -0.15479018, 0.18954831, 0.63544136, 0.09629798, 0.2542756, 0.40355495, 0.26636907, 0.27641824, -0.8838102, 0.675013, -0.5928889, 0.36594847, 1.1244931, -0.7252564, 0.023307802, 0.4459956, -0.042266514, -0.7094446, 0.47204807, -0.026136352, -0.313803, -0.05468881, 0.02294411, -0.4557867, -0.3021851, -0.20467514, 0.4273556, 0.04151324, -0.8071609, 0.38532045, -0.5651178, -0.5621632, -0.41442356, -0.07673044, -0.07991917, 0.33855173, 0.3158432, -0.80274695, 0.47993958, -0.077823624, 0.21507166, 1.0055249, -0.092693664, 0.17607754, 0.026287764, 0.10322068, -0.28310835, 0.075419225, -0.18941516, -0.16015692, -0.40584806, 0.13326353, 0.07968933, -0.31728074, -1.9644845, 0.06715918, 0.12338019, -0.603434, -0.5625157, -0.27271664, -0.04718508, 0.07788024, 0.06509134, -0.7475494, 0.6778856, -0.25964698, 0.68004286, -0.7017452, -0.046070863, 0.28237498, 1.1043956, 0.3110607, -0.30309364, 0.27958184, -0.4269227, 0.48847935, -0.46748134, 0.34980372, -0.23629235, -0.43559808, 0.006471966, -0.32029554, 0.40401104, 0.40419146, 0.4228854, 0.19599809, 0.09433658, 0.14769518, 0.20923996, 0.058678415, 0.26946306, -0.8069836, -1.0434942, 0.9944178, -0.2787409, -0.32441613, -0.25945038, 0.15764275, -0.38302937, 0.41102126, -0.20840907, -0.123773485, 0.1374301, -0.55170363, -0.17286037, 0.9094793, 0.60803723, 0.11728649, -0.38328362, 0.2820768, -0.07177084, -0.0801037, -0.15631095, -0.37203658, 0.4214896, 1.0712321, -0.19947809, 0.4005052, 0.91753024, 0.47043115, -0.5818503, 0.05907085, -0.030677421, 0.34857753, 0.55690557, -0.104380414, 0.14639793, -1.2427802, 0.6128983, 0.23207869, -0.28116, 0.12860431, -0.61916536, 0.28556356, -0.10114192, -0.051439, -0.34762698, -0.2145733, 0.53739923, -0.072067626, -0.039092507, 0.41499862, 0.5161801, -0.29522392, -0.93891317, 0.5187487, 0.041499637, -0.52792984, -0.14321905, -0.028813986, -0.11213463, 0.35819003, -0.07170148, 0.16992797, -0.22315675, -0.89832175, 0.11225982, 0.22873393, -0.48589402, -0.26698926, -0.24708599, -0.4444684, -0.091167904, 0.68237936, 0.033717964, -0.05289303, 0.3533082, 0.54757494, -0.004916211, -0.26745307, -0.3930814, -0.60431945, 0.16494903, -0.26173982, 0.013341394, 0.093148954, -0.011833685, 0.116716124, 0.22675091, -0.2671532, -0.24513811, 0.12441063, -0.5268622, 0.61021423, -0.62690264, 0.06465875, 0.35438904, 0.22945422, 0.08795002, 0.2040055, -0.011578506, 0.25111872, 0.27305987, 0.71971595, -0.32532895, -0.15954112, -0.62765574, 0.5916746, 0.2079453, -0.37285396, 0.19395399, -0.16636187, -0.02592134, 0.29961097, 0.064153306, -0.4123617, -0.063626476, -0.31580943, -0.12942056, -0.7763288, -0.6216462, -0.36402217, -0.26103675, 0.18921423, 0.31498376, -0.43900716, 0.3112679, 0.6168596, -0.21183747, -0.086961, 0.44141406, -0.27431706, 0.19420776, -0.39584532, -0.528287, 0.0622123, -0.07585965, 0.22600871, 0.34089914, 0.21021532, 0.7591318, 0.16574635, 0.0046833972, 0.73801076, -0.48437074, 0.18008341, 0.0033227748, -0.29948938, -0.036716457, -0.5598961, 0.46336395, -0.6513499, -0.21364032, 0.6217246, -0.47912028, 0.7270474, 0.07801802, -0.0541423, -0.515167, 0.62418926, 0.60953814, -0.35418668, 0.08465933, 0.54584247, -0.14043206, 0.290602, -0.3768741, -0.32492906, 0.55524164, -0.31269604, 0.21335365, 0.10989534, -0.07915447, 0.08101154, -0.10627801, -0.3026346, -0.013845184, -0.054643754, -0.08033013, -0.6127361, -0.18075836, -0.56888974, -0.3850036, 0.23524904, -0.32312992, -0.27533042, 0.48437354, -0.09289554, -0.631844, 0.22921237, 0.29013664, 0.050500587, -0.041772738, 0.06411994, 0.1427541, 0.46894905, -0.15677911, 0.24736208, 0.17417407, 0.006964971, 0.18417321, 0.102524, -0.36914575, 0.16986674, 0.036760107, 0.32580552, 0.011009536, 0.036868226, 0.0036456774, 0.092837386, 0.042050827, -0.32074654, -0.35472104, 0.14299038, -0.29063705, 0.15235794, 0.028095864, 0.2648679, 0.13526879, -0.654757, -0.54145885, -0.018880427, -0.580785, -0.3961403, -0.23908728, -0.20988327, 0.041975956, 0.20592767, 0.6128492, -0.8407907, -0.028234674, 0.17911181, 0.61262584, -0.32796615, -0.10939336, 0.15846802, 0.0046139364, -0.46991298, 0.14838213, -0.07430649, 0.40248653, 0.37267676, -0.28027275, 0.037763946, -0.22208194, -0.29036602, -0.7757389, -1.0108249, -0.41062853, 0.16871475, -0.557902, -0.03196188, 0.36229455, 0.27555335, -0.35077614, 0.27083957, -0.23663501, -0.56449854, 0.08358946, 0.16783305, -0.55008805, -0.0059673325, -0.030140432, 0.3796521, 0.1592024, -0.79679567, -0.2703576, -0.35835245, -0.17961644, -0.29042616, 0.41681874, 0.14034513, -0.106141694, -0.39032122, -0.11883426, -0.82602715, -0.661869, 0.8296078, -0.14330567, -0.3380043, 0.36847973, -0.31297943, -0.10387213, 0.42320135, 0.5057048, -0.26082394, 0.23131274, 0.15359153, -0.063054726, -0.3275436, 0.13392621, -0.0981287, 0.13116439, -0.23622459, 0.03628348, -0.24790502, 0.09660869, 0.53251535, -0.31628153, 0.30809003, -0.9295148, 0.6057721, -1.0509521, 0.36004826, -0.06274951, 0.09812303, -0.3928877, 0.15853658, 0.19103427, -0.58135295, -0.47276095, 0.3779708, 0.73332536, 0.020621965, -0.01977357, -0.057408288, -0.41651878, -0.5524178, -0.4077174, -0.2223073, 0.091245145, -0.1036833, -0.40075195, 0.39947808, -0.14436597, 0.45383635, -0.15381917, 0.08935155, 0.28261897, -0.33719745, -0.18482819, 0.14901137, -0.022488434, 0.025092287, 0.122119814, 0.04114404, -0.49052095, -0.95067793, 0.12084872, 0.4317346, 0.07139818, 0.3141177, -0.37026975, 0.15568243, -0.25395852, -0.68891156, 0.014403904, 0.1477434, -0.114463955, 0.5152131, 0.3396447, -0.3171633, -0.08049662, 0.52576756, 0.07918192, 0.18430352, 0.8077574, -0.23263192, -0.28666064, 0.19374089, -0.38048875, -0.35062382, 0.040749524, 0.17794783, -0.6428305, 0.4789316, 0.6564443, 0.134309, -0.27596247, 0.028172791, -0.29861078, 0.5932804, 0.09939169, -0.64982456, -0.40252292, -0.14240475, 0.1528381, -0.1711101, 0.28918043, -0.4195265, 0.23346294, -0.4073029, 0.20298657, -0.480135, 0.6505692, -0.1827937, -0.12996577, 0.24433972, -0.52276266, -0.14480692, -0.6849913, -0.029131325, -0.029130636, -0.5695873, -0.50445503, 0.38347444, 0.021880614, -0.07927085, -0.18852025, 0.41293773, 0.60319483, 0.3305124, 0.088609, -0.30795398, 0.5399794, -0.14593029, -0.47262314, 0.10697354, 0.61908066, -0.22298683, -0.15078257, -0.21508497, -0.5306201, -0.5091358, 0.070068926, 0.65935665, 0.55227846, -0.6530386, 0.5682519, 0.23443924, 0.59368557, 0.43357104, 0.39994872, -0.30373582, -0.13722815, -0.5450422, 0.39376318, -0.62156683, 0.10514617, 0.36619326, 0.30300754, 0.024411721, -0.17653984, -0.32595196, -0.14315909, 0.35835114, 0.3864273, -0.11242794, -0.13498285]</t>
+        <v>2</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[-1.0776442, 0.3463881, 0.34599254, -0.4346811, -0.20650569, 0.2859985, 0.67047226, -0.2541176, 0.32887346, -0.041161034, 0.31433633, -0.035005502, -0.5031279, 0.10311464, -0.07961851, -0.2350972, -0.2282202, 0.21812682, 0.27327356, -0.72831345, -0.17332089, 0.28559238, -0.12422681, 0.40252572, -0.20452425, -0.05618944, -0.13182014, -0.03139134, 0.71561587, -0.17166404, 0.57760984, 0.018063962, -0.036575392, 0.34411877, 0.483488, -0.31647345, -0.41968006, -0.043044157, 0.119345844, -0.6850151, -0.06382395, 0.20812544, -0.33561316, 0.73056495, 0.16811904, -0.33217508, 0.8295759, -0.2192909, -0.14445107, -0.08529031, -0.48490158, -0.47731766, 0.32253048, 0.42688793, 0.006219956, -0.1309246, -0.38199034, -0.4133605, 0.04276335, -0.047390867, 0.5446948, -0.30099663, -0.5304842, 0.40964046, -0.33568922, 0.0022042007, -0.43639508, 0.5114687, -0.72362626, 0.19614998, 0.07997664, 0.19029236, -0.26783586, -0.13256249, 0.38011983, -0.17001054, -0.29874533, -0.080148086, 0.51465034, 0.58403, 0.2507147, -0.33653322, -0.116688386, -0.6232604, 0.007869632, 0.077305906, 0.22734602, -0.075321294, -0.5343979, 0.34459934, -0.8044802, -0.30835262, -0.07162466, 0.53827965, -0.9396613, 0.11413939, 0.37737224, 0.113011494, 0.8909195, 0.13306573, 0.17957993, 0.3736469, -0.6086648, 0.97470695, -0.37865534, 0.8195823, -0.19647343, 0.37571448, 0.34181935, 0.16472803, -0.1373038, -0.1421443, 0.36081383, -0.14747648, 0.48794636, 0.7437267, -0.70578885, -0.31427392, -0.10419972, 0.071754925, 0.27038342, -0.09750784, -0.42810065, 0.05333826, -0.15213223, 0.113783315, 0.3619595, -0.1344338, 0.38272923, 0.32157975, -0.06130129, 0.20002523, 0.3759182, 0.19826576, -0.4181478, -0.3444417, 0.050017864, 0.26292422, 0.51354724, 0.27342728, -0.13691165, 0.18131451, -0.3668365, -0.1247144, -0.39506727, -0.35383528, 0.3366943, -0.49356842, 0.28443712, -0.85460913, -0.40195194, -0.0015922158, -0.43963838, 0.017738348, 0.1664237, -0.43114763, 0.16200134, -0.14074871, -0.008344309, -0.07119317, 0.39723164, -0.53907526, -0.3590185, 0.43252826, -0.2278517, 0.02498539, 0.23071161, -0.1942362, 0.35896653, -0.86467427, -0.7804627, -0.32463557, 0.00197348, -0.5610255, 0.38784796, 0.13712862, -0.74916613, -0.12939961, -0.027364457, -0.12456169, 0.13933264, 0.57430744, -0.19581762, 0.5271368, 0.04542517, 0.739594, 0.19974142, -0.25195307, -0.78675103, -0.786966, -0.37747636, 0.08769411, -0.37416524, -0.07984356, -0.25883806, 0.37732977, -0.24821202, 0.40404552, -0.48482236, -0.034776784, -0.39385742, 0.4859775, 0.331384, -0.028509896, 0.3995203, 0.24854457, -0.47015452, -0.0678402, 0.60860866, -0.36538178, 0.2043912, 0.99273807, 0.27435142, 0.43864316, -0.020163018, -0.4430221, -0.1061943, 0.00979283, -0.40367198, -0.28361437, 0.5905527, -0.24588256, 0.9188938, -0.3428984, -0.30477232, -0.12631807, 0.083372205, 0.095391676, -0.27646407, 0.25835174, -0.3831262, -0.8673779, -0.7136141, -0.66417086, 0.85890466, 0.04553614, 0.3256208, 0.195366, 0.042937864, -0.012389342, 0.39123207, 0.9077672, -0.29792413, -0.33803934, -0.37014812, -0.033458956, 0.08579795, -0.6440868, 0.22832322, -0.64840823, 0.4726634, 0.27978238, -0.28578687, -0.06283329, 0.34558362, -0.4567836, -0.24658588, 0.9023448, -0.45764947, -0.22946575, -0.43419877, -0.046495043, -0.32693017, 0.26267803, 0.1873305, 0.1531893, 0.20733628, -0.58047473, 0.44740456, -0.36784148, -0.12790018, -0.099079534, 0.48810753, 0.17208062, 0.2960217, 0.5172461, -0.10718106, 0.48799878, 0.13577506, 0.026147911, 0.3227425, 0.43232042, 0.186986, 0.21972463, 0.384526, 0.035769854, -0.05144151, -0.83785933, -0.1640641, -0.7085805, -0.31952187, 0.20127635, 0.27177972, -1.8257666, -0.16162482, 0.046200275, -0.46297914, -0.35271752, -0.08490936, 0.43879223, 0.3662023, 0.105675064, -1.0074486, 0.2561763, -0.62394917, 0.5729157, -0.5623403, -0.34241167, 0.42530757, 0.44214916, 0.51964253, -0.19858804, -0.24501595, -0.086360395, 0.13858704, -0.5915276, 0.063180566, -0.4516809, -0.029532468, 0.23582351, 0.24707499, 0.2973314, -0.2667308, 0.16193572, 0.22718947, -0.08468556, -0.21540578, 0.55491143, -0.19425592, -0.4574589, -0.5345295, -0.62023747, 0.8753026, -0.1937463, -0.10410665, -0.056736052, -0.15778881, 0.1512827, -0.5018692, -0.17126602, 0.03774592, -0.19396342, -0.8069385, 0.80554503, 0.035163693, 1.3177141, 0.40148997, -0.16949749, 0.17181022, -0.6949979, -0.43375033, 0.03015778, -0.40917134, 0.1613032, 0.087598264, 0.096085064, 0.64927745, 0.8570019, 0.16083054, -0.5459496, 0.58577603, -0.2198697, 0.27811822, 0.25875366, -0.44400176, -0.08372302, -0.47681004, 0.19593063, -0.10625247, 0.1299555, -0.18835612, -0.18560556, 0.274832, -0.1824933, -0.38115934, -0.27725673, -0.1497843, 0.11878331, 0.0101482365, 0.17492208, 0.7082741, 0.39383528, -0.0093846405, -0.8864647, 0.059719563, -0.55446464, -0.5352832, 0.4196661, 0.182116, 0.11131976, -0.2291419, -0.06320455, -0.015302544, -0.14060722, -1.281009, -0.02984252, -0.20119703, -0.13152671, -0.48530212, -0.28351936, 0.09642512, 0.3708845, 0.26123354, 0.7298277, -0.32054743, -0.43640298, 0.34914774, -0.3511138, -0.6857427, 0.23873642, 0.27910537, 0.1800867, -0.67189825, -0.69017375, 0.09787161, 0.1460033, -0.31590286, 0.09753728, -0.8290308, 0.20399246, -0.4755559, -0.4227726, 0.32192904, -0.186432, 0.3095622, 0.14494202, 0.6316249, 0.20967507, 0.25271726, 0.21521917, 0.39290962, -0.12045431, 0.19687492, -0.19969022, -0.3261905, -0.79517585, 0.08410637, 0.1175277, -0.69788074, 0.23733053, 0.69928294, 0.10990423, 0.44166955, 0.05179279, 0.0833761, -0.2898373, -0.31580362, -0.16741756, -1.0058601, -0.3339754, 0.04347747, -0.663754, -0.43383116, 0.24040326, -0.44710246, -0.59644425, 0.41235366, 0.0011875692, 0.3130589, 0.2136511, -0.2896879, 0.13475034, -0.017948132, 0.014748933, -0.41388837, 0.27032822, -0.41543856, 0.7594862, 0.16957395, 0.09816267, -0.20155974, -0.24411015, 0.26996177, -0.26809022, 0.38066217, -0.5157226, -0.49643928, 0.47493443, 0.44579315, 0.33923993, -0.3557139, -0.67317426, 0.4590072, -0.20188026, 0.7161348, 0.52965355, -0.5124465, -0.43197852, 0.5299176, 0.16433336, -0.32428235, -0.24470131, -0.08398833, -0.31179667, 0.95541155, -0.30975485, -0.08122529, 0.33293927, -0.1814616, 0.30691993, 0.5242702, 0.10827504, -0.005431175, -0.07503267, -0.44302025, -0.20114973, 0.33440015, -0.02475985, -0.49682993, -0.23665762, -0.39492023, -0.2111886, 0.43589792, 0.3294035, 0.20046702, 0.7792617, -0.3413167, -0.06920461, 0.036073837, 0.21794045, -0.39666164, -0.29678488, 0.23586302, -0.2645901, -0.09279547, 0.21951644, 0.7383483, 0.41625705, -0.62995857, -0.19866984, 0.28285432, -0.733024, -0.036256928, 0.3326002, 0.8062784, -0.25428107, -0.12841666, 0.65767694, 0.0716218, 0.3431842, -0.03830578, -0.23580053, 0.2859818, -0.1303097, 0.15262263, -0.12615424, 0.53298056, 0.63397616, 0.014105821, 0.06863383, -0.39947614, -0.33872983, -0.74243957, -0.455482, 0.17350101, -0.22093467, -0.47254714, -0.0798126, -0.16443563, 0.3444604, -0.6353239, 0.44512695, 0.015683401, 0.22346961, -0.46172708, -0.034718074, 0.14818226, 0.3385746, -0.32769245, -0.3305278, 0.5028402, -0.4013454, 0.0939281, 0.21424249, -0.5189809, -0.2599317, -0.81874496, -0.27765584, 0.43220216, -0.5766264, 0.523654, 0.62400556, 0.077324495, -0.26997882, -0.23963904, -0.025895465, -0.29815784, 0.3081848, 0.20187488, 0.1502569, 0.40659732, -0.77467144, 0.2667517, 0.061220504, -0.85404074, -0.2758469, -0.87543184, 0.17167309, -0.07846788, -0.117157206, -0.121458255, 0.32614946, -0.08962781, -0.38433072, -0.64923745, -0.7021901, 1.0341704, -0.0035659045, -0.47505814, 0.197418, -0.59304637, -0.33346033, -0.12044449, -0.06867459, -0.04362321, 0.20717344, -0.02972785, 0.07324874, 0.024229567, -0.0437649, 0.24953, 0.03863413, -0.44905743, 0.2807084, -0.62682784, 0.36452687, -0.31877962, -0.7149739, -0.05284515, 0.093581505, 0.40662593, -0.40595168, 0.103475474, 0.15866366, -0.13401668, 0.28401783, 0.01633592, 0.3600582, -0.2413907, -0.9358698, 0.07609847, 0.25683528, 0.14401789, -0.16033208, -0.41621274, -0.35070693, 0.14285597, -0.18268783, -0.36365387, -0.01738596, -0.23674572, -0.28149793, 0.0963485, -0.20543273, 0.5623666, -0.2947484, 0.0968678, -0.19986805, -0.6080141, 0.034318764, -0.45450273, -0.50895303, 0.17763755, -0.53310364, -0.2671885, -0.08782697, -0.65372694, 0.31612983, 0.3299648, 0.50651205, 0.18928984, -0.44806695, 0.36470842, -0.28562608, -0.09538885, 0.20515689, 0.038527183, -0.202827, -0.089806296, -0.5773664, -0.37643903, -0.5756111, 0.2776579, 0.15673645, -0.62735647, 0.7549806, 0.07745458, 0.17501898, 0.2585562, -0.077605866, -0.45648384, -0.3672928, 0.20226133, -0.7449792, 0.7668449, 0.46638474, -0.07365354, 0.31149763, -0.20274448, -0.0685716, 0.4085753, 0.31649572, -0.66963595, -0.38491425, -0.2232025, -0.25935885, -0.5218388, -0.16232847, -0.20006141, 0.6086897, 0.19038232, 0.20227833, -0.04357577, 0.4738539, -0.32322153, -0.07404398, -0.15621099, -0.9242485, -0.42809716, -0.90982544, 0.0927099, 0.17180856, -0.4582282, -0.3920049, 0.306902, -0.049675632, 0.35408372, 0.10522596, -0.00445807, -0.40817887, 0.05369828, -0.011771278, 0.2674206, 0.5246215, 0.09587209, 0.15835501, -0.051801883, 0.028611815, -0.677542, -0.14246628, -0.36743993, 0.4534842, -0.13730718, 0.15326269, 0.2176831, 0.5172273, 0.40860015, 0.4150977, 0.68840396, -0.029886935, -0.15570094, 0.21967459, -0.10462135, -0.09829356, -0.48281056, 0.26221824, -0.88304824, -0.0650184, 0.42772388, -0.15455677, -0.14150308, 0.4558333, -0.5641171, 0.110924795, 0.09671777, 0.26718715, -0.19785205, 0.07547091]</t>
         </is>
       </c>
     </row>
@@ -1011,18 +1130,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>로드셀이란?</t>
+          <t>경도의 의미는?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>힘을 전기적 신호로 바꾸어주는 장치로, 시료에 따라 적합한 힘의 범위를 가진 로드셀을 선택해야합니다.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>[0.14968383, 0.13157877, 0.6895732, -0.5073633, 0.70029694, -0.28357363, 0.27234095, -0.21277504, -0.30456764, -0.18212959, 0.3853474, -0.55803645, -0.25714368, -0.15521328, -0.31821007, 0.23186873, 0.1144427, 0.5034086, 0.6252838, -0.094062515, -0.23058878, 1.0351342, 0.073320925, -0.38381365, -0.73000604, -0.19291231, 0.15023002, -0.29939315, 0.3745593, -0.8565529, -0.23509905, -0.3191835, 0.14793539, 0.31165752, 0.68321466, -0.14261723, -0.41685587, -0.101139955, 0.5450689, -0.3560564, -0.29678473, 0.2180717, -1.3967286, 0.38914183, -0.15049423, 0.9767302, -0.36451674, -0.7249177, -0.7153812, 0.13249134, -0.077035025, 0.26338822, 0.5880672, 0.31719774, -0.052716434, -0.3028555, 0.31896546, -0.39984056, 0.5003275, -0.2801387, 0.26608583, -0.20345089, 0.61506367, 0.10517388, 0.14912578, -0.015798071, -0.41551504, 0.42747346, 0.048656184, -0.28482962, -0.03530825, 0.19141473, -0.05874512, -0.16028075, 0.20025377, -0.5008134, 0.26072696, -0.44200197, 0.23624922, 1.0334672, -0.5235319, -0.6660163, 0.36128566, -0.15160696, -0.5209051, -0.44668168, -0.50413305, 0.053962935, 0.013236554, 0.023985889, -0.6816578, 0.22055896, -0.5101772, 0.3986059, -0.5421457, -0.14078595, -0.02944441, -0.21341006, 0.872661, 0.81992036, 0.40811163, 0.41009787, -0.3734291, -0.11525605, -0.15910251, 0.79171723, -0.35473424, 0.70361763, -0.3240614, -0.53938526, 0.44571716, -0.07485256, 0.28348714, -0.40873125, 0.13777557, -0.2767071, -0.30486396, -0.13266547, -0.0011641426, 0.58108443, 0.64690053, -0.004959767, -0.19862291, 0.83575064, -0.16657898, 0.09413157, 0.5736564, -0.70833576, 0.18604031, 0.36591882, -0.5912711, -0.22100043, -0.15732038, 0.31102917, 0.25586724, 0.28980705, 0.53128606, 0.07628817, 0.21816757, -0.17581463, 0.3003106, -0.9731617, 0.44189554, 0.112046994, 0.0666177, 0.32341674, 0.9089101, -0.68361944, -0.5526146, -0.43086082, 0.038328324, 0.077002116, -0.5136023, 0.40924364, 0.4818284, 0.0590314, -0.08432704, 0.13428555, -0.26270753, 0.15698685, -0.22477189, -0.3327873, 0.53952736, -0.11866603, 0.37070274, 0.89651585, 0.36821207, -0.19457941, -0.23669723, -0.6575987, -0.50012016, 0.08979007, -0.07159599, -0.19423403, 0.2481992, -0.0052188123, -0.24500512, 0.602241, 0.23100911, 0.30537415, -0.6204055, 0.19475527, 0.32096347, 0.118664406, 0.19867298, 0.57297784, 0.28466752, 0.31013012, -0.1995517, -0.09884243, 0.07630855, -0.04576758, 0.1990869, -0.5250682, -0.013902093, 1.0388418, -0.40047523, -0.23681578, -0.5189775, 0.35500413, -0.53280723, 0.19628465, 0.32626864, 0.7350314, -0.13779864, -0.29729742, -0.23819809, 0.120045766, 0.5020853, -0.61291474, -0.18775205, 0.79301864, 0.42052028, -0.3579254, 0.07049053, -0.08908681, 0.13697852, 0.045296974, -0.28511915, -0.86528635, 0.016990358, -0.025521327, 0.6675123, -0.4854669, -0.30174652, -0.26165754, 0.21227813, -0.1369807, -0.31866625, 0.111675434, 0.06633528, -0.35145864, -0.5643572, -0.83645856, 0.8027806, -0.4524987, 0.13580252, -0.052137025, 0.16184099, -0.1854752, -0.36285713, 0.24276547, -0.5628002, -0.37660232, 0.69461715, 0.3399473, -0.22729917, 0.31534773, -0.43544817, -0.9918445, 0.5831042, 0.72826856, -0.37144193, 0.3371448, 0.34734082, -0.5486674, -0.38227072, 0.9289712, 0.091479555, 0.2359591, 0.06428404, -0.0033238786, -0.326828, 0.26026583, 0.043418843, -0.30599976, -0.15119024, -0.8495215, 0.5384721, -0.084348656, -0.15177776, -0.42331195, 0.2614564, -0.16127197, 0.047682367, 0.5671079, -0.082645305, -0.04558174, -0.45976305, -0.36740664, -0.027093774, -0.43557066, 0.51483697, -0.17829098, -0.28431708, -0.41074196, -0.012185722, -0.07961011, 0.42247707, -0.5853195, -0.3247208, -0.2548568, 0.22751544, -1.5031923, 0.36699075, -0.5572562, -0.4888223, -0.01849381, 0.25534764, -0.22322392, 0.22380099, 0.22641622, 0.05283888, -0.27547166, 0.2064568, 0.3410971, -0.607036, 0.51868767, -0.08077319, 0.75987625, 0.22857879, -0.19791043, -0.079011545, 0.08052315, -0.12913083, -0.23576398, -0.19227982, -0.46867323, -0.602805, 0.1906874, -0.047376152, -0.56628215, 0.38061175, 0.35746607, 0.09077593, 0.09628822, -0.5487762, 0.81441957, -0.5684214, 0.054482274, -0.49704784, -0.46820897, -0.25989422, 0.45260456, 0.06275695, -0.5229867, 0.32345894, -0.49217558, -0.038020708, 0.16123472, 0.29223266, -0.4042265, -0.69014084, 0.1762035, 0.41289598, 1.0696135, 0.19405138, 0.26349413, 0.1331421, -0.017869344, 0.09988316, -0.42396674, 0.11491985, 0.34194893, -0.4173451, 0.5317095, -0.08274644, 0.2553462, 0.78114265, 0.140174, 0.44478148, -0.11163628, 0.27569506, 0.08070024, 0.1788684, -0.0136075225, 0.24817225, 0.004424508, -0.20618959, 0.25495484, -0.39277014, 0.036142, -0.379745, -0.86976206, -0.36666867, 0.009960138, 0.23443177, -0.040727023, 0.19803317, 0.14951494, -0.106518194, 0.18790852, -0.18730187, -1.1576641, 0.9927598, -0.29753986, -0.2244778, 0.64714336, -0.3197704, 0.13258193, -0.15292929, -0.5227883, -0.192595, 0.046923604, -0.19599675, 0.050690047, -0.117109016, -0.08330972, -0.28579044, -0.14765486, 0.07196091, -0.15832397, 0.41684183, -0.35257035, 0.22798716, 0.12855306, 0.7347575, -0.27627447, -0.35346025, 0.08363723, -0.043132715, -0.24686967, 0.17564245, 0.024588792, -0.6367117, -0.5166539, 0.44788903, 0.11999611, -0.69517046, -0.17293957, -0.80785704, 0.24529466, 0.28831297, -0.3304791, -0.15157172, 0.46095076, 0.31271842, -0.5652335, 0.21480076, 0.028087195, 0.22670378, 0.24242866, 0.5148141, -0.32347044, -0.13649084, -0.91728777, -0.29374078, -0.040481534, -0.87909764, -0.1443235, 0.61261016, 0.13452245, -0.28402963, 0.122010484, -0.1206944, 0.45940185, -0.09611558, -0.3926396, -1.0276734, -0.013024288, 0.3473061, -0.09323937, -0.62305737, -0.42336684, 0.36660028, 0.26144034, 0.6885481, -0.12982515, -0.23951967, 0.09867872, -0.3788703, -0.61483675, 0.065268554, -0.3981156, 0.015956666, 0.8088621, -0.48366252, 0.4040998, -0.2717076, -0.35359332, -0.7838822, 0.4774745, -0.2911163, -0.19532813, 0.2799657, 0.036932554, 0.117321305, 0.42208233, -0.15326817, -0.2131913, -0.410486, 0.046694312, -0.026389504, -0.4316371, -0.2630733, 0.20339005, -0.13092288, -0.0809022, -0.10214818, -0.040391497, -0.06995046, -0.2711947, 0.63554096, 0.32868546, 0.703156, -0.1621661, -0.46319768, 0.78993064, -0.17410626, -0.23377368, 0.27547887, -0.18790582, 0.05548087, -0.8803126, -0.45759723, 0.1532824, 0.19881137, 0.20077772, -0.29820606, 0.5938454, -0.2952196, 0.3715584, 0.47668245, 0.62924725, 0.15287092, 0.47556233, -0.23435211, 0.1851675, -1.153759, 0.4106097, -0.17890511, -0.819781, -0.32199454, 0.38941103, 0.011709631, -0.23922883, -0.27966952, -0.07305396, -0.4953155, -0.26692605, -0.3940546, -0.44998837, -0.16844763, -0.112902366, 0.5968152, -0.102163, 0.7056583, 0.08161116, -0.16773129, -0.19657013, 0.3347647, 0.26507047, 0.6742627, -0.3278859, -0.29444912, 0.067926995, 0.15150416, 0.42998594, -0.5202943, -0.0119556105, -0.754897, -0.36000234, -0.32086667, -0.41741726, -0.14268687, -0.021429965, -0.3475756, -0.057172112, -0.088669196, 0.5299919, -0.48613098, -0.03056611, -0.20976707, 0.4204414, -0.66724205, -0.26427636, 0.43539628, 0.087101035, -0.12347369, 0.8075325, 0.285745, 0.40376434, -0.38679427, 0.5400812, 0.40227064, -1.6291574, -0.9519605, 0.49564004, -0.037985384, 0.32353386, 0.53399783, -0.38033453, 0.20561035, -0.3086585, 0.24323685, -0.12437929, 0.39484054, 0.42210743, -0.41663188, -0.27597865, -0.6666357, -0.9616518, -0.05084046, -0.13319372, -0.64653146, -0.2935048, -0.6522421, -0.074825265, -0.21511619, -0.27629414, -0.46880308, 0.58670825, -0.28505573, -0.075251944, -0.9392007, -0.89735216, 0.2486074, -0.7523803, -0.3585895, 0.77696294, 0.34721357, -0.2592783, 0.79097205, -0.87303364, -0.06746123, 0.11433991, -0.53424454, -0.66185606, -0.15133364, 0.43206912, -0.28422254, 0.055966683, -0.45007282, 0.44052553, 0.12480497, -0.50882787, -0.47582084, -0.2247956, 0.11818977, -0.24281205, 0.54195505, -0.7249783, 0.568, 0.2721421, -0.5241256, -0.20182438, 0.34478167, -0.090725765, -0.21658732, -0.922904, -0.39227885, 0.08786888, 0.5644158, -0.14224127, -0.57818264, 0.13459848, -0.64260477, -0.35782868, 0.3212258, -0.14585951, -0.63118744, 0.5490256, -0.15980686, -0.5508105, 0.6323933, 0.03097397, 0.65253705, 0.05095529, -0.09920882, 0.55288076, -0.5708913, 0.14367683, 0.5411976, -0.52840704, -0.41136292, -0.6715085, -0.6949624, 0.1695615, 0.044302102, 0.21134052, 0.4674234, -0.23866619, 0.0396594, 0.098730914, -0.53434855, 0.21345125, 0.96819174, 0.47933885, 1.0228579, -0.33548975, 0.38697308, -0.4513374, -0.000753358, 0.79111034, 0.013336278, 0.22553436, 0.16346228, -0.38783687, 0.5468846, 0.07375347, -0.06973378, -0.40444678, 0.44889435, -0.75626713, 0.645676, 0.9951245, -0.0715766, 0.4439352, -0.9629844, -0.6309586, 0.06731027, 0.023743693, -0.45822784, -0.4172566, 0.30989596, -0.028093597, 0.0581853, -0.4183889, 0.00027155344, -0.13612391, 0.45393392, -0.23880081, -0.29090133, 0.37473306, -0.03846528, 0.14462073, -0.04659754, 0.100336924, -0.1782691, -1.0627402, -0.49929854, -0.33501703, 0.01201952, -0.74802303, 0.75428027, 0.012662651, 0.18422115, -0.17412713, -0.5916378, 0.5615506, -0.2919952, -0.47620863, -0.7920472, 0.36143538, 0.14453772, -0.10252372, -0.523268, 0.26145086, 0.1432066, -0.22378823, -0.13828872, -0.10551046, -0.035430375, 0.43345547, -0.04932195, -0.13374515, 0.24785173, 0.49562073, -0.12096195, 0.10822113, -0.6035625, 0.5234142, -0.26691997, 0.07973916, 0.1247293, 0.025832608, -0.45866078, -0.16574168, -0.029650671, 0.68008995, -0.0072228736, 0.10746781, -0.15659294, 0.5408705, 0.21352935, -0.012243422, -0.23531719, 0.53393257]</t>
+          <t>시료를 압축 시 필요한 가장 큰 힘으로 시료의 단단함을 나타냄.</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[0.039109625, -0.47170767, 0.49251175, -0.21084973, 0.15362224, -0.40199772, -0.32649678, 0.14843288, 0.2619222, 0.38635364, -0.86037344, -0.24958828, 0.31826448, -0.23494951, -0.28417966, 0.42958817, 0.7497367, -0.34849635, -0.44119695, -0.29723853, -0.48426005, -0.49118683, 0.35241836, -0.5277581, -0.2845048, 0.15123618, -0.4198375, -0.19003126, 0.7144056, -0.4865927, -0.039462548, 0.41751987, -0.6536304, 0.4091051, -0.123683825, 0.06183054, -0.25830278, -0.5505122, 0.6009115, -1.0232589, -0.11043046, -0.50458497, -0.017125975, -0.24138246, 0.07387232, -0.5086023, -0.24087109, -0.4507058, -0.88995045, -0.08752056, 0.58005583, -0.083172984, -0.31847045, 0.37541336, 0.00601995, -0.6566928, 0.34159, -0.62031317, 0.26169997, 0.14276458, 0.34752545, -0.8746818, 0.15893526, 0.41884533, 0.085531555, -0.0809015, -0.2791806, -0.04137162, -0.290138, 0.46275952, 0.53987604, 0.46216556, -0.26472887, -0.5543074, 0.51439184, -0.539643, 0.14218839, 0.37531254, 0.9069438, 0.54272556, -0.2599488, -0.13482401, -0.046858642, -0.46746376, 0.20889059, -0.32325342, -0.10785205, -0.26319543, 0.40887645, 0.20017524, -0.4268865, -0.43973443, -0.14897095, 0.20191531, -0.54915994, 0.23961021, 0.10570296, 0.26456094, 0.0764799, 0.3649151, 0.23000768, 0.070596404, -0.7798619, 1.1548936, 0.16813663, 0.2821336, -0.03900116, 0.5866588, 0.0699234, -0.42710087, 0.11594258, 0.25836727, 0.17060736, 0.22199903, 0.32446927, -0.3895704, -0.46024275, -0.5124334, -0.3273552, 0.09373975, 0.06004659, -0.121954955, -0.6612727, 0.40083528, -0.139161, 0.31563786, 0.0038504729, -0.0996568, 1.2356303, -0.407519, -0.18615559, 0.29854086, 0.32288867, -0.15237929, 0.025032092, -0.8233004, -0.008145039, -0.52745736, -0.70861, 0.508362, -0.421912, 0.3476145, -0.23191603, -0.6662505, -0.19722673, 0.38358015, 0.81410223, -0.26143017, -0.3863048, -0.45956436, 0.0065061725, 0.10310642, -0.3299223, 0.07424084, -0.008317982, 0.11688224, 0.54221135, 0.22707953, 0.38317457, -0.31771758, -0.58559227, -0.31921884, 0.29234737, -0.2977964, -0.1922959, -0.14628734, 0.4803285, -0.2344998, -0.21652956, -1.1978099, 0.027227048, -0.20991047, -0.27760634, -0.2192518, -0.21637778, -0.25483158, -0.71750265, -0.61507857, 0.0314323, -0.2967476, 0.034446098, 0.32087275, -0.1299863, -0.3170555, -0.08600296, 0.28290844, -0.14602302, 0.061481357, -0.32867393, -0.009665932, 0.23743919, -0.12826715, -0.27713755, -0.083687685, 0.4690918, 0.6343531, -0.09056483, -0.16265523, 0.09525035, 0.8210735, -0.2267436, -0.051167775, -0.18791544, 0.19306853, 0.38441423, 0.4245391, 0.3509592, -0.22899497, 0.23902689, -0.17570095, 0.09577294, 1.0851762, 0.3462086, 0.04466385, -0.29745808, -0.13673963, -0.73513323, -0.8206846, -0.2784615, -0.55687666, 0.5448591, -0.6721634, 0.35456434, 0.18397121, -0.26967567, -0.74516135, -0.065591976, -0.22575057, 0.088658296, -0.2412981, 0.2168716, -0.035962578, -0.67305356, -0.601136, 0.05175515, -0.3336698, -0.26615125, 0.7371459, -0.21666788, 0.40606424, 0.09255522, 0.055359144, 0.028518243, 0.19268689, -0.009656197, -0.001821982, -0.085566215, 0.05690532, 0.1483279, -0.470279, 0.11204173, -0.05647232, 0.17506394, -0.4156663, 0.08677731, 0.12186319, -0.38040513, 1.0953737, -0.13016373, 0.16144967, 0.21246214, -0.96237093, -0.8323689, 0.03533115, -0.029516667, -0.16209993, 0.28985873, -0.60744804, 0.29550233, -0.21353662, 0.06509141, -0.44012198, 0.4617264, -0.11610595, 0.16887574, 0.20244615, -0.30711475, 0.2431923, 0.38957626, 0.02796813, 0.07481978, -0.13005735, -0.6347888, -0.060677774, 0.32859945, -0.3292922, 0.22052486, -0.23907416, 0.038414042, -0.66837513, -0.095317684, -0.30946562, 0.032691836, -1.4414982, 0.9567889, -0.28106382, -0.3887835, -0.60655683, -0.066739716, 0.50405174, 0.2603825, 0.14722826, 0.38693509, 0.047006253, -0.015399849, 0.6994223, -0.614715, -0.44432214, -0.2932337, -0.19655986, 0.03827966, 0.6211571, -0.02552201, 0.03040216, 0.3321302, -0.68178207, 0.07597937, -0.8206665, -0.22391544, 0.42990834, -0.3678549, 0.31391975, 0.64004326, 0.6122673, 0.3848571, 0.37484172, -0.37248978, -0.16199677, -0.9244169, 0.41004506, -0.6721036, -0.8570855, -0.032347694, 0.09696432, 0.22136031, -0.55158734, 0.34045666, -0.4311347, 0.08363085, -0.03559821, -0.22078969, -0.06311412, -0.34841728, 0.50743204, 0.07733587, 1.4899327, -0.34005684, -0.25801638, 0.24589089, -0.8050385, -0.12300845, -0.05500424, -0.51460505, -0.008922413, 1.1051965, 0.048495132, 0.36028716, 1.4237758, 0.5306888, -0.22280715, 0.7493431, 0.34662002, -0.4545114, 0.98399746, -0.030861067, 0.2205396, -0.9781304, 0.4058523, 0.20409791, 0.5296652, 0.22956577, 0.08011437, 0.60565656, -0.6643118, -0.5468534, -0.50976557, 0.06386639, 0.35175785, -0.1499014, -0.43060592, -0.026118506, 0.5320714, -0.846301, -0.7975386, 0.7930545, -0.42305848, -0.497065, 0.1012404, -0.14743647, -0.33314577, -0.51347136, 0.04797309, 0.18734059, 0.6324392, -0.3460607, 0.3094964, -0.6106286, -0.19152704, -0.46667382, 0.09096343, -0.1722597, 0.4733213, 0.3331728, 0.5341893, 0.36157957, -0.09669817, 0.1106274, -0.37997523, -0.4519092, -0.07288044, -0.60393924, -0.5045909, 0.13177632, -0.5933, -0.5767975, -0.050412573, 0.11938483, -0.06787295, 0.2722774, -0.3153088, -0.34134242, -0.4451635, 0.567005, -0.24693033, -0.222788, 0.6332846, 0.36364248, 0.0491316, 0.25880408, 0.25769833, 0.79584247, 0.5576539, -0.06719117, -0.19813566, -0.20300458, -0.37629434, 0.24694493, -0.40491787, -0.03342266, -0.44834378, -0.044145495, 0.62860787, -0.074061975, 0.34210274, -0.012322982, -0.2977565, 0.5074522, -0.18548353, -0.4575649, -0.8051956, -0.4412701, -0.01794919, -0.39184788, -0.15841033, -0.42457518, 0.52644145, 1.0527092, 0.7829948, 0.2547838, 0.2532666, -0.523824, -0.818767, -0.11371662, -0.30360088, 0.06198148, 0.30685765, 0.3087221, 0.4953317, 0.2747009, 0.5085684, 0.017951606, -0.33722273, 0.30469793, -0.275016, -0.16141583, -0.3050971, -0.20828445, 0.27746043, -0.39275885, 0.1683157, -0.21313891, 0.2584855, 0.22241469, 0.29529783, -0.30648097, -0.68676704, -0.32303613, -0.0014744912, 0.3234444, 0.62600607, 0.42772415, 0.20212083, -0.018071095, 0.4006503, 0.57418984, -0.51353556, -0.25953624, 0.27169916, -0.1459969, -0.651816, 0.066486955, 0.22085802, 0.41790694, 0.3850864, 0.084101334, -0.044362042, -0.3846796, -0.3661155, -0.36154693, 0.018943753, 0.108392514, 0.1832297, 0.35973665, 0.17351507, -0.0019805303, 1.0205141, -0.16940495, -0.4872305, -0.9861159, 0.57730097, -0.17248282, -0.28783298, 0.5981069, 0.66757387, -0.35892817, -0.2767951, -0.008083322, -0.17174949, 0.17116545, -0.031052856, -0.38441876, -0.25157225, 0.029486222, 0.5061418, -0.13887756, -0.15475143, -0.36722627, -0.15535593, 0.34455785, 0.39228138, 0.6857917, -0.68792725, 0.7926696, 0.22607538, 0.06513449, -0.4591805, 0.4617866, 0.074908085, 0.05702732, -0.08452313, -0.71772134, -0.5836352, -0.15751901, -0.5167221, -0.19912572, 0.3385798, -0.22646062, -0.15284397, -0.6623835, 0.26888654, -0.5317889, 0.64098203, -0.7108394, 0.4678938, -0.21066408, -0.5022506, 0.6208277, 0.3425586, 0.12785701, -0.11495038, 0.75800693, 0.4603085, -0.04055664, -0.18682174, 0.023635583, -0.7542529, -0.706849, -0.5464507, -0.70398396, -0.038963225, 0.4701467, 0.06521245, 0.32451132, -0.31541133, 1.031108, 0.25747007, -0.48930278, 0.3265481, -0.2513472, 0.09123312, -0.64186805, -0.27457035, -0.051894892, 0.5763145, -0.83029896, -1.0576394, 0.37586245, -0.7477671, -0.4189711, 0.046721082, -0.41264492, 0.14329386, 0.039846342, -0.4089074, -0.4313805, -0.26195434, -0.16170906, -0.098793335, -0.41932303, 0.2533365, -0.46366772, 0.14247258, 0.4458308, -0.23270454, -0.20775405, -0.384543, -0.9078049, -0.5668696, -0.2509478, 0.5845952, -0.6251219, -0.44498876, -0.760701, -0.037884437, 0.2553042, -0.2603344, 0.060430944, -0.16413927, 0.4742627, -0.6407937, 0.64348996, 0.15359542, 0.60743153, -0.44260547, 0.4265887, 0.26006454, 0.026902784, 0.7612937, -0.15148929, -1.1045004, -0.19541012, 0.54907113, 0.46334103, -0.6604279, -0.034621455, 0.30388507, -0.34509724, -0.06793026, 0.2971825, 0.41653076, -0.23402011, 0.35208988, -0.03397159, -0.042720843, -0.06574001, -0.48253843, -0.5507473, -0.043385867, -0.2867466, 0.20742361, -0.45557743, -0.0792187, 0.5330869, -0.055119608, -0.2257124, -0.34680456, -0.12411244, 0.37514025, -0.07650791, -0.3088043, 0.5864005, 0.034010954, -0.754955, 0.16464116, -0.43646762, -0.094635986, 0.5671421, -0.7789788, -0.41367933, 0.20716803, 0.06235214, 0.56705326, 0.42788768, 0.45176077, -0.43097374, 1.0861789, -0.764746, -0.11989003, 0.37674305, -0.08374702, 0.22444592, 0.24225794, 0.11868139, -0.1938942, 0.22892642, 1.249152, 0.42183208, -0.16563508, 0.04605663, -0.56646603, 0.60855514, 0.0917389, -0.7127759, 0.032831125, -0.021397665, 0.23113368, -0.021195093, -0.24503975, -0.23344612, -0.13164636, -0.25072187, 0.16683003, -0.25135928, 0.4801765, 0.28896695, -0.06484844, 0.33755, -0.09385137, -0.18715787, -0.8167709, 0.46925098, 0.07007646, 0.112266116, -0.5625388, 0.20697902, 0.1566964, 0.34157684, 0.17935851, -0.30881855, 0.32082728, -0.5158908, 0.32763782, -0.057666514, 0.2813479, 0.21844399, -0.28606278, -0.5140505, 0.3229877, -0.41560057, 0.16336063, -0.4281023, -0.026207594, -0.765952, -0.17705318, 0.13202225, 0.8491749, 0.7993628, 0.18105556, -0.31908923, -0.33863974, -0.10983051, 0.26910743, 0.38251165, -0.13498153, -0.31841585, -0.035587467, -0.20242408, 0.26600736, 0.2944222, -0.15825026, 0.1938063, 0.07493203, -0.24026428, 0.15603554, 0.20451812, -0.1892943, 0.11828709, 0.15482791]</t>
         </is>
       </c>
     </row>
@@ -1032,18 +1156,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>load cell 이란?</t>
+          <t>hardness의 의미는?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>힘을 전기적 신호로 바꾸어주는 장치로, 시료에 따라 적합한 힘의 범위를 가진 로드셀을 선택해야합니다.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>[0.4264249, -0.22768709, 0.2860991, -0.70340276, 0.19519949, -0.34285897, 0.8587693, -0.222565, -0.15717214, -0.11685321, -0.22401963, -0.012487564, -0.014268011, 0.33335194, -0.5661657, 0.28251523, 0.5505359, 0.19451888, 0.56471676, -0.64874756, 0.09553665, 0.84964293, 0.36035934, 0.7247018, -0.50909114, 0.19628872, -0.46106836, -0.10121966, 0.5978844, -0.69244087, -0.999785, 0.4402815, -0.20216846, 0.012131523, 0.5629213, 0.52284575, -0.95860183, 0.42656544, -0.66958624, -0.6235019, -0.5744677, 0.2105247, -1.0432678, 0.2738627, -0.3727442, 0.40826932, -0.12508841, -0.50509346, -0.5221704, -0.32786745, -0.5382464, -0.12166876, 0.5319222, 0.53155875, -0.26137128, 0.16858374, 0.08332307, -0.20130453, 0.1224215, 0.02140376, 0.5170573, -0.41646954, 0.848702, 0.5104564, -0.097336054, 0.011229253, -0.32285595, 0.06324924, -0.88614285, 0.09155241, -0.48528904, 0.23944078, 0.00724815, -0.35910434, 0.24013445, 0.1527205, 0.047910538, -0.42327654, 0.32514572, 0.5345302, -0.80092037, -0.43219846, -0.027355872, -1.0931721, -0.3847705, -0.1470203, -0.09084732, 0.062162, -0.117526636, 0.21997155, -0.34214166, 0.035516318, -0.21562448, -0.11431578, -0.63045716, 0.09680838, 0.4610655, -0.36000454, 1.182109, 0.8376796, 0.79755867, 0.15660007, -0.45601484, 0.4239524, -0.10159159, 0.5119976, -0.086432785, 1.0250286, -0.38342157, -0.3524586, 0.67299676, -0.60028577, 0.21626231, -0.3697125, -0.28412837, -0.14553523, -0.31286347, -0.29502118, -0.3902871, -0.097798295, 0.89389586, -0.26831934, 0.5419287, 1.0956272, -0.051746152, 0.3446535, 0.65960205, -0.7020554, 0.1331523, 0.08965516, -0.24852464, 0.33349457, -0.26411793, -0.27016002, 0.11011877, -0.44507515, -0.15723403, -0.16333686, -0.33574998, 0.21567005, 0.09460705, -0.30485207, -0.05415001, -0.12895828, 1.0889455, 0.010121239, 0.17222439, -0.65267974, -0.06671772, -0.6136688, 0.13301736, 0.102340735, -0.27207962, 0.15550727, 0.25885046, -0.3279305, 0.053687572, -0.307445, -0.5046186, -0.11406396, -0.38876167, -0.23812898, 0.30742517, -0.110007904, 0.56677556, 0.73015124, 0.95408946, 0.0983074, -0.087857224, -0.7936524, -0.54326946, -0.07299863, 0.1597576, -0.44377905, 0.12120758, -0.04554277, 0.2376412, -0.034512307, -0.32289553, 0.23130836, -0.799981, 0.18057235, -0.00928904, -0.16965105, 0.27040154, 0.38589293, 0.2561521, 0.15675116, -0.52962756, -0.28207812, 0.45374352, -0.28583002, 0.23770325, -0.61977565, -0.009704951, 0.70391464, 0.1629367, 0.37700975, -0.100724645, -0.26392326, -0.2235819, 0.43345454, 0.4447309, 0.40908957, 0.36679128, -0.23509108, 0.13922065, 0.16881771, 0.19900435, -0.7648857, 0.06774679, 0.4561331, 0.295221, -0.26988187, 0.036294505, 0.0059206914, -0.6919432, 0.118698545, 0.15223768, -0.5585143, 0.42183107, -0.40843064, 1.0009173, -0.41697305, 0.08008418, -0.5339745, -0.005680425, 0.3329205, 0.07943981, 0.46867684, -0.45204988, -0.27087632, -0.60914826, -0.3711765, 0.55339694, 0.038177744, 0.2751753, 0.30379438, -0.34270465, -0.055217855, -0.37938145, 0.07139225, 0.27443624, -0.8498986, 0.36573413, -0.002710783, 0.20292962, -0.71162164, -0.00660222, -0.9490956, 0.3951584, 0.35289526, 0.34241164, -0.09485261, 0.19930206, -0.82580394, -0.21230641, 0.7626119, 0.17680162, -0.0060229097, -0.14374849, -0.023994884, -0.2236868, -0.40956748, 0.030178407, -0.60271406, -0.058109403, -0.5055625, 0.17327987, 0.36325702, -0.48624957, -0.22818395, 0.43166065, 0.05286987, -0.22968858, 0.7259917, -0.044975195, 0.32606447, -0.008834896, 0.19272958, -0.08891147, 0.12189399, 0.31951863, 0.13383955, -0.16511866, 0.37217396, -0.17365739, -0.14589074, -0.04186268, -0.82597417, -0.276053, -0.4306765, -0.119580254, -1.3117446, 0.3182263, -0.43612877, -0.15528911, -0.2507356, -0.09634841, -0.18298626, -0.114177495, 0.4605903, -0.16104639, 0.5332134, 0.22708552, 0.09992637, -0.2554798, 0.054685958, -0.024348125, 0.34763062, 0.34926832, 0.04150028, -0.40398547, 0.022472661, -0.10613236, 0.3077678, -0.26932094, -0.41657043, 0.5870765, 0.21339354, -0.059868507, -0.13403685, 0.39906797, -0.28742158, 0.5104967, -0.18128434, -0.1388169, 0.47128507, -0.16005439, -0.012550262, -0.86729985, -0.7799563, 0.011761884, 0.412159, -0.3173182, -0.2972633, 0.51263016, 0.49102926, 0.15885463, -0.009731372, 0.6769235, -0.3633333, -0.4061504, 0.82712984, 0.07843764, 1.176878, -0.29486355, -0.16985464, -0.29942602, -0.14183106, 0.056352958, -0.18772393, -0.17210734, 0.20940395, 0.16451429, -0.3257461, -0.17029686, 0.11008088, -0.09394971, 0.29805517, 0.89434063, 0.58822167, 0.17087308, 0.28308553, -0.18453534, 0.16949707, -0.8344403, 0.018080132, 0.18372048, 0.1332029, 0.0670003, -0.3798893, -0.4283957, -1.2102693, 0.111336574, -0.1449327, -0.25926894, 0.2950373, 0.22858998, 0.4193884, -0.029031971, 0.7896998, -0.7729105, -1.0428976, 0.8175262, -0.19334942, -0.8178671, 0.3845841, -0.0420075, 0.12686217, -0.34099066, -0.3447751, -0.35335806, 0.20610072, -0.33295965, -0.1273285, -0.18729888, 0.16531233, -0.1869309, 0.09967584, -0.24844459, 0.29720315, 0.5169072, 0.263957, 0.043089457, -0.2966089, 0.44971785, -0.14457998, -0.18594472, 0.18434323, 0.35384744, -0.31211424, -0.0091337105, -0.23371251, -0.4506062, -0.18903738, 0.22093919, -0.06786433, -0.24700181, -0.26216853, -0.24744064, 0.08343536, 0.19413105, -0.13382, 0.2888334, 0.097324, -0.30143008, -0.47689077, 0.3988015, 0.010910392, 0.17496502, 0.2542973, 0.15111491, -0.054604843, 0.048952147, -0.29102218, -0.011226164, 0.37642828, -0.4836927, -0.27984864, 0.39876315, 0.33873978, -0.5269639, -0.48095798, -0.49984503, -0.34696028, 0.6527802, -0.52072006, -0.92734635, -0.3719773, 0.57277715, -0.56228447, 0.24169499, -0.7175892, 0.17077059, -0.0179419, 0.7039797, -0.13530242, -0.07135443, 0.19571277, -0.52817035, 0.33621296, -0.28354472, -0.5387294, -0.015700974, 0.62843096, -0.093519025, 0.41621998, -0.12001577, -0.027731055, -0.9967058, 0.5248651, 0.07009432, -0.21435694, 0.0387604, 0.120852195, -0.87885034, 0.40621448, 0.36183774, -0.08681742, -0.21667123, 0.019955324, -0.0985659, -0.12748614, 0.0071157943, -0.09812465, -0.8045085, -0.44442424, 0.13433929, -0.07008687, -0.07593693, -0.24562523, -0.13427943, 0.22909522, 1.043979, 0.21157514, 0.17203528, 0.062731594, -0.3522514, 0.014084945, 0.37955964, -0.05590399, 0.43539107, -0.1635531, -0.03494145, 0.09393057, 0.45203665, 0.19455317, -0.24622393, 0.33907032, 0.3398577, 0.8873184, -0.09497863, 0.3180679, -0.025001688, 0.66883427, -0.39582363, 0.08384062, -0.51412463, 0.1969562, -0.019281663, -0.66376495, -0.088936135, -0.43999815, 0.3862177, -0.17428277, -0.15874727, -0.24008149, -0.057511754, 0.06012553, 0.4449208, -0.42225873, -0.3116376, -0.09233329, 0.16603523, 0.08980058, -0.040219054, 0.7747825, 0.12729418, -0.040242128, 0.44494545, -0.0039710253, 0.46120977, -0.31891766, 0.0583199, 0.66039354, 0.47703758, 0.5526634, -0.12142727, 0.14395428, -0.32612857, -0.03614137, -0.29602242, 0.030816479, -0.607925, -0.20139371, 0.1604173, -0.60879844, -0.2459051, 0.7379185, 0.14405546, 0.31189263, -0.37340763, 0.19902001, -0.18885343, 0.119090796, 0.32187462, 0.2662549, -0.5103059, 0.04496622, 0.44302973, 0.12884933, -0.42169702, 0.42364094, -0.19604987, -0.26767537, -0.7877279, -0.0026147414, 0.34087634, -0.38077274, 0.33460048, 0.22057243, -0.12341273, 0.379401, -0.17002071, 0.45693308, -0.23500088, 0.45220026, -0.34053373, -0.29424062, 0.045778513, -0.63350195, 0.112633124, -0.35218018, -0.80662346, -1.0969296, -1.0543196, -0.04308556, 0.11507789, -0.34412584, -0.43692997, 0.24660309, 0.27220434, -0.696908, -0.5256468, -0.46128368, 0.09495849, 0.4747361, -0.23764327, 0.6111976, -0.15009157, 0.05701548, 0.14745566, -0.60667723, 0.22729598, -0.03211058, 0.04532619, -0.73360187, 0.20583227, 0.55957943, -0.43543425, -0.0786921, -0.7037974, 0.113311715, -0.5691456, -0.23800857, -0.6233417, -0.11775768, -0.2720824, -0.16443187, 0.23020165, -0.57866603, 0.39678538, -0.73886466, -0.85539025, -0.17372006, -0.1270065, 0.24155855, 0.37363315, -1.0548081, -1.2088269, -0.37759387, 0.55833983, -0.4826528, -0.2739247, -0.04975309, -0.40829563, 0.04885631, -0.3048456, -0.38346064, 0.1262316, 0.31366786, -0.37847176, -0.03920343, 0.43657413, 0.20886825, -0.24348074, 0.29446954, -0.107417315, 0.16304474, -0.48286206, -0.0016366111, 0.57001543, -1.0765282, -0.33223113, -0.6467381, -0.15119769, 0.00835624, 0.36670804, 0.6118942, 0.4461512, -0.22474824, 0.38636255, -0.25339907, -0.5195439, -0.1172519, 1.3677753, 0.32618627, 0.1626576, -0.10489985, -0.030294074, 0.19609743, -0.17359886, 0.13555041, -0.62107086, 1.1247679, -0.021252599, -0.030919531, 0.34421474, 0.22518557, -0.13317138, 0.13578129, 0.7170827, -0.716481, 0.11639236, 0.51116645, 0.03603569, 0.5518725, -0.10592757, -0.32349518, -0.07574882, -0.7223971, -0.5758505, -0.33762255, -0.33424187, -0.088272125, 0.114486456, 0.09258963, -0.46599525, 0.5500238, 0.12722069, -0.27830946, -0.69149464, -0.3968591, -0.33841047, -0.18926926, -0.20059028, -0.3624302, -0.31660637, -0.45727348, -0.15672824, 0.16609094, 0.029412998, -1.1504887, 0.0573744, -0.70775414, 0.08533817, -0.026463442, -0.25214207, 0.33050454, 0.39654168, 0.09564419, 0.09153527, 0.21821758, -0.17679991, 0.03864433, -0.52186954, 0.1981671, -0.6657088, -0.48641267, -0.33851767, 0.44239384, 0.05999975, 0.36328614, 0.39822474, -0.25448838, 0.2663686, 0.5490047, 0.17545192, 0.11747617, 0.26538622, 0.97383064, -0.21170565, -0.3082446, 0.10284319, -0.3989182, -0.800444, -0.2072472, 0.13644534, -0.25838587, 0.034895517, 0.21783128, -0.6526373, 0.39863288, 0.084292166, 0.16990942, -0.08474061, 0.8410707]</t>
+          <t>시료를 압축 시 필요한 가장 큰 힘으로 시료의 단단함을 나타냄.</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[-0.96144915, 0.11198763, -0.18239005, 0.19372858, 0.14158797, 0.3120198, 0.14970273, -0.13251987, 0.40952078, 0.07223195, -0.3931591, -0.5455706, 0.09016309, -0.15292215, -0.2834367, -0.30538747, -0.11722324, -0.087766334, 0.32524994, -0.57797754, -0.21748018, 0.313321, 0.66893107, -0.1445534, 0.36731133, -0.25710928, -0.35034734, -0.48681617, 0.016534377, -0.3653837, 0.20553204, 0.6873442, -0.58582747, 0.52969027, 0.38530958, -0.2575091, -0.43188697, -0.381075, -0.1511316, -0.854066, -0.40203756, -0.12048539, -0.90036887, 0.30193797, -0.34663397, -0.37674388, -0.01986722, 0.35366395, -0.5708429, -0.37014022, -0.13190599, -0.22988749, 0.3341488, 0.63043654, 0.362556, 0.2765312, 0.40622377, 0.018561488, 0.41853872, 0.088672794, 0.29095408, -0.9392208, -0.13752076, 0.7732949, -0.019719163, 0.0932837, 0.018678423, -0.048297167, -0.67120737, 0.5053309, 0.46128145, 0.8049637, 0.49488863, -0.5387516, 0.10778041, -0.10823317, 0.21347937, 0.10552702, 0.100181654, 0.26661178, -0.2807979, 0.0118233515, 0.50691307, -0.822734, 0.08648751, -0.2863571, 0.011701487, -0.46436062, -0.5632545, 0.37203425, -0.81789047, -0.33433038, 0.09353646, 0.23718765, 0.07987446, -0.35373944, 0.32932585, -0.21227343, 0.19182596, -0.31863266, 0.1705569, 0.36629528, -0.7042178, 0.3568887, -0.46703735, -0.07479855, -0.19911465, 0.5365089, 0.29219085, -0.38740352, 0.2967503, -0.0484404, 0.2334516, 0.250759, 0.28808042, 0.4993906, -0.4947795, -0.2343293, -0.24603887, 0.10330963, 0.617502, -0.32857892, -0.55427784, 0.48766622, -0.009758035, 0.23331149, -0.16524021, 0.08805572, -0.2585626, -0.22839543, 0.2656453, -0.1803847, 0.21400961, -0.25920397, -0.34020337, -0.4220291, 0.3386101, -0.2857137, -0.16024132, 0.09651853, -0.7424619, -0.11038246, 0.02816779, -0.46196494, -0.32388383, -0.3129337, 0.30780143, -0.41088662, -0.29902565, -0.20936842, -0.12586118, 0.29428655, -0.5463875, -0.19335708, 0.011254598, -0.37282857, -0.15116179, 0.2078011, 0.088600196, -0.002871892, -0.1510612, -0.41539064, -0.20087686, -0.24650177, -0.38932163, -0.09743754, 0.23379946, -0.44948992, -0.4534493, -0.742981, -0.72811043, 0.049920302, -0.0699071, -0.4261268, -0.25395995, -0.26806876, 0.22618465, -0.33345416, 0.24405792, -0.4231139, -0.012464789, 0.08804687, -0.33108854, -0.350968, 0.31481, 0.52221453, 0.14274429, -0.69134223, -0.19626519, 0.0375548, 0.23406103, 0.24518946, 0.2622233, 0.25648814, 0.06060753, 0.17492665, -0.4765513, 0.32008198, 0.117805935, 0.66795766, -0.35647595, -0.2567644, -0.27198246, 0.44551212, -0.37391728, 0.33998892, -0.20349865, -0.048413653, 0.27616647, -0.20650733, -0.96112585, 1.2055777, -0.21544039, -0.32908374, 0.11493796, 0.03772208, -0.6760031, -0.19207302, -0.40819278, -0.37487382, 0.30332488, 0.024528418, 1.513097, 0.6079779, -0.3997827, -0.61592925, 0.1618843, -0.2298946, 0.016218755, -0.11284604, 0.113077804, -0.7229597, -0.94943476, -1.0330815, 0.14600682, -0.0019381016, -0.32186705, 0.24672253, 0.7697979, -0.1324749, -0.23096362, 0.47831196, 0.39996016, 0.0120137185, 0.6008877, 0.3223577, 0.22321036, -0.995052, 0.3641726, -0.7162245, 0.33616817, 0.45401993, -0.1847745, -0.23923233, 0.28178385, 0.45118824, 0.0133696245, 0.62977725, 0.109764256, -0.16180873, 0.07458131, -0.20162562, -0.46888322, 0.08184943, 0.37690943, 0.13156864, 0.03360526, -0.0100305015, 0.2925894, -0.25216457, 0.12778322, 0.04277121, 0.03998251, -0.04477746, 0.49779025, 0.26177257, -0.26479062, 0.77722853, 0.015422681, 0.45241618, 0.44619074, 0.06290151, -0.08457298, -0.1916463, 0.12860867, 0.16152664, 0.2118252, 0.2365402, -0.087643266, -0.010750478, -0.35703224, -0.21423459, -0.37665623, -1.465745, 0.1790637, -0.6728139, -0.59747916, -0.654068, -0.29092517, 0.014223394, 0.24029522, 0.24213877, -0.80364114, 0.52258, -0.8333856, 0.20756471, -0.8172739, -0.12169796, 0.15876606, 0.5336482, 0.9679416, -0.3547457, -0.297476, -0.13415928, -0.12511876, -0.31983167, 0.12256789, -0.6869619, -0.09801575, 0.23889467, -0.46294802, 0.40891713, 0.34360576, 0.41394407, 0.27859437, 0.021402687, -0.46094555, 0.55517614, -0.14098057, 0.1800265, -0.9716814, -1.317674, 0.25272125, -0.17946737, -0.0027235835, -0.23388977, 0.31238502, 0.16078202, 0.2540384, -0.04919248, 0.20713672, 0.13886727, -0.39574257, 0.22658524, 0.0334462, 0.97089803, 0.17941149, 0.0620986, 0.37969577, -0.23362097, -0.038192786, 0.13916732, 0.2001321, 0.3246681, 1.0337598, -0.4137048, 0.54209816, 0.27864692, 0.33701047, -0.4327558, 0.50096565, -0.48734817, 0.6331793, 1.0791763, -0.23714754, -0.07615799, -0.92816275, 0.66683495, 0.2698223, -0.0088036945, -0.13179477, -0.5663915, 0.8311081, -0.36979654, -0.11414623, -0.64927566, -0.48366904, 0.7392764, -0.3146638, 0.022762824, 0.4030965, 0.083543494, -0.6326724, -0.79823434, 0.5973723, 0.2934752, -0.5836569, -0.064750165, -0.23726311, -0.293065, 0.438234, 0.051372267, -0.6389122, -0.5061526, -0.76172864, -0.06597601, -0.22481307, -0.18677153, -0.22352846, -0.23165298, -0.073275834, 0.2771787, 0.2968079, 0.6491066, 0.26240546, 0.34985673, 0.65132296, -0.5724346, 0.118265375, 0.05685643, -0.5240439, 0.04207908, -0.08010964, -0.71546435, 0.1299264, 0.34387884, -0.08561009, 0.14616875, -0.0787646, 0.022719627, -0.40253085, -0.69272846, 0.29475805, -0.11011889, -0.056162953, 0.028472697, 0.26091722, 0.27701047, 0.9292423, 0.091382034, -0.12943846, -0.18411513, 0.27613696, -0.065602794, -0.14203905, -0.31960827, 0.05594132, 0.38835466, 0.16941452, -0.20368388, 0.52237904, 0.35918856, -0.6422627, 0.40052718, 0.35681036, 0.02064209, -0.20690803, -0.09687163, -1.0082706, -0.43106908, 0.036503278, 0.55816174, 0.008173349, -0.55454767, -0.19138479, 0.20342067, 0.8461417, 0.39825505, 0.3982169, 0.33035627, -0.072542116, -0.45453653, 0.26816124, -0.12306102, -0.015185937, 0.54606277, 0.37441015, 0.60522103, -0.07681412, 0.060808223, 0.3614208, -0.29480156, 0.60939795, -0.12135659, 0.23699228, 0.33187118, -0.8604105, 0.3191821, -0.019811247, 0.5821825, -0.24165908, -0.52970517, 0.509779, -0.08531655, 0.026502902, -0.32150808, -0.22234035, -0.46823922, 0.43988436, 0.0696691, -0.3444789, 0.10706586, 0.064492516, -0.27916414, 0.36573344, -0.46726966, 0.12496364, 0.38834316, -0.02281635, 0.0016286492, -0.012611335, -0.09260465, 0.19267926, 0.37882042, -0.645604, -0.13938837, -0.16363561, -0.63201135, -0.22082381, 0.0033766225, -0.71508026, -0.1438343, 0.022630448, -0.10867977, 0.2994747, 0.33232313, -0.4341089, -0.43639833, -0.15122029, 0.23856509, 0.17265375, -0.43988642, 0.5530098, 0.21452132, 0.2022719, 0.31624937, -0.048890848, -0.0023349957, -0.13820067, -0.09272542, 0.20350924, -0.7499301, 0.28043646, 0.3517811, 0.24404375, -0.026368314, 0.23685391, 0.36506456, -0.106834054, 0.41083613, 0.41923434, -0.23740883, 0.46642175, 0.12215619, 0.03695294, 0.4138255, 0.42206413, -0.2852464, 0.054153703, -0.10254214, -0.2430437, -0.78350514, -0.52225, -0.38816327, -0.1314629, 0.32595247, 0.2146811, 0.570931, -0.12565285, 0.2609169, -0.5787174, 0.5488854, -0.28534126, 0.3701826, 0.11803051, -0.4811732, -0.19484992, 0.35523683, -0.023365472, 0.026801297, 0.38627768, -0.26715228, 0.39014265, -0.35190755, -0.61933357, -0.6097108, -0.90890425, -0.5208445, 0.072324626, -0.15901887, 0.5093306, 0.85871947, 0.09064539, -0.15492474, 0.45800614, -0.26244062, -0.27282202, 0.025297368, -0.35212263, -0.9327547, -0.54022384, -0.5289906, -0.030642295, -0.15880573, -0.960405, -0.43475786, -0.47287846, -0.13180676, -0.5753809, -0.5109183, -0.06805569, -0.022416987, -0.5151255, -0.5463772, -0.5509554, -0.32343164, 0.5259661, 0.043889455, -0.37323698, 0.9098749, -0.3835867, -0.70819104, 0.5180205, -0.028120693, -0.39609903, -0.02992273, -0.5605925, -0.33362976, -0.21106362, 0.2836891, -0.22500002, -0.11821773, -0.84796154, 0.26476005, -0.17761154, -0.17531243, 0.45144755, -0.17804423, -0.033296723, -0.242787, 0.7216695, -0.31300873, 0.002249801, 0.013006518, 0.09154229, 0.0064200596, 0.111517094, 0.47214478, -0.720157, -0.531792, 0.22177677, 0.39496464, 0.14529504, -0.1285763, -0.44609037, -0.18131247, -0.36415914, -0.39325294, 0.020232428, 0.12307235, -0.48068723, 0.34335536, 0.030167341, -0.026469659, -0.09379865, -0.7549851, -0.08353839, 0.6122301, 0.033038884, 0.15157971, -0.13676348, -0.25032777, 0.32010275, -0.25831085, -0.2001833, 0.3691863, -0.52584714, 0.22503588, 0.41238588, -0.053910166, -0.008786334, -0.42487684, -0.28512338, 0.44977945, -1.1494825, -0.012407845, 0.75385624, -0.44227856, 0.28726906, 0.46409172, -0.16500114, 0.01994441, 0.4084045, 0.7614873, -0.46095031, 0.38939247, -0.20386548, -0.5777236, 0.17357013, 0.13180517, -0.46882218, 0.46619898, 0.16471115, -0.65030134, 0.13375868, 0.920602, 0.35824814, -0.12474277, 0.22441502, -0.18010405, 0.4453485, -0.30421072, -0.36838078, -0.4994251, 0.0077591417, 0.7216392, -0.705662, 0.1339293, -0.13805293, 0.4286316, -0.34715995, 0.053453512, -0.41602784, 0.6690637, 0.07005595, -0.36564237, 0.45285758, -0.23221257, -0.37472987, -0.57877755, -0.52984685, 0.1467261, 0.07887821, -0.5798601, 0.34777147, 0.18942583, 0.6439796, 0.35051572, -0.005503231, 0.033068348, 0.10096121, -0.2666221, -0.09968819, 0.5541299, 0.33347335, -0.48323217, -0.41000813, 0.44728738, -0.32887727, -0.014878596, -0.23592325, -0.3950533, -0.6344632, -0.009340584, 0.7730938, 0.5880956, 0.016508177, 0.44628754, -0.13147756, -0.07763235, -0.3248494, 0.38178998, -0.079997286, -0.34450358, -0.12750569, -0.05368824, -0.39238328, 0.09806825, 0.47917396, 0.14987442, -0.021091646, -0.57709044, -0.31574887, 0.27055463, 0.29929382, 0.10057042, -0.2135711, 0.17950022]</t>
         </is>
       </c>
     </row>
@@ -1053,18 +1182,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>구 형태의 프로브</t>
+          <t>firmness의 의미는?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>베이글 등 표면이 일정하지 않은 시료에 적합합니다.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>[0.020033317, -0.7440581, 0.33385578, -0.27065796, -0.38738766, -0.2057692, 0.7205966, 0.0054555545, -0.18025549, 0.09914579, -0.08666588, 0.19075085, -0.18321605, 0.5747223, 0.32057038, -0.6506187, -0.47092035, 0.24614874, 0.28674266, -0.8697115, 0.024271373, -0.048714273, 0.6849527, 0.75263685, -0.4269833, 0.55995166, -0.05464972, -0.2981859, 0.2924039, -0.40735707, -0.26231632, -0.28564748, -0.2655299, -0.13346896, 0.7464558, -0.31505942, -0.4856677, -0.31560716, 0.30361733, -0.20052372, -0.43530574, -0.03280457, -0.034632847, -0.05388073, 0.21246274, -0.47915944, 0.12983431, 0.10257498, -0.5737707, -0.30083546, -0.22718468, -0.30084464, 0.36103097, 0.63170034, -0.1355631, -0.72520065, 0.5219193, 0.20099236, -0.037145592, 0.72278595, 0.42695394, 0.068463005, -0.7239472, 0.114270106, 0.5725787, -0.27741748, 0.093071304, 0.36687428, -0.48750207, 0.26907286, 0.3897392, 0.072924264, 0.032042682, -0.24551184, 0.22087386, 0.32016635, -0.46291384, 0.6733939, 0.46222657, 0.2165714, 0.15766598, -0.38443607, 0.32630062, -0.42712736, 0.11277636, -0.5712305, 0.0010163529, -0.45264372, 0.12203299, 0.3008577, 0.56126255, -0.008732198, 0.0058750114, 0.53213435, -0.85260886, 1.0528346, -0.24617492, -0.41668555, 0.7705956, 0.44727197, 0.112582676, -0.10953497, -0.54864246, 0.30120307, 0.15441202, -0.096744776, 0.3476395, 0.867428, -0.13048437, -0.3364736, 0.6187592, -0.51058626, 0.016971683, -0.14344163, 0.1138594, 0.4461032, -0.42166433, -0.21243204, 0.17253636, -0.48654118, 0.43760467, -0.04587475, 0.99127185, -0.055772606, -1.0434086, 0.06827573, 0.45011955, -0.23515953, 0.64831764, 0.15589793, -0.24305609, 0.2521715, -0.19900213, -0.26513046, 0.045329396, 0.22077098, -0.053617306, -0.18065394, -0.15180136, 0.42284057, 0.6332887, -0.45670608, -0.18498923, 0.3888795, -0.52677965, -0.40813634, -0.1361276, -0.40749794, 0.66134834, -1.163123, -0.16063274, 0.6641121, 0.056193817, 0.10557489, 0.18538435, -0.60135823, 0.80259955, -0.2753766, -0.18412997, 0.05060941, -0.12632923, -0.19883408, -0.099404335, -1.0313531, -0.3005601, -0.3419815, 0.14840259, 0.16217698, 0.9178037, -0.0011548387, 0.079096325, -0.13196716, -0.21613185, -0.3393056, 0.56358117, 0.49665886, 0.28371903, 0.2996359, -0.05258641, -0.21141824, 0.79382294, -0.20544745, 0.3396854, 0.4222341, -0.063325, 0.49552995, -0.35500214, -0.18360819, -0.6821832, -0.6732186, 0.676299, -0.5191347, 0.43208084, -0.43074894, -0.32375017, 0.31916526, -0.066352405, -0.12871346, 0.46187767, -0.0639371, -0.30772614, 0.10734216, 0.3571561, -0.24321732, -0.23833998, -0.18645813, 0.45631287, -0.41524246, -0.09655053, 0.15602829, 0.50165856, 0.1476294, 0.9448287, -0.036818065, -0.3445208, -0.26458615, -0.5876547, -0.56687874, 0.511176, 0.16303413, 0.8864992, -0.15637255, -0.2771627, -0.50186074, -0.14516099, -0.5825023, -0.77877074, 0.02707845, -0.4419107, 0.12564763, 0.2998898, -0.8546189, -0.26623735, -0.8157935, 0.48678875, -0.18491422, 0.30983612, -0.5514923, 0.22612849, -0.41348943, 0.82276285, -0.013997978, 0.04613156, 0.034905903, 0.0701937, -0.52791786, -0.18558106, -0.6106477, -0.07755864, -0.85278857, -0.75094324, 0.25195655, -0.2258607, 0.00073088065, 0.2981202, -0.12636498, -0.30133653, 0.559056, 0.16470276, 0.10281281, -0.17229366, -0.154687, 0.55046004, -0.7248665, 0.6035281, -0.00561023, 0.43698406, -0.62854475, -0.01567119, -0.2107173, -0.11600421, -0.6184238, 0.10893246, 0.24540217, -0.04207292, 0.6918727, 0.9278466, 0.114058174, 0.6199724, 0.40002427, 0.5882355, -0.0024867791, 0.14535944, -0.43023205, 0.4764175, -0.5366104, -0.066269085, 0.18451095, -0.3066176, -1.0006086, -0.20017628, 0.016037742, 0.3571822, -2.120138, 0.07241692, 0.23798704, -0.26964363, -0.036230106, 0.12676218, 0.44867873, -0.6938528, -0.7579961, -0.3696006, 0.47185472, -0.5799341, 0.1982489, -0.37072214, -0.64641327, -0.35750252, -0.054565873, 0.1520813, 0.02352166, 0.23858336, -0.011028489, -0.60536194, -0.34351513, 0.17175408, -0.47188088, 0.0059880028, -0.15567766, 0.47172764, -0.46753663, -0.34946346, -0.13518523, 0.19957937, 0.5419492, -0.11152828, 0.0045339316, -0.73673886, 0.04868424, -0.3509069, -0.52196705, 0.062984504, -0.1423149, -0.1992925, -0.44539982, 0.18018608, 0.13727562, 0.18125764, 0.1810457, 0.59626144, 0.1658036, -0.13635002, 1.09258, 0.9692649, 1.6332139, -0.6293317, 0.025221428, -0.59346724, -0.26266772, 0.39211807, -0.5283956, -0.8194055, -0.7595931, -0.072891116, 0.08710026, 0.19163214, 0.28827688, 0.13357402, -0.46712855, 0.20872696, 0.12442248, -0.24418114, 0.6126998, -0.75158197, 0.04344288, 0.1674198, -0.01720749, 0.66929156, -0.7065893, -0.30164996, 0.12701377, 0.12629631, -0.5467277, 0.3847935, -0.017492702, -0.57557005, -0.116250455, 0.40988848, -0.08370532, 0.20635639, 0.74005836, -0.49566433, -0.9134282, -0.75580204, 0.20586494, -0.08682708, -0.19662611, 0.049092893, -0.28000358, 0.45707718, -0.67193466, -0.45395294, 0.30227175, -0.61639243, 0.6053314, -0.26181698, -0.39714575, -0.75563776, -0.033470806, -0.058877956, -0.2583516, -0.6682173, 0.42606783, 0.23137784, -0.3929711, 0.077589236, 0.035136383, -0.37117258, -0.048693698, -0.019634677, -0.53684855, -0.20482953, 0.086655915, 0.22389367, -0.30646563, -0.43251362, 0.4972021, 0.14102003, 0.030123184, -0.30140495, -0.16312587, 0.37878937, 0.029459944, 0.3835968, 0.55249214, 0.42885455, -0.070048116, -0.38164344, 0.30004334, -0.3323953, 0.009385995, 0.552855, 0.09978509, -0.14197327, -0.8798752, 0.20495227, -0.62671196, -1.1077975, 0.35128286, 0.38554737, 0.22150828, 0.036709648, 0.06705893, -0.5676008, -0.07023774, -0.6198782, 0.14330351, -0.27296263, 0.16478299, 0.24587259, -0.3070422, -0.14406559, -0.117210284, -0.034169916, -0.15816532, 0.05222283, -0.3866427, 0.1804029, -0.30670455, -0.0047048307, 0.6738737, -0.16592462, 0.7316757, -0.13950633, -0.13461196, 0.0656118, 0.8503901, 0.55417687, -0.44494334, -0.72630817, -0.23101579, 0.031100208, -0.76410514, -0.47342262, -0.88401216, 0.20493288, 0.08403038, 0.44296774, -0.018060237, 0.08499008, -0.06427078, 0.13099213, -0.47968933, -0.22472402, -0.16022584, -0.13680033, 0.11309712, 0.33276984, 0.060657445, 0.007275822, 0.2058614, 0.11553955, -0.42713633, 0.4887307, 0.07814772, 0.24092682, -0.15477887, 0.07365809, -0.36291814, -0.3502399, 0.13339934, -0.6313934, 0.20773828, 0.05552944, -0.4794409, -0.3549934, 0.22292484, -1.234041, 0.21118686, 0.28688172, -0.12000259, -0.14814432, -0.07930241, 0.47439146, -0.007898254, -0.28398898, -0.23658669, -0.21375975, 0.5423376, 0.27077806, -0.03955834, 0.22882123, 0.04750486, -0.018580953, -0.41368023, 0.21280459, 0.1133521, -0.33882636, -0.39310732, 0.22846802, -0.32805294, 0.092519425, -0.37785053, 0.7689752, -0.15421668, -0.35025206, 0.16861129, 0.40200216, 0.14608333, -0.022889104, -0.8050113, 0.19384609, -0.27938208, 0.29954073, 0.33362436, 0.05954008, 0.13886248, -0.19560304, 0.2716079, 0.16318169, -0.17029463, -0.23591387, -0.035364967, -0.85365266, -0.15068166, 0.15863352, -0.69841516, -0.6528684, 0.041055314, 0.14458212, 0.96918017, -0.06632336, -0.19494033, 0.18068083, -0.14323996, 0.37839624, 0.2582746, 0.019005489, -0.08906416, 0.20961341, -0.3277886, 0.20716013, -0.63391703, -0.20549083, -1.0733172, 0.105636105, -0.71134806, 0.36603966, -0.62086, 0.22966027, -0.022229264, 0.4701922, 0.041296445, 0.31908414, 0.33291435, 0.1317834, -0.095965326, 0.39299515, 0.62588924, 0.37793106, -0.49311087, 0.038914204, 0.45060906, -0.63452375, -0.08996772, -0.73543423, -0.32054144, 0.29464668, 0.017044034, -0.7346388, -0.14359702, 0.16420488, -0.48930815, 0.055583, -0.6425347, 1.1086098, -0.11079804, -0.13175337, 0.40374532, -0.23498142, 0.16815664, 0.32444188, 0.11756994, -0.2980152, -0.23233028, -0.43421784, 0.21474035, 0.34557348, -0.13015792, 0.20946407, 0.25103706, -0.40293735, 0.47444752, -0.7683059, -0.7116526, 0.21260048, -0.39019728, 0.092011526, 0.031151937, 0.19268475, 0.094441734, 0.15022434, -0.20592448, -0.33113927, -0.27582997, -0.3986318, 0.09432145, 0.08790612, -0.49143845, -0.34145254, -0.46401998, 0.7669921, -0.49801636, 0.777104, -0.3720066, -0.09143247, 0.7573667, -0.064476185, -0.024581512, 0.00068374403, 0.08912785, -0.27077526, 0.103564896, -0.05393517, -0.30458638, 0.7296529, 0.39302614, 0.13543937, 0.6789299, -0.11008126, -0.50684154, 0.76822186, 0.0004374832, 0.49196023, 0.3814096, -0.48853305, 0.97545063, -0.11837099, 0.33346388, 0.047051907, -0.60173833, 0.39145157, -0.11772988, -0.32734028, 0.33736438, 0.18484579, 0.14981012, -0.2882845, -0.5924671, 0.08815142, -0.35909504, -0.16168, 0.6972656, -0.2475224, 0.3222737, 0.05515478, -0.13677706, -0.1918536, -0.3946689, -1.0195115, -0.75702155, 0.15956464, -0.7377803, -0.5924632, -0.36330622, 0.4580762, 0.28930777, -0.052063692, 0.37247318, 0.31460926, -0.327112, -0.4085019, -0.54389, -0.47189537, 0.06995114, -0.20828012, 0.14607203, -0.0013397096, 0.397681, -0.7192697, 0.030669535, 0.22322385, 0.65280545, 0.31338757, 0.23980518, -0.3367839, 0.3449015, 0.233869, -0.9647107, -0.15111463, 0.43107778, -0.7181445, -0.41257805, -0.22964083, 0.3823412, 0.44510216, 0.63570297, -0.122377805, -0.09222781, 0.32927606, 0.24168804, -0.04974254, 0.5355648, 0.086718, -0.20487894, 0.051231742, -0.20308624, -0.6756468, -0.1623448, 0.16409984, 0.19405696, 0.124702096, 0.6553273, 0.21267979, -0.032799903, 0.50789535, 0.7667298, 0.5735324, 0.22812055, -0.49599248, 0.033805184, -0.33707532, -0.5923699, -0.08441136, -0.6683612, -0.08331692, -0.6914994, -0.3584129, 0.09121852, 0.4869292, 0.06756364, -0.57847196, -0.041817605, -0.07443432, -0.065182835, 0.1407715, -0.110584594]</t>
+          <t>시료를 압축 시 필요한 가장 큰 힘으로 시료의 단단함을 나타냄.</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[-0.37998778, -0.014641735, 0.18232338, 0.23672919, -0.13196278, 0.44615507, 0.38594544, 0.41871363, 0.16303417, -0.08745848, -0.26515034, -0.69695795, -0.8346117, 0.2374438, -0.07685674, -0.06523807, -0.12397623, 0.19744101, 0.18051425, -0.038692806, -0.4458856, 0.74374235, -0.0054283277, 0.29124525, -0.31073552, -0.15815036, -0.27517858, -0.35145593, 0.77166337, -0.14795378, 0.71221614, 0.050531417, -0.67350096, 0.15042908, 0.74327624, -0.32089573, -0.70165825, 0.2518649, 0.2562334, -0.12135265, -0.41710982, 0.043818988, -0.81347704, 0.4960398, -0.3307131, 0.050311923, 0.27556965, 0.2892701, -0.34089753, -0.25525406, 0.0768143, -0.3780072, 0.42309037, 0.6545427, 0.10815966, -0.17798357, 0.21793714, -0.8775772, -0.0025426685, 0.005354941, 0.4996809, -0.9853076, -0.3528902, -0.2850319, 0.11560415, -0.0972474, 0.097376004, 0.3446825, -0.99596834, 0.24927552, 0.27008313, 0.39865887, 0.5327242, -0.42939702, 0.4337495, -0.30037522, 0.2855764, 0.048823282, 0.56628203, 0.54041433, -0.4648233, -0.7598103, -0.044306558, -0.24031098, 0.18303804, 0.091062024, 0.21770096, 0.04018898, -0.6739887, 0.5570758, -0.7356309, 0.15034524, -0.14732915, 0.10262726, -0.595273, -0.058160327, 0.23173562, -0.3327702, 0.51160496, 0.11229525, -0.29758978, 0.24283817, -0.84655607, 0.23524399, -0.75571835, 0.46148252, -0.0351947, 0.32684168, 0.24147086, -0.1531094, 0.19478635, -0.47686347, 0.18998583, -0.010727579, -0.0046408265, -0.063377224, -0.4458188, 0.018520359, -0.054367114, 0.3901394, 0.4044198, -0.50550234, -0.2039961, -0.020042535, -0.43650508, 0.49872464, 0.25512728, -0.0105049815, 0.06596331, 0.11251204, 0.35961133, -0.14086817, 0.42562467, -0.08663408, 0.099082865, -0.17720915, -0.023990512, 0.13039419, 0.2839933, 0.5521954, -0.5655076, 0.17980212, 0.16985098, -0.4302722, -0.634319, -0.4499089, -0.10281497, -0.24673715, 0.032021992, -0.37257043, -0.3316398, 0.35616538, -0.6994639, 0.32729945, 0.09211163, -0.7275032, -0.20017977, -0.034980174, 0.30495584, 0.17736076, 0.040231768, -0.34862, 0.5010333, -0.22640419, -0.2094022, -0.28321433, -0.22565603, -0.43873724, -0.04838577, -0.43638462, -0.48406297, -0.4184255, 0.36445245, -0.98841846, -0.49424928, 0.1936285, -0.110798836, -0.10589665, -0.22474024, -0.75452465, -0.11551062, 0.66077745, -0.46385962, 0.06687712, 0.16234437, 0.5365866, -0.56880105, -0.26446885, -1.0558573, -0.35368985, 0.06972416, 0.13407467, 0.03614273, 0.24303754, 0.46678716, 0.6955462, -0.10340194, 0.29808885, -0.21247764, 0.12619919, -0.9243496, 0.5005607, -0.043021, 0.63206655, -0.13530591, 0.3618206, -0.17247671, -0.15767121, 0.011652034, -0.5500835, -0.5610735, 1.0849869, -0.18058993, 0.037820466, -0.3276692, 0.28614968, -0.27061185, -0.2718041, -0.39180368, -0.60042197, 0.4575553, -0.4511652, 0.6607962, 0.60870993, -0.61431354, -0.22355688, 0.09731315, 0.47999412, 0.2951436, 0.6005365, 0.30388516, -0.6938635, -0.87925833, -0.92021835, 0.26438886, 0.1216988, 0.39430112, 0.32585207, 0.11380067, 0.21046877, -0.0019794956, 0.7479376, 0.30944592, -0.036715504, 0.068603314, -0.46252316, -0.041298885, -1.2288651, 0.56209874, -0.95217294, 0.65544116, 0.64009255, -0.39733657, 0.058627985, 0.14505178, -0.4809614, -0.5701517, 0.27903756, -0.2400636, 0.1752245, -0.19612017, -0.03314296, -0.42642817, 0.3692594, -0.42346162, 0.116533324, -0.24839087, -0.29214066, 0.054761987, -0.4498551, -0.15444836, -0.64605075, -0.3046317, 0.5399388, 0.3364764, 0.20977488, -0.4104871, 0.40551797, 0.04989897, 0.39906058, 0.27412444, 0.37151608, -0.1024943, 0.24992685, 0.119966015, 0.21051165, 0.4303658, -0.3821407, -0.42770046, -0.57019854, -0.08814599, 0.1484886, -0.09295447, -2.1080618, -0.04285139, -0.0005500518, -0.49924833, -0.41873306, -0.86101323, 0.6200655, -0.05320242, -0.024974812, -0.48169222, 0.17842634, -0.43578094, 0.63815534, -0.20526958, -0.008350383, -0.1296967, 0.62904114, 0.79614466, -0.12974572, -0.29912692, -0.24852057, -0.05211665, -0.5550689, 0.07423589, 0.09686887, -0.32165295, 0.5430969, 0.097345896, 0.26351127, 0.1776662, -0.3474945, 0.3432181, -0.48314667, -0.37624654, 0.071618415, 0.09165977, -0.18613155, -0.6792936, -0.98338115, 0.12586711, -0.044849254, -0.11191423, -0.25126952, -0.012522784, -0.2197148, -0.007818309, -0.13153018, 0.069416724, 0.258104, -0.9029498, 0.30943537, 0.36487532, 1.0426241, 0.08771224, -0.44402432, 0.13558051, -0.3222667, -0.23589411, -0.0045097647, 0.052947085, 0.5711819, 0.6322599, 0.15863098, 0.6089573, 0.4688445, 0.36141762, -0.19577861, 0.30878884, 0.023154195, 0.12487118, 0.6399969, -0.5001844, -0.5595926, -0.51800907, 0.37800896, -0.2976097, -0.08743069, -0.066739656, -0.16455278, 0.7616021, -0.57388616, -0.32563022, -0.37537268, -0.47925243, 0.7390356, 0.28033993, 0.08044531, 0.583933, 0.56859505, -0.15561967, -0.9188962, -0.0482279, -0.49254256, -0.59819436, 0.1525459, -0.29315037, 0.31989202, 0.23116656, 0.036673173, -0.33076864, -0.6193939, -1.1203783, 0.04563169, -0.4823784, -0.8425106, -0.2797949, 0.23443818, 0.030604672, 0.38919574, 0.1515044, 0.9069641, -0.3076408, -0.22964616, 0.80740803, -0.3886189, -0.4407679, -0.051147293, -0.26424158, 0.04224362, 0.05573825, -0.58718145, 0.7386652, 0.4580497, 0.031371556, 0.4790005, -0.0073177083, -0.29037386, -0.116634764, -0.47110295, 0.7400323, 0.20645833, 0.7549818, 0.29497054, 0.06365608, 0.20109585, 0.1956903, 0.2452269, 0.5321607, 0.14671008, 0.19043909, -0.17557395, -0.15908201, -0.76584226, 0.31154707, -0.39425412, -0.22872165, 0.3505248, 0.40753737, 0.30595902, 0.10786577, 0.4208483, 0.18932243, -0.3024828, -0.31086573, -0.453225, -1.1494995, -0.58321303, -0.2432661, -0.3077324, 0.07783593, 0.041317258, -0.5683995, 0.02341888, 0.54977864, 0.1557153, 0.25635076, 0.2015504, -0.29343897, 0.21683863, -0.3659733, -0.3929296, 0.24249437, -0.13081035, -0.17944308, -0.32623678, -0.3839975, 0.7414402, 0.0858169, -0.3792943, 0.26148477, -0.25315142, 0.33721337, -0.06359457, 0.09805299, 0.036423862, 0.15445046, -0.13828306, -0.2412016, -0.6586088, 0.21257183, 0.059833247, 0.5607915, 0.12196545, -0.20347588, -0.4883813, 0.52791756, 0.35063243, -0.84578866, -0.2635569, 0.08696034, 0.009994092, 0.5728515, -0.3839836, 0.046572782, -0.11868508, -0.3408695, 0.43457827, 0.10772717, -0.10255233, 0.14043424, -0.07537372, -0.044179447, -0.44849545, 0.097944126, -0.34800196, -0.39264175, 0.16396512, -0.32441354, 0.059358973, 0.6846453, 0.33946082, -0.17705055, 0.19639689, -0.6363597, -0.30408305, -0.7829559, -0.2045523, 0.054701887, -0.6907258, -0.08824333, -0.17940958, 0.27504256, -0.040111028, 0.2012827, 0.14920923, 0.15074965, 0.33370793, 0.31712988, -0.91442716, 0.2712378, 0.5670102, 0.47989807, -0.49191028, -0.22267835, 0.28675976, -0.20797575, 0.7223576, -0.059892904, -0.4695347, 0.38205755, 0.12889858, 0.06458115, -0.6091345, 0.39940825, 0.29882684, 0.45944363, -0.2075007, -0.018404767, -0.47402754, -0.4410324, -0.37971705, -0.053550966, -0.3427828, -0.28031912, -0.0067661824, 0.4039843, 0.18009964, -0.4299988, 0.56268436, -0.37940085, 0.19134118, 0.10751955, 0.39398554, 0.19947477, 0.41548967, 0.2681438, 0.28886655, 0.3482252, -0.56357706, -0.22180402, -0.15711513, -0.4785591, -0.06059308, -0.7471353, -0.9435999, 0.026873568, -0.8554117, 0.07601856, 0.37910223, 0.1886315, 0.026290711, 0.4927279, 0.021857198, -0.4623043, 0.5635933, -0.17350402, -0.12093283, -0.02777881, -0.18849063, -0.18008739, 0.38972998, -0.9998406, -0.45348287, -0.5491792, -0.12519701, 0.062150586, -0.08985009, -0.16415843, 0.26703674, -0.07339475, -0.6296948, -0.4211479, -0.46320954, 0.9807793, 0.109585784, -0.32068205, 0.11037463, -0.6487879, -0.36044303, 0.5661645, 0.28334576, 0.066818185, 0.31040728, -0.4172054, -0.24007371, -0.31506318, 0.123587824, 0.3345688, -0.050337743, -0.35851938, 0.13122317, -0.12970646, 0.053740215, -0.3293393, -0.4101502, -0.07673414, 0.1217587, 0.08598577, -0.57079667, 0.18766806, 0.17773421, 0.08502929, 0.306282, 0.027498102, 0.48187417, -0.20455973, -0.7528571, -0.07790889, 0.48619944, -0.05561001, 0.1514434, 0.0041283816, -0.5873916, -0.31861758, -0.5431907, -0.46722168, -0.105604485, -0.18712026, 0.3543332, 0.40823174, 0.3265432, 0.3585815, -0.3812778, 0.29259092, 0.055478834, -0.17414382, -0.16980422, 0.023448553, -0.10188297, -0.2885503, -0.10317032, -0.4083394, 0.42359456, -0.6251229, 0.27309948, 0.33406478, 0.35999718, 0.41933456, -0.34986505, 0.029319877, 0.40585622, -0.84159744, -0.4355685, 0.2971107, -0.5682742, 0.49684983, -0.5224651, -0.21673317, 0.043403704, 0.061421044, 0.7220523, -0.41482455, 0.7493118, 0.23747249, -0.38198704, 0.79325694, 0.20826817, -0.31876525, -0.10860032, 0.53820753, -0.35964832, 0.5482505, 0.9132515, -0.10297926, 0.042785615, -0.4498918, -0.21070275, 0.25448257, 0.28321072, -0.49315062, -0.1678146, 0.03709139, -0.3352625, -0.39159974, -0.40296537, -0.11539511, 0.39858514, 0.118838, 0.7718511, -0.28783923, 0.38474673, -0.29821295, -0.21963736, 0.08984469, -0.4011901, -0.18892418, -0.56685823, -0.39974865, 0.0528365, -0.2885682, -0.41291124, 0.292013, -0.047813423, 0.3100469, 0.37896192, -0.22690728, 0.44832015, 0.2301422, -0.5876974, 0.011917442, 0.45817694, 0.7486409, -0.027412843, 0.107512966, 0.5489916, -0.058264326, -0.33244896, -0.29571897, -0.2589607, -0.53185976, 0.3396361, 0.7434362, 0.34020165, 0.21985106, 0.36854568, 0.27789816, 0.004318823, -0.35337082, -0.011301277, -0.11571769, 0.1481559, -0.45879024, -0.047486197, -0.71327436, 0.2673726, 0.63494235, 0.452401, 0.035956167, -0.155062, -0.5817314, 0.18188074, 0.2557304, 0.14835803, -0.102845654, 0.33128503]</t>
         </is>
       </c>
     </row>
@@ -1074,18 +1208,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>sphere probe</t>
+          <t>부착성의 의미는?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>베이글 등 표면이 일정하지 않은 시료에 적합합니다.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>[0.043543566, -0.25800982, -0.20559935, -0.0038382635, -0.25183207, -0.026645673, 0.62922424, -0.114398, -0.016650068, -0.4437081, -0.40409634, -0.21296625, 0.049680118, 0.5046651, -0.16638856, -0.19765787, -0.36337042, 0.25858903, 0.4002763, -1.0527557, -0.18714412, 0.44343925, -0.100732714, 0.18541308, 0.22827347, -0.05291593, -0.25835222, -0.29413766, 0.2709191, -0.33440176, 0.18422796, 0.25029168, -0.28104618, -0.16042583, 1.0367175, 0.4509492, -0.47004178, -0.35548934, 0.97203404, 0.14721851, -0.24990867, 0.08970531, -0.7428897, -0.06313334, 0.17143275, -0.0019041946, -0.0020736263, -0.18850279, -0.25125766, 0.03693992, -0.025932953, -0.8526489, 0.34572837, 0.6345075, -0.14367922, -0.8364191, 0.21280758, 0.1610665, 0.4024996, 0.21983944, 0.64101785, -0.08902978, -0.33865163, 0.17813478, -0.08141935, 0.013090941, -0.019522687, -0.15767635, -1.0408568, -0.052125216, -0.005060468, 0.076571204, 0.21173196, -0.34946823, -0.0836328, -0.025493896, 0.112821124, 0.521405, 0.2996823, 0.19830374, 0.041203935, -0.73984146, 0.5301704, -0.6223534, 0.14172725, -0.29181883, 0.17533, -0.1534451, -0.13797192, 0.19687583, 0.20891976, 0.8903611, -0.6406274, 0.17587787, -0.52829605, 0.6833264, 0.06565142, -0.40023294, 0.43747687, 0.358554, 0.41946223, 0.031068996, -0.081368215, 0.08869594, -0.029938871, -0.0068038255, -0.31392905, 0.9487466, 0.11466851, -0.13568787, 0.5246383, -0.49262288, -0.12788306, 0.25400102, 0.0022266228, 0.17783892, -0.7087152, 0.27777106, -0.2611138, 0.18218796, 0.3919315, -0.50786227, 0.1930636, 0.0886965, -0.78364897, 0.28326452, 0.5433931, -0.2778838, 0.106346644, -0.4900399, -0.0053028613, -0.028863937, 0.13986826, -0.29584435, -0.49482015, 0.14587717, 0.049440723, 0.16125746, 0.29921347, 0.4589692, 0.36818418, -0.488819, 0.3543488, 0.17888492, -0.13639133, -0.532953, 0.22927009, -0.21902736, -0.16654287, -0.8457534, -0.017417721, 0.46449184, -0.43332815, 0.15838231, 0.07018166, -1.2468332, -0.017685922, -0.059012394, 0.41279435, 0.32070473, -0.26411518, -0.9217928, 0.07555138, -0.1288555, 0.039173845, 0.48401323, -0.59855807, 0.1537049, 0.26375398, -0.08169133, 0.19404042, -0.31518218, -0.6678532, -0.26324987, 0.093794025, 0.551228, 0.3424237, 0.43530545, 0.23689206, -0.2837886, 0.41089073, 0.31355253, 0.15268351, 0.058446903, 0.19526218, 0.4415603, -0.66486853, -0.15396407, -0.58162796, -0.22065032, 0.56802297, -0.18189423, -0.12452709, -0.21660958, 0.060673367, 0.4784735, 0.1929149, 0.16262011, -0.0377738, -0.15966393, -0.4363699, -0.110286325, -0.39826107, 0.007265804, -0.23936307, 0.40206456, -0.3570507, -0.047985937, 0.11977133, -0.4051962, -0.49764422, 0.6559729, 0.31384468, -0.19492577, -0.54344344, 0.33713427, -0.23944892, -0.29756346, 0.41400132, -0.21038449, 0.5149054, -0.27052236, -0.057082165, -0.05919707, -0.12850094, -0.005416998, 0.103429735, 0.34779748, -0.08613642, 0.31691015, -0.15095286, -0.53762716, -0.455349, -0.68489236, 0.59661436, -0.5684069, 0.41108695, -0.19068778, 0.8271613, -0.76346105, 0.22618616, 0.40255228, -0.31188118, -0.27351344, 0.28417972, -0.5309821, -0.046001926, -0.117059074, 0.39725545, -0.8896821, 0.090798974, 0.37839592, -0.248196, -0.2980965, 0.24506171, 0.022983542, -0.13029711, 1.12162, -0.38990203, 0.14271773, -0.06637344, -0.07783413, 0.32867405, -0.29551455, 0.6715383, -0.82159084, 0.5713294, -0.5699966, 0.19863613, 0.33357155, -0.122612506, -0.4533361, 0.80230325, 0.35817572, 0.13956806, 0.46398082, 0.28422284, 0.5592738, 0.30830488, 0.3665465, 0.120137535, 0.1790508, 0.28652614, -0.019607803, 0.10209918, -0.66798687, -0.051982164, 0.09268143, -0.110426605, -0.5374939, -0.19919045, 0.20204477, -0.08865711, -3.760974, -0.057240475, 0.030093342, -0.11654789, -0.08552552, 0.00010456145, 0.2868944, 0.61828893, 0.20933108, -0.026248021, 0.41458026, -0.3401486, 0.24979693, -0.5750937, -0.39170966, -0.52504647, 1.2440344, 0.4058294, 0.54015666, 0.374161, -0.26524195, -0.29826257, -0.5836172, 0.4827337, -0.37108043, -0.032997336, -0.20157106, 0.6073804, -0.19313449, 0.06773747, 0.38615313, 0.45805934, 0.25881156, -0.6475552, 0.30866957, -0.54154205, -0.6281798, -0.5442899, -0.73365206, 0.09253609, 0.16289134, -0.071841255, -1.1542033, 0.047009405, -0.20793085, 0.19960147, -0.16762628, -0.27436996, 0.13303219, -0.61554366, 0.23899396, 1.2662963, 2.0173419, -0.38155314, -0.32886747, -0.45830622, -0.33455, -0.13338485, -0.36074564, -0.05875096, 0.19490696, -0.0748431, 0.16487373, 0.48710692, 0.9381862, -0.006660737, 0.3063071, 0.4696423, 0.6493736, 0.32286903, 0.871932, 0.062120795, -0.16023673, -0.14769186, 0.07067345, 0.5567373, -1.0277222, 0.05318464, -0.28826413, 0.58160716, -1.1879241, 0.11314813, -0.37717542, -0.24645798, -0.39185897, 0.21310472, 0.05857454, 0.3063146, 0.29133794, -0.25079098, -0.32309008, -0.8285444, -0.33204985, -0.1867352, -0.16946018, -0.21254843, 0.14591058, 0.18768507, -0.48323777, -0.63645977, 0.01793166, -0.63001615, 0.4766787, -0.20801969, -0.45074758, -0.14646839, 0.26478937, -0.06044909, 0.26054326, -0.10268117, -0.13205132, -0.1142597, 0.31179956, 0.7714947, -0.053760912, -0.6371992, -0.3605249, -0.34752104, 0.23457336, 0.13708963, 0.38720846, 0.28731403, -0.33878103, 0.13869657, 0.5964636, 0.36602315, -0.20542133, -0.20341893, -0.28080165, 0.5151354, -0.6228845, 0.380481, 1.3685778, 0.12288606, -0.062701434, 0.022910396, 0.09725999, 0.1494226, 0.1525483, 0.2784941, -0.093318075, -0.29061595, -0.6863007, 0.33407095, 0.084165156, -0.92181605, 0.58421963, 0.42195868, -0.20358455, 0.4628577, -0.19328578, -0.60095835, -0.4461098, -1.0618964, 0.085204236, -0.532906, 0.20749481, -0.2918022, -0.56468487, 0.22164738, 0.21642953, -0.07736553, 0.14182936, 0.28742, -0.44016692, -0.14927776, 0.003573681, -0.10990286, 0.7135656, -0.21527135, 0.045519512, 0.39230442, -0.21420495, -0.115481265, -0.01821663, 0.14005005, 0.3101463, -0.41484466, 0.49499393, 0.3840172, -0.2606749, 0.49286786, -0.64473397, -0.18424965, -0.21946962, 0.40428802, -0.45381656, -0.3627207, -0.84680176, -0.27591917, -0.08725098, 0.18752217, 0.37694559, -0.5282755, -0.8385342, -0.13939597, 0.08116167, -0.08244795, 0.1559551, -0.024338543, -0.4150829, 0.9805928, 0.08285341, -0.3709964, -0.021286061, -0.19007449, 0.0036850173, -0.34955218, -0.16449745, -0.58148676, -0.3377262, -0.40662476, 0.019191014, -0.023655662, 0.14759795, -1.0930322, 0.3343905, -0.08915623, -0.15195732, 0.17075086, 0.20089771, 0.11875006, 0.64494365, -0.99927264, -0.17416525, -0.4744015, 0.32060036, 0.36350968, -0.66305834, -0.17400734, -0.66408575, 0.67829734, -0.3203598, -0.006830126, 0.53775555, -0.61173725, -0.29456952, 0.3942578, -1.037208, -0.25963837, -0.5667675, 0.8122695, -0.37559113, -0.18821341, -0.17697589, -0.1366962, 0.14871608, 0.19843483, -0.42457736, -0.1796289, -0.22531825, -0.028554196, 0.1749876, -0.0052854405, -0.2669207, 0.7360917, 0.10915938, 0.065278575, 0.035676952, 0.0068639317, 0.012329698, -0.22236957, -0.54937917, -0.13065615, 0.040979996, -0.5658873, -0.03344436, -0.22379501, 0.6086506, 0.16565573, -0.18128006, 0.34914935, 0.21523769, -0.25150925, 0.57529014, 0.33986413, -0.20277941, 0.47178623, -0.12563461, -0.34910548, -0.5664001, -0.49409494, -0.5157899, -0.395146, -0.22973102, -0.14309995, -0.10428357, 0.27391097, 0.6462993, 0.12757502, -0.34886754, 0.6366556, -0.41464165, 0.0067659714, -0.057860374, -0.08390511, 0.25502822, 0.09306105, -0.5152666, 0.09844337, 0.47291222, -0.3264241, -0.3551872, 0.11799148, -0.15987031, 0.24578214, 0.16168202, -0.6961306, 0.0707229, -0.00031693777, 0.19129579, 0.36130795, -0.5402036, 0.078703225, -0.29728958, -0.26098248, 0.01145079, 0.3069773, -0.25963512, 0.2220797, -0.06826227, -0.7783866, -0.056150366, 0.2320124, -0.23526452, 0.23453005, -0.02758097, 0.5427658, -0.065848015, -0.39856866, -0.21126784, -0.47390047, -0.23321123, -0.5332894, 0.036018085, -0.43694696, -0.32722795, -0.3667349, -0.16019177, 0.08248484, 0.35998312, -0.4016541, -0.4562935, -0.35515273, 0.36794722, -0.012866612, -0.9910183, -0.15667947, -0.24369802, 0.5980529, -0.029227661, -0.41222143, -0.1191821, -0.4314746, -0.25565997, -0.3339101, -0.33139923, -0.32154232, 0.28328943, 0.028994171, -0.054510683, 0.35907915, -0.14496505, 0.0036125456, -0.07543171, 0.45916775, 0.16649, -0.10299764, 0.1859181, -0.28756797, -0.33274493, 0.01823124, 0.4711297, -0.4521892, 0.30925414, -0.2714907, -0.015838863, 0.52073884, 0.10975667, -0.053804893, 0.6356351, -0.13235201, 0.4733903, -0.42790118, -0.27084395, -0.0579873, -0.041609358, 0.6550974, -0.14096536, 0.073578425, 0.4363846, 0.013544291, 0.7893789, 0.7771787, -0.15826498, 0.12581775, -0.30645618, -0.51175374, -0.40299907, -0.08907503, -0.6242006, 0.31966913, 0.44481778, 0.49338493, 0.073207654, -0.102799855, -0.021420628, 0.19904357, 0.26533514, -0.20766108, -0.461946, -0.56138396, -0.15082414, -0.1741036, -0.12037659, -0.37045503, 0.440953, -0.46439517, 0.062508844, 0.18189682, 0.43318138, -0.0448973, -0.291212, -0.39654598, 0.5755127, 0.033814996, -0.4648349, -0.3774109, 0.35626265, -0.7092691, -0.6509163, 0.07515537, 0.17324461, 0.4355155, -0.16723557, -0.25467446, 0.15517701, 0.10586074, 0.14134547, 0.3211905, 0.39284912, 0.2929478, -0.19905113, -0.46096075, 0.033797275, -0.9705747, -0.63393646, -0.16934162, 0.36080328, 0.19255958, -0.073194005, 0.25432423, 0.029424995, 0.09247505, 0.5266443, -0.42796037, 0.08653995, -0.19220823, -0.26598555, -0.058502242, -0.061629057, -0.2888873, -0.4702473, -0.53934354, -0.09177532, 0.040143076, 0.06869487, 0.236308, 0.48723665, -0.066301495, 0.13024636, 0.37007883, 0.6110041, -0.090068124, 0.11726304]</t>
+          <t>TPA 곡선에서 피크 사이에 음의 방향으로 위치한 피크의 면적으로 시료의 끈적한 특성을 나타냄.</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[-0.08502101, -0.38516578, -0.13854872, 0.5498657, 0.0537936, -0.25679308, -0.080473326, -0.056911178, 0.14317751, -0.23877715, -0.63218623, -0.46862507, -0.4152056, 0.44535846, -0.061647907, -0.47395414, -0.15756147, 0.4279096, 0.4099844, -0.49482137, -0.5959773, 0.18694922, 0.18098332, 0.40897444, -0.5806131, 0.14275049, 0.012326099, -0.2774002, 0.4227652, -0.5014809, 0.53896123, -0.17912625, 0.4035411, 0.17495574, 0.8456978, -0.08480516, -0.9026904, -0.6029972, 0.52129453, -0.22708069, -0.15409356, 0.041821018, 0.0520988, 0.18193929, -0.07866633, -0.17785308, -0.24787115, -0.3082478, -0.26972362, -0.14162129, -0.6111197, -0.10308489, 0.8323394, 0.24919106, -0.27313846, 0.04122335, 0.48167977, -0.46656093, 0.44967902, -0.2393571, 0.7586886, -0.61129594, -0.3463194, 0.66782564, 0.04436151, -0.24005233, -0.32795987, -0.09569772, -0.6006149, 0.11942863, -0.0005975347, -0.01885113, 0.6810612, -0.27459064, 0.0023945868, -0.22629307, -0.008000761, 0.17733811, 0.24849485, 0.47031683, 0.20528065, -0.76087093, -0.26802668, -0.86364824, 0.2983655, -0.008049255, -0.0468518, -0.30276394, -0.78229696, -0.043760084, -0.63347423, -0.24399915, -0.31867355, 0.11028394, -0.92582834, 0.06517971, -0.031100689, 0.26303625, 0.35967547, 0.013100225, 0.26833543, 0.58542144, -0.26242524, 0.97227436, 0.031690046, -0.035271544, -0.83093244, 0.64218986, 0.079908535, -0.16810724, 0.6852887, -0.32536137, 0.46556363, -0.05502005, 0.29737714, 0.46371272, -0.45878062, 0.44924402, 0.022520622, 0.35517427, -0.06337124, -0.658221, -0.46112534, 0.2916884, -0.45496142, 0.17565581, 0.5740443, -0.0052893357, 0.053779714, 0.17026405, 0.22599345, 0.09337197, 0.41466212, 0.08202191, -0.5209735, 0.013930449, -0.43265858, -0.24411711, 0.5988323, 0.03696898, -0.3243003, 0.03535726, -0.37566176, -0.49790502, 0.5128705, -0.39642054, 0.46549776, 0.0741359, -0.035473987, -0.28718355, -0.19483007, 0.26183942, -0.80366004, -0.3843294, 0.32514262, -0.42949158, -0.055212907, 0.10693759, 0.08927908, 0.51877654, 0.13453057, -0.5816909, -0.31556535, -0.012570173, -0.21704215, -0.45257688, 0.34442288, -0.34329122, 0.10115762, -0.46744204, 0.026150607, -0.06249273, -0.051232357, 0.018765928, 0.17370379, 0.20543373, -0.24431914, 0.5726666, 0.1798936, -0.6859117, -0.46016842, 0.21837273, -0.39499992, 0.12083837, 0.19996771, 0.040871467, -0.09653189, -0.34595278, -0.79763484, -0.001188077, 0.83812976, 0.023561746, 0.017072676, -0.45809257, 0.23154683, 0.5441297, 0.0061151646, -0.35431105, -0.22836885, 0.21597722, -1.2201489, 0.49409178, 0.45807514, 0.090576485, 0.51835, 0.63610184, -0.02607749, -0.42005646, -0.0022447333, -0.40307948, -0.42449796, 0.51472753, 0.071328685, -0.49855167, -0.3685311, -0.009363249, -0.35494003, 0.070373535, -0.57453674, 0.054706424, 0.3336354, -0.35795742, 0.81981957, -0.12717313, -0.16025105, -0.20059642, 0.10859963, 0.2758875, -0.07351494, -0.15661119, -0.17513075, -0.9902622, -0.76526606, -0.1301938, 0.49556443, -0.3247199, -0.025450502, 0.29273733, 0.09502244, -0.2473899, 0.33178538, 0.18798418, -0.07059874, -0.100089476, -0.03608223, -0.1133076, 0.15679534, -0.69576365, 0.7420784, -0.6167778, 0.3114971, 0.9142227, -0.86244017, -0.33513376, 0.991512, -0.2817056, -0.5777943, 0.6556061, -0.35332316, -0.26415652, 0.31266922, 0.06724117, -0.61032796, -0.6042954, -0.28606156, 0.01629113, 0.21830282, -0.74650955, 0.45442975, -0.28239995, -0.7644101, -0.49553302, 0.35397714, -0.28068215, 0.28466135, -0.075435884, -0.30256692, 0.83629, -0.38901055, -0.14548363, 0.4662617, -0.19785193, 0.83517283, 0.14106722, 0.3524087, -0.022143021, -0.049978293, -0.35416907, -0.03207408, 0.18653876, -0.14195523, 0.27024075, 0.014271144, -2.3826382, -0.048872724, 0.09141552, -0.5960565, -0.34187979, -0.35766345, 0.3608532, 0.6890682, 0.29139665, -0.6481445, 0.36264333, -0.26909494, 1.1801097, -0.37483454, -0.36575067, 0.42106318, 0.93242794, 0.27010298, 0.07086939, -0.33055547, -0.35370645, 0.2639235, -0.25432852, -0.025697626, -0.8820494, -0.07989927, 0.7684995, -0.59093016, 0.46808818, -0.17921704, 0.32412994, -0.05302877, 0.27800697, -0.493417, 0.5915146, -0.31001467, -0.10324784, -0.48390403, -0.09817367, 0.7723883, 0.27481362, 0.086249, -0.047259726, 0.4806824, -0.2129094, -0.19356127, -0.2112746, 0.44281095, -0.085527755, -0.69789565, 0.42180982, 0.49741864, 1.2037565, -0.008271962, -0.2707197, 0.36040503, -0.77681994, 0.1549377, -0.5452897, -0.17910108, 0.21080062, 0.5224105, 0.24634542, 0.5957974, 0.6241605, 0.19536996, -0.29630214, 0.51424146, -0.04230049, 0.35693553, 0.14679487, 0.06113829, 0.48976284, -0.72547954, -0.014631186, 0.6539843, 0.17016369, -0.14195977, -0.6883446, 0.25598186, -0.6850685, -0.5686667, -0.24656452, -0.06549121, 0.43196726, -0.08690982, 0.5133027, 0.6658871, 0.65325516, -0.32686502, -0.79572284, 0.67425025, 0.21898402, -0.46741956, 0.34800407, -0.3666638, -0.09142254, -0.016122263, -0.38533399, 0.052380502, -0.40294436, -0.75950533, 0.12486396, 0.4033276, 0.21767402, -0.27158377, -0.24154231, 0.10303716, 0.3269479, -0.13463792, 0.5970045, -0.03919117, 0.33802557, 0.66530704, -0.67984706, -0.14530598, -0.31874967, -0.44051445, 0.033483922, -0.49169022, -0.03581281, 0.080951266, -0.2920006, 0.21043909, 0.054894764, -0.56644297, -0.13783683, 0.011538692, -0.8814897, 0.7757423, -0.98890036, 0.163251, -0.13634598, 0.26384804, -0.18801805, 0.746171, 0.17059055, 0.650605, 0.23996177, 0.6293604, -1.0888855, 0.042693023, -0.45698583, 0.3207432, 0.30971196, -0.333211, -0.1194682, 0.13210598, -0.12611888, 0.48013574, -0.010378018, 0.19304785, -0.06775059, -0.42018262, -0.16359963, -0.29644042, -0.41305685, -0.84386814, -0.7513531, 0.14856829, 0.16327429, -0.45809245, 0.15721081, 0.60236293, 0.14871073, -0.24165958, 0.5789211, -0.13907978, 0.035374727, 0.0056966487, -0.34823504, 0.016670402, -0.1905908, 0.2449246, 0.032673657, 0.19631001, 0.66593605, -0.762882, -0.1588843, 0.16066945, -0.59282166, -0.24673516, -0.2948032, -0.28385666, -0.028666168, 0.1634323, 0.37696114, -0.19562763, 0.013901386, -0.10298767, -0.20089605, 0.4613096, 0.090686575, -0.18080857, -0.18806517, 0.39705437, 0.15746418, -0.7475164, -0.09648197, -0.15748432, -0.53899175, 0.79038477, -0.13077894, 0.110537305, 0.47459543, -0.6296823, -0.06738613, -0.21222077, 0.31912106, 0.23282558, 0.25792018, 0.08336499, 0.04803124, 0.1592979, 0.3834212, -0.7331369, -0.29215792, -0.18017057, -0.722454, 0.3822814, 0.09170202, -0.019110959, 1.0454454, 0.2882947, -0.2892576, -0.09627229, 0.44447374, -0.34579226, -0.06346646, -0.06928659, 0.15489402, 0.1987758, -0.22615366, 0.48339286, 0.3144802, -0.06182966, 0.3899097, 0.13604242, -0.6705243, 0.0831064, -0.13818797, 0.100044206, -0.33530542, 0.19968516, 0.61320513, 0.4258963, 0.43008316, -0.46276993, 0.13112755, 0.5765054, -0.3081022, 0.1460285, -0.15840891, 0.21009582, 0.3277772, -0.5093074, -0.64190453, 0.028137237, -0.30127785, -0.8482568, -0.23725538, -0.5655426, -0.21703003, 0.18088585, 0.3959295, -0.6594103, 0.4312194, -0.25270045, 0.91459996, -0.63810426, -0.45648566, -0.35382673, 0.32678705, -0.22618707, -0.11437644, 0.11882418, -0.31508595, 0.042474914, 0.4132527, -0.062006183, -0.0029787398, -0.09284585, -0.7661269, -1.1902392, -0.44922796, 0.46076345, -0.71642876, 0.50084996, -0.043301277, 0.2567063, 0.32993138, -0.017971285, -0.30681872, -0.07626797, -0.011540361, 0.18077813, 0.059670057, 0.6615313, -0.85111785, 0.47883177, 0.80483085, -0.740323, 0.027762745, 0.06484524, -0.8927002, 0.019017939, 0.8508287, -0.51859695, 0.44618255, -0.20814034, -0.09847709, -0.46271336, -0.27966386, 0.29874867, 0.01839663, 0.03004678, 0.21213025, -0.4691167, 0.27712953, -0.11139634, 0.31290773, -0.21399534, 0.34997144, 0.19507368, -0.049581364, -0.09418816, 0.14645873, 0.24606782, -0.39668694, -0.72831506, 0.19555429, -0.33392203, -0.21103632, 0.017306287, -0.6524323, 0.20084007, -0.9620155, 0.15764016, -1.0794233, 0.11143936, 0.008813936, -0.11589956, -0.5754492, 0.35800886, 0.13672628, -0.08435929, -1.1544416, -0.38023204, 0.14691588, -0.3118074, -0.27217725, 0.21090049, -0.3235043, -0.2858681, -0.31669208, -0.38078701, 0.25370327, -0.10967214, 0.22535801, 0.33484396, -0.4746261, 0.52021235, -0.28711393, 0.075099856, -0.029554889, -0.43154442, -0.019529246, 0.29787707, -0.08765587, 0.09861687, -0.032704897, -0.4592117, -0.17732522, -0.27106622, 0.12978451, -0.0834746, 0.012044277, 0.008910005, -0.24461007, 0.38160214, -0.022187736, -0.24214303, 0.09725326, 0.4653263, -0.3178179, 0.18712263, 0.019563809, 0.42673257, 0.25336072, -0.12920251, -0.23254375, -0.19465618, 0.95620793, 0.60187745, 0.37379572, -0.061403908, -0.42722452, -0.48934722, 0.23885953, 0.015431031, -0.56594175, 0.7136151, 0.62332016, -0.2202602, -0.3084923, -0.0044917297, 0.11644972, 0.351329, 0.0229248, -0.83879554, -0.5813524, -0.08740643, -0.46898198, -0.05278442, 0.06901515, -0.01148369, 0.12530236, -0.78926176, 0.18308294, -0.32935417, -0.124662444, -0.33170807, 0.19420367, -0.15668708, 0.24419838, -0.1743994, -0.4491802, -0.069619924, -0.19184935, -0.2565028, -0.43443483, -0.12800372, -0.25939345, 0.15336433, -0.20543669, -0.20581505, 0.060688596, -0.12700364, -0.5602931, -0.031990632, 0.75108993, 0.4130561, -0.08168785, -0.037712194, 0.36591336, -0.5663473, -0.13585083, 0.07023302, 0.23073316, 0.10206431, -0.02946794, 0.49331766, 0.47560686, 0.24335179, 0.5595081, 0.3555051, 0.12383725, -0.1523104, -0.087386996, -0.39457664, -0.09184466, -0.20806368, 0.4582536, -0.7490901, -0.0070772897, 0.23863295, -0.10594633, 0.20436111, -0.14998162, -0.04046338, 0.3940242, 0.29590878, 0.06579274, 0.07490764, -0.11227105]</t>
         </is>
       </c>
     </row>
@@ -1095,18 +1234,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>strain</t>
+          <t>Adhesiveness의 의미는?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>변형률로서 어느 정도 시료를 변형시킬 지를 나타냅니다.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>[-0.48224676, 0.0889824, 0.05711973, -0.33388016, -0.23548134, 0.11620392, 0.33850038, 0.047823984, 0.11915915, 0.06498149, 0.10667807, -0.6242789, -0.116586365, 0.60421896, -0.08077757, -0.021436274, -0.11305368, 0.40387446, 0.8114191, -1.0093043, -0.3983231, 0.25731966, 0.1412133, 0.21839485, 0.09941991, -0.08240448, 0.20066369, 0.058339786, 0.099664375, -0.047389936, 0.44071966, 0.033567626, -0.29441932, 0.4533268, 0.9809871, 0.36122283, -0.7084655, -0.24936774, -0.2921581, -0.63855845, -0.1652046, 0.46394938, -0.6017163, 0.058623955, -0.34656495, -0.3756628, -0.098890334, 0.47877893, -0.14561595, -0.5132134, 0.41307348, -0.4269106, 0.5805353, 0.24389133, -0.13176861, -0.19013974, 0.20334327, -0.40556642, 0.2902797, -0.22071707, 0.7217842, -0.693311, -0.35372418, 0.41547987, 0.1842443, 0.37422612, -0.38426512, 0.32336488, -1.1283807, -0.051509257, 0.38679624, 0.9586178, -0.32477129, -0.8371631, 0.115032844, 0.10794112, 0.051885966, 0.18098027, 0.8574455, 0.5749917, -0.30295226, -0.6545238, 0.85156465, -0.6228332, 0.15654299, -0.6715723, -0.03903731, -0.5438092, -0.59370226, 0.29670385, -0.33128864, 0.51809764, -0.5750928, 0.15845825, -0.4825077, 0.04246583, 0.4101786, -0.37769026, 0.95366824, 0.5836134, 0.18739524, 0.123401135, -0.82029074, 0.75021243, 0.41122046, 0.02566287, -0.29386348, 0.27071658, 0.92984176, 0.3290086, 0.87062204, -0.287804, 0.047629107, 0.18167675, 0.3340096, -0.026813725, -0.55316556, 0.08716955, -0.116285704, 0.12736821, 0.084077865, -0.8643001, -0.5767693, -0.33606237, -0.31689516, 0.3949644, 0.47136617, -0.483527, -0.36278772, -0.09559667, -0.1828362, -0.627264, 0.028876849, -0.44773147, -0.20550768, 0.031284638, 0.12574044, 0.13324234, -0.039627932, 0.52041245, 0.10824536, -0.23709118, 0.3257481, 0.07654231, -0.0912481, -0.12960997, 0.22423337, -0.30647075, 0.051338904, -0.52088785, 0.09349414, 0.6113045, -0.10216607, 0.34580672, 0.39632946, -0.9792369, -0.44344142, -0.3758289, -0.01394694, 0.39069337, -0.23188797, -0.45148408, -0.093940035, 0.02273159, -0.08236584, 0.5857376, 0.17986795, 0.08974613, 0.16432796, -0.26560608, 0.07782019, -0.26351792, -0.008172385, -0.19731417, -0.41295132, -0.0016507991, 0.24617094, 0.3286616, -0.2064766, -0.14733909, 0.0857714, 0.09497303, -0.13097326, -0.26650017, -0.024702879, 0.42290092, -0.21414861, -0.25321138, -0.059100844, -0.64329684, 0.02131968, 0.14358704, -0.16588151, 0.05528182, -0.33195838, 0.53829455, 0.35155836, 0.23483491, -0.34906095, 0.06351648, -0.21560472, -0.11790185, -0.22036205, 0.25817338, -0.7398908, 0.7044459, -0.12745371, 0.023582228, -0.071444646, -0.32260278, -0.784518, 0.4960284, 0.5348538, -0.43769935, -0.24689803, -0.3558005, -0.6013076, -0.007865338, 0.04844933, -0.43887606, 0.9308531, -0.14712678, 0.6294574, -0.041606106, -0.4259094, 0.11003315, 0.099915616, -0.099974886, -0.18730225, 0.18956965, -0.5842948, -0.78238195, -0.8222499, -0.71733046, 0.6127325, -0.34955406, -0.22658516, -0.15762934, 0.808244, -0.8577579, 0.1746109, 0.1714396, -0.39950073, -0.18103184, 0.44733775, -0.046371266, 0.04606795, -0.30670992, 0.080613844, -0.44048977, -0.0820459, 0.57088673, 0.054727294, 0.1554972, 0.033625826, -0.29063505, 0.049467813, 0.80037683, 0.033418883, 0.19560406, 0.0050936677, 0.08421281, 0.29642653, -0.05626285, 0.73661274, -0.3750814, 0.36021084, -0.44538397, 0.36501753, 0.2773648, 0.2883224, -0.3107675, -0.2995192, -0.32008213, 0.56838375, 0.548023, 0.06892125, 0.027151676, 0.65195537, 0.00618156, 0.53980947, -0.1720432, 0.056436136, -0.17094198, -0.0003145635, -0.22144605, 0.67751324, 0.19990113, 0.073620364, -0.44502535, -0.58731866, 0.48063165, -0.04009544, -3.030986, -0.17165437, 0.20536728, -0.3374594, -0.50461084, 0.26718655, 0.6687859, 0.18770903, -0.18319578, 0.2875628, 0.7162931, -0.63926053, 0.30530408, -0.6348438, -0.06513123, -0.40474832, 0.9701165, 0.58210856, -0.0153360665, 0.78923684, -0.29944807, -0.05293279, -0.5845416, 0.1427299, -0.32866463, -0.13561353, -0.37740892, 0.4734061, -0.354881, -0.03646136, 0.085585184, 0.26463503, 0.24501765, -0.88163936, 0.008086932, -0.73077273, -0.34742552, -0.5872179, -0.36133924, -0.20339586, 0.44998065, -0.3088779, -0.6780745, 0.057146013, -0.017442627, -0.21552971, -0.36985937, -0.019695185, 0.16950978, -0.64216584, 0.3334444, 0.20690392, 3.0900974, -0.37904054, -0.10144799, -0.103980094, 0.1885324, -0.5974284, -0.34447554, -0.091977715, -0.053398203, 0.19629675, 0.41886884, 0.6908283, 0.1731249, 0.3387087, -0.06046667, 0.2606036, 0.035853673, 0.38743773, 0.5637065, -0.58812034, 0.20198593, 0.048573527, -0.17203043, 0.14590591, -0.7215154, 0.17472595, 0.048095167, 0.3406372, -0.45384794, -0.49228203, 0.0031751897, -0.6735696, 0.031853303, 0.027276568, 0.16730359, 0.16435984, 0.40289602, 0.05346575, -1.235554, -0.20847648, 0.00011020992, -0.0902489, 0.02767745, -0.18021779, -0.23385674, -0.004882008, 0.21547285, -0.69013166, -0.44495478, -0.47900072, -0.15193644, -0.24813272, -0.5325451, -0.11752474, 0.19717422, -0.53242266, 0.1636322, 0.12581182, 1.1639578, -0.011419927, 0.30734077, 0.23517856, -0.30942383, -0.4729823, -0.5084041, -0.03125877, -0.2922525, 0.023218963, -0.4466653, 0.087641835, -0.02402143, 0.17732352, 0.15105252, 0.09822033, 0.11794491, -0.5277481, -0.18905933, 0.50565344, 0.5932534, 0.3609104, 0.8598814, 0.26111344, 0.11111491, -0.11069966, -0.16757679, -0.20020221, -0.18874033, -0.05428924, 0.24960509, 0.07870509, -1.3265378, 0.35783285, 0.2691169, -0.18827012, 0.32798934, 0.51897657, 0.21195531, 0.12518504, 0.24173832, -0.90255433, -0.6208197, -0.5058592, -0.18016416, -0.5270364, 0.3548138, 0.17133945, -0.31998017, 0.03183529, 0.66038144, -0.09226912, 0.2998211, 0.30577466, -0.19976081, -0.0656351, 0.14446065, -0.020920038, -0.036461014, 0.34426692, -0.10928796, 0.45397216, 0.11887877, -0.13364911, 0.23749375, 0.4129371, 0.13114396, 0.1626639, 0.40570915, 0.37604237, -0.34443864, 0.37230837, -0.6072486, -0.2506289, 0.18239388, 0.22989373, -0.20868617, -0.14371906, -1.1425152, 0.2841903, -0.34725228, 0.26086426, 0.13566571, -0.06376861, -0.04615088, 0.3380364, 0.41919106, -0.20162885, -0.077807486, -0.2862211, 0.012265161, 0.6986498, -0.0002991464, -0.09021829, 0.008580305, 0.05280308, -0.19884941, -0.19306377, -0.26294363, -0.35072076, -0.4983958, 0.1407266, -0.4090068, 0.012590123, 0.13029642, -0.3350696, -0.064315826, -0.22223389, 0.123397134, 0.81190395, 0.37857124, 0.5951867, 0.60775095, -0.32803792, -0.36739767, -0.36429963, 0.49462688, -0.058728147, -0.1375137, -0.5154953, -0.36498445, -0.19131665, -0.16528307, 0.058577325, 0.044763263, -0.5116492, -0.80491316, 0.14881119, -0.46190193, -0.07597308, 0.036385074, 1.0189155, -0.08612548, -0.06497171, 0.21553718, 0.37475428, 0.41580912, 0.01214784, -1.1192359, 0.17173752, 0.03351549, -0.12696129, 0.1387116, 0.13487911, -0.1775165, 0.63164943, -0.11839744, 0.16087818, 0.11419527, -0.12341453, -0.30923164, -0.03656007, -0.15152024, -0.4856571, -0.33011, -0.6540743, 0.0896553, -0.2905138, 0.5225539, 0.12914312, 0.14050986, 0.27130526, -0.2120734, -0.37636846, 0.7704998, 0.46783292, -0.110611275, 0.43994144, -0.41040653, -0.03396865, -0.698825, -0.2073816, -0.24231602, -0.5757454, 0.18791136, -0.058436673, -0.12202369, -0.40194288, 0.67477787, -0.07326626, -0.476292, 0.5683591, -0.060693197, -0.19476402, 0.5129602, -0.18708515, -0.199775, 0.3041976, -0.4972212, 0.5227381, 0.36461473, -0.87674963, -0.8726034, -0.23562813, -0.49358398, 0.21605623, 0.097574145, -0.7791688, 0.35563508, 0.14791372, -0.46976286, -0.23313457, -0.114260405, 0.46350205, -0.61816776, -0.8690491, 0.5031997, 0.0222054, -0.22383106, 0.27865297, -0.2959584, -0.4618305, -0.056991305, 0.15370789, 0.026126519, 0.49447775, 0.2771191, 0.24432282, -0.24089333, -0.15181148, 0.35846186, -0.42942926, -0.109474175, -0.41331226, 0.009305886, -0.43773147, 0.30381948, 0.22435954, -0.27110028, 0.005021043, 0.32555038, -0.15928471, -0.47799486, -0.29339844, 0.38024843, -0.32484505, -1.1030493, 0.27842546, -0.15693277, 0.21673572, 0.17099187, -0.22999483, -0.12849301, -0.5729555, -0.24934067, -0.54650265, 0.09961508, -0.359281, -0.424389, 0.64193714, -0.3116296, 0.08678102, -0.37015074, 0.22935349, 0.19103998, 0.2772583, 0.3661631, -0.01460973, -0.10869857, 0.34153813, -0.5804534, -0.14906897, 0.06794164, -0.21510977, 0.57131463, -0.0017067846, 0.45123425, 0.14160286, -1.0951935, 0.505873, 0.08033444, -0.9904716, 0.5597912, 0.0044425726, -0.096040994, -0.58070946, -0.33769372, 0.31409603, -0.43477046, -0.5189192, 0.74001145, -0.64021176, 0.3597489, 0.38722566, -0.30526876, -0.28737983, 0.44352505, -0.058818176, -0.14493322, 0.18376501, -0.7715982, 0.49964577, 0.25228357, 0.16963285, 0.09284311, -0.6624637, -0.13300541, -0.030847311, 0.29252502, -0.13136075, -0.48083803, -0.49440622, 0.066085845, -0.66487867, 0.0037460774, -0.32209736, 0.7781646, -0.2955874, 0.054150168, -0.10422729, 0.6314983, 0.47790107, -0.23845628, -0.16170281, -0.042674575, 0.0770885, -0.3379059, -0.44312787, 0.1815768, -0.61331517, -0.5155689, -0.1466411, 0.10949754, -0.05996366, -0.47347987, -0.08734709, -0.13380188, 0.31034234, 0.012654044, 0.1421793, 0.15530391, 0.20084903, -0.5788506, -0.1428669, -0.056620274, -0.6226202, -0.54291004, -0.54002476, -0.20703816, 0.05550269, 0.079783626, 0.036539067, 0.53728664, -0.37721664, 0.20396778, 0.44226998, -0.31497625, -0.038884982, 0.32992142, -0.013637367, -0.012419591, -0.3666707, -0.23095751, -0.289941, -0.3087538, 0.6005331, 0.32846785, 0.19722727, 0.16611683, -0.2776443, 0.3882451, -0.007668279, 0.22155452, -0.26647124, 0.45929992]</t>
+          <t>TPA 곡선에서 피크 사이에 음의 방향으로 위치한 피크의 면적으로 시료의 끈적한 특성을 나타냄.</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[-0.6719083, 0.05639435, -0.07384386, 0.45490447, -0.27058923, 0.27796638, 0.008726419, -0.18176101, 0.18879424, -0.51960754, -0.5743958, -0.16293603, -0.15013123, 0.22849368, 0.09120095, -0.9158608, -0.124536306, 0.10970613, 0.10298728, -0.73575383, -0.7706435, 0.4513946, 0.34621388, -0.02980532, -0.12620622, 0.20024543, -0.17575608, -0.30866876, 0.10486243, -0.22642894, 0.8341866, 0.0007340915, 0.044215742, 0.229493, 0.50127876, 0.1226311, -0.84333384, -0.57550114, -0.056059062, -0.577166, -0.25201362, -0.21536766, -0.22567354, 0.42944396, -0.16857304, -0.2593923, -0.22525716, 0.3672411, 0.007253926, -0.33689925, -0.62270194, -0.2662656, 0.74931276, 0.4325124, 0.13825406, 0.14942177, 0.45413125, -0.16849186, 0.13537948, -0.27061707, 0.20425962, -0.7503605, -0.4316454, 0.41113645, 0.008537696, -0.015626706, 0.038699325, -0.2672444, -0.6433529, 0.4167154, 0.42809913, -0.22468218, 0.38134107, -0.017235545, 0.03693474, -0.471535, -0.08071136, -0.042269703, 0.5264311, -0.30582094, 0.17620803, -0.44288823, -0.5507779, -0.54495716, 0.4517933, -0.14925653, -0.018747486, -0.74657893, -0.53331476, 0.035153307, -0.5177095, -0.4022067, -0.50146097, 0.16548483, -0.411507, -0.59740025, 0.30714557, -0.35418263, 0.40134287, -0.39333355, 0.32554784, 0.1283875, -0.61594063, 0.16864546, 0.0064601763, -0.12584572, -0.7169255, 0.23084067, 0.41414464, -0.07428699, 0.9597711, 0.012192983, 0.5401694, 0.2112484, 0.46733934, 0.6311149, 0.06654623, -0.31536987, -0.26943898, 0.14089344, -0.19794698, -0.6214916, -0.35952842, 0.21762754, -0.29395324, 0.4646726, 0.19459113, -0.4261465, -0.15923405, -0.16817427, 0.42182496, -0.35631692, 0.3797248, -0.3581699, -0.4657056, 0.1160204, -0.043156575, -0.0365001, 0.597211, 0.24974519, -0.3597298, 0.11080813, 0.13099664, -0.37147322, -0.08850977, -0.6451299, 0.11360704, 0.18503188, -0.21898542, 0.025933154, 0.19599344, 0.36597607, -0.08398872, -0.421847, 0.05357276, -0.27228877, 0.12521276, 0.23574768, 0.09428739, 0.40113688, -0.11249189, -0.80664355, 0.09844577, -0.15556882, -0.50250435, -0.93352723, 0.35513115, -0.47227392, -0.31054714, -0.25942644, -0.7898392, 0.32786232, -0.5065529, -0.3427647, -0.3361075, 0.33340442, 0.4654318, 0.15148363, 0.06640497, -0.35611358, -0.15701064, 0.3512301, 0.33192074, 0.20088296, -0.03016681, 0.5318705, 0.13345408, -0.42793503, -0.02957155, 0.07308425, 0.40813515, 0.4411752, -0.007861375, -0.15083723, 0.28379634, 0.23778749, -0.40055224, -0.31322163, 0.27146733, 0.24936685, -0.947452, 0.09310787, -0.2841983, 0.76276946, 0.016051086, 0.765653, -0.48807457, -0.36221653, 0.10372534, -0.2957321, -0.71139795, 0.6725267, -0.1572573, 0.06687131, -0.028167767, -0.0023294904, -0.12565643, -0.13198374, -0.34554577, 0.026737833, 0.39539516, -0.21985334, 1.070033, 0.49252522, -0.8033771, 0.06349919, -0.27000454, 0.05953844, 0.04500563, -0.53036886, 0.43245593, -0.47300413, -0.4313733, -0.4919448, 0.9109011, -0.3297156, 0.08593296, -0.011210046, 0.56341475, -0.15479018, 0.18954831, 0.63544136, 0.09629798, 0.2542756, 0.40355495, 0.26636907, 0.27641824, -0.8838102, 0.675013, -0.5928889, 0.36594847, 1.1244931, -0.7252564, 0.023307802, 0.4459956, -0.042266514, -0.7094446, 0.47204807, -0.026136352, -0.313803, -0.05468881, 0.02294411, -0.4557867, -0.3021851, -0.20467514, 0.4273556, 0.04151324, -0.8071609, 0.38532045, -0.5651178, -0.5621632, -0.41442356, -0.07673044, -0.07991917, 0.33855173, 0.3158432, -0.80274695, 0.47993958, -0.077823624, 0.21507166, 1.0055249, -0.092693664, 0.17607754, 0.026287764, 0.10322068, -0.28310835, 0.075419225, -0.18941516, -0.16015692, -0.40584806, 0.13326353, 0.07968933, -0.31728074, -1.9644845, 0.06715918, 0.12338019, -0.603434, -0.5625157, -0.27271664, -0.04718508, 0.07788024, 0.06509134, -0.7475494, 0.6778856, -0.25964698, 0.68004286, -0.7017452, -0.046070863, 0.28237498, 1.1043956, 0.3110607, -0.30309364, 0.27958184, -0.4269227, 0.48847935, -0.46748134, 0.34980372, -0.23629235, -0.43559808, 0.006471966, -0.32029554, 0.40401104, 0.40419146, 0.4228854, 0.19599809, 0.09433658, 0.14769518, 0.20923996, 0.058678415, 0.26946306, -0.8069836, -1.0434942, 0.9944178, -0.2787409, -0.32441613, -0.25945038, 0.15764275, -0.38302937, 0.41102126, -0.20840907, -0.123773485, 0.1374301, -0.55170363, -0.17286037, 0.9094793, 0.60803723, 0.11728649, -0.38328362, 0.2820768, -0.07177084, -0.0801037, -0.15631095, -0.37203658, 0.4214896, 1.0712321, -0.19947809, 0.4005052, 0.91753024, 0.47043115, -0.5818503, 0.05907085, -0.030677421, 0.34857753, 0.55690557, -0.104380414, 0.14639793, -1.2427802, 0.6128983, 0.23207869, -0.28116, 0.12860431, -0.61916536, 0.28556356, -0.10114192, -0.051439, -0.34762698, -0.2145733, 0.53739923, -0.072067626, -0.039092507, 0.41499862, 0.5161801, -0.29522392, -0.93891317, 0.5187487, 0.041499637, -0.52792984, -0.14321905, -0.028813986, -0.11213463, 0.35819003, -0.07170148, 0.16992797, -0.22315675, -0.89832175, 0.11225982, 0.22873393, -0.48589402, -0.26698926, -0.24708599, -0.4444684, -0.091167904, 0.68237936, 0.033717964, -0.05289303, 0.3533082, 0.54757494, -0.004916211, -0.26745307, -0.3930814, -0.60431945, 0.16494903, -0.26173982, 0.013341394, 0.093148954, -0.011833685, 0.116716124, 0.22675091, -0.2671532, -0.24513811, 0.12441063, -0.5268622, 0.61021423, -0.62690264, 0.06465875, 0.35438904, 0.22945422, 0.08795002, 0.2040055, -0.011578506, 0.25111872, 0.27305987, 0.71971595, -0.32532895, -0.15954112, -0.62765574, 0.5916746, 0.2079453, -0.37285396, 0.19395399, -0.16636187, -0.02592134, 0.29961097, 0.064153306, -0.4123617, -0.063626476, -0.31580943, -0.12942056, -0.7763288, -0.6216462, -0.36402217, -0.26103675, 0.18921423, 0.31498376, -0.43900716, 0.3112679, 0.6168596, -0.21183747, -0.086961, 0.44141406, -0.27431706, 0.19420776, -0.39584532, -0.528287, 0.0622123, -0.07585965, 0.22600871, 0.34089914, 0.21021532, 0.7591318, 0.16574635, 0.0046833972, 0.73801076, -0.48437074, 0.18008341, 0.0033227748, -0.29948938, -0.036716457, -0.5598961, 0.46336395, -0.6513499, -0.21364032, 0.6217246, -0.47912028, 0.7270474, 0.07801802, -0.0541423, -0.515167, 0.62418926, 0.60953814, -0.35418668, 0.08465933, 0.54584247, -0.14043206, 0.290602, -0.3768741, -0.32492906, 0.55524164, -0.31269604, 0.21335365, 0.10989534, -0.07915447, 0.08101154, -0.10627801, -0.3026346, -0.013845184, -0.054643754, -0.08033013, -0.6127361, -0.18075836, -0.56888974, -0.3850036, 0.23524904, -0.32312992, -0.27533042, 0.48437354, -0.09289554, -0.631844, 0.22921237, 0.29013664, 0.050500587, -0.041772738, 0.06411994, 0.1427541, 0.46894905, -0.15677911, 0.24736208, 0.17417407, 0.006964971, 0.18417321, 0.102524, -0.36914575, 0.16986674, 0.036760107, 0.32580552, 0.011009536, 0.036868226, 0.0036456774, 0.092837386, 0.042050827, -0.32074654, -0.35472104, 0.14299038, -0.29063705, 0.15235794, 0.028095864, 0.2648679, 0.13526879, -0.654757, -0.54145885, -0.018880427, -0.580785, -0.3961403, -0.23908728, -0.20988327, 0.041975956, 0.20592767, 0.6128492, -0.8407907, -0.028234674, 0.17911181, 0.61262584, -0.32796615, -0.10939336, 0.15846802, 0.0046139364, -0.46991298, 0.14838213, -0.07430649, 0.40248653, 0.37267676, -0.28027275, 0.037763946, -0.22208194, -0.29036602, -0.7757389, -1.0108249, -0.41062853, 0.16871475, -0.557902, -0.03196188, 0.36229455, 0.27555335, -0.35077614, 0.27083957, -0.23663501, -0.56449854, 0.08358946, 0.16783305, -0.55008805, -0.0059673325, -0.030140432, 0.3796521, 0.1592024, -0.79679567, -0.2703576, -0.35835245, -0.17961644, -0.29042616, 0.41681874, 0.14034513, -0.106141694, -0.39032122, -0.11883426, -0.82602715, -0.661869, 0.8296078, -0.14330567, -0.3380043, 0.36847973, -0.31297943, -0.10387213, 0.42320135, 0.5057048, -0.26082394, 0.23131274, 0.15359153, -0.063054726, -0.3275436, 0.13392621, -0.0981287, 0.13116439, -0.23622459, 0.03628348, -0.24790502, 0.09660869, 0.53251535, -0.31628153, 0.30809003, -0.9295148, 0.6057721, -1.0509521, 0.36004826, -0.06274951, 0.09812303, -0.3928877, 0.15853658, 0.19103427, -0.58135295, -0.47276095, 0.3779708, 0.73332536, 0.020621965, -0.01977357, -0.057408288, -0.41651878, -0.5524178, -0.4077174, -0.2223073, 0.091245145, -0.1036833, -0.40075195, 0.39947808, -0.14436597, 0.45383635, -0.15381917, 0.08935155, 0.28261897, -0.33719745, -0.18482819, 0.14901137, -0.022488434, 0.025092287, 0.122119814, 0.04114404, -0.49052095, -0.95067793, 0.12084872, 0.4317346, 0.07139818, 0.3141177, -0.37026975, 0.15568243, -0.25395852, -0.68891156, 0.014403904, 0.1477434, -0.114463955, 0.5152131, 0.3396447, -0.3171633, -0.08049662, 0.52576756, 0.07918192, 0.18430352, 0.8077574, -0.23263192, -0.28666064, 0.19374089, -0.38048875, -0.35062382, 0.040749524, 0.17794783, -0.6428305, 0.4789316, 0.6564443, 0.134309, -0.27596247, 0.028172791, -0.29861078, 0.5932804, 0.09939169, -0.64982456, -0.40252292, -0.14240475, 0.1528381, -0.1711101, 0.28918043, -0.4195265, 0.23346294, -0.4073029, 0.20298657, -0.480135, 0.6505692, -0.1827937, -0.12996577, 0.24433972, -0.52276266, -0.14480692, -0.6849913, -0.029131325, -0.029130636, -0.5695873, -0.50445503, 0.38347444, 0.021880614, -0.07927085, -0.18852025, 0.41293773, 0.60319483, 0.3305124, 0.088609, -0.30795398, 0.5399794, -0.14593029, -0.47262314, 0.10697354, 0.61908066, -0.22298683, -0.15078257, -0.21508497, -0.5306201, -0.5091358, 0.070068926, 0.65935665, 0.55227846, -0.6530386, 0.5682519, 0.23443924, 0.59368557, 0.43357104, 0.39994872, -0.30373582, -0.13722815, -0.5450422, 0.39376318, -0.62156683, 0.10514617, 0.36619326, 0.30300754, 0.024411721, -0.17653984, -0.32595196, -0.14315909, 0.35835114, 0.3864273, -0.11242794, -0.13498285]</t>
         </is>
       </c>
     </row>
@@ -1116,18 +1260,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>물성은 어떻게 측정하나요?</t>
+          <t>로드셀이란?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>너무 광범위한 질문이지만, 식품의 경우 texutre analyzer 라는 기기가 일반적으로 사용됩니다.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>[-0.24272135, -0.7061429, -0.019876223, -0.7270611, -0.34871536, -0.15513857, 0.25239798, -0.023340965, 0.3160897, -0.16052648, -0.6152798, -0.2290668, 0.25392887, 0.1835843, -0.04126067, -0.21693142, 0.460437, 0.84487265, -0.26431188, -0.6380291, -0.02001488, 0.27675578, 0.13562831, 0.26657653, -0.21018991, 0.27054486, -0.56305784, -0.550655, -0.036938824, -0.90432036, 0.72406805, 0.40654373, -0.070181236, 0.40164542, 0.27510387, 0.2615307, -0.4510359, 0.31853563, 0.03966341, -0.42305017, -0.36909202, -0.37617844, 0.31556433, 0.20917168, 0.3664691, 0.14531788, 0.49628657, 0.013597047, -0.36061576, 0.081758305, -0.47276187, -0.06736023, 0.104904495, 0.43407017, -0.4230575, -0.3464569, 0.1936267, 0.043148838, 0.47307935, -0.10108767, 0.3628445, -0.98939466, -0.2684614, 0.31383985, 0.05005958, -0.28240234, -0.23859406, 0.3621555, -0.27024028, -0.085666336, 0.03766449, 0.03451453, -0.104678705, -0.61888534, 0.25424615, -0.34240198, -0.56205046, 0.037608784, 0.28260618, 0.37982598, 0.70569533, -0.25981158, -0.28509298, -0.35636267, 0.37254736, -0.34576347, -0.05428543, -0.5559338, -0.020508703, 0.24677238, -0.32603824, -0.5039041, -0.5673766, 0.1996875, -1.097825, -0.3697216, 0.23594043, 0.12753208, 0.2195692, 0.1576758, -0.04667459, 0.12811206, -0.19883627, 0.744841, 0.63656944, -0.55485016, -0.4695379, 0.92089117, 0.58412755, -0.031007085, 0.68028235, -0.2930896, 0.39742357, -0.33501878, 0.36641622, 0.37955338, -0.12943876, -0.25452417, -0.16930476, 0.55355895, 0.27431798, -0.3875105, -0.20000872, -0.2141473, -0.02234644, 0.0045983447, 0.3658906, -0.142207, 0.3164888, -0.5188553, -0.03683392, 0.30296025, 0.32905892, -0.29908252, -0.26968837, -0.32517266, 0.6217383, -0.05831752, 0.73222476, 1.0811236, -0.9313008, 0.06439849, -0.2975658, 0.00701513, -0.12166909, -0.105608925, 0.777073, -0.28493655, 0.32581756, -0.27477702, 0.011870195, -0.19072214, -0.5684339, -0.09221535, 0.28514782, -0.23466678, -0.073699474, -0.46065792, 0.1828695, -0.11025834, 0.6109222, -0.26166964, 0.06112937, -0.12318617, -0.15359597, -0.20463857, 0.49381638, -0.26514584, -0.095302746, -0.34385544, -0.0797831, -0.2085965, 0.21570408, -0.100568965, 0.6443715, -0.13897724, -1.0886345, 0.056304276, -0.25657183, -0.5239005, 0.3811386, 0.47139138, 0.2189188, -0.16935031, -0.101672634, 0.3193194, 0.31329352, 0.08315481, -0.62139255, -0.35400978, 0.7405766, -0.55279696, -0.36975834, -0.12538658, 0.30338898, 0.6219145, -0.57986647, -0.16857347, -0.20158151, 0.113638856, -0.6719329, 0.48041278, 0.1621746, 0.45651954, 0.31610674, 0.09312536, 0.10994829, -0.020713013, 0.49148947, -0.16231254, 0.16157837, 0.45423907, 0.0676491, -0.0280487, -0.42435145, -0.9771242, -0.39259627, -0.1478647, 0.60812426, -0.08306593, -0.28030404, -0.7981354, 0.75015366, -0.7028486, -0.5642988, -0.67278636, 0.36113307, 0.5552774, -0.36707553, 0.16415322, 0.15242727, -0.54396135, -0.73896205, -0.23277855, 0.31353277, -0.5430381, 0.3487995, 0.6181683, -0.24417455, -0.1250213, 0.14925632, -0.16958545, -0.30154926, -0.22058794, 0.15135291, -0.0464894, -0.06334344, -0.48830923, 0.051977493, -0.4114236, -0.0073487945, 0.326861, 0.11208864, 0.07541698, 0.44271827, -0.28480792, 0.38956594, 0.90911806, -0.28457403, 0.56851333, -0.10600414, -0.009827107, -0.4083581, 0.21665469, 0.2709325, -0.35006377, 0.50620735, -0.36847696, 0.22752377, -1.1090698, -0.082351744, -0.4095784, 0.5955847, -0.18651965, -0.27428776, 0.36808267, -0.058747075, 0.25207138, 0.034387007, 0.08527164, 0.19558772, 0.5527818, -0.05194661, 0.32571635, 0.22926815, -0.49713904, -0.10633401, -0.4297616, -0.30431825, -0.004220882, -0.5291044, 0.12807725, 0.02797448, -1.431584, 0.02608493, 0.24795851, -0.58669615, -0.14197397, 0.7125026, 0.6976756, 0.47508574, 0.0584176, 0.15444346, 0.44593978, 0.1562093, 0.41350207, -0.11667278, -0.4826756, -0.10816058, 0.34234828, 0.34354332, 0.6567725, -0.002159336, 0.06051901, 0.38285246, -0.45610613, -0.16595843, -0.05605688, 0.005392772, -0.08561646, -0.5612086, 0.58607674, -0.099362165, -0.1863038, 0.22100616, 0.32524422, -0.008835849, -0.14000466, -0.3405066, -0.03162724, -1.0658318, -0.07094438, 0.22580346, 0.11705275, -0.15506843, -0.5791551, 0.6828638, -0.58894473, -0.13058312, -0.15161745, 0.14328486, 6.070733e-06, -0.768124, 0.45565408, 0.19693539, 1.3031304, -0.5342053, -0.110835895, 0.03233755, -0.8580079, -0.038296945, -0.29088458, -0.051728714, 0.057231646, 1.019843, -0.08543591, 0.2038595, 1.114979, 0.11237645, -0.071378805, 0.67782557, -0.7777004, -0.22889829, 0.3758834, 0.011674458, -0.62145203, -1.2805612, 0.08804134, -0.22833762, -0.13491115, -0.088112816, -0.27610672, 0.23941052, 0.051737547, -0.54207015, 0.50752413, -0.08114023, 0.44896445, -0.142755, 0.29191512, -0.05487468, 0.7688877, -0.48905697, -0.8135866, 0.31085703, -0.4200152, -0.2937416, 0.16160074, -0.10969548, 0.11516057, 0.39162093, -0.49329787, -0.44805247, -0.07174414, -0.5597544, 0.12451301, 0.039862234, 0.084548965, -0.11131835, 0.47545967, -0.13903615, 0.62767416, 0.00019289964, 0.37629738, 0.059094746, -0.28442293, 0.30724782, -0.1763103, -0.27966312, -0.019261086, -0.41807002, -0.42794657, 0.13747069, -0.543412, -0.36902088, -0.19687626, -0.72785866, 0.40959787, -0.2287031, -0.2501283, 0.10188971, -0.60017574, 0.26966414, -0.35662687, -0.27451918, 0.13667943, 1.004533, -0.32453874, 0.6534255, 0.19910629, 0.35738486, -0.3460762, 0.2409738, -0.53308964, -0.3842179, -0.9201935, 0.522768, 0.009191786, -0.32546264, 0.12507913, 0.14973378, 0.42848653, -0.44671172, 0.22587362, 0.09808431, 0.30132556, 0.29273313, 0.11880002, -0.62588155, -0.46064693, -0.7685039, -0.30424488, -0.50190765, -0.12577792, -0.43467417, 0.34990555, 0.014357634, 0.10054813, 0.3237811, -0.039040983, 0.17640774, 0.30556405, 0.18622635, -0.34698805, 0.023482943, 0.013497546, -0.08976108, 1.0756843, 0.69851464, 0.10208535, -0.29513395, -0.10811452, 0.6123682, -0.50834763, -0.64992, -0.61454093, -0.71738213, 0.021073693, -0.32139608, -0.17333463, -0.29953164, -0.10766375, 0.25400722, 0.83723056, 0.46242532, -0.5813714, -0.3449029, -0.47260284, 0.3767298, 0.79767615, 0.47496113, 0.25924808, -0.5387661, -0.4605275, 0.6977604, -0.52602774, -0.38532966, 0.9084829, -0.08232615, -0.028751617, -0.33716077, 0.639357, -0.048075546, -0.13753697, -0.10060787, 0.2051255, 0.24467015, 0.16916753, -0.3002017, -0.12923245, -0.049864165, -0.41232425, 0.32261005, 0.404037, -0.1871229, 0.6380311, 0.3938033, -0.4572095, -0.15283528, 0.44231042, -0.10703479, -0.4567434, 0.45650578, 0.69152904, 0.0049491106, -0.12459202, -0.16527788, 0.47375125, 0.22629595, -0.15362383, -0.12442944, -0.11650964, -0.42998996, -0.021552753, -0.21701905, -0.2087433, -0.46916056, 0.22052555, 0.48078895, 0.2603148, 0.4024745, 0.23492408, 0.14400436, -0.83855134, 0.2726321, -0.3025961, 0.12410899, 0.15549792, -0.37087736, -0.88558894, 0.18112564, -0.548319, 0.08630302, -0.16660458, -0.003253068, -0.09075016, 0.3482539, -0.08718526, -1.0308025, 0.33740893, -0.061775368, 0.15985127, -0.35352108, 0.3745779, -0.43402067, -0.0004328107, 0.2365629, 0.2365286, -0.20548932, 0.14576507, 0.8259567, 0.56780684, -0.29369184, 0.6643425, -0.34939077, -1.0765226, -0.9942311, -0.89842474, 0.10568249, 0.1380262, -0.12619579, 0.19406971, 0.4314913, -0.29506907, 0.92130363, -0.0064986795, -0.20414928, 0.04820262, -0.691764, 0.32040334, -0.06695943, 0.014299145, 0.29812834, 0.42462125, -0.40244046, -0.19424748, -0.5941297, -0.8266362, -0.37570435, 0.19870529, -0.31172022, 0.45031825, -0.14524975, -0.25051194, 0.0067861616, -0.6926991, 0.46116814, -0.3291155, -0.46881914, -0.2590887, -0.41645446, 0.36924922, 0.3851629, -0.15800376, -0.19637223, -0.29703623, 0.11254232, -0.40297216, -0.29499942, 0.41575518, -0.4154547, -0.59452623, -0.22260626, -0.50012624, -0.6162042, -0.25965324, -0.5529915, -0.092384525, 0.04552538, -0.37954515, 0.45181996, -0.15781717, -0.103542306, 0.20032158, -0.45040232, -0.21979478, 0.0056121214, 0.6128138, -0.41943192, -1.1938301, -0.6536991, 0.020785082, 0.1775363, -0.1988482, -0.48544082, 0.39004415, -0.7392498, 0.9481288, -0.10501025, 0.2275475, -0.06770846, -0.48754287, -0.052871622, 0.0695421, 0.2641879, -0.13442451, -0.35676822, 0.06276329, -0.5195242, 0.28718367, -0.22489336, -0.08195581, -0.34853667, -0.18509364, -0.649152, -0.60048616, -0.15072544, -0.2669875, -0.31723455, 0.5204715, 0.58961064, 0.38255003, -0.08639853, 0.09133451, -0.65695626, -0.44238758, -0.09740459, 0.13240038, 0.43117794, -0.59054786, 0.055289112, 0.6059403, -0.063559204, -0.0009860129, -0.50040805, 1.5420626, -0.13148834, 0.23530805, 0.41466188, -0.271823, -0.2978895, -0.15627004, 0.4994913, -0.46019125, 0.5053706, 0.81144965, -0.049555074, -0.57392824, 0.027475368, -0.31815225, 0.394207, 0.2357043, -0.7492093, 0.21305737, -0.29654664, -0.12750903, 0.0016900093, 0.1376507, -0.4710663, 0.041774753, -0.5217473, -0.012671797, -0.26938793, -0.30935827, -0.2600158, -0.34410012, -0.2046996, 0.063764036, -0.10979171, -0.48831922, 0.69896173, -0.13389632, -0.5079616, -0.59974825, -0.5866653, 0.20067482, 1.0018773, -0.112394735, 0.14249486, 0.020344656, -0.24370655, -0.38456053, -0.3997324, 0.5423862, 0.21832883, -0.15117483, -0.29654285, 0.32305622, -0.24264643, 0.04506029, -0.3621009, 0.13221624, -0.09708105, 0.625251, 0.6447522, 0.7506746, -0.20905156, 0.51447695, 0.16274841, -0.056273293, 0.2587927, 0.28222218, -0.16536526, 0.1515065, -0.052311968, 0.20039956, -0.08633363, -0.22872126, 0.4215467, -0.43574017, 0.090971515, -0.048826206, 0.17082639, -0.30803114, 0.28224128, 0.72899234, 0.2652214, 0.14138778]</t>
+          <t>힘을 전기적 신호로 바꾸어주는 장치로, 시료에 따라 적합한 힘의 범위를 가진 로드셀을 선택해야합니다.</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[0.14968383, 0.13157877, 0.6895732, -0.5073633, 0.70029694, -0.28357363, 0.27234095, -0.21277504, -0.30456764, -0.18212959, 0.3853474, -0.55803645, -0.25714368, -0.15521328, -0.31821007, 0.23186873, 0.1144427, 0.5034086, 0.6252838, -0.094062515, -0.23058878, 1.0351342, 0.073320925, -0.38381365, -0.73000604, -0.19291231, 0.15023002, -0.29939315, 0.3745593, -0.8565529, -0.23509905, -0.3191835, 0.14793539, 0.31165752, 0.68321466, -0.14261723, -0.41685587, -0.101139955, 0.5450689, -0.3560564, -0.29678473, 0.2180717, -1.3967286, 0.38914183, -0.15049423, 0.9767302, -0.36451674, -0.7249177, -0.7153812, 0.13249134, -0.077035025, 0.26338822, 0.5880672, 0.31719774, -0.052716434, -0.3028555, 0.31896546, -0.39984056, 0.5003275, -0.2801387, 0.26608583, -0.20345089, 0.61506367, 0.10517388, 0.14912578, -0.015798071, -0.41551504, 0.42747346, 0.048656184, -0.28482962, -0.03530825, 0.19141473, -0.05874512, -0.16028075, 0.20025377, -0.5008134, 0.26072696, -0.44200197, 0.23624922, 1.0334672, -0.5235319, -0.6660163, 0.36128566, -0.15160696, -0.5209051, -0.44668168, -0.50413305, 0.053962935, 0.013236554, 0.023985889, -0.6816578, 0.22055896, -0.5101772, 0.3986059, -0.5421457, -0.14078595, -0.02944441, -0.21341006, 0.872661, 0.81992036, 0.40811163, 0.41009787, -0.3734291, -0.11525605, -0.15910251, 0.79171723, -0.35473424, 0.70361763, -0.3240614, -0.53938526, 0.44571716, -0.07485256, 0.28348714, -0.40873125, 0.13777557, -0.2767071, -0.30486396, -0.13266547, -0.0011641426, 0.58108443, 0.64690053, -0.004959767, -0.19862291, 0.83575064, -0.16657898, 0.09413157, 0.5736564, -0.70833576, 0.18604031, 0.36591882, -0.5912711, -0.22100043, -0.15732038, 0.31102917, 0.25586724, 0.28980705, 0.53128606, 0.07628817, 0.21816757, -0.17581463, 0.3003106, -0.9731617, 0.44189554, 0.112046994, 0.0666177, 0.32341674, 0.9089101, -0.68361944, -0.5526146, -0.43086082, 0.038328324, 0.077002116, -0.5136023, 0.40924364, 0.4818284, 0.0590314, -0.08432704, 0.13428555, -0.26270753, 0.15698685, -0.22477189, -0.3327873, 0.53952736, -0.11866603, 0.37070274, 0.89651585, 0.36821207, -0.19457941, -0.23669723, -0.6575987, -0.50012016, 0.08979007, -0.07159599, -0.19423403, 0.2481992, -0.0052188123, -0.24500512, 0.602241, 0.23100911, 0.30537415, -0.6204055, 0.19475527, 0.32096347, 0.118664406, 0.19867298, 0.57297784, 0.28466752, 0.31013012, -0.1995517, -0.09884243, 0.07630855, -0.04576758, 0.1990869, -0.5250682, -0.013902093, 1.0388418, -0.40047523, -0.23681578, -0.5189775, 0.35500413, -0.53280723, 0.19628465, 0.32626864, 0.7350314, -0.13779864, -0.29729742, -0.23819809, 0.120045766, 0.5020853, -0.61291474, -0.18775205, 0.79301864, 0.42052028, -0.3579254, 0.07049053, -0.08908681, 0.13697852, 0.045296974, -0.28511915, -0.86528635, 0.016990358, -0.025521327, 0.6675123, -0.4854669, -0.30174652, -0.26165754, 0.21227813, -0.1369807, -0.31866625, 0.111675434, 0.06633528, -0.35145864, -0.5643572, -0.83645856, 0.8027806, -0.4524987, 0.13580252, -0.052137025, 0.16184099, -0.1854752, -0.36285713, 0.24276547, -0.5628002, -0.37660232, 0.69461715, 0.3399473, -0.22729917, 0.31534773, -0.43544817, -0.9918445, 0.5831042, 0.72826856, -0.37144193, 0.3371448, 0.34734082, -0.5486674, -0.38227072, 0.9289712, 0.091479555, 0.2359591, 0.06428404, -0.0033238786, -0.326828, 0.26026583, 0.043418843, -0.30599976, -0.15119024, -0.8495215, 0.5384721, -0.084348656, -0.15177776, -0.42331195, 0.2614564, -0.16127197, 0.047682367, 0.5671079, -0.082645305, -0.04558174, -0.45976305, -0.36740664, -0.027093774, -0.43557066, 0.51483697, -0.17829098, -0.28431708, -0.41074196, -0.012185722, -0.07961011, 0.42247707, -0.5853195, -0.3247208, -0.2548568, 0.22751544, -1.5031923, 0.36699075, -0.5572562, -0.4888223, -0.01849381, 0.25534764, -0.22322392, 0.22380099, 0.22641622, 0.05283888, -0.27547166, 0.2064568, 0.3410971, -0.607036, 0.51868767, -0.08077319, 0.75987625, 0.22857879, -0.19791043, -0.079011545, 0.08052315, -0.12913083, -0.23576398, -0.19227982, -0.46867323, -0.602805, 0.1906874, -0.047376152, -0.56628215, 0.38061175, 0.35746607, 0.09077593, 0.09628822, -0.5487762, 0.81441957, -0.5684214, 0.054482274, -0.49704784, -0.46820897, -0.25989422, 0.45260456, 0.06275695, -0.5229867, 0.32345894, -0.49217558, -0.038020708, 0.16123472, 0.29223266, -0.4042265, -0.69014084, 0.1762035, 0.41289598, 1.0696135, 0.19405138, 0.26349413, 0.1331421, -0.017869344, 0.09988316, -0.42396674, 0.11491985, 0.34194893, -0.4173451, 0.5317095, -0.08274644, 0.2553462, 0.78114265, 0.140174, 0.44478148, -0.11163628, 0.27569506, 0.08070024, 0.1788684, -0.0136075225, 0.24817225, 0.004424508, -0.20618959, 0.25495484, -0.39277014, 0.036142, -0.379745, -0.86976206, -0.36666867, 0.009960138, 0.23443177, -0.040727023, 0.19803317, 0.14951494, -0.106518194, 0.18790852, -0.18730187, -1.1576641, 0.9927598, -0.29753986, -0.2244778, 0.64714336, -0.3197704, 0.13258193, -0.15292929, -0.5227883, -0.192595, 0.046923604, -0.19599675, 0.050690047, -0.117109016, -0.08330972, -0.28579044, -0.14765486, 0.07196091, -0.15832397, 0.41684183, -0.35257035, 0.22798716, 0.12855306, 0.7347575, -0.27627447, -0.35346025, 0.08363723, -0.043132715, -0.24686967, 0.17564245, 0.024588792, -0.6367117, -0.5166539, 0.44788903, 0.11999611, -0.69517046, -0.17293957, -0.80785704, 0.24529466, 0.28831297, -0.3304791, -0.15157172, 0.46095076, 0.31271842, -0.5652335, 0.21480076, 0.028087195, 0.22670378, 0.24242866, 0.5148141, -0.32347044, -0.13649084, -0.91728777, -0.29374078, -0.040481534, -0.87909764, -0.1443235, 0.61261016, 0.13452245, -0.28402963, 0.122010484, -0.1206944, 0.45940185, -0.09611558, -0.3926396, -1.0276734, -0.013024288, 0.3473061, -0.09323937, -0.62305737, -0.42336684, 0.36660028, 0.26144034, 0.6885481, -0.12982515, -0.23951967, 0.09867872, -0.3788703, -0.61483675, 0.065268554, -0.3981156, 0.015956666, 0.8088621, -0.48366252, 0.4040998, -0.2717076, -0.35359332, -0.7838822, 0.4774745, -0.2911163, -0.19532813, 0.2799657, 0.036932554, 0.117321305, 0.42208233, -0.15326817, -0.2131913, -0.410486, 0.046694312, -0.026389504, -0.4316371, -0.2630733, 0.20339005, -0.13092288, -0.0809022, -0.10214818, -0.040391497, -0.06995046, -0.2711947, 0.63554096, 0.32868546, 0.703156, -0.1621661, -0.46319768, 0.78993064, -0.17410626, -0.23377368, 0.27547887, -0.18790582, 0.05548087, -0.8803126, -0.45759723, 0.1532824, 0.19881137, 0.20077772, -0.29820606, 0.5938454, -0.2952196, 0.3715584, 0.47668245, 0.62924725, 0.15287092, 0.47556233, -0.23435211, 0.1851675, -1.153759, 0.4106097, -0.17890511, -0.819781, -0.32199454, 0.38941103, 0.011709631, -0.23922883, -0.27966952, -0.07305396, -0.4953155, -0.26692605, -0.3940546, -0.44998837, -0.16844763, -0.112902366, 0.5968152, -0.102163, 0.7056583, 0.08161116, -0.16773129, -0.19657013, 0.3347647, 0.26507047, 0.6742627, -0.3278859, -0.29444912, 0.067926995, 0.15150416, 0.42998594, -0.5202943, -0.0119556105, -0.754897, -0.36000234, -0.32086667, -0.41741726, -0.14268687, -0.021429965, -0.3475756, -0.057172112, -0.088669196, 0.5299919, -0.48613098, -0.03056611, -0.20976707, 0.4204414, -0.66724205, -0.26427636, 0.43539628, 0.087101035, -0.12347369, 0.8075325, 0.285745, 0.40376434, -0.38679427, 0.5400812, 0.40227064, -1.6291574, -0.9519605, 0.49564004, -0.037985384, 0.32353386, 0.53399783, -0.38033453, 0.20561035, -0.3086585, 0.24323685, -0.12437929, 0.39484054, 0.42210743, -0.41663188, -0.27597865, -0.6666357, -0.9616518, -0.05084046, -0.13319372, -0.64653146, -0.2935048, -0.6522421, -0.074825265, -0.21511619, -0.27629414, -0.46880308, 0.58670825, -0.28505573, -0.075251944, -0.9392007, -0.89735216, 0.2486074, -0.7523803, -0.3585895, 0.77696294, 0.34721357, -0.2592783, 0.79097205, -0.87303364, -0.06746123, 0.11433991, -0.53424454, -0.66185606, -0.15133364, 0.43206912, -0.28422254, 0.055966683, -0.45007282, 0.44052553, 0.12480497, -0.50882787, -0.47582084, -0.2247956, 0.11818977, -0.24281205, 0.54195505, -0.7249783, 0.568, 0.2721421, -0.5241256, -0.20182438, 0.34478167, -0.090725765, -0.21658732, -0.922904, -0.39227885, 0.08786888, 0.5644158, -0.14224127, -0.57818264, 0.13459848, -0.64260477, -0.35782868, 0.3212258, -0.14585951, -0.63118744, 0.5490256, -0.15980686, -0.5508105, 0.6323933, 0.03097397, 0.65253705, 0.05095529, -0.09920882, 0.55288076, -0.5708913, 0.14367683, 0.5411976, -0.52840704, -0.41136292, -0.6715085, -0.6949624, 0.1695615, 0.044302102, 0.21134052, 0.4674234, -0.23866619, 0.0396594, 0.098730914, -0.53434855, 0.21345125, 0.96819174, 0.47933885, 1.0228579, -0.33548975, 0.38697308, -0.4513374, -0.000753358, 0.79111034, 0.013336278, 0.22553436, 0.16346228, -0.38783687, 0.5468846, 0.07375347, -0.06973378, -0.40444678, 0.44889435, -0.75626713, 0.645676, 0.9951245, -0.0715766, 0.4439352, -0.9629844, -0.6309586, 0.06731027, 0.023743693, -0.45822784, -0.4172566, 0.30989596, -0.028093597, 0.0581853, -0.4183889, 0.00027155344, -0.13612391, 0.45393392, -0.23880081, -0.29090133, 0.37473306, -0.03846528, 0.14462073, -0.04659754, 0.100336924, -0.1782691, -1.0627402, -0.49929854, -0.33501703, 0.01201952, -0.74802303, 0.75428027, 0.012662651, 0.18422115, -0.17412713, -0.5916378, 0.5615506, -0.2919952, -0.47620863, -0.7920472, 0.36143538, 0.14453772, -0.10252372, -0.523268, 0.26145086, 0.1432066, -0.22378823, -0.13828872, -0.10551046, -0.035430375, 0.43345547, -0.04932195, -0.13374515, 0.24785173, 0.49562073, -0.12096195, 0.10822113, -0.6035625, 0.5234142, -0.26691997, 0.07973916, 0.1247293, 0.025832608, -0.45866078, -0.16574168, -0.029650671, 0.68008995, -0.0072228736, 0.10746781, -0.15659294, 0.5408705, 0.21352935, -0.012243422, -0.23531719, 0.53393257]</t>
         </is>
       </c>
     </row>
@@ -1137,18 +1286,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>식품 물성학을 어떻게 공부해야 하나요?</t>
+          <t>load cell 이란?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>식품 물성학 교재를 참고해 보시죠.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>[-0.63578916, -0.3379475, 0.09747043, -0.5521727, -0.17870046, -0.44625166, -0.036279127, -0.25695625, 0.34373906, -0.5368681, 0.077149995, 0.12303776, 0.17001574, -0.0943061, -0.21101525, -0.04965274, -0.021733282, 0.10919629, -0.07392301, -0.33569482, 0.06899644, -0.010299767, -0.059695207, 0.17583558, -0.23702484, -0.4105132, -0.46012303, -0.13311838, -0.36602354, 0.03309898, 1.2120678, 0.29551202, 0.35549492, -0.0038381603, -0.16389471, 0.24779166, -0.12512146, -0.042565502, -0.28983966, -0.087880306, -0.47725803, -0.5646606, 0.39084494, 0.16833432, 0.113064855, -0.28685898, -0.26718882, 0.41231233, -0.061071612, 0.19814593, -0.5047261, -0.15398274, 0.09627346, 0.4827496, -0.064603, -0.21764722, -0.09880923, 0.644729, -0.2076249, -0.67524457, -0.016085397, -0.35796782, -0.11587772, -0.2786161, 0.31163222, -0.57667005, -0.18756148, 0.31659415, 0.15385292, 0.11130386, -0.32621524, 0.10189371, 0.50953203, -0.23876221, -0.12891217, -0.13643159, -0.35057864, 0.42006227, 0.1080286, 0.3994587, -0.102852054, 0.2635631, 0.13679844, -0.9602226, 0.6724932, -0.85997474, -0.088447504, -0.8108183, -0.67693967, 0.15931462, -0.0133922715, -0.057027776, -0.17923528, 0.1682461, -0.028453367, -0.52919805, -0.50912434, 0.51715475, 0.10200561, -0.65201086, -0.2558227, -0.4207299, -0.5297066, 0.49298698, 0.0046134247, -0.15475737, -0.1982936, -0.075605884, 0.10967216, -0.18989879, -0.17217232, -0.89630187, 0.35668162, -0.42357957, -0.14225358, 0.5702109, -0.058825593, -0.37622803, 0.1614332, 0.44605905, 0.16997129, -0.2556166, 0.017440768, 0.21598174, 0.052074905, 0.051476516, -0.050724737, -0.30806428, 0.70945525, -0.7266054, -0.02644114, 1.1030116, 0.7500907, 0.3358467, -0.31146067, -0.71177095, 0.14173064, -0.10312368, 0.6495522, 0.78047204, -0.24080664, -0.21723516, -0.54284036, 0.3239902, -0.54575056, -0.6223745, 0.49537516, -0.37655926, 0.4436113, -0.2503509, -0.46802253, -0.20954561, -0.7999144, 0.49225056, -0.12302992, -0.33357123, -0.3269868, 0.019548496, 0.036102567, 0.078189604, 0.48112684, 0.7865648, -0.34970468, 0.5600367, 0.50932735, -0.6718967, 0.07994421, -0.26151124, 0.16182984, -0.59708345, -0.60749525, 0.20785764, 0.45835435, -0.5063526, 0.27097455, 0.21428153, -0.8600293, 0.13975106, -0.23637913, -0.0047294246, 0.46260995, 0.7095444, -0.11319787, 0.20378193, -0.013592021, 0.26567632, 0.16188788, -0.31759202, -0.5190857, -0.28606766, 0.48859164, -0.63338786, -0.11514345, -0.7381265, 0.044413283, 0.48840317, -0.47004312, 0.5289543, -0.17414914, -0.024730874, -0.438623, 0.051047746, -0.23344943, 0.74456304, 0.08201126, -0.15960795, 0.22735082, -0.007974709, 0.100558355, -0.2651397, -0.21537088, -0.21499874, -0.14966366, 0.58091223, -0.18168654, -0.7053885, -0.36990836, -0.18628797, -0.4660737, 0.23284641, 0.27969635, -0.50528055, 0.39272243, -0.33387083, -0.047156498, -0.16918851, 0.5174312, 0.82835186, -0.30150253, 0.3635843, 0.06326144, -0.2609033, -0.42784756, -0.56144893, 0.06402318, -0.66131204, 0.417703, 0.79428333, -0.33861127, 0.27966025, 0.38710845, 0.10404837, -0.044677757, -0.048357043, -0.6887647, 0.15517777, 0.12836832, -0.32562244, 0.2621122, -0.2377767, 0.4761352, -0.1450505, -0.28875163, -0.061687596, -0.26509026, -0.7605146, 0.40965837, 0.39262405, 0.26850638, 0.23962967, 0.31281534, 0.38320446, -0.06605223, -0.18444769, -0.5911014, 0.0066108564, 0.27751797, -0.97162044, 0.36683872, -0.87990063, -0.29063007, 0.11369528, 0.654972, 0.69777197, -0.01955552, 0.7634585, -0.55035335, 0.817065, 0.30162495, 0.26679838, -0.09850041, 0.43103954, 0.23756638, 0.23603112, -0.18611996, -0.42657322, 0.36003286, -0.3961438, -0.08948498, -0.092585415, -0.17573577, -0.46337545, -0.17296775, -0.5081958, 0.18450049, 0.11611263, -1.4109588, 0.25774688, 0.07639099, 0.86054, -0.004649902, 0.69211197, -0.038000364, 0.48803535, -0.21687792, 0.4717588, 0.11129982, -0.08408599, -0.87330043, 0.57955253, 0.5208843, -0.14175233, 0.09941447, -0.20812255, -0.21981679, 0.084593564, 0.22732422, 0.4851584, -0.5222435, -0.007628883, 0.111649685, 0.45188427, 0.15128645, -0.45792753, 0.277113, 0.32955, 0.5795282, -0.15757595, -0.055900447, -0.44363686, -0.81603426, -0.6610438, 0.109893754, -0.3026639, -0.08549059, -0.35418606, -0.1899182, -0.43712953, -0.061000757, 0.21021296, -0.040750854, -0.27654976, -0.26240146, -0.45318827, -0.51590353, 1.0849617, -0.03843508, -0.6253855, -0.20717151, -0.55478454, -0.22570665, 0.06826924, -0.12457932, -0.0792019, 0.721508, -0.24748339, 0.3508814, 0.7360288, -0.24126028, -0.01925076, 0.4772274, -0.4573345, 0.014762143, -0.19995253, -0.57750297, 0.08830985, -0.73061436, 0.54828525, -0.017085383, 0.6616866, -0.16729379, -0.7720859, -0.13848282, -0.27758688, -0.093482934, 0.08547981, 0.073451355, -0.36018407, 0.13587378, 0.30831087, 0.12771083, 0.031054102, 0.14932217, -0.90234226, 0.5773087, -0.8127382, -0.36907163, -0.3718484, -0.13377887, -0.021026928, 0.43237713, -0.054740313, 0.1361013, -0.099941306, -0.45761707, 0.45389217, -0.4448109, 0.014718131, -0.23686822, -0.005405259, -0.06974557, -0.41108307, 0.22324353, 0.17848587, 0.49733317, -0.15606068, 0.120765455, -0.11541184, -0.51762587, 0.05009597, 0.08120005, 0.14462563, -0.47688624, -0.8674063, 0.037219256, -0.16750082, -1.3860672, 0.55179334, -0.63840115, -0.07203607, 0.15352409, 0.06050658, 0.43746457, -0.044947367, 0.22901788, 0.03953622, 0.46440282, -0.12079429, 0.7511144, 0.4248527, 0.49597248, -0.57749426, 0.04693411, -0.054652352, 0.16911282, -0.57464474, 0.4818357, 0.45053786, 0.010278722, 0.38098696, -0.08885563, -0.62786776, -0.10027969, 0.08478835, 0.3054261, -0.052359644, 1.0640123, -0.3376624, -0.31688043, -0.6163868, 0.017796937, -0.3410776, -0.984616, -0.073696405, 0.09161973, -0.44209686, 0.19304982, -0.10713381, 0.391016, -0.3943922, -0.09880153, 0.14522442, 0.11968725, -1.081426, -0.16259156, 0.9419263, -0.14410533, 0.128235, 0.09903475, 0.35476345, 0.054622926, -0.13324468, 0.105874814, -0.33379537, -0.302682, -0.63921446, -0.11252194, -0.057035193, -0.4909244, 0.23464102, -0.10975662, -0.18352915, 0.14362358, 0.15657172, 0.7363243, 0.53099895, 0.0077324533, -0.16180006, -0.11430078, 0.5392686, 0.09405291, 0.4683688, 0.029860077, -0.68672156, 0.7466579, -0.2958571, 0.46046177, 0.611653, 0.005476633, 0.42966476, 0.4068699, -0.075961515, 0.07368163, 0.12110645, -0.4666347, 0.039940935, 0.26882565, 0.106605634, -0.43706518, -0.16122843, -0.61745167, -0.57197917, 0.04816244, 0.3202856, -0.6863402, 0.47456023, 0.60657984, -0.18263406, -0.0821047, 0.27975506, 0.55087715, 0.11179842, 0.7527452, 0.12805647, -0.19765337, -0.3364706, -0.40992847, -0.047591824, 0.29342872, 0.19995913, 0.5035128, 0.0005515722, -0.11248736, 0.46482226, 0.14920987, -0.11283526, -0.03341283, -0.08104933, -0.067883044, 0.59430385, -0.31691316, -0.07516393, 0.8803535, -0.24459368, -0.111751944, 0.25924122, 0.48871312, 0.21169135, -0.19256388, -0.5755596, -0.46958858, 0.26429808, 0.12815699, -0.5391916, -0.17970389, -0.02474176, 0.21287957, 0.046491466, -0.47963622, -0.4686774, 0.2825527, 0.19950686, -0.9314753, 0.21589231, -0.42277718, 0.29469347, 0.3840997, 0.26941255, -0.033849813, -0.09443385, 0.06481181, 0.2081804, -0.2284202, 0.60975754, 0.0741309, -0.30139795, -0.5737029, -0.6427056, 0.14458473, -0.47225338, -0.2450361, 0.16982095, 0.009129708, -0.18571447, 0.5286634, -0.18172055, -0.8343524, -0.006784282, -0.6650388, -0.014135876, 0.0007349929, -0.49222088, 0.39521408, -0.18573648, -0.7071936, 0.048444115, -1.3530186, -0.43604425, -0.18291642, -0.18764351, 0.15713556, 0.48381236, -0.46107766, 0.023076367, -0.40561166, -0.62935835, 0.41463262, -0.7857986, -0.15000471, 0.0665333, 0.22785097, 0.280756, 0.59248304, -0.35354277, -0.24772015, 0.53828865, 0.49290445, -0.14283963, 0.13964225, 0.43927625, -0.4608584, -0.35130036, -0.565447, -0.66222703, -1.0318881, 0.0002155579, 0.0463554, -0.24559762, -0.39889857, -0.054772634, 0.9231837, -0.5344454, -0.1805453, 0.25884894, -0.3198193, -0.15599632, -0.40728492, 0.6112883, 0.1281736, -1.0558131, -0.6068478, -0.23221797, -0.03822395, 0.13860494, -0.26857105, 0.18935889, -0.82867324, 0.37177357, 0.18553771, -0.10248624, 0.18870662, 0.0021285599, 0.24234788, -0.049790286, 0.16131662, 0.14075685, -0.29675937, 0.7383481, -0.46799877, -0.42130882, -0.46669823, 0.138042, 0.22044776, 0.17726539, -0.5962125, -0.62673277, 0.026691966, -0.0236506, -0.39259988, 0.87741375, -0.13461736, 0.007873788, -0.71184736, -0.033422843, 0.018220367, -0.5200046, 0.11968077, 0.4472996, 0.66015536, -0.17462543, -0.46939236, 1.0169305, 0.9019746, 0.29504678, -0.4635458, 1.1316692, 0.25279725, 0.34421334, -0.16535567, 0.5986187, -0.49852303, 0.4373088, 0.3455896, -0.4363329, 0.13047022, 0.2890856, -0.8061991, 0.6569455, -0.26864702, 0.05550564, -0.029980062, 0.7018245, 0.050270703, -0.067029275, -0.093605965, -0.40634853, -0.1755273, -0.04769797, -0.5356647, -0.24147469, -0.17041144, -0.29076415, -0.34087878, -0.21332599, -0.36380276, -0.37551886, 0.065982066, -0.38807577, -0.06138399, -0.58720505, 0.20260026, 0.37948182, -0.44838715, 0.05220523, -0.2918266, 0.2676361, 0.38812917, -0.10866277, 0.32939646, 0.014531597, -0.1655849, -0.27198762, -0.5042024, 0.16420569, 0.74513435, 0.16244103, -0.08560826, -0.06760417, 0.15409543, -0.04976519, -0.26669186, 0.3352332, -0.5671543, 0.18226577, 0.060175776, -0.1775145, 0.28282726, 0.6961553, 0.16824977, 0.1324652, -0.6101927, 0.12860844, -0.1472997, -0.14972834, 0.20819464, -0.0056623267, -0.32647103, 0.117517985, 1.1589965, -0.3028073, 0.40093428, -0.12451325, -0.017603476, -0.31931388, 0.3971706, 0.8936084, 0.6408037, 0.13756154]</t>
+          <t>힘을 전기적 신호로 바꾸어주는 장치로, 시료에 따라 적합한 힘의 범위를 가진 로드셀을 선택해야합니다.</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[0.4264249, -0.22768709, 0.2860991, -0.70340276, 0.19519949, -0.34285897, 0.8587693, -0.222565, -0.15717214, -0.11685321, -0.22401963, -0.012487564, -0.014268011, 0.33335194, -0.5661657, 0.28251523, 0.5505359, 0.19451888, 0.56471676, -0.64874756, 0.09553665, 0.84964293, 0.36035934, 0.7247018, -0.50909114, 0.19628872, -0.46106836, -0.10121966, 0.5978844, -0.69244087, -0.999785, 0.4402815, -0.20216846, 0.012131523, 0.5629213, 0.52284575, -0.95860183, 0.42656544, -0.66958624, -0.6235019, -0.5744677, 0.2105247, -1.0432678, 0.2738627, -0.3727442, 0.40826932, -0.12508841, -0.50509346, -0.5221704, -0.32786745, -0.5382464, -0.12166876, 0.5319222, 0.53155875, -0.26137128, 0.16858374, 0.08332307, -0.20130453, 0.1224215, 0.02140376, 0.5170573, -0.41646954, 0.848702, 0.5104564, -0.097336054, 0.011229253, -0.32285595, 0.06324924, -0.88614285, 0.09155241, -0.48528904, 0.23944078, 0.00724815, -0.35910434, 0.24013445, 0.1527205, 0.047910538, -0.42327654, 0.32514572, 0.5345302, -0.80092037, -0.43219846, -0.027355872, -1.0931721, -0.3847705, -0.1470203, -0.09084732, 0.062162, -0.117526636, 0.21997155, -0.34214166, 0.035516318, -0.21562448, -0.11431578, -0.63045716, 0.09680838, 0.4610655, -0.36000454, 1.182109, 0.8376796, 0.79755867, 0.15660007, -0.45601484, 0.4239524, -0.10159159, 0.5119976, -0.086432785, 1.0250286, -0.38342157, -0.3524586, 0.67299676, -0.60028577, 0.21626231, -0.3697125, -0.28412837, -0.14553523, -0.31286347, -0.29502118, -0.3902871, -0.097798295, 0.89389586, -0.26831934, 0.5419287, 1.0956272, -0.051746152, 0.3446535, 0.65960205, -0.7020554, 0.1331523, 0.08965516, -0.24852464, 0.33349457, -0.26411793, -0.27016002, 0.11011877, -0.44507515, -0.15723403, -0.16333686, -0.33574998, 0.21567005, 0.09460705, -0.30485207, -0.05415001, -0.12895828, 1.0889455, 0.010121239, 0.17222439, -0.65267974, -0.06671772, -0.6136688, 0.13301736, 0.102340735, -0.27207962, 0.15550727, 0.25885046, -0.3279305, 0.053687572, -0.307445, -0.5046186, -0.11406396, -0.38876167, -0.23812898, 0.30742517, -0.110007904, 0.56677556, 0.73015124, 0.95408946, 0.0983074, -0.087857224, -0.7936524, -0.54326946, -0.07299863, 0.1597576, -0.44377905, 0.12120758, -0.04554277, 0.2376412, -0.034512307, -0.32289553, 0.23130836, -0.799981, 0.18057235, -0.00928904, -0.16965105, 0.27040154, 0.38589293, 0.2561521, 0.15675116, -0.52962756, -0.28207812, 0.45374352, -0.28583002, 0.23770325, -0.61977565, -0.009704951, 0.70391464, 0.1629367, 0.37700975, -0.100724645, -0.26392326, -0.2235819, 0.43345454, 0.4447309, 0.40908957, 0.36679128, -0.23509108, 0.13922065, 0.16881771, 0.19900435, -0.7648857, 0.06774679, 0.4561331, 0.295221, -0.26988187, 0.036294505, 0.0059206914, -0.6919432, 0.118698545, 0.15223768, -0.5585143, 0.42183107, -0.40843064, 1.0009173, -0.41697305, 0.08008418, -0.5339745, -0.005680425, 0.3329205, 0.07943981, 0.46867684, -0.45204988, -0.27087632, -0.60914826, -0.3711765, 0.55339694, 0.038177744, 0.2751753, 0.30379438, -0.34270465, -0.055217855, -0.37938145, 0.07139225, 0.27443624, -0.8498986, 0.36573413, -0.002710783, 0.20292962, -0.71162164, -0.00660222, -0.9490956, 0.3951584, 0.35289526, 0.34241164, -0.09485261, 0.19930206, -0.82580394, -0.21230641, 0.7626119, 0.17680162, -0.0060229097, -0.14374849, -0.023994884, -0.2236868, -0.40956748, 0.030178407, -0.60271406, -0.058109403, -0.5055625, 0.17327987, 0.36325702, -0.48624957, -0.22818395, 0.43166065, 0.05286987, -0.22968858, 0.7259917, -0.044975195, 0.32606447, -0.008834896, 0.19272958, -0.08891147, 0.12189399, 0.31951863, 0.13383955, -0.16511866, 0.37217396, -0.17365739, -0.14589074, -0.04186268, -0.82597417, -0.276053, -0.4306765, -0.119580254, -1.3117446, 0.3182263, -0.43612877, -0.15528911, -0.2507356, -0.09634841, -0.18298626, -0.114177495, 0.4605903, -0.16104639, 0.5332134, 0.22708552, 0.09992637, -0.2554798, 0.054685958, -0.024348125, 0.34763062, 0.34926832, 0.04150028, -0.40398547, 0.022472661, -0.10613236, 0.3077678, -0.26932094, -0.41657043, 0.5870765, 0.21339354, -0.059868507, -0.13403685, 0.39906797, -0.28742158, 0.5104967, -0.18128434, -0.1388169, 0.47128507, -0.16005439, -0.012550262, -0.86729985, -0.7799563, 0.011761884, 0.412159, -0.3173182, -0.2972633, 0.51263016, 0.49102926, 0.15885463, -0.009731372, 0.6769235, -0.3633333, -0.4061504, 0.82712984, 0.07843764, 1.176878, -0.29486355, -0.16985464, -0.29942602, -0.14183106, 0.056352958, -0.18772393, -0.17210734, 0.20940395, 0.16451429, -0.3257461, -0.17029686, 0.11008088, -0.09394971, 0.29805517, 0.89434063, 0.58822167, 0.17087308, 0.28308553, -0.18453534, 0.16949707, -0.8344403, 0.018080132, 0.18372048, 0.1332029, 0.0670003, -0.3798893, -0.4283957, -1.2102693, 0.111336574, -0.1449327, -0.25926894, 0.2950373, 0.22858998, 0.4193884, -0.029031971, 0.7896998, -0.7729105, -1.0428976, 0.8175262, -0.19334942, -0.8178671, 0.3845841, -0.0420075, 0.12686217, -0.34099066, -0.3447751, -0.35335806, 0.20610072, -0.33295965, -0.1273285, -0.18729888, 0.16531233, -0.1869309, 0.09967584, -0.24844459, 0.29720315, 0.5169072, 0.263957, 0.043089457, -0.2966089, 0.44971785, -0.14457998, -0.18594472, 0.18434323, 0.35384744, -0.31211424, -0.0091337105, -0.23371251, -0.4506062, -0.18903738, 0.22093919, -0.06786433, -0.24700181, -0.26216853, -0.24744064, 0.08343536, 0.19413105, -0.13382, 0.2888334, 0.097324, -0.30143008, -0.47689077, 0.3988015, 0.010910392, 0.17496502, 0.2542973, 0.15111491, -0.054604843, 0.048952147, -0.29102218, -0.011226164, 0.37642828, -0.4836927, -0.27984864, 0.39876315, 0.33873978, -0.5269639, -0.48095798, -0.49984503, -0.34696028, 0.6527802, -0.52072006, -0.92734635, -0.3719773, 0.57277715, -0.56228447, 0.24169499, -0.7175892, 0.17077059, -0.0179419, 0.7039797, -0.13530242, -0.07135443, 0.19571277, -0.52817035, 0.33621296, -0.28354472, -0.5387294, -0.015700974, 0.62843096, -0.093519025, 0.41621998, -0.12001577, -0.027731055, -0.9967058, 0.5248651, 0.07009432, -0.21435694, 0.0387604, 0.120852195, -0.87885034, 0.40621448, 0.36183774, -0.08681742, -0.21667123, 0.019955324, -0.0985659, -0.12748614, 0.0071157943, -0.09812465, -0.8045085, -0.44442424, 0.13433929, -0.07008687, -0.07593693, -0.24562523, -0.13427943, 0.22909522, 1.043979, 0.21157514, 0.17203528, 0.062731594, -0.3522514, 0.014084945, 0.37955964, -0.05590399, 0.43539107, -0.1635531, -0.03494145, 0.09393057, 0.45203665, 0.19455317, -0.24622393, 0.33907032, 0.3398577, 0.8873184, -0.09497863, 0.3180679, -0.025001688, 0.66883427, -0.39582363, 0.08384062, -0.51412463, 0.1969562, -0.019281663, -0.66376495, -0.088936135, -0.43999815, 0.3862177, -0.17428277, -0.15874727, -0.24008149, -0.057511754, 0.06012553, 0.4449208, -0.42225873, -0.3116376, -0.09233329, 0.16603523, 0.08980058, -0.040219054, 0.7747825, 0.12729418, -0.040242128, 0.44494545, -0.0039710253, 0.46120977, -0.31891766, 0.0583199, 0.66039354, 0.47703758, 0.5526634, -0.12142727, 0.14395428, -0.32612857, -0.03614137, -0.29602242, 0.030816479, -0.607925, -0.20139371, 0.1604173, -0.60879844, -0.2459051, 0.7379185, 0.14405546, 0.31189263, -0.37340763, 0.19902001, -0.18885343, 0.119090796, 0.32187462, 0.2662549, -0.5103059, 0.04496622, 0.44302973, 0.12884933, -0.42169702, 0.42364094, -0.19604987, -0.26767537, -0.7877279, -0.0026147414, 0.34087634, -0.38077274, 0.33460048, 0.22057243, -0.12341273, 0.379401, -0.17002071, 0.45693308, -0.23500088, 0.45220026, -0.34053373, -0.29424062, 0.045778513, -0.63350195, 0.112633124, -0.35218018, -0.80662346, -1.0969296, -1.0543196, -0.04308556, 0.11507789, -0.34412584, -0.43692997, 0.24660309, 0.27220434, -0.696908, -0.5256468, -0.46128368, 0.09495849, 0.4747361, -0.23764327, 0.6111976, -0.15009157, 0.05701548, 0.14745566, -0.60667723, 0.22729598, -0.03211058, 0.04532619, -0.73360187, 0.20583227, 0.55957943, -0.43543425, -0.0786921, -0.7037974, 0.113311715, -0.5691456, -0.23800857, -0.6233417, -0.11775768, -0.2720824, -0.16443187, 0.23020165, -0.57866603, 0.39678538, -0.73886466, -0.85539025, -0.17372006, -0.1270065, 0.24155855, 0.37363315, -1.0548081, -1.2088269, -0.37759387, 0.55833983, -0.4826528, -0.2739247, -0.04975309, -0.40829563, 0.04885631, -0.3048456, -0.38346064, 0.1262316, 0.31366786, -0.37847176, -0.03920343, 0.43657413, 0.20886825, -0.24348074, 0.29446954, -0.107417315, 0.16304474, -0.48286206, -0.0016366111, 0.57001543, -1.0765282, -0.33223113, -0.6467381, -0.15119769, 0.00835624, 0.36670804, 0.6118942, 0.4461512, -0.22474824, 0.38636255, -0.25339907, -0.5195439, -0.1172519, 1.3677753, 0.32618627, 0.1626576, -0.10489985, -0.030294074, 0.19609743, -0.17359886, 0.13555041, -0.62107086, 1.1247679, -0.021252599, -0.030919531, 0.34421474, 0.22518557, -0.13317138, 0.13578129, 0.7170827, -0.716481, 0.11639236, 0.51116645, 0.03603569, 0.5518725, -0.10592757, -0.32349518, -0.07574882, -0.7223971, -0.5758505, -0.33762255, -0.33424187, -0.088272125, 0.114486456, 0.09258963, -0.46599525, 0.5500238, 0.12722069, -0.27830946, -0.69149464, -0.3968591, -0.33841047, -0.18926926, -0.20059028, -0.3624302, -0.31660637, -0.45727348, -0.15672824, 0.16609094, 0.029412998, -1.1504887, 0.0573744, -0.70775414, 0.08533817, -0.026463442, -0.25214207, 0.33050454, 0.39654168, 0.09564419, 0.09153527, 0.21821758, -0.17679991, 0.03864433, -0.52186954, 0.1981671, -0.6657088, -0.48641267, -0.33851767, 0.44239384, 0.05999975, 0.36328614, 0.39822474, -0.25448838, 0.2663686, 0.5490047, 0.17545192, 0.11747617, 0.26538622, 0.97383064, -0.21170565, -0.3082446, 0.10284319, -0.3989182, -0.800444, -0.2072472, 0.13644534, -0.25838587, 0.034895517, 0.21783128, -0.6526373, 0.39863288, 0.084292166, 0.16990942, -0.08474061, 0.8410707]</t>
         </is>
       </c>
     </row>
@@ -1158,18 +1312,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>대체육의 결착력은 어떻게 측정하나요?</t>
+          <t>구 형태의 프로브</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>너무 어려운 질문인데, TPA 변수를 고려할 수 있을 것 같아요.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>[-0.6489867, -0.4080031, -0.04755913, -0.5037699, 0.11263179, -0.18795928, 0.32183638, 0.38485685, -0.2716928, 0.13201286, 0.22381027, -0.36764118, 0.07914274, 0.40553904, -0.36383387, -0.19749762, -0.55807906, 0.7822647, -0.29263967, -0.68589824, 0.039425373, -0.176344, -0.13506155, 0.6395265, -0.63135475, -0.5001263, -0.007699149, -0.3372515, -0.112198904, -0.45135117, 1.2959872, 0.0455783, -0.12611923, 0.495864, 0.3263991, -0.5357374, 0.006219203, 0.18908091, 0.39896655, 0.08459966, -1.0906862, 0.07611231, 0.15195717, 0.15347464, 0.15733323, 0.29155144, 0.62458515, 0.17268002, 0.06336899, -0.5199137, -0.0549629, -0.39824682, 0.30502567, 0.3573298, -0.43784693, -0.46676993, 0.59042865, 0.52485925, 0.5944268, -0.175896, -0.18516411, -0.22997515, -0.4449888, -0.7091823, -0.08423309, -0.83808, 0.20239544, 0.5176139, -0.44995543, 0.29480052, -0.22484219, 0.17578577, 0.10382458, -0.25048128, 0.52301615, -0.28531605, 0.06279228, 0.013026525, 0.8008008, -0.06462228, 0.047065917, -0.48976922, 0.1298759, -0.5599218, 0.29034212, -0.8022195, -0.5335454, -0.38420114, -0.30503717, 0.4583439, -0.29567218, -0.19374594, -0.566801, 0.7842332, -0.5997731, 0.24108888, -0.25557446, 0.0028959182, 0.7097059, -0.3005022, -0.3775873, -0.108543985, -0.8548438, 0.64495754, 0.6675411, -0.14316963, -0.092084624, 0.6407142, 0.72634876, -0.09415813, 0.51051384, -0.47410884, 0.06782575, -0.010409574, 0.4506298, 0.2063202, -0.42237934, -0.18799074, -0.090407886, -0.5362702, -0.25886273, -0.4137423, -0.14946255, 0.59898186, 0.27450496, 0.107449874, 1.1643428, -0.35118073, 0.69994, -0.36980507, 0.11731584, 0.041262336, 0.15426616, 0.65954524, -0.23937027, -0.7235771, -0.22620903, 0.053875208, 1.1894959, 0.15628998, -0.11794672, -0.22948562, -0.03401105, -0.082919754, -0.07030223, -0.32842317, -0.26082328, -0.7493185, 0.12149664, -0.72594726, 0.2474637, 0.46155557, -0.59693587, 0.4139506, 0.16392283, 0.7160138, 0.006864648, -0.54594576, -0.15674625, 0.0010017647, 0.48798975, 0.035001926, -0.1412345, 0.3792456, -0.0438655, -0.3156292, -0.4443595, 0.17414871, 0.19912197, -0.62121665, -0.30919442, -0.5074111, 0.3391536, -0.3972022, 0.2770244, -0.22132012, -1.180871, 0.15462954, -0.26268423, -0.648812, 0.15070572, 0.36912543, 0.18505958, 0.096439585, -0.087895, 0.5751603, -0.25019798, -0.4232481, -0.79390615, -0.9397521, 0.24450876, -0.11015205, 0.17906454, -0.19018365, 0.3889123, 0.6397175, -0.03724328, -0.060018744, -0.5767311, 0.18413068, -0.23051421, 0.78020877, -0.07808795, 0.60719556, -0.336871, 0.12054857, 0.089046344, -0.13845561, 0.6398589, -0.13330804, -0.4531254, 0.5109111, 0.14343975, 0.22859044, 0.043487888, -0.96248233, 0.14990544, -0.1061052, -0.065722376, 0.34619755, 0.45490855, -0.08107649, 0.5188377, -0.2888026, -0.11770887, -0.116867505, 0.49785408, 0.39268658, -0.24429417, 0.14036955, -0.3133232, -0.5689817, -0.27204004, -0.30633086, -0.21373643, -0.00030858017, -0.43705374, 0.3212362, -0.13143553, 0.0062500695, -0.24619415, 0.23038957, -0.57121897, -0.0456446, -0.059360575, 0.15354493, 0.15235987, 0.4416388, -0.034964256, -0.044241842, 0.13865353, 0.38448626, -0.53953654, -0.32580492, 0.27626285, -0.18847775, 0.11592967, 0.46477112, 0.1679507, -0.38256893, 0.24449794, 0.09990413, -0.27353302, -0.28758577, -0.21969119, -0.084131025, 0.4197411, -0.84852654, 0.19538914, -0.10792909, 0.25534242, -0.084303245, 0.40108556, -0.17373994, -0.33664683, 0.9886049, 0.31948158, 0.54550564, 0.76917964, 0.22763012, -0.26499918, 0.0836732, 0.5613233, 0.20088947, 1.080067, -0.43992084, 0.37982506, -0.2611886, 0.17358814, 0.2344302, -0.23251809, -0.51900244, 0.16027369, -1.3381243, 0.08959631, -0.14724985, -0.58286965, -0.12499535, 0.79990476, 1.1306609, 0.21343432, 0.55722535, 0.86599225, 0.2601093, -1.0632087, -0.18273488, -0.21558866, -0.13708954, -0.8680519, 0.6487258, 0.6064087, 0.43810087, 0.1352379, -0.2568188, -0.052703895, -0.49065226, -0.09024258, -0.36456278, 0.01843893, 0.22073719, 0.15819858, -0.25899366, -0.18552913, -0.1665586, 0.2184463, 0.46779656, -0.15414509, 0.525268, -0.66710156, -0.63912296, -0.70590824, -0.48777676, -0.21389009, -0.12721564, -0.76753855, -0.79718095, 0.7088108, -0.833845, -0.23426025, 0.11755967, 0.19200878, 0.12250495, -0.20935519, 0.3284907, -0.36013034, 0.6904643, 0.14233169, -0.2412194, 0.12218749, -0.21774073, -0.89030033, -0.25193718, 0.34571147, -0.18706772, 0.13160308, 0.71432143, 0.38143948, 0.3867642, 0.30892843, -0.04749627, 0.28883675, -0.22634126, 0.2758664, 0.5779781, -0.481777, -0.31445593, 0.37656528, 0.48526615, -0.022826884, 0.16063991, 0.078951135, 0.0025497419, 0.0042125913, -0.56906646, -0.11593155, -0.2711127, -0.2923145, -0.28480783, 0.16284892, -0.28028628, 0.4512147, 0.63112587, -0.103281505, -1.1132256, 0.034680147, -0.11189638, 0.14718464, 0.02229915, -0.17441776, -0.18055011, -0.15363203, 0.0067431456, -0.20355107, -0.27671304, -0.41783592, -0.12498704, -0.5974855, -0.37266874, -0.14112417, 0.5628268, -0.14676748, 0.25934437, -0.599162, 0.5368864, 0.41562027, 0.36603522, 0.21186623, 0.17349973, -0.15225138, -0.20625003, 0.2607375, -0.1974225, -0.37683162, -0.5879835, -0.0891559, 0.011566079, -0.46704337, -0.24176715, -0.12599908, -0.36451453, -0.10669384, -0.5496778, 0.83234054, 0.20187715, -0.1849206, 0.08743335, 0.3251049, 0.13728134, 0.7085396, -0.34692097, 0.06040129, -0.51748574, 0.5338582, -0.40371054, -0.73206383, -0.36165172, 0.31628013, -0.097479954, -0.135838, 0.54487365, 0.94201034, -0.53700536, -0.13953064, 0.24658033, -0.3569112, -0.41384992, -0.7311779, -0.118059166, -0.09645392, 0.02037013, -0.50070137, -0.57259357, -1.1530682, 0.090353444, -0.21512316, 0.1540117, 0.13601547, -0.2116536, -0.12625514, 0.11653858, -0.28363448, -0.40059915, 0.19828047, -0.47008038, -0.24837932, 0.40778252, -0.21563886, -0.0067204377, 0.46765494, 0.1810842, 0.28545058, 0.06398008, 0.17084584, -1.1693342, -0.40943915, -0.5750586, 0.26159936, 0.1344877, 0.05985154, 0.2253239, -0.5877679, -0.19377421, 0.050159276, 0.3001078, 0.66200095, 0.111832276, 0.40816197, -0.24105331, 0.14350691, 0.25235602, 0.26074865, 0.19479375, -0.14392301, -0.78344303, -0.07925455, 0.081560545, -0.13840947, 0.6174587, -0.43906206, -0.17991737, 0.10034846, 0.2686247, -0.056598168, 0.16544197, -0.58066976, -0.8561254, -0.36077315, -0.4150531, -0.23648867, -0.07432514, -0.17169692, -0.53103095, 0.07222093, 0.8112318, 0.35366255, 0.62621194, 0.31749055, -0.39242455, -0.59830815, 0.6819147, 0.06286297, -0.21617429, -0.33788484, -0.06841196, 0.4661042, -0.21677646, 0.038243018, 0.10881717, 0.51576585, 0.30621567, -0.0758148, -0.28376406, 0.09323566, 0.33590373, 0.35802707, -0.41426697, 0.1825856, 0.47140417, 0.24293433, 0.49952742, -0.08536523, -0.74798346, 0.476525, -0.09451532, 0.3899727, 0.018079694, 0.14002669, 0.099209905, -0.36167604, -0.41929433, -0.8291303, -0.05991194, -0.2466819, -0.12277464, -0.46108064, 0.12619156, 0.010830875, 0.21186617, -0.33127078, -0.3589914, -0.0753117, 0.5529812, 0.06761953, 0.1407707, -0.072717026, 0.49840164, 0.22350739, 0.69131374, 0.13663782, -0.19668822, 0.7058584, -0.010743403, -0.3691401, 0.26073864, 0.19869912, -0.38551494, -0.36869732, -0.9195366, 0.24246766, -0.143227, -0.5269315, 0.29927355, 0.22673185, -0.5664823, 0.19155644, 0.10428422, 0.30294994, 0.2628604, -0.38169646, 0.17868327, 0.20957457, -0.9490262, 0.53516084, 0.5756727, -0.6269264, -0.9475885, -0.6957719, -0.7070722, 0.016302053, -0.70132214, -0.3384344, 0.5825415, 0.51407874, -0.096798085, 0.15960677, -0.25752714, 0.3792862, -0.14663519, -0.06243902, 0.28300735, -0.5208479, 0.28878516, 0.55074626, -0.049839526, -0.4917079, 0.24712387, 0.25274014, -0.02350719, 0.40049797, 0.18605587, -0.2888079, -0.25997862, -0.84262764, -0.24870002, 0.16959241, -0.046844017, 0.11067085, -0.12850969, -0.7429404, -0.056680143, 0.34505036, -0.24224234, -0.36017725, 0.2724848, -0.5402538, -0.4334065, 0.0359872, 0.69245636, 0.26390964, -0.6790857, -0.73098373, 0.3289228, 0.14670692, -0.014449565, -0.2657687, 0.29513004, -0.86589515, -0.08091457, 0.07381211, -0.033745553, 0.6280527, -0.18949814, 0.6545132, -0.05285125, -0.044110913, -0.36557737, 0.30314204, 0.25521258, -0.50037146, 0.07808481, -0.25061768, -0.31045675, -0.32565764, -0.057446454, -0.19124402, -0.40875027, -0.64690727, 0.102531634, 0.09096344, 0.62821335, -0.21879113, -0.7546269, -0.06927602, -0.13757418, -0.3376915, -0.20811616, -0.14196917, -0.03371672, -0.5108072, -0.7205196, -0.060052957, 0.73215204, 0.055397753, 0.44715786, -0.3958445, 0.29892114, -0.08971579, -0.22361435, -0.026005963, 0.09505999, -0.35781214, -0.5016788, 0.21204707, -0.218433, 0.78925735, 0.091410056, -0.7612007, -0.030401666, -0.2841077, 0.5866705, 0.13021557, 0.5847617, 0.24885453, 0.120724835, -0.10209184, -0.12550925, -0.26972452, 0.112634316, 0.114333734, -0.14648588, -0.32526684, -0.34928367, 0.28669184, 0.3030825, 0.14092234, -0.45122996, -0.43795544, -0.5612577, -0.13274895, -0.3168529, 0.16538106, 0.2755303, -0.5798836, 0.1620005, -0.3043787, -0.24331394, 0.6548163, 0.27577025, 0.41241965, -0.37275353, -0.39737436, -0.101936586, -0.38730615, 0.41483566, 0.23880838, -0.25863582, -0.1780966, -0.1314251, -0.7105346, -0.0047364277, 0.008279827, -0.327809, -0.008631085, 0.3449836, 0.23101994, 0.28278115, -0.47518843, 0.5662491, 0.24434726, -0.3417192, -0.2825684, 0.6058879, -0.11989664, 0.5692982, -0.46554932, 0.13708366, -0.013129145, -0.609389, 0.8379914, -0.008282436, -0.20948826, -0.067421295, -0.15613358, -0.16554356, 0.54208106, -0.030819807, 0.5602695, 0.2108212]</t>
+          <t>베이글 등 표면이 일정하지 않은 시료에 적합합니다.</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[0.020033317, -0.7440581, 0.33385578, -0.27065796, -0.38738766, -0.2057692, 0.7205966, 0.0054555545, -0.18025549, 0.09914579, -0.08666588, 0.19075085, -0.18321605, 0.5747223, 0.32057038, -0.6506187, -0.47092035, 0.24614874, 0.28674266, -0.8697115, 0.024271373, -0.048714273, 0.6849527, 0.75263685, -0.4269833, 0.55995166, -0.05464972, -0.2981859, 0.2924039, -0.40735707, -0.26231632, -0.28564748, -0.2655299, -0.13346896, 0.7464558, -0.31505942, -0.4856677, -0.31560716, 0.30361733, -0.20052372, -0.43530574, -0.03280457, -0.034632847, -0.05388073, 0.21246274, -0.47915944, 0.12983431, 0.10257498, -0.5737707, -0.30083546, -0.22718468, -0.30084464, 0.36103097, 0.63170034, -0.1355631, -0.72520065, 0.5219193, 0.20099236, -0.037145592, 0.72278595, 0.42695394, 0.068463005, -0.7239472, 0.114270106, 0.5725787, -0.27741748, 0.093071304, 0.36687428, -0.48750207, 0.26907286, 0.3897392, 0.072924264, 0.032042682, -0.24551184, 0.22087386, 0.32016635, -0.46291384, 0.6733939, 0.46222657, 0.2165714, 0.15766598, -0.38443607, 0.32630062, -0.42712736, 0.11277636, -0.5712305, 0.0010163529, -0.45264372, 0.12203299, 0.3008577, 0.56126255, -0.008732198, 0.0058750114, 0.53213435, -0.85260886, 1.0528346, -0.24617492, -0.41668555, 0.7705956, 0.44727197, 0.112582676, -0.10953497, -0.54864246, 0.30120307, 0.15441202, -0.096744776, 0.3476395, 0.867428, -0.13048437, -0.3364736, 0.6187592, -0.51058626, 0.016971683, -0.14344163, 0.1138594, 0.4461032, -0.42166433, -0.21243204, 0.17253636, -0.48654118, 0.43760467, -0.04587475, 0.99127185, -0.055772606, -1.0434086, 0.06827573, 0.45011955, -0.23515953, 0.64831764, 0.15589793, -0.24305609, 0.2521715, -0.19900213, -0.26513046, 0.045329396, 0.22077098, -0.053617306, -0.18065394, -0.15180136, 0.42284057, 0.6332887, -0.45670608, -0.18498923, 0.3888795, -0.52677965, -0.40813634, -0.1361276, -0.40749794, 0.66134834, -1.163123, -0.16063274, 0.6641121, 0.056193817, 0.10557489, 0.18538435, -0.60135823, 0.80259955, -0.2753766, -0.18412997, 0.05060941, -0.12632923, -0.19883408, -0.099404335, -1.0313531, -0.3005601, -0.3419815, 0.14840259, 0.16217698, 0.9178037, -0.0011548387, 0.079096325, -0.13196716, -0.21613185, -0.3393056, 0.56358117, 0.49665886, 0.28371903, 0.2996359, -0.05258641, -0.21141824, 0.79382294, -0.20544745, 0.3396854, 0.4222341, -0.063325, 0.49552995, -0.35500214, -0.18360819, -0.6821832, -0.6732186, 0.676299, -0.5191347, 0.43208084, -0.43074894, -0.32375017, 0.31916526, -0.066352405, -0.12871346, 0.46187767, -0.0639371, -0.30772614, 0.10734216, 0.3571561, -0.24321732, -0.23833998, -0.18645813, 0.45631287, -0.41524246, -0.09655053, 0.15602829, 0.50165856, 0.1476294, 0.9448287, -0.036818065, -0.3445208, -0.26458615, -0.5876547, -0.56687874, 0.511176, 0.16303413, 0.8864992, -0.15637255, -0.2771627, -0.50186074, -0.14516099, -0.5825023, -0.77877074, 0.02707845, -0.4419107, 0.12564763, 0.2998898, -0.8546189, -0.26623735, -0.8157935, 0.48678875, -0.18491422, 0.30983612, -0.5514923, 0.22612849, -0.41348943, 0.82276285, -0.013997978, 0.04613156, 0.034905903, 0.0701937, -0.52791786, -0.18558106, -0.6106477, -0.07755864, -0.85278857, -0.75094324, 0.25195655, -0.2258607, 0.00073088065, 0.2981202, -0.12636498, -0.30133653, 0.559056, 0.16470276, 0.10281281, -0.17229366, -0.154687, 0.55046004, -0.7248665, 0.6035281, -0.00561023, 0.43698406, -0.62854475, -0.01567119, -0.2107173, -0.11600421, -0.6184238, 0.10893246, 0.24540217, -0.04207292, 0.6918727, 0.9278466, 0.114058174, 0.6199724, 0.40002427, 0.5882355, -0.0024867791, 0.14535944, -0.43023205, 0.4764175, -0.5366104, -0.066269085, 0.18451095, -0.3066176, -1.0006086, -0.20017628, 0.016037742, 0.3571822, -2.120138, 0.07241692, 0.23798704, -0.26964363, -0.036230106, 0.12676218, 0.44867873, -0.6938528, -0.7579961, -0.3696006, 0.47185472, -0.5799341, 0.1982489, -0.37072214, -0.64641327, -0.35750252, -0.054565873, 0.1520813, 0.02352166, 0.23858336, -0.011028489, -0.60536194, -0.34351513, 0.17175408, -0.47188088, 0.0059880028, -0.15567766, 0.47172764, -0.46753663, -0.34946346, -0.13518523, 0.19957937, 0.5419492, -0.11152828, 0.0045339316, -0.73673886, 0.04868424, -0.3509069, -0.52196705, 0.062984504, -0.1423149, -0.1992925, -0.44539982, 0.18018608, 0.13727562, 0.18125764, 0.1810457, 0.59626144, 0.1658036, -0.13635002, 1.09258, 0.9692649, 1.6332139, -0.6293317, 0.025221428, -0.59346724, -0.26266772, 0.39211807, -0.5283956, -0.8194055, -0.7595931, -0.072891116, 0.08710026, 0.19163214, 0.28827688, 0.13357402, -0.46712855, 0.20872696, 0.12442248, -0.24418114, 0.6126998, -0.75158197, 0.04344288, 0.1674198, -0.01720749, 0.66929156, -0.7065893, -0.30164996, 0.12701377, 0.12629631, -0.5467277, 0.3847935, -0.017492702, -0.57557005, -0.116250455, 0.40988848, -0.08370532, 0.20635639, 0.74005836, -0.49566433, -0.9134282, -0.75580204, 0.20586494, -0.08682708, -0.19662611, 0.049092893, -0.28000358, 0.45707718, -0.67193466, -0.45395294, 0.30227175, -0.61639243, 0.6053314, -0.26181698, -0.39714575, -0.75563776, -0.033470806, -0.058877956, -0.2583516, -0.6682173, 0.42606783, 0.23137784, -0.3929711, 0.077589236, 0.035136383, -0.37117258, -0.048693698, -0.019634677, -0.53684855, -0.20482953, 0.086655915, 0.22389367, -0.30646563, -0.43251362, 0.4972021, 0.14102003, 0.030123184, -0.30140495, -0.16312587, 0.37878937, 0.029459944, 0.3835968, 0.55249214, 0.42885455, -0.070048116, -0.38164344, 0.30004334, -0.3323953, 0.009385995, 0.552855, 0.09978509, -0.14197327, -0.8798752, 0.20495227, -0.62671196, -1.1077975, 0.35128286, 0.38554737, 0.22150828, 0.036709648, 0.06705893, -0.5676008, -0.07023774, -0.6198782, 0.14330351, -0.27296263, 0.16478299, 0.24587259, -0.3070422, -0.14406559, -0.117210284, -0.034169916, -0.15816532, 0.05222283, -0.3866427, 0.1804029, -0.30670455, -0.0047048307, 0.6738737, -0.16592462, 0.7316757, -0.13950633, -0.13461196, 0.0656118, 0.8503901, 0.55417687, -0.44494334, -0.72630817, -0.23101579, 0.031100208, -0.76410514, -0.47342262, -0.88401216, 0.20493288, 0.08403038, 0.44296774, -0.018060237, 0.08499008, -0.06427078, 0.13099213, -0.47968933, -0.22472402, -0.16022584, -0.13680033, 0.11309712, 0.33276984, 0.060657445, 0.007275822, 0.2058614, 0.11553955, -0.42713633, 0.4887307, 0.07814772, 0.24092682, -0.15477887, 0.07365809, -0.36291814, -0.3502399, 0.13339934, -0.6313934, 0.20773828, 0.05552944, -0.4794409, -0.3549934, 0.22292484, -1.234041, 0.21118686, 0.28688172, -0.12000259, -0.14814432, -0.07930241, 0.47439146, -0.007898254, -0.28398898, -0.23658669, -0.21375975, 0.5423376, 0.27077806, -0.03955834, 0.22882123, 0.04750486, -0.018580953, -0.41368023, 0.21280459, 0.1133521, -0.33882636, -0.39310732, 0.22846802, -0.32805294, 0.092519425, -0.37785053, 0.7689752, -0.15421668, -0.35025206, 0.16861129, 0.40200216, 0.14608333, -0.022889104, -0.8050113, 0.19384609, -0.27938208, 0.29954073, 0.33362436, 0.05954008, 0.13886248, -0.19560304, 0.2716079, 0.16318169, -0.17029463, -0.23591387, -0.035364967, -0.85365266, -0.15068166, 0.15863352, -0.69841516, -0.6528684, 0.041055314, 0.14458212, 0.96918017, -0.06632336, -0.19494033, 0.18068083, -0.14323996, 0.37839624, 0.2582746, 0.019005489, -0.08906416, 0.20961341, -0.3277886, 0.20716013, -0.63391703, -0.20549083, -1.0733172, 0.105636105, -0.71134806, 0.36603966, -0.62086, 0.22966027, -0.022229264, 0.4701922, 0.041296445, 0.31908414, 0.33291435, 0.1317834, -0.095965326, 0.39299515, 0.62588924, 0.37793106, -0.49311087, 0.038914204, 0.45060906, -0.63452375, -0.08996772, -0.73543423, -0.32054144, 0.29464668, 0.017044034, -0.7346388, -0.14359702, 0.16420488, -0.48930815, 0.055583, -0.6425347, 1.1086098, -0.11079804, -0.13175337, 0.40374532, -0.23498142, 0.16815664, 0.32444188, 0.11756994, -0.2980152, -0.23233028, -0.43421784, 0.21474035, 0.34557348, -0.13015792, 0.20946407, 0.25103706, -0.40293735, 0.47444752, -0.7683059, -0.7116526, 0.21260048, -0.39019728, 0.092011526, 0.031151937, 0.19268475, 0.094441734, 0.15022434, -0.20592448, -0.33113927, -0.27582997, -0.3986318, 0.09432145, 0.08790612, -0.49143845, -0.34145254, -0.46401998, 0.7669921, -0.49801636, 0.777104, -0.3720066, -0.09143247, 0.7573667, -0.064476185, -0.024581512, 0.00068374403, 0.08912785, -0.27077526, 0.103564896, -0.05393517, -0.30458638, 0.7296529, 0.39302614, 0.13543937, 0.6789299, -0.11008126, -0.50684154, 0.76822186, 0.0004374832, 0.49196023, 0.3814096, -0.48853305, 0.97545063, -0.11837099, 0.33346388, 0.047051907, -0.60173833, 0.39145157, -0.11772988, -0.32734028, 0.33736438, 0.18484579, 0.14981012, -0.2882845, -0.5924671, 0.08815142, -0.35909504, -0.16168, 0.6972656, -0.2475224, 0.3222737, 0.05515478, -0.13677706, -0.1918536, -0.3946689, -1.0195115, -0.75702155, 0.15956464, -0.7377803, -0.5924632, -0.36330622, 0.4580762, 0.28930777, -0.052063692, 0.37247318, 0.31460926, -0.327112, -0.4085019, -0.54389, -0.47189537, 0.06995114, -0.20828012, 0.14607203, -0.0013397096, 0.397681, -0.7192697, 0.030669535, 0.22322385, 0.65280545, 0.31338757, 0.23980518, -0.3367839, 0.3449015, 0.233869, -0.9647107, -0.15111463, 0.43107778, -0.7181445, -0.41257805, -0.22964083, 0.3823412, 0.44510216, 0.63570297, -0.122377805, -0.09222781, 0.32927606, 0.24168804, -0.04974254, 0.5355648, 0.086718, -0.20487894, 0.051231742, -0.20308624, -0.6756468, -0.1623448, 0.16409984, 0.19405696, 0.124702096, 0.6553273, 0.21267979, -0.032799903, 0.50789535, 0.7667298, 0.5735324, 0.22812055, -0.49599248, 0.033805184, -0.33707532, -0.5923699, -0.08441136, -0.6683612, -0.08331692, -0.6914994, -0.3584129, 0.09121852, 0.4869292, 0.06756364, -0.57847196, -0.041817605, -0.07443432, -0.065182835, 0.1407715, -0.110584594]</t>
         </is>
       </c>
     </row>
@@ -1179,18 +1338,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>어느 회사 Texture analyzer를 구입하는게 좋을까요?</t>
+          <t>sphere probe</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>다양한 회사에서 취급하고 있는데, 식품회사에서는 stable micro systems 기기를 많이 보유하고 있네요.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>[0.20401359, -0.37336484, -0.18824202, -0.17458716, -0.17764114, -0.03408886, 0.36294577, 0.023396103, -0.004880599, -0.40035278, -0.19923963, -0.6528688, -0.11303718, 0.3193595, 0.12973522, -0.15342294, 0.45056483, -0.20663095, -0.16594298, -0.018770548, -0.51823443, -0.06619292, 0.10096042, 0.22905588, -0.5814121, -0.71726626, -0.08665094, 0.6571941, 0.15915652, 0.20648836, 0.42108926, 0.028625397, -0.19474103, -0.26129696, 0.023837011, -0.078200586, -0.43075562, 0.008620555, -0.43891916, 0.08861553, -0.077534966, -0.020026313, -0.043544453, -0.29990906, 0.44305265, 1.3399496, 0.12130423, 0.647541, -0.691522, 0.10192302, -0.6164463, 0.050386313, 0.3255522, 0.3998928, -0.2351375, 0.027532442, -0.31940266, -0.31016397, 0.31687927, -0.06980034, 0.5156566, -0.114443906, -0.07067971, 0.30299112, 0.03791483, -0.516077, -0.15962678, 0.17184664, -0.016079528, 0.014425408, -0.5467288, 0.094526105, 0.4832504, -0.30938673, -0.26225364, -0.4078778, 0.5005738, -0.15258111, 0.7953636, 0.5529323, 0.18114863, -0.82594866, -0.5266232, 0.06933283, -0.27497193, -0.2418456, -0.28388456, -0.2964795, -0.41584265, -0.15903024, -0.60292965, 0.040152885, 0.33325496, 0.05697188, -0.13957891, -0.064677045, 0.0665343, -0.15221049, 0.5284797, -0.043561425, -0.024423204, 0.085663505, -0.3352717, 0.5061245, 0.42172348, -0.10974509, -0.117120475, 0.19158854, 0.3772395, -0.36855456, 0.38389474, -0.1286274, 0.12097967, 0.14627253, -0.50468314, 0.5381002, -0.26591015, 0.4475108, -0.44440538, 0.7123092, -0.088237315, 0.21050844, 0.014188704, 1.079701, -0.043566376, 0.0035736018, 0.5382853, 0.49426013, 0.17183954, -0.96505755, -0.14451914, -0.07511172, 0.65857893, -0.10301869, -0.18562135, -0.051665965, 0.23572692, -0.39041755, 0.57895726, 0.06517219, 0.065042265, -0.81429404, 0.3930817, -0.039670553, 0.2347447, 0.15780558, 0.51825625, -0.4286358, 0.056935906, -0.4681845, -0.5562017, -0.3881451, -0.3393122, -0.44210356, -0.1317855, 0.00641249, -0.25232646, 0.29513234, -0.028319735, -0.48920095, 0.24739386, 0.2518415, -0.14877686, 0.109917715, -0.09088813, -0.021733671, 0.85285723, -0.21696553, 0.15278894, -0.6592406, -0.39270222, 0.35264343, -0.31709018, 0.13429971, 0.044980686, 0.31419513, 0.07276379, 0.2739674, -0.5020748, -1.0777608, 0.1958013, 0.5791434, -0.36731222, 0.19906245, 0.17782564, -0.0950903, 0.46992338, -0.5642424, -0.530467, 0.122792885, 0.3648748, 0.08335919, 0.10225079, 0.01776161, 0.5369041, -0.22552666, -0.18279518, -0.3124344, 0.07741857, -0.24353658, -0.42402458, 0.1671326, -0.12925583, 0.9187278, 0.8113171, 0.39738905, -0.23269163, 0.013757434, -0.1931205, 0.1898668, -0.4070053, 0.41220734, 0.6023856, 0.7059386, 0.5030229, -0.2869401, 0.5624172, 0.0845396, -0.32487443, -0.015836082, 0.24715942, -0.15020256, 0.22715074, -0.275858, -0.24497771, -0.8811953, 0.29170606, 0.66715246, 0.4043536, 0.10345013, -0.3286824, -0.40726393, -0.29592907, -0.71890545, 1.0042301, -0.7773554, 0.26885197, 0.13707687, -0.40923855, -0.6632614, 0.07220972, 0.5623449, 0.6482716, 0.03006763, -0.110629745, 0.34689686, 0.29989928, -0.25893116, 0.91117215, -0.019307677, 0.44798553, 0.54153925, -0.45946398, -0.25354552, -0.20513067, -0.32427362, 0.12486508, 0.08391279, -0.04635756, -0.22790298, -0.13395184, 0.32477155, -0.7034457, -0.4512702, -0.5587628, -0.7365251, 0.014371876, -0.5927854, 0.547833, -0.50069994, -0.15569566, -0.3311095, 0.25287947, -0.2242579, -0.26391542, 0.12107761, -0.441868, -0.0007474937, -0.10562732, -0.24108167, 0.319878, 0.12414505, -0.1107975, 0.6036575, 0.12075212, -0.04622563, -0.38332796, -0.36493742, -0.63235927, -0.6349377, 0.07598509, -0.13936849, -0.07977589, -1.0973407, 0.29367924, -0.042247083, -0.194277, -0.5504204, -0.11139581, 0.048059665, 0.3584393, 0.119294316, 0.509394, 0.6708687, 0.1840819, 0.10307422, -0.031961422, -0.36813834, -0.5791598, -0.14911081, -0.21728724, 0.2872071, -0.62896246, -0.2630708, 0.039953884, -0.20413557, -0.062242914, -0.004798618, 0.16967621, -0.19680859, -0.43268192, -0.1770569, 0.14077353, -0.27564046, -0.24175192, 0.57859117, 0.10241404, -0.17970349, 0.6880335, -0.05556631, -0.43714526, -0.7056974, 0.9094878, -0.1828373, 0.5938295, -0.5513294, -0.22991301, -0.67362136, 0.3560945, -0.17093825, 0.025758045, -0.15989877, -0.29567358, 0.12359342, -0.05459637, 0.74182856, 0.11845508, 0.037045356, 0.19648193, -0.6560314, 0.32310566, -0.06318602, -0.11629755, -0.2306497, 0.54440266, -0.017674001, 0.23062511, 0.29972103, -0.3338834, -0.41002396, 0.4067082, -0.5029824, 0.2390411, 0.09271211, 0.21708184, -0.03362191, -0.47485074, 0.6887305, 0.10882291, 0.40731782, -0.048280712, -0.52230954, -0.08392506, -0.34646666, 0.06823284, 0.27339217, -0.83341736, -0.060790636, 0.27895606, -0.1315171, 0.6578142, 0.5261727, 0.046950746, -0.5738604, -0.26724103, -0.6358562, -0.3088418, -0.07091827, 0.17274386, 0.45393953, -0.07737993, -0.7113893, 0.4030085, -0.082170844, -0.34395856, 0.6187523, 0.059184495, 0.2642061, 0.058392238, 0.28626668, 0.2795939, 0.9902961, -0.15334037, 0.006301636, 0.01050417, 0.42748764, 0.6705464, 0.52372986, -0.3529873, -0.4298331, -0.13017271, -0.7394129, -0.27972123, 0.39030543, -0.0063152644, -0.04658574, -1.3359126, 0.31987455, 0.33722454, -0.42297155, 0.22239238, -1.1141449, 0.18788122, -0.43713474, 0.010972312, 0.029363077, 0.09707394, -0.1733996, 0.508914, 0.06306264, 0.01046207, -0.41407442, 0.19843744, 0.10908273, -0.108327396, 0.1511322, 0.0910701, -0.47834396, -0.5673562, 0.37710676, 0.0015021522, -0.0247764, 0.22266315, -0.25724265, 0.50342727, -0.09174072, 0.57699144, -0.59410805, -0.37698138, -0.62624425, -0.33201075, -0.45510948, -0.09640439, 0.07631083, -0.022355998, -0.094138935, 0.12851268, -0.70937145, -0.2982649, -0.059246954, 0.5105542, 0.13193497, -0.035897855, 0.047219347, 0.54116726, 0.29458562, -0.26848567, 0.5385757, -0.059577, 0.5027695, -0.34008574, -0.31815955, -0.25160396, 0.28320292, 0.29317176, -0.21276864, -0.2279348, -0.0822845, -0.5893844, -0.23172192, -0.90128744, -0.18771113, 0.17907444, 0.08612864, -0.1826124, -0.3686555, -0.014201816, -0.6479426, -0.14638624, 0.40727445, 0.31903288, -0.1273076, -0.33372548, -0.19420281, 0.81867373, -0.21405749, -0.43612623, 0.6594733, 0.009358139, -0.11763978, 0.40250474, 0.17344826, 0.081999116, -0.1183921, 0.23399907, 0.26862743, 0.0127020385, -0.15030123, -0.352808, 0.082409136, -0.06363156, -0.23820163, -0.23029323, 0.8570354, 0.10099471, 0.5113556, 0.3061364, -0.5871837, -0.15141149, 0.3484987, 0.34596995, -0.20214662, -0.22937007, -0.12285089, 0.68080884, -0.05135752, -0.39396226, -0.38254032, 0.2374884, -0.6749437, -0.3093495, 0.035559785, -0.3079506, 0.31660488, 0.2658353, -0.89359576, -0.056344748, 0.52733564, 0.25401363, 0.103083946, -0.15070608, -0.11125279, 0.6595259, 0.06301638, -0.0149224615, 0.29985482, 0.22306438, 0.27372658, 0.35735404, -0.15089984, -0.266931, -0.12823302, -0.31712997, -0.100149564, -0.20638967, 0.18851076, -0.26259077, 0.3159951, -0.95416754, -0.27756846, -0.38661215, 0.03565143, -0.24929689, 0.060200755, -0.47399217, 0.75438726, -0.43007275, -0.2972852, 0.11318235, 0.26120773, 0.1189115, 0.37670553, 0.24422255, -0.3463125, 0.37174731, -0.012999854, -0.30399904, -0.34214216, -0.049405, -0.554795, 0.14429992, 0.48806354, -0.23459071, -0.19509715, 0.23032457, -0.47415602, -0.9053648, 0.122704156, -0.29991654, 0.27719647, -0.45193395, -0.74937993, -0.022310961, 0.4499486, -0.57016826, -0.02176671, -0.49065286, -0.6850308, -0.26628983, 0.25210556, 0.13941847, -0.29139557, -0.0014629852, 0.4465637, -0.039661393, -0.4134127, 0.8323416, 0.19154486, -0.5623788, 0.76970774, -0.09084448, -0.06990067, 0.27622625, -0.1794589, -0.27043366, -0.037020124, -0.17933275, -0.519668, 0.5571955, 0.19140075, 0.08325613, -0.10405752, -0.617905, -0.9280224, 0.16591819, 0.08939244, 0.17674345, 0.3065192, -0.57290936, -0.5640603, 0.6285133, -0.32262218, -0.26764598, -0.70046484, -0.37731448, -0.24505787, 0.023978056, 0.34124416, 0.20209862, -0.522242, -0.96314186, 0.1328834, -0.051775917, -0.17302582, 0.038093153, -0.14390644, 0.06969541, -0.24251772, -0.36564845, -0.3875664, -0.04277947, 0.09193232, -0.32995912, 0.018110247, 0.41235802, -0.17442904, 0.07831306, 0.5547739, -0.20488001, -0.13982192, -0.11133611, 0.61439264, -0.37934458, -0.39358136, -0.57389826, -0.18050584, -0.4250201, -0.6039327, 0.635395, 0.048463322, 0.6434416, 0.03122127, 0.12685618, 0.40897235, -0.17278357, -0.7093246, 0.9359762, 0.23461485, 0.6671768, 0.027554184, 0.11020884, 0.61047286, 0.809185, -0.5848928, 0.5338151, 0.4225026, -0.17934859, 0.3820016, 0.12645362, -0.29805633, -0.5491268, -0.17315955, -0.37787247, -0.17497317, 0.9365555, 0.71001035, -0.1050984, 0.37980124, -0.08644984, -0.25195798, 0.3732638, 0.1247391, -0.4483278, -0.12059388, -0.45595017, -0.6498821, 0.16254503, -0.4063731, -0.45856783, -0.43066627, -0.27202988, -0.23115358, -0.45322713, 0.07154273, -0.24949037, -0.8547566, -0.5441492, 0.30860224, 0.06305194, -0.43653566, -0.20960857, -0.4563593, -0.3599888, -0.14796296, -0.18836321, -0.41123876, -0.12132513, -0.16277765, -0.009574459, 0.13927068, -0.007159981, -0.10587862, -0.27495772, -0.12887016, 0.04551996, 0.39734223, -0.11430374, 0.12677984, -0.17565006, 0.065886505, 0.0018399574, 0.3602421, -0.32562533, -0.26090452, 1.3192805, 0.14339072, -0.031589046, 0.29610488, -0.22559834, 0.15373273, 0.24425822, -0.17785132, -0.27761146, -0.20855097, -0.4409375, 0.048210487, -0.14017761, -0.51191795, 0.07678625, -0.48914722, -0.12561896, -0.20013791, 0.24041475, 0.38516626, 0.41297618, 0.5941244, 0.53601354, -0.27726093]</t>
+          <t>베이글 등 표면이 일정하지 않은 시료에 적합합니다.</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[0.043543566, -0.25800982, -0.20559935, -0.0038382635, -0.25183207, -0.026645673, 0.62922424, -0.114398, -0.016650068, -0.4437081, -0.40409634, -0.21296625, 0.049680118, 0.5046651, -0.16638856, -0.19765787, -0.36337042, 0.25858903, 0.4002763, -1.0527557, -0.18714412, 0.44343925, -0.100732714, 0.18541308, 0.22827347, -0.05291593, -0.25835222, -0.29413766, 0.2709191, -0.33440176, 0.18422796, 0.25029168, -0.28104618, -0.16042583, 1.0367175, 0.4509492, -0.47004178, -0.35548934, 0.97203404, 0.14721851, -0.24990867, 0.08970531, -0.7428897, -0.06313334, 0.17143275, -0.0019041946, -0.0020736263, -0.18850279, -0.25125766, 0.03693992, -0.025932953, -0.8526489, 0.34572837, 0.6345075, -0.14367922, -0.8364191, 0.21280758, 0.1610665, 0.4024996, 0.21983944, 0.64101785, -0.08902978, -0.33865163, 0.17813478, -0.08141935, 0.013090941, -0.019522687, -0.15767635, -1.0408568, -0.052125216, -0.005060468, 0.076571204, 0.21173196, -0.34946823, -0.0836328, -0.025493896, 0.112821124, 0.521405, 0.2996823, 0.19830374, 0.041203935, -0.73984146, 0.5301704, -0.6223534, 0.14172725, -0.29181883, 0.17533, -0.1534451, -0.13797192, 0.19687583, 0.20891976, 0.8903611, -0.6406274, 0.17587787, -0.52829605, 0.6833264, 0.06565142, -0.40023294, 0.43747687, 0.358554, 0.41946223, 0.031068996, -0.081368215, 0.08869594, -0.029938871, -0.0068038255, -0.31392905, 0.9487466, 0.11466851, -0.13568787, 0.5246383, -0.49262288, -0.12788306, 0.25400102, 0.0022266228, 0.17783892, -0.7087152, 0.27777106, -0.2611138, 0.18218796, 0.3919315, -0.50786227, 0.1930636, 0.0886965, -0.78364897, 0.28326452, 0.5433931, -0.2778838, 0.106346644, -0.4900399, -0.0053028613, -0.028863937, 0.13986826, -0.29584435, -0.49482015, 0.14587717, 0.049440723, 0.16125746, 0.29921347, 0.4589692, 0.36818418, -0.488819, 0.3543488, 0.17888492, -0.13639133, -0.532953, 0.22927009, -0.21902736, -0.16654287, -0.8457534, -0.017417721, 0.46449184, -0.43332815, 0.15838231, 0.07018166, -1.2468332, -0.017685922, -0.059012394, 0.41279435, 0.32070473, -0.26411518, -0.9217928, 0.07555138, -0.1288555, 0.039173845, 0.48401323, -0.59855807, 0.1537049, 0.26375398, -0.08169133, 0.19404042, -0.31518218, -0.6678532, -0.26324987, 0.093794025, 0.551228, 0.3424237, 0.43530545, 0.23689206, -0.2837886, 0.41089073, 0.31355253, 0.15268351, 0.058446903, 0.19526218, 0.4415603, -0.66486853, -0.15396407, -0.58162796, -0.22065032, 0.56802297, -0.18189423, -0.12452709, -0.21660958, 0.060673367, 0.4784735, 0.1929149, 0.16262011, -0.0377738, -0.15966393, -0.4363699, -0.110286325, -0.39826107, 0.007265804, -0.23936307, 0.40206456, -0.3570507, -0.047985937, 0.11977133, -0.4051962, -0.49764422, 0.6559729, 0.31384468, -0.19492577, -0.54344344, 0.33713427, -0.23944892, -0.29756346, 0.41400132, -0.21038449, 0.5149054, -0.27052236, -0.057082165, -0.05919707, -0.12850094, -0.005416998, 0.103429735, 0.34779748, -0.08613642, 0.31691015, -0.15095286, -0.53762716, -0.455349, -0.68489236, 0.59661436, -0.5684069, 0.41108695, -0.19068778, 0.8271613, -0.76346105, 0.22618616, 0.40255228, -0.31188118, -0.27351344, 0.28417972, -0.5309821, -0.046001926, -0.117059074, 0.39725545, -0.8896821, 0.090798974, 0.37839592, -0.248196, -0.2980965, 0.24506171, 0.022983542, -0.13029711, 1.12162, -0.38990203, 0.14271773, -0.06637344, -0.07783413, 0.32867405, -0.29551455, 0.6715383, -0.82159084, 0.5713294, -0.5699966, 0.19863613, 0.33357155, -0.122612506, -0.4533361, 0.80230325, 0.35817572, 0.13956806, 0.46398082, 0.28422284, 0.5592738, 0.30830488, 0.3665465, 0.120137535, 0.1790508, 0.28652614, -0.019607803, 0.10209918, -0.66798687, -0.051982164, 0.09268143, -0.110426605, -0.5374939, -0.19919045, 0.20204477, -0.08865711, -3.760974, -0.057240475, 0.030093342, -0.11654789, -0.08552552, 0.00010456145, 0.2868944, 0.61828893, 0.20933108, -0.026248021, 0.41458026, -0.3401486, 0.24979693, -0.5750937, -0.39170966, -0.52504647, 1.2440344, 0.4058294, 0.54015666, 0.374161, -0.26524195, -0.29826257, -0.5836172, 0.4827337, -0.37108043, -0.032997336, -0.20157106, 0.6073804, -0.19313449, 0.06773747, 0.38615313, 0.45805934, 0.25881156, -0.6475552, 0.30866957, -0.54154205, -0.6281798, -0.5442899, -0.73365206, 0.09253609, 0.16289134, -0.071841255, -1.1542033, 0.047009405, -0.20793085, 0.19960147, -0.16762628, -0.27436996, 0.13303219, -0.61554366, 0.23899396, 1.2662963, 2.0173419, -0.38155314, -0.32886747, -0.45830622, -0.33455, -0.13338485, -0.36074564, -0.05875096, 0.19490696, -0.0748431, 0.16487373, 0.48710692, 0.9381862, -0.006660737, 0.3063071, 0.4696423, 0.6493736, 0.32286903, 0.871932, 0.062120795, -0.16023673, -0.14769186, 0.07067345, 0.5567373, -1.0277222, 0.05318464, -0.28826413, 0.58160716, -1.1879241, 0.11314813, -0.37717542, -0.24645798, -0.39185897, 0.21310472, 0.05857454, 0.3063146, 0.29133794, -0.25079098, -0.32309008, -0.8285444, -0.33204985, -0.1867352, -0.16946018, -0.21254843, 0.14591058, 0.18768507, -0.48323777, -0.63645977, 0.01793166, -0.63001615, 0.4766787, -0.20801969, -0.45074758, -0.14646839, 0.26478937, -0.06044909, 0.26054326, -0.10268117, -0.13205132, -0.1142597, 0.31179956, 0.7714947, -0.053760912, -0.6371992, -0.3605249, -0.34752104, 0.23457336, 0.13708963, 0.38720846, 0.28731403, -0.33878103, 0.13869657, 0.5964636, 0.36602315, -0.20542133, -0.20341893, -0.28080165, 0.5151354, -0.6228845, 0.380481, 1.3685778, 0.12288606, -0.062701434, 0.022910396, 0.09725999, 0.1494226, 0.1525483, 0.2784941, -0.093318075, -0.29061595, -0.6863007, 0.33407095, 0.084165156, -0.92181605, 0.58421963, 0.42195868, -0.20358455, 0.4628577, -0.19328578, -0.60095835, -0.4461098, -1.0618964, 0.085204236, -0.532906, 0.20749481, -0.2918022, -0.56468487, 0.22164738, 0.21642953, -0.07736553, 0.14182936, 0.28742, -0.44016692, -0.14927776, 0.003573681, -0.10990286, 0.7135656, -0.21527135, 0.045519512, 0.39230442, -0.21420495, -0.115481265, -0.01821663, 0.14005005, 0.3101463, -0.41484466, 0.49499393, 0.3840172, -0.2606749, 0.49286786, -0.64473397, -0.18424965, -0.21946962, 0.40428802, -0.45381656, -0.3627207, -0.84680176, -0.27591917, -0.08725098, 0.18752217, 0.37694559, -0.5282755, -0.8385342, -0.13939597, 0.08116167, -0.08244795, 0.1559551, -0.024338543, -0.4150829, 0.9805928, 0.08285341, -0.3709964, -0.021286061, -0.19007449, 0.0036850173, -0.34955218, -0.16449745, -0.58148676, -0.3377262, -0.40662476, 0.019191014, -0.023655662, 0.14759795, -1.0930322, 0.3343905, -0.08915623, -0.15195732, 0.17075086, 0.20089771, 0.11875006, 0.64494365, -0.99927264, -0.17416525, -0.4744015, 0.32060036, 0.36350968, -0.66305834, -0.17400734, -0.66408575, 0.67829734, -0.3203598, -0.006830126, 0.53775555, -0.61173725, -0.29456952, 0.3942578, -1.037208, -0.25963837, -0.5667675, 0.8122695, -0.37559113, -0.18821341, -0.17697589, -0.1366962, 0.14871608, 0.19843483, -0.42457736, -0.1796289, -0.22531825, -0.028554196, 0.1749876, -0.0052854405, -0.2669207, 0.7360917, 0.10915938, 0.065278575, 0.035676952, 0.0068639317, 0.012329698, -0.22236957, -0.54937917, -0.13065615, 0.040979996, -0.5658873, -0.03344436, -0.22379501, 0.6086506, 0.16565573, -0.18128006, 0.34914935, 0.21523769, -0.25150925, 0.57529014, 0.33986413, -0.20277941, 0.47178623, -0.12563461, -0.34910548, -0.5664001, -0.49409494, -0.5157899, -0.395146, -0.22973102, -0.14309995, -0.10428357, 0.27391097, 0.6462993, 0.12757502, -0.34886754, 0.6366556, -0.41464165, 0.0067659714, -0.057860374, -0.08390511, 0.25502822, 0.09306105, -0.5152666, 0.09844337, 0.47291222, -0.3264241, -0.3551872, 0.11799148, -0.15987031, 0.24578214, 0.16168202, -0.6961306, 0.0707229, -0.00031693777, 0.19129579, 0.36130795, -0.5402036, 0.078703225, -0.29728958, -0.26098248, 0.01145079, 0.3069773, -0.25963512, 0.2220797, -0.06826227, -0.7783866, -0.056150366, 0.2320124, -0.23526452, 0.23453005, -0.02758097, 0.5427658, -0.065848015, -0.39856866, -0.21126784, -0.47390047, -0.23321123, -0.5332894, 0.036018085, -0.43694696, -0.32722795, -0.3667349, -0.16019177, 0.08248484, 0.35998312, -0.4016541, -0.4562935, -0.35515273, 0.36794722, -0.012866612, -0.9910183, -0.15667947, -0.24369802, 0.5980529, -0.029227661, -0.41222143, -0.1191821, -0.4314746, -0.25565997, -0.3339101, -0.33139923, -0.32154232, 0.28328943, 0.028994171, -0.054510683, 0.35907915, -0.14496505, 0.0036125456, -0.07543171, 0.45916775, 0.16649, -0.10299764, 0.1859181, -0.28756797, -0.33274493, 0.01823124, 0.4711297, -0.4521892, 0.30925414, -0.2714907, -0.015838863, 0.52073884, 0.10975667, -0.053804893, 0.6356351, -0.13235201, 0.4733903, -0.42790118, -0.27084395, -0.0579873, -0.041609358, 0.6550974, -0.14096536, 0.073578425, 0.4363846, 0.013544291, 0.7893789, 0.7771787, -0.15826498, 0.12581775, -0.30645618, -0.51175374, -0.40299907, -0.08907503, -0.6242006, 0.31966913, 0.44481778, 0.49338493, 0.073207654, -0.102799855, -0.021420628, 0.19904357, 0.26533514, -0.20766108, -0.461946, -0.56138396, -0.15082414, -0.1741036, -0.12037659, -0.37045503, 0.440953, -0.46439517, 0.062508844, 0.18189682, 0.43318138, -0.0448973, -0.291212, -0.39654598, 0.5755127, 0.033814996, -0.4648349, -0.3774109, 0.35626265, -0.7092691, -0.6509163, 0.07515537, 0.17324461, 0.4355155, -0.16723557, -0.25467446, 0.15517701, 0.10586074, 0.14134547, 0.3211905, 0.39284912, 0.2929478, -0.19905113, -0.46096075, 0.033797275, -0.9705747, -0.63393646, -0.16934162, 0.36080328, 0.19255958, -0.073194005, 0.25432423, 0.029424995, 0.09247505, 0.5266443, -0.42796037, 0.08653995, -0.19220823, -0.26598555, -0.058502242, -0.061629057, -0.2888873, -0.4702473, -0.53934354, -0.09177532, 0.040143076, 0.06869487, 0.236308, 0.48723665, -0.066301495, 0.13024636, 0.37007883, 0.6110041, -0.090068124, 0.11726304]</t>
         </is>
       </c>
     </row>
@@ -1200,18 +1364,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Texture analzyer를 추천해주시겠어요?</t>
+          <t>strain 의 의미는?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>다양한 회사에서 취급하고 있는데, 식품회사에서는 stable micro systems 기기를 많이 보유하고 있네요.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>[0.40615597, -0.4678164, 0.36835125, -0.18737799, -0.15115961, 0.24550566, 0.31683743, 0.34222704, 0.30410838, -0.5613791, -0.35366064, -0.5993696, -0.27869394, -0.30050066, -0.11303691, 0.12103528, 0.6495816, 0.1340267, -0.0016932621, -0.16197045, -0.7575576, 0.014211473, 0.23720525, 0.44123673, -0.41227555, -0.5552428, -0.09451369, 0.6391692, 0.17153022, -0.32509914, 0.034418017, -0.2698626, 0.0609411, -0.22834128, 0.14511208, -0.085379064, -0.7945928, -0.6315198, -0.09774973, -0.31160298, -0.03479758, -0.2152973, -0.043585863, -0.09483582, -0.052422315, 1.0284271, -0.5025873, 0.31116796, -0.26508123, 0.010707363, -0.5013893, -0.027199155, 0.4224596, 0.53218305, 0.0028193193, -0.09836712, -0.5868992, -0.5422228, 0.30474195, -0.56837875, 0.5545597, -0.21781455, -0.2600957, 0.2956871, 0.13141511, -0.21376742, -0.43502402, 0.28062055, -0.17398672, -0.107234076, 0.31008604, 0.6918503, 0.5320828, 0.06087066, -0.29686722, -0.45878747, 0.20284458, 0.18224217, 0.7673709, 0.26280278, 0.032074917, -0.6575677, 0.01837415, 0.24691148, -0.484076, -0.050103582, 0.027759438, -0.62226045, -0.6727679, -0.37764853, -0.5906484, -0.19514067, -0.23970574, -0.02780123, -0.43690228, -0.34451666, -0.19191492, 0.02936477, 0.46945372, -0.3374382, -0.18297136, 0.04893335, 0.09962559, 0.45227712, -0.022679452, 0.014922504, -0.21133563, 0.17727424, 0.49327463, -0.1787059, 0.51292825, -0.033457845, 0.4762671, -0.10548042, 0.29787707, 0.473799, -0.24533902, 0.5609679, -0.14497805, 0.6991228, -0.09946755, -0.2516026, -0.09472114, 0.7578363, -0.228766, 0.25157523, 0.5121976, 0.3135948, 0.04036969, -0.5706786, -0.26091042, -0.3095411, 1.0416542, -0.38317728, -0.4309906, 0.20543095, -0.101776026, -0.5636824, 0.63988787, 0.018520528, 0.06999593, -0.55947846, -0.1274345, 0.028931206, -0.053934325, 0.46028212, 0.3774559, -0.33265978, -0.18096228, -0.39319316, -0.3661121, -0.3475637, -0.4301598, -0.26894125, -0.16066253, -0.47685573, 0.0077627213, 0.20160195, 0.15268455, 0.30928385, -0.24379194, 0.50049186, -0.28239027, 0.17966996, 0.10228566, -0.1726152, 0.8555029, -0.14825211, -0.15756196, -0.43485415, -0.33808705, 0.20916326, -0.046895698, 0.09449023, -0.04373056, 0.29159465, 0.41855183, 0.40258923, -0.3434023, -0.44503462, 0.23606256, 0.40013966, -0.19405179, 0.033563167, 0.04244637, 0.15963198, 0.58759886, -0.57148045, -0.46807772, -0.28559852, 0.17366445, 0.19463761, -0.24502498, 0.4725748, 0.44487682, 0.25773513, -0.00061647163, -0.3312268, 0.3588468, -0.1355266, -0.49860322, 0.22097543, 0.049360428, 0.96414584, 0.5063319, 0.08823817, -0.2731, -0.21300825, -0.06731095, -0.03222171, -0.69171035, 0.1997786, 0.24345864, 0.47728845, 0.4513707, -0.35932714, 0.53717476, 0.08574991, -0.045918234, -0.13139784, 0.25072664, -0.08748713, 0.48862082, 0.123531796, -0.092837796, -0.6165059, 0.45248574, 0.40899196, 0.45039567, -0.16745181, -0.22211038, -0.7091313, -0.12869224, -0.5084507, 0.8723369, -0.37756568, 0.47750258, 0.45812908, -0.019171214, -0.8627278, 0.16181405, 0.63154656, 0.28129172, 0.029159276, -0.014891175, 0.17281176, 0.17686574, -0.3390703, 0.82813793, -0.1921525, 0.395921, 0.3816674, -0.6264243, -0.52127546, 0.4612891, 0.12511419, -0.09973638, 0.27370176, -0.5777968, -0.6097385, -0.09438271, 0.3885224, -0.55505735, -0.8152137, -0.61403495, -0.62024385, 0.06830386, -0.73545146, 0.42242166, -0.19380721, -0.16723542, -0.34567216, -0.11639256, -0.19986747, -0.31301212, 0.082859956, -0.2212028, -0.11522056, 0.26476747, -0.29228547, 0.14897333, 0.27899182, 0.08283594, 0.39191908, 0.22158994, -0.4665903, -0.17537041, -0.23107283, -0.5926053, -0.6380521, 0.29042295, 0.027557446, -0.011801069, -1.3849205, 0.60120374, -0.14111805, 0.07024758, -0.30540425, 0.18645927, -0.32218623, 0.5217764, 0.010427861, 0.08753624, 0.1933551, 0.41076764, 0.33379826, -0.31662816, -0.5580412, 0.18073773, 0.45002607, -0.042021677, -0.0057241665, -1.0696117, 0.0054327087, -0.0060040434, -0.15059955, -0.035407607, -0.030876247, -0.1344397, -0.26106325, -0.7822326, 0.17177968, 0.11174899, 0.18711318, -0.32578334, -0.02569478, -0.25871438, -0.27281567, 0.3064605, 0.093099095, -0.41296923, -0.48870087, 1.0376562, -0.30998337, 0.18600237, -0.47330606, -0.0009794487, -0.7680888, 0.368357, 0.25478232, -0.15533666, -0.037082538, -0.65743107, -0.37797427, -0.31497252, 0.2656548, 0.16238193, -0.06125149, 0.4457696, -0.222369, 0.15351126, -0.19867332, -0.5566854, 0.54208624, 0.2951743, 0.22851023, 0.49086404, 0.056295395, -0.49105203, -0.24822702, 0.40243655, -0.11537582, 0.34936708, -0.3805391, 0.29690602, -0.18660401, -0.8333947, 0.400875, -0.28519997, 0.6967105, 0.1956294, -0.3408668, 0.17422824, -0.00054330146, -0.15335692, 0.28426433, -0.5856096, -0.049503785, 0.1630744, -0.24014723, 0.75839067, 0.6758281, 0.47636995, -0.7960027, 0.040223222, -0.69499063, -0.4475425, 0.2739638, 0.1349318, 0.26761508, 0.06107408, -0.85305834, 0.2470983, -0.32090774, -0.13941535, 0.13537781, 0.3208315, 0.4870598, -0.21968573, -0.042250644, 0.3282525, 0.778534, 0.037188843, -0.44058454, -0.15818582, 0.5953344, 0.50417227, 0.12560491, -0.43663064, -0.39721432, -0.4227071, -0.51805997, -0.7504167, 0.39616513, -0.013410821, -0.39393365, -0.69792455, 0.18961926, 0.15624459, -0.18804742, 0.2947679, -0.7569146, 0.104294874, -0.3646125, -0.42828897, 0.32700863, -0.21863644, -0.1605118, 0.27296758, 0.23006241, 0.41571137, -0.2328157, 0.29086387, -0.054653656, 0.3321204, -0.09136023, 0.14646508, -0.2486504, -0.7627573, 0.2348923, -0.044533946, 0.010024642, 0.19635904, -0.19743462, 0.1454483, -0.097092666, 0.82257587, -0.16802923, -0.243122, -0.75994873, -0.59697425, -0.7003288, -0.5270043, 0.5075813, -0.050214194, 0.03172095, 0.33062527, -0.77369165, 0.07105055, 0.13314508, 0.07202174, -0.042200617, -0.23636058, 0.08222141, 0.31855282, 0.39439237, 0.057495035, 0.35060957, -0.4268369, 0.21523385, -0.28779358, -0.4552169, 0.28629294, 0.22821589, 0.34501347, -0.29919156, -0.38295594, -0.2443809, -0.40516487, -0.2297558, -0.89222896, 0.03429746, 0.33433518, -0.017997349, 0.09353421, -0.15678796, -0.37155715, -0.48595038, 0.28777698, 0.4549446, 0.50658274, 0.2247441, -0.133475, -0.5957059, 0.5884636, -0.117639616, -0.30458713, 0.4294149, 0.34922364, -0.45753604, 0.19498272, 0.28242174, -0.022961322, -0.07223316, 0.18290053, 0.3419354, 0.037708394, -0.43454677, -0.27357978, 0.33581728, -0.25008413, -0.39448714, -0.262779, 0.75383395, 0.46563184, 0.6411407, 0.23938866, -0.24300846, 0.34293285, 0.37444735, -0.07222536, -0.17714518, -0.040272128, 0.14647447, 0.2199582, 0.28257683, -0.36239806, -0.5696407, -0.19629723, -0.49292174, -0.036389753, 0.6072961, -0.08631772, 0.41918895, 0.16417111, -0.76438093, -0.1316658, 0.29422784, 0.4846955, 0.24689996, 0.09831226, 0.29350075, 0.7190922, 0.09087369, 0.17603531, 0.4415419, 0.7736696, 0.39183688, 0.37051, -0.5724759, -0.68876517, -0.4301134, -0.3129166, -0.33349967, 0.05836131, 0.45948926, -0.32064193, 0.14253771, -1.0124106, -0.11424233, -0.55640036, 0.4315663, -0.14277633, -0.33526042, -0.256049, 0.4167875, -0.35527125, 0.15414633, 0.08850024, 0.066635996, 0.05939564, 0.36892486, 0.22611798, 0.2982832, -0.036995012, -0.32268986, -0.18249695, -0.64581317, -0.2718471, -0.44465593, 0.15258676, 0.8072328, 0.12501252, -0.4590237, 0.57406116, -0.20985012, -0.94370764, 0.14772983, -0.41412354, -0.004508274, -0.61065084, -0.1643847, 0.036183808, 0.71505135, -0.39647514, -0.28366807, -0.049156938, -0.52922916, -0.47985655, 0.24048214, 0.3594512, 0.6226284, 0.060344428, 0.60234207, -0.38184017, -0.48929948, 1.0468081, -0.14108339, -0.52651054, 0.16373001, -0.11742876, -0.3081222, -0.3273959, 0.047475927, -0.33515215, -0.30699834, -0.5954988, -0.26495108, 0.49340272, 0.27107057, 0.07781297, -0.041869923, -0.44148204, -0.26212224, 0.116936184, 0.33441207, 0.08407111, -0.0750494, -0.14270127, -0.50732344, 0.7794745, -0.25019678, -0.027718393, -0.45775118, -0.25777307, -1.0359588, 0.2397319, 0.096004434, -0.16230662, -0.24870998, -0.48343578, -0.11327963, -0.30515325, -0.21822958, 0.3892008, -0.17031443, -0.090325855, -0.23697698, -0.19470197, -0.5685291, -0.64268506, -0.27708116, -0.3062904, -0.13873012, 0.35287473, -0.20515399, 0.2397842, 0.4653469, -0.39836144, 0.065465264, -0.18897443, 0.7631173, -0.023006046, -0.42406243, -0.35982916, -0.55963284, -0.89987624, -0.5463858, 0.48391622, -0.27296934, 0.5847912, -0.18281828, 0.26770017, 0.453309, -0.05550609, -0.34133318, 0.7402832, -0.052271497, 0.79953665, 0.010521115, -0.024857447, 0.28183675, 0.83233243, -0.32357794, 0.09345834, 0.4693057, -0.30330747, 0.14833164, -0.36827636, -0.13942878, -0.2950585, -0.1659509, -0.05411465, -0.54948586, 0.65988326, 0.82457906, -0.050700452, 0.34756154, 0.20042336, -0.14522377, 0.7068856, 0.4499244, -0.7616488, -0.69762796, 0.11756077, -0.4831922, 0.0407343, -0.5302828, -0.2877435, -0.35347724, -0.81178826, -0.3451665, -0.18218505, 0.016754188, 0.28251448, -0.5775712, -0.71491736, 0.1656477, 0.02239876, -0.38915515, -0.1978633, -0.34587651, 0.14365003, 0.075353876, -0.20871241, -0.053596742, -0.11059643, -0.4220923, 0.272276, 0.29847407, 0.08588911, 0.04298271, -0.18179391, -0.38548845, -0.32657376, -0.016976133, 0.1290373, 0.07784143, 0.21751569, -0.020774594, -0.025573056, 0.14213155, -0.7086809, -0.2372689, 0.80143034, 0.45226344, -0.0966696, 0.21773851, 0.48037872, -0.055360865, 0.47517976, 0.15888195, -0.24683857, -0.034296006, -0.1749403, 0.10632056, -0.21740837, -0.70701015, 0.074715726, -0.24675237, -0.14043348, -0.36550102, -0.046441738, 0.00021116984, 0.64623785, 0.67586136, -0.039726544, -0.3861247]</t>
+          <t>변형률로서 어느 정도 시료를 변형시킬 지를 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[-0.41583028, -0.10254084, 0.1343176, -0.24501586, -0.19841595, 0.19919538, 0.17339945, 0.16274561, 0.035596367, 0.19718918, -0.25960404, -0.61195004, -0.31070262, 0.73155826, -0.16177349, 0.190048, -0.07747321, 0.23529324, 0.69257015, -0.4945438, -0.33992183, 0.35352853, 0.20918132, 0.30182314, -0.019824542, -0.008791167, -0.1196607, 0.16864707, 0.40175432, -0.303791, 0.77911454, 0.16796893, -0.122984536, 0.48935556, 0.527293, 0.25147453, -0.8129411, -0.14492165, -0.34054235, -0.48195267, -0.073341876, 0.0045252927, -0.2667371, 0.13515948, -0.4693322, -0.33671308, 0.030952225, 0.30122682, -0.2229799, -0.5393962, -0.035578035, 0.110047564, 1.034914, -0.106676154, -0.41831473, -0.62817705, 0.18771122, -0.60268605, 0.039584894, -0.053955466, 0.6125979, -1.1265242, 0.04592937, 0.8666805, 0.28455916, 0.30736515, -0.56319445, 0.56368756, -1.0403208, 0.016544547, 0.06490959, 0.49395484, 0.33247507, -0.4893182, 0.41697484, -0.22337055, -0.031845152, -0.02287694, 0.9164453, 0.48865193, -0.14904885, -0.4589495, 0.3081164, -0.86550546, 0.20438354, -0.41014996, -0.36917472, -0.33046472, -0.63446647, 0.36340895, -1.0709311, 0.11498188, -0.24429105, 0.44111562, -1.0233591, -0.31010225, 0.063261226, -0.0638216, 0.5690818, 0.45565805, 0.21464644, 0.51349306, -0.6717438, 1.0083468, 0.46632364, 0.1413553, -0.43933123, 0.26538375, 0.75848913, 0.28961125, 1.084021, 0.044576224, 0.5783758, 0.062160905, 0.2528588, 0.3064531, -0.52606946, 0.3356028, -0.40373185, 0.31422, -0.092818804, -0.6424292, -1.1893334, -0.059059612, -0.23663995, 0.34264222, 0.26269063, -0.43612403, -0.06894499, 0.14487633, -0.011114035, -0.105180904, 0.19321555, 0.24733965, -0.27554816, -0.42416257, 0.17293623, 0.17295235, 0.35318086, 0.6502171, 0.21112207, -0.022502631, 0.2461669, -0.04916679, -0.11026488, -0.42612743, 0.39966983, -0.42130125, 0.07176229, -0.107752696, 0.05987846, 0.36836606, -0.43041676, 0.22127312, 0.6809872, -0.6751746, -0.5850983, -0.2999612, -0.07223927, -0.026042197, -0.58556414, -0.58229434, -0.0824268, 0.11111207, -0.26146597, -0.18843032, 0.5609256, -0.17741318, -0.038073163, -0.9284536, -0.03908777, 0.020894442, 0.03126026, -0.40407738, -0.86450136, -0.2846604, -0.20520665, -0.046118848, -0.021322448, -0.30732086, -0.010534603, 0.37212408, -0.31034857, -0.14067447, -0.1611974, 0.26106527, -0.038518593, -0.1929045, -0.6071297, -0.5133422, 0.29825658, 0.21531948, -0.11660654, 0.22864115, -0.40344626, 0.67770195, 0.17958236, 0.35481244, -0.35006553, 0.14494124, -0.4625112, 0.16572027, -0.1223332, 0.51696694, -0.47748017, 0.9378075, -0.06825503, 0.09050325, 0.14691271, -0.64095587, -0.4670682, 0.7705914, 0.45033228, -0.39424145, -0.116199724, -0.43479025, -0.36894697, 0.007874786, -0.3248046, -0.6936169, 1.1418244, -0.39519274, 0.9351113, -0.021768473, -0.42474997, -0.06119392, -0.10647888, 0.114708796, -0.5209377, 0.05281163, -0.49513665, -0.5827304, -1.0694392, -0.24355495, 0.513907, -0.5373463, -0.04572781, 0.15317796, 0.4346196, -0.6876002, 0.3328241, 0.34208104, -0.21972539, 0.117919266, 0.24776344, -0.012948006, 0.16927657, -0.45779374, 0.20315929, -0.352406, 0.0859059, 0.61550057, -0.08491271, 0.25247425, 0.2162359, -0.18386526, -0.14291236, 1.1113139, 0.16537976, -0.023811191, 0.030640803, 0.33787292, -0.033532016, 0.18972486, 0.28459814, -0.15307404, 0.466783, -0.83833826, 0.36062077, -0.05600644, -0.11420076, -0.37648767, -0.13771838, -0.14361067, 0.40557185, 0.5560968, -0.2631704, 0.11713977, 0.60836995, 0.014986426, 0.39148828, 0.080105275, 0.3104395, -0.1225086, 0.17668705, -0.13587451, 0.5158746, -0.050385714, -0.08170812, -0.5449525, -0.36067617, 0.22620992, -0.040933046, -1.977021, 0.08820482, 0.16759053, -0.7911519, -0.6437316, 0.0570561, 0.6506461, 0.33267143, 0.09641126, -0.036119647, 0.7060032, -0.48922038, 0.665371, -0.6127856, 0.052099477, 0.06984636, 0.93617177, 0.89669853, -0.16307749, 0.08136687, -0.2623946, 0.20763978, -0.46392706, -0.15603398, -0.41814056, -0.24768773, -0.26347038, -0.18929158, -0.067479014, 0.25882733, 0.12282102, 0.5215098, 0.29568142, -0.80594295, -0.17487292, -0.48844022, -0.22018082, -0.629169, -0.5905994, -0.07516383, 0.56112796, -0.32325011, -0.30473858, 0.016441591, 0.13769716, 0.19436276, -0.617474, -0.32431266, 0.03456818, -0.6940569, 0.24574141, 0.2651721, 1.1904559, -0.27478206, -0.2319612, 0.29044026, -0.23789302, -0.43896908, 0.023208663, 0.2864995, 0.26360524, 0.68955696, 0.4810633, 0.46978843, 0.47271842, 0.2443524, -0.50582725, 0.2936552, -0.35994643, 0.039858416, 0.73899746, -0.6786335, 0.6160114, -0.67432, -0.12459306, 0.3948923, -0.43393376, -0.15460384, -0.14579356, 0.6330639, -0.19923604, -0.8839502, -0.10555403, -0.6606219, 0.52861685, -0.12703516, -0.034374524, -0.06262637, 0.4984067, -0.18995288, -1.3935438, -0.1464339, -0.513364, -0.26997024, 0.30052072, -0.43663836, -0.12771073, 0.08362986, 0.16795577, 0.031060342, -0.55497545, -0.7710523, -0.711181, 0.1389101, -0.4784818, -0.53521985, 0.013182711, -0.22925013, 0.3057454, 0.5285002, 1.1083215, -0.017289806, -0.023363797, 0.8756643, -0.70651495, -0.3121482, -0.4367401, -0.23532048, -0.3225528, 0.07340104, -0.6819079, -0.27474308, 0.009629395, -0.055831555, -0.014315449, -0.49833763, -0.23736045, -0.54328686, -0.24442388, 0.6086009, 0.35810032, 0.5602088, 0.73335403, 0.13015975, 0.28270042, 0.15705228, -0.17958999, 0.35176337, -0.001993333, -0.049346328, -0.069115445, 0.23269449, -1.4209236, 0.30514178, 0.09753448, -0.101339474, 0.08031257, 0.49125463, 0.4562792, 0.48910293, 0.32757193, -0.5893865, -0.42030227, 0.13443592, 0.07682416, -0.6578809, -0.0404132, 0.25522965, -0.50801915, -0.18676098, 0.48306206, -0.3199314, -0.13239597, 0.44797176, 0.12779218, 0.0064664325, 0.34826684, -0.14487383, -0.122269005, 0.13644977, -0.43213528, 0.48499584, 0.20305988, 0.1471351, 0.0762255, 0.121050395, 0.6002101, 0.1901747, 0.055180386, 0.48628148, -0.27941608, 0.23943275, -0.5573461, -0.12645344, 0.15304491, 0.20320019, 0.22057654, -0.19204222, -0.98818916, 0.3007965, -0.0981313, 0.2275221, 0.16469908, -0.045287475, -0.11786193, 0.5713221, 0.41633725, -0.17278293, -0.030701641, -0.16032688, 0.036698416, 0.84310204, -0.10320684, -0.01710916, -0.05041167, -0.23341224, 0.50934, 0.086793065, -0.21424507, 0.11747921, 0.036771163, 0.20954381, -0.23707269, -0.0063343886, 0.0760279, -0.034579463, -0.0067064352, -0.21458332, 0.2094816, 0.5568089, 0.24343991, 0.058998235, 0.76934487, -0.2245883, -0.36006898, -0.36927575, 0.2987973, -0.42156243, -0.1415652, -0.27177134, 0.019206798, -0.42849785, 0.28755102, 0.5471851, 0.11141789, -0.20414147, -0.09100123, -0.021219077, -0.67754, -0.015297508, 0.2697752, 0.5717847, -0.41928828, -0.1988627, 0.38835484, 0.27042446, 0.7065105, -0.029238336, -0.84042215, 0.4880215, 0.28092974, -0.28785598, -0.03604512, 0.23490986, -0.15101856, 0.04575893, -0.3151448, -0.04968449, 0.100329965, -0.36412904, -0.6781598, -0.06875521, -0.13521092, -0.3416279, -0.13141903, -0.63777703, 0.20108767, -0.18518, 0.46312934, -0.2916824, -0.11764246, 0.14212273, -0.19404677, -0.14133021, 0.44722086, 0.07553689, -0.099550456, 0.22471774, -0.12113799, 0.031730462, -0.49543506, 0.031591203, -0.46298388, -0.7716133, 0.045118175, -0.3877201, -0.06382703, -0.002144469, 0.22136045, -0.045531854, 0.0020702407, 0.30262792, 0.07124951, -0.295434, 0.6075544, -0.14409792, -0.41367865, 0.17698587, -0.62237847, 0.52407944, 0.12982489, -1.2700095, -0.9092868, -0.20833716, -0.6070532, 0.04624115, 0.2182943, -0.5133442, 0.64694136, -0.07668135, -0.79758847, -0.7708584, -0.42499617, 0.5488925, -0.3261625, -0.75311923, 0.54306, -0.04086735, -0.045394357, 0.45032024, -0.14199288, -0.013914093, 0.23277673, 0.15674521, -0.122767866, -0.14760096, 0.74808186, 0.11246185, -0.50334, -0.1471951, 0.4549748, -0.39083558, 0.062120482, -0.048410874, -0.3907534, 0.008953299, 0.070632644, 0.36417997, -0.8046095, 0.19844022, 0.05669744, -0.2666248, -0.42563373, 0.07944057, 0.7672481, -0.53567135, -1.458116, 0.16911146, 0.57692826, -0.14178278, 0.37598056, -0.42500323, -0.5687194, -0.69565827, -0.65686506, -0.31146634, 0.003334677, -0.40204778, -0.26008186, 0.78743774, -0.28446954, 0.26041558, -0.4537029, 0.17176291, -0.34407037, 0.19697095, 0.086289845, -0.25050655, -0.61769104, 0.022716248, -0.26649562, -0.3538254, -0.35309675, -0.6316123, 0.16397925, 0.3053986, 0.48185527, 0.254039, -0.7307719, 0.44813228, -0.025818788, -0.91172296, 0.46579581, 0.2836054, -0.27089635, -0.13059378, -0.22163996, 0.02505595, -0.33411327, -0.20847447, 0.4642789, -0.6476226, 0.5285143, 0.20112965, -0.32475433, -0.098515615, 0.50188714, -0.18687902, 0.073249355, 0.38804746, -0.8385717, 0.6072394, 0.58999485, -0.3234462, -0.061670687, -0.4680254, -0.062138196, 0.113380425, 0.4342738, -0.48765397, -0.19348395, -0.12548071, -0.21987747, -0.21138746, -0.31013516, -0.07407559, 0.58362925, -0.08258323, 0.06456876, -0.27855536, 0.61047894, 0.28772548, -0.31893352, 0.14621305, -0.22527692, 0.098254375, -0.4718881, -0.39215434, -0.35497963, -0.29958457, -0.45619524, -0.1172568, -0.08677294, -0.17445062, -0.41329023, -0.047108628, 0.37505987, 0.24070631, -0.10673182, -0.23796375, 0.21138275, 0.23842221, -0.40842092, 0.039698683, -0.24787186, -0.42510498, -0.22791922, -0.3225127, -0.32679766, -0.051364623, 0.120734856, 0.1613805, 0.66750777, -0.31563184, 0.5566373, 0.3198958, -0.27678975, 0.01000758, 0.19369574, -0.42126116, 0.21031976, -0.5033942, -0.12535813, -0.5935892, -0.14906901, 0.80965436, 0.5654305, 0.4018773, 0.09917912, -0.19775149, 0.31710666, 0.43255064, 0.19955188, -0.35694832, 0.475355]</t>
         </is>
       </c>
     </row>
@@ -1221,18 +1390,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>어느 회사 rheometer를 구입하는게 좋을까요?</t>
+          <t>변형률의 의미는?</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TA instruments, Hakke 것이 많이 사용되고 있는 것 같아요.</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>[-0.26325992, 0.030508773, 0.14852566, -0.43588123, -0.09173106, -0.087075695, 0.67816496, 0.24581449, -0.33277342, -0.03614059, 0.17136818, -0.5539838, 0.032041162, 0.18457137, 0.33948728, 0.014953717, 0.22905254, -0.12721168, -0.27456123, -0.16839492, 0.19439492, 0.011285743, -0.05060803, 0.27976948, -0.46163154, -0.27584445, -0.019484535, 0.5750194, 0.57217455, 0.5109209, 0.51800215, 0.5373641, -0.069674216, -0.3596406, 0.13466184, -0.059518836, -0.35989732, 0.18047518, -0.55606866, 0.084134705, -0.06472666, 0.31728083, -0.08966666, -0.29470327, 0.95208156, 1.0900658, 0.59516454, 0.2372077, -0.7770077, -0.073441334, -0.5247561, -0.20945135, 0.62141013, 0.4588045, -0.48669124, -0.035556287, 0.014407571, -0.08139846, 0.38134953, -0.04388896, 0.251786, -0.18859024, -0.28610444, 0.10808054, 0.14889273, -0.17313719, 0.12503773, 0.24649286, -0.20996669, 0.30311644, -0.56540924, -0.010065882, 0.41581434, -0.8091214, -0.032227468, -0.34736285, 0.4648988, 0.03289373, 0.8975772, 0.4584017, 0.06958366, -0.3894906, -0.8106827, -0.065925665, -0.17522007, 0.029982045, -0.30100057, -0.20325436, -0.115968116, 0.208101, -0.70177037, 0.14329834, 0.49759507, 0.0027424307, -0.3924585, 0.06921718, 0.38163754, -0.12355503, 0.5722809, 0.10167953, 0.22628367, -0.09158391, -0.26255503, 0.413338, 0.31806442, -0.35728085, -0.035150267, 0.44615763, 0.37530816, -0.3856469, 0.26506066, -0.25425747, 0.11833846, -0.08663905, -0.75085896, 0.7174144, -0.5593002, 0.05087643, -0.5165816, 0.5993394, 0.2914644, 0.16480222, -0.011630174, 1.1681901, -0.111441486, 0.28217116, 0.7255866, 0.27433747, 0.30902666, -0.7824056, -0.3268745, 0.28358054, 0.11870052, 0.099170014, -0.008788919, -0.4991795, 0.3511896, -0.29264903, 0.7602756, 0.23712981, -0.26200262, -0.74718434, 0.35645458, -0.20632462, 0.31222564, -0.07454567, 0.082531616, -0.5657162, 0.14712998, -0.39765576, -0.37048894, -0.23798768, -8.6977205e-05, -0.3968366, -0.13766944, 0.31982064, -0.3287428, -0.07357418, -0.27997413, -0.85470223, 0.3613093, -0.069472834, 0.06037225, 0.4532496, -0.20840664, -0.08719186, 0.8938048, -0.39231765, 0.102721244, -0.7657072, -0.3340463, 0.122735836, -0.29971334, -0.11349075, 0.2955306, 0.6142907, -0.028176837, 0.33982205, -0.770941, -0.91278857, -0.23849821, 0.88111824, -0.46070066, 0.16552909, 0.14584732, -0.08658503, 0.27618837, -0.5709375, -0.76456296, 0.2043946, 0.5866268, -0.16205162, 0.11659352, -0.6440056, 0.45454746, -0.39981908, -0.396705, -0.5278929, -0.24654277, -0.02321389, 0.004254028, 0.014106061, 0.027797446, 0.6360173, 0.64765245, 0.20070894, -0.25112262, 0.27375475, -0.16330974, 0.2630609, -0.05573489, 0.35729915, 0.5711942, 0.64371485, 0.22647256, 0.14225048, 0.036982723, 0.03656526, -0.22888105, -0.22128409, 0.6062643, -0.22698534, 0.0816317, -0.9082779, -0.23207216, -0.62959594, 0.22082031, 0.22840495, 0.5134177, 0.5119682, -0.33948958, -0.31085923, -0.25789657, -0.75397456, 0.7060204, -1.0984838, -0.07474083, -0.29650015, -0.4152395, -0.6334262, 0.26569712, 0.5208251, 0.34517464, -0.12561546, -0.26727143, 0.30278936, 0.16025133, -0.17274827, 0.7635963, -0.17227694, 0.59345156, 0.5697169, -0.36882484, -0.1889555, -0.14286828, -0.47236943, 0.52921957, 0.2933352, 0.46347454, -0.20970641, -0.52336395, -0.00045652426, -1.0357589, -0.20478371, -0.030889904, -0.72051495, -0.11352162, -0.9198854, 0.447541, -0.33463997, -0.4594314, -0.40666234, 0.5076027, -0.2009307, -0.26131347, -0.045467213, -0.6899371, -0.039580133, 0.061044272, 0.14590886, 0.07238549, 0.2816925, -0.2743835, 0.5425249, -0.23765129, 0.38117757, -0.10400363, -0.22867048, -0.5053712, -0.7078404, 0.36180383, -0.12114337, 0.19510369, -1.0106232, 0.10123492, 0.058739726, -0.4439119, -0.3659098, -0.38702232, -0.07422054, -0.122441545, 0.43083835, 0.2922116, 0.8211428, -0.4478259, 0.31810284, -0.09781551, -0.041279487, -0.67006326, -0.27916628, 0.057910744, 0.15896063, 0.046300624, -0.61291075, -0.045966, 0.17498317, -0.19994159, -0.1699015, -0.045585543, -0.17962408, 0.16911626, -0.3398077, 0.20702304, -0.5230614, 0.08467079, 0.79824036, -0.02293868, -0.040514577, 0.26624942, -0.18330906, -0.7105153, -1.0288317, 0.63879246, 0.03782188, 0.77753186, -0.5949451, -0.75217885, -0.5029033, 0.4178964, -0.45842278, -0.06282856, -0.21915613, -0.2539557, -0.20548904, 0.018290695, 0.5782831, -0.051610805, -0.025099441, 0.23854049, -0.8034051, 0.62320596, 0.046038717, 0.008364521, -0.34668326, 0.578835, 0.22190545, -0.032130614, 0.397622, -0.26171407, -0.08203212, 0.07283032, -0.1182748, 0.57446045, 0.5109124, 0.0535064, -0.2880613, -0.42318788, 0.7743725, 0.03153008, 0.38987297, -0.2517612, -0.5634223, -0.31907678, -0.46325707, 0.1716434, -0.17397362, -0.84430844, -0.08065587, 0.3726982, -0.52707577, 0.39211065, 0.5017946, -0.37023118, -0.50592613, 0.5308695, -0.68511724, -0.3872801, -0.70058554, -0.24568415, 0.51538366, 0.01051545, -0.56825167, 0.1841141, 0.26881927, -0.32255244, 0.71808964, 0.0073956857, -0.043118022, 0.20756747, -0.009632967, 0.25311488, 0.9214172, -0.25244227, 0.06462531, 0.18577616, -0.11579069, 0.5815814, 0.4273661, -0.12282435, -0.2857143, 0.037679955, -0.8425267, -0.17523378, 0.20108163, 0.0412112, -0.03416665, -1.34273, 0.35391146, 0.15264402, -0.30983615, -0.044856716, -0.92478514, 0.48142338, -0.17481166, 0.14807707, -0.41139966, -0.05791606, -0.59322584, 0.6197635, -0.011727053, -0.10371039, -0.18050615, -0.34685954, -0.28401524, -0.29376018, -0.16866717, 0.16435854, -0.46049905, -0.7456944, 0.25036886, -0.12947649, -0.0937806, 0.35177147, -0.04909359, 0.36120868, -0.032102846, 0.18414046, -0.4634707, -0.67900497, -0.052897062, 0.07201964, -0.32764125, 0.4255891, -0.28735742, -0.22698782, 0.34309846, -0.14941645, -0.28062958, -0.08367233, -0.043817047, 0.5843923, -0.027324278, -0.25459826, -0.3302308, 0.57994586, 0.24202706, -0.12800874, 0.5039299, -0.28241244, 0.70558715, -0.3989475, -0.30138618, -0.19683743, 0.4903373, 0.046191074, -0.051696733, 0.039078396, -0.1424277, -0.29465166, -0.5259125, -0.46218625, 0.10525465, 0.13063002, 0.13956487, 0.044607706, -0.21389768, 0.22268647, -0.20484926, 0.07757491, 0.4565554, 0.15814324, -0.14205325, -0.6598737, 0.16102684, 0.7324322, -0.0809564, -0.24710257, 0.8183456, -0.1359042, -0.19704072, 0.2440714, 0.09285765, 0.121869594, -0.015964517, 0.18208744, -0.111564696, 0.05461892, -0.07234277, 0.016323123, -0.21252963, 0.0985632, -0.09432405, 0.03186977, 0.49699244, 0.0003516113, 0.705705, -0.06785889, -0.6061557, -0.050280135, 0.108326845, 0.22290996, -0.17373796, -0.18042879, -0.573761, 0.6067047, -0.115574725, -0.850879, -0.09647055, 0.32274532, -0.6616549, 0.03028951, 0.11966781, -0.2585734, 0.12232679, -0.13256164, -0.5494625, -0.108109415, 0.7820072, 0.020765977, -0.2309847, -0.060461696, -0.14949855, 0.42143422, 0.052791122, 0.002610808, 0.70064026, 0.30542278, 0.4406934, 0.21752694, 0.056107316, -0.33648762, -0.32678112, -0.4368348, -0.447803, -0.18962619, -0.28956026, -0.11291608, 0.18802139, -0.79209626, -0.5363129, 0.10178621, 0.07946636, -0.29808173, 0.13888304, -0.40972805, 0.64185023, -0.38282648, -0.2675271, 0.16037667, 0.40630797, 0.21042515, 0.09835893, 0.20424898, -0.5730729, 0.4375311, -0.2240392, -0.17692786, -0.18816377, -0.035930876, -0.51862, 0.09776131, 0.35158148, -0.16139612, -0.31759915, 0.37809706, -0.112586394, -0.25918704, 0.19659571, -0.09059909, -0.27839625, -0.26949874, -0.638554, 0.11594993, 0.47544613, -0.736981, -0.3792704, -0.9565296, -0.7625124, 0.1705134, 0.44364575, 0.19473886, -0.60018617, -0.23031947, 0.5155252, -0.026414104, -0.6494285, 0.60754585, 0.056044586, -0.72934204, 1.1857159, -0.4748279, -0.1473239, 0.43536702, -0.29117137, 0.1951539, -0.0848417, -0.30469215, -0.3803591, 0.35724157, 0.28058228, -0.026491972, -0.11302443, -0.6615967, -1.0524422, -0.15132214, -0.05884721, 0.46774077, 0.2504052, -0.71143526, -0.2421376, 0.74553984, -0.32561782, -0.1698832, -0.5302903, -0.380764, 0.06900144, -0.018056883, 0.47719547, -0.004288066, -1.0073646, -0.9041877, 0.18177094, 0.35713843, -0.3207686, -0.038379353, -0.55900574, -0.26264444, -0.009926246, 0.034364432, -0.3864132, -0.047494873, -0.1973534, -0.39369673, 0.19426906, 0.56687015, -0.25960767, -0.3145388, 0.3473666, 0.3162159, -0.24654172, -0.18813537, -0.016541658, -0.22262849, -0.5388925, -0.7493809, -0.11529723, -0.66005254, -0.45761818, 0.8804762, 0.4856896, 0.16186765, -0.018506605, -0.3016977, 0.3433359, -0.38214496, -0.3306749, 0.93077254, 0.3516183, 0.088790745, -0.054873586, 0.56405455, 0.6070295, 0.784217, -0.1678435, 0.045841143, 0.9431381, -0.35693884, 0.37598568, 0.104436725, -0.16244847, -0.2937621, -0.14382188, -0.37371916, -0.4397943, 1.0068727, 0.3220249, 0.0640138, 0.51145804, -0.2598786, -0.19273363, 0.5066887, -0.32585815, -0.44199193, 0.13133098, -0.45710462, -0.33494246, 0.05025504, -0.26426828, -0.39611685, -0.34419948, 0.5003915, -0.014053601, -0.38205275, 0.07011755, -0.32572988, -0.74711525, -0.3909737, 0.51081395, 0.26528203, -0.4310412, -0.7130737, -0.44123986, -0.57647043, -0.2591391, -0.2790129, -0.31307518, 0.033311456, 0.10778401, -0.33794102, 0.09715476, -0.16905916, -0.1338005, -0.10079961, 0.3596011, 0.04135399, 0.6016641, -0.353451, 0.46028432, -0.43677232, 0.09135542, 0.07725919, 0.5221418, 0.34613842, 0.13015099, 0.7610776, -0.17585291, 0.54365814, 0.27134863, -0.61049473, 0.197147, 0.4004862, 0.23717274, -0.17571646, -0.025417103, -0.46313718, -0.30530533, -0.34871477, -0.3532433, -0.19259766, 0.01480576, -0.016358253, 0.03642252, -0.0660959, 0.5274327, 0.1339434, 0.52155423, 0.49067807, -0.022968499]</t>
+          <t>Strain을 의미하며 어느 정도 시료를 변형시킬 지를 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[-0.72336143, -0.03063418, 0.34599826, -0.3390265, 0.0041765645, -0.40500754, 0.21260454, -0.05275861, -0.39206955, 0.02955246, 0.11021669, -0.024951302, -0.43567258, -0.13809636, -0.73880756, -0.18458562, 0.20880108, 0.5623219, 0.45951036, 0.09109558, -0.3979383, 0.22799812, -0.23037395, 0.31950125, -0.29079387, -0.26865, -0.28007725, -0.05933276, 0.38245434, -0.06560215, 0.47308654, 0.2993866, -0.16901746, 0.72107106, 0.3426422, 0.035826504, -0.4199714, -0.21314833, 0.1494019, -0.5124284, -0.11682127, 0.022591673, 0.042074997, 0.5007172, 0.35051125, -0.18764493, 0.20258576, 0.15250225, -0.29077673, -0.4733022, -0.39436632, -0.020169202, 0.68659836, 0.1897253, -0.21784632, -0.42290235, -0.22198367, -0.5262771, 0.2744387, 0.27587578, -0.14926592, -0.67029405, 0.121164754, 0.03911395, -0.22439548, -0.088071115, -0.35977435, 0.28209218, -0.44354075, 0.18168625, 0.122691914, -0.23796472, -0.0073904693, -0.25376686, 0.93159634, -0.36488503, -0.15329972, -0.26577365, 0.79629934, 0.8361616, 0.38180494, -0.10293093, -0.3627532, -0.4844998, 0.032108404, 0.2912283, -0.22124545, -0.08673431, -0.23472627, 0.40912527, -0.4262752, -0.7876835, -0.14205399, 0.3643628, -0.78684425, 0.21183155, 0.2384598, 0.24429464, 0.41937706, 0.12112518, 0.0071729925, 0.2821553, 0.007659845, 1.5840777, 0.17081623, 0.63235205, -0.19919936, 0.1760367, 0.019478008, 0.023849748, -0.3031885, 0.18100853, 0.32586277, -0.41371855, 0.4801873, 0.14049709, -0.9041617, -0.05721676, -0.08792508, 0.13912737, -0.27615693, -0.3879272, -0.87152183, 0.21935512, -0.08841344, 0.16624103, 0.017972184, 0.044860043, 0.57997423, 0.63991034, -0.316616, 0.22671483, -0.13126059, 0.38343433, -0.8488428, -0.40180758, 0.45144403, 0.02942761, 0.2799581, 0.728758, -0.50864905, 0.50611454, -0.054746356, -0.51362246, 0.27995962, -0.7548738, 0.5165118, -0.03802363, 0.17508511, -0.2161856, -0.16136236, 0.13467333, -0.5714792, -0.3105062, 0.12769592, -0.6135914, 0.6116278, -0.09793437, 0.022154123, -0.3674796, -0.45123893, -0.23146456, -0.5259126, 0.42661363, -0.02569635, -0.075196914, 0.21399166, -0.37157038, 0.14325345, -0.7804993, -0.03263765, 0.043816335, 0.4595777, -0.31576276, 0.17173405, 0.36365545, -0.87947434, -0.57000184, -0.17805806, -0.263712, -0.06016127, 0.53549176, -0.2328479, 0.037503943, -0.3451293, 0.2866556, 0.033601917, -0.2116664, -0.7422329, -0.19958618, 0.03768247, -0.16391438, 0.16730222, -0.27507558, -0.2388041, 0.056264915, -0.21722572, -0.11870658, -0.4712331, -0.092611, -0.67445356, 0.6344059, 0.6542351, 0.29896143, 0.35292104, 0.76901495, -0.36226228, -0.06414484, 0.50853175, -0.47603494, -0.5776891, 0.75671095, -0.39841652, -0.5048377, -0.18308754, -0.35689247, -0.27917218, 0.12638155, -0.51811445, -0.6907539, 0.9445354, -0.31605768, 0.563765, 0.17657466, -0.48448992, -0.27276555, -0.16984376, 0.05140625, -0.4609909, 0.2272987, -1.0399814, -0.7724934, -0.39544156, 0.08931674, 0.26011005, -0.2824457, 0.37287638, 0.10562527, -0.0036812797, -0.16822362, 0.17974553, 0.3137478, -0.12174766, 0.31051773, 0.09591866, 0.18544844, 0.22513232, -0.6526489, 0.12434811, -0.6939614, 0.0013637207, 0.2937703, 0.012117659, -0.3997422, 0.26308012, -0.35272756, 0.16283621, 1.0945494, 0.11366752, -0.2787317, -0.35893202, -0.039245475, 0.021793488, 0.13794014, 0.25383538, 0.4093068, 0.4650364, -1.0354557, 0.44042805, 0.25049847, -0.48305076, -0.011078745, 0.4897319, -0.17406024, 0.033433396, 0.43357447, -0.47744915, 0.44292533, 0.13960859, -0.2488279, -0.2605139, 0.05844292, 0.17992702, -0.38795584, 0.3796708, 0.1979273, 0.60524875, -0.5920075, 0.16560431, -0.4966225, -0.053198025, -0.18456762, -0.012540432, -2.0168166, -0.10675625, 0.035697386, -0.65653497, -0.36390355, 0.28673965, 0.6087107, 0.02887557, 0.18988986, -0.421019, -0.028218795, -0.4017157, 0.60107297, -0.64925283, -0.56540966, 0.39655927, 0.63778657, 0.87983286, -0.40368748, -0.4167625, -0.16908611, 0.3444018, -0.4316922, -0.010099465, -0.28566733, -0.22106668, 0.057319082, 0.12365954, 0.35118073, -0.10468456, 0.32234538, 0.522346, 0.22240077, -0.74382174, 0.27720952, -0.7452272, -0.41965187, -0.505866, -0.7861065, 0.3330095, -0.37281066, -0.5353262, -0.4325325, 0.17574589, -0.53907907, -0.075713865, -0.17850453, 0.53785664, -0.0072656646, -0.32705536, -0.16276848, -0.16901472, 1.1568236, 0.39961606, -0.16769142, 0.5642177, -0.82509243, -0.41599372, 0.15817282, -0.19347998, 0.27228612, -0.06610979, -0.3171911, 0.38863814, 0.3842068, 0.5536174, -0.5428802, 1.1463609, 0.09910935, 0.34119982, 0.40510827, -0.23452143, -0.079750046, -0.61775964, 0.101395085, -0.09982818, -0.019962959, 0.07662814, 0.05673452, 0.5288416, -0.8559035, -0.35665825, -0.42512673, -0.0077011418, -0.08972925, -0.030305894, -0.6700982, 0.6928727, 0.88941073, -0.02082622, -0.516906, -0.011990234, -0.5586788, -0.42399845, 0.10897946, 0.0784743, 0.111597285, -0.19057652, -0.072968476, 0.30885026, 0.07777368, -0.7604156, -0.14150146, 0.24587877, -0.21065621, -0.6704825, -0.46308947, -0.3150198, 0.41562364, -0.19376779, 0.8801276, 0.14223446, -0.2018364, 0.067884, -0.22958608, -0.29805616, -0.21260777, 0.32615817, -0.51861274, -0.67053795, -0.6172082, -0.37290204, 0.1693245, -0.12972356, -0.4752996, -0.60710675, -0.16024531, -0.6299702, -0.2473187, 0.27195588, 0.40482783, 0.11274335, -0.1466048, 0.37358433, 0.4616831, 0.39944476, 0.011275005, 0.3471043, 0.6733242, -0.1428267, -0.39539358, -0.5650526, -0.4468782, -0.05354228, -0.0067165643, -0.1790974, 0.15841934, 0.8104192, 0.036148287, 0.51014996, 0.5788247, -0.008023731, -0.36216056, 0.27911368, 0.030377477, -0.5841316, -0.921578, 0.0002952069, -0.22674651, -0.6205104, 0.70224, -0.26635006, -0.19418402, 0.89442503, 0.3906718, 0.032569624, 0.3999084, -0.11932017, 0.27869132, 0.095494345, 0.25434926, 0.002549746, 0.8615295, 0.17301266, 0.8742461, -0.072541974, 0.18399218, -0.6389303, -0.01713656, 0.40250096, -0.41247636, -0.20989956, -0.562524, 0.03365127, 0.30855235, -0.31589717, 0.68454355, -0.0066117644, -0.010788783, 0.50405836, 0.22045594, 1.029588, -0.044814147, 0.058890782, -0.15722683, 0.4365912, 0.16606003, -0.15159394, -0.34890574, 0.15565541, 0.3418947, 0.6865086, -0.16011944, 0.10234806, -0.28068814, -0.36937055, -0.07841876, 0.16516829, 0.43933007, -0.44235274, 0.20870842, -0.17475346, -0.4306722, 0.38580674, -0.29869968, -0.4380639, 0.21794935, -0.0946713, -0.4081202, 0.370953, -0.4207772, 0.19929656, 0.16174576, 0.2740989, 0.10576339, -0.084174536, 0.16759181, -0.3724951, 0.12756193, 0.014357598, 0.17861384, -0.12201484, -0.09883274, 0.45348197, 0.57711816, -0.042808764, 0.26414698, 0.17029497, -0.7228753, 0.1778251, -0.049635977, -0.024309043, -0.36543494, -0.36289078, 0.22198962, 0.7387035, 0.54165965, 0.0928671, -0.43043387, 0.8284295, -0.14291799, 0.11814458, 0.213797, 0.38759887, 0.34302324, -0.54434896, -0.39744902, -0.65658, -0.05413243, -0.5657587, -0.6837152, -0.13175702, -0.07854744, -0.35397696, -0.28049538, -0.43731254, 0.019492103, -0.086019784, 0.40201214, -0.0074351057, 0.22712672, -0.29980057, 0.36605206, -0.25634968, 0.7763775, -0.22952077, -0.597908, 0.6420715, -0.2941586, -0.03870006, -0.054227542, 0.13418856, -0.81183004, -0.9234939, -0.014884222, 0.36703888, -0.6642085, 0.3963081, 0.09137605, -0.031901732, -0.15422036, -0.049688123, 0.42776373, -0.28642836, 0.15076856, 0.18394259, 0.30906624, -0.003725225, -0.25524887, 0.3905238, 0.03676738, -1.561807, -0.94142693, -0.29100078, 0.09661937, 0.29271504, 0.21076655, 0.018698825, 0.6348335, -0.37472263, 0.06096731, -0.20123972, -0.4114964, 0.2672127, 0.627275, -0.15812252, 0.22882132, -0.5170475, 0.21441928, 0.21118054, -0.04510025, -0.030655779, 0.1870398, 0.67302084, 0.07614606, 0.19984668, 0.018160159, 0.112781286, -0.33071622, -0.7160274, 0.14876112, -0.8492226, 0.22774318, -0.29443473, -0.29403633, -0.2596766, -0.4002227, 0.52434415, -0.30673775, 0.19035159, 0.024575442, -0.0780495, -0.44939205, 0.5311104, 0.6984178, -0.22743893, -1.0848409, 0.013326419, 0.3856407, -0.13512166, -0.36188152, 0.12014576, -0.3115138, 0.08812692, -0.47164735, 0.07635313, 0.6390223, -0.11595363, -0.36492807, 0.59532756, -0.33328152, 1.0209101, -0.25637642, 0.37045637, -0.097424075, -0.69603467, -0.11414076, -0.08578478, -0.3666639, 1.0986414, -0.13194725, -0.47675648, -0.11606579, -0.2670018, 0.38217476, 0.035636306, 0.3695271, -0.04536337, -0.38383102, 0.34748858, -0.35943753, -0.5625103, -0.17618, 0.03996414, -0.54990435, -0.44470277, -0.76015687, 0.12556301, -0.23039159, 0.22407472, -0.015692737, -0.4667042, 0.17161313, 0.13081376, 0.46496612, 0.42287323, 0.15747923, -0.47278726, -0.83262044, 0.28782427, -1.3433444, 1.0100224, 0.40601274, -0.03246907, 0.3529848, 0.1501932, -0.24601524, 0.3227137, 0.225127, -0.81598365, -0.26510313, 0.13490412, -0.23306924, 0.41142252, -0.040079586, -0.04401607, 0.18912843, -0.41142663, -0.372403, -0.38399348, -0.12190535, 0.24101666, -0.26872548, 0.2874897, -0.59812623, 0.021070575, -0.35038343, 0.35157892, -0.23622857, -0.6671242, -0.20569405, -0.37262014, -0.3921793, 0.21956244, 0.20851395, 0.0887169, 0.28798532, -0.25112587, -0.052150056, -0.14601415, 0.1375137, 0.7203691, 0.09250231, -0.27390552, -0.1505951, -0.3328222, -0.14202312, -0.3476836, 0.42106098, -0.24749942, 0.41004017, 0.1518453, 0.734814, 0.032338824, 0.16534889, 0.45711133, -0.15463737, -0.088698685, 0.2426671, 0.11330826, 0.10301812, -0.9243676, 0.0331688, -0.7304344, 0.25721303, 0.021851739, 0.41352114, 0.035151564, -0.017256506, -0.48531938, -0.43822998, 0.27617872, 0.0111756455, -0.22753116, 0.45160106]</t>
         </is>
       </c>
     </row>
@@ -1242,18 +1416,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Rheometer를 추천해주시겠어요?</t>
+          <t>물성은 어떻게 측정하나요?</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TA instruments, Hakke 것이 많이 사용되고 있는 것 같아요.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>[0.1546701, -0.15888323, 0.5372793, -0.92572975, -0.031062478, 0.13564985, 0.8484625, 0.4417607, -0.27641493, -0.15048619, -0.37748405, -0.5362371, -0.3116923, -0.7895908, 0.17353146, 0.08853381, 0.7058034, 0.32155767, -0.07235001, -0.32032928, 0.0020268343, 0.13408248, 0.08671453, 0.54234093, -0.14673543, 0.11633657, 0.10475457, 0.36150315, 0.2809364, 0.3368339, 0.02204, 0.6241258, -0.062062923, 0.103140436, 0.05867997, 0.1302837, -0.7626386, -0.43676654, -0.015641982, -0.6015425, -0.2227041, -0.12409711, -0.008161045, 0.03516012, 0.35246855, 0.16457947, 0.4797882, -0.4322206, -0.15653971, -0.119170964, -0.49176842, -0.33811656, 0.6201046, 0.48634237, -0.0673413, -0.19003622, 0.038253568, -0.4876654, 0.3487378, -0.48391944, -0.22588027, -0.48072928, -0.5599564, 0.23307614, 0.50617516, 0.3379392, -0.17468226, 0.6641846, -0.2086512, 0.07834802, 0.39613733, 0.38682383, 0.31816667, -0.4498112, -0.33719233, -0.40019217, 0.30026326, 0.17245838, 0.9356623, -0.012701313, -0.17248502, 0.23722403, -0.5056972, 0.46714288, -0.3259913, 0.82284516, -0.07381832, -0.4584836, -0.07898339, -0.27393034, -1.1133612, -0.22563364, 0.11559516, 0.10048954, -0.54916805, -0.44767618, 0.29901698, -0.034315076, 0.0904579, 0.06487417, 0.1604879, 0.24954088, -0.065251775, 0.51214194, 0.14933184, -0.57192296, -0.30917326, 0.38543567, 0.05506667, -0.25162682, 0.23498711, 0.039191622, 0.50924414, -0.6022253, 0.33606714, 0.8301464, -0.5925188, -0.10468708, 0.038568866, 0.16159865, 0.5741325, -0.47490954, -0.36619714, 0.6900266, -0.6900749, 0.30333224, 0.7987582, -0.07887357, 0.42393976, -0.24246822, -0.41155583, 0.40969723, 0.550843, -0.59829426, -0.23259531, -0.21820135, -0.06927376, -0.26056787, 0.5750059, 0.21010487, -0.11470007, 0.09433472, 0.07299732, 0.13264738, 0.032463096, 0.5634161, -0.013337995, -0.5565173, -0.124701835, -0.06932211, -0.6613427, 0.12052067, -0.032025293, -0.19713892, 0.14894214, -0.1594894, 0.079725616, -0.47995022, -0.27445504, -0.44890592, -0.25162682, 0.5282951, 0.20181252, 0.51172286, -0.10674093, -0.1648495, 0.94299567, -0.07985515, -0.2251546, -0.6590018, -0.18192008, -0.0009901226, -0.29499456, 0.2584371, 0.5239626, 0.6429909, -0.25482187, 0.18239893, -0.44340393, 0.09199923, -0.39810753, 0.78177917, -0.45820442, -0.23649131, -0.17998128, 0.0034680557, 0.4120276, -0.086492196, -0.800798, -0.045404367, 0.10200258, 0.106750496, -0.23303767, -0.2896559, 0.03350855, 0.54836166, -0.18109, -0.9958693, -0.026514035, -0.010103579, -0.14478925, 0.39236674, 0.5693289, 0.67247236, 0.5762714, -0.53596014, 0.2989336, 0.019092923, 0.30795425, -0.23026583, -0.5268547, 0.47045058, 0.0005656566, 0.3801135, -0.16560689, 0.19807456, -0.22594525, 0.055045627, 0.6770407, -0.43553227, 0.41361257, -0.07874672, 0.22903374, -0.2284511, -0.21032003, -0.13126971, 0.16683806, 0.074458376, 0.5469215, 0.27369067, -0.32317355, -0.27497053, -0.260822, -0.30508175, 0.15913136, -0.7551506, 0.016852302, -0.010537669, 0.31685904, -0.9219579, 0.317394, 0.32505152, 0.060665257, 0.0808172, -0.26864, 0.46258911, 0.15035571, -0.048030995, 0.91795355, -0.22403209, 0.39794034, 0.3998325, -0.6020931, -0.2811864, 0.7193805, -0.3639702, -0.5433994, 0.4888687, -0.14011464, -0.42039353, -0.7872588, -0.10657021, -0.6587691, -0.5500198, -0.102266975, -0.1618611, 0.32122144, -0.8793739, 0.18387981, -0.06695864, 0.047464006, -0.34981918, 0.22063388, 0.03283236, -0.2203604, -0.4669812, -0.7199351, -0.2495909, 0.49616188, 0.29365104, -0.07247787, 0.18954495, 0.29192463, 0.058136683, -0.05476153, 0.16155484, 0.18851121, 0.27193063, 0.2317682, -0.77548504, 0.61009324, -0.19070208, 0.19881795, -1.1297423, -0.20916276, 0.3274687, -0.053239197, -0.18917148, 0.15421529, -0.42081833, -0.2300535, 0.096491136, 0.36399254, 0.34469095, -0.36817786, 0.1392252, -0.2614514, -0.23177777, -0.1795552, 0.67875206, 0.12230947, -0.039021313, 0.0064468044, -0.43388852, -0.56987494, 0.42212516, -0.53834313, -0.4258748, -0.52141744, -0.36863562, 0.19794026, -0.23457636, 0.46996212, 0.062429983, 0.4131801, -0.4097419, -0.4999965, -0.17857774, -0.27300516, 0.021741644, -0.6223195, -0.5398092, 0.8532667, -0.0045667463, 0.34631306, -0.95032316, -0.39638308, -0.9113886, 0.5121032, 0.13773789, 0.10887427, 0.046691872, -0.67871875, -0.7862776, -0.24506958, 0.043484826, -0.023320893, -0.027513806, 0.57718647, -0.41588446, 0.5857995, 0.4465066, -0.67199475, 0.76731145, 0.27426058, 0.6180412, 0.6131259, 0.25660878, -0.42841855, 0.33045194, -0.004293403, -0.12265248, 0.6055285, -0.005892462, 0.38726828, -0.9004349, -0.7460827, 0.42591518, -0.2887874, 0.36017507, 0.34685078, 0.07009893, -0.28133816, -0.110455684, -0.27117854, -0.07689045, -0.40387365, -0.07958459, 0.39230818, -0.25448257, 0.17727038, 0.722854, 0.30118197, -0.6882006, 0.6123919, -0.53105944, -0.3658708, -0.38412037, -0.4946117, 0.2539929, -0.24779427, -0.63159186, -0.29458284, -0.24980208, -0.1579429, -0.3800253, 0.18593559, 0.36458543, -0.16251838, -0.45381334, 0.29178014, 0.3830896, -0.36334142, -0.63029194, 0.18833883, 0.004249196, 0.2115079, -0.16276693, -0.13537863, -0.23950042, -0.22778037, -0.3438614, -0.8926991, -0.027272642, 0.2837157, 0.07883463, -0.47229823, 0.37695193, -0.12785672, -0.34735414, 0.12533203, -0.18922952, 0.13533945, 0.17133619, -0.22826993, -0.3390305, 0.05610717, -0.38117522, 0.5292546, 0.12311677, 0.2391813, 0.28763026, -0.28418806, -0.6815724, -0.2092509, -0.55293524, 0.2099501, -0.09955179, -0.9436488, -0.007950423, -0.12258078, -0.33700562, 0.6040751, -0.14409138, -0.5277814, -0.20119932, 0.7036627, 0.12359017, -0.863587, 0.14807661, -0.2566139, -0.51640266, -0.20403445, 0.21733911, -0.10279524, 0.57139194, 0.46202922, -0.070654646, -0.16305335, 0.10587399, -0.08332663, -0.5500621, -0.26098993, -0.3425096, 0.26844886, 0.56529444, 0.36713645, 0.24395071, -0.73867947, 0.49269325, -0.5998724, -0.14551914, 0.2765728, 0.3828551, 0.32795432, -0.10142923, 0.060458552, 0.0023282182, -0.350081, -0.4022589, -0.4901185, 0.1802258, 0.4420177, -0.045030653, 0.6135759, 0.18185319, 0.29138547, 0.46682546, 0.5881642, 0.43530312, 0.41757172, 0.32370576, -0.16501427, -0.6370288, 0.31214675, 0.14940569, -0.14114352, 0.652453, -0.07124039, -0.56289774, -0.06113882, 0.17741667, -0.037024587, -0.18750493, 0.4773841, -0.39556912, 0.19952539, -0.3465598, 0.3693843, 0.04463474, 0.1678468, -0.55751497, 0.15596668, 0.2516984, 0.3060619, 0.8551607, -0.24511208, -0.2817993, 0.74307775, 0.112727925, -0.63964206, -0.0074878368, -0.2030952, 0.16096626, -0.06660047, 0.05413059, -0.66975826, 0.047936417, -0.1216598, -0.38394514, 0.5807885, 0.5727577, -0.14504793, 0.057233684, -0.08009907, -0.8287112, -0.36794308, 0.2896063, 0.2588816, 0.4059833, -0.03392893, -0.0741148, 0.41717058, 0.05496349, 0.14124344, 0.9444162, 0.82002646, 0.51284754, -0.016597344, -0.09626384, -0.6999256, -0.66831744, -0.5789776, -0.81167686, 0.41033536, -0.04934277, -0.32867852, -0.5303054, -1.0639971, -0.65277344, -0.012256167, 0.5931501, 0.01829848, -0.16928099, -0.22874321, 0.08415582, -0.18938565, 0.08108406, 0.13297221, 0.10174342, 0.37559673, 0.23493001, 0.03010105, 0.13257557, 0.4198734, -0.96648353, -0.1761017, -0.32286578, -0.034451388, -0.49611422, 0.027221026, 0.09636541, 0.07992085, -0.96844906, 0.28742623, 0.23487546, 0.07206502, 0.060929287, 0.015227422, -0.5133458, -0.7148034, -0.024512142, 0.30647844, 0.58036846, -0.33588928, -0.9804911, -0.5371521, -0.91761065, 0.043980572, 0.39909217, 0.28562623, 0.5663558, 0.052590635, 0.5304846, -0.55529433, -0.41379663, 0.9092998, -0.5991548, -0.91733295, 0.39225388, -0.81458956, -0.44932875, -0.07946464, 0.24495926, -0.1447954, 0.03442234, -0.30615813, 0.020733288, 0.32690746, 0.621587, -0.45211992, 0.25601643, -0.38673136, -0.35757065, -0.48751974, 0.27005813, 0.39531127, 0.02555573, -0.19489905, -0.093042545, 0.77682495, -0.1853454, 0.29302767, -0.347809, 0.046722967, -0.65080756, 0.32128352, -0.07185774, -0.18353294, -0.7142495, -0.1121708, -0.19886753, -0.07178979, -0.1602595, 0.14446963, -0.5820449, -0.36476165, 0.11003089, -0.21602567, -0.18352608, -0.67153126, -0.8087597, -0.6795894, -0.28140303, 0.19366972, -0.48099288, -0.25770107, 0.28026855, 0.02030924, -0.2090404, -0.42645904, 0.16015863, -0.008192639, -0.5572263, -0.3125708, -0.94646585, -1.0386782, -0.12502883, 0.33462793, 0.35262513, 0.2249607, -0.28346357, 0.04024265, 0.14480235, -0.2672975, 0.08377465, 0.7868491, 0.20274845, 0.36767766, -0.035815645, 0.26045135, 0.24655022, 0.6782099, 0.1995645, -0.62622106, 1.1131766, -0.72686434, -0.039779555, -0.21288434, -0.26731974, 0.16378449, 0.037365537, 0.024518099, -0.3600506, 0.7416499, 0.75661004, 0.101380505, 0.16737624, 0.027001133, -0.05665047, 0.81216514, -0.14213172, -0.5120221, -0.29342934, 0.028754547, -0.51084936, -0.29673895, -0.0037174565, -0.62720984, -0.07118568, 0.41459605, -0.29067037, -0.11810465, 0.579185, 0.31937647, -0.4573164, -0.20492336, 0.5108297, 0.30117384, -0.6445194, -0.3153742, 0.114373036, -0.5781542, -0.22281326, -0.52510023, -0.29824853, -0.1425298, -0.24605688, 0.03398298, 0.3407774, -0.021164771, 0.28022364, 0.16130646, 0.010134267, -0.32920817, -0.101079166, 0.26578173, 0.618684, 0.48459437, -0.44629604, 0.061288495, 0.37907553, -0.3081599, -0.059124094, -0.25945306, -0.02578437, 0.0048061097, -0.13845722, 0.2723713, 0.2213494, 0.9451584, 0.85592204, -0.42400536, 0.33134392, 0.077519886, -0.3124568, -0.9040321, -0.30998126, 0.27450323, 0.69259775, -0.14369391, -0.4291831, 0.113813534, -0.27860442, 0.22686715, 0.3346555, -0.3067123, -0.082730226]</t>
+          <t>너무 광범위한 질문이지만, 식품의 경우 texutre analyzer 라는 기기가 일반적으로 사용됩니다.</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[-0.24272135, -0.7061429, -0.019876223, -0.7270611, -0.34871536, -0.15513857, 0.25239798, -0.023340965, 0.3160897, -0.16052648, -0.6152798, -0.2290668, 0.25392887, 0.1835843, -0.04126067, -0.21693142, 0.460437, 0.84487265, -0.26431188, -0.6380291, -0.02001488, 0.27675578, 0.13562831, 0.26657653, -0.21018991, 0.27054486, -0.56305784, -0.550655, -0.036938824, -0.90432036, 0.72406805, 0.40654373, -0.070181236, 0.40164542, 0.27510387, 0.2615307, -0.4510359, 0.31853563, 0.03966341, -0.42305017, -0.36909202, -0.37617844, 0.31556433, 0.20917168, 0.3664691, 0.14531788, 0.49628657, 0.013597047, -0.36061576, 0.081758305, -0.47276187, -0.06736023, 0.104904495, 0.43407017, -0.4230575, -0.3464569, 0.1936267, 0.043148838, 0.47307935, -0.10108767, 0.3628445, -0.98939466, -0.2684614, 0.31383985, 0.05005958, -0.28240234, -0.23859406, 0.3621555, -0.27024028, -0.085666336, 0.03766449, 0.03451453, -0.104678705, -0.61888534, 0.25424615, -0.34240198, -0.56205046, 0.037608784, 0.28260618, 0.37982598, 0.70569533, -0.25981158, -0.28509298, -0.35636267, 0.37254736, -0.34576347, -0.05428543, -0.5559338, -0.020508703, 0.24677238, -0.32603824, -0.5039041, -0.5673766, 0.1996875, -1.097825, -0.3697216, 0.23594043, 0.12753208, 0.2195692, 0.1576758, -0.04667459, 0.12811206, -0.19883627, 0.744841, 0.63656944, -0.55485016, -0.4695379, 0.92089117, 0.58412755, -0.031007085, 0.68028235, -0.2930896, 0.39742357, -0.33501878, 0.36641622, 0.37955338, -0.12943876, -0.25452417, -0.16930476, 0.55355895, 0.27431798, -0.3875105, -0.20000872, -0.2141473, -0.02234644, 0.0045983447, 0.3658906, -0.142207, 0.3164888, -0.5188553, -0.03683392, 0.30296025, 0.32905892, -0.29908252, -0.26968837, -0.32517266, 0.6217383, -0.05831752, 0.73222476, 1.0811236, -0.9313008, 0.06439849, -0.2975658, 0.00701513, -0.12166909, -0.105608925, 0.777073, -0.28493655, 0.32581756, -0.27477702, 0.011870195, -0.19072214, -0.5684339, -0.09221535, 0.28514782, -0.23466678, -0.073699474, -0.46065792, 0.1828695, -0.11025834, 0.6109222, -0.26166964, 0.06112937, -0.12318617, -0.15359597, -0.20463857, 0.49381638, -0.26514584, -0.095302746, -0.34385544, -0.0797831, -0.2085965, 0.21570408, -0.100568965, 0.6443715, -0.13897724, -1.0886345, 0.056304276, -0.25657183, -0.5239005, 0.3811386, 0.47139138, 0.2189188, -0.16935031, -0.101672634, 0.3193194, 0.31329352, 0.08315481, -0.62139255, -0.35400978, 0.7405766, -0.55279696, -0.36975834, -0.12538658, 0.30338898, 0.6219145, -0.57986647, -0.16857347, -0.20158151, 0.113638856, -0.6719329, 0.48041278, 0.1621746, 0.45651954, 0.31610674, 0.09312536, 0.10994829, -0.020713013, 0.49148947, -0.16231254, 0.16157837, 0.45423907, 0.0676491, -0.0280487, -0.42435145, -0.9771242, -0.39259627, -0.1478647, 0.60812426, -0.08306593, -0.28030404, -0.7981354, 0.75015366, -0.7028486, -0.5642988, -0.67278636, 0.36113307, 0.5552774, -0.36707553, 0.16415322, 0.15242727, -0.54396135, -0.73896205, -0.23277855, 0.31353277, -0.5430381, 0.3487995, 0.6181683, -0.24417455, -0.1250213, 0.14925632, -0.16958545, -0.30154926, -0.22058794, 0.15135291, -0.0464894, -0.06334344, -0.48830923, 0.051977493, -0.4114236, -0.0073487945, 0.326861, 0.11208864, 0.07541698, 0.44271827, -0.28480792, 0.38956594, 0.90911806, -0.28457403, 0.56851333, -0.10600414, -0.009827107, -0.4083581, 0.21665469, 0.2709325, -0.35006377, 0.50620735, -0.36847696, 0.22752377, -1.1090698, -0.082351744, -0.4095784, 0.5955847, -0.18651965, -0.27428776, 0.36808267, -0.058747075, 0.25207138, 0.034387007, 0.08527164, 0.19558772, 0.5527818, -0.05194661, 0.32571635, 0.22926815, -0.49713904, -0.10633401, -0.4297616, -0.30431825, -0.004220882, -0.5291044, 0.12807725, 0.02797448, -1.431584, 0.02608493, 0.24795851, -0.58669615, -0.14197397, 0.7125026, 0.6976756, 0.47508574, 0.0584176, 0.15444346, 0.44593978, 0.1562093, 0.41350207, -0.11667278, -0.4826756, -0.10816058, 0.34234828, 0.34354332, 0.6567725, -0.002159336, 0.06051901, 0.38285246, -0.45610613, -0.16595843, -0.05605688, 0.005392772, -0.08561646, -0.5612086, 0.58607674, -0.099362165, -0.1863038, 0.22100616, 0.32524422, -0.008835849, -0.14000466, -0.3405066, -0.03162724, -1.0658318, -0.07094438, 0.22580346, 0.11705275, -0.15506843, -0.5791551, 0.6828638, -0.58894473, -0.13058312, -0.15161745, 0.14328486, 6.070733e-06, -0.768124, 0.45565408, 0.19693539, 1.3031304, -0.5342053, -0.110835895, 0.03233755, -0.8580079, -0.038296945, -0.29088458, -0.051728714, 0.057231646, 1.019843, -0.08543591, 0.2038595, 1.114979, 0.11237645, -0.071378805, 0.67782557, -0.7777004, -0.22889829, 0.3758834, 0.011674458, -0.62145203, -1.2805612, 0.08804134, -0.22833762, -0.13491115, -0.088112816, -0.27610672, 0.23941052, 0.051737547, -0.54207015, 0.50752413, -0.08114023, 0.44896445, -0.142755, 0.29191512, -0.05487468, 0.7688877, -0.48905697, -0.8135866, 0.31085703, -0.4200152, -0.2937416, 0.16160074, -0.10969548, 0.11516057, 0.39162093, -0.49329787, -0.44805247, -0.07174414, -0.5597544, 0.12451301, 0.039862234, 0.084548965, -0.11131835, 0.47545967, -0.13903615, 0.62767416, 0.00019289964, 0.37629738, 0.059094746, -0.28442293, 0.30724782, -0.1763103, -0.27966312, -0.019261086, -0.41807002, -0.42794657, 0.13747069, -0.543412, -0.36902088, -0.19687626, -0.72785866, 0.40959787, -0.2287031, -0.2501283, 0.10188971, -0.60017574, 0.26966414, -0.35662687, -0.27451918, 0.13667943, 1.004533, -0.32453874, 0.6534255, 0.19910629, 0.35738486, -0.3460762, 0.2409738, -0.53308964, -0.3842179, -0.9201935, 0.522768, 0.009191786, -0.32546264, 0.12507913, 0.14973378, 0.42848653, -0.44671172, 0.22587362, 0.09808431, 0.30132556, 0.29273313, 0.11880002, -0.62588155, -0.46064693, -0.7685039, -0.30424488, -0.50190765, -0.12577792, -0.43467417, 0.34990555, 0.014357634, 0.10054813, 0.3237811, -0.039040983, 0.17640774, 0.30556405, 0.18622635, -0.34698805, 0.023482943, 0.013497546, -0.08976108, 1.0756843, 0.69851464, 0.10208535, -0.29513395, -0.10811452, 0.6123682, -0.50834763, -0.64992, -0.61454093, -0.71738213, 0.021073693, -0.32139608, -0.17333463, -0.29953164, -0.10766375, 0.25400722, 0.83723056, 0.46242532, -0.5813714, -0.3449029, -0.47260284, 0.3767298, 0.79767615, 0.47496113, 0.25924808, -0.5387661, -0.4605275, 0.6977604, -0.52602774, -0.38532966, 0.9084829, -0.08232615, -0.028751617, -0.33716077, 0.639357, -0.048075546, -0.13753697, -0.10060787, 0.2051255, 0.24467015, 0.16916753, -0.3002017, -0.12923245, -0.049864165, -0.41232425, 0.32261005, 0.404037, -0.1871229, 0.6380311, 0.3938033, -0.4572095, -0.15283528, 0.44231042, -0.10703479, -0.4567434, 0.45650578, 0.69152904, 0.0049491106, -0.12459202, -0.16527788, 0.47375125, 0.22629595, -0.15362383, -0.12442944, -0.11650964, -0.42998996, -0.021552753, -0.21701905, -0.2087433, -0.46916056, 0.22052555, 0.48078895, 0.2603148, 0.4024745, 0.23492408, 0.14400436, -0.83855134, 0.2726321, -0.3025961, 0.12410899, 0.15549792, -0.37087736, -0.88558894, 0.18112564, -0.548319, 0.08630302, -0.16660458, -0.003253068, -0.09075016, 0.3482539, -0.08718526, -1.0308025, 0.33740893, -0.061775368, 0.15985127, -0.35352108, 0.3745779, -0.43402067, -0.0004328107, 0.2365629, 0.2365286, -0.20548932, 0.14576507, 0.8259567, 0.56780684, -0.29369184, 0.6643425, -0.34939077, -1.0765226, -0.9942311, -0.89842474, 0.10568249, 0.1380262, -0.12619579, 0.19406971, 0.4314913, -0.29506907, 0.92130363, -0.0064986795, -0.20414928, 0.04820262, -0.691764, 0.32040334, -0.06695943, 0.014299145, 0.29812834, 0.42462125, -0.40244046, -0.19424748, -0.5941297, -0.8266362, -0.37570435, 0.19870529, -0.31172022, 0.45031825, -0.14524975, -0.25051194, 0.0067861616, -0.6926991, 0.46116814, -0.3291155, -0.46881914, -0.2590887, -0.41645446, 0.36924922, 0.3851629, -0.15800376, -0.19637223, -0.29703623, 0.11254232, -0.40297216, -0.29499942, 0.41575518, -0.4154547, -0.59452623, -0.22260626, -0.50012624, -0.6162042, -0.25965324, -0.5529915, -0.092384525, 0.04552538, -0.37954515, 0.45181996, -0.15781717, -0.103542306, 0.20032158, -0.45040232, -0.21979478, 0.0056121214, 0.6128138, -0.41943192, -1.1938301, -0.6536991, 0.020785082, 0.1775363, -0.1988482, -0.48544082, 0.39004415, -0.7392498, 0.9481288, -0.10501025, 0.2275475, -0.06770846, -0.48754287, -0.052871622, 0.0695421, 0.2641879, -0.13442451, -0.35676822, 0.06276329, -0.5195242, 0.28718367, -0.22489336, -0.08195581, -0.34853667, -0.18509364, -0.649152, -0.60048616, -0.15072544, -0.2669875, -0.31723455, 0.5204715, 0.58961064, 0.38255003, -0.08639853, 0.09133451, -0.65695626, -0.44238758, -0.09740459, 0.13240038, 0.43117794, -0.59054786, 0.055289112, 0.6059403, -0.063559204, -0.0009860129, -0.50040805, 1.5420626, -0.13148834, 0.23530805, 0.41466188, -0.271823, -0.2978895, -0.15627004, 0.4994913, -0.46019125, 0.5053706, 0.81144965, -0.049555074, -0.57392824, 0.027475368, -0.31815225, 0.394207, 0.2357043, -0.7492093, 0.21305737, -0.29654664, -0.12750903, 0.0016900093, 0.1376507, -0.4710663, 0.041774753, -0.5217473, -0.012671797, -0.26938793, -0.30935827, -0.2600158, -0.34410012, -0.2046996, 0.063764036, -0.10979171, -0.48831922, 0.69896173, -0.13389632, -0.5079616, -0.59974825, -0.5866653, 0.20067482, 1.0018773, -0.112394735, 0.14249486, 0.020344656, -0.24370655, -0.38456053, -0.3997324, 0.5423862, 0.21832883, -0.15117483, -0.29654285, 0.32305622, -0.24264643, 0.04506029, -0.3621009, 0.13221624, -0.09708105, 0.625251, 0.6447522, 0.7506746, -0.20905156, 0.51447695, 0.16274841, -0.056273293, 0.2587927, 0.28222218, -0.16536526, 0.1515065, -0.052311968, 0.20039956, -0.08633363, -0.22872126, 0.4215467, -0.43574017, 0.090971515, -0.048826206, 0.17082639, -0.30803114, 0.28224128, 0.72899234, 0.2652214, 0.14138778]</t>
         </is>
       </c>
     </row>
@@ -1263,18 +1442,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>레오미터를 추천해주시겠어요?</t>
+          <t>물성학은 너무 어려워요.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TA instruments, Hakke 것이 많이 사용되고 있는 것 같아요.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>[-0.056412708, -0.30245194, 0.050000023, -0.24205686, 0.13224049, 0.024824083, 0.6987402, 0.26765573, 0.2653532, -0.2566208, -0.33402696, -0.37159142, -0.4092044, 0.012541197, 0.045185607, -0.10779935, 0.3034046, 0.52475315, 0.066803694, -0.34445786, -0.03794573, 0.1530209, 0.31988153, 0.56651664, -0.13493425, 0.31313422, 0.010285286, 0.1946935, 0.6768284, -0.82191586, 0.18722002, -0.34001878, 0.23380907, -0.019891264, 0.13364214, -0.1493947, -0.5563417, -0.58972514, -0.76932645, -0.65796524, -0.27371797, 0.0015748827, -0.5047458, 0.29529092, 0.09973965, 0.5494983, -0.007885446, -0.39717737, 0.036022987, -0.33157778, -0.23627593, -0.33242634, 0.051416617, 0.11405006, 0.10261343, -0.10990047, -0.2979517, -0.9581452, 0.30657634, -0.07493613, 0.17367996, -0.3755463, -0.76022655, 0.13430464, 0.40954122, -0.028204178, -0.23157822, 0.39874634, -0.21012926, 0.32656512, 0.07975463, 0.58696145, 0.54931176, -0.08739686, 0.37817082, -0.16851598, -0.082930915, -0.2919418, 0.67364436, -0.08541951, -0.3068252, -0.36805502, 0.097052135, 0.13428247, 0.19052579, 0.46290776, -0.12475564, -0.07751362, 0.5601526, 0.163204, -0.45947623, -0.5206638, 0.022935102, 0.34137574, -0.23328115, -0.4367591, 0.10907491, -0.070202425, 0.5921164, 0.4759842, -0.21829583, 0.18129641, -0.6917402, -0.05583298, -0.13590969, -0.4299525, -0.036149934, 0.36731455, 0.12347593, 0.003893194, 0.067358084, 0.38699922, 0.65232795, -0.4578422, 0.40345347, 0.49882844, -0.85038334, -0.08475074, 0.60451585, 0.061172005, 0.62475246, -0.6107087, 0.4563876, 0.26747248, -0.7007575, 0.23110713, 0.32045734, -0.64316624, -0.21498954, -0.23487587, -0.28395703, -0.06457619, 0.30858806, -0.5687629, -0.39598882, -0.40308854, -0.26754072, -0.1051341, 0.5790038, 0.10350434, 0.14482065, -0.2562493, -0.2954759, -0.34032407, -0.060269427, 0.38126937, 0.5340906, -0.5023419, 0.005168192, -0.32561204, -0.70339125, 0.41905662, -0.66600585, -0.42539904, 0.45687023, 0.11663038, 0.14824322, -0.38117918, -0.044852573, -0.20570482, -0.21454804, 0.75461227, -0.10659981, 0.052499752, -0.15883058, 0.17942154, 0.7024369, 0.42343518, -0.26806936, -0.39318013, -0.1699725, -0.81646127, 0.28560385, 0.11132965, 0.58527607, 0.4205478, -0.78484845, 0.26369727, -0.2024498, -0.029492019, -0.5428403, 0.70481616, -0.48222312, 0.6025689, -0.4381157, -0.12956056, 0.58870006, -0.019697709, -1.2294511, -0.3631828, 0.16777398, -0.24263777, 0.20824309, 0.050696786, 0.24788047, 0.7486853, -0.3979995, -0.7382112, -0.122487545, -0.331616, -0.26517165, 0.523661, 0.40516186, -0.04737447, 0.8271876, -0.33026627, -0.027334124, -0.46001363, 0.071187004, -0.55947274, -0.043822482, 0.5213688, -0.21702556, 0.48636726, -0.3137487, -0.6622077, -0.09791099, -0.19031481, 0.4548591, -0.18602525, 0.40929672, -0.3430573, 0.47282362, -0.20493501, -0.25309893, -0.32829556, -0.05238591, 0.07463952, 0.047372993, 0.082596205, -0.29783058, -0.22634692, -0.117029786, -0.62472236, -0.011612575, -0.42255363, 0.31296563, 0.0007193138, -0.40459013, -0.54352117, 0.62167907, 0.41000733, -0.14480327, -0.41659418, -0.5046423, 0.16131349, 0.06355778, -0.6760971, 0.14702515, -0.08011168, 0.4537742, -0.30892816, -0.31139144, -0.1577129, 0.51940066, -0.23067321, -0.44914603, 0.7478779, -0.23157728, -0.16502286, -0.59810144, -0.3211688, 0.046894114, -0.5967148, -0.13092227, -0.34154534, 0.19634008, -1.2299691, 0.47284412, -0.40815172, 0.04531126, -0.27544868, 0.09740534, -0.25969666, -0.022263644, -0.23862891, -0.19540812, -0.25810587, 0.65121514, -0.47868848, -0.108130395, -0.22300006, 0.16740726, -0.082581006, 0.0017420352, -0.30093187, 0.3045769, 0.058023352, 0.16377045, -0.6665302, 0.35328507, 0.057555724, 0.24051596, -1.0112485, 0.5698663, 0.59883946, 0.6256903, -0.634191, 0.40869248, 0.063812554, 0.13104825, 0.16922998, 0.8807866, 0.42187175, 0.12648214, 0.33002636, 0.29651687, -0.49420834, -0.14544897, 0.528671, 0.40620923, 0.51287085, 0.013903499, -0.23875232, -0.35583365, 0.18353766, -0.727359, -0.2772302, -0.09077076, -0.056459326, -0.34492764, 0.05146331, 0.08366851, 0.06905084, -0.43510744, -0.06317798, -0.6343833, -0.15113227, -0.34473994, -0.23708458, -0.7951655, -0.17078064, 0.4404113, -0.06665757, 0.11124269, -0.14812128, 0.37710866, -1.1218877, -0.26369703, -0.023585672, 0.9077273, -0.15962979, -0.48834088, -0.23161243, -0.36888814, 0.10473192, 0.1437726, -0.16175966, 0.39020815, -0.41921148, 0.13171548, 0.2720305, -0.41541767, 0.5872052, 0.15235041, -0.24794306, 0.1240041, 0.63488036, -0.2170955, 0.45033756, 0.06907025, -0.67836255, 0.7549458, -0.22599868, 0.0036429178, -0.19667937, -0.52226436, -0.10115846, -0.5773514, 0.63288695, 0.8010681, -0.059801143, -0.41286913, 0.35101852, 0.24375457, 0.24308704, -0.049012583, 0.22639038, -0.043370824, -0.18602349, 0.7340064, 1.0516667, 0.61259204, -0.50683826, 0.30769423, -0.29645595, -0.3869581, 0.69967747, -0.515554, 0.36507168, -0.45994458, -0.4924123, 0.22952044, -0.10130111, -0.47824618, -0.4466152, 0.05731484, 0.55943304, -0.6732138, -0.252207, 0.32028833, -0.21774341, -0.0538844, -0.54509664, 0.36888003, -0.0073538334, 0.48419967, -0.5207949, -0.08895308, 0.104510136, 0.10165834, -0.47957692, -0.884794, 0.13154133, 0.14252199, 0.43748072, -0.24976026, 0.058530226, -0.6195171, -0.27204335, 0.22962844, -0.5011552, 0.4301683, -0.28075328, -0.25837454, 0.32957184, -0.19442588, -0.1128002, 0.16741051, 0.1935211, 0.39778098, -0.14120792, -0.16058543, -0.6573224, -0.12999453, -0.8547134, -0.2654421, -0.20764458, -0.81514215, 0.18792625, 0.15817726, -0.32877067, 0.53697807, 0.3018886, -1.0241735, 0.0797823, 0.35229144, 0.16772681, -0.8494552, 0.15075403, -0.30675024, -0.95746946, -0.56708664, 0.037394706, -0.12762734, 0.3887323, 0.21073723, -0.22859703, -0.60116243, 0.22063076, -0.507145, -0.09683085, 0.21659718, 0.13181296, 0.15193768, 0.17119342, 0.6847787, -0.09788548, -0.5675921, 0.2593659, -0.5520978, -0.06346599, -0.21160327, -0.2950928, 0.25903544, -0.13818642, 1.2944752, -0.54378426, -0.13513424, -0.825412, -0.97775435, 0.38035217, 0.42832223, 0.05651013, 0.1603043, 0.6371761, 0.38406482, 0.31192693, 0.5160964, 0.09691274, 0.18432039, 0.6650253, 0.04063821, 0.12520777, -0.008299679, 0.16871096, 0.36343026, -0.2576944, -0.1263066, -0.6186629, -0.18311138, -0.1320509, -0.18146008, -0.4449471, 0.7841087, 0.010770463, 0.25268885, -0.064615436, 0.13223867, 0.060101707, -0.065511785, -0.021666227, 0.58246607, 0.5691382, 0.46356145, 0.47464857, 0.22069634, -0.0053508454, -0.13397832, 0.06434003, -0.7965407, -0.10872515, -0.33638704, -0.14853896, -0.16594854, -0.09746271, -0.61766547, -0.31317064, -0.07598235, -0.0792174, -0.021264613, 0.7296819, -0.558854, 0.67782086, -0.36869562, -0.6412233, 0.05257699, -0.027261028, -0.037762877, 0.53425574, 0.14805491, 0.22527947, 0.65190154, -0.14575267, 0.0050126663, 0.56061095, 0.78443766, 0.06685309, -0.2945074, 0.25696087, -0.6380996, -0.69277734, -0.22742812, -0.9126573, 0.33169153, -0.029174602, -0.9200117, -0.7918115, -1.0206662, 0.053042978, -0.033873856, 0.8555343, 0.47853884, 0.07089201, -0.63627213, 0.3735298, 0.10769424, 0.19174762, 0.38183177, 0.20253606, 0.3145384, 0.06838355, -0.14491491, 0.17291446, 0.53362966, -1.137703, 0.006037656, -0.03888042, 0.12854245, -0.5653568, 0.18072516, 0.14700654, 0.044470463, -0.44654417, 0.33252764, -0.19201493, -0.01730709, 0.3717362, -0.19462498, 0.30259222, 0.011630997, -0.091452874, 0.6532804, 0.7749441, -0.45491254, -0.8125252, -0.7515109, -0.6244595, -0.20930493, 0.47067702, 0.5007246, 0.3692449, 0.19390287, 0.54357654, -0.52443993, -0.5414236, 1.0681475, -0.19802646, -0.6263817, 0.5567389, -0.5295107, -0.08445883, -0.76792765, -0.4895551, -0.16707487, 0.07497286, -0.44349048, -0.07430774, 0.029607229, 0.9059352, -0.33540273, 0.09063152, -0.20932473, -0.43462977, -0.06832897, 0.4878428, 0.16916694, -0.41495633, -0.2090921, -0.0036028698, 0.21685083, -0.12079709, 0.29290828, -0.09383556, -0.24780177, -1.1682413, -0.061690927, -0.10280257, -0.09423096, -0.4928328, -0.59114933, -0.527655, -0.053786512, -0.3311601, 0.1658645, -0.18753648, -0.40304938, -0.2285537, -0.5390633, 0.11496315, -0.6557379, -0.40559724, -0.86822325, -0.017346518, 0.34975803, -0.011726767, 0.0705489, 0.6745718, 0.00067040575, -0.38582277, -0.38682255, -0.057753164, 0.7594263, -0.059051584, -0.1874087, -0.92667204, -1.1018038, 0.3765461, 0.37121043, 0.11596099, 0.4346211, -0.055374846, 0.117521174, -0.17932719, 0.08508098, 0.055913467, 0.5203826, 0.3185992, 0.111394264, -0.24399145, 0.14658694, 0.15280895, 0.5682027, 0.3200041, 0.019190887, 0.41692877, -0.110425204, 0.23756544, 0.62354374, -0.7321914, 0.3752072, -0.51985186, 0.4320147, -0.7106938, 0.66243553, 0.3440776, 0.22488864, 0.26621574, -0.25250903, -0.21999489, 0.6898758, -0.119245894, -0.25201347, 0.23273581, -0.14212458, -0.016561693, 0.085319646, -0.6269684, -0.22626495, -0.14769734, 0.05531152, -0.4324269, -0.032995578, 0.2381174, 0.6149515, -0.33732888, -0.32860908, 0.50530577, 0.13953744, -0.2643604, 0.3450645, -0.04737528, -0.5665671, -0.2695361, -0.34341213, -0.00027032197, -0.026519487, 0.13422155, -0.21517782, 0.37981203, -0.26525712, 0.45468023, -0.37073374, 0.05889216, -0.15216012, 0.0851354, 0.16163951, -0.050003633, 0.3310718, -0.14790647, -0.06386987, 0.081462085, 0.02282829, 0.2769675, -0.057976335, -0.043714445, 0.26536268, 0.27694038, 0.377609, -0.17257605, 0.35291776, 0.6844364, -0.25308633, 0.034543466, 0.45202246, -0.72276443, -0.7439244, -0.4259024, 0.08668467, 0.40470567, -0.1960273, -0.056920573, -0.061739136, -0.28227952, 0.3521446, 0.45497754, 0.09962074, 0.24662651]</t>
+          <t xml:space="preserve">무엇이든 처음 배울려면 어렵죠. </t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[-0.5071386, -0.24826841, 0.041952197, -0.3159668, -0.18571353, -0.3928603, -0.0773208, 0.22358723, 0.8160208, -1.0018803, -0.22069064, -0.6318119, 0.26316923, -0.10640156, -0.12443681, -0.3461014, 0.2262011, 0.24034306, 0.40757424, -0.52240837, 0.030019429, 0.686897, 0.90252435, -0.29746738, 0.32512632, 0.30441588, -0.008184988, -0.05378898, -0.20422538, 0.07056178, 0.2749104, 0.579023, 0.28821176, 0.25836873, -0.0034852684, 0.36238363, -0.5013879, 0.020463679, -0.30666256, -0.2880505, 0.017416293, 0.26159298, -0.2871464, -0.07186566, -0.39237827, -0.3792517, 0.029592607, 0.26077086, -0.18939343, -0.12954977, -0.20175913, 0.04074179, 0.035102107, -0.086003944, 0.81514966, 0.66853225, -0.59107935, -0.18171626, 0.24587612, -0.33088374, 0.68811786, -0.67683154, -0.03626063, 0.021445965, 0.3985073, -0.26310053, 0.26590058, 0.51007915, 0.1982611, 0.22555909, -0.029116502, 1.1471218, -0.075114116, -0.99995077, -0.21635437, -0.19442922, -0.25266653, 0.82865745, -0.2588823, -0.0046551498, -0.015665952, 0.18676858, 0.41265377, -0.48039714, 0.4405977, 0.02900759, 0.3730067, -0.48542243, 0.029277185, -0.32335553, 0.4980343, -0.5987206, 0.1968515, 0.017966185, 0.05915777, -0.3361823, -0.12365544, -0.13043994, 0.15702291, 0.17934844, -0.17066889, -0.0584926, -0.31605664, -0.3773326, 0.670318, -0.43332905, -0.3395269, 0.76785535, 0.107674025, 0.14134993, 0.17490432, -0.48840952, 0.5083394, -0.40832233, 0.09145884, -0.110309765, -0.29997754, -0.35229534, 0.1505877, 0.56612444, 0.41666904, 0.08596697, 0.1246568, 0.14157583, -0.3377383, 0.2626582, 0.016626721, 0.22872448, 0.14484711, 0.15562847, 0.54373604, 0.66080886, 0.66389996, -0.11834532, 0.022021372, -0.6722833, 0.07055528, -0.00957714, 0.21902287, 0.17840521, 0.19095673, -0.68711513, -0.42618504, -0.5100783, -0.45797676, -0.24644415, 0.2925201, -0.06020047, 0.36280715, -0.09099349, -0.17025773, -0.6492221, -0.5824856, 0.5197276, 0.22491165, -0.5622522, -0.1261541, -0.48063716, 0.401688, 0.3742637, 0.4883453, 0.44715413, -0.5567368, 0.7618441, -0.29394847, 0.23932524, -0.071805105, 0.07581475, -0.5782268, -0.25385895, -0.36613506, -0.099350736, 0.3810463, -0.48991305, 0.07186437, 0.20436701, -0.34991854, 0.20138697, -0.12502913, -0.0024483292, 0.23224454, -0.06286589, -0.011683415, -0.5861372, -0.067020275, 0.67961854, 0.52076054, -0.56736386, 0.30161613, 0.48819977, 0.23652327, 0.014931267, -0.10375814, -0.0828298, 0.3628796, -0.11377659, -0.14692698, 0.38675946, 0.26945657, -0.036003847, -0.750702, -0.54931647, -0.28093815, -0.06070736, -0.6767921, -0.30912432, 0.14421685, 0.24703297, 0.98453826, -0.08437873, -0.21721289, 0.17344485, 0.6389256, 0.16394496, -0.23164086, -0.488268, -0.43022045, -0.2823874, 0.17147021, 0.10771891, -0.29238328, -1.0353992, 0.8359187, -0.356803, -0.56009007, -0.092343904, 0.19607249, 0.18625546, -0.49764603, 0.4297079, 0.78561175, -0.22721441, -0.47625285, -1.1072313, -0.26013082, -0.07210398, 0.07630335, 0.41736192, 0.48793507, 0.2413722, -0.40356565, -0.032404844, 0.3958801, -0.4123784, -0.08304006, 0.70410925, -0.25110912, -0.6723686, 0.47421613, 0.21903905, -0.21456528, 0.65272427, -0.32943475, -0.01727442, -0.39984065, -0.020200666, 0.31354553, 1.0470371, 0.012595454, 0.59104794, -0.038895585, -0.17225268, 0.065940544, -0.45882016, 0.48027453, -0.09346783, 0.053643417, -0.3137885, 0.15719232, -0.4022418, 0.14494088, 0.04909175, 0.6419714, 0.33105224, -0.069017716, 0.38624057, 0.4673097, 0.23617764, -0.10418743, -0.077304356, 0.19947119, -0.20577171, 0.079873726, -0.335957, -1.3240703, -0.6182996, 0.32065907, 0.3449642, -0.9000967, 0.3022365, -0.041122805, -0.33318672, -0.36448243, -1.116134, -0.75839376, 0.5413926, -0.058685668, 0.37216216, 0.61765474, 0.93777466, 0.092693955, 0.054790895, -0.056264915, 0.9728778, -0.23770794, 0.5909178, 0.073811606, -1.0544448, -0.13035531, 0.029930338, 0.42983404, 0.51180506, -0.36883348, 0.077529445, -0.041687302, 0.3670004, -0.46433482, 0.27817065, -0.26830006, -0.004398863, 0.3177257, 0.18664227, 0.2671805, 0.09294181, 0.46392137, -0.094521925, 0.050925445, -0.22851472, 0.18503281, 0.33523437, -0.59859717, 0.15554783, 0.24271223, -0.12210019, -0.37962705, 0.16242726, 0.3973026, 0.013534628, 0.24252117, -0.4844448, -0.33314607, -0.2321202, -0.25976378, -0.1473052, -0.2350986, 1.2185208, -0.070700444, -0.19156078, -0.14495298, -0.21591596, 0.23115985, 0.01582323, -0.50959927, -0.51212966, 1.1364347, -0.44595498, 0.5560616, -0.2490331, -0.025470842, -0.042207666, 0.53863233, -0.17595223, -0.027941236, -0.6669088, -0.70287687, -0.33643156, -0.56413954, 0.88021356, -0.3094468, -0.08295177, -0.12186779, -0.011014504, 0.1023486, -0.4468778, -0.09631014, -0.18551122, 0.35185984, 0.2451646, 0.25817117, 0.014326578, -0.24966776, -0.36875242, -0.05190746, -0.59746796, 0.2764277, -0.595612, -0.18460174, 0.022145942, 0.24947658, -0.34887567, 0.6541575, -0.7132106, -0.88302153, 0.37395516, 0.5555268, 0.97397184, -0.2636343, -0.75856316, -0.23933879, -0.20990165, -0.53501534, 0.25514632, 0.41994944, -0.15084784, -0.5987898, -0.50000894, 0.05412923, -0.54215384, -0.5931779, 0.6445993, 0.093239084, 0.007220334, 0.3314498, -0.8618723, -0.023950228, 0.05555402, -0.7074663, 0.49830747, -0.7496377, -0.13165525, -0.107775524, 0.08580359, -0.43763644, -0.03964881, 0.26291868, -0.21946666, 0.76436234, -0.27180997, 0.13398111, 0.8845601, -0.0457415, -0.995244, 0.2664354, 0.014097688, 0.41857934, -0.206948, 0.07893364, 0.043410417, -0.059746515, 0.15832135, -0.11712001, -0.26148868, -0.20953472, 0.04744289, 0.39858824, 0.12893729, 0.19876449, -0.45545846, -1.1772077, 0.13091499, -0.2811471, 0.21073373, 0.14573464, -0.025294801, 0.027514536, 0.580292, 0.23466408, 0.3439818, 0.5285009, 0.03652486, 0.3296786, -0.24601173, 0.07201737, 0.0964344, -0.3029564, -0.07326689, -0.07136966, 1.1908189, 0.37265837, 0.034345355, -0.04040236, 0.21414077, 0.8983208, -0.14505461, -0.121841624, -0.44496268, -0.86841166, 0.067902684, -0.048826985, -0.25918406, 0.023367094, -0.37269664, -0.060856692, 0.22127457, 0.28968355, -0.27782944, -0.23670372, -0.70214903, 0.25293288, 0.7805298, -0.8753098, 1.038018, -0.4993801, -0.37055388, 0.5519502, -0.14177069, -0.5132579, 0.44199076, 0.07949009, -0.5023795, -0.32336116, 0.22612405, -0.05405537, -0.8110493, -0.17488578, 0.3053792, 0.38282374, -0.046444852, -0.20142117, -0.97138655, -0.5688237, -0.33203062, 0.032433216, 0.15695539, -0.030641094, 0.000111699104, 0.293927, 0.08006131, -0.120190516, 0.083234586, -0.0070973546, -0.12113706, 0.0072615445, -0.26911896, -0.64801884, 0.3705145, -0.2426761, 0.24331065, -0.17518778, -0.58536625, -0.21209316, 0.03512504, -0.10154946, 0.14597607, -0.2285655, 0.097811446, 0.018054688, -0.045818917, 0.3233694, 0.40415916, -0.26585448, 0.4203716, 0.027638936, -0.108573176, 0.014020687, 0.24355908, 0.20194702, 0.36404532, -0.76530224, -0.044561494, 0.26177508, -0.6275898, 0.8268455, -0.13611026, -0.25721547, -0.42670816, -0.5028051, -0.15844978, -0.46208295, 0.655066, 0.05879284, 0.5350174, -0.034710012, 0.06800504, -0.57799184, -0.40788954, 0.18582478, 0.45946345, 0.2834908, -0.24975784, 0.3817398, -0.21070294, 0.66187286, -0.46780562, -0.12801245, 0.2956787, -0.50956595, -0.37814865, 0.11344199, -0.3092179, 0.16815744, 0.0014586747, 0.20709252, 0.2824002, 0.6116904, -0.34891382, -0.9272973, -0.3267147, 0.12691328, 0.45253292, -0.23181196, -0.86741495, 0.31248182, -0.2842243, -0.4693745, -0.30596623, -0.97849846, -0.3197261, -0.34645075, 0.14952013, 0.15489051, -0.05854241, -0.5770639, -0.8377589, 0.4960545, -0.6229039, 0.3176796, -0.16320491, -0.7986425, -0.042978458, -0.026803259, -0.29494458, -0.37445664, -0.17742129, -0.8449976, -0.18503626, 0.018083356, -0.269227, 0.42898273, 0.46759194, -0.454919, -0.044510297, -0.94698966, -0.47742805, -0.78907406, 0.14498849, -0.27586147, 0.6604015, 0.12065433, -0.16222396, 0.23920664, -0.03671552, 0.07682626, 0.74429494, -0.1347202, -0.37940088, -0.9174775, 0.2162602, -0.8983966, -0.9654454, 0.38607413, -0.823462, -0.13886431, -0.14721298, -0.04530126, 0.28839976, -0.6372132, 0.47885546, -0.015892886, 0.5099882, -0.5311142, -0.8410219, 0.61429054, -0.17665055, 0.107666396, 0.20868139, -0.4236164, 0.7196177, -0.1573885, 0.52905333, 0.06316475, 0.34218365, 0.31902045, -0.14112929, -0.69435453, 0.5458204, 0.45328254, 0.3257696, -0.61307484, 0.39529887, 0.34851277, -0.39964285, -0.51566297, -0.20873904, -0.44226795, -0.19145903, -0.4468212, -0.0020712465, 0.5866784, -0.55424225, 0.16540381, 0.02706739, 0.65115434, 0.20368823, -0.43580183, 0.10727985, 0.2182246, -0.1307008, -0.2836411, 0.5581296, -0.098793015, -0.60423255, 0.0071630566, -0.19816536, -0.4564663, 0.36140805, -0.32960525, 0.28825036, -0.14869735, -0.24432108, 0.19001898, 0.31015733, -0.4780478, -0.27370226, -0.22250752, 0.29081887, -0.34327897, -0.0018885419, -0.9641411, -0.030238908, -0.33495596, 0.4486452, -0.6682019, -0.37791997, -0.3733575, -1.0330392, -0.040710863, 0.28213757, 0.036406644, -1.0150212, 0.5358028, -0.14611924, 0.2395353, -0.6734226, -0.5783985, 0.15373656, 0.44328803, 0.18702173, 0.14908335, -0.7576961, 0.03379672, -0.94966185, 0.26943606, 0.12808302, -0.013836664, 0.29980206, -0.23404102, 0.347509, -0.20271447, 0.20732991, -0.4596719, 0.51934326, 0.054161586, 0.00142349, -0.123810485, 0.41631413, 0.093308225, -0.28347567, 0.27617735, -0.1832908, 0.18837377, 0.029432625, -0.14821216, -0.015671402, 0.31313792, 0.372098, 0.08892968, -0.20075917, 0.04520423, -0.26452345, 0.054352015, -0.13015012, -0.3549867, 0.42915368, 0.5399221, 0.46617675, 0.18993416, -0.28889915]</t>
         </is>
       </c>
     </row>
@@ -1284,18 +1468,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>물성 측정 시 오차가 왜 크게 나오나요?</t>
+          <t>식품 물성학을 어떻게 공부해야 하나요?</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>다양하나 요인이 있겠지만, 실험자의 숙력도, 시료의 불균일성이 주요 요인 것 같아요.</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>[-0.41137832, -0.003001674, 0.0823276, -0.98028904, -0.13049561, 0.11889799, -0.13444243, 0.41274723, 0.11336728, -0.49201056, -0.6761641, -0.35885194, 0.1705854, 0.035740178, -0.29538155, -0.30540812, 0.37046203, 0.40251634, -0.59778774, -0.47694147, -0.06255805, 0.39189437, 0.33468038, 0.38669816, -0.072978415, -0.2906631, -0.51515925, 0.4070047, -0.058045458, -0.2138516, 0.16909923, 0.8297999, -0.15474269, 0.4667496, 0.04751912, 0.3710589, -0.31941238, 0.054610558, 0.0359713, -0.1859635, 0.22530024, 0.4131527, 0.0033107598, -0.10808734, 0.67276835, -0.20254302, 0.67672795, -0.41689238, -0.028925072, 0.20992024, -0.2986122, 0.1253535, 0.13173632, 0.2449924, -0.20937993, 0.095950775, -0.56607777, 0.19979136, 0.3356458, 0.5497533, 0.32133836, -0.7662114, 0.07325829, 0.19588524, -0.26804674, -0.34135684, 0.048571285, 0.08989408, -0.10368809, -0.4700607, 0.11580338, 0.25295067, -0.6283518, -0.37983233, 0.23203291, -0.12574019, -0.56222373, 0.34181398, 0.72057545, -0.24021126, 0.37060276, 0.021564554, -0.95409554, -0.2519776, 0.81845963, 0.04610101, 0.3626884, -0.5454249, -0.0523112, 0.52026635, -0.37729543, -0.4156366, 0.19673154, 0.5556556, -0.21616636, -0.10460975, 0.35402644, -0.12540148, 0.4967814, 0.6753385, -0.35596725, 0.14308228, -0.35236895, 0.6007992, 0.6291477, -0.08985723, -0.3512599, 1.1769387, 0.36080328, -0.21821998, 0.3656217, -0.21490172, 0.14782946, -0.3687925, 0.16768186, 0.2618587, -0.24115108, -0.30087006, -0.17885628, 0.6688998, 0.19636734, -0.21019547, -0.48393753, 0.3972382, 0.15729332, 0.64821917, 0.047618467, -0.02200919, 0.26141593, 0.079521134, 0.16836599, 0.51263875, 0.7420579, 0.05816436, -0.48232308, -0.45098916, 0.54624474, 0.07489595, 0.21878509, 0.4503494, -1.1750852, -0.11549205, 0.05227847, -0.3556436, 0.38508165, -0.41771665, 0.59320056, 0.03481104, -0.085424766, -0.42531893, -0.2905856, -0.85580164, -0.6557502, -0.4792609, 0.4656985, -0.2988917, -0.22802736, -0.1851262, 0.66036016, 0.0426596, 0.4136157, 0.06265737, -0.3886394, 0.48835582, 0.08047149, 0.10249756, 0.115032114, 0.005426882, -0.070031025, -0.6244959, -0.39395803, 0.15166856, 0.25677398, 0.009870315, 0.68013513, 0.11131811, -0.6614441, 0.19874345, -0.14398785, -0.68603486, 0.33472383, 0.32675067, 0.090564094, 0.15418105, 0.073098645, 0.14345591, 0.34608683, -0.44473922, -0.28172824, 0.057036266, 0.37376028, -0.20045851, -0.2970901, 0.10592452, -0.17456484, 0.031235058, -0.030471463, 0.34835494, -0.14385504, 0.008432086, -0.5376447, 0.46157268, -0.26103088, 0.008100516, 0.13223776, 0.45231226, -0.60393107, 0.44061577, 0.33201754, -0.5238653, 0.098431334, 0.8899652, 0.19523123, -0.39273703, -0.111049436, -0.7556571, -0.03431708, 0.14636736, 0.089099616, 0.116486646, -0.2168916, -0.6326886, 0.9377917, -0.25707954, -0.6473678, -0.35599592, 0.22510436, 0.40420952, -0.10809908, 0.510845, 0.16819754, -0.6728182, -0.9592437, -0.7768563, 0.21976349, -0.26636207, -0.16352876, 0.4632172, -0.5393063, 0.03013269, -0.18120973, 0.009235069, -0.4805546, 0.18387206, -0.0010209789, 0.678034, 0.18748625, -0.0636507, 0.089991115, 0.092688605, 0.0014804981, 0.19192685, -0.06016028, -0.20095223, 0.20445463, -0.116916135, 0.2251239, 0.9379329, 0.093688816, 0.24185966, -0.0010573069, 0.045531876, -0.2783681, -0.2273075, 0.35855737, -0.28723967, 0.09858321, 0.032828227, 0.07307221, -0.32669058, -0.62271595, -0.03113226, 0.2805123, -0.36549652, -0.40602875, 0.29234067, 0.09909647, 0.027180964, -0.08519929, 0.078213945, -0.2730672, 0.41854098, 0.4359931, 0.15264569, -0.2277724, -0.47425494, -0.51071227, -0.46907485, -0.33880666, 0.0034118951, -0.384994, -0.3683593, -0.48860073, -1.2937404, -0.10837723, -0.16454726, -0.04372277, 0.25558516, 0.69729537, 0.9940304, 0.0074249287, 0.42225608, -0.41547787, 0.48554614, -0.16665731, -0.0061882585, -0.44179928, -0.8333992, 0.012069392, 0.0038830063, 1.0184343, 0.44141638, -0.21359488, 0.31144094, -0.025766026, -0.28390428, -0.19524768, -0.29411635, 0.25428662, 0.6451434, -0.2903792, 0.43907043, -0.4795517, 0.11034091, -0.005845071, 0.26604182, 0.3083555, -0.024948578, -0.376589, 0.10744891, -0.37343693, 0.07450544, 0.65763694, 0.01876951, -0.10007544, -0.27313372, 0.502279, -0.36960438, -0.1754907, -0.11780067, -0.47409847, 0.20027766, -0.8419939, 0.08767144, 0.074743815, 1.0477568, -0.23194344, 0.12725447, 0.01627729, -0.6087979, 0.12124442, 0.13806613, -0.12993589, -0.26053688, 0.9090445, -0.18668145, 0.39296868, 1.0283043, 0.4745642, -0.16174206, 0.6168391, -0.54245704, 0.11940965, 0.26275626, -0.42244905, -0.92723596, -1.0442039, 0.65364164, -0.11796355, -0.22430617, -0.2353746, 0.008169202, 0.36031654, -0.0073554316, -0.44093323, -0.27735296, -0.08344795, 0.20637693, 0.09021097, -0.036579646, 0.040000744, 0.4770969, 0.16425923, -0.39160937, -0.24860735, -0.5026924, -0.47709292, 0.09876421, 0.077091806, 0.28007725, -0.034622796, -0.61923707, -0.361052, 0.16326706, -0.8034383, -0.24129438, -0.24825457, 0.25411543, -0.27101335, 0.23911783, 0.36683556, 0.51991713, -0.16348411, 0.7100828, -0.0636436, -0.29991204, 0.2794809, -0.1710377, -0.745242, 0.24389431, -0.022372345, -0.67130536, 0.20888217, -0.3687067, -0.3440958, -0.14980474, -0.5621102, 0.04729111, -0.5906045, 0.23547354, -0.034156535, -0.4125621, 0.286153, -0.06539159, -0.10140392, -0.44887435, 0.66162974, -0.20781972, 0.20417285, -0.431906, -0.47023898, -0.22785486, 0.09313916, -0.25998178, -0.3533402, -0.07665102, 0.17554113, -0.22028017, -0.24265827, 0.24862857, 0.22624044, 0.12855126, -0.39876932, 0.70734733, 0.3719112, 0.16808383, 0.41262576, 0.23662901, -1.2036693, -0.36446586, -0.41525003, -0.5355936, -0.50433236, 0.4160979, -0.43118522, 0.2619445, 0.37419584, 0.18178305, 0.08387267, -0.36465853, -0.020996448, 0.2408368, 0.17114456, -0.110201225, -0.028938273, 0.66359365, -0.26297557, 1.1707475, 0.34820738, -0.2105019, -0.21663429, 0.06298028, 0.650246, 0.0011075278, -0.093466, -0.5449146, -0.50180453, 0.10656517, 0.03146341, 0.073448755, -0.6234257, 0.18975988, 0.15197359, 0.7433455, 0.44456825, -0.036042754, -0.495781, -0.7578867, 0.38669023, 0.64136285, 0.02265054, 0.07648938, -0.85180575, -0.7482185, 0.62063766, 0.19243786, -0.80920064, 0.45176873, -0.07817471, -0.33664712, 0.01165333, 0.3267368, -0.084737554, -0.5156651, -0.36656272, 0.121961914, -0.057578005, -0.33215442, -0.5138806, -0.3804755, 0.06632588, -0.07147024, 0.32687208, 0.008326043, 0.09211547, 0.8605465, -0.24183352, -0.14261004, 0.13438034, 0.07463244, -0.5686143, 0.06759619, -0.11641373, 0.29787743, 0.0570972, 0.24929328, -0.10972176, 0.61357933, 0.33798403, -0.41398707, -0.3302141, -0.059783626, -0.49998096, 0.19198091, -0.289008, -0.0046558855, -0.1579905, 0.28725904, 0.42341188, 0.5716125, 0.2178398, 0.40766114, 0.4216684, -0.7526758, 0.11974401, -0.050528716, -0.1418003, 0.2991883, -0.1815067, -0.20104283, -0.28056967, -0.89543515, 0.015019332, -0.08960393, 0.21649551, -0.08831649, -0.1141619, -0.2621899, -0.40911087, -0.021292644, 0.05907105, 0.35822302, 0.42496487, 0.37248033, -0.57273644, -0.12030634, 0.052724175, 0.5448588, -0.5873565, -0.38606283, 0.18603197, 0.4464606, -0.52033424, -0.29968035, -0.31347743, -0.808964, -0.9611645, -0.67733794, 0.22976708, -0.052120566, 0.3042263, 0.17535056, 0.73071456, -0.13062264, 0.46263918, -0.32067797, -0.5221249, 0.35036477, -0.252647, 0.5035258, 0.16417503, -0.6531317, 0.32162723, -0.030318849, -0.218744, -1.1034693, -0.75909203, -0.52028775, -0.4025349, 0.13141733, -0.15251638, 0.16817573, -0.60313594, -0.6004113, 0.49372107, -0.87222326, 0.20044416, 0.5544451, -0.55927575, 0.32236212, -0.87754655, 0.34497687, 0.028344516, 0.14590546, -0.45624143, -0.31000978, 0.044335585, -0.4647303, 0.27259105, 0.41273433, -0.18824977, -0.73758113, -0.7916643, -0.63341874, -0.32663313, 0.014413202, -0.13743673, 0.32026246, 0.036449604, -0.109053925, 0.3225479, 0.042270694, 0.094934985, 0.5616569, -0.47067726, 0.18349656, -0.032597598, 1.1250619, -0.3580695, -1.2150993, -0.26396215, -0.13460842, -0.2264244, -0.41282356, -0.36807957, 0.52015233, -0.18264708, 0.8858825, -0.37789518, 0.46985006, -0.47680703, -0.5730042, 0.122537084, -0.14719786, 0.055576, 0.01693024, -0.18416558, 0.27222472, -0.4975391, 0.18212837, -0.2898401, -0.40467203, -0.21903762, -0.18928915, -0.8000754, -0.22334096, -0.26998112, 0.031235687, -0.29885522, 0.2889684, -0.17744929, 0.43603653, -0.13580269, -0.4407444, -0.42100134, -0.40255445, -0.06894195, -0.15745774, -0.06179534, -0.5505611, 0.21376897, 0.5711823, 0.06557528, 0.22592281, -0.49866745, 0.54580826, -0.07693808, 0.36828992, 0.23157796, -0.15582198, -0.43183705, -0.71207935, 0.13510102, -0.9479214, 0.6195064, 0.03803218, 0.11089465, -0.14684916, 0.31538075, -0.09024204, 0.16643381, -0.06029426, -0.39622995, 0.35526225, -0.62785244, -0.16726233, -0.015159694, 0.22851554, -0.14590344, 0.17106542, -0.19289058, -0.33730137, -0.33198085, -0.23283513, -0.036589112, -0.49715906, -0.034700964, -0.5347675, 0.012474525, -0.8720825, 0.5846724, 0.14918111, -0.30253127, -0.4557927, -0.76586556, 0.13185248, 0.3839078, -0.31282145, 0.08147933, -0.763936, 0.24715862, -0.039801534, -0.621714, 0.55046237, -0.12686338, 0.18872146, 0.00013284286, 0.29598707, -0.2539151, 0.12233785, -0.21757174, 0.6354853, 0.33620965, 0.5633227, 0.31167552, 0.45399317, 0.12637594, 0.23600294, 0.18906094, -0.56937563, 0.25285462, 0.035874646, -0.33896545, 0.2253979, -0.38208398, 0.20815454, 0.12948751, 0.1653554, -0.017255336, -0.25146225, 0.4870178, -0.51431686, 0.20565908, -0.23955229, 0.9004848, 0.5306533, 0.31696904, -0.21066312]</t>
+          <t>식품 물성학 원리와 응용이라는 교재를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[-0.63578916, -0.3379475, 0.09747043, -0.5521727, -0.17870046, -0.44625166, -0.036279127, -0.25695625, 0.34373906, -0.5368681, 0.077149995, 0.12303776, 0.17001574, -0.0943061, -0.21101525, -0.04965274, -0.021733282, 0.10919629, -0.07392301, -0.33569482, 0.06899644, -0.010299767, -0.059695207, 0.17583558, -0.23702484, -0.4105132, -0.46012303, -0.13311838, -0.36602354, 0.03309898, 1.2120678, 0.29551202, 0.35549492, -0.0038381603, -0.16389471, 0.24779166, -0.12512146, -0.042565502, -0.28983966, -0.087880306, -0.47725803, -0.5646606, 0.39084494, 0.16833432, 0.113064855, -0.28685898, -0.26718882, 0.41231233, -0.061071612, 0.19814593, -0.5047261, -0.15398274, 0.09627346, 0.4827496, -0.064603, -0.21764722, -0.09880923, 0.644729, -0.2076249, -0.67524457, -0.016085397, -0.35796782, -0.11587772, -0.2786161, 0.31163222, -0.57667005, -0.18756148, 0.31659415, 0.15385292, 0.11130386, -0.32621524, 0.10189371, 0.50953203, -0.23876221, -0.12891217, -0.13643159, -0.35057864, 0.42006227, 0.1080286, 0.3994587, -0.102852054, 0.2635631, 0.13679844, -0.9602226, 0.6724932, -0.85997474, -0.088447504, -0.8108183, -0.67693967, 0.15931462, -0.0133922715, -0.057027776, -0.17923528, 0.1682461, -0.028453367, -0.52919805, -0.50912434, 0.51715475, 0.10200561, -0.65201086, -0.2558227, -0.4207299, -0.5297066, 0.49298698, 0.0046134247, -0.15475737, -0.1982936, -0.075605884, 0.10967216, -0.18989879, -0.17217232, -0.89630187, 0.35668162, -0.42357957, -0.14225358, 0.5702109, -0.058825593, -0.37622803, 0.1614332, 0.44605905, 0.16997129, -0.2556166, 0.017440768, 0.21598174, 0.052074905, 0.051476516, -0.050724737, -0.30806428, 0.70945525, -0.7266054, -0.02644114, 1.1030116, 0.7500907, 0.3358467, -0.31146067, -0.71177095, 0.14173064, -0.10312368, 0.6495522, 0.78047204, -0.24080664, -0.21723516, -0.54284036, 0.3239902, -0.54575056, -0.6223745, 0.49537516, -0.37655926, 0.4436113, -0.2503509, -0.46802253, -0.20954561, -0.7999144, 0.49225056, -0.12302992, -0.33357123, -0.3269868, 0.019548496, 0.036102567, 0.078189604, 0.48112684, 0.7865648, -0.34970468, 0.5600367, 0.50932735, -0.6718967, 0.07994421, -0.26151124, 0.16182984, -0.59708345, -0.60749525, 0.20785764, 0.45835435, -0.5063526, 0.27097455, 0.21428153, -0.8600293, 0.13975106, -0.23637913, -0.0047294246, 0.46260995, 0.7095444, -0.11319787, 0.20378193, -0.013592021, 0.26567632, 0.16188788, -0.31759202, -0.5190857, -0.28606766, 0.48859164, -0.63338786, -0.11514345, -0.7381265, 0.044413283, 0.48840317, -0.47004312, 0.5289543, -0.17414914, -0.024730874, -0.438623, 0.051047746, -0.23344943, 0.74456304, 0.08201126, -0.15960795, 0.22735082, -0.007974709, 0.100558355, -0.2651397, -0.21537088, -0.21499874, -0.14966366, 0.58091223, -0.18168654, -0.7053885, -0.36990836, -0.18628797, -0.4660737, 0.23284641, 0.27969635, -0.50528055, 0.39272243, -0.33387083, -0.047156498, -0.16918851, 0.5174312, 0.82835186, -0.30150253, 0.3635843, 0.06326144, -0.2609033, -0.42784756, -0.56144893, 0.06402318, -0.66131204, 0.417703, 0.79428333, -0.33861127, 0.27966025, 0.38710845, 0.10404837, -0.044677757, -0.048357043, -0.6887647, 0.15517777, 0.12836832, -0.32562244, 0.2621122, -0.2377767, 0.4761352, -0.1450505, -0.28875163, -0.061687596, -0.26509026, -0.7605146, 0.40965837, 0.39262405, 0.26850638, 0.23962967, 0.31281534, 0.38320446, -0.06605223, -0.18444769, -0.5911014, 0.0066108564, 0.27751797, -0.97162044, 0.36683872, -0.87990063, -0.29063007, 0.11369528, 0.654972, 0.69777197, -0.01955552, 0.7634585, -0.55035335, 0.817065, 0.30162495, 0.26679838, -0.09850041, 0.43103954, 0.23756638, 0.23603112, -0.18611996, -0.42657322, 0.36003286, -0.3961438, -0.08948498, -0.092585415, -0.17573577, -0.46337545, -0.17296775, -0.5081958, 0.18450049, 0.11611263, -1.4109588, 0.25774688, 0.07639099, 0.86054, -0.004649902, 0.69211197, -0.038000364, 0.48803535, -0.21687792, 0.4717588, 0.11129982, -0.08408599, -0.87330043, 0.57955253, 0.5208843, -0.14175233, 0.09941447, -0.20812255, -0.21981679, 0.084593564, 0.22732422, 0.4851584, -0.5222435, -0.007628883, 0.111649685, 0.45188427, 0.15128645, -0.45792753, 0.277113, 0.32955, 0.5795282, -0.15757595, -0.055900447, -0.44363686, -0.81603426, -0.6610438, 0.109893754, -0.3026639, -0.08549059, -0.35418606, -0.1899182, -0.43712953, -0.061000757, 0.21021296, -0.040750854, -0.27654976, -0.26240146, -0.45318827, -0.51590353, 1.0849617, -0.03843508, -0.6253855, -0.20717151, -0.55478454, -0.22570665, 0.06826924, -0.12457932, -0.0792019, 0.721508, -0.24748339, 0.3508814, 0.7360288, -0.24126028, -0.01925076, 0.4772274, -0.4573345, 0.014762143, -0.19995253, -0.57750297, 0.08830985, -0.73061436, 0.54828525, -0.017085383, 0.6616866, -0.16729379, -0.7720859, -0.13848282, -0.27758688, -0.093482934, 0.08547981, 0.073451355, -0.36018407, 0.13587378, 0.30831087, 0.12771083, 0.031054102, 0.14932217, -0.90234226, 0.5773087, -0.8127382, -0.36907163, -0.3718484, -0.13377887, -0.021026928, 0.43237713, -0.054740313, 0.1361013, -0.099941306, -0.45761707, 0.45389217, -0.4448109, 0.014718131, -0.23686822, -0.005405259, -0.06974557, -0.41108307, 0.22324353, 0.17848587, 0.49733317, -0.15606068, 0.120765455, -0.11541184, -0.51762587, 0.05009597, 0.08120005, 0.14462563, -0.47688624, -0.8674063, 0.037219256, -0.16750082, -1.3860672, 0.55179334, -0.63840115, -0.07203607, 0.15352409, 0.06050658, 0.43746457, -0.044947367, 0.22901788, 0.03953622, 0.46440282, -0.12079429, 0.7511144, 0.4248527, 0.49597248, -0.57749426, 0.04693411, -0.054652352, 0.16911282, -0.57464474, 0.4818357, 0.45053786, 0.010278722, 0.38098696, -0.08885563, -0.62786776, -0.10027969, 0.08478835, 0.3054261, -0.052359644, 1.0640123, -0.3376624, -0.31688043, -0.6163868, 0.017796937, -0.3410776, -0.984616, -0.073696405, 0.09161973, -0.44209686, 0.19304982, -0.10713381, 0.391016, -0.3943922, -0.09880153, 0.14522442, 0.11968725, -1.081426, -0.16259156, 0.9419263, -0.14410533, 0.128235, 0.09903475, 0.35476345, 0.054622926, -0.13324468, 0.105874814, -0.33379537, -0.302682, -0.63921446, -0.11252194, -0.057035193, -0.4909244, 0.23464102, -0.10975662, -0.18352915, 0.14362358, 0.15657172, 0.7363243, 0.53099895, 0.0077324533, -0.16180006, -0.11430078, 0.5392686, 0.09405291, 0.4683688, 0.029860077, -0.68672156, 0.7466579, -0.2958571, 0.46046177, 0.611653, 0.005476633, 0.42966476, 0.4068699, -0.075961515, 0.07368163, 0.12110645, -0.4666347, 0.039940935, 0.26882565, 0.106605634, -0.43706518, -0.16122843, -0.61745167, -0.57197917, 0.04816244, 0.3202856, -0.6863402, 0.47456023, 0.60657984, -0.18263406, -0.0821047, 0.27975506, 0.55087715, 0.11179842, 0.7527452, 0.12805647, -0.19765337, -0.3364706, -0.40992847, -0.047591824, 0.29342872, 0.19995913, 0.5035128, 0.0005515722, -0.11248736, 0.46482226, 0.14920987, -0.11283526, -0.03341283, -0.08104933, -0.067883044, 0.59430385, -0.31691316, -0.07516393, 0.8803535, -0.24459368, -0.111751944, 0.25924122, 0.48871312, 0.21169135, -0.19256388, -0.5755596, -0.46958858, 0.26429808, 0.12815699, -0.5391916, -0.17970389, -0.02474176, 0.21287957, 0.046491466, -0.47963622, -0.4686774, 0.2825527, 0.19950686, -0.9314753, 0.21589231, -0.42277718, 0.29469347, 0.3840997, 0.26941255, -0.033849813, -0.09443385, 0.06481181, 0.2081804, -0.2284202, 0.60975754, 0.0741309, -0.30139795, -0.5737029, -0.6427056, 0.14458473, -0.47225338, -0.2450361, 0.16982095, 0.009129708, -0.18571447, 0.5286634, -0.18172055, -0.8343524, -0.006784282, -0.6650388, -0.014135876, 0.0007349929, -0.49222088, 0.39521408, -0.18573648, -0.7071936, 0.048444115, -1.3530186, -0.43604425, -0.18291642, -0.18764351, 0.15713556, 0.48381236, -0.46107766, 0.023076367, -0.40561166, -0.62935835, 0.41463262, -0.7857986, -0.15000471, 0.0665333, 0.22785097, 0.280756, 0.59248304, -0.35354277, -0.24772015, 0.53828865, 0.49290445, -0.14283963, 0.13964225, 0.43927625, -0.4608584, -0.35130036, -0.565447, -0.66222703, -1.0318881, 0.0002155579, 0.0463554, -0.24559762, -0.39889857, -0.054772634, 0.9231837, -0.5344454, -0.1805453, 0.25884894, -0.3198193, -0.15599632, -0.40728492, 0.6112883, 0.1281736, -1.0558131, -0.6068478, -0.23221797, -0.03822395, 0.13860494, -0.26857105, 0.18935889, -0.82867324, 0.37177357, 0.18553771, -0.10248624, 0.18870662, 0.0021285599, 0.24234788, -0.049790286, 0.16131662, 0.14075685, -0.29675937, 0.7383481, -0.46799877, -0.42130882, -0.46669823, 0.138042, 0.22044776, 0.17726539, -0.5962125, -0.62673277, 0.026691966, -0.0236506, -0.39259988, 0.87741375, -0.13461736, 0.007873788, -0.71184736, -0.033422843, 0.018220367, -0.5200046, 0.11968077, 0.4472996, 0.66015536, -0.17462543, -0.46939236, 1.0169305, 0.9019746, 0.29504678, -0.4635458, 1.1316692, 0.25279725, 0.34421334, -0.16535567, 0.5986187, -0.49852303, 0.4373088, 0.3455896, -0.4363329, 0.13047022, 0.2890856, -0.8061991, 0.6569455, -0.26864702, 0.05550564, -0.029980062, 0.7018245, 0.050270703, -0.067029275, -0.093605965, -0.40634853, -0.1755273, -0.04769797, -0.5356647, -0.24147469, -0.17041144, -0.29076415, -0.34087878, -0.21332599, -0.36380276, -0.37551886, 0.065982066, -0.38807577, -0.06138399, -0.58720505, 0.20260026, 0.37948182, -0.44838715, 0.05220523, -0.2918266, 0.2676361, 0.38812917, -0.10866277, 0.32939646, 0.014531597, -0.1655849, -0.27198762, -0.5042024, 0.16420569, 0.74513435, 0.16244103, -0.08560826, -0.06760417, 0.15409543, -0.04976519, -0.26669186, 0.3352332, -0.5671543, 0.18226577, 0.060175776, -0.1775145, 0.28282726, 0.6961553, 0.16824977, 0.1324652, -0.6101927, 0.12860844, -0.1472997, -0.14972834, 0.20819464, -0.0056623267, -0.32647103, 0.117517985, 1.1589965, -0.3028073, 0.40093428, -0.12451325, -0.017603476, -0.31931388, 0.3971706, 0.8936084, 0.6408037, 0.13756154]</t>
         </is>
       </c>
     </row>
@@ -1305,18 +1494,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>생선의 물성은 어떻게 측정하나요?</t>
+          <t>식품 물성학 책을 추천해주실래요?</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>참 어려운 질문인데, 일단 texture analyzer 를 고려할 것 같아요.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>[0.3414375, -0.110343195, 0.6018774, -0.3377048, -0.13034976, -0.03060793, -0.008906092, 0.29856452, 0.39886394, -0.4651517, -0.15461375, -0.03903873, -0.10328949, 0.22267722, -0.38101602, 0.4053557, -0.16066247, 0.57952064, -0.5406092, -0.16681103, 0.23305011, -0.12227717, 0.2879679, -0.11715395, -0.43231043, -0.036432896, -0.6762529, -0.18665107, 0.0978987, -0.68253785, 1.1143042, 0.47760788, -0.20636593, 0.16092597, -0.24862377, -0.3661339, -0.1487802, 0.39269885, 0.16818814, -0.20924242, -0.9638281, -0.5173397, 0.3006614, 0.55275464, 0.21177171, -0.18377572, 0.18251057, -0.34729174, -0.02374663, 0.05546455, -0.5594158, 0.6476684, 0.030445496, 0.32947454, -0.46390066, -0.87285095, 0.024113625, 0.35562077, -0.07799486, -0.4766835, 0.27118242, -0.5142717, 0.08665771, -0.53416634, -0.14671445, -0.33551022, -0.53382915, 0.15690511, -0.4165615, -0.07303407, -0.106295675, 0.21150441, 0.46793225, -0.44706222, 0.19723289, -0.8213267, -0.45101473, 0.12627941, 0.68544024, 0.5339766, 0.1663803, -0.49388266, -0.22523795, -0.6704009, 0.5416087, -0.7052025, -0.49922943, -0.5063786, -0.002510724, -0.11724145, -0.2822473, -0.17620456, 0.26809242, 0.3613728, -0.83089375, 0.09479023, 0.0057750377, 0.15384217, 0.2601949, 0.002715025, -0.060091782, -0.22170806, -0.43105277, 0.9734861, 0.54108113, 0.18733835, -0.38286185, 0.4188842, 0.85983866, -0.3101647, 0.35628906, -0.40710977, 0.26168913, -0.18408929, 0.6122871, 0.37217596, -0.4400201, 0.13028063, 0.28624862, -0.047604334, 0.0034540147, -0.21732342, -0.2818136, 0.29317012, -0.04759693, 0.18466069, 0.27568015, 0.21702199, 0.586832, -0.49012515, 0.08991025, 0.5804145, 0.48697662, 0.33902776, -0.38588956, 0.039711267, 0.6161379, -0.058258165, 0.5744107, 0.51710033, -0.80110544, -0.019038072, -0.29028204, -0.15854019, -0.48470843, 0.12998907, 0.13846424, -0.65016276, 0.066610545, -0.4594752, -0.49018028, -0.12307473, -0.22936642, 0.32643497, 0.4924778, 0.15359694, 0.3195528, -0.17706871, 0.5274789, -0.0573834, 0.61841923, 0.35982242, -0.15173282, 0.12297985, 0.06347608, -0.6326377, 0.14391638, -0.015626332, -0.25305665, -0.8129363, -0.108805664, -0.115890115, 0.7065193, -0.5392326, 0.16807316, -0.2308674, -1.1598021, -0.42006385, -0.7283163, -0.9615211, 0.65377, 0.085868865, 0.11699746, -0.56669456, -0.37333322, 0.23478925, 0.42516065, -0.07264745, -0.8641152, -0.73350257, 1.1896435, -0.48610616, -0.28349248, -0.0071856566, 0.56606513, 0.62930554, -0.5878848, 0.14207639, -0.5545696, 0.40717897, -0.37420753, 0.41573265, 0.39825186, 0.6882677, -0.058705986, -0.39042893, 0.71908516, 0.047675684, 0.3718758, -0.31003, -0.03622274, 0.48657596, -0.1017541, 0.48272052, -0.18142836, -0.8639069, -0.34007803, -0.28404054, 0.10009726, 0.017362239, 0.4368645, 0.12569517, 0.2978618, -0.60760134, -0.03784907, -0.62268394, 0.5057972, 0.66590613, -0.26083007, 0.089027725, 0.08892974, -0.28634557, -0.5241127, -0.34549716, -0.14814115, 0.075133435, -0.2656227, 0.67273235, -0.73706454, 0.2343585, -0.304338, 0.40081772, -0.39548185, -0.016246887, -0.56836706, 0.13471681, 0.20051222, -0.048400983, -0.33573544, 0.08989588, 0.497411, 0.27130386, -0.022694556, -0.40221438, 0.035325956, 0.47165307, 0.02493908, 0.31495497, 0.19446023, -0.24447657, -0.33611274, 0.18965757, -0.8676745, -0.08798245, -0.23396052, -0.16630924, 0.72756267, -0.45670506, 0.20720156, -0.3957933, -0.34483922, -0.39172372, 0.616333, 0.084733896, -0.53162706, 0.6326647, -0.46492743, 0.22739412, 0.44949546, 0.6981494, 0.14002438, 0.38496593, 0.31307545, 0.15555348, 0.6982778, -0.5725695, 0.20683439, -0.633151, -0.9043405, -0.41080117, -0.40909982, 0.08799517, 0.24313813, -0.25839835, 0.52066845, 0.32186463, -0.49099588, -0.16323195, 0.7926703, 0.8214639, -0.17071576, 0.6451747, -0.045705568, -0.19897865, -0.85333914, 0.4516177, -0.33043197, 0.03563414, 0.05875585, 0.42411172, 0.16051815, 0.63384455, -0.5300426, 0.019088319, 0.41767797, -0.529113, -0.031380747, -0.17955254, 0.009441019, 0.04257876, -0.48156354, 0.70634526, -0.00896858, -0.2645491, 0.10043342, -0.037064705, 0.31042257, 0.012502324, -0.40830815, 0.19408321, -0.8088586, -0.17230122, 0.03344723, -0.21140069, -0.5976364, -0.58106035, -0.07232457, -0.3758006, 0.23977585, 0.28878567, 0.102759875, -0.1274491, -0.7944112, 0.13553594, -0.70289797, 1.1660341, -0.1363578, -0.71771115, -0.0175112, -0.5334358, -0.20511918, -0.19555627, 0.0119606005, 0.23104705, 0.271719, 0.5216545, 0.098170005, 0.72569484, -0.1305639, -0.35284904, 0.6215511, -0.398531, -0.3563563, 0.26297513, -0.38555574, -0.60211086, -0.7546494, 0.4212724, -0.13321307, 0.17402898, 0.018728776, 0.16230492, -0.122051336, -0.16665052, -0.10645067, 0.29677835, -0.26961327, -0.4263425, 0.09122441, -0.19596815, -0.28626046, 0.93428916, 0.0732603, -1.0015922, 0.3543854, -0.2667789, -0.18243505, -0.5926342, -0.43420097, 0.13322763, 0.6439764, -0.011546562, -0.45253813, -0.03944392, -0.70616263, 0.2067753, -0.007095533, -0.27255335, -0.8578406, 0.29560682, 0.3529068, 0.6944568, 0.18695915, 0.06301149, 0.124411695, -0.09871769, -0.09909913, 0.15861838, -0.0913387, 0.35595325, 0.12169353, -0.10367415, 0.1313471, -0.2759358, -0.42589548, -0.39662623, -0.9550033, 0.41256163, -0.057552572, -0.18579942, 0.67208743, -0.4093925, 0.60153764, -0.2508368, -0.59779656, -0.3250465, 0.781806, 0.13684534, 0.870451, 0.32665253, 0.46703967, -0.7382731, 0.33742133, -0.36610177, -0.04076586, -0.54865783, 0.6550544, -0.2985172, 0.43685332, 0.3111764, 0.33036643, -0.00042450675, -0.29864392, 0.09232681, 0.48001206, 0.08955941, 0.514574, 0.22481845, -0.049411584, -0.5364049, -0.44965887, -0.5001916, -0.93282956, -0.075644605, -0.8119228, 0.19776757, -0.2974551, 0.15323943, -0.12741973, -0.02914857, -0.39476952, -0.11946922, -0.22528912, -0.29057655, -0.46034157, 0.12266978, -0.08317765, 0.42842028, 0.502455, 0.12852651, -0.44427612, -0.12720604, 0.6113448, -0.26608804, -0.93049186, -0.54128546, 0.21397029, -0.005546835, -0.44262266, -0.1975971, -0.7160483, 0.36733785, -0.0697496, 0.89503056, 0.6275446, -0.20790179, 0.109671704, -0.3861893, 0.20133267, 0.7758033, 0.522222, 0.31231892, -0.42823422, -0.33718768, 0.23814185, -0.2246785, -0.11896501, 0.06485651, -0.16390385, -0.09847542, -0.1428968, 0.3839717, -0.12330151, 0.25237378, -0.046795357, -0.2773905, -0.2613999, -0.6214938, 0.025277073, -0.43708646, -0.13049115, -0.51403385, 0.2370866, 0.32743964, 0.66995865, 0.28535166, 0.6465935, -0.32133964, 0.07800977, -0.20207411, 0.3013249, 0.022111947, 0.36006656, 0.8768425, -0.023422638, 0.15249087, -0.21714185, 0.2545937, 0.3291967, 0.4705445, -0.08969852, 0.046217784, 0.13336219, 0.43087077, -0.66195494, -0.2986415, -0.16591267, 0.21526758, 0.23983514, 0.24481438, -0.1609589, 0.14449869, 0.7751438, 0.117803276, 0.2125894, -0.18992458, 0.6300195, 0.46862826, -0.75999194, -0.55142045, -0.36763147, -0.5028506, 0.3216629, -0.39075473, -0.41804242, 0.25147888, 0.006222648, -0.52795935, -0.13138835, 0.58509535, -0.56151766, 0.33980823, -0.3168232, -0.30601752, -0.12582467, -0.19967239, -0.25530156, 0.23152882, -0.062078144, -0.06582259, 0.540999, 0.046722364, -0.106433816, 0.82092994, -0.27258858, -0.6954914, 0.36019373, -0.8517628, -0.20085512, -0.2542783, -0.28743038, 0.21188956, 0.9094834, -0.64235544, 0.84843016, 0.61472464, 0.073702715, -0.16053389, -0.4397116, 0.45395276, -0.12012229, -0.38355887, -0.4211515, 0.37616238, -0.3143607, -0.21128471, -1.0528375, -0.32525486, -0.35456297, 0.18707292, -0.3654962, 0.3985133, -0.3692762, -0.38756046, -0.036372036, -0.18357176, 0.7548178, -0.24388011, 0.121287666, -0.34510136, -0.38637158, 0.35640487, 0.27781066, -0.1708798, 0.36916304, -0.3218503, -0.28396687, -0.17360435, 0.06349954, 0.7216003, 0.1524844, -0.28876385, -0.13431041, -0.53148127, -0.7335772, -0.06481966, 0.15282647, -0.72232294, -0.28561342, -0.16228929, 0.17169558, -0.25433353, 0.07022096, 0.24010164, -0.6332003, -0.11494256, 0.39808106, 0.49518943, 0.04600523, -0.75876594, -0.7619841, -0.2298022, -0.18009217, -0.38162002, -0.37244806, 0.5483995, -0.8572214, 0.95355797, 0.477211, -0.47771624, -0.18780692, -0.65676063, -0.19703953, -0.29103798, 0.011092283, 0.1902499, 0.13978593, 0.5611039, -0.39033303, 0.25498658, -0.5238733, 0.06898413, 0.060272682, -0.2405051, -0.58165, -1.3119904, -0.026350548, -0.20564835, -0.3916235, 0.5481347, 0.20616399, -0.30327705, -0.030881926, -0.17962654, -0.28709924, -0.260793, -0.09636047, 0.27740583, 0.35463992, -0.4356599, -0.27355447, 0.6858437, -0.04110415, 0.21578638, -0.24004048, 0.75343895, -0.8748298, -0.2537862, 0.21012014, -0.003066613, 0.07482854, 0.0130726015, 0.55950135, -0.015777888, -0.16612843, 0.6002608, -0.3965465, -0.017409155, -0.7358959, 0.07515749, 0.49811527, 0.4874405, -0.35735393, 0.2808974, 0.062174503, 0.429605, 0.35071638, -0.18667991, -0.1519876, -0.45893273, -0.99613816, -0.49096003, -0.03946367, -0.45613325, -0.17579664, -0.795657, -0.35909832, -0.32212362, -0.41072473, -0.21385847, 0.7672009, 0.25693175, -0.05640647, 0.05068815, -0.50669885, -0.06822463, 0.7010324, 0.22685659, -0.24683839, 0.011247556, -0.07066492, -0.314055, -0.37983677, 0.48894426, 0.18371789, -0.058814242, 0.16417392, 0.2945252, -0.59959984, 0.45699134, -0.18518607, -0.27304986, -0.42823926, 0.9617049, 0.05408178, 0.5808472, -0.10369593, 0.5831427, 0.2215135, -0.31578675, 0.31794974, -0.22519152, -0.13114566, 0.11139315, 0.17863995, 0.17376505, 0.11890439, -0.4621066, 0.6997866, -0.4641329, 0.17895816, -0.20339173, 0.08302029, -0.5341101, 0.5978882, 0.23633121, 0.20953299, 0.26841718]</t>
+          <t>식품 물성학 원리와 응용이라는 교재를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[-0.010658252, -0.42613223, 0.56314474, -0.24826014, -0.056303997, -0.34440845, 0.19250801, -0.31141683, 0.08632344, -0.30393425, 0.15164503, -0.2571761, -0.2217523, -0.46010026, 0.036493666, 0.15218377, 0.3994155, 0.10600055, -0.17062685, 0.10271479, -0.044294816, -0.20872863, 0.0565024, 0.18245356, -0.4870627, -0.3138815, -0.18259935, 0.11667341, -0.32992795, -0.24300799, 0.56667215, -0.26274535, -0.11110277, 0.075162046, -0.15629543, -0.09120964, -0.5969547, -0.26386744, -0.13625696, -0.47965455, -0.5553826, 0.066123374, 0.31202802, 0.06585033, 0.05094701, -0.2674697, -0.32855877, 0.22888009, 0.089334235, 0.20273952, 0.19431801, -0.33351108, -0.42787534, 0.42475134, 0.24484853, 0.33260623, -0.1396668, 0.058028247, 0.4430127, -0.6782326, -0.023965213, -0.32394296, -0.2985323, -0.6059803, 0.36880016, 0.15856795, 0.07615654, 0.46923247, -0.2335967, -0.24071369, -0.14926253, 0.09391358, 0.698111, -0.09182161, -0.0698489, -0.29999804, -0.14047006, 0.1483471, 0.9195574, 0.138877, -0.5279179, 0.35022023, 0.683978, -0.33471456, 0.8472222, -0.77483803, -0.071837544, -0.92464906, -0.9438046, -0.4566281, -0.41508475, -0.22200693, 0.18075585, -0.0505997, -0.27734607, 0.04302195, -0.35334787, 0.23421, 0.3824902, -0.2065895, 0.06750607, -0.09418275, -0.42593804, 0.82770735, -0.37830812, -0.21268429, 0.31895068, -0.016182536, 0.8240778, -0.2574386, -0.32730246, -0.44388056, 0.049846776, -0.24397807, 0.13865809, 0.8835057, -0.08892322, -0.3408615, -0.089255825, -0.056401324, 0.5497055, -0.21506217, -0.18311633, 0.5349001, -0.3117747, 0.44651738, -0.042515375, 0.038247574, 0.86749035, -0.6602618, 0.021131387, 0.42022702, 0.7140926, -0.31827378, 0.0026056021, -0.1290696, -0.43379602, -0.047199674, 0.31124395, 0.17525168, -0.38198844, 0.120358005, -0.32319713, 0.19040127, -0.29087594, 0.02170387, 0.36312744, -0.6272585, 0.30935118, -0.2586217, -1.099108, 0.12863913, -0.46956506, 0.14501128, -0.3622129, -0.08111849, 0.008058685, 0.103466146, -0.15349472, -0.0518682, 0.07264326, 0.44814423, 0.31213403, 0.4527608, 0.12440431, -0.812055, 0.14319086, -0.5522761, 0.09299052, -0.60618794, -0.3636375, 0.13519111, 0.33191323, -0.20178984, 0.07929659, 0.12761395, -0.5032656, 0.021995232, -0.52380353, 0.15762821, 0.48036775, 0.53894526, 0.22199766, 0.0031828817, 0.25972503, 0.04132827, -0.111472845, -0.25379878, -0.5495869, -0.6238003, 0.42103976, -0.8597894, -0.08288249, -0.81179607, -0.026769469, 0.14854677, -0.02998252, 0.26875657, 0.080370344, 0.11729651, -0.48236975, 0.4493269, 0.004670399, 0.49735895, -0.15588978, -0.40424228, 0.29704076, -0.4070882, -0.10480016, -0.42799702, -0.2756197, -0.2068763, 0.004181519, 0.6741266, -0.30229858, -0.49757054, -0.5365631, -0.025911573, -0.08464084, -0.103375696, 0.28024706, -0.25068074, 0.43421143, -0.21134241, 0.41937813, 0.38336, 0.23943904, 0.5004161, -0.1935562, 0.10263232, -0.67875916, -0.12490844, -0.5886097, -0.63805115, -0.023401499, -0.3921487, 0.36924013, 0.72190243, -0.1720326, 0.17864294, 0.76258796, 0.00045769475, 0.081561156, 0.28337723, -0.888987, 0.45907217, -0.26388636, -0.078984484, 0.538566, -0.4860963, 0.28999105, -0.4608445, -0.38937977, -0.5873971, 0.20479754, -0.01861534, -0.025422633, 0.38594463, -0.0020079773, -0.36574385, 0.1211592, 0.25016078, -0.36738664, 0.12775932, -0.3292422, -0.21029569, 0.011645814, -0.6534066, 0.31705025, 0.22700325, 0.031142443, -0.36307287, 0.082871675, 0.26100823, 0.32665798, -0.054789204, -0.4265847, 0.57186264, 0.37984356, 0.67893416, 0.042928703, -0.034419663, 0.48422763, 0.6353955, -0.24204549, -0.38267234, 0.11354329, -0.2543074, -0.036166314, 0.024783015, 0.093947664, -0.6379118, 0.009709759, -0.2496192, 0.21857418, -0.23573565, -0.65174496, 0.101033345, -0.17409171, -0.010069991, -0.07235389, 0.29023787, 0.23581697, 0.3929436, 0.10808105, 0.593862, -0.07046168, -0.10604776, -0.557364, 1.0403025, 0.6164494, -0.28858474, -0.08108918, -0.17109905, -0.5594169, 0.0904474, 0.7335896, 0.5482809, -0.50653666, 0.087579004, 0.31266424, 0.05877328, 0.3744233, -0.115865745, 0.25517377, 0.18051508, -0.15192124, -0.5687585, -0.1849091, 0.06997596, -0.36516875, -0.53688556, -0.06827397, -0.85312206, -0.39138085, -0.634875, -0.28461385, -0.87106764, -0.16216622, -0.032600198, 0.16751453, 0.09953131, -0.19101329, -0.4946572, -0.54223186, 0.28050455, 0.04637379, -0.64735776, -0.26392826, -0.2954183, 0.11987201, 0.5352596, -0.7330043, 0.25545502, 0.1939018, -0.22235544, 0.42120782, 0.30908647, -0.14282613, 0.13078123, 0.06626779, -0.15010811, 0.21433318, 0.53249425, 0.26391715, -0.12622893, -0.61390007, 0.4000019, -0.084511556, 0.6523947, 0.37423855, -0.5009718, 0.4336526, -0.4408474, -0.25835913, -0.08441357, -0.37162432, -0.014302344, 0.45385528, 0.4856391, 0.55506873, 0.28510848, 0.53673524, -0.9626454, 0.50318944, -0.3707788, -0.7027254, -0.056499965, -0.49913773, -0.103992425, 0.3268957, -0.15403534, -0.15976407, -0.10844521, -0.2942114, 0.31520435, -0.24569587, 0.20341061, -0.277983, -0.34709236, -0.045849923, -0.26057833, -0.1270905, 0.16869023, 0.9856238, 0.24244799, 0.59672546, -0.43416741, -0.3071415, -0.20995514, 0.1324903, -0.15389529, -0.717311, -0.43592313, 0.30046502, 0.19674394, -0.30640167, 0.5780431, -0.41230008, -0.14069761, 0.06590078, 0.1853147, 0.5122983, 0.15691814, 0.24168937, 0.2744977, 0.17995368, -0.2650878, 0.5058209, 0.48268744, 0.52944094, -0.12935221, 0.07851274, -0.2550431, 0.052106228, -0.5201898, -0.012807867, -0.15878887, -0.16397867, 0.15380272, -0.2018936, -0.5696153, -0.08735631, -0.36903763, 0.42526537, -0.13980906, 0.9804643, 0.16549274, 0.08275383, -0.73788464, -0.14656258, -0.23197798, -1.0628867, -0.056662936, 0.34240672, -0.3969641, 0.19969925, -0.40049043, 0.43113232, 0.015300487, -0.4711311, -0.057212412, 0.07192755, -0.4700043, -0.6044558, 0.9540628, -0.10905872, 0.1316551, -0.22461753, -0.2512185, 0.19949912, -0.062131666, 0.109204516, -0.24696015, 0.22726035, -0.6219654, -0.027893828, -0.1292366, -0.36983925, -0.12641443, -0.38553292, 0.48113942, 0.50139385, -0.118222155, 0.6381521, 0.4241415, 0.12617281, 0.18842518, 0.11088304, 0.2794906, 0.34759328, 0.8602492, -0.2457921, -0.25743732, 0.5053307, -0.19959791, 0.2730137, 0.39871636, -0.27867123, -0.37787113, 0.55835253, 0.37511867, -0.13118145, 0.4338602, -0.50707847, -0.3330641, 0.5107301, -0.29892024, 0.07043839, -0.3353288, -0.25194162, -0.41235623, 0.27704176, 0.12527955, -0.47630033, 0.12184386, 0.40840283, -0.08782063, -0.19381703, 0.017094439, 0.44798952, 0.22343561, 0.4024945, -0.23653433, -0.40378448, -0.3372624, -0.16423781, -0.11096943, -0.1713376, -0.29566973, 0.50588, 0.047641132, -0.41436604, 0.39519128, -0.49735048, -0.12645239, 0.13055234, 0.13753502, -0.21976312, 0.7349347, -0.2970154, 0.045045488, 1.0879856, -0.40192905, 0.1773626, 0.12381446, 0.88277876, 0.2302604, 0.14808062, -0.4722233, -0.94728774, -0.034122173, -0.046738774, -0.52224815, -0.4031476, 0.31619096, 0.060548324, -0.3773058, -0.47170848, -0.5015205, 0.03821356, 0.7461297, -0.48157746, -0.28176966, -0.563284, 0.09877115, 0.5927688, 0.26068586, -0.011846696, -0.30948552, -0.23496132, -0.060061175, -0.1669707, 0.48298648, -0.03310828, -0.38930812, -0.7249792, -0.28202376, -0.10332501, -0.33923316, 0.07777534, 0.075894475, -0.09020035, -0.12141753, 0.05950945, -0.0247701, -0.76867247, 0.4110663, -0.5345453, -0.68895894, -0.62123346, -0.38398704, 0.67930895, 0.34341046, -0.0666192, -0.12995811, -0.9645104, -0.22092116, -0.6201254, -0.47369215, 0.2446908, 0.59837586, 0.19345437, 0.56604844, -1.1725901, -0.6979857, 0.8131251, -0.6464118, -0.58397573, 0.24439447, -0.16189824, -0.018463787, -0.25021723, -0.6692201, -0.22815184, 0.2589189, 0.05623152, -0.14208694, -0.17226522, 0.9209034, -0.8681302, -0.046078913, -0.4483764, -0.1710647, -0.5132767, 0.18839899, 0.15862879, 0.05895432, 0.026936933, -0.071687855, 0.7802931, -0.29009485, -0.2777938, 0.18433325, -0.35181743, -0.4089137, 0.018479362, 0.48013344, -0.15042622, -0.50191396, -0.45233682, -0.44339323, 0.019003278, -0.04368022, 0.14021133, 0.22536464, -0.61877495, -0.095281325, 0.66177046, -0.21205176, -0.18090746, -0.034630742, 0.011008084, -0.22266899, 0.30529734, -0.40671292, -0.1337759, 0.9636451, -0.2918016, -0.37700516, 0.009789248, 0.5948902, 0.15466735, -0.13563384, -0.3546072, -0.68037, -0.16580024, -0.31259006, -0.09315586, 0.43147054, -0.03357733, 0.21354176, -0.41185996, 0.07545056, -0.06894833, 0.06364133, 0.19658618, 0.40206572, 0.5144971, 0.07314893, -0.26803035, 0.21350937, 0.54767936, 0.5862235, -0.5893237, 0.7031811, -0.09824828, 0.30899024, -0.4519021, -0.12999563, -0.5776616, 0.42188045, 0.07827009, -0.399794, 0.3376882, 0.39141372, -0.41392246, 1.0365682, -0.059413552, 0.056777082, 0.40513888, 0.36318725, -0.2533819, -0.11324881, 0.15253271, -0.22149222, -0.43082598, -0.27811986, -0.55457884, 0.18462276, -0.17856336, -0.6810828, -0.37854722, 0.10495971, 0.12144042, -0.06468389, 0.23646821, -0.16744564, 0.018500429, -0.6153115, -0.26941544, 0.33495072, -0.28913954, 0.02678879, 0.3317249, 0.7193686, 0.27870733, -0.40193015, -0.21939042, 0.21786512, 0.2276813, -0.059839003, -0.26437575, -0.31603834, 0.23973952, -0.1235425, -0.08422988, 0.07054986, 0.40088877, -0.21719368, 0.03534569, 0.19473055, -0.5095473, -0.4481276, 0.31471995, -0.41910753, 0.09546443, 0.2616003, 0.110051, 0.059906203, -0.2995494, 0.5900318, -0.109314166, -0.055067275, 0.24340872, -0.53201663, -0.5174004, -0.1449999, 1.1149309, 0.03409509, -0.31170493, -0.3108261, 0.24415979, -0.26553768, 0.6259732, 0.6893547, 0.24926703, 0.21891758]</t>
         </is>
       </c>
     </row>
@@ -1326,18 +1520,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>빵의 물성은 어떻게 측정하나요?</t>
+          <t>대체육의 결착력은 어떻게 측정하나요?</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>다양한 방법이 있는데, texture analyzer를 사용한 압축 테스트를 추천합니다.</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>[-0.67669326, -0.6679978, -0.0069748648, -0.34489846, -0.33434442, -0.09900121, 0.13872173, -0.12933882, -0.22723718, -0.22546917, -0.5056991, 0.2692615, 0.06955152, 0.5004804, 0.29168692, -0.43277335, -0.019931534, 0.20248693, -0.06874027, -0.046227753, 0.05552064, -0.7746528, 0.13153516, -0.080419056, -0.34463236, -0.0826376, -0.10041443, -0.034621783, -0.29041854, -1.1510141, 0.47901192, 0.13956808, 0.30893072, 0.43218485, -0.27400407, 0.04145394, -0.46703374, 0.112193726, 0.27993605, -0.2686424, -0.37612125, -0.63974035, 0.34105337, 0.12032839, 0.56962544, 0.15641372, 0.008501898, -0.1863511, -0.23418953, -0.58073777, -0.2824476, 0.018129768, 0.7256511, 0.7955442, -0.26463816, -0.50972253, -0.013250266, 0.30113336, 0.3906497, 0.22628738, 0.2461859, -0.4058858, -0.18699278, -0.37096858, 0.15540539, -1.1508644, -0.3199317, 0.25241184, -0.32878396, -0.19310729, -0.16225827, 0.7502577, 0.3611788, -0.2659099, 0.24350502, -0.23235027, -0.29844612, 0.09079418, 0.4491868, 0.6144689, 0.46900645, -0.15961467, 0.26210105, -0.56415343, 0.32159606, -0.8711155, -0.34771273, -0.2668613, -0.14407834, 0.6615286, -0.203, -0.33414933, -0.15336524, 0.6366008, -0.67749214, -0.13664393, -0.029804135, -0.1085991, 0.16705494, -0.19379742, -0.5337768, -0.56922024, -0.38139597, 1.0813498, 0.19687353, -0.0001848787, -0.16630042, 0.60900885, 1.2189745, 0.2629942, 0.684768, -0.22070192, -0.13377291, -0.27139047, 0.17456858, 0.6846371, 0.1842197, 0.18504733, -0.09943346, 0.186009, -0.38015184, -0.38784865, -0.23815437, -0.07460322, 0.16890305, -0.05066082, -0.07941691, -0.40507653, 0.28009927, -0.77027935, 0.4640535, 0.9320317, 0.5990588, 0.2340676, -0.6463765, -0.282005, 0.50908303, -0.35044014, 0.8627021, 0.52598256, -0.4542881, 0.14250715, -0.06986157, 0.18279473, -0.48793042, -0.135131, 0.67092615, -0.6034267, 0.30600736, -0.50214183, -0.41523206, -0.084041536, -0.60033387, 0.28831968, 0.13827224, 0.33492824, -0.088424616, -0.118428886, 0.18705444, -0.2072463, 0.3056426, 0.20498522, -0.09976127, 0.117589295, 0.7665419, -0.5808594, 0.10232831, -0.09656068, -0.09212617, -0.42915204, -0.00022440653, -0.28537354, 0.75369483, -0.6820678, 0.34782457, -0.14317998, -1.0282179, -0.50525653, -0.11942058, -0.92086387, 0.5043436, 0.50873286, -0.01570581, -0.33427632, -0.012057436, 0.43120754, -0.06489125, -0.47513708, -0.67214364, -0.53173906, 0.5513858, -0.75269026, -0.5398663, -0.23501511, 0.19864829, 0.099343896, -0.6554403, 0.23271637, -0.21489505, 0.1701688, -0.6115733, 0.8417793, -0.5625122, 0.42234012, 0.25093094, 0.14038725, 0.25624216, -0.10987928, 0.2889839, -0.13120353, -0.2604083, 0.28467542, -0.49983943, 0.26565585, -0.1362486, -1.6271067, -0.6672837, -0.56425995, -0.18104036, -0.02482161, 0.142156, -0.5356054, 0.6125675, -0.6237145, 0.0021910593, -0.18093763, 0.7972102, 0.2713031, 0.043318868, 0.6029648, -0.20668586, -0.59951633, -0.92899173, -0.13588253, 0.15088363, -0.66755056, -0.018548774, 0.82936674, -0.7340531, -0.17230089, 0.17738263, -0.3280271, -0.39345792, -0.1384788, 0.33752552, -0.0251799, -0.26471576, -0.08733722, -0.29760703, -0.4079084, 0.33073714, 0.26660803, 0.18696994, -0.1598422, -0.10474086, -0.039820503, 0.23401463, 0.75351095, -0.5718015, -0.1443859, 0.1709876, 0.24070944, -0.38846043, 0.002941135, -0.41743457, -0.08900937, 0.534637, -0.530766, -0.24500483, -0.6145577, -0.072860606, -0.11032308, 0.7863621, -0.056720715, -0.34037718, 0.6147494, -0.336969, 0.1722096, 0.37041375, 0.07927051, -0.51044846, 0.6020121, 0.5351423, 0.24429552, 1.1346784, -0.37394103, -0.15515934, -0.09666646, -0.21279208, -0.32038584, -0.11570894, -0.17398149, 0.0722036, -0.20101242, 0.6586376, -0.08367517, -0.6744106, -0.10522925, 0.3244503, 0.96793294, 0.11787205, 0.20482443, 0.2515795, 0.01949734, -0.62169975, 0.6779154, -0.12592484, -1.00363, -0.54733545, 0.64731914, 0.2599298, 0.09306344, -0.10997545, 0.49409112, -0.18276006, -0.5117198, 0.37363842, -0.048441473, -0.22210616, -0.0016700128, -0.35992113, 0.6779995, -0.15516971, -0.14364962, 0.19098306, 0.71211624, -0.35252142, 0.17725404, -0.554067, -0.17775913, -0.63519955, 0.20547576, 0.1685751, -0.192159, -0.28752574, -0.6384097, 0.7357114, -0.6643912, 0.06391581, 0.069476284, 0.52755135, 0.25572455, -0.44461334, 0.19198789, -0.71758914, 1.0055275, -0.21694686, -0.6407513, -0.0466368, -0.35220876, -0.42384157, -0.31793025, -0.16253583, 0.038947936, 0.04319587, 0.024118362, 0.3201345, 0.4860243, -0.041070763, -0.40755364, 0.88690037, -0.03401799, 0.091155134, 0.3748729, -0.52379394, -0.292324, -0.7247026, 0.1728615, 0.07748787, 0.51695013, -0.2182232, 0.1258082, 0.2455461, -0.44142678, -0.31793842, 0.02890455, -0.31890252, -0.19371802, 0.22483991, -0.14191195, 0.30384818, 0.5057938, -0.24918373, -0.13403617, 0.43354753, -0.27912435, -0.18447019, -0.19654523, -0.40612936, 0.3209639, 0.47903654, -0.33693257, -0.15988493, -0.12312206, -0.74897283, -0.36673138, -0.07030871, 0.21296239, -0.24761277, 0.3992941, 0.16236456, 0.51468366, -0.3237573, 0.68880373, 0.4381285, 0.33827588, 0.38751718, 0.15932213, -0.13723849, -0.33624735, -0.31210992, -0.2818713, -0.12848723, -0.4675404, -0.5472089, -0.16998722, -1.2084485, 0.310236, -0.16100366, -0.3208264, -0.15589361, -0.5941079, 0.5446686, -0.09263047, 0.46258643, 0.20763288, 0.35294306, 0.05849014, 0.56804913, -0.06325219, 0.48741174, -0.32448575, 0.2439426, -0.50248593, -0.44336963, 0.036708694, 0.108668685, 0.09361795, -0.7020622, 0.6847966, 0.84559304, -0.24567632, -0.31119677, 0.088175595, 0.3196322, -0.21073556, 0.68775916, 0.02723998, -0.24999057, -0.88770443, -0.3648506, -0.52238506, -0.63837874, 0.35882983, -0.0987944, 0.35892412, 0.23695803, 0.00667369, 0.120401986, 0.10296914, -0.22736545, 0.16013934, 0.2852141, -0.11139973, -0.12718754, 0.48714375, 0.05155763, 0.22960532, 0.33474097, 0.09191335, -0.3425418, -0.109026276, 0.4376993, -0.37048888, -0.33446148, -0.69416976, -0.44172236, 0.18479963, -0.7187209, 0.43988284, -0.5474082, 0.23149122, 0.20108603, 0.22777276, 0.7083294, -0.0022075549, -0.24305801, -0.5938611, 0.3909246, 0.5696937, 0.30135617, 0.19725408, -0.532981, -0.7921598, 0.13851517, -0.39703593, -0.31208584, 0.36965784, -0.23350935, 0.1839127, -0.3344506, 0.7668678, -0.28508672, 0.36658362, -0.45839894, -0.18053544, -0.08749145, -0.28011152, -0.5821736, -0.20650889, -0.108688146, -0.38412943, 0.29994783, -0.12590441, 0.27182296, 0.38843325, 0.7219015, -0.20219733, -0.03206285, 0.610305, 0.24364388, 0.2861176, 0.006882137, 0.4807142, 0.22057986, -0.28291512, -0.40819335, 0.37636828, 0.22307281, 0.22174795, 0.3378593, -0.008950706, 0.35897946, 0.4938897, -0.03779765, -0.20337361, -0.14616911, 0.3228213, 0.638514, 0.5502406, 0.16176999, 0.0077475384, 0.587101, -0.6780594, 0.40730944, -0.15865797, 0.5139791, -0.16144912, -0.629685, -0.4217205, -0.19450884, -0.34594476, -0.11466212, -0.08482947, -0.6633575, 0.105574064, 0.34075484, 0.21851897, -0.8465367, -0.28416237, -0.27419493, 0.20372538, -0.19544677, 0.26403853, -0.5247039, 0.43586993, -0.11058802, 0.33081266, -0.22600837, -0.4388931, 0.05282085, 0.32520676, -0.917557, 0.6199095, -0.29703853, -0.7963428, -0.20271099, -1.1053456, -0.17517841, 0.017193533, -0.07814884, 0.07444627, 0.2094891, -0.07108412, 0.45139337, 0.30109152, -0.29301116, -0.18989201, -0.70748043, -0.0086547965, -0.25236246, -0.19263212, 0.002810533, 0.30984515, -0.11761442, 0.18418233, -0.7087693, 0.06586301, -0.4290651, -0.20712538, -0.20291257, 0.49878156, -0.28720996, 0.017079413, 0.40294787, -0.19134718, 0.521908, -0.17485802, -0.013607856, -0.084388696, -0.3157429, 0.45659623, 0.27094772, -0.34340832, 0.016749607, -0.19145791, 0.17771947, 0.044424962, -0.37996605, 0.26246116, -0.19055873, -0.4204578, -0.6465403, -0.5301462, -0.57111996, 0.17414339, -0.28146937, -0.41925642, -0.33745936, -0.19143724, 0.7110627, 0.20216483, -0.0034228414, 0.24873821, -0.63006324, -0.24519892, -0.0053048506, 0.8966019, 0.3842175, -0.5982749, -0.6812763, 0.0064394027, 0.3574868, -0.1361293, -0.33529744, 0.49043894, -1.0195404, 0.33880186, -0.042998638, -0.092858024, 0.14112468, -0.54257303, 0.23991601, -0.019554272, 0.25372586, -0.039501734, 0.08045044, -0.093297906, -0.76524234, 0.134929, -0.07631517, 0.020245602, -0.2521911, -0.2100991, -0.40903297, -0.7722759, -0.12955189, -0.2075929, -0.385285, 0.48094097, 0.37266746, -0.13296604, -0.23747735, -0.018020786, -0.10158321, -0.365819, -0.47382632, 0.27773982, 0.067429245, -0.44686902, -0.35696766, 0.8376088, 0.7935819, 0.026057022, -0.38145575, 0.5047907, -0.021821449, 0.52945817, -0.038634874, 0.39518735, -0.428135, -0.20791654, 0.4266444, -0.5099242, 0.34184238, 0.4856179, -0.36977848, -0.008678165, -0.23840165, 0.20536028, 0.16992514, 1.0530077, 0.15744174, 0.14827292, 0.1360331, -0.0995543, -0.10072064, -0.2360477, -0.3267684, 0.07690687, -0.4532989, -0.4512274, -0.26762754, -0.34085563, 0.3364071, -0.5168797, -0.34306756, 0.030776627, -0.3699474, -0.27045304, 0.40188667, 0.203149, -0.07456328, 0.26008758, -0.37029073, 0.28067964, 0.057312787, 0.027462667, 0.7903015, 0.34610358, -0.33793342, -0.04879214, -0.42061818, 0.36449853, 0.4668298, -0.21572094, -0.52647334, -0.014358878, -0.7366641, 0.16286111, -0.36229846, 0.4969697, -1.3108265, 0.5242714, 0.3338554, 0.26950994, -0.042508226, 0.35166, 0.078862615, -0.16656537, 0.06951415, 0.4572344, -0.30691662, 0.19127077, 0.04090247, 0.12273374, -0.10363584, -0.29535264, 0.8618571, -0.48813513, 0.22025084, 0.1736086, -0.11983836, -0.61547285, 0.4271879, 0.47962403, 0.42249265, 0.28004378]</t>
+          <t>너무 어려운 질문인데, TPA 변수를 고려할 수 있을 것 같아요.</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[-0.6489867, -0.4080031, -0.04755913, -0.5037699, 0.11263179, -0.18795928, 0.32183638, 0.38485685, -0.2716928, 0.13201286, 0.22381027, -0.36764118, 0.07914274, 0.40553904, -0.36383387, -0.19749762, -0.55807906, 0.7822647, -0.29263967, -0.68589824, 0.039425373, -0.176344, -0.13506155, 0.6395265, -0.63135475, -0.5001263, -0.007699149, -0.3372515, -0.112198904, -0.45135117, 1.2959872, 0.0455783, -0.12611923, 0.495864, 0.3263991, -0.5357374, 0.006219203, 0.18908091, 0.39896655, 0.08459966, -1.0906862, 0.07611231, 0.15195717, 0.15347464, 0.15733323, 0.29155144, 0.62458515, 0.17268002, 0.06336899, -0.5199137, -0.0549629, -0.39824682, 0.30502567, 0.3573298, -0.43784693, -0.46676993, 0.59042865, 0.52485925, 0.5944268, -0.175896, -0.18516411, -0.22997515, -0.4449888, -0.7091823, -0.08423309, -0.83808, 0.20239544, 0.5176139, -0.44995543, 0.29480052, -0.22484219, 0.17578577, 0.10382458, -0.25048128, 0.52301615, -0.28531605, 0.06279228, 0.013026525, 0.8008008, -0.06462228, 0.047065917, -0.48976922, 0.1298759, -0.5599218, 0.29034212, -0.8022195, -0.5335454, -0.38420114, -0.30503717, 0.4583439, -0.29567218, -0.19374594, -0.566801, 0.7842332, -0.5997731, 0.24108888, -0.25557446, 0.0028959182, 0.7097059, -0.3005022, -0.3775873, -0.108543985, -0.8548438, 0.64495754, 0.6675411, -0.14316963, -0.092084624, 0.6407142, 0.72634876, -0.09415813, 0.51051384, -0.47410884, 0.06782575, -0.010409574, 0.4506298, 0.2063202, -0.42237934, -0.18799074, -0.090407886, -0.5362702, -0.25886273, -0.4137423, -0.14946255, 0.59898186, 0.27450496, 0.107449874, 1.1643428, -0.35118073, 0.69994, -0.36980507, 0.11731584, 0.041262336, 0.15426616, 0.65954524, -0.23937027, -0.7235771, -0.22620903, 0.053875208, 1.1894959, 0.15628998, -0.11794672, -0.22948562, -0.03401105, -0.082919754, -0.07030223, -0.32842317, -0.26082328, -0.7493185, 0.12149664, -0.72594726, 0.2474637, 0.46155557, -0.59693587, 0.4139506, 0.16392283, 0.7160138, 0.006864648, -0.54594576, -0.15674625, 0.0010017647, 0.48798975, 0.035001926, -0.1412345, 0.3792456, -0.0438655, -0.3156292, -0.4443595, 0.17414871, 0.19912197, -0.62121665, -0.30919442, -0.5074111, 0.3391536, -0.3972022, 0.2770244, -0.22132012, -1.180871, 0.15462954, -0.26268423, -0.648812, 0.15070572, 0.36912543, 0.18505958, 0.096439585, -0.087895, 0.5751603, -0.25019798, -0.4232481, -0.79390615, -0.9397521, 0.24450876, -0.11015205, 0.17906454, -0.19018365, 0.3889123, 0.6397175, -0.03724328, -0.060018744, -0.5767311, 0.18413068, -0.23051421, 0.78020877, -0.07808795, 0.60719556, -0.336871, 0.12054857, 0.089046344, -0.13845561, 0.6398589, -0.13330804, -0.4531254, 0.5109111, 0.14343975, 0.22859044, 0.043487888, -0.96248233, 0.14990544, -0.1061052, -0.065722376, 0.34619755, 0.45490855, -0.08107649, 0.5188377, -0.2888026, -0.11770887, -0.116867505, 0.49785408, 0.39268658, -0.24429417, 0.14036955, -0.3133232, -0.5689817, -0.27204004, -0.30633086, -0.21373643, -0.00030858017, -0.43705374, 0.3212362, -0.13143553, 0.0062500695, -0.24619415, 0.23038957, -0.57121897, -0.0456446, -0.059360575, 0.15354493, 0.15235987, 0.4416388, -0.034964256, -0.044241842, 0.13865353, 0.38448626, -0.53953654, -0.32580492, 0.27626285, -0.18847775, 0.11592967, 0.46477112, 0.1679507, -0.38256893, 0.24449794, 0.09990413, -0.27353302, -0.28758577, -0.21969119, -0.084131025, 0.4197411, -0.84852654, 0.19538914, -0.10792909, 0.25534242, -0.084303245, 0.40108556, -0.17373994, -0.33664683, 0.9886049, 0.31948158, 0.54550564, 0.76917964, 0.22763012, -0.26499918, 0.0836732, 0.5613233, 0.20088947, 1.080067, -0.43992084, 0.37982506, -0.2611886, 0.17358814, 0.2344302, -0.23251809, -0.51900244, 0.16027369, -1.3381243, 0.08959631, -0.14724985, -0.58286965, -0.12499535, 0.79990476, 1.1306609, 0.21343432, 0.55722535, 0.86599225, 0.2601093, -1.0632087, -0.18273488, -0.21558866, -0.13708954, -0.8680519, 0.6487258, 0.6064087, 0.43810087, 0.1352379, -0.2568188, -0.052703895, -0.49065226, -0.09024258, -0.36456278, 0.01843893, 0.22073719, 0.15819858, -0.25899366, -0.18552913, -0.1665586, 0.2184463, 0.46779656, -0.15414509, 0.525268, -0.66710156, -0.63912296, -0.70590824, -0.48777676, -0.21389009, -0.12721564, -0.76753855, -0.79718095, 0.7088108, -0.833845, -0.23426025, 0.11755967, 0.19200878, 0.12250495, -0.20935519, 0.3284907, -0.36013034, 0.6904643, 0.14233169, -0.2412194, 0.12218749, -0.21774073, -0.89030033, -0.25193718, 0.34571147, -0.18706772, 0.13160308, 0.71432143, 0.38143948, 0.3867642, 0.30892843, -0.04749627, 0.28883675, -0.22634126, 0.2758664, 0.5779781, -0.481777, -0.31445593, 0.37656528, 0.48526615, -0.022826884, 0.16063991, 0.078951135, 0.0025497419, 0.0042125913, -0.56906646, -0.11593155, -0.2711127, -0.2923145, -0.28480783, 0.16284892, -0.28028628, 0.4512147, 0.63112587, -0.103281505, -1.1132256, 0.034680147, -0.11189638, 0.14718464, 0.02229915, -0.17441776, -0.18055011, -0.15363203, 0.0067431456, -0.20355107, -0.27671304, -0.41783592, -0.12498704, -0.5974855, -0.37266874, -0.14112417, 0.5628268, -0.14676748, 0.25934437, -0.599162, 0.5368864, 0.41562027, 0.36603522, 0.21186623, 0.17349973, -0.15225138, -0.20625003, 0.2607375, -0.1974225, -0.37683162, -0.5879835, -0.0891559, 0.011566079, -0.46704337, -0.24176715, -0.12599908, -0.36451453, -0.10669384, -0.5496778, 0.83234054, 0.20187715, -0.1849206, 0.08743335, 0.3251049, 0.13728134, 0.7085396, -0.34692097, 0.06040129, -0.51748574, 0.5338582, -0.40371054, -0.73206383, -0.36165172, 0.31628013, -0.097479954, -0.135838, 0.54487365, 0.94201034, -0.53700536, -0.13953064, 0.24658033, -0.3569112, -0.41384992, -0.7311779, -0.118059166, -0.09645392, 0.02037013, -0.50070137, -0.57259357, -1.1530682, 0.090353444, -0.21512316, 0.1540117, 0.13601547, -0.2116536, -0.12625514, 0.11653858, -0.28363448, -0.40059915, 0.19828047, -0.47008038, -0.24837932, 0.40778252, -0.21563886, -0.0067204377, 0.46765494, 0.1810842, 0.28545058, 0.06398008, 0.17084584, -1.1693342, -0.40943915, -0.5750586, 0.26159936, 0.1344877, 0.05985154, 0.2253239, -0.5877679, -0.19377421, 0.050159276, 0.3001078, 0.66200095, 0.111832276, 0.40816197, -0.24105331, 0.14350691, 0.25235602, 0.26074865, 0.19479375, -0.14392301, -0.78344303, -0.07925455, 0.081560545, -0.13840947, 0.6174587, -0.43906206, -0.17991737, 0.10034846, 0.2686247, -0.056598168, 0.16544197, -0.58066976, -0.8561254, -0.36077315, -0.4150531, -0.23648867, -0.07432514, -0.17169692, -0.53103095, 0.07222093, 0.8112318, 0.35366255, 0.62621194, 0.31749055, -0.39242455, -0.59830815, 0.6819147, 0.06286297, -0.21617429, -0.33788484, -0.06841196, 0.4661042, -0.21677646, 0.038243018, 0.10881717, 0.51576585, 0.30621567, -0.0758148, -0.28376406, 0.09323566, 0.33590373, 0.35802707, -0.41426697, 0.1825856, 0.47140417, 0.24293433, 0.49952742, -0.08536523, -0.74798346, 0.476525, -0.09451532, 0.3899727, 0.018079694, 0.14002669, 0.099209905, -0.36167604, -0.41929433, -0.8291303, -0.05991194, -0.2466819, -0.12277464, -0.46108064, 0.12619156, 0.010830875, 0.21186617, -0.33127078, -0.3589914, -0.0753117, 0.5529812, 0.06761953, 0.1407707, -0.072717026, 0.49840164, 0.22350739, 0.69131374, 0.13663782, -0.19668822, 0.7058584, -0.010743403, -0.3691401, 0.26073864, 0.19869912, -0.38551494, -0.36869732, -0.9195366, 0.24246766, -0.143227, -0.5269315, 0.29927355, 0.22673185, -0.5664823, 0.19155644, 0.10428422, 0.30294994, 0.2628604, -0.38169646, 0.17868327, 0.20957457, -0.9490262, 0.53516084, 0.5756727, -0.6269264, -0.9475885, -0.6957719, -0.7070722, 0.016302053, -0.70132214, -0.3384344, 0.5825415, 0.51407874, -0.096798085, 0.15960677, -0.25752714, 0.3792862, -0.14663519, -0.06243902, 0.28300735, -0.5208479, 0.28878516, 0.55074626, -0.049839526, -0.4917079, 0.24712387, 0.25274014, -0.02350719, 0.40049797, 0.18605587, -0.2888079, -0.25997862, -0.84262764, -0.24870002, 0.16959241, -0.046844017, 0.11067085, -0.12850969, -0.7429404, -0.056680143, 0.34505036, -0.24224234, -0.36017725, 0.2724848, -0.5402538, -0.4334065, 0.0359872, 0.69245636, 0.26390964, -0.6790857, -0.73098373, 0.3289228, 0.14670692, -0.014449565, -0.2657687, 0.29513004, -0.86589515, -0.08091457, 0.07381211, -0.033745553, 0.6280527, -0.18949814, 0.6545132, -0.05285125, -0.044110913, -0.36557737, 0.30314204, 0.25521258, -0.50037146, 0.07808481, -0.25061768, -0.31045675, -0.32565764, -0.057446454, -0.19124402, -0.40875027, -0.64690727, 0.102531634, 0.09096344, 0.62821335, -0.21879113, -0.7546269, -0.06927602, -0.13757418, -0.3376915, -0.20811616, -0.14196917, -0.03371672, -0.5108072, -0.7205196, -0.060052957, 0.73215204, 0.055397753, 0.44715786, -0.3958445, 0.29892114, -0.08971579, -0.22361435, -0.026005963, 0.09505999, -0.35781214, -0.5016788, 0.21204707, -0.218433, 0.78925735, 0.091410056, -0.7612007, -0.030401666, -0.2841077, 0.5866705, 0.13021557, 0.5847617, 0.24885453, 0.120724835, -0.10209184, -0.12550925, -0.26972452, 0.112634316, 0.114333734, -0.14648588, -0.32526684, -0.34928367, 0.28669184, 0.3030825, 0.14092234, -0.45122996, -0.43795544, -0.5612577, -0.13274895, -0.3168529, 0.16538106, 0.2755303, -0.5798836, 0.1620005, -0.3043787, -0.24331394, 0.6548163, 0.27577025, 0.41241965, -0.37275353, -0.39737436, -0.101936586, -0.38730615, 0.41483566, 0.23880838, -0.25863582, -0.1780966, -0.1314251, -0.7105346, -0.0047364277, 0.008279827, -0.327809, -0.008631085, 0.3449836, 0.23101994, 0.28278115, -0.47518843, 0.5662491, 0.24434726, -0.3417192, -0.2825684, 0.6058879, -0.11989664, 0.5692982, -0.46554932, 0.13708366, -0.013129145, -0.609389, 0.8379914, -0.008282436, -0.20948826, -0.067421295, -0.15613358, -0.16554356, 0.54208106, -0.030819807, 0.5602695, 0.2108212]</t>
         </is>
       </c>
     </row>
@@ -1347,18 +1546,2259 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>어느 회사 Texture analyzer를 구입하는게 좋을까요?</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>다양한 회사에서 취급하고 있는데, 많은 식품회사에서는 stable micro systems, brookfield 기기를 보유하고 있네요.</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[0.20401359, -0.37336484, -0.18824202, -0.17458716, -0.17764114, -0.03408886, 0.36294577, 0.023396103, -0.004880599, -0.40035278, -0.19923963, -0.6528688, -0.11303718, 0.3193595, 0.12973522, -0.15342294, 0.45056483, -0.20663095, -0.16594298, -0.018770548, -0.51823443, -0.06619292, 0.10096042, 0.22905588, -0.5814121, -0.71726626, -0.08665094, 0.6571941, 0.15915652, 0.20648836, 0.42108926, 0.028625397, -0.19474103, -0.26129696, 0.023837011, -0.078200586, -0.43075562, 0.008620555, -0.43891916, 0.08861553, -0.077534966, -0.020026313, -0.043544453, -0.29990906, 0.44305265, 1.3399496, 0.12130423, 0.647541, -0.691522, 0.10192302, -0.6164463, 0.050386313, 0.3255522, 0.3998928, -0.2351375, 0.027532442, -0.31940266, -0.31016397, 0.31687927, -0.06980034, 0.5156566, -0.114443906, -0.07067971, 0.30299112, 0.03791483, -0.516077, -0.15962678, 0.17184664, -0.016079528, 0.014425408, -0.5467288, 0.094526105, 0.4832504, -0.30938673, -0.26225364, -0.4078778, 0.5005738, -0.15258111, 0.7953636, 0.5529323, 0.18114863, -0.82594866, -0.5266232, 0.06933283, -0.27497193, -0.2418456, -0.28388456, -0.2964795, -0.41584265, -0.15903024, -0.60292965, 0.040152885, 0.33325496, 0.05697188, -0.13957891, -0.064677045, 0.0665343, -0.15221049, 0.5284797, -0.043561425, -0.024423204, 0.085663505, -0.3352717, 0.5061245, 0.42172348, -0.10974509, -0.117120475, 0.19158854, 0.3772395, -0.36855456, 0.38389474, -0.1286274, 0.12097967, 0.14627253, -0.50468314, 0.5381002, -0.26591015, 0.4475108, -0.44440538, 0.7123092, -0.088237315, 0.21050844, 0.014188704, 1.079701, -0.043566376, 0.0035736018, 0.5382853, 0.49426013, 0.17183954, -0.96505755, -0.14451914, -0.07511172, 0.65857893, -0.10301869, -0.18562135, -0.051665965, 0.23572692, -0.39041755, 0.57895726, 0.06517219, 0.065042265, -0.81429404, 0.3930817, -0.039670553, 0.2347447, 0.15780558, 0.51825625, -0.4286358, 0.056935906, -0.4681845, -0.5562017, -0.3881451, -0.3393122, -0.44210356, -0.1317855, 0.00641249, -0.25232646, 0.29513234, -0.028319735, -0.48920095, 0.24739386, 0.2518415, -0.14877686, 0.109917715, -0.09088813, -0.021733671, 0.85285723, -0.21696553, 0.15278894, -0.6592406, -0.39270222, 0.35264343, -0.31709018, 0.13429971, 0.044980686, 0.31419513, 0.07276379, 0.2739674, -0.5020748, -1.0777608, 0.1958013, 0.5791434, -0.36731222, 0.19906245, 0.17782564, -0.0950903, 0.46992338, -0.5642424, -0.530467, 0.122792885, 0.3648748, 0.08335919, 0.10225079, 0.01776161, 0.5369041, -0.22552666, -0.18279518, -0.3124344, 0.07741857, -0.24353658, -0.42402458, 0.1671326, -0.12925583, 0.9187278, 0.8113171, 0.39738905, -0.23269163, 0.013757434, -0.1931205, 0.1898668, -0.4070053, 0.41220734, 0.6023856, 0.7059386, 0.5030229, -0.2869401, 0.5624172, 0.0845396, -0.32487443, -0.015836082, 0.24715942, -0.15020256, 0.22715074, -0.275858, -0.24497771, -0.8811953, 0.29170606, 0.66715246, 0.4043536, 0.10345013, -0.3286824, -0.40726393, -0.29592907, -0.71890545, 1.0042301, -0.7773554, 0.26885197, 0.13707687, -0.40923855, -0.6632614, 0.07220972, 0.5623449, 0.6482716, 0.03006763, -0.110629745, 0.34689686, 0.29989928, -0.25893116, 0.91117215, -0.019307677, 0.44798553, 0.54153925, -0.45946398, -0.25354552, -0.20513067, -0.32427362, 0.12486508, 0.08391279, -0.04635756, -0.22790298, -0.13395184, 0.32477155, -0.7034457, -0.4512702, -0.5587628, -0.7365251, 0.014371876, -0.5927854, 0.547833, -0.50069994, -0.15569566, -0.3311095, 0.25287947, -0.2242579, -0.26391542, 0.12107761, -0.441868, -0.0007474937, -0.10562732, -0.24108167, 0.319878, 0.12414505, -0.1107975, 0.6036575, 0.12075212, -0.04622563, -0.38332796, -0.36493742, -0.63235927, -0.6349377, 0.07598509, -0.13936849, -0.07977589, -1.0973407, 0.29367924, -0.042247083, -0.194277, -0.5504204, -0.11139581, 0.048059665, 0.3584393, 0.119294316, 0.509394, 0.6708687, 0.1840819, 0.10307422, -0.031961422, -0.36813834, -0.5791598, -0.14911081, -0.21728724, 0.2872071, -0.62896246, -0.2630708, 0.039953884, -0.20413557, -0.062242914, -0.004798618, 0.16967621, -0.19680859, -0.43268192, -0.1770569, 0.14077353, -0.27564046, -0.24175192, 0.57859117, 0.10241404, -0.17970349, 0.6880335, -0.05556631, -0.43714526, -0.7056974, 0.9094878, -0.1828373, 0.5938295, -0.5513294, -0.22991301, -0.67362136, 0.3560945, -0.17093825, 0.025758045, -0.15989877, -0.29567358, 0.12359342, -0.05459637, 0.74182856, 0.11845508, 0.037045356, 0.19648193, -0.6560314, 0.32310566, -0.06318602, -0.11629755, -0.2306497, 0.54440266, -0.017674001, 0.23062511, 0.29972103, -0.3338834, -0.41002396, 0.4067082, -0.5029824, 0.2390411, 0.09271211, 0.21708184, -0.03362191, -0.47485074, 0.6887305, 0.10882291, 0.40731782, -0.048280712, -0.52230954, -0.08392506, -0.34646666, 0.06823284, 0.27339217, -0.83341736, -0.060790636, 0.27895606, -0.1315171, 0.6578142, 0.5261727, 0.046950746, -0.5738604, -0.26724103, -0.6358562, -0.3088418, -0.07091827, 0.17274386, 0.45393953, -0.07737993, -0.7113893, 0.4030085, -0.082170844, -0.34395856, 0.6187523, 0.059184495, 0.2642061, 0.058392238, 0.28626668, 0.2795939, 0.9902961, -0.15334037, 0.006301636, 0.01050417, 0.42748764, 0.6705464, 0.52372986, -0.3529873, -0.4298331, -0.13017271, -0.7394129, -0.27972123, 0.39030543, -0.0063152644, -0.04658574, -1.3359126, 0.31987455, 0.33722454, -0.42297155, 0.22239238, -1.1141449, 0.18788122, -0.43713474, 0.010972312, 0.029363077, 0.09707394, -0.1733996, 0.508914, 0.06306264, 0.01046207, -0.41407442, 0.19843744, 0.10908273, -0.108327396, 0.1511322, 0.0910701, -0.47834396, -0.5673562, 0.37710676, 0.0015021522, -0.0247764, 0.22266315, -0.25724265, 0.50342727, -0.09174072, 0.57699144, -0.59410805, -0.37698138, -0.62624425, -0.33201075, -0.45510948, -0.09640439, 0.07631083, -0.022355998, -0.094138935, 0.12851268, -0.70937145, -0.2982649, -0.059246954, 0.5105542, 0.13193497, -0.035897855, 0.047219347, 0.54116726, 0.29458562, -0.26848567, 0.5385757, -0.059577, 0.5027695, -0.34008574, -0.31815955, -0.25160396, 0.28320292, 0.29317176, -0.21276864, -0.2279348, -0.0822845, -0.5893844, -0.23172192, -0.90128744, -0.18771113, 0.17907444, 0.08612864, -0.1826124, -0.3686555, -0.014201816, -0.6479426, -0.14638624, 0.40727445, 0.31903288, -0.1273076, -0.33372548, -0.19420281, 0.81867373, -0.21405749, -0.43612623, 0.6594733, 0.009358139, -0.11763978, 0.40250474, 0.17344826, 0.081999116, -0.1183921, 0.23399907, 0.26862743, 0.0127020385, -0.15030123, -0.352808, 0.082409136, -0.06363156, -0.23820163, -0.23029323, 0.8570354, 0.10099471, 0.5113556, 0.3061364, -0.5871837, -0.15141149, 0.3484987, 0.34596995, -0.20214662, -0.22937007, -0.12285089, 0.68080884, -0.05135752, -0.39396226, -0.38254032, 0.2374884, -0.6749437, -0.3093495, 0.035559785, -0.3079506, 0.31660488, 0.2658353, -0.89359576, -0.056344748, 0.52733564, 0.25401363, 0.103083946, -0.15070608, -0.11125279, 0.6595259, 0.06301638, -0.0149224615, 0.29985482, 0.22306438, 0.27372658, 0.35735404, -0.15089984, -0.266931, -0.12823302, -0.31712997, -0.100149564, -0.20638967, 0.18851076, -0.26259077, 0.3159951, -0.95416754, -0.27756846, -0.38661215, 0.03565143, -0.24929689, 0.060200755, -0.47399217, 0.75438726, -0.43007275, -0.2972852, 0.11318235, 0.26120773, 0.1189115, 0.37670553, 0.24422255, -0.3463125, 0.37174731, -0.012999854, -0.30399904, -0.34214216, -0.049405, -0.554795, 0.14429992, 0.48806354, -0.23459071, -0.19509715, 0.23032457, -0.47415602, -0.9053648, 0.122704156, -0.29991654, 0.27719647, -0.45193395, -0.74937993, -0.022310961, 0.4499486, -0.57016826, -0.02176671, -0.49065286, -0.6850308, -0.26628983, 0.25210556, 0.13941847, -0.29139557, -0.0014629852, 0.4465637, -0.039661393, -0.4134127, 0.8323416, 0.19154486, -0.5623788, 0.76970774, -0.09084448, -0.06990067, 0.27622625, -0.1794589, -0.27043366, -0.037020124, -0.17933275, -0.519668, 0.5571955, 0.19140075, 0.08325613, -0.10405752, -0.617905, -0.9280224, 0.16591819, 0.08939244, 0.17674345, 0.3065192, -0.57290936, -0.5640603, 0.6285133, -0.32262218, -0.26764598, -0.70046484, -0.37731448, -0.24505787, 0.023978056, 0.34124416, 0.20209862, -0.522242, -0.96314186, 0.1328834, -0.051775917, -0.17302582, 0.038093153, -0.14390644, 0.06969541, -0.24251772, -0.36564845, -0.3875664, -0.04277947, 0.09193232, -0.32995912, 0.018110247, 0.41235802, -0.17442904, 0.07831306, 0.5547739, -0.20488001, -0.13982192, -0.11133611, 0.61439264, -0.37934458, -0.39358136, -0.57389826, -0.18050584, -0.4250201, -0.6039327, 0.635395, 0.048463322, 0.6434416, 0.03122127, 0.12685618, 0.40897235, -0.17278357, -0.7093246, 0.9359762, 0.23461485, 0.6671768, 0.027554184, 0.11020884, 0.61047286, 0.809185, -0.5848928, 0.5338151, 0.4225026, -0.17934859, 0.3820016, 0.12645362, -0.29805633, -0.5491268, -0.17315955, -0.37787247, -0.17497317, 0.9365555, 0.71001035, -0.1050984, 0.37980124, -0.08644984, -0.25195798, 0.3732638, 0.1247391, -0.4483278, -0.12059388, -0.45595017, -0.6498821, 0.16254503, -0.4063731, -0.45856783, -0.43066627, -0.27202988, -0.23115358, -0.45322713, 0.07154273, -0.24949037, -0.8547566, -0.5441492, 0.30860224, 0.06305194, -0.43653566, -0.20960857, -0.4563593, -0.3599888, -0.14796296, -0.18836321, -0.41123876, -0.12132513, -0.16277765, -0.009574459, 0.13927068, -0.007159981, -0.10587862, -0.27495772, -0.12887016, 0.04551996, 0.39734223, -0.11430374, 0.12677984, -0.17565006, 0.065886505, 0.0018399574, 0.3602421, -0.32562533, -0.26090452, 1.3192805, 0.14339072, -0.031589046, 0.29610488, -0.22559834, 0.15373273, 0.24425822, -0.17785132, -0.27761146, -0.20855097, -0.4409375, 0.048210487, -0.14017761, -0.51191795, 0.07678625, -0.48914722, -0.12561896, -0.20013791, 0.24041475, 0.38516626, 0.41297618, 0.5941244, 0.53601354, -0.27726093]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>어느 Texture analyzer를 추천하나요?</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>다양한 회사에서 취급하고 있는데, 많은 식품회사에서는 stable micro systems, brookfield 기기를 보유하고 있네요.</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[0.33761787, -0.37960088, 0.036179837, -0.21094689, -0.20336033, 0.088186614, 0.15687364, 0.5470793, -0.023168536, -0.57199526, -0.3198995, -0.5956688, -0.1769067, -0.28110743, -0.021376295, 0.11646399, 0.5915345, 0.087558225, -0.13939041, -0.14858526, -0.63846713, 0.15641028, 0.21363842, 0.31032595, -0.3103597, -0.9568642, -0.4456321, 0.6296107, 0.08650554, -0.11063918, 0.20017391, -0.12641178, -0.12887211, -0.029825687, -0.0774728, -0.12673825, -0.75000656, -0.2579532, -0.09236473, -0.25066906, -0.08088103, -0.20752916, -0.0043563456, 0.011999483, 0.08918435, 1.0470304, -0.19754866, 0.44383845, -0.37859625, 0.22700451, -0.6305642, 0.060795117, 0.33649623, 0.16813578, 0.064512834, 0.017280744, -0.4783404, -0.19304897, 0.20738888, -0.46876028, 0.4554301, -0.39566445, -0.07589098, 0.07691607, -0.085579425, -0.41135904, -0.44672325, 0.2795286, -0.23208407, -0.09090325, 0.012785156, 0.17755327, 0.11589319, 0.028029678, -0.18732862, -0.54161704, 0.28028733, -0.008025358, 0.7326419, 0.52900517, 0.15989038, -0.5977215, -0.5013751, 0.28615126, -0.4782245, -0.10465468, -0.07534037, -0.65289134, -0.45599657, -0.31748194, -0.8223842, -0.19091934, 0.06587163, 0.1447467, -0.27432954, -0.09608345, -0.09815986, -0.117957875, 0.40298352, -0.09254861, -0.09452736, 0.0150431115, 0.15688495, 0.48788667, 0.19858754, -0.039875634, -0.33679426, 0.18614236, 0.37637067, -0.14302294, 0.38208345, 0.01370071, 0.42528912, -0.2682814, 0.06296073, 0.57793564, -0.2539633, 0.4375061, -0.31458688, 0.7180038, 0.07667462, 0.16397351, -0.044334743, 0.8312931, -0.2583282, 0.12957361, 0.5338952, 0.5528067, 0.41467273, -0.63357073, -0.47739157, -0.07862607, 0.8393251, -0.2551913, -0.3416589, 0.10043804, 0.16055882, -0.5652516, 0.6944358, -0.012591774, 0.022698088, -0.59775025, 0.23554322, 0.0799399, 0.2370493, 0.32807004, 0.6573363, -0.13733666, -0.074970305, -0.7040077, -0.6455991, -0.1241385, -0.4721697, -0.18453237, -0.120470256, -0.38808003, -0.073159, 0.10807951, 0.20333748, -0.041267592, -0.05345344, 0.49617308, -0.18139258, 0.117476806, 0.06148358, 0.013472571, 0.9035184, -0.009831289, 0.12871194, -0.64672995, -0.2488672, 0.22112226, -0.027233714, 0.18444063, -0.063914284, 0.23533952, 0.13249338, 0.094367355, -0.46531352, -0.35979426, 0.22286128, 0.71126926, -0.34906882, -0.14350592, 0.18244168, -0.0699995, 0.73832107, -0.33078334, -0.2602915, -0.21745802, 0.22051537, 0.1322835, -0.09901666, 0.40813422, 0.43700317, 0.22605224, -0.15840821, -0.40084904, 0.26011425, -0.20465203, -0.2980467, 0.5236267, 0.009833843, 1.0079722, 0.7131258, 0.34545314, -0.18901037, -0.22592509, -0.08548642, -0.037272256, -0.7340277, 0.20603311, 0.03462466, 0.4829235, 0.7121139, -0.49124303, 0.511081, 0.06227483, -0.01297466, -0.28291863, 0.1271527, -0.3020942, 0.4914167, 0.06578727, -0.07937215, -0.76109016, 0.32296348, 0.7125195, 0.60071766, -0.01680029, -0.4046597, -0.3671515, 0.056841522, -0.7519122, 0.9619123, -0.34824708, 0.42121977, 0.6389085, -0.22144224, -0.7234503, -0.15068932, 0.64500546, 0.46820652, -0.093703486, -0.20599405, 0.50891924, 0.19694261, -0.36272165, 0.76051015, -0.06752115, 0.38790604, 0.47764245, -0.6021837, -0.46165213, 0.28430068, -0.07303861, -0.1397884, 0.08721118, -0.35007688, -0.4732783, 0.094924755, 0.43844458, -0.88403916, -0.7293196, -0.76372844, -0.3874249, 0.22051716, -0.74994063, 0.3529324, -0.38435972, -0.07150361, -0.4193108, -0.017078197, -0.046854682, -0.31048027, 0.24421209, -0.3888085, -0.16593052, 0.04405165, -0.15711243, 0.3008105, 0.22291584, 0.21312225, 0.36819786, 0.3055118, -0.071787216, -0.080429085, -0.31901032, -0.29539618, -0.54400396, 0.09945637, -0.056926284, -0.35232818, -1.1925927, 0.29714873, 0.07002616, -0.07981018, -0.23760195, -0.020895846, 0.039508313, 0.25494927, 0.25389525, 0.26749787, 0.362585, 0.33268845, 0.21689446, -0.16622072, -0.43054235, -0.060020607, 0.18325716, -0.0751676, 0.23509485, -0.8041834, 0.097086474, 0.20920373, -0.119348206, -0.20534794, -0.06737375, 0.118006974, -0.21921162, -0.63865626, 0.13773696, -0.06585348, 0.117249034, -0.24365343, 0.392267, -0.185178, -0.20625547, 0.2770056, 0.061502036, -0.5310197, -0.6301581, 1.0426736, -0.1074774, 0.14490251, -0.49040967, 0.15227659, -0.819057, 0.42272252, 0.2237512, -0.2014755, -0.038878027, -0.788124, 0.020672964, -0.33733523, 0.55390567, 0.0024101865, 0.09022083, 0.5851323, -0.44135502, 0.14235866, -0.117186956, -0.42337847, 0.24794158, 0.63186175, 0.09093712, 0.522436, 0.23708324, -0.39557686, -0.18111709, 0.68282104, -0.38588277, 0.17219387, -0.17782016, 0.34316993, -0.13424675, -0.6646329, 0.55109465, -0.15608615, 0.5173984, 0.31066906, -0.42047092, -0.036800932, -0.43421414, -0.05038553, 0.4565538, -0.51454437, 0.05374896, 0.11008129, -0.25626278, 0.6969749, 0.7809112, 0.45362154, -0.70033276, -0.1846417, -0.5801244, -0.3808719, 0.24829163, 0.09129193, 0.36132464, -0.042297255, -0.8916583, 0.09460776, -0.22179992, -0.104419865, 0.04660554, 0.25163564, 0.7424781, 0.044908892, 0.19680502, 0.43461883, 0.70800096, 0.06731577, -0.09505531, -0.070647694, 0.37736997, 0.59347457, 0.34299898, -0.42147347, -0.3483676, -0.23714113, -0.4739701, -0.6633506, 0.4534275, 0.13149138, -0.20265397, -1.0291612, 0.40965363, 0.12135339, -0.28754112, 0.21204256, -0.62807703, 0.035418462, -0.4746574, -0.63728964, 0.07456987, -0.0041794865, 0.013806743, 0.2567107, 0.18024664, 0.34247008, -0.31435114, 0.17092307, 0.04091545, 0.12395232, 0.08086545, -0.068505935, -0.27995145, -0.64935446, 0.21419375, 0.17425048, -0.044331342, 0.18624288, -0.20985235, 0.2168556, -0.21139978, 0.77327013, -0.4245188, -0.21740036, -1.0028614, -0.55393946, -0.7964534, -0.492428, 0.3480552, -0.07832969, -0.17714424, 0.38208392, -0.5418068, -0.2437357, 0.14253771, 0.19506454, -0.0041802563, 0.0456688, 0.060575575, 0.50679094, 0.54154605, 0.33717567, 0.42934224, 0.04027143, 0.31939122, -0.6303069, -0.4488077, -0.12678006, 0.19638894, 0.3168062, -0.17504433, -0.47506517, -0.2616384, -0.5303978, -0.21207981, -1.0346533, -0.16534957, 0.15937229, -0.020551639, 0.08078505, -0.17027481, -0.3476176, -0.5324628, -0.017271418, 0.5960113, 0.59861946, -0.075485654, -0.0917469, -0.35105145, 0.6548344, -0.19564413, -0.25276884, 0.44410577, 0.1660453, -0.37710622, 0.3711658, 0.22110093, -0.07167607, 0.09030479, 0.33499154, 0.20590581, -0.014076663, -0.48616004, -0.26619327, 0.21587883, -0.13482215, -0.5519751, -0.33972502, 0.91083884, 0.3295026, 0.7079678, 0.5498811, -0.2243978, 0.13161823, 0.30624533, 0.093755536, -0.12372505, -0.19617374, 0.2712104, 0.33987138, 0.14055617, -0.5487342, -0.37820882, 0.3772433, -0.71914726, -0.11880925, 0.5548602, -0.09511992, 0.17225368, 0.09417544, -0.996626, -0.12333292, 0.4545691, 0.5329935, 0.28193107, -0.03794126, 0.05710844, 0.6497443, 0.0069883126, 0.012867226, 0.5106929, 0.59448665, 0.45883805, 0.1270091, -0.6235157, -0.7261744, -0.23266833, -0.42211318, -0.08980414, 0.09243391, 0.31656373, -0.3280795, -0.075951874, -1.1908952, -0.3753652, -0.46264315, 0.35885322, -0.01404976, -0.099249154, -0.48247987, 0.57062876, -0.24976635, 0.025533186, 0.04474025, 0.22455516, 0.14019346, 0.48078695, 0.23513357, 0.3232209, 0.118570134, -0.27418736, -0.43669105, -0.497465, -0.16580184, -0.34339347, 0.21054721, 0.70939696, 0.080704816, -0.31260514, 0.37665772, -0.23526214, -0.8378446, -0.0018077545, -0.61246157, 0.4504951, -0.46296528, -0.49456057, -0.03748964, 0.49156594, -0.43095294, -0.26306465, -0.17744511, -0.6973128, -0.5180288, 0.12123725, 0.5355543, 0.34769127, 0.13509282, 0.4389574, -0.29754695, -0.3286819, 0.89450026, -0.0819756, -0.59511614, 0.19607656, -0.049013272, -0.12305166, -0.2326515, 0.19736487, -0.5056478, -0.22181284, -0.53031504, -0.3749823, 0.64061654, 0.05787245, -0.17320809, -0.28578293, -0.43847838, -0.62038183, 0.2448975, 0.26850343, -0.046107095, 0.17977825, -0.31897902, -0.55631304, 0.75750405, -0.36833104, 0.06713927, -0.6792888, -0.32598373, -0.7016413, 0.03182496, 0.4223167, -0.03480531, -0.47189084, -0.7854114, -0.21079502, -0.27421206, -0.19282852, 0.15084861, -0.031104593, -0.090168476, -0.20445645, -0.3977487, -0.28271392, -0.42366335, -0.42641157, -0.1432963, -0.05050007, -0.013661476, -0.35919732, 0.18988353, 0.47566247, -0.6456738, -0.058185253, -0.16128029, 0.6459806, -0.21828637, -0.23907846, -0.29327098, -0.4676398, -0.5049453, -0.6201826, 0.46946326, -0.2476606, 0.758835, -0.17448479, 0.20204759, 0.3474651, -0.069565125, -0.6226307, 0.8101772, -0.056892242, 0.6177646, -0.013410635, 0.01786739, 0.5137032, 0.722242, -0.34500712, 0.0062072696, 0.46015173, -0.32672092, 0.295439, -0.30201027, -0.32112348, -0.44894037, -0.24132408, -0.34527397, -0.40810096, 0.83676994, 0.85210943, 0.0703658, 0.17947613, 0.25684547, -0.25265068, 0.4883859, 0.18819599, -0.60109425, -0.28344646, -0.14104703, -0.66569805, 0.19734016, -0.30345967, -0.41639173, -0.8157892, -0.6843881, -0.5296982, -0.2813515, 0.30536488, 0.058431, -0.8512806, -0.55233616, 0.12834664, -0.073866464, -0.4613135, -0.01571082, -0.34452298, -0.21833248, -0.16345975, -0.27949435, -0.117219366, -0.25225294, -0.29129362, 0.34799173, 0.13293397, 0.1530497, 0.063538566, -0.077278, -0.31756258, -0.17187226, 0.23470625, 0.121846616, 0.07221749, 0.1554819, -0.22156532, -0.087804236, 0.3868066, -0.68146735, -0.12510431, 0.63067484, 0.32344323, 0.02272503, 0.22578473, 0.29930225, 0.18443143, 0.53070116, 0.057480868, -0.21275091, -0.18035552, -0.37996984, 0.074774995, -0.36965612, -0.51150274, 0.054620177, -0.6401583, 0.029424429, -0.41920942, 0.3080947, -0.17947666, 0.70012444, 0.438899, 0.4616472, -0.59500587]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Texture analzyer를 추천해주시겠어요?</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>다양한 회사에서 취급하고 있는데, 많은 식품회사에서는 stable micro systems, brookfield 기기를 보유하고 있네요.</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[0.40615597, -0.4678164, 0.36835125, -0.18737799, -0.15115961, 0.24550566, 0.31683743, 0.34222704, 0.30410838, -0.5613791, -0.35366064, -0.5993696, -0.27869394, -0.30050066, -0.11303691, 0.12103528, 0.6495816, 0.1340267, -0.0016932621, -0.16197045, -0.7575576, 0.014211473, 0.23720525, 0.44123673, -0.41227555, -0.5552428, -0.09451369, 0.6391692, 0.17153022, -0.32509914, 0.034418017, -0.2698626, 0.0609411, -0.22834128, 0.14511208, -0.085379064, -0.7945928, -0.6315198, -0.09774973, -0.31160298, -0.03479758, -0.2152973, -0.043585863, -0.09483582, -0.052422315, 1.0284271, -0.5025873, 0.31116796, -0.26508123, 0.010707363, -0.5013893, -0.027199155, 0.4224596, 0.53218305, 0.0028193193, -0.09836712, -0.5868992, -0.5422228, 0.30474195, -0.56837875, 0.5545597, -0.21781455, -0.2600957, 0.2956871, 0.13141511, -0.21376742, -0.43502402, 0.28062055, -0.17398672, -0.107234076, 0.31008604, 0.6918503, 0.5320828, 0.06087066, -0.29686722, -0.45878747, 0.20284458, 0.18224217, 0.7673709, 0.26280278, 0.032074917, -0.6575677, 0.01837415, 0.24691148, -0.484076, -0.050103582, 0.027759438, -0.62226045, -0.6727679, -0.37764853, -0.5906484, -0.19514067, -0.23970574, -0.02780123, -0.43690228, -0.34451666, -0.19191492, 0.02936477, 0.46945372, -0.3374382, -0.18297136, 0.04893335, 0.09962559, 0.45227712, -0.022679452, 0.014922504, -0.21133563, 0.17727424, 0.49327463, -0.1787059, 0.51292825, -0.033457845, 0.4762671, -0.10548042, 0.29787707, 0.473799, -0.24533902, 0.5609679, -0.14497805, 0.6991228, -0.09946755, -0.2516026, -0.09472114, 0.7578363, -0.228766, 0.25157523, 0.5121976, 0.3135948, 0.04036969, -0.5706786, -0.26091042, -0.3095411, 1.0416542, -0.38317728, -0.4309906, 0.20543095, -0.101776026, -0.5636824, 0.63988787, 0.018520528, 0.06999593, -0.55947846, -0.1274345, 0.028931206, -0.053934325, 0.46028212, 0.3774559, -0.33265978, -0.18096228, -0.39319316, -0.3661121, -0.3475637, -0.4301598, -0.26894125, -0.16066253, -0.47685573, 0.0077627213, 0.20160195, 0.15268455, 0.30928385, -0.24379194, 0.50049186, -0.28239027, 0.17966996, 0.10228566, -0.1726152, 0.8555029, -0.14825211, -0.15756196, -0.43485415, -0.33808705, 0.20916326, -0.046895698, 0.09449023, -0.04373056, 0.29159465, 0.41855183, 0.40258923, -0.3434023, -0.44503462, 0.23606256, 0.40013966, -0.19405179, 0.033563167, 0.04244637, 0.15963198, 0.58759886, -0.57148045, -0.46807772, -0.28559852, 0.17366445, 0.19463761, -0.24502498, 0.4725748, 0.44487682, 0.25773513, -0.00061647163, -0.3312268, 0.3588468, -0.1355266, -0.49860322, 0.22097543, 0.049360428, 0.96414584, 0.5063319, 0.08823817, -0.2731, -0.21300825, -0.06731095, -0.03222171, -0.69171035, 0.1997786, 0.24345864, 0.47728845, 0.4513707, -0.35932714, 0.53717476, 0.08574991, -0.045918234, -0.13139784, 0.25072664, -0.08748713, 0.48862082, 0.123531796, -0.092837796, -0.6165059, 0.45248574, 0.40899196, 0.45039567, -0.16745181, -0.22211038, -0.7091313, -0.12869224, -0.5084507, 0.8723369, -0.37756568, 0.47750258, 0.45812908, -0.019171214, -0.8627278, 0.16181405, 0.63154656, 0.28129172, 0.029159276, -0.014891175, 0.17281176, 0.17686574, -0.3390703, 0.82813793, -0.1921525, 0.395921, 0.3816674, -0.6264243, -0.52127546, 0.4612891, 0.12511419, -0.09973638, 0.27370176, -0.5777968, -0.6097385, -0.09438271, 0.3885224, -0.55505735, -0.8152137, -0.61403495, -0.62024385, 0.06830386, -0.73545146, 0.42242166, -0.19380721, -0.16723542, -0.34567216, -0.11639256, -0.19986747, -0.31301212, 0.082859956, -0.2212028, -0.11522056, 0.26476747, -0.29228547, 0.14897333, 0.27899182, 0.08283594, 0.39191908, 0.22158994, -0.4665903, -0.17537041, -0.23107283, -0.5926053, -0.6380521, 0.29042295, 0.027557446, -0.011801069, -1.3849205, 0.60120374, -0.14111805, 0.07024758, -0.30540425, 0.18645927, -0.32218623, 0.5217764, 0.010427861, 0.08753624, 0.1933551, 0.41076764, 0.33379826, -0.31662816, -0.5580412, 0.18073773, 0.45002607, -0.042021677, -0.0057241665, -1.0696117, 0.0054327087, -0.0060040434, -0.15059955, -0.035407607, -0.030876247, -0.1344397, -0.26106325, -0.7822326, 0.17177968, 0.11174899, 0.18711318, -0.32578334, -0.02569478, -0.25871438, -0.27281567, 0.3064605, 0.093099095, -0.41296923, -0.48870087, 1.0376562, -0.30998337, 0.18600237, -0.47330606, -0.0009794487, -0.7680888, 0.368357, 0.25478232, -0.15533666, -0.037082538, -0.65743107, -0.37797427, -0.31497252, 0.2656548, 0.16238193, -0.06125149, 0.4457696, -0.222369, 0.15351126, -0.19867332, -0.5566854, 0.54208624, 0.2951743, 0.22851023, 0.49086404, 0.056295395, -0.49105203, -0.24822702, 0.40243655, -0.11537582, 0.34936708, -0.3805391, 0.29690602, -0.18660401, -0.8333947, 0.400875, -0.28519997, 0.6967105, 0.1956294, -0.3408668, 0.17422824, -0.00054330146, -0.15335692, 0.28426433, -0.5856096, -0.049503785, 0.1630744, -0.24014723, 0.75839067, 0.6758281, 0.47636995, -0.7960027, 0.040223222, -0.69499063, -0.4475425, 0.2739638, 0.1349318, 0.26761508, 0.06107408, -0.85305834, 0.2470983, -0.32090774, -0.13941535, 0.13537781, 0.3208315, 0.4870598, -0.21968573, -0.042250644, 0.3282525, 0.778534, 0.037188843, -0.44058454, -0.15818582, 0.5953344, 0.50417227, 0.12560491, -0.43663064, -0.39721432, -0.4227071, -0.51805997, -0.7504167, 0.39616513, -0.013410821, -0.39393365, -0.69792455, 0.18961926, 0.15624459, -0.18804742, 0.2947679, -0.7569146, 0.104294874, -0.3646125, -0.42828897, 0.32700863, -0.21863644, -0.1605118, 0.27296758, 0.23006241, 0.41571137, -0.2328157, 0.29086387, -0.054653656, 0.3321204, -0.09136023, 0.14646508, -0.2486504, -0.7627573, 0.2348923, -0.044533946, 0.010024642, 0.19635904, -0.19743462, 0.1454483, -0.097092666, 0.82257587, -0.16802923, -0.243122, -0.75994873, -0.59697425, -0.7003288, -0.5270043, 0.5075813, -0.050214194, 0.03172095, 0.33062527, -0.77369165, 0.07105055, 0.13314508, 0.07202174, -0.042200617, -0.23636058, 0.08222141, 0.31855282, 0.39439237, 0.057495035, 0.35060957, -0.4268369, 0.21523385, -0.28779358, -0.4552169, 0.28629294, 0.22821589, 0.34501347, -0.29919156, -0.38295594, -0.2443809, -0.40516487, -0.2297558, -0.89222896, 0.03429746, 0.33433518, -0.017997349, 0.09353421, -0.15678796, -0.37155715, -0.48595038, 0.28777698, 0.4549446, 0.50658274, 0.2247441, -0.133475, -0.5957059, 0.5884636, -0.117639616, -0.30458713, 0.4294149, 0.34922364, -0.45753604, 0.19498272, 0.28242174, -0.022961322, -0.07223316, 0.18290053, 0.3419354, 0.037708394, -0.43454677, -0.27357978, 0.33581728, -0.25008413, -0.39448714, -0.262779, 0.75383395, 0.46563184, 0.6411407, 0.23938866, -0.24300846, 0.34293285, 0.37444735, -0.07222536, -0.17714518, -0.040272128, 0.14647447, 0.2199582, 0.28257683, -0.36239806, -0.5696407, -0.19629723, -0.49292174, -0.036389753, 0.6072961, -0.08631772, 0.41918895, 0.16417111, -0.76438093, -0.1316658, 0.29422784, 0.4846955, 0.24689996, 0.09831226, 0.29350075, 0.7190922, 0.09087369, 0.17603531, 0.4415419, 0.7736696, 0.39183688, 0.37051, -0.5724759, -0.68876517, -0.4301134, -0.3129166, -0.33349967, 0.05836131, 0.45948926, -0.32064193, 0.14253771, -1.0124106, -0.11424233, -0.55640036, 0.4315663, -0.14277633, -0.33526042, -0.256049, 0.4167875, -0.35527125, 0.15414633, 0.08850024, 0.066635996, 0.05939564, 0.36892486, 0.22611798, 0.2982832, -0.036995012, -0.32268986, -0.18249695, -0.64581317, -0.2718471, -0.44465593, 0.15258676, 0.8072328, 0.12501252, -0.4590237, 0.57406116, -0.20985012, -0.94370764, 0.14772983, -0.41412354, -0.004508274, -0.61065084, -0.1643847, 0.036183808, 0.71505135, -0.39647514, -0.28366807, -0.049156938, -0.52922916, -0.47985655, 0.24048214, 0.3594512, 0.6226284, 0.060344428, 0.60234207, -0.38184017, -0.48929948, 1.0468081, -0.14108339, -0.52651054, 0.16373001, -0.11742876, -0.3081222, -0.3273959, 0.047475927, -0.33515215, -0.30699834, -0.5954988, -0.26495108, 0.49340272, 0.27107057, 0.07781297, -0.041869923, -0.44148204, -0.26212224, 0.116936184, 0.33441207, 0.08407111, -0.0750494, -0.14270127, -0.50732344, 0.7794745, -0.25019678, -0.027718393, -0.45775118, -0.25777307, -1.0359588, 0.2397319, 0.096004434, -0.16230662, -0.24870998, -0.48343578, -0.11327963, -0.30515325, -0.21822958, 0.3892008, -0.17031443, -0.090325855, -0.23697698, -0.19470197, -0.5685291, -0.64268506, -0.27708116, -0.3062904, -0.13873012, 0.35287473, -0.20515399, 0.2397842, 0.4653469, -0.39836144, 0.065465264, -0.18897443, 0.7631173, -0.023006046, -0.42406243, -0.35982916, -0.55963284, -0.89987624, -0.5463858, 0.48391622, -0.27296934, 0.5847912, -0.18281828, 0.26770017, 0.453309, -0.05550609, -0.34133318, 0.7402832, -0.052271497, 0.79953665, 0.010521115, -0.024857447, 0.28183675, 0.83233243, -0.32357794, 0.09345834, 0.4693057, -0.30330747, 0.14833164, -0.36827636, -0.13942878, -0.2950585, -0.1659509, -0.05411465, -0.54948586, 0.65988326, 0.82457906, -0.050700452, 0.34756154, 0.20042336, -0.14522377, 0.7068856, 0.4499244, -0.7616488, -0.69762796, 0.11756077, -0.4831922, 0.0407343, -0.5302828, -0.2877435, -0.35347724, -0.81178826, -0.3451665, -0.18218505, 0.016754188, 0.28251448, -0.5775712, -0.71491736, 0.1656477, 0.02239876, -0.38915515, -0.1978633, -0.34587651, 0.14365003, 0.075353876, -0.20871241, -0.053596742, -0.11059643, -0.4220923, 0.272276, 0.29847407, 0.08588911, 0.04298271, -0.18179391, -0.38548845, -0.32657376, -0.016976133, 0.1290373, 0.07784143, 0.21751569, -0.020774594, -0.025573056, 0.14213155, -0.7086809, -0.2372689, 0.80143034, 0.45226344, -0.0966696, 0.21773851, 0.48037872, -0.055360865, 0.47517976, 0.15888195, -0.24683857, -0.034296006, -0.1749403, 0.10632056, -0.21740837, -0.70701015, 0.074715726, -0.24675237, -0.14043348, -0.36550102, -0.046441738, 0.00021116984, 0.64623785, 0.67586136, -0.039726544, -0.3861247]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>어느 회사 rheometer를 구입하는게 좋을까요?</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>TA instruments, Hakke 것이 많이 사용되고 있는 것 같아요.</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[-0.26325992, 0.030508773, 0.14852566, -0.43588123, -0.09173106, -0.087075695, 0.67816496, 0.24581449, -0.33277342, -0.03614059, 0.17136818, -0.5539838, 0.032041162, 0.18457137, 0.33948728, 0.014953717, 0.22905254, -0.12721168, -0.27456123, -0.16839492, 0.19439492, 0.011285743, -0.05060803, 0.27976948, -0.46163154, -0.27584445, -0.019484535, 0.5750194, 0.57217455, 0.5109209, 0.51800215, 0.5373641, -0.069674216, -0.3596406, 0.13466184, -0.059518836, -0.35989732, 0.18047518, -0.55606866, 0.084134705, -0.06472666, 0.31728083, -0.08966666, -0.29470327, 0.95208156, 1.0900658, 0.59516454, 0.2372077, -0.7770077, -0.073441334, -0.5247561, -0.20945135, 0.62141013, 0.4588045, -0.48669124, -0.035556287, 0.014407571, -0.08139846, 0.38134953, -0.04388896, 0.251786, -0.18859024, -0.28610444, 0.10808054, 0.14889273, -0.17313719, 0.12503773, 0.24649286, -0.20996669, 0.30311644, -0.56540924, -0.010065882, 0.41581434, -0.8091214, -0.032227468, -0.34736285, 0.4648988, 0.03289373, 0.8975772, 0.4584017, 0.06958366, -0.3894906, -0.8106827, -0.065925665, -0.17522007, 0.029982045, -0.30100057, -0.20325436, -0.115968116, 0.208101, -0.70177037, 0.14329834, 0.49759507, 0.0027424307, -0.3924585, 0.06921718, 0.38163754, -0.12355503, 0.5722809, 0.10167953, 0.22628367, -0.09158391, -0.26255503, 0.413338, 0.31806442, -0.35728085, -0.035150267, 0.44615763, 0.37530816, -0.3856469, 0.26506066, -0.25425747, 0.11833846, -0.08663905, -0.75085896, 0.7174144, -0.5593002, 0.05087643, -0.5165816, 0.5993394, 0.2914644, 0.16480222, -0.011630174, 1.1681901, -0.111441486, 0.28217116, 0.7255866, 0.27433747, 0.30902666, -0.7824056, -0.3268745, 0.28358054, 0.11870052, 0.099170014, -0.008788919, -0.4991795, 0.3511896, -0.29264903, 0.7602756, 0.23712981, -0.26200262, -0.74718434, 0.35645458, -0.20632462, 0.31222564, -0.07454567, 0.082531616, -0.5657162, 0.14712998, -0.39765576, -0.37048894, -0.23798768, -8.6977205e-05, -0.3968366, -0.13766944, 0.31982064, -0.3287428, -0.07357418, -0.27997413, -0.85470223, 0.3613093, -0.069472834, 0.06037225, 0.4532496, -0.20840664, -0.08719186, 0.8938048, -0.39231765, 0.102721244, -0.7657072, -0.3340463, 0.122735836, -0.29971334, -0.11349075, 0.2955306, 0.6142907, -0.028176837, 0.33982205, -0.770941, -0.91278857, -0.23849821, 0.88111824, -0.46070066, 0.16552909, 0.14584732, -0.08658503, 0.27618837, -0.5709375, -0.76456296, 0.2043946, 0.5866268, -0.16205162, 0.11659352, -0.6440056, 0.45454746, -0.39981908, -0.396705, -0.5278929, -0.24654277, -0.02321389, 0.004254028, 0.014106061, 0.027797446, 0.6360173, 0.64765245, 0.20070894, -0.25112262, 0.27375475, -0.16330974, 0.2630609, -0.05573489, 0.35729915, 0.5711942, 0.64371485, 0.22647256, 0.14225048, 0.036982723, 0.03656526, -0.22888105, -0.22128409, 0.6062643, -0.22698534, 0.0816317, -0.9082779, -0.23207216, -0.62959594, 0.22082031, 0.22840495, 0.5134177, 0.5119682, -0.33948958, -0.31085923, -0.25789657, -0.75397456, 0.7060204, -1.0984838, -0.07474083, -0.29650015, -0.4152395, -0.6334262, 0.26569712, 0.5208251, 0.34517464, -0.12561546, -0.26727143, 0.30278936, 0.16025133, -0.17274827, 0.7635963, -0.17227694, 0.59345156, 0.5697169, -0.36882484, -0.1889555, -0.14286828, -0.47236943, 0.52921957, 0.2933352, 0.46347454, -0.20970641, -0.52336395, -0.00045652426, -1.0357589, -0.20478371, -0.030889904, -0.72051495, -0.11352162, -0.9198854, 0.447541, -0.33463997, -0.4594314, -0.40666234, 0.5076027, -0.2009307, -0.26131347, -0.045467213, -0.6899371, -0.039580133, 0.061044272, 0.14590886, 0.07238549, 0.2816925, -0.2743835, 0.5425249, -0.23765129, 0.38117757, -0.10400363, -0.22867048, -0.5053712, -0.7078404, 0.36180383, -0.12114337, 0.19510369, -1.0106232, 0.10123492, 0.058739726, -0.4439119, -0.3659098, -0.38702232, -0.07422054, -0.122441545, 0.43083835, 0.2922116, 0.8211428, -0.4478259, 0.31810284, -0.09781551, -0.041279487, -0.67006326, -0.27916628, 0.057910744, 0.15896063, 0.046300624, -0.61291075, -0.045966, 0.17498317, -0.19994159, -0.1699015, -0.045585543, -0.17962408, 0.16911626, -0.3398077, 0.20702304, -0.5230614, 0.08467079, 0.79824036, -0.02293868, -0.040514577, 0.26624942, -0.18330906, -0.7105153, -1.0288317, 0.63879246, 0.03782188, 0.77753186, -0.5949451, -0.75217885, -0.5029033, 0.4178964, -0.45842278, -0.06282856, -0.21915613, -0.2539557, -0.20548904, 0.018290695, 0.5782831, -0.051610805, -0.025099441, 0.23854049, -0.8034051, 0.62320596, 0.046038717, 0.008364521, -0.34668326, 0.578835, 0.22190545, -0.032130614, 0.397622, -0.26171407, -0.08203212, 0.07283032, -0.1182748, 0.57446045, 0.5109124, 0.0535064, -0.2880613, -0.42318788, 0.7743725, 0.03153008, 0.38987297, -0.2517612, -0.5634223, -0.31907678, -0.46325707, 0.1716434, -0.17397362, -0.84430844, -0.08065587, 0.3726982, -0.52707577, 0.39211065, 0.5017946, -0.37023118, -0.50592613, 0.5308695, -0.68511724, -0.3872801, -0.70058554, -0.24568415, 0.51538366, 0.01051545, -0.56825167, 0.1841141, 0.26881927, -0.32255244, 0.71808964, 0.0073956857, -0.043118022, 0.20756747, -0.009632967, 0.25311488, 0.9214172, -0.25244227, 0.06462531, 0.18577616, -0.11579069, 0.5815814, 0.4273661, -0.12282435, -0.2857143, 0.037679955, -0.8425267, -0.17523378, 0.20108163, 0.0412112, -0.03416665, -1.34273, 0.35391146, 0.15264402, -0.30983615, -0.044856716, -0.92478514, 0.48142338, -0.17481166, 0.14807707, -0.41139966, -0.05791606, -0.59322584, 0.6197635, -0.011727053, -0.10371039, -0.18050615, -0.34685954, -0.28401524, -0.29376018, -0.16866717, 0.16435854, -0.46049905, -0.7456944, 0.25036886, -0.12947649, -0.0937806, 0.35177147, -0.04909359, 0.36120868, -0.032102846, 0.18414046, -0.4634707, -0.67900497, -0.052897062, 0.07201964, -0.32764125, 0.4255891, -0.28735742, -0.22698782, 0.34309846, -0.14941645, -0.28062958, -0.08367233, -0.043817047, 0.5843923, -0.027324278, -0.25459826, -0.3302308, 0.57994586, 0.24202706, -0.12800874, 0.5039299, -0.28241244, 0.70558715, -0.3989475, -0.30138618, -0.19683743, 0.4903373, 0.046191074, -0.051696733, 0.039078396, -0.1424277, -0.29465166, -0.5259125, -0.46218625, 0.10525465, 0.13063002, 0.13956487, 0.044607706, -0.21389768, 0.22268647, -0.20484926, 0.07757491, 0.4565554, 0.15814324, -0.14205325, -0.6598737, 0.16102684, 0.7324322, -0.0809564, -0.24710257, 0.8183456, -0.1359042, -0.19704072, 0.2440714, 0.09285765, 0.121869594, -0.015964517, 0.18208744, -0.111564696, 0.05461892, -0.07234277, 0.016323123, -0.21252963, 0.0985632, -0.09432405, 0.03186977, 0.49699244, 0.0003516113, 0.705705, -0.06785889, -0.6061557, -0.050280135, 0.108326845, 0.22290996, -0.17373796, -0.18042879, -0.573761, 0.6067047, -0.115574725, -0.850879, -0.09647055, 0.32274532, -0.6616549, 0.03028951, 0.11966781, -0.2585734, 0.12232679, -0.13256164, -0.5494625, -0.108109415, 0.7820072, 0.020765977, -0.2309847, -0.060461696, -0.14949855, 0.42143422, 0.052791122, 0.002610808, 0.70064026, 0.30542278, 0.4406934, 0.21752694, 0.056107316, -0.33648762, -0.32678112, -0.4368348, -0.447803, -0.18962619, -0.28956026, -0.11291608, 0.18802139, -0.79209626, -0.5363129, 0.10178621, 0.07946636, -0.29808173, 0.13888304, -0.40972805, 0.64185023, -0.38282648, -0.2675271, 0.16037667, 0.40630797, 0.21042515, 0.09835893, 0.20424898, -0.5730729, 0.4375311, -0.2240392, -0.17692786, -0.18816377, -0.035930876, -0.51862, 0.09776131, 0.35158148, -0.16139612, -0.31759915, 0.37809706, -0.112586394, -0.25918704, 0.19659571, -0.09059909, -0.27839625, -0.26949874, -0.638554, 0.11594993, 0.47544613, -0.736981, -0.3792704, -0.9565296, -0.7625124, 0.1705134, 0.44364575, 0.19473886, -0.60018617, -0.23031947, 0.5155252, -0.026414104, -0.6494285, 0.60754585, 0.056044586, -0.72934204, 1.1857159, -0.4748279, -0.1473239, 0.43536702, -0.29117137, 0.1951539, -0.0848417, -0.30469215, -0.3803591, 0.35724157, 0.28058228, -0.026491972, -0.11302443, -0.6615967, -1.0524422, -0.15132214, -0.05884721, 0.46774077, 0.2504052, -0.71143526, -0.2421376, 0.74553984, -0.32561782, -0.1698832, -0.5302903, -0.380764, 0.06900144, -0.018056883, 0.47719547, -0.004288066, -1.0073646, -0.9041877, 0.18177094, 0.35713843, -0.3207686, -0.038379353, -0.55900574, -0.26264444, -0.009926246, 0.034364432, -0.3864132, -0.047494873, -0.1973534, -0.39369673, 0.19426906, 0.56687015, -0.25960767, -0.3145388, 0.3473666, 0.3162159, -0.24654172, -0.18813537, -0.016541658, -0.22262849, -0.5388925, -0.7493809, -0.11529723, -0.66005254, -0.45761818, 0.8804762, 0.4856896, 0.16186765, -0.018506605, -0.3016977, 0.3433359, -0.38214496, -0.3306749, 0.93077254, 0.3516183, 0.088790745, -0.054873586, 0.56405455, 0.6070295, 0.784217, -0.1678435, 0.045841143, 0.9431381, -0.35693884, 0.37598568, 0.104436725, -0.16244847, -0.2937621, -0.14382188, -0.37371916, -0.4397943, 1.0068727, 0.3220249, 0.0640138, 0.51145804, -0.2598786, -0.19273363, 0.5066887, -0.32585815, -0.44199193, 0.13133098, -0.45710462, -0.33494246, 0.05025504, -0.26426828, -0.39611685, -0.34419948, 0.5003915, -0.014053601, -0.38205275, 0.07011755, -0.32572988, -0.74711525, -0.3909737, 0.51081395, 0.26528203, -0.4310412, -0.7130737, -0.44123986, -0.57647043, -0.2591391, -0.2790129, -0.31307518, 0.033311456, 0.10778401, -0.33794102, 0.09715476, -0.16905916, -0.1338005, -0.10079961, 0.3596011, 0.04135399, 0.6016641, -0.353451, 0.46028432, -0.43677232, 0.09135542, 0.07725919, 0.5221418, 0.34613842, 0.13015099, 0.7610776, -0.17585291, 0.54365814, 0.27134863, -0.61049473, 0.197147, 0.4004862, 0.23717274, -0.17571646, -0.025417103, -0.46313718, -0.30530533, -0.34871477, -0.3532433, -0.19259766, 0.01480576, -0.016358253, 0.03642252, -0.0660959, 0.5274327, 0.1339434, 0.52155423, 0.49067807, -0.022968499]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Rheometer를 추천해주시겠어요?</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>TA instruments, Hakke 것이 많이 사용되고 있는 것 같아요.</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[0.1546701, -0.15888323, 0.5372793, -0.92572975, -0.031062478, 0.13564985, 0.8484625, 0.4417607, -0.27641493, -0.15048619, -0.37748405, -0.5362371, -0.3116923, -0.7895908, 0.17353146, 0.08853381, 0.7058034, 0.32155767, -0.07235001, -0.32032928, 0.0020268343, 0.13408248, 0.08671453, 0.54234093, -0.14673543, 0.11633657, 0.10475457, 0.36150315, 0.2809364, 0.3368339, 0.02204, 0.6241258, -0.062062923, 0.103140436, 0.05867997, 0.1302837, -0.7626386, -0.43676654, -0.015641982, -0.6015425, -0.2227041, -0.12409711, -0.008161045, 0.03516012, 0.35246855, 0.16457947, 0.4797882, -0.4322206, -0.15653971, -0.119170964, -0.49176842, -0.33811656, 0.6201046, 0.48634237, -0.0673413, -0.19003622, 0.038253568, -0.4876654, 0.3487378, -0.48391944, -0.22588027, -0.48072928, -0.5599564, 0.23307614, 0.50617516, 0.3379392, -0.17468226, 0.6641846, -0.2086512, 0.07834802, 0.39613733, 0.38682383, 0.31816667, -0.4498112, -0.33719233, -0.40019217, 0.30026326, 0.17245838, 0.9356623, -0.012701313, -0.17248502, 0.23722403, -0.5056972, 0.46714288, -0.3259913, 0.82284516, -0.07381832, -0.4584836, -0.07898339, -0.27393034, -1.1133612, -0.22563364, 0.11559516, 0.10048954, -0.54916805, -0.44767618, 0.29901698, -0.034315076, 0.0904579, 0.06487417, 0.1604879, 0.24954088, -0.065251775, 0.51214194, 0.14933184, -0.57192296, -0.30917326, 0.38543567, 0.05506667, -0.25162682, 0.23498711, 0.039191622, 0.50924414, -0.6022253, 0.33606714, 0.8301464, -0.5925188, -0.10468708, 0.038568866, 0.16159865, 0.5741325, -0.47490954, -0.36619714, 0.6900266, -0.6900749, 0.30333224, 0.7987582, -0.07887357, 0.42393976, -0.24246822, -0.41155583, 0.40969723, 0.550843, -0.59829426, -0.23259531, -0.21820135, -0.06927376, -0.26056787, 0.5750059, 0.21010487, -0.11470007, 0.09433472, 0.07299732, 0.13264738, 0.032463096, 0.5634161, -0.013337995, -0.5565173, -0.124701835, -0.06932211, -0.6613427, 0.12052067, -0.032025293, -0.19713892, 0.14894214, -0.1594894, 0.079725616, -0.47995022, -0.27445504, -0.44890592, -0.25162682, 0.5282951, 0.20181252, 0.51172286, -0.10674093, -0.1648495, 0.94299567, -0.07985515, -0.2251546, -0.6590018, -0.18192008, -0.0009901226, -0.29499456, 0.2584371, 0.5239626, 0.6429909, -0.25482187, 0.18239893, -0.44340393, 0.09199923, -0.39810753, 0.78177917, -0.45820442, -0.23649131, -0.17998128, 0.0034680557, 0.4120276, -0.086492196, -0.800798, -0.045404367, 0.10200258, 0.106750496, -0.23303767, -0.2896559, 0.03350855, 0.54836166, -0.18109, -0.9958693, -0.026514035, -0.010103579, -0.14478925, 0.39236674, 0.5693289, 0.67247236, 0.5762714, -0.53596014, 0.2989336, 0.019092923, 0.30795425, -0.23026583, -0.5268547, 0.47045058, 0.0005656566, 0.3801135, -0.16560689, 0.19807456, -0.22594525, 0.055045627, 0.6770407, -0.43553227, 0.41361257, -0.07874672, 0.22903374, -0.2284511, -0.21032003, -0.13126971, 0.16683806, 0.074458376, 0.5469215, 0.27369067, -0.32317355, -0.27497053, -0.260822, -0.30508175, 0.15913136, -0.7551506, 0.016852302, -0.010537669, 0.31685904, -0.9219579, 0.317394, 0.32505152, 0.060665257, 0.0808172, -0.26864, 0.46258911, 0.15035571, -0.048030995, 0.91795355, -0.22403209, 0.39794034, 0.3998325, -0.6020931, -0.2811864, 0.7193805, -0.3639702, -0.5433994, 0.4888687, -0.14011464, -0.42039353, -0.7872588, -0.10657021, -0.6587691, -0.5500198, -0.102266975, -0.1618611, 0.32122144, -0.8793739, 0.18387981, -0.06695864, 0.047464006, -0.34981918, 0.22063388, 0.03283236, -0.2203604, -0.4669812, -0.7199351, -0.2495909, 0.49616188, 0.29365104, -0.07247787, 0.18954495, 0.29192463, 0.058136683, -0.05476153, 0.16155484, 0.18851121, 0.27193063, 0.2317682, -0.77548504, 0.61009324, -0.19070208, 0.19881795, -1.1297423, -0.20916276, 0.3274687, -0.053239197, -0.18917148, 0.15421529, -0.42081833, -0.2300535, 0.096491136, 0.36399254, 0.34469095, -0.36817786, 0.1392252, -0.2614514, -0.23177777, -0.1795552, 0.67875206, 0.12230947, -0.039021313, 0.0064468044, -0.43388852, -0.56987494, 0.42212516, -0.53834313, -0.4258748, -0.52141744, -0.36863562, 0.19794026, -0.23457636, 0.46996212, 0.062429983, 0.4131801, -0.4097419, -0.4999965, -0.17857774, -0.27300516, 0.021741644, -0.6223195, -0.5398092, 0.8532667, -0.0045667463, 0.34631306, -0.95032316, -0.39638308, -0.9113886, 0.5121032, 0.13773789, 0.10887427, 0.046691872, -0.67871875, -0.7862776, -0.24506958, 0.043484826, -0.023320893, -0.027513806, 0.57718647, -0.41588446, 0.5857995, 0.4465066, -0.67199475, 0.76731145, 0.27426058, 0.6180412, 0.6131259, 0.25660878, -0.42841855, 0.33045194, -0.004293403, -0.12265248, 0.6055285, -0.005892462, 0.38726828, -0.9004349, -0.7460827, 0.42591518, -0.2887874, 0.36017507, 0.34685078, 0.07009893, -0.28133816, -0.110455684, -0.27117854, -0.07689045, -0.40387365, -0.07958459, 0.39230818, -0.25448257, 0.17727038, 0.722854, 0.30118197, -0.6882006, 0.6123919, -0.53105944, -0.3658708, -0.38412037, -0.4946117, 0.2539929, -0.24779427, -0.63159186, -0.29458284, -0.24980208, -0.1579429, -0.3800253, 0.18593559, 0.36458543, -0.16251838, -0.45381334, 0.29178014, 0.3830896, -0.36334142, -0.63029194, 0.18833883, 0.004249196, 0.2115079, -0.16276693, -0.13537863, -0.23950042, -0.22778037, -0.3438614, -0.8926991, -0.027272642, 0.2837157, 0.07883463, -0.47229823, 0.37695193, -0.12785672, -0.34735414, 0.12533203, -0.18922952, 0.13533945, 0.17133619, -0.22826993, -0.3390305, 0.05610717, -0.38117522, 0.5292546, 0.12311677, 0.2391813, 0.28763026, -0.28418806, -0.6815724, -0.2092509, -0.55293524, 0.2099501, -0.09955179, -0.9436488, -0.007950423, -0.12258078, -0.33700562, 0.6040751, -0.14409138, -0.5277814, -0.20119932, 0.7036627, 0.12359017, -0.863587, 0.14807661, -0.2566139, -0.51640266, -0.20403445, 0.21733911, -0.10279524, 0.57139194, 0.46202922, -0.070654646, -0.16305335, 0.10587399, -0.08332663, -0.5500621, -0.26098993, -0.3425096, 0.26844886, 0.56529444, 0.36713645, 0.24395071, -0.73867947, 0.49269325, -0.5998724, -0.14551914, 0.2765728, 0.3828551, 0.32795432, -0.10142923, 0.060458552, 0.0023282182, -0.350081, -0.4022589, -0.4901185, 0.1802258, 0.4420177, -0.045030653, 0.6135759, 0.18185319, 0.29138547, 0.46682546, 0.5881642, 0.43530312, 0.41757172, 0.32370576, -0.16501427, -0.6370288, 0.31214675, 0.14940569, -0.14114352, 0.652453, -0.07124039, -0.56289774, -0.06113882, 0.17741667, -0.037024587, -0.18750493, 0.4773841, -0.39556912, 0.19952539, -0.3465598, 0.3693843, 0.04463474, 0.1678468, -0.55751497, 0.15596668, 0.2516984, 0.3060619, 0.8551607, -0.24511208, -0.2817993, 0.74307775, 0.112727925, -0.63964206, -0.0074878368, -0.2030952, 0.16096626, -0.06660047, 0.05413059, -0.66975826, 0.047936417, -0.1216598, -0.38394514, 0.5807885, 0.5727577, -0.14504793, 0.057233684, -0.08009907, -0.8287112, -0.36794308, 0.2896063, 0.2588816, 0.4059833, -0.03392893, -0.0741148, 0.41717058, 0.05496349, 0.14124344, 0.9444162, 0.82002646, 0.51284754, -0.016597344, -0.09626384, -0.6999256, -0.66831744, -0.5789776, -0.81167686, 0.41033536, -0.04934277, -0.32867852, -0.5303054, -1.0639971, -0.65277344, -0.012256167, 0.5931501, 0.01829848, -0.16928099, -0.22874321, 0.08415582, -0.18938565, 0.08108406, 0.13297221, 0.10174342, 0.37559673, 0.23493001, 0.03010105, 0.13257557, 0.4198734, -0.96648353, -0.1761017, -0.32286578, -0.034451388, -0.49611422, 0.027221026, 0.09636541, 0.07992085, -0.96844906, 0.28742623, 0.23487546, 0.07206502, 0.060929287, 0.015227422, -0.5133458, -0.7148034, -0.024512142, 0.30647844, 0.58036846, -0.33588928, -0.9804911, -0.5371521, -0.91761065, 0.043980572, 0.39909217, 0.28562623, 0.5663558, 0.052590635, 0.5304846, -0.55529433, -0.41379663, 0.9092998, -0.5991548, -0.91733295, 0.39225388, -0.81458956, -0.44932875, -0.07946464, 0.24495926, -0.1447954, 0.03442234, -0.30615813, 0.020733288, 0.32690746, 0.621587, -0.45211992, 0.25601643, -0.38673136, -0.35757065, -0.48751974, 0.27005813, 0.39531127, 0.02555573, -0.19489905, -0.093042545, 0.77682495, -0.1853454, 0.29302767, -0.347809, 0.046722967, -0.65080756, 0.32128352, -0.07185774, -0.18353294, -0.7142495, -0.1121708, -0.19886753, -0.07178979, -0.1602595, 0.14446963, -0.5820449, -0.36476165, 0.11003089, -0.21602567, -0.18352608, -0.67153126, -0.8087597, -0.6795894, -0.28140303, 0.19366972, -0.48099288, -0.25770107, 0.28026855, 0.02030924, -0.2090404, -0.42645904, 0.16015863, -0.008192639, -0.5572263, -0.3125708, -0.94646585, -1.0386782, -0.12502883, 0.33462793, 0.35262513, 0.2249607, -0.28346357, 0.04024265, 0.14480235, -0.2672975, 0.08377465, 0.7868491, 0.20274845, 0.36767766, -0.035815645, 0.26045135, 0.24655022, 0.6782099, 0.1995645, -0.62622106, 1.1131766, -0.72686434, -0.039779555, -0.21288434, -0.26731974, 0.16378449, 0.037365537, 0.024518099, -0.3600506, 0.7416499, 0.75661004, 0.101380505, 0.16737624, 0.027001133, -0.05665047, 0.81216514, -0.14213172, -0.5120221, -0.29342934, 0.028754547, -0.51084936, -0.29673895, -0.0037174565, -0.62720984, -0.07118568, 0.41459605, -0.29067037, -0.11810465, 0.579185, 0.31937647, -0.4573164, -0.20492336, 0.5108297, 0.30117384, -0.6445194, -0.3153742, 0.114373036, -0.5781542, -0.22281326, -0.52510023, -0.29824853, -0.1425298, -0.24605688, 0.03398298, 0.3407774, -0.021164771, 0.28022364, 0.16130646, 0.010134267, -0.32920817, -0.101079166, 0.26578173, 0.618684, 0.48459437, -0.44629604, 0.061288495, 0.37907553, -0.3081599, -0.059124094, -0.25945306, -0.02578437, 0.0048061097, -0.13845722, 0.2723713, 0.2213494, 0.9451584, 0.85592204, -0.42400536, 0.33134392, 0.077519886, -0.3124568, -0.9040321, -0.30998126, 0.27450323, 0.69259775, -0.14369391, -0.4291831, 0.113813534, -0.27860442, 0.22686715, 0.3346555, -0.3067123, -0.082730226]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>레오미터를 추천해주시겠어요?</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>TA instruments, Hakke 것이 많이 사용되고 있는 것 같아요.</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[-0.056412708, -0.30245194, 0.050000023, -0.24205686, 0.13224049, 0.024824083, 0.6987402, 0.26765573, 0.2653532, -0.2566208, -0.33402696, -0.37159142, -0.4092044, 0.012541197, 0.045185607, -0.10779935, 0.3034046, 0.52475315, 0.066803694, -0.34445786, -0.03794573, 0.1530209, 0.31988153, 0.56651664, -0.13493425, 0.31313422, 0.010285286, 0.1946935, 0.6768284, -0.82191586, 0.18722002, -0.34001878, 0.23380907, -0.019891264, 0.13364214, -0.1493947, -0.5563417, -0.58972514, -0.76932645, -0.65796524, -0.27371797, 0.0015748827, -0.5047458, 0.29529092, 0.09973965, 0.5494983, -0.007885446, -0.39717737, 0.036022987, -0.33157778, -0.23627593, -0.33242634, 0.051416617, 0.11405006, 0.10261343, -0.10990047, -0.2979517, -0.9581452, 0.30657634, -0.07493613, 0.17367996, -0.3755463, -0.76022655, 0.13430464, 0.40954122, -0.028204178, -0.23157822, 0.39874634, -0.21012926, 0.32656512, 0.07975463, 0.58696145, 0.54931176, -0.08739686, 0.37817082, -0.16851598, -0.082930915, -0.2919418, 0.67364436, -0.08541951, -0.3068252, -0.36805502, 0.097052135, 0.13428247, 0.19052579, 0.46290776, -0.12475564, -0.07751362, 0.5601526, 0.163204, -0.45947623, -0.5206638, 0.022935102, 0.34137574, -0.23328115, -0.4367591, 0.10907491, -0.070202425, 0.5921164, 0.4759842, -0.21829583, 0.18129641, -0.6917402, -0.05583298, -0.13590969, -0.4299525, -0.036149934, 0.36731455, 0.12347593, 0.003893194, 0.067358084, 0.38699922, 0.65232795, -0.4578422, 0.40345347, 0.49882844, -0.85038334, -0.08475074, 0.60451585, 0.061172005, 0.62475246, -0.6107087, 0.4563876, 0.26747248, -0.7007575, 0.23110713, 0.32045734, -0.64316624, -0.21498954, -0.23487587, -0.28395703, -0.06457619, 0.30858806, -0.5687629, -0.39598882, -0.40308854, -0.26754072, -0.1051341, 0.5790038, 0.10350434, 0.14482065, -0.2562493, -0.2954759, -0.34032407, -0.060269427, 0.38126937, 0.5340906, -0.5023419, 0.005168192, -0.32561204, -0.70339125, 0.41905662, -0.66600585, -0.42539904, 0.45687023, 0.11663038, 0.14824322, -0.38117918, -0.044852573, -0.20570482, -0.21454804, 0.75461227, -0.10659981, 0.052499752, -0.15883058, 0.17942154, 0.7024369, 0.42343518, -0.26806936, -0.39318013, -0.1699725, -0.81646127, 0.28560385, 0.11132965, 0.58527607, 0.4205478, -0.78484845, 0.26369727, -0.2024498, -0.029492019, -0.5428403, 0.70481616, -0.48222312, 0.6025689, -0.4381157, -0.12956056, 0.58870006, -0.019697709, -1.2294511, -0.3631828, 0.16777398, -0.24263777, 0.20824309, 0.050696786, 0.24788047, 0.7486853, -0.3979995, -0.7382112, -0.122487545, -0.331616, -0.26517165, 0.523661, 0.40516186, -0.04737447, 0.8271876, -0.33026627, -0.027334124, -0.46001363, 0.071187004, -0.55947274, -0.043822482, 0.5213688, -0.21702556, 0.48636726, -0.3137487, -0.6622077, -0.09791099, -0.19031481, 0.4548591, -0.18602525, 0.40929672, -0.3430573, 0.47282362, -0.20493501, -0.25309893, -0.32829556, -0.05238591, 0.07463952, 0.047372993, 0.082596205, -0.29783058, -0.22634692, -0.117029786, -0.62472236, -0.011612575, -0.42255363, 0.31296563, 0.0007193138, -0.40459013, -0.54352117, 0.62167907, 0.41000733, -0.14480327, -0.41659418, -0.5046423, 0.16131349, 0.06355778, -0.6760971, 0.14702515, -0.08011168, 0.4537742, -0.30892816, -0.31139144, -0.1577129, 0.51940066, -0.23067321, -0.44914603, 0.7478779, -0.23157728, -0.16502286, -0.59810144, -0.3211688, 0.046894114, -0.5967148, -0.13092227, -0.34154534, 0.19634008, -1.2299691, 0.47284412, -0.40815172, 0.04531126, -0.27544868, 0.09740534, -0.25969666, -0.022263644, -0.23862891, -0.19540812, -0.25810587, 0.65121514, -0.47868848, -0.108130395, -0.22300006, 0.16740726, -0.082581006, 0.0017420352, -0.30093187, 0.3045769, 0.058023352, 0.16377045, -0.6665302, 0.35328507, 0.057555724, 0.24051596, -1.0112485, 0.5698663, 0.59883946, 0.6256903, -0.634191, 0.40869248, 0.063812554, 0.13104825, 0.16922998, 0.8807866, 0.42187175, 0.12648214, 0.33002636, 0.29651687, -0.49420834, -0.14544897, 0.528671, 0.40620923, 0.51287085, 0.013903499, -0.23875232, -0.35583365, 0.18353766, -0.727359, -0.2772302, -0.09077076, -0.056459326, -0.34492764, 0.05146331, 0.08366851, 0.06905084, -0.43510744, -0.06317798, -0.6343833, -0.15113227, -0.34473994, -0.23708458, -0.7951655, -0.17078064, 0.4404113, -0.06665757, 0.11124269, -0.14812128, 0.37710866, -1.1218877, -0.26369703, -0.023585672, 0.9077273, -0.15962979, -0.48834088, -0.23161243, -0.36888814, 0.10473192, 0.1437726, -0.16175966, 0.39020815, -0.41921148, 0.13171548, 0.2720305, -0.41541767, 0.5872052, 0.15235041, -0.24794306, 0.1240041, 0.63488036, -0.2170955, 0.45033756, 0.06907025, -0.67836255, 0.7549458, -0.22599868, 0.0036429178, -0.19667937, -0.52226436, -0.10115846, -0.5773514, 0.63288695, 0.8010681, -0.059801143, -0.41286913, 0.35101852, 0.24375457, 0.24308704, -0.049012583, 0.22639038, -0.043370824, -0.18602349, 0.7340064, 1.0516667, 0.61259204, -0.50683826, 0.30769423, -0.29645595, -0.3869581, 0.69967747, -0.515554, 0.36507168, -0.45994458, -0.4924123, 0.22952044, -0.10130111, -0.47824618, -0.4466152, 0.05731484, 0.55943304, -0.6732138, -0.252207, 0.32028833, -0.21774341, -0.0538844, -0.54509664, 0.36888003, -0.0073538334, 0.48419967, -0.5207949, -0.08895308, 0.104510136, 0.10165834, -0.47957692, -0.884794, 0.13154133, 0.14252199, 0.43748072, -0.24976026, 0.058530226, -0.6195171, -0.27204335, 0.22962844, -0.5011552, 0.4301683, -0.28075328, -0.25837454, 0.32957184, -0.19442588, -0.1128002, 0.16741051, 0.1935211, 0.39778098, -0.14120792, -0.16058543, -0.6573224, -0.12999453, -0.8547134, -0.2654421, -0.20764458, -0.81514215, 0.18792625, 0.15817726, -0.32877067, 0.53697807, 0.3018886, -1.0241735, 0.0797823, 0.35229144, 0.16772681, -0.8494552, 0.15075403, -0.30675024, -0.95746946, -0.56708664, 0.037394706, -0.12762734, 0.3887323, 0.21073723, -0.22859703, -0.60116243, 0.22063076, -0.507145, -0.09683085, 0.21659718, 0.13181296, 0.15193768, 0.17119342, 0.6847787, -0.09788548, -0.5675921, 0.2593659, -0.5520978, -0.06346599, -0.21160327, -0.2950928, 0.25903544, -0.13818642, 1.2944752, -0.54378426, -0.13513424, -0.825412, -0.97775435, 0.38035217, 0.42832223, 0.05651013, 0.1603043, 0.6371761, 0.38406482, 0.31192693, 0.5160964, 0.09691274, 0.18432039, 0.6650253, 0.04063821, 0.12520777, -0.008299679, 0.16871096, 0.36343026, -0.2576944, -0.1263066, -0.6186629, -0.18311138, -0.1320509, -0.18146008, -0.4449471, 0.7841087, 0.010770463, 0.25268885, -0.064615436, 0.13223867, 0.060101707, -0.065511785, -0.021666227, 0.58246607, 0.5691382, 0.46356145, 0.47464857, 0.22069634, -0.0053508454, -0.13397832, 0.06434003, -0.7965407, -0.10872515, -0.33638704, -0.14853896, -0.16594854, -0.09746271, -0.61766547, -0.31317064, -0.07598235, -0.0792174, -0.021264613, 0.7296819, -0.558854, 0.67782086, -0.36869562, -0.6412233, 0.05257699, -0.027261028, -0.037762877, 0.53425574, 0.14805491, 0.22527947, 0.65190154, -0.14575267, 0.0050126663, 0.56061095, 0.78443766, 0.06685309, -0.2945074, 0.25696087, -0.6380996, -0.69277734, -0.22742812, -0.9126573, 0.33169153, -0.029174602, -0.9200117, -0.7918115, -1.0206662, 0.053042978, -0.033873856, 0.8555343, 0.47853884, 0.07089201, -0.63627213, 0.3735298, 0.10769424, 0.19174762, 0.38183177, 0.20253606, 0.3145384, 0.06838355, -0.14491491, 0.17291446, 0.53362966, -1.137703, 0.006037656, -0.03888042, 0.12854245, -0.5653568, 0.18072516, 0.14700654, 0.044470463, -0.44654417, 0.33252764, -0.19201493, -0.01730709, 0.3717362, -0.19462498, 0.30259222, 0.011630997, -0.091452874, 0.6532804, 0.7749441, -0.45491254, -0.8125252, -0.7515109, -0.6244595, -0.20930493, 0.47067702, 0.5007246, 0.3692449, 0.19390287, 0.54357654, -0.52443993, -0.5414236, 1.0681475, -0.19802646, -0.6263817, 0.5567389, -0.5295107, -0.08445883, -0.76792765, -0.4895551, -0.16707487, 0.07497286, -0.44349048, -0.07430774, 0.029607229, 0.9059352, -0.33540273, 0.09063152, -0.20932473, -0.43462977, -0.06832897, 0.4878428, 0.16916694, -0.41495633, -0.2090921, -0.0036028698, 0.21685083, -0.12079709, 0.29290828, -0.09383556, -0.24780177, -1.1682413, -0.061690927, -0.10280257, -0.09423096, -0.4928328, -0.59114933, -0.527655, -0.053786512, -0.3311601, 0.1658645, -0.18753648, -0.40304938, -0.2285537, -0.5390633, 0.11496315, -0.6557379, -0.40559724, -0.86822325, -0.017346518, 0.34975803, -0.011726767, 0.0705489, 0.6745718, 0.00067040575, -0.38582277, -0.38682255, -0.057753164, 0.7594263, -0.059051584, -0.1874087, -0.92667204, -1.1018038, 0.3765461, 0.37121043, 0.11596099, 0.4346211, -0.055374846, 0.117521174, -0.17932719, 0.08508098, 0.055913467, 0.5203826, 0.3185992, 0.111394264, -0.24399145, 0.14658694, 0.15280895, 0.5682027, 0.3200041, 0.019190887, 0.41692877, -0.110425204, 0.23756544, 0.62354374, -0.7321914, 0.3752072, -0.51985186, 0.4320147, -0.7106938, 0.66243553, 0.3440776, 0.22488864, 0.26621574, -0.25250903, -0.21999489, 0.6898758, -0.119245894, -0.25201347, 0.23273581, -0.14212458, -0.016561693, 0.085319646, -0.6269684, -0.22626495, -0.14769734, 0.05531152, -0.4324269, -0.032995578, 0.2381174, 0.6149515, -0.33732888, -0.32860908, 0.50530577, 0.13953744, -0.2643604, 0.3450645, -0.04737528, -0.5665671, -0.2695361, -0.34341213, -0.00027032197, -0.026519487, 0.13422155, -0.21517782, 0.37981203, -0.26525712, 0.45468023, -0.37073374, 0.05889216, -0.15216012, 0.0851354, 0.16163951, -0.050003633, 0.3310718, -0.14790647, -0.06386987, 0.081462085, 0.02282829, 0.2769675, -0.057976335, -0.043714445, 0.26536268, 0.27694038, 0.377609, -0.17257605, 0.35291776, 0.6844364, -0.25308633, 0.034543466, 0.45202246, -0.72276443, -0.7439244, -0.4259024, 0.08668467, 0.40470567, -0.1960273, -0.056920573, -0.061739136, -0.28227952, 0.3521446, 0.45497754, 0.09962074, 0.24662651]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>물성 측정 시 오차가 왜 크게 나오나요?</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>다양하나 요인이 있겠지만, 실험자의 숙력도, 시료의 불균일성이 주요 요인 것 같아요.</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[-0.41137832, -0.003001674, 0.0823276, -0.98028904, -0.13049561, 0.11889799, -0.13444243, 0.41274723, 0.11336728, -0.49201056, -0.6761641, -0.35885194, 0.1705854, 0.035740178, -0.29538155, -0.30540812, 0.37046203, 0.40251634, -0.59778774, -0.47694147, -0.06255805, 0.39189437, 0.33468038, 0.38669816, -0.072978415, -0.2906631, -0.51515925, 0.4070047, -0.058045458, -0.2138516, 0.16909923, 0.8297999, -0.15474269, 0.4667496, 0.04751912, 0.3710589, -0.31941238, 0.054610558, 0.0359713, -0.1859635, 0.22530024, 0.4131527, 0.0033107598, -0.10808734, 0.67276835, -0.20254302, 0.67672795, -0.41689238, -0.028925072, 0.20992024, -0.2986122, 0.1253535, 0.13173632, 0.2449924, -0.20937993, 0.095950775, -0.56607777, 0.19979136, 0.3356458, 0.5497533, 0.32133836, -0.7662114, 0.07325829, 0.19588524, -0.26804674, -0.34135684, 0.048571285, 0.08989408, -0.10368809, -0.4700607, 0.11580338, 0.25295067, -0.6283518, -0.37983233, 0.23203291, -0.12574019, -0.56222373, 0.34181398, 0.72057545, -0.24021126, 0.37060276, 0.021564554, -0.95409554, -0.2519776, 0.81845963, 0.04610101, 0.3626884, -0.5454249, -0.0523112, 0.52026635, -0.37729543, -0.4156366, 0.19673154, 0.5556556, -0.21616636, -0.10460975, 0.35402644, -0.12540148, 0.4967814, 0.6753385, -0.35596725, 0.14308228, -0.35236895, 0.6007992, 0.6291477, -0.08985723, -0.3512599, 1.1769387, 0.36080328, -0.21821998, 0.3656217, -0.21490172, 0.14782946, -0.3687925, 0.16768186, 0.2618587, -0.24115108, -0.30087006, -0.17885628, 0.6688998, 0.19636734, -0.21019547, -0.48393753, 0.3972382, 0.15729332, 0.64821917, 0.047618467, -0.02200919, 0.26141593, 0.079521134, 0.16836599, 0.51263875, 0.7420579, 0.05816436, -0.48232308, -0.45098916, 0.54624474, 0.07489595, 0.21878509, 0.4503494, -1.1750852, -0.11549205, 0.05227847, -0.3556436, 0.38508165, -0.41771665, 0.59320056, 0.03481104, -0.085424766, -0.42531893, -0.2905856, -0.85580164, -0.6557502, -0.4792609, 0.4656985, -0.2988917, -0.22802736, -0.1851262, 0.66036016, 0.0426596, 0.4136157, 0.06265737, -0.3886394, 0.48835582, 0.08047149, 0.10249756, 0.115032114, 0.005426882, -0.070031025, -0.6244959, -0.39395803, 0.15166856, 0.25677398, 0.009870315, 0.68013513, 0.11131811, -0.6614441, 0.19874345, -0.14398785, -0.68603486, 0.33472383, 0.32675067, 0.090564094, 0.15418105, 0.073098645, 0.14345591, 0.34608683, -0.44473922, -0.28172824, 0.057036266, 0.37376028, -0.20045851, -0.2970901, 0.10592452, -0.17456484, 0.031235058, -0.030471463, 0.34835494, -0.14385504, 0.008432086, -0.5376447, 0.46157268, -0.26103088, 0.008100516, 0.13223776, 0.45231226, -0.60393107, 0.44061577, 0.33201754, -0.5238653, 0.098431334, 0.8899652, 0.19523123, -0.39273703, -0.111049436, -0.7556571, -0.03431708, 0.14636736, 0.089099616, 0.116486646, -0.2168916, -0.6326886, 0.9377917, -0.25707954, -0.6473678, -0.35599592, 0.22510436, 0.40420952, -0.10809908, 0.510845, 0.16819754, -0.6728182, -0.9592437, -0.7768563, 0.21976349, -0.26636207, -0.16352876, 0.4632172, -0.5393063, 0.03013269, -0.18120973, 0.009235069, -0.4805546, 0.18387206, -0.0010209789, 0.678034, 0.18748625, -0.0636507, 0.089991115, 0.092688605, 0.0014804981, 0.19192685, -0.06016028, -0.20095223, 0.20445463, -0.116916135, 0.2251239, 0.9379329, 0.093688816, 0.24185966, -0.0010573069, 0.045531876, -0.2783681, -0.2273075, 0.35855737, -0.28723967, 0.09858321, 0.032828227, 0.07307221, -0.32669058, -0.62271595, -0.03113226, 0.2805123, -0.36549652, -0.40602875, 0.29234067, 0.09909647, 0.027180964, -0.08519929, 0.078213945, -0.2730672, 0.41854098, 0.4359931, 0.15264569, -0.2277724, -0.47425494, -0.51071227, -0.46907485, -0.33880666, 0.0034118951, -0.384994, -0.3683593, -0.48860073, -1.2937404, -0.10837723, -0.16454726, -0.04372277, 0.25558516, 0.69729537, 0.9940304, 0.0074249287, 0.42225608, -0.41547787, 0.48554614, -0.16665731, -0.0061882585, -0.44179928, -0.8333992, 0.012069392, 0.0038830063, 1.0184343, 0.44141638, -0.21359488, 0.31144094, -0.025766026, -0.28390428, -0.19524768, -0.29411635, 0.25428662, 0.6451434, -0.2903792, 0.43907043, -0.4795517, 0.11034091, -0.005845071, 0.26604182, 0.3083555, -0.024948578, -0.376589, 0.10744891, -0.37343693, 0.07450544, 0.65763694, 0.01876951, -0.10007544, -0.27313372, 0.502279, -0.36960438, -0.1754907, -0.11780067, -0.47409847, 0.20027766, -0.8419939, 0.08767144, 0.074743815, 1.0477568, -0.23194344, 0.12725447, 0.01627729, -0.6087979, 0.12124442, 0.13806613, -0.12993589, -0.26053688, 0.9090445, -0.18668145, 0.39296868, 1.0283043, 0.4745642, -0.16174206, 0.6168391, -0.54245704, 0.11940965, 0.26275626, -0.42244905, -0.92723596, -1.0442039, 0.65364164, -0.11796355, -0.22430617, -0.2353746, 0.008169202, 0.36031654, -0.0073554316, -0.44093323, -0.27735296, -0.08344795, 0.20637693, 0.09021097, -0.036579646, 0.040000744, 0.4770969, 0.16425923, -0.39160937, -0.24860735, -0.5026924, -0.47709292, 0.09876421, 0.077091806, 0.28007725, -0.034622796, -0.61923707, -0.361052, 0.16326706, -0.8034383, -0.24129438, -0.24825457, 0.25411543, -0.27101335, 0.23911783, 0.36683556, 0.51991713, -0.16348411, 0.7100828, -0.0636436, -0.29991204, 0.2794809, -0.1710377, -0.745242, 0.24389431, -0.022372345, -0.67130536, 0.20888217, -0.3687067, -0.3440958, -0.14980474, -0.5621102, 0.04729111, -0.5906045, 0.23547354, -0.034156535, -0.4125621, 0.286153, -0.06539159, -0.10140392, -0.44887435, 0.66162974, -0.20781972, 0.20417285, -0.431906, -0.47023898, -0.22785486, 0.09313916, -0.25998178, -0.3533402, -0.07665102, 0.17554113, -0.22028017, -0.24265827, 0.24862857, 0.22624044, 0.12855126, -0.39876932, 0.70734733, 0.3719112, 0.16808383, 0.41262576, 0.23662901, -1.2036693, -0.36446586, -0.41525003, -0.5355936, -0.50433236, 0.4160979, -0.43118522, 0.2619445, 0.37419584, 0.18178305, 0.08387267, -0.36465853, -0.020996448, 0.2408368, 0.17114456, -0.110201225, -0.028938273, 0.66359365, -0.26297557, 1.1707475, 0.34820738, -0.2105019, -0.21663429, 0.06298028, 0.650246, 0.0011075278, -0.093466, -0.5449146, -0.50180453, 0.10656517, 0.03146341, 0.073448755, -0.6234257, 0.18975988, 0.15197359, 0.7433455, 0.44456825, -0.036042754, -0.495781, -0.7578867, 0.38669023, 0.64136285, 0.02265054, 0.07648938, -0.85180575, -0.7482185, 0.62063766, 0.19243786, -0.80920064, 0.45176873, -0.07817471, -0.33664712, 0.01165333, 0.3267368, -0.084737554, -0.5156651, -0.36656272, 0.121961914, -0.057578005, -0.33215442, -0.5138806, -0.3804755, 0.06632588, -0.07147024, 0.32687208, 0.008326043, 0.09211547, 0.8605465, -0.24183352, -0.14261004, 0.13438034, 0.07463244, -0.5686143, 0.06759619, -0.11641373, 0.29787743, 0.0570972, 0.24929328, -0.10972176, 0.61357933, 0.33798403, -0.41398707, -0.3302141, -0.059783626, -0.49998096, 0.19198091, -0.289008, -0.0046558855, -0.1579905, 0.28725904, 0.42341188, 0.5716125, 0.2178398, 0.40766114, 0.4216684, -0.7526758, 0.11974401, -0.050528716, -0.1418003, 0.2991883, -0.1815067, -0.20104283, -0.28056967, -0.89543515, 0.015019332, -0.08960393, 0.21649551, -0.08831649, -0.1141619, -0.2621899, -0.40911087, -0.021292644, 0.05907105, 0.35822302, 0.42496487, 0.37248033, -0.57273644, -0.12030634, 0.052724175, 0.5448588, -0.5873565, -0.38606283, 0.18603197, 0.4464606, -0.52033424, -0.29968035, -0.31347743, -0.808964, -0.9611645, -0.67733794, 0.22976708, -0.052120566, 0.3042263, 0.17535056, 0.73071456, -0.13062264, 0.46263918, -0.32067797, -0.5221249, 0.35036477, -0.252647, 0.5035258, 0.16417503, -0.6531317, 0.32162723, -0.030318849, -0.218744, -1.1034693, -0.75909203, -0.52028775, -0.4025349, 0.13141733, -0.15251638, 0.16817573, -0.60313594, -0.6004113, 0.49372107, -0.87222326, 0.20044416, 0.5544451, -0.55927575, 0.32236212, -0.87754655, 0.34497687, 0.028344516, 0.14590546, -0.45624143, -0.31000978, 0.044335585, -0.4647303, 0.27259105, 0.41273433, -0.18824977, -0.73758113, -0.7916643, -0.63341874, -0.32663313, 0.014413202, -0.13743673, 0.32026246, 0.036449604, -0.109053925, 0.3225479, 0.042270694, 0.094934985, 0.5616569, -0.47067726, 0.18349656, -0.032597598, 1.1250619, -0.3580695, -1.2150993, -0.26396215, -0.13460842, -0.2264244, -0.41282356, -0.36807957, 0.52015233, -0.18264708, 0.8858825, -0.37789518, 0.46985006, -0.47680703, -0.5730042, 0.122537084, -0.14719786, 0.055576, 0.01693024, -0.18416558, 0.27222472, -0.4975391, 0.18212837, -0.2898401, -0.40467203, -0.21903762, -0.18928915, -0.8000754, -0.22334096, -0.26998112, 0.031235687, -0.29885522, 0.2889684, -0.17744929, 0.43603653, -0.13580269, -0.4407444, -0.42100134, -0.40255445, -0.06894195, -0.15745774, -0.06179534, -0.5505611, 0.21376897, 0.5711823, 0.06557528, 0.22592281, -0.49866745, 0.54580826, -0.07693808, 0.36828992, 0.23157796, -0.15582198, -0.43183705, -0.71207935, 0.13510102, -0.9479214, 0.6195064, 0.03803218, 0.11089465, -0.14684916, 0.31538075, -0.09024204, 0.16643381, -0.06029426, -0.39622995, 0.35526225, -0.62785244, -0.16726233, -0.015159694, 0.22851554, -0.14590344, 0.17106542, -0.19289058, -0.33730137, -0.33198085, -0.23283513, -0.036589112, -0.49715906, -0.034700964, -0.5347675, 0.012474525, -0.8720825, 0.5846724, 0.14918111, -0.30253127, -0.4557927, -0.76586556, 0.13185248, 0.3839078, -0.31282145, 0.08147933, -0.763936, 0.24715862, -0.039801534, -0.621714, 0.55046237, -0.12686338, 0.18872146, 0.00013284286, 0.29598707, -0.2539151, 0.12233785, -0.21757174, 0.6354853, 0.33620965, 0.5633227, 0.31167552, 0.45399317, 0.12637594, 0.23600294, 0.18906094, -0.56937563, 0.25285462, 0.035874646, -0.33896545, 0.2253979, -0.38208398, 0.20815454, 0.12948751, 0.1653554, -0.017255336, -0.25146225, 0.4870178, -0.51431686, 0.20565908, -0.23955229, 0.9004848, 0.5306533, 0.31696904, -0.21066312]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>생선의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>참 어려운 질문인데, 일단 texture analyzer의 compression test를 고려할 것 같아요. 좀 더 자세한 사항은 전문가의 도움이 필요할 것 같아요.</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[0.3414375, -0.110343195, 0.6018774, -0.3377048, -0.13034976, -0.03060793, -0.008906092, 0.29856452, 0.39886394, -0.4651517, -0.15461375, -0.03903873, -0.10328949, 0.22267722, -0.38101602, 0.4053557, -0.16066247, 0.57952064, -0.5406092, -0.16681103, 0.23305011, -0.12227717, 0.2879679, -0.11715395, -0.43231043, -0.036432896, -0.6762529, -0.18665107, 0.0978987, -0.68253785, 1.1143042, 0.47760788, -0.20636593, 0.16092597, -0.24862377, -0.3661339, -0.1487802, 0.39269885, 0.16818814, -0.20924242, -0.9638281, -0.5173397, 0.3006614, 0.55275464, 0.21177171, -0.18377572, 0.18251057, -0.34729174, -0.02374663, 0.05546455, -0.5594158, 0.6476684, 0.030445496, 0.32947454, -0.46390066, -0.87285095, 0.024113625, 0.35562077, -0.07799486, -0.4766835, 0.27118242, -0.5142717, 0.08665771, -0.53416634, -0.14671445, -0.33551022, -0.53382915, 0.15690511, -0.4165615, -0.07303407, -0.106295675, 0.21150441, 0.46793225, -0.44706222, 0.19723289, -0.8213267, -0.45101473, 0.12627941, 0.68544024, 0.5339766, 0.1663803, -0.49388266, -0.22523795, -0.6704009, 0.5416087, -0.7052025, -0.49922943, -0.5063786, -0.002510724, -0.11724145, -0.2822473, -0.17620456, 0.26809242, 0.3613728, -0.83089375, 0.09479023, 0.0057750377, 0.15384217, 0.2601949, 0.002715025, -0.060091782, -0.22170806, -0.43105277, 0.9734861, 0.54108113, 0.18733835, -0.38286185, 0.4188842, 0.85983866, -0.3101647, 0.35628906, -0.40710977, 0.26168913, -0.18408929, 0.6122871, 0.37217596, -0.4400201, 0.13028063, 0.28624862, -0.047604334, 0.0034540147, -0.21732342, -0.2818136, 0.29317012, -0.04759693, 0.18466069, 0.27568015, 0.21702199, 0.586832, -0.49012515, 0.08991025, 0.5804145, 0.48697662, 0.33902776, -0.38588956, 0.039711267, 0.6161379, -0.058258165, 0.5744107, 0.51710033, -0.80110544, -0.019038072, -0.29028204, -0.15854019, -0.48470843, 0.12998907, 0.13846424, -0.65016276, 0.066610545, -0.4594752, -0.49018028, -0.12307473, -0.22936642, 0.32643497, 0.4924778, 0.15359694, 0.3195528, -0.17706871, 0.5274789, -0.0573834, 0.61841923, 0.35982242, -0.15173282, 0.12297985, 0.06347608, -0.6326377, 0.14391638, -0.015626332, -0.25305665, -0.8129363, -0.108805664, -0.115890115, 0.7065193, -0.5392326, 0.16807316, -0.2308674, -1.1598021, -0.42006385, -0.7283163, -0.9615211, 0.65377, 0.085868865, 0.11699746, -0.56669456, -0.37333322, 0.23478925, 0.42516065, -0.07264745, -0.8641152, -0.73350257, 1.1896435, -0.48610616, -0.28349248, -0.0071856566, 0.56606513, 0.62930554, -0.5878848, 0.14207639, -0.5545696, 0.40717897, -0.37420753, 0.41573265, 0.39825186, 0.6882677, -0.058705986, -0.39042893, 0.71908516, 0.047675684, 0.3718758, -0.31003, -0.03622274, 0.48657596, -0.1017541, 0.48272052, -0.18142836, -0.8639069, -0.34007803, -0.28404054, 0.10009726, 0.017362239, 0.4368645, 0.12569517, 0.2978618, -0.60760134, -0.03784907, -0.62268394, 0.5057972, 0.66590613, -0.26083007, 0.089027725, 0.08892974, -0.28634557, -0.5241127, -0.34549716, -0.14814115, 0.075133435, -0.2656227, 0.67273235, -0.73706454, 0.2343585, -0.304338, 0.40081772, -0.39548185, -0.016246887, -0.56836706, 0.13471681, 0.20051222, -0.048400983, -0.33573544, 0.08989588, 0.497411, 0.27130386, -0.022694556, -0.40221438, 0.035325956, 0.47165307, 0.02493908, 0.31495497, 0.19446023, -0.24447657, -0.33611274, 0.18965757, -0.8676745, -0.08798245, -0.23396052, -0.16630924, 0.72756267, -0.45670506, 0.20720156, -0.3957933, -0.34483922, -0.39172372, 0.616333, 0.084733896, -0.53162706, 0.6326647, -0.46492743, 0.22739412, 0.44949546, 0.6981494, 0.14002438, 0.38496593, 0.31307545, 0.15555348, 0.6982778, -0.5725695, 0.20683439, -0.633151, -0.9043405, -0.41080117, -0.40909982, 0.08799517, 0.24313813, -0.25839835, 0.52066845, 0.32186463, -0.49099588, -0.16323195, 0.7926703, 0.8214639, -0.17071576, 0.6451747, -0.045705568, -0.19897865, -0.85333914, 0.4516177, -0.33043197, 0.03563414, 0.05875585, 0.42411172, 0.16051815, 0.63384455, -0.5300426, 0.019088319, 0.41767797, -0.529113, -0.031380747, -0.17955254, 0.009441019, 0.04257876, -0.48156354, 0.70634526, -0.00896858, -0.2645491, 0.10043342, -0.037064705, 0.31042257, 0.012502324, -0.40830815, 0.19408321, -0.8088586, -0.17230122, 0.03344723, -0.21140069, -0.5976364, -0.58106035, -0.07232457, -0.3758006, 0.23977585, 0.28878567, 0.102759875, -0.1274491, -0.7944112, 0.13553594, -0.70289797, 1.1660341, -0.1363578, -0.71771115, -0.0175112, -0.5334358, -0.20511918, -0.19555627, 0.0119606005, 0.23104705, 0.271719, 0.5216545, 0.098170005, 0.72569484, -0.1305639, -0.35284904, 0.6215511, -0.398531, -0.3563563, 0.26297513, -0.38555574, -0.60211086, -0.7546494, 0.4212724, -0.13321307, 0.17402898, 0.018728776, 0.16230492, -0.122051336, -0.16665052, -0.10645067, 0.29677835, -0.26961327, -0.4263425, 0.09122441, -0.19596815, -0.28626046, 0.93428916, 0.0732603, -1.0015922, 0.3543854, -0.2667789, -0.18243505, -0.5926342, -0.43420097, 0.13322763, 0.6439764, -0.011546562, -0.45253813, -0.03944392, -0.70616263, 0.2067753, -0.007095533, -0.27255335, -0.8578406, 0.29560682, 0.3529068, 0.6944568, 0.18695915, 0.06301149, 0.124411695, -0.09871769, -0.09909913, 0.15861838, -0.0913387, 0.35595325, 0.12169353, -0.10367415, 0.1313471, -0.2759358, -0.42589548, -0.39662623, -0.9550033, 0.41256163, -0.057552572, -0.18579942, 0.67208743, -0.4093925, 0.60153764, -0.2508368, -0.59779656, -0.3250465, 0.781806, 0.13684534, 0.870451, 0.32665253, 0.46703967, -0.7382731, 0.33742133, -0.36610177, -0.04076586, -0.54865783, 0.6550544, -0.2985172, 0.43685332, 0.3111764, 0.33036643, -0.00042450675, -0.29864392, 0.09232681, 0.48001206, 0.08955941, 0.514574, 0.22481845, -0.049411584, -0.5364049, -0.44965887, -0.5001916, -0.93282956, -0.075644605, -0.8119228, 0.19776757, -0.2974551, 0.15323943, -0.12741973, -0.02914857, -0.39476952, -0.11946922, -0.22528912, -0.29057655, -0.46034157, 0.12266978, -0.08317765, 0.42842028, 0.502455, 0.12852651, -0.44427612, -0.12720604, 0.6113448, -0.26608804, -0.93049186, -0.54128546, 0.21397029, -0.005546835, -0.44262266, -0.1975971, -0.7160483, 0.36733785, -0.0697496, 0.89503056, 0.6275446, -0.20790179, 0.109671704, -0.3861893, 0.20133267, 0.7758033, 0.522222, 0.31231892, -0.42823422, -0.33718768, 0.23814185, -0.2246785, -0.11896501, 0.06485651, -0.16390385, -0.09847542, -0.1428968, 0.3839717, -0.12330151, 0.25237378, -0.046795357, -0.2773905, -0.2613999, -0.6214938, 0.025277073, -0.43708646, -0.13049115, -0.51403385, 0.2370866, 0.32743964, 0.66995865, 0.28535166, 0.6465935, -0.32133964, 0.07800977, -0.20207411, 0.3013249, 0.022111947, 0.36006656, 0.8768425, -0.023422638, 0.15249087, -0.21714185, 0.2545937, 0.3291967, 0.4705445, -0.08969852, 0.046217784, 0.13336219, 0.43087077, -0.66195494, -0.2986415, -0.16591267, 0.21526758, 0.23983514, 0.24481438, -0.1609589, 0.14449869, 0.7751438, 0.117803276, 0.2125894, -0.18992458, 0.6300195, 0.46862826, -0.75999194, -0.55142045, -0.36763147, -0.5028506, 0.3216629, -0.39075473, -0.41804242, 0.25147888, 0.006222648, -0.52795935, -0.13138835, 0.58509535, -0.56151766, 0.33980823, -0.3168232, -0.30601752, -0.12582467, -0.19967239, -0.25530156, 0.23152882, -0.062078144, -0.06582259, 0.540999, 0.046722364, -0.106433816, 0.82092994, -0.27258858, -0.6954914, 0.36019373, -0.8517628, -0.20085512, -0.2542783, -0.28743038, 0.21188956, 0.9094834, -0.64235544, 0.84843016, 0.61472464, 0.073702715, -0.16053389, -0.4397116, 0.45395276, -0.12012229, -0.38355887, -0.4211515, 0.37616238, -0.3143607, -0.21128471, -1.0528375, -0.32525486, -0.35456297, 0.18707292, -0.3654962, 0.3985133, -0.3692762, -0.38756046, -0.036372036, -0.18357176, 0.7548178, -0.24388011, 0.121287666, -0.34510136, -0.38637158, 0.35640487, 0.27781066, -0.1708798, 0.36916304, -0.3218503, -0.28396687, -0.17360435, 0.06349954, 0.7216003, 0.1524844, -0.28876385, -0.13431041, -0.53148127, -0.7335772, -0.06481966, 0.15282647, -0.72232294, -0.28561342, -0.16228929, 0.17169558, -0.25433353, 0.07022096, 0.24010164, -0.6332003, -0.11494256, 0.39808106, 0.49518943, 0.04600523, -0.75876594, -0.7619841, -0.2298022, -0.18009217, -0.38162002, -0.37244806, 0.5483995, -0.8572214, 0.95355797, 0.477211, -0.47771624, -0.18780692, -0.65676063, -0.19703953, -0.29103798, 0.011092283, 0.1902499, 0.13978593, 0.5611039, -0.39033303, 0.25498658, -0.5238733, 0.06898413, 0.060272682, -0.2405051, -0.58165, -1.3119904, -0.026350548, -0.20564835, -0.3916235, 0.5481347, 0.20616399, -0.30327705, -0.030881926, -0.17962654, -0.28709924, -0.260793, -0.09636047, 0.27740583, 0.35463992, -0.4356599, -0.27355447, 0.6858437, -0.04110415, 0.21578638, -0.24004048, 0.75343895, -0.8748298, -0.2537862, 0.21012014, -0.003066613, 0.07482854, 0.0130726015, 0.55950135, -0.015777888, -0.16612843, 0.6002608, -0.3965465, -0.017409155, -0.7358959, 0.07515749, 0.49811527, 0.4874405, -0.35735393, 0.2808974, 0.062174503, 0.429605, 0.35071638, -0.18667991, -0.1519876, -0.45893273, -0.99613816, -0.49096003, -0.03946367, -0.45613325, -0.17579664, -0.795657, -0.35909832, -0.32212362, -0.41072473, -0.21385847, 0.7672009, 0.25693175, -0.05640647, 0.05068815, -0.50669885, -0.06822463, 0.7010324, 0.22685659, -0.24683839, 0.011247556, -0.07066492, -0.314055, -0.37983677, 0.48894426, 0.18371789, -0.058814242, 0.16417392, 0.2945252, -0.59959984, 0.45699134, -0.18518607, -0.27304986, -0.42823926, 0.9617049, 0.05408178, 0.5808472, -0.10369593, 0.5831427, 0.2215135, -0.31578675, 0.31794974, -0.22519152, -0.13114566, 0.11139315, 0.17863995, 0.17376505, 0.11890439, -0.4621066, 0.6997866, -0.4641329, 0.17895816, -0.20339173, 0.08302029, -0.5341101, 0.5978882, 0.23633121, 0.20953299, 0.26841718]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>빵의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 TPA test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[-0.67669326, -0.6679978, -0.0069748648, -0.34489846, -0.33434442, -0.09900121, 0.13872173, -0.12933882, -0.22723718, -0.22546917, -0.5056991, 0.2692615, 0.06955152, 0.5004804, 0.29168692, -0.43277335, -0.019931534, 0.20248693, -0.06874027, -0.046227753, 0.05552064, -0.7746528, 0.13153516, -0.080419056, -0.34463236, -0.0826376, -0.10041443, -0.034621783, -0.29041854, -1.1510141, 0.47901192, 0.13956808, 0.30893072, 0.43218485, -0.27400407, 0.04145394, -0.46703374, 0.112193726, 0.27993605, -0.2686424, -0.37612125, -0.63974035, 0.34105337, 0.12032839, 0.56962544, 0.15641372, 0.008501898, -0.1863511, -0.23418953, -0.58073777, -0.2824476, 0.018129768, 0.7256511, 0.7955442, -0.26463816, -0.50972253, -0.013250266, 0.30113336, 0.3906497, 0.22628738, 0.2461859, -0.4058858, -0.18699278, -0.37096858, 0.15540539, -1.1508644, -0.3199317, 0.25241184, -0.32878396, -0.19310729, -0.16225827, 0.7502577, 0.3611788, -0.2659099, 0.24350502, -0.23235027, -0.29844612, 0.09079418, 0.4491868, 0.6144689, 0.46900645, -0.15961467, 0.26210105, -0.56415343, 0.32159606, -0.8711155, -0.34771273, -0.2668613, -0.14407834, 0.6615286, -0.203, -0.33414933, -0.15336524, 0.6366008, -0.67749214, -0.13664393, -0.029804135, -0.1085991, 0.16705494, -0.19379742, -0.5337768, -0.56922024, -0.38139597, 1.0813498, 0.19687353, -0.0001848787, -0.16630042, 0.60900885, 1.2189745, 0.2629942, 0.684768, -0.22070192, -0.13377291, -0.27139047, 0.17456858, 0.6846371, 0.1842197, 0.18504733, -0.09943346, 0.186009, -0.38015184, -0.38784865, -0.23815437, -0.07460322, 0.16890305, -0.05066082, -0.07941691, -0.40507653, 0.28009927, -0.77027935, 0.4640535, 0.9320317, 0.5990588, 0.2340676, -0.6463765, -0.282005, 0.50908303, -0.35044014, 0.8627021, 0.52598256, -0.4542881, 0.14250715, -0.06986157, 0.18279473, -0.48793042, -0.135131, 0.67092615, -0.6034267, 0.30600736, -0.50214183, -0.41523206, -0.084041536, -0.60033387, 0.28831968, 0.13827224, 0.33492824, -0.088424616, -0.118428886, 0.18705444, -0.2072463, 0.3056426, 0.20498522, -0.09976127, 0.117589295, 0.7665419, -0.5808594, 0.10232831, -0.09656068, -0.09212617, -0.42915204, -0.00022440653, -0.28537354, 0.75369483, -0.6820678, 0.34782457, -0.14317998, -1.0282179, -0.50525653, -0.11942058, -0.92086387, 0.5043436, 0.50873286, -0.01570581, -0.33427632, -0.012057436, 0.43120754, -0.06489125, -0.47513708, -0.67214364, -0.53173906, 0.5513858, -0.75269026, -0.5398663, -0.23501511, 0.19864829, 0.099343896, -0.6554403, 0.23271637, -0.21489505, 0.1701688, -0.6115733, 0.8417793, -0.5625122, 0.42234012, 0.25093094, 0.14038725, 0.25624216, -0.10987928, 0.2889839, -0.13120353, -0.2604083, 0.28467542, -0.49983943, 0.26565585, -0.1362486, -1.6271067, -0.6672837, -0.56425995, -0.18104036, -0.02482161, 0.142156, -0.5356054, 0.6125675, -0.6237145, 0.0021910593, -0.18093763, 0.7972102, 0.2713031, 0.043318868, 0.6029648, -0.20668586, -0.59951633, -0.92899173, -0.13588253, 0.15088363, -0.66755056, -0.018548774, 0.82936674, -0.7340531, -0.17230089, 0.17738263, -0.3280271, -0.39345792, -0.1384788, 0.33752552, -0.0251799, -0.26471576, -0.08733722, -0.29760703, -0.4079084, 0.33073714, 0.26660803, 0.18696994, -0.1598422, -0.10474086, -0.039820503, 0.23401463, 0.75351095, -0.5718015, -0.1443859, 0.1709876, 0.24070944, -0.38846043, 0.002941135, -0.41743457, -0.08900937, 0.534637, -0.530766, -0.24500483, -0.6145577, -0.072860606, -0.11032308, 0.7863621, -0.056720715, -0.34037718, 0.6147494, -0.336969, 0.1722096, 0.37041375, 0.07927051, -0.51044846, 0.6020121, 0.5351423, 0.24429552, 1.1346784, -0.37394103, -0.15515934, -0.09666646, -0.21279208, -0.32038584, -0.11570894, -0.17398149, 0.0722036, -0.20101242, 0.6586376, -0.08367517, -0.6744106, -0.10522925, 0.3244503, 0.96793294, 0.11787205, 0.20482443, 0.2515795, 0.01949734, -0.62169975, 0.6779154, -0.12592484, -1.00363, -0.54733545, 0.64731914, 0.2599298, 0.09306344, -0.10997545, 0.49409112, -0.18276006, -0.5117198, 0.37363842, -0.048441473, -0.22210616, -0.0016700128, -0.35992113, 0.6779995, -0.15516971, -0.14364962, 0.19098306, 0.71211624, -0.35252142, 0.17725404, -0.554067, -0.17775913, -0.63519955, 0.20547576, 0.1685751, -0.192159, -0.28752574, -0.6384097, 0.7357114, -0.6643912, 0.06391581, 0.069476284, 0.52755135, 0.25572455, -0.44461334, 0.19198789, -0.71758914, 1.0055275, -0.21694686, -0.6407513, -0.0466368, -0.35220876, -0.42384157, -0.31793025, -0.16253583, 0.038947936, 0.04319587, 0.024118362, 0.3201345, 0.4860243, -0.041070763, -0.40755364, 0.88690037, -0.03401799, 0.091155134, 0.3748729, -0.52379394, -0.292324, -0.7247026, 0.1728615, 0.07748787, 0.51695013, -0.2182232, 0.1258082, 0.2455461, -0.44142678, -0.31793842, 0.02890455, -0.31890252, -0.19371802, 0.22483991, -0.14191195, 0.30384818, 0.5057938, -0.24918373, -0.13403617, 0.43354753, -0.27912435, -0.18447019, -0.19654523, -0.40612936, 0.3209639, 0.47903654, -0.33693257, -0.15988493, -0.12312206, -0.74897283, -0.36673138, -0.07030871, 0.21296239, -0.24761277, 0.3992941, 0.16236456, 0.51468366, -0.3237573, 0.68880373, 0.4381285, 0.33827588, 0.38751718, 0.15932213, -0.13723849, -0.33624735, -0.31210992, -0.2818713, -0.12848723, -0.4675404, -0.5472089, -0.16998722, -1.2084485, 0.310236, -0.16100366, -0.3208264, -0.15589361, -0.5941079, 0.5446686, -0.09263047, 0.46258643, 0.20763288, 0.35294306, 0.05849014, 0.56804913, -0.06325219, 0.48741174, -0.32448575, 0.2439426, -0.50248593, -0.44336963, 0.036708694, 0.108668685, 0.09361795, -0.7020622, 0.6847966, 0.84559304, -0.24567632, -0.31119677, 0.088175595, 0.3196322, -0.21073556, 0.68775916, 0.02723998, -0.24999057, -0.88770443, -0.3648506, -0.52238506, -0.63837874, 0.35882983, -0.0987944, 0.35892412, 0.23695803, 0.00667369, 0.120401986, 0.10296914, -0.22736545, 0.16013934, 0.2852141, -0.11139973, -0.12718754, 0.48714375, 0.05155763, 0.22960532, 0.33474097, 0.09191335, -0.3425418, -0.109026276, 0.4376993, -0.37048888, -0.33446148, -0.69416976, -0.44172236, 0.18479963, -0.7187209, 0.43988284, -0.5474082, 0.23149122, 0.20108603, 0.22777276, 0.7083294, -0.0022075549, -0.24305801, -0.5938611, 0.3909246, 0.5696937, 0.30135617, 0.19725408, -0.532981, -0.7921598, 0.13851517, -0.39703593, -0.31208584, 0.36965784, -0.23350935, 0.1839127, -0.3344506, 0.7668678, -0.28508672, 0.36658362, -0.45839894, -0.18053544, -0.08749145, -0.28011152, -0.5821736, -0.20650889, -0.108688146, -0.38412943, 0.29994783, -0.12590441, 0.27182296, 0.38843325, 0.7219015, -0.20219733, -0.03206285, 0.610305, 0.24364388, 0.2861176, 0.006882137, 0.4807142, 0.22057986, -0.28291512, -0.40819335, 0.37636828, 0.22307281, 0.22174795, 0.3378593, -0.008950706, 0.35897946, 0.4938897, -0.03779765, -0.20337361, -0.14616911, 0.3228213, 0.638514, 0.5502406, 0.16176999, 0.0077475384, 0.587101, -0.6780594, 0.40730944, -0.15865797, 0.5139791, -0.16144912, -0.629685, -0.4217205, -0.19450884, -0.34594476, -0.11466212, -0.08482947, -0.6633575, 0.105574064, 0.34075484, 0.21851897, -0.8465367, -0.28416237, -0.27419493, 0.20372538, -0.19544677, 0.26403853, -0.5247039, 0.43586993, -0.11058802, 0.33081266, -0.22600837, -0.4388931, 0.05282085, 0.32520676, -0.917557, 0.6199095, -0.29703853, -0.7963428, -0.20271099, -1.1053456, -0.17517841, 0.017193533, -0.07814884, 0.07444627, 0.2094891, -0.07108412, 0.45139337, 0.30109152, -0.29301116, -0.18989201, -0.70748043, -0.0086547965, -0.25236246, -0.19263212, 0.002810533, 0.30984515, -0.11761442, 0.18418233, -0.7087693, 0.06586301, -0.4290651, -0.20712538, -0.20291257, 0.49878156, -0.28720996, 0.017079413, 0.40294787, -0.19134718, 0.521908, -0.17485802, -0.013607856, -0.084388696, -0.3157429, 0.45659623, 0.27094772, -0.34340832, 0.016749607, -0.19145791, 0.17771947, 0.044424962, -0.37996605, 0.26246116, -0.19055873, -0.4204578, -0.6465403, -0.5301462, -0.57111996, 0.17414339, -0.28146937, -0.41925642, -0.33745936, -0.19143724, 0.7110627, 0.20216483, -0.0034228414, 0.24873821, -0.63006324, -0.24519892, -0.0053048506, 0.8966019, 0.3842175, -0.5982749, -0.6812763, 0.0064394027, 0.3574868, -0.1361293, -0.33529744, 0.49043894, -1.0195404, 0.33880186, -0.042998638, -0.092858024, 0.14112468, -0.54257303, 0.23991601, -0.019554272, 0.25372586, -0.039501734, 0.08045044, -0.093297906, -0.76524234, 0.134929, -0.07631517, 0.020245602, -0.2521911, -0.2100991, -0.40903297, -0.7722759, -0.12955189, -0.2075929, -0.385285, 0.48094097, 0.37266746, -0.13296604, -0.23747735, -0.018020786, -0.10158321, -0.365819, -0.47382632, 0.27773982, 0.067429245, -0.44686902, -0.35696766, 0.8376088, 0.7935819, 0.026057022, -0.38145575, 0.5047907, -0.021821449, 0.52945817, -0.038634874, 0.39518735, -0.428135, -0.20791654, 0.4266444, -0.5099242, 0.34184238, 0.4856179, -0.36977848, -0.008678165, -0.23840165, 0.20536028, 0.16992514, 1.0530077, 0.15744174, 0.14827292, 0.1360331, -0.0995543, -0.10072064, -0.2360477, -0.3267684, 0.07690687, -0.4532989, -0.4512274, -0.26762754, -0.34085563, 0.3364071, -0.5168797, -0.34306756, 0.030776627, -0.3699474, -0.27045304, 0.40188667, 0.203149, -0.07456328, 0.26008758, -0.37029073, 0.28067964, 0.057312787, 0.027462667, 0.7903015, 0.34610358, -0.33793342, -0.04879214, -0.42061818, 0.36449853, 0.4668298, -0.21572094, -0.52647334, -0.014358878, -0.7366641, 0.16286111, -0.36229846, 0.4969697, -1.3108265, 0.5242714, 0.3338554, 0.26950994, -0.042508226, 0.35166, 0.078862615, -0.16656537, 0.06951415, 0.4572344, -0.30691662, 0.19127077, 0.04090247, 0.12273374, -0.10363584, -0.29535264, 0.8618571, -0.48813513, 0.22025084, 0.1736086, -0.11983836, -0.61547285, 0.4271879, 0.47962403, 0.42249265, 0.28004378]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>면의 물성은 어떻게 측정하나요?</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>다양한 방법이 있는데, texture analyzer를 사용한 인장 테스트를 추천합니다.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 tensile test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
         <is>
           <t>[0.009250994, -0.43667936, -0.19451584, -0.78929186, -0.32603538, -0.30669603, 0.22015595, -0.2943513, 0.3259143, 0.06859383, -0.25722027, 0.016905172, 0.10114825, -0.009316622, -0.40384984, -0.0417638, 0.07926931, 0.5623315, -0.503614, -0.2608182, -0.07769895, 0.3422285, 0.108247094, 0.27490917, -0.2751458, 0.7286988, -0.7338106, -0.19077766, -0.39665213, -0.47966614, 0.42308113, 0.28091583, 0.042381316, 0.56905496, -0.17438568, 0.5674264, -0.34637097, 0.160036, 0.24617404, -0.2788113, -0.15914634, -0.53203607, 0.5866041, 0.5312363, 0.2403657, 0.21980768, 0.4941354, -0.06797193, -0.31982327, 0.23723423, -0.27878997, -0.10901319, -0.39617822, 0.26611626, -0.13385691, -0.65107375, 0.09709989, 0.16053373, 0.17780805, -0.3076515, -0.057496656, -1.2875245, -0.46791175, 0.060164884, -0.19867565, 0.21698187, 0.25917062, -0.17912106, -0.113999926, 0.48475945, 0.026426936, -0.23141824, 0.32143936, -0.47490218, 0.44056547, -0.63172215, 0.06941556, -0.023437029, 0.57227945, -0.36301342, 0.42447576, 0.28399834, -0.65571934, -0.6123203, 0.539409, -0.13319741, -0.07242034, -0.6515643, 0.19435604, -0.13010095, -0.26391584, -0.39766946, -0.09957528, 0.0614084, -0.44250104, -0.44557738, 0.2539296, -0.14962782, 0.29645976, -0.17430587, -0.05427442, -0.25411522, 0.24945764, 0.45719454, 0.45666707, -0.404341, -0.62649965, 0.26574853, 0.09206446, -0.19333847, 0.46137738, -0.3045998, 0.12954128, -0.4019191, -0.04174918, 0.2701729, -0.1405273, -0.58392096, -0.030175751, 0.62390345, 0.33942208, -0.27162614, -0.4253682, -0.32644024, -0.6025119, 0.023900315, 0.29270983, -0.094681025, 0.58116, -0.14290866, -0.034704354, 0.21366636, 0.647977, -0.2798438, -0.2812942, -0.49778816, 0.25222942, -0.2936309, 0.5874019, 1.42533, -0.83338165, 0.27333426, -0.018643064, 0.3048301, -0.11483887, -0.31109306, 0.2317615, -0.5052064, 0.25709495, -0.36169925, -0.2566154, -0.23451088, -0.5803819, 0.20254914, 0.30467713, 0.110211074, -0.22330557, -0.28742698, 0.5805871, -0.1165606, 1.1619248, -0.22990501, 0.010003355, -0.2128452, 0.20784086, -0.730001, -0.2815121, -0.14845432, 0.014706925, -0.31667656, -0.12594002, 0.41740742, 0.5295444, 0.05410406, -0.101967804, 0.1311946, -0.5353699, 0.008241017, -0.21051933, -0.37497246, -0.038064644, -0.0653749, -0.088227786, 0.30686936, -0.3664595, 0.501561, 0.8347507, 0.3039756, -0.555782, -0.6614564, 0.62407035, -0.7780099, -0.32369357, 0.002831673, 0.17877686, 0.76556593, -0.82927483, 0.15738867, -0.18466097, 0.43102273, -0.21327388, 0.36983356, -0.06200032, 0.41317037, 0.054434698, 0.3793492, -0.07834617, -0.21675064, 0.096800484, 0.11775375, -0.1349762, 0.014468756, -0.1750449, -0.25496098, -0.37924036, -0.39317715, -0.20618261, -0.13773242, 0.420169, -0.07752484, -0.09785795, -0.96285385, 0.7895494, -0.58960974, -0.413571, -0.40142718, 0.28102615, 0.5268974, 0.19102712, -0.3049492, -0.1661021, -0.08791397, -0.15917632, -0.115964286, 0.72548676, -0.19697446, 0.2887697, 1.2359966, -0.12561806, 0.19287539, 0.45091712, 0.21533485, 0.01620109, -0.13178916, 0.83812994, 0.09137253, -0.33705983, -0.7729347, 0.045338392, -0.4592544, -0.09606636, 0.46164545, -0.17699085, 0.29324108, 0.07700704, -0.4121534, 0.4721247, 0.7364487, -0.42454183, -0.2850648, 0.0762872, -0.046565294, -0.3172997, 0.05505684, -0.04982047, 0.12014239, 0.2522181, -0.90121937, -0.19433416, -0.5142009, -0.13884728, -0.62272924, -0.013469431, 0.22737354, -0.38322088, 0.4551425, -0.10878811, 0.78861576, 0.1112205, 0.1702817, -0.008552997, 0.34184912, 0.29536805, 0.42950937, 0.24942195, -0.19390936, 0.005296675, -0.61630774, 0.03917006, 0.15346825, 0.1320556, 0.291423, -0.07279527, -0.65312064, 0.36226737, 0.05830799, -0.49998498, -0.29383752, 0.37739778, 0.47688982, 0.086766005, -0.18644671, 0.4757346, 0.60412914, -0.05323446, 0.3249874, 0.28557256, -0.66752285, -0.84058386, 0.3432492, 0.68547565, 0.5464514, -0.0052914545, 0.08824986, 0.094094925, -0.5681743, -0.1464874, 0.22755204, -0.2686483, -0.44279897, -0.05077061, 0.70289063, -0.21668573, -0.1670007, 0.024534224, 0.54762167, -0.12587291, -0.29173124, -0.30974597, -0.16689618, -0.8489721, 0.06626275, 0.13547081, -0.65443295, -0.17119081, -0.6400762, 0.65495175, -0.67772216, -0.10960451, 0.1874937, -0.05648906, -0.43354928, 0.055628266, 0.538818, 0.31171808, 0.79814434, -0.59665614, -0.3668774, -0.03098076, -0.30344433, 0.052876055, -0.2561362, 0.08817053, -0.18173026, 1.0090355, -0.05600257, 0.45649526, 0.6952524, 0.074805744, -0.1815813, 0.45592365, -0.64473385, -0.41231608, 0.3493031, -0.17996281, -0.7946894, -0.95525223, 0.08764059, -0.2897059, -0.47679934, -0.1883183, -0.35123333, 0.20946218, -0.33197695, 0.047191244, 0.35365665, 0.007055788, -0.026517764, 0.45200825, -0.027504517, 0.37968096, 0.9499109, 0.19308561, -0.4171306, 0.28936425, -0.4823495, -0.20184161, -0.16592287, -0.06345657, 0.07910175, 0.29704297, -0.80185723, -0.39358184, -0.14788528, -0.33900654, 0.71533483, -0.25222817, 0.06538273, -0.37707734, 0.053936135, -0.43625465, 0.22856188, -0.34197676, 0.34008932, 0.51788944, 0.47793663, -0.25691554, -0.009992909, -0.05912796, -0.16961975, -0.3215849, -0.7105448, -0.39068866, -0.30324188, -0.5660493, -0.34685168, -0.6120364, 0.39034665, 0.08715886, -0.070763, 0.29636946, -0.47252658, 0.6270467, -0.6942627, 0.13133366, 0.29719695, 1.5778098, 0.1465529, 0.6921014, 0.3310401, 0.5182876, -0.07692478, 0.04551871, -0.7208263, -0.49166766, -0.4575058, 0.22476196, -0.489311, -0.33593896, 0.24781382, -0.48714676, 0.07363697, -0.5042123, -0.5410612, -0.022520453, 0.39339784, 0.15666123, 0.28239357, -0.3084594, -0.6367307, 0.0013797097, -0.2556663, -0.5154879, -0.26268914, -0.9450345, 0.27584532, 0.30631468, -0.19670217, -0.2825903, 0.20138256, -0.06937406, 0.64651316, 0.02235941, -0.4964433, -0.17253955, -0.01722506, -0.4161595, 0.40775612, 0.23476563, 0.29391912, 0.0015778504, -0.26885954, 0.35296428, -0.60540384, -0.31702486, -0.2606441, -0.1288972, -0.23196131, -0.40757546, 0.09075584, -0.027264053, -0.20701028, -0.18350203, 0.59854263, 0.38549438, -0.35246333, -0.06080238, -0.16464408, -0.03957184, 0.93328136, 1.0762427, 0.44676295, -0.34402958, -0.13589372, 0.08084767, -0.25660098, 0.24922256, 1.1953034, -0.13700251, -0.25924006, 0.1913473, 0.38559088, 0.4247894, 0.1950192, -0.07039512, 0.3776699, 0.15569057, -0.020417385, -0.6997016, -0.31278428, -0.042138632, -0.51796937, 0.168317, 0.4267521, 0.09284339, 0.5237612, 0.03862706, -0.3605329, -0.40674874, -0.02222261, 0.46632943, -0.30582196, 0.834182, 0.45059273, -0.0438275, -0.570668, -0.32026407, 0.7291598, 0.24440096, -0.44849944, -0.34457827, -0.040139064, 0.07578208, 0.31449866, -0.646058, 0.15761805, 0.13799785, 0.022729563, 0.7916167, 0.3833597, -0.01931261, -0.07308716, 0.15917641, -0.32050532, 0.1471662, -0.13818227, 0.15034954, -0.15845667, -0.7044237, -0.38306224, -0.19812943, -0.67405224, -0.12209684, -0.21898438, -0.41738537, -0.3661755, 0.71398526, -0.14789388, -1.0026301, 0.16819239, 0.28152755, 0.40960684, -0.29546672, -0.10785847, -0.6392557, 0.36155996, 0.44862154, 0.5200339, -0.06508615, 0.52332336, 0.10589919, 0.15498292, -0.17406563, 0.75452334, -0.68587106, -0.7308766, -0.9776712, -0.79048085, 0.051683072, -0.20969717, 0.32082513, -0.42423153, 0.6632802, -0.94122314, 0.24541122, 0.34182784, -0.64458185, -0.25875667, -0.8084912, 0.041625638, 0.71306753, -0.13358109, 0.6446262, 0.3629625, -0.6954253, -0.017612454, -0.5335633, -0.77674633, -0.50267833, -0.35497138, 0.117161036, 0.015098501, -0.096711405, -0.5566912, -0.45950556, -0.7896819, -0.1386307, -0.032413688, -0.65607744, -0.3429062, 0.029209977, 0.32007536, 0.45279714, -0.0038738262, 0.04281416, -0.15735178, -0.115209214, -0.5139052, -0.33781433, 0.24413729, -0.48342904, -0.4240518, -0.6153828, -0.5464208, -0.6935637, -0.035337046, 0.06388302, -0.63036996, 0.06815838, -0.46119165, 1.2794181, -0.42958844, -0.16063711, 0.03488543, -0.076049104, -0.16507988, -0.07135252, 0.80548936, 0.23768227, -0.97712237, -0.65732133, -0.28054833, -0.014310892, 0.112705894, -0.6149327, -0.030698225, -0.81224126, 1.0763603, -0.38836184, 0.44277024, -0.11454976, 0.028790941, 0.123051286, -0.27948865, 0.14248364, 0.3004268, -0.10695019, 0.7523031, -0.3486694, -0.2042961, -0.29164353, 0.16207586, 0.09953756, -0.1438828, -0.82257915, -0.7334249, -0.521208, -0.24247974, -0.15334226, 0.70412254, 0.11524659, 0.08942755, -0.42302737, 0.028267896, -1.1237231, 0.066301614, 0.06297261, 0.06521507, 0.46801087, -0.23750019, 0.54528147, 0.18083598, -0.2917504, 0.20450188, -0.42492667, 1.0610791, 0.08344122, 0.38767925, -0.06218962, 0.10766097, 0.18235941, 0.21769212, 0.22789474, -0.940674, 0.46741986, 0.40766993, 0.16077997, -0.14417304, 0.015158429, -0.12869081, -0.12766564, 0.33797988, -0.42796135, 0.44827208, -0.1574115, -0.20391558, -0.206434, 0.41013744, -0.569837, 0.015599832, -0.7593542, 0.23286027, -0.076241754, -0.2709475, 0.037079874, -0.2794652, 0.07829145, 0.15301222, -0.16033645, -0.38532722, 0.4801781, -0.21823822, -0.57978886, -0.32748526, -0.7929717, -0.05330746, 0.80572146, -0.2565811, 0.114533074, 0.27541235, -0.33489847, -0.20372503, -0.26028377, 0.6326477, 0.10768309, 0.06723884, -0.706373, 0.39804772, -0.11854067, 0.016489059, -0.70660573, -0.2044497, -0.48041764, 0.7195448, 0.16330631, -0.08186559, -0.22174783, 0.39756286, 0.10740914, 0.32368985, 0.5891108, 0.2857164, -0.3938614, -0.19235486, 0.042254, 0.13044754, 0.41616535, 0.39367267, 0.5000668, -0.3998516, 0.2959335, 0.13270001, 0.58416706, -0.24487787, 0.21708828, 0.79956293, 0.44684842, 0.39696205]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>칼국수의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 tensile test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[-0.48415604, -0.46603814, -0.15974799, -0.49843696, -0.07182685, 0.08728931, -0.027415484, -0.2755702, -0.1984389, -0.15262301, 0.0767774, 0.09290054, 0.81028134, -0.08571279, -0.22741105, -0.38181213, 0.05097281, 0.59856856, -0.13077529, -0.15531768, -0.13870169, -0.57495856, 0.091862164, -0.0020795278, -0.06439959, -0.35321176, -0.63341945, -0.54806256, -0.3394022, 0.14988403, 0.3939406, 0.5261721, 0.112077415, 0.02673932, -0.05917685, 0.0149391545, -0.07536593, -0.11804524, 0.49070564, -0.253444, -0.41966856, -0.4493566, 0.11004975, 0.46501836, 0.44833004, -0.0432295, 0.43685666, 0.021969223, -0.0018048236, -0.07153302, -0.5834622, -0.060961027, 0.22454892, 0.6473002, -0.3882773, -0.86895686, 0.3280342, 0.20097949, 0.20481662, 0.10878775, -0.31647226, -0.57225764, -0.39811444, -0.1661473, 0.45565447, -0.57863176, -0.08168485, 0.17458284, -0.289067, 0.44754443, 0.1967624, -0.29660162, 0.32611978, -0.20784752, -0.23169614, -0.7668161, 0.21567959, -0.118325375, 0.39177534, -0.95662665, 0.51378256, 0.023597108, -0.34842607, -0.26926067, -0.015421234, -1.0460525, -0.12840678, -0.15750198, 0.4166858, 0.28201887, -0.06768051, -0.68687814, -0.17592879, 0.2787888, -0.22815253, -0.76538277, 0.5032429, 0.28739426, -0.36170423, 0.2273437, -0.17281593, -0.53640425, 0.4967539, 0.9333927, 0.43097565, 0.23067498, -0.59143543, 0.23898713, -0.016989266, 0.14963646, 0.45062542, -0.36488298, 0.15117677, -0.5495482, 0.23208898, 0.2727337, -0.48453164, 0.41269922, -0.050591856, -0.107215576, -0.039581418, 0.35620725, -0.10529244, -0.24052136, 0.3417859, 0.13072193, 0.28441036, -0.22891833, 0.22202307, -0.20954566, -0.33554456, 0.4361545, 0.46168935, -0.017116416, -0.3430188, -0.3033649, 0.46400344, -0.6888878, 0.8028454, 0.6411853, -1.2194896, -0.02737216, 0.020022985, 0.5250567, -0.036370132, 0.49322367, 0.2649006, -0.44994223, 0.18889272, -0.95727324, -0.22490215, 0.061515052, -0.21062864, 0.26963094, 0.27972037, 0.14632632, 0.22676189, -0.5641988, -0.05961522, -0.05014504, 0.75036, 0.09324566, 0.39862737, 0.15615585, 0.32824522, -0.42957842, 0.24721472, -0.0005506917, 0.10943105, -0.58544636, -0.19821419, -0.12559277, 0.5920913, -0.5676391, 0.22503972, 0.13637222, -1.1220635, -0.72646815, -0.39921126, -0.86072654, 0.27114972, 0.1457854, 0.08855399, -0.18107973, 0.20282568, 0.5492835, 0.38267812, 0.18256986, -0.5435628, -0.18243796, -0.09036356, -0.33490396, -0.31372204, -0.0692609, 0.38134137, 0.14183119, -0.41367576, -0.052096415, -0.0044846535, 0.065742776, 0.29541352, 1.012595, 0.044436898, 0.13425504, -0.052648578, -0.17223449, -0.29455534, -0.5643134, 0.096320175, 0.25827026, -0.44504312, 0.015227418, -0.46487656, 0.102621, 0.063720316, -1.1253564, -0.5077745, -0.23004234, 0.011702195, -0.08097398, -0.08101624, -0.76258874, 0.81543136, -0.25701976, -0.36347082, -0.27860245, 0.54233927, -0.013895228, 0.20752256, 0.4211502, -0.5443124, -0.5365828, -0.2579888, -0.054549437, 0.9215638, -0.5964915, -0.10609871, 1.1489351, -0.4503976, -0.29264364, -0.09581918, 0.25203732, -0.117704265, -0.13184081, 0.5232109, 0.20218043, -0.6301406, 0.0752069, 0.11020756, -0.10749218, 0.4182382, 0.17588483, 0.063082956, 0.12033397, 0.38105914, -0.32329893, 0.33362174, 0.10142216, -0.69530183, -0.7502981, 0.11734361, 0.09834991, -0.3019491, -0.40101564, -0.18675636, 0.15319364, 0.2664192, -0.63822836, -0.15710588, -0.6567552, 0.25928634, -0.25358236, 0.40877053, -0.31235483, -0.41337797, 0.4844706, -0.3899404, 0.3009272, 0.15765154, 0.6139056, -0.13916318, 0.16044913, 0.26654825, 0.3977325, 0.60855967, -0.1370674, -0.5601865, -0.87515575, 0.27496603, 0.15556337, 0.6886477, -0.059252962, -0.1591749, 0.057215285, 0.18191, -0.088207595, -0.46256444, 0.48932064, 0.014119651, 1.1425805, -0.61697793, -0.1839248, 0.17657505, 0.46926627, -0.81690955, 0.2804838, -0.34901497, -0.34935465, -0.5028104, 0.56694335, 0.16145128, 0.08093777, -0.05927406, -0.224726, 0.4273239, -0.89107704, -0.20408571, -0.3914914, 0.28872022, -0.27526578, -0.6194611, 0.90208775, 0.3880264, -0.31424356, 0.17572625, 0.8342498, -0.05052471, -0.20498097, -0.3677067, 0.042273536, -0.9247913, -0.016359128, 0.047059536, -0.31386593, -0.7462869, -0.25235686, 0.47417626, -0.41388246, 0.22612165, 0.6963596, 0.028710991, -0.39652398, -0.4417511, -0.15925404, -0.23876832, 0.53975445, -0.5098902, -0.3962151, -0.055939812, -0.3967876, -0.17687406, -0.12631254, -0.11440722, -0.5043731, 0.20729691, -0.19672848, 0.24300504, 0.7826777, 0.3681192, 0.12578295, 0.954216, -0.23056185, 0.028349837, 0.50848097, -0.47275543, -0.543314, -0.889016, -0.028940735, 0.13386801, -0.03348734, 0.042403664, -0.39613995, -0.1843081, -0.5598598, 0.0671142, -0.07667041, -0.6068696, 0.135796, 0.3105608, 0.41516694, 0.24119622, 0.94146603, 0.31881568, -0.056261223, 0.14751512, -0.36687505, 0.06722638, -0.47744966, -0.033703115, -0.11093516, 0.39176443, -0.051101495, -0.3888332, -0.12834091, -0.761071, 0.09243414, -0.25703892, 0.11555368, -0.30652964, -0.03220115, -0.28358182, 0.462013, -0.03905401, -0.09335912, 0.5873794, 0.534839, -0.21443327, 0.2731889, -0.29467943, -0.100412555, 0.032976214, -0.51267225, -0.47079757, -0.13550413, -0.6164723, -0.47945026, -1.0843217, -0.19835736, 0.07946, 0.049898744, -0.16860457, 0.05455905, 0.33803868, -0.7736233, 0.18964718, 0.13998054, 0.5904614, 0.2683225, 0.6808215, 0.2575675, 0.15076734, -0.3423351, 0.20442837, -0.5731733, -0.47841194, 0.5753705, -0.273024, -0.32914394, -0.22327946, 0.052219618, 0.18502022, -0.33616105, -0.33266714, 0.014122714, 0.75015074, 0.12670098, 0.4774426, 0.020067107, -0.28865433, -0.7752337, -0.34697643, -0.23454303, -0.51843596, -0.0762924, -0.41659412, 0.33351704, 0.48910847, 0.44698724, 0.18890949, 0.828177, 0.07777485, 0.16682853, 0.12700388, -0.15274386, -0.21789436, 0.5698459, 0.12854409, 0.3609858, 0.54442745, 0.21173902, -0.6302563, 0.23070633, 0.15112467, -0.83816725, -0.20810129, -0.06482988, -0.36432734, -0.6288767, -0.656591, 0.27358687, -0.28806502, 0.28439772, 0.37054467, 0.88670045, 0.7548091, 0.022542631, -0.11062207, -0.2467364, 0.35482872, 0.31283545, 0.7544934, 0.5677227, -0.20629661, -0.097438894, -0.4341755, -0.40471688, -0.10699022, 0.51361734, -0.69605595, -0.30877128, 0.13616438, 0.47171822, -0.39657417, 0.39080894, -0.8034697, 0.53987175, -0.1723579, -0.3831135, -0.09577621, -0.3574461, 0.08549633, -0.47868773, -0.1499107, 0.5464789, -0.0010765629, 0.33350322, -0.09293953, 0.009809647, -0.119465135, 0.13340642, 0.46492255, -0.04080632, 0.3959569, 0.1477192, 0.123624034, -0.8490371, -0.19434643, 0.4559144, 0.3693087, 0.47027707, -0.21862233, 0.026610391, 0.1644903, 0.3360168, -0.10449626, 0.045731384, -0.00036962455, -0.06674883, 0.54465777, 0.13510318, -0.16447997, 0.11023762, 0.40357527, -0.23304875, 0.07539227, -0.7619254, 0.31120268, 0.12686105, -0.93392205, -0.40375876, -0.36720583, -0.7631325, 0.18268265, -0.16678385, -0.59396744, 0.04977745, 0.2771367, -0.17672603, -0.8043404, -0.04866761, 0.26225838, 0.21392454, -0.3779657, -0.24930938, -0.95842737, 0.6071913, 0.14457797, 0.20331599, 0.08081335, 0.7868858, 0.14835031, 0.5007593, -0.4420406, 0.7247393, -0.05741598, -0.66834265, -0.5313081, -0.60201854, -0.037789043, -0.06676995, -0.21389885, 0.23072131, 0.39187828, -0.7071436, 0.44673634, 0.15381469, -0.5801993, -0.23188667, -1.0567511, -0.5488484, 0.348132, -0.42045724, 0.5852114, 0.2682025, -0.34803703, 0.2233148, -0.9373503, -0.04220918, -0.30467144, -0.5463864, -0.03978126, 0.64871836, -0.2674288, -0.09081776, -0.1974805, -0.3749462, 0.38807988, -0.085535824, -0.58605754, 0.06836218, 0.061499942, 0.83708936, -0.325146, 9.5849544e-05, 0.06298605, 0.01647049, 0.4653871, -0.41105798, -0.21982431, 0.48980045, -0.27714503, -0.5438133, -0.6286616, -0.70289975, -0.68501264, 0.101968765, 0.62434983, -0.34074935, -0.10370811, -0.23813014, 0.935982, -0.4709327, -0.08569735, -0.14254206, -0.40437546, -0.018964296, -0.39906117, 0.5791006, 0.6900777, -0.5782926, -0.9184439, 0.03545368, 0.26816306, 0.19049568, -0.6868543, 0.12498498, -0.792257, 1.4308034, -0.17897134, 0.13673708, 0.37784672, -0.042870644, 0.1488592, -0.48661414, -0.02061924, -0.118662246, -0.4835682, 0.71045923, -0.38391754, 0.43525127, -0.2804862, 0.6630114, -0.30752146, 0.2609783, -0.22724535, -0.46018592, -0.23159927, -0.3034277, -0.493379, 0.6591714, -0.07484746, -0.0072490275, -0.6888527, 0.13745004, -0.4796095, -0.022210198, -0.7134711, 0.4262651, 0.47729763, 0.19779855, -0.016343482, 0.33216402, 0.4393026, -0.022107018, -0.2986304, 1.1085975, -0.17507167, 0.06332373, -0.057767045, -0.097790845, -0.1570486, -0.06525343, 0.44738495, -0.6930029, 0.80427265, -0.17337607, -0.07691521, 0.08310247, 0.38415447, -0.2370721, 0.14633778, 0.46839103, -0.17486227, -0.03349203, 0.18995874, 0.24849015, 0.38357818, 0.15023296, -0.76449466, -0.20533782, -0.67366976, -0.26695952, -0.031415302, -0.47661304, 0.21578294, -0.66320306, 0.1409971, -0.31252518, -0.22381032, -0.29620135, 0.43185785, 0.056128364, -0.1558262, 0.012395233, -0.48321268, 0.4065071, 0.29605874, -0.3015308, 0.69960403, 0.19482577, -0.3934636, -0.111896835, 0.031781837, -0.28753087, 0.6082029, 0.0062703327, -0.22254741, 0.39799652, -0.36218885, 0.05235112, -0.06511596, 0.44793817, -1.258444, 0.75402516, 0.38275436, -0.33792973, 0.21819232, 0.12810121, 0.4004672, -0.037396226, 0.09240682, 0.91027814, 0.08182558, 0.30094838, -0.39112803, -0.13738509, -0.1997425, 0.0029282842, 0.55992895, -0.41875282, -0.057190865, -0.5257944, -0.19002026, -0.7873582, 0.07918036, 0.5924131, 0.39095727, 0.43868354]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>스파게티의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 tensile test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[-0.20359634, -0.05216335, -0.51242024, -0.7522485, -0.51703036, -0.18058968, 0.268015, -0.43621075, 0.17173089, -0.42678192, -0.50033224, 0.031453274, -0.013741394, -0.28618395, -0.22000198, -0.05607204, 0.59754306, 0.82835144, -0.21136583, -0.1798216, -0.7231527, -0.3952385, -0.6616009, -0.20682693, 0.30987036, -0.39108387, -0.23627861, -0.15669228, -0.3221861, -0.4616233, 0.59135944, 0.32612154, 0.48628363, -0.2883822, -0.15387957, 0.37801293, -0.2508045, -0.10973349, 0.08190215, -0.4642278, -0.25918254, -0.41044784, -0.23266017, 0.546612, -0.60401225, 0.4331056, 0.2722583, -0.09675873, 0.036782037, -0.12502912, -0.6502902, -0.59559506, 0.36784375, 0.24531914, -0.3324342, -0.52748674, 0.09316465, -0.051621888, 0.14236999, -0.35644916, 0.09182528, -0.6341594, -0.13829626, -0.060859095, 0.44906142, -0.2168449, -0.120948784, -0.39979133, -0.33628854, 0.09576624, -0.25287068, -0.05781981, 0.3069464, -0.36636397, 0.262206, -0.5350285, 0.12324533, 0.2726421, 0.40436295, 0.050771818, 0.7953999, -0.07767341, -0.4453369, -0.5110875, 0.22576793, -0.00078820187, 0.030597443, -0.28118125, -0.029427066, 0.1746636, -0.1605558, -0.5936593, -0.028672775, 0.20316665, -0.3408116, -0.16461574, 0.45965993, -0.042661518, 0.08756321, 0.24671672, -0.107427746, -0.20734693, 0.21679026, 0.88779527, 0.64508605, -0.17340237, -0.62844986, -0.15637885, 0.39822152, 0.052364845, 0.403082, 0.24771099, 0.2822622, -0.31709728, -0.18166625, 0.20645775, -0.51314366, -0.19423634, 0.21495633, 0.27758518, -0.24888897, -0.24954824, -0.07162398, 0.14275151, -0.58197325, -0.07770691, 0.54731447, -0.19907725, -0.016741266, -0.04576775, -0.33821142, 0.34004685, 0.23845924, -0.38964292, -0.42777404, -0.066874996, 0.30917138, -0.108233266, 1.1697558, 0.99450284, -0.48134765, 0.3961989, -0.2653537, 0.1307616, -0.840077, -0.02171869, 0.47540405, -0.20153773, 0.16270633, -0.41775307, -0.16657956, -0.12276278, -0.290467, 0.12189993, 0.370188, 0.010905716, 0.11686608, -0.78823274, 0.35674104, -0.18976241, 1.2743344, 0.1983428, 0.14429753, -0.022944741, 0.37178242, -0.31796315, 0.07596293, 0.05976585, 0.040647216, -0.31586257, 0.25654384, 0.2784686, 0.5072938, -0.4356364, 0.59829587, -0.34966207, -0.52637833, 0.023014037, -0.28643855, -0.6104345, 0.24061519, 0.66393024, -0.56477755, -0.12090417, -0.2595274, 1.024218, 0.102165066, 0.564748, -0.46815124, -0.6192185, 0.67717093, -0.055128813, -0.29498544, -0.073647045, 0.19534571, 0.60514504, 0.07277701, 0.010744507, -0.409961, 0.13902569, -0.2478229, 0.6901911, -0.19402255, 0.6282999, 0.09097981, 0.011873335, -0.046387207, -0.031478647, 0.033623826, -0.46853307, -0.4432023, -0.5701824, -0.04989921, 0.072694466, -0.63643533, -0.7994981, -0.4842598, 0.23445387, 0.4059727, -0.3759886, -0.13701285, -0.79448456, 0.18903245, -0.39137197, -0.2225557, 0.1700098, 0.27872112, 0.35445824, -0.04414968, -0.09866402, -0.027949816, -0.49652112, -0.16408683, 0.06360007, 0.45021167, -0.9058071, 0.6458847, 1.2749499, -0.6027642, -0.313307, -0.3456107, 0.104392685, -0.7615405, -0.4237306, 0.19276802, 0.1052044, -0.31769618, -0.1481228, 0.6391374, -0.14963739, 0.04643027, 0.24884105, -0.42899832, 0.13390441, 0.6187566, -0.31691346, -0.045473624, 0.6519429, -0.6616139, -0.45350024, -0.1227734, 0.2958974, -0.02429927, -0.40235534, 0.20626383, -0.03254832, 0.64999753, -0.7206323, 0.3888885, -0.73083085, 0.14543845, -0.6556062, 0.51096016, 0.6023584, -0.3713273, 0.60107785, -0.79881173, -0.11156409, 0.032846186, 0.5090151, -0.2730064, -0.5631127, 0.66169435, 0.4395213, 0.5111713, -0.38441086, 0.025556156, -1.1525666, -0.032231305, -0.07129389, 0.27036765, 0.20981164, -0.2793868, -0.35008618, 0.430133, 0.13639875, -0.29934466, 0.025536949, 0.15675028, 0.90174866, -0.6625383, -0.48794642, 0.0340282, 0.49393368, -0.07504361, 0.7729907, -0.20226593, -0.45815572, -0.614128, 0.8432305, -0.011902764, 0.3266913, 0.15106665, 0.2719524, 0.057456356, -0.89974403, -0.78362364, -0.6503915, -0.18711849, 0.48987207, -0.22829382, 0.28581718, 0.54366213, 0.013369751, 0.37629294, 0.1457176, -0.8149418, -0.33369145, -0.4280561, 0.046290386, -1.3693824, 0.15676238, 0.43782842, -0.0014615929, -0.6682312, -0.26422212, 0.29605615, -0.33762756, -0.03109973, 0.41146874, -0.18086569, -0.7221401, -0.43585792, -0.19794142, -0.27968076, 0.699781, -0.5289357, -0.45956382, -0.18372257, -0.5573597, -0.15532763, -0.115247995, -0.26864514, -0.28338954, 0.31629515, -0.09575233, 0.21091604, 0.7935186, 0.3707181, -0.29438683, 1.0742965, -0.3783187, -0.22185487, 0.37889776, 0.054129828, -0.48386928, -0.87455946, 0.19420795, -0.037507337, -0.497854, -0.0037986152, -0.06821994, -0.32703632, -0.24889179, 0.30157956, 0.2966543, -0.40575764, 0.04503146, 0.12801167, 0.4269159, 0.42468515, 0.5975253, 0.7644346, -0.76940256, 0.069315344, -0.44192907, -0.10318697, -0.29389617, -0.06950257, 0.012799815, 0.5425779, -0.38482058, -0.63293964, -0.4833573, -0.32365385, -0.09232155, 0.13626139, 0.012086548, 0.14502323, 0.28683165, -0.10035688, -0.41135463, 0.018628301, 0.05424687, 0.51866907, 0.78067327, 0.13039915, 0.44059157, -0.6599335, 0.05211902, 0.06278657, -0.078639075, -0.3449415, -0.020940388, -0.09831675, -0.12152653, -0.72965145, 0.16987146, 0.44630682, -0.50034505, -0.14126463, 0.2816334, 0.52310944, -0.9864795, 0.08197769, 0.23969351, 0.9024922, -0.12053988, 0.43468186, 0.4637921, 0.60962784, 0.14902751, -0.0076570585, -0.7770672, 0.081016116, -0.4970236, 0.20433094, 0.3156192, -0.8187259, 0.48123994, -0.0041571856, 0.11824887, -0.13431415, -0.6560092, 0.35392156, -0.21091293, 0.6561652, 0.42421123, -0.7200134, -0.14794715, 0.046673715, -0.693362, -0.5375807, 0.24899043, -0.33813477, 0.07053412, 0.90346056, 0.013280754, -0.43083823, 0.44260415, -0.38145295, 0.5043296, 0.30133802, -0.603863, -0.20674463, 0.22842638, -0.06496131, -0.26434064, 0.17515004, 0.25733832, -0.09694559, 0.30127805, -0.13184965, -0.7118061, -0.19784437, -0.37195155, 0.036178622, -0.27172017, -0.5690885, 0.02702591, -0.21662922, 0.038036656, -0.020802964, 0.721777, 0.7384508, -0.48880324, 0.42499766, -0.16260639, 0.31389588, 0.6773179, 0.53411794, 0.64824647, -0.08692212, -0.2221207, 0.44384643, -0.23962812, 0.35322666, 0.28864995, -0.28310773, -0.23936689, 0.6248181, 0.28980643, 0.038508568, -0.18450953, 0.014331925, -0.45811072, -0.02017726, -0.2935767, -0.2867747, -0.43814993, -0.12117424, -0.5463105, 0.3362821, 0.39213347, -0.19054574, 0.80069566, 0.12677233, 0.009972136, -0.05627538, 0.08855322, 0.28051195, -0.036462463, 0.03602649, 0.66667485, -0.56647503, -0.310225, -0.09019794, 0.60194427, 0.23044027, 0.69833034, 0.008743214, -0.2272241, -0.14716797, 0.4516945, -0.14640409, -0.056139838, -0.20166981, -0.47762308, 0.7295468, 0.38482264, -0.45885763, -0.25867584, 0.4161688, -0.54811496, -0.20895915, -0.054087743, 0.6538283, 0.18584305, -1.1437283, -0.14020745, -0.5585903, -0.9092185, 0.027444815, -0.3705934, -0.24970035, -0.36029312, 0.08640807, -0.3624562, -0.6406985, -0.30986574, -0.00845096, 0.15913577, -0.31391057, -0.09927567, -0.81637454, 0.38194004, 0.28365645, 0.25757775, 0.3320175, 0.16016193, -0.12131374, 0.32281768, -0.284431, 0.5128638, -0.44872168, -0.13022123, -0.5644472, -0.7383453, -0.13982807, -0.29458496, -0.46027634, -0.29042003, 0.21985815, -0.4482529, 0.7425542, 0.19998308, -0.5857528, -0.15179443, -0.42394146, -0.43480727, 0.53931683, -0.018331904, 0.437158, 0.49862507, -0.84906477, -0.35289994, -0.39881894, -0.5601379, -0.39321885, 0.13598646, -0.16171505, 0.29660943, -0.17570545, -0.4165579, -0.7434239, -0.73128146, 0.0059948135, 0.32284895, -0.7308236, -0.23108715, -0.17022021, 0.7301956, 0.509103, 0.32739532, 0.17672344, 0.18443404, 0.3550682, 0.048968922, -0.7263992, 0.13793246, -0.13273835, 0.046140194, -0.14133765, -0.5466619, -0.7414527, 0.40925863, 0.29308257, -0.27274442, 0.16334228, -0.28170478, 0.94159025, -0.56853926, 0.24370998, 0.049165923, -0.4998753, -0.3075768, -0.01961913, 0.54338735, 0.3349668, -1.2130544, -0.61761945, -0.22440751, -0.17746602, 0.084178686, 0.07316828, 0.19916523, -0.9299932, 0.6247575, 0.14268717, -0.6085573, 0.1903352, -0.1514823, 0.049508113, -0.92352676, 0.33406386, 0.19703078, -0.45736253, 0.00927887, -0.037420895, 0.27686942, -0.27358165, 0.67047495, -0.3657142, 0.12506565, -0.3695606, -0.99692965, 0.17520027, -0.47968674, -0.86580324, 0.56174415, 0.36113468, 0.03596576, 0.098217286, -0.027527729, -0.74851656, 0.32832417, -0.33725902, 0.40638912, 0.062914595, 0.30371663, 0.29518652, 0.110278994, 0.1966067, 0.38305804, 0.046978664, 0.99716926, 0.05841812, 0.573899, 0.12906195, 0.40672207, 0.36943045, 0.17349817, 0.0753015, -0.15918213, 0.70629543, 0.4232148, 0.16875298, 0.008035482, -0.49884534, -0.3033053, -0.08289821, 0.60042983, -0.1679494, -0.036591876, 0.33450857, -0.36383998, 0.22515047, 0.18015726, -1.1137167, -0.09727052, -0.21364202, 0.06957416, 0.13941143, -0.28501934, 0.09293399, -0.489303, 0.03916837, 0.22500032, -0.47304896, -0.24900012, 1.0031735, 0.08343894, -0.06773829, -0.27858174, -0.72634983, -0.32973313, -0.16842003, -0.11132524, 0.46410894, 0.94909793, -0.6306285, -0.11589966, 0.13897286, 0.58867794, 0.26324815, 0.08899038, -0.34122762, 0.31040117, -0.39792743, -0.31138703, -0.29824468, 0.13483521, -0.72319794, 0.12516795, -0.5369945, -0.103736855, -0.31450874, 0.03502025, 0.41986582, 0.35368454, 0.2302006, 0.5373993, 0.3354083, -0.13855119, 0.17435841, -0.76960564, 0.25472322, 0.14184211, 0.7091141, -0.066192746, 0.12963368, -0.033297896, 0.085692056, -0.41787657, 0.44778267, 0.6631613, 0.46496925, 0.061623152]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>우동의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 tensile test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[-0.41926923, -0.14158617, -0.24194044, -0.3519342, -0.42923543, -0.028679699, 0.27255023, 0.19962375, -0.29165885, -0.1066047, -0.5712841, 0.17964256, 0.5482368, -0.011860072, -0.62497395, 0.341117, 0.39314225, 0.92883444, 0.2054073, -0.1053367, 0.29760456, 0.015334137, -0.12669007, 0.35559204, 0.07597439, -0.12256036, -0.74727637, -0.1324604, 0.18698741, -0.7588537, 0.10780189, 0.43016127, 0.054696407, 0.5395345, -0.22985236, -0.16980924, -0.112015486, 0.12613316, 0.003986351, -0.26867807, -0.51047933, -0.1415234, -0.16121964, 0.61778504, -0.15367727, 0.14229737, 0.41358694, -0.022951031, -0.10350782, -0.47427297, -0.23056857, -0.17930734, -0.14736475, 0.6059187, -0.54611677, -0.8585821, 0.26380622, 0.17895897, -0.09350934, -0.51514363, -0.003157086, -0.824017, -0.061668962, -0.24255033, 0.15007575, 0.080336474, -0.25484332, 0.3572831, -0.5113123, 0.50510955, 0.07192988, -0.22882621, 0.51764977, -0.35100842, 0.4434463, -0.98679847, 0.27741116, -0.22020441, 0.572382, 0.065274395, 0.026716992, -0.30531606, -0.11932982, -0.22262706, 0.7396439, -0.37172875, -0.6216497, 0.19658905, 0.1428354, 0.32959834, 0.18247713, -0.57388526, -0.28676113, 0.739631, -0.14045465, 0.05590883, 0.5738246, 0.35505423, -0.069992684, 0.5948011, -0.12068301, -0.13844183, -0.2603362, 0.79494363, 0.1664294, -0.07868991, -0.10718578, 0.19882835, 0.14003539, 0.014910605, 0.28792283, -0.014891468, 0.3711275, -0.3371338, -0.4061874, 0.06404858, -0.34478512, -0.48143482, 0.056220282, 0.6357979, -0.32809755, 0.1242719, -0.2951509, -0.591908, 0.10889688, 0.19465078, 0.2288164, -0.2568526, 0.52698034, -0.061372656, -0.4258739, 0.7683596, 0.3041749, 0.1764986, -0.58062476, -0.2411722, 0.25136694, -0.1413763, 0.7077858, 0.6934106, -1.0620502, 0.05748347, 0.12158858, 0.09578248, -0.4381398, -0.086456686, 0.49989274, -1.0131518, 0.2371242, -0.7980934, -0.62464017, 0.41156843, -0.4900423, 0.4472914, 0.61468774, 0.23521847, 0.0113071995, -0.8385518, 0.05961321, -0.36437288, 0.40796366, 0.40634596, -0.23639424, 0.35435274, -0.15305619, -0.5338777, 0.056860644, 0.5121128, 0.27501732, -0.41720283, -0.39704338, -0.40012679, 1.0711752, -0.3881493, 0.26479417, 0.109511055, -1.0459913, -0.40230027, -0.762049, -0.37041903, 0.51779693, 0.28632405, 0.09520975, -0.19100435, 0.09671878, 0.7209999, -0.1637101, 0.37385413, -0.42119274, -0.26822266, 0.2712337, -0.1795522, 0.0018203178, -0.20629959, 0.5572613, 0.7292745, -0.571711, 0.12233132, -0.737232, 0.020401455, 0.08188491, 1.0771776, 0.17768806, 0.6011093, 0.23273893, -0.01899326, -0.30089113, -0.68872124, -0.3548285, -0.056955893, -0.124019675, -0.1313828, -0.1821847, -0.46754277, -0.23329842, -1.0849755, -0.06553179, -0.19220032, 0.30994174, -0.362843, 0.4009895, -0.87162375, 0.7917618, -0.336339, -0.2496366, -0.058299165, 0.3326145, -0.14810207, -0.0774767, -0.3126658, -0.22324628, -0.48177633, -0.05555877, 0.022177413, 0.506477, -0.33331057, 0.26576233, 1.0018984, -0.15539472, -0.031916913, 0.13174, 0.34665012, -0.55153006, -0.22133166, 0.30820805, -0.11505445, -0.67063123, -0.44467235, 0.011687827, -0.15348253, -0.13865554, 0.42563656, -0.19892567, 0.13222381, 0.26220986, -0.7414879, 0.1053284, 0.5704366, -0.1825213, -0.56569666, -0.08530424, 0.25138465, -0.34455788, 0.032715075, -0.30498925, 0.11370391, 0.30047587, -0.7329293, 0.00037571415, -0.3993214, 0.026935628, -0.4768844, 0.23368347, -0.06726856, -0.072754875, 0.12192855, -0.059005667, -0.10386578, 0.21502851, 0.28881165, -0.19559525, -0.2499175, 0.42359996, 0.558519, 0.9523201, -0.2280141, 0.059358742, -1.0936041, -0.11407576, -0.03950801, 0.24141073, 0.16514625, -0.24495043, -0.23240583, 0.28830734, -0.07777259, -0.511927, -0.06955964, 0.11471336, 0.79855436, -0.20660019, -0.27566004, 0.10177159, 0.4851315, -0.4645958, 0.21218766, 0.01253137, -0.14711903, -0.61218446, 0.63988644, 0.50443876, 0.32238212, 0.16145362, 0.07531422, -0.0018910058, -0.7824889, -0.2223239, -0.3519094, 0.1391368, 0.06175142, -0.515837, 0.8920006, 0.031305045, -0.6109244, -0.034136552, 0.7717653, -0.24895716, -0.06901501, -0.43557954, 0.17813039, -0.55184615, -0.19429024, -0.1218408, 0.33870652, -0.57990736, -0.2793938, 0.6467249, -0.59468645, 0.28154373, 0.68947595, -0.09084133, -0.37190425, -0.14922848, 0.35468626, -0.37573162, 0.4715952, -0.014631438, -0.6288524, 0.29120287, -0.9402504, 0.013422996, -0.13887592, 0.15643038, -0.06707535, 0.609813, 0.24331905, 0.5000625, 0.9516172, 0.07439279, -0.34466836, 0.60815686, -0.24906117, -0.61936826, 0.6492468, -0.50524414, -0.41851246, -0.21273436, 0.3408523, -0.088444375, -0.042373408, 0.06900499, -0.059414383, 0.28195593, -0.34529686, 0.1992168, -0.1840247, 0.05566554, 0.24695556, 0.17354365, 0.05737571, -0.056885604, 1.1865559, 0.10340419, -0.60050964, 0.11932319, -0.6567052, -0.10765932, -0.17280681, -0.27569243, -0.04421809, 0.34645584, 0.18544267, -0.5955345, -0.31799883, -0.8074765, 0.48166108, -0.36453506, 0.37633002, -0.50937575, 0.3566985, -0.1049217, 0.014719114, -0.4103639, 0.20576362, 0.7929974, 0.27776095, -0.34553048, 0.022982279, -0.41044402, -0.25318053, 0.18297438, -0.40084365, -0.3631256, -0.7543674, -0.40102327, -0.2834746, -0.9667519, 0.06470122, -0.29074576, -0.15199886, -0.59918314, -0.034754183, 0.78029186, -0.41862062, 0.05074833, 0.2756244, 1.2353245, 0.31540585, 0.547534, 0.042682093, 0.24813229, -0.25372365, 0.30326316, -0.30736876, -0.16164584, -0.18021114, -0.077328004, -0.723937, -0.43164775, -0.16254944, 0.43011585, 0.014360938, -0.48136154, 0.20929532, 0.25468776, 0.16322081, 0.6331694, -0.22643383, -0.61613184, -0.69570726, 0.26544514, -0.70014924, -0.597809, 0.3169203, -0.76448107, 0.065008186, 0.37507197, 0.45017055, -0.41697705, 0.35460925, 0.088299096, 0.38480112, 0.21049054, -0.026878918, -0.43920445, 0.2556908, 0.23607413, -0.016251432, 0.07515178, 0.2210262, -0.33718583, -0.20724832, -0.02498719, -0.9645633, -0.50270176, -0.24980003, 0.08716243, -0.3232451, -0.19572169, -0.32060054, -0.03857044, -0.36132583, 0.14075498, 0.51136273, 0.53227144, -0.24678773, -0.20241679, 0.17877305, 0.6649837, 0.458186, 1.0186067, 0.41496575, -0.2882422, -0.4902941, -0.68018895, -0.46455193, 0.5123833, 0.72016495, -0.29541877, -0.5854262, -0.14295648, 0.8654166, 0.14396249, 0.07594713, -0.44351053, -0.015783962, -0.031839456, -0.261336, -0.19597125, -0.17680936, -0.06310098, -0.5539574, 0.3765771, 0.26992628, -0.11310127, 0.15507685, 0.06482917, 0.18243992, -0.4034301, 0.009550296, 0.4461638, -0.056138027, 0.564212, 0.5324772, -0.25270668, -0.6792094, -0.8300345, 0.5786467, 0.24633257, 0.5752683, -0.1298154, 0.2659933, -0.2923064, 0.47367766, -0.19204403, -0.2940058, 0.1316321, 0.32522634, 0.4529586, 0.2785573, -0.36154386, -0.23101197, 0.47307038, -0.6558023, 0.10026631, -0.28782564, 0.19460143, 0.29528967, -0.683556, -0.69218665, -0.39007652, -0.7654104, -0.106158935, 0.10285882, -0.08428863, 0.120182596, 0.5481948, -0.37875643, -0.39162478, 0.9260444, 0.068779506, -0.065072455, -0.6015626, -0.20111267, -0.5838868, 0.15767404, 0.6237555, 0.19342609, 0.26265022, 0.30215308, 0.120550625, 0.18950672, -0.101999186, 0.83482796, -0.18653224, -0.9545252, -0.58641094, -0.879087, -0.062430274, -0.023575833, -0.30668214, 0.15068935, 0.43713966, -0.40657893, 0.17380738, 0.32605588, -0.26713628, -0.08107855, -0.91904205, -0.397424, 0.24615042, 0.04338932, 0.4589466, 0.34247962, 0.01347629, 0.38861966, -0.8902521, -0.24848771, -0.16714875, -0.89958525, -0.17092596, 0.30212814, -0.65669554, -0.2824985, -0.34606123, -0.5343561, -0.0097355945, -0.15570156, -0.45831192, -0.11754361, -0.04929134, 0.7660292, 0.08386334, -0.66379076, 0.18753709, 0.060916524, 0.018180283, -0.71669513, -0.6427276, 0.4273621, -0.19355321, -0.042804256, -0.84224063, -0.3363926, -0.1217525, -0.13722403, -0.045941133, -0.56196886, -0.52325666, -0.03472692, 1.0244328, -0.025922775, 0.08082547, 0.3105381, -0.18424489, 0.27411297, -0.15340693, 0.1293711, 0.22492057, -0.991685, -0.9708099, 0.3462592, 0.29912245, 0.027045995, -0.5004248, 0.21690162, -0.699758, 0.8116016, -0.2409314, 0.058136787, 0.13812183, 0.2455396, -0.32830805, -0.43594167, 0.047650713, -0.25362006, 0.44443807, 0.460363, -0.44351697, 0.40210783, -0.004658329, 0.283802, -0.30447784, 0.21203542, -0.66315764, -0.3881065, -0.14957775, -0.009743069, -0.088340096, 0.5673563, -0.30649066, -0.4109224, -0.12293366, -0.038008492, -1.1213517, -0.42131147, -0.513177, 0.46022427, 0.13005018, 0.17240202, 0.14439218, 0.34684303, 0.11712795, 0.28146666, -0.6512719, 0.8993884, 0.005907985, -0.25443494, -0.0005491854, -0.08286882, -0.052808464, -0.5555211, 0.2943842, -0.71821743, 0.4361398, 0.42793632, 0.1693732, 0.8629592, 0.19690053, -0.34557238, 0.2822822, 0.45199552, -0.24229676, 0.39180866, 0.04097275, -0.44465673, 0.26641724, -0.12796576, -0.8024387, -0.011435225, -0.519474, -0.18920429, 0.28485665, -0.032850254, 0.109996825, -0.043709714, 0.39869514, -0.0497151, -0.52566487, -0.49268377, 0.89213777, 0.016940163, -0.4028081, 0.12867934, -0.32324627, 0.48097113, 0.50773704, 0.07357075, 0.5608683, 0.34598675, -0.39867628, -0.4741141, -0.39762595, 0.11964891, 0.67746, 0.43279815, -0.37365338, -0.1436985, -0.55363864, -0.19215523, -0.4844637, 0.3016235, -0.81192327, 0.66136247, 0.32996562, -0.07626853, 0.5146437, 0.22633111, -0.0829272, -0.03882115, -0.17008913, 0.3619152, -0.027692402, -0.25117877, -0.18604638, -0.29913852, -0.05956245, -0.35031465, 0.6893375, -0.46087027, -0.03297762, -0.23416601, -0.11407921, -0.70082337, 0.4192526, 0.41135964, 0.56274986, 0.99816155]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>쿠키의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 puncture test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[-1.020621, -0.40074787, -0.16620894, -0.36797872, -0.67688125, -0.5218992, 0.33657017, 0.03078954, -0.21408504, -0.14612424, -0.43295047, 0.014142205, 0.30224088, 0.56178784, 0.028923223, -0.04713865, 0.37055314, 0.24008471, -0.050979525, -0.37997043, 0.024906414, -0.49429354, -0.34560195, 0.14777257, 0.2677624, -0.12264698, -0.64346373, -0.040759146, 0.04525662, -0.6599914, 1.053966, 0.12822758, 0.5485228, 0.2286887, -0.4171447, 0.18565716, 0.07297457, -0.39591086, -0.00384558, 0.0028398882, -0.36727414, -0.24939896, 0.28276023, 0.2693572, 0.23271362, 0.04761554, 0.6192083, 0.041376803, -0.627737, -0.5122102, -0.15842077, 0.4197787, 0.19227529, 0.2938072, -0.03357886, -0.57445115, -0.44599494, 0.25421318, 0.26321134, -0.06841526, -0.02552926, -0.14725949, -0.18324727, -0.36052832, -0.01453801, -0.048670407, -0.26745424, 0.20037054, -0.2824211, -0.1427061, 0.092306115, 0.06938964, 0.40623382, -0.32351068, 0.049927905, -0.77279687, -0.116805054, 0.02161555, 0.6856289, 0.9255175, 0.81608105, -0.10509652, 0.29359245, -0.5213242, 0.615923, -0.8651305, -0.29140207, -0.32992175, -0.11394184, 0.35162774, 0.35671535, -0.4854014, -0.2596068, 0.25466204, -0.5309286, 0.22427507, -0.017179364, 0.03059333, -0.105841376, -0.16480874, -0.73882204, 0.10057321, -0.48767588, 1.2684098, -0.15168054, 0.071962915, -0.22365624, 0.45236564, 0.7595038, 0.484002, 0.41048196, -0.33303353, -0.30499712, -0.119493626, -0.21141475, 0.2369272, -0.2593263, -0.6027268, -0.4048185, -0.06322235, -0.32397306, -0.28175178, -0.009981518, -0.12060299, -0.35587773, -0.25614294, 0.3020188, -0.1718114, 0.5343868, -0.33663377, 0.09155822, 0.64096594, 0.3574324, 0.42870533, -0.5367889, -0.29137418, 0.7497456, 0.20692039, 1.1455292, 0.6327215, -0.19176008, 0.09859083, 0.2666528, -0.07383279, -0.5133026, 0.08078724, 0.39178935, -0.791194, 0.1426169, -0.3481568, -0.01540086, -0.013650969, -0.2362764, -0.0033263688, 0.0172545, 0.06340737, -0.10303399, -0.57616514, 0.09020495, -0.03996356, 0.1284265, 0.82730657, -0.47243, 0.11407415, 0.23736101, -0.5950212, 0.57658035, -0.24781714, 0.10284433, -0.25004384, -0.43202782, 0.052670356, 0.5393674, -0.07892888, 0.32641572, -0.25033632, -0.35052183, -0.08618318, -0.4118819, -0.44890466, 0.4162099, 0.7465165, 0.27632454, -0.5739608, -0.26727805, 0.06841162, 0.22754277, -0.09254689, -0.6490232, -0.38598526, 0.4753449, -0.11786435, -0.22965421, -0.11322111, -0.08889573, 0.58246416, -0.41892013, 0.027471175, -0.21836786, 0.12236207, -0.581477, 1.0686332, -0.7056222, 0.6999287, -0.06455722, -0.14667173, 0.41227868, -0.20334326, -0.36076275, -0.4659238, 0.14077498, -0.051501796, -0.17660683, 0.12489002, -0.018876374, -0.9572405, -0.83324546, -0.68690664, -0.06911116, -0.62022936, 0.2509906, -0.3859369, 0.43240115, -0.1921553, 0.0827094, -0.02739791, 0.22411425, 0.4479041, 0.042071145, 0.22779827, -0.0486669, -0.36148155, -0.38303614, -0.40516517, 0.44959107, -0.54507834, 0.34138572, 0.56322795, -0.70830894, -0.0576379, 0.007117048, -0.37906682, -0.53911924, -0.31429338, -0.04656295, 0.50575465, 0.34739783, 0.3483894, -0.29521403, -0.2646548, 0.29109922, 0.24658073, 0.31923568, -0.6377938, 0.30199093, 0.09276938, -0.024470577, 0.81522083, -0.7669546, -0.18276519, 0.54464465, 0.39029428, -0.6313998, 0.18112786, 0.20892256, -0.042345762, 0.35218468, -0.7354059, -0.29764274, -0.6273065, -0.22582959, 0.41889882, 0.3545417, -0.20940655, 0.07387311, 0.092521004, -0.12987228, 0.13450256, -0.022859305, 0.21867181, -0.41294804, 0.30128917, 0.44635344, 0.26456338, 1.318692, -0.25047716, 0.36210966, -0.172696, -0.18516378, 0.20408587, -0.23733093, -0.0644509, -0.17069794, -0.08868041, 0.19428645, -0.4566249, -0.65035015, -0.21096474, 0.33188462, 0.93258876, -0.04479902, 0.24291126, 0.36438012, 0.10718798, -0.42788935, -0.038720664, -0.3549179, -0.48824415, -0.5700298, 0.26225355, 0.2626077, 0.7151485, 0.43776143, 0.1582094, -0.18598165, -0.8710816, 0.50348705, -0.45451847, 0.017726008, -0.021801738, 0.04330586, 0.48658526, 0.1195521, -0.22886078, 0.3674622, 0.57361716, -0.09793081, -0.11290115, -0.23642135, 0.21317606, -1.0315484, -0.3190797, 0.09046674, -0.041687887, -0.72316986, -0.9541269, 0.27309334, -0.58526546, 0.3341255, -0.27438694, 0.06218928, 0.0798299, -0.1594578, 0.07198962, -0.574624, 0.65169024, -0.2330686, -0.32761028, 0.32014993, -0.5312817, -0.44227394, -0.10382444, -0.33992317, 0.047194626, 0.6383975, -0.06321316, 0.43776023, 0.24423452, -0.537588, -0.031602897, 0.84999317, -0.047737073, -0.03261267, 0.22368534, -0.46599507, -0.5157036, -0.59660566, 0.1352776, 0.09550503, 0.05663982, -0.0952028, -0.074529104, 0.38564563, -0.56009835, -0.16281922, -0.28110567, 0.08542069, 0.17999166, -0.039211553, 0.07436482, 0.6831401, 0.43191823, -0.22494836, -0.46485862, 0.5782715, -0.45981565, -0.81416065, -0.32323155, -0.036920425, 0.024569644, 0.014360763, 0.3632256, 0.19941795, 0.013327052, -0.9797704, -0.4984932, 0.0013953149, -0.034211557, 0.40813136, 1.0496898, 0.047466766, 0.09746202, -0.38943088, 0.30312234, 0.27829924, 0.02719462, 0.14329852, -0.4235386, -0.36183834, -0.6517146, -0.17302263, 0.14245464, -0.2410829, -0.71524453, -0.4084578, -0.07160954, -0.81920075, 0.38532737, -0.3236132, 0.00402345, -0.5588675, -0.6677229, 0.4079757, -0.17362672, 0.012579843, -0.01634757, 0.6829973, -0.38625404, 0.20100378, -0.16827591, 0.5869052, -0.22331136, 0.00465343, -0.34456465, -0.28587928, -0.15435927, -0.039231334, 0.24993838, -0.05852282, 0.211106, 0.5800355, -0.3377831, -0.23402786, 0.30458406, 0.6335935, 0.1662289, 0.39264676, 0.31398883, -0.10848677, -0.7375955, 0.037082125, -0.7740669, -0.96037227, 0.33077165, -0.15076523, -0.0702594, 0.18837608, -0.045629267, -0.6669809, 0.0925717, -0.4140469, 0.10215523, 0.26255575, 0.16953252, 0.18033136, 0.29382548, 0.49197865, 1.1304109, 0.5300268, 0.41625223, 0.004525935, -0.57244915, 0.29622427, -0.39771768, -0.6221983, -0.29379416, -0.20601083, 0.3433447, -0.5923864, 0.08444322, 0.01681995, -0.005056376, 0.2756075, -0.11718595, 0.5737081, 0.4255049, 0.13572763, -0.38368413, 0.53988, 0.51895326, 0.52861303, 0.22495238, 0.26252005, -0.07503467, 0.04868033, -0.30537632, 0.08614218, 0.35552666, -0.38799942, -0.12980218, 0.07580394, 0.49221244, 0.04258609, 0.40760902, -0.552445, -0.9030488, -0.07845007, -0.40586782, 0.29159352, -0.27333102, -0.112147935, -0.33965263, 0.14026634, 0.24970727, 0.07959904, 0.5954781, 0.9732483, -0.29626969, 0.1366771, 0.5814572, 0.004573169, 0.057954025, -0.28744686, 0.40775323, -0.04635902, -0.43535888, -0.5813872, 0.82893825, 0.45388666, -0.20227432, 0.17452955, 0.121509366, -0.1859733, 0.42855856, -0.7156465, -0.36458364, -0.25464252, 0.5009167, 0.7607975, 0.529238, -0.0384203, -0.2944779, 0.94037205, -0.2082061, 0.6234896, -0.14581655, 0.7334332, 0.077780284, -0.43580493, -0.71136016, -0.8121874, -0.43583116, -0.31491396, -0.81701833, -0.53355795, 0.26129293, 0.04144979, -0.17506105, -0.74245983, -0.49856398, 0.31335795, 0.19228332, -0.36057368, -0.050880205, -0.4619259, 0.19164054, 0.063166834, -0.14443389, -0.14420876, -0.4364219, 0.47560528, 0.43830976, -0.4127344, 0.44470242, 0.10646073, -0.91378, -0.33963498, -0.8811612, -0.34348872, -0.09830449, 0.09758147, 0.3114772, 0.19955398, -0.12668236, 0.72152066, 0.24600022, -0.2570859, -0.12598543, -0.13156246, -0.027941933, -0.08943436, -0.29007432, 0.09867459, 0.44956484, -0.26056564, 0.13012896, -0.31641734, 0.26492244, -0.36272344, 0.21504791, -0.1762764, 0.3274578, -0.45320097, -0.2807302, 0.36421585, -0.32504565, 0.30325657, 0.13378958, -0.2405892, -0.15983395, -1.0998265, 0.9791665, 0.17213215, 0.2657676, -0.022991449, -0.03674807, -0.29027423, -0.2697981, -0.43985948, -0.17855185, -0.7369354, -0.5278261, -0.6513184, -0.9432915, -0.36133698, 0.12255761, -0.18869781, -0.27776834, -0.4504687, -0.14618674, 0.7891941, 0.14343005, -0.14112274, 0.14112301, -0.33047688, -0.34328818, 0.06536616, 0.39790305, 0.095514566, -0.50139356, -0.53869134, 0.41843918, -0.28457314, -0.18012156, -0.3647338, 0.36174718, -0.43595782, 0.21343088, 0.37916043, -0.1518882, 0.03835585, -0.5179993, -0.09308189, -0.20654272, 0.24011834, -0.32195786, 0.17915942, 0.1974448, -0.96457934, 0.23406519, -0.14438744, -0.4321114, -0.107286684, -0.11261925, -0.35671854, -0.6417299, -0.79252, -0.5222656, -0.058698554, 0.6139168, 0.53599197, 0.1444195, -0.32426804, -0.17787194, -0.017115973, -0.15286815, -0.11733282, -0.14099883, 0.025206564, -0.41348687, -0.053085927, 0.5483199, 0.33838844, 0.31426206, -0.47911465, 0.95045453, -0.069719166, 0.4485755, 0.13869788, 0.08128076, -0.7305805, -0.18528748, 0.039272565, -0.12569745, 0.7636973, 0.4693161, -0.5437482, -0.5572589, -0.43058047, -0.11388588, 0.031243464, 0.4018754, 0.045487385, 0.30118272, -0.39993563, -0.3938487, 0.10076355, -0.054139018, -0.25427464, -0.062125668, -0.6035412, -0.055478767, 0.056862235, 0.005070807, 0.3856381, -0.5099748, -0.27913547, 0.15270789, -0.38058794, -0.088507205, 0.74985796, 0.22196704, -0.26957893, 0.015708566, -0.022045897, 0.369656, 0.24437116, -0.048215937, 0.35728034, -0.005906772, -0.5418001, -0.28149435, -0.4061775, 0.27619153, 0.28639066, -0.093622304, -0.37275806, -0.064265415, -0.3841022, -0.20853972, 0.4514226, -0.15590693, -0.41435555, 0.10045575, 0.107100524, 0.30159423, 0.48332548, 0.6534582, 0.53884935, 0.20610619, -0.11823058, 0.17704006, 0.2864987, -0.07386036, -0.37610862, -0.34961042, -0.28177777, -0.12275874, 1.2007836, -0.41615483, -0.48919538, 0.23795794, 0.1114569, -1.099771, 0.42247868, 0.76950526, 0.7876854, -0.13871503]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>두부의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 TPA test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[-0.60296196, -0.6087625, 0.30243304, -0.90262634, -0.3432213, -0.24326347, -0.3337097, 0.03301963, -0.4329851, -0.24044497, -0.69710535, 0.22522771, 0.32731527, 0.08305459, -0.15233149, 0.1325662, 0.20428698, 0.8953347, -0.08022642, -0.27764246, 0.2337505, -0.6265034, 0.16427085, 0.16489442, 0.09293636, -0.28242397, -0.2564189, -0.4024764, -0.21729626, -0.5097136, 1.2090164, 0.14156543, -0.2780638, 0.46890405, -0.039493054, 0.18663551, -0.7401357, 0.23913485, -0.09398808, -0.29730073, -0.38264182, -0.15824382, -0.09911308, 0.33181226, 0.097869895, 0.06958606, 0.37713596, -0.16622476, -0.5179555, -0.2961626, -0.3320705, 0.13633995, 0.320092, 0.40870878, 0.21599789, -0.37864253, 0.32428312, 0.6557496, 0.6251062, 0.20399922, 0.016934952, -0.634464, -0.2680467, -0.35465932, -0.12555526, -0.33453655, -0.071564995, 0.06112111, -0.4847686, 0.6272219, -0.4068526, 0.1043011, -0.13028467, -0.75354856, -0.0065633752, -0.3839332, 0.14243932, 0.27550712, 0.9271957, -0.0443138, -0.14519423, 0.16703434, -0.18664674, -0.5787391, 0.1941625, -1.1360253, -0.48299217, -0.31950042, -0.17301536, 0.56620085, -0.52872556, -0.40341473, 0.22467309, 0.061720114, -0.26314515, 0.0068799965, -0.08168, 0.55244416, -0.3770276, -0.38060844, -0.16009435, -0.754189, -0.1319921, 0.5777256, 0.087572366, -0.5531073, -0.5188839, 0.2565288, 0.06876379, 0.35026038, 0.12832424, -0.4310011, 0.30549672, 0.0012113204, 0.19538242, 0.5785989, -0.6535726, -0.12014088, 0.13286299, -0.5913737, 0.0049314736, 0.3019623, -0.40090123, 0.09455594, 0.24332951, -0.026254281, 0.24596816, -0.2278227, 0.7564551, -0.2104518, 0.27355787, 0.4709593, -0.036135916, 0.06872256, -0.7630026, -1.0289971, 0.63836426, 0.009269654, 0.7452226, 1.1663244, -0.8978996, 0.10073752, -0.19014846, -0.062508814, -0.4884434, -0.13017733, 0.09628443, -0.3768542, 0.339102, -0.45657313, -0.44666705, 0.19230694, -0.33655548, 0.19283696, -0.08258932, -0.08238418, 0.19714296, -0.14599036, 0.31255782, -0.14948253, 0.5184868, 0.66575116, -0.32731897, -0.16407207, -0.062108774, -0.34027803, 0.1530527, -0.17353053, 0.13939136, -0.7794693, 0.022647768, 0.07500335, 0.6538987, -0.3323351, 0.41484204, 0.04142865, -1.0832437, -0.15145789, -0.20193242, -0.45184493, 0.3803737, 0.7394231, -0.12981255, -0.19680564, 0.8919992, 0.18256675, 0.12054732, -0.24265124, -0.7720244, -0.7799623, 0.468323, -0.13239522, 0.18455078, -0.5017015, 0.7542057, 0.16893244, -0.5947975, -0.0035599656, -0.72693723, -0.14282542, 0.46553448, 0.67939353, 0.31903163, 0.6791625, 0.33738446, 0.29451883, -0.21128023, -0.27243292, 0.21027076, -0.20329376, -0.045588937, 0.033781376, -0.98858, -0.12104109, -0.3017597, -1.1678761, -0.30129242, -0.25194526, -0.2473151, -0.5715723, 0.35962996, -0.5185792, 0.18554889, -0.6737035, -0.46117964, -0.39610717, 0.5460931, 0.09829549, 0.2418272, 0.21649724, -0.65042853, -0.24082418, -0.26168177, -0.20770884, -0.24858117, -0.5369768, 0.054151773, 0.72860354, -0.46603394, -0.094349764, -0.12389749, -0.04194854, -0.58362323, -0.19243057, -0.42540106, 0.20461257, -0.20426756, 0.16559221, 0.1424011, -0.42714778, 0.5470387, 0.59251964, -0.2124209, 0.2422781, -0.12582241, -0.111512244, 0.5816546, 0.68963796, 0.14868565, -0.39849913, 0.12979528, -0.4983882, 0.17990233, -0.08147846, -0.31010005, 0.090545975, 0.63874596, -0.69597864, -0.21563393, -0.57250816, 0.31515792, -0.1180053, 0.39891133, 0.13310862, 0.07289914, 0.5556239, -0.30953202, 0.8362675, -0.1405273, 0.064508975, -0.19428559, 0.30026805, 0.04170246, 0.60869575, 0.60502577, -0.52660495, 0.737484, -0.35541806, -0.045284215, 0.8605638, -0.28282547, -0.28690466, 0.01569055, -0.16730271, -0.27255455, -0.25544682, -0.8473658, -0.4464725, 0.1687452, 1.3449115, 0.23197037, 0.2553208, 0.05934388, 0.64292115, -0.4778639, 0.18062444, -0.29848042, -0.22666569, -0.60400134, 0.4091108, 0.17242603, 0.23823577, -0.35790232, -0.5280192, -0.31462684, -0.48301613, -0.049173582, -0.032361347, 0.17629169, 0.32140243, -0.570126, 0.6024049, 0.13881199, -0.32033822, 0.59728557, -0.28135428, -0.059342247, 0.46171835, -0.71959656, -0.4458265, -0.7596645, -0.5153939, -0.48100856, 0.4458891, -0.4396591, -0.44416437, 0.50994587, -0.63337696, -0.03270721, 0.10684236, 0.35082272, 0.03431401, -0.37805533, 0.14568073, -0.5520682, 0.9311499, -0.46532306, -0.1634945, 0.2918764, -0.9317911, -0.7043395, -0.0804222, -0.123593904, -0.88264054, 0.6092704, -0.6141347, 0.2514051, 0.29766172, -0.24992299, 0.11043096, 0.40355134, -0.9748082, 0.1770459, 0.19099982, -0.26510704, -0.14349706, -0.8544135, 0.16876274, -0.116442405, 0.054150227, 0.21737349, -0.39631566, 0.028357172, -0.35093224, -0.03713865, -0.07638792, -0.045628343, 0.024332305, -0.1768894, 0.063865416, 0.09361219, 0.30366644, -0.31038713, -0.29066283, 0.086042814, -0.25266132, -0.5147968, 0.28008425, -0.56027216, 0.38183725, 0.9170375, 0.48001888, -0.53415304, -0.54465836, -0.5649665, -0.010227767, 0.12075243, -0.08937802, -0.062207405, 0.640776, -0.06527936, 0.39183113, -0.13656549, 0.07385224, 0.6795006, 0.35840836, -0.29724786, -0.10634461, 0.057158295, -0.1261452, 0.14620383, -0.02371549, -0.124759935, -0.69433933, 0.06290584, -0.103873976, -1.0746874, -0.31534, -0.38443372, -0.5767972, -0.31098643, -0.6104489, 0.6897704, -0.19368953, -0.016751116, -0.071125686, 0.1189417, -0.022496546, 0.553536, 0.5274545, -0.097838394, -0.6142459, 0.17930947, -0.7905007, -0.3663918, -0.17340247, 0.35562018, 0.70546573, -0.28483212, 0.44158062, 0.76228166, -0.04851311, -0.46289095, 0.3526567, 0.35250556, -0.0286832, 0.56711006, -0.56452405, -0.5167615, -0.79268426, -0.54456097, -0.65910625, -1.0619096, 0.03121347, 0.20751764, 0.42707324, 0.4166628, 0.03358641, -0.3908918, -0.3032886, -0.060401123, 0.112718664, 0.270908, -0.57770926, -0.3538712, 0.4669886, 0.02906307, -0.021705523, 0.7295247, 0.15885134, -0.091856636, 0.007953975, -0.0041014478, -0.5897587, -0.41732922, -0.066257656, -0.010352508, -0.041951194, -0.8340397, -0.1482717, -0.03129758, 0.29924104, 0.1340538, 0.6351977, 0.46396002, -0.18045503, -0.05900571, 0.029838772, 0.47244307, 0.96178037, 0.68228406, 0.37828994, -0.24417056, -0.21822548, 0.4365307, -0.354725, 0.050347578, 0.41891956, -0.22680224, -0.122778155, -0.13507614, 0.22339018, 0.10015402, 0.4408901, -0.50784427, -0.73963135, -0.17731376, -0.1410615, -0.48195896, -0.24013607, -0.16580379, -0.3258336, -0.14911814, 0.4230416, -0.56463754, 0.6920468, -0.05966262, -0.20249063, -0.21051176, 0.5666641, 0.18493582, 0.11335943, 0.23904397, 0.13847299, 0.373813, -0.11996209, -0.322203, 0.47532704, 0.7460063, 0.019908698, 0.05667433, -0.1329056, 0.095570125, 0.42062497, 0.5822243, -0.94231534, 0.09453535, 0.19159676, 0.17142348, 0.7906341, 0.49130133, -0.3060877, 0.23266244, -0.07158273, 0.46013168, -0.122695625, 0.3094095, 0.1772507, -0.75877947, -0.43610713, -0.50144583, -0.3267443, -0.14807777, -0.0841873, -0.32409772, -0.29127684, 0.27753398, -0.50388354, -0.58288914, -0.17100199, -0.061807107, 0.5720163, -0.43286523, 0.3268169, -0.11380199, 0.63146895, 0.5912643, 0.16462344, 0.3146874, 0.28151232, 0.51408964, 0.098293655, -0.72872645, 0.3488303, -0.38362905, -0.28140372, -0.4555161, -0.9455429, 0.62814337, 0.39194155, -0.27139494, 0.34901667, 0.14298756, -0.13899098, 0.6458775, 0.12901561, -0.3601335, -0.26569757, 0.15476644, 0.2302566, 0.29968113, 0.38317832, 0.5935117, 0.40437973, -0.6609996, -0.4119183, -0.76799625, -0.3603104, 0.11695236, -0.10260865, -0.06538972, 0.4477116, 0.038589094, -0.3155843, 0.006889973, -0.3638159, 0.06751871, -0.56620973, -0.44512033, -0.6128936, -0.242132, -0.013522712, -0.059588715, 0.4479657, -0.033850268, 0.11179584, -0.055470567, -0.25913617, 0.19715202, 0.09577152, -0.27563718, -0.2535968, -0.9298317, -0.3961307, -1.1230828, 0.13239433, -0.2734557, -0.16707593, -0.34839162, 0.05387539, 0.76846457, 0.05958059, -0.268561, -0.0572734, -0.14952475, -0.18637876, 0.12468523, 1.0413319, 0.011636577, -0.9237742, -0.6149223, -0.0661637, 0.4625506, -0.3515868, -0.10012736, 0.55760366, -0.49879578, 0.08967203, 0.23098983, 0.17893918, 0.039503176, -0.38074553, 0.10113073, -0.26377946, -0.04666117, -0.49541065, 0.02791812, 0.1230228, -0.28737044, -0.07257078, -0.7697404, 0.46014246, -0.041431155, 0.020461695, -0.43356624, -0.23156208, 0.039888427, -0.118372716, -0.48266038, 0.5766133, -0.0011234544, -0.050083783, 0.16706294, -0.296984, -0.0069535323, -0.14942938, -0.20715511, 0.20942669, -0.36442447, -0.68904907, -0.14879008, 0.55927277, 0.31110522, 0.026789283, -0.5975993, 1.4181247, 0.13294496, 0.20099545, 0.41812408, 0.21002217, -0.35027918, 0.45824218, -0.1588078, -0.08737945, 0.51851135, 0.5205429, -0.28339896, -0.72042584, -0.17736353, 0.16202481, 0.017378299, 0.12515044, 0.41750047, 0.06428754, 0.4192933, -0.1829021, -0.0760175, -0.19049807, 0.10022214, 0.12634845, -0.47261527, -0.08874992, -0.26064444, -0.22403254, 0.008643975, -0.35854006, -0.013684918, -0.021419933, -0.5562561, 0.09890824, 0.49225628, 0.56839913, -0.44386256, -0.05578394, -0.51885086, 0.3525066, 0.6353942, 0.3582691, 0.90374666, 0.27828884, -0.13579895, -0.512104, 0.037528615, 0.316071, 0.703876, 0.009469739, -0.18897589, 0.07886168, -0.40580502, 0.31236723, -0.029228203, 0.41968468, -0.76586777, 0.5597216, 0.14872718, 0.33507493, -0.35050297, 0.5497823, -0.1303616, 0.04310544, 0.07620355, 0.21724181, -0.19481225, 0.17805643, 0.02024443, -0.22701566, -0.13447349, -0.20749706, 1.2011415, -0.24998812, 0.45880672, 0.03176178, -0.19427961, -0.47887003, 0.8200927, 0.34837303, 0.3799491, 0.53716815]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>치즈의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 TPA test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[-0.35402122, -0.03883153, -0.031355582, -0.54318255, -0.43408918, 0.06070484, 0.21520883, -0.17603342, -0.10128483, -0.16907294, -0.5031175, -0.21234964, 0.31697395, 0.5095598, 0.2552484, 0.4132694, 0.30841073, 0.38397756, 0.14282118, 0.012650664, 0.047713637, -0.5014004, -0.06353015, 0.024202762, -0.14101198, -0.33659768, -0.18692927, 0.363266, -0.1935706, -0.6259307, 0.92234015, -0.10267544, 0.22184874, 0.3256294, -0.27084854, -0.35674345, -0.7495671, -0.0008881862, -0.2974874, -0.52323884, -0.054026023, -0.20218724, -0.24957918, 0.37964585, -0.3903445, 0.28955483, 0.0040157787, 0.10071293, 0.07594442, -0.39092156, -0.14239138, 0.12814529, 0.23898484, 0.15660603, -0.10984302, -0.39480838, 0.09217622, 0.7481866, 0.123111166, -0.3663943, 0.46566272, -0.2134435, -0.75513464, -0.57507044, -0.20355223, -0.90456367, -0.19229375, 0.112157576, -0.2692044, -0.68091303, -0.40550712, 0.7519159, 0.21304257, -0.3858135, 0.29046962, 0.007367619, -0.1131757, -0.33299974, 0.9865933, 0.56705546, 0.25249946, 0.09114582, -0.31890854, -0.86281556, 0.16725244, -0.8442891, 0.37606168, -0.34789717, -0.19041567, 0.51462895, -0.17768854, -0.77840656, -0.1929555, -0.017081732, -0.982629, -0.43033668, 0.35760808, 0.33310476, 0.3705736, -0.08254766, -0.18504669, -0.09845991, -0.56245106, 0.6584031, 0.11225146, -0.04647858, -0.5706608, 0.489651, 1.2792455, 0.22653203, 0.059987176, 0.19027497, 0.2479012, -0.35426295, -0.11955515, 0.580453, -0.11929989, -0.11900526, 0.49276766, 0.08830056, -0.06929468, -0.3042031, -0.3811421, 0.19556265, 0.59599334, -0.16432205, -0.042276647, 0.2089446, 0.5069911, -0.18989839, 0.11906797, 0.5251563, 0.289104, 0.43158963, -0.37187612, -0.35611853, 0.37503192, 0.3534408, 0.5990122, 0.8113436, -0.28890446, 0.123337686, -0.289394, 0.009399976, -1.2617093, -0.20230936, 0.702832, -0.021201327, 0.32854396, -0.33461782, -0.57963943, 0.102445535, -0.14966363, 0.0018766435, 0.46183553, 0.36488998, 0.3110831, -0.6153623, 0.49936447, -0.13495962, 0.4863297, 1.0368897, -0.20591752, 0.24201535, 0.064479485, -0.44888178, 0.3805003, -0.14045627, -0.19223309, -0.80763906, 0.0018181279, -0.21267404, 0.5792503, -0.18179734, 0.14939354, -0.61573386, -0.44888535, 0.30272222, -0.48320746, -0.41898003, 0.23004745, 0.18006468, 0.16175555, -0.02315419, 0.20510824, 0.547482, -0.2215625, -0.09788918, -0.9258695, -0.7910815, 0.4627429, -0.1302573, 0.031964436, -0.28211412, 0.41449225, -0.0067893527, -0.25949618, 0.2970214, -0.6761262, 0.026126312, -0.38523045, 0.43610498, -0.09479501, 0.7496632, 0.5150883, 0.0700616, -0.022121498, -0.05454028, 0.028480085, -0.34454823, -0.1838062, -0.03344656, -0.15853189, 0.08221021, -0.09174272, -1.5373727, -0.34135768, -0.33214423, -0.05659579, -0.40626445, 0.03594024, -0.27092013, 0.16267087, -0.30403778, -0.45813975, 0.019035714, 0.6307073, 0.27268276, 0.18273662, 0.29992682, -0.46203187, -0.42436537, -0.43089387, 0.21752644, 0.20488356, -0.44961753, 0.54547554, 0.696923, -0.68102616, 0.19547783, -0.16953361, 0.10873381, -0.97547394, -0.18710132, -0.08396724, 0.08852395, 0.11506635, -0.10928138, -0.31802195, -0.14214814, 0.6341828, 0.47129968, -0.1120222, 0.18722115, -0.28970793, 0.45301935, 0.059203018, 0.85085493, -0.163388, -0.15434143, 0.298087, 0.08689877, -0.13317311, -0.19825739, -0.30510893, -0.1402987, 0.72517616, -1.1206108, -0.43800458, -0.6455999, 0.21419539, -0.07091043, 0.5591039, -0.04040402, -0.57522833, 0.45711815, -0.5958882, 0.0069485554, -0.30612776, -0.67423457, -0.15995382, -0.09962269, 0.20839657, 0.36272743, 0.8902228, -0.6788478, 0.32041368, -0.48581675, -0.292364, 0.07951424, -0.45939943, -0.06476369, 0.24917425, -0.19160064, 0.42179072, -0.14616524, -1.0546237, -0.41454974, 0.6464837, 1.2852739, -0.41916916, 0.5228601, 0.15003508, 0.5037306, -0.089686334, 0.89450055, -0.19254969, -0.41226354, -0.31891498, 0.65050036, -0.50582194, 0.5058837, -0.034114182, 0.04360727, -0.40260574, -0.70805234, -0.5552326, -0.08506567, -0.5586927, 0.59980184, -0.41194698, 0.18673861, 0.2542268, -0.29941282, 0.44644246, 0.28611687, -0.19421582, 0.24670905, -0.6762535, -0.12382992, -0.81712294, 0.007255836, 0.3149497, 0.28155217, -0.21092926, -0.20355554, 0.50877935, -0.57318646, -0.090990365, 0.06802594, 0.23635767, -0.31378135, -0.5718427, 0.3514098, -0.94202334, 0.7839842, -0.51878744, -0.54680294, -0.17660795, -0.4178133, -0.2496417, -0.07507105, -0.2701966, -0.42264912, 0.04688236, -0.15923588, -0.25603083, 0.17800562, 0.41037998, -0.2727913, 0.35801217, -0.33181372, 0.27190578, 0.30971518, -0.19870181, -0.017841712, -0.769447, 0.32457706, -0.1138533, -0.31090176, 0.107952826, -0.21173356, -0.6124504, -0.29299393, 0.09600554, 0.50623757, 0.07122864, -0.06526951, 0.078088395, -0.24831796, 0.3344107, 0.48366913, 0.19671422, -1.3130817, 0.26022634, 0.038747523, -0.14466351, -0.13852347, -0.44541755, 0.3430201, 0.4347376, -0.3236047, -0.5106356, 0.22989994, -0.5973728, -0.33221763, 0.20489769, -0.31059998, 0.037595723, 0.49943244, -0.04253809, 0.24943256, -0.08915668, 0.20834921, 0.5948129, -0.04200642, 0.16747318, 0.43216893, -0.032340392, -0.20534164, -0.029927656, -0.09033525, -0.018247962, -0.30176952, -0.20195417, -0.08098078, -1.2934538, -0.011095847, -0.4604315, -0.27973488, -0.3687791, -0.47088942, 0.68682814, -0.23272206, 0.12230607, 0.09969369, 0.5553232, -0.025457874, 0.5411232, 0.48315418, 0.2243616, -0.4185928, 0.024555853, -0.21069099, 0.5865862, -0.4627657, 0.6466444, 0.25720876, -0.33152893, 0.5031007, 0.6236471, -0.6030791, -0.41619575, -0.33984435, 0.18729778, -0.21053815, 1.1267058, 0.058714047, -0.45428625, -0.5648196, -0.12955615, -0.5488784, -1.2062037, 0.5411871, 0.15517527, 0.47243702, 0.37979567, -0.3127176, -0.63030475, -0.14157587, -0.49195477, 0.025539236, 0.51379174, -0.6443803, 0.08456866, 0.77812487, -0.1761081, -0.19249177, 0.611267, 0.2597424, -0.13489586, 0.16492744, 0.5060518, -0.5650583, -0.27387208, -0.5362511, 0.14103185, 0.3289773, -0.8157146, 0.14032635, -0.93925375, 0.1016421, 0.23613195, 0.077423654, 0.60356456, 0.43717265, -0.008336394, 0.042679504, 0.42187855, 0.9474706, 0.30394205, 0.1644097, -0.14162476, -0.061127707, 0.28053662, -0.020409962, 0.29086015, 0.35679904, 0.10390935, 0.012329742, -0.23886883, 0.05015989, 0.0243185, 0.20587169, 0.004261034, -0.5322853, -0.4432553, -0.051197547, -0.42659065, -0.4222518, -0.1903693, -0.4306365, 0.44605753, 0.20767713, -0.077277035, 0.59437084, 0.9450385, -0.17514902, 0.14699039, 0.5692237, -0.24782781, 0.15916345, -0.33681598, 0.3977792, -0.0066747027, 0.22303103, -0.3085946, 0.05365983, 0.35924944, 0.04113694, -0.13689904, 0.4150742, -0.28098938, 0.58655316, -0.08256241, -0.20004575, -0.1305816, 0.26572374, 0.85714793, 0.6323143, 0.1308796, -0.04005964, 0.6089056, -0.19393267, 0.45444727, -0.17886966, 0.6727645, 0.041327205, -0.992275, -0.16338314, -0.42299905, -0.7610517, 0.12163957, -0.5572395, -0.5238903, 0.05095886, -0.13669926, -0.5387526, -0.49423072, -0.6091686, -0.3241372, 0.20876996, 0.2004969, 0.45356718, -0.26474833, 0.14295374, 0.12159884, 0.019556155, 0.2551475, -0.33168387, -0.003801619, 0.20467912, -0.68379503, 0.13080527, -0.42411086, -0.5454454, -0.22513466, -0.82648987, -0.11585307, 0.07156112, -0.42197445, -0.21350823, 0.1994341, -0.054247383, 0.79246646, 0.6778032, -0.36887363, -0.015008886, -0.022922367, 0.47878727, -0.03127343, -0.47709832, 0.20367195, 0.5440431, -0.5731221, -0.2902219, -0.6389336, -0.18843399, -0.39788282, -0.15798563, 0.043873545, 0.58485293, -0.20847024, -0.045407232, 0.045725167, -0.42542383, 0.064331524, -0.23507607, -0.30969247, -0.31760553, -0.31181124, 0.12690204, 0.28974932, -0.21388924, 0.029695934, -0.14293987, 0.08270887, 0.06253647, 0.17131744, -0.24127783, -0.34868133, -0.45089006, -0.5434761, -0.4504228, -0.30681232, 0.6114498, -0.64963967, 0.026879722, -0.10765081, -0.055690903, 1.1002922, 0.1011988, 0.020324536, 0.2407284, -0.70869356, -0.28650698, 0.24087597, 0.2869514, -0.1609729, -0.6518922, -0.27668527, -0.094518684, 0.33480403, -0.28424296, 0.031932842, 0.7699886, -0.68986917, 0.24901102, 0.2414882, -0.42426136, 0.023626551, -0.6595853, -0.17403983, -0.30147794, 0.18708695, 0.012473087, -0.2198878, 0.08351817, -0.23488106, 0.21320575, -0.2902145, 0.2772747, 0.20705819, -0.25413772, -0.5712264, -1.0099396, -0.54998404, -0.27101365, -0.36893377, 0.3995646, 0.34472415, -0.30610248, 0.22409135, -0.34241733, -0.060710024, 0.046998817, 0.077481575, 0.09731078, -0.20299633, -0.6033798, -0.5140536, 0.90687615, 0.40116504, 0.31197026, -0.2445703, 0.4914728, -0.4085677, 0.46660686, 0.21624477, 0.81841844, -0.12743202, 0.24597453, 0.21533221, 0.03145458, 0.4834479, 0.14877188, -0.43192744, 0.054877907, -1.0282747, 0.57395196, 0.080368705, 0.76182693, 0.012411557, 0.19167715, 0.08690042, -0.2657965, 0.5200389, -0.33655393, -0.96687484, -0.18581718, -0.013670144, -0.5271179, -0.15891168, -0.33243355, 0.08890214, -0.49830034, -0.43872443, 0.008345109, -0.59421176, -0.47106013, 0.36380526, 0.20206904, -0.34384224, 0.1713733, -0.46166506, 0.14420591, -0.004687646, 0.2299196, 0.49768257, 0.49560043, 0.0041242554, -0.6112747, -0.19421504, 0.3545291, 0.12931053, -0.1953506, -0.4737915, -0.5134303, -0.54208964, 0.0622587, -0.59522367, 0.09008232, -0.5659936, 0.32823336, -0.08490194, 0.29764175, 0.00348222, 0.6726873, 0.34911892, -0.024812467, 0.32489482, 0.42754874, 0.23131871, -0.077001244, 0.36082044, 0.029202232, -0.21346484, -0.3100526, 1.0582082, -0.123088144, -0.10714731, 0.28392783, -0.07392108, -0.57356083, 0.9101065, 0.27672648, 0.109712034, -0.05429836]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>마요네즈의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, rheometer나 viscometer를 사용한 점도 측정을 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[-0.18698153, -0.56047505, 0.40740496, -0.39319497, 0.063686244, -0.113044925, -0.23151852, 0.011360162, -0.29883102, -0.19134554, -0.10163219, 0.36272272, 0.40744215, -0.39166227, -0.021246301, -0.23493052, 0.73203254, 0.45036653, 0.3897421, 0.26575157, 0.14774522, -0.33246198, -0.15115747, -0.13025503, 0.24543047, -0.1553769, 0.08355678, -0.10394974, -0.58942914, -1.2505429, 1.4339848, 0.5875684, 0.039113894, -0.011871423, -0.30903977, 0.122400485, 0.2734583, -0.18213746, 0.24932311, -0.36368793, -0.7808088, -0.4805, -0.19505075, 0.5508633, -0.079697855, -0.32941973, -0.077208094, 0.03246387, 0.41050142, -0.073560864, -0.4355635, 0.2319341, 0.26886463, 0.123057954, -0.21200575, -0.3244608, 0.048297487, 0.6400742, 0.1807619, -0.66378033, 0.04413953, -0.68135065, -0.6035155, -0.42985985, 0.1016256, -0.2913491, 0.030781271, -0.06114363, 0.07073119, -0.25811142, 0.002286175, 0.11357091, -0.005060691, -0.4724763, 0.30474508, -0.21351807, 0.08787413, -0.1669166, 0.30065283, 0.6937154, 0.37964562, 0.011177904, -0.08287406, -0.6157112, 0.24532422, -0.5368133, -0.44869912, -0.94111353, -0.5170063, 0.37963673, -0.0531085, -0.029827425, -0.13857402, 0.31315866, -0.67771155, -0.6174504, 0.091106735, 0.6561495, 0.18708968, 0.014266532, -0.5220632, -0.30861965, -0.29983237, 0.81401145, -0.059040625, -0.30478084, -0.19808222, 0.118773036, 0.6250347, 0.5258055, 0.12292, -0.3062215, 0.02728209, 0.1597855, 0.4410113, 0.44154727, -0.34142363, 0.5969414, 0.2581063, -0.2346925, -0.111194625, -0.29524893, -0.21086644, 0.3579782, 0.07282379, -0.6487878, 0.72484344, 0.23903492, 0.32707483, -0.43407124, 0.5908963, 0.65796214, 0.23461121, -0.036916796, -0.4459391, -0.33655134, 0.30159727, -0.10135838, 0.60498595, 0.7600121, -0.84644425, 0.24204694, -0.11004483, 0.035625055, -0.4579388, -0.6177528, 0.37350562, -0.21857992, -0.13171168, -0.34487155, -0.45090964, 0.39624563, -0.432607, -0.021162348, -0.35499617, 0.013340631, 0.3575703, -0.2992493, -0.117626205, -0.26089007, 0.95682234, -0.58018833, -0.24424797, -0.24131304, 0.613309, -0.09169995, -0.05140827, 0.0653951, -0.070133165, 0.32273072, -0.38559088, -0.012322183, 0.24025737, 0.17068529, 0.53199047, -0.14358415, -0.3791812, -0.06520198, -0.19359073, -0.73333895, 0.30555436, 0.15576784, -0.31950954, 0.05714293, 0.3829351, 0.11286025, 0.0116222, -0.363076, -0.9886628, -0.37341064, 0.67794347, -0.57172513, -0.2251586, -0.16285285, 0.4738831, 0.7140923, -0.6319696, 0.025882902, -0.31960326, 0.16156895, 0.03401998, 0.6370896, -0.5577988, 0.83985484, 0.121579595, 0.31469902, 0.40166238, 0.16309997, 0.5356419, -0.636799, -0.39914796, 0.26818532, -0.21778162, 0.09139126, -0.7470963, -0.88641864, -0.22640242, -0.30766937, 0.07187669, -0.1797863, -0.08020914, -0.014948128, 0.07467632, -0.54966825, -0.15803123, -0.47026968, 0.3533979, -0.25017518, 0.3775457, -0.07521392, -0.07860399, 0.17919868, -0.86453205, 0.027747791, 0.343126, -0.48721772, 0.6573831, 0.43393877, -0.8460354, -0.2944671, -0.04190274, -0.6455195, -0.45724857, -0.22970194, -0.062217318, 0.17716016, 0.61585146, -0.051102445, -0.27507252, -0.20351979, 0.08897841, 0.03827601, 0.116599135, -0.36615562, 0.2047076, 0.22692686, 0.29344538, 0.24321853, -0.11425908, 0.4031966, 0.104383044, 0.19075061, -0.63367647, -0.07228282, -0.18555474, 0.19689701, 0.97816765, -0.9963684, -0.092935696, -0.17529295, 0.48776075, -0.33734804, 0.6891288, 0.12055576, -0.5036679, 0.6055044, -0.31624305, 0.5204702, 0.11836076, -0.104107924, -0.017295234, -0.102700524, 0.4541556, 0.34789175, 0.63464576, -0.6995097, 0.22733372, 0.024883555, -0.36394262, -0.026436068, -0.11836329, 0.038515713, 0.06950841, -0.5189221, 0.56158555, 0.09584748, -0.5630292, -0.49729395, 0.06423752, 0.69835114, -0.10137905, 0.4228395, 0.8162775, 0.43113577, -0.46868074, 0.72710234, -0.23163296, -0.38071644, -0.55570763, 0.7375157, -0.018220704, 1.0895541, 0.35953033, 0.26243722, -0.28788427, -0.73552394, -0.6427139, -0.1556405, -0.16517442, 0.10749107, -0.21177553, 0.10592096, 0.47345334, 0.028338913, 0.40804115, 1.006398, 0.13182355, 0.17142007, -0.41620725, -0.38042796, -1.0773503, 0.09128093, -0.057381593, 0.25750253, -0.1256831, -0.619558, 0.13409886, -0.6502416, 0.16599178, 0.073223, -0.14607213, -0.11920738, -0.01300954, -0.2735568, -0.15917842, 0.5397746, -0.34027794, -0.7264618, 0.054031968, -0.57993007, -0.50956035, -0.2408552, 0.06600179, -0.44456556, 0.27435598, -0.38423845, -0.15196325, 0.45864856, 0.002507634, 0.28408337, 0.1404961, -0.36012378, 0.21237408, 0.30421498, 0.14761215, -0.32377025, -1.0018878, -0.13006006, 0.6033967, -0.14403075, 0.121760294, -0.40062553, -0.451214, -1.0054693, -0.30308944, 0.33100155, 0.010872914, -0.7330502, 0.39308473, 0.11694252, 0.23557593, 0.3270925, -0.34363493, -1.0066867, 1.1713202, 0.051581737, 0.10733005, -0.47895372, -0.10978071, 0.17350365, 0.6690997, -0.31469646, -0.30963728, -0.057047788, -0.35302192, 0.12817068, 0.21895196, -0.2656806, 0.28884095, 0.15976046, -0.121848226, 0.49641216, -0.0989825, -0.30862746, 0.67427605, 0.1112653, -0.24536194, -0.23182267, -0.73796403, -0.18211982, -0.05605797, -0.305165, -0.25321257, -0.19455561, -0.09603409, -0.5578371, -0.8818775, 0.14244333, -0.19967587, -0.46174085, -0.51062113, -0.5493435, 0.5284802, -0.51054573, 0.11563159, 0.31117678, 0.21076223, -0.10274471, 0.13855556, 0.15296912, 0.56938136, -0.6762867, 0.2158052, -0.17740971, -0.19388534, -0.19556254, 0.18249224, 0.1341309, 0.06518233, 0.16837081, 0.24557301, -0.6175048, -0.29748267, 0.17900784, 0.105061926, 0.16268173, 0.25224406, 0.18327095, -0.9780807, -0.84896624, -0.092393145, -0.22528103, -0.31554285, 0.077333085, 0.32138062, 0.7315868, 0.1965436, 0.559499, -0.34534842, -0.10505069, -0.2532904, -0.051155187, 0.40418276, -0.5923973, 0.09920927, 0.91993433, 0.20901786, 0.12296891, 0.38278386, 0.3701769, -0.15044156, -0.26137695, 0.4081292, -0.4572837, -0.2913857, -0.12215359, -0.23362646, 0.54200035, -0.7864355, -0.00074606907, -0.45897543, -0.3809741, -0.37929863, 1.0027423, 0.51907754, 0.23222414, 0.26347193, -0.04240485, 0.17365901, 0.31220198, -0.046849806, 0.28147957, -0.04075361, -0.02844568, 0.5763222, 0.064170845, -0.087537184, 0.23017262, -0.15639351, 0.022526897, -0.050585918, 0.02281492, -0.3851454, 0.57820785, -0.5755462, -0.20681381, -0.0053616324, -0.07732593, -0.01483138, -0.48258108, -0.33324116, -0.88672245, 0.36154476, -0.45514038, -0.08252918, 0.7236966, 0.6698154, -0.2818668, 0.020060152, 0.32805756, -0.077962086, -0.22024848, 0.22145091, -0.15341796, 0.45011142, -0.12803566, -0.6636943, -0.20540208, 0.6087687, 0.7019775, 0.064267084, -0.15027905, -0.07719132, -0.0018327305, -0.040751796, -0.091597944, -0.031709064, -0.010905526, 0.6379365, 1.0565993, 0.39575237, 0.07356572, -0.2675772, 0.33689767, -0.40611255, 0.29592407, 0.5759579, -0.42129046, -0.73619336, -0.23959592, -0.56682545, -0.42124623, 0.106882654, -0.6009276, -0.2699018, -0.14271373, 0.3763972, -0.07889733, -1.1180762, -0.31319004, 0.2720121, 0.015439795, -0.4763192, 0.3961383, -0.89465296, 0.57236564, -0.55838436, 0.13218696, 0.26459968, 0.015341027, -0.013603036, 0.70049965, -0.18456946, 0.43642738, -0.22829925, -0.6143331, -0.888107, -0.6826352, -0.029890887, 0.033527963, -0.4923493, -0.43406296, 0.25550538, -0.69392383, 1.0756466, 0.3927973, 0.2933112, -0.1741958, -0.37008578, -0.61829185, 0.09542787, -0.29748365, 0.106028646, 0.4115996, -0.12668683, -0.25669616, -0.76630205, -0.5075788, -0.7177785, -0.02747443, -0.30793664, 0.73159057, -0.25649315, -0.16187146, -0.4271815, -0.66547334, 0.01552198, 0.18574375, -0.2911797, 0.031810164, 0.0050013294, 0.46393126, 0.4733341, -0.23250972, -0.3022485, -0.35317218, -0.13005625, -0.36021212, -0.18255843, -0.18678953, -0.24096768, 0.05678194, -0.5211982, -0.3660517, -0.5119653, 0.34788942, 0.10898571, 0.037844434, 0.14520834, -0.03904018, 1.1187072, -0.18049607, 0.19530775, -0.119745605, -0.60570663, 0.0861233, 0.16699518, 0.71601063, -0.6658808, -1.2382079, -0.060047485, -0.302832, 0.36265844, -0.1688088, -0.76762766, 0.06489648, -0.7428888, 0.41992238, 0.17897953, 0.038612727, -0.074861296, 0.34996095, 0.21795535, -0.5581936, 0.086604126, 0.16808708, -0.2826588, 0.3928601, 0.040800866, 0.109355725, -0.09705241, 0.26032355, 0.21412079, -0.016231064, -0.28240722, -1.2106954, -0.6647044, -0.6084009, -0.644351, 0.25982535, 0.4578933, 0.18384464, -0.06782852, 0.19560196, -0.18694136, 0.15048818, 0.30954707, -0.11880353, 0.08913264, -0.4505024, -0.19989347, 1.0900319, 0.4677709, 0.14391163, -0.38307863, 1.5411283, -0.16765818, 0.5610047, 0.47939125, 0.21785127, -0.3195446, 0.102401055, 0.36141685, 0.33457166, 0.3585386, 0.544451, -0.27480966, -0.020555113, -0.4048859, 0.27145517, 0.30188036, 0.19247247, 0.28548455, 0.17654729, -0.23208264, 0.18705909, 0.039031353, -0.15626645, -0.42180875, -0.24678397, 0.09277406, -0.3689508, 0.1258735, -0.40958735, -0.090766534, -0.701909, -0.2192609, -0.12384876, -0.4840173, -0.28148186, 0.5810522, 0.64277625, -0.090893954, -0.35364258, -0.057472154, 0.15703443, 0.3328253, -0.53352505, 0.2903311, -0.41951793, -0.52066267, -0.2593692, -0.23621853, 0.07880219, 0.62497646, -0.11101547, -0.6557469, -0.26235735, -0.05756887, -0.2544152, -0.01821764, 0.2546887, -0.8579353, 0.40375856, -0.73500323, -0.12316581, -0.38649702, 0.41169855, -0.04255276, 0.017563922, 0.097686455, 0.55340874, 0.25349677, 0.010342078, 0.1854373, -0.48660666, -0.13721682, -0.2611768, 1.0531452, -0.22676262, 0.18301953, 0.30522206, 0.45059523, -0.89082974, 0.51036215, 0.44560453, 0.7233212, -0.048919156]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>케찹의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, rheometer나 viscometer를 사용한 점도 측정을 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[-0.82095504, -0.8508907, 0.0110069355, -1.0867633, -0.19946948, -0.27072644, -0.047947668, -0.3173623, 0.19335692, -0.00025312946, -0.17779964, 0.06238246, 0.89083827, 0.31519443, 0.2520119, -0.065998875, 0.27113006, -0.07140033, -0.30304754, -0.45750397, 0.14968172, -0.22906658, 0.08679444, -0.11361753, 0.18998455, -0.48597893, -0.551712, -0.0152018415, 0.10466517, -0.37379712, 1.0957688, 0.13809024, -0.050220747, 0.6539268, -0.16952594, 0.71819997, -0.29463342, 0.06599445, -0.022090707, -0.16894518, -0.73518056, -0.23371536, -0.41601446, 0.30845588, 0.030065427, 0.16347164, 0.39640477, 0.31993783, -0.7517493, 0.3629479, -0.5911561, -0.019740714, 0.6718372, 0.49833578, -0.08691618, -0.4065519, 0.00648579, 0.5419727, 0.60359275, 0.012900783, -0.4404278, -0.102687925, -0.56074184, 0.12055615, 0.11086026, -0.53139126, -0.35712093, 0.37636846, -0.07838916, -0.2020048, -0.035862073, -0.035120055, 0.19397728, -0.23755653, -0.2851528, -0.32301953, -0.11357081, -0.017504605, -0.22761583, 0.18220462, 0.6462053, 0.19409767, -0.025758702, -0.4372029, 0.09312305, -1.2742918, -0.15960377, -0.16397402, -0.32723317, 0.7987956, -0.070072494, 0.041018322, -0.6892289, 0.67889524, -0.633621, -0.47878852, -0.2849072, 0.1364132, 0.1959586, 0.12452602, -0.55655265, -0.65625846, -0.27560946, 1.119993, 0.43914258, 0.23404898, -0.3839877, 0.58293, 0.7318986, 0.06947533, 0.6052244, -0.42802873, 0.111428395, -0.25589487, 0.029350596, 0.95536804, 0.2684893, 0.20280854, -0.020059295, -0.021369876, -0.15659854, 0.2985916, -0.1052994, 0.16488197, 0.18616949, -0.3487279, 0.6081765, 0.049322166, 0.28074056, -0.26097214, 0.15706095, 0.2422485, 0.23950447, 0.19256936, -0.43441534, -0.20042282, 0.44242316, 0.20962928, 0.78089845, 0.4777052, -0.19409902, -0.24602175, 0.37425724, 0.21951295, -0.4046157, 0.04590589, 0.15356717, -0.32666314, -0.20894784, -0.43642086, 0.006249473, 0.014675619, -0.17600577, 0.038455974, -0.06381655, -0.02612685, 0.088258296, -0.4593529, -0.2215197, -0.14805983, 0.5998796, 0.03511444, -0.045648005, 0.023932867, 0.5543509, -0.31194237, 0.5716068, -0.013080143, -0.0985557, -0.21548226, -0.37785834, 0.23038623, 0.2774007, -0.14333609, 0.3484132, 0.19421181, -0.21601883, 0.24687222, -0.08355065, -0.24711615, 0.6010494, 0.8250039, 0.9694391, -0.112858824, -0.20805277, 0.35470873, 0.022303494, -0.12013889, -0.53606474, 0.019769175, -0.14098643, -0.33519492, -0.45606267, -0.40909067, 0.07536938, 0.2773338, -0.32918704, -0.046563897, -0.38389775, 0.31648448, -0.2791308, 0.2765221, -0.44432226, 0.1942281, 0.41883498, -0.0154564325, -0.0265616, -0.1231144, 0.61622703, -0.48681274, -0.5799287, 0.6567226, -0.047610357, 0.47996765, -0.5618249, -1.3195858, -0.614246, -0.32690382, 0.2387521, -0.098772675, -0.15670896, -0.7443829, 0.5997415, -0.2959075, -0.04476585, 0.08640477, 0.22102377, 0.1497964, 0.19567384, 0.13535662, -0.119899526, 0.17014402, -0.3387446, -0.4359485, 0.3568492, -0.34513488, 0.58957016, 0.30430004, -0.37014577, -0.45600984, -0.027689388, 0.31118375, -0.8499079, -0.018441657, 0.12863274, 0.10199877, -0.38138434, 0.0024591363, 0.16779274, -1.0324886, 0.045710787, 0.28436488, -0.14296573, 0.08240731, 0.41554987, -0.13963069, 0.2650208, 0.5921367, -0.26103032, 0.547336, 0.48617095, -0.18245888, -0.3589194, -0.0011018274, 0.64833075, -0.15533787, 0.6520819, -0.8397172, 0.06472724, -0.65303963, 0.39497826, 0.00166881, 0.35837322, -0.39056093, -0.618864, 0.36080012, -0.4114448, 0.4120223, -0.31803042, 0.20258982, -0.04286095, 0.035296474, 0.35803744, 0.5594153, 0.36260802, -0.43468696, -0.31122625, -0.70831907, -0.18052503, 0.5056157, -0.68112874, -0.034663394, 0.14720383, -1.0076666, 0.20591857, -0.15807833, -0.9282018, 0.30035907, 0.11370872, 1.2020891, 0.14708987, 0.112370014, 0.59975034, 0.4647391, -0.17570384, 0.25879893, -0.50562567, -0.21974127, -0.23223448, 0.67723244, -0.094864376, 1.0751133, 0.55545384, -0.08946583, -0.22986647, -0.9401985, 0.7119197, 0.16674352, -0.1959607, -0.13030437, -0.19974774, 0.50101495, 0.1614056, -0.1286005, 0.6480056, 1.1045835, 0.30141023, -0.1642889, -0.6548094, 0.0059379637, -1.1177406, -0.35813242, 0.3153232, -0.0016652644, -0.15576282, -0.9566979, 0.26869062, -0.6190714, 0.17868522, 0.0377354, 0.21287353, -0.07662447, -0.29171893, -0.09290798, -0.19947504, 0.77412486, -0.1838994, -0.38935927, -0.13087425, -0.5627943, -0.5745792, 0.24520673, -0.08345131, 0.042047076, 0.2550867, -0.099449754, 0.12882853, 0.7800636, 0.1055105, 0.43771586, 0.6022435, -0.2536134, 0.33735132, 0.21117283, -0.150922, -0.47512308, -0.25511646, 0.122318044, -0.076676354, -0.31551272, -0.15051757, -0.2610857, 0.021116419, -0.34546205, -0.3127435, 0.14404006, 0.20205402, 0.09726841, -0.07651694, -0.079129584, -0.043711536, 0.17254144, -0.5667086, -1.011019, 0.47762764, -0.656303, 0.1156311, -0.19585186, 0.37035286, 0.18216063, 0.5617022, 0.3390953, 0.031249408, -0.13325118, -0.48494932, -0.2957811, -0.502441, -0.49822375, 0.01578078, 0.17312822, -0.29128286, 0.5525903, -0.11154221, -0.095353685, 0.21328467, 0.049469534, 0.62453675, -0.1923171, -0.41894928, -0.6924125, -0.17396325, -0.35154274, -0.024115385, -0.98623115, -0.5444916, -0.2535745, -0.7218703, 0.4599252, -0.12827322, -0.25127992, -0.45145482, -0.36915225, 0.34259903, -0.3414671, 0.30956185, 0.6290519, 0.32154983, -0.5296116, 0.25766653, -0.08030121, 0.6738247, -0.6128832, 0.05957363, -0.3635515, -0.5926192, -0.6649943, -0.1878298, -0.04487775, -0.23855904, 0.47170442, 0.6465262, -0.6790974, -0.23909715, 0.59127, -0.13841078, 0.11387236, 0.17243108, -0.021117765, -0.8538228, -0.79131573, -0.41745296, -0.35371575, -0.95147777, -0.121720985, -0.37863606, 0.45192876, 0.32101777, -0.19317152, -0.20302264, 0.07427537, 0.26493847, 0.22660701, 0.24276675, -0.5934539, 0.07177077, 1.0749922, -0.11969541, 0.55735135, 0.373315, -0.09539939, -0.030557683, 0.24227563, 0.7219725, -0.6222436, -0.26441422, -0.3614543, 0.09472023, 0.10838822, -0.83826035, -0.41184694, -0.015443508, -0.4774174, 0.64795685, 0.3183535, 0.62279403, -0.06592166, -0.10268997, -0.465569, 0.21743537, 0.51206994, 0.34437132, 0.15151985, -0.17675024, -0.56131065, 0.11704096, -1.0663301, -0.4791797, 0.6938317, -0.2393695, -0.018751038, -0.1179242, 0.20552646, -0.4407223, -0.08355319, -0.7874771, -0.41866842, 0.1224297, -0.058001515, -0.36699688, -0.32489613, -0.26718786, -0.63870645, 0.47458503, 0.038743693, -0.35014746, 0.82165813, 0.31685078, -0.38081568, 0.47056037, 0.68027484, -0.2725425, -0.1259657, -0.10711631, -0.17412235, 0.0138008185, -0.39030397, -0.21960244, 0.28894842, 0.21804541, -0.23787658, 0.1256677, 0.023606278, -0.015052903, 0.30508208, -0.015684789, -0.2178451, -0.03601807, 0.0002663514, 0.5387873, 0.20634963, 0.32236817, -0.37311724, -0.06228373, 0.24426506, -0.037320055, 0.1274118, 0.38581318, -0.25394663, -0.25505087, -0.5087767, -0.31041753, -0.3852111, 0.37935445, -0.65191674, -0.15885732, -0.20699252, 0.08862492, -0.44759494, -0.78823566, -0.2712127, -0.034439646, 0.3958568, -0.15728194, 0.6223503, -0.7533523, 0.18706305, -0.0752887, -0.16171291, 0.10012089, 0.46929553, 0.65033424, 0.48256943, -0.56989706, 0.3415667, 0.009259497, -1.2599391, -0.9668894, -0.703041, -0.08140002, 0.34399945, -0.2786301, 0.15467292, 0.10730055, -0.06393152, 0.9329907, 0.057208475, -0.21865068, -0.047497332, -0.27568492, -0.42483515, 0.07855547, -0.49054465, 0.11775802, 0.2602753, -0.28112218, 0.20779909, -0.51186454, -0.9050255, -0.2778702, -0.049946215, -0.7235473, 0.33995026, -0.16667508, -0.08227111, 0.12827998, -0.24598917, 0.634098, -0.58448464, -0.78490055, -0.17878611, -0.048305776, 0.4413333, 0.24840671, -0.053421196, 0.022636913, -0.27867284, 0.27018365, -0.3228825, 0.20442976, -0.1306884, -0.122457474, 0.014521811, -0.36570126, -0.47796586, -0.09357749, -0.094870925, -0.36911774, -0.3293802, -0.14554866, -0.047011893, 0.62542695, 0.20358919, -0.14699446, 0.40601966, -0.5349612, 0.107303575, 0.03550027, 0.19463454, -0.091246895, -0.8839019, -0.46178225, 0.20788242, 0.41289383, 0.21967529, -0.69810176, 0.13753496, -1.4841639, 0.69910336, 0.12002954, -0.14489561, 0.033483114, -0.16593091, 0.60316956, -0.100037985, 0.7200687, 0.081065215, -0.0010384184, 0.2546548, -0.2913813, 0.30804422, -0.053213578, -0.11155697, -0.004312153, 0.256449, -0.46205953, -0.509213, -0.58463323, -0.20133312, -0.21267591, 0.6662591, 0.46279776, 0.119925894, -0.13091677, -0.030208357, -0.21008131, 0.15229462, 0.11916569, 0.41206503, 0.32406858, -0.38951606, -0.43508556, 0.90642637, 0.36948872, 0.5388938, -0.12727249, 1.3649644, 0.080955416, 0.28688568, 0.083016, 0.08121545, -0.46407115, -0.21257077, 0.46208388, 0.11873194, 1.0966357, 0.5594713, -0.45445716, -0.65025795, -0.4715961, -0.088346, -0.4814558, 0.4923062, -0.3043039, 0.38930315, -0.37976313, -0.30620563, -0.071317405, -0.021850096, -0.4927294, -0.40828902, 0.41636783, -0.19118753, -0.30794412, -0.135298, 0.021985712, -0.43320006, -0.27266037, -0.034953553, -0.519929, -0.57797647, 0.23365122, 0.2484084, -0.6212549, -0.43452713, -0.25006703, 0.08861629, 0.40692312, -0.28068534, 0.3080611, -0.0365258, -0.1824701, 0.1297685, -0.87934905, -0.02897052, 0.4079135, -0.10287653, -0.68443966, -0.394453, -0.30139625, -0.31938693, 0.004748397, 0.55931574, -0.69875634, 0.4072563, 0.10972687, 0.18480581, -0.09359279, 0.3528614, -0.33847654, 0.111429535, -0.13443367, 0.116855934, 0.20391127, -0.07916774, -0.21441229, 0.045875326, -0.10484975, -0.45096862, 1.2445171, -0.12782095, -0.13440251, 0.5144075, -0.012056598, -0.5541144, 0.42294356, 0.7054973, 0.52202266, 0.28131118]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>떡의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 TPA test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[-0.14096858, -0.9914236, -0.14940505, -0.7928598, 0.040777627, -0.5072879, 0.016575737, -0.1867795, -0.19085793, -0.18633737, 0.10428363, 0.05573165, 0.100093454, 0.3097734, -0.32055736, 0.093764655, 0.13427347, 0.42156637, 0.006470567, -0.11262342, -0.1661721, -0.6529775, 0.10978786, 0.18539159, -0.4105657, -0.3628163, -0.08142731, -0.18974896, 0.040380497, -0.88632745, 1.0470935, 0.64201945, 0.55369705, 0.10429282, -0.24041075, 0.2032798, -0.32134137, 0.20069176, 0.09131942, -0.65702444, 0.016112728, -0.30263296, 0.62735736, 0.25233975, 0.4365544, 0.20073384, 0.53904563, 0.24099666, -0.6181092, -0.61992866, -0.23118798, 0.3985072, 0.7739232, 0.8519721, -0.43246588, -0.13109826, -0.7085907, 0.11787828, 0.44204137, -0.09511965, -0.0073700803, -0.13065575, -0.16642852, -0.33583376, -0.025589123, -0.7084709, -0.37810662, 0.3782026, -0.56087905, -0.24119039, -0.16896278, 0.5767658, 0.46798125, -0.30355915, 0.2337905, -0.3876061, -0.56298393, 0.14758824, 0.72472674, 0.5842669, 0.67514545, -0.24709558, 0.3288516, -0.7592786, 0.027676523, -0.85645366, -0.06233793, -0.22285813, -0.25908366, 0.33968472, -0.59215707, -0.24010874, -0.10040455, 0.38210496, -0.6231577, 0.04288156, 0.006027382, 0.066178165, 0.0055195293, -0.10981413, -0.6093541, -0.32122532, -0.44577542, 1.0539092, 0.4964508, 0.37439498, -0.09806797, 0.296149, 0.73808855, 0.0013636885, 0.63544446, -0.63340217, -0.21384306, -0.3368388, -0.21609181, 0.78870696, 0.026515603, 0.009126085, 0.009317882, -0.15109715, -0.36914608, -0.26234016, -0.43028235, -0.30419815, 0.12114177, -0.19321583, 0.03731795, -0.3273783, 0.8494163, -0.20189887, 0.1869521, 0.54498494, 0.4023042, 0.34398642, -0.917031, -0.45227385, 0.6388579, 0.12746494, 1.0587965, 0.78478146, -0.28149348, -0.018599883, 0.0028283484, 0.5205708, -0.08557853, 0.20635547, 0.27816555, -0.46698892, 0.31816098, -0.5235004, -0.4544686, 0.011146471, -0.45993587, 0.003282701, -0.2819545, 0.18744092, 0.17010991, -0.4979131, -0.13420105, -0.26444364, 0.41759086, 1.0226916, -0.50482696, 0.38587353, 0.3756477, -0.1691296, 0.16893326, 0.09519983, 0.5935434, -0.32486182, 0.23057659, 0.33124784, 0.49461862, -0.46720478, 0.20325738, -0.16084541, -0.9511295, -0.2022597, -0.6087635, -0.35503992, 0.6884167, 0.850137, -0.06074534, -0.11006967, -0.21618338, 0.22707377, -0.007504796, 0.011486776, -0.07777622, -0.11143655, 0.52651787, -0.4668344, -0.20207198, -0.22315322, 0.186279, 0.77047896, -0.6676333, -0.012276326, -0.1535085, 0.31027037, -0.7730799, 0.556643, -0.4035596, 0.32089585, 0.54617274, -0.09224152, 0.37065187, -0.55541265, 0.223439, -0.29633567, -0.051168513, 0.24384373, -0.081046514, -0.18168576, -0.26671374, -1.1750513, -0.58042705, -0.24099499, -0.095623076, -0.15151627, 0.0861567, -0.64763063, 0.8622722, -0.7769404, 0.11294043, -0.09932297, 0.7231185, 0.1232422, 0.10225431, 0.2985148, -0.2781077, -0.17293154, -0.6302878, 0.032504935, 0.6398709, -0.5553459, 0.31873593, 0.771529, -0.48342064, -0.33505204, 0.19829744, 0.0095884735, -0.4146985, 0.019121474, 0.10683853, 0.4057735, -0.25638926, -0.48223707, -0.10420933, -0.47247282, 0.40026248, 0.7286668, -0.1736513, -0.17082334, 0.056966398, -0.219653, -0.014875308, 0.8170529, -0.35371265, 0.070685245, 0.27620423, 0.18028551, -0.43238112, -0.24234171, -0.025728485, -0.40411583, 0.7115107, -0.51606375, 0.09799244, -0.5663045, 0.08340609, 0.18336326, 0.4265758, -0.084175594, -0.33844987, 0.6169632, -0.86390495, 0.52294946, 0.6247068, -0.028294927, -0.15445574, 0.34193754, 0.48852023, 0.28629228, 0.93010473, -0.35896364, 0.032226797, -0.65521884, -0.027127385, 0.17357272, -0.62275386, -0.11326494, 0.02331072, -0.5661447, 0.41787967, -0.14447846, -0.5978988, -0.25212684, 0.11034078, 1.2068039, -0.27123156, 0.38087872, -0.11499768, 0.18681045, -0.5087522, 0.4471766, -0.20553899, -0.17794447, -0.6546219, 0.3030676, 0.20586161, 0.12117714, 0.13565624, -0.19414185, -0.16543077, -0.6958696, 0.2279057, -0.233739, 0.1886415, 0.048477005, -0.0454018, 0.7880246, -0.11353157, -0.15118283, 0.24373482, 0.48718956, -0.047934562, -0.19011362, -0.59322166, -0.09274715, -0.6661161, -0.07265849, 0.4848261, 0.23416822, -0.45846376, -0.62561417, 0.68793064, -0.63294333, 0.60064924, 0.52093697, 0.4876252, 0.13787265, -0.3336724, 0.08235934, -0.49827597, 1.1560022, 0.10700794, -0.30842003, 0.18278004, -0.4758266, -0.4958034, -0.16457915, -0.20560066, 0.16939312, 0.018558452, 0.30358544, 0.602029, 0.24440642, 0.44913724, -0.450978, 0.8628567, -0.34344578, -0.012365605, 0.3762308, -0.7099597, -0.5933605, -0.36307058, 0.470894, -0.2299845, 0.27293977, -0.26876906, 0.08370071, -0.04613091, -0.15169118, -0.09964777, 0.19681281, 0.11179522, -0.19313073, 0.19709377, 0.07933358, 0.16571997, 0.87462634, -0.14178862, -0.603869, 0.70090526, -0.42838386, -0.16217217, -0.12959845, 0.07031789, -0.07965414, 0.679153, 0.2390574, -0.01303029, -0.288891, -0.49395314, -0.30406833, -0.1833226, 0.21567734, -0.2291286, 0.23263375, 0.060718447, 0.21022129, -0.3631356, 0.59972864, 0.13211371, 0.09874117, -0.008486944, 0.041168224, 0.09368598, -0.1744172, -0.40775773, -0.4313856, -0.22630139, -0.606304, -0.77578783, -0.6026881, -0.76539564, 0.3288342, -0.3731608, -0.28883937, -0.5063754, -0.40062842, 0.3818743, -0.4081818, 0.062878855, 0.010612197, 0.53461057, 0.08578792, 0.43865088, 0.014233558, 0.23812209, -0.29790053, -0.014922723, -0.21180701, -0.32528785, -0.43768468, -0.09908321, -0.05484934, -0.558305, 0.5386572, 0.5094072, -0.49301973, -0.30604413, 0.08532908, 0.58899355, -0.31942746, 0.9023683, -0.05653772, -0.23212297, -0.8414829, -0.3291273, -0.8196924, -0.66428703, 0.30686685, -0.3192405, 0.18491085, 0.3542519, -0.1371029, -0.0828622, 0.35404405, -0.010525647, 0.05825898, -0.04592866, -0.1471412, -0.48322845, 0.6144559, 0.061405834, 0.28003135, 0.23552285, 0.404435, -0.20733605, -0.43597615, 0.18740594, -0.81566256, -0.8273189, -0.5232005, -0.14524756, 0.11697418, -0.29508054, -0.15435617, -0.22480343, -0.19246124, 0.62697667, 0.3590051, 0.28376362, 0.08866161, 0.28938884, -0.06751339, 0.51871765, 0.43286705, 0.65349, 0.45041052, -0.48692727, -0.77949524, 0.06207319, -0.7594431, -0.15938175, 0.25085625, 0.1519879, 0.03262521, -0.16760774, 0.7064963, 0.053136628, 0.1664722, -0.24643916, -0.36860964, -0.019237887, -0.010460798, -0.4035995, -0.5758937, -0.6528465, -0.58036643, 0.38721728, 0.23703218, 0.26825202, 0.4883587, 0.6799102, -0.39077643, 0.46404776, 0.61139816, -0.2286238, 0.0868932, 0.08526754, 0.6489935, 0.043372568, -0.53057474, -0.22057271, 0.39418554, 0.24684042, -0.34753206, 0.5877688, 0.21578026, 0.2679442, 0.39465728, -0.12987415, -0.4323907, 0.15174948, 0.2610077, 0.76130086, 0.51527625, -0.07756521, -0.14156114, 0.96331817, -0.45967904, 0.5892779, -0.15147074, 0.5873029, 0.10149621, -0.34921038, -0.6514239, -0.54608774, -0.5801034, -0.3098139, -0.2820863, -0.18526967, -0.10883782, 0.32193348, -0.45941284, -0.80882215, -0.11866412, -0.1976896, 0.17618161, -0.5324512, -0.38374496, -1.1043202, 0.68789124, -0.1609394, 0.29812172, -0.2725371, 0.1709518, 0.6099921, 0.35116294, -0.38643098, 0.29199398, -0.5674334, -0.63521105, -0.3409194, -0.96502805, 0.090280235, 0.019458666, -0.2398138, 0.15564418, 0.22296827, -0.09807425, 0.49007615, 0.66656476, -0.36734888, -0.03268229, -0.60878384, 0.07900321, 0.002817827, -0.289434, 0.17606658, 0.6377621, -0.2830482, 0.08174794, -0.4976689, -0.2347631, 0.044353653, -0.14423895, -0.1314602, 0.6337206, 0.20089363, -0.21954899, 0.35126087, 0.04998271, 0.20817728, -0.62868625, -0.43581548, -0.69141406, 0.005739207, 0.5706341, 0.40577447, 0.15848349, -0.13956611, -0.1996301, -0.107517034, -0.13128094, -0.32671246, 0.004314348, -0.28100985, -0.44203472, -0.7592397, -0.5296579, -0.3166391, -0.15643339, -0.15499078, -0.6474491, -0.6486008, -0.01909543, 0.49120608, 0.21085407, -0.3225241, 0.19571656, -0.34138584, -0.23678339, -0.5415415, 0.04607858, 0.28225568, -0.786308, -0.223475, -0.13936666, 0.28340396, 0.15516703, -0.12612687, 0.6564321, -1.1183026, 0.12967141, 0.33793342, -0.024261666, -0.10087269, -0.7505112, 0.35931325, -0.13715185, 0.48567447, -0.06679067, 0.04414301, 0.03037255, -0.65507144, 0.4598143, -0.33052072, -0.060017, -0.041675296, -0.04507536, -0.8185956, -0.8668241, -0.29141292, -0.2594053, -0.1911394, 0.48120877, 0.061427075, -0.45963392, 0.18111517, -0.13145244, -0.6786739, -0.09773559, -0.08679071, 0.43116197, 0.07045484, -0.21469443, -0.31615046, 0.7389416, 0.024244593, 0.09224077, -0.6363296, 0.68034583, 0.17127861, 0.115692616, 0.04339276, 0.09484353, -0.71855015, -0.32090548, 0.2697936, -0.34511304, 0.57020324, 0.55828595, -0.7958897, 0.22892319, -0.33411065, 0.31707838, -0.2118363, 0.8392213, -0.52210957, 0.040695418, -0.20538346, -0.5152071, -0.009780872, -0.51504934, -0.23684967, -0.25338075, -0.574151, -0.077045895, 0.17564888, -0.4314985, 0.25146547, -0.4380894, 0.0110432515, 0.11285273, -0.5705462, -0.12399099, 0.28937674, -0.023348449, -0.30295458, 0.11724585, -0.5105458, 0.23365076, -0.031926796, -0.07245582, 0.3102109, 0.351665, -0.2988771, -0.06832803, -0.62725884, -0.20801042, 0.44532013, -0.2891896, -0.64087516, -0.091819026, -0.5208592, -0.21732765, 0.06293004, 0.014965367, -1.0829723, 0.48368087, 0.45559534, 0.32691827, -0.005359692, 0.5326026, 0.580584, 0.44266334, -0.2335506, 0.22700424, -0.13377453, -0.21178748, -0.35903236, -0.027505824, 0.10052834, -0.20812447, 0.93833804, -0.25863326, -0.3120868, -0.051469713, -0.20408519, -0.5313247, 0.2015114, 0.6553433, 0.6746292, 0.5337852]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>베이글의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Texture analyzer의 구형 프로브를 사용한 TPA test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[-1.0499676, -0.5106122, 0.18627742, -0.15059932, -0.18338205, -0.15308653, 0.12320427, 0.5571635, -0.49879533, -0.15096289, -0.4864485, -0.24338843, 0.30387715, 0.1892113, -0.07007665, 0.005875076, 0.12606226, 0.61181766, 0.10419691, -0.5109703, -0.12232265, -0.48160887, 0.26537845, -0.19910416, -0.8650236, 0.1091015, -0.44747272, -0.11850408, 0.17625417, -0.76624835, 0.62520367, 0.18106042, -0.32902372, 0.68851143, -0.17684244, -0.2642299, -0.68315816, -0.013622312, 0.48059237, -0.23590627, -0.61543804, -0.8729544, 0.38396537, 0.22698975, 0.22430483, -0.116711564, 0.52920735, -0.23599526, -0.34126303, -0.19660999, -0.015843323, 0.05551924, 0.5494926, 0.3973014, 0.10157417, -0.68573546, -0.08604993, 0.07848721, 0.1408143, -0.46067417, 0.35590383, -0.9091799, -0.61373246, -0.22226718, 0.3941166, -0.2859575, -0.25114986, 0.23390478, -0.7629836, 0.15858027, 0.09018697, 0.15294158, 0.16240852, -0.39998466, 0.076364234, -0.6361236, 0.075895056, -0.107584625, 0.6089548, 0.3562221, 0.364183, -0.14696738, 0.65953666, -0.33162373, 0.1761299, -0.60604507, -0.5425233, -0.3150158, 0.045496933, 0.31724608, -0.34252068, -0.1699556, 0.06395324, 0.31381908, -0.53278416, -0.32814142, 0.10082047, 0.339386, 0.5653298, 0.08854242, -0.62114054, -0.04248013, -0.22233629, 0.7040335, 0.07143276, 0.20494533, -0.41907296, 0.48974228, 0.95798594, -0.048753772, 0.53895783, -0.44566613, 0.10705643, -0.40096042, 0.42238826, 0.0927259, 0.03806432, 0.039118666, -0.119458705, -0.1535469, -0.35712177, -0.42892674, -0.5554621, -0.022192273, 0.12500383, 0.038815532, 0.5107435, -0.2548512, 0.36653525, -0.5364622, 0.22549273, 1.0960636, 0.38883463, -0.15744737, -0.6517496, -0.5667357, 0.3790045, -0.31028223, 1.3112338, 0.3463558, -0.7959141, 0.30339244, 0.27217576, 0.015816893, -0.30412212, -0.054725196, 0.3929343, -0.682962, 0.06700113, -0.34974337, -0.32601163, -0.10140368, -0.64999604, 0.08709849, -0.48041433, 0.055259224, -0.20670146, 0.07001942, 0.03832912, -0.084898904, 0.58482575, -0.37620178, 0.23825414, -0.009873197, 0.18065189, -0.57628137, 0.16645367, 0.18007597, -0.3197057, -0.39367807, -0.5214315, -0.5598325, 0.6429606, -0.07508669, 0.14015196, 0.07658767, -0.7385206, -0.47636, -0.27324632, -0.30002487, 0.5760077, 0.3427917, 0.07401679, -0.11044814, 0.33460668, 0.54632723, -0.00012703583, -0.33508202, -0.98661745, -0.77416337, 0.24328333, -0.48116618, -0.039455056, 0.13297865, 0.16573872, 0.1878058, -0.13796532, 0.16377613, 0.32094562, 0.11673345, -0.7567863, 0.84116364, -0.5867535, 0.78352046, -0.09785628, 0.2650054, 0.39467165, -0.10583903, 0.41205174, -0.42595243, -0.20632032, 0.18855439, -0.07319888, 0.29703766, -0.090395324, -0.6909462, -0.21213971, -0.5463077, 0.15520999, -0.08696114, 0.03847919, -0.30270034, 1.1045959, -0.6403376, -0.3270701, -0.5741273, 0.6638342, 0.55103564, -0.121978484, 0.5219933, -0.045702346, -0.5135009, -0.627873, -0.427893, 0.2506924, -0.6868492, 0.21695127, 0.85350907, -0.40504333, -0.21908262, 0.30330116, -0.229836, -0.61600906, 0.22755434, -0.12957995, 0.079350606, -0.10533575, -0.024717867, 0.06977633, -0.3240185, 0.12653449, 0.11229634, 0.2529199, -0.34121016, -0.0453371, -0.23925927, -0.20937265, 0.44969273, -0.37349117, 0.28952625, 0.23298901, 0.13069142, -0.4803415, -0.12116775, -0.00026579775, -0.024723021, 0.53579223, -0.40238777, -0.48545313, -0.6993217, 0.32017088, -0.35914162, 0.16376588, -0.080727406, -0.34343094, 0.3742507, 0.15765463, 0.11715131, 0.30303597, 0.42345965, 0.27312243, 0.6576284, 0.28904706, 0.4545746, 0.2948131, -0.2121422, -0.09498675, 0.04832801, -0.034793302, 0.0382003, -0.000821407, -0.0035940832, 0.020539174, -0.9104574, 0.3984, 0.13379116, -0.71658313, -0.10137351, 0.14217514, 0.57819563, -0.034525104, 0.20552775, 0.70572484, -0.0037914587, -0.3956313, 0.10147385, 0.020099517, -0.5223881, -0.4539982, 0.75269705, 0.4796309, 0.6204192, -0.017470378, 0.10411959, 0.57572883, -0.10254232, 0.2084811, -0.03404573, -0.17678179, -0.3472707, -0.09401519, 0.16495544, 0.088479504, -0.34742612, 0.1964762, 0.3684807, 0.29496554, 0.06678924, -0.16183956, -0.065826125, -0.9914026, -0.5371525, -0.11064337, -0.18209213, -0.35451552, -0.89895594, 0.359749, -0.8337146, 0.59375066, 0.06628063, 0.46372482, 0.052226618, -0.042482164, -0.13963982, 0.14401296, 0.8052603, -0.07442648, -0.7104345, -0.03621345, 0.07603513, -0.75667983, -0.6746619, -0.20623055, 0.05413727, 0.51320547, 0.07336965, 0.47357276, 0.57154775, 0.49500194, -0.06233225, 0.5033225, -0.10248052, -0.5044228, 0.49830353, -0.2631165, -0.3927643, -0.19023488, -0.16732012, 0.102394015, 0.06268834, -0.085212484, -0.18998657, 0.19899033, -0.5553493, -0.6606404, -0.18948947, -0.34584734, -0.15021965, 0.16912897, -0.04369229, -0.28117573, 0.6490196, -0.0837069, -0.7876912, 0.11428893, -0.8205828, -0.35402286, -0.31926027, -0.86382186, 0.5490989, 0.47995907, -0.22762622, 0.0109761, -0.12250982, -0.7611014, -0.42871493, 0.20040244, 0.2154563, -0.013999856, 0.51583475, 0.34612337, 0.440495, -0.40478092, 0.4715015, 0.4227188, -0.14254245, -0.049943738, -0.35886317, -0.5261829, 0.21840928, -0.022744853, 0.09258371, -0.12791787, -0.78902876, -0.25218204, 0.10452477, -0.82370055, 0.58875746, -0.46387175, -0.39051116, -0.29842725, -0.5110491, 0.4018815, -0.30503887, 0.22332534, 0.13450417, 0.749226, 0.3860098, 0.60024065, -0.030502988, 0.5787624, -0.37151882, 0.6312142, -0.16589175, -0.4034228, -0.5118383, 0.44717562, -0.16992715, -0.36662436, 0.34736297, 0.46208364, -0.11408409, -0.5113186, 0.53072184, 0.13675448, 0.032913215, 0.07561339, 0.47358626, -0.5055196, -0.3553622, -0.3745105, -0.84408534, -0.6922055, -0.12504849, -0.38323817, 0.58096516, 0.2838097, 0.047019124, 0.25808698, 0.1326317, 0.14529833, 0.24038924, 0.5921559, -0.35952643, 0.095660485, 0.5384503, 0.4485202, 0.40031144, 1.1782055, 0.48475394, -0.29044396, -0.11306432, 0.48274878, -0.61125624, -0.34643242, -0.17084771, -0.5808, 0.2246491, -0.7427248, 0.088995494, -0.03627759, -0.102238655, 0.10504242, 0.3618572, 0.44296852, 0.0055215266, 0.16453281, -0.52105147, -0.3933737, 0.593096, -0.1876457, 0.47671157, -0.18063582, -0.8560464, 0.155306, 0.084521756, -0.06681581, -0.21003917, -0.17527057, 0.22055496, -0.099518135, 0.09073028, -0.19082056, 0.58387125, -0.7111138, -0.12850101, -0.12564863, 0.013849001, 0.01697081, 0.14093617, -0.41879493, -0.24453093, -0.505522, 0.38432723, 0.12961233, 0.3185263, 0.56970584, -0.37640616, -0.20011672, 0.3099612, 0.5106929, 0.00982854, 0.18353091, 0.7395222, 0.1695516, -0.50814956, -0.21151093, 0.49873528, -0.1460135, -0.14019603, -0.007325418, -1.0045292, 0.4079537, -0.10799089, 0.043655608, -0.17518242, -0.13998681, 0.12584853, 0.23417918, 0.28474003, -0.021367367, 0.13118744, 1.1777292, 0.053103797, 0.2839327, -0.10538356, 0.027098535, 0.19275966, -0.5060216, -0.6294051, -0.5468724, -0.085454136, -0.32133862, 0.043557577, -0.44804415, 0.30896905, 0.26792812, 0.05179664, -0.8111, -0.5348813, -0.011995237, -0.014559766, -0.0767752, 0.4758429, -0.3297917, 0.122611046, 0.19637257, 0.5421648, 0.3078832, -0.1783229, 0.3195036, 0.48404613, -0.44802263, 0.47435448, 0.25112665, -1.204102, -0.22197032, -0.7335277, -0.095511965, -0.107863225, -0.2619664, -0.2920457, 0.4845123, -0.067525625, 0.8117355, 0.020168586, -0.073721096, 0.012041218, -0.58652395, 0.10152115, -0.476414, -0.2869298, 0.23913255, 0.6915087, -0.58297884, -0.3034386, -1.0078495, -0.32369056, -0.6193947, -0.32932493, -0.23484752, 0.5100058, 0.10679788, -0.22843926, 0.19603603, -0.1328506, 0.85402656, -0.24415268, -0.096293524, 0.32211617, -0.31323022, 0.74293303, 0.46797383, 0.6559902, -0.25790578, -0.5801825, 0.21991746, -0.6014292, -0.14905119, 0.046257082, -0.5355684, -0.21473289, -0.4010458, 0.29083234, -0.65333027, 0.0063590226, 0.18571891, -0.24992563, -0.5919168, -0.15881433, 0.21237513, -0.24011523, -0.059491895, 0.794391, -0.59208524, -0.10636714, -0.011308586, 0.89500344, 0.015720146, -0.38790256, -0.86330676, -0.32445174, 0.24551842, 0.12699308, -0.7422005, 0.08092973, -1.1607088, 0.6034637, -0.3613796, 0.27082518, 0.029145805, -0.17388813, -0.112580225, -0.44889292, 0.037444763, -0.50316364, 0.12462035, 0.4644602, -0.80572486, 0.20540807, -0.008722936, 0.0033024182, -0.4292189, -0.22377609, -0.20119296, -0.29427427, -0.72898316, -0.109828755, -0.3179841, 0.2949775, 0.5967978, 0.27796447, -0.06449976, -0.030453013, -0.027335266, -0.41269338, -0.2516836, 0.12305654, 0.67147386, -0.6613742, -0.5621423, 0.36789322, 0.5403112, 0.65685546, -0.5311846, 0.5734588, -0.074411154, 0.09458447, -0.089228675, -0.18218, -0.941753, -0.47819945, 0.527596, -0.46429855, 0.48150584, 0.94210523, -0.50095576, 0.2007564, -0.13658518, 0.026105743, -0.017081428, 0.63294446, -0.106614515, 0.059662268, -0.14711289, 0.29344168, 0.17207733, 0.04357141, -0.10303048, 0.019551802, 0.122417584, 0.16919957, -0.31277627, -0.25540918, 0.28640324, -0.4755798, -0.59094095, -0.052269418, -0.15641092, -0.23624898, 0.3583142, -0.08899755, -0.39029694, -0.14783493, -0.12066653, -0.06492294, 0.4461055, -0.17583463, 0.49951676, 0.19607177, -0.29160306, 0.06363399, -0.1426618, 0.31944057, 0.27998826, -0.3043576, -0.5060655, -0.070353694, -0.46309584, -0.16064851, 0.15751995, 0.14324334, -1.1394328, 0.814671, -0.11748712, 0.38583806, -0.094491325, 0.2022388, 0.11640097, -0.16889471, 0.21966769, 0.06672265, -0.029054364, 0.5540515, -0.4553568, -0.19910167, -0.16612598, -0.2684506, 1.1736565, 0.05687072, 0.061393406, -0.18058822, 0.18581305, -0.8304409, 0.06801502, 0.9096275, 0.09157181, 0.2667197]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>고령친화식품의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Puncture test 기반 방법을 사용하는데, 식품공전 및 KS 공인 방법을 찾아보세요.</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[-0.85639745, -0.5847728, -0.15995303, -0.06752765, -0.34684438, -0.43619493, -0.1907607, -0.24390157, -0.15394188, 0.008994015, -0.15383844, 0.016987178, -0.131003, -0.08543685, 0.042938262, -0.06768663, 0.31508175, -0.05784846, -0.79947716, -0.6571696, -0.3371012, -0.34805256, 0.19234921, 0.19253588, -0.11727606, 0.083930515, -0.8163819, -0.23389076, 0.1032203, -0.19739698, 0.93126607, 0.19026086, -0.20952441, 0.02281024, 0.031389736, 0.026862796, -0.33184853, -0.24006039, -0.027450763, -0.3746192, -0.49509925, -0.2664902, 0.49647543, 0.37599513, 0.97801644, -0.22625634, 0.24909207, 0.2900056, -0.007853016, -0.3362632, -0.87921757, 0.22361544, -0.2852101, 0.45426834, -0.10957346, -0.25313964, -0.34357947, 0.23524804, 0.1991091, -0.45063952, 0.0071079126, -0.24114911, -0.283597, -0.492608, -0.052327745, -0.5780897, -0.19495958, 0.51383936, -0.54724056, 0.11115871, -0.17961589, -0.10485195, 0.38532388, 0.18627805, -0.042622842, -0.43409845, -0.21175979, 0.025557682, 0.33058435, 0.5154449, 0.08508997, -0.055298235, 0.14577636, -0.86023176, 0.7232983, -1.0913929, -0.48808163, -0.8855304, -0.40711665, 0.18504842, 0.16218755, -0.03551532, -0.42721424, 0.4555075, -0.1622048, -0.0888853, -0.4797489, -0.019234488, 0.42391944, -0.21156538, -0.3851035, 0.13999698, -0.63956124, 0.88943774, -0.029892031, 0.25884283, -0.55469906, 0.3501538, 0.38188645, -0.24276848, 0.16726321, -0.41018716, 0.37507483, -0.3734498, 0.13323511, 0.5711154, -0.5427565, -0.20964856, 0.11354761, 0.114685945, 0.43391728, -0.07230651, -0.20583026, 0.18279392, 0.1562786, -0.1593343, 0.18625452, 0.12952039, 0.65356934, -0.517761, 0.34817386, 0.44569057, -0.058273673, 0.2983923, -0.27548376, 0.089745134, 0.5699013, -0.01785671, 0.83477944, 0.80796874, -1.1562029, 0.6636987, -0.13736041, -0.3857491, -0.50528526, -0.42216042, -0.058050975, -0.43538928, 0.48037982, -0.7304334, 0.0563, 0.25819522, -0.68895066, 0.19918159, -0.0851426, 0.04034472, 0.19413483, 0.1955046, -0.15535355, -0.085764006, 0.10092333, -0.09761016, -0.015611991, -0.044848934, 0.20215286, -0.8018825, 0.43489257, 0.053796638, 0.15857476, -0.41130105, -0.39545107, 0.21169376, 0.66617703, -0.19284812, 0.11671135, -0.10101912, -0.68948823, -0.30018362, -0.50391906, -0.15211564, 0.25254646, 0.5515941, 0.3465453, 0.014408142, 0.03410432, 0.039407827, 0.33856004, 0.041563, -0.36710134, -0.3091331, 0.74001145, -0.6620622, -0.32672027, -0.28177804, 0.035423677, 0.8604025, -0.302569, 0.109614566, -0.1044473, -0.013164072, -0.28703526, 0.6170336, -0.34068763, 0.5821734, 0.3496378, 0.18012771, 0.27937925, -0.068267226, -0.26586097, -0.3176809, -0.22592479, 0.16863507, -0.05610685, 0.30274522, -0.43880787, -0.9109265, -0.45030653, -0.075099796, 0.075874224, 0.20826831, 0.51342446, -0.4703619, 0.5480052, -0.23107176, -0.32027015, -0.28305995, 0.488952, 0.03334957, -0.3049508, -0.38448915, -0.41480023, -0.028630098, -0.42013153, -0.08943531, 0.4120332, -0.47968242, 0.118392676, 0.88920224, -0.38989744, 0.25721258, 0.40964755, 0.0076264935, -0.30480132, 0.22583662, -0.030172966, 0.39948106, 0.3504609, -0.38961187, -0.28597966, -0.29640186, -0.21521816, 0.00091129355, -0.07960112, -0.46062952, 0.40769547, -0.36646196, 0.41185224, 0.29529455, 0.08736253, -0.0018315688, 0.4709539, 0.2879544, -0.052549087, 0.14675066, -0.06361592, 0.2710852, 0.6319056, -1.031633, 0.07571664, -0.14161265, -0.23434204, -0.3424647, 0.41662592, 0.10048382, 0.1433111, 0.72950125, -0.1742053, 0.38551387, 0.29152432, -0.21731795, 0.06160199, 0.26793602, 0.37015712, 0.7158935, 0.86679053, 0.0021707388, 0.13346975, -0.21769987, -0.21486846, -0.25860724, -0.18148224, -0.3712127, -0.058833703, -0.5605652, 0.7799886, 0.21289407, -0.9937781, 0.23686755, -0.20809242, 0.6147059, -0.2297495, 0.49771258, -0.009716109, -0.018880561, -0.4584592, 0.49762413, -0.08167986, -0.0954929, -0.37361956, 0.29586425, 0.38956872, 0.27127853, 0.10805805, -0.14151832, 0.3782889, -0.4586641, 0.6007713, 0.4360179, -0.44485447, -0.38301343, -0.31045654, 0.98299813, -0.12005205, -0.37460637, 0.35589024, 0.5762562, 0.6704458, -0.08717516, -0.8037819, -0.3614337, -0.97252923, -0.7280296, 0.003287863, -0.20627974, -0.4630444, -0.6406667, 0.20453857, -0.38876897, 0.33439547, -0.07740852, 0.33449653, 0.21639156, -0.24702366, 0.17860682, -0.40360725, 0.5975773, -0.39919102, -0.5252159, -0.2770963, -0.050464183, -0.23085792, -0.21076491, -0.32093745, -0.12364748, 0.52879435, -0.39677492, 0.33674863, 0.15993884, 0.23788173, -0.34827793, 0.69895345, -0.4454745, -0.5272876, 0.5904838, -0.2862624, -0.06970882, -0.8452664, 0.36743328, 0.031391807, 0.42665648, 0.27269888, -0.40910304, 0.22816637, -0.2545992, -0.41426107, -0.04781601, -0.45175266, -0.2995169, -0.16340515, -0.09131062, 0.25137433, 0.3457284, 0.3032788, -0.8994228, 0.35530627, -0.48124304, -0.7821312, -0.30357507, -0.24045719, -0.16840932, 0.24962766, 0.07125857, -0.1917519, 0.073472075, -0.53614235, 0.17949894, -0.5792396, 0.026908487, -0.108114414, 0.331556, -0.26479074, 0.26011613, 0.29597813, 0.5217444, 0.5644013, 0.03393452, -0.42552245, 0.16336058, -0.496767, -0.23915774, -0.15349808, -0.5645235, -0.015339063, -1.059197, -0.5125614, -0.30986688, -0.79622555, 0.8656683, 0.1477004, -0.17066838, 0.13216437, -0.6702436, 0.7752162, -0.39623713, -0.18353136, -0.1588163, 0.5014598, -0.11619295, 0.67912006, 0.31166056, 0.11703359, -0.61259085, 0.20179638, -0.08261943, 0.19251458, 0.05818764, 0.13908656, -0.095644616, 0.28203553, 0.09991347, 0.2458996, -0.65327346, -0.49687785, 0.20538512, 0.66074824, 0.28157568, 0.41462836, 0.12509304, -0.032407813, -1.1190634, 0.046215698, 0.0076792897, -0.63409764, 0.058415204, 0.108337596, 0.32772037, 0.19081163, -0.13874193, -0.2790052, -0.17263027, -0.12515259, -0.001321434, 0.007385489, -0.3299292, -0.086914256, 0.69782704, 0.1443651, 0.5688771, 0.78969043, 0.26515812, -0.0940901, -0.3041172, 0.64614767, -0.4847737, -0.5360747, -0.44468147, -0.09184218, -0.109542295, -0.7713277, 0.23773323, 0.22534294, -0.038636502, 0.70217955, 0.23024334, 0.18872665, -0.03512251, 0.4296577, -0.32761738, 0.34856212, 0.574015, 0.52337337, 0.548646, 0.010694693, 0.044623088, 0.34690976, -0.65373176, 0.27120134, 0.22474323, 0.24260294, 0.34849888, -0.02280338, 0.42480773, 0.023586448, 0.7128298, -0.41481158, -0.34975365, 0.16845538, -0.38852227, -0.13839918, -0.56766146, -0.6315824, -0.8635494, -0.1696568, 0.64334506, -0.0980925, 0.013353514, 0.60878885, -0.39859003, -0.046279013, 0.21713576, 0.07530131, 0.1788893, 0.37820652, 0.3978694, -0.12352458, -0.66099334, -0.019982733, -0.08612214, 0.41901755, -0.033080667, -0.21328305, -0.60899824, -0.027777739, 0.8044837, 0.04711327, 0.011905693, -0.16456164, 0.20339449, 0.6236494, 0.5156614, -0.23700088, -0.23494369, 0.29188195, -0.06367882, -0.027948879, 0.02949846, 0.62180644, -0.13156977, -0.7277794, -0.7189065, -0.513291, -0.44941327, -0.26755223, -0.5415261, -0.7085544, 0.50596505, 0.025920585, -0.36531854, -0.6498843, -0.33528835, -0.16458729, 0.48918843, -0.5694311, 0.08769155, -0.38298246, 0.28511858, 0.025777407, 0.36433217, 0.12748247, -0.13667996, 0.3196928, 0.56875336, -0.16638735, 0.4037288, -0.27857178, -0.8048279, -0.8844451, -0.12597263, 0.35837823, -0.26999432, 0.04740759, 0.22175907, 0.5238046, -0.1315879, 0.36576575, 0.50206786, -0.77085125, -0.15171939, -0.90259045, -0.32839102, -0.07420653, -0.69041187, -0.015089964, 0.10163993, -0.7501156, -0.22067858, -0.8912015, -0.43392727, -0.5110089, -0.23957704, -0.2748549, 0.9280185, -0.0920353, 0.48493046, -0.36588967, -0.1994099, 0.6798444, -0.2854965, -0.67157584, 0.0635484, -0.55970496, 0.49299136, 0.30482018, 0.36274362, 0.13677865, -0.008145083, 0.08728447, -0.37277904, -0.13207364, 0.25337064, -0.80853647, -0.43274277, -0.041262038, -0.6985803, -0.7602148, -0.042306937, 0.744846, -0.33717278, -0.07600107, 0.025096033, 0.7674537, -0.36808538, -0.095787786, 0.13637167, -0.38739341, -0.27612552, -0.24184881, 0.75771606, 0.2682776, -0.54986346, -0.5916005, 0.1646705, 0.31517455, 0.1974789, -0.06447931, 0.25230703, -0.7641996, 0.65157473, 0.13118829, -0.0132230045, 0.20528457, -0.40773138, 0.23426962, -0.21176943, 0.42885417, -0.2216114, -0.1065288, 0.89506763, -0.76712775, -0.24100035, -0.3729933, 0.00969241, 0.05857955, 0.5406223, -0.07277165, -0.48219365, -0.38093242, -0.25452018, 0.13298853, 0.53358287, 0.33872667, 0.25250733, -0.10768971, -0.19548988, -0.48865753, -0.05440495, 0.46009403, 0.0065516615, 0.021662654, -0.4400258, -0.2381443, 0.58839095, 0.33792502, 0.6366604, -0.64143294, 0.7739397, -0.14040004, 0.58756495, 0.050637215, 0.07043652, -0.49389035, -0.26917836, 0.12782943, -0.65641993, 0.73171246, 0.53325367, -0.41406387, 0.08859814, 0.24977659, -0.14049098, 0.09486053, 0.3744778, -0.05054691, -0.18291047, -0.23672388, -0.24886365, -0.08692143, 0.19236028, -0.4612981, -0.7370324, -0.4219853, 0.010037618, -0.63422036, -0.35936117, -0.1729285, -0.2619893, 0.17301157, -0.595135, -0.33922344, -0.055500895, 0.4928067, -0.20525494, -0.45574307, 0.14646688, -0.073270366, 0.006609996, 0.5570773, 0.16534954, 0.36992353, 0.10917144, -0.43747208, -0.12016755, -0.64112705, 0.3243635, 0.33735687, -0.62125635, -0.47250268, -0.32178676, -0.13729998, -0.081420824, 0.3371432, -0.22826445, -0.65670377, 1.0997957, 0.030640297, 0.04801049, -0.15115432, 0.44607717, 0.011277477, 0.057945933, -0.47969604, 0.3513794, 0.41267487, 0.016001314, 0.111130126, 0.007143544, -0.2447026, 0.23119885, 1.2487397, -0.22465795, 0.37974837, 0.14882892, 0.22396664, -0.6979626, 0.29291642, 0.34071013, 0.39298767, 0.023599343]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>젤리의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Compression test 를 사용하는데 식품공전 방법을 찾아보세요.</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>[-0.4236647, -0.53463656, 0.06619209, -0.09578392, -0.35176802, -0.35655054, 0.5073985, -0.10417489, -0.4484924, -0.09014037, -0.4112716, -0.05073056, 0.11923697, -0.15780726, 0.37676957, -0.29024908, 0.47613633, 0.58252674, -0.03283947, -0.7225235, -0.24155186, 0.15423073, -0.34224963, 0.4509218, 0.20841978, 0.15568943, -0.51004386, -0.08369273, 0.25176677, -0.7863508, 0.93538237, 0.006114472, 0.12469893, 0.85210484, -0.14752589, 0.30068204, -0.21897955, 0.014460526, 0.6988282, -0.18079655, -0.39309284, -0.7364049, -0.06593489, 0.3878574, 0.15479532, 0.34561905, 0.15117489, -0.14744234, -0.030908773, -0.76627284, -0.5333025, 0.48421264, 0.667406, 0.4980155, 0.045461606, -0.4574066, -0.3000452, 0.19705044, 0.55602884, -0.25022516, 0.30965665, -0.47475484, -0.09279489, -0.5083886, 0.4492081, -0.39550984, -0.14166264, 0.3149311, -0.29094803, 0.08245102, -0.17931056, -0.21535152, -0.0335649, -0.12746741, 0.2339127, -0.5107134, -0.36616006, -0.39201546, 0.47272244, 0.7821057, 0.90205646, -0.10775445, 0.1292186, -0.101994395, -0.123385526, -0.8139065, -0.463855, -0.2827663, -0.17240761, -0.0350733, -0.3202754, -0.10100042, -0.6585832, 0.4130099, -0.7902655, -0.13315605, -0.26944166, -0.18434863, 0.44350353, -0.13889806, -0.04287173, 0.019341484, -0.13873698, 0.6775384, 0.018073201, 0.2572526, -0.581921, 0.4905829, 0.9976359, -0.19541721, 0.30677125, -0.2643247, -0.14818327, -0.45777726, -0.16642034, 0.2592564, -0.59894973, -0.24152152, 0.10704818, 0.02637366, 0.40339792, -0.3612924, -0.15664905, -0.18596567, 0.013438371, 0.18313353, 0.30766055, -0.32450852, 0.29946628, -0.55287224, 0.29559252, 0.16982208, 0.6034967, 0.2022925, -0.43530646, 0.12646666, 1.074747, 0.286471, 1.1839126, 0.3946738, -0.47115716, -0.16850631, 0.065802805, -0.06473634, -0.24720038, 0.010186566, 0.4551696, -0.5638614, -0.029069358, -0.35156307, -0.09343827, -0.2642863, -0.4699073, 0.45373166, -0.19420467, -0.10868601, 0.29760942, -0.49021256, 0.123702906, -0.39819363, 0.34491745, -0.08010673, -0.3407384, 0.36681017, 0.55972177, -0.6402622, -0.014516302, 0.23845471, -0.13252306, -0.28324237, -0.32322267, 0.05898394, 0.94394976, -0.7761631, -0.04930829, -0.20718981, -0.93326527, -0.031965427, -0.34110844, -0.23123938, 0.38311994, 0.2038055, 0.11524069, -0.5854881, 0.27585378, 0.063428394, 0.33394787, 0.03298496, -0.38608494, -0.5215382, 0.61579144, -0.09660695, -0.115312956, 0.03150781, 0.18955499, 0.9241509, -0.083779, -0.41750047, -0.10770461, -0.033308655, -1.2101803, 1.00517, -0.23433666, 0.47956678, 0.2415129, -0.29124498, 0.49792016, -0.019942513, 0.044631977, -0.23498164, -0.3251085, -0.29127955, -0.3469895, -0.26881802, -0.1610428, -0.7094712, -0.49218142, -0.25107196, 0.14764357, -0.6018624, -0.07158386, -0.39538983, 0.5111405, -0.6797207, -0.39703515, -0.16842902, 0.504404, 0.471635, 0.018645138, 0.6505098, 0.43939093, -0.12613791, -0.4057462, -0.2323839, 0.27129355, -0.7245419, 0.8904895, 0.8558739, -1.0133238, -0.020319672, -0.1641972, -0.043264087, 0.1023443, -0.6712162, 0.5233398, 0.6056369, 0.14475678, 0.047034353, -0.22178781, -0.5256078, 0.054298993, 0.6129879, 0.14414136, -0.20798177, -0.050805088, -0.33101633, -0.0730189, 0.66213113, -0.45053628, 0.12333297, 0.5013814, 0.35797176, -0.27121404, 0.18229783, 0.0006666792, 0.3588501, 0.25123712, -0.3299538, -0.19372052, -1.0281471, 0.3190321, -0.25730792, 0.41267964, 0.08991865, -0.6210584, 0.36836097, -0.5264788, 0.19823538, 0.37147507, 0.37663817, 0.46320796, 0.36602843, 0.3098611, 0.5142009, 0.8363593, -0.11536064, 0.27480608, -0.39656353, 0.07972079, 0.07748577, -0.44323388, -0.2198, -0.097259976, -0.4796152, 0.016437003, 0.4056394, -0.43909124, 0.2930881, 0.02975761, 0.743488, -0.15636925, 0.18944447, 0.33238658, 0.11260293, 0.014538099, 0.43276986, -0.10689918, -0.48646677, 0.15604587, 0.50591767, 0.46181536, 0.8193786, 0.26567897, -0.1917063, 0.3725865, -0.8110518, 0.19494562, 0.46353805, -0.24677151, -0.30476832, -0.026091719, 0.61623716, 0.079461895, -0.40858874, 0.20467019, 0.30834424, 0.020962646, -0.22145844, 0.2638916, -0.23327364, -0.72182894, 0.25240335, -0.081297405, 0.27606863, -0.6785171, -0.77497005, 0.3421407, -0.74861866, 0.18636619, -0.2002059, 0.2165785, -0.23532015, -0.24833177, 0.23147948, -0.48840466, 0.9441603, -0.2781381, -0.410885, -0.5366488, 0.019937376, -0.109613515, -0.69543785, -0.42197356, -0.011400957, 0.4383839, -0.09018954, 0.41118217, 0.6121151, 0.31540778, -0.124826916, 0.55365473, 0.113465466, -0.45778015, 0.38613358, -0.3705771, -0.7812658, -0.74080634, -0.13896859, 0.018302782, -0.15443602, -0.15078618, 0.030431196, 0.37011364, -0.49153933, 0.018974679, 0.14485629, -0.16937792, 0.15856968, 0.13796437, 0.15047489, 0.043543924, 0.5420186, 0.22481906, -0.47665882, 0.45537233, -0.84145087, -0.85406834, -0.25517103, -0.041634638, 0.06907502, 0.24990354, 0.03900994, 0.007615647, -0.39541852, -0.6876731, -0.15720022, 0.24927408, 0.25156292, 0.09919568, 0.90647125, 0.37970936, 0.25875047, -0.22726892, 0.17493482, -0.32921878, 0.06844433, -0.04734632, 0.089636125, -0.47587505, -0.45075345, -0.162802, -0.27653638, -0.15765871, -0.2798118, -0.8782153, -0.35551283, -0.6826449, 0.4802085, -0.36708364, 0.14983003, -0.3032452, 0.19389425, 0.12211075, -0.08225059, 0.44527587, 0.18810122, 0.28581497, -0.2371136, 0.0125750555, 0.36129478, 0.6722253, -0.54599315, 0.004822084, -0.38627282, -0.19995105, 0.09057888, -0.2563663, 0.072229125, -0.06525933, 0.06147733, 0.0625911, -0.19454402, -0.8755608, -0.0054189335, 0.501033, 0.42492267, 0.07011133, -0.11989069, -0.5205842, -0.70882624, -0.35994902, -0.74039084, -0.6464534, 0.29580393, -0.12452776, 0.2893966, -0.016433328, 0.04755464, -0.18257631, 0.08963419, -0.2057405, 0.10915431, -0.008004148, -0.012088992, -0.1704607, 0.075631514, -0.07803906, 0.8281679, 0.7045083, 0.2666746, -0.40047994, -0.40454876, 0.79944915, -0.12012253, -0.5838229, -0.28314003, -0.037482608, 0.24922699, -0.38404596, -0.096866526, -0.40079108, -0.04329446, -0.29714864, 0.22561221, 0.8075173, 0.026159592, -0.249453, -0.62893516, 0.24380404, 0.18176289, 0.16239859, 0.14870638, 0.5017414, -0.34940365, 0.41842702, -0.42231104, 0.17773654, 0.1265961, -0.5752943, 0.052023917, -0.2610506, 0.40077794, -0.16719814, -0.36434385, -0.749397, -0.2814575, 0.37762567, -0.08993671, -0.48989105, 0.17039497, -0.10378909, -0.168536, 0.14168568, 0.038707215, 0.0030820267, 0.42248836, 0.55871785, -0.50535417, -0.107779644, 0.38737944, 0.10962072, -0.124636136, -0.29698, 0.6164842, 0.24631655, -0.42337596, -0.37853765, 0.4031216, -0.06849102, 0.027126715, 0.49631414, -0.42909518, -0.25760943, 0.7493081, -0.41883147, -0.29377493, -0.09398222, 0.3249345, 0.8887289, 0.5962495, -0.2801003, 0.089732744, 1.3029629, -0.37143967, 0.61038935, 0.009399028, 0.48479018, -0.121918164, -0.9461457, -0.5433168, -0.68279296, -0.42245576, -0.47673237, -0.3799825, -0.7878938, -0.17010988, -0.012492591, -0.10014204, -0.8735976, -0.27253106, 0.19470732, 0.3271962, -0.3027292, 0.5334994, -0.5817062, 0.02498147, -0.3291844, 0.42444718, 0.3048929, -0.3009704, 0.41527942, 0.11931472, -0.560499, 0.83263683, -0.02525749, -0.925997, -0.19311725, -0.88640517, 0.18782164, 0.15010615, -0.36565945, -0.14820139, 0.27951527, -0.080918826, 0.9351382, 0.21709412, -0.015730666, -0.21485765, -0.8091399, 0.45789298, -0.26640376, -0.4319187, 0.08524755, 0.69370764, -0.068770744, -0.30168006, -0.88612705, -0.51960045, -0.26580352, -0.161108, -0.2522553, 1.0696672, -0.54465634, 0.019957075, 0.07150493, -0.2988539, 0.27195555, -0.0821278, -0.25427127, -0.8034989, -0.40146327, 1.1666689, 0.31379497, 0.38727483, -0.056494493, 0.0145094395, -0.0059078014, -0.82673806, 0.21655351, 0.17374672, -0.79989237, -0.253091, 0.038373843, -0.2311188, -0.4591066, 0.36252806, -0.10171781, -0.48042145, -0.28009787, -0.13642453, 0.43770686, 0.0817659, 0.21515779, 1.2147034, -0.4971762, -0.3569115, -0.17626458, 0.33606207, -0.03843232, -0.8354919, -0.6359357, -0.020560304, 0.24506319, -0.09413648, -0.6390447, 0.03250779, -1.0429559, 1.0715352, 0.5172785, -0.21982741, 0.42262217, -0.33473253, -0.12783559, -0.3339146, 0.23145264, -0.11258042, 0.13267136, 0.70581716, -0.66151863, 0.54764265, -0.05504668, -0.3001337, -0.22207804, -0.5054103, -0.4701303, -0.4126182, -0.19411446, -0.18062143, -0.5686372, 0.6009062, 0.6449708, -0.2613115, -0.18172425, -0.04002035, -0.16445638, -0.059847165, -0.4101465, 0.07497362, 0.3695986, -0.6325908, -0.16057758, 0.3719196, -0.07062208, -0.083318986, -0.53707296, 0.76424295, -0.026589384, 0.5845376, 0.18526387, 0.12367835, -0.24516575, 0.09175242, 0.50214225, -0.31093374, 0.31700245, 0.6931908, -0.52142715, -0.19997506, -0.3667662, -0.22962636, 0.10203275, 0.08405784, -0.30409655, 0.014978737, -0.06998714, -0.021907063, 0.11656777, 0.015484113, -0.8052731, -0.071685635, -0.5962693, -0.3764627, -0.1612245, -1.026137, -0.1595953, -0.70143956, -0.6471247, -0.18411332, -0.3159267, 0.49115977, 0.59008795, -0.22403389, -0.21624517, 0.06493471, -0.09522799, 0.20085436, 0.5403054, -0.25935987, 0.83837026, 0.33149543, 0.30428806, -0.3184411, -0.3020557, 0.23244274, 0.15811607, -0.2447085, -0.7278467, 0.22981334, 0.03708175, -0.42545155, 0.050208796, -0.17687058, -0.6558141, 0.51638204, -0.33260226, 0.13004452, -0.3286117, 0.21795268, 0.5558516, -0.18871444, -0.03362531, 0.51373774, 0.07009391, 0.26189542, -0.14397486, 0.06358502, -0.46987888, -0.06602227, 1.1375669, -0.3532249, -0.15145785, 0.047794577, -0.3205328, -0.60771036, 0.113294266, 0.9663988, 0.30446374, 0.17099035]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>젤의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 puncture test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>[-0.27493754, -0.3144421, 0.33115527, -0.8219201, -0.20143382, 0.043368462, 0.52780545, -0.4130348, -0.28430933, -0.21379487, -0.11711309, -0.7455749, 0.27479422, -0.14028974, 0.05064474, -0.15888761, 0.5483562, 0.49819815, -0.3256605, -0.5968287, 0.07075859, 0.39066687, 0.020220121, 0.05663765, 0.11511899, -0.0614958, -0.4154884, -0.38952067, -0.02315993, -0.96370953, 0.62959224, 0.31813598, 0.25858745, 0.72910166, 0.37698337, -0.103135325, -0.3330502, -0.028667742, -0.093111165, -0.15291218, -0.28920904, -0.60910153, -0.044568185, 0.25025234, 0.33452904, -0.07225031, 0.9055569, 0.07166549, -0.18174471, -0.36261025, -0.6603121, 0.2813913, 0.3131807, 0.23880665, -0.13229273, -0.7055056, 0.32280517, 0.37424722, 0.0459844, -0.11301309, -0.122126214, -0.9268212, -0.012560015, 0.13588805, 0.38525167, -0.31657904, 0.07573682, 0.5199626, -0.45960188, 0.3944049, 0.17931159, 0.06816513, -0.052547086, -0.52783567, -0.08035617, -0.6048367, 0.054138828, -0.061401438, 0.20668833, 0.54581153, 0.40145746, -0.20364363, 0.17096229, -0.49490634, 0.14844598, -0.6407362, 0.019000497, -0.64427096, 0.08127696, -0.055307757, -0.36416757, -0.42300987, -0.29281524, 0.23175336, -0.8972118, -0.17689683, -0.027983375, -0.14532453, 0.24880207, 0.23682804, -0.047751904, 0.21737169, 0.24613036, 0.74848676, 0.023929656, -0.17678161, -0.117838986, 0.8007367, 0.80655223, 0.048531506, 0.55090505, 0.09356284, 0.5474204, -0.2572409, 0.14396566, 0.03515166, -0.30365184, -0.4143834, 0.29666743, 0.13745879, 0.65141314, -0.3949286, -0.45891547, -0.12698402, 0.33689073, 0.03278795, 0.65493643, 0.24652047, 0.5978295, -0.066294834, -0.0067603164, 0.2784892, 0.3245547, 0.21487464, -0.16681723, -0.13134979, 0.57219166, 0.13044311, 0.8294685, 0.75267243, -0.8086582, 0.046874672, 0.1671143, -0.13588183, 0.0681858, 0.20112358, 0.398844, -0.31301764, 0.038052727, -0.72275656, 0.19420916, -0.053406086, -0.4420594, 0.33908996, 0.049476225, 0.059127893, 0.20320047, -0.737529, 0.15523477, -0.2366, 0.49396276, -0.23261233, 0.123770595, -0.11059695, 0.39526287, -0.22121699, 0.06931561, 0.20427525, -0.1700399, -0.49084058, -0.4614867, -0.107377075, 0.52715737, -0.03349379, 0.3151051, -0.25190124, -0.67681, -0.13714696, 0.05372421, 0.060233887, 0.10696781, -0.08228589, -0.0061900155, -0.22395569, 0.39327708, 0.6577032, 0.10778081, 0.20877934, -1.0953938, -0.28494093, 0.065985136, -0.33899865, -0.120072, -0.00480499, 0.42559147, 0.51215935, -0.25657842, -0.4005027, -0.53318703, 0.1632999, -0.7072385, 1.1414417, -0.045266684, 0.03701837, 0.1860937, -0.5118281, -0.068800956, 0.1049631, -0.10096561, 0.067244604, -0.09257353, -0.009255833, -0.22087009, -0.28349307, -0.04684618, -0.94407076, -0.7697255, -0.019860342, 0.40051898, -0.68664074, -0.102137566, -0.67050856, 0.62824905, -0.3766292, -0.3503656, -0.5101581, 0.9509031, 0.26922992, 0.14074044, 0.25647858, -0.07825003, -0.59148127, -0.64850795, -0.09355533, 0.4676279, -0.3427949, 0.7706167, 0.7160943, -0.23468333, -0.04480945, -0.3641928, 0.14425369, -0.33823898, -0.4139582, 0.94850063, 0.37032792, -0.1988936, 0.08684943, -0.03726807, -0.2715205, 0.0007733858, -0.07149736, 0.2095746, -0.084595285, 0.33569226, -0.03134795, 0.12876558, 0.8924678, -0.63207525, -0.09687055, 0.3747517, -0.11133728, -0.4541917, -0.18490975, -0.1453426, -0.2387805, 0.018296814, -0.73341614, -0.10302179, -0.87684315, 0.05726455, -0.61652607, 0.30242527, -0.19699293, -0.6576145, 0.94517833, -0.22854596, 0.52182573, 0.18736531, 0.3667439, 0.47065452, 0.57409954, 0.02112536, 0.36230445, 0.5508312, 0.20255923, 0.3603089, -0.51046884, 0.30356473, 0.16805382, -0.6205922, 0.06787934, 0.07642423, -1.1612679, 0.067301765, -0.029330654, -0.4765092, 0.13869889, 0.42975244, 1.0102271, -0.021885417, 0.2620333, 0.57580256, 0.22059716, 0.32752037, 0.34251043, -0.45083952, -0.2298223, -0.23317419, 0.6502339, 0.706451, 0.734648, -0.020067416, 0.18566974, 0.02595313, -0.5425969, -0.21656597, 0.21838014, 0.1717331, -0.34200677, -0.39883494, 0.4198564, -0.06545321, -0.09717405, 0.6031728, 0.29560462, 0.39998743, -0.37801668, -0.083095945, -0.31391802, -0.99901396, -0.16365965, 0.11587337, 0.2664562, -0.19204974, -0.9120169, 0.48383132, -0.6474715, 0.32461247, 0.107434146, -0.013746273, -0.14261355, -0.22019218, 0.72577333, -0.24886133, 0.93630534, -0.4873859, -0.15621862, -0.32385054, -0.02729365, 0.15008803, -0.33687925, -0.20091192, -0.029635793, 0.6907873, -0.1940796, 0.30943665, 0.8330563, 0.48953572, -0.1434345, 0.49156567, 0.23365362, -0.40673757, 0.6746358, -0.44883505, -0.9940317, -0.73271894, 0.025989303, -0.27332523, -0.09587135, -0.21389328, 0.06600377, 0.0842438, -0.78348917, -0.5417995, 0.20091522, -0.20251016, 0.07857956, 0.23678577, -0.05020765, -0.0586509, 1.1467515, -0.17130251, -0.7153008, 0.29846945, -0.7139156, -0.3341744, -0.10258171, -0.26176727, -0.07284669, 0.57795805, -0.32337013, -0.25726804, -0.23274684, -0.69645935, 0.2846336, -0.24908806, -0.16225326, -0.25928625, 0.66972035, -0.36976156, 0.78065515, -0.2956949, 0.06613978, -0.123860456, -0.22972083, 0.0479286, 0.050204042, -0.6081288, -0.26555437, 0.11003695, -0.2614584, -0.13304143, -0.2906217, -0.31416306, -0.10957471, -0.7821245, 0.5782046, -0.29019597, -0.06589764, -0.09783316, -0.27907208, 0.24670435, -0.46123576, 0.13497414, 0.0019265413, 1.0359931, -0.016745325, 0.24828339, 0.34755456, 0.42901707, -0.35311317, -0.19998085, -0.12917222, -0.3762008, -0.13927191, 0.046279874, 0.08146873, -0.6543898, 0.2253816, 0.09485769, -0.16893142, -0.6560451, 0.03451856, 0.41661397, 0.48311964, 0.35976407, -0.05040738, -0.18145414, -0.5732258, -0.14864846, -0.6650212, -0.62684804, 0.030258596, -0.22882466, 0.51101106, 0.020243803, 0.07598466, 0.01486221, 0.2939327, -0.0757596, -0.12598424, 0.58443093, -0.19790798, -0.36867428, 0.16184011, -0.16061328, 0.6423073, 0.5206018, -0.08289549, -0.50086635, -0.3460553, 0.35640374, -0.65185124, -0.488811, -0.5838428, -0.92146367, 0.00067929114, -0.79219025, 0.16180031, -0.330618, -0.6016061, -0.3234485, 0.38379857, 0.36733878, -0.42783853, -0.41640767, -0.3703617, 0.07362176, 0.75142646, 0.5877448, 0.13671213, -0.2777434, -0.17367226, 0.6289487, -0.37387052, -0.18958305, 0.3605884, 0.10809066, -0.4270073, -0.17278503, 0.20836842, -0.22348969, -0.14081265, -0.51363426, 0.24260741, 0.057331573, -0.03922397, -0.64158815, 0.275961, -0.3114256, -0.24440145, -0.20311968, 0.8751533, -0.012564321, 0.5580689, 0.6666699, -0.5240166, -0.12763925, 0.28979185, 0.19700615, -0.485631, 0.18367451, 0.2977656, 0.11926091, -0.11801761, -0.33829463, 0.28357252, 0.28298765, 0.012825034, 0.48462102, -0.5698534, -0.2102548, 0.5066775, -0.17511897, -0.15819275, -0.25770536, 0.2740311, 0.7259416, 0.018708901, 0.12874688, 0.32390043, 1.0212435, -0.26053703, 0.1478853, -0.06461071, 0.25298047, 0.29293522, -0.6402971, -0.45827267, -0.23747139, -0.45860255, -0.38241073, -0.31611848, -0.4316325, 0.002692553, 0.25978968, -0.07348923, -0.98640823, 0.1291766, 0.08325264, 0.18671654, -0.19402517, 0.5448736, -0.55224425, -0.1331297, 0.22452068, -0.035926502, -0.07332397, -0.23079658, 0.55587447, 0.43534458, -0.52404153, 0.9432687, 0.2145226, -0.6426653, -0.19258642, -0.54233897, 0.20216614, 0.051887855, -0.063073, 0.27864167, 0.50037, -0.50848854, 0.7203696, 0.34306765, -0.26745155, -0.14876081, -0.9692456, 0.48602962, 0.08062634, -0.012467221, 0.018599162, 0.23233064, -0.9064801, -0.3509773, -1.2195215, -0.56829387, -0.7802046, -0.7319531, -0.02560304, 0.6954151, -0.05831963, -0.22640091, -0.16763537, -0.3158376, 0.097431004, 0.44351378, -0.46319363, -0.01966211, -0.79389787, 0.41274443, 0.19476654, 0.46190092, 0.11750365, -0.49637714, 0.11051146, -0.6929316, -0.035148766, -0.05564809, -1.0152532, -0.18146403, -0.5435999, -0.42761782, -0.46846476, -0.25433567, -0.038978644, -0.35553244, -0.47250155, -0.26312217, 0.68077874, -0.18995626, -0.12576114, 0.59243727, -0.25782225, -0.27984047, -0.053361025, 0.7184822, -0.11848401, -0.6750608, -0.45010018, 0.21374138, 0.29522333, 0.10209558, -0.36806333, 0.05152665, -0.9129691, 1.041991, -0.23435171, -0.4101732, 0.34377524, -0.10758712, 0.093030065, -0.07653557, 0.00810004, -0.3766745, -0.47431192, 0.783233, -0.66964555, 0.45256123, -0.1805921, 0.03367091, -0.27467513, -0.6057585, -0.5500045, -0.49804357, -0.57240015, -0.1920463, -0.046336044, 0.14214292, 0.36277667, 0.1835981, -0.23604365, 0.09179002, -0.29822728, -0.19857292, 0.0824831, -0.096159704, 0.5921384, -0.38335213, 0.35598412, 1.0261447, 0.12759127, -0.14697371, -0.7101043, 1.3563037, -0.5249571, 0.22015373, -0.11596841, -0.20420235, -0.79565215, -0.07988365, 0.46594274, -0.5951056, 0.6118253, 0.23627426, -0.07646626, -0.2141944, 0.041574933, -0.0949159, 0.19766782, 0.22611286, -0.418558, -0.20265608, -0.015458251, 0.013048615, 0.08099537, 0.15880044, -1.0246814, -0.0633724, -0.6052503, -0.29621565, -0.07935258, -0.3594387, -0.13460119, -0.40890658, -0.4538168, 0.037751034, 0.057446405, -0.32657173, 0.5009088, -0.074578635, -0.1547526, -0.20520043, -0.056194823, -0.14418657, 0.684406, -0.1363412, 0.59858996, 0.3977938, -0.1024893, -0.405648, -0.2603618, -0.08367262, 0.22406305, -0.15888214, -0.6063325, 0.29606533, 0.14436601, -0.27308136, -0.41390443, -0.01821619, -0.8192501, 0.36650333, 0.040559575, 0.2914235, -0.027676435, 0.05602881, 0.17680776, -0.11047324, 0.070791416, 0.65474236, 0.2600477, 0.22770514, -0.40500808, -0.2966879, -0.24773924, -0.43087888, 0.6411672, -0.049398646, 0.25682688, 0.2506732, -0.05333926, -0.057264093, 0.5475503, 0.8904353, 0.42097712, 0.22264938]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Gel의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 puncture test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>[-0.6239249, -0.31559843, 0.2866468, -0.6114759, 0.16600561, 0.09078519, 0.27474186, 0.085955635, 0.017765552, -0.18841647, -0.09510597, -0.7655669, -0.19412771, -0.43137643, 0.15569027, -0.09718674, 0.2171242, 0.8501874, -0.17670488, -0.81710136, -0.7603821, 0.40327835, 0.22481121, -0.0152115775, -0.29414505, 0.40393016, -0.663441, -0.21894631, 0.102341935, -1.1435066, 0.59691995, 0.3864753, -0.15341811, 0.6362363, 0.5396396, -0.3095856, -0.66160846, 0.39567912, -0.00905032, -0.22230014, -0.19128077, -0.90317357, -0.17158167, 0.43301904, 0.3554026, 0.68512183, 0.3544087, 0.07889083, 0.047254696, 0.21758658, -0.55908257, -0.14819206, 0.09484513, 0.50020546, -0.024685105, -0.6385399, 0.32669, -0.12187187, 0.09209533, -0.1735538, 0.41841513, -0.6865167, -0.5269755, 0.100983806, 0.24467121, -0.4083058, 0.32411182, 0.41706806, -0.32823694, 0.19300017, 0.16127571, -0.11413689, 0.26569444, -0.50334096, -0.02833694, -0.0347361, -0.3077073, -0.15158416, 0.25198957, -0.16772819, 0.41336334, -0.37384936, -0.36471352, -0.6481158, 0.22180676, -0.5001839, 0.039804406, -0.57956946, 0.37665707, 0.21966957, -0.44883755, -0.66878474, -0.53476435, 0.22978988, -1.0613155, -0.6265727, 0.16169235, -0.2145345, 0.59963685, 0.1572996, -0.19670202, 0.4017776, 0.26380062, 0.33285013, 0.012107945, -0.3784947, -0.52041537, 1.0349263, 0.9546918, -0.22053735, 0.8664919, 0.11003264, 0.10577805, -0.25766003, 0.4663626, 0.30201644, -0.094972774, -0.35664755, -0.18398713, 0.71415603, 0.5119861, -0.14293106, -0.15045387, -0.35615188, 0.11575064, -0.082237855, 0.48527592, -0.3399904, 0.1934405, -0.52474964, -0.079834454, 0.43264893, 0.60965544, 0.007414567, -0.11129614, -0.10290877, 0.4839045, -0.029370118, 1.0676347, 1.020459, -0.9024598, 0.21345527, 0.005546861, -0.34281856, -0.20153895, -0.19605607, 0.3341059, -0.18478481, 0.12237901, -0.37346685, 0.09382717, -0.17183095, -0.82935745, -0.30797404, 0.2837623, 0.07156363, 0.13824928, -0.7551801, 0.2626445, -0.064683415, 0.39623392, -0.37543994, -0.047644373, 0.19562596, 0.028826553, -0.4784365, 0.3568978, 0.33262014, -0.35602826, -0.23839481, -0.32677296, -0.11612952, 0.0131041, -0.15296458, 0.4321157, -0.21746501, -0.2970185, -0.15970744, -0.27845362, -0.26804605, 0.009245541, -0.051184066, 0.038031533, 0.1468879, 0.2772796, 0.5223285, 0.54556173, -0.07652496, -1.1302793, -0.32346264, 0.40158844, -0.32916868, -0.08349235, -0.06484754, 0.30215892, 0.3550944, -0.09412571, -0.28852484, -0.030292105, 0.088624865, -0.98797023, 0.7266096, -0.010124207, 0.2468208, 0.005656437, 0.4005961, 0.036617823, -0.013010442, -0.004460283, 0.085790865, -0.22349742, 0.2490603, -0.08331679, -0.023266269, 0.18742469, -0.68411416, -0.05451989, -0.18589161, 0.16987412, -0.48125988, -0.054931797, -0.50630164, 1.0732378, -0.4239055, -0.7034381, -0.55063045, 0.6040846, 0.134162, -0.21264824, 0.24422958, -0.058067504, -0.7384298, -0.43165493, 0.049414195, 0.7904915, -0.41933367, 0.29674166, 0.32798153, 0.3239926, 0.0049004704, -0.13233027, 0.3106127, -0.034941074, -0.27114704, 0.3836589, 0.2826056, -0.110744, -0.6156577, 0.05808585, -0.5856357, 0.27256945, 0.7579707, 0.22686598, 0.096501775, 0.40582493, 0.0046820524, -0.043499723, 0.85462695, -0.44778916, 0.03377536, -0.16319177, -0.099747166, 0.06442113, -0.10346771, 0.196726, -0.30867338, 0.42695376, -0.74150825, -0.12098095, -1.0602114, 0.20565008, -0.61005366, 0.2663952, -0.001425334, -0.6287485, 0.48561552, -0.359527, 0.2604274, 0.097199716, 0.06778084, 0.35350877, 0.2811401, 0.11064243, 0.52453846, 0.18929362, -0.33578008, 0.20962912, -0.24312736, 0.03907764, 0.013997169, -0.57404715, 0.118016906, 0.37038225, -1.5322541, 0.4481659, 0.1606197, -0.81490356, -0.15206946, 0.49683502, 0.98413604, 0.42964298, 0.07398725, 0.23523809, 0.43754, 0.2154227, 0.30662945, 0.09210339, -0.24983388, 0.0808431, 0.8111165, 0.38990244, 0.45002478, -0.49930447, -0.091606066, 0.18183607, -0.15879576, -0.27054572, 0.044864826, -0.05867289, -0.27052075, -0.5794008, 0.16661453, -0.080697216, 0.21665733, 0.13730325, 0.3890254, 0.0199246, -0.39921921, -0.37429816, -0.309218, -0.82223314, -0.23261732, 0.39602673, 0.16215134, -0.25724605, -0.6106206, 0.6501805, -0.48744696, 0.008981589, 0.061188433, -0.10711128, -0.19407278, -0.52364326, 0.21919677, 0.18003066, 0.67367834, -0.5477992, 0.120704465, -0.33522683, -0.44291127, 0.064023286, -0.5556018, -0.08757256, 0.108836204, 0.60002303, -0.13100688, -0.010461377, 0.76819634, 0.45877326, -0.07296261, 0.68467677, -0.2708844, -0.42536342, 0.47043535, -0.18404414, -0.60376203, -0.8745789, -0.11318385, -0.012981234, -0.07212066, -0.4087637, -0.12594143, 0.02323259, -0.10181786, -0.3278756, 0.455958, -0.3544971, 0.3877735, 0.22036386, -0.038403932, -0.04177314, 0.5907643, 0.06748266, -0.9083981, 0.14085828, -0.5874568, -0.2268117, 0.24681309, -0.17243046, 0.1106345, 1.0347514, -0.6410266, -0.32086942, -0.05547397, -0.4020395, 0.01699194, 0.14748195, 0.3532247, -0.0925616, 0.47078675, 0.12166767, 0.46590593, -0.21416964, 0.18630642, -0.14748277, -0.08489605, 0.49859938, 0.059150025, -0.59926903, -0.19261304, -0.5383371, -0.7298182, -0.21313985, 0.29868194, -0.28217065, -0.045155846, -0.898056, 0.4543322, -0.21100368, -0.23840152, -0.39717484, -0.30658343, 0.43327206, -0.40029284, -0.018863995, 0.17487825, 0.87386775, 0.26041767, 0.6604034, 0.18877672, 0.1420087, -0.53305215, 0.21665777, -0.2367901, -0.4007751, 0.062231805, 0.13377936, 0.09487216, -0.6066881, 0.42576393, 0.1619808, -0.0628444, -0.5613907, -0.15554945, 0.26133367, 0.39073676, 0.09827685, -0.069101036, -0.72393996, -0.4852993, -0.56250334, -0.30540317, -0.6992131, 0.13494107, -0.3298017, 0.6550677, 0.07700525, -0.07109071, 0.20578334, 0.2721085, 0.1446119, 0.08943736, 0.60613793, -0.08211307, -0.003957196, -0.039522085, -0.14669843, 0.8368524, 0.8571176, 0.16457175, -0.0813189, -0.30161026, 0.5019666, -0.5159466, -0.27678615, -0.13738772, -0.49341208, -0.25603533, -0.46344656, 0.5062305, -0.35547835, -0.5984133, -0.08023875, 0.32270113, 0.4835277, -0.1330994, -0.5608825, -0.57611775, 0.24790454, 0.49402258, 0.5530317, 0.0635384, -0.22749059, -0.6768195, 0.120882325, -0.32699218, -0.20655145, 0.8066591, 0.2777696, -0.06300472, -0.17418796, 0.29317325, -0.5047839, 0.07710098, -0.42446655, 0.4224753, 0.08846902, 0.012663031, -0.54937863, 0.36433184, -0.45637745, -0.56074613, 0.09390223, 0.42592847, 0.031456433, 0.48511922, 0.5166348, -0.17233421, 0.036132652, 0.5988138, -0.25284663, -0.8515647, 0.2628191, 0.4103619, 0.41078028, -0.2283304, -0.36864644, 0.47730717, 0.1500274, -0.46592063, 0.1860327, -0.39786783, -0.1699667, 0.1412208, -0.22081, -0.083067216, -0.32251394, 0.34109366, 0.48395428, -0.019440856, 0.17882079, 0.4957666, 0.7879944, -0.12995969, 0.2503889, -0.20349486, 0.43434012, 0.2696436, -0.5616093, -0.5938003, 0.03599861, -0.437865, -0.26389906, -0.2607344, -0.5490574, -0.0124436915, 0.18200347, -0.22640745, -1.1042762, 0.088268444, -0.15184969, 0.4478541, 0.12222923, 0.06638779, -0.24379185, -0.29712445, 0.12722254, 0.30965334, 0.017049922, 0.07623308, 0.72311676, 0.5495332, -0.2903084, 0.3754064, -0.18314585, -1.0735366, -0.21674842, -0.9903033, 0.2622085, -0.2008965, -0.26265728, 0.13683917, 0.69874966, -0.7527669, 0.5553248, 0.31660545, -0.33019495, -0.37659758, -0.8692373, 0.3934697, -0.2907667, -0.5396092, 0.05592995, 0.5953965, -0.98412216, -0.45417932, -1.0557674, -0.83342713, -0.4826692, -0.25174317, -0.1741619, 0.7648046, -0.20980135, -0.08050963, -0.45709404, -0.62264353, -0.03294069, -0.25576046, -0.3477957, 0.02706757, -0.46060067, 0.3026047, 0.56762064, -0.094369754, -0.34526157, -0.59002835, -0.036540344, -0.48467353, 0.36003372, 0.2035906, -0.2249066, -0.3268475, -0.18465851, -0.38135135, -0.45103776, -0.3060257, 0.12580557, -0.2508064, -0.520084, 0.038596906, 0.40606675, -0.5221701, 0.23185955, 0.6687859, -0.39870945, -0.43669906, 0.20048025, 0.19319782, -0.6087135, -0.5458958, -0.47983906, -0.15240508, 0.18164894, 0.12615474, -0.13578342, 0.056871574, -0.78154624, 1.144945, -0.24274136, 0.019531757, 0.2904361, -0.44081864, -0.22651516, -0.014804744, 0.5969374, -0.2771397, -0.23284449, 0.41553622, -0.42361066, 0.6524087, -0.29373723, -0.04843378, -0.5338854, -0.47166947, -0.1869651, -0.59587586, -0.7681468, -0.19536635, 0.40986034, 0.2830539, 0.40299225, 0.29561746, 0.083029196, 0.16074929, 0.020990402, -0.44144705, 0.38162282, 0.22942463, 0.59078676, -0.5020971, 0.23349065, 0.7104692, 0.14269625, 0.058076896, -0.48267502, 1.2722105, -0.2069678, 0.13733427, -0.21033725, -0.14557481, -0.820345, -0.24878702, 0.27398375, -0.43684104, 0.7143307, 0.451448, -0.09232696, -0.12513044, 0.25988108, -0.13939399, 0.38936275, 0.37027815, -1.0802833, -0.41718313, -0.0936553, -0.0075188326, 0.0726401, 0.34485406, -0.28767097, -0.21760711, -0.28315678, 0.11557526, -0.2698581, -0.28404516, -0.050537888, -0.27704567, -0.59524703, 0.13881797, 0.22567603, -0.4271882, 0.37014547, -0.3294034, -0.12575193, -0.45866472, -0.24677643, -0.00970641, 0.71033406, -0.18510093, 0.224355, 0.39443195, 0.016974542, -0.42679358, -0.2773095, 0.12963626, 0.25518844, 0.050173182, -0.6409007, 0.008734282, 0.056442678, -0.15487462, -0.17295569, 0.13999484, -0.28735945, 0.40163025, 0.40802348, 0.69198185, -0.19775471, -0.22405757, 0.2781766, -0.23477422, 0.27074808, 0.5563877, -0.13775837, -0.057488628, -0.071715675, 0.056521587, -0.2557988, -0.5212441, 0.22412784, -0.21876958, 0.0015010496, -0.078905776, -0.08466737, 0.11206681, 0.38144046, 0.8129635, 0.31261742, 0.07713591]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>밀가루의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, farinograph, RVA, mixolab 등의 기기를 사용하여 측정합니다.</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>[-0.49071953, -0.5728421, 0.006737119, -0.66278553, -0.2736113, -0.56518584, 0.19769476, -0.14495675, -0.1764996, 0.3160024, -0.18147238, 0.36736825, -0.18544374, 0.35062838, -0.3362305, -0.14643712, 0.11439997, 0.21565165, -0.13726945, -0.25349924, 0.41655365, -0.57195646, 0.26219544, -0.17883806, -0.08884614, -0.40816772, -0.23120356, 0.06388234, -0.6449819, -0.89582753, 0.6873116, 0.29513702, 0.116804, 0.15421854, -0.0013862029, 0.15934749, -0.39977363, 0.17204653, 0.19747645, 0.10442691, -0.32945484, -0.32245848, 0.23787737, 0.64273775, 0.4243333, -0.01903171, 0.072035156, 0.14105444, 0.24202996, -0.052701477, -0.13833494, 0.27367654, 0.18791997, 0.30495718, -0.15466641, -0.7396342, 0.4364963, 0.5383745, 0.047728583, -0.44058743, 0.06177594, -0.6243029, -0.20097524, -0.023437353, -0.07325356, -0.70673424, 0.21965885, 0.025650537, -0.07212014, 0.034888107, 0.20528752, 0.5834009, 0.18490477, -0.5203095, 0.4489218, -0.36194608, 0.109511204, -0.068219, 0.7051894, -0.23327643, 0.3257438, 0.18260527, 0.060314745, -0.7627854, 0.37896022, -0.65575576, -0.1130608, -0.26099092, -0.09987899, 0.50412405, -0.14495541, -0.837512, -0.12911391, 0.17226768, -0.59924006, -0.18530984, 0.028785117, 0.16068698, -0.03753258, 0.15782286, -0.5624413, -0.094752975, 0.12358903, 0.73504144, 0.047112484, -0.5099302, -0.3210754, 0.21870202, 0.5008121, 0.11793078, 0.30747327, -0.38795552, -0.00081023574, 0.09482411, -0.039096743, 0.62245053, -0.016550362, 0.1595877, -0.12390486, 0.20102687, -0.3101802, -0.34527513, -0.91334534, -0.47311604, 0.6386047, -0.19514477, 0.320761, -0.08641848, 0.43023565, -0.27799717, -0.15550439, 0.6555204, 0.4545742, -0.017216621, -0.78787136, -0.6087203, 0.4876914, -0.13209526, 0.56691194, 0.8182911, -0.5457037, 0.29134348, -0.110866785, 0.5395822, -0.1502857, -0.13183564, 0.66753525, -0.45340917, 0.11955569, -0.53372306, -0.48478174, 0.03792094, -0.2583141, 0.38573232, 0.13632593, 0.22140832, -0.0030832514, -0.6785564, 0.099540584, -0.37007213, 0.68523926, 0.1956793, -0.2492264, -0.1720857, 0.80604774, -0.36751232, 0.024600096, -0.1827092, -0.4189327, -0.025915615, -0.08759127, -0.3058562, 0.438331, -0.5819439, 0.69008374, -0.36017892, -1.0133827, -0.29360127, -0.17765881, -1.0176516, -0.07387581, 0.36248294, -0.30338684, 0.06746366, 0.16869074, 0.26054296, 0.024620779, -0.27303353, -0.9798324, -0.816322, 0.16621791, -0.4052646, -0.37365398, -0.144848, 0.046807434, 0.19968669, -0.6226475, 0.016527789, -0.652263, 0.06894449, -0.45276573, 1.0492964, -0.19223922, 0.3377733, 0.24580371, 0.44066742, 0.16290304, -0.31519124, 0.58099467, -0.12655334, -0.13436353, -0.10296444, -0.46228543, 0.20850706, -0.4134883, -1.3123821, -0.6313255, -0.6730552, 0.2923437, 0.16429631, 0.16243128, -0.50787514, 0.7182555, -0.42977074, -0.15505043, -0.101002365, 0.76221544, 0.75269955, 0.30943727, 0.54291683, -0.6337312, -0.29883137, -0.34911025, 0.42095613, 0.09829104, -0.45468888, 0.08617059, 1.2037312, -0.7753758, -0.14782695, 0.121153794, -0.09339274, -0.117660165, -0.23138595, 0.4709258, 0.03390132, -0.18586807, -0.60740745, -0.272615, -0.46348616, 0.48127386, 0.25740245, 0.0578472, -0.16178057, -0.12731339, -0.2929544, 0.46459356, 0.6605585, -0.83239895, -0.26858872, 0.08977494, 0.16000672, -0.36357808, 0.23442225, -0.49994174, 0.33565888, 0.18204905, -0.92443675, -0.30969095, -0.6092177, 0.11550162, -0.24824244, 0.6060336, -0.08858395, -0.059248116, 0.43386778, -0.30611303, 0.17841786, 0.009036664, -0.0035952765, -0.7621872, 0.40718392, 0.38069794, 0.69183034, 0.71048695, -0.1279498, 0.16989009, -0.28922057, 0.08038086, 0.20369299, -0.31039906, 0.20172442, -0.5211705, -0.30666378, 0.28335276, -0.017560896, -0.900997, -0.15682647, 0.5535663, 0.8921106, -0.069213144, 0.39230654, 0.16674154, 0.4986342, -0.25153944, 0.09946561, 0.014608982, -0.854867, -0.47702447, 0.7707853, 0.46577513, 0.025768206, -0.0557486, 0.3528186, 0.046368465, -0.8091833, -0.3766518, 0.1662824, -0.5183676, -0.18145128, -0.3528074, 0.60784346, -0.029185167, -0.065918125, 0.2602373, 0.5480522, -0.11675153, 0.41712737, -0.7489347, -0.53534764, -0.6902949, -0.13402896, 0.22003587, 0.47684565, -0.4708211, -0.543517, 0.5206449, -0.9658346, -0.019925566, 0.3040043, 0.32440853, 0.37223387, -0.3960639, 0.39201626, -0.7137696, 1.0228721, -0.61769253, -0.020235592, 0.18935716, -0.47861037, -0.6246224, 0.19123435, -0.20820552, -0.5073905, -0.14838463, 0.049079403, 0.561361, 0.25651485, -0.08681023, -0.62589633, 0.6573662, -0.12625809, 0.3803116, 0.11363534, -0.35687515, -0.23209207, -0.57751817, -0.26813197, 0.28330272, 0.2563083, 0.09491231, 0.020092018, 0.06559092, -0.44268945, -0.21460445, 0.47778335, -0.46953878, -0.6980373, 0.29225412, -0.12480089, 0.6367375, 0.69575447, 0.06039531, -0.53713745, 0.14117406, -0.41370955, -0.1562826, -0.08547782, -0.49627635, 0.6270355, 0.13162623, -0.63269943, -0.27400458, 0.010601091, -0.88153285, 0.10484084, 0.011612743, 0.25735784, -0.17509429, 0.25348476, -0.12656535, 0.40214798, -0.6817043, 0.59835327, 0.5548559, 0.15334748, 0.14297478, -0.19531117, -0.24639793, -0.62633365, 0.26629323, -0.20803438, -0.41804793, -0.57265055, -0.42644668, 0.072111465, -0.9541764, 0.3572955, -0.17821608, -0.17294216, -0.45775458, -0.4731333, 0.38325515, -0.3017238, 0.5041771, -0.100687504, 0.7959914, -0.10917821, 0.101948105, 0.19791412, 0.5090338, -0.2449571, 0.08069978, -0.6491311, -0.6999863, -0.024454365, 0.23670818, -0.00040634503, -0.29846025, 0.7508385, 0.90481424, -0.2824445, -0.2675703, -0.2260559, 0.22656779, 0.087143816, 0.6032635, 0.31465623, -0.22320116, -1.033367, 0.15847965, -0.9749811, -0.5020613, 0.2895635, -0.054570127, 0.33340028, -0.24268174, -0.116322935, -0.2988344, 0.05600092, -0.02719984, 0.2876149, 0.6936453, -0.09430923, -0.025569344, 0.8255065, -0.49953818, 0.15185103, 0.09414539, -0.22321749, -0.42581227, -0.026048454, 0.6398938, -0.41532826, -0.22954468, -0.5159562, -0.25069335, 0.29623058, -0.88282865, 0.30848497, -0.6873314, -0.10588335, 0.4971734, 0.14700647, 1.4203652, 0.101550676, -0.05838808, 0.008715302, 0.27024364, 0.6763752, 0.56155235, 0.28009668, -0.56464905, -0.72071344, 0.24520342, -0.07590977, -0.114905804, 0.7084291, -0.63488626, 0.26852068, -0.31032372, 0.10472863, -0.18655723, 0.5520813, -0.32061052, -0.01366623, 0.07010972, -0.4201462, -0.29950467, -0.10101435, 0.05101961, -0.26645017, 0.031853247, 0.48655745, 0.123443484, 0.558553, 0.3946036, 0.23255193, 0.40736976, 0.1928583, 0.06381485, 0.23265094, 0.22171278, 0.27810898, 0.11778625, -0.072701335, -0.37960717, 0.35784853, 0.66802025, 0.071449645, 0.27702585, 0.17017603, 0.37432173, 0.38268885, -0.13969152, -0.34171796, -0.24422248, 0.39449704, 0.7595363, 0.7077814, 0.15222941, 0.26816562, 0.60429317, -0.9511005, 0.3702447, 0.10219431, 0.3351506, -0.0814994, -0.62082046, -0.57609636, -0.3305755, -0.4974012, 0.1793083, -0.028285488, -0.60839033, -0.34967217, 0.45839164, -0.17625892, -0.51061517, -0.20270687, 0.040454064, -0.13249792, -0.049992383, -0.021060621, -0.5703414, 0.350991, -0.04771498, 0.018821409, -0.09074521, -0.27204373, -0.10450649, 0.3728758, -0.74434227, 0.7371602, -0.4716325, -0.6355763, -0.7400513, -0.74592906, -0.418918, -0.1643451, -0.46860918, -0.08824855, -0.050614294, -0.48630488, 0.6961854, 0.14927842, -0.3892887, -0.111316, -0.27497807, 0.30162355, -0.11837083, 0.10308435, 0.25315133, 0.50985247, -0.38434085, 0.11665926, -0.76838964, -0.047768056, -0.36535242, -0.32393238, -0.2627205, 0.50499576, -0.18174565, -0.12772115, 0.3793517, -0.15146358, 0.21604587, 0.18674679, -0.06426578, 0.13145906, -0.15812813, 0.81532955, 0.2492075, -0.3107784, 0.045930024, 0.16021822, 0.37190887, -0.111060835, -0.08878938, 0.044900145, -0.2894751, -0.8149004, -0.79088145, -0.9054553, -0.77834255, 0.087409765, -0.06967626, -0.29126772, -0.639074, -0.020546965, 0.55484307, -0.14866193, -0.38003084, 0.0942612, -0.5422765, -0.2761459, -0.011502508, 0.9927862, 0.12535925, -0.95481586, -0.57896054, -0.14654164, -0.32128593, 0.3113458, -0.4808006, 0.44485092, -0.7746846, 0.44690594, -0.08090974, -0.16816588, -0.011735424, -0.24798219, 0.18500452, -0.17830783, 0.40431356, 0.17999496, -0.10673022, -0.009509425, -0.61666685, -0.084212355, 0.06788177, 0.025602957, -0.11509573, -0.23548554, -0.3741723, -0.5471551, -0.33961558, -0.19710827, -0.2054032, 0.4419713, -0.102814935, 0.08186906, -0.40193716, -0.09835744, -0.26208675, -0.5875272, -0.3381091, 0.17681831, 0.093769014, -0.51450187, 0.100170456, 0.709524, 0.44445074, 0.47498694, -0.36846176, 1.4650187, 0.13620965, 0.61710787, -0.25956252, 0.58870554, -0.063125975, -0.1022936, 0.45006597, -0.836302, 0.6067588, 0.29314995, -0.5374013, 0.29513118, -0.063107565, 0.44709024, 0.038669173, 0.6473551, 0.3195761, 0.12505606, 0.17834498, -0.35033068, 0.00014671932, -0.07726135, -0.35565057, -0.32474497, -0.59477055, -0.1936609, -0.13474624, -0.6922594, 0.17075355, -0.35458896, -0.55742747, 0.41224995, -0.28931084, -0.12265157, 0.4589777, 0.14733924, -0.09975767, 0.045447808, -0.46015826, 0.216869, 0.33521917, 0.039583724, 0.37246308, 0.40003428, -0.3725258, 0.13090114, -0.36486495, -0.21223722, 0.6599509, 0.081084676, -0.3904965, 0.40266588, -0.6366156, -0.05465269, -0.34980798, 0.71886873, -0.9580856, 0.082859434, 0.18357784, 0.19763583, -0.05525102, 0.38066208, -0.106146365, -0.038082708, 0.37666443, 0.601811, -0.3489556, 0.34195557, -0.16530858, -0.10866723, -0.20029426, -0.09288039, 1.1481658, -0.6996743, 0.041576087, 0.18864465, 0.13970824, -0.90005356, 0.6578779, 0.66962534, 0.09307429, 0.2686567]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>쌀가루의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, RVA, mixolab 등의 기기를 사용하여 측정합니다.</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>3</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>[-0.07503781, -0.7054678, 0.3368856, -0.84809405, -0.093816645, -0.7235687, -0.25650218, 0.11209207, -0.17461301, 0.07055412, -0.014644618, 0.06869818, -0.05992597, -0.28351924, -0.3751976, 0.27642125, 0.28843257, 0.28511107, -0.04476694, -0.5229483, 0.015566943, -0.47266528, 0.108444214, -0.23297821, -0.36992204, -0.09743659, -0.32280004, -0.060476765, -0.38203666, -1.1427369, 1.1556113, 0.55594784, 0.25977868, 0.29251593, 0.1234458, 0.33241332, -0.1255758, 0.18882722, 0.32413673, -0.0038453517, -0.29764637, -0.4783769, 0.73585904, 0.16430947, 0.37147114, -0.29359114, 0.11382509, 0.033574793, -0.29608446, 0.022505274, -0.28689736, 0.3453459, 0.3001036, 0.39553863, -0.27155632, -0.6346516, 0.24526389, 0.6053306, 0.27013952, -0.6756825, -0.15056565, -0.6622846, -0.21982087, -0.24196038, -0.2284659, -0.5241983, 0.17731984, 0.13530356, -0.20590955, -0.09583097, 0.21718334, -0.03091938, 0.3602969, -0.5357058, 0.23407802, -0.44654524, -0.1836438, -0.11769182, 1.0001128, -0.2682773, 0.57022625, 0.16812879, 0.03970929, -0.8107084, 0.3695998, -0.17959745, -0.2017033, -0.5486554, -0.20279297, 0.40138242, -0.30505812, -0.46481147, -0.83777934, -0.29217127, -0.68326133, 0.19119619, -0.03152717, 0.04431381, -0.2020259, -0.17641665, -0.10591761, -0.26813808, 0.27118188, 1.158608, 0.36097875, 0.012518658, -0.7334363, 0.24268767, 0.24197099, 0.09604441, 0.7013352, -0.7349402, -0.018313112, 0.21138047, 0.100832276, 0.6937252, -0.24186596, 0.048029486, 0.010114331, 0.10491756, -0.15687452, -0.026634622, -0.85773206, -0.28524023, 0.433293, -0.20753168, 0.5368998, -0.3274153, 1.0597972, -0.27093875, -0.048403822, 0.37791777, 0.25114486, -0.16537005, -0.80217594, -0.6706219, 0.14611146, -0.0067915665, 0.36681733, 1.051104, -0.6596619, 0.50615096, 0.010460449, 0.38409907, -0.42112064, -0.21405128, 0.37864825, -0.27398822, -0.10867117, -0.48924592, -0.18723586, 0.26976693, -0.31928343, 0.14856832, 0.011904189, 0.14979666, -0.14747156, -0.52760386, 0.17286406, -0.2736587, 0.60626006, 0.36990923, 0.009567197, 0.11582926, 0.68860435, -0.3029607, 0.15256429, -0.26934978, 0.11297503, -0.006487656, -0.1321519, 0.26019728, 0.32762563, -0.27287534, 0.48223177, -0.34669986, -0.7392694, -0.4123138, -0.21996865, -0.5738019, -0.026253054, 0.17605649, -0.007933819, -0.072228506, -0.15084773, 0.062210295, 0.66336495, -0.22532177, -0.4423442, -0.16005398, 0.75559163, -0.07360912, -0.20666218, -0.27213266, 0.01277012, 0.63042384, -0.45004982, 0.09454287, -0.34351355, 0.32967103, -0.40311912, 0.8848343, -0.3191164, 0.26409683, 0.05344289, 0.35074827, 0.46374017, -0.023134282, 0.26920512, -0.25832602, -0.32113156, -0.27176568, -0.4759544, 0.04835471, -0.325995, -1.2371628, -0.6277961, -0.5600911, 0.28258258, 0.19119647, 0.24046327, -0.5311947, 0.5939512, -0.92910045, -0.21881057, -0.28948966, 0.61255085, 0.55357313, 0.2705673, -0.2270473, -0.41205025, -0.41821274, -0.101287805, 0.23237231, 0.7535871, -0.16777794, 0.3059234, 1.0914718, -0.81732345, -0.19686839, -0.06994077, -0.046589606, -0.7451608, 0.033495106, 0.12068666, 0.46711677, -0.02397062, -0.7428522, -0.27477938, -0.6260877, 0.1981362, 0.5671166, -0.20956606, -0.12360769, 0.1768979, -0.425845, 0.42755762, 0.4719528, -0.39402038, -0.41165066, 0.49704415, 0.20284009, -0.40126923, 0.3088977, -0.16565856, 0.0017413256, 0.5952347, -1.162135, -0.07116885, -0.3177819, -0.108135715, -0.8924631, 0.35190153, -0.13542038, -0.39692605, 0.47849658, -0.660039, 0.6310564, 0.28351957, -0.19301844, -0.20748553, 0.21234125, 0.31261742, 0.6757794, 0.32787454, -0.27869144, 0.090511076, -0.2811585, 0.21930422, 0.34398314, -0.55241203, 0.3636399, -0.08525797, -0.2885041, 0.4069486, -0.11973433, -1.1743923, -0.16732281, 0.46402746, 0.774227, 0.09830986, 0.35943094, 0.020969719, 0.46232128, -0.34922794, 0.14786354, -0.1574956, -0.32628626, -0.8324051, 0.7721179, 0.11031032, 0.08288618, 0.08290585, 0.16796449, 0.13749745, -0.7173189, 0.027757177, 0.05217525, -0.44312498, -0.57656395, -0.3351822, 0.7279384, -0.08770975, -0.013766163, 0.58663046, 0.79958045, 0.2923304, -0.14680752, -1.0305542, -0.20525613, -0.8109966, -0.3703609, 0.20402628, 0.5326687, -0.43995604, -0.66549075, 0.5372346, -0.63274413, 0.40585354, -0.02093633, 0.07216386, 0.47881716, -0.007511405, 0.37463382, -0.1440575, 0.6541217, -0.5167326, -0.35747746, 0.06759072, -0.5941665, -0.40883288, 0.2122657, -0.17709613, -0.32367074, -0.072677284, 0.15965265, 0.6204304, 0.3555887, 0.32769907, -0.31922597, 0.73106503, 0.23436907, 0.15114059, 0.08378528, -0.40686786, -0.44155455, -0.50476116, 0.28762907, 0.24008223, -0.016603338, -0.07861127, 0.12931575, 0.09495667, -0.5150734, -0.19797993, 0.3233536, -0.49937204, -0.6194452, 0.16078562, -0.17933896, 0.3794686, 0.7503284, -0.19901603, -0.776765, 0.6010764, -1.0604408, -0.12570055, -0.36957327, -0.2502381, 0.6699009, 0.25462854, -0.5534418, -0.567311, -0.16532813, -0.0666731, 0.055159073, 0.30738255, -0.079110496, -0.021967549, -0.2883696, -0.13571025, 0.27454123, -0.3374694, 0.58199155, 0.42044455, -0.24347228, -0.23170707, -0.037008785, -0.12355954, -0.62714803, 0.079690345, -0.21884729, -0.11875023, -0.783097, -0.594343, -0.15835418, -0.8137818, 0.23914076, -0.21999437, 0.07340295, -0.31105945, -0.7431003, 0.57330954, -0.46263954, 0.2414344, 0.04353928, 0.22612879, 0.015241242, -0.1480597, 0.13322608, 0.59223264, -0.35815617, -0.15505058, -0.42412502, -0.4260923, -0.271553, 0.12033964, 0.021495981, -0.4623574, 0.7023154, 0.30146325, -0.28748885, -0.26603067, -0.046492696, 0.5103975, 0.11885662, 0.69365567, 0.06274187, -0.4431155, -0.833582, -0.2046678, -0.9009006, -0.2898702, 0.24837413, -0.2667008, 0.4325472, 0.011195857, 0.11528444, -0.2709197, -0.315097, -0.11993898, 0.3826862, 0.3939699, -0.7173026, 0.15210754, 0.8581155, -0.45664293, 0.43470395, 0.3659953, 0.2721385, -0.36728412, 0.16883594, 0.18852104, -0.20408025, -0.67792004, -0.36260077, -0.49129164, 0.2654695, -0.52186406, -0.20443033, -0.080926485, -0.14556247, 0.5854425, 0.2846658, 0.60446143, 0.07318576, 0.15066534, 0.09963102, 0.2541396, 0.7745952, 0.8737498, -0.021151964, -0.46603107, -0.17718583, 0.42901248, -0.34504697, -0.11148848, 0.6474547, 0.025050927, 0.35404238, -0.36755225, 0.076763235, 0.25901365, 0.596492, -0.42905313, -0.019112524, 0.0055091074, -0.42402756, -0.41335458, 0.15512584, -0.2682908, -0.3147766, 0.040485527, 0.22435379, -0.2214084, 0.7343441, 0.63280857, -0.1396459, 0.4811215, 0.1480984, -0.19741915, 0.16983701, 0.207329, 0.44590467, 0.19273561, -0.108393356, -0.0466662, 0.38589668, 0.61467534, -0.0007542985, 0.31923655, 0.22196688, 0.23737405, 0.18615316, -0.23325838, 0.096094206, -0.16965176, 0.40558785, 0.71729946, 0.80643547, 0.47735488, 0.2224604, 0.30456063, -0.7176733, 0.29118, 0.0042679403, 0.5198103, 0.1872116, -0.7510033, -0.45989797, -0.35162967, -0.59663796, -0.0021200867, -0.09205721, -0.5126261, -0.09334501, 0.6268358, -0.37197354, -0.8785366, -0.34429455, -0.06624109, 0.18456748, -0.14205891, -0.70689464, -0.7008962, 0.47687465, -0.28167334, 0.2934567, -0.07960287, 0.27624562, 0.3726415, 0.55865556, -0.53640115, 0.90859836, -0.8106301, -0.37059167, -0.86319214, -1.0365564, -0.06197075, -0.08565204, -0.48150113, -0.13444623, -0.086695194, -0.62676835, 0.8617808, 0.5113923, -0.17994732, -0.17211276, -0.4461736, -0.22696495, -0.25073826, -0.23302081, 0.081252165, 0.4915781, -0.38366416, -0.067041986, -0.6545446, -0.3872084, 0.36211258, -0.072340466, -0.18330783, 0.80610096, -0.12387832, -0.045481607, 0.10532086, -0.43885466, 0.026065992, -0.65165955, -0.43799984, -0.48462024, -0.16023937, 0.9702089, 0.3852138, 0.4139164, 0.25043532, -0.28948304, 0.018848207, -0.51757175, -0.15708192, -0.26745123, -0.59882873, -0.5020294, -0.66440666, -0.4646769, -0.62139964, -0.11242408, 0.21294, -0.40518382, -0.29396367, 0.28020567, 0.7135763, -0.09733575, -0.40333968, 0.028644381, -0.60092694, -0.17789927, -0.11020401, 0.8708909, 0.26029387, -0.9265051, -0.45844918, 0.18117717, -0.0479975, -0.057888426, -0.22466803, 0.23859003, -0.95985615, 0.53594744, 0.08273704, -0.1939192, -0.11799752, -0.5028969, 0.50345033, -0.4386643, 0.42193174, 0.3126991, -0.19158953, -0.24771467, -0.22293425, -0.03764017, 0.04449531, 0.1905826, -0.2053068, -0.24733019, -0.3757327, -0.93834966, -0.49625486, -0.19066873, -0.37582636, 0.34815747, 0.1750811, 0.11202713, -0.15053408, -0.11328855, -0.32036322, -0.3472494, 0.0043377853, 0.31872222, 0.06475858, -0.5471167, 0.24549697, 0.7092909, 0.13879386, 0.14567164, -0.49977702, 1.4338119, -0.1257422, 0.7498549, 0.039737623, 0.5526065, -0.29722038, -0.23886038, 0.24636044, -0.523366, 0.37819096, 0.19139767, -0.32313907, 0.067315795, -0.078189746, 0.4807453, -0.10125402, 0.40953353, 0.24605578, 0.29868048, -0.15306763, -0.50726485, 0.01838834, -0.12126006, -0.20989749, -0.69901025, -0.44179118, 0.16528383, -0.12562859, -0.7607264, -0.00072647457, -0.3615175, -0.25038275, 0.48624003, -0.24140415, -0.2059549, 0.6565017, 0.2609344, -0.13980715, 0.29223987, -0.5385264, -0.049386658, 0.63115084, -0.2027576, -0.07597034, 0.021402244, -0.29083133, 0.10554838, -0.32293314, -0.15613873, 0.5570598, -0.3115986, -0.36900333, 0.27251518, 0.034700148, 0.07744034, -0.22019926, 0.29431835, -1.0673186, 0.49189237, 0.061663345, 0.33334032, -0.18361852, 0.34210336, -0.10640471, 0.23109466, 0.26082265, 0.523313, -0.06368001, 0.08037806, -0.6365262, -0.38785714, -0.08595386, 0.032862585, 0.8620939, -0.47734827, 0.022660546, 0.17194034, 0.09288566, -0.8527224, 0.5314571, 0.865786, 0.5563022, 0.18187629]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>바삭함은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Puncture test를 사용하여 측정된 곡선의 peak의 힘값, 개수, 기울기 등으로 측정할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>[-0.72568136, -0.06335609, 0.51320255, -0.3217948, 0.033221696, -0.52455276, 0.21347788, 0.47144222, 0.3681281, 0.5616766, -0.08822297, -0.3682006, 0.045063116, 0.2240076, -0.073335156, 0.28316674, -0.40749484, 0.24219108, -0.09471537, 0.13406594, -0.08484143, -0.21209116, 0.2363116, 0.37179077, -0.37706646, -0.39301595, -0.50750816, -0.08836214, -0.06802347, -0.598841, 1.0880035, 0.04307528, 0.30606118, 0.3312243, -0.11660476, 0.05538059, 0.05863156, -0.10584035, -0.051971503, 0.12031045, -0.4140419, -0.28284395, 0.006892456, 0.8117679, -0.20847516, -0.3150144, 0.08774903, 0.3958924, -0.61828035, -0.20856507, 0.11593076, 0.25579807, 0.72101563, 0.7193229, -0.37060496, -0.45844358, -0.1818473, 0.36444083, 0.41709718, 0.017632462, 0.0038461252, 0.035123818, -0.50989664, -0.5112086, -0.042228796, 0.050204862, -0.022667136, 0.21372733, -0.5358201, -0.075159766, 0.044326793, 0.15729189, 0.14313893, -0.23230867, 0.48798165, -0.026985671, -0.30131784, -0.44953424, 0.60274714, 0.6245829, 0.18826486, -0.0023806826, 0.0892808, -0.97602445, 0.05134792, -1.0602176, 0.40264732, -0.064491205, -0.38087448, 0.42491603, -0.44448647, -0.75794333, -0.27615884, 0.2566441, -0.92764693, 0.055055983, -0.14970729, -0.32489854, 0.23162901, -0.6657015, -0.55244124, -0.18801466, -0.46159983, 0.9032472, -0.018240446, 0.47728315, 0.0742475, 0.4094545, 1.0987872, 0.09354688, 0.1474289, -0.51621723, -0.2146266, 0.13792196, -0.060193695, 0.3808053, -0.24601491, 0.12603481, -0.04103856, 0.24754784, 0.018969515, -0.38041782, -0.2041692, -0.0988037, -0.14868847, 0.063785985, 0.779064, 0.1731185, 0.26575705, 0.24872744, 0.121184334, 0.37426558, 0.6051413, 0.23962383, -0.8481779, -0.5721994, 0.18426484, -0.02299501, 0.3988256, 0.2870962, 0.11193013, 0.071195304, -0.099247254, 0.093177564, -0.23470101, 0.11866832, 0.678154, -0.79260397, 0.046538938, -0.70939624, -0.2767688, 0.55627775, -0.028884163, 1.0971422, 0.58746374, -0.15923354, -0.037382107, -0.30587003, -0.27293476, -0.1305056, 0.44376573, 0.10875583, -0.29845506, 0.05830559, 0.70208055, 0.19724526, 0.33150202, -0.2580039, 0.14608754, -0.5703489, -0.097750925, -0.37733823, 0.106601775, -0.5264359, 0.13531606, -0.2647183, -0.40166807, -0.039868563, -0.19742502, -0.6911681, 0.48600656, 0.16747186, 0.19952057, 0.03346144, 0.005693638, 0.29159635, -0.031320415, -0.5041428, -1.3944756, -0.5105607, -0.07994868, -0.058420528, 0.01916178, 0.08687694, 0.104612455, 0.27035308, -0.12828305, -0.00831871, -0.7111644, 0.022685263, -0.3727623, 0.7335073, -0.55759835, 0.31424, 0.13018727, 0.010875167, -0.2380269, -0.24318926, 0.8215591, -0.009097778, -0.36368328, 0.7637199, -0.36096704, 0.36254692, -0.15077807, -1.4454292, -0.56259316, -0.14290002, -0.071047544, 0.14878358, 0.13241634, -0.40684986, 0.68347406, -0.20101616, -0.17366114, -0.25917006, 0.30403772, 0.48410326, 0.62539345, 0.42372924, -0.24106498, -0.5699479, -0.18008044, -0.21450731, 0.40362224, 0.029285545, 0.36783004, 0.48404494, -0.6954096, -0.053886365, -0.15139423, 0.27625978, -0.45734748, -0.37227544, 0.25973633, 0.49066663, -0.25227627, -0.04538279, -0.52986515, -0.24521801, 0.26080236, 0.3506028, -0.16048661, -0.7150855, 0.1515696, -0.22740021, -0.14051604, 0.770612, -0.62981397, -0.2791713, 0.04714524, -0.3026871, -1.0251291, -0.007999753, -0.14325513, 0.2694524, 0.23565197, -0.33915415, 0.35061616, -0.20790553, -0.03281959, -0.03375975, 0.33542427, -0.22894108, -0.05606395, 0.15568018, 0.010049, 0.4595147, -0.02661702, 0.31247815, 0.07047675, 0.4580508, 0.552595, 0.2430437, 0.7801863, -0.13415161, 0.61555195, -0.31905845, -0.51519865, 0.1468942, -0.43202385, 0.5628702, -0.01088272, -0.52927625, 0.7650205, -0.4698562, -0.55789095, 0.07604694, 0.45807832, 0.58351487, 0.4198768, 0.36026767, 0.068788745, 0.061792277, -1.2350678, 0.4452671, -0.27543497, -0.1648568, -0.32322988, 0.3728735, 0.6891845, 0.51145124, 0.112277426, 0.31213734, -0.5788165, -1.4265586, -0.03294802, -0.41981745, -0.09299544, 0.41807738, -0.43109998, 0.5874919, -0.70146143, -0.24190252, 0.21816286, 0.35633776, -0.26820692, -0.015288653, -0.23733874, -0.088022225, -0.86567956, -0.39669713, 0.03431531, -0.27832502, -0.25348246, -0.74189407, 0.77066267, -0.734898, 0.012058769, 0.1636456, -0.034882348, 0.13089174, -0.45253953, 0.40421873, -0.5666681, 1.1153263, 0.2075566, 0.040010776, 0.14282604, -0.19078095, -0.5537097, 0.2260894, 0.24498633, -0.010659872, -0.14589287, 0.36771256, 0.08615202, 0.25322518, 0.08008639, -0.49123758, 0.33411098, 0.5390815, 0.16721542, 0.30198365, -0.6013229, -0.51266766, -0.20892623, 0.5084081, 0.48502707, 0.7134855, -0.050540566, 0.22850594, 0.707564, -0.81094325, 0.36144415, -0.11705898, -0.36659297, 0.2146227, -0.22534087, -0.23969069, 0.8418006, 0.9515948, -0.086380884, -0.8680215, 0.25238308, -0.27590248, -0.018843897, -0.39617345, -0.22363862, -0.018177701, 0.0049894927, 0.050016962, -0.06686397, -0.5525785, -0.8752793, 0.12277833, -0.029568916, -0.30389586, -0.25868484, 0.5798764, -0.23020789, 0.21978228, -0.4341746, 0.87320167, 0.29542872, -0.0034553292, 0.5008201, -0.38167867, -0.28721407, -0.5484239, -0.1652408, 0.34820607, -0.25383073, -0.19043632, -0.3293714, 0.21414001, -0.651839, 0.072255895, -0.19021192, 0.007305941, -0.5323138, -0.95356876, 0.6686791, -0.09085194, 0.5402684, -0.12628159, 0.34324747, -0.11522951, 0.33340687, -0.01691715, 0.16933307, -0.12908174, 0.18004887, -0.26797548, -0.8822551, -0.48948398, -0.126107, 0.012468916, -0.11613057, 0.37579077, 0.7873913, -0.25364757, -0.44663745, 0.21122856, 0.071056, -0.03090028, -0.14619014, -0.1324951, -0.45632082, -0.4736465, -0.10487072, -0.9703701, -1.000238, 0.08433242, -1.183601, 0.12350549, 0.7556916, 0.29708815, -0.39132434, 0.15286626, -0.14462666, -0.09659553, 0.29372135, -0.41257676, -0.5147142, 0.28969687, 0.07122345, 0.07303761, 0.24065323, 0.106744386, -0.21058556, -0.15495746, 0.7525264, -0.41022307, -0.65195733, -0.76337343, 0.50320363, 0.31278932, -0.17777596, 0.5372996, -0.4298222, -0.43855605, 0.25030378, 0.25257248, 0.6636869, 0.06604978, 0.07401565, 0.06403133, 0.2234143, 0.26449066, 0.6410519, -0.07593088, -0.28632718, -0.6134267, -0.19344226, -0.41925168, -0.25144896, -0.111597896, -0.20203964, -0.23576081, 0.013875956, 0.15366237, 0.27496976, 0.42106953, -0.55424553, -0.5433794, -0.11904295, -0.4568057, 0.0038220256, -0.13915858, -0.3338135, -0.22725542, 0.830081, 0.52042073, 0.48276728, 1.0382581, 0.6364005, -0.2062047, -0.11571425, 0.30825394, -0.15681046, 0.009836913, -0.25024575, -0.22862992, 0.526439, -0.1352952, -0.58424044, 0.12585433, 0.5186942, 0.1893675, 0.56484246, 0.105118826, 0.12858842, 0.4832883, 0.07177107, -0.13724896, 0.611934, 0.5435643, 0.7145475, 0.58243835, 0.2109268, -0.6039775, 0.70783997, 0.16532095, 0.44824162, -0.06143924, 0.27110994, 0.26891428, -0.0945392, -0.15074383, -0.5393604, -0.55602854, -0.55257297, -0.7829727, -0.24110952, -0.2668905, 0.10175588, -0.41177836, -0.10525833, -0.55662066, -0.1363563, 0.17596798, -0.29411858, 0.3010225, -0.17296982, -0.12540446, -0.25438544, 0.009799973, -0.24625659, -0.12031926, -0.18740122, -0.50048685, -0.42030582, 0.5246214, 0.19890876, -0.5827228, -0.39689094, -1.2099177, -0.39282525, -0.13279095, -0.13705286, 0.027271012, 0.031331215, -0.7007717, 0.40526494, 0.17806676, 0.124633625, 0.16170214, -0.65365565, 0.030916084, 0.077717915, -1.1772172, 0.7469733, 0.74226576, -0.7590192, 0.2728642, -0.37170604, -0.34732988, -0.10439168, -0.17649063, -0.016977482, 0.87270325, 0.020296257, -0.2505489, 0.41273507, -0.04973628, 0.8133645, -0.03382013, -0.08207977, 0.33535817, -0.24409156, 0.49018064, 0.068037115, -0.05748474, -0.54840577, 0.20193636, 0.043130957, -0.39935654, -0.32797462, -0.23555204, -0.33693507, 0.21763551, -0.7443244, -0.34531158, 0.008115018, -0.17255631, -0.33645016, -0.71108145, -0.4823827, -0.019918952, 0.9808903, -0.14977302, 0.21021514, 0.3950379, -0.5101127, -0.078896046, 0.39865977, 0.8421799, 0.3808437, -0.9771148, -0.50889254, 0.33256572, 0.24867041, -0.33306998, -0.11635784, 0.40577465, -0.8412744, 0.49354658, -0.34255633, -0.5873367, 0.15523577, -0.21269639, 0.246792, -0.12823045, 0.11524393, 0.16309075, 0.22262749, -0.5044214, -0.47747746, 0.3268761, -0.037216, 0.010389378, 0.2681454, -0.23914912, -0.57179344, -0.42600933, -0.55443585, -0.14275813, 0.11634864, 0.07948019, 0.3070937, -0.5908846, -0.65973186, -0.121423624, -0.12186086, -0.093106255, 0.14304993, -0.066770755, -0.42425615, -0.6328233, -0.75569683, 0.38687077, 0.46228948, 0.6910386, -0.28776354, 0.95894605, -0.2923284, 0.13075712, 0.13404454, -0.093040936, -0.5503566, -0.18711321, -0.33793503, -0.4137755, 0.76306546, 0.029495394, -0.4773139, 0.2196666, -0.6208271, 0.40476117, 0.26008675, 0.32306594, -0.30747622, -0.1695687, -0.09036319, -0.1289788, -0.2616322, -0.29430193, -0.047327112, -0.32675537, -0.315085, -0.32749063, 0.16175097, 0.28610185, -0.029169595, -0.95055854, -0.51017815, 0.3316876, -0.038430918, -0.20387916, -0.15928873, 0.4548337, -0.45256957, 0.14107697, 0.067716755, -0.20947023, 0.20488086, 0.09794837, 0.18084934, -0.14093235, -0.3200753, 0.12581463, -0.38353854, 0.5219782, 0.063899316, 0.089910306, -0.28489378, 0.09690724, -0.75566804, -0.051440887, -0.0624668, -0.085848786, -0.8106786, 0.3195927, 0.21930274, 0.2130498, 0.50558865, 0.37426662, 0.09590075, -0.21092951, -0.08939443, 0.31482345, 0.3127863, 0.07254465, -0.7432307, -0.36858028, -0.039225042, -0.46913895, 1.127932, -0.45766988, -0.066467285, 0.21171506, -0.05968542, -0.6059049, 0.7735291, 0.2823234, 0.20337506, -0.15964273]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Crispiness는 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Puncture test를 사용하여 측정된 곡선의 peak의 힘값, 개수, 기울기 등으로 측정할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>3</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>[-0.5592087, 0.08035412, 0.23649977, -0.37418738, 0.19539703, 0.6275256, 0.48586643, 0.34680852, 0.50810665, 0.5851751, 0.26689112, 0.2973398, 0.26468346, 0.852218, -0.64284176, 0.5173359, 0.064685166, 0.17700918, -0.0016923919, -0.14478728, -0.075817876, 0.17424978, 0.08226947, -0.25130525, -0.2277474, 0.013007827, -0.50677013, -0.11315528, 0.5390927, -0.48921028, 0.8493188, -0.41947198, -0.6415112, 0.062926434, 0.2919115, -0.2529631, -0.08560332, 0.075011194, -0.1527622, -0.8535344, -0.30788732, -0.10644275, -0.40179992, 0.7939029, 0.17507704, 0.07978754, 0.6623499, 0.22945333, -0.33232552, -0.2519557, -0.474854, 0.10174385, -0.035208084, 0.48243687, 0.1767757, -0.6798072, -0.066480756, -0.33674392, 0.08810875, 0.120225154, 0.48745513, -0.5303971, -0.6522394, -0.0050717667, -0.44405138, -0.04746829, -0.2200829, 0.21979369, -0.29732502, -0.2366858, 0.52500874, 0.17785805, 0.56514233, -0.9227934, 0.023535205, -0.120021224, 0.19131964, -0.068814985, 1.0769197, 0.5557627, 0.42989278, -0.13240984, -0.81250143, -1.0363405, 0.12586828, -0.48724565, 0.3556278, -0.026901634, 0.262061, 0.8666606, -0.83025146, -0.10252717, -0.46984172, 0.37837625, -0.7365794, -0.90170175, -0.02180826, -0.37376145, 0.56298494, -0.041128803, 0.1312044, 0.19513594, -1.0484536, 0.77308416, 0.22846508, -0.22361417, -0.15108128, 0.35713592, 1.0751148, -0.2842597, 0.41603372, -0.36803052, 0.09965027, 0.48488262, 0.14103575, 0.53706884, 0.111513376, -0.19508596, -0.28305843, 0.573345, 0.6636732, 0.12724221, -0.26831028, -0.06830301, -0.051689446, 0.14774825, -0.12006392, 0.09552472, 0.7008098, -0.108709544, 0.02657252, -0.3618702, 0.03496478, -0.490258, -0.05823931, -0.38082013, 0.60572845, 0.27648613, -0.29513267, 0.76042527, -0.288681, 0.103397734, 0.6113681, -0.27047163, -0.7541253, -0.17746551, 0.083081774, -0.17523651, -0.3149195, -0.49371108, -0.15573177, 0.24327259, -0.4598687, 0.026214594, -0.0033059584, -0.3379339, 0.014825643, -0.034565073, 0.24545479, -0.25934318, 0.08435596, -0.05696553, -0.4608071, -0.024758033, -0.12714581, 0.13954069, 0.10461097, -0.14754274, -0.14253439, -1.0057669, -0.41845047, -0.1413561, -0.065178595, -0.32791954, -0.2972974, 0.22874165, -0.42161536, -0.3078711, -0.8378679, -0.56798905, 0.025964381, 0.7091918, -0.12902968, -0.07344972, -0.13132735, -0.12550734, 0.2462592, -0.096690156, -0.62041825, -0.09354485, 0.505466, -0.01175416, -0.5065257, 0.37074864, -0.076709814, -0.038675535, -0.42075685, 0.05896679, -0.40590298, 0.074285805, -0.7341945, 0.76622444, -0.05771854, 0.5706007, 0.15593018, 0.0640093, 0.01385494, -0.1753503, 0.24146569, -0.4490982, -0.62607723, 0.96636057, -0.3434986, -0.32121265, 0.41666862, -0.55554247, 0.025182998, -0.41902396, -0.075861976, 0.02998131, 0.2261541, -0.16702361, 0.8471293, -0.36058128, -0.32160524, 0.15616132, -0.22838539, -0.13448216, 0.70378333, 0.31338552, -0.24514294, 0.31509882, -0.40455294, -0.68194777, 0.39572525, -0.30950883, 0.3386322, 0.42483208, -0.041834533, 0.1300984, 0.0422179, -0.19165343, 0.29676288, 0.00067885715, -0.3215975, 0.49567437, 0.2986451, -1.3332266, 0.097468406, -0.90535545, 0.39071408, 0.64378256, -0.009267498, -0.049798395, -0.012972278, 0.075320624, 0.33187416, 0.427339, -0.5298925, 0.084401585, 0.011380865, -0.44336143, -0.60555553, 0.608854, -0.24475892, 0.3697625, 0.6702769, -0.18434213, 0.27232638, -0.5417474, -0.16466749, 0.33932638, 0.71533513, 0.2788562, 0.37877813, 0.368108, -0.22241318, 0.55212325, 0.031101922, -0.16276799, 0.08119342, 0.83216184, -0.6361119, 0.335474, 0.49068844, -0.31748492, -0.27285928, -0.7833447, -0.69196916, 0.20382142, -0.23772617, 0.24864233, -0.28766438, -1.5477077, 0.39241922, -0.29553476, -0.28856546, -0.8403857, 0.45636138, 0.5425444, 0.07103189, 0.49133837, 0.058521062, 0.56042016, -0.40445843, 0.90622014, -0.52002555, -0.35665175, 0.27880922, -0.0630649, 0.41705564, 0.3661212, 0.10224679, -0.21736614, -0.036429394, -0.8536069, 0.28544506, -0.105171084, 0.1849929, 0.33366784, 0.20708776, 0.3286459, 0.20967978, -0.09243751, 0.15551369, -0.07353574, -0.08548656, -0.051733132, 0.4324925, -0.52438074, -0.8202191, -0.36796138, 0.17745204, 0.23110247, 0.016809782, -0.100600906, 0.5098205, -0.7134104, -0.19113801, -0.16670088, -0.27817255, -0.37737682, -0.7458945, 0.5189211, 0.39535472, 1.1414524, -0.11626682, -0.13746534, -0.35886255, -0.5849758, -0.23444985, 0.29478863, 0.101198375, 0.18012404, 0.19908082, -0.6662738, 0.022388764, 1.0055646, -0.14780377, -0.6063947, 0.87633663, -0.09012633, 0.17365535, 0.8815611, -0.14238648, -0.7980476, -0.5741372, -0.0056482987, 0.3518877, -0.43101022, -0.18290694, -0.20571633, 0.32476896, -0.21310662, 0.033672553, -0.22459237, 0.115466654, 0.62335044, 0.14408197, -0.74043673, 0.6357799, 0.32001436, -0.16581184, -0.7079408, 0.047436867, -0.38599595, -0.38849667, 0.24687703, -0.24684311, 0.48290634, 0.3586712, -0.14200513, -0.20108181, -0.46757135, -1.0534431, -0.13350691, -0.30337974, 0.03958471, 0.10335061, 0.042185243, -0.055499613, 0.33904052, -0.1302647, 0.2930284, 0.24508227, -0.06762262, 0.6051332, -0.022184754, -0.15161292, -0.6430742, -0.27358603, -0.12755214, 0.42520013, -0.1688549, -0.53050596, 0.16978933, -0.4982543, 0.5109981, 0.052933495, 0.42869475, 0.05254121, -0.65026975, -0.11582502, -0.238964, 0.40808785, -0.10534691, 0.8071793, -0.27041385, 0.29369807, 0.2840002, 0.172119, -0.089108445, 0.2064508, -0.5148953, -0.23199713, -0.66882807, 0.36174834, 0.06495669, -0.31872466, 0.19104509, 0.45634124, -0.0014132863, -0.34564054, -0.36473474, -0.23254287, -0.23676372, 0.15079108, -0.13626204, -0.94470835, -0.58326477, -0.23085572, -0.43898162, 0.08123235, 0.46365842, -0.26964578, 0.18548007, -0.28972647, 0.13926575, -0.20109183, -0.010713103, -0.1923042, 0.51635766, -0.070162386, -0.29108796, 0.16511196, 0.050058346, -0.29053685, 0.13152717, -0.18791896, 0.6487128, -0.21715553, -0.34366465, 0.6238114, -0.08755026, 0.042312924, -0.44527078, 0.060796294, 0.79944634, 0.02933017, 0.14586604, -0.69582367, -0.0051091933, 0.44799933, 0.20577943, 0.71700066, -0.1355272, -0.14730664, -0.45436713, 0.23633057, 0.042858135, 0.08392712, -0.24162799, -0.22227462, 0.24279064, 0.7151532, -0.4342854, -0.62596744, 0.568963, -0.30598187, 0.28001165, -0.10964341, 0.22497833, 0.2503592, 0.13053192, -0.42065093, -0.25920728, -0.107628025, 0.2871553, 0.034832265, -0.44407454, 0.13287239, -0.10817149, 0.49576268, 0.29667842, 0.17496674, 0.8447663, -0.6465526, -0.39051905, -0.30733442, -0.1350557, -0.20830663, -0.33907178, 0.15374552, -0.09921002, 0.32123104, -0.026307426, -0.46015155, 0.63109165, 0.18403125, 0.29285482, -0.11210269, 0.23601906, -0.42619777, 0.45121372, -0.0063627684, -0.12466335, 0.21673279, 0.20901553, 0.08538651, 0.24232788, -0.120538175, -0.6815148, -0.09692785, -0.2721989, -0.1832958, -0.23875402, 1.0052366, -0.12870911, 0.10822779, 0.17176972, -0.21398544, -0.35857078, 0.21629883, -0.65644807, -0.069145106, -0.19108646, -0.0921222, -0.28823644, -0.75743467, 0.69842315, -0.15443163, -0.29055, -0.3519595, 0.73888654, 0.31192735, -0.00049104047, -0.16548474, 0.41979587, 0.18121652, -0.0077836886, 0.4315405, -0.37418422, 0.18357857, 0.23085946, -0.3535628, -0.07036782, -0.8949104, -0.8370618, 0.29185972, -0.28891897, -0.18966027, 0.91826016, 0.063724, -0.12892367, 0.19735767, 0.17228724, -0.29890683, 0.2506971, -0.5719359, -0.3206431, -0.59468645, -0.102923475, 0.26204738, 0.17181416, -0.3699223, -0.22469766, -0.2670987, -0.5270839, -1.6018128e-05, -0.31957027, -0.2991961, -0.41924807, -0.30897444, -0.5373487, 0.11587286, -0.55052847, 0.06751727, 0.39526665, -0.40282047, 0.42771932, -0.37072492, 0.017718257, -0.18251045, 0.17930995, -0.057391476, -0.003261314, -0.927612, -0.30847672, -0.11259156, -0.2252418, 0.6314239, -0.25551388, 0.10155367, -0.06955329, -0.3011205, 0.46329555, 0.030278241, -0.35535574, 0.02508401, -0.07999343, 0.2815205, -0.20932233, 0.47223237, 0.021717994, -0.40425828, 0.1686045, -0.11228639, 0.51017183, -0.030540124, -0.8271676, -0.22940254, 0.55138606, 0.41368064, -0.13336651, -0.39376673, 0.35835722, 0.25131756, 0.38851988, -0.86391044, -0.3247865, -0.57971776, -0.08887505, -0.49717155, -0.052346062, 0.4596971, -0.5317916, -0.29176238, -0.2506452, -0.19276977, 0.019440081, -0.5225995, -0.11480155, 0.23115034, -0.18184024, -0.42484486, -0.21465282, -0.97202206, -0.15255176, 0.25943264, 0.114401795, 0.10771837, -0.2399681, 0.1835574, -0.39720806, -1.075961, 0.16658221, 0.7887356, 0.114144385, -0.39921984, -0.6243561, -0.3493643, 0.43729722, 0.037958074, 0.5385715, 0.09209898, 0.29728436, 0.08498336, -0.1610169, 0.7389322, -0.09999287, -0.27568057, 0.3253788, 0.58770996, -0.71177745, 0.6139177, 1.1227028, -0.40995523, -0.081436984, -0.2733704, -0.43105698, -0.3526847, -0.15154633, -0.5731113, 0.2915086, -0.94041604, 0.23364256, 0.27373132, -0.23229146, 0.21077307, 0.45664725, 0.4384464, 0.43637958, -0.32593971, 0.05177656, -0.07398391, -0.660249, -0.13441657, -0.51651055, -0.21808968, -0.6173932, -0.2078049, 0.22164412, -0.45453405, -0.70226365, 0.28894958, 0.22880317, 0.03111463, 0.5030845, 0.0201577, -0.15942426, 0.43902227, -0.5759679, -0.4429237, 0.5953376, 0.116847895, -0.14027786, -0.5053167, 0.13454328, -0.42555547, 0.091795065, -0.58210355, 0.07835551, -0.85802287, -0.17904025, 0.9125251, 0.38914967, -0.013266492, 0.49375328, -0.19180304, -0.112779826, 0.27098808, 0.10832033, -0.62191266, 0.35465428, 0.1737705, 0.23199111, -0.5036076, 0.05286205, 0.480016, -0.33229664, -0.22547884, 0.33146337, -0.7053246, -0.83212686, -0.32450134, 0.5025142, 0.14900683, 0.12794767]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>만두의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Puncture test를 사용하여 측정된 곡선의 peak의 힘값, 개수, 기울기 등으로 측정할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>[-0.5054919, -0.56325835, 0.06317428, -0.7486527, -0.26779357, -0.19041236, -0.07540368, 0.06343069, 0.30046698, 0.34129393, -0.042128444, 0.34406158, 0.47823688, 0.28963205, -0.20666169, -0.08175229, 0.11137351, 0.61743075, -0.2663879, -0.6358678, 0.200837, -0.36295518, 0.33964333, 0.46756673, -0.011721418, -0.2854992, -0.18650298, -0.46158955, -0.15115443, -0.26291287, 0.9000752, 0.111213595, -0.19378714, 0.55722815, -0.19672567, -0.23087259, -0.28849575, -0.15094353, -0.113893114, -0.8017867, -0.7038844, -0.51614636, 0.2784648, 0.673507, 0.21128736, 0.28426155, 0.32668865, 0.524058, -0.4414303, -0.18387115, -0.297169, -0.08616423, 0.2707415, 0.29428563, -0.18468304, -0.3382438, -0.0070631313, 0.33518806, 0.5295705, -0.00812339, 0.1258305, -0.6489875, -0.3926923, -0.5251408, 0.14877307, -0.3274758, 0.018524539, 0.42361352, -0.31399682, 0.78541255, -0.3146345, -0.022224234, 0.096754454, -0.4056275, 0.5571978, -0.4000272, 0.0014794791, 0.021526003, 0.34262908, 0.15817179, 0.15986235, 0.19690704, 0.062846415, -0.64899844, 0.4054544, -0.64026433, 0.14783126, -0.13842283, 0.092691384, 0.3673137, 0.11908114, -0.41864792, 0.23296179, 0.54384786, -0.5787955, -0.3852706, -0.15451021, 0.27580807, -0.19852634, 0.11687678, -0.113776915, -0.90011185, -0.27957875, 0.54557496, 0.5761309, -0.10746942, -0.04884314, 0.18659817, 0.29213926, 0.109572314, 0.1360175, -0.26030725, -0.08228688, -0.58287936, -0.20529823, 0.5729634, -0.11602198, -0.36216068, 0.34495103, 0.13983242, -0.062127624, 0.49650908, -0.030727813, -0.32017097, 0.2391399, 0.22735222, 0.22510032, -0.27224502, 0.3872843, -0.37648013, 0.28962472, 0.38524416, 0.21777374, 0.40914384, -0.5179106, -0.55574006, 0.98129964, 0.072885014, 0.9258919, 0.8340475, -0.61579424, 0.22519994, -0.114526086, 0.4595981, -0.14939705, -0.34647226, 0.39899957, -0.836298, 0.27525574, -0.57565373, -0.6389362, 0.30239642, -0.18783538, 0.32498422, 0.35477185, 0.07857192, 0.4981587, -0.42230093, 0.077340975, -0.40130433, 0.54975426, 0.6191161, -0.12859298, -0.1374888, 0.013627944, -0.13809268, 0.19908299, 0.29758966, 0.27612534, -0.47092167, -0.50254595, -0.3647255, 0.77135175, -0.5312768, 0.13557594, 0.15721469, -0.7256077, -0.33332562, -0.41486514, -0.67311186, 0.39832786, 0.24235557, -0.10664055, 0.13084991, 0.27407503, 0.42712435, -0.09999577, 0.044556662, -0.77537394, -0.6094422, -0.10181462, -0.55424553, -0.1233545, -0.1795501, 0.3066455, 0.51767975, -0.7797908, 0.060426056, -0.54027426, 0.05728465, -0.161613, 0.61935693, -0.0663133, 0.34988487, 0.60227543, 1.0067414, -0.4280493, -0.84225553, 0.4635932, 0.1050055, -0.13278629, 0.08581995, -0.4009385, -0.018213103, -0.4566768, -1.0979797, -0.6158425, -0.53815985, 0.1507997, 0.13953438, 0.051551804, -0.4675562, 0.40001822, -0.42625734, -0.24470174, -0.16141944, 0.5855082, -0.043622404, 0.19219522, 0.025566844, -0.37810275, -0.3115779, -0.25870216, -0.23329186, 0.13749756, -0.3496643, 0.4299746, 0.553676, -0.6103788, 0.02091592, 0.18212138, 0.21367775, -0.00995802, -0.38818988, 0.037597086, 0.14299197, -0.5314636, -0.2937881, 0.029411525, -0.63315624, 0.04940043, 0.5786718, 0.31777683, -0.018789008, -0.31469467, 0.08289934, 0.22655697, 0.89711905, -0.087379165, -0.01568711, -0.008224483, -0.35535857, -0.3096027, 0.2699431, 0.14700036, 0.22361636, -0.0052990206, -0.612731, -0.5028843, -0.6664385, 0.6608138, 0.26825508, 0.0167097, -0.06651399, -0.41777346, 0.4950825, -0.2609602, 0.37825155, 0.24057795, 0.16644979, -0.5127656, 0.23715764, 0.17892426, 0.55455154, 1.1491615, -0.15114824, -0.28025603, -0.6020045, 0.20447434, 0.0688735, -0.26820162, -0.13914442, -0.016227212, -0.32173967, 0.12552492, -0.10020993, -0.73329586, -0.50039536, 0.09442092, 0.8587231, 0.0038601279, 0.43183765, 0.05370119, 0.14974989, -0.5975407, 0.19357757, -0.038025517, -0.4808506, -0.54118055, 0.43828067, 0.5134191, 0.5559394, 0.4439322, -0.26191762, 0.3641471, -0.9121073, -0.25532043, -0.18083422, -0.0012420124, 0.13502719, -0.09754574, 0.54219013, -0.029955277, -0.6905782, 0.20745821, 0.23492444, -0.107416876, 0.22953998, -0.3800266, -0.13255112, -0.6759673, -0.17944448, 0.34509918, 0.23543413, -0.39819917, -0.17384535, 0.38356414, -0.8348601, 0.49167624, 0.39960733, 0.43032905, 0.11015806, 0.30266038, 0.25883636, -0.43741152, 0.9263067, -0.23084517, -0.23108953, 0.15781753, -0.4102997, -0.7706666, 0.28261724, -0.3765664, -0.33713904, 0.5869715, -0.34022298, 0.39766315, 0.732871, 0.0241267, -0.51964873, 0.382339, -0.17719083, 0.1004338, 0.11454763, -0.07604285, -0.4463931, 0.0071376264, 0.25230923, -0.27319893, 0.10765988, -0.012096782, -0.21775663, 0.22001888, -0.53378254, 0.0146657415, -0.14174773, 0.31019172, 0.0014995728, -0.048062712, -0.013027805, 0.36112896, 0.9509949, -0.2718995, -0.5718817, 0.6528062, -0.036053944, -0.3887827, -0.66630816, -0.06139198, 0.25197327, 0.011236121, 0.0810619, -0.0672141, -0.35780343, -0.88305587, 0.11260513, -0.4566351, 0.22949325, -0.59652823, 0.19693828, -0.3558663, 0.086182125, -0.5003662, 0.65279627, 0.32538417, -0.34641075, -0.0050041922, -0.08924975, -0.33915272, -0.30319148, -0.0957882, -0.7106258, -0.2699273, -0.4341875, -0.26625827, -0.8156279, -1.0041296, 0.2020473, 0.06755136, -0.16006258, -0.27712068, -0.39204216, 0.43027103, -0.35238913, -0.05282129, 0.21888304, 0.8326201, 0.13234611, 0.6519708, -0.19636945, 0.0017325965, -0.28958684, 0.14775439, -0.41383263, -0.903086, -0.16164388, 0.11960899, -0.4047712, 0.22312438, 0.22933225, 0.54830235, -0.29036227, -0.48650053, 0.21233039, 0.24315476, -0.1432302, 0.28283563, -0.1770006, -0.64844507, -0.7292705, -0.07017817, -0.3973092, -1.2299963, 0.18529606, -0.5758069, 0.15477186, 0.34595478, 0.056011517, -0.60825205, 0.14697026, -0.0073945946, 0.18402958, -0.008469786, -0.41999093, -0.24655075, 0.40586627, 0.19043745, 0.360774, -0.13287038, 0.3590572, -0.37134075, 0.09228161, 0.40653262, -0.8221288, -0.41438845, -0.30237266, 0.15688674, 0.53109914, -0.37811908, -0.2431279, -0.21702163, 0.2923173, 0.09817505, 0.812645, 0.7438254, -0.4265329, 0.10038304, -0.08673772, 0.23717482, 0.33239335, 0.64920664, 0.44997564, -0.2584292, -0.45359576, -0.10104021, -0.16635706, -0.028025283, 0.6554547, -0.5652812, -0.33690083, -0.17362118, 0.5251857, -0.2630395, 0.7847635, -0.7816892, -0.45134196, 0.3562479, -0.2972248, -0.39241803, -0.38830853, -0.3888012, -0.32035992, 0.21427359, 0.054255128, 0.0035683692, 0.2983429, 0.27721947, 0.079155855, -0.13652514, 0.3541236, 0.28917357, 0.027082533, 0.5192647, 0.0281595, 0.027386418, -0.77921486, -0.61331844, 0.5700214, 0.42670736, 0.25413695, 0.11273708, 0.13715778, 0.41687298, 0.35018662, 0.030153604, -0.54982966, 0.060522664, 0.39675006, 0.4594718, 0.28715345, -0.07214743, -0.51628876, 0.9122252, 0.018737346, 0.19261007, -0.30655494, 0.4845517, -0.16943376, -0.46077707, -0.36200395, -0.5237426, -0.5930373, 0.0062073, -0.52140874, -0.52585655, -0.06889673, 0.6612806, -0.24964277, -0.2929991, -0.019672869, 0.44646618, -0.10147492, -0.16583876, 0.23703416, -0.57383984, 0.49499586, 0.45555142, 0.5948885, 0.22425745, 0.3102379, 0.3200706, 0.057565626, -0.4412299, 0.67894006, -0.26480636, -1.053189, -0.4015119, -1.1075915, 0.16692924, -0.34385803, -0.29899418, -0.1763977, 0.2704512, -0.37750497, 0.74110657, 0.72399473, -0.24660856, -0.32961088, -0.8211901, -0.04334104, 0.32471737, 0.35265937, 0.15588164, 0.56234986, -0.52160484, 0.13302377, -0.843728, -0.44183624, 0.3749486, -0.5066299, -0.099402376, 0.4418342, -0.25048438, -0.3626598, 0.49555978, -0.3115228, 0.6815477, -0.41705093, -0.48203358, -0.143319, 0.29402244, 0.54451686, 0.24843769, -0.43454108, -0.088623434, 0.10241171, 0.4207554, -0.40726694, -0.327801, -0.028949806, 0.08994278, -0.11849326, -0.9233713, -0.81688184, -0.57960707, 0.16954863, -0.11690747, -0.63808775, -0.5563955, -0.047502562, 0.82396644, 0.054127038, -0.070379466, -0.24365406, -0.2728857, 0.12084884, -0.21022147, 0.7560267, 0.13837568, -1.093115, -0.5749287, -0.04628552, 0.4666742, -0.11883664, -0.91097456, 0.23050827, -1.0207711, 0.5407242, -0.17611142, -0.077115886, -0.13333459, -0.09447825, 0.21379739, -0.0067402893, 0.41261736, 0.33379483, 0.21090038, 0.19612175, -0.7241002, 0.4243776, -0.1571109, -0.1141361, 0.43423602, 0.13146976, -0.784141, -0.66242445, -0.43997994, 0.35687992, -0.03925852, 1.2621236, -0.45110512, -0.757833, -0.5481095, -0.2889168, -0.3930588, -0.24377407, -0.37485996, 0.04193929, -0.074575074, -0.35744193, -0.42661485, 0.50939536, -0.0004349739, 0.2405951, -0.77029324, 0.8659062, 0.025078148, 0.11267652, -0.22783552, 0.33006313, 0.008569133, -0.017254306, 0.33686495, -0.37467793, 0.71291995, 0.22830974, -0.5826579, 0.4818178, -0.21357304, -0.04253765, -0.23173422, 0.4871625, -0.024703085, -0.17358081, 0.14684416, 0.44100228, -0.08422282, 0.034818187, -0.17506021, 0.13378386, -0.66305745, -0.16894925, -0.4314069, -0.5110709, 0.3842416, -0.414029, 0.19287656, -0.20061028, -0.24502492, -0.34089243, 0.52933514, 0.5456875, -0.6470035, -0.040316183, -0.5485162, 0.6201007, 0.3978758, -0.02669817, 0.6172667, 0.21517861, -0.15251073, -0.50561947, -0.46084014, 0.05431813, 0.08093583, 0.026532324, -0.54807836, 0.12161338, -0.3935559, 0.034657557, -0.28602847, 0.24573128, -0.76804566, 0.4714342, 0.09981962, 0.26721287, -0.12995057, 0.3140881, 0.25455222, 0.21932387, 0.08786055, 0.3803124, 0.018238105, 0.024766542, -0.3359456, -0.073272586, -0.040605582, 0.06968681, 0.6381003, -0.70461184, -0.3644494, -0.38136068, 0.04608916, -0.5054818, 0.41082326, 0.46761513, 0.58400273, 0.81223315]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>식품 물성학으로 유명한 교수님은?</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>세종대학교 이수용 교수님을 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>4</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>[-0.86646396, -0.24043988, 0.23939528, -0.5886643, -0.11624953, -0.23745027, -0.36352783, -0.34003925, 0.60066235, -0.42129314, 0.23414132, -0.30172634, 0.4133249, -0.38013986, 0.12032052, -0.02376159, -0.14572908, -0.45170072, -0.16162522, -0.7243678, -0.22348472, -0.056839578, 0.5629178, 0.582785, 0.00670077, 0.08463699, -0.17714344, 0.22037145, -0.13178039, -0.3382716, 0.79436743, -0.08986306, -0.08892918, -0.04093363, 0.0031106723, 0.27485138, -0.6212635, -0.35962778, -0.15055831, -0.47391862, -0.60766673, 0.08612045, 0.15328309, -0.022260962, 0.24055721, -0.27758342, 0.010503877, 0.39616093, 0.097152084, -0.13455981, 0.029964384, -0.49037975, 0.15483505, 0.69790107, -0.32059386, 0.043474957, 0.24673405, 0.286526, 0.69475734, -0.3467271, 0.21758991, -0.3194559, -0.21011327, -0.49654973, 0.64072865, -0.98373, -0.3785604, 0.65238243, -0.13128333, 0.37541187, -0.31029275, 0.017422296, 0.47148246, -0.38309592, 0.001186122, -0.07440812, 0.21365681, 0.037864894, 0.26312298, 0.3021124, -0.31724733, 0.0880623, 0.18306422, -0.72349614, 0.5129775, -0.81689614, 0.21303876, -0.56179583, -0.8448072, -0.20601346, -0.107422695, -0.4802745, -0.01604984, 0.045189016, -0.27860057, -0.30200255, -0.52244556, 0.38787827, 0.6180525, -0.26010776, 0.14052552, -0.5811069, 0.12234281, 0.8337281, -0.19086003, -0.17476198, -0.13308296, 0.32480806, 0.90028477, -0.09563482, 0.06778476, -0.5700725, 0.38835052, -0.4453688, -0.48331195, 0.7112394, -0.124119654, -0.24899632, -0.030110229, 0.29703763, 0.13525975, -0.2942822, 0.1518051, 0.29642192, 0.07784442, 0.2497125, 0.15424477, -0.24863628, 0.46548748, -0.65014136, 0.06273263, 0.7040395, 0.38999814, 0.117127225, -0.318907, -0.4073049, -0.28589374, -0.20746288, 0.87530845, 0.4443989, -0.384151, -0.060037814, -0.33321694, 0.055319272, -0.39963198, -0.34294516, 0.24108703, -0.2970285, 0.3151069, -0.9990021, -0.6174482, -0.010171505, -0.8393177, 0.16077079, -0.28281972, -0.08701415, 0.17095052, -0.29834303, -0.0914332, 0.41769138, 0.21456282, 0.9816738, -0.30899513, 0.029928578, 0.5273174, -0.20334895, 0.7452006, -0.09227093, -0.27464628, -0.14763154, -0.25945288, -0.06231561, 0.41116998, -0.19424826, -0.50074613, -0.008762191, -0.45787078, -0.03389215, -0.2452627, 0.06056469, -0.0034891183, 0.14799489, -0.09320692, 0.026064772, 0.24552287, 0.37488618, -0.003734371, -0.22421615, -0.62329805, -0.60100234, 0.13446805, -1.2249722, 0.025818396, -0.56071395, 0.26774848, 0.52841955, -0.15413037, 0.6065668, -0.23143537, 0.3782283, -0.50977504, 0.24375226, -0.69295406, 0.3714023, 0.15682179, 0.30183846, -0.124817476, -0.50325364, 0.25713572, -0.45011103, -0.0063863876, 0.049068235, 0.27427065, 0.34179243, -0.45482677, -0.7310906, -0.4838295, 0.09542208, 0.24031192, 0.21179397, 0.34542358, -0.2856014, 0.053401094, -0.44588077, 0.18014598, 0.24459115, 0.30670005, 0.36677712, -0.029423572, -0.106381014, 0.04336955, 0.021446804, -0.16412792, -0.6281986, 0.00029185414, -0.87829995, 0.8142067, 0.7244136, -0.3717985, 0.047550723, 0.21777934, 0.78684086, 0.23549072, 0.23540166, -0.21196805, 0.32305712, -0.38607106, -0.09113125, 0.7836541, -0.17401141, 0.18124679, -0.1961284, -0.5208748, -0.8311869, -0.09438602, 0.056691106, 0.049183864, 0.5706901, -0.119753174, 0.3022458, -0.028810222, 0.18354014, 0.15977232, -0.15998532, -0.1868965, -0.30908903, 0.27684724, -1.0916063, 0.2206642, -0.3782916, -0.20357482, 0.07669857, -0.12022276, -0.04167833, 0.11747401, 0.33273083, -0.5870798, 0.60800916, 0.29647508, 0.18811138, -0.1097294, -0.14971279, 0.3885582, 0.20372163, 0.039792605, -0.33863932, -0.2352778, 0.01000328, -0.1689918, -0.12214755, -0.1611042, -0.57098234, -0.2750199, -0.9918406, 0.250308, -0.2733592, -1.2395598, 0.3538368, -0.2899137, 0.9223556, -0.5743777, 0.59447056, -0.114770725, 0.10693518, -0.13968036, 0.57525027, -0.012954513, -0.15029159, -1.101489, 0.8895415, 0.92259777, -0.018061336, -0.09664391, 0.009554521, -0.37242264, -0.041684967, 0.7044126, 0.26755255, -0.16880108, -0.16662656, -0.3306803, 0.7333963, 0.3209806, -0.30684507, 0.3094421, 0.5653229, -0.1604762, -0.23992866, -0.53588486, -0.16780974, -0.31564313, -0.4899856, 0.15804496, -0.58777654, -0.4994906, -0.51817393, -0.21531862, -0.6964182, -0.0688487, 0.11901843, -0.4421072, 0.1362304, -0.2386124, -0.27967584, -0.59374976, 0.85716426, 0.016902847, -0.6525884, -0.13049197, -0.09858188, -0.39959648, -0.1427484, -0.814438, -0.097527556, 0.06359004, 0.24676451, 0.6944605, 0.81414455, 0.17376457, 0.018672569, 0.8505997, -0.083779655, -0.21993105, 0.48869374, -0.49242055, 0.35855594, -0.72132623, 0.40840143, -0.567758, 0.43075678, 0.46216214, -0.5097542, -0.04747378, -0.5240043, -0.10974937, -0.08337143, 0.062202, -0.022370376, 0.38409865, 0.7308357, 0.42772737, 0.65966856, 0.31093135, -1.2250842, 0.3218687, -0.59032214, -0.66092086, 0.08181134, -0.041666858, 0.025895255, 0.4097962, -0.19448376, 0.0052862284, 0.06912403, -0.32268026, 0.46981233, -0.28966883, -0.013968367, -0.53595287, 0.032530542, -0.5827359, -0.028824916, 0.2857803, 0.62750655, 0.06262494, 0.054235455, 0.7694179, 0.17403744, -0.40770572, -0.22192383, -0.213181, -0.24772047, -0.2526056, -0.69072574, -0.13112985, 0.13712338, -1.2770208, 0.756699, -0.060731377, -0.33937377, 0.2070226, -0.2566803, 0.9515625, -0.5301437, 0.1833761, 0.018346755, 0.6309153, -0.15052727, 0.5212999, 0.5474168, 0.37684986, -0.79504454, -0.17203099, 0.11088971, 0.42526823, -0.3170145, -0.12888871, 0.042588834, 0.40352568, 0.41633213, 0.09232995, -0.5100844, -0.1429144, 0.5624228, 0.9945334, 0.13113669, 0.9978399, -0.14848255, -0.16342178, -0.7076911, -0.1340681, -0.2942494, -0.7481412, 0.016230881, -0.6796021, -0.13428205, 0.3110107, -0.08189643, -0.13691308, -0.37593216, 0.007454684, 0.25656927, -0.4704224, -0.35869086, -0.06936537, 0.66915333, -0.16130343, -0.117648646, 0.23274271, 0.21565042, -0.18635994, 0.06842409, 0.56074053, -0.17510635, -0.13362068, -0.7071766, -0.46079677, 0.09296605, -0.46102777, -0.22797975, 0.061104476, -0.0618039, 0.32189697, -0.16043861, 0.46084017, 0.36913916, 0.19216108, 0.15925512, 0.4557143, 0.5595203, 0.22690672, 0.67839855, 0.238864, 0.00019531869, 0.6717938, -0.09090432, -0.083551794, 0.4614467, 0.19780959, -0.22416078, 0.45252517, 0.41282108, -0.26270726, -0.25509083, -0.26599318, -0.18357636, 0.5107445, 0.24479772, -0.8008182, -0.105991654, -0.80636847, -0.48613805, 0.53801143, 0.09174979, -0.51645434, 0.20439953, 0.5915594, -0.062123474, 0.061956193, -0.010693571, 0.54608047, -0.049116656, 0.43972602, 0.13850112, -0.26540336, -0.28843448, -0.22159244, -0.09022489, -0.06348625, 0.23950085, 0.49016938, 0.23269437, -0.21593949, 0.26977122, -0.3343069, -0.17385481, -0.07675034, 0.066968575, 0.28295237, 0.33158752, -0.27001625, -0.11471178, 0.86817443, 0.16198784, -0.24910758, -0.06079263, 0.39742905, 0.20677194, -0.21547453, -0.4498502, -0.8443976, -0.28136662, 0.006185684, -0.84760386, -0.17368022, 0.28952333, -0.30382967, -0.35778746, -0.26153654, -0.6273188, -0.15163183, 0.39731124, -0.54063666, -0.20012313, -0.53656, 0.093621925, 0.42796248, 0.5198125, 0.19462225, 0.3310921, 0.62665117, 0.15515798, -0.44838205, 0.35231543, -0.47635823, -0.6836121, -0.7357922, -0.4153373, 0.06679146, -0.38841468, -0.07299596, 0.37392032, -0.11086401, 0.16022316, 0.90128195, 0.2551195, -0.99956775, 0.026115656, -0.9464829, -0.23464465, -0.6331021, 0.06950951, 0.32035002, -0.013786344, -0.8368453, -0.5801338, -0.9149253, -0.71571475, -0.28036255, 0.04931593, -0.21409692, 0.93181807, 0.040619392, 0.25964898, 0.0333913, -0.5559796, 0.77657515, -0.3793548, -0.32222798, -0.19157767, 0.020006236, 0.3914266, 0.2763048, -0.19073865, -0.083378956, 0.45195007, 0.73388016, 0.3539037, 0.35517055, 0.43563625, -0.25497454, -0.67435205, -1.1726545, -0.64867884, -0.34775797, 0.50486594, 0.06566933, 0.17999719, -0.09405214, 0.44405544, 0.7138198, -0.09892, -0.56976974, 0.2667071, -0.24353257, -0.35822695, -0.09289532, 0.5653932, 0.23684481, -0.7939446, -0.22405359, -0.013337713, -0.0038303821, 0.36040872, 0.1507626, 0.20358199, -1.047593, 0.4786662, 0.5246601, -0.15497711, -0.22556101, -0.55811054, -0.08848349, -0.28899428, 0.17030787, 0.1448914, -0.13331042, 0.550236, -0.579524, -0.35371223, -0.37130693, 0.069042854, 0.14489518, 0.03872929, -0.6646625, -0.7688569, -0.17285946, -0.056402225, -0.57541764, 0.80900383, 0.19603859, -0.6117545, -0.12510893, -0.13669822, -0.33095947, -0.2119225, 0.31414622, 0.43411574, 0.36147326, 0.29904974, -0.1750238, 0.64633876, -0.15807198, 0.18757813, -0.36260253, 1.0781441, 0.21506718, 0.45110482, -0.035862084, 0.3242874, -0.063428774, 0.088019684, 0.31130153, -0.44143778, 0.5039373, 0.69966996, -0.48210335, 0.6051024, -0.1156214, 0.09020119, 0.16029035, 0.81985086, 0.067829385, -0.18424287, 0.107726015, -0.37126306, -0.21295165, 0.3033368, -0.7393576, -0.25395018, -0.7952217, -0.82136905, -0.92675555, -0.495311, -0.10334794, -0.05583292, 0.26522356, -0.5543777, -0.25213373, -0.86778486, -0.18845667, 0.5016711, -0.1721066, 0.018650066, -0.646809, 0.09369735, 0.4579079, -0.42268604, -0.1860465, 0.08555116, 0.0018891188, -0.044918213, -0.3239713, 0.013995321, 0.37606797, -0.038715884, -0.24875309, 0.086143404, 0.19102678, -0.352648, -0.4771353, 0.12421303, -0.7190065, 0.43458083, 0.074265234, -0.0690281, -0.017727442, 0.33904663, 0.4936523, 0.13780779, -0.4008368, 0.11154376, -0.08322443, -0.10184945, -0.10533821, 0.2269223, -0.0001964145, -0.041030344, 0.739, -0.08796211, 0.1602516, -0.29332656, -0.11601485, -0.36306614, -0.2707277, 0.7328007, 0.6473443, -0.007754977]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>식품 물성 전문가는 누가 있죠?</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>세종대학교 이수용, 경기대학교 김현석, 서울대학교 김용노 교수님을 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>4</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>[-0.7418507, -0.2926672, 0.25191918, -0.8961878, 0.18206762, -0.40280467, -0.5117519, -0.36586067, 0.4779693, -0.32581666, 0.18097036, -0.24173498, -0.026166163, -0.29220065, -0.12647553, -0.047833096, 0.24888498, -0.15703191, -0.1532377, -0.31127393, -0.14004792, 0.02086632, 0.7036717, 0.53809965, -0.32292834, 0.018804772, -0.25630656, 0.05148692, -0.1378693, -0.3260213, 0.61989903, -0.180187, 0.10614035, 0.0037842006, -0.026630558, 0.11255724, -0.6210378, -0.30100173, -0.24463353, 0.29780462, -0.56108814, 0.10668475, 0.18855621, -0.011256485, 0.18360399, 0.2658901, 0.031512544, 0.15470372, 0.55107546, -0.095699266, -0.60282856, -0.46201718, -0.05262611, 0.57603174, -0.22400235, -0.34241652, 0.15126489, 0.07113543, 0.40846622, -0.35984355, 0.40262097, -0.30655873, -0.024830377, -0.4898864, 0.36984313, -0.6406886, -0.11534383, 0.072909884, -0.39886644, 0.3669349, -0.39220697, 0.16723663, 0.62287366, -0.4334881, -0.15700758, -0.15558857, 0.038710434, 0.10037771, 0.8022185, 0.060006846, -0.32735202, 0.3209686, 0.3979186, -0.43216982, 0.7182365, -0.73510206, -0.0032758052, -0.40140107, -0.7833493, 0.09077627, -0.20593886, -0.23008347, 0.13987869, -0.073880084, -0.075735204, -0.34639728, -0.6389128, 0.3560935, 0.12543187, -0.17515261, -0.18555056, -0.30170783, 0.070831604, 0.56572396, -0.20366426, -0.4978546, 0.11672416, -0.117101766, 0.42218915, -0.13006236, 0.2788068, -0.9084787, 0.04455297, 0.32683694, -0.2591689, 0.25748074, 0.020766431, -0.14194246, -0.2037993, 0.31162223, 0.31099746, -0.119899444, 0.103093386, 0.07643208, -0.010458572, 0.2103611, 0.37209722, -0.23183142, 0.6295139, -0.5998427, 0.21692695, 0.49382427, 0.32595035, 0.4647153, -0.5805578, -0.35728708, -0.24217868, -0.3697314, 0.75152874, 0.6187515, -0.4448636, 0.13588646, -0.19667205, 0.28502065, -0.45866117, -0.3269312, 0.20146579, -0.03132439, 0.49075383, -0.963625, -0.109808944, 0.048616458, -0.4577715, 0.07052624, -0.5754902, 0.055991318, -0.20167266, 0.16932383, -0.00023452532, 0.37078092, 0.23255664, 0.6290363, -0.43133923, -0.18001531, 0.4688922, -0.49160117, 0.4912898, 0.043510865, 0.28961182, -0.20037512, -0.64550894, 0.047209013, 0.26736954, -0.38504168, -0.25391614, -0.22582637, -0.45812923, 0.174273, -0.0872989, -0.25715116, 0.46549037, 0.5414059, 0.3571285, 0.32680374, 0.12755892, 0.20897976, 0.3571489, 0.0555474, -0.79643196, -0.92345846, -0.032871448, -1.0628551, -0.20120493, -0.28970912, 0.21486293, 0.5110078, -0.37486762, 0.40820026, -0.02942642, 0.29704425, -0.53995854, 0.044111937, -0.49678814, 0.9236729, 0.23953767, 0.35264176, 0.07000204, -0.021896109, 0.16430496, -0.4781771, 0.32351956, -0.15661654, 0.21908535, 0.27803543, -0.22244371, -1.0580655, -0.14230217, -0.21392547, 0.24849515, 0.41443327, 0.24374561, -0.32165572, -0.2786852, -0.5500362, 0.19245711, -0.2833544, 0.21219768, 0.15449229, 0.16514185, -0.15740734, 0.0052022655, -0.2994527, -0.22295918, -0.22136879, 0.25857207, -0.7153073, 0.8264868, 0.6455385, -0.63157696, 0.07609136, 0.45358846, 0.22172818, -0.025846241, 0.37481764, -0.5935182, 0.021093972, -0.08821165, 0.019943433, 0.3763615, -0.14349414, 0.4252408, -0.13880664, -0.18607001, -0.31323826, 0.06329696, 0.057750512, 0.40530747, 0.16224869, -0.32518363, -0.17089671, 0.27392006, 0.17317553, 0.14049087, -0.03568915, -0.15017419, -0.3478192, 0.48066413, -0.8846741, -0.07193823, -0.22987214, -0.33991674, 0.083387785, -0.0043304292, 0.08803174, 0.16363168, 0.353452, -0.43938074, 0.29356918, 0.38960317, 0.36395714, -0.19072162, -0.12241574, 0.2739121, 0.36701038, 0.13652104, -0.7513394, -0.26487672, -0.3267106, -0.10830903, -0.32110506, 0.27847564, -0.23893143, -0.06305716, -0.7669911, 0.65064913, -0.6162193, -1.3548055, 0.18426408, -0.31093782, 0.71730554, -0.061472166, 0.633002, 0.044820424, 0.007085135, -0.14160408, 0.3736962, -0.2772666, -0.19680156, -0.97001404, 1.0922252, 0.7349249, 0.018511144, -0.17475484, 0.027260918, -0.2813567, -0.040462736, 0.45391396, 0.4722065, -0.12231806, 0.021895526, -0.6911341, 0.58188415, 0.13812102, -0.27629405, 0.13169335, 0.5989004, 0.10057639, -0.20523673, -0.637297, 0.013323427, -0.5809873, -0.7384565, -0.024641527, -0.693322, -0.14776751, -0.4539007, 0.008737179, -0.408971, 0.3956877, 0.5147516, -0.38191777, 0.07181685, -0.15558702, -0.09768191, -0.4008466, 1.2545617, 0.12086964, -0.6867133, 0.23602752, -0.28592288, -0.49999663, -0.2226036, -0.43986952, -0.3687051, 0.15975, -0.09987532, 0.15567364, 0.7814421, -0.21141802, -0.11229487, 0.7003755, -0.04442737, -0.1266021, 0.18784994, 0.13004114, 0.28622463, -0.36898872, 0.2567649, -0.27701238, 0.7174688, 0.5363562, -0.3300666, 0.35824978, -0.23285228, -0.1572182, -0.18317232, -0.2192135, -0.33253673, 0.15914875, 0.48530138, 0.45872983, 0.4273165, 0.28443363, -0.94511795, 0.37796488, -0.46369362, -0.45918533, 0.4477412, 0.1974894, 0.24191518, 0.57042223, -0.24741845, 0.18925904, -0.058935914, -0.16053247, 0.59348893, -0.4705459, -0.11223187, -0.41302988, -0.19953886, -0.3423526, 0.5986762, -0.40263054, 0.5040678, 0.5529229, 0.12753266, 0.2523961, -0.020313783, -0.46241185, -0.23691349, -0.17797342, -0.32413068, -0.21323885, -0.4880853, 0.24466775, -0.06652171, -1.4697896, 0.45004767, -0.32800317, -0.12753628, 0.30950758, -0.5731199, 0.8880891, -0.48254013, 0.23022723, 0.10791404, 0.2587208, -0.31763905, 0.366624, 0.13800803, 0.4537463, -0.97094387, 0.05253068, 0.20102239, 0.01788984, -0.22466253, -0.20866531, -0.19584179, 0.41264972, 0.45791396, 0.19035023, -0.7602637, -0.4618041, 0.47170323, 1.0090351, -0.0810132, 1.0687598, -0.6174637, -0.16109817, -0.6832163, -0.1756071, -0.47413826, -0.7877875, 0.027166503, -0.4256282, 0.025304573, 0.08215469, -0.3070037, 0.2557924, -0.24490334, -0.25747582, 0.4128679, -0.09556032, -0.6257762, 0.050014805, 0.83438665, -0.24972014, -0.26335385, 0.33784103, -0.025314022, -0.4624521, -0.20090231, 0.025078751, -0.12562202, -0.2855972, -0.5919205, -0.38018703, 0.09094207, -0.5420303, -0.12460919, -0.22257009, -0.14934629, 0.39501235, 0.030203925, 0.2771355, 0.42922956, -0.10866917, -0.16661745, 0.22054061, 0.6717548, 0.12603307, 0.7244825, -0.06998443, -0.39991206, 0.69710755, -0.15117642, -0.103858106, 0.2995469, 0.52062935, 0.5490516, 0.38683185, 0.26224706, -0.3290803, 0.052582774, -0.7292503, -0.38135654, 0.31186312, 0.14788821, -0.672868, 0.011114288, -0.6667089, -0.22169887, 0.13382746, 0.22104792, -0.26532486, 0.5656038, 0.5385842, -0.13986102, 0.035455648, 0.18419462, 0.6340674, -0.015546179, 0.21678796, 0.359637, 0.3335392, -0.5374216, -0.21306705, -0.17970958, 0.29202068, 0.41799596, 0.12392728, 0.31145635, -0.05051379, 0.18386516, -0.19637881, -0.06377203, 0.0858637, 0.009487152, 0.1693491, 0.13364501, -0.13047741, -0.15216833, 0.85754776, 0.33186978, 0.038002994, -0.1330035, 0.3327336, 0.3023158, -0.27607363, -0.87438697, -0.64156425, -0.06215911, -0.28817156, -0.28634512, -0.2979739, 0.23974022, -0.35336086, -0.35723332, -0.5306549, -0.47651815, -0.15388359, -0.008953436, -0.8967534, 0.027562153, -1.0119176, 0.2706766, 0.5111158, 0.14507584, 0.10895624, 0.3777211, 0.29451925, 0.5464412, -0.43650296, 0.24277076, -0.6157169, -0.33738124, -0.5555709, -0.6587712, -0.027167333, -0.6191887, 0.0300041, 0.6321201, 0.045676354, 0.050733723, 0.86275387, 0.15716088, -0.9256818, -0.17453118, -0.7699417, -0.26736844, -0.32013312, -0.21187067, 0.3075017, -0.061289445, -0.883787, -0.30958813, -0.7854063, -0.49251205, -0.20277175, 0.2397254, -0.11557276, 0.450255, 0.0717647, 0.25262585, -0.006324673, -0.5632165, 0.5325534, -0.39613083, -0.67506194, -0.11145115, 0.028351616, 0.50890976, 0.0326343, -0.19593228, 0.19388221, 0.1958437, 0.6399789, 0.09968478, -0.06454591, 0.47133714, -0.18254636, -0.41810024, -0.9544409, -0.42054453, -0.6070683, 0.7038021, 0.31033385, 0.14047839, -0.15800117, 0.16665486, 0.644212, -0.3034404, -0.66655034, -0.17118531, -0.44230717, -0.45415363, -0.16219984, 0.80897385, 0.19346048, -0.5048669, -0.6306878, 0.2878809, -0.23343922, 0.14791678, 0.16632782, -0.09252519, -1.1304173, -0.0539088, -0.10020245, -0.3965253, -0.30357537, -0.22300605, -0.04236016, -0.14738703, 0.098170765, 0.1308262, 0.100460716, 0.7101888, -0.334157, -0.29087365, -0.37027073, 0.3972263, 0.27972218, 0.008029953, -0.21580301, -0.4695813, -0.37339866, -0.30924928, 0.19175448, 0.6443975, 0.13218668, 0.040965974, -0.014680117, -0.059435118, -0.0904226, 0.06136993, 0.19370331, 0.17748599, 0.57456195, 0.17213836, -0.5948565, 0.31884763, 0.40785417, 0.17780645, -0.47465143, 1.0263034, -0.11745045, 0.55257314, 0.027518598, -0.019950835, -0.19355206, 0.25657913, 0.08203869, -0.60259587, 0.63477093, 0.33454874, -0.6086853, 0.22340345, 0.18406802, -0.04377109, 0.62872696, 0.34884548, 0.10339605, -0.5718617, 0.058650937, -0.24546385, -0.14606759, -0.21473266, -0.20442075, -0.17853905, -0.5270485, -0.28247455, -0.75752336, -0.68716717, -0.05552347, -0.22580266, 0.1367814, -0.28725427, -0.48223484, -0.7263715, -0.07113147, 0.55887556, -0.0043849107, 0.29641545, -0.34031656, 0.22273788, 0.55527455, -0.28647318, -0.24618173, 0.23175639, -0.18902779, -0.28171924, -0.23005551, -0.47324914, 0.5574846, -0.05714825, -0.010351249, 0.020695917, -0.20579506, 0.026117833, -0.27615625, 0.17460103, -0.64329123, 0.61543185, 0.25521228, -0.3111985, 0.0466748, 0.46236047, 0.2185475, 0.10612102, -0.47024783, 0.13328831, -0.03412735, -0.15330149, -0.30495378, -0.16753028, -0.106002934, 0.085751005, 0.8751522, -0.20126091, 0.13758434, -0.16213018, 0.018099986, -0.79442686, 0.1133244, 0.84539527, 0.8107555, -0.034379818]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>식품 물성으로 유명한 대학교는?</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>세종대학교 이수용 교수님을 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>4</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>[-0.52266115, -0.13486445, 0.0009549504, -0.5990117, -0.46370125, -0.19671264, -0.2670666, -0.6538692, 0.67549044, -0.20060982, 0.34771422, -0.3988054, 0.25527808, -0.052652575, 0.17532584, -0.04176493, -0.14645092, -0.17188111, -0.17016873, -0.5732832, -0.08009384, 0.110334605, -0.06280515, 0.49875298, -0.054790486, 0.026180811, 0.15435246, 0.6164891, 0.17689331, -0.2372591, 0.94127524, 0.10916994, 0.44759998, -0.3550847, -0.049490247, 0.02307531, -0.44001576, -0.41520894, -0.4401356, -0.6403232, -0.69030154, 0.17778239, 0.28176174, -0.5591803, -0.10519645, -0.29206008, 0.21234846, 0.6044895, -0.23649102, 0.1440698, 0.23519741, -0.7185846, 0.22315253, 0.720483, -0.262429, 0.01771056, 0.60026634, 0.28063405, 0.44012535, -0.17928246, 0.44204637, 0.06912513, -0.30133605, -0.21513948, 0.55273956, -0.7467102, -0.6813088, -0.06295803, -0.2529167, 0.10645979, -0.3772766, -0.096836545, 0.21387239, -0.13581641, 0.15356618, 0.11810077, 0.3306193, -0.19350792, 0.3562751, 0.61539894, -0.59750825, -0.2755163, 0.0058122096, -0.74577695, 0.057199944, -0.78856814, 0.25832507, -0.40742847, -0.5294093, 0.18734092, 0.03023038, -0.18078195, -0.3243961, 0.19288059, -0.3205236, -0.059389327, -0.4585099, 0.3239727, 0.47474194, -0.37201878, 0.1514916, -0.5499603, 0.1410738, 1.0361024, -0.27615646, -0.35240546, 0.20602201, 0.37584323, 0.49098027, -0.15766796, -0.013021723, -0.35593036, 0.35039094, -0.14964195, -0.6788773, 0.62299323, -0.21757907, -0.29610288, -0.07754543, -0.013826329, -0.33421335, -0.5536323, -0.027589988, 0.09722418, 0.21565925, 0.28604695, 0.38690808, -0.89578575, 0.54199725, -0.3631376, 0.3531825, 0.58826166, 0.14825225, 0.1750615, -0.047529817, -0.6966471, -0.4586571, 0.14418735, 0.462311, 0.46499813, 0.039171394, 0.09188431, -0.21825324, 0.5024769, -0.19833754, -0.65500045, 0.49319127, -0.77297384, 0.26930997, -0.99767596, -0.3505698, 0.0666475, -0.73896044, 0.1603423, -0.3820155, 0.45855695, 0.15103719, -0.34585002, -0.25915667, 0.14981247, 0.28473276, 0.39270675, -0.071884006, 0.23679084, 0.11169731, 0.25282323, 1.0411739, 0.0023184111, -0.3489861, -0.39396906, -0.2915827, 0.14165698, 0.059971515, -0.3256881, -0.06514519, -0.16377555, -0.4060702, 0.22731131, 0.09074808, 0.015743624, -0.043069597, 0.23780723, -0.021291679, 0.3940607, 0.40706226, 0.58501303, -0.29765537, -0.32195938, -0.6490977, -0.18316336, -0.312971, -1.192324, -0.095555775, -0.3743954, 0.48291346, 0.8172365, -0.15711342, 0.40510967, -0.18766618, 0.33180884, -0.45003283, 0.41224432, -0.30457518, 0.4436917, 0.028890343, 0.14688744, -0.25239, -0.47090057, -0.06816431, -0.4527379, 0.3039443, 0.18231012, 0.69623685, 0.14272216, -0.34604242, -0.40291345, -0.47023165, -0.13140574, 0.31463325, 0.009236076, 0.67838097, -0.22149166, -0.20584422, 0.00914002, 0.5589013, 0.3029672, 0.45318624, 1.1226541, -0.2951872, 0.2677124, -0.022131085, -0.30474895, -0.3073547, -0.6058892, 0.20018935, -1.0112475, 0.566689, 0.38876322, -0.10220316, 0.38496196, 0.23402561, 0.46036786, 0.14108518, 0.06534824, -0.13297454, -0.086806305, -0.14688446, -0.059997514, 0.5976501, 0.0061045145, 0.12781227, -0.22946915, -0.11633975, -0.9682325, -0.15473536, -0.040164784, -0.05942096, 0.8539257, -0.121955484, 0.66386294, 0.023044396, 0.052411832, 0.018150667, -0.26903585, -0.18190359, -0.26645657, 0.36875105, -0.78849256, 0.008147708, -0.31847242, -0.40870646, 0.28965086, -0.06433309, 0.0566345, -0.081724145, 0.26781777, -0.96390605, 0.2766295, 0.45339826, -0.049019657, -0.33861354, -0.2566757, 0.55081725, 0.17616226, 0.63705754, -0.5754696, 0.31776574, -0.10502224, -0.20055462, 0.09526331, -0.26309222, -0.80707604, -0.22765917, -1.2503327, 0.3042238, -0.58464247, -1.3777307, -0.1823145, -0.3517268, 0.8503066, -0.20679826, 0.38085172, 0.2682056, 0.15774065, -0.7554272, 0.24745475, -0.20508465, -0.003670443, -1.1899817, 0.68035924, 0.19376038, 0.0033148176, 0.12540728, -0.35689202, -0.31368485, -0.46624509, 0.5875357, -0.04332103, -0.13511787, -0.28190443, -0.07864339, 0.08448524, 0.34345472, -0.094129585, 0.46871898, 0.34034118, -0.07539203, 0.14940979, -0.5045329, -0.5592188, -0.5024544, -0.4887257, -0.09835258, 0.17720415, -0.28299412, -0.3424561, -0.4954153, -0.59330887, -0.38868922, 0.1703504, -0.055988733, -0.13305123, -0.25930896, -0.3764842, -0.42328814, 1.2435492, -0.2929461, -0.9267881, -0.3156363, -0.043371037, -0.044879552, -0.16789795, -0.7338341, 0.011490361, -0.012979835, 0.041565042, 0.48266602, 0.75357795, 0.16011995, 0.39885443, 0.4469226, -0.17775105, -0.16493365, 0.4151325, -0.35479242, 0.34692457, -0.2559578, 0.45534828, -0.31005263, 0.26889184, 0.39245635, -0.49716046, -0.3168004, -0.9389026, 0.13277607, -0.42325056, 0.0027977845, 0.010642468, 0.32295296, 0.85556567, 0.4514225, 0.071256526, -0.025045888, -1.4617214, 0.4892289, -0.54343134, -0.47751275, 0.038598455, -0.31600097, -0.43540156, 0.28684708, 0.493441, -0.059642527, 0.073219545, -0.4684942, 0.5281117, 0.042453956, -0.3543267, -0.2592402, 0.013348054, -0.46697605, 0.16064978, 0.14085804, 1.0086217, 0.25834882, 0.064165466, 1.0573877, 0.4839548, -0.3146689, -0.10466042, -0.045206413, -0.38718227, -0.45103014, -0.60224634, 0.07864192, -0.33984956, -0.84880424, 0.5733652, -0.022614945, -0.29195118, 0.18249649, -0.04838187, 0.5528375, -0.49967462, 0.023167808, 0.13290006, 0.8430515, -0.06376654, 0.7681925, 0.3034198, 0.51938415, -0.755706, -0.3612738, 0.2069305, 0.5607603, -0.1490376, -0.34151164, -0.3572373, 0.37978223, 0.35111618, -0.023461359, -0.22441012, 0.019660097, 0.35294107, 0.7767748, -0.008788467, 1.1714802, -0.32383406, -0.45936254, -0.16543527, -0.31943953, -0.30097237, -0.79921365, 0.1320364, -0.5376883, -0.51110786, 0.70292306, -0.21048412, -0.39918566, -0.24941702, 0.031147193, -0.041187882, -0.46653718, -0.77298313, -0.32472003, 0.1277697, -0.26375836, -0.1827405, 0.45451233, 0.3182965, -0.14922895, 0.30635822, -0.05407782, -0.23274569, -0.19682765, -0.8368611, -0.48750505, 0.14159264, -0.1817705, -0.18615599, -0.2156664, -0.088065386, -0.08842146, -0.44026396, 0.43869364, 0.11313133, 0.27881268, -0.11882598, 0.1705647, 0.40845641, 0.3825988, 0.26556367, 0.30329245, -0.17695199, 0.6411732, 0.24130964, -0.3101587, 0.7305578, 0.20480503, -0.1534348, 0.29682687, 0.2247611, -0.14060245, 0.3904229, -0.4298854, -0.32854375, 0.35575566, 0.393075, -0.5578448, 0.42425328, -0.38994363, -0.3901939, 0.72770196, 0.35276017, -0.5299806, 0.4768399, 0.28873834, -0.0936735, -0.22210355, 0.101940915, 0.15000719, -0.43396118, 0.6377551, 0.13771373, -0.2521915, -0.16943747, 0.23612809, 0.099518016, 0.114332266, 0.117026635, 0.12537836, -0.25004375, -0.5233823, -0.22189094, 0.1796287, -0.30857092, -0.21213694, 0.26632527, 0.41616032, 0.5398376, -0.3004216, -0.52330524, 0.60544866, -0.30038843, -0.3556311, -0.32503903, 0.30014846, 0.59762913, 0.20468822, -0.21980628, -1.0841192, -0.024809647, 0.2646604, -0.8127907, -0.13865638, -0.024774253, -0.128581, 0.0018545159, 0.06670477, -0.0706875, 0.021865359, 0.025008805, -0.6040609, 0.1730328, -0.4432902, 0.14789946, 0.22310616, 0.29998672, -0.122814745, 0.14750361, 0.34363696, 0.069333084, -0.53306615, -0.20101003, -0.038777445, -0.42394847, -0.87014925, -0.38395646, 0.11334429, -0.49238375, 0.01121035, 0.4576364, -0.44133428, -0.16649099, 0.62091357, 0.26280567, -0.60079986, 0.44554532, -0.6573591, -0.10819581, -0.6699981, -0.048102178, 0.24219403, -0.12628339, -0.2792238, -0.20709465, -1.0390859, -0.6992714, -0.5221743, 0.04330905, 0.26252377, 0.47610208, 0.14432889, -0.0012261245, 0.5024464, -0.3898926, 0.6139633, -0.6678938, -0.35084128, -0.17074299, 0.33319077, 0.6478533, -0.17279522, -0.6868022, -0.5683808, 0.4317977, 0.92723846, 0.3013072, 0.29967666, 0.041499794, -0.33843175, -0.49024963, -1.439155, -0.5857317, -0.3813965, 0.23385711, -0.2997507, 0.36752272, -0.50964016, 0.4912548, 0.39828846, -0.23795976, -0.47611472, 0.2241694, -0.13892059, -0.3914118, -0.18591219, 0.36539888, 0.58596015, -1.1049734, -0.335833, 0.19705437, 0.3295914, 0.5544528, 0.29659778, 0.107708715, -0.762556, 0.3657528, 0.6076412, -0.12786533, 0.055561867, -0.34135905, -0.5160444, -0.082669504, 0.22972202, -0.06413971, -0.113215834, 0.3274143, -0.3688878, 0.044908702, -0.33488843, 0.27197883, 0.31967413, -0.09422494, -0.891283, -0.5924455, 0.17219359, 0.16826361, -0.6969901, 0.531068, 0.24948296, -0.6632615, -0.5284723, -0.19118863, -0.30692244, -0.25368807, 0.16632685, 0.5662934, 0.5733616, 0.30604064, -0.17213638, 0.95780945, -0.0026998601, -0.09229029, -0.49942294, 0.8000715, 0.2498527, 0.33239836, -0.21688513, 0.25676063, -0.23665218, 0.3349201, -0.028155608, -0.3906357, 0.3175117, 0.7811714, -0.7262447, 0.9025095, -0.2504532, 0.28884512, 0.33599263, 0.56682366, 0.10509313, -0.17925732, 0.06357603, -0.26787665, -0.47395602, 0.0486704, -0.80928266, 0.06015795, -0.038088653, -0.5635387, 0.18546586, 0.16474643, -0.22899231, -0.012942687, 0.39252612, -0.67330146, 0.12987234, -1.0058067, -0.1308049, 0.489738, -0.18548374, 0.18891272, -0.19083348, 0.2735494, 0.48846114, -0.24570781, 0.39380312, -0.040529467, 0.13649146, -0.41501874, -0.4078725, -0.36447027, 0.56813717, -0.09231175, -0.25159395, 0.23397289, -0.22055526, -0.6760458, -0.591733, 0.27694124, -0.5338363, 0.009588201, 0.42850876, 0.11597004, 0.1597313, 0.23065238, 0.3197994, 0.14545658, -0.04462473, -0.08480744, 0.037203573, 0.18964286, 0.024910022, 0.22028758, -0.11564968, -0.056096558, 0.6282074, -0.4666023, 0.22958517, 0.30244777, -0.47038963, -0.12734054, -0.20688294, 0.741724, 0.84190845, 0.20002602]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>생선의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>매우 어려운데, 일단 TPA 방법을 시도해볼 수 있는데 전문가의 자문이 필요할 것 같아요.</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>3</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>[0.3414375, -0.110343195, 0.6018774, -0.3377048, -0.13034976, -0.03060793, -0.008906092, 0.29856452, 0.39886394, -0.4651517, -0.15461375, -0.03903873, -0.10328949, 0.22267722, -0.38101602, 0.4053557, -0.16066247, 0.57952064, -0.5406092, -0.16681103, 0.23305011, -0.12227717, 0.2879679, -0.11715395, -0.43231043, -0.036432896, -0.6762529, -0.18665107, 0.0978987, -0.68253785, 1.1143042, 0.47760788, -0.20636593, 0.16092597, -0.24862377, -0.3661339, -0.1487802, 0.39269885, 0.16818814, -0.20924242, -0.9638281, -0.5173397, 0.3006614, 0.55275464, 0.21177171, -0.18377572, 0.18251057, -0.34729174, -0.02374663, 0.05546455, -0.5594158, 0.6476684, 0.030445496, 0.32947454, -0.46390066, -0.87285095, 0.024113625, 0.35562077, -0.07799486, -0.4766835, 0.27118242, -0.5142717, 0.08665771, -0.53416634, -0.14671445, -0.33551022, -0.53382915, 0.15690511, -0.4165615, -0.07303407, -0.106295675, 0.21150441, 0.46793225, -0.44706222, 0.19723289, -0.8213267, -0.45101473, 0.12627941, 0.68544024, 0.5339766, 0.1663803, -0.49388266, -0.22523795, -0.6704009, 0.5416087, -0.7052025, -0.49922943, -0.5063786, -0.002510724, -0.11724145, -0.2822473, -0.17620456, 0.26809242, 0.3613728, -0.83089375, 0.09479023, 0.0057750377, 0.15384217, 0.2601949, 0.002715025, -0.060091782, -0.22170806, -0.43105277, 0.9734861, 0.54108113, 0.18733835, -0.38286185, 0.4188842, 0.85983866, -0.3101647, 0.35628906, -0.40710977, 0.26168913, -0.18408929, 0.6122871, 0.37217596, -0.4400201, 0.13028063, 0.28624862, -0.047604334, 0.0034540147, -0.21732342, -0.2818136, 0.29317012, -0.04759693, 0.18466069, 0.27568015, 0.21702199, 0.586832, -0.49012515, 0.08991025, 0.5804145, 0.48697662, 0.33902776, -0.38588956, 0.039711267, 0.6161379, -0.058258165, 0.5744107, 0.51710033, -0.80110544, -0.019038072, -0.29028204, -0.15854019, -0.48470843, 0.12998907, 0.13846424, -0.65016276, 0.066610545, -0.4594752, -0.49018028, -0.12307473, -0.22936642, 0.32643497, 0.4924778, 0.15359694, 0.3195528, -0.17706871, 0.5274789, -0.0573834, 0.61841923, 0.35982242, -0.15173282, 0.12297985, 0.06347608, -0.6326377, 0.14391638, -0.015626332, -0.25305665, -0.8129363, -0.108805664, -0.115890115, 0.7065193, -0.5392326, 0.16807316, -0.2308674, -1.1598021, -0.42006385, -0.7283163, -0.9615211, 0.65377, 0.085868865, 0.11699746, -0.56669456, -0.37333322, 0.23478925, 0.42516065, -0.07264745, -0.8641152, -0.73350257, 1.1896435, -0.48610616, -0.28349248, -0.0071856566, 0.56606513, 0.62930554, -0.5878848, 0.14207639, -0.5545696, 0.40717897, -0.37420753, 0.41573265, 0.39825186, 0.6882677, -0.058705986, -0.39042893, 0.71908516, 0.047675684, 0.3718758, -0.31003, -0.03622274, 0.48657596, -0.1017541, 0.48272052, -0.18142836, -0.8639069, -0.34007803, -0.28404054, 0.10009726, 0.017362239, 0.4368645, 0.12569517, 0.2978618, -0.60760134, -0.03784907, -0.62268394, 0.5057972, 0.66590613, -0.26083007, 0.089027725, 0.08892974, -0.28634557, -0.5241127, -0.34549716, -0.14814115, 0.075133435, -0.2656227, 0.67273235, -0.73706454, 0.2343585, -0.304338, 0.40081772, -0.39548185, -0.016246887, -0.56836706, 0.13471681, 0.20051222, -0.048400983, -0.33573544, 0.08989588, 0.497411, 0.27130386, -0.022694556, -0.40221438, 0.035325956, 0.47165307, 0.02493908, 0.31495497, 0.19446023, -0.24447657, -0.33611274, 0.18965757, -0.8676745, -0.08798245, -0.23396052, -0.16630924, 0.72756267, -0.45670506, 0.20720156, -0.3957933, -0.34483922, -0.39172372, 0.616333, 0.084733896, -0.53162706, 0.6326647, -0.46492743, 0.22739412, 0.44949546, 0.6981494, 0.14002438, 0.38496593, 0.31307545, 0.15555348, 0.6982778, -0.5725695, 0.20683439, -0.633151, -0.9043405, -0.41080117, -0.40909982, 0.08799517, 0.24313813, -0.25839835, 0.52066845, 0.32186463, -0.49099588, -0.16323195, 0.7926703, 0.8214639, -0.17071576, 0.6451747, -0.045705568, -0.19897865, -0.85333914, 0.4516177, -0.33043197, 0.03563414, 0.05875585, 0.42411172, 0.16051815, 0.63384455, -0.5300426, 0.019088319, 0.41767797, -0.529113, -0.031380747, -0.17955254, 0.009441019, 0.04257876, -0.48156354, 0.70634526, -0.00896858, -0.2645491, 0.10043342, -0.037064705, 0.31042257, 0.012502324, -0.40830815, 0.19408321, -0.8088586, -0.17230122, 0.03344723, -0.21140069, -0.5976364, -0.58106035, -0.07232457, -0.3758006, 0.23977585, 0.28878567, 0.102759875, -0.1274491, -0.7944112, 0.13553594, -0.70289797, 1.1660341, -0.1363578, -0.71771115, -0.0175112, -0.5334358, -0.20511918, -0.19555627, 0.0119606005, 0.23104705, 0.271719, 0.5216545, 0.098170005, 0.72569484, -0.1305639, -0.35284904, 0.6215511, -0.398531, -0.3563563, 0.26297513, -0.38555574, -0.60211086, -0.7546494, 0.4212724, -0.13321307, 0.17402898, 0.018728776, 0.16230492, -0.122051336, -0.16665052, -0.10645067, 0.29677835, -0.26961327, -0.4263425, 0.09122441, -0.19596815, -0.28626046, 0.93428916, 0.0732603, -1.0015922, 0.3543854, -0.2667789, -0.18243505, -0.5926342, -0.43420097, 0.13322763, 0.6439764, -0.011546562, -0.45253813, -0.03944392, -0.70616263, 0.2067753, -0.007095533, -0.27255335, -0.8578406, 0.29560682, 0.3529068, 0.6944568, 0.18695915, 0.06301149, 0.124411695, -0.09871769, -0.09909913, 0.15861838, -0.0913387, 0.35595325, 0.12169353, -0.10367415, 0.1313471, -0.2759358, -0.42589548, -0.39662623, -0.9550033, 0.41256163, -0.057552572, -0.18579942, 0.67208743, -0.4093925, 0.60153764, -0.2508368, -0.59779656, -0.3250465, 0.781806, 0.13684534, 0.870451, 0.32665253, 0.46703967, -0.7382731, 0.33742133, -0.36610177, -0.04076586, -0.54865783, 0.6550544, -0.2985172, 0.43685332, 0.3111764, 0.33036643, -0.00042450675, -0.29864392, 0.09232681, 0.48001206, 0.08955941, 0.514574, 0.22481845, -0.049411584, -0.5364049, -0.44965887, -0.5001916, -0.93282956, -0.075644605, -0.8119228, 0.19776757, -0.2974551, 0.15323943, -0.12741973, -0.02914857, -0.39476952, -0.11946922, -0.22528912, -0.29057655, -0.46034157, 0.12266978, -0.08317765, 0.42842028, 0.502455, 0.12852651, -0.44427612, -0.12720604, 0.6113448, -0.26608804, -0.93049186, -0.54128546, 0.21397029, -0.005546835, -0.44262266, -0.1975971, -0.7160483, 0.36733785, -0.0697496, 0.89503056, 0.6275446, -0.20790179, 0.109671704, -0.3861893, 0.20133267, 0.7758033, 0.522222, 0.31231892, -0.42823422, -0.33718768, 0.23814185, -0.2246785, -0.11896501, 0.06485651, -0.16390385, -0.09847542, -0.1428968, 0.3839717, -0.12330151, 0.25237378, -0.046795357, -0.2773905, -0.2613999, -0.6214938, 0.025277073, -0.43708646, -0.13049115, -0.51403385, 0.2370866, 0.32743964, 0.66995865, 0.28535166, 0.6465935, -0.32133964, 0.07800977, -0.20207411, 0.3013249, 0.022111947, 0.36006656, 0.8768425, -0.023422638, 0.15249087, -0.21714185, 0.2545937, 0.3291967, 0.4705445, -0.08969852, 0.046217784, 0.13336219, 0.43087077, -0.66195494, -0.2986415, -0.16591267, 0.21526758, 0.23983514, 0.24481438, -0.1609589, 0.14449869, 0.7751438, 0.117803276, 0.2125894, -0.18992458, 0.6300195, 0.46862826, -0.75999194, -0.55142045, -0.36763147, -0.5028506, 0.3216629, -0.39075473, -0.41804242, 0.25147888, 0.006222648, -0.52795935, -0.13138835, 0.58509535, -0.56151766, 0.33980823, -0.3168232, -0.30601752, -0.12582467, -0.19967239, -0.25530156, 0.23152882, -0.062078144, -0.06582259, 0.540999, 0.046722364, -0.106433816, 0.82092994, -0.27258858, -0.6954914, 0.36019373, -0.8517628, -0.20085512, -0.2542783, -0.28743038, 0.21188956, 0.9094834, -0.64235544, 0.84843016, 0.61472464, 0.073702715, -0.16053389, -0.4397116, 0.45395276, -0.12012229, -0.38355887, -0.4211515, 0.37616238, -0.3143607, -0.21128471, -1.0528375, -0.32525486, -0.35456297, 0.18707292, -0.3654962, 0.3985133, -0.3692762, -0.38756046, -0.036372036, -0.18357176, 0.7548178, -0.24388011, 0.121287666, -0.34510136, -0.38637158, 0.35640487, 0.27781066, -0.1708798, 0.36916304, -0.3218503, -0.28396687, -0.17360435, 0.06349954, 0.7216003, 0.1524844, -0.28876385, -0.13431041, -0.53148127, -0.7335772, -0.06481966, 0.15282647, -0.72232294, -0.28561342, -0.16228929, 0.17169558, -0.25433353, 0.07022096, 0.24010164, -0.6332003, -0.11494256, 0.39808106, 0.49518943, 0.04600523, -0.75876594, -0.7619841, -0.2298022, -0.18009217, -0.38162002, -0.37244806, 0.5483995, -0.8572214, 0.95355797, 0.477211, -0.47771624, -0.18780692, -0.65676063, -0.19703953, -0.29103798, 0.011092283, 0.1902499, 0.13978593, 0.5611039, -0.39033303, 0.25498658, -0.5238733, 0.06898413, 0.060272682, -0.2405051, -0.58165, -1.3119904, -0.026350548, -0.20564835, -0.3916235, 0.5481347, 0.20616399, -0.30327705, -0.030881926, -0.17962654, -0.28709924, -0.260793, -0.09636047, 0.27740583, 0.35463992, -0.4356599, -0.27355447, 0.6858437, -0.04110415, 0.21578638, -0.24004048, 0.75343895, -0.8748298, -0.2537862, 0.21012014, -0.003066613, 0.07482854, 0.0130726015, 0.55950135, -0.015777888, -0.16612843, 0.6002608, -0.3965465, -0.017409155, -0.7358959, 0.07515749, 0.49811527, 0.4874405, -0.35735393, 0.2808974, 0.062174503, 0.429605, 0.35071638, -0.18667991, -0.1519876, -0.45893273, -0.99613816, -0.49096003, -0.03946367, -0.45613325, -0.17579664, -0.795657, -0.35909832, -0.32212362, -0.41072473, -0.21385847, 0.7672009, 0.25693175, -0.05640647, 0.05068815, -0.50669885, -0.06822463, 0.7010324, 0.22685659, -0.24683839, 0.011247556, -0.07066492, -0.314055, -0.37983677, 0.48894426, 0.18371789, -0.058814242, 0.16417392, 0.2945252, -0.59959984, 0.45699134, -0.18518607, -0.27304986, -0.42823926, 0.9617049, 0.05408178, 0.5808472, -0.10369593, 0.5831427, 0.2215135, -0.31578675, 0.31794974, -0.22519152, -0.13114566, 0.11139315, 0.17863995, 0.17376505, 0.11890439, -0.4621066, 0.6997866, -0.4641329, 0.17895816, -0.20339173, 0.08302029, -0.5341101, 0.5978882, 0.23633121, 0.20953299, 0.26841718]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cake의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 TPA test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>[-0.6940412, -0.27789623, -0.030282917, -0.6775954, -0.46621862, 0.031290926, 0.405424, -0.37878928, 0.113804, -0.078431204, 0.009919941, -0.2779557, 0.26486754, 0.366423, 0.2916439, -0.5110779, 0.20236804, 0.41483256, 0.06616776, -0.030158112, -0.09154461, -0.14368883, 0.09940371, 0.039457, -0.17100774, 0.1892887, -0.3313431, -0.36153236, 0.080034785, -0.4888549, 0.7154609, 0.42135397, 0.29819968, 0.43639004, 0.05575431, 0.44555438, -0.44279146, -0.020516025, 0.2574376, -0.15484497, -0.19367258, 0.096965075, -0.38649496, 0.34042984, 0.552788, -0.028838916, 0.66666156, -0.2623781, -0.39677164, -0.34346125, -0.58062273, 0.09672561, 0.6108433, 0.5366858, 0.09082939, -0.40169615, 0.23433545, 0.3060518, 0.2530143, 0.014386454, -0.09463609, 0.054263957, -0.12105581, -0.27107036, -0.042652205, -0.6626906, -0.7459805, -0.07230925, -0.54952824, -0.42104086, 0.20785648, 0.262207, 0.28746977, -0.5868357, 0.115251094, -0.5374067, -0.6549572, -0.04172802, 0.50523543, 0.27163476, 0.36662582, -0.4266315, 0.273966, -0.414483, 0.4119384, -0.30825266, 0.04042399, -0.2582231, -0.2296533, 0.6353951, -0.23682848, -0.17513013, -0.70691526, 0.29380196, -0.33273357, 0.17489833, -0.11873519, -0.040955245, 0.6093561, 0.07673729, -0.56611717, -0.3409641, -0.07508449, 1.5619888, 0.280246, -0.17467825, -0.24710196, 0.58007437, 1.1007922, 0.13176106, 0.4411078, -0.46634457, 0.0018838093, 0.03281179, -0.12957436, 0.239714, -0.1658598, 0.35157907, -0.37959677, -0.026800286, -0.121609166, -0.34536856, -0.021426152, -0.3301684, -0.038793173, -0.11756349, 0.08830964, 0.06845111, 0.7391885, -0.3962219, -0.0853436, 0.0026022417, 0.21231538, 0.16622327, -0.4510504, -0.4478073, 0.2902129, 0.17869529, 0.71896607, 0.6749089, -0.32661778, -0.20722762, 0.3104173, 0.23883994, -0.23362002, 0.20404004, 0.31956238, -0.5463135, -0.057139516, -0.5531215, -0.10870024, -0.08785643, -0.45768097, 0.75254184, -0.47091392, 0.31566432, -0.2806748, -0.48966438, 0.24720438, -0.36739555, 0.5921041, 0.14999475, -0.2655945, 0.39406666, 0.07830909, -0.29257637, 0.28177476, -0.04752255, 0.46756932, -0.6553029, -0.42526057, 0.47388542, 0.21172374, -0.2952289, -0.18011807, -0.21147873, -0.9320909, 0.026590828, -0.23157631, -0.37525827, 0.6599694, 0.8775486, 0.38155603, 0.0221399, -0.19146903, 0.28852916, 0.18507591, 0.10209488, -0.30115902, -0.38278568, 0.27554828, -0.26073915, -0.5360467, -0.44548023, -0.03144188, 0.0568625, -0.63146865, 0.11474932, -0.12723094, 0.38723212, -0.96448857, 0.7401302, -0.6958438, 0.46039757, 0.24283609, -0.33169276, 0.3385428, 0.10851106, 0.364183, -0.38575184, -0.19435355, 0.5799202, 0.021785788, 0.22658917, -0.21138045, -0.7869189, -0.4744972, -0.06694507, -0.037021443, -0.06466799, -0.10042719, -0.7603437, 0.89029133, -0.6640987, -0.14546177, -0.23146567, 0.5146876, 0.7501987, 0.13663515, 0.36859053, -0.57670045, -0.20930551, -1.0279452, -0.5898951, 0.73734766, -0.8083159, 0.48004627, 0.6685151, -0.33113807, 0.013855709, 0.11977016, 0.15509047, -0.19179694, 0.029853385, 0.57984614, 0.5052118, 0.037337966, -0.26498082, 0.28159648, -0.6059145, 0.4285278, 0.45251444, -0.08014699, -0.17576957, 0.32800034, -0.50087273, 0.24636222, 0.7338412, -0.7337916, 0.19068545, 0.44278273, 0.2413565, -0.66775453, -0.23949116, 0.36867583, 0.082901366, 0.19770153, -0.50012517, 0.31035587, -0.42524943, -0.30595958, -0.055762127, 0.17898877, -0.07199259, -0.22132269, 0.706339, -0.5317141, 0.4955381, 0.24306703, 0.11821168, -0.06728893, 0.44428703, 0.28561524, 0.312109, 0.84137285, -0.19674231, -0.23895599, -0.4901118, -0.10092891, 0.32097545, 0.065084234, -0.52401775, 0.026752302, -1.1497738, 0.14279972, -0.27205354, -0.74087083, -0.14386702, 0.5387824, 0.95175105, 0.06856484, 0.49098566, -0.15581869, 0.22888759, -0.12553002, 0.5155901, -0.415076, -0.6236166, -0.17051627, 0.2844606, 0.5357816, 0.2501325, -0.04059422, -0.17369519, -0.2386629, -0.9897044, 0.749319, 0.15978488, -0.12354512, -0.10189593, 0.091188416, 0.7496925, 0.072373696, 0.20291474, 0.45860606, 0.7512907, 0.09993177, 0.054996677, -0.468368, -0.003749256, -0.9564655, -0.6267451, -0.113213345, -0.48883918, -0.0757729, -0.93839, 0.46555075, -0.67717934, 0.41329065, 0.03313372, 0.110530734, -0.19929664, -0.57744837, 0.074679196, -0.00040372863, 1.150034, -0.61937296, -0.4638429, 0.02004876, -0.50314033, -0.09759019, -0.072342105, -0.2999522, -0.23044083, 0.86182284, -0.15162672, 0.22951028, 0.6411426, 0.2329424, 0.061339267, 0.7266607, -0.0076290276, -0.07108011, 0.22446474, -0.45490596, -0.68265164, -0.50673187, 0.3435907, 0.019717477, -0.48978713, -0.26644242, 0.13879742, 0.52110803, -0.37079108, -0.07138408, -0.10447491, 0.068840005, 0.21862711, 0.38254622, 0.28974563, 0.3599897, 0.30843586, -0.24810721, -0.73327035, 0.20476487, -0.2671966, 0.1142588, -0.092314094, 0.025561273, 0.38565636, 0.4498502, -0.3272956, 0.0010423476, -0.0032001366, -0.17917617, 0.17062616, -0.23198332, -0.14779642, 0.041812763, 0.5098062, -0.49166209, 0.18701449, -0.54729706, 0.3560791, 0.0395359, -0.035029285, 0.0083319275, 0.007891947, -0.59653527, -0.38962162, -0.21700583, -0.047891818, -0.17144224, -0.9120296, -0.4700123, -0.2819235, -1.1410768, 0.56258625, -0.41577306, 0.25691998, -0.034969162, -0.6596575, 0.59751433, -0.73622006, 0.0743647, 0.27080333, 1.1826689, -0.35035643, 0.008455543, 0.4585007, 0.13360468, -0.46039054, 0.13120069, -0.26636893, -0.5747445, -0.5019682, 0.088860184, -0.09147574, -0.51378673, 0.46888158, 0.14779681, -0.46098706, -0.117758244, -0.05139957, 0.16099969, 0.20580108, 0.41343558, -0.3914138, -0.35047972, -0.5566398, -0.33946532, -0.2899382, -0.75714135, 0.25185797, -0.11366172, 0.4214493, 0.24556923, 0.14826368, 0.04683103, 0.14189681, 0.120103955, 0.19224165, 0.06234541, -0.14592305, -0.09297698, 0.40567547, -0.08708168, 1.1287627, 0.44701555, 0.08407002, -0.090908594, -0.1705795, 0.31163496, -0.27638867, -0.48041227, -0.90021765, -0.7137935, 0.27586645, -0.64981735, -0.12343207, -0.39290312, -0.2553697, 0.6177022, 0.10232106, 0.51171046, -0.01076326, -0.02819302, -0.4306761, 0.122034974, 0.5135704, 0.122567005, 0.38821915, 0.0986901, -0.31434125, 0.6279802, -0.07300333, -0.1528662, 0.17898053, -0.25313362, -0.28074765, -0.39064366, 0.5111768, -0.20813109, 0.117122546, -0.66677815, -0.25822875, -0.032944493, 0.20599659, -0.5398145, -0.34731933, 0.028684083, -0.2875193, -0.06868209, 0.071378365, -0.016631655, 0.5232139, 0.2775478, -0.7889264, 0.12552586, 0.30743346, 0.015630005, -0.47928584, -0.17553455, 0.25770748, 0.41313285, -0.4123761, -0.060639482, 1.0058563, -0.1841869, 0.04111628, 0.12207823, -0.27806383, -0.028645495, 0.11089145, -0.15537116, -0.022616101, -0.02224349, 0.4165676, 0.7616842, -0.055958033, -0.06326352, 0.04860448, 0.90658003, -0.42715803, 0.21708629, -0.54251516, 0.48512167, -0.11896198, -0.33112204, -0.4990091, -0.35167396, -0.2197124, -0.13521783, -0.32322347, -0.520661, -0.021014996, 0.11175709, 0.18134442, -0.9777901, 0.17394434, 0.14076187, 0.54738206, -0.3630861, 0.23082505, -0.543302, 0.5426005, -0.0196131, 0.16172622, -0.06934914, -0.32124597, 0.49009958, 0.47048685, -0.16797891, 0.51431966, -0.54041094, -0.59679985, -0.82329977, -0.9253485, 0.33837765, -0.10281198, 0.035100903, 0.7825318, 0.2037358, -0.31753734, 0.61274475, -0.008399361, -0.5815146, -0.13911286, -0.319356, 0.3040935, 0.081166595, -0.21259496, 0.06820909, 0.02232315, -0.5401487, 0.08577542, -0.5908415, -0.6470817, -0.040096145, 0.1522623, -0.18348725, 0.237439, -0.15496573, -0.08939721, 0.23295453, -0.6877006, 0.40817302, -0.12476628, -0.6124573, -0.042005144, -0.5769597, 0.7177624, 0.24903554, 0.048366822, -0.21737282, -0.30948356, -0.06275546, -0.12477374, -0.59431267, -0.24387082, -0.21963628, -0.3187429, -0.31540698, -0.53077024, -0.62929124, 0.071664095, -0.0809066, -0.25699294, -0.104396544, -0.40721226, 0.43922102, 0.14881335, -0.517242, 0.17733034, -0.44328958, -0.16555215, 0.032581534, 0.5537308, 0.109485514, -0.6430457, -0.14107305, 0.034423433, 0.41563877, 0.22213268, -0.525766, 0.07657501, -0.63418365, 0.43881786, 0.05040013, 0.016983824, -0.0041347602, -0.54750973, 0.27441594, -0.009179683, 0.22259495, -0.41980404, -0.20183761, -0.020977633, -0.75902545, 0.26016968, 0.19657265, 0.07740727, -0.23285958, -0.30572537, -0.42617452, -0.2825151, -0.82965815, 0.020989176, -0.14523055, 0.17099737, 0.6502305, -0.035417907, -0.017325372, 0.00027661858, -0.5130879, 0.003288567, -0.3802975, 0.45737636, 0.43793222, -0.78124905, -0.010978403, 0.564455, 0.413904, -0.17135769, -0.019745052, 0.9370149, -0.14823288, 0.38330495, 0.12852935, -0.44225422, -0.52862173, -0.29560107, 0.4090638, -0.6600707, 0.79907, 0.36825928, -0.42550093, -0.23408937, -0.17023323, -0.27478722, 0.037648812, 0.45844752, -0.42688978, 0.18672013, -0.60864896, -0.26804915, -0.061707012, -0.06023864, -0.15512148, 0.30098617, -0.5712299, 0.17944464, -0.13029505, -0.24434954, 0.010610191, -0.60821164, -0.8030788, 0.068076506, -0.6125872, -0.5059129, 0.5028066, -0.060708266, -0.2662444, -0.1726803, -0.33851582, 0.17037122, 0.07832726, -0.005924697, -0.011390133, 0.5306353, 0.18222557, -0.086563475, -0.5452534, 0.10508883, 0.45582578, -0.17304423, -0.35532194, 0.05838523, -0.7245496, 0.0024780494, -0.22809209, 0.17100613, -0.7439339, 0.6785873, 0.48409775, 0.3061527, -0.17592107, 0.29754156, 0.17778173, -0.04830552, 0.02872134, 0.32933813, -0.269673, 0.01285344, -0.51678556, 0.024779605, -0.15370962, 0.18005401, 0.76046443, -0.25709814, -0.17152487, 0.20939867, -0.14444834, -0.69605434, 0.34350783, 0.88128823, 1.0167854, -0.03403401]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>케이크의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 TPA test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>[-0.92949814, -0.35825655, -0.11052108, -0.38396013, -0.32840842, -0.26135492, 0.600367, -0.4004494, -0.313818, 0.010056265, -0.37878844, -0.19145016, 0.4750249, 0.780283, 0.40241846, -0.40540028, -0.033558767, 0.3724642, -0.07578289, 0.22547458, -0.29325527, -0.42302373, 0.33931342, 0.55652523, 0.0006327418, -0.009217585, -0.23445262, 0.24396868, 0.2027256, -0.9802249, 0.59718305, 0.4081894, 0.40195867, 0.16500251, -0.33055186, -0.08198438, -0.37200308, -0.0077129654, 0.25938585, -0.45227364, 0.01791617, -0.18079364, -0.11552175, 0.23590927, 0.7392745, 0.47280157, 0.35877064, -0.1492859, -0.37833598, -0.7856768, -0.30452794, 0.12982982, 0.66292816, 0.61408544, -0.2800609, -0.49021336, -0.3150769, 0.30252865, 0.12529819, 0.28179288, -0.04941694, -0.12742907, 0.18415259, -0.20975208, 0.34932747, -0.7126668, -0.63257957, 0.16293299, -0.27598011, -0.13349758, -0.07312554, 0.5761667, 0.30387902, -0.17741449, 0.2707486, -0.27867556, -0.43717322, -0.29699576, 0.22350578, 0.6231751, 0.38710853, 0.33462095, -0.18995214, -0.5591728, -0.0049214363, -0.58629555, -0.30828634, -0.24755561, -0.29544798, 0.54382396, -0.26534525, -0.36737928, -0.13847333, 0.47868693, -0.4856747, -0.2909324, -0.0750993, 0.009185369, 0.18415843, -0.056288134, -0.58392686, -0.5639476, 0.036662534, 1.3068038, 0.31115606, -0.2366788, -0.13748689, 0.4483023, 1.1448408, 0.02297386, 0.42490113, -0.20322287, -0.07310852, -0.7781393, -0.03987603, 0.50461096, 0.123264015, 0.28760532, -0.17274408, -0.036315802, -0.3336029, -0.28912726, -0.3674388, -0.18256985, 0.27049002, -0.30078536, -0.10045611, -0.22901094, 0.2525765, -0.24219184, -0.074710734, 0.87713003, 0.4574517, 0.6199706, -0.46808478, -0.46276245, 0.721587, -0.06561144, 1.1745648, 0.52693856, 0.003136389, 0.014350678, 0.11234307, 0.17852251, -0.46152163, -0.16121851, 0.6107177, -0.43472254, 0.31451198, -0.65336347, -0.119986035, -0.31488702, -0.1576417, 0.5863505, 0.04007668, 0.27662924, 0.14703986, -0.52249736, -0.103547215, -0.35460135, 0.4601293, 0.7704678, -0.65923655, 0.18319456, 0.332577, -0.63710237, 0.40460196, 0.3054085, -0.015325579, -0.7398351, -0.22849385, 0.02440375, 0.6660142, -0.50251204, 0.26087147, -0.3097054, -0.8787324, -0.18224193, -0.14305086, -0.600378, 0.52008575, 1.0283319, 0.29217577, -0.3506408, -0.027345313, 0.7012723, -0.19874273, -0.12592746, -0.6455913, -0.40321693, 0.19217247, -0.07624125, -0.4692912, -0.06373669, 0.3003952, 0.31022832, -0.6712596, -0.074892074, -0.10283176, 0.2797964, -0.49288663, 0.41513896, -0.93497974, 0.6017268, 0.637667, -0.31830117, 0.16674618, 0.1572871, 0.45035365, -0.30261555, 0.07368272, 0.19431436, -0.14965688, 0.110748254, 0.053439323, -1.0403959, -0.46254262, -0.48330364, 0.03416285, -0.33449993, -0.20947476, -0.7032712, 0.65553176, -0.60415226, -0.17597364, 0.055315625, 0.9334933, 0.42754972, 0.25501734, 0.41915834, -0.22713627, -0.4347746, -0.64111906, -0.085179426, 0.37834457, -0.88716143, 0.45786178, 0.78538376, -0.6456484, -0.07784892, 0.1161037, 0.05845244, -0.4955994, -0.23371595, 0.6621973, 0.22796394, -0.023974309, -0.0321603, -0.18676716, -0.012558263, 0.33356822, 0.17897886, 0.11026311, 0.05245097, -0.03765959, -0.34628117, 0.351837, 0.8635965, -0.9621639, 0.2451892, 0.38196805, 0.21377808, -0.4046909, -0.28700492, -0.023267439, -0.09517302, 0.45037308, -0.21438515, -0.17497098, -0.9541618, 0.019395178, 0.444692, 0.35558343, -0.05050615, -0.5843547, 0.6017225, -0.5082198, 0.29835537, 0.24751319, -0.22115713, -0.4053776, 0.7293065, 0.22157009, 0.29091027, 1.4545547, -0.21439506, 0.025078112, -0.33772287, -0.15601867, -0.29284796, -0.16612591, -0.4535323, -0.13369726, -0.20131707, 0.30576095, -0.40654185, -0.6956446, 0.034234136, 0.18718672, 1.0010308, -0.51349926, 0.18789946, -0.1439837, 0.26004398, -0.5573394, 0.25857532, -0.039946403, -0.66709787, -0.20088178, 0.21711595, 0.38935325, 0.21770225, 0.08910191, 0.18769144, -0.31511858, -0.92480737, 0.6166899, -0.19698058, -0.122157834, 0.29873365, -0.07131461, 0.72012264, 0.27212554, -0.39184418, 0.29249743, 0.7943108, -0.29155543, 0.11330924, -0.12245142, 0.30115536, -0.64269406, -0.37120208, 0.28085765, -0.17827253, -0.04107081, -0.73341733, 0.6918857, -0.8834171, 0.3417331, 0.08396567, 0.0941827, -0.13900578, -0.41611707, -0.06695016, -0.55941254, 1.0072889, -0.26846147, -0.40251264, 0.010421847, -0.33687684, -0.32328132, -0.07237818, -0.14608777, -0.19933374, 0.5633324, 0.15892345, 0.07313647, 0.3412448, 0.4909295, -0.101506256, 0.8673167, -0.1594786, -0.036988948, 0.63942623, -0.28721938, -0.015176282, -0.6796725, 0.32025978, 0.120212585, 0.21243459, -0.2192738, -0.04234798, -0.12497574, -0.22543216, 0.22286314, -0.3061209, 0.12345318, 0.18126027, 0.26116025, 0.28145155, 0.13218531, 0.3099691, -0.30079314, -0.30528533, 0.32861218, -0.47103646, 0.13252173, -0.543294, -0.024194784, 0.0048782662, 0.50519556, -0.19994722, 0.1265444, 0.16936408, -0.65283525, -0.5322262, -0.09436488, -0.029363893, -0.21133174, 0.90413564, -0.3008783, 0.10630544, -0.5435385, 0.68303585, 0.0883258, -0.28266063, 0.13322978, 0.3195564, -0.44569656, -0.10593098, -0.18810695, -0.29480603, -0.2855495, -0.53914356, -0.69044346, -0.5197992, -1.4294795, 0.25717852, -0.24178648, -0.087563805, -0.42042232, -0.50518686, 0.42974833, -0.6158939, 0.06993783, -0.071151845, 0.81571823, -0.378417, 0.23725457, -0.025982538, 0.2686235, -0.284889, 0.10013321, -0.032059416, -0.7024314, -0.076054245, -0.1604455, -0.29919103, -0.5895808, 0.44569024, 0.4045321, -0.58793825, -0.47993496, 0.040132776, 0.079282574, -0.14067616, 0.8642635, -0.2220795, -0.60676754, -0.7643182, -0.103987776, -0.7235711, -0.7325108, 0.4046221, -0.23672946, 0.48025277, 0.49088743, 0.018706264, -0.1320638, 0.21644902, -0.080394424, -0.20157893, 0.098099776, -0.2858922, -0.18799321, 0.3306768, 0.050907638, 0.5766563, 0.61052984, 0.07815152, -0.5196333, -0.13602138, 0.55045015, -0.2846518, -0.4242481, -0.8736705, -0.37972784, 0.29004118, -0.7140092, 0.41673303, -0.7015491, -0.11662156, 0.37652814, -2.3767352e-05, 0.3988566, 0.16765897, 0.20591909, -0.304508, 0.3961432, 0.39599738, 0.29219738, 0.103319176, -0.033043113, -0.82504207, -0.123439305, -0.3285282, -0.32506418, 0.36760545, -0.33583906, -0.39915928, -0.3022676, 0.43394724, -0.36491466, 0.108229645, -0.23885483, -0.24391533, -0.2698191, -0.08918076, -0.2994213, -0.45575938, 0.0526062, -0.28472573, 0.13333601, 0.01856076, 0.27276808, 0.3078156, 0.5171103, -0.70943516, 0.37448075, 0.27326313, -0.2564868, 0.010286278, 0.014075647, 0.52901, 0.30981863, -0.22163938, -0.41722214, 0.4321964, 0.108812034, -0.051200587, 0.36463466, -0.030496031, 0.014471344, 0.7126372, -0.31364664, -0.31628475, -0.10208172, 0.2860117, 1.1622949, 0.120539, 0.3281889, -0.29101, 0.5861098, -0.45942196, 0.3749021, -0.08755207, 0.65691966, -0.42576277, -0.75833553, -0.37882772, -0.5824492, -0.4421829, -0.42355227, -0.686438, -0.63149554, -0.19537945, 0.15112905, 0.029408542, -0.88122433, -0.36976013, -0.04076998, 0.06320176, -0.4410993, 0.33808598, -0.6885734, 0.40108284, -0.1949334, 0.04394193, -0.44063798, -0.24187554, -0.056373443, 0.43267834, -0.5675909, 0.2918822, -0.3161733, -0.686048, -0.15814422, -1.1589209, -0.13785428, -0.027991356, -0.04550554, 0.19836228, 0.27199057, 0.013531155, 0.85502297, 0.4381375, -0.36501053, -0.26581898, -0.6718636, 0.054858077, 0.098498814, -0.09978218, 0.05609483, 0.36868444, -0.70763636, -0.0523885, -0.411278, -0.23821157, -0.49223828, -0.1347612, 0.12911814, -0.027897367, -0.19285817, 0.03216921, 0.54816633, -0.106884114, 0.5979812, -0.071013436, -0.28071478, 0.111072265, -0.6052751, 0.6324033, 0.32279065, -0.5053758, -0.18121003, -0.3682779, 0.34958854, 0.19386218, -0.026353853, -0.1487543, -0.2774708, -0.6190687, -0.6534223, -0.7286617, -0.5178885, 0.018507386, -0.08966126, -0.1519232, -0.42061532, -0.5174605, 0.8601331, 0.6168106, -0.14479531, 0.01611303, -0.44188067, -0.14765342, -0.23256016, 0.6772664, 0.1799741, -0.76436025, -0.043312382, -0.10801, 0.3314415, 0.032754812, -0.036754925, 0.3377675, -0.72256136, 0.32467255, -0.013122086, 0.13879244, 0.25865614, -0.45252207, 0.17014565, 0.07224358, 0.22222956, -0.48001054, -0.14109527, 0.06118129, -0.33433712, 0.32459185, -0.11588692, -0.18655543, 0.16889893, -0.3361443, -0.40838125, -0.47458974, -0.4126809, 0.035345793, -0.12261057, 0.41408208, 0.44601032, -0.34473667, 0.089993455, 0.18124197, -0.098480195, -0.07368305, -0.11126236, 0.15675649, -0.0045576245, -0.39943448, -0.3041217, 0.73444194, 1.0025364, 0.21902578, -0.03722402, 0.6703103, -0.19149683, 0.88425756, -0.18139738, 0.09899006, -0.24273162, -0.20755005, 0.5569505, -0.6247998, 0.6825509, 0.33456394, -0.19935684, -0.15057017, -0.7278314, -0.09804357, 0.14350967, 0.6354373, -0.47810996, -0.004358811, -0.2838088, -0.087240696, 0.039466564, -0.19756883, -0.5514737, 0.10303963, -0.61507374, -0.0893585, -0.20095313, -0.16066535, 0.21140355, -0.4990537, -0.39972687, -0.06344875, -0.57450825, -0.0044942466, 0.43842915, -0.16266778, 0.009357289, -0.071990974, -0.48509106, 0.5079468, 0.24412449, 0.015504514, 0.8063946, 0.43409145, -0.28263488, -0.060053278, -0.54326767, 0.22973074, -0.18080397, -0.2804334, -0.5439785, -0.060126323, -0.8137228, -0.040590327, 0.055490375, -0.078059904, -0.8449324, 0.5539097, 0.38573304, 0.5357712, -0.16218615, 0.019380603, 0.6055575, -0.05936333, 0.057784066, 0.5196959, 0.13228403, 0.020459102, -0.1776427, -0.083342694, 0.16425312, 0.07558377, 0.8125072, -0.12951969, 0.18303321, 0.16116567, -0.5267974, -0.79491585, 0.36829826, 0.61090314, 0.86536723, 0.15890606]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>요구르트의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, brookfield 점도계를 이용한 점도 측정, rheometer를 사용한 점탄성 측정을 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>[-1.0073383, -0.43045557, -0.43076336, -0.05100425, -0.40095934, -0.016725147, 0.22390401, -0.12580875, 0.048526626, 0.16296674, -0.74226755, 0.18762791, 0.31169102, 0.1498435, 0.32525584, -0.07786574, 0.5424261, 0.4597145, -0.31950423, -0.94571835, -0.10200172, -0.70614433, 0.073376164, -0.34086213, 0.039975677, 0.23754458, -0.33885738, -0.107198365, 0.093990065, -0.7798596, 0.93816334, 0.8426195, 0.40743932, 0.57399935, -0.122310966, 0.1561683, -0.25533137, 0.21844126, -0.3864428, -0.67071867, -0.7146445, -0.59760123, 0.50079364, -0.110850416, 0.20164235, -0.11006541, 0.2120542, -0.04081331, -0.20927225, -0.1925631, -0.4968718, 0.05576688, 0.3402898, 0.3132494, -0.25302333, -0.80183506, 0.23888113, 0.14686269, 0.19781137, -0.25780085, 0.2082001, -0.48791394, 0.16151415, -0.07910139, 0.23132427, -0.6052539, -0.39570627, 0.23915933, -0.07711176, -0.5370072, -0.54677284, 0.4604174, 0.004321257, -0.48502293, 0.31698647, 0.06376516, -0.0040285573, 0.17321284, 0.05327946, 0.81111366, 0.68910545, -0.3723495, 0.17000706, -0.5505818, 0.42030194, -0.89310914, -0.16991709, -0.40996537, -0.57650393, 0.8546746, -0.26860797, 0.06189047, -0.07398319, 0.69429547, -0.36513853, -0.040889043, 0.08512122, 0.056372833, 0.20428438, -0.24918073, 0.25015834, -0.17133123, -0.8254171, 0.36838177, 0.30462092, 0.5037126, -0.57299834, 0.4787599, 0.4311297, -0.029216541, 0.5582747, -0.31468984, -0.064708464, -0.4182479, -0.32619157, 0.49961904, 0.31657842, -0.63962245, 0.20912898, 0.13132572, -0.2658375, -0.35034883, -0.60930794, 0.23412938, 0.41660967, -0.38569024, -0.035489302, -0.32449988, 0.52659273, -0.50774175, 0.63358545, 0.454079, 0.047894705, 0.509851, -0.4531896, -0.73163867, 0.58801013, -0.108589984, 1.0796198, 0.32739076, -0.37039685, 0.4054689, -0.32790476, -0.034195885, -0.2786531, -0.23670673, 0.7467962, -0.38942376, 0.47306618, -0.6888699, -0.5187009, 0.37862757, -0.85974246, 0.04743557, -0.2957776, 0.09178826, -0.13032533, -0.26278418, 0.07605871, -0.21605366, 0.18581511, 0.44002387, 0.3467188, 0.4348577, 0.13129313, -0.4397633, 0.26915136, 0.18786155, 0.10333625, -0.19359237, -0.40435782, -0.20045012, 0.30305937, 0.1561048, 0.306348, -0.40174118, -0.6989394, -0.12449956, -0.11359348, -0.15320292, 0.61377364, 0.5146252, 0.07233854, -0.27335504, 0.4050828, 0.3823618, -0.32337824, -0.04686655, -0.19725104, -0.1502886, 0.3922298, -0.54383945, -0.37591878, -0.40416452, 0.25731555, 0.58259684, -0.31392282, -0.18041341, -0.23005317, -0.045665193, -1.1091888, 0.73806876, -0.37544346, 0.11918687, 0.08975621, 0.39872244, 0.72010046, -0.060014397, -0.039696764, -0.32747483, -0.5435176, -0.16228163, -0.015982514, 0.09963623, -0.11103425, -1.3459445, -0.93061703, -0.48690626, -0.41337252, -0.4719551, 0.2853814, -0.6594498, 0.31637916, -0.67930907, -0.27227867, -0.3038315, 0.7439478, -0.4200939, -0.26591572, 0.2171132, -0.14931174, -0.39233398, -0.36931697, -0.020025386, 0.012260526, 0.061367545, 0.63831335, 0.53856725, -0.36081693, -0.03981091, -0.045671135, 0.24180661, -0.2908319, -0.18575001, 0.12966223, -0.007904078, 0.14871378, -0.16819836, -0.063026525, -0.37341833, -0.07894559, -0.07311634, 0.20409127, -0.104907036, 0.043244556, 0.10321466, 0.019393755, 0.86275154, -0.34019184, 0.14640874, 0.51863223, 0.42624852, -0.212901, 0.66873497, -0.5553379, -0.19833656, 0.6909258, -1.0710616, -0.05856194, -0.43795767, 0.13152306, -0.3035535, 0.7334196, 0.054722812, -0.4114966, 0.5750492, -0.63082075, 0.1816358, 0.056445822, -0.36875907, 0.0043663383, 0.2716191, 0.5879638, 0.6934083, 0.8766754, -0.05749178, 0.3456309, -0.09362056, 0.33458278, -0.029346406, -0.68406266, -0.466207, 0.2824374, -0.4219894, 0.37145984, -0.07369655, -0.5408587, -0.20858598, 0.5811444, 0.8490892, 0.08306328, 0.052807078, 0.4592141, 0.06373486, -0.056509886, 0.16901475, -0.040991545, -0.6666291, -0.24446137, 0.54823756, 0.5088509, 0.46572182, 0.4025319, 0.045764655, 0.15621124, -0.5387722, 0.18562393, 0.050997812, -0.5595824, -0.33995244, -0.375337, 0.42163143, 0.23597978, -0.27113685, -0.04222606, 0.25133127, 0.07626252, 0.15043883, -0.43788207, -0.019411601, -0.63026303, 0.1407244, 0.1813636, 0.51309663, -0.28502586, -0.22757089, 0.32507935, -0.2301134, 0.5700539, -0.1049462, 0.40011308, 0.21167766, 0.060540646, 0.44866133, -0.9287103, 0.6892083, -0.12633912, -0.6543654, -0.26955584, 0.044987917, -0.28658342, -0.3301164, -0.40690744, 0.09099499, 0.3256506, 0.16632803, 0.55636317, 0.31677786, 0.25572947, -0.37070855, 0.9185019, 0.08527309, -0.3557743, 0.28717768, -0.23791714, -0.13830335, -0.6515965, 0.12518322, -0.28035107, 0.5967608, 0.16415597, -0.09107742, 0.002010256, -0.19547747, -0.3057773, 0.31728947, -0.020197876, 0.060228687, -0.42641625, 0.041434016, 0.04619265, 0.66495335, -0.14765014, -0.578692, 0.41513538, -0.73877305, -0.81793016, -0.37004247, -0.34910503, 0.19264056, -0.24859746, -0.2051655, 0.060255095, -0.14619625, -1.038315, -0.60403746, -0.0069736936, 0.42770636, 0.20934016, 0.62686807, 0.5060777, 0.3103986, 0.41412303, 0.7823747, 0.00089741126, -0.12869273, -0.26712754, 0.010855, -0.2095815, -0.07907847, -0.2176864, -0.23405926, -0.31666586, -0.96387833, -0.55341595, 0.023851305, -1.0482106, 0.599556, -0.33167282, -0.42369857, 0.19510812, -0.58958715, 0.74768335, -0.23059697, 0.68952614, 0.4581555, 0.2988368, -0.055876497, 0.37734687, 0.03200678, 0.85838085, -0.78194857, 0.11636057, -0.13042662, 0.31219903, -0.34316528, 0.17138557, -0.22780357, -0.6465686, 0.4681249, 0.70400906, -0.39578405, -0.307296, -0.01757103, 0.06663887, 0.368778, 0.67237824, -0.30068773, -0.0017423084, -0.71487784, -0.094816834, -0.3916644, -0.38699612, 0.10714153, 0.5849643, 0.26872393, -0.2907503, -0.1478621, -0.19096094, 0.0078762295, -0.49784613, -0.09271451, 0.116863914, -0.4351858, -0.122738905, 0.15714107, -0.019114967, 0.19359745, 0.74487907, 0.3138129, 0.10326144, -0.17660083, 0.39002264, -0.4327742, -0.17985527, -0.6303729, -0.59879833, -0.024303412, -0.53690785, 0.0646037, -0.19531102, -0.20381735, 0.279955, 0.111267425, 0.30472156, -0.36555278, -0.4068615, -0.546845, 0.17028607, 0.74691105, 0.48213017, 0.5345555, 0.050327998, -0.6801505, 0.29149255, -0.32921767, 0.5061154, 0.2647119, 0.20828032, 0.50559896, -0.1408204, 0.28070104, 0.24087769, 0.120679356, 0.19072497, -0.6444003, 0.07859246, -0.28282985, -0.54336315, -0.6389813, -0.31248882, -1.0813228, -0.24782413, 0.13827567, 0.021085745, 0.37003088, 1.1835369, -0.12800913, 0.10651434, 0.50845736, 0.28144154, 0.21811469, -0.40699255, 0.56606406, -0.25077477, -0.07086039, -0.40850902, 0.11975816, 0.05734488, -0.062448125, -0.0040244176, -0.11141837, -0.30336884, 0.8808786, -0.11894662, -0.8719855, -0.5699017, 0.44955125, 0.9989129, 0.51243323, -0.017967908, -0.13900928, 0.5262036, -0.20077515, 0.32150143, 0.31112513, 0.72969216, -0.29590264, -1.101687, -0.3857223, -0.6369988, -0.41470775, -0.06136626, -0.18366612, -0.47801876, 0.31690726, -0.08332723, -0.023409562, -0.7909239, -0.48916745, -0.5598469, 0.09446919, -0.44454837, 0.2962288, 0.00091244094, 0.26349366, 0.27624986, 0.34024706, 0.26223448, -0.8449146, 0.4450728, 0.7619328, -0.5803341, 0.527955, -0.1566269, -0.8236625, -0.13426617, -0.08704851, -0.021263031, 0.1484115, 0.009390295, -0.3752712, -0.44283974, 0.21028511, 0.64656, 0.8074216, -0.13157956, -0.6141073, -0.80928904, -0.08205424, -0.19007926, -0.61486316, 0.09364691, 0.5643033, -0.11645938, -0.2622303, -1.0004525, -0.26959217, -0.8452899, -0.28814894, 0.12995711, 0.23800445, -0.1885026, 0.10958477, 0.0446364, 0.23558593, 0.20026125, 0.109371446, -0.37162927, -0.47576794, -0.33889505, 0.7866877, 0.4245856, 0.46264127, 0.0002532353, 0.24725004, -0.016408352, -0.4345632, -0.6771187, 0.10028651, -0.53409576, -0.19495837, -0.17401735, -0.5213397, 0.03300557, 0.039450224, 0.33792374, -0.5430709, -0.43704554, -0.13720171, 0.4302359, 0.07837325, 0.03599156, 1.0800818, -0.6950241, -0.17095093, -0.45491466, 0.62685853, 0.03938997, -0.40767393, -0.3633289, 0.116517626, 0.47034144, -0.4998696, -0.4482553, 0.13494508, -0.54452926, 0.43207344, 0.28352726, -0.57315725, 0.30021295, -0.08980628, 0.1798983, -0.34889123, 0.5629457, 0.1796512, 0.06167498, 0.5702863, -0.944774, -0.06287456, -0.052246124, -0.24718072, -0.12502348, -0.5740673, -0.78288394, -0.6109559, 0.14869514, -0.19396299, -0.35218754, 0.072946206, 0.66777223, 0.09939181, 0.07110802, -0.40441784, -0.29357687, -0.2632983, -0.24334483, 0.002117361, 0.26622146, -0.56883204, -0.58745855, 0.6515774, 0.6430963, -0.21838446, -0.6161398, 0.5074715, -0.15173686, 0.6974899, -0.33708927, 0.35481367, -0.4469044, -0.49283087, 0.19335973, -0.08255086, 0.17834884, 0.6981573, -0.054197762, 0.05328456, -0.4667157, 0.18224394, -0.0021704498, 0.37037778, 0.024090143, 0.122505665, 0.005324099, -0.5845524, 0.006817048, -0.11196193, -0.90817565, 0.11447642, 0.19391513, -0.6543788, -0.26878044, -0.12919183, 0.40402138, -0.29132763, 0.22965997, -0.5256238, -0.07063407, 0.10969916, 0.7007072, 0.14828627, 0.12891376, 0.15332888, -0.17628525, 0.08484916, 0.2506897, -0.102594234, 1.19399, -0.14043744, -0.6054489, -0.3708993, -0.9852585, 0.034865454, 0.23651351, -0.38506934, -0.72017056, -0.77890605, 0.15342405, -0.1170338, -0.73191565, 0.30037096, -0.9818205, 0.052144915, -0.8297527, 0.64905524, -0.34987974, 0.18755251, 0.084834926, -0.3258693, 0.036506694, 0.064032495, 0.26549947, 0.4394915, 0.044842407, -0.08559992, -0.08493955, -0.108818956, 1.0053636, -0.23876357, 0.12320355, 0.34771398, 0.016457388, -0.49411857, 0.86814505, 0.5381034, 0.6657581, 0.28248915]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>햄의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 TPA test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>[-0.5413898, -0.26522914, -0.22936021, -0.50038606, -0.48355582, -0.048776332, 0.49796733, 0.077417925, 0.13153945, 0.025645448, -0.35717997, 0.30334872, 0.23658323, 0.12763022, -0.12092302, 0.24156713, 0.045587916, 0.9810191, -0.38905144, -0.6587364, -0.042875532, -0.13047497, 0.22244339, 0.016222386, -0.2532742, -0.30092123, -0.009186027, -0.4206014, 0.33149937, -0.590021, 1.4268179, 0.5066903, -0.31663904, 0.116838984, -0.29260075, -0.34871963, -0.24509023, 0.087110244, -0.25609303, -0.3930869, -0.5826617, -0.036197867, -0.21361281, 0.41353825, 0.14081143, 0.17656092, 0.7834075, 0.0896393, -0.28879926, -0.364151, -0.18345688, -0.39483544, 0.29528284, 0.7921162, -0.2561426, -0.7009859, -0.2442943, 0.33476767, 0.33779728, -0.23537906, 0.2884921, -0.6045096, -0.7586892, -0.08650393, -0.35967302, -0.38787737, 0.17712505, 0.33564344, -0.50217545, 0.13394554, 0.014729275, 1.0637851, 0.09212833, -0.57221794, -0.15161876, -0.8066636, 0.10472562, -0.10406044, 0.7119389, 0.59294015, 0.106009446, -0.32694718, -0.13263263, -0.3283951, -0.021864183, -0.73041254, -0.69952136, -0.37462, -0.5807998, 0.537141, -0.49200928, -0.075815625, -0.07708511, 0.35484388, -0.6808601, 0.31273547, 0.192222, 0.15992765, 1.1674885, -0.07636895, 0.16026492, 0.14861082, -0.81386584, 0.3080405, 0.07922557, 0.0190352, -0.47840336, 0.6668866, 0.55422074, 0.26138818, -0.0015156331, -0.05078123, 0.45464292, -0.39341637, 0.6983845, 0.58750516, -0.24029227, -0.1755497, 0.00023746242, -0.24796098, 0.1259684, -0.39994767, -0.5915518, 0.31013086, 0.18866746, -0.05742087, 0.84755796, -0.29927865, 0.55968463, -0.24046089, 0.19863172, 0.7752338, 0.41839394, 0.23135586, -0.3693343, -0.32273713, 0.14029056, -0.11507892, 0.8519697, 0.23006211, -0.7818474, 0.04089284, -0.23623456, 0.2745244, -0.43846175, -0.4086599, 0.5203112, -0.611332, 0.59004515, -0.5723048, -0.32612088, -0.020138545, -0.059718966, -0.03361174, 0.03320447, 0.3597584, 0.10134437, 0.13404565, -0.17787133, -0.58520496, 0.9043834, 0.089865394, 0.004708219, -0.01457804, -0.38974342, -0.059206713, 0.14251612, 0.37304685, 0.27405593, -0.6318182, -0.75321555, -0.4970698, 0.050834015, -0.16301773, 0.5113855, -0.08775326, -0.76627207, -0.14054364, -0.42806652, -0.43832752, 0.4293405, 0.78109264, 0.58378416, 0.016376726, 0.10312047, 0.9994349, -0.08597333, -0.3124903, -0.55861014, -0.7789089, 0.10136529, -0.5287746, 0.11099496, -0.027644048, 0.69057006, 0.23494172, -0.30712262, -0.112029344, -0.35504606, 0.13315706, -0.2875975, 0.13435186, -0.07058598, 0.7780749, 0.55331165, -0.052269403, 0.015289672, 0.099266164, 0.58452934, -0.12690572, -0.2827521, 0.6523273, -0.24508812, 0.24453652, -0.42481413, -0.65007013, -0.39023328, 0.25897363, 0.22200127, -0.20983072, 0.27181163, 0.113324225, 0.3478602, -0.18172888, -0.41160676, -0.444679, 0.50669384, 0.33385667, -0.25317731, 0.23619933, 0.05069664, -0.31064823, -0.780765, -0.23952086, 0.3674358, 0.14607763, 0.04645055, 0.2589718, -0.055658188, -0.074751385, 0.080518015, -0.2620395, -0.8847917, -0.073656805, -0.27291837, -0.20787698, 0.15014169, -0.31291416, -0.21237926, -0.2296446, -0.05216712, 0.1691652, -0.119050406, -0.02216182, 0.44974217, -0.2698315, -0.05887772, 0.53856486, 0.2793569, 0.011815253, 0.08068816, -0.18994355, -0.7520017, 0.18494023, 0.23028965, -0.33276346, 0.73367834, -0.51627904, 0.09228096, -0.7830699, 0.7029943, 0.14304064, 0.5131741, -0.026193663, -0.22981453, 0.80622816, -0.05483733, -0.05069605, 0.29445243, 0.51139426, -0.077477396, 0.006748224, 0.5871981, 0.35987067, 0.7972644, -0.29387206, -0.23460217, -0.42405248, 0.21882276, -0.012710544, -0.28394493, -0.22894661, 0.40670165, -0.76220495, 0.63576704, 0.0046057203, -0.79661304, -0.68247837, 0.50923544, 1.1997303, -0.31595114, 0.17356236, 0.06981187, 0.5198718, -1.320387, 0.32749358, -0.3463682, 0.0136719, -0.7142758, 0.76406604, 0.19132759, 0.112857305, -0.4551096, -0.06364683, -0.00973357, -0.37880528, -0.21318984, -0.4236741, -0.3731675, -0.07494975, 0.19221811, 0.1940908, 0.2437262, -0.27538463, 0.30620405, -0.080493234, 0.018747423, 0.58608687, -0.4825895, -0.01476913, -0.9286863, -0.43761277, -0.06490217, 0.30281675, -0.37704584, -0.7388475, 0.029307364, -0.76302224, -0.5097308, -0.09545668, 0.15310363, 0.043733656, -0.46664, 0.04270796, -0.53296083, 0.90768623, -0.09288629, -0.3150474, 0.2156533, -0.50117296, -0.54385346, 0.1789292, -0.13497083, 0.08440178, 0.53044033, 0.66467726, 0.930463, 0.17009997, 0.4373779, -0.24269857, 0.6675377, -1.2048119, 0.024334913, 0.84085196, -0.17565249, -0.25940558, -0.38209584, 0.63355845, -0.61049837, 0.76550704, -0.15141332, -0.41831425, 0.10127904, 0.11237249, -0.36358586, 0.41912672, 0.1355979, 0.044263203, -0.23520838, -0.19656153, -0.31536552, 0.92555565, 0.3017213, -1.1043344, 0.24120325, -0.36645904, -0.17393644, -0.060562328, -0.29928052, 0.13809776, 0.24942635, -0.2670006, -0.48497543, -0.3959926, -0.68401074, -0.30898467, -0.45302328, -0.13393359, -0.32190678, 0.21792914, 0.38862458, 0.48267266, -0.16708188, 0.49355718, 0.4702907, -0.15025897, -0.2057346, 0.16858344, 0.002587824, 0.4691993, -0.09591559, -0.18671536, -0.23449089, -1.1388645, -0.24762245, -0.43721735, -0.70959854, 0.30999056, -0.5030252, -0.6433075, -0.46501613, -0.443236, 0.6528839, -0.13544993, -0.13307713, -0.16202246, 0.6013388, 0.20160578, 1.0703343, -0.12130005, 0.06118996, -0.930144, 0.32034865, -0.4672786, -0.26101476, -0.37311223, 0.4983598, 0.56302625, 0.11325375, 0.2346037, 0.6465604, 0.096602984, -0.23434485, -0.029702013, 0.32567802, -0.7002011, 0.12563102, 0.0056736544, -0.74098724, -0.2881118, -0.47841838, -0.28893402, -0.75949645, 0.07897913, -0.37051043, -0.103732266, 0.39120468, -0.30702066, -0.17181937, 0.20838481, -0.116048574, -0.46559647, 0.034297526, -0.734308, -0.2984861, 0.44171286, 0.22377467, 0.016634941, 0.45676574, 0.44474617, -0.22915043, -0.3041919, 0.5331949, -0.6940426, -0.29056087, -0.3017709, 0.14544524, 0.7749906, -0.24052216, -0.3994174, -0.88886696, 0.122881345, 0.15972579, 0.4406207, 0.40536234, -0.25468263, 0.36042532, 0.120492764, 0.35658062, 0.3174056, 0.32753637, 0.116008796, -0.80741686, -0.92819864, 0.0737709, -0.21695612, 0.13997053, 0.6238866, -0.08768066, 0.10942849, -0.23469609, -0.085318886, 0.47481528, 0.07375563, -0.5073466, -0.17471044, -0.010284436, -0.10332156, 0.09816527, 0.13238584, -0.89932245, -0.9809718, 0.4400194, 0.7000572, 0.13132994, 0.33912286, -0.2195074, -0.54615706, 0.22619246, 0.56499463, -0.11104866, 0.33864677, 0.17364798, 0.49353704, 0.16238017, -0.19238664, 0.090411596, 0.17751734, 0.2150812, -0.32281223, 0.17620933, -0.22749142, -0.21378003, 0.3712735, 0.9152002, -0.4345442, 0.054258134, -0.05024956, 0.43346617, 0.8861718, 0.5676941, -0.47492024, -0.3503618, -0.24973981, 0.4278046, 0.5409283, -0.15445101, -0.15565984, -0.3493369, -0.57992506, -0.5083351, -0.23725218, -0.0003963119, 0.06471919, 0.25064683, 0.07151695, 0.22772, -0.077205956, -0.54704225, -0.45289382, -0.6893363, 0.050552893, -0.3139343, 0.70481586, -0.22523479, 0.15429102, 0.50438744, 0.26976126, -0.3740636, 0.06521007, 0.4028393, 0.046423633, -0.27864495, 0.12299294, 0.23286867, -0.57457215, -0.5033799, -1.0249141, -0.21606362, 0.2275488, -0.441577, -0.1361378, -0.09241971, -0.32857716, 0.31849515, 0.07044354, 0.008782552, 0.09514699, -0.08101653, -0.060960483, -0.15148774, -0.33724794, 0.5443719, 0.30812073, 0.032400776, -0.2677048, -0.8251059, 0.09027666, 0.27567765, -0.2078361, -0.3691101, 0.86948943, 0.13864739, -0.5011519, -0.27417287, 0.1930397, 0.7996814, -0.6290781, -0.7586383, -0.40252316, -0.6299181, -0.06480053, 0.32449204, -0.3745667, -0.1573648, -0.12807141, -0.22516036, -0.069069326, -0.7934368, 0.44718406, -0.056258082, 0.23026012, -0.65842587, -0.04947151, -0.45935038, 0.088383615, -0.21299665, -0.2201909, -0.36232555, 0.10573608, 0.17470281, -0.033481937, -0.03870977, 0.6995501, -0.32161298, -0.13827272, 0.25997, 0.3686508, -0.09029146, -0.62453383, -0.5732865, 0.4503049, 0.18732125, 0.038993344, -0.5857809, 0.4751661, -0.9514292, -0.13355742, -0.08014587, -0.17690659, -0.17440976, -0.5781885, -0.18095034, -0.32047155, -0.067874305, 0.09200055, 0.051769227, -0.25623944, -0.45764482, 0.4659066, -0.8943289, -0.16052614, -0.29699185, -0.17183034, -0.17119019, -0.74684525, -0.49200377, -0.24257104, -0.50512534, 0.68947077, -0.0036502294, -0.72392184, 0.31871656, -0.25656745, -0.22870566, -0.29348025, -0.42096516, 0.17430411, 0.27096668, -0.22380002, -0.24329527, 0.22776288, 0.2591237, 0.48878574, -1.0638013, 1.1514183, -0.24673839, 0.07934668, 0.22800106, 0.2686319, -0.32493567, -0.34907913, 0.28990254, 0.04122867, 0.026074566, 0.75503606, -0.3060571, -0.3176228, -0.6719338, 0.17961943, 0.06919639, 0.53842014, -0.14314625, 0.024907595, 0.20027943, 0.070224516, -0.79827744, -0.34553444, -0.53976053, 0.17879057, -0.17588802, 0.07936663, -0.11418455, 0.5549593, 0.045244496, -0.8897216, 0.19758813, -0.31915742, -0.45296693, -0.13383988, 0.7586269, 0.32779005, -0.43981266, -0.0339715, -0.058460455, 0.33664092, 0.59918636, 0.33935723, 0.47650877, -0.032849047, 0.0025931362, -0.16899002, -0.13404687, 0.5482479, 0.016697492, -0.0137504265, -0.08632118, -0.16134182, -0.8247724, -0.14694029, -0.07294755, 0.13806473, -0.4226557, 0.482012, 0.20756006, 0.45251194, -0.44726244, 0.8223698, 0.015024878, -0.048033193, 0.090874396, 0.4798993, 0.049264193, 0.14808334, 0.14522831, 0.2350815, 0.0050034146, -0.57661426, 1.0072197, 0.17454983, -0.34424284, 0.020504737, 0.4005451, -0.40477785, 0.13560079, 0.3719777, -0.10005189, 0.27107576]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>소시지의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 cutting-shear, TPA test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>[-0.18563254, -0.16816013, -0.05581738, -0.40328118, -0.2117675, -0.35317472, 0.22657605, -0.20166934, 0.29071105, -0.08317244, 0.1454778, 0.15271409, 0.2384261, 0.382185, -0.40418938, 0.20937683, -0.31879583, 0.43925998, -0.62895083, -0.64082474, -0.2019762, -0.6113686, -0.051981628, 0.47557226, -0.6154744, -0.3109276, -0.07610491, -0.14021796, -0.46096802, -0.677785, 1.5367237, 9.305775e-06, -0.06624898, -0.01740384, -0.17181969, -0.53501207, -0.19575147, 0.0717223, 0.21889812, -0.32988128, -0.6807497, -0.7676282, 0.24518435, 0.35270464, 0.07684214, 0.4934033, 0.22209553, 0.27267334, 0.023993561, -0.3631363, -0.17316268, 0.4144937, 0.23129225, 0.6112969, -0.17418295, -0.68666357, -0.23250537, 0.68297976, 0.2905523, -0.06704447, 0.46236458, -0.12774841, -0.6325035, -0.38030133, -0.025111295, -0.7066415, 0.25118867, 0.38894185, -0.40218124, 0.27188158, -0.4933795, 0.0683006, 0.54803294, -0.056885768, 0.31148824, -0.26822314, 0.0100742495, 0.14461814, 0.5953091, -0.056181107, 0.34398165, -0.3894601, -0.6318349, -0.8158565, 0.1309903, -1.147687, -0.34393588, -0.43507197, -0.0126718255, 0.45032203, 0.05441181, -0.3814611, -0.03697206, 0.43117204, -0.6405098, -0.28501067, 0.14350341, 0.104271054, 0.62999374, -0.32136422, 0.0305935, -0.09453773, -0.4266477, 0.2661685, 0.13973784, -0.17802562, -0.48076048, 0.68439966, 0.18346317, -0.1535378, 0.44912848, 0.15716304, -0.1452836, -0.054506898, 0.43616045, 0.8369432, -0.3203201, -0.32942003, 0.117324315, -0.109585285, -0.69799423, -0.08082193, -0.1983146, 0.48193944, 0.24385868, 0.029221362, 0.75001436, -0.36624798, 0.44372818, -0.63230073, 0.25798133, 0.6696253, 0.40561545, 0.72064996, -0.36377323, -0.5703217, 0.19543914, -0.08193835, 1.029969, 0.7383647, -0.5378682, -0.010495965, -0.26077136, 0.065885834, -0.55265033, -0.4289731, 0.23610999, -0.29387996, 0.2028894, -0.6788635, -0.19317983, 0.21805744, -0.18090327, -0.31663632, 0.45251286, 0.47199246, 0.7309789, -0.2507549, -0.035741348, -0.16595392, 0.42277488, 0.29082665, -0.3012564, -0.05876596, 0.29501343, -0.8254947, -0.2812341, 0.4411863, 0.30508962, -0.6122102, -0.3676099, -0.386158, 0.11442715, -0.30114466, 0.2985501, 0.17343093, -0.5251083, 0.123746306, -0.70844394, -1.0810118, 0.62325054, 0.28491202, 0.55243623, 0.16821527, 0.40989223, 0.87190217, -0.07587977, -0.3489195, -0.86715287, -0.801709, 0.2836538, -0.57565534, -0.16795088, 0.17770775, 0.6076752, 0.7260569, -0.31523943, 0.041898888, -0.57274365, 0.43215418, -0.46207753, 0.6508331, -0.7653963, 0.3494152, 0.33469594, 0.8433897, -0.14747147, -0.032194357, 0.4880848, -0.09472215, 0.01706128, -0.05655737, -0.23859598, 0.2535073, -0.09975655, -1.0402689, -0.11901116, -0.30769125, -0.05748934, -0.1263274, 0.32602784, 0.11986965, 0.17065942, 0.031317793, -0.49741423, -0.3596519, 0.20748089, 0.23046811, -0.17056467, -0.29018173, -0.022985907, -0.12979259, -0.09205866, 0.076509036, 0.2581302, -0.2560126, 0.29934192, 0.4575448, -0.2564629, 0.16440071, 0.011549109, 0.22625227, -0.9605785, -0.2009337, -0.10887412, 0.08418498, -0.13202721, -0.27698752, -0.3292354, -0.18172954, 0.23764652, 0.7046563, -0.27153063, 0.2634499, -0.102372885, 0.30976486, 0.27595797, 0.54875964, 0.20668344, -0.752842, 0.19121994, -0.15399444, -0.4134619, -0.23502009, -0.15874703, -0.31854746, 0.56524324, -1.2536628, -0.38724926, -0.6231503, 0.7704334, 0.04995096, 0.75418144, 0.10401985, -0.7069687, 0.7183332, -0.28247786, 0.18256886, 0.23103954, 0.18880911, -0.3284037, -0.016289199, 0.15616365, 0.43467292, 1.0435493, -0.48726466, -0.18761277, -0.12497395, -0.04078332, 0.02468464, -0.48929977, 0.034326088, 0.08508279, -0.6694501, 0.95069027, -0.3429818, -0.64029056, -0.28998592, 0.19332023, 1.2605156, -0.033521295, 0.5499732, 0.4622502, 0.6126959, -0.8497345, 0.38262716, -0.23611379, -0.3369018, -0.68873376, 0.6801266, 0.24571095, 0.17843546, -0.17893088, -0.13104756, 0.0440162, -0.911325, -0.060411274, -0.1211747, -0.20253117, -0.019409852, -0.6310847, 0.07405351, 0.3151183, -0.11247822, 0.28593293, 0.40846702, 0.102986865, -0.029042527, -0.12159576, -0.42616478, -0.76017636, -0.061019752, 0.2544622, 0.40546477, -0.69338465, -0.69948554, 0.26239637, -0.5611173, -0.20961982, 0.19745821, -0.041508865, -0.04706805, -0.65035427, -0.046158057, -0.44850838, 0.76915735, -0.18140465, -0.48794422, -0.45234743, -0.099633634, -0.47146082, -0.43959752, 0.21034838, -0.42353272, 0.10811794, 0.2724541, 0.5194562, 0.54165226, 0.33504996, -0.2728041, 0.32844123, -0.19810306, 0.18476628, 0.78036994, -0.4306953, -0.23966812, -0.37518573, 0.3646979, -0.25449294, 0.3337221, 0.0077748946, -0.5413605, -0.39351568, -0.33106497, 0.39529467, 0.07430929, 0.26073438, -0.19476347, 0.27424502, -0.30774048, 0.27880764, 1.0547882, 0.009232592, -1.0681673, 0.24869664, -0.40182674, 0.090251364, -0.44238344, -0.059950992, -0.12391571, 0.45947874, 0.007505027, -0.2564431, -0.28743172, -0.72918487, 0.09947351, 0.12619172, -0.2951494, -0.49916577, 0.26468518, 0.09987887, 0.5734547, -0.32202607, 0.095516436, 0.48491928, 0.31915054, 0.24530065, 0.56794554, -0.005476646, -0.2088321, -0.36464867, -0.49113134, -0.01884287, -0.00903489, -0.6122585, -0.6707768, -0.79800224, 0.30081028, 0.049892575, -0.2999081, -0.19728215, -0.13692053, 0.56401557, -0.58992964, -0.40717676, 0.16234934, 0.5689318, 0.28126785, 0.7909841, -0.2689227, -0.06973931, -0.46280503, 0.28226784, -0.43907014, -0.49513307, -0.20822595, 0.30372533, -0.27531028, -0.13253179, 0.5348745, 0.42509162, -0.44469705, -0.28551412, -0.24815257, 0.2733222, -0.4339917, 0.03418073, 0.18861432, -0.2596695, -0.57739764, -0.24718523, -0.54149336, -0.8643674, 0.26444784, -0.49373445, 0.16568875, 0.5544852, -0.6371102, -0.30388513, 0.36865517, -0.24007149, 0.25655815, -0.048690498, -0.48807645, -0.30153313, 0.06177536, -0.18382983, -0.4952508, 0.5841935, 0.32453892, -0.52064395, 0.06514678, 0.34146282, -0.72161585, -0.118138045, -0.3806925, 0.7067916, 0.83475, -0.20944156, -0.17488933, -1.018493, 0.21080767, -0.0330388, 0.42066646, 0.67134553, 0.3383781, 0.24522908, -0.025430353, 0.24316655, 0.20066117, 0.6267661, 0.13605845, -0.013493891, -0.4877651, 0.20314918, -0.299303, -0.115255155, 0.7795071, -0.41733965, 0.29276526, -0.08677238, 0.38415948, 0.090714455, 0.6781865, -0.8588448, 0.082308255, -0.5164166, -0.39889178, -0.49325857, -0.02365937, -0.66819096, -0.8878343, 0.479098, 0.18603319, 0.3395919, 0.6089515, 0.17705186, -0.021066638, 0.13011925, 0.29328915, 0.27916715, 0.15199205, 0.41556716, -0.0044761696, 0.3893865, -0.34280682, -0.1355822, 0.20471871, 0.47376314, 0.16961588, 0.0072853826, 0.015545572, -0.0053837546, 0.80053765, 0.41041315, -0.014501332, 0.12923124, -0.061774533, 0.60399795, 0.43291298, 0.6366741, -0.6902661, 0.60770375, -0.11911806, 0.25665954, -0.13011108, 0.3925974, -0.27118874, -0.50310236, -0.6030125, -0.39530417, -0.29091874, 0.12888925, -0.09880307, -0.52017426, 0.092259325, 0.15775822, -0.20089762, -0.5040696, -0.76870424, -0.077398986, -0.11732509, -0.15080838, -0.13497348, -0.6256986, 0.22091784, -0.20209561, 0.51516837, -0.13199398, 0.15951566, -0.0144159645, 0.17483278, -0.7063389, 0.24347444, -0.2648131, -0.5488991, -0.2460273, -1.4059783, 0.07005512, -0.0017749121, -0.54352385, -0.44216907, 0.10159882, -0.5100467, 0.43261313, 0.60548294, 0.037390675, 0.038186833, -0.77956796, -0.11011553, 0.11783406, -0.32128045, 0.577805, 0.1677437, -0.48381305, -0.20149617, -0.9265104, -0.4552238, 0.0018797958, -0.315922, -0.4725008, 0.9962104, -0.25145537, -0.4284245, 0.037000235, 0.03814884, 0.40448487, -0.54345, -0.13358304, -0.14017715, -0.10033691, 0.2932708, 0.4248713, -0.023708219, -0.2998546, -0.05753721, 0.14359792, -0.118772745, 0.34781817, 0.04834017, 0.025038347, -0.17667997, -0.90332514, -0.21610045, -0.30171013, 0.39281616, -0.17248958, -0.4473722, -0.23999542, -0.1393649, 0.36275348, -0.019976487, 0.2771881, 0.33815596, -0.48097154, -0.49053383, -0.051195722, 0.66564155, 0.10256206, -0.32334217, -0.9345157, 0.091697514, 0.20209403, -0.24282879, -0.2117424, 0.6142804, -0.57875127, 0.28000793, 0.18867327, -0.35526535, 0.14486031, -0.057718504, 0.13253608, -0.5763747, 0.44800165, 0.31736133, 0.31390312, 0.18496038, -0.113432586, 0.5285448, -0.44202232, 0.21663457, 0.053796213, 0.0976117, -0.49133906, -1.3228081, -0.49812743, -0.013067243, -0.4284766, 1.0588728, -0.18224128, -0.48093927, -0.19143488, -0.5138329, -0.23627932, 0.048229974, -0.18748468, -0.042057473, -0.02242554, -0.2975459, -0.27867284, 0.7080956, -0.1577917, 0.37171617, -0.40386286, 0.5713167, -0.32100728, -0.16560969, -0.27263546, 0.53622174, -0.44524276, 0.0469958, 0.11476024, -0.07961293, 0.3283382, 0.36695397, -0.7195824, 0.34693602, -0.46411207, 0.41596207, -0.15159456, 0.6611746, 0.070622474, -0.19620208, 0.24051799, 0.19886388, 0.19117016, -0.08210221, -0.09086779, 0.18196452, -0.6984039, -0.3771901, 0.12535487, -0.40257707, -0.16050579, -0.47758135, -0.05095437, -0.412117, -0.23639466, 0.10280043, 0.58027, 0.5269649, -0.4128077, 0.23140584, -0.23943554, 0.11941281, 0.5808453, -0.30918065, 0.52038085, 0.28324947, 0.3595219, -0.08282772, -0.4288818, 0.21783644, 0.33182886, -0.05416045, -0.40501356, -0.25168493, -0.5665832, 0.22129746, -0.17890084, -0.08845633, -0.44380093, 0.5603201, 0.05323367, 0.33919075, -0.3987682, 0.65456736, 0.14257975, -0.031504627, -0.08700638, 0.5391087, 0.2602698, -0.11759714, 0.045864284, -0.026197666, 0.13910413, -0.5319019, 0.7701819, -0.29113156, 0.17652307, -0.021671018, -0.02226597, -0.59567904, 0.475268, 0.6335171, 0.36674523, 0.3824725]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>식용유의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, brookfield 점도계를 이용한 점도 측정을 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>[-0.36423644, -0.303232, 0.22279255, -0.8535936, -0.025440678, -0.5021833, -0.13943143, 0.32429713, -0.20674185, -0.08381906, -0.35589182, 0.17562002, 0.07464938, -0.051174697, 0.08893317, -0.17150915, 0.47984195, 0.5361727, -0.42285344, 0.38185045, 0.4469787, -0.43405095, 0.2892767, -0.28898263, -0.22244154, -0.22217987, -0.16549389, -0.09947306, -0.41961482, -1.0770432, 1.363067, 0.33833876, 0.15510856, 0.24754661, -0.13664955, -0.02470527, -0.15122528, 0.38920137, -0.089812316, 0.042112473, -0.45685497, -0.2566103, -0.2254218, 0.7800365, -0.108185925, -0.010639069, -0.16777305, 0.06227733, 0.15733264, -0.173225, -0.059857428, -0.014193113, -0.15805537, 0.48748624, -0.41110185, -0.7621289, -0.13641423, 0.2696176, -0.08357043, -0.3523444, -0.055712055, -0.34098175, 0.018022804, -0.3296062, -0.16899796, 0.20829324, -0.01799961, -0.13202031, -0.16139981, 0.2717876, 0.1632755, 0.10009877, 0.3158611, -0.31379306, 0.33602622, -0.46879098, 0.15081891, 0.020141752, 0.5295892, 0.30474716, 0.25162762, -0.32588056, -0.5378768, -0.8003841, 0.68688184, -0.54777306, -0.022083296, -0.7059974, 0.036471993, 0.6666491, -0.21707939, -0.783024, 0.16152416, 0.102647185, -0.38091683, 0.15099679, -0.28055844, 0.2145877, -0.07727913, 0.078975774, -0.5710061, -0.085367925, -0.14901917, 1.1283259, -0.07793387, -0.5303905, -0.2119906, 0.29511037, 0.29783762, 0.0411825, 0.6170361, -0.1898365, -0.018471763, 0.11968899, 0.22067545, 0.15738122, -0.29226008, 0.30437526, -0.08845618, -0.010826859, -0.5016043, -0.28776386, -0.15824799, 0.3153558, 0.26072, -0.460982, 0.85261995, 0.18675388, 0.41217458, -0.4402032, -0.20031524, 0.82797647, 0.27929112, 0.06526173, -0.9301529, -0.5960372, 0.371621, -0.16654728, 0.4361875, 1.0652455, -0.68318385, 0.31144905, 0.1487172, 0.17452554, -0.30507806, -0.17363752, 0.13695718, -0.56548005, 0.17774801, -0.47926512, -0.47440562, -0.029934518, -0.11380593, 0.24978168, 0.146376, -0.38577405, 0.24999583, -0.6520932, -0.37843856, -0.4726086, 0.39504254, 0.20921214, -0.08286575, -0.35422638, 0.23728007, 0.0847783, 0.061220273, -0.17486505, 0.30140093, 0.12439368, -0.11389455, -0.0727207, 0.55515826, 0.11148877, 0.3902761, -0.16299093, -0.62450093, -0.13355167, -0.32721508, -0.7370146, 0.34162554, 0.69382, -0.05753066, 0.11072972, 0.15099724, 0.33768234, 0.04744709, -0.28991666, -1.1513151, -0.53696054, 0.46371293, -0.75980234, -0.36586022, -0.044274528, 0.09677241, 0.73901135, -0.3847872, 0.04036341, -0.29479405, 0.021496654, -0.67823887, 0.6527643, -0.33465293, 0.30540243, 0.19930772, 0.24504189, -0.0068019205, 0.3171007, 0.47363672, -0.05448276, -0.17551138, 0.47006416, -0.57432455, 0.14569901, -0.4792733, -1.0291444, -0.70240045, -0.46901152, 0.1646483, 0.017305538, 0.34300986, -0.35849127, 0.2282012, -0.23720695, -0.3214877, -0.008053382, 0.13915303, 0.74471027, 0.50301486, -0.37155035, -0.66054803, 0.20897351, -0.5268143, 0.44583997, -0.07967225, -0.22861443, 0.23235048, 0.518235, -0.7471087, -0.07495437, 0.018631915, -0.30342323, -0.46788666, -0.15010568, 0.3793024, -0.36119294, -0.17106809, 0.07286476, -0.1279669, -0.57279706, 0.23333569, 0.06680479, 0.3027882, -0.59111744, 0.3755022, -0.47896016, 0.59020275, 0.60463876, -0.15238395, 0.24787581, -0.42945865, -0.0021847188, -0.62924534, 0.136108, -0.115334846, 0.15601686, 0.49043462, -0.8885564, -0.10776519, 0.08824579, -0.20778716, -0.26089755, 0.6035704, 0.39396307, -0.17570738, 0.5840102, -0.26732156, 0.668086, -0.29736385, 0.29188484, -0.3212863, 0.11583984, 0.58276963, 0.35283065, 0.43426433, 0.06426666, 0.11267822, -0.42920598, -0.6829054, 0.34461403, -0.04051003, 0.09082518, -0.18906887, -0.5343396, 0.4138309, -0.42141762, -0.69882447, -0.43977883, 0.31102672, 0.75970596, 0.16219132, 0.41009864, 0.23467825, 0.5670838, -0.04812632, -0.17511435, -0.4812472, 0.21644296, -0.41429064, 0.6312864, 0.6740205, 0.1016333, -0.36212817, 0.09529856, -0.20410681, -1.0118407, -0.086877085, -0.13484173, -0.54957837, -0.118379034, -0.18282865, 0.5002424, 0.057560783, -0.33702707, 0.58925617, 0.30805984, 0.3415991, 0.11320925, -0.33798137, -0.18752141, -1.1170899, -0.61946, -0.36657038, 0.05051441, -0.13315581, -1.0980383, 0.20631988, -0.5899578, 0.20556742, 0.43499243, 0.1704636, 0.28662485, -0.49463654, -0.028897619, -0.59710926, 0.978885, -0.22626995, -0.21520205, 0.0114953, -0.771128, -0.8317842, 0.29273167, -0.1932077, -0.40043446, 0.16241263, -0.056232963, 0.28546628, 0.44019243, -0.6068562, -0.035279732, 0.49175575, -0.45958462, -0.11431088, 0.31632718, -0.37517723, -0.40831718, -1.01425, -0.091184326, 0.24212836, 0.22819102, -0.044678446, -0.081877165, 0.24831174, -0.71155524, 0.063804954, 0.64360183, -0.18319751, -0.61886394, 0.17192918, 0.09194332, 0.6113805, 0.67956513, -0.18302344, -0.9922827, 0.59671694, -0.62492645, -0.43439615, -0.18939108, -0.45383993, 0.18688451, 0.3275141, -0.5327375, -0.06786558, 0.10237672, -0.06502009, 0.012469429, 0.0048888787, -0.13707663, -0.34232822, 0.702095, -0.36678806, 0.67201215, -0.47477257, 0.480118, 0.38106346, 0.044884548, -0.13442007, -0.48624098, -0.51542133, -0.16277115, -0.022701511, -0.16748546, -0.23915748, -0.35838127, -0.22739811, -0.049588937, -0.69658834, 0.18883324, -0.17627187, -0.2646494, 0.22309184, -0.61099213, 0.8409991, -0.6928002, -0.031667, 0.11024826, 0.8647857, -0.26534486, 0.3441098, 0.22084852, 0.14230557, -0.09183962, -0.042845417, -0.3352399, -0.7377843, -0.24676214, -0.03565037, 0.08677438, -0.18563128, 0.62136525, 0.7785432, -0.12187176, -0.33094212, 0.28198972, 0.24643904, -0.16770321, 0.47323704, 0.17364515, 0.04195829, -0.98708606, 0.22823049, -0.5772498, -0.448076, 0.22858538, 0.06788463, 0.19992697, 0.45371833, -0.06790326, -0.50789773, 0.374585, 0.12989953, -0.006800275, 0.38121876, -0.5806384, 0.26265374, 0.48475456, -0.09331387, 0.40418053, 0.3291959, 0.19897838, -0.09345903, -0.22687137, 0.80194205, -0.33914804, -0.5253935, -0.62215596, 0.18114297, 0.78013414, -1.0246118, 0.0619797, 0.08556063, -0.11687171, -0.09255586, 0.53348595, 0.78508925, -0.039142277, 0.190785, 0.31772366, 0.2732309, 0.4197582, 0.653963, 0.23777641, -0.2343304, -0.6485263, 0.72039694, -0.12960376, 0.1823108, 0.29318675, -0.41862938, -0.43449554, 0.046253502, 0.23685712, 0.13315175, 0.9660778, -0.24407999, -0.27766082, 0.12723845, -0.64640814, 0.27560785, -0.015893864, -0.42862248, -0.33743694, 0.5162025, 0.1741113, -0.22833508, 0.8132491, 0.2960257, 0.4079442, 0.39872333, 0.09648126, -0.16538337, -0.047920197, 0.0165438, 0.004252307, -0.010473144, -0.076882295, -0.584932, 0.29448608, 0.82194144, 0.40968248, 0.32376435, -0.38085413, -0.07289585, 0.63008255, 0.08935232, -0.23777516, -0.24253933, 0.1388457, 0.044081077, 0.23932053, 0.34513724, -0.22692202, 0.33829108, -0.35595647, 0.03479613, 0.06743377, 0.6704292, 0.24854547, -0.24542989, -0.49804488, -0.255257, 0.08381283, 0.093085915, -0.61128986, -0.2650973, -0.49861276, 0.6037206, -0.37943915, -0.2757542, -0.7008099, 0.030795125, 0.014841543, -0.63861316, -0.009983162, -0.6628773, 0.6281932, -0.4825393, 0.015775876, -0.32054755, -0.09668394, 0.18027948, 0.46819055, -0.5159058, 0.48579815, -0.4688561, -0.69196457, -0.53468806, -0.7605338, -0.32985398, -0.28811523, -0.35562894, 0.01578824, 0.19365592, -0.71404904, 0.38709947, 0.33417797, -0.28492546, -0.16128214, -0.34925663, 0.2751803, 0.29173094, -0.42485023, 0.15033443, 0.045546588, -0.6333361, -0.103506416, -1.0173737, -0.37598264, -0.4967399, 0.14115919, -0.31938323, 0.31687927, -0.3920628, -0.2983866, 0.21182923, -0.33818114, 0.18435271, -0.4552389, -0.018658567, 0.3927939, -0.19316125, 0.43369773, 0.71042997, -0.05144537, 0.15330845, 0.046536893, 0.16688128, -0.5072305, -0.3357307, 0.19902955, -0.11453333, 0.15017717, -0.62401193, -0.599332, -0.48565766, -0.17020833, -0.39635792, -0.17716621, -0.32283673, -0.36588123, 0.66106904, 0.18978442, -0.12406569, -0.37011442, -0.2794176, -0.13226475, 0.67202973, 1.2239491, -0.02148463, -0.8095086, -0.57577497, -0.31686082, -0.08738676, -0.3943404, -0.46693352, 0.25834307, -0.754288, 0.53893095, -0.476415, -0.41284072, 0.0004740674, 0.2939739, 0.44422737, -0.24360108, 0.16325955, 0.4268587, -0.019220844, 0.0300615, -0.5343457, -0.14653772, -0.35172296, 0.48958063, 0.042455316, 0.05326576, -0.82155126, -1.0728749, -0.3834394, -0.58060116, -0.11644104, 0.57603246, 0.2874164, 0.40084085, -0.32415253, -0.06950631, -0.20775652, -0.1710894, 0.25568125, 0.07940812, 0.5983072, -0.2104821, -0.23056786, 0.9493359, 0.45317352, 0.32708642, -0.27355644, 1.8161026, -0.11956958, 0.14085823, 0.46550193, 0.45210645, -0.21275131, -0.40120792, 0.3113385, -0.52699393, 0.8715248, 0.12994987, -0.52829164, 0.07105137, -0.24701877, 0.24256025, 0.3369014, 0.10997056, 0.06770361, -0.100581944, -0.09983071, -0.496245, 0.11816156, -0.000101905316, 0.11522176, -0.0028926358, -0.5023069, -0.15070105, 0.05474751, -0.44594026, -0.27871254, -0.52224606, -0.7442341, 0.20297219, -0.535597, -0.13947432, 0.7523136, 0.8656811, -0.23669346, 0.18601239, -0.48473063, -0.074268155, 0.34131896, 0.21259876, 0.09077104, 0.081526585, -0.63833207, -0.09542206, -0.61876035, 0.2420196, 0.48563313, -0.2410111, -0.030821927, -0.41763136, -0.21407865, -0.18417557, -0.10332498, 0.19605811, -0.7845513, 0.3125365, 0.019675871, 0.32286894, 0.14549394, 0.3344411, 0.12910742, -0.1923858, -0.19436777, 0.15319516, -0.1439768, -0.07505983, -0.5261423, -0.11615813, -0.0071678516, -0.16219343, 1.1351432, -0.48586407, 0.16094394, 0.28406945, 0.4787816, -1.000683, 0.36462042, 0.7711181, 0.6240201, 0.6521007]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>버터의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 puncture test, cutting test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>[-0.6906113, -0.48770034, 0.03429589, -0.3989351, -0.27319536, -0.19672544, 0.1031067, 0.3657047, -0.2398447, -0.027245725, -0.34058276, 0.1688385, 0.26893154, 0.7405343, 0.35533378, 0.039386462, 0.5664055, 0.14042608, 0.27063417, 0.1297275, 0.70502526, -0.7210434, -0.13012175, -0.11755386, -0.32257664, 0.045987908, -0.40534508, 0.15907167, -0.15294294, -0.80693454, 0.71651226, 0.19565277, 0.7272217, 0.14502664, -0.02061042, 0.19443704, -0.13530155, 0.034382578, 0.26122853, -0.15322493, -0.13643499, -0.116410695, 0.40291843, 0.4217095, 0.043954004, -0.2911115, 0.14772667, 0.12762767, -0.47883713, -0.40727052, 0.17354877, -0.089000486, 0.3797948, -0.08819201, -0.39872754, -0.56861705, -0.3708972, 0.11843995, 0.01686482, -0.077743836, -0.04904266, -0.49793622, -0.2901143, -0.39656523, 0.19766895, -0.13050972, -0.06082196, 0.23871668, -0.058974136, -0.3353502, 0.22351599, 0.44739595, 0.2771619, -0.15341218, 0.71959597, -0.92706704, 0.0045414963, 0.017227646, 1.1911358, 0.39130637, 0.6542461, -0.39653996, 0.038192097, -0.39996684, 0.39939478, -0.43012396, -0.55576724, -0.14449288, 0.032644108, 0.67856526, -0.074157886, -0.34299994, -0.05522843, 0.2593175, -0.6531678, 0.6543658, -0.18331456, 0.19032723, 0.032777518, -0.02244795, -0.5467189, 0.18515325, -0.29503906, 1.1914923, 0.15578948, 0.4176964, 0.062866025, 0.33650455, 0.5268097, 0.30155024, 0.26233062, -0.3308643, -0.034057695, -0.4782202, -0.32797244, 0.32839, 0.12599353, 0.21928723, 0.026702182, -0.2087189, -0.50109285, -0.36169192, -0.34639668, -0.09297657, 0.20374037, -0.20567606, 0.3338848, 0.3726598, 0.20564081, -0.14299865, -0.09114752, 0.43543506, 0.40708312, 0.11636928, -0.7643397, -0.53643054, 0.51457226, -0.07853934, 0.22682022, 0.7030158, -0.60698324, 0.76265925, -0.15295531, 0.184985, -0.5097908, 0.012007668, 0.6085153, -0.8507304, 0.5039963, -0.41775075, -0.31795505, 0.055694412, -0.019933978, -0.16138549, -0.3669177, -0.16118966, -0.14301826, -0.5578647, -0.3851906, -0.20229656, 0.41908607, 0.5612128, 0.05589777, 0.07202831, 0.53343797, -0.51801944, 0.21812724, -0.3278586, -0.0048124143, 0.062059414, -0.3119733, -0.21047093, 0.5006475, 0.23629968, 0.8748737, -0.12030993, -0.28047284, -0.7279088, 0.028904205, -0.5735962, 0.15692699, 0.6661585, 0.037801545, 0.14963767, -0.3163014, 0.32721934, -0.21670868, -0.42293963, -0.91128993, -0.40324545, 0.2378294, -0.2509773, -0.48290467, -0.086937785, 0.14034566, -0.2660583, -0.57224995, 0.17258926, -0.1787724, 0.10976729, -0.4710522, 0.3859199, -0.6828255, 0.32490617, 0.2324123, 0.118660025, -0.009504219, 0.30087188, 0.17323488, -0.22336078, 0.15908322, 0.22802494, -0.0343058, 0.33104783, -0.49339065, -1.3979492, -0.81977445, -0.5753894, -0.031086259, -0.14945696, 0.30502293, -0.4319532, 0.16453126, -0.119018055, -0.22130449, -0.45775557, 0.7479773, 0.77115744, 0.30599755, 0.5838154, -0.25056192, -0.37182307, -0.88227934, 0.35646224, 0.45839712, -0.12258781, 0.12277517, 0.78328323, -0.5578132, -0.028555557, -0.17210484, -0.25532696, -0.84747154, 0.074496426, 0.37062308, -0.11756153, -0.113789916, 0.42668495, -0.11470721, -0.30552217, 0.45791593, -0.48704946, 0.01372705, -0.05153325, 0.61288005, -0.4067776, 0.4256666, 0.4609622, -0.70508057, -0.26019529, 0.21331704, 0.45990244, -0.6134206, 0.05377105, -0.10475817, -0.059117552, 0.5682263, -0.7786513, -0.8156452, -0.48910174, 0.04584384, -0.41516444, 0.38810596, -0.2199934, -0.7998083, 0.16735621, 0.14537442, 0.25927874, 0.09397098, 0.18105014, -0.062465597, 0.40498674, 0.5785966, 0.26698604, 0.79495376, 0.13518347, 0.4344494, 0.0664211, -0.16983324, 0.6958079, -0.09403592, -0.016092805, 0.15397717, -0.69441104, 0.70092684, -0.34103593, -0.53360397, -0.33669165, 0.29874548, 0.5764744, 0.0642483, -0.18347102, 0.22682704, 0.37533507, -0.21535043, -0.09437298, -0.26923212, -0.51373583, -0.88129157, 0.5636576, 0.3028268, 0.40468922, 0.061795387, 0.67977124, 0.1761663, -0.955488, 0.22036844, -0.20719345, -0.011910972, -0.60196394, -0.34951565, 0.67358613, 0.018298848, -0.24320237, 0.27171168, 0.52143985, 0.12009599, 0.32885516, -0.80632216, 0.11785545, -1.1015166, -0.15745746, 0.0374482, 0.26889154, -0.050001185, -0.5592719, 0.19407992, -0.2081729, 0.38506365, 0.1759702, -0.04430074, 0.6224155, 0.22351874, -0.29742542, -0.8572548, 0.66328573, -0.3986449, -0.5912925, 0.2851078, -0.5087212, -0.48529795, 0.23059666, -0.18659554, 0.06951514, -0.046168033, 0.31810328, 0.9272144, 0.12321491, -0.3301163, -0.54044574, 0.46951488, -0.25308272, 0.082872815, 0.037799273, -0.42927387, -0.34352037, -0.80321664, 0.23833507, 0.31134716, 0.45448804, 0.17994201, -0.23776186, -0.23413306, -0.24799906, -0.025312016, -0.049478978, -0.33334306, -0.4348539, 0.023458568, -0.33352932, 0.42901877, 0.61011523, -0.26235828, -0.23562105, 0.07961705, -0.9119149, -0.24454673, -0.27981266, -0.63068205, -0.059748158, -0.10564679, -0.7413351, -0.2684265, 0.32788557, -0.6335159, -0.32652733, 0.6401809, 0.09715474, -0.13037956, 0.46126413, 0.34259892, 0.94825625, -0.6031967, 0.5032808, 0.49838242, 0.13222985, 0.12655053, -0.39574423, -0.48488152, -0.24576639, 0.359556, -0.12163234, -0.46246004, -0.5369008, 0.15923043, -0.15792374, -1.1123871, -0.108003944, 0.0003929635, -0.42701128, -0.121941246, -0.55732286, 0.44163847, -0.4409491, 0.23016451, 0.2819515, 0.8115141, -0.15315314, 0.6919026, -0.35363546, 0.57399005, -0.07196634, 0.19665818, 0.008630526, -0.7029175, -0.08712704, 0.32414782, -0.17458881, 0.0066411723, 0.3489251, 0.70844173, -0.13881648, -0.010937351, 0.38129327, 0.13483351, 0.037766714, 0.17973168, 0.3475108, -0.04915294, -0.6514041, 0.09871411, -0.9484463, -0.6829341, 0.104178645, -0.3410261, 0.3964623, -0.15341823, -0.08173149, -0.31270558, 0.19089478, -0.16189577, -0.18116097, 0.32614782, -0.38816342, -0.26012704, 0.7506016, 0.30932623, 0.2985882, -0.04293518, 0.31322673, 0.015958538, -0.19933867, 0.6489108, -0.3514041, -0.052479487, -0.4051498, -0.729255, 0.52756965, -0.89347935, 0.10994468, -0.26601914, -0.084172286, -0.020024715, 0.1315133, 0.9877467, 0.4456919, 0.25738323, -0.28991127, 0.053096365, 0.62316674, 0.18894666, -0.081528746, -0.10995037, -0.6148632, 0.05516896, -0.46911323, 0.3009461, 0.254303, -0.3914642, -0.08909184, 0.006097395, 0.34616363, 0.19674963, 0.61862856, -0.83185273, -0.6567211, -0.5969194, -0.4521302, 0.025585532, 0.196974, -0.009247798, -0.64805996, 0.5512533, 0.32286394, -0.07899007, 0.6357468, 0.7989023, 0.24513002, 0.37039688, 0.46005782, 0.094982564, -0.03621539, 0.05617967, 0.13964464, -0.1540141, -0.008235475, 0.0049214014, 0.33710137, 0.103772104, -0.20432626, 0.108999304, -0.1445938, 0.14252684, 0.46350858, -0.34798554, -0.65402955, -0.05243106, 0.08721203, 0.8718485, 0.56372565, 0.457837, -0.36719716, 0.13294269, -0.59554726, 0.23596247, -0.10698187, 0.14826739, -0.2345439, -0.53542656, -0.30035523, -0.76667863, -0.56094265, 0.10272182, -0.08718542, -0.1775809, -0.033495974, 0.21745966, -0.07087269, -0.103512086, -0.91565365, -0.07375585, -0.16710615, -0.18770193, 0.24903566, -0.49022427, 0.48004046, -0.34330603, -0.425838, -0.34491935, -0.7204531, -0.22093292, 0.06270537, -0.7305382, 0.67116886, -0.06522938, -0.6260174, -0.25933647, -0.7954331, -0.74067426, -0.03635079, -0.012914847, -0.15296909, 0.092104405, -0.6104973, 0.52669555, 0.13570827, -0.18680179, 0.37304792, -0.49694514, 0.22249933, 0.09148113, -0.40913138, 0.16362716, 0.18743396, -0.8959195, 0.17400499, -0.6118614, 0.22211151, -0.5655783, -0.23030849, 0.22081298, 0.7576856, 0.0032368775, -0.19712438, -0.016744232, 0.10182222, 0.18858595, 0.41874015, -0.14292096, -0.22225004, -0.44422808, 0.64052415, 0.3639966, 0.077858396, 0.0016425786, -0.034992352, 0.11862566, -0.2630962, -0.29532734, 0.064551935, -0.56923723, 0.11889305, -1.106325, -0.45188332, -0.37038553, 0.281019, -0.4904162, -0.2237591, -0.490437, -0.47421727, 0.51593715, 0.057262857, -0.0470358, 0.30046934, -0.2502739, -0.34877288, 0.23577149, 0.8592942, -0.3462228, -0.74582106, -0.6017071, 0.040138636, -0.13296495, -0.30762377, -0.39254963, -0.072111435, -0.8572035, 0.48093662, -0.26943132, -0.37744427, 0.2193643, -0.5177153, 0.110834114, -0.40375686, 0.16671427, -0.22487764, 0.33946666, 0.20884453, -0.4572775, -0.102238774, 0.040410053, -0.20388877, 0.24307318, 0.26091638, -0.8870046, -0.5834349, -0.7131157, -0.37989876, -0.06720016, 0.47395346, 0.43555498, 0.001168374, -0.18403322, 0.075662784, -0.1051498, -0.23901713, -0.24933904, -0.3077607, 0.60614675, -0.7929717, -0.39622203, 0.66142243, 0.43418422, -0.13298802, -0.4771086, 1.0621804, -0.20735396, 0.28476116, 0.18585551, 0.60529166, -0.643154, -0.6838606, 0.03143886, -0.33174896, 0.75764513, 0.1809778, -0.50203544, 0.50655884, -0.42210564, 0.17985058, -0.10307331, 0.4084259, -0.14452711, 0.16946626, -0.08418182, -0.44566503, -0.14938141, -0.42488524, -0.024594614, -0.19023527, -0.8347778, -0.30581817, 0.39992723, 0.200961, 0.30692136, -0.7601111, -0.24074177, -0.043570604, -0.5869693, -0.010056469, 0.6235352, 0.33939734, -0.2645118, 0.12378892, -0.348017, 0.15175664, -0.048872832, 0.011856034, 0.48297706, 0.073669694, -0.72618103, -0.013575804, -0.2984098, 0.09872457, 0.04940362, 0.032592263, 0.07157817, -0.4482545, -0.4534298, 0.01776811, -0.13144375, 0.4622471, -0.84888506, 0.5413935, -0.40688285, 0.4452983, 0.72579545, 0.69136864, 0.1675728, -0.2194497, -0.12431631, 0.28897825, 0.1772967, 0.16843468, -0.8203309, -0.3043539, 0.10439443, -0.10082338, 1.513081, -0.051897634, 0.2296985, 0.37055275, 0.004055828, -0.70503706, 0.5722883, 0.8146608, 0.24719675, 0.29249194]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>잼의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 puncture test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>3</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>[-1.0151827, -0.38561806, 0.3974019, -0.4552207, -0.7508252, -0.29889867, 0.2111662, -0.45030072, -0.4358751, 0.08582594, -0.72333354, 0.3278754, 0.22796786, -0.12835494, 0.31570616, -0.38906586, 0.449733, 0.31349987, 0.19010131, -0.31451747, -0.5408754, -0.39328492, -0.56727034, 0.24977809, -0.23168069, 0.098662294, 0.025387332, -0.23998837, -0.008019932, -1.027594, 1.1054709, -0.02893584, 0.5438329, 0.14729662, -0.15898041, 0.17963867, -0.19156374, -0.26148528, 0.7400129, -0.4096879, -0.38853815, -0.5039783, 0.12835152, 0.14610997, 0.29152778, -0.028811997, 0.17686604, -0.15606725, -0.2582465, -0.48622516, -0.4551218, 0.16923513, 0.61334217, 0.91852516, 0.16886067, -0.3909254, -0.46099877, 0.33851317, 0.3232485, -0.3346664, 0.43635866, -0.38237414, -0.25919142, -0.3541191, -0.1974466, -0.7489882, -0.27569026, -0.1279038, -0.6992228, -0.3724525, -0.2819834, 0.95529985, 0.12633064, -0.025426494, 0.14691274, -0.58345187, -0.23866999, 0.08014375, 0.59079856, 0.4438109, 0.42591262, -0.23484941, 0.7476242, -0.2679912, 0.08842937, -0.97927684, -0.77744967, 0.0048384997, -0.85304075, 0.21783064, -0.32626206, -0.09051893, -0.12648202, 0.6633199, -0.62793595, 0.11736096, -0.15039398, -0.1101088, 0.5503909, -0.15326206, -0.53071636, -0.50871027, -0.6118923, 0.90879864, -0.33889684, 0.11843193, -0.4501759, 0.33137074, 1.1283714, 0.123762704, 0.4728681, 0.0039635175, -0.23224409, -0.32571396, 0.4392105, 0.46077612, -0.06741313, 0.020468922, -0.02031484, -0.29871422, -0.3416069, -0.44006637, 0.14063868, 0.37761226, 0.09039373, -0.22662133, 0.2316205, 0.20809741, 0.8453343, -0.5247036, 0.42017016, 0.20591857, 0.46615818, -0.075683855, -0.32019624, -0.5114691, 0.3265317, 0.2571855, 1.4113165, 0.18457562, -0.4709725, 0.0056852144, -0.16372362, -0.10627946, -0.07607165, 0.035755005, 0.322082, -0.0429175, 0.2089283, -0.5286779, -0.091261126, 0.032213494, -0.3201407, 0.34699452, -0.61823994, 0.11986186, -0.1812905, -0.24518025, -0.27822074, -0.37489164, 0.51897484, -0.23467076, 0.11196596, 0.02300588, 0.20725214, -0.5641924, 0.3335458, -0.070917465, 0.52525645, -0.27454522, -0.64760745, 0.033078875, 0.34175107, -0.5845191, 0.5043753, -0.30616474, -0.5860519, 0.07204643, -0.189146, -0.38328543, 0.13112773, 0.79476976, 0.7654035, 0.015153875, 0.0653623, 0.68659663, 0.3069466, -0.41902283, -0.24764808, -0.6421244, 0.42772332, -0.21276303, -0.0007690315, -0.53158855, 0.53882414, 0.44194594, -0.39854857, -0.12999296, -0.1214858, 0.30563286, -0.62782353, 0.50701207, -0.93136936, 0.24515818, 0.14934509, -0.10676381, 0.47498354, 0.19524093, 0.21983384, -0.58075064, -0.20395565, 0.25906262, -0.5606901, 0.52127045, -0.4272385, -0.2947714, -0.7517484, -0.43523416, -0.517288, -0.6719773, 0.13662292, -0.4454554, 0.080260634, -0.1997943, -0.25760022, -0.33955196, 0.5409462, 0.44627455, -0.24868011, 0.28904548, -0.16418253, -0.32209972, -0.7909375, -0.5002274, 0.6628595, -0.12556966, 0.41036233, 0.47907746, -0.13488641, -0.29442433, 0.20347917, -0.30474654, -1.0066475, -0.16102844, -0.008766265, 0.13583367, 0.19972996, 0.18700778, -0.120078884, -0.4752189, 0.30421945, -0.111510746, 0.06577603, -0.1884007, 0.15204003, -0.7144374, -0.20541108, 0.44970724, -0.47711942, 0.18677527, 0.8164086, 0.23674248, -0.5595547, 0.15534467, -0.08883629, -0.7179892, 0.33912766, -0.5219405, -0.006552418, -0.49433377, 0.3172614, -0.27437207, 0.017366273, -0.07763111, -0.38717675, 0.5324057, -0.11953198, 0.31255564, 0.5174974, 0.3816693, -0.23204143, -0.25220534, 0.66302526, 0.8466997, 0.819428, -0.47804692, 0.68206936, -0.44314763, 0.11134583, 0.476155, -0.267719, -0.5691106, -0.012469966, -0.5635455, 0.18182187, -0.12492756, -0.3205803, -0.33312616, 0.111138396, 0.74954313, 0.46190313, 0.008171577, 0.4150339, -0.0221688, -0.5638198, 0.53594726, -0.2900939, -0.7480464, -0.41213813, 0.87441605, 0.19411848, 0.49419042, 0.3811643, 0.10915045, -0.20421529, -0.44374737, 0.7104879, 0.07201098, -0.17618568, -0.3207325, -0.21518682, 0.25219074, 0.22525306, 0.041685835, 0.045082916, 0.41208568, -0.0281014, -0.1602885, -0.3391678, 0.22806825, -0.7801771, -0.29701802, 0.14077553, 0.2139944, 0.020032344, -1.2045931, 0.5210282, -0.31805158, 0.2246946, 0.026744721, 0.334921, -0.013231516, -0.33248076, -0.037517678, -0.39933035, 1.1016546, -0.11959217, -0.17865188, 0.19577403, -0.327129, -0.4482685, -0.428014, -0.44930956, 0.12853818, 0.7536358, 0.22612526, 0.61206865, -0.22655106, 0.25546527, -0.28986064, 0.4082305, -0.048882946, -0.3334832, 0.31807664, -0.3105197, -0.55305505, -1.0505975, -0.19789924, 0.14671469, 0.690669, 0.03661859, -0.110723324, 0.18664311, -0.46111742, -0.3330641, -0.06509217, 0.22959268, 0.18001401, 0.12831455, -0.07694525, 0.41262588, 0.36329314, -0.09235742, -0.9909241, 0.72218823, -0.5855108, -0.21638806, 0.09025123, 0.011283019, 0.25590488, 0.4563439, 0.31309846, 0.005425936, -0.11741307, -0.7169065, -0.4896554, -0.3238754, 0.08431383, 0.092349656, 0.8308699, -0.26951048, 0.22991502, -0.099107094, 0.19769944, 0.037758283, 0.09350277, 0.07974598, -0.010592499, -0.5652077, -0.1786948, -0.21625821, -0.030517915, -0.086702526, -0.42847773, -0.63085335, -0.2989221, -0.65982777, 0.39713463, -0.19633491, -0.23326005, -0.90340585, -0.5699548, 0.15862635, -0.1681152, 0.30316487, 0.305429, 0.4622214, 0.0664685, 0.48378062, 0.19167845, 0.52368695, -0.7670823, 0.25578544, -0.16407323, -0.20453559, 0.05746843, 0.42139935, 0.4213216, -0.27250296, 0.49962738, 0.5074927, -0.2976947, -0.26833582, -0.22243309, 0.44305167, -0.1383423, 0.44147363, -0.0088931285, -0.50911784, -0.48357594, -0.5007602, -0.47779438, -0.8849797, 0.16954823, 0.10216554, 0.31269982, 0.49809027, 0.32138833, -0.27568468, 0.2954466, -0.2587475, -0.7141321, 0.22977065, -0.35555544, -0.20278507, 0.0978507, -0.015380877, 0.96238303, 0.9719651, 0.13004403, 0.40268382, -0.55340713, 0.45252898, -0.34646502, -0.2725921, -0.7004316, -0.2864118, 0.3241438, -0.7594209, -0.029422084, -0.24850388, 0.22301315, 0.11742657, -0.015406395, 0.33281264, -0.09732389, 0.37517968, -0.5993759, 0.15500906, 0.38179216, 0.26252922, 0.530878, 0.36558715, -0.33880004, 0.4886122, -0.25211236, 0.024899924, -0.13125916, -0.12527357, 0.060052365, 0.053369325, 0.4487141, -0.078436896, 0.08310236, -1.0543905, -0.04065399, -0.13144545, -0.13412403, 0.035901528, 0.068450004, -0.42758667, -0.2440825, 0.10845977, 0.4213201, -0.023992987, 0.8743766, 0.46567583, -0.786098, 0.29129633, 0.58726776, -0.07244656, 0.07369474, -0.3841654, -0.08001823, 0.054825496, -0.68221706, -0.6898017, 0.3992226, -0.04189998, -0.05177492, 0.24778788, -0.08748311, 0.0059286305, 0.6160243, 0.12557176, -0.7063332, 0.03084937, 0.10711184, 0.81733084, 0.53138304, 0.3469424, 0.127073, 1.0102834, -0.12742312, 0.4453872, -0.26184043, 0.37443566, -0.1774993, -0.79035354, -0.6619676, -0.7743967, -0.090440504, -0.6724639, -0.32824162, -0.07925781, 0.04932645, 0.2872635, -0.09211222, -1.0380352, -0.43294403, 0.028595326, 0.5141637, -0.15857644, 0.12377945, -0.5438039, 0.23276581, 0.13637353, -0.47772694, 0.054264646, -0.1970985, 0.49222007, -0.009824592, -0.45229474, 0.35285148, -0.68706447, -0.6357412, -0.17533527, -0.74213666, -0.11517247, -0.018335162, -0.43817905, -0.28724638, -0.006141177, -0.43123487, 0.8815189, 0.33334708, -0.47114384, -0.0958133, -0.4644909, -0.012338154, -0.1459593, -0.08123156, 0.2619879, 0.38079846, -0.10780659, -0.18499541, -0.71396226, 0.120645344, -0.33163038, 0.52940106, 0.07859482, 0.5291099, -0.11712571, -0.09091406, 0.0179436, -0.23073168, 0.68055636, -0.1462966, -0.6262974, -0.6980352, -0.65129215, 0.58127254, 0.5288859, 0.15839975, -0.54619545, -0.18904983, -0.3673632, -0.36392045, -0.8605558, 0.053230513, -0.52152276, 0.030408382, -0.5692919, -0.16782637, -0.46665803, 0.15121959, -0.13951561, -0.1886207, -0.19742589, -0.19511567, 0.24186604, 0.43499932, 0.047658075, 1.1049562, -0.35550323, -0.2963215, 0.13492934, 0.6541311, -0.2375025, -0.8972213, -0.23313175, 0.0071469992, 0.76600796, -0.14970466, -0.16449706, -0.11632717, -0.8998854, 0.30862707, 0.3786839, 0.053466022, 0.20657362, -0.31362873, 0.2806292, -0.30876422, 0.29758224, 0.07733721, 0.03219533, 0.44608822, -0.9173828, 0.2768265, 0.21418835, -0.20999295, -0.18895684, -0.21594822, -0.23101842, -0.5580227, -0.06336435, -0.01929269, -0.34716928, 0.33079985, 0.59424657, -0.32671988, -0.0059295115, -0.09688667, 0.116658926, -0.07636421, -0.3238249, -0.0012507824, 0.035329312, -0.5019535, -0.34928355, 0.6746619, 0.7805461, 0.1309505, -0.673655, 1.2585074, 0.13144681, 0.8201447, 0.3392969, 0.07647522, -0.73792, -0.4048185, -0.1516711, -0.06710246, 0.6697876, 0.7208373, -0.14947341, -0.48020008, -0.31348005, -0.24271126, -0.034368794, 0.85505456, -0.18507916, -0.07141333, -0.050814852, -0.2143052, -0.37496877, -0.3385532, -0.13021049, -0.18310584, -0.066310704, -0.17623246, 0.026151104, -0.17953335, 0.30413052, -0.640046, -0.48614267, -0.13864225, -0.4012127, 0.45128217, 0.47648168, 0.29645994, -0.3030252, -0.023842344, -0.05778779, 0.03822418, 0.12844503, -0.13639851, 1.3965899, -0.13928853, -0.31054318, -0.23962115, -0.49370614, 0.08512178, 0.56660753, -0.21310866, -0.4012511, -0.14200845, -0.16969751, 0.03111214, 0.33854827, 0.17265339, -0.5146346, 0.17926067, -0.65343267, 0.3058342, -0.10862428, 0.26338166, 0.14933673, 0.011843483, -0.5122598, 0.47877768, 0.3961579, -0.0009308799, -0.041861232, -0.4718479, -0.19170302, -0.27339193, 1.158099, 0.0762013, -0.3066538, 0.20141459, -0.16506992, -0.57344687, 0.13241003, 0.6177655, 0.36630225, -0.09185615]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>초콜릿의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 puncture test, snapping test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>3</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>[-0.7782455, -0.34293067, -0.14233212, -0.055370566, -0.19368345, -0.94014114, 0.24249758, -0.058601063, 0.22376414, 0.11457541, -0.017066536, -0.00073268573, 0.4236468, 0.29271188, 0.12753737, 0.5034742, 0.11268064, 0.16773146, -0.090470694, -0.21291663, -0.27895242, -0.123236, -0.42157212, 0.6031966, 0.056090813, -0.21508239, -0.44039735, -0.072135046, 0.2192653, -1.0173379, 0.6207729, 0.23618214, 0.5508637, 0.10808605, -0.14428891, 0.3606393, 0.07971587, -0.42614016, 0.24495979, -0.3377246, -0.59928185, -0.34396854, -0.1137496, -0.03936737, -0.102324985, -0.22289948, -0.18666375, 0.016808778, -0.55021405, -0.35576996, -0.22240894, 0.33650112, 0.61705655, 0.98061657, 0.17667544, -0.329735, -0.82132125, 0.16812532, 0.46846858, 0.3111618, -0.12992044, -0.036442354, 0.041310765, -0.14953701, 0.14777964, -0.39964148, -0.24611612, 0.053886827, -0.29469475, 0.014230191, -0.0037456888, -0.028810024, 0.34406555, -0.017518707, 0.4026524, -0.26866916, -0.48987544, -0.6098408, 0.56838906, 1.0887767, 0.4647759, -0.056326766, -0.2965033, -0.46286073, 0.1861185, -0.78889114, 0.03540155, -0.2994452, -0.15392604, 0.4926844, -0.0035368677, -0.57937384, -0.9513591, 0.4915495, -0.7367358, 0.17324686, -0.07534639, -0.2969435, 0.6250772, -0.28860036, -0.26440528, 0.07409646, -0.047404528, 1.0489161, -0.08810044, 0.3365103, 0.09859546, 0.6532361, 0.14109421, -0.5141631, 0.18382661, -0.5564363, -0.020214511, -0.52019626, -0.16591845, 0.13227956, -0.32685348, -0.3509109, 0.006521892, -0.33681333, -0.2791184, -0.16077559, -0.29696622, -0.086720236, 0.39316404, -0.22447957, 0.23484631, -0.4162033, 0.37031564, -0.25505581, -0.18747632, 0.5016552, 0.40063414, 0.49141634, -0.53439283, -0.15883502, 0.13243963, -0.047178954, 0.6862505, 0.6767492, -0.13434269, 0.17306645, -0.14974098, -0.29965368, -0.5389657, -0.19947273, 0.99071234, -0.7719746, 0.049997408, -0.4977065, -0.034594696, 0.17917526, -0.5106588, 0.059283152, 0.4495374, 0.42483544, 0.44532773, -0.29298714, -0.5714476, -0.2917903, 0.05899605, 0.3741237, -0.3427272, 0.65190387, 0.41734803, -0.17949487, 0.64582425, -0.013613661, 0.21216208, -0.05293874, -0.566679, -0.08314965, 0.50774616, -0.58504635, 0.33295807, -0.123617746, -0.57996804, 0.24752392, -0.15219164, -0.425095, 0.50105524, 0.61493415, 0.38874808, 0.08459661, -0.20852976, 0.88219696, 0.00021816294, -0.19878584, -0.444603, -0.30099973, 0.29835698, -0.23100083, -0.28687003, -0.035650063, 0.3097049, 0.7056163, -0.37536386, -0.2616103, -0.37011108, -0.18652757, -0.82539195, 0.1736965, -0.57911634, 0.30054012, 0.50695026, -0.44715238, -0.0644855, 0.2667581, 0.12556234, -0.09720556, -0.20458429, 0.097472586, -0.22553748, 0.017314967, -0.32921052, -0.8374886, -0.813165, -0.4063547, 0.0044908426, -0.13043149, -0.09240123, -0.687916, 0.29259178, 0.07287823, 0.2884935, -0.26843208, 0.7722244, 0.43984354, 0.15462627, 0.47819355, -0.20599966, -0.38473403, -0.30535832, -0.1147182, 0.5660904, -0.5357641, 0.56929415, 0.50753653, -0.5864116, 0.19262314, 0.17633271, 0.09828461, -0.40025112, -0.2001871, 0.21298538, 0.0059514516, 0.26126537, 0.046178203, 0.17723317, -0.11364863, -0.14908874, 0.1502649, 0.3312816, -0.2863821, 0.28700066, -0.24760894, -0.30384162, 0.89819103, -0.7759517, 0.08611693, 0.7989631, 0.3063042, -0.2516114, -0.08075889, -0.11616076, 0.14327365, 0.4461708, -0.6358072, 0.07821336, -0.8052587, 0.3522253, 0.57720083, 0.312409, -0.44600472, -0.21840549, -0.09146211, -0.12323692, 0.39693844, 0.33366153, 0.24233782, -0.3874352, 0.40681818, 0.3995887, 0.041921377, 1.3205308, -0.40852788, 0.22988857, -0.21169616, 0.1276151, 0.13937297, -0.38688532, 0.11735189, 0.09308708, -0.3645359, 0.6666294, -0.37572613, -0.66760963, -0.2150684, 0.16036306, 0.75159913, -0.30248693, 0.43710044, 0.34847745, -0.058131516, -0.521869, -0.009350553, -0.5097861, -0.49437144, -0.29844064, 0.3220738, 0.23739165, 0.23775232, -0.10563249, 0.32776156, 0.00048443675, -0.9465695, 0.58266056, -0.6798435, -0.24973433, -0.376874, -0.26138476, 0.69140464, 0.13013901, -0.13852818, 0.06124869, 1.030171, -0.23501869, -0.22744544, -0.4059074, 0.35965836, -0.89994425, -0.5719368, -0.08305234, 0.058641154, -0.25286272, -0.8765827, 0.22973578, -0.74750453, 0.13458852, -0.11230295, 0.20808367, 0.0781134, -0.06441051, -0.0017215597, -1.0532147, 0.76233244, 0.017010458, -0.27966174, -0.35467735, -0.11370196, -0.061213266, -0.32186452, -0.21125694, 0.49091053, 0.39946342, 0.68300915, 0.63298106, 0.45202112, 0.16766693, -0.18037878, 1.0700948, -0.1736518, 0.057266515, 0.626317, 0.08197581, 0.3470106, -0.31510398, 0.67745227, 0.12704253, 1.1430228, -0.17140491, -0.45655492, 0.10108975, 0.007949531, 0.24309199, 0.0870396, 0.25055754, 0.51667696, -0.4606192, -0.19537593, 0.52684635, 0.8743748, -0.20554833, -0.5170862, 0.56125015, -0.3720944, -0.27777222, -0.07235629, 0.5037641, 0.014127668, 0.0056527643, 0.11714339, 0.121799625, -0.060909253, -0.2358569, -0.14199126, -0.079721294, 0.28190374, 0.09186354, 0.92997986, 0.23038219, 0.16039102, -0.31779966, 0.87409157, 0.316466, 0.05502293, 0.4347868, 0.006846141, -0.24503998, -0.609917, -0.3967055, -0.44494858, -0.31316707, -0.84903497, -0.7852068, -0.6031347, -0.5363799, -0.13307391, -0.29586568, -0.56475335, -0.6335025, -0.501661, 0.22901563, -0.62664115, -0.36820748, 0.63240886, 0.2791778, -0.473436, 0.52742153, -0.27219105, 0.54690987, -0.11414888, 0.1520682, -0.1811058, -0.5624208, -0.06312739, -0.4077951, 0.10570971, -0.041803133, 0.29785094, 0.5016746, -0.44342375, -0.46908066, -0.07605878, 0.63013023, 0.12582417, 0.48276213, -0.14525042, -0.30048516, -0.82767826, -0.49504617, -0.66772556, -0.8762688, 0.4117025, -0.2891153, 0.08869674, 0.12974688, -0.27950677, -0.21754788, 0.18156652, -0.30032733, -0.21306251, 0.38966438, -0.39077306, -0.19321074, 0.47290674, 0.7105443, 0.5212195, 0.3230748, 0.2971883, -0.50112957, -0.14407939, 0.45420444, -0.21617311, -0.5147789, -0.7723767, 0.35476157, 0.82880956, -0.56909996, -0.018126225, -0.996104, 0.034548003, 0.5803447, -0.07553958, 0.46115133, 0.18396477, -0.12974183, 0.09406683, 0.6806775, -0.26552725, -0.06352905, -0.08221141, -0.13740832, -0.91600734, -0.36835778, -0.45991197, 0.25770846, 0.54912454, -0.149559, -0.14113247, -0.10098731, 0.32451358, 0.13249949, -0.08196021, -0.8438859, -0.3428272, -0.18988693, -0.07323403, -0.36098567, 0.45295885, -0.5517016, -0.44028512, 0.39539292, 0.109380245, 0.25142398, 0.3578342, 0.55011445, -0.3946047, 0.16027224, 0.49640393, -0.24729615, 0.33792767, 0.10328258, 0.35386, 0.061708797, -0.37300047, -0.049414385, 0.18642987, -0.06926977, -0.005885694, 0.5585645, 0.29058862, -0.26266897, 0.67583674, -0.5081749, 0.12008009, 0.00462768, 0.45991138, 0.834932, 0.4855993, 0.5278758, -0.114631504, 0.6288526, -0.6262283, 0.4757851, 0.03627357, 0.1528567, -0.18891168, -0.41614845, -0.8731268, -1.0182517, -0.1406699, 0.009233293, -0.5986858, -0.6623103, -0.20434481, 0.03968775, -0.15744805, -0.93679327, 0.0063586333, -0.3945999, -0.28536335, -0.5909336, 0.48488888, -1.0899756, 0.16449223, -0.5314033, 0.2123642, -0.2812529, 0.12697686, 0.20808731, 0.33833298, -0.66127115, 0.83697414, -0.016362244, -0.9376251, -0.7874532, -1.1753765, -0.14513518, 0.18162298, -0.3224381, 0.08561099, -0.05661105, -0.028024765, 0.5214952, -0.1150107, -0.13719842, -0.35196197, -0.6820485, -0.37738064, 0.056147892, -0.3555838, 0.3547994, 0.49700737, 0.25428948, 0.056143936, 0.047517825, -0.2742538, -0.06585527, -0.23335706, -0.04075697, 0.83867806, -0.56877345, 0.18957607, 0.10928822, 0.035174042, 0.30169314, -0.5827227, -0.044112284, -0.47240397, -0.3245338, 0.79622483, 0.43301746, -0.16936795, -0.4408513, -0.26635394, 0.16499735, -0.23754643, -0.32048586, 0.31547013, -0.79556507, -0.35117435, -0.6997928, -0.4784408, -0.042916894, 0.20062281, -0.4667748, -0.44671023, -0.4396852, -0.25730214, 0.7401271, 0.12722002, 0.43419454, 0.6471015, -0.48727036, -0.29828143, -0.23399903, -0.021655994, 0.11911098, -0.451496, -0.47042313, 0.35188687, -0.064560056, -0.629528, -0.19550724, 0.5803661, -0.91026473, -0.067455076, 0.32195076, -0.016163891, 0.3372023, -0.33221993, -0.10709395, -0.20250404, 0.16725619, -0.2863463, -0.16774674, 0.016275555, -0.55853134, 0.2892775, -0.117942095, -0.3368124, -0.034782216, -0.17506473, -0.67035836, -0.7511093, -0.59373915, -0.29906526, 0.03889812, 0.5670756, 0.332639, -0.4190147, -0.32876405, -0.10849503, 0.34156883, -0.51190084, -0.2035752, 0.017509012, 0.11088961, -0.15163456, -0.20821993, 0.5042543, 0.030420383, -0.03303721, -0.43307018, 0.77577406, 0.18409668, 0.8342989, -0.23337024, -0.104452156, -0.39319432, -0.3116124, 0.56178087, -0.115234934, 0.1455542, 0.90703946, -0.68609667, 0.017980024, -0.24316113, 0.011037809, -0.3108911, 0.33472618, -0.101393856, -0.28346446, -0.2735348, -0.43517843, -0.4276898, -0.32558772, -0.57223517, -0.32551926, -0.7287198, -0.31465292, 0.21381141, 0.059582293, -0.037825514, -0.29828906, -0.091434926, 0.30883268, -0.690249, -0.18987618, 0.60347825, 0.43349108, -0.040379662, 0.27094504, 0.1934722, 0.45323977, 0.7493127, 0.11462888, 0.5528957, 0.160134, -0.3919296, 0.025554985, -0.3217708, 0.29437447, 0.28030747, -0.15169428, -0.42334405, -0.18758936, -0.7260856, -0.6913335, 0.116647154, -0.1529522, -0.1086167, 0.39958608, 0.41195416, 0.42676184, 0.3275062, 0.28409362, 0.09295579, 0.2887011, -0.10087625, 0.43222848, 0.4066172, -0.14876187, -0.28108943, 0.10343036, -0.0010204142, -0.34861794, 1.1713872, -0.5516951, -0.23720747, 0.5042656, -0.6920077, -0.5368249, 0.270623, 0.6611083, 0.586661, -0.11351645]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>chocolate의 물성은 어떻게 측정하나요?</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>다양한 방법이 있는데, texture analyzer를 사용한 puncture test, snapping test를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>3</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>[-0.522241, -0.542843, -0.08273388, -0.0756885, -0.10004564, -0.3726143, 0.21656372, 0.18809827, 0.25769335, 0.07063209, 0.12659068, 0.051792268, 0.21582405, -0.021494834, 0.48200577, 0.029876184, 0.14726289, 0.12757085, -0.35003063, -0.5390082, -0.5185265, 0.3506556, 0.26523295, 0.2468297, -0.014236377, -0.09324204, -0.68668574, -0.11186571, 0.34010357, -1.0755572, 0.5129909, 0.18921147, 0.42760167, 0.14109376, 0.38606927, 0.45844078, -0.029373078, 0.00054083864, 0.31298, -0.3016414, -0.1644654, -0.4830183, -0.35084432, 0.1366637, 0.09744725, -0.24140829, -0.15401857, 0.11469416, -0.13984351, 0.0020878175, -0.6439709, 0.33827284, 0.3977288, 0.5440905, -0.021585304, -0.49213412, -0.72519314, 0.051601596, 0.4170403, 0.23994932, -0.4010787, -0.106309004, -0.12610169, -0.10925006, 0.010808392, -0.12331992, -0.41341057, 0.41369227, -0.43161783, -0.0076257857, 0.18611939, 0.27439982, -0.062743016, -0.3820034, 0.36282304, -0.20639491, -0.34875715, -0.54083264, 0.1634642, 0.41151208, 0.70543796, -0.17018719, -0.04055397, -0.79515207, -0.027391493, -0.87959075, 0.36248258, -0.8133905, -0.16506134, 0.23993722, 0.20783511, -0.23691432, -0.8323448, 0.4738944, -1.1539296, 0.20836793, -0.05275146, -0.18024968, 0.7526315, 0.21878147, -0.013277468, -0.040263638, -0.14186072, 0.8146855, 0.60364133, 0.3901616, -0.3028779, 0.8636199, 0.42260414, -0.2983771, 0.47385228, -0.662109, 0.086125806, -0.4933071, -0.0028976968, 0.16993769, -0.3685334, 0.18432769, -0.030998787, 0.093713515, -0.07105887, -0.038196974, -0.08059196, 0.14834245, 0.12243654, -0.20622301, 0.72434276, 0.03962339, 0.77372247, -0.31871668, -0.29163805, 0.3674344, 0.37257397, 0.22214645, -0.22271131, -0.2483343, 0.15714414, -0.18723506, 0.3891942, 0.9324942, -0.19659251, 0.38427463, 0.039836813, -0.08711054, -0.19208834, 0.055348624, 0.37992084, -0.9381665, -0.19093151, -0.8338982, -0.37621266, -0.15193735, -0.4978402, 0.13748913, 0.2260039, -0.06434467, 0.21433581, -0.3420188, -0.15504558, -0.39056015, 0.06307355, -0.15066499, 0.11406436, 0.37669858, 0.1598577, 0.19300307, 0.43284062, -0.12571996, 0.12138442, -0.26747766, -0.51217234, 0.16256459, 0.04490002, 0.033645168, 0.30991614, -0.0046963235, -0.54579705, 0.009651265, -0.018100731, -0.30232275, 0.37159258, 0.53038305, 0.28199893, 0.27158985, -0.2187348, 0.03248469, 0.29037094, -0.020074897, -0.40557635, -0.5463098, 0.17095582, -0.81551796, -0.47206885, -0.20596568, -0.13077642, 0.6619994, -0.43176022, -0.1100675, -0.40651974, 0.0017921627, -0.9256372, 0.19269793, -0.42941934, 0.0033125286, 0.1599141, -0.23259954, -0.23434728, 0.51452184, 0.59763783, 0.06657422, -0.23672174, 0.5137931, -0.18536592, 0.39712524, -0.41485274, -1.2435074, -0.8042439, -0.3645974, 0.16400619, 0.17367008, -0.12377787, -0.77812296, 0.7611876, -0.07154863, 0.0047641527, -0.5352406, 0.650745, 0.8279, 0.3276562, 0.19179268, -0.34471, -0.2689538, -0.6232247, -0.04619675, 1.1970489, -0.21807292, 0.6321265, 0.9439436, -0.83469933, 0.11485227, 0.3557811, 0.45542055, -0.1270363, -0.30521077, 0.2049191, -0.07926794, 0.14761877, -0.50381476, 0.32562402, -0.7781237, -0.3590255, -0.15302955, 0.41915908, -0.449987, 0.49980778, -0.2785456, 0.13148804, 0.85841197, -0.4140848, 0.26927423, 0.6601642, 0.28317347, -0.18710038, -0.13084427, 0.12736878, 0.036845367, 0.4759039, -0.8673684, 0.40179914, -0.25439516, -0.32697958, -0.10086134, 0.62258136, -0.2302495, -0.39074767, 0.24975249, -0.13724276, 0.70482904, -0.0785356, 0.20166364, -0.3510854, 0.2994126, 0.19532482, -0.16504523, 0.60238814, 0.004869907, -0.09219387, -0.37442744, -0.26046997, 0.1652286, -0.23664507, 0.058918554, -0.17244717, -0.82043093, 0.8071406, 0.027938364, -0.52350664, -0.41423795, 0.30222553, 0.7366432, 0.14235497, 1.0172578, 0.3167098, 0.25992244, 0.11125723, 0.30226284, -0.46274662, -0.30624047, -0.14009523, 0.14827576, 0.19620489, 0.4075999, -0.14316879, 0.16207528, 0.30408695, -0.9549364, 0.59387034, -0.25021058, -0.057797853, -0.21528721, -0.2996129, 0.6449853, 0.22890653, -0.05117558, 0.41242287, 0.99964386, 0.12401681, -0.16918555, -0.36716774, 0.053288765, -0.76659566, -0.71187425, 0.044325102, -0.32962853, -0.27190802, -0.75714344, 0.56128335, -0.46383417, 0.13108377, -0.12500581, -0.12700741, 0.03815222, -0.45251435, 0.4024686, -0.30132586, 0.64588964, -0.43091387, -0.59752506, 0.009139812, -0.53480935, 0.002071747, -0.09843939, -0.14523311, 0.08704396, 0.8588587, 0.2178795, 0.060751386, 0.6966015, 0.039029595, 0.3417778, 0.9397828, -0.07492738, 0.018566675, 0.3395673, 0.028913882, -0.092621475, -1.0088927, 0.26124224, 0.12965563, 0.6602199, -0.2321321, -0.36316654, -0.15400782, -0.5025424, -0.15564503, 0.21375899, 0.23282596, 0.07796608, -0.41869813, 0.20699221, 0.5243829, 0.91495645, -0.44702765, -0.574177, 0.55298024, -0.93901753, -0.35608283, 0.13139497, 0.29344383, -0.13957667, 0.199068, -0.3856878, -0.17772317, 0.48924032, -0.12311687, 0.16630462, -0.42467472, 0.108468406, 0.15670142, 0.73388904, -0.024894476, 0.3339327, 0.27507, 0.40779617, 0.18577585, -0.36089805, 0.013087546, -0.028077375, -0.4992642, -0.16305356, -0.38946554, -0.41287816, -0.3891659, -0.4548092, -0.6941119, -0.62558675, -0.63387805, 0.35357198, -0.31098273, -0.2604805, -0.19637087, -0.28968856, 0.693265, -1.1189593, -0.017457765, 0.74611896, 0.31434774, -0.099531606, 0.41411254, 0.15018776, 0.4754185, -0.1199019, 0.17915773, 0.029551338, -0.5036793, -0.634767, -0.34513378, -0.017463772, -0.24383084, 0.18979831, 0.3009901, -0.2939836, -0.3909517, -0.016419815, 0.011163619, 0.19837022, 0.8923057, 0.13244142, -0.73489296, -0.45690092, -0.08746688, -0.60278624, -0.46379453, 0.14834, 0.15961608, -0.015828332, 0.17439358, -0.16758473, 0.12581125, 0.16005923, -0.2812511, 0.045382537, 0.074893646, -0.41625035, -0.1831087, 0.23349476, 0.24929525, 0.65545666, 0.29126337, 0.14529903, -0.43274495, 0.085687086, 0.6881679, -0.19439588, -0.09173266, -0.63588876, -0.2737454, 0.40409628, -0.4786132, -0.31867993, -0.30704358, -0.4845333, 0.38942856, 0.13654047, 0.30507135, 0.5192975, -0.37971956, -0.18796806, 0.30925986, 0.114174046, 0.12020188, 0.1874329, -0.3637962, -0.51383615, 0.1851981, -0.365038, -0.17803651, 0.6230349, 0.16605316, 0.13712528, -0.11335644, 0.23634939, 0.05625597, -0.13753691, -0.6139266, -0.11820681, -0.22035669, -0.004434153, -0.14184101, 0.24239595, -0.25585282, -0.402542, 0.21667697, 0.2430353, -0.1343394, 0.9164875, -0.14216231, -0.28957623, 0.01193807, 0.51833016, -0.24252807, -0.1436517, -0.12949477, 0.29323477, -0.0006816576, 0.05161269, -0.1460828, 0.3996977, 0.08351307, -0.25530416, 0.28128985, 0.20336443, -0.39936522, 0.21835375, -0.15151526, 0.088723205, -0.07582863, 0.42779028, 0.77291614, 0.059566986, 0.45348176, -0.23458356, 0.20824389, -0.543749, -0.08536912, 0.020524412, 0.6212588, 0.02817231, -0.44640055, -0.38780573, -0.77856725, -0.10528428, 0.07914724, -0.3007897, -0.6947099, 0.09803124, -0.05672083, -0.316409, -1.0621583, -0.23948725, -0.5337425, 0.45838302, -0.6551277, 0.40420297, -1.1461521, 0.11137738, -0.5074396, 0.10966367, -0.21643846, 0.01030041, 0.44535148, 0.54969573, -0.50777155, 0.8451216, -0.5092555, -0.8490663, -1.0075506, -0.6579153, -0.003570814, 0.11405056, 0.08044804, 0.72436076, 0.36568004, -0.26429555, 0.47726902, 0.00399772, -0.5242427, -0.34372148, -0.84479535, -0.065987974, -0.06556829, -0.8006211, 0.18154064, 0.42395446, -0.24285306, -0.3932249, -0.5020473, -0.7681115, -0.11689363, -0.1311925, -0.2614853, 0.80112064, -0.55061036, 0.14756384, 0.18093555, -0.7436383, 0.25280532, -0.39031553, -0.27271813, -0.13591881, -0.43505228, 0.33462068, -0.036773164, -0.40003246, -0.25469506, -0.31956485, 0.031812035, -0.83105546, 0.00475063, 0.24116625, -0.5348594, -0.16591804, -0.48808601, -0.7191006, -0.11101805, 0.038782384, -0.6314858, -0.29669255, -0.094135046, -0.53178185, 0.5524641, 0.16658987, 0.2076188, 0.41503766, -0.64874893, -0.020439353, -0.12514421, 0.28804475, 0.0019256483, -0.538032, -0.45735562, 0.22711496, 0.30188948, -0.4202024, -0.32492065, 0.38881457, -1.2592969, 0.6064848, -0.34213507, -0.51087487, -0.032316055, -0.39712697, 0.2673999, -0.37769726, 0.38781258, 0.29795486, -0.6953715, 0.38427162, -0.576459, 0.15790944, -0.27345207, 0.12862961, 0.11585215, -0.24138264, -0.6288421, -0.47386894, -0.6665033, -0.29851526, 0.44413614, 0.45165017, 0.48145252, 0.02635556, -0.34676284, 0.09091384, -0.10112731, -0.1301603, -0.05236929, -0.2470636, 0.57227814, -0.41267744, -0.23029062, 0.8635952, 0.15457596, -0.3386679, -0.62826747, 1.188645, 0.07346543, 0.8286627, 0.10170519, 0.11746815, -0.72858727, -0.52891296, 0.8458148, -0.59174675, 0.42464814, 0.49748793, -0.24875636, 0.09077653, 0.21368207, -0.23230185, 0.072377235, 0.37653738, -0.38040936, -0.13119365, -0.40292248, -0.4202385, -0.4070906, -0.18554282, -0.38122767, -0.24502654, -0.31369257, -0.25077602, -0.19674908, -0.33331335, 0.063841484, -0.40079072, -0.5123162, -0.1108881, -0.37820476, -0.32336167, 0.41676867, 0.23856096, -0.0908351, -0.35555977, 0.30643907, 0.38113034, 0.69079566, 0.14898778, 0.34428835, -0.14251354, -0.26944444, 0.47985622, -0.40501693, 0.09730109, 0.14148551, -0.3939226, -0.15285331, -0.39953718, -0.5089786, -0.3698427, 0.04641555, 0.30278093, 0.11194678, 0.42122042, 0.43086624, 0.7579407, 0.2949026, 0.5034706, 0.016069802, -0.13248573, 0.18097076, 0.19162726, 0.04633564, -0.2569702, -0.31262875, 0.21572207, -0.12992994, -0.005644096, 0.7983106, -0.63288957, -0.09931187, 0.21419872, -0.14266896, -0.40878227, 0.5154674, 0.76709306, 0.5226562, 0.1743031]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>RVA 이란</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Rapid Visco-Analyzer 로서 곡류, 전분 분말의 호화, 노화 점도를 측정합니다.</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>[-0.483447, 0.38374424, -0.010241279, 0.41955948, -0.67579794, -0.2225629, -0.0054448694, -0.117447086, -0.8223925, 0.33890876, -0.51464576, 0.24532016, -0.510547, 0.038803194, -0.3228306, -0.44511124, 0.7174514, 0.642412, 0.7873737, 0.08654299, -0.14459845, 0.34361517, -0.76123923, -0.44331267, -0.8160029, -0.08872774, 0.43184796, -0.054509517, 0.060329232, -0.18211268, -0.64019024, 0.15506507, 0.7266593, -0.27099627, 0.51133394, -0.38422084, -0.51032454, 0.5099535, 0.3145867, -0.70257384, -0.20823073, 0.5494179, 0.31973788, 0.078909606, 0.63056326, -0.6673758, -0.19125038, 0.1153608, 0.19846536, -0.43314013, -0.031303015, -0.25213543, 0.050348353, 0.22583945, 0.1405993, 0.17431031, 0.5901948, -0.296923, -0.17594637, -0.46386442, 0.46636215, -0.2593492, 0.35335502, 0.58342975, -0.28026298, -0.46292552, -1.1284919, -0.13526018, -0.5638097, -0.5805494, 0.37268233, 0.6071985, -0.9773616, -0.7924363, 0.44492987, 0.2102619, 0.5501235, -0.6200244, -0.15749322, 0.867634, -0.5655181, -0.6708705, 0.4148434, 0.24395728, -0.49268195, 0.28771016, -0.34765622, -0.1656597, -1.2769805, 0.7363462, -0.26118883, 0.23933323, -0.11860618, -0.20155835, -0.3153536, -0.95367247, 0.37916946, 0.14155078, 0.24933784, 0.13704114, -0.65613776, 0.24400191, -0.6897192, 0.29023078, -0.17215239, -0.52111584, -0.22199269, -0.09099566, 0.35349748, 0.40562066, 0.27697408, -0.13957296, 0.20085245, 0.35928193, -0.47598183, -0.22885947, -0.20368725, -0.514707, -0.23922263, -0.16873562, 0.20335148, -0.99430496, 0.31438264, 0.49218217, -0.6298475, 0.3449602, 0.054986443, -0.9026754, 0.05529061, -0.26494405, -0.23024984, 0.6811211, -0.86524534, -0.62363416, -0.31367844, 0.22165745, 0.37260115, -0.2682899, 1.4297891, 0.15593061, 0.12774786, 0.44627318, -0.22278921, 0.8729095, 0.61060655, -0.17511626, -0.07818579, -0.43443802, -0.052557576, 0.028172666, 0.40850434, 0.45494255, -0.2261178, 0.98058605, -0.5507714, -0.46170256, 0.24645124, 0.1902024, 0.0858019, 0.061758284, 0.44536582, -0.16423918, 0.6052181, -0.46489236, -0.0297598, 0.31262776, 0.58267313, 0.6343987, 0.028644959, 0.40847507, 0.15022698, -0.074438326, -0.38308036, 0.09130078, 0.026724344, -0.03988481, 0.7533068, -0.113126844, 0.011143401, 0.14212188, 0.077926196, -0.78666526, 0.18527399, 0.16156779, 0.43409494, 0.08042415, 0.1519636, -0.67732126, -0.23054595, -0.046696793, 0.8614936, -1.1443696, 0.42121133, -0.6587743, -0.26274338, -0.21972768, -0.30736443, 0.2209348, 0.29047498, -0.24877699, -0.03887375, -0.20082211, -0.0029786055, 0.79172945, 0.07151341, -0.07163686, 0.018526873, -0.28953445, 0.009265478, -0.78896236, -0.045532316, -0.05061684, 0.28137627, 0.013230861, 0.15387304, 0.4379059, 0.3973908, -0.18997978, -0.3203038, -0.039945494, -0.038423367, 0.14135312, -0.15091106, -0.7793367, -1.0699259, -0.17519528, 0.35385537, 0.09821075, -0.31870285, 0.44282255, 0.11456975, -0.72317094, -0.4094155, -0.29267088, 1.0617331, -0.6113489, 0.38244417, 0.27850148, -0.64288265, -0.43146327, -0.10042461, -0.08370199, -0.4796389, -0.30925605, -0.56452006, 0.25009146, -0.041621838, -0.17808974, -0.16480708, -0.32968935, 0.36327615, 0.04673177, 0.09660276, 0.11914525, -0.793802, -0.2693036, -0.5686473, 0.37363192, -0.8696306, -0.35689458, -0.25698194, 0.58394974, -0.78266627, -0.22516005, -0.49825034, 0.117445886, 0.9620645, -0.06982409, 0.4189063, -0.081507646, -0.16674697, -0.08784452, 0.17431228, 0.10991006, 0.68670267, 0.70412946, -0.19398052, -0.63584214, -0.39122763, -0.5861236, 0.2560277, -0.38547635, 0.39855614, -0.08637757, -0.74633044, 0.30920255, 0.26910684, 0.4924759, 0.53583777, -0.6159987, 0.17070536, -0.3569716, 0.5112023, -0.97708726, -0.21789934, 0.60918736, 0.5840679, -0.556501, 0.45549908, -0.48087952, -0.64653105, -0.15540332, -0.091055535, -0.047523767, 0.08087861, 0.4398475, -0.15464474, 0.012391937, -0.6409289, 1.0248588, 0.51882, -0.008572693, 0.599058, 0.056484494, -0.56756806, -0.4535698, -0.34308013, 0.0992293, -0.032071754, 0.07753984, 0.63383585, -0.12594557, 0.69977313, 0.6895334, 0.042079713, -0.16575105, -0.04712416, 0.00531115, -0.6305592, 0.33039966, -0.7882889, 0.20045023, 0.031649742, -0.55420303, -0.92241, -0.3072234, 0.6722657, -0.16772091, 0.30396408, -0.25794038, -0.12855546, 0.12214607, 0.045820147, -0.3906692, 0.82850116, 1.0911416, 0.011106234, -0.13881262, -0.3104188, -0.4115231, 0.1405486, -0.5509278, -0.6616268, 0.33443537, -0.25557533, -0.21879153, 0.18990916, -0.0800594, 0.06759878, -0.4693332, 0.42055476, -1.1048814, 0.075351484, 0.07251815, 0.112445295, -0.20619015, -0.39790714, 0.19173026, 0.13789256, -0.012139448, -0.23902534, -0.3018736, -0.8240927, -0.32844368, -0.8605499, -0.04538868, -0.41351476, -0.28857568, 0.565159, 0.0031241972, -0.46403083, 1.2650826, -0.12790616, -0.23262282, 0.5445979, 0.21211517, 0.5024001, 0.28658924, -0.6837676, 0.42389426, -0.7094548, -0.6052055, 0.16597709, -0.5087611, -1.0008396, -0.05020605, 0.16620202, 0.6876843, 0.07779891, 0.04549496, 0.07445901, 0.15724196, 0.6136063, 0.35517192, -0.55675846, 0.1769911, -0.8011841, -0.49754772, -0.3820865, -0.16008516, 0.15535176, -0.4103314, -0.26877165, -0.350211, 0.1456184, -0.33793464, 0.58289677, 0.7765514, -0.25071192, -0.41741887, -0.35120168, 0.1014758, -0.22547787, -0.4700111, -0.1950474, 0.38779017, 0.48223546, 0.5756871, -0.07196145, -0.5596711, 0.12818517, 0.18498464, -0.095848866, 0.14953361, 0.62035483, -0.028500294, -0.06218211, 0.33191273, -0.46163818, 0.51786727, 0.6790648, 0.19610839, 0.114268154, 0.4810003, -0.78806776, -0.6128919, 0.020362983, 0.22083871, -0.5801385, 0.41715583, -0.16192137, -0.08339948, 0.36261535, -0.0862295, 0.108296536, 0.5436747, 0.62833387, -0.51826364, -0.56312263, 0.23555487, -0.39417017, -0.19034517, 0.16636732, -0.8674998, 0.3283799, -0.013453007, -0.28828326, 0.15678047, -0.010239783, 0.5242142, 0.8540279, -0.1933947, 0.5312746, -0.33932003, 0.55192596, -0.13934995, -0.51106006, 0.35890684, 0.30037364, 0.4044576, 0.052040756, 0.4246924, 0.019896632, -0.16521078, 0.12339544, -0.13018991, 0.16853245, 0.08244996, 0.092896044, 0.23143826, -0.37426233, 0.34702036, 0.14689371, -0.404007, -0.090113185, 0.76449555, 0.04748462, -0.12413547, -0.35383186, 0.8508827, -0.1355414, -0.18012805, -0.18677811, -0.2233562, 0.09909046, -0.036828943, 0.22705215, -0.4867585, 0.1367222, 0.33066645, -0.26120642, 0.06628896, 0.23537059, 0.06961564, 0.41760555, 0.16401058, -0.17928459, -0.7193456, 0.16152738, 0.06602799, 0.38505805, -0.89823717, -0.41728154, -0.015183892, 0.7240676, -0.70934105, -0.15546928, 0.46168137, -0.25258568, 0.06922243, -0.13141452, -0.45843408, -0.26825595, -0.6125126, 0.6622926, -0.38018367, 0.17248261, 0.56530076, 0.2668868, -0.010844417, -0.50673676, -0.54408765, -0.018880703, -0.10282602, -1.160047, 0.45290828, 0.044416327, 0.24263215, 0.04884092, -0.28049693, 0.47464776, -0.3074386, -0.1537201, -0.365065, 0.14640726, -0.1786824, 0.13525392, 0.5282704, -0.75668734, -0.6651928, -0.4189476, -0.89722043, 0.14851625, 0.44805458, 0.5526452, 0.30252984, -0.07405252, 0.6982843, 0.071575545, -0.05292623, -0.11854294, 0.4813678, 0.20699717, -0.4734265, 0.40533647, -0.18856479, -0.4299718, 0.792528, -0.1550468, 0.118358664, -0.97549945, -0.46207845, -0.50005037, -0.3135716, 0.074509025, -0.26671824, 0.2440749, 0.3849081, 0.44071117, -0.73198694, 0.15567423, -0.01595286, 0.6158993, 0.028815528, -0.16411881, -0.3895378, 0.008665766, -0.33040813, -0.066773675, -0.014083219, -0.4466325, -0.33729598, -0.111353874, 0.1340925, -0.47203216, -0.53729135, 0.5332596, -0.33925867, 0.27475572, 0.6069911, 0.62770873, 0.5461331, 0.5569256, -0.23268719, 0.123573095, 0.47635528, 0.8702824, -0.14773633, -0.3550124, 0.33872107, 0.10306556, -0.7135336, 0.19729376, 0.47852024, -0.72032857, -0.12926202, 0.80886894, 0.4417793, -0.10864737, 0.14072885, -0.1930868, -0.20983337, -0.18785775, -0.028761214, -0.057746317, -0.18769304, -0.39706954, -0.25751725, -0.17241901, -0.9590799, 0.13696696, -0.10456318, -0.02311284, 0.15945368, -0.67718464, -0.40627873, -0.13100185, -0.5281035, -0.26596686, 0.60582834, 0.0029176846, -0.014855231, 0.79720306, 0.22665326, 0.62249166, -0.101104915, -0.23766752, -0.7427039, 0.13766098, 0.2748571, 0.06983721, 0.014696233, -0.25118986, -0.28729016, -0.15066415, -0.4625759, -0.5433292, -0.08156252, -0.08449527, -0.06446626, -0.00016029582, -0.33647004, 0.020501321, -0.1633619, -0.90016276, 0.48252228, 0.2793719, 0.06191434, -0.13187045, -0.2369492, -0.27131668, -0.6274026, 0.44359088, 0.48945174, 0.17516005, 0.7099018, -0.06314361, -0.25091442, 0.8242008, 0.09816133, -0.2525424, -0.026036156, -0.36125943, -0.42053548, 0.1187663, 0.6825487, 0.15077735, -0.24118769, -0.64114827, -0.47718087, 0.3748825, 0.34538266, -0.4662373, -0.6142521, -0.062591344, 0.54406214, 0.43631896, 0.47144893, -0.30154634, 0.27767155, 0.18515062, 0.44524297, -0.3962399, 0.20636617, -0.106136836, 0.14285952, 0.10323664, -0.10688002, 0.6106429, -0.1724496, 0.4436506, -0.44268927, -0.78766584, -0.45647407, 0.07666623, -1.084972, -0.25199813, -0.3922309, -0.5005356, 0.26219115, 0.27113494, 0.08364869, -0.12512183, 0.46581912, -0.10937723, 0.24729842, -0.17376232, 0.052389663, -0.95514387, -0.696495, -0.8046395, 0.52388304, -0.097517796, -0.14476463, 0.16810687, 0.07276427, -0.49666318, 0.34065747, 0.43834698, 0.30417982, 1.1098682, 0.2443967, 0.09310535, 0.12159931, 0.08589259, -0.5613125, 0.016037708, -0.40443775, 0.09733617, 0.24098481, -0.9887795, -0.15142746, 0.3135578, -0.17902978, 0.7173323, -0.05125762, -0.69878656, -0.18196154]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Mixolab이란?</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>곡류분말 특히, 밀가루 반죽의 혼합 특성(수분흡수율, 최적반죽시간, 반죽안정도 등) 및 호화/노화 특성을 측정하는 대표적인 장치입니다.</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>[0.09197048, -0.23094553, 0.47382244, -0.39098224, -0.23001467, 0.3963269, 0.82432586, 0.025202688, -0.5824043, -0.27121416, 0.061321575, 0.009593453, -0.24212377, 0.06518989, -0.047926586, -0.14516841, 0.4123936, 0.027586307, 0.70023036, -0.40821213, -0.37768558, 0.5797362, -0.26205212, 0.24684408, -0.45660082, -0.13711628, 0.24880444, -0.035499472, 0.5956535, 0.013014777, 0.37225676, -0.13602065, -0.1591525, -0.17320445, 0.6041215, -0.09271595, -0.6579592, 0.30116948, 0.17598724, -0.2035237, -0.11813712, 0.10550373, -0.019483386, 0.5136817, 0.008446902, -0.62194353, -0.18072686, -0.13578898, 0.3895848, -0.4001719, -0.5063692, 0.63631386, 0.51615757, -0.12969935, -0.26113918, -0.6573572, -0.021482632, -0.6361338, 0.37724113, -0.4130157, 0.81852126, -0.4129744, -0.023135057, 0.23701245, -0.31764293, -0.38915628, -0.15666033, 0.0044437894, -0.42949596, 0.109752715, 0.7618683, 0.46020365, -0.21323591, -0.5554641, -0.16945738, -0.017759306, 0.30591938, -0.43840027, 0.64981705, 0.4503648, 0.20792049, -1.0026364, -0.3156607, -0.1997115, -0.52627426, 0.07033018, -0.6028991, -0.054518744, -0.84915876, 0.2947566, -0.5779547, -0.40083802, -0.56984246, 0.1577202, -0.23845369, 0.110293925, 0.7419283, 0.016094245, 1.005305, 0.44856632, -0.1338967, 0.16962612, 0.32493064, 0.23843466, 1.003594, -0.37362823, -0.3960096, 0.11878392, -0.06557086, -0.4772676, 0.51540345, -0.5147999, 0.6878116, -0.28283787, 0.17413126, -0.39179823, -0.27208883, 0.66790897, -0.06514557, 0.32133856, -0.2400358, -0.55238885, 0.070336096, 0.34667566, -0.30575296, -0.29671872, 0.57146245, -0.14959955, 0.11591375, -0.28965697, -0.27010095, 0.099354185, 0.4040867, 0.06962157, 0.117529735, 0.054798823, -0.14612614, -0.27061927, 0.18735872, -0.097526856, 0.2858435, 0.11045536, 0.2964092, 0.30356354, 0.49605995, 0.04235912, 0.025049658, -0.28206956, -0.79722744, -0.6670449, -0.08995441, 0.25368392, -0.55430764, -0.22325222, 0.13769306, -0.29908964, 0.08871826, -0.3078883, -0.017054938, 0.11691982, -0.35954893, -0.30082545, 0.17165126, 0.33771878, -0.24006806, 0.51616836, 0.45310366, 0.38216758, 0.3511261, -0.63360775, -0.56210524, -0.23117188, -0.51324487, -0.28724834, 0.12905158, 0.5435976, -0.55936164, 0.35019243, -0.37458122, -1.1928895, -0.11240193, 0.14051527, -0.014250179, 0.08418462, 0.04651016, 0.46733296, -0.39342025, -0.39421093, -0.62600577, -0.3748971, -0.06606287, -0.27743143, 0.262016, -0.29255563, 0.1068592, 0.7739482, -0.17004806, -0.15030025, -0.48610777, -0.29539633, -0.6876452, 0.47455755, 0.0029151987, 0.54306316, 0.5070928, 0.287977, 0.12919378, -0.27178353, 0.43401316, -0.42644346, -0.5485666, 0.64320314, -0.06960961, -0.021482922, 0.058991425, -0.12326971, 0.27764153, 0.106007785, -0.50047666, -0.52666783, 0.4165724, -0.1510661, 0.683345, -0.49543396, -0.2552949, -0.517407, 0.09545639, 0.031705614, -0.18075004, 0.22075264, -0.34716618, -0.22359626, -0.612783, 0.08978228, 1.2448497, 0.010689859, 0.2147525, -0.25905806, -0.47424805, -0.38474536, 0.4701057, 0.19835573, 0.14379252, 0.08783877, 0.09599213, -0.20807186, -0.04952148, -0.95673454, 0.30485904, -0.76448506, 0.060727015, 1.1382217, -0.67186683, 0.16924539, 0.5180271, -1.0300555, -0.50153595, 0.6073742, -0.05998528, 0.2504437, 0.22837478, 0.78758657, -0.09894168, -0.21842344, -0.5390125, -0.2784672, 0.3216705, -1.0589564, 0.70452553, -0.32869023, -0.4564525, 0.06039393, 0.92001694, -0.13018495, -0.032627553, 0.2619225, -0.21452089, -0.16730191, 0.20795913, -0.10187162, -0.042660717, -0.7797602, 0.41985738, 0.13515846, 0.45409775, -0.28100002, -0.11321357, 0.12743686, -0.10522607, -0.22312516, 0.5692673, 0.45142958, -0.7030239, -1.6951193, -0.59792185, 0.16045263, -0.27134186, -0.44152442, -0.016954448, 1.0061641, -0.37768602, 0.22258721, -0.42436844, 0.18747431, -0.06986275, 0.9498078, -0.43634275, -0.24796017, 0.35233992, 0.47071302, -0.09011776, -0.75866914, -0.43352568, -0.15400092, 0.0096750595, -0.27297607, -0.0502074, -0.24075301, -0.7934875, 0.42813632, 0.49541298, -0.54729575, 0.9762318, 0.27104858, 0.3507655, -0.26824567, -0.08875137, 0.11632482, -0.32505742, -0.39416283, -0.13692525, -0.94227856, 0.4932561, 0.53188527, -0.32647786, 0.063366346, 0.12532021, -0.72007376, 0.08206043, 0.034513373, -0.42467168, 0.18776798, -1.6053152, 0.1564312, -0.3217257, 1.191725, -0.03681579, -0.50373715, 0.34577858, -0.7323604, 0.29886886, -0.21030311, -0.6460999, -0.46350992, -0.29202446, 0.70074683, 1.0416183, 0.40094283, 0.7216014, -0.5560352, 0.2776091, -0.10232182, 0.2711308, 0.42320836, -0.3112768, 0.42003727, -0.16668165, 0.09427944, 0.21677047, 0.22235145, -0.5868814, -0.13931711, 0.31076628, -0.41399997, -0.27144194, -0.29759586, -0.27977788, 0.45874533, 0.25367725, -0.17136958, 0.56062627, 0.58538836, -0.15435253, -0.9434019, 0.1250356, -1.1139215, 0.021204237, 0.9017793, 0.22679819, -0.011433495, -0.13835075, 0.29064232, -0.016880699, -0.1619772, -0.675668, -0.26591527, -0.25903615, -0.3677227, 0.31703085, -0.4866483, 0.20578359, 0.026465416, 0.512619, 0.68898225, -0.019020433, -0.2628736, 0.38298193, -0.4548519, 0.10629238, 0.21513884, -0.48158714, -0.615342, 0.029725283, -0.63353443, 0.25589246, 0.32438838, -0.5079439, 1.0299441, -0.45378193, 0.08130065, -0.68365693, -0.1574332, 0.5706341, -0.3502395, 0.35187668, 0.3991843, 0.059828177, 0.17226082, 0.12276414, 0.24132183, 0.13982691, 0.15162963, 0.7255467, 0.49001864, 0.1449773, -0.8125023, -0.38151717, -0.31809124, -0.41038886, 0.18247832, 0.16682264, 0.048248157, 0.5046303, -0.09547904, 0.21057214, -0.4551764, 0.7632297, -0.49995625, -0.8352019, -0.49011728, -0.31761456, -0.24453793, 0.50935215, 0.3333877, -0.12289551, -0.25837326, 0.15180856, -0.26470345, -0.26810116, 0.43463495, 0.23542029, -0.4018029, -0.271795, -0.20972104, 0.541654, 0.36579764, -0.28241855, 0.009796386, -0.1930761, 0.20024133, -0.7534729, -0.30178255, 0.098681666, -0.118147016, 0.15427412, 0.02615789, 0.15742175, -0.23013006, -0.1026775, -0.037617736, -0.09225208, -0.7873172, -0.11433922, -0.5284672, 0.25822657, 0.8030371, 0.07413597, 0.3883373, 0.29264754, 0.20211254, -0.38155782, 0.1162076, -0.00355401, -0.34082597, 0.6151043, 0.6205843, -0.3577106, 0.39097962, 0.30798444, -0.06806427, -0.0141779315, -0.06515395, -0.16368836, -0.42287123, -0.31647983, 0.19147113, 0.22921576, -0.13531008, -0.012100812, 0.31867096, -0.08556132, -0.036628388, -0.0337744, 0.20649484, -0.116947226, 0.6042872, -0.19716215, -0.21460465, -0.3719104, 0.20231196, -0.8967953, -0.6553788, -0.69073033, 0.3072362, -0.24827236, -0.5309186, -0.004746316, 0.10938163, 0.20942521, 0.18590817, -0.086831845, 0.06390871, -0.1374215, 0.3004338, 0.76283926, -0.12042476, -0.36450824, 0.6818818, 0.42388096, 0.3880515, -0.20307495, -0.31897557, 0.39360622, -0.23637258, -0.50005746, -0.051567458, 0.26706564, 0.5462356, -0.3523897, -0.6221506, -0.11566087, -0.24893202, -0.5460289, -0.4399711, -0.14571333, 0.003609025, -0.15211852, 0.27630353, -0.61651635, -0.116581336, -0.38138726, 0.41763103, -0.33735323, -0.8330219, -0.52655685, 0.6210434, -0.17983137, 0.60444075, 0.2598344, 0.22846463, 0.5914836, 0.21141395, -0.13270067, -0.23356417, -0.48168352, -0.6810866, -0.66578376, -0.37562996, 0.04014389, -0.7043419, -0.30106547, 0.312783, 0.16214299, -0.32019317, 0.097809665, -0.03685062, -0.58482915, -0.010992964, -0.21122476, 0.12657017, -0.67529815, -0.7717357, 0.32217082, -0.16501942, -0.46098715, -0.5162414, -0.2505014, 0.02256156, 0.2270725, 0.34850162, -0.5460287, 0.35623923, -0.37192938, -0.0006430265, -0.40418324, -0.56453586, 0.8273314, -0.498415, -0.5264456, 0.36863774, -0.45791996, -0.07756607, 0.420572, 0.14703314, 0.094988324, 0.5472182, -0.84636766, -0.061030284, -0.23267335, -0.07898502, 0.47633135, -0.09930783, -0.017736005, 0.3760641, -0.08617552, 0.08124773, 0.15375683, 0.19165304, 0.49824074, 0.21741697, 0.29696587, -0.6527474, 0.057298765, -0.20146345, -0.08709976, 0.18037999, 0.16837914, -0.22108181, -0.12583192, -0.68799293, -0.318282, 0.32764474, 0.41457888, 0.25277483, 0.14443165, -0.93685955, -0.19194981, -0.005837232, -0.7642676, 0.22507364, -0.55161446, -0.081354246, 0.5679997, -0.5621522, 0.23986074, 0.026169173, -0.4408217, 0.13597535, -0.16170585, -0.6087549, 0.5912896, 0.3881511, 0.17837344, -0.653197, 0.4048641, 0.26567838, 0.0060388213, 0.1457886, 0.3118436, 0.48482895, 0.4400325, -0.57281107, 0.46678433, 0.049687687, -0.9372907, -0.17761725, 0.056667406, -0.3551871, -0.02357413, -0.0121110575, 0.60302925, -0.055287763, 0.2982252, -0.31601834, -0.24389818, 1.3357344, 0.12636048, 0.4090598, -0.09648244, 0.81658685, -0.16564101, -0.6173541, 1.1422987, -0.8052431, 0.6046619, 0.8235151, -0.21216565, 0.15701857, 0.21035917, -0.46877193, 0.603349, 0.7262747, -0.4256976, -0.09698197, -0.3806426, -0.8880606, -0.43036848, -0.22533578, -0.108415775, -0.3659963, 0.19753034, 0.57385916, -0.6767271, -0.1565814, -0.0787728, 0.13158621, -0.29237634, -0.11548044, 0.51801383, -0.17838664, -0.14226222, -0.11282706, -0.4945248, -0.18866156, 0.09372029, 0.34584966, -0.028711239, -0.5058353, 0.000473145, -0.08070378, 0.14235625, 0.02613209, -0.31307998, 0.4745608, 0.2863843, -0.17676407, -0.3374659, 0.19233185, -0.11778434, -0.5298774, 0.47924677, 0.39632162, 0.37160328, -0.30581504, 0.15910953, 0.31433743, 0.10855239, 0.35845095, 0.72549576, -0.51680523, 0.16450362, 0.3610949, 0.08318749, 0.3119636, -0.6432138, 0.19911145, -0.9199813, -0.59132814, 0.08007626, 0.047628667, -0.20104869, -0.4514434, -0.24444863, -0.34106138, 0.32599974, -0.028050253, -0.16144963, -0.08309763]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>패리노그래프란?</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>밀가루 반죽의 혼합 특성(수분흡수율, 최적반죽시간 등)을 측정하는 대표적인 장치입니다.</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>[-0.3109933, -0.30932444, 0.2148587, -0.30552292, -0.11398398, -0.5150136, 0.019954123, -0.002353516, 0.15636557, -0.5324508, -0.16246031, -0.17334606, -0.3881428, -0.42727104, -0.35451472, -0.016306408, 0.26761904, 0.30312502, 0.37739837, -0.46963495, -0.5842969, 0.45439196, 0.29081303, 0.38361025, 0.1064166, 0.22863972, 0.07573125, 0.052773, 0.7888527, -0.7271247, -0.5121078, 0.8191878, 0.21448646, -0.4852609, 0.81396604, 0.18493037, -0.37817448, -0.0078646075, -0.08918762, -0.6657919, -0.62792265, -0.81811404, -0.37918666, 0.5789486, -0.039311226, -0.63762516, 0.19042775, -0.6608129, 0.16452032, -0.3048383, -0.30352157, -0.3343744, 0.35617855, 0.62166893, -0.3541308, -0.6723115, -0.26030344, -1.0034921, 0.37474, -0.78709507, 0.824126, -0.7080735, -0.19113526, 0.46910578, 0.25051352, -0.23892553, 0.2283831, 0.21460856, -0.7250778, 0.7476913, 0.20006502, 0.64874554, 0.3078361, -0.40597817, 0.512668, 0.20609061, -0.07349245, -0.47761112, 0.28587133, 0.36571902, -0.28889602, -0.33138555, 0.53481275, -0.9590664, -0.131223, 0.021523826, -0.6277267, 0.19391109, -0.26336065, -0.31589946, -1.4259756, -0.42956626, -0.5151726, -0.094800405, -1.1706245, 0.05466139, 0.82425624, 0.15772195, 0.577636, 0.12188031, 0.5619209, 0.2154464, -0.37062347, 0.62931585, -0.06387853, 0.54578644, -0.46054143, 0.55017227, 0.15797007, 0.29249528, 0.085285574, -0.5207448, 0.7377392, -0.27256733, 0.6141073, -0.14905602, -0.74380267, -0.3886311, 0.011497794, -0.24728829, 0.803713, -0.26561743, -0.95862746, 0.45265678, -0.35041568, 0.015011761, 0.3311342, -0.7473385, 0.04905014, 0.07512881, 0.14557607, 0.21510203, 0.19980937, -0.083603576, -0.47452843, -0.15848821, 0.39184868, -0.390976, 0.26587844, 0.35987943, 0.16591571, 0.291699, -0.5868139, -0.29878926, -0.2062788, -0.00078096986, 0.4513016, -0.5501469, -0.015048053, -0.54745257, -0.1202823, 0.14060368, -0.4094544, 0.26215526, 0.2267566, -0.7236601, -0.19880459, -0.49756393, 0.43227416, 0.2185695, 0.3058991, 0.37879816, -0.23314784, -0.2765317, 0.06494954, 0.61838555, 0.93984663, -0.39719567, -0.2325724, -0.20269361, -0.09731234, -0.12649232, -0.37237865, 0.18899728, 0.19617528, 0.39067724, -0.2355927, -0.4106008, -0.34629127, 0.29008815, -0.2587245, 0.30719286, -0.077477485, 0.38381076, -0.5233035, 0.35231602, 0.42291468, -0.42694905, -0.94221324, -0.7743449, 0.3646043, -0.010444302, 0.5428443, 0.013030713, 0.13983306, 0.6044979, -0.38862243, -0.15415803, -0.16207781, 0.28415078, -0.38856038, 0.6965706, 0.3645679, 0.37372625, 0.19370666, -0.29388806, 0.009460848, -0.004477944, 0.17533144, -0.42377436, 0.35042083, 0.60886115, -0.46570283, 0.12350613, -0.35216624, 0.29285675, -0.1771116, -0.35282686, 0.42465806, -0.13661277, 0.50318605, 0.08338744, 0.65815395, -0.4236405, -0.32835227, -0.5022747, 0.80637074, -0.011896219, 0.19626285, -0.081211, -0.49658713, -0.54414076, -0.6672426, -0.508094, 0.8104689, 0.083915114, 0.4671538, 0.39938048, -0.051219366, -0.7488856, -0.08344959, 0.3674881, 0.11278723, -0.30068892, -0.10756138, 0.12576044, 0.06556263, -0.70116156, 0.070911705, -0.62234926, 0.7860997, 0.6954735, -0.030654306, -0.162833, 0.1476201, -0.9303913, -0.42034918, 0.9070897, -0.4660023, -0.06627835, -0.37881094, 0.2894145, 0.33737177, 0.5783163, 0.11603892, -0.40419573, 0.16423817, -0.49069893, 0.49267924, -0.081335, 0.38635674, -0.23846671, 0.18822056, -0.1809071, 0.5118078, -0.2434789, -0.34935567, 0.56761545, 0.42651471, -0.16581586, 0.020627964, 0.24288923, 0.5381948, 0.34880272, 0.09741317, 0.052035972, -0.12597376, -0.27857038, -0.3121232, -0.94808084, -0.03552577, 0.4192583, 0.40270928, -1.8191774, 0.09027132, 0.08030829, -0.34138653, -0.35873184, -0.072788924, -0.12934397, 0.032722745, -0.10369544, -0.40104702, -0.11456516, -0.4480169, 0.79691285, -0.5265353, -0.07835371, -0.14450572, 0.6954568, -0.051552635, 0.2601453, -0.39044592, -0.03584607, 0.25293377, -0.14129722, -0.23072194, -0.9088792, -0.102696665, 0.1757782, 0.043756127, 0.09114309, 0.051659685, -0.42572942, 0.15444154, -0.42725277, -0.6005268, 0.6329072, -0.82882327, 0.099673964, -0.20477346, -0.99809855, 0.33082595, -0.1317486, -0.3461242, -0.3099926, 0.40938085, -0.070198, 0.029737432, 0.14974397, 0.9002435, 0.036771894, -0.4185549, 0.7611531, -0.1851744, 1.1310551, 0.3073591, 0.076085836, 0.28046927, -0.90743107, -0.10620281, -0.004982557, -0.42140663, 0.048568994, -0.033667073, 0.4283887, 0.4219041, 0.48232725, -0.2207017, -0.12730063, 1.1004041, -0.69391716, 0.5100301, 0.053652186, -0.15735741, 0.23756883, -0.8804256, 0.1627381, -0.11440558, 0.109999366, -0.052260686, -0.2180905, -0.013331387, -0.28733185, -0.20798162, 0.012823673, -0.47324908, -0.12346135, -0.17548063, 0.21486801, 0.62964696, 0.7248861, 0.14381638, -0.6871766, -0.3892324, -0.017927863, -0.4910033, 0.12550472, -0.26922527, 0.2865541, -0.11105527, -0.11768202, -0.1746744, -0.38584155, -0.7610503, -0.26801676, -0.5709799, 0.025886659, -0.4679456, -0.54973316, 0.13084655, 0.3951907, 0.2352453, 0.54840326, 0.046799384, -0.20961341, 0.14005393, -0.70619535, 0.33650002, 0.23616776, -0.10959496, -0.14291845, -0.5606375, -0.42115626, -0.22676186, 0.16689551, -0.25611964, 0.25721136, -0.20687285, 0.021453798, 0.1153574, -0.08628946, 0.78482527, 0.38565838, 0.26860628, 0.14151397, -0.38565928, 0.21864092, 0.10805848, 0.40895075, 0.32537943, -0.25728172, 0.5452663, 0.2486605, -0.14388615, -1.0824559, -0.34842864, 0.3619309, -0.5030723, 0.2652913, 0.8166648, 0.13331684, -0.048836958, -0.020589251, -0.37228015, -0.12876175, 0.09972986, -0.10454301, -0.9827118, 0.027609859, -0.5107418, -0.6646675, 0.15916567, -0.10724602, -0.19747539, -0.20239118, 0.4731875, -0.20334476, 0.119684726, 0.06674256, -0.31363553, -0.2667464, 0.0841568, -0.3780285, 0.029996842, 0.061152093, -0.35263264, 0.69184786, -0.104168154, -0.10535796, -0.40294233, -0.18823004, 0.2644203, 0.12661883, 0.037686177, 0.17542355, 0.13818389, 0.40752652, 0.36456132, 0.08068592, -0.17604321, -0.33755845, 0.39978275, 0.23346302, 0.51343685, 0.31135046, -0.16125524, 0.24776898, 0.18619786, -0.394706, -0.28433734, -0.077112556, -0.22661889, -0.09373575, 0.29051873, -0.17368269, 0.054241724, 0.16905828, -0.17458218, 0.25042054, 0.3437412, -0.39559808, 0.13349248, -0.40727028, -0.21443753, -0.42087558, 0.21857764, 0.16874069, -0.2273006, 0.6367509, -0.39837968, -0.08288536, 0.26260617, 0.34248015, 0.22749874, 0.5183752, -0.29306212, 0.18018235, -0.14333655, 0.38838884, -0.5235625, -0.36129305, 0.5209362, 0.17443717, 0.23331812, 0.10095563, 0.14028975, -0.34087676, -0.348469, 0.13181551, 0.5535029, -0.36403063, -0.17819583, 0.55284196, 0.39761814, -0.15059203, -0.0790005, 0.55941385, 0.21277635, 0.5149828, 0.3988133, 0.5274707, -0.11574699, 0.33155248, -0.035877958, 0.3637591, 0.6460459, 0.6707496, -0.24426652, -0.408422, -0.788992, -1.0163755, -0.9008273, -0.52984667, -0.4919591, -0.35254812, -0.4872617, -0.74320155, -0.5047481, 0.21516661, -0.7095451, 0.37845516, -0.00035036076, -0.22387165, -0.3536187, -0.5281333, 0.19385278, 0.6170736, 0.010407647, 0.18407592, 0.6714856, 0.09531437, 0.0448497, 0.070563376, -0.7499022, -1.075892, -0.60037786, -0.25708476, 0.33282676, -0.11395932, 0.46133915, 0.65725946, 0.3713274, -0.6206178, 0.37986562, -0.0951498, 0.034364995, -0.08816934, -0.15244102, -0.25573686, 0.2615793, -0.27671677, 0.29304606, 0.18181944, -0.89579886, -0.61660576, 0.025380503, -0.19267084, 0.11165415, -0.3241293, 0.03585894, 1.0650069, 0.0069956854, -0.29714713, -0.6298878, -0.6261898, 0.9808842, -0.37368783, -0.46306807, -0.08236809, -0.06544152, -0.19932145, -0.08865848, -0.10535006, 0.32510215, -0.031218952, -0.58600855, -0.44282246, -0.2522933, 0.44074214, 0.1839079, -0.040259026, -0.22313483, 0.40221614, -0.24369164, -0.265244, 0.18296078, -0.83535206, 0.26980504, 0.6468689, 0.33647543, -0.5541956, 0.36708692, -0.3267179, -0.4578854, -0.24484876, 0.3289365, 0.32525906, -0.2914463, -1.2279286, -0.14241055, -0.027402073, -0.2506631, 0.12843359, -0.63279915, -0.22421607, -0.13195443, -0.25142875, -0.41332376, -0.20885718, -0.33841825, -0.2916342, -0.60209405, -0.22911076, 0.2039451, -0.008652564, -0.483957, 0.43288076, 0.03646086, -0.14340898, -0.6256828, -0.1857768, 0.2648074, -0.8107055, -0.027319442, -0.7923351, -0.57575387, 0.15386151, 0.036190692, 0.75539815, 0.21141313, -0.40530378, 0.38266343, -0.11616521, -0.31489167, -0.21863773, 0.6617096, -0.49645144, -0.07170386, 0.15040219, 0.05266539, -0.47556162, 0.024385702, 0.29758197, -0.66405904, 1.3424491, 0.1499804, 0.150858, 0.07147004, 0.05755657, 0.108410954, 0.09114299, 0.7241875, -0.13232791, 0.34139758, 1.2334417, 0.18602434, 0.01227944, -0.5491611, -0.45127323, 0.655026, -0.40101373, -0.20101467, -0.39258096, 0.35379973, -0.14453666, -0.3291523, -0.64996463, -0.2983587, -0.3158749, -0.208029, 0.39508906, -0.3002529, 0.09441069, 0.22877254, -0.4945099, 0.45110255, 0.15265068, -0.18037117, -0.73872566, 0.06951694, -0.076187454, 0.31526822, -0.16781622, 0.0062138923, -0.21261692, 0.2375808, -0.054319978, -0.56238496, -0.14605877, -0.79542017, 0.40704715, 0.79088986, 0.33717933, 0.156696, 0.22494248, -0.30682564, 0.30272555, -0.39374793, -0.27456966, -0.064530924, -0.060744967, -0.04272443, 0.20979482, -0.019402402, 0.34172067, 0.25313297, 0.39022303, 0.46157095, 0.24820516, 0.462568, 0.56963664, 0.23082674, -0.07426518, -0.1810396, -0.0106041785, -0.5798007, -0.08407153, 0.6496423, -0.06151972, -0.13701822, 0.03446328, -0.33573833, 0.25982076, 0.12034026, 0.50144565, -0.22404803, 0.58987826]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Farinograph란?</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>밀가루 반죽의 혼합 특성(수분흡수율, 최적반죽시간 등)을 측정하는 대표적인 장치입니다.</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>[-0.22607379, 0.22139001, 0.093019925, 0.28564435, 0.049295846, 0.06261464, 0.05337286, 0.66035044, -0.25063196, -0.1333969, 0.07125283, -0.4767006, -0.5346034, -0.57376444, -0.77625936, 0.24597216, 0.38236, -0.013628426, 0.24386024, -0.6867434, -1.4515901, 0.6087451, 0.13712384, -0.12858163, -0.37085828, -0.26207477, -0.21939424, -0.5682757, 0.8251357, 0.028982174, -0.5202325, 0.87900543, 0.28367102, 0.38980424, 0.70054066, 0.010066181, -0.39999196, -0.010759102, 0.29014948, -0.0582122, -0.23139223, -0.46203464, -0.44991857, 0.3095383, -0.60670435, -0.25643414, 0.2102352, -0.72433645, -0.2654423, 0.09528277, -0.13496505, -0.45110482, 0.5962836, 0.60837317, -0.20632413, -0.79614323, -0.0975348, -1.063564, -0.052540056, -0.3078989, 0.37755677, -0.7299489, -0.24757978, -0.03442452, 0.27135912, -0.08450308, 0.24295303, -0.27401835, -0.7199786, 0.18439285, 0.29078394, 0.14672647, 0.1639622, 0.04082827, 0.047565978, -0.01047599, 0.17079344, -0.6328882, 0.3821152, 0.29284227, -0.5620046, -0.39532614, 0.036933232, -0.3328954, -0.26137656, 0.21562946, -0.4251809, 0.10909343, -0.6162857, -0.05754159, -0.7232575, -0.29118273, -0.3976573, -0.03020651, -0.6321739, 0.40380794, 0.2815265, -0.2233829, 0.6911563, 0.22926208, 0.431739, 0.3591994, 0.16015494, 0.853232, -0.59713054, 0.21516916, -0.31628498, 0.086508065, 0.13735496, -0.11078818, 0.06894267, -0.74144715, 0.3805771, -0.059888113, 0.95856535, -0.20165734, -0.58780515, -0.41696233, -0.1616222, 0.34541416, 0.14401415, -0.10389958, -0.9211141, 0.14904922, -0.2714815, 0.28612304, 0.4213384, -0.8270794, -0.79827034, 0.41166735, 0.16932854, 0.31338438, 0.802879, -0.08975736, -0.16913816, -0.22358856, -0.060727518, -0.5794004, -0.13886836, 0.1462425, -0.12170466, 0.5286317, -0.58593297, -0.41106445, -0.3330795, -0.16095075, 0.54481876, -0.48232946, -0.15975909, -0.5090899, -0.3667698, -0.32356426, -0.46042758, 0.48397607, -0.28981954, -0.6501486, -0.13573806, 0.08029931, 0.18503498, 0.16765082, 0.15070917, 0.02581886, 0.2151266, 0.09803899, -0.21400972, 0.37325245, 1.097184, 0.255603, -0.10305555, 0.108749054, -0.47884408, -0.3824528, -0.0060662953, -0.049752377, -0.11353028, 0.46120185, -0.108022, -0.538106, -0.4574491, 0.31430215, -0.14923552, 0.86295414, -0.40149355, 0.13314947, 0.21151403, 0.25931758, 0.23643596, 0.6019758, -1.147757, -0.7852908, -0.39498532, 0.49129763, -0.06294446, 0.4701547, 0.27425513, 0.3521029, 0.27580363, 0.1905675, -0.1167763, -0.015565127, -0.35453343, 0.16963127, 0.25462446, 0.7261706, 0.354091, 0.39795256, -0.63935006, 0.21405396, 0.2749448, -0.9679807, -0.1982255, 0.7042498, -0.6427878, -0.43018693, -0.41310668, 0.5090351, -0.12117473, 0.14555183, 0.10475979, -0.25937685, 0.6530008, -0.21925834, 0.7027959, 0.19738579, -0.52090234, -0.62513363, 0.4639577, 0.20412736, 0.48959884, -0.43498915, -0.29623374, -0.66067827, -0.79372174, -0.50959957, 1.0052049, 0.10998694, 0.30382532, 0.5501231, 0.27596188, -0.45354408, 0.034950174, 0.66931814, -0.052331388, -0.031902872, -0.023152243, 0.39815676, -0.05718351, -0.7149882, 0.54538697, -0.4010519, 0.6666114, 0.42689055, -0.25035754, 0.19707307, 0.2965111, -0.81184566, -0.51546633, 0.6802713, -0.48354244, -0.2870848, -0.1292353, 0.39818448, 0.53725225, 0.24535005, -0.4795981, -0.21943414, 0.200255, -0.4130439, 0.60356796, 0.116773345, 0.1058769, -0.021563765, 0.01251631, -0.012976895, 0.766441, -0.3036515, -0.32329184, -0.016471963, 0.35388213, 0.050071158, 0.18475018, 0.15010847, 0.13260984, 0.31607825, -0.11090896, 0.27402097, 0.19615439, -0.08941273, -0.3650748, -0.98481864, 0.48250923, 0.101380266, -0.09583587, -1.5030614, 0.15759891, 0.2799892, -0.33968654, -0.37861836, -0.27393538, -0.20088784, -0.13712773, -0.23517518, 0.2650506, -0.20607185, -0.13269952, 0.54508376, -0.21571064, -0.32775235, 0.33842963, 0.778142, 0.19101489, 0.047854863, -0.6402298, 0.19681759, 0.0063336296, -0.024129871, -0.42938155, -0.3252572, -0.7492102, 0.25691023, -0.030333335, 0.18697949, 0.3885869, 0.27500647, 0.2121425, -0.7814314, -0.7781835, 0.026529724, -0.630525, 0.0042070737, -0.4389513, -1.0402669, 0.07786415, 0.17181715, -0.3392082, -0.42663184, 0.10361481, -0.23333824, 0.08093657, 0.11297901, -0.40834227, -0.3425868, -0.29463294, 0.07082563, -0.09061439, 0.72107565, 0.31234187, -0.09083216, -0.1507184, -0.29223567, -0.022354206, -0.37722144, -0.331248, 0.027059281, 0.21223006, 0.501545, 0.6748307, 0.8060471, 0.09885222, -0.36786813, 0.79166853, 0.1011338, 0.3237329, 0.11864618, 0.24341571, -0.17851703, -0.34358916, 0.06498481, -0.32592934, 0.36315823, 0.09961839, -0.06355889, -0.012091806, -0.42910314, -0.42883354, -0.441578, -0.4066626, 0.35112137, -0.43669423, 0.047394, 0.6438077, 0.4966921, 0.4047769, -0.6265749, -0.036547456, -0.25760397, -0.32688636, -0.027950868, -0.26117855, 0.5882932, -0.41605887, -0.47429854, -0.6571404, -0.7108722, 0.050117694, 0.18429866, -0.4485069, -0.21772245, -0.16080813, -0.05660548, 0.3722933, 0.1750705, 0.2691377, 0.37389284, 0.23331389, -0.07170637, 0.5317981, -0.49837977, -0.6778842, 0.068119854, -0.2984385, 0.4842096, -0.40377966, -0.41698438, 0.25486702, 0.23175399, -0.27468458, 0.5092849, 0.155322, 0.048866402, -0.5114214, -0.014759308, 0.52239466, 0.53978455, 0.23944914, 0.5026109, -0.18674263, -0.1790565, 0.30886897, -0.23633742, 0.6758665, 0.26396313, 0.5842251, -0.29869297, -0.22824275, -0.71650475, -0.16040246, 0.047548104, -0.66852486, 0.5259707, -0.011419758, 0.039726812, 0.32266414, -0.007122961, -0.19386476, -0.51370555, 0.28144562, 0.3889501, -1.1080272, -0.6739768, -0.46858174, -0.9244148, 0.16555312, 0.39348122, -0.6032517, -0.09448913, 0.7269734, 0.3888411, -0.21043238, 0.2922762, 0.021066004, 0.3284231, -0.53016627, -0.1365882, 0.0018071815, -0.07469823, 0.016369602, -0.16054502, -0.08932159, 0.3168128, -0.4238073, 0.4339252, 0.060638122, 0.08764303, 0.22855344, 0.21068695, 0.4405238, 0.3750783, 0.020329341, 0.093266025, -0.23697634, -0.28332555, 0.06561589, 0.112363815, 0.6766796, -0.059502505, -0.33875233, 0.19685385, 0.14062358, -0.1733654, -0.7001395, -0.12626915, -0.11505179, -0.6506926, 0.45666236, 0.23224476, 0.18170461, 0.2842294, 0.092311494, -0.30332482, 0.11808882, -0.2198225, 0.2340655, -0.30765527, -0.31117263, -0.16546753, -0.07445816, -0.067760155, -0.0035502464, 0.44226813, -0.43760377, -0.2460392, 0.53232944, 0.47710028, 0.13254628, -0.20541313, -1.0703261, 0.32045692, -0.5516637, 0.029470652, -0.06853219, -0.1484636, 0.26569045, -0.22483604, 0.19506676, -0.041814495, -0.07694043, 0.30160585, -0.1334435, 0.6360613, 0.4397529, -0.40540633, 0.62548983, 0.04110581, 0.7425641, -0.1773568, -0.032662492, 0.41401023, 0.7174806, 0.34304956, 0.7414617, 0.23810062, -0.23778994, -0.36249426, 0.24719472, 0.06813962, 0.068407044, 0.54651916, -0.20891957, -0.21881196, -0.88863057, -0.6858848, -0.5233035, -0.27283692, -0.41975585, -0.098958686, -0.40056926, -0.20002651, -0.039279923, 0.47265774, -0.5301088, 0.12879059, -0.21158108, -0.58368695, -0.006991288, -0.60657847, -0.25360388, 0.3128604, 0.2977049, -0.17423649, 0.23576868, 0.41648436, -0.23731093, -0.24302046, -0.58187884, -0.8081711, -1.0257378, -0.77812403, -0.044594716, -0.4622385, 0.4346199, 0.1465312, 0.106525525, -0.59970695, 0.4418994, -0.14687629, -0.43399936, -0.059018172, 0.06427857, -0.65543944, -0.26508018, -0.2224654, -0.02316321, -0.26718098, -1.7466561, -0.67119825, 0.32303828, 0.30847487, 0.18960372, 0.06355425, -0.08928112, 0.65175146, -0.2461695, -0.03102767, -0.7292216, -0.47636828, 0.4488853, -0.52800256, -0.21864188, 0.19625406, -0.054705642, -0.225492, 0.35112387, -0.17378695, 0.004677344, -0.0024679485, -0.1805286, -1.1255332, -0.2781151, 0.06711332, -0.029453095, 0.2210758, 0.34571284, 0.56982136, -0.13415545, -0.07841538, 0.2084746, -0.44347382, 0.18595602, 0.16181752, 0.2224793, -0.2875852, 0.2002956, 0.13982563, -0.34053272, 0.33131397, -0.061976027, -0.03648502, 0.075235106, -1.044755, -0.17665286, 0.21671538, 0.1729111, 0.16873595, -0.007502541, -0.46825424, 0.14313795, -0.39666587, -0.5293341, -0.12942511, -0.23940203, -0.33006865, -0.22512715, -0.61318487, 0.35524157, 0.07772119, 0.14018904, -0.023790244, 0.21264772, -0.15716803, -0.5304025, 0.039186936, 0.4923791, -1.0241715, 0.021103596, -0.04163968, -0.3033741, 0.29560217, -0.026006836, 0.29739806, 0.07406679, -0.62610906, 0.32385507, -0.14455983, -0.06387268, -0.46008325, 0.30962694, -0.6547785, 0.62016344, 0.21118625, 0.53392243, -0.23770781, 0.7874979, 0.47636637, -0.76569736, 0.9411, 0.27652448, 0.37438723, 0.04498341, 0.07070853, 0.054884084, -0.03715964, 0.6192596, 0.056481075, 0.6368862, 0.8340543, 0.1529499, 0.462946, -0.37174684, -0.55287266, 0.51879764, -0.22972557, -0.6510955, -0.82797116, -0.06534457, -0.34019768, -0.6627348, -0.18116188, -0.2986105, 0.3256524, 0.0951949, 0.7197115, -0.36002862, 0.14595623, 0.106670454, -0.64178485, 0.45428634, 0.21306184, -0.15731618, -0.9221624, 0.39741582, 0.13299155, 0.56024516, -0.30441302, -0.04031325, -0.1516777, 0.098656505, 0.078238115, -0.5207994, 0.27677137, -0.38547444, 0.37528518, 0.6129836, 0.43584546, 0.43498904, -0.06850573, -0.15062003, 0.22974083, -0.59754384, -0.3766931, 0.29479957, 0.099311076, -0.54028744, 0.042441115, -0.078425325, 0.14048338, 0.59937364, -0.07848247, 0.405055, 0.17292868, 0.6136595, 0.31245852, -0.083741024, 0.33750775, -0.62284666, -0.06056915, -0.3014401, 0.46495, 0.18132937, -0.2226773, 0.16736165, -0.20086122, -0.2299941, -0.066890046, 0.18780828, 0.34603015, -0.03627122, 0.6943123]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>뉴턴 유체란?</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>전단응력에 대해 전단속도는 직선적으로 증가하며 전단속도의 크기에 관계없이 일정한 점도를 가진 유체를 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>[-0.22692366, -0.20890848, 1.0576619, -0.45424518, -0.3902286, 0.070522524, -0.10574157, 0.289647, -0.52236444, 0.3854768, -0.46751714, -0.7746107, -0.39050078, -0.28141493, -0.1332319, 0.15921433, 0.43875328, 0.42602515, 0.9829092, 0.1340444, -0.24210091, 0.5633961, -0.21144617, 0.32256398, -0.24838012, 0.36002013, -0.4400089, -0.6543979, 0.39086142, 0.11735598, 0.20027828, 0.07968846, -0.18477036, 0.17390494, 0.5357449, 0.28765285, 0.029163206, 0.23925598, -0.1995406, -0.23889343, 0.027427377, -0.19237371, -0.38289976, 0.4808359, -0.09086474, -0.6191177, 0.2918525, 0.6591297, -0.048975587, -0.11696433, 0.25330377, 0.037215058, 0.2678569, 0.42814687, 0.112637915, -0.5610385, 0.024681145, -0.42259994, 0.4361985, 0.13719328, 0.552231, -0.38102746, 0.0946351, 0.112232745, 0.75513124, 0.27652648, -0.45734492, -0.122726284, -0.6748293, 0.36300182, 0.10799426, 0.1371869, -0.97828054, -0.45735693, 0.23837608, 0.18190576, -0.13139866, 0.20704974, 0.5380794, 0.9503958, 0.2242152, -0.8199236, -0.12644136, 0.15598385, -0.15286848, -0.17316146, 0.13833643, -0.35960826, -0.6572949, 0.51254994, -0.17969269, -0.09723029, -0.45585534, 0.110741235, -0.66246396, 0.3027872, -0.07340527, 0.117014326, 1.035294, 0.25242054, 0.28087413, 0.22755146, -0.7756603, 0.6423786, 0.97778744, -0.2652612, -0.013709492, 0.57046187, 1.0055064, -0.4209073, 0.32362935, -0.20103061, 0.73353285, -0.19273914, -0.19549103, -0.36810908, -0.7690187, -0.53302914, -0.22184187, 0.444536, -0.19982441, -0.82898307, -0.2599409, -0.023952246, -0.9360786, 0.30891833, 0.6313165, 0.45045853, 0.102291636, 0.13593158, -0.14046569, -0.3082765, 0.27207562, -0.33299682, 0.31379065, -0.35958043, -0.26860145, 0.1264749, 0.5664689, 1.171204, -0.7427122, 0.58444124, -0.37726948, -0.30997407, 0.246318, 0.045444805, 0.22601457, -0.24764387, 0.3423102, -0.2545607, -0.14918216, 0.5026813, -0.5362433, 0.33706263, 0.25852433, -0.3358436, -0.6464452, -0.3500245, 0.3541874, 0.007937542, 0.03890493, -0.6888251, 0.8574011, -0.0050617605, 0.65690225, -0.485837, 0.53902334, 0.04966707, -0.5355639, -0.5418329, -0.15695433, -0.1256165, -0.03796221, -0.74010724, 0.21641342, 0.38650596, -0.32867113, -0.5285911, 0.2497158, -0.0058140396, -0.36453995, -0.16092178, -0.17038357, 0.468958, 0.065737806, 0.6330561, 0.63878435, -0.044932216, -1.1093354, -0.713531, 0.17210759, -0.009985535, 0.012964238, -0.6286715, -0.4230573, 0.350131, 0.28246373, -0.16578035, -0.5129295, 0.21751662, -0.061506778, -0.44025603, 0.014012019, -0.05709831, -0.41802835, 0.23680083, -0.50154227, 0.06388491, 0.45611107, -0.13113686, 0.52738875, 0.39856097, 0.67456084, 0.6732521, -0.3257997, -0.9335811, -1.1979305, 0.27180174, -0.23589943, -0.18003207, 0.1376793, -0.62491834, 0.4059843, -0.49484956, 0.053431347, -0.7774706, -0.2956975, 0.5713362, -0.3948063, 0.9958777, -0.06082115, -0.82268006, -0.74619955, -0.2666447, -0.26645026, -0.17487772, 0.047785055, 0.18226872, -0.11066034, 0.20289117, 0.0535727, 0.13023053, 0.07037726, -0.588705, 0.33558226, -0.13188244, -0.39328805, -0.7149351, 0.56944716, -0.4086446, -0.36551058, -0.042258278, 0.13571134, 0.747008, -0.09574654, -0.25046787, 0.08442386, 0.7032888, 0.020777434, 0.6329744, -0.4995747, -0.19895218, -0.46065876, 0.3944632, -0.07315342, 0.07334449, -0.2916703, -0.556902, 0.44841704, -0.5511747, -0.22982429, -0.50991005, -0.18016993, -0.0075406027, -0.74045825, -0.30953273, 0.14425536, -0.17791396, 0.014407945, 0.5934653, 0.85292214, -0.105959915, -0.006464979, -0.41280365, -0.29553315, -0.07616388, 0.6137158, -0.17127542, 0.3526057, -0.63088113, -0.52762705, -0.07740538, 0.16726704, -0.99843615, 0.31214368, -0.10096434, 0.03535928, 0.081529476, 0.40317175, 0.36086407, 0.13711444, -0.06542144, 0.05494843, -0.40025577, 0.65385765, 0.7472419, 0.22616412, -0.03416173, 0.3803537, 0.4358654, 0.8968534, -0.2817677, -0.09811375, 0.5246532, -0.1096735, -0.46242478, -0.22977154, -0.02846128, 0.1976551, 0.11796651, -0.133852, 0.038153265, 0.17418635, -0.28852558, 0.22457857, 0.30079412, 0.03827645, -0.28708956, -1.0412982, 0.14639959, -0.4078846, -0.103393264, -0.083528005, -0.25848708, -0.2881373, 0.058121365, 0.4180869, 0.40164468, -0.5296157, -0.985125, -1.0872551, 0.427902, -0.6123387, 0.31045818, -0.2344314, 1.3686236, -0.3164639, 0.24372798, 0.065435074, -0.50571674, -0.35140207, -0.15816087, -0.63099945, 0.49018756, 0.22510165, 0.977324, 0.7324135, 0.6351877, -0.1269324, -0.39828634, 0.28444192, -0.4774734, -0.1897797, 0.054456268, -0.6234533, -0.25817063, -0.9679019, -0.06537499, 0.1774416, 0.0728911, 0.34560606, 0.37825572, 0.5016956, -0.5423905, -0.60799783, 0.32106665, 0.050736878, 0.47400498, 0.09569818, -0.22798479, 0.04688699, 0.60326606, -0.10600885, -1.4775814, 0.18782431, -1.1983923, -0.1591395, 0.585654, -0.16698384, 0.35103545, -0.062418986, 0.35742998, -0.18735345, -0.20630437, -0.81154424, -0.025887737, 0.097794056, 0.17305146, 0.08990594, -0.11269546, -0.011134878, -0.693624, 0.6805236, 0.96067387, -0.21656561, -0.17165019, 1.0870436, -0.4931899, -0.4839666, -0.006690552, -0.07494548, -0.17398304, -0.37651607, -0.7405532, 0.0434494, -0.098563336, -0.44158247, 0.66208094, 0.094020315, 0.199798, 0.05721577, -0.16318806, 0.5239072, 0.40338406, -0.1335761, 0.06942359, 0.4234867, 0.05120833, -0.03838713, 0.43848124, 0.7124317, -0.028823355, -0.08469532, -0.004430145, -0.566961, -1.0560412, 0.019224161, -0.27818742, -0.05054305, 0.7938898, 0.5782315, 0.54866576, 0.031789992, 0.23102601, 0.061569396, 0.42934915, -0.29268387, -0.22214006, -0.47068927, -0.09831973, -0.7412906, -0.6406712, -1.1816411, 0.23926395, -0.6697385, 0.35198328, -0.157598, -0.052471098, 0.32161015, 0.39804518, -0.16679479, 0.030054525, 0.020789104, -0.7450945, 0.4343476, 0.78258485, -0.18105733, 1.0384822, 0.24515529, 0.62181556, 0.11538125, -0.29643837, -0.45952913, -0.45303622, 0.2568831, -0.585594, -0.44208133, -0.15059432, 0.52399755, -0.1406445, 0.10792657, -0.53319126, -0.07917058, 0.1622908, 0.31396076, -0.12403741, -0.2765474, -0.6718162, 0.28886965, 0.3517048, -0.016784979, -0.058867197, 0.096898764, 0.3294809, 0.729096, -0.48575437, -0.40196896, 0.91827345, -0.33936432, 0.07924459, 0.14963001, 0.3685992, -0.04042919, -0.055574883, -0.445946, -0.522752, 0.26771146, -0.13502167, 0.19368309, 0.013800104, -0.104685664, -0.2208185, 0.69501835, 0.2412588, -0.18413986, 1.1898791, -0.029308109, -0.23400049, -0.20978816, 0.12492725, -0.35931683, -0.8273198, -0.6873149, -0.76415783, -0.6234379, -0.1456834, 0.45695388, 0.099492826, -0.3220891, -0.08066838, 0.6797716, -0.003991066, -0.025188625, 0.19039784, -0.12822892, -0.17429203, -0.8541503, 0.12712319, 0.3274299, 0.4537014, -0.089064814, -0.39120603, -0.028130487, -0.4280003, -0.7258065, -0.47483325, 0.1124947, 1.1953503, -0.20989901, -0.62868273, 0.34286997, -0.47322991, 0.029794598, -0.40389648, -0.414706, -0.29816946, 0.08215887, 0.08918103, -0.20495701, -0.81942415, 0.116463624, 0.0822177, -0.4088876, -0.21087797, -0.14964385, -0.44977483, -0.11504576, 0.18741119, 0.066074155, -0.6004655, 0.43651828, 0.09365544, -0.011819865, 0.09966755, 0.6428686, -0.40984222, -0.38957047, 0.10621486, 0.14375722, 0.2976584, -0.04302722, -0.442198, 0.23545475, -0.7253452, 0.3607955, -0.11897654, -0.39941788, 0.5970977, -0.7420163, 0.33964154, 0.3298861, -0.7026554, 0.6779353, 0.16026199, -0.90704113, -0.62199455, 0.0044321367, -0.8604949, -0.62812525, 0.51404226, -0.67724603, 0.6279996, 0.493809, -0.3908625, -0.78844255, -0.68606013, 0.22256087, 0.23934014, -0.4575536, -0.46429244, -0.60557336, 0.8115073, 0.1612107, 0.015988603, 0.085695535, 0.52232987, 0.42084643, 0.3943267, 0.2674027, 0.98821086, -0.5442042, 0.44824386, -0.26209113, -0.055777073, 0.172943, 0.27928266, -0.54526067, -0.47607735, 0.16526811, 0.5937052, 0.021850893, -0.29566345, 0.43191206, -0.015481908, 0.053526696, -0.35541555, 0.24795254, 0.34013247, -0.43078974, -1.5134611, -0.23262829, 0.11787214, 0.019134339, 0.08576349, 0.06399765, -0.37411067, -0.31009442, 0.82864004, -0.19831806, -0.022107527, -0.29496676, -0.81226045, 0.30562368, -0.37494966, 0.2811225, -0.0136415595, 0.051081274, -0.26845875, -0.12480658, 0.11704099, -0.06040306, -0.6844485, -0.20847793, -0.18558617, -0.5288589, -0.18273018, -0.047285866, -0.4202691, 0.09613141, 0.13871942, 0.08748722, -0.48099962, -0.022151759, 0.21270436, -0.3366865, 0.26159552, -0.31847444, -0.3138238, 0.20599341, -0.28866243, -0.043504823, -0.7997605, -0.81085604, -0.26982114, -0.17794561, 1.6756638, -0.030484678, -0.061350722, 0.22523539, 0.36984542, -0.5433954, -0.07965196, -0.16907941, -0.1897911, 1.0731117, 0.32455024, -0.56056625, -0.32141033, -0.26436332, -0.91574526, -0.049213473, 0.12469559, -0.5620458, 0.20766397, 0.27039737, -0.594613, -0.4695746, 0.17466104, 0.13297115, -0.12306395, -0.29885867, -0.2616562, -0.062233478, 0.27585903, 0.22990322, 0.03682396, -0.45376074, 0.058652546, 0.4415338, -0.44664767, 0.4605159, 0.03879458, -0.058367986, -0.5731699, -0.22580923, 0.15236993, -0.19151026, -0.5822069, -0.3194494, -0.22285564, 0.086662374, -0.2206433, -0.1873855, 0.38371062, 0.16075523, 0.75132924, -0.2343917, 0.3838583, 0.3926245, -0.20239381, -0.34647384, 0.02692621, 0.4053675, -0.28695866, -0.59007674, 0.5738288, -0.34499285, 0.16632284, 0.86568975, -0.27913842, 0.08778056, 0.25202176, -0.03973772, 0.16649558, -0.10686586, -0.33433163, 0.005198209, 0.46424356, 0.6006947, 0.0055594817, 0.18634392, -0.29065436, -0.09342295, -0.009467757, 0.22643663, 0.115965426, -0.1780252, -0.44555554]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Netownian fluid 란?</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>전단응력에 대해 전단속도는 직선적으로 증가하며 전단속도의 크기에 관계없이 일정한 점도를 가진 유체를 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>[0.43781477, -0.30924627, 0.2615297, 0.05891602, -0.1932538, -0.22468221, -0.20034924, 0.76471436, 0.10809133, 0.0142093, -0.34883395, -0.38293785, 0.02904348, 0.010918185, -0.6903026, 0.031882245, -0.48888403, 0.17416915, 0.766439, -0.51150006, -0.24316768, 0.43514895, 0.35991102, 0.0866942, 0.01563354, 0.6098696, -0.47626972, -0.45947322, 0.820356, 0.022874355, -0.46075496, 0.65225184, -0.21214557, 0.5219396, 0.32000265, -0.8423463, -0.5191189, -0.28523913, -0.0018388436, -0.24494186, -0.5539919, -0.33399683, -0.64894205, -0.16931714, -0.41329688, 0.020074975, -0.2206665, 0.03237402, -0.12669747, 0.25877222, -0.11781206, -0.2139959, 0.65097386, 0.17832826, -0.21106263, -1.2673821, 0.3150205, -0.26729953, -0.41094223, -0.48231873, 0.90120375, -0.592779, 0.106573716, -0.06458869, 0.45335627, 0.05346172, -0.83078843, 0.1906654, -0.86741096, 0.41550475, 0.17743936, -0.049418412, 0.574082, 0.023847992, 0.05826018, -0.46457893, -0.03738957, -0.05539521, -0.03499286, 0.79947394, -0.5874325, -1.0331122, 0.2850143, -0.18729891, -0.17473897, 0.21319759, -0.65869737, -0.55164444, -0.8552718, 0.10914787, -0.74251896, 0.25929385, -0.46548897, 0.25790414, -0.7112753, 0.28980273, -0.0055836914, -0.048657972, 0.3015928, 0.31823987, 0.54907775, 0.3769138, -0.7077693, 0.9360134, -0.18774767, 0.24343303, -0.121515915, 0.64239275, 0.33268863, -0.08850218, 0.47923738, -0.14991422, 0.8059276, 0.10151994, 0.48931855, 0.021723192, -0.6155664, -0.22463024, 0.061943017, 0.69561684, 0.36698595, -0.65550995, -0.80410326, -0.011896233, -0.44931492, 0.3738116, 0.66472894, -0.15441409, -0.5517968, 0.19827056, 0.2668546, 0.07795174, 0.17574227, 0.005890183, -0.3849333, 0.025786573, -0.16060188, -0.14637819, 0.2754018, 0.42184407, -0.3915076, -0.5174676, 0.1258447, -0.15417245, -0.5521666, -0.8400377, 0.45023078, -0.5002657, -0.15073638, -0.54336226, -0.56979644, 0.14689837, -0.5623681, 0.8026043, 0.20097701, -0.6207825, -0.29946893, 0.124063805, 0.49076587, 0.059325945, -0.64527434, -0.105921134, 0.06947146, -0.24070346, -0.14562833, 0.25759718, 0.8041339, 0.037751727, 0.37802595, -0.21078758, -0.33708972, -0.20311847, -0.0725313, -0.6664043, -0.5548331, 0.53832644, -0.21734068, -0.05367414, -0.15538682, 0.15534726, -0.19668058, -0.041855685, -0.10775356, 0.0061641014, -0.041918863, 0.1995841, 0.11792843, 0.07445665, -0.8621831, -0.61929303, 0.5071003, 0.13634038, 0.27275452, -0.16624676, -0.06443215, 0.8906654, 0.223489, 0.29419392, -0.400062, 0.2425408, -0.9920613, 0.059453737, 0.42104906, 0.70927465, 0.056328952, 0.31459007, -0.37840205, -0.34934896, -0.07637219, -0.18814316, -0.1457531, 1.0496525, 0.15680854, 0.07474099, -0.1430498, 0.5074284, 0.068215385, -0.03212595, -0.30990332, -0.56957835, 1.020382, 0.07731157, 0.17346302, -0.24911742, 0.033779066, -0.3564265, 0.040878214, 0.076664194, -0.20893626, -0.41173735, -0.38973588, -0.5926477, -0.31465882, -0.8424678, 0.24456401, 0.3749537, 0.6817632, 0.3091345, 0.3541218, -0.8426073, -0.21856208, 0.43574983, -0.45182252, -0.5623412, 0.32773793, -0.43578416, 0.047394447, -0.21877232, 0.20731595, -0.49259442, 0.012153141, 0.92887276, -0.2557613, 0.18880291, 0.10332092, -0.46815032, -0.29916885, 0.5108808, 0.5158725, -0.01585403, 0.06838651, 0.062217645, -0.02762039, 0.24000749, -0.16979843, -0.48405996, -0.10108616, -0.59242433, 0.39207563, -0.1253697, 0.066948086, -0.5540087, 0.2422789, 0.07780996, 0.24978602, 0.36578354, -0.14661321, -0.2073677, 0.35637915, 0.2644445, 0.27177882, -0.12952709, 0.29639897, 0.447256, 0.62692136, -0.23232937, -0.43646765, -0.19833557, -0.6166648, -1.1126242, -0.17897148, 0.14683579, -0.11443164, -1.5060241, -0.11969582, -0.056431394, -0.7280736, -0.24920928, -0.4586659, 0.20944321, 0.21435781, 0.02409035, -0.52756417, -0.35742897, -0.39407274, 1.167239, -0.78683037, 0.31342787, 0.28658134, 0.45933565, -0.30909315, 0.33378014, -0.23378995, 0.17032143, 0.09553793, -0.5283288, -0.24143405, -0.16164961, -0.378659, 0.1666312, -0.20889518, -0.22861615, -0.46628848, 0.23286736, 0.16098283, 0.30730525, -0.6387986, 0.4440909, -0.20631333, 0.07464613, 0.032911316, -0.6208559, 0.28347522, 0.029099137, -0.3631627, -0.6231769, 0.11731275, -0.43104044, 0.17521907, 0.17045657, -0.16032259, -0.23626761, -1.1069899, 0.20144066, 0.12028666, 1.0665743, 0.15183392, -0.41238832, 0.16687182, -0.40380722, -0.368278, -0.35730788, -0.3173223, 0.44222865, 0.25297448, 0.72949547, 0.5882334, 0.96613324, -0.34348264, -0.03846637, 0.69936764, -0.15798667, -0.013738805, -0.029380014, -0.18710461, 0.18119681, -0.37460226, 0.09615149, 0.059390347, -0.046206098, 0.09735988, 0.3751283, 0.59613574, -0.6209942, -1.5198647, 0.05784185, 0.019074153, 0.121176325, -0.61297, -0.4387699, -0.14519197, 0.706468, 0.2049809, -1.1310475, -0.54230344, -0.33233532, -0.06191606, 0.13194746, -0.5895408, 0.30277672, -0.3100647, 0.22614047, -0.44000196, -0.26583725, -0.8411125, 0.12361209, -0.18471465, -0.30050415, -0.469709, -0.049623445, 0.06506046, 0.090813085, -0.06384643, 0.36384892, -0.34311116, 0.123350754, 0.9569131, -0.2638697, -0.506992, 0.41441756, -0.70519537, -0.5772389, -0.049762405, -0.87760496, 0.44537488, -0.2851569, 0.33760807, 0.6137458, -0.40053463, -0.37611377, 0.09329528, -0.650908, 0.87066954, 0.33859915, 0.2262216, 0.65933293, -0.053012826, 0.15336564, 0.14387919, 0.23823409, 1.0601827, -0.113848366, 0.51797926, -0.06559422, -0.37910306, -0.83454055, 0.31767803, -0.03062005, -0.2801999, 0.74434376, 0.49510604, 0.34095284, 0.692299, 0.4255088, -0.18139538, -0.56100017, -0.14805491, -0.36673626, -1.0338283, -0.8088457, -0.4928817, -0.8828661, -0.36724722, 0.24403353, -0.6520406, -0.5315468, 0.91041183, 0.35740194, -0.17219302, 0.3725375, -0.5391916, 0.1526326, -0.3710738, 0.19669881, 0.23806903, -0.44757184, 0.32027173, 0.18009806, 0.21912003, 0.43164706, -0.51610935, 0.1761469, 0.07875066, 0.1150226, 0.21625388, 0.115422085, 0.86696804, 0.3967052, 0.32111332, -0.46834093, 0.34382677, -0.69767076, -0.5591299, -0.36982578, 0.48942247, -0.63381416, -0.77798957, -0.57336426, 0.11237848, 0.035605766, -0.2840655, -0.11435791, 0.08579217, -0.066839576, 1.0498669, -0.18370286, 0.1797384, -0.024770565, 0.13544098, -0.0018432975, 0.17956468, -0.0062496783, 0.36251304, 0.057484068, -0.10420461, 0.6357411, 0.108227536, 0.123376235, -0.25697443, 0.31821704, -0.41889864, 0.09972589, -0.10344058, 0.32533413, -0.11816798, 0.05675877, -0.32110527, 0.19393846, -0.57073605, -0.10596554, -0.13401547, -0.41429836, 0.01550507, -0.1521562, -0.49429488, 0.10846231, -0.061333455, -0.33817887, -0.24976382, 0.8611318, 0.60544574, -0.9474758, 0.03759134, 0.6608369, 0.46932206, -0.28711826, -0.15134914, 0.46870583, -0.15976663, 0.099880144, 0.26343414, 0.20419261, 0.22117586, 0.26464802, -0.373029, 0.12576103, 0.36561912, 0.33149835, 0.30790576, -0.07514449, -0.32175273, -0.53853226, -0.35369688, -0.17912635, -0.35314995, -0.6104508, -0.055807658, 0.018935233, -0.18029864, 0.9093398, 0.13317998, 0.27865943, -0.5315632, -0.07803126, 0.73666483, -0.11670862, 0.3411326, 0.6183287, -0.005040237, 0.16948822, 0.31805843, -0.21553907, -0.19463308, -0.5012509, -0.40313426, -0.5991802, -0.45349008, -0.34595758, -0.11757165, 0.11248245, 0.096601255, -0.19360113, -0.008537212, -0.28165823, 0.29479432, -0.19696167, -0.076935664, 0.28137332, -0.06386809, 0.030048426, -0.033449043, -0.034791216, -0.097553656, -0.12422369, -0.7804934, -0.3725999, -0.191524, -0.57097006, 0.020217022, 0.20453437, -0.60598886, 0.4812776, 0.08321518, -0.29636472, -0.2538806, -0.23331742, 0.57845974, -0.24834757, -0.3210776, 0.4268485, -0.009898333, -0.621534, 0.64695215, -0.4257384, 0.023796618, 0.12933223, 0.17791669, -0.36090034, -0.6208901, 0.29585496, -0.40660205, 0.7050911, -0.072436795, 0.766595, -0.17539194, 0.0849401, -0.7844881, -0.37849134, 0.283724, -0.122638024, 0.103448406, -0.06649159, 0.7174851, -0.011024533, -0.1559619, 0.055496108, 0.6021537, 0.2672157, -0.051963814, -0.8695782, -0.14244977, 0.20393482, 0.29952186, -0.2050546, -0.24449936, -0.72210026, -0.28346726, -0.15772477, -0.5107132, -0.1796823, -0.48966232, -0.1487282, 0.09655595, -0.34158853, 0.682408, 0.4024113, -0.1560039, -0.05003152, -0.37201634, -0.014802161, -0.4708913, 0.18613097, 0.29662094, -0.29654405, 0.1965953, -0.6443221, 0.14567366, 0.12892194, 0.34988374, 0.5334342, 0.56354254, -0.20233198, 0.23053908, -0.5232672, -0.4023799, -0.18710573, 0.34481528, -0.5353285, 0.20505795, 0.6436109, 0.19344254, -0.49366158, 0.66389966, 0.39397472, -0.22942677, 1.1679906, -0.29869705, -0.32278416, 0.7813438, 0.44948632, 0.057590522, -0.07386563, 0.28541547, 0.20027606, 0.5638053, 0.6130559, 0.3116061, -0.041545402, -0.122012064, -0.5142106, 0.22287948, -0.31251493, -0.55573374, -0.42413297, 0.12982157, -0.13191208, -0.28342748, -0.47276226, 0.1660722, 0.24562927, 0.026808187, 0.41082388, -0.765157, -0.044238195, 0.036618013, -0.31621894, -0.114246644, -0.11827239, 0.18068013, -0.815004, 0.3855958, 0.03257723, 0.24339661, -0.016098917, -0.115522385, -0.12947321, 0.16777349, 0.12979004, -0.1791571, 0.09594292, -0.050705962, -0.07077057, 0.12621807, 0.45058733, 0.30656248, -0.19719648, 0.06494902, 0.7956623, -0.29160023, 0.05504653, 0.23275903, -0.22187336, -0.35142738, -0.07739171, -0.00429126, 0.08916674, 0.24835229, 0.46841493, -0.23462114, -0.03899977, 0.33285117, 0.19877942, -0.16060568, -0.05296139, 0.03954739, 0.34016037, -0.33270612, -0.2681184, -0.23340133, -0.27008897, 0.17186408, -0.302204, 0.35808066, 0.27745837, 0.17114237, 0.16318831, -0.24128668, 0.45692062]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>레이놀즈 수란?</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>어떤 유체의 흐름이 층류인지 난류인지 판별하는데에 사용하는 수로, 레이놀즈 수가 2100 이하면 층류, 4000이상이면 난류입니다.</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>[-0.6702852, -0.31162852, 0.61633414, -0.12524909, -0.32099152, 0.13222094, -0.54277563, 0.2564163, -0.116081946, -0.089818075, -0.06114815, -0.86818594, -0.23192766, -0.11080322, -0.041256726, -0.67713255, 0.6036374, -0.033691116, 0.8126871, -0.10222883, -0.31209493, 0.44622478, -0.42648888, -0.22452925, -0.3268461, 0.20273495, -0.15337116, -0.049432762, 0.7179065, -0.35009992, -0.26723412, 0.08891655, -0.14651297, 0.041598555, 0.45280847, 0.48605177, -0.46551314, 0.03160581, 0.37050912, -0.5517167, -0.75905377, 0.28157255, -0.26311085, 0.38282382, 0.1268484, -0.9108291, -0.019646611, -0.6367178, 0.12705687, -0.6382275, -0.0583865, 0.018904112, 0.3987627, 0.41312966, 0.01721935, -0.34600887, 0.061871484, -1.1741803, 0.3759023, -0.13199936, 0.6990552, -0.7345605, -0.62233055, 0.8094814, 0.34698975, -0.7149703, -0.4633067, 0.07081442, -0.30611575, 0.33163458, 0.7836771, 0.57260895, 0.18406364, -0.808304, 0.27731812, 0.3997953, 0.33588323, -0.069342226, 0.11211524, -0.03749448, 0.071292356, -0.6022817, 0.29612467, -0.44071415, -0.21582259, 0.44840097, -0.39743006, 0.16479638, -0.30971363, -0.21181327, -0.19010608, -0.12594877, -1.1080364, 0.124283455, -0.38102254, -0.18810874, -0.088127, 0.24736334, 1.276935, 0.31054777, 0.6154724, 0.30999708, -0.19838747, 0.59388596, 0.10994482, -0.1676191, -0.7115464, 0.6718896, 0.38277936, -0.448095, 0.11794206, -0.3137824, 0.7117354, -0.56593144, 0.50032, -0.029990012, -0.7337293, 0.008595576, -0.11308153, -0.1057332, -0.177433, -0.725533, -0.67334807, 0.5774983, -0.5489799, 0.40881458, 0.21827176, -0.545686, 0.026339473, -0.19233552, 0.87885976, -0.4046525, 0.24100494, 0.3245955, -0.32482865, -0.20310903, -0.27515465, -0.32308176, 0.25274432, 0.27467299, 0.23535256, -0.37740833, 0.15263794, -0.44224942, 1.1634938, 0.205784, 0.32827878, -0.46190798, -0.56858444, 0.16510244, 0.2563163, -0.27432668, -0.7958562, 0.04440242, 0.04623206, -0.2516843, -0.5246568, -0.45405695, -0.08148627, 0.36172497, 0.06812208, -0.67245585, 0.16709188, 0.21355155, 0.22921535, 0.6831092, 0.6565057, 0.19698994, -0.6539597, 0.41764212, -0.5309334, 0.008516062, 0.14960076, -0.07762858, -0.3804836, 0.23443514, 0.14012772, -0.36428857, -0.5168578, -0.09071616, -0.33027333, 0.053123794, 0.6488247, 0.23251815, -0.16883901, 0.3024994, 0.32741255, -0.51882684, -0.7746419, -0.5818886, 0.031568944, 0.13751785, 1.0439752, -0.1966707, 0.34931347, 0.42978168, 0.2634777, 0.056231737, 0.017604224, 0.3145553, -0.5228506, 0.6067714, -0.40886047, 0.23231822, -0.1187318, 0.2056825, -0.08471616, 0.035474446, -0.0419701, -0.5181705, -0.39209107, 0.8540701, 0.623656, 0.24366689, -0.6494848, 1.1969932, -0.5314846, -0.32375166, 0.74711055, 0.09902714, 0.49835253, 0.40526235, 0.7355002, 0.13695146, -0.3551808, -0.34718478, 0.114969425, 0.3132379, -0.22725026, 0.0033774702, -0.11628914, -0.21457049, -0.6220501, -0.73779964, 0.5733421, -0.4681948, 0.39648956, -0.33154884, -0.29316905, -0.4395516, 0.18286777, 0.35686696, 0.21414661, -0.289587, -0.08885956, 0.71216035, 0.038598873, -0.43345582, 0.432437, -0.97156477, 0.65815115, 0.46537885, -0.41760886, -0.19654436, -0.026000392, -0.79509985, -0.6618072, 1.1204973, -0.56278604, 0.22751893, -0.04279265, 0.35131314, 0.13628048, 0.38512474, -0.08240026, -0.42877972, 0.104694694, -0.23129436, 0.5139853, 0.25713363, -0.14696452, 0.1367026, -0.21946594, -0.86531055, -0.20003998, -0.33170617, 0.31667155, -0.40204027, 0.6542801, -0.21874943, 0.22015044, -0.25865263, 0.5737298, 0.4092125, 0.06208271, -0.07826441, -0.14154966, 0.0905366, -0.10324399, -0.559163, 0.5717104, -0.0031032264, -0.25042796, -1.4587473, 0.422074, 0.95376307, -0.0066375416, -0.73928577, 0.11031546, -0.09753905, 0.28538653, 0.28912824, 0.324224, -0.1045749, -0.5639859, 0.9724753, -0.27622208, -0.4485277, 0.44549736, 1.1195544, 0.7906842, 0.23187476, 0.040049996, -0.5030222, 0.17211549, -0.4814825, 0.23105866, -0.4657494, -0.567389, -0.3943711, 0.16706413, -0.11215124, 0.57861704, 0.25108534, -0.17671424, 0.18731149, -0.40181637, 0.17819266, -0.86653477, -0.13659522, -0.47414446, -0.43369997, 0.22697802, -0.4024109, -0.2525969, -0.7368655, 0.07846774, -0.05010632, 0.17621927, 0.033780638, 0.06903885, 0.2561382, -0.5329255, -0.22882554, 0.085684046, 0.81391203, -0.16095448, -0.008297504, 0.08537665, -1.0321281, -0.45109037, -0.12206747, -0.5065264, 1.0137988, 0.54900515, 0.49558735, 0.690598, -0.0017234962, -0.22837383, 0.62317663, 0.10414885, -0.22859126, -0.033016026, -0.10324135, -0.19430915, -0.017885512, -0.53210944, 0.3847816, -0.2541385, 0.19695178, 0.4292322, -0.1213045, 0.279805, -0.14013259, -0.034233797, 0.015584778, -0.090260684, 0.030983463, 0.2579364, -0.45346868, 0.44902605, 0.14685172, -0.21153806, -0.5632056, 0.39589876, -0.5266354, -0.2834379, 0.0997682, 0.07575615, 0.68401706, -0.9671452, -0.092013605, 0.23082985, -0.060423747, 0.079423144, -0.03443291, -0.49382663, 0.1601573, -0.17205283, -0.5942178, 0.1624725, 0.6293315, 0.48498243, 0.33040607, -0.4309729, 0.27405506, 0.12457934, -0.18967505, 0.20911552, 0.43549097, 0.024551734, -0.15892045, -0.13963957, -1.1628405, -0.9342615, 0.7040433, -0.0060717314, 0.79936856, 0.22630605, -0.36357918, -0.056755323, -0.4019854, 0.13381661, 0.11505947, 0.4220086, 0.3016681, -0.099390596, 0.4363492, 0.5900769, 0.13883866, -0.011901433, -0.092666805, 0.16484952, 0.24387434, -0.487717, -0.547825, -0.8460135, -0.05298885, 0.06817502, 0.26532412, 0.22634798, -0.34401858, 0.10529858, 0.26205793, -1.0984571, -0.051519573, -0.4205047, 0.103459455, -0.9981402, -0.02892692, -0.85663164, -0.5340412, 0.26623058, 0.20076472, 0.065004736, 0.41234633, -0.33336204, -0.0030381382, 0.14236996, 0.24828048, 0.21688008, -0.49755687, 0.033167236, -0.33234295, 0.3479695, 0.6758143, -0.015154347, 0.4007981, -0.38962314, 0.15474233, -0.39434916, -0.1749689, 0.62765235, -0.13909294, -0.010781841, -0.13989753, -0.22630717, 0.4804773, 0.24286869, -0.25134516, -0.2214206, -0.1788628, 0.05279817, 0.47183865, 0.9968005, 0.25160575, 0.30733755, -0.038346235, 0.25281852, -0.09019348, -0.81596947, 0.8179229, 0.14269958, -0.29215065, 0.32716954, -0.1251479, 0.34444427, 0.21107754, -0.009468376, -0.20555791, -0.20232092, 0.18003377, -0.21066976, -0.7362672, -0.99751544, 0.45496067, 0.046137843, 0.44225225, -0.13312173, 0.42489424, -0.018588021, 0.23654497, -0.031379677, 0.033928357, 0.40532643, 0.38332656, -0.4805895, -0.3626935, -0.3634064, -0.10751323, -0.4597991, -0.08428997, -0.1278238, -0.68610835, -0.073733404, -0.37030378, -0.06116657, 0.27753484, -0.6644029, 0.38760906, 0.28577584, -0.4305895, -0.35551414, 0.010421153, -0.19673891, -0.6021263, 0.3737067, 0.5206931, 0.3355067, -0.10292607, -0.4135323, 0.42616546, 0.2552982, 0.035450928, -0.27011517, -0.13215883, -0.047032826, -0.2214738, 0.15662563, -0.6982579, -0.27531156, -0.60801196, -0.22053316, -0.26456276, -0.063863635, 0.4907704, -0.21530432, 0.109462686, -0.5372687, -0.12508793, -0.15895092, 0.4575373, 0.21959919, -0.24530037, -0.13385275, -0.18105529, -0.01625533, 0.86422735, 0.6488085, -0.17319298, 0.86013734, 0.07451364, 0.003869962, -0.38341838, -1.2197706, -1.2149304, -0.69989264, -0.3426255, -0.16169834, -0.236079, 0.17473188, -0.42247868, 0.4128139, -0.86445975, 0.25362322, -0.16228049, -0.0886711, 0.22698443, -0.2641651, -0.4272439, -0.60302997, 0.29529828, 0.3719846, -0.0715909, -0.1403086, -1.1659842, -0.3239099, -0.35275793, 0.09583369, 0.55940455, -0.51002854, 0.329649, -0.22682987, -0.49935448, -0.24365087, 0.1460756, 0.7476916, -0.17490563, 0.110171266, -0.18476105, -0.26756674, 0.28126156, 0.30311114, 0.2753802, 0.3868104, 0.11845817, -0.25099158, -0.14473155, -0.06668079, 0.5029394, 0.27224484, -0.177698, 0.18376687, 0.41653526, -0.05755035, -0.24259408, 0.4733673, -0.28137094, -0.04792696, 0.5912813, -0.51666754, 0.0898944, -0.06591917, -0.34922853, 0.15714623, -0.3428178, 0.35036397, -0.107772246, -0.5279441, -1.155522, -0.100496724, -0.5188377, 0.14584136, 0.54399514, -0.95399296, -0.5203574, 0.104541525, -0.09337276, -0.25690347, 0.4523485, -0.6782852, -0.36868253, 0.012892284, -0.32978642, 0.26923615, 0.2219618, -0.46088758, 0.25301862, -0.14518824, 0.017182574, 0.056190655, -0.32227665, -0.2197983, -0.34216523, -0.1488342, -0.46492562, -0.40636972, 0.18048096, -0.7914872, 0.80394554, 0.3398251, -0.95020247, 0.055530757, -0.09916329, -0.8144232, -0.23364006, -0.2051144, -0.23835476, 0.64042145, -0.35375842, 0.23818855, 0.12708417, -0.17463018, 0.56212384, 0.15942371, 0.5655777, 0.38993204, -0.35846406, 0.28762972, 0.15383177, 0.5414774, -0.3366149, 0.4242524, -0.24410257, 0.07376038, 1.0221772, -0.110754386, 0.098756194, -0.030065151, -0.20609687, 0.26294303, 0.2801948, -0.47630796, 0.4578752, -0.4701413, -0.044426035, 0.23601025, -0.37230784, -0.270559, 0.14436945, -0.28823987, -0.09354445, -0.69615054, 0.11222233, 0.2906071, 0.021604355, -0.62018305, -0.23114504, 0.05779461, -0.16827114, 0.1640971, 0.03383753, -0.18257883, -0.22933038, -0.3248569, -0.8057146, -0.077257976, -0.7699136, -0.33797935, 0.3647246, -0.19189101, 0.06270495, -0.040650733, 0.65193695, 0.2844421, 0.23200537, -0.117451206, 0.2208849, -0.46719873, -0.55199265, -0.22165364, -0.058390178, -0.11133057, -0.22541489, 0.07297832, 0.3632985, -0.2958075, -0.17829156, 0.42361733, -0.445654, 0.3546063, 0.034097467, -0.16533804, 0.6640273, -0.38215065, -0.20716378, -0.14842284, -0.24739069, 0.3071934, 0.6155107, -0.302669, -0.15544751, -0.09512049, -0.37941283, -0.6955476, 0.17538948, -0.22573413, 0.66031444]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Renold number 란?</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>어떤 유체의 흐름이 층류인지 난류인지 판별하는데에 사용하는 수로, 레이놀즈 수가 2100 이하면 층류, 4000이상이면 난류입니다.</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>[-0.07807269, -0.5538889, 0.00055757165, -0.38874865, 0.029640913, -0.30920056, 0.041993067, 0.38345578, -0.09924303, -0.11068587, 0.14754522, -0.25746077, -0.5742072, -0.195581, -0.37246373, -0.090500586, 0.5844891, -0.112675354, 0.45679918, -0.42611966, -0.5709851, -0.135648, -0.07307841, -0.11064218, 0.15687232, 0.26994672, -0.4023617, -0.73451626, 0.3970638, 0.4228425, -0.53949946, 0.51021695, -0.76789904, -0.25778598, 0.034529407, -0.09414625, -0.6908468, -0.32640743, -0.6676953, -0.6294092, -0.6498871, -0.16545069, -0.4308955, 0.4725039, -0.37882668, -0.68980426, 0.4316556, -0.61005694, -0.04516192, -0.14783838, -0.15845296, -0.33172256, 0.1542008, 0.2915969, -0.29576606, -1.0288804, 0.35744047, -0.88138664, 0.04736619, -0.10543521, 0.43073487, -0.32840517, -1.0957097, 0.6872048, 0.2942308, -0.7790573, 0.36625445, 0.0728736, -0.7129551, 0.45126924, 0.65424407, 0.099673286, 0.7276407, -0.3387632, 0.21000285, 0.3480674, -0.040052515, -0.57240283, 0.76376736, -0.112725936, 0.10298512, -0.40294844, -0.026433343, -0.3804245, -0.39912066, 0.56204236, 0.13678701, 0.38317496, -0.26290408, 0.5566227, -0.1413602, -0.30300397, -0.74300957, 0.19165827, -0.5832344, 0.22639069, -0.2378685, -0.19827771, 1.2350684, 0.18482311, 0.3332975, 0.6477612, -0.29005536, 0.43007717, 0.07476345, -0.26983613, -0.54478896, 0.64932805, 0.47514105, -0.7545773, 0.38678327, -0.081751905, 0.6999375, -0.7391449, 0.22076695, 0.274142, -1.0549062, -0.6864653, 0.22753115, 0.053533386, 0.062158935, -0.5542163, -0.7410799, -0.015290007, -0.24905547, -0.15567908, 0.18317096, -0.37717158, -0.00777805, -0.3677029, 0.9549365, -0.33917078, 0.6904467, 0.08755966, 0.3484258, 0.07989647, -0.094972745, -0.77972853, -0.13565537, 0.25274885, -0.7913047, 0.29875368, -0.38267, -0.724702, -0.2357175, -0.072293736, 0.10667294, -0.2523468, 0.16829148, -0.1589584, 0.0893502, 0.57334197, -0.7007778, -0.37341726, 0.024442216, -0.30641642, -0.61180437, -0.3329927, -0.03395923, 0.15918759, -0.5114587, -0.24356666, 0.41314802, -0.08620579, 0.58940935, 0.17677505, 0.43225726, 0.26292148, -0.58026433, -0.6116017, -0.19219516, -0.20956607, 0.08407619, -0.32618874, -0.04205699, 1.1086085, 0.5838215, -0.5117065, -0.39400375, 0.23495905, -0.2648527, 0.6109028, 0.4337508, 0.11089406, -0.33832136, 0.34107, 0.04205493, -0.44432014, -0.76101965, -0.46314964, 0.14528495, -0.6806863, 0.003950516, -0.7180672, -0.11623838, 0.5598544, 0.23884591, 0.15699609, -0.2838943, 0.027484173, -0.64919084, 0.3850575, 0.09046292, 0.32769415, 0.42375612, 0.099911466, -0.026026264, -0.04045535, -0.09595421, -0.22526503, -0.32212815, 0.8909052, 0.4842183, 0.36708593, -0.39807963, 0.3967122, -0.30211133, 0.10555426, 0.46202904, -0.08437151, 0.7839641, 0.30065733, 0.5264381, 0.4484372, 0.10472409, -0.66426855, -0.46360207, 0.15694192, 0.17806824, 0.3564295, 0.06482459, -0.18771154, -1.0091822, 0.026907673, 0.632752, -0.016608814, 0.09397618, -0.24108171, -0.3116799, 0.17373297, 0.17048113, 0.101376906, 0.72669363, -0.6935056, 0.095532596, -0.19368085, 0.1389636, -1.2824433, -0.14896771, -1.0474565, 0.6034388, 0.4318533, -0.38625905, 0.33851537, -0.09332584, -0.8317628, -0.5530623, 0.77043486, -0.015281104, 0.103468135, -0.3440068, 0.7696629, 0.45563903, -0.043300766, 0.17765254, 0.13157885, 0.08845003, -0.5254281, 0.1843076, -0.13609491, 0.11493616, -0.22225094, -0.3163511, -0.600983, -0.35901126, -0.38543135, 0.01602029, -0.40008456, 0.40935192, 0.3211724, 0.43400598, 0.051146604, 0.13660696, 0.37511405, 0.42905793, -0.222192, -0.3757183, 0.40845984, -0.035230786, -1.207481, 0.13628234, 0.4305505, 0.3023352, -0.99042046, 0.93656933, 0.29230386, -0.032659214, -1.0222847, 0.12964669, 0.056327067, -0.19935897, 0.36873004, 0.22424917, 0.04590407, -0.59099996, 0.957102, -0.11947636, -0.20310307, 0.13740984, 0.32654947, -0.14245233, 0.30285376, -0.27016914, -0.024661785, -0.48004276, -0.32902682, 0.2744485, -0.3731038, -0.31137234, 0.12853181, -0.4962222, 0.027807146, 0.41240057, 0.28717417, -0.13233182, -0.14064848, 0.035021067, -0.3470866, -1.4234842, -0.032417588, -0.4668334, -0.45327663, 0.19967851, -0.46205717, -0.6107565, -0.33478165, -0.065273225, 0.30125728, 0.22381417, 0.068011075, 0.37712198, 0.4598934, -0.08191658, -0.07373457, 0.05132984, 0.7789857, -0.39081758, -0.25914356, 0.054325413, -0.8092759, 0.022342335, -0.17277117, 0.18726858, 0.9113315, 0.2185674, 0.39928362, 0.63584155, 0.48304296, -0.5629507, 0.0989534, 0.22903912, -0.71567833, 0.38557258, 0.10193388, -0.38289, 0.006598536, -0.35641438, 0.5977143, 0.38079852, 0.4816154, 0.17543843, -0.0615395, 0.49457985, -0.15098982, -0.19167478, 0.3299747, -0.55765104, 0.62889075, 0.04662762, -0.6025902, 0.26085585, 0.2788939, 0.15264638, -0.5722721, -0.21636534, -0.08194326, -0.3877668, -0.018233446, -0.11008898, -0.3791338, -0.48498765, 0.5218544, -0.07428727, 0.21161704, -0.6016359, -0.4510652, -0.48924685, 0.2568852, -0.42217493, -1.0703399, 0.292442, 0.9379156, 0.17039064, 0.6735445, 0.123530746, 0.3410579, 0.086613595, 0.124966264, 0.6696537, 0.36941665, -0.32852167, -0.6570666, -0.5380839, -0.29212567, -0.08730473, 0.6793557, -0.5019802, 0.42435008, 0.26382723, -0.504178, 0.044239484, -0.22624674, 0.90498745, 0.32282585, 0.101394296, 0.2890404, 0.17333977, 0.7825073, 0.96183395, 0.70230013, 0.16758624, 0.11108221, 0.19017935, -0.276762, -0.33635622, -0.24385552, -0.41320762, -0.6688228, 0.0168777, -0.016660322, 0.51275265, 0.1333866, 0.25818568, 0.38872617, -0.021651005, -0.008910485, -0.19958799, -0.054188468, -0.79430705, 0.37647787, -0.9683641, -0.5251195, 0.24227147, 0.42110473, -0.55450785, 0.21986005, 0.2760458, -0.09596537, 0.7122773, 0.2554813, -0.54789186, -0.41347393, 0.34825036, -0.29660305, 0.34318143, 0.5464042, 0.06970546, -0.038265567, -0.4558944, -0.112426326, -0.08158311, -0.23465371, 0.38203532, -0.046428494, 0.03049473, 0.1586869, -0.15997975, 0.602579, 0.45330444, 0.10397141, -0.5205306, -0.68136674, 0.10488129, 0.47256446, 0.64446187, 0.12681165, -0.21233515, 0.09613255, 0.7017198, 0.19864498, -0.8034998, -0.06041513, -0.19638926, -0.070520744, 0.1620858, -0.46237487, 0.02610438, 0.4922079, 0.20988162, 0.46093178, -0.16608623, -0.13342701, 0.3458405, -0.06533773, -0.30158606, 0.020177986, 0.07350386, 0.006967311, -0.18892577, 0.36048484, -0.44876885, -0.10421524, -0.19143173, -0.027078962, 0.35884833, 0.34765413, -0.3248749, 0.11343119, -0.035499703, -0.0061736414, -0.6030472, -0.2614434, 0.11257555, -0.40305334, -0.51736164, -0.08307461, -0.33296916, -0.41660628, -0.10255395, 0.25414723, 0.30616504, 0.26450565, -0.22018161, 0.7173797, -0.056040842, -0.024762487, -0.594384, 0.45367488, 0.82795984, 0.032216586, 0.14525355, -0.37448257, 0.027160784, 0.41817275, -0.23624858, -0.34510535, 0.2312603, -0.17445748, -0.3950008, -0.44239944, -0.057175092, -0.759928, -0.21437442, 0.12949954, -0.41799974, 0.5241991, -0.15198258, -0.12750028, -0.8210989, -0.17572032, -0.12375859, 0.9771196, -0.31642944, -0.02886955, 0.10166075, -0.13287081, -0.11257146, 0.4590096, -0.06956754, 0.20870462, 0.30296957, 0.08654593, -0.28397304, -0.3967839, -0.8477788, -1.0530164, -0.034159426, -0.4596727, -0.34584707, 0.065979086, 0.24366128, -0.31814665, 0.4152966, -0.5975464, -0.5289752, 0.2068381, 0.099910885, 0.5080053, -0.45998317, -0.20189896, -0.24306412, 0.07359522, -0.23988385, -0.40989226, -0.6915476, -1.1168907, -0.17770493, -0.04788416, 0.36021918, 0.26316124, -0.5241138, 0.53959787, -0.07471483, -0.4947609, -0.5048548, -0.18556987, 0.41014093, -0.4861235, -0.1587452, -0.090625584, -0.746616, -0.29645807, 0.30686057, 0.07048387, 0.55910164, 0.05378326, -0.42112845, 0.021980187, -0.12173102, 1.1358316, -0.104364514, 0.06805313, 0.057490498, 0.73786724, 0.24579966, 0.11242642, 0.49221435, -0.33755726, 0.3949935, 0.36710963, 0.25049198, -0.2006362, 0.065201834, -0.15035544, 0.08819241, -0.23592544, -0.19043198, -0.3786012, -0.3672957, -0.70650405, 0.13058192, 0.5401434, 0.06376887, 0.41194996, -0.007515809, -0.37018296, -0.21901014, 0.029752534, -0.91162217, 0.00876925, -0.3669625, -0.4103164, -0.10945318, 0.45599398, 0.22345385, -0.27152354, -0.3335201, -0.09466126, -0.436419, -0.079231486, -0.5455909, 0.36206496, 0.13442473, -0.33154163, 0.531236, -0.9617292, -0.29110435, -0.28393447, 0.12537862, 0.48038155, 0.011864137, -0.7600126, 0.01695029, 0.05501455, -0.50272655, -0.22980013, 0.468994, -0.3872573, 0.3261934, -0.0020038784, -0.06920837, 0.027778184, -0.48499674, 0.05473007, -0.63959295, 0.88192713, -0.2459707, -0.55747765, 0.8011489, 0.027280236, 0.38182434, 0.0049003363, 0.31635886, 0.1286429, 0.43303743, 0.4653058, 0.06083132, 0.082020305, 0.63850796, -0.7019928, 0.39337593, -0.15516025, -0.12292127, -0.011426082, 0.38043952, -0.2842729, -0.03484278, -0.42822185, -0.20113978, 0.13772112, -0.4188327, 0.0018983856, -0.648507, 0.59716797, 0.17432524, 0.26406345, -0.14721507, -0.23948316, 0.14367974, -0.53654057, 0.5571235, -0.28723776, 0.19339594, -0.2611599, -0.7016722, -0.69121325, 0.057031434, 0.06986724, -0.31446707, 0.45222563, 0.0112762945, 0.3755117, -0.45289326, 0.909109, 0.3086349, 0.024329033, 0.08306603, 0.15084863, -0.26343212, -0.24798982, -0.23525068, -0.16238618, -0.58089834, -0.03527358, 0.90130556, 0.16605866, 0.66407657, 0.14588252, 0.25061232, -0.45991865, 0.43192452, 0.8245991, -0.091136135, 0.28416777, 0.15971209, -0.095978454, -0.42360216, -0.025882486, 0.18438424, 0.47058707, -0.08352605, -0.19066168, -0.7763802, -0.14176004, -0.34931666, 0.09843992, -0.39176244, 0.3750602]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HLB란? </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>HLB는 hydrophile-lipophile balance의 약자로 HLB가 크면 친수성 비율이 크고, 작으면 친유성 비율이 크다는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>[-0.36324674, 0.1444227, 0.048941366, -0.26835492, -0.13596004, -0.055537354, 0.13018508, 0.23796566, 0.08749992, -0.38122275, -0.17106096, 0.134104, -0.1436453, 0.6424889, -0.12890746, 0.23686843, -0.008843375, 0.5661637, -0.07820254, -0.44190994, -0.25186774, 0.4503778, -0.08028334, 0.2272546, -0.072393544, 0.12401139, -0.23095897, 0.15516622, 0.4935654, -0.65719604, 0.3622516, 0.17967246, -0.442726, 0.35800034, 0.40971223, -0.19648518, -0.55368423, -0.23238847, -0.059247576, -0.72018254, -0.6523344, -0.14317393, -0.032042537, 0.12544262, 0.0876276, -0.07225076, 0.111994684, -0.021561606, -0.32846648, -0.021236565, -0.06963332, -0.28319818, 0.30502453, 0.18347274, 0.118620716, -0.39221853, 0.274965, -0.46185014, 0.18210535, 0.16301039, 0.19522308, -1.1568148, 0.018601421, 0.65458053, -0.19933307, -0.50489676, -0.41511545, 0.10032783, -0.14174072, 0.2891414, 0.6149496, -0.30611157, 0.32793236, -0.6190591, 0.6249313, -0.22967878, 0.019557348, -0.108547285, 0.22550127, 0.1388623, -0.5648781, 0.039309435, -0.13778663, -0.70784795, -0.15224527, -0.34955677, -0.93372375, -0.34499112, -0.9000382, 0.42397213, -0.18159208, -0.42194742, -0.12574148, -0.01974061, -0.346736, -0.07223175, 0.7753827, 0.230916, 0.7617141, 0.1652533, 0.50679624, 0.092222504, -0.115184665, 0.26086602, -0.4576533, -0.14090748, -0.5379321, 0.012463518, -0.31471783, -0.79593134, 0.37955174, -0.54636025, 0.44565627, -0.24070127, 0.25710008, 0.18691042, -0.4560308, -0.7993784, -0.39836556, -0.03741995, 0.15357347, -0.14931774, 0.04889981, 0.8360117, -0.70457715, -0.08768284, 0.1421528, -0.6539739, -0.121645644, -0.6136796, -0.15148363, 0.3572778, -0.16399427, 0.27724102, 0.25650415, -0.6924758, 0.073810816, -0.37527013, 0.36441544, -0.0991833, 0.4252835, 0.24079229, -0.1911103, -0.016481876, -0.2542736, -0.22195911, 0.43315217, -0.06538833, -0.20776084, -0.5165614, -0.1763384, 0.22928002, -0.7444894, 0.06482063, -0.024674114, -0.44853884, 0.3243725, -0.13618568, 0.21382086, -0.18174168, -0.12424671, -0.20963965, 0.54195845, 0.19148695, -0.5070272, -0.23246327, 1.0731406, 0.30455178, 0.40412185, -0.40065846, -0.7885751, -0.36741558, -0.11805336, 0.06864796, 0.62514436, 0.23231186, 0.38115242, -0.050312247, -0.396804, -0.18009035, 0.24933684, 0.6853272, 0.16682021, 0.49658522, 0.52452207, 0.7934294, -0.10796678, 0.23369943, -0.42737278, -0.44793764, -0.24380897, -0.5067261, 0.29844838, -0.7380752, 0.27781853, 0.18231502, -0.65188307, -0.15543464, -0.40480882, -0.17028686, -0.34245938, 0.10659424, 0.51451474, 0.59514844, -0.07690464, 0.32949492, 0.36518973, -0.4073694, -0.22478938, -0.74866503, -0.29154474, 0.12206888, 0.13059065, 0.22155914, 0.27411693, 0.4377312, -0.42074966, -0.02746526, -0.8815723, -0.2915803, -0.013369709, 0.32675782, 0.774179, -0.082125135, -0.21152923, -0.26867288, 0.47601292, 0.36280257, -0.14006366, 0.032461982, -0.3655379, -0.34600687, -0.36500806, -0.66445535, 0.27923527, -0.31224918, -0.19754896, 0.12564184, -0.16781163, -0.29539797, 0.40127778, 0.1521361, -0.25171438, -0.4140843, -0.4597137, 0.2624682, 0.14147672, -0.72971827, 0.6936413, -0.93476266, 0.6382864, 0.636097, -0.062242277, 0.09589432, 0.42652792, -0.41090885, -0.39391676, 0.15281871, 0.08925153, -0.10277246, -0.11687971, 0.48330274, -0.14126347, 0.21582879, 0.054935414, -0.14616086, 0.24042538, -0.7932472, 0.18857558, -0.15085891, -0.029049579, -0.035496525, 0.41500887, 0.56295186, 0.16115965, 0.3139506, -0.04712339, 0.12827863, 0.2513723, 0.4827931, 0.16290586, -0.027446415, 0.21036424, 0.04278661, -0.2722685, -0.009647424, 0.48337707, -0.1596086, 0.30005604, -0.36159396, -0.017241629, 0.103895344, -0.21354726, -1.0869367, -0.044153083, -0.1052841, -0.62366706, -0.10395466, -0.43994263, -0.015161932, -0.47955343, 0.17667733, 0.17418769, 0.42738196, -0.2483041, 0.45863965, -0.7698304, 0.23930895, -0.14549668, 0.79949766, 0.7773029, -0.7572468, 0.68066365, 0.11061412, -0.05607796, -0.13444461, 0.2148588, -0.76195973, -0.5376933, -0.35796863, -0.27243903, 0.2711887, 0.5824656, 0.30588633, 0.35594845, 0.37179562, -0.25431675, 0.6533031, -0.51816463, -0.14120291, -0.72341496, -0.78881073, -0.33197704, 0.11265308, -0.24221309, -0.23719025, -0.26108694, -0.48530504, -0.23215018, 0.4163819, 0.605351, 0.06618545, -0.66048586, 0.29219422, 0.17539723, 1.5183972, 0.023632238, -0.21392259, 0.39705354, -0.8674444, -0.25785235, -0.06857582, -0.051678896, 0.039597068, 0.6746011, 0.32902113, 0.43318728, 0.49697635, -0.08048951, 0.31803444, 0.20554115, -0.19103697, 0.64813673, 0.47271284, -0.6180816, 0.89650875, -0.5045195, 0.008790457, 0.5015, -0.15015902, -0.34068203, -0.6903873, -0.0145370215, -0.5463871, -0.38975185, -0.4122363, -0.12467935, 0.5963134, 0.1698242, -0.08108038, 0.38705492, 0.2269561, -0.015275757, -0.9237167, 0.19406578, 0.14690456, 0.08969611, 0.046827316, -0.067027986, 0.080009945, -0.057450183, 0.38368967, -0.32540923, -0.30124065, -0.59666395, -0.6484898, 0.035147216, 0.3499353, -0.3360274, -0.32866362, -0.12138506, -0.27572393, 0.5504085, 0.1277918, 0.28137112, -0.27386388, 0.49602106, -0.07320029, 0.13163051, -0.13007642, -0.314747, -0.070700586, -0.3851723, -0.79533184, 0.1743948, 0.37912178, -0.29678327, 0.55955595, -0.27365696, 0.09491395, -0.25168443, -0.25909665, 0.5070644, -0.08843034, 0.31166315, 0.8236164, 0.08785038, 0.34185752, 0.532368, -0.18551135, 0.5515771, 0.29474768, 0.28003863, -0.18216798, -0.02332044, -0.69377476, -0.27110353, 0.29733458, -0.19035017, -0.14422666, 0.8072387, 0.4306317, 0.19695611, 0.5825261, -0.68276584, -0.06490761, -0.08366897, -0.80959874, -1.1733778, -0.47980285, -0.1900507, -0.374191, -0.46446416, 0.16819479, -0.0022088736, -0.2395716, 0.1931879, 0.13175519, 0.1901144, 0.07356056, -0.82759947, -0.18125418, -0.17238824, -0.24837597, -0.11772557, 0.51440865, 0.6219056, 0.36771676, 0.33589485, 0.2860516, -0.37182292, -0.032219756, 0.07937113, 0.17540285, 0.5039142, 0.26473406, 0.028382704, 0.5825725, 0.47194314, -0.23098888, -0.06260103, -0.5607752, 0.025640486, -0.40451717, 0.39203167, -0.13686909, -0.48400894, 0.32550788, 0.25048584, -0.26364538, -0.6686669, 0.35733765, -0.4972336, 0.27992707, 0.83375496, 0.36945298, 0.043525286, 0.6156532, -0.51130277, 0.30366737, -0.0577571, -0.0836895, -0.07157708, -0.16586211, -0.13458118, -0.053349793, 0.1178376, 0.059298366, 0.07970123, 0.6721324, -0.16205992, -0.1008214, -0.131041, -0.23401098, -0.19642302, -0.47077242, -0.23193921, -0.061156977, -0.7619353, 0.28888506, -0.30588394, -0.56284624, 0.39146635, -0.33987975, 0.08322986, 0.1586087, -0.14867721, -0.06545196, -0.29251194, 0.1968823, -0.18014552, -0.5713252, -0.13725768, 0.0166672, 0.29740635, -0.42252204, -0.2087059, 0.846564, -0.42293805, 0.25127783, 0.26857096, -0.35109258, 0.28816247, 0.04295496, -0.8267458, 0.75915796, 0.089662984, 0.28574973, 0.0058891815, -0.30399987, -0.5538009, -0.3254747, -0.418426, -0.35193878, -0.61741537, -0.15629962, -0.23428379, -0.20290998, -0.34094968, 0.53074265, -0.037850406, 0.7631615, -0.51024884, -0.39916888, 0.33343053, -0.45449907, 0.38644338, 0.031500123, -0.07598759, 0.10004091, 0.11702093, 0.38765574, -0.4265547, 0.057148743, -0.52100986, -0.80955154, -1.0830373, -0.28373235, 0.25069642, -0.07186848, -0.37958357, 0.10616182, -0.35119697, -0.23035122, 0.3876574, -0.253438, -0.09592325, 0.4210608, -0.053785622, -0.6695019, -0.37725183, -0.35712734, 0.4583865, -0.8490619, -0.4030273, -0.8785891, -0.43530068, -0.12618145, 0.3274424, 0.20132448, -0.08363826, 0.7202908, -0.67181015, 0.15894993, -0.59576416, -0.8733436, 0.57120234, -0.8194415, 0.03854205, 0.9430288, 0.014396812, 0.08616376, -0.10579306, -0.049295425, 0.2512028, 0.6403555, 0.13894728, -0.018505702, -0.09575091, 0.2657788, -0.281251, -0.23913251, -0.3136234, 0.47984168, -0.6986743, -0.6822545, 0.32967576, -0.37103662, -0.22388138, 0.17312486, 0.5789563, -0.55881864, 0.706585, -0.23856921, -0.22165121, -0.0056082136, -0.78515345, -0.19313066, -0.5376042, -0.98416364, -0.2596936, 0.15014267, 0.2625108, -0.097931944, -0.051147733, -0.7108002, -0.1655744, -0.6023088, -0.46650022, 0.5146821, 0.2822978, -0.10836189, 0.2348312, 0.45198792, 0.82729405, -0.40898204, -0.13957307, -0.5118074, 0.1988262, 0.017712994, 0.030538455, -0.77032834, 0.7526639, -0.03447379, -0.26847923, -0.25556955, -0.491071, 0.4084549, -0.016019166, 0.29170895, -0.12137623, -0.6253511, 0.2044913, -0.031452402, -0.14091828, -0.46566027, 0.60168934, -0.4543173, -0.234152, -0.29758182, -0.42616296, 0.0051331585, 0.05880142, 0.84349525, -0.73265904, 0.7831395, -0.043148726, -0.739113, 0.5910183, -0.026892256, -0.0050194687, 0.33956033, 0.19868709, -0.8453465, 0.21931434, 0.6326226, 0.51179326, 0.088985026, 0.07581345, -0.08252603, 0.26836488, 0.54901373, -0.13877548, -0.6106653, -0.22078063, 0.19558927, 0.15366086, -0.05692001, 0.0880754, 0.441629, 0.2711877, 0.16982475, -0.39232913, 0.012729359, -0.09577354, 0.7109085, 0.18276477, -0.23337445, -0.13125142, -0.8088291, -0.15523258, 0.20879216, -0.3458036, -0.92943543, 0.060322966, -0.2739924, 0.42875484, -0.08022956, -0.3875881, 0.022222608, 0.34148517, -0.17460454, 0.10945728, 0.32123345, 0.6397973, -0.17966081, -0.06450396, 0.1785016, 0.03849371, -0.017218819, -0.35313606, 0.81165886, -0.0026726702, 0.82503736, 0.38256863, 0.13450967, 0.40272358, 0.5205012, 0.25257832, 0.10817457, 0.018203929, 0.3192792, -0.10596933, -0.23683025, -0.19523785, -0.17592372, -0.97992563, 0.07393271, -0.24311323, 0.6134925, -0.38937333, -0.14525382, -0.27146846, -0.00022796541, 0.57367134, -0.17335828, 0.08214696, 0.2894375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>점도에 영향을 미치는 요인들은?</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>온도, 농도, 분자량, 전단속도 등 다양한 요인이 점도에 영향을 미칩니다.</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>[-0.126537, 0.15720218, 0.2614535, -0.6246376, 0.41035387, 0.045061953, 0.065279424, -0.18584456, 0.1526401, -0.060154397, -0.1300404, -0.28753912, 0.16323307, -0.15867345, -0.17109534, 0.51920223, -0.16161877, 0.33101314, -0.69650733, -0.41894117, 0.11168928, -0.20420249, 0.2607429, 0.3287331, -0.48961017, -0.27481714, -0.23364514, -0.15325461, -0.15638168, -0.39230505, 0.21119832, -0.043559376, -0.38138893, 0.14719048, -0.15067352, 0.18123443, 0.02484471, -0.3542218, 0.39684498, -0.10333163, 0.06745045, 0.13480839, 0.18728055, 0.3618215, 0.46397954, -0.33537957, -0.15364105, 0.41131145, -0.3759085, -0.07147129, -0.56585413, 0.009451385, 0.031125676, 0.49455404, -0.36683542, -0.66212124, -0.110935375, -0.13545695, -0.08879542, -0.21872495, -0.52122366, -0.7627471, 0.3248355, -0.027737219, -0.6165895, -0.004410317, -0.19020487, 0.37767473, -0.5315417, 0.069527045, 0.59302974, -0.40304378, -0.18442307, -0.030340314, 0.9429909, -0.08133757, 0.4051585, -0.21788102, 0.6892115, 0.62010026, -0.6436034, 0.073053345, -0.7807837, -0.5783395, 0.49963662, -0.8363788, 0.27390665, -0.99132, 0.24315265, 0.53090256, -0.04201466, -0.26316342, -0.025233341, 0.48466, -0.03755305, 0.29904035, -0.031448476, -0.32774824, 0.3215075, -0.21700042, 0.40430844, 0.41547772, -0.99373734, 0.885829, -0.17090988, -0.11123462, 0.32360125, 0.27743536, 0.58670086, -0.2955072, -0.49870878, -0.119198956, 0.38173598, 0.11763136, 0.056975123, -0.16312999, -0.07822725, -0.1796678, 0.07307727, 0.16133888, 0.5662278, 0.040264137, -0.43897802, -0.20789674, 0.29736, 0.31678835, 0.8545247, -0.091752306, 0.6593104, 0.14734358, -0.42102262, -0.088662826, 0.4616636, 0.10843127, -0.019763501, -0.22286242, -0.20547853, -0.6449053, -0.36417657, 0.4196143, -0.19154105, 0.44116634, 0.10197516, -0.45133454, -0.06704886, -0.36695808, 0.39167488, 0.2834555, -0.17254917, -0.6925392, -0.64663655, -0.091180086, -0.49049136, -0.51677835, 0.3398871, -0.018687686, 0.23319626, -0.39870638, 0.49954817, -0.32347733, -0.405004, -0.16363302, -0.19000284, 0.1240335, 0.44922143, 0.28123885, -0.19026025, 0.08991509, -0.548566, -0.099855796, -0.47007847, -0.29855168, 0.072782904, -0.41528046, 0.12285947, -0.037007317, -0.39432856, 0.022556882, -0.3625254, -0.54052013, 0.100926094, 0.53868675, -0.054569762, -0.3327508, -0.15566574, 0.19794685, 0.21157168, -0.31984928, -0.4457803, -0.50126934, 0.06419194, -1.2913547, -0.7795546, 0.5515654, 0.4321413, 0.8801794, -0.018668232, 0.353364, 0.2760275, 0.7793926, -0.1942242, 1.0376624, -0.49766895, 0.31642362, 0.554684, 0.33186498, -0.14531995, -0.579945, 0.6322451, -0.12799814, 0.29228747, 0.6175112, -0.13280438, 0.020563759, 0.15886831, -0.49660307, -0.29289606, -0.29402277, -0.24617222, -0.40851003, 0.2810066, -0.12895654, 0.68089193, 0.015878208, 0.28788945, -0.42547342, 0.40805578, -0.12604147, 0.9461098, -0.21692525, 0.05822804, -0.43262818, -0.24776092, -0.5868522, 0.042451814, -0.05521552, 0.16277607, 0.5082256, -0.48568213, -0.07596629, 0.25457722, 0.07219643, -0.39305702, 0.13364592, 0.20901802, 0.2665718, 0.2728256, -0.28771955, -0.054342456, -0.2798758, -0.17427666, -0.08797753, 0.5063726, -0.05659872, 0.93398345, 0.2347562, 0.31789976, 0.43465516, 0.25323105, -0.62226903, 0.29944882, -0.031688426, -0.48882437, 0.11622881, -0.13937415, -0.46055952, 0.5932169, -0.80956596, 0.40468457, -0.291034, -0.33378267, 0.042006236, 0.61007464, -0.11234845, 0.2652642, 0.19598116, -0.36986664, 0.6618726, 0.026023846, 0.2731087, -0.036539383, 0.120604225, -0.048455503, 0.02100956, 0.8197919, 0.31757787, 0.3070255, -0.11870604, 0.14337613, -0.15027124, -0.35754892, 0.0002566622, -0.33225727, -1.652879, 0.3919782, -0.20687866, -0.17092101, -0.008285885, 0.40950763, 0.50138754, 0.09688791, 0.47596946, 0.2936956, 0.12913814, 0.1537565, 0.23692761, -0.38173264, -0.12373558, -0.5257036, 0.17414674, 0.7572994, 0.27059254, 0.09701179, 0.3248641, -0.258475, -0.5809039, -0.06601791, 0.13881128, 0.55001134, 0.109046884, 0.01039991, 0.7489981, 0.21575849, 0.08679654, 0.061530814, 0.78206354, -0.14687431, -0.16105634, -0.7816804, 0.030380428, -0.5339134, -0.50688547, 0.3723417, 0.046279904, -0.28899074, -1.0211746, 0.52960217, -0.8535066, -0.3412823, 0.143945, -0.7260221, 0.13126108, -0.20527127, 0.27867573, -0.17479709, 0.48561436, 0.15045549, -0.65672207, -0.050277624, -0.017684596, 0.5581292, -0.1453494, 0.04712882, 0.46048778, 0.6750587, 0.3825451, 0.0140382415, 0.8361492, 0.3653437, -0.050802723, 0.6510762, -0.036104597, -0.15119117, 1.0429839, -0.0409503, 0.007939478, -0.8765287, -0.056413755, 0.07759046, 0.0844682, 0.20587267, 0.08066942, -0.014601252, 0.016126059, -1.158255, -0.17385814, 0.3824106, 0.12083229, -0.26824254, -0.44778845, 0.4203838, 0.73538804, 0.54356676, -0.53188425, 0.90821356, -0.2952526, -0.21496204, 0.19829842, 0.04509294, -0.080730624, -0.0028790017, 0.15381548, 0.36057237, -0.0018557769, -0.6127271, 0.09633068, -1.0251245, -0.26618686, -0.238961, 0.4951361, -0.1450357, -0.19519712, 0.07335252, 0.545238, 0.774612, 0.13219179, -0.3022887, -0.19777687, -0.401034, -0.907954, -0.16245595, -0.62998474, -0.6255175, 0.10648476, -0.32706383, -0.14015773, -0.00987942, 0.027513485, -0.5859838, -0.51115274, -0.21985592, -0.58663994, 0.42903513, -0.3537509, -0.23323987, 0.25479075, 0.3628667, 0.27309787, 0.7197024, -0.20417629, 0.66618305, 0.1223518, 0.09432482, -0.118270084, -0.39842433, 0.12237734, -0.24739957, -0.41342837, -0.20944355, 0.19884175, 0.32458603, 0.1269504, 0.4517818, -0.10928796, -0.2201918, -0.11925681, 0.46398643, 0.18712436, 0.18392569, -0.88943535, -0.02872013, -0.6932771, -0.7133261, -0.08427095, -0.6416546, 0.41138247, 0.16465817, 0.22886482, -1.06404, 0.23355916, 0.053661346, -0.37130606, 0.06878612, -0.6537997, 0.07196671, 0.32874775, 0.64604366, 0.6847686, 0.020877989, 0.10435491, -0.5584553, -0.5961188, 0.30585954, 0.021126177, -0.47595733, -0.43126935, 0.35046306, 0.33690527, -1.0061799, 0.5587044, -0.2745724, -0.18017435, -0.012264816, 0.0093048345, 0.5366198, 0.015845118, -0.35035357, 0.34238365, 0.20229974, 0.30354202, 0.5940757, -0.43675548, -0.20006493, 0.27890444, 0.568158, -0.41699213, -0.22200473, 0.8082431, 0.2020894, -0.41965848, 0.07881994, -0.073631614, 0.17606653, 0.45715898, -0.39908013, -0.1034398, 0.049367394, 0.07358477, -0.27343243, -0.19217333, -0.081222825, -0.41400898, 0.52910465, 0.37363148, 0.17071034, 1.174362, -0.13381246, -0.37166998, -0.19282594, 0.46106097, -0.59440947, -0.27206972, 0.10053588, -0.20426156, -0.3768665, -0.14222553, -0.6056752, -0.039789043, 0.096489005, 0.09252354, 0.07039575, 0.33858854, -0.32546043, 0.3290705, 0.20645136, 0.063103266, 0.17962307, 0.30365583, 0.4938443, 0.01848472, 0.31991893, -0.64048094, 0.45860225, -0.42464682, 0.084580615, -0.362337, 0.6862065, 0.30401593, -0.044236325, -0.0115244305, -0.4916884, -0.7496704, -0.10544123, -0.8182771, -0.15321635, -0.079549916, -0.14682665, -0.69546866, -0.5970962, 0.23657005, 0.61160415, 0.4271607, -0.5181578, 0.48047063, -0.37403712, 0.15363663, -0.290034, 0.46635288, -0.2874212, -0.34851137, 0.45379207, 0.60745966, -0.3117846, 0.64185685, -0.13990723, -0.98376757, -1.4122847, -0.4386763, 0.36206058, -0.37718576, -0.24848413, 0.5253765, 0.507283, -0.99072987, 0.2416869, 0.6339313, -0.69831616, -0.029304145, -0.19351691, -0.08539598, 0.4788583, -1.1408038, 0.14231826, 0.37945935, -0.9510785, -0.7192612, 0.19420268, -0.70123, -0.46962425, -0.52697194, 0.1421275, 0.27159235, -0.078022994, -0.018116528, 0.16547808, -0.880986, -0.28594348, 0.4834765, -0.44109088, -0.00184816, -1.1237601, -0.1554641, -0.219289, -0.35972887, -0.37356633, 0.14554177, -0.1313458, -0.5174727, -0.716026, 0.2149721, -0.6690228, -0.6688195, 0.059940424, -0.71052814, -0.567143, -0.31642675, 0.31990317, -0.33666426, -0.0600764, -0.3893232, 1.1718277, -0.16871364, 0.012089374, -0.1882322, -0.14022884, 0.23417304, -0.0061820974, 0.773201, 0.44644827, -0.92011523, -0.60812956, 0.14514993, 0.5808428, -0.47481906, -0.07665835, 0.62696975, 0.09188494, 0.81922245, -0.3783961, -0.54023564, 0.0017083872, -0.13556872, 0.1740224, -0.070555344, 0.281518, -0.21534635, -0.23346537, 0.7157145, -0.30666015, -0.3239298, -0.24474838, -0.5383011, 0.7139148, -0.29232705, -0.27838576, -0.65022075, -0.50186896, -0.227652, 0.49607882, 0.24305703, -0.36392635, -0.1014555, 0.03948812, -0.04375033, -0.43182644, 0.26778346, 0.19483256, -0.19364887, -0.61267954, -0.163843, -0.34321016, 0.6148463, 0.6284058, 0.6526631, -0.9426803, 1.0498939, -0.7738224, 0.008200299, 0.20296693, -0.14753233, -0.41115215, -0.016436903, 0.57014894, -0.45209402, 0.8406232, -0.27536517, -0.024240186, -0.4158959, 0.13450597, 0.20277959, 0.08994614, 0.43177927, -0.20253211, 0.06802141, -0.45192176, 0.20592459, -0.07101344, 0.3606515, -0.49064535, 0.005436502, -0.33058307, -0.22510964, -0.000708925, -0.18457386, 0.28293222, -0.6969863, 0.2910847, 0.08812089, -0.17672746, -0.3113864, 0.33124992, 0.52150047, 0.09199439, -0.10332416, -0.25917283, 0.22610372, 0.76730686, -0.17167322, -0.5004135, -0.8766891, -0.49409348, 0.28089958, -0.58527005, -0.227415, 0.45576996, -0.237777, -0.78546345, -0.1388246, -0.626138, -0.29059353, -0.29476893, 0.11348427, 0.4873961, -0.2570284, 0.27370512, 0.058835514, 0.58522904, 0.6979069, -0.16785009, -0.957778, -0.14458473, 0.50069505, 0.21702139, 0.30605438, -0.2693537, -0.22448072, -0.07206286, 0.15753852, 0.42475212, -0.8904721, 0.48242095, 0.04778813, 0.091050036, -0.4238785, -0.0769183, -0.057592973, 0.17124765, 0.079443485]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>데보라 수의 정의는?</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>물질의 특성 시간은 관찰시간으로 나눈 값으로, 같은 물질이라고 관찰하는 시간에 따라서 물질의 특성을 다른 관점에서 볼 수 있음을 의미하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>[-0.24761228, -0.363771, -0.4068115, -0.32601553, -0.59418774, -0.11511449, 0.43489793, -0.003712127, -0.09586082, -0.084399775, -0.491892, 0.4829302, -0.25675315, 0.06916059, -0.33462846, -0.20432207, 0.56084883, 0.46969986, 0.58908504, -0.29767078, 0.10400015, 0.06548132, 0.0042480603, -0.40520793, -0.38129517, 0.27411968, -0.1611659, -0.37440345, 0.28833464, -0.73535174, -0.66293174, 1.1498379, 0.109821625, 0.16982406, 0.37888485, 0.070230335, -0.16539384, 0.12689921, -0.060083475, -0.24584106, 0.6157565, 0.18928343, -0.10876114, 0.39499867, 0.15981181, 0.22624524, -0.49591234, -0.14933486, 0.27910912, 0.05603394, 0.064554036, -0.5039375, 0.57601094, -0.28301388, -0.32308286, -0.9709884, 0.15278003, -0.9845187, 0.2865544, -0.4990624, 0.4023423, -1.051814, 0.06027622, 0.29427484, -0.52855045, -0.56355566, 0.3289714, 0.04372061, 0.0680713, -0.09215313, 0.450684, 0.6589122, 0.44203946, -0.7779833, 1.1354855, -0.27241954, 0.22847174, -0.23063396, 0.655029, 0.7241782, 0.477723, -0.10791229, -0.24860416, -0.37858692, 0.24324498, -0.1174744, -0.08733834, -0.066213235, 0.09183937, 0.66715664, -0.22858003, -0.4036293, -0.2818646, -0.36289623, -0.18688855, 0.054716922, 0.45368022, 0.0120298695, -0.31666183, 0.16426094, 0.5350204, 1.3331884, -0.93490034, 0.28261524, 0.3907325, 0.16550124, -0.14901575, 0.48726806, -0.3477328, 0.05665242, -0.20256253, -0.5009782, 0.6204838, 0.014981036, 0.11442901, -0.32762495, -0.2814656, -0.24353297, -0.23759, -0.20816265, 0.43635774, -0.2509656, -0.32655302, 0.77078116, -0.2040922, 0.38562968, -0.16317765, -0.610933, 0.16794515, -0.48211718, 0.18725912, -0.036634274, -0.4157696, 0.351984, -0.5005616, -0.4819794, 0.5118839, -0.13836588, 0.42785186, -0.14764035, 0.16178775, 0.116521925, 0.11288712, -0.59045213, 0.4105337, -0.05442872, 0.6992953, -0.24524811, -0.36870527, -0.053067714, 0.18949036, 0.27122208, -0.46475765, -0.3796225, 0.564909, -0.42941684, -0.036364596, -0.27938282, -0.032128338, 0.10742751, -0.6314498, 0.25372824, -0.31708032, 0.14192629, -0.56942165, -0.20476359, 0.17545867, 0.3921686, 0.09656052, -0.1306625, -0.5600515, -0.5952916, 0.23695624, 0.103214905, -0.088710725, -0.00030501094, 0.0498288, -0.30691433, 0.08818633, -0.1649175, -0.30185404, 0.21488297, 0.10466196, 0.31967023, -0.3090363, 0.22854824, 0.35928047, -0.3184501, -0.3982665, -0.15740596, 0.44903335, -0.017382964, 0.27980626, 0.15788847, 0.3692444, -0.096375786, -0.4437725, 0.16233402, 0.36403692, 0.24006952, -0.08497522, 0.40444198, 0.006102843, 0.08891166, 0.11646444, -0.5359802, 0.2046403, -0.16186954, -0.60008955, -0.54999226, 0.25898206, 0.8570397, 0.22677647, -0.44097334, 0.49851924, -0.076816045, -0.28722283, -0.23295414, 0.49737045, -0.30070773, 0.33996657, -0.17139822, 0.7965064, 0.43169627, 0.026946642, 0.14631554, -0.059243307, 0.021964679, -0.15911677, 0.5179928, 0.11820659, -0.39074764, -0.45621037, 0.15547962, 0.4132977, 0.64695287, 0.36099786, 0.28908142, -0.71478117, -0.20822166, 0.16993621, 0.35509193, -0.4606496, -0.57274973, -0.12379356, 0.40162554, -0.20134377, -0.21029598, -0.2652015, -0.41942266, 0.43299848, 0.13468966, -0.34353942, 0.18270455, 0.560171, -0.8194477, -0.21185884, 1.0006057, -0.64497554, -0.58080137, -0.43695953, 0.75513417, -0.120201334, 0.49685255, 0.29804146, -0.40116805, 0.039796352, 0.07507873, 0.711488, -0.1750797, -0.06992634, -0.15110728, 0.053330954, -0.738935, 0.25725353, -0.03973142, -0.40227297, -0.29921642, 0.54533833, -0.12951401, 0.1694104, -0.2069836, 0.49669722, 0.25872314, 0.49271092, 0.11987975, 0.25346828, -0.13365144, -0.105587, -0.8083028, 0.598192, -0.46227208, 0.35973862, -1.3863543, -0.19157693, 0.15453877, -0.35559204, -0.850681, 0.31604272, -0.3277253, -0.8328155, -0.15881243, 0.15536258, -0.071623236, 0.026364308, 0.40844077, -0.27978793, -0.39245787, -0.7705269, 0.74650705, 0.4367257, -0.048920214, -0.025387816, -0.27600068, 0.43648148, -0.44470847, -0.27808622, -0.5710213, -0.046077598, -0.060690466, -0.111222744, 0.020023929, 0.18266083, -0.20964645, -0.31450117, -0.25227863, -0.31207576, 0.39040667, -0.67942744, 0.14385584, -1.210171, -0.7402862, 0.44266173, 0.31087577, -0.26596844, 0.08046861, 0.53576744, -0.6426669, 0.25062796, 0.6540456, 0.51517737, 0.34683776, 0.19932912, -0.6000724, -0.03063588, 0.8314997, -0.08201051, -0.87358826, 0.3812954, -1.0508491, 0.30718467, 0.548476, -0.5115463, 0.49512678, 0.53991723, 0.029309202, 0.4335419, 0.36799738, 0.06905151, -0.6184171, 0.5414, -0.82107383, 0.67414415, 0.33529183, -0.51449066, -0.013402337, -0.764098, 0.39944455, -0.4738483, 0.1676728, 0.21564753, -0.0043534115, 0.3303642, -0.019250304, -0.013759235, 0.10872044, -0.40240735, 0.021260247, -0.04640805, 0.2257237, -0.258142, 0.4298361, 0.8299998, -0.20860365, 0.23934364, -0.4951754, -0.43322024, 0.045823574, -0.30435848, -0.2422563, -1.0823978, -0.19450626, 0.0069939904, -0.18197522, -0.51600677, -0.48033538, 0.1017818, 0.38968852, -0.63262004, -0.41055396, 0.41944405, 0.3046236, 0.08235069, 0.21560943, 0.090685196, -0.05393655, -0.45640755, -0.15668577, -0.57576823, -0.4687685, -0.10483421, 0.074726894, -0.10728669, -0.77470624, -0.25715554, 0.58582366, 0.25470823, -0.24621713, 0.4926109, -0.82307553, -0.47448555, 0.06139024, 0.4647292, -0.26542023, -0.073480934, 0.4600746, 0.45705992, -0.115183815, 0.6685283, -0.4570317, 0.2892872, 0.29249874, -0.029515563, -0.037789702, -0.33845893, -0.55640924, -0.5753659, 0.011498442, -0.18960233, -0.47568828, 0.25544015, 0.1872387, -0.13309786, 0.5419268, -0.8510156, -0.16105513, -0.14830905, 0.32330805, -0.8194199, 0.11765051, -0.40002617, -0.58280736, -0.1391104, 0.13101959, -0.22928534, -0.049388632, -0.7273953, -0.24796091, 0.0042303205, 0.5763725, -0.6090039, -0.5861798, 0.68755424, -0.5268878, 0.72904825, 0.045846235, 0.51461196, 0.33924624, -0.742479, 0.36484808, 0.3063256, -0.48108092, -0.19195887, -0.2423957, -0.41729933, -0.10518564, -0.104682624, 0.012661692, -0.04990383, 0.13539651, -0.29646543, -0.0013894327, 0.09308655, 0.2793077, 0.8168872, -0.094194084, 0.20884076, -0.24851009, 0.15175158, 0.29823327, -0.18645161, 0.17712337, -0.49104047, -0.7578704, -0.9585316, -0.6625543, 0.4848872, 0.03712412, -0.48828602, 0.2470171, -0.0744549, 0.25299495, -0.4500191, -1.1197331, -0.324056, -0.5603018, -0.19138762, -0.12549274, -0.40400797, -0.23648632, -0.5840514, -0.0769355, 0.03870725, 0.88303554, -0.12076654, -0.012328155, -0.06162923, 0.1713653, -0.041690663, 0.5108757, 0.35053214, 0.08412421, 0.1706844, 1.2672036, 0.35708487, 0.21434818, -0.27595824, 0.27105632, -0.43909478, 0.15183383, -0.39724544, 0.035943404, -0.6806184, 0.3670911, 0.22246656, -0.4091927, -0.07521734, 0.24920487, 0.84979373, 0.8139383, -0.3040298, -0.4593589, 0.314273, -0.10905718, 0.63112015, 0.15546197, 0.3371476, -0.16158532, -0.3842409, 0.054036703, -0.56035393, -0.7161046, -0.5441481, -0.25768796, 0.16928717, 0.53317523, -0.29522833, 0.19745126, -0.23727012, 0.38568076, -0.48951077, 0.5950771, 0.7111519, 0.4742137, -0.2500864, 0.22390407, 0.015780993, 0.8020254, -0.1999086, -0.2425133, 0.4735919, -0.054496735, 0.41898027, 0.13007195, -0.8481983, -0.53853154, -0.4493242, -0.058056846, -0.5561202, -0.47595426, -0.045012005, -0.0494923, -0.009480708, -0.7006359, 0.020561177, 0.3553183, -0.4635517, 0.30807602, 0.52298254, 0.04021467, -0.03544146, -0.34751308, 0.7795276, -0.28508353, -0.5256807, -0.4966272, -0.32929367, 0.36715123, -0.5265265, 0.35906708, 0.2935347, 0.39267635, 0.29972044, -0.63422424, -0.66115135, -0.9119911, 0.33680454, 0.8926453, -0.06639429, 0.1590862, -0.42343408, 0.49628368, -0.14381899, -0.45073506, 0.14456928, -0.43927133, 0.045881875, -0.41969773, -1.0538828, 0.5193999, -0.39385542, -0.06440985, -0.14164081, 0.19986755, -0.47338676, -0.34024, 0.75661707, -0.069403455, -0.4286434, 0.0044294707, 0.31866, -0.1719365, 0.028101383, 0.32579973, -0.13229446, -0.435313, 0.35998285, 0.008339774, -0.30345815, -0.6673297, -0.44301206, 0.5103741, 0.32406357, -0.15081808, 0.1704101, -0.34691414, -0.17206885, 0.14873822, -0.28465915, 0.06548656, -0.16738403, -0.27085808, -0.8786256, -0.042465292, 0.0780459, -0.23279253, 0.34991306, 0.07111733, -0.1284717, 0.113588154, 0.1929419, -0.565172, 0.044099316, -0.32329017, 0.21927236, -0.5970878, -0.387386, -0.18234755, -0.20649067, 0.1814746, 0.90483254, -0.4996253, 0.19216003, 0.11234604, -0.49621722, -0.45164296, 0.21258092, 0.20933092, 0.27688012, 0.17316447, 0.19902834, -0.40537745, 0.17654614, -0.04092227, -0.010032555, 1.0073668, -0.42901355, -0.18135765, 1.0255853, 0.21736567, 0.08153947, -0.097210795, -0.1640243, -0.17616946, 0.22835442, 0.31379876, 0.49732, 0.34653115, -0.4524945, -0.6778032, 0.5348528, -0.3206907, -0.8100396, 0.3838159, -0.15180188, -0.16303112, -0.2644226, -0.10504663, -0.75116193, 0.009052899, 0.25518414, 0.1147281, -0.35974145, 0.25699604, 0.5679374, -0.58379245, 0.31994152, 0.18986925, -0.12306837, -0.025211424, 0.71169513, -0.21094668, -0.30742472, 0.13563468, -0.37723097, -0.05750485, 0.40250787, -0.29680175, -0.05834426, -0.17232545, -0.3523342, 0.109232716, -0.22736228, 0.1442509, -0.0028986419, 0.031397115, 0.034649655, 0.5101287, -0.1712946, -0.34442645, -0.66150874, -0.17605922, -0.35872597, -0.31656334, 0.17748962, 0.24654752, 0.4341069, 0.7219349, 0.21669503, -0.62493503, 0.49413925, 0.048758045, 0.038561575, 0.122906014, -0.60387367, -0.56091917, 0.5087399, -0.053565525, 0.66426146, 0.44775248, -0.30719933, -0.15669504, 0.019127868, -0.081049025, 0.4951482, -0.22366928, -0.1699728, 0.07200977]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>층류의 의미는?</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>레이놀즈 수가 2100 이하일 경우, 유체가 섞이지 않고 평행한 층이 미끄러지듯이 흘러가는 흐름을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>[-0.07120478, -0.4471331, 0.58993715, 0.21429344, -0.32304573, -0.2782122, 0.4634979, -0.11876202, 0.36961257, 0.20773157, -0.1418105, -0.5157686, -0.013035233, 0.6034041, -0.4228843, 0.2962356, 0.37527695, 0.06540188, 0.9851641, -0.29591703, 0.17875849, 0.45563057, 0.4530699, 0.5716716, -0.45999703, 0.6545855, -0.47167322, 0.29870865, 0.3873488, -0.7903263, -0.03873727, 0.23488654, -0.08930189, 0.21709442, 0.44894844, -0.030405002, -0.5568054, -0.22195466, 0.30310938, -0.9302983, -0.15899916, -0.31342423, -0.016847286, 0.3665725, 0.20595793, -0.054736923, -0.30373555, 0.30703923, -0.34579778, -0.09782642, 0.17443714, -0.06139602, 0.1688225, 0.44381112, -0.23751281, -0.66349083, 0.4351297, -0.34333026, -0.32853168, -0.018964132, 0.6147403, -1.4358162, 0.1654018, 0.26920593, 0.12197081, 0.30266052, 0.087325096, 0.7399291, -0.5031491, 0.40709105, 0.5737972, -0.11806263, 0.7480355, -0.5328015, 0.41966072, -0.033743795, -0.195896, -0.42790553, 0.7223908, 0.5271594, -0.35252622, -0.27326307, -0.25438243, -1.2729158, -0.16454081, -0.31239498, 0.23482445, 0.15733397, -0.022420388, -0.037290126, -0.8203691, -0.45260188, 0.22802877, 0.05739011, -1.171195, -0.4275582, 0.26260415, 0.057727076, -0.24884103, 0.32888293, -0.0042753005, -0.10243922, -0.46679634, 1.0374945, -0.0330747, 0.6984985, -0.13564794, 0.59765583, 0.021643344, -0.26337218, 0.9207462, -0.37706554, 0.49435076, -0.4139076, -0.11478369, 0.15569556, -0.18239279, 0.015288567, -0.59543943, 0.41882476, 0.5537777, -0.39354116, -0.43939734, -0.034909386, -0.6366359, 0.40551418, 0.17933634, -0.33133784, 0.6675811, 0.42826512, -0.06228645, 0.12096057, 0.645336, -0.073190615, -0.25054908, 0.06779359, 0.51343954, 0.2392207, 0.3422824, 0.4685786, 0.028836228, 0.28698975, 0.21219525, 0.2039111, -0.26029226, -0.18578711, 0.5388969, -0.23090634, 0.06516859, -0.36459792, -0.43315583, 0.2761112, -0.31833056, 0.33254573, -0.11100958, -0.66980255, 0.1417142, -0.6763059, 0.15304984, 0.05801241, -0.5414259, -0.24476212, 0.20927007, 0.01831769, -0.45208204, 0.29262763, 0.5776705, -0.43531632, 0.06712135, -0.62543577, -0.51515806, -0.1740183, -0.5595621, 0.080809474, -0.32262, -0.25529307, -0.36550355, -0.11011367, 0.011603622, -0.10653259, -0.0161694, 0.28275138, -0.25517756, 0.574404, -0.021179961, 0.008057041, -0.040267274, -0.04525572, -0.7769409, -0.035971615, 0.5568813, -0.86491174, 0.5621033, -0.22580597, -0.26964217, 0.58379424, -0.6906688, -0.03677001, -0.3812897, -0.2278583, -0.7696637, -0.28586727, 0.7744973, 0.10466867, 0.008160174, 0.7830134, -0.58735734, -0.54133993, 0.2333453, -0.5691243, -0.18825516, 0.9408456, 0.5633916, -0.63003355, 0.01624396, -0.052463926, -0.81461513, -0.64457583, -0.011549767, -0.2447301, 0.31366208, -0.16423066, 0.7316903, -0.46992958, -0.69471663, -0.043142278, 0.277257, -0.032835763, -0.19153093, -0.0888913, -0.33984303, -0.25277835, -0.58722836, -0.053417645, 0.7907046, -0.6375359, 0.50303096, 0.5002799, 0.67335147, -0.049973726, 0.671455, 0.3677992, 0.06456533, -0.00021605194, -0.040782142, 0.2034723, -0.14040771, -0.4510229, -0.2581244, -0.5033742, 0.4402429, 0.5899438, -0.2621293, 0.49351546, 0.03190855, -0.22218212, -0.18613808, 0.95775545, -0.17701851, 0.3782571, 0.28444058, 0.044884685, -0.20798728, 0.32886964, -0.37463775, -0.46489173, 0.61810803, -0.87974006, -0.11140134, -0.10082262, -0.3448366, -0.2922583, 0.12281156, -0.17848665, 0.32537872, 0.6056896, -0.06824355, 0.77112395, 0.16897427, 0.07930194, 0.12910987, 0.14342052, -0.12387702, -0.13013923, -0.43312585, -0.08830179, -0.04351498, -0.5251235, -0.54926705, -0.42363077, -0.15094116, 0.007473562, -0.08184084, -1.9484292, 0.174648, 0.14878558, -0.61877626, -0.25619158, -0.20909773, 0.29519925, 0.32124949, -0.14971168, 0.27928507, 0.597818, -0.06434613, 0.5944451, -0.43787628, 0.10202822, 0.27314234, 0.6912859, -0.08847431, 0.41330826, 0.114068344, 0.0007099982, -0.23669715, -0.88500786, 0.0089868, -0.079655625, -0.15278612, 0.045198582, -0.12761794, 0.31663448, 0.1593101, 0.13993941, 0.2739491, 0.417267, -0.25154513, -0.032321423, -0.3583471, -0.09387309, -0.04527557, -0.5052583, -0.043930814, 0.6049833, 0.1135114, -0.328061, 0.5763176, -0.39564794, 0.40302974, -0.06345571, 0.6517559, -0.15141797, -0.4376039, 0.7479789, 0.44590783, 1.2600508, -0.3534341, -0.24908333, 0.44714043, -0.4446919, -0.21189363, -0.119253285, -0.13448599, 0.3128187, 0.86054736, -0.052702233, 0.45514348, 0.28823712, 0.07733367, -0.27669507, -0.11461429, -0.03406051, -0.06355494, 0.6904433, -0.39378315, -0.11866667, -0.8848844, 0.37980768, 0.10274979, 0.0027641077, 0.026596922, -0.17704938, 0.27435935, -1.0406077, -0.39204726, -0.110126324, 0.104020886, 0.19636986, 0.16247185, -0.18511647, 0.35189557, 0.8919768, -0.48377156, -0.4344351, 0.4055268, -0.15361626, -0.2088302, -0.27696592, -0.3321029, -0.44838086, 0.0019352809, 0.103305645, -0.29124093, 0.24600479, -0.33618295, 0.049979, -0.2976439, 0.04878772, -0.8351035, 0.15027694, -0.23944159, 0.37976795, -0.070887566, 0.7432688, -0.022868332, -0.43411738, 0.3765384, -1.0125446, 0.022007912, 0.35451943, -0.36419883, -0.65730274, -0.17414461, -0.28912148, -0.17277806, -0.19388512, 0.03793414, 0.10480908, 0.074404985, -0.06853568, -0.48478213, -0.57340056, 0.7947712, 0.4324084, 0.5770861, 0.3434344, 0.5746632, 0.35608792, 0.3159576, 0.1844399, 0.62317157, 0.27113914, 0.43992284, 0.3658231, 0.1789988, -0.9819892, -0.11294536, -0.5215177, -0.37221625, 0.117076084, 0.76516855, -0.21994978, -0.031585407, 0.39587712, -0.64672285, -0.18241887, -0.27140948, -0.056892723, -0.62484527, -0.5906344, 0.17177974, -1.010441, -0.050787494, -0.2567852, -0.18128361, -0.15293331, 0.7819694, 0.58344823, -0.0117610125, 0.39451537, -0.40399516, -0.18657021, 0.060380064, -0.18248478, 0.19109228, 0.08369593, -0.013932353, 0.7052214, -0.07247531, 0.23600103, -0.5064147, -0.14463991, 0.20218894, -0.68876827, -0.10444834, -0.026144799, 0.12023333, 0.0021253955, 0.14077328, 0.19789876, 0.015804794, -0.9367184, 0.37644643, -0.20090811, 0.29019773, -0.026857799, -0.5090957, -0.11988931, 0.14523117, 0.12212925, -0.29939306, -0.26543036, 0.3649576, 0.18608178, 0.38107565, -0.2761275, 0.29923743, 0.53524184, -0.24088556, -0.3034372, -0.0066628326, 0.17919824, 0.3211446, -0.079889625, 0.2769593, 0.18305457, 0.14093615, -0.4510678, -0.861628, 0.042553317, 0.090069756, -0.093446866, 0.7245622, -0.04588866, -0.23642063, 0.020493971, -0.3967627, -0.050672323, -0.6368798, 0.044043455, -0.53183234, -0.07136849, 0.35228303, -0.072804414, -0.12900987, 0.07039731, 0.011374932, -0.117855355, 0.0013628714, -0.13680467, -0.12058949, -0.46601912, 0.21567859, 0.022646226, -0.049158808, -0.39594865, 0.33193824, 0.112142116, 9.209849e-05, -0.018405348, 0.12069909, -0.30524704, 0.8586639, 0.29677036, 0.14502554, -0.10099328, 0.0889452, -0.21101405, -0.42547002, 0.15484455, -0.31900692, -0.46830755, -0.755382, -0.59192294, -0.09962775, -0.33695468, 0.0145831015, -0.24297589, -0.67759, 0.55448234, 0.08119383, 0.5360537, -0.4832515, -0.016486205, -0.23178393, 0.025723275, 0.23128556, 0.2188877, 0.1579884, 0.18223163, 0.18487719, -0.4797576, -0.22379974, -0.5553267, -1.0178255, -1.2746017, -0.57215804, -0.39678434, -0.25982225, -0.17877373, 0.27742288, -0.44984964, 0.14673881, -0.20570597, 0.70633984, 0.5267886, 0.27422747, 0.45333803, -0.46161765, -0.116066314, -0.37394243, -0.7787328, 0.6563622, 0.4563383, -0.8402774, -0.45510772, -0.2753375, -0.16802476, -0.64793843, 0.06921172, -0.31659216, 0.6516912, -0.64186597, -0.027268706, -0.6175907, -0.59397554, 0.588616, -0.3140112, -0.14714047, 0.47654498, 0.2687697, -0.011844326, 0.544425, -0.24350497, -0.29862696, -0.23047689, 0.27719638, -0.6887264, -0.123502426, 0.5486217, -0.5644185, -0.46383476, -0.6388265, 0.23062862, -0.43507653, -0.84465116, -0.021816123, -0.23508742, -0.16011468, -0.05241592, 0.4337783, -0.2925705, 0.873133, -0.15855822, -0.26160526, 0.04814267, -0.06893602, 0.5267686, -0.57218766, -1.3749189, 0.024595484, 0.13005781, 0.42447314, -0.04237904, -0.34586927, -0.5122886, -0.14740038, -0.27624565, 0.13570568, 0.27936834, -0.44680348, -0.45128128, 0.44583616, -0.22169554, 0.82022405, -0.046741404, -0.4580743, 0.45712602, 0.276342, 0.13895094, -0.16510153, -0.42801318, 0.4903293, -0.08102228, -0.7119947, -0.0812544, -0.5078258, 0.314372, -0.2030062, -0.024176925, 0.21217234, -0.32308006, -0.4678353, -0.024299935, -1.1453942, 0.061595105, 0.90918773, -0.44180277, 0.10790911, -0.21057871, 0.15249787, 0.32565063, -0.03469959, 0.7913941, -0.8882066, 0.48370707, 0.021720653, -0.07465148, 0.10682572, 0.4677611, -0.506922, -0.37308732, 0.50663435, -0.34426245, 0.7384295, 0.32155073, 0.43963876, 0.061880242, -0.5498887, -0.20346889, -0.046204958, -0.103318796, -0.9324337, -0.20655707, -0.21960872, 0.09941357, 0.08191125, -0.7602551, -0.12130484, 0.062544644, -0.43026423, -0.16511062, -0.51440156, 0.22232914, 0.020213166, -0.035088524, 0.32347342, -0.19203547, -0.5700258, -1.1651882, -0.26326823, -0.003701076, -0.09179878, -0.54286826, 0.025690582, 0.13594122, 0.4581236, 0.021861209, 0.021818206, 0.15077381, -0.0858378, -0.24557684, -0.14945412, 0.36338103, 0.4878615, -0.18636033, -0.48446935, -0.063560314, -0.10872221, 0.027610755, -0.3664159, -0.36701983, 0.18330625, 0.29843816, 0.6872167, 0.50522244, 0.74679315, 0.57711506, 0.24530633, 0.2867089, -0.5724372, 0.32750544, -0.32249403, -0.24263467, -0.3971994, 0.17306, -0.8647848, 0.35186088, 0.4789996, 0.6636192, 0.2999546, 0.14590827, -0.55260235, 0.14143631, -0.101619534, 0.14675389, -0.0009801304, 0.81974256]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Laminar flow의 의미는</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>레이놀즈 수가 2100 이하일 경우, 유체가 섞이지 않고 평행한 층이 미끄러지듯이 흘러가는 흐름을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>[0.20758018, 0.2617804, 0.19216615, 0.17367467, -0.38913548, -0.016074054, 0.35199657, 0.11213355, 0.031498738, -0.43827778, 0.25254962, -0.54341114, 0.017913777, 0.29453155, -0.49285546, 0.17700681, 0.88824064, 0.55480915, 0.7499835, 0.34121665, -1.0043586, 0.70586556, -0.18478435, -0.050577987, -0.52724344, 0.703207, -0.12229796, 0.268541, 0.14912212, -0.04285024, -0.4673261, -0.079323895, -0.28776026, 0.23347566, 0.27501884, -0.21665974, -0.4023331, -0.0052331225, 0.5357981, -0.6676919, -0.068721615, 0.26744336, -0.3063398, 0.032570746, -0.30470175, -0.58870184, -0.3322833, 0.0800062, -0.24579856, -0.3146986, 0.42643842, -0.2944091, 0.30525732, 0.21251926, -0.18992302, -0.5744557, 0.22087774, -0.37499923, -0.7752919, -0.27341014, 0.55038357, -0.8147562, -0.32461578, -0.12419621, -0.13639712, 0.13569619, 0.14154293, 0.28231478, -0.18671028, 0.14108464, 0.8497136, 0.4703904, 0.160339, 0.19352429, -0.0014945656, -0.2249619, 0.016777035, -0.4321693, 0.6803278, 0.38790956, -0.25071746, -0.54042786, 0.06301626, -0.41720614, -0.36664182, 0.6998536, -0.18468206, -0.08531674, -0.4135046, -0.04739943, -0.35589537, -0.40830755, -0.4878117, -0.087453686, -0.72185314, -0.049007297, 0.23273554, -0.1545388, 0.56637096, 1.2663324, 0.04206443, -0.1953601, -0.049633004, 1.1142666, -0.16426536, 0.6596476, 0.25039765, 0.36930174, -0.004265097, 0.35492426, 0.17196754, -0.223351, 0.73260003, -0.27553165, 0.31574577, -0.25983304, -0.9381347, 0.28514695, -0.02042982, -0.09138605, 0.11242024, -0.043559425, -0.96090806, -0.0030915078, -0.12406005, 0.18773898, 0.111758254, -0.44561204, -0.36008227, 0.35577708, -0.104701795, -0.35671648, 1.005168, -0.29565758, -0.31882885, 0.20346585, 0.021527361, -0.23474292, 0.19747938, 0.91571075, -0.4555449, 0.32365742, 0.010481498, 0.4900864, 0.10047977, -0.14715275, 1.0085073, -0.29898188, 0.029916992, -0.865993, -0.30405653, 0.4691518, -0.6840154, 0.17040503, 0.10278945, -0.7746546, 0.1971501, -0.39481077, 0.047958665, -0.22242841, -0.2564183, -0.44821295, 0.21603838, 0.2664714, -0.5005805, 0.8624336, 0.03804166, 0.2694912, 0.02276574, 0.06340593, -0.57308924, -0.15624252, 0.14822862, -0.2606159, -0.44232732, -0.0056290226, -0.18690641, -0.21972325, -0.79510236, 0.40654755, -0.8207594, 0.22255602, -0.27186984, 0.3815026, 0.13582313, 0.23779173, 0.09191147, 0.64642394, -0.53356683, -0.47814718, 0.77838695, -0.75882894, 0.39342046, 0.2809977, -0.20532247, 0.7941353, -0.4194664, 0.71960354, 0.18428326, 0.012341897, -0.9077469, -0.20766146, -0.16531847, 0.42184272, -0.07195027, 0.83934814, -0.7052506, 0.030651044, -0.021878496, -0.6051631, -0.6325559, 0.63504297, 0.35679904, -1.0861046, -0.40921384, 0.8953458, -0.63438195, 0.25170988, 0.9362294, -0.61508024, 0.95532286, -0.21494818, 0.42220315, -0.19663954, -0.4484771, -0.18269798, 0.8308457, 0.2643547, -0.0062606754, 0.07093032, -0.7775693, -0.4256867, -0.33308044, 0.0054667653, 0.90108335, -0.25144255, 0.54905486, 0.15454736, 0.41882116, -0.24143949, -0.21046539, 0.35733044, -0.03416378, -0.12113156, 0.6689395, -0.031403307, 0.23075143, -0.22102916, 0.095947556, -0.5867212, -0.35713547, -0.077989966, -0.14400476, 0.25254613, -0.4034225, -0.26899114, -0.03550079, 0.85193557, -0.66885006, 0.008089422, 0.39685157, -0.006381057, -0.2824958, 0.23556438, -0.09472426, -0.30756935, 0.3874772, -0.63867176, 0.24024753, 0.8728191, 0.21672638, -0.24526647, -0.2868474, -0.3154529, 0.40689784, 0.2946519, 0.23303549, -0.019323535, 0.5966806, -0.22941497, 0.017826023, -0.14122045, 0.43945488, 0.57004607, 0.18280154, -0.023401197, 0.20263875, -0.3009059, 0.1785228, -0.4277987, 0.4048066, -0.39515647, -0.48232442, -1.5622919, 0.26264232, 0.6307198, -0.21911061, -0.5021675, -0.048945256, -0.11346581, -0.24219258, -0.27561894, 0.56593686, 0.05372715, -0.46939224, 0.10622819, -0.06621622, -0.31763592, -0.013747543, 0.72523123, 0.14231244, 0.36750787, -0.32430497, -0.12499913, 0.18073833, -0.6837244, -1.037367, -0.31152982, -0.76202464, -0.655345, 0.49101916, -0.5406858, 0.120996155, 0.42131656, 0.18031612, -0.07511387, -0.53616935, -0.21618709, -0.76307756, -0.2750008, -0.19952036, -0.5432962, 0.033063818, 0.23809454, 0.08118685, -0.33204, 0.18603648, -0.26894826, 0.20766611, 0.3685174, 0.13109389, -0.10936935, 0.043530576, 0.2958635, 0.2789447, 1.2397983, -0.28109854, -0.28274277, 0.48322576, -0.01567489, 0.036199413, -0.3021845, -0.64730126, -0.0011486039, 0.15258624, 0.21742332, 0.70386773, 0.23574045, 0.5538769, 0.037938602, -0.27789474, 0.17216204, 0.16204539, 0.42236948, 0.46705097, 0.007920881, -0.49303478, -0.030686283, 0.16098788, -0.41517153, -0.04723937, 0.115675986, -0.057568133, -1.2470508, -0.35658363, 0.18515833, -0.30185318, 0.09264741, 0.5648574, -0.50612724, 0.28204688, 0.77631134, 0.089828804, -0.83701926, 0.5115878, -0.29158625, -0.0040412648, -0.27420658, -0.18795955, 0.21030828, -0.41216844, -0.81320286, -0.37741825, 0.39593413, 0.011770606, 0.15563224, -0.66987395, 0.11099459, -0.57092947, -0.19079368, -0.24207994, 0.19905719, -0.062601574, 0.72298706, -0.06148029, -0.24023111, 0.49152422, -0.48334074, -1.0872146, 0.5823906, -0.028531069, -0.59741175, 0.067242436, 0.058751695, 0.30445394, -0.96551067, 0.22840014, 0.11864547, 0.13762963, -0.15783715, -0.8272009, -0.0954565, 0.002332136, 0.09027831, 0.2795718, 0.51074207, 0.5633876, 0.4424103, 0.048417546, 0.09067307, 0.30884594, 0.5675105, 0.23378424, 0.41923842, -0.18554585, -0.22210415, 0.18599775, -0.36269468, -0.60850114, 0.50011706, 0.5201358, -0.3477499, 0.07357636, -0.32601708, -0.36761835, -0.23274872, 0.15930198, 0.5094639, -0.8698411, -0.86737233, 0.34604067, -0.867572, 0.088025294, 0.34303647, -0.287875, 0.5691667, -0.2420865, 0.43688303, -0.5361771, 0.5994571, -0.36550838, -0.4746937, 0.47869617, -0.07928629, 0.510368, 0.50095963, 0.17186153, 0.0906966, -1.0664561, 0.3186161, -0.40326276, 0.2860451, 0.3294441, -0.2762454, 0.20895953, -0.08226037, -0.11574701, 0.322484, 0.24216168, -0.17931572, -0.45211142, -1.2388299, -0.34026366, 0.01343638, 0.65858066, -0.37162247, -0.20451632, 0.15215065, 0.24498741, 0.1294375, -0.14048257, 0.010681331, 0.40119153, 0.35681078, 0.4979989, 0.2757447, 0.05193326, 0.38530606, 0.4079017, -0.41352898, 0.052191574, -0.30073887, -0.30489784, -0.24653152, -0.28853002, 0.1368927, 0.08222438, -0.37489352, -0.5686834, -0.10535884, -0.42146564, -0.208594, 0.55807126, 0.25691128, 0.1665971, -0.703831, -0.76094985, -0.51149535, -0.38853493, 0.30937117, 0.050910927, -0.36540395, 0.31603783, -0.35236517, -0.30776322, -0.425466, -0.14322023, -0.18025522, 0.14859062, -0.24110012, 0.35455176, -0.4110765, 0.22401628, -0.34918645, 0.24128875, -0.6053187, 0.47213334, -0.14945261, 0.97726935, 0.5012831, 0.037019573, 0.41476455, 0.21708114, -0.44343495, -0.18174388, 0.28417444, -0.045882877, -0.6078999, 0.029950043, 0.20829591, -0.20135236, -0.20311153, 0.0069196643, -0.26874787, 0.2603156, -0.2293785, 0.018016037, -0.0064577595, -0.27494112, 0.7599294, -0.06262568, 0.19200377, 0.26477113, -0.453485, -0.19090053, 0.59677404, 0.07071923, 0.2166367, 0.029295335, -0.119292855, -0.33529618, -0.25475642, -0.20066693, -0.9852389, -0.7046526, -0.76760674, -0.8692544, -0.2767511, -0.30741847, -0.8165345, 0.015394064, -0.55549586, 0.03627286, -0.46076626, 0.75630635, 0.09640689, 0.22907153, 0.10183711, 0.045977894, 0.42095956, -0.24938431, 0.18248397, 0.16408567, -0.24359646, -0.9929949, -0.804595, -0.14295372, 0.7800777, 0.22481236, -0.22040448, -0.524497, 0.43656826, 0.18247242, -0.07513784, -0.12870316, -0.35127404, -0.28772488, 0.9888946, -0.06944287, 0.5870008, -0.028948743, -0.2289308, 0.9464005, -0.7861438, -0.2803531, -0.31621343, 0.10493715, -0.4810868, -0.34672773, -0.16804469, -0.30418304, -0.09668784, -0.55333805, 0.23911972, -0.23896027, -0.5441348, -0.5255159, 0.08793831, -0.2966128, 0.09203084, 0.18783323, -0.036692955, 0.07476157, -0.044182207, -0.061677743, 0.062611006, -0.19472544, -0.043142058, -0.48933238, -1.259253, -0.12923473, -0.62830895, 0.22508088, 0.25870872, -0.16695614, -0.642992, 0.21643607, -0.26683623, -0.23335178, 0.3068352, -0.4970216, -0.31591877, -0.22629185, -0.32108656, 0.27812597, 0.3944419, -0.29919717, 0.71608543, -0.19177607, 0.3023767, -0.17000245, -0.31078267, 0.60976404, -0.42550263, -0.19945444, -0.12816916, -0.4265631, 0.08331877, -0.53116566, -0.08076393, 0.48859733, -0.9858257, 0.06266603, -0.031744182, -0.6411458, -0.053484023, 0.4607636, -0.7557497, 0.31462824, -0.09339503, 0.9794508, 0.23856261, -0.05203203, 0.7445975, -0.80243146, 1.0263988, 0.38146994, 0.26376238, -0.21934867, 0.100032486, 0.38703182, -0.47878513, 0.2621962, -0.1661017, 0.41825444, 0.2145931, 0.49241337, 0.88090086, -0.124093845, -0.42032942, -0.006356336, -0.23469183, -0.47732097, 0.004978843, -0.5418082, -0.36842844, -0.035611097, -0.21539375, -0.31196988, -0.25244308, -0.122303106, 0.28074253, -0.38705382, -0.1794015, 0.6069449, 0.10048461, 0.08033007, -0.23902376, -0.52499664, -0.74772227, 0.41374436, 0.085639045, 0.081820205, -0.678955, -0.17751403, 0.14364143, 0.15998705, -0.42476994, -0.22899568, 0.5209037, -0.47483176, 0.4278322, -0.15986356, 0.5014176, 0.24795356, -0.0034038625, -0.63811255, 0.22644186, -0.28192538, -0.55949277, -0.16754766, -0.5920366, -0.58728874, 0.13014099, 0.22167447, 0.2942799, 0.7504591, 0.11290304, 0.51627874, -0.033789642, -0.31465253, 0.9139659, -0.20756412, 0.32426736, -0.58076525, -0.09249489, -0.19963011, 0.46626258, 0.18274777, 0.20754978, -0.010495411, -0.2904548, 0.041927915, -0.16182202, -0.5676676, 0.25542802, 0.0053822496, 0.8673533]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>난류의 의미는?</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>레이놀즈 수가 4000 이상일 경우, 유체가 서로 섞여 소용돌이치며 흘러가는 흐름을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>[-0.12443827, -0.17760414, 0.601183, -0.29008576, 0.17807859, -0.0031136945, -0.26839304, 0.115995795, 0.75990546, -0.1384708, -0.35862082, -0.7791568, -0.3681837, -0.058754664, -0.43879205, 0.27019775, 0.11918531, 0.14287585, 0.27157244, -0.18760772, -0.2914482, 0.35200346, 0.5914381, 0.19569285, -0.4359814, 0.8311331, -0.51925, 0.09171996, 0.088989265, -0.12654172, -0.2830267, 0.29269412, -0.43738103, 0.3702836, 0.39116442, -0.035413448, -0.6232872, 0.085087486, 0.060761824, -0.2418291, -0.11556725, -0.17631249, -0.46995994, 0.15423845, -0.08910399, -0.6949053, 0.12987976, -0.36752546, 0.0053119548, 0.5642955, 0.3695015, 0.15567036, 0.35404593, 0.39948732, -0.16086526, -0.6735399, 0.35834303, -0.034463044, -0.3590551, -0.3675365, 0.72733724, -1.5763441, 0.1817967, 0.5314316, -0.057691764, 0.3872193, -0.44827354, 0.5236675, -0.902229, 0.48650852, 0.37663904, 0.36299413, 0.5726496, -0.54033583, -0.1236058, 0.01815749, 0.08113421, -0.43434078, 0.39841628, 0.32213384, -0.26261637, -0.71366113, -0.43126363, -0.9527721, 0.4546956, -0.27751657, -0.0844475, -0.28060013, -0.23891237, 0.10275698, -1.4984685, -0.07607821, 0.4857869, -0.0469867, -0.8777848, -0.16256574, 0.5755817, 0.113637656, 0.18154068, 0.3924643, -0.035513982, -0.118107095, -0.21499093, 0.6338327, -0.45658058, 0.40405902, -0.18670675, 0.26937932, 0.2667503, -0.34252307, 0.56973606, -0.34533936, 0.7340418, -0.20096394, 0.33994108, 0.31321406, -0.81524837, 0.014242008, -0.28463575, 0.62522775, 0.18491288, -0.3647689, -0.54205734, -0.2843663, -0.48246703, 0.40975422, 0.5700984, -0.4396472, 0.3343184, 0.4123076, -0.15490949, 0.28069726, 0.882139, 0.067310736, -0.15894383, -0.22829881, -0.05715877, -0.24264398, 0.08646035, 0.30971318, -0.64886546, -0.054997366, 0.13404225, -0.01515219, -0.14808829, -0.12799063, 0.616937, -0.089846365, -0.42334995, -0.22531976, -0.6724905, 0.2985522, -0.3953032, 0.3286755, 0.33703846, -0.6714523, -0.4893866, -0.32182753, 0.18626177, 0.29633343, 0.6042256, 0.03207409, 0.02919691, -0.05005484, -0.44267613, 0.07839977, 0.4654143, -0.3413634, 0.28279987, -0.19323878, 0.015223952, 0.27376506, -0.16603753, 0.115753554, -0.21121153, 0.14353797, -0.6155187, -0.36699593, -0.10806389, 0.49853134, 0.06273981, 0.2616943, 0.033139624, 0.3667428, -0.28109428, 0.20885205, 0.33961913, -0.0455273, -0.79689026, -0.48442376, 0.6136343, -0.60249805, 0.08558634, -0.3170153, -0.38423428, 0.7575777, -0.07678438, 0.5897679, -0.20098391, 0.020892877, -0.7578016, -0.27850056, 0.07736521, 0.4918847, 0.085554674, 0.76517844, -0.34813523, -0.10365336, 0.5331376, -0.75874954, 0.30630523, 1.3685609, 0.73928565, -0.41337907, -0.013276994, -0.0193213, -0.76198447, -0.39099267, 0.24235877, -0.20418267, 0.80915564, -0.299691, 0.72846913, -0.39330277, -0.39127508, -0.5708496, -0.23657596, 0.07669473, -0.112603515, -0.10011631, -0.7288595, -0.12429586, -1.0869743, -0.92235196, 0.9494947, -0.18989031, 0.44288468, 0.6095829, 0.44720522, -0.3684832, 0.45744765, 0.37395266, -0.15337634, 0.22797498, -0.5836464, 0.0037246197, -0.106532216, -0.4557882, -0.03806431, -0.4401964, 0.30720463, 0.48535243, -0.12162765, 0.41293278, 0.13036904, -0.16028924, -0.2679884, 0.7264048, -0.15525056, 0.031646207, 0.015519977, 0.05546693, -0.25956184, 0.12806787, -0.38691568, -0.7447127, 0.036208574, -0.6911675, -0.029763514, -0.18647821, -0.070168175, -0.6644061, 0.074506484, 0.043641243, 0.09563316, 0.8474918, -0.357529, 0.34721455, -0.08163525, -0.07400212, 0.78324705, 0.27579075, 0.47558007, -0.13455477, -0.45857286, -0.03817396, -0.08177663, -0.76051277, -0.78855217, -0.19876546, -0.5038929, 0.3108068, 0.21340007, -1.6964366, -0.27756327, 0.1526869, -0.7667611, -0.11463689, -0.18710805, 0.44368058, 0.22315434, -0.2542184, -0.49230164, 0.18759876, 0.209996, 0.6523146, -0.5078793, -0.102972835, -0.028690722, 0.5406694, 0.20819962, 0.4872347, -0.8533667, 0.22377434, -0.39394683, -0.25911322, 0.05659153, 0.109352425, -0.28394115, 0.3264901, -0.34788656, -0.0670062, -0.15284832, 0.4742903, 0.33227068, 0.16981718, -0.114977665, 0.25320777, -0.5270369, 0.33263385, -0.25872886, -0.4684693, -0.06585466, -0.09051207, -0.14017746, -0.16797107, 0.24907677, -0.19459635, -0.103702754, 0.17406656, -0.11417232, 0.10160203, -0.52878016, 0.5303409, 0.44833195, 1.2243423, -0.32228118, -0.48062557, 0.62507266, -0.51222867, -0.30509493, -0.4088444, -0.23245281, 0.3267508, 0.69659925, -0.0531191, 0.21755826, 0.6713096, -0.07586689, -0.041641682, 0.097628094, -0.65115136, -0.28898212, 0.40890804, -0.46014726, -0.237728, -0.6472827, 0.18500891, -0.03012963, 0.4913152, 0.4126071, -0.114385255, 0.37175688, -0.7609453, -0.9854314, 0.08230513, -0.4327658, 0.42589572, -0.18575177, 0.13480526, -0.36162573, 0.72979355, 0.01319103, -0.8294048, 0.4600753, -0.21490586, -0.1306591, -0.1633261, -0.73452437, -0.09677013, 0.20032915, 0.27771044, -0.50270367, 0.24270764, -0.41334355, -0.31963286, -0.47711474, -0.17700629, -0.7876586, -0.51485854, -0.028907534, 0.32770225, 0.5223851, 0.85825145, -0.032317333, -0.3311381, 0.48677394, -0.717936, -0.066449374, 0.886191, -0.38192436, -0.01097787, 0.17842293, -0.87508845, 0.2260846, 0.09260456, -0.188678, 0.6868839, -0.5374342, -0.384127, 0.08062622, -0.55580753, 0.7093605, 0.24550414, 0.18876588, 0.03091603, 0.4611998, 0.7114296, 0.14601687, 0.22781506, 0.603664, 0.039267357, 0.5239828, -0.23595715, -0.13838683, -1.1428797, 0.024489101, -0.47910532, -0.25159734, 0.2730813, 0.18269065, -0.022939056, -0.109599225, 0.26128525, -0.094144836, 0.07663054, -0.27798736, -0.04353629, -0.64471257, -0.4705547, 0.034487218, -0.70074266, -0.2796774, -0.07122512, -0.6676104, -0.25229123, 0.91415083, 0.7951876, 0.465903, 0.25191513, -0.138016, 0.044115566, 0.10298265, 0.20598678, 0.17959082, 0.36793214, 0.20814832, 0.78486264, 0.4209943, -0.08824103, -0.5518482, -0.24925888, -0.14895545, -0.0043688016, -0.43583727, 0.2571142, -0.06039025, 0.1315139, 0.04066342, -0.13937593, 0.14210653, -0.7265322, -0.013326174, 0.3181495, 0.19191185, 0.5796826, -0.83237076, -0.099535726, -0.21121237, 0.1829257, 0.08058038, -0.055725824, -0.2284931, 0.14562109, 1.0370835, -0.3773506, 0.2747213, 0.36828414, -0.28095186, -0.2147814, 0.11480026, 0.4679474, 0.4431073, -0.097335525, 0.48254383, 0.11880433, 0.06135974, -0.31687596, -0.36517045, -0.4601918, -0.33247155, 0.28398132, 0.19798812, -0.3502901, -0.16270757, 0.32510805, -0.47073975, 0.10246979, -0.17186883, -0.59302974, -0.20678133, -0.554839, 0.2039262, 0.043015797, -0.2997532, 0.54397464, -0.28191936, -0.13629074, 0.2030859, 0.39996392, -0.16949473, -0.6733373, 0.013404378, 0.28318757, -0.32587442, -0.05076032, 0.26858225, 0.7137265, -0.046719357, 0.19794735, 0.16526625, 0.2755776, 0.5822017, 0.35394824, -0.12798294, -0.16101241, 0.49267703, -0.074620634, -0.31171837, 0.089188725, -0.13854276, -0.44018126, -0.3552096, -0.3827647, 0.03761834, -0.38149524, -0.31909978, -0.45928335, -0.07829508, 0.45151126, 0.23531166, 0.071700364, -0.25731245, 0.014581203, 0.32039395, 0.29895145, 0.2015509, 0.5690539, -0.15830515, 0.52239233, 0.5840436, -0.0027717482, -0.09985876, -0.23899089, -1.1859632, -0.872198, -0.613555, -0.24724437, -0.28537598, -0.18071258, 0.10107575, -0.1766362, 0.42237055, -0.12904719, 0.535405, 0.27205047, 0.14745606, 0.95458573, -0.52024895, -0.25997895, -0.08043475, -0.4762145, 0.4021809, -0.023452237, -1.0918967, -0.7103339, -0.70244426, -0.13443366, -0.6790763, -0.25525725, -0.19637069, 0.29321268, -0.29095212, -0.38409466, -0.36986858, -0.55390245, 0.09435235, 0.06033257, -0.40961385, 0.68446326, -0.39998683, 0.16981015, 0.5229363, -0.017588593, 0.23522428, -0.5517476, -0.39339283, -0.44825348, -0.07389754, 0.3042253, -0.48840275, -0.1155936, -0.6380683, 0.84852445, -0.5888876, -0.6510961, 0.28361428, -0.29304707, 0.46158427, 0.11015832, 0.30085644, -0.27942234, 0.45866612, -0.5598549, -0.74314094, 0.5519785, 0.4624061, 0.3610744, -0.4780666, -1.4254705, -0.055618003, 0.27766842, -0.20860265, 0.3283494, -0.41437966, -0.23067175, -0.4925147, -0.059609726, -0.21543387, 0.38341594, -1.0434626, -0.08860473, 0.46974644, -0.26487392, 0.17625715, -0.25578856, 0.05400951, 0.21652174, 0.15596464, -0.22642301, 0.059442893, -0.06863886, 0.10238233, -0.08629422, -0.6589421, -0.46356654, -0.34225473, 0.5496931, 0.1339868, -0.15477836, 0.067172945, -0.0823445, 0.03794487, -0.34270838, -1.1719278, 0.37168175, 0.5831576, -0.16420506, 0.35258448, -0.44205472, 0.22301312, -0.11704993, -0.09239093, 0.5045082, -0.9129908, 1.5214535, -0.25145134, -0.15114132, 0.6370873, 0.57370496, -0.12856379, 0.17859152, 0.3717577, -0.18672577, 0.5357402, 0.25578198, 0.02773403, 0.021419805, -0.25290707, -0.4091562, -0.29430607, -0.74141896, -0.59226406, -0.17224127, 0.097319864, 0.12800345, 0.1412931, -0.663299, 0.11454682, 0.7970151, 0.027254606, 0.09878707, -0.5808179, 0.21356612, 0.2982495, 0.18671356, 0.29943544, -0.7968728, 0.0031730533, -1.2566313, 0.4138286, -0.05687505, 0.30440181, -0.4708739, -0.23571722, -0.16610801, 0.07554368, -0.20863408, -0.312294, 0.14901863, -0.035817888, -0.43704203, -0.4720769, 0.3626331, 0.5625997, -0.109762035, -0.08489651, 0.23504826, 0.038100377, 0.43510726, -0.51795584, -0.59115314, 0.14475664, 0.30890346, 0.2174981, 0.047577623, 0.23009911, 0.7007102, 0.37397042, -0.3470814, -0.27033475, 0.0049423147, -0.14605398, -0.24143368, -0.028844029, 0.031729493, -0.47526625, 0.19235568, 0.41102174, 0.3758735, 0.1505661, -0.1952258, -0.06432685, 0.35227022, 0.23784685, 0.1756085, -0.15235092, 0.22564194]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Turbulent flow 의 의미는?</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>레이놀즈 수가 4000 이상일 경우, 유체가 서로 섞여 소용돌이치며 흘러가는 흐름을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>[-0.118437245, -0.06823427, 0.09587125, -0.08819926, 0.22967084, -0.08121284, 0.4728238, 0.662603, 0.079573564, 0.036035966, 0.2861156, 0.02933474, -0.06547525, 0.41664064, -0.5081167, -0.16685988, -0.03778211, 0.3962892, 0.69371104, -0.36674833, -0.1417266, 0.27161437, 0.08387145, 0.108905, -0.32432225, 0.5288128, -0.16577475, -0.04707425, 0.6217191, -0.3285677, -0.29744598, -0.17181867, -0.060526863, 0.4256, 0.31255764, -0.037082843, -0.6614884, 0.04481546, -0.057934344, -0.6190375, 0.016753137, 0.1971502, -0.5044314, 0.1488708, 0.113874204, -0.25545722, 0.17179488, 0.122928604, -0.1322266, 0.032362897, -0.31337768, 0.027225614, 0.39018443, 0.303537, 0.0133819375, -0.5611295, -0.23675273, -0.2761361, -0.0190826, 0.21249978, 0.35976267, -0.9547018, 0.086468846, 0.26720518, -0.17181884, 0.11893813, -0.42005736, 0.55542845, -0.7057682, 0.4403279, 0.52657115, 0.24669148, 0.3456011, -0.017244397, 0.007835395, -0.3253692, -0.15473491, -0.20681792, 0.23552248, 1.2539134, -0.019450698, -0.8261607, -0.3498051, -0.67038333, -0.19380814, -0.18542627, -0.34773046, 0.015212958, -0.41950366, 0.396901, -0.77360684, -0.109261125, -0.2280643, 0.27860704, -0.85316753, 0.14707735, 0.156564, 0.06737524, 0.26783222, 0.53740156, 0.46862504, 0.23106234, -0.9420662, 1.003443, -0.15134777, 0.56908786, 0.090384915, 0.3014921, 0.1608122, -0.25930107, 0.070078306, -0.531277, 0.4832361, -0.08252974, 0.30209285, 0.23844902, -0.5436591, 0.080281705, -0.11708948, 0.43562427, 0.23405181, 0.031662025, -1.0838382, -0.10853263, -0.5133185, 0.18905233, 0.5526976, -0.31694713, 0.023518154, 0.27909067, -0.12986109, 0.22307128, 0.60852885, -0.133139, -0.18046172, -0.18256858, 0.31246996, -0.17474641, 0.5097053, 0.31782168, -0.20388764, 0.10075223, -0.10830314, 0.068165176, -0.06600877, -0.15977973, 0.5718325, -0.36945888, 0.18214828, -1.1167754, -0.6243583, 0.1475936, -0.585297, -0.064912744, 0.39467764, -0.9536205, -0.08942628, -0.6307303, 0.20270355, 0.06527452, -0.13138951, 0.15050481, -0.26046208, 0.59603083, 0.011661411, 0.7400567, 0.30363557, 0.5905751, 0.5140055, -0.7186754, -0.059984785, -0.4351032, -0.044092253, -0.4319246, 0.40225124, 0.48388866, -0.78602594, -0.5935818, -0.26817685, 0.17292134, -0.061555102, 0.5142406, -0.46587354, -0.09310977, 0.103821315, 0.32349217, 0.010486821, -0.16407235, -0.80302936, -0.07185542, -0.19005571, -0.66216975, 0.35917628, -0.09023667, -0.123959295, 0.92006814, -0.105804734, 0.6567504, -0.39185026, -0.19639888, -0.8868895, 0.2414088, 0.71875095, 0.35762596, 0.51863456, 0.42485762, -0.5188783, -0.27235892, 0.24991454, -0.27479848, -0.27738616, 1.205683, 0.037072398, -0.22474016, 0.120416604, -0.19716834, -0.5531925, 0.20754685, -0.14819294, -0.2900594, 0.6062839, -0.47695827, 0.5439537, -0.3638046, -0.23128437, -0.5583868, 0.2952922, -0.099551, -0.03981978, 0.09088993, -0.591235, -0.50065637, -0.61885524, -0.47329733, 0.49611336, 0.42721924, 0.4325574, 0.40326703, 0.17550662, -0.51877093, 0.440508, 0.3716175, -0.30289847, -0.42732492, 0.22418697, 0.11124286, -0.33150128, -0.72738713, -0.04655306, -0.8223895, -0.53674, 0.71572214, -0.03933715, 0.29748666, 0.5606575, -0.61187124, -0.057483263, 0.8972072, -0.14082801, 0.15665883, -0.3547215, 0.025123145, 0.1395665, 0.21367063, -0.2223595, -0.07673301, 0.3780023, -0.99036354, 0.16888252, -0.16851585, 0.041422166, -0.41937912, 0.5172314, 0.18950836, 0.28409165, 0.3512181, -0.0678438, 0.29717767, 0.33191124, -0.1896862, 0.4107278, 0.5575589, 0.31954068, 0.22476543, 0.24682018, 0.39993528, -0.17862217, -0.67105573, -0.2478829, -0.68607974, -0.5350688, 0.047376595, -0.21416877, -1.6059047, -0.24977714, 0.12246186, -0.35592443, 0.03409739, -0.15365735, 0.7858474, 0.29421824, -0.3238532, -0.42183596, 0.16651544, -0.38038528, 0.57041776, -0.104902856, 0.023101304, 0.11213158, 0.16674732, 0.24363859, 0.15757583, -0.7045974, -0.05389882, -0.019417048, -0.46185774, -0.38878715, -0.4392424, -0.17775927, 0.050322935, 0.1804483, 0.17814122, -0.31635448, -0.53055996, 0.31295428, -0.14780158, -0.5856383, 0.3700843, -0.27466074, -0.20431098, -0.42720443, -0.42668745, 0.31357187, 0.4619331, 0.016001714, -0.17474121, 0.17641187, -0.057921305, -0.07821318, 0.18287411, 0.1762611, 0.016205413, -0.7676412, 1.0182908, -0.07563073, 1.0470213, 0.17972718, -0.289357, 0.22041808, -0.299202, -0.25908676, -0.044782273, -0.30571306, 0.08674964, 0.13958777, 0.23833163, 0.78360105, 0.77792865, -0.31289524, -0.3831518, 0.4108093, -0.24805647, 0.015454352, 0.33352298, -0.33613, 0.43284625, -0.2957043, 0.09021508, -0.034359213, 0.27602845, -0.11867248, 0.02945022, 0.35894263, -0.59476167, -0.7905003, 0.14294317, -0.1294323, 0.0396106, -0.0028548096, -0.24849941, 0.06746939, 0.63976574, 0.33244357, -0.60577977, -0.037865125, -0.62819153, -0.335316, 0.34037086, 0.11259019, 0.14594583, -0.39098006, -0.16287719, -0.0283867, 0.22798446, -0.8460902, -0.22046019, -0.6837941, 0.16181444, -0.95153147, -0.20182382, 0.5936874, -0.097958, 0.086301975, 1.1163323, -0.42690855, -0.21281174, 0.6235236, -0.67689073, -0.60778975, 0.48859897, 0.022074183, -0.3982566, -0.08661263, -0.6760633, 0.29750136, -0.1399388, -0.11049933, 0.43766382, -0.5264208, 0.15375368, -0.32953942, -0.28301704, 0.43189687, 0.38405272, 0.49335992, 0.10509137, 0.3181946, 0.17736784, 0.3769949, -0.23482946, 0.5552186, 0.23799013, 0.4829498, 0.3094888, 0.04859157, -0.847681, -0.12413918, -0.058401342, -0.6976617, 0.7855253, 0.91029507, 0.3498773, 0.19853966, 0.1664818, -0.039697345, -0.16815707, 0.020564606, -0.1393368, -0.9636198, -1.1670591, 0.007302227, -1.0464944, -0.19113103, 0.33977044, -0.42781603, -0.29795492, 0.045493647, 0.18086189, -0.07587255, 0.38856766, -0.19137546, 0.1075334, 0.007486487, 0.23249483, 0.27392176, 0.31846762, 0.19873571, 0.3967902, -0.18558319, 0.25282717, -0.7410735, -0.3863437, -0.052783128, -0.093331404, 0.1684366, -0.0005326982, 0.0050907605, 0.31288216, 0.5655933, -0.103094615, -0.34119764, -1.1913371, -0.080707505, -0.23406026, 0.7937543, 0.04815718, -0.8666493, 0.15827607, 0.2774905, -0.095194325, -0.16805553, -0.48054552, -0.14012192, -0.10178753, 1.1304188, -0.36152953, 0.106296584, 0.6368326, -0.47218058, -0.061258867, 0.29372427, 0.4312798, 0.04164968, -0.0988685, 0.1732235, 0.09552591, 0.5518875, -0.3694257, -0.44183177, 0.013369138, 0.08436218, -0.32380134, 0.5748067, -0.18258667, -0.037294846, 0.20678304, -0.0013412226, 0.11192843, -0.453354, 0.18607767, -0.30053315, -0.27343947, 0.33122185, -0.30789763, -0.45595983, 0.012420064, 0.06253828, -0.3442392, -0.43018907, -0.55092025, 0.24038428, -0.39126953, -0.15810934, 0.28278407, 0.5096127, -0.5182411, 0.09680588, 0.29083264, 0.18454085, 0.539041, 0.11882937, -0.18421315, 0.19043747, -0.20812295, -0.2155535, 0.2180774, 0.3556659, 0.3696659, -0.08114227, 0.40636602, -0.23168455, -0.31819135, -0.54886204, -0.2363166, 0.002309782, -0.8925363, -0.3374772, -0.34792832, -0.1952598, 0.38333935, -0.26275602, 0.34367445, -0.30888388, 0.03655879, 0.4822464, 0.4961538, -0.40401268, 0.810944, -0.21536115, -0.12384203, 0.2781349, 0.19064091, -0.57443345, -0.21341626, -0.4423628, -0.5497076, -0.750921, -0.1461636, -0.11696407, -0.4975702, 0.32602066, -0.14026393, 0.028287726, -0.029122386, 0.32553318, -0.0017354649, 0.0077455295, 0.23627666, -0.17442438, 0.46622488, 0.12817298, -1.0500412, 0.06249269, 0.23703194, -1.2038369, -0.4333619, -0.7107373, -0.1498233, -0.18193385, -0.20712627, -0.28897473, 0.6063933, -0.068159096, -0.19717066, -0.5060017, -0.31435472, -0.08578627, 0.32434514, 0.16107532, 0.32129282, -0.2461839, -0.17545955, 0.2195229, -0.32537842, -0.123966776, -0.004153887, -0.3978616, -0.39633924, -0.016536925, 0.05426304, -0.29195732, -0.05201643, -0.31436583, 0.4674193, -0.52154404, -0.6444288, -0.47919413, -0.74100405, -0.43496022, -0.14152999, 0.16039832, -0.46168083, 0.8621912, -0.20314328, -0.118445285, 0.44682437, 0.14991936, 0.26187915, -0.22146167, -1.1908396, -0.4217406, 0.046030924, -0.093744785, -0.30202538, -0.1602463, -0.6095199, -0.08213659, -0.26482645, -0.5464113, 0.16574033, -0.38065413, 0.022247255, 0.2653971, -0.42340976, 0.2853291, 0.026380228, -0.19962645, 0.43429515, -0.29856223, -0.35484022, -0.3447601, -0.56911933, 0.50110126, -0.63702554, -0.30202025, 0.0536342, -0.3091872, 0.38867584, 0.34491348, 0.14910842, 0.28553775, -0.87391514, 0.16762112, 0.038441543, -0.69002366, 0.035440456, 1.0669016, -0.5908096, -0.2941087, -0.32189777, 0.29578167, -0.1485127, 0.13023072, 0.7393992, -0.84259427, 1.3484766, 0.20976368, 0.27422544, 0.30833334, 0.5614618, -0.18181965, -0.34565768, 0.42237055, -0.54589385, 0.8850305, 0.1556283, 0.28871185, 0.58471495, -0.2676431, -0.4769873, -0.0798369, -0.040262304, -0.45513862, -0.20558418, 0.0042003714, -0.7678262, -0.38596547, -0.7263603, -0.25569323, 0.47394913, 0.2089693, 0.02155467, -0.26175904, 0.4643082, -0.11095924, 0.034549687, -0.018766526, -0.84228295, -0.09802107, -0.6875722, 0.58141285, 0.4030828, -0.04865894, -0.1660144, -0.06536849, -0.015392184, 0.1762097, 0.19447044, -0.19173919, -0.18921791, -0.41931218, 0.26765478, 0.11527807, 0.62529397, 0.36158773, 0.057611577, -0.13018024, 0.09790618, -0.27147588, -0.17580368, -0.15169717, 0.14834265, -0.34384844, 0.3009844, 0.27054432, 0.20415296, 0.6986939, 0.7627128, 0.74045414, -0.56817806, -0.721572, 0.23095934, -0.39657834, 0.001511764, -0.017706199, 0.10051361, -0.6325378, -0.0148269, 0.5968672, -0.21045884, 0.12530294, -0.051883373, -0.27033952, -0.11243904, -0.14490968, -0.041805092, -0.41015688, 0.87807363]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>수직응력의 의미는?</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>물체 표면에 수직으로 작용하는 응력을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>[-0.49236742, 0.054730535, 0.09886828, 0.0008059409, 0.2186941, -0.20461337, -0.076857224, 0.27022055, -0.2553198, 0.16803163, -0.019933157, -0.19710428, -0.17931198, 0.45985207, -0.17868526, -0.5073087, -0.22657959, 0.36317182, 0.31231546, -0.38741732, 0.17904541, 0.3506517, 0.34605673, 0.46018755, -0.7006194, 0.19322596, -0.18021734, 0.16876109, 0.83147746, -0.44633374, 0.33959427, 0.25341806, -0.13141729, 0.32093793, 0.39144975, 0.07870856, -0.4005206, -0.19455613, -0.16864143, -0.5400742, -0.13898908, -0.0039058244, 0.16291097, 0.25053847, 0.048551936, 0.18510367, -0.241578, 0.092375845, 0.24896073, -0.1747075, -0.08671734, 0.082584836, 0.40410757, 0.9454367, -0.26531082, -0.42746153, -0.015569813, -0.5793059, 0.37818915, 0.28225788, 0.32069033, -1.0543265, -0.13700165, 0.21984127, 0.4219245, -0.31050456, -0.34890467, 0.22647071, -0.6368895, 0.5573406, 0.28738746, -0.047616266, 0.6213618, -0.70217216, 0.6453198, -0.0046105706, -0.07774194, -0.0853218, 0.7215819, 0.7472773, 0.42384136, -0.23494676, 0.08450055, -1.371468, -0.18586808, 0.3823685, -0.1780943, -0.19270627, -0.12903367, 0.2702174, -0.09767074, 0.16248499, 0.08110839, 0.44066134, -0.7861965, 0.24901798, 0.551821, 0.55810153, 0.90930516, 0.14473753, -0.2331184, 0.34606302, -0.6074438, 0.65492463, -0.22330186, 0.18326022, -0.26527894, 0.417368, -0.14861642, 0.11468165, 0.45929554, -0.007982207, -0.101654485, -0.29177567, 0.48016676, 0.06105887, -0.51116365, 0.41690904, 0.10488121, -0.059445456, 0.21549834, -0.9441399, 0.3871644, 0.15960926, -0.3768523, 0.5143789, 0.36627993, -0.091716014, 0.41724333, -0.47025523, -0.2641301, -0.17402226, -0.27055216, 0.059094183, -0.8844437, -0.105093874, 0.09447046, -0.02439754, 0.6758172, 0.54056513, -0.22759621, 0.41967148, 0.3567539, -0.73663956, 0.08555678, -0.5882877, -0.049332302, 0.11591693, 0.12872712, -0.58674407, -0.37669957, 0.076127164, -0.42207617, -0.14860243, -0.13797647, -0.32606417, -0.046180177, 0.33013472, 0.06281922, 0.2311404, 0.29007727, -0.32989588, 0.47451353, 0.040494125, -0.3937881, -0.52133477, -0.021885596, 0.34268606, -0.091398865, -0.061080344, 0.10083677, -0.18779394, -0.08775799, 0.12705839, -0.55346614, -0.18588404, -0.00091620284, -0.3364322, 0.25455016, -0.9712673, -0.34334823, -0.062092874, -0.60024464, 0.3035755, -0.122184366, 0.061318066, -0.17905729, -0.2379931, -0.5154905, -0.11985442, 0.328124, -0.32973602, 0.24094033, -0.26639736, -0.5002664, 0.2730694, -0.51855975, -0.34318787, -0.1315209, -0.0020294508, -1.0253358, -0.05041663, 0.8027354, 0.20866352, 0.11586007, 0.6034852, -0.550523, -0.18651691, 0.1621336, -0.56497735, -1.0870388, 0.42164046, 0.61060756, 0.041114677, 0.14273006, 0.35949963, 0.07175931, 0.21717188, -0.18139984, 0.22727919, 0.019239489, -0.4047837, 0.7709228, -0.35870683, -0.54168683, -0.28936234, 0.07545375, 0.021435274, 0.4887262, 0.2835499, -0.14549075, -0.74866176, -1.2926767, -0.45294413, 0.38283205, -0.59036446, 0.03872513, 0.15664583, 0.009608887, -0.08580598, 0.6425439, 0.40508473, -0.111899175, 0.5690078, 0.29073712, -0.23905723, 0.16288918, -0.6329252, 0.7049199, -1.1234555, -0.11112438, -0.16372888, -0.2827096, 0.5236594, 0.17763615, -1.0783905, -0.16597667, 0.60899633, 0.3241376, 0.3909229, 0.25676128, 0.29807252, -0.43940014, 0.03865789, -0.14596955, -0.014495364, 0.65946054, -0.46267235, 0.11417716, -0.24878305, -0.588851, -0.9449494, 0.5164859, -0.16577186, -0.03471248, 0.21187237, -0.23322384, 0.5423241, 0.3470101, 0.23323518, 0.03578208, 0.4650569, -0.01480874, -0.60432386, 0.25380436, 0.48445565, 0.13645454, -0.6376291, 0.38867706, -0.2583437, 0.5413314, 0.10166101, -0.16187893, -1.7816756, -0.16013145, 0.20729192, -0.3675462, -0.085889876, -0.23597696, 0.14490014, -0.5907451, -0.45811388, 0.23127015, 0.4870323, 0.41102067, -0.20855816, -0.36993346, -0.18547596, 0.30052269, 0.45320687, 0.3451016, -0.037656702, -0.24316221, 0.14794254, 0.22866167, -0.47231245, 0.6275759, -0.38775882, 0.123334, -0.08037058, -0.09062742, 0.6579093, -0.030245129, -0.06583131, 0.028822111, 0.6815531, -0.559066, 0.36935723, -0.25744498, -0.29091048, -0.45830727, -1.0389183, -0.005029363, 0.41975564, -0.096372366, -0.5980177, 0.3201146, -0.26608697, -0.03978657, -0.14571571, 0.39554152, 0.17887141, -0.38485917, 0.47940105, 0.57102984, 1.0848455, 0.05951521, -0.14142962, 0.19089016, -0.59415984, 0.05888726, -0.28034317, 0.39798266, 0.51287997, 0.5868206, 0.24781111, 0.5519793, 1.1307313, 0.659487, -0.20817672, 1.1226509, 0.08077559, 0.15850411, 0.8631752, -0.46562815, 0.3266377, -1.133221, 0.6378875, -0.21538861, 0.24329945, -0.23091786, -0.08402494, 0.09198941, -0.6464804, -0.5437787, -0.7288006, -0.63318956, -0.093032986, -0.19909447, -0.066557884, 0.32956025, 0.44080007, -0.087530315, -0.34283325, -0.08852543, -0.60547227, -0.1463311, 0.15636358, -0.2693962, -0.24917075, 0.15168777, -0.042226788, -0.22221632, 0.05988185, -0.18306729, -0.43541896, -0.48044226, 0.09129956, -0.33150852, -0.12325117, 0.41084996, 0.06665773, 0.017133115, 0.78912485, -0.14601827, 0.04255105, 0.2994509, -0.7796344, -0.0671629, -0.019705309, -0.0017141402, -0.40082863, -0.75502384, -0.7351429, 0.11615123, 0.040924985, 0.17879678, 0.19672766, -0.055392135, -0.42973566, 0.15770489, -0.4020518, 0.77019656, -0.5078348, 0.05913227, -0.019789042, 0.6280601, 0.17054038, 0.34620368, -0.46421733, 0.22938567, 0.32509062, 0.3167418, -0.04134993, -0.6935179, -0.55630565, -0.024356745, -0.3035578, -0.33447602, -0.008839147, 0.8041828, -0.3450368, -0.21794508, 0.66381866, -1.0828806, -0.72962147, -0.7963412, -0.47346777, -0.29225194, -0.2546418, -0.20471026, -0.1863619, 0.57149315, -0.19408838, -0.1973208, 0.16301726, 0.9880282, -0.09297943, 0.70001346, 0.20283538, -0.15424557, -0.5314216, -0.27938402, -0.37129095, 0.47948328, 0.3542304, -0.3403007, 0.5065068, 0.19124243, 0.2547174, -0.15815894, -0.13727053, 0.36191368, -0.8648684, -0.523856, 0.0048907897, -0.9650653, 0.111796655, 0.14033526, 0.45818457, -0.42310593, -0.07829639, 0.28255036, 0.15638088, 0.46163648, -0.28554633, -0.3666821, -0.34917808, 0.7805474, -0.079833075, -0.827528, 0.30614212, -0.11359431, 0.029033711, -0.3134457, -0.45828146, 0.11339307, 0.42043817, -0.1455376, 0.10150224, -0.07547362, 0.44058958, -0.34115112, -0.44043818, 0.038090486, -0.33721405, -0.2981301, -0.34669816, -0.4736861, 0.30022913, 0.4581283, -0.5270698, 0.9059188, 0.2130729, 0.33226538, 0.30535856, 0.36042574, 0.32969576, -0.9204247, 0.35240623, -0.71006155, -0.2195577, -0.41693902, -0.3333348, 0.17084152, 0.05869599, 0.8273915, -0.16391933, 0.19505736, 0.10982547, 0.25565174, -0.41850817, 0.35795593, 0.24347846, 0.57751316, -0.108994335, -0.25554168, 0.8440647, -0.06650626, 0.16954976, 0.092265144, -0.6685453, 0.35981664, -0.34660923, 0.004209823, 0.021519763, -0.33212292, -0.20065522, -0.62830466, -0.104482956, 0.08786676, -0.2838541, -0.7585629, -0.2562074, -1.0149093, -0.5120114, 0.27310288, 0.33888212, -0.39710355, 0.28524745, -0.18661046, 0.32777318, -0.74223053, 0.24560219, -0.38962767, 0.94185925, -0.10051566, 0.36535293, 0.12553817, 0.002110815, 0.28292894, 0.41192508, 0.32571548, -0.14278498, -0.41992867, -0.93086326, -0.8410835, -0.613741, 0.20485695, -0.2011922, 0.17514712, 0.057870574, -0.00968181, 0.007917934, 0.5493626, 0.43146473, 0.2778342, 0.496244, -0.48358706, -0.48275545, 0.39249265, -1.2544637, 0.6056753, 0.6164089, -1.0485026, -0.66561633, 0.36291724, -0.70137763, -0.45478064, -0.53567064, -0.29908884, 0.50369036, -0.17864355, 0.46580023, -0.8862124, -0.2296676, 0.18157865, 0.7435583, 0.59716105, 0.18147838, 0.20640554, -0.0039806184, 0.2518692, 0.20229809, 0.23917948, 0.09296118, 0.10698223, -0.28691146, 0.102381125, 0.88709074, 0.017312761, -0.5949788, -1.1503636, 0.05544004, 0.26366258, 0.026032392, 0.33464843, -0.24924493, -0.07224899, -0.60810095, 0.065532774, -0.25664616, 0.61333084, -0.14436771, 0.06996633, 0.07332558, -0.45137438, -0.089752585, -0.047105685, -0.98752224, -0.3599094, 0.4597462, -0.30525962, 0.17333417, 0.03271148, -0.44665697, -0.23284785, -0.08800694, -0.7028451, 0.5520742, 0.21614152, -0.310207, 0.93997055, -0.1384327, 0.5500387, -0.12130608, -0.5201565, 0.104250334, -0.13224386, 0.089943066, 0.39360237, -0.17400151, 0.2667174, 0.15764517, -0.67925113, 0.58613336, 0.038198035, 0.008763944, 0.27094644, 0.08343151, -0.18482354, -0.09771199, 0.08569142, 0.45031855, -1.1099658, -0.21944816, -0.06406219, -0.87685245, 0.22933395, -0.44422832, 0.03786866, 0.18370472, -0.24608496, 0.11295744, -0.6480226, 0.102885775, 0.48449945, -0.19512844, -0.086825125, 0.057697568, -0.24690692, -0.4303986, 0.12395149, -0.4005914, 0.40022147, -0.053106163, 0.10380874, -0.2559348, 0.09949587, -0.032603577, 0.00986261, 0.13755845, -1.1660135, -0.14597757, -0.35003173, -0.1559653, 0.107804276, -0.407071, -0.39665353, 0.44440848, -0.39898562, -0.41731125, -0.23733658, 0.69407207, -0.13256223, -0.32673538, -0.07241279, -0.46612597, -0.7529011, -0.92896205, -0.23777206, -0.35406044, -0.32235754, -0.5219357, -0.111528926, 0.03363219, 0.32606015, 0.46152434, 0.25529778, -0.19236109, 0.24985975, -0.45547724, -0.10182617, 0.8609286, 0.17838125, -0.1981599, -0.48981538, 0.14187421, -0.1205161, -0.06371895, -0.119241886, -0.39897874, -0.230594, 0.15431912, -0.023850067, 0.6717237, -0.43502104, 0.2476595, 0.46649632, -0.11840456, -0.46947786, 0.21691194, -0.431626, 0.153522, -0.38529307, -0.35367987, 0.02258373, -0.43283167, 0.7795213, 0.33148286, 0.39643696, 0.17938821, -0.2099977, 0.1160399, 0.22575998, -0.13849162, 0.27830818, -0.01823508]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>normal stress의 의미는?</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>물체 표면에 수직으로 작용하는 응력을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>[-0.6792217, 0.1780098, 0.28580853, -0.26338318, 0.13165365, 0.3004628, 0.11247998, 0.5153703, 0.17160712, -0.13976982, -0.3326573, -0.34921148, -0.18602616, -0.1420796, -0.10054839, 0.10680751, 0.19625711, -0.11528913, 0.30003616, -0.42597398, -0.13927606, 0.14307693, 0.5731226, 0.15041137, 0.2342432, -0.29032364, -0.43634355, 0.4207536, 0.04075557, -1.2705704, 0.43146077, 0.26493016, -0.47975144, 0.5884067, 0.41635558, -0.2404561, -0.49266294, 0.41920683, -0.21970831, -0.3521861, 0.27113178, -0.12800585, -0.4600924, -0.001909934, -0.54803234, -0.10659503, 0.012177661, 0.08691373, -0.18869908, -0.11691173, -0.03664971, -0.2412178, -0.0032998472, 0.22908886, 0.11429798, -0.24371862, 0.40751934, -0.17367803, -0.064442776, 0.11455647, 0.16824491, -0.73388475, -0.20599745, 0.4092672, 0.13790132, 0.2026311, 0.61793727, 0.22773479, -0.51721805, 0.8430946, 0.07200754, 0.26090392, 0.49077463, -0.36524343, 0.27655715, 0.070277736, 0.030018441, -0.60276204, 0.5652786, 0.17371428, 0.1079878, -0.21040983, -0.06809784, -0.66281056, -0.10636985, -0.24042912, -0.37513152, -0.44423115, 0.19037849, -0.033912618, -0.89326096, -0.24188995, 0.104215495, 0.040190697, -0.03927552, -0.3169112, 0.24543251, 0.15141936, -0.08378169, -0.038054124, -0.13865626, 0.16117187, 0.041674376, 0.58378345, -0.3935317, 0.29784814, 0.01712033, 0.44929913, 0.049054757, 0.27398404, 0.02861765, -0.17861818, 0.41991624, 0.48093295, 0.024864191, 0.73356825, -0.5522221, 0.35511336, 0.119462855, 0.27344105, 0.22155853, -0.013071697, -0.59349823, -0.33998546, 0.5163617, 0.55286306, 0.23390995, -0.43278846, 0.40744433, -0.27553818, -0.47136676, -0.19941103, 0.06485101, -0.16120572, -0.8124664, -0.41475168, 0.13034524, -0.057895258, -0.36041927, 0.8180709, -0.67961764, 0.15517718, 0.36064026, -0.58402973, -0.09086248, -0.6030055, 0.037834357, -0.80377847, -0.55528706, -0.76835793, -0.5037614, 0.31208727, -0.2920866, -0.048690688, 0.38348106, -0.08453118, -0.120264836, -0.049756046, -0.13555947, -0.29676667, -0.35460293, -0.5355169, -0.8745187, 0.019691082, -0.42282355, 0.26564604, -0.18824016, -0.15827218, 0.4099797, -0.45007753, -0.3309507, -0.11366133, 0.5364105, -0.24729514, 0.007333569, -0.34173763, -0.52453583, -0.39556065, 0.24500646, -0.18346691, 0.082336254, -0.10481548, -0.14919959, -0.23744155, 0.26372406, -0.35643277, 0.20921554, -0.5553424, -0.45244336, -0.32858545, 0.063841455, 0.24643761, -0.14507473, 0.10377768, -0.33656606, 0.6582115, -0.08675892, 0.36435774, -0.34575507, 0.26805714, -0.07982126, 0.41790986, -0.0041375775, 0.4220295, 0.18460856, 0.6889918, -0.49007282, -0.2065196, 0.15805465, -0.057246756, -0.73508954, 0.58573455, -0.19011366, -0.34397432, 0.4555434, -0.45975778, -0.30343327, -0.36569524, 0.04725812, -0.6128154, 0.9234619, -0.35882416, 1.1405858, -0.14962439, -0.1759845, -0.4022894, 0.6643753, -0.11043782, 0.08810996, -0.009457717, -0.5152505, -0.158609, -1.1452392, -0.26108924, 0.18507855, -0.27833197, -0.06808669, 0.6009385, 0.8561669, -0.2965714, -0.04544526, 0.6265597, 0.1700307, 0.39556205, 0.3179841, 0.00826637, -0.108620495, -0.21446685, -0.41810367, -0.6671441, 0.50277, -0.25321418, 0.11611434, -0.4152436, 0.2844272, 0.045712605, 0.5024162, 0.72500706, 0.29183885, -0.285917, 0.14361082, -0.19040672, -0.36776826, -0.120760374, 0.024748325, -0.012271137, 0.20132959, -0.42769417, 0.32557562, 0.32623187, -0.46270058, -0.4244438, 0.15587758, 0.19159174, 0.46310303, 0.361963, -0.097094186, 0.23575288, 0.714773, -0.29513946, 0.050609216, 0.12619232, -0.22303723, -0.041065507, 0.037349, 0.6072939, 0.33930016, 0.29555532, -0.44876218, -0.11796376, -0.25544032, 0.25283933, -0.29981053, -1.2036895, 0.19201756, -0.1953543, -0.5933568, -0.55962914, -0.49978992, 0.36822808, 0.42896232, 0.2380795, -0.2469575, 0.962853, -0.11070827, -0.26323727, -0.27864486, 0.15935022, -0.103140265, 0.11947867, 0.6578707, -0.42214417, -0.047641944, -0.388237, -0.21116029, -0.53218615, 0.05714501, -0.8281219, 0.1322537, -0.12415442, -0.16214557, 0.25146675, 0.25136188, 0.055428922, 0.69308233, 0.13144863, -0.24290186, -0.00807142, -0.87594813, -0.6067673, -0.46608064, -1.3120321, -0.36088908, 0.25451565, 0.047475453, -0.74373657, 0.3310273, -0.17453857, -0.36829984, 0.22474845, -0.2658886, 0.29988822, -0.15521665, 0.576505, -0.23314714, 0.68438584, -0.07739078, -0.39453974, 0.11562351, -0.17072283, -0.36349967, 0.47348642, 0.35483706, -0.09293335, 0.58927864, -0.48992977, 0.577331, 0.26219717, 0.1497838, -0.1965574, 0.5176483, -0.44020578, 0.17258222, 0.6596712, -0.3854189, 0.60976726, -0.8738536, 0.15797724, 0.5141403, -0.057633627, 0.056549873, -0.08197543, 0.47189245, -1.0404679, 0.083014764, -0.32696542, -0.6306797, 0.3384116, -0.015564646, 0.03195216, 0.8159585, 0.3746605, -0.7600022, -0.6196337, 0.36046574, -0.8631546, -0.3126936, 0.07573659, -0.026228989, -0.31723425, 0.43246987, 0.049096584, -0.40760216, -0.47196814, -0.40049157, 0.09668904, -0.32179204, -0.3712999, -0.19907308, 0.12808745, 0.1468523, 0.68657684, 0.20726775, 0.8599796, 0.34123483, -0.51170635, 0.76205367, -0.47262606, -0.46949247, -0.37983128, -0.11937585, -0.13447112, -0.22175366, -0.51037645, 0.1681543, -0.023420418, -0.4213824, 0.09912038, -0.2286572, -0.30424637, -0.36593175, -0.57400256, 0.52158713, -0.2366314, 0.07922735, 0.33915934, 0.7006655, 0.98497945, 0.5987399, -0.087744616, -0.15574016, 0.11118207, 0.28867897, 0.33153647, -0.26979074, -0.25313875, -0.28566915, -0.31312773, -0.21452077, -0.039099686, 0.5776798, 0.7828695, -0.32225105, 0.52821064, 0.41353765, -0.5340276, -0.37199676, -0.13386828, -0.614276, -0.7504167, -0.19905736, -0.4651873, 0.70367116, -0.0779044, -0.035429824, 0.050656628, 0.7082369, 0.26259392, 0.6762702, 0.2800198, 0.043230306, -0.06375582, 0.30080217, 0.04281861, 0.29908532, 0.2017258, -0.061388716, -0.113558054, 0.0017228076, 0.00072972727, 0.12837379, -0.234833, 0.28873914, 0.06908011, -0.14256962, -0.17139018, -0.8208728, 0.27735406, -0.17243862, 0.47911552, 0.08111528, -0.88304424, 0.13648774, 0.028835684, 0.20964797, 0.4803958, -0.289114, -0.120824434, 0.45806947, 0.07001979, 0.4357456, 0.07150392, -0.25128055, 0.21386336, 0.26436898, -0.44073653, -0.30490395, 0.26222196, 0.25969955, 0.04859689, -0.01078138, 0.14713392, -0.013563755, 0.69156593, 0.024285568, -0.23212528, 0.25805587, -0.7898113, -0.42021134, 0.33896622, -0.20288812, -0.42697212, 0.5492802, -0.08792957, 0.17191578, 0.15524445, -0.13418204, 0.0051423633, -0.45283398, 0.11636966, -0.32342386, -0.12138141, 0.08927176, -0.15968941, 0.114707924, 0.37283978, -0.22419737, 0.018361181, 0.5204251, -0.46570826, 0.1970809, -0.36285147, -0.021067083, 0.2892394, 0.16615131, -0.014156252, -0.07829565, 0.31987646, 0.09448498, 0.36813578, 0.28216305, -0.42900315, 0.29059723, -0.28520212, 0.32294744, 0.6487734, 0.23660283, -0.034480903, 0.47388914, -0.101979546, -0.20133023, -0.4160391, -0.5456132, -0.33894613, -0.30447033, -0.28628206, -0.33713496, 0.26182666, 0.09863117, 0.26750913, -0.64516187, 0.29879734, -0.18569826, 0.43896624, -0.6601174, 0.16578327, -0.3845962, 0.44646522, -0.1829416, -0.5089107, 0.07377077, -0.24537158, 0.25412226, -0.5585714, -0.306493, -0.6891165, -0.6440053, -0.3729136, 0.107053965, -0.21940963, 0.012595204, 0.8521884, 0.05023859, 0.09100285, 0.6235233, 0.359529, -0.17021014, -0.26799056, -0.9513381, -0.21215755, -0.67179537, -0.5577456, -0.17113096, 0.2633824, -0.7577676, -0.68055636, -0.54276127, -0.2223696, -0.6212153, -0.73461574, 0.03876322, 0.53955096, -0.22640558, -0.54663557, -0.29474416, -0.079664834, -0.026261395, 0.35336712, -0.14740671, 0.4662733, -0.33768883, -0.3669993, -0.022866795, -0.50042146, -0.2647628, -0.1774873, -0.62371063, -0.34164906, -0.119924724, 0.45635173, 0.03726674, -0.17316823, -0.92161465, 0.33759347, -0.14096196, 0.10271361, -0.19045408, -0.14860111, -0.3115401, 0.055521, 1.0092729, -0.48194075, 0.3322504, 0.35894442, -0.08135325, -0.16370265, -0.09005868, 1.0094334, -0.5787752, -0.3230075, 0.040913686, 0.11789938, 0.122632265, 0.056002717, 0.25737122, 0.04652503, -0.33230272, -0.7905411, -0.54607433, -0.19857168, -0.42866242, -0.0043420345, 0.19468266, -0.40893993, 0.07080408, -0.66940737, -0.30268475, -0.17840302, 0.52286327, 0.05236503, -0.5276263, 0.36327696, 0.2674379, -0.23092894, -0.4679242, 0.37616, -0.120019555, -0.05660288, 0.4254893, -0.14464547, 0.48182845, -0.78500366, -0.07362456, 0.79686135, -0.5188442, -0.12887725, 0.6251622, -0.14805429, -0.21032013, -0.068671465, -0.003627032, 0.2143621, 0.44062746, 0.31385407, -0.72743493, 0.3584406, 0.16743691, -0.24845372, -0.1056078, 0.46246287, -0.20602052, 0.039949786, 0.28927216, -0.5795451, 0.48490226, 0.40932214, -0.32344556, 0.26775363, -0.067542575, 0.3640515, 0.13760889, -0.24830417, 0.004806043, -0.084210105, -0.16107602, -0.165107, -0.76106167, -0.023526818, -0.082532436, 0.034012914, 0.24867314, -0.20377134, -0.6639876, 0.7185933, -0.17527555, 0.064284265, -0.011862162, -0.64303654, -0.6671853, -0.73352194, -0.31519663, 0.051110055, 0.2834175, -0.11642019, 0.19057381, 0.6290627, 0.31453493, -0.11114768, 0.42143404, -0.011541675, 0.51948637, 0.2935441, -0.5586349, 0.35121563, 0.5330997, -0.5041909, -0.387072, 0.23625238, -0.25620914, 0.18254352, -0.42206466, -0.0088234395, -0.66588604, -0.18551074, 0.53724295, 0.5857499, 0.43087724, 0.4617984, 0.17972392, -0.38617012, -0.0858925, 0.47116852, 0.00577718, -0.712612, -0.42320147, -0.086341955, -0.07495315, -0.30275238, 0.8912611, -0.044175025, 0.9433327, -0.0567667, -0.5869138, 0.14045167, 0.705939, -0.14637583, 0.036748115, 0.44289884]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>전단응력의 의미는?</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>물체 표면에 평행하게 작용하는 응력을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>[-0.23424533, 0.0066367355, 0.27312398, -0.2964587, 0.16958477, -0.116443925, -0.123709545, 0.4664507, -0.43222538, 0.18483955, -0.45019177, -0.40551785, -0.4443789, 0.2330691, -0.25318092, -0.35650754, -0.3366736, 0.49838224, 0.7452717, -0.18927386, 0.25717318, 0.11685109, 0.14760093, 0.65496457, -0.09571191, 0.2533228, -0.22497712, -0.2027069, 0.325456, -0.8567579, 0.3926702, 0.54057574, -0.072440535, 0.70081466, 0.29344904, 0.030902263, -1.0299276, -0.15315166, -0.020755671, -0.007647289, -0.25108996, 0.061481196, -0.009178181, 0.3456239, -0.37676167, -0.20238, -0.10056917, -0.09684253, -0.14246042, -0.05161049, -0.38921213, 0.021911198, 1.1617936, 0.8355402, -0.13202196, -0.48232964, 0.016016632, -0.39064974, 0.07701041, 0.33192506, -0.06541578, -0.95620656, 0.5033271, 0.2473735, 0.1950795, -0.20179375, -0.10455883, -0.27289492, -0.53885055, 0.19321226, 0.3883297, -0.009399115, 0.374234, -0.47456944, 0.5209831, -0.10346039, -0.35882372, -0.25965163, 0.8484297, 0.155101, 0.18437092, -0.68153346, -0.2487405, -0.60360986, 0.044596992, -0.63258576, -0.25860226, -0.4584448, -0.3304471, 0.305246, -1.0977205, -0.33472148, -0.30578572, 0.17294677, -0.44517142, -0.18227758, 0.14597218, 0.31103513, 0.7053186, 0.11471796, -0.22000398, 0.41260612, -0.68151796, 1.7081274, -0.4527092, 0.11822036, -0.39071366, 0.40375555, 0.38404667, 0.5832998, 0.36227614, -0.0783519, 0.35008952, 0.4095929, 0.14237587, 0.68233037, -0.36833763, 0.6070897, -0.054583482, -0.11620254, 0.060458466, -0.43122038, -0.6082158, 0.24884361, -0.28689036, 0.51086926, 0.6380114, -0.13123581, 0.2073785, 0.073076025, -0.19848861, -0.19907562, 0.1348788, 0.021776693, -0.63708806, -0.61211306, -0.30788258, 0.43695626, 0.37335575, 0.53402865, -0.313105, 0.015064335, 0.315966, -0.6403585, 0.088228025, -0.35540688, 0.17151217, -0.026829047, -0.030514488, -0.047237217, -0.17011769, 0.04457079, -0.3947677, -0.33468688, -0.39400795, -0.5948248, -0.09291211, 0.12923832, 0.052649036, -0.22651073, 0.55105644, -0.5874798, -0.23445763, 0.08600567, -0.33341143, -0.26026094, 0.4670159, 0.1206778, 0.5708559, -0.31903258, 0.07116089, -0.058804885, 0.32042024, -0.17005603, 0.1842214, -0.13954587, -0.72128344, -0.6282241, -0.12938708, -0.116088785, -0.18148562, -0.02919604, 0.1193177, -0.1395785, 0.36520225, -0.343756, 0.15434776, -0.26874533, -0.68816155, -0.10747085, 0.52561456, 0.43262157, -0.15317637, -0.26722237, -0.11165125, 0.14381664, -0.2687099, -0.42475998, -0.16236736, 0.13363439, -0.6685387, 0.27010086, 0.53857815, 0.12606108, -0.07501543, 0.11279196, -0.8086912, -0.20885171, 0.33612362, -0.8525149, -0.28390437, 0.8431098, -0.40847394, -0.50960666, 0.08671212, 0.01222821, -0.5658262, -0.4014383, -0.2549941, -0.07980243, 0.28507504, -0.33924624, 0.611979, -0.21682984, -0.3212933, -0.26844203, 0.033118792, -0.113249354, 0.15387313, -0.025645763, -0.9001127, -0.41554606, -1.3892648, -0.27930415, 0.4880713, -0.06386052, -0.0046123466, 0.33348033, 0.10690634, -0.62647617, 0.14261104, 0.078141294, -0.58442605, 0.46276522, 0.3301178, 0.3268567, 0.11971802, -0.50095683, 0.70736575, -0.3106693, 0.45321348, -0.062006276, -0.6705644, 0.11337541, 0.38826355, -0.56510055, -0.09742313, 0.45993677, -0.0018262201, 0.30923665, -0.053106178, -0.021433009, 0.12518334, -0.19783671, -0.3423494, 0.021564916, 0.5499631, -0.2923662, 0.5432358, 0.19660471, -0.53569114, -0.65284216, 0.13916098, -0.24659675, -0.03042686, 0.27790058, -0.02361132, 0.79692596, 0.40184462, 0.018412694, 0.55497485, 0.59225386, 0.038643103, -0.22859067, 0.09491596, 0.06821293, 0.47905445, -0.2224351, -0.12157003, 0.39365795, -0.34846368, 0.29775783, -0.24956237, -2.2375371, -0.36940765, 0.034711577, -0.55696046, 0.12951902, -0.62114406, 0.075483784, 0.16720235, -0.124022126, -0.6448605, 0.6829207, 0.38302547, 0.3438869, -0.6301019, -0.111310445, 0.2838294, 0.78974724, 0.71716446, 0.16252321, 0.08701711, -0.36810467, -0.016927678, 0.028513597, 0.45754623, -0.78301674, -0.17964588, -0.15680927, -0.16992606, 0.28085387, -0.21567027, 0.31302774, 0.7072845, 0.7968122, -0.2771587, 0.02488498, -0.21910198, -0.53978014, -0.69301546, -0.8802539, 0.25027215, 0.34718543, 0.16446662, -0.56002414, 0.1959123, -0.15534107, 0.5291923, 0.01936946, 0.23509163, -0.03942817, -0.4316445, 0.44088823, 0.57554406, 1.0691762, 0.27002138, 0.19255242, 0.18205826, -0.5150346, -0.25816104, 0.02066605, 0.22230893, 0.17809783, 0.39135715, 0.06717076, 0.5708246, 0.62596637, 0.77618146, -0.3576625, 0.6846423, 0.3932393, 0.20308313, 0.9201618, -0.6744697, 0.17328739, -1.1057838, 0.1140823, 0.38854235, -0.16731834, -0.0679553, -0.22350867, 0.34718144, -0.5499976, -0.3454343, -0.66437125, -0.28822154, 0.618858, 0.08594237, 0.24335067, 0.75411105, 0.7919179, -0.005043067, -0.8198654, 0.19164535, -0.12714367, 0.14718671, 0.04260558, -0.19611019, -0.07951023, 0.031781893, 0.22857761, -0.16815713, -0.530698, -0.14066209, -0.11489329, -0.2705164, -0.5468414, -0.39763102, -0.1849615, -0.5729393, 0.466828, -0.2307201, 0.7018715, -0.014725115, -0.5937445, 0.5620043, -0.47378948, -0.7389099, -0.65856516, 0.02585466, 0.10494188, -0.54822046, -0.27141106, 0.19173874, 0.16677395, 0.2607881, -0.048260707, -0.5575392, 0.07922869, -0.303887, -1.0209869, 0.34773263, 0.16079667, 0.40420613, -0.30110064, 0.19517744, 0.30489218, -0.054588486, -0.5632273, 0.40218216, -0.043627866, 0.26012138, -0.56824225, -0.39754456, -0.4402592, 0.09499096, 0.38951516, -0.44425854, -0.2225619, 0.5960501, -0.49476153, 0.099658854, 0.24301714, -0.4229121, -0.8221762, -0.5817492, -0.28234184, -0.60288346, -0.519066, -0.39528894, -0.7846875, 0.27511215, 0.32317618, -0.5977104, -0.021967884, 0.84217095, 0.5335832, 0.8063437, 0.366474, -0.28820932, -0.25017568, -0.14514592, -0.44994062, 0.163526, 0.5838333, 0.24577263, 0.39329973, 0.21097821, 0.005700603, -0.45299536, -0.19290422, 0.44267988, -0.55154526, -0.27576542, -0.2884965, -0.29073295, 0.13232736, 0.11306255, 0.111249685, -0.29901373, -0.17515118, 0.22816692, -0.112410255, 0.3913916, 0.41086778, -0.32842788, -0.18580212, 0.70178115, 0.031029208, -0.30227494, -0.08824102, -0.23387986, 0.093746684, 0.7547583, 0.14261283, 0.053038575, 0.4065944, -0.4183045, -0.46419966, -0.2584558, 0.30103928, 0.30204612, -0.3201341, -0.31314045, -0.15728204, -0.039817955, 0.03970539, 0.10083116, 0.056438155, 0.3551139, -0.27637613, 0.63472664, -0.13858297, 0.14362304, 0.534476, 0.031284615, -0.0067527466, 0.26117298, -0.11640717, -0.742812, 0.002505756, -0.5768783, -0.50709116, 0.33996382, 0.32362714, 0.47899792, 0.26658255, 0.11425456, 0.1970348, 0.5327498, -0.44393682, 0.40735328, -0.05029741, 0.08976042, -0.22938816, 0.044166062, 0.8760503, 0.49065936, 0.4218989, 0.2699193, -0.335463, 0.8411034, -0.29891175, 0.3497672, 0.41466475, -0.20177647, 0.291471, -0.38037887, 0.06533194, -0.34683308, -0.37105894, -0.73201907, -0.4308171, -0.12399328, -0.31741083, 0.0027110528, -0.03481625, -0.6406045, 0.82334656, 0.076230794, 0.37930474, -0.43279374, -0.29035366, -0.14672211, 0.6071236, -0.23176715, 0.27461815, -0.4433894, -0.079303116, 0.1622497, -0.13604954, 0.26058733, -0.26173866, -0.22945955, -0.76512873, -0.961615, -0.54835486, 0.3366644, -0.37133986, 0.10157906, 0.3954077, -0.22594778, -0.13372272, 0.16192234, -0.013453252, -0.02207909, 0.3768145, -0.327001, 0.007146597, 0.310273, -0.6466216, 0.36543676, 0.5894787, -0.89434433, -0.0417268, -0.50453913, -0.23899621, -0.057084262, 0.055405766, -0.080397874, 0.47090685, 0.13033867, 0.24474733, -0.43419328, -0.39049104, 0.36131477, 0.2337341, -0.12308245, 0.28899372, -0.16548175, 0.26112294, -0.214322, 0.22192277, 0.152866, -0.3121733, -0.054713767, -0.31852695, -0.05694057, 0.24825247, -0.17106079, -0.39554188, -0.9382745, 0.39119333, -0.36728293, -0.17733869, -0.05277339, -0.309621, 0.2457308, -0.45804283, 0.66552913, -0.4618324, 0.20482975, 0.03856407, -0.32947743, -0.20604713, 0.055320606, 0.57954, -0.148758, -0.87544274, -0.27823445, 0.30201748, -0.09651972, 0.1118232, -0.04194656, -0.16362257, 0.09974481, -0.61775136, -0.315714, 0.34459874, -0.40265542, -0.50057876, 0.5723416, -0.095209934, 0.5786413, -0.50430286, 0.13054857, -0.20017713, -0.16257446, -0.16084042, 0.31948656, 0.14886041, 0.3141967, -0.39611557, -0.70635533, 0.20633247, -0.18620424, 0.44856808, 0.19131143, -0.17063196, -0.50466764, -0.3361521, 0.72878486, -0.12660451, -0.38534352, -0.19051519, 0.5039401, -0.28022256, -0.0026534135, -0.23804685, 0.5599225, 0.34603015, -0.14042251, 0.1301238, -0.42729935, 0.4501443, 0.41300792, 0.008437942, -0.06409696, -0.07572608, -0.5843907, -0.34263322, -0.089325376, -0.84116286, 0.81604517, -0.22792628, 0.16722304, -0.110714145, -0.30621776, -0.013849679, 0.09746808, -0.017827498, -0.54256475, -0.30560222, -0.5895283, -0.56464267, -0.2581928, -0.17692421, 0.14405423, 0.7688825, -0.34587452, 0.032219928, -0.46712172, 0.5050719, -0.35917953, -0.3138912, 0.1311657, -0.17978586, -0.78388834, -0.7909548, -0.05430921, -0.22690704, -0.37771142, -0.22468138, -0.23354204, -0.041127846, 0.3397886, -0.13374841, -0.1129445, 0.058276355, 0.32129043, -0.8268294, -0.45810312, 0.40912545, 0.44178638, -0.6127441, -0.44361225, 0.24048321, -0.37732154, 0.08586186, 0.094661854, 0.124851756, -0.50994503, 0.25528997, 0.36060476, 0.5649144, 0.071904436, 0.34025687, 0.25155565, 0.12422463, -0.022151295, 0.40296483, -0.3566435, -0.2939846, -0.85419065, 0.0047042244, 0.005226741, 0.057616472, 0.635857, 0.36386937, 0.35261655, 0.3545586, -0.47789893, -0.025798934, 0.13972287, 0.5178789, 0.026197493, -0.23022085]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>shear stress의 의미는?</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>물체 표면에 평행하게 작용하는 응력을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>[-0.36421403, 0.18934758, 0.5525683, 0.14289562, 0.025639718, 0.1998415, -0.36685157, 0.33201036, 0.052518237, 0.12315257, -0.11614938, -0.5057461, -0.08735859, -0.4896996, 0.1067188, 0.01442118, -0.174142, 0.44662076, -0.031506278, -0.39614603, 0.008607557, 0.48692402, 0.6429592, 0.14747591, -0.17231822, -0.16553669, -0.25979447, 0.102966174, 0.42182246, -0.554409, 0.30770546, 0.52493364, -0.4019772, 0.804764, 0.4065651, -0.37885046, -0.5102642, 0.27570143, 0.174256, -0.29955345, -0.19357073, -0.054548163, -0.60727704, 0.066255316, -0.45610848, -0.044140358, 0.03991825, -0.22235033, -0.13512999, -0.29260975, -0.21987769, 0.124245524, 0.56602114, 0.58532244, -0.28534386, -0.6013843, 0.2620819, -0.44459152, 0.04896182, 0.23636608, 0.37854633, -1.2238452, 0.47953463, 0.13012579, 0.3293832, 0.23589043, -0.23039989, 0.3060052, -0.7192382, 0.4666577, 0.33073932, 0.5021408, 0.09559189, -0.5685563, 0.048010238, -0.34415057, -0.116050065, -0.24627285, -0.19186814, 0.009746294, -0.3097383, -0.87809783, 0.21326454, -0.9319317, -0.07894628, -0.579404, -0.30886406, -0.8985316, -0.8738322, 0.08719394, -0.7895451, 0.11410476, 0.09081422, 0.58387154, -0.27819103, -0.25734752, 0.06885899, -0.086583875, 0.20680022, 0.11266345, -0.28026053, 0.15245979, -0.36245483, 1.1211208, 0.032211885, 0.27804378, 0.16034415, 0.6796733, 0.8261174, 0.43023095, 0.6187661, -0.47899753, 0.4174462, 0.63490605, 0.44391385, 0.33378938, -0.5284462, 0.5515295, -0.5099274, 0.382284, 0.14433488, -0.2623457, -0.99675167, -0.06446247, 0.040461224, 0.85282385, 0.46860057, -0.26879027, 0.51855654, -0.023175303, -0.16191785, -0.065365694, 0.838192, 0.109339036, -0.35968336, -0.31679934, -0.069908306, 0.2794691, 0.108618006, 0.04562248, -0.22781596, -0.13680518, 0.3606338, -0.2797881, -0.38107386, -0.23729913, 0.42022008, -0.333044, -0.43647838, -0.5968393, -0.199702, -0.052808445, -0.2415491, 0.95159876, 0.19462834, -0.6058791, -0.33237082, 0.19073413, -0.26743037, -0.39057335, -0.04064549, -0.6278753, -0.4082682, 0.11075548, -0.43108386, 0.04006658, 0.21864358, -0.32882974, -0.07413944, -0.5598237, -0.118863866, -0.0057722838, 0.47410074, -0.4625472, -0.6828904, -0.03174268, -0.81857693, -0.15132359, -0.12166908, -0.41014075, -0.0875629, -0.10101701, -0.12286947, -0.3155629, 0.32465404, -0.23099133, 0.018608864, -0.1453103, -0.6404704, -0.3871584, -0.25197595, 0.04062421, -0.24711542, 0.12846875, 0.16440992, 0.7556577, -0.116437875, 0.033077724, -0.2897198, 0.31680247, -0.679564, 0.26964194, 0.40297404, 0.44138032, -0.48346964, 0.0036880851, -0.3468197, 0.13493164, 0.57658815, -0.28983322, -0.49425405, 1.020731, -0.067653045, -0.3104811, -0.34155375, 0.028687757, -0.9036916, -0.55169946, 0.07009014, -0.42957073, 1.1917503, -0.6345999, 1.0535133, 0.2995867, -0.2062873, -0.29926622, 0.7672063, 0.06536793, 0.35443535, 0.25703222, -0.44648027, -0.38869146, -0.5091996, -0.751561, 0.036080204, -0.26717013, 0.05072291, 0.28943312, 0.3210157, -0.38397473, -0.36834243, 0.48030385, -0.23553602, 0.061061848, 0.43768662, -0.36898267, -0.35883713, -0.5427359, -0.05898689, -0.013632327, 0.25543484, 0.21943446, -0.2729712, 0.012473577, -0.14650069, -0.18721227, 0.0621899, 0.7580888, -0.07476883, -0.051909905, -0.025538597, -0.43895656, -0.09409355, 0.069058836, -0.22314325, 0.09893597, 0.09342317, -0.24175568, 0.37206274, 0.033662505, -0.6481209, -0.26613098, 0.45108613, 0.19625732, 0.34598356, 0.727345, -0.15030429, 0.62835956, 0.32922864, 0.38558775, 0.17477229, 0.34621495, 0.004779185, 0.08603617, 0.35020676, 0.5562468, 0.45183736, -0.43778104, -0.35863248, -0.16514035, -0.34801704, -0.16843647, -0.2665414, -1.2053018, 0.15528622, 0.028376559, -0.5067423, -0.027053978, -0.31073624, 0.33452803, 0.387083, 0.21635409, -0.26046306, 0.571861, -0.5630881, 0.6164046, -0.4305366, 0.18626782, 0.4349441, 0.67840415, 0.74681324, 0.06212421, -0.37822595, -0.6372431, -0.08468132, -0.64609194, 0.43971762, 0.05095362, -0.265216, 0.4017655, -0.3606496, 0.71124154, 0.103603564, 0.22198483, 0.56492186, 0.19079474, 0.04261648, 0.022240696, -0.054071836, -0.45089644, -0.3821458, -1.2413418, -0.14437193, 0.4035829, 0.39354172, -0.8065561, 0.28832993, -0.48419556, -0.14372365, -0.13991062, -0.8528, 0.20984876, -0.64901054, 0.32789034, -0.055357613, 1.081676, 0.06615738, 0.054798484, 0.13711502, -0.2428987, -0.030609649, 0.05674059, 0.7750798, -0.009259524, 0.57326764, 0.619315, 0.46541294, 0.43493453, 0.22892058, -0.16795412, 0.6875841, 0.054404218, -0.06482466, 0.8951825, -0.54706234, -0.059045184, -0.6640266, 0.1429722, 0.093308486, 0.034045655, -0.5030116, 0.38932595, 0.7750592, -0.8828494, -0.597972, -0.36755472, -0.52184767, 0.37283057, -0.19082496, -0.10670737, 0.080903634, 0.58397067, -0.37982082, -0.89675313, 0.14508393, -0.86905277, -0.27091253, -0.20779657, -0.0034386814, -0.36466157, 0.47926283, 0.045155976, -0.38292298, -0.3694264, -0.2277427, 0.012763197, -0.30548546, -0.7244234, -0.71131, 0.36390156, 0.16836338, 0.7372127, 0.3397863, 0.6755991, -0.0080333995, -0.28437743, 0.37969124, -0.5150486, -0.29125252, -0.4327106, -0.22037272, -0.07450383, 0.05547904, -0.62988776, -0.14264216, 0.019250166, -0.0023676082, 0.19291785, -0.32154384, 0.0066313744, 0.18438368, -0.7818314, 0.2658195, 0.28535813, 0.84013474, 0.19291179, 0.40261555, 0.7008087, 0.24020974, -0.081032366, -0.075862065, -0.111310765, 0.59880227, -0.03698045, -0.08964612, -0.8182443, -0.039497696, 0.07886104, 0.008467009, -0.03993389, 0.3544759, 0.2652685, -0.39038578, 0.5593651, -0.12940022, -0.25304258, 0.1863943, -0.13273157, -0.7893556, -0.9515249, 0.12551546, -0.5548624, 0.2705534, 0.12645309, -0.41470465, 0.18061599, 0.6359851, 0.548717, 0.85419846, 0.5147771, 0.07935508, -0.45921463, -0.29098362, -0.22801061, -0.338319, 0.18479063, 0.08348525, 0.33759487, -0.069271185, -0.10087533, -0.06412135, -0.14670126, 0.78491396, 0.206811, -0.33554685, -0.46768036, -0.31773096, 0.492419, -0.123322524, 0.14441332, 0.103408195, -0.6820598, 0.35019317, 0.20527172, 0.3450414, -0.24379158, -0.5058953, -0.41397706, 0.6339316, 0.5413252, -0.031671062, -0.31442964, -0.47031856, -0.25441623, 0.46957785, -0.46128517, -0.1982314, 0.42572793, -0.36298305, 0.0021135628, 0.08509062, -0.028675485, 0.21876077, 0.23968437, 0.008942134, -0.09958966, -0.07013123, -0.4045032, -0.38204002, 0.026913201, 0.26239565, -0.44857436, 0.19419315, 0.3175869, 0.33517775, 0.66468596, -0.15583678, 0.13161993, -0.42996946, -0.14770904, -0.39313823, -0.16825116, 0.05114897, 0.23707333, 0.054645516, 1.0067098, 0.5680712, 0.28136286, -0.033922445, 0.1326398, 0.4478085, -0.5654566, 0.28776282, 0.511902, 0.062061496, -0.07509832, 0.19495666, 0.6091111, -0.04443053, 0.35757083, 0.2781479, -0.39764467, 0.39141673, 0.22240572, 0.10798409, 0.033160463, 0.27434996, 0.2310495, 0.14381318, 0.24131295, -0.007467228, -0.1973746, -0.5053038, -0.7685434, -0.17293954, -0.45404133, -0.65782595, -0.18475048, -0.110283315, 0.62563217, -0.5056982, 0.3676024, -0.81531084, 0.10735037, 0.14435132, -0.16124205, -0.017047, 0.39385292, -0.14680508, -0.13357186, -0.06863396, -0.26975363, 0.2809555, -0.21614614, -0.5680973, -0.43061003, -0.7144191, -0.4248405, 0.30666283, -0.20727316, 0.21225147, 0.81257993, -0.2578606, 0.17240047, 0.7385742, 0.01920722, -0.5035641, 0.20460057, -0.21075335, -0.14323245, -0.4259533, -0.78981334, -0.14828922, 0.29242522, -1.3643645, -0.455347, -0.6831473, -0.4894499, -0.4317523, -0.45128757, -0.34245926, 0.5910915, -0.7119714, -0.3421796, -0.033606663, -0.15810505, 0.558981, -0.05087036, -0.5440718, 0.42821366, -0.20800316, -0.42658663, 0.29352117, -0.57655156, 0.046935998, -0.49367666, 0.034203626, -0.38096663, 0.38670406, 0.708556, -0.35967845, -0.31074426, -1.1446143, 0.18374868, -0.6224488, -0.12597683, -0.24668959, -0.2442979, -0.2379328, -0.21669337, 0.140196, -0.42053518, -0.078926876, -0.076176114, -0.34481233, 0.24017458, 0.4773802, 1.10022, -0.532163, -0.8882683, 0.20284387, 0.27358288, 0.22893779, -0.13642152, 0.17575529, -0.13573158, -0.562001, -0.28032154, 0.09072033, -0.27074006, -0.2461855, -0.27598262, 0.39007407, -0.050947595, 0.45706, -0.5436529, -0.2303293, 0.18641835, 0.38771808, 0.08366859, -0.25098842, 0.09244827, 0.32560867, -0.6650545, -0.5978259, -0.100974105, 0.20875111, 0.08108373, -0.2582025, -0.13198736, 0.5049475, -0.9361006, 0.0811062, 0.004945612, -0.49221212, -0.29399115, 0.7047528, -0.44192085, 0.38067943, 0.21201292, 0.15350191, 0.3186558, 0.4385087, 0.9362272, -0.6253639, 0.36291423, -0.38564786, 0.024137517, -0.24384911, 0.441785, -0.4313222, 0.5004106, 0.1603641, -0.7370909, 0.34584552, 0.26095626, -0.33486167, -0.4108297, -0.02962426, -0.15522352, 0.45730472, 0.5526367, -0.52880377, -0.35431033, -0.28018668, -0.25051492, -0.74590003, -0.510883, -0.20334852, 0.25740334, 0.14320347, -0.01716031, -0.45287856, 0.09243185, -0.24578062, -0.46879488, 0.21868892, -0.30470136, -0.85128766, -0.38123903, -0.4790895, 0.013803941, 0.19987442, -0.2793003, -0.1873937, 0.27833822, 0.33467212, 0.016318724, -0.0888249, -0.054357994, 0.2305669, -0.30307782, -0.5199403, 0.40975752, 0.5120171, -0.39272752, -0.12552811, 0.46552816, -0.52963793, 0.43790665, -0.758518, 0.2072001, -0.65923613, 0.16265893, 0.37774637, 0.82207644, 0.38499758, 0.1980296, -0.21870919, -0.58333147, 0.35398573, 0.19498888, -0.44933978, -0.108404495, -0.43330112, 0.44194308, -0.26076877, -0.33733556, 0.8378574, -0.069484584, 0.51326215, 0.08018389, -0.24770549, 0.44104558, 0.01922279, 0.19154885, -0.21410914, 0.25770915]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>항복응력의 정의는?</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>유체의 흐름을 일으키기 위해 필요한 최소 응력을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>[-0.19112617, -0.10960323, 0.16940945, -0.8010767, 0.06844607, 0.034744333, -0.46922737, 0.24415003, -0.17292306, 0.36471412, -0.19052884, -0.080526315, -0.48070017, 0.10813853, -0.18443683, -0.3506675, -0.19150706, 0.5522592, 0.5940304, -0.17968535, -0.045051016, -0.053863965, -0.084042296, 0.16946813, 0.09489713, 0.25717962, 0.17314182, -0.08658078, 0.52663684, -0.828547, 0.765921, 0.037848074, -0.060080785, 0.6960599, 0.5898169, 0.053543862, -1.3131452, -0.23205355, -0.07879379, -0.4166449, -0.41770592, 0.33458436, -0.09642587, 0.53588355, -0.5934302, -0.11999427, 0.42142466, -0.16025895, 0.18542778, -0.47664976, 0.2656639, -0.32224336, 0.3390745, 0.78184265, -0.13751578, -0.05969972, 0.47457784, -0.26894638, 0.83036643, -0.47365463, 0.06589917, -0.5426588, -0.25406995, 0.592848, 0.24495149, -0.34055725, -0.31643406, 0.010948353, -0.045644913, 0.11701265, 0.47055954, -0.3009744, 0.6682119, 0.035178944, 0.73835593, 0.16809574, -0.57504964, -0.49442327, 0.6153662, -0.021387525, 0.04869071, -0.32927775, 0.08454393, -0.41109127, -0.19766663, -0.26521054, -0.20352559, -0.22616084, 0.501624, -0.08086781, -1.0147347, -0.49877262, -0.3022472, -0.12418827, -0.30853727, -0.64829427, 0.30813432, 0.35395774, 0.61027133, 0.07377121, 0.40457642, 0.58889884, -0.74523455, 1.1003509, -0.08134497, 0.2721546, -0.07879105, 0.20675988, -0.2406008, 0.37710732, 0.32203424, 0.3140184, 0.4991904, 0.25228387, 0.20195313, 0.8953085, -0.1961984, -0.33336273, -0.15207341, -0.40752614, -0.02877886, -0.37243098, -0.17087919, 0.29809117, 0.03317938, 0.22423236, 0.09562944, -0.49889714, 0.044166233, -0.80968785, 0.15859324, -0.23917045, -0.8423222, 0.24143465, -0.84046894, -0.57048184, -0.4497558, 0.063766174, 0.4677131, 0.19796544, -0.28927898, 0.24812299, 0.2222662, -0.98748183, -0.13188319, -0.52530414, -0.27191168, -0.17921175, -0.16150561, -0.09111685, 0.23983748, 0.35659555, -0.44973266, -0.19704805, -0.27920073, 0.2586791, -0.038349338, -0.09180943, 0.31531638, -0.18485557, 0.2800162, -0.5314294, 0.015142053, -0.56926453, -0.737087, -0.89177185, 0.022177301, 0.025987944, -0.07299355, -0.33279145, -0.21082316, -0.1753739, 0.35482067, -0.22466142, 0.35859492, -0.18432444, -0.24604827, -0.09435431, 0.3295722, -0.18841147, -0.5710569, 0.34781054, 0.18765451, 0.21928048, -0.48862934, 0.10372126, 0.14171264, 0.07449173, -0.49917465, 0.0094916355, 0.10670931, 0.4252459, -0.44072026, -0.3356068, -0.04233657, 0.43399107, -0.16644777, -0.3915571, -0.24602225, 0.57552224, -0.5411655, 1.052039, 0.7290733, 0.5432148, -0.05014141, -0.13595729, 0.3332042, -0.86281013, -0.30736753, -0.3616968, -0.23008697, 0.05356755, -0.27195895, -0.059391286, 0.060937457, -0.06142435, 0.06616261, -0.24038178, 0.07354286, 0.041790053, 0.26933378, -0.1911604, 0.5542566, 0.22522765, -0.6305486, -0.30124077, -0.2804043, -0.072511196, -0.38401306, 0.39126614, -0.33708835, -0.21561374, -1.2518243, -0.15629084, -0.39109695, 0.2560774, 0.020239519, 0.3384461, -0.1669943, -0.30242446, -0.0039482117, 0.24737127, -0.38163435, 0.2048626, 0.45242155, -0.6787688, -0.17099258, 0.04962794, -0.065847896, -0.7857672, 0.5912038, 0.7854349, -0.18182081, 0.10691036, 0.57700723, -0.13383535, -0.3335591, 0.24794404, 0.041131966, -0.03822042, -0.7504206, 0.18357429, -0.15389824, -0.16530551, 0.16878137, 0.040839713, -0.059606075, -0.39678013, 0.43360874, 0.07652721, 0.3161804, -0.36145383, 0.16850884, -0.035579663, -0.73941267, -0.10953024, -0.74202144, 0.5276786, 0.42966488, -0.05225192, 0.54584605, 0.1392923, 0.31658614, -0.18894589, 0.65168613, 0.14188449, 0.8310624, 0.07152067, 0.66068274, 0.3100994, 0.2905685, 0.46523604, 0.35825753, -1.9665246, 0.11766521, -0.17853421, -0.81749326, -0.52802247, -0.065700844, -0.26741517, 0.11522326, 0.07217196, -0.3079675, 0.06359906, 0.62214434, 0.31391296, -0.45255458, 0.9411601, -0.110322766, 0.566558, 0.23308203, -0.011860406, 0.114713006, -0.17236264, 0.5301585, -0.14308296, 0.27566248, -0.9257287, -0.5426742, 0.25009242, -0.12011785, 0.5759566, -0.027935948, -0.41755703, 0.4559829, 0.54010326, -0.73637885, 0.58160794, 0.023648228, -0.48894706, -1.2278837, -0.37314108, 0.15657817, -0.009667047, -0.65213215, -0.30018765, 0.5379464, -0.1485393, 0.15040967, -0.10389219, 0.80569243, 0.28670445, 0.1771468, 0.36882693, -0.04242171, 0.508067, -0.4204259, 0.015850348, 0.17133433, -0.569035, -0.23810928, -0.10242084, 0.19663544, 0.37085015, -0.068505436, -0.09673652, 0.70682037, 0.7095451, 0.5009466, 0.1467957, 0.7028538, -0.3043582, 0.3614735, 0.9719956, -0.041807547, 0.21416125, -0.95034057, 0.24499427, -0.0912738, -0.5713913, 0.3117205, -0.09848984, 0.49646866, -0.019476952, -0.101033136, -0.70501685, -0.8922631, 0.13947143, -0.21201906, -0.06715879, 0.54572546, 0.41321772, 0.14907749, -0.88982624, -0.17249383, -0.113375425, -0.88242984, 0.6133946, 0.08496709, -0.08275092, -0.26637962, 0.31306398, -0.36603338, -0.500996, 0.1968872, -0.7074223, -0.14809294, -0.1648425, -0.20022291, -1.1251652, -0.53935045, 0.116595864, -0.3583275, 0.2795271, -0.63531595, 0.06659782, 0.27682284, -0.22354722, -0.16118868, -1.0446566, 0.034979537, -0.21975419, -0.58614385, -0.21025698, 0.2862705, -0.12799142, 0.22614768, -0.19096285, -0.17330526, -0.020824539, 0.01734586, -0.4816983, 0.13405006, 0.24697624, -0.4041046, -0.0602527, 0.5107075, 0.10713126, 0.086212814, -0.5357642, 0.2804221, 0.47747082, 0.13921982, -0.23682788, -0.511965, -0.40926442, 0.0018563401, 0.26800445, 0.30753338, -0.5906243, 0.21104033, -0.32016435, -0.028310724, 0.016612658, -1.4176219, -0.18653113, -0.65067863, -0.24959773, -0.55080885, 0.22780493, -0.43523136, -0.41352543, 0.6667583, -0.3107659, 0.091396265, 0.0759917, 0.40194887, -0.1423399, 0.70920455, 0.41543934, -0.49787727, -0.028127369, -0.27741173, -0.28550175, 0.25183916, 0.22606213, 0.28486192, 0.5464555, -0.02008339, 0.4534547, -0.1325727, 0.25364685, 0.46704605, -0.5130346, 0.08451501, -0.27837685, 0.13566744, 0.7168396, -0.4076742, 0.035352733, 0.027718605, -0.13107115, 0.74355495, -0.19013795, 0.3866602, 0.48374966, 0.40629005, -0.03989997, 0.36920077, -0.042273466, -0.12672123, -0.09727519, 0.05481589, 0.13159516, -0.23646252, -0.29093635, 0.39905664, 0.39205143, -0.39291248, 0.42328495, -0.20517945, 0.06411384, -0.18325439, -0.68754566, 0.28909376, -0.6650473, -0.58360285, 0.24109493, -0.20045207, 0.5995047, 0.2997203, -0.14782149, 0.6332229, -0.56476223, -0.027897477, 0.05672042, -0.3398392, -0.06604632, -0.953437, 0.4685182, -0.37776232, 0.0076178163, -0.27338108, 0.22379497, 0.022181876, -0.09853184, 1.361409, 0.23003276, 0.032754164, 0.3166583, 0.4293048, -0.42681405, 0.017269352, 0.33128765, -0.08319035, 0.28753006, -0.6783463, 0.23119698, -0.08652054, 0.37398905, 0.03370599, -0.78140974, 0.51745903, -0.26267427, 0.56596124, -0.16390745, 0.2008915, 0.37720412, -0.23912174, -0.33303288, -0.45334256, -0.7625316, -0.7017074, -0.61391604, -0.3963, 0.15205565, 0.14624076, -0.52646345, -0.13096806, 0.39580858, -0.4372103, 0.13910699, -0.6277252, 0.6467201, -0.037644837, 0.9471982, -0.04524469, 0.21863194, 0.12772425, -0.33694994, 0.3129096, -0.14539163, 0.14951035, 0.044323735, -0.30880672, -0.59987175, -0.626475, 0.37197438, 0.6396427, -0.41851345, -0.3431432, 0.52106667, -0.5266547, -0.4810313, 0.15530938, 0.057937544, 0.36369944, 0.50527054, 0.16460526, 0.036589283, 0.17775056, -0.7353929, 0.26785693, 0.67514575, -0.6836674, -0.45012394, -0.28717434, -0.73977464, 0.18098861, -0.81071496, 0.12899524, 0.52392817, 0.3688119, 0.06311548, -0.56873137, -0.43258682, 0.659359, -0.25530255, 0.32837716, 0.07345181, -0.24710447, -0.11690513, -0.53673035, 0.24955167, 0.5102581, 0.25951514, 0.21907489, 0.27721977, -0.033569295, 0.2899683, 0.35250315, -0.07307375, -0.43685332, -0.049535558, -0.33677107, 0.3245057, 0.11367067, -0.8625377, 0.16447404, -0.631272, 0.57286125, -0.24818963, -0.50882316, -0.062574476, -0.25812638, -0.4677947, -0.025066864, -0.485626, -0.46689293, -0.24297899, -0.1543631, 0.35675344, 0.042202268, 0.20381431, -0.3588942, 0.045531664, -0.34329456, -0.5537141, -0.6259599, 0.023219302, 0.039106376, -0.5377694, 0.10119823, 0.16133605, 0.4914685, -0.30705863, 0.3918767, -0.1275131, -0.16907348, -0.16156265, 0.1447433, 0.3332565, 0.014260281, -0.28526554, -0.21321467, -0.36370745, -0.43503726, 0.55038285, 0.4643105, 0.24328971, -0.15877217, 0.027810263, 0.50846595, 0.21131332, -0.97058445, -0.5147944, 0.15284361, -0.33242452, 0.22781958, -0.027465563, 0.14453499, 0.13622087, -0.1320436, 0.30621994, 0.32520834, 0.36488786, -0.021265812, -0.13662487, 0.24912159, -0.17057568, -0.31010664, 0.40200043, 0.00014804862, -0.34714067, 0.43556944, 0.31705064, -0.20251474, -0.09722266, -0.3428443, 0.121656895, 0.15175278, -0.13276337, -0.68299764, 0.1694404, -0.5376313, -0.038223844, 0.06590315, -0.24618286, -0.31835166, 0.18047814, -0.4023824, -0.25455415, -0.4516158, 0.14801791, -0.03904666, -0.12944673, 0.14435779, -0.384642, -0.6167941, -0.27916467, 0.13534287, -0.0663622, -0.62870324, 0.39670312, -0.18917356, 0.13041033, -0.07484992, 0.15931723, 0.22186244, -0.3089147, 0.5523431, -0.6063611, -0.35371205, 0.13088265, 0.47161627, -0.027384099, -0.1241827, 0.2824458, 0.23607057, 0.1609583, -0.10095286, -0.019379301, -0.5147666, 0.4656994, 0.14394851, 0.5757999, -1.0613844, 0.5315469, 0.37118018, 0.04511925, 0.21417187, 0.2825953, -0.073991045, -0.013896136, -0.5424409, -0.8191341, -0.012756419, 0.4124351, 0.47408983, 0.7392161, 0.00045962798, 0.540344, -0.32065815, -0.056689244, -0.057424705, 0.4217447, 0.068895504, -0.073442854]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>yield stress의 정의는?</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>유체의 흐름을 일으키기 위해 필요한 최소 응력을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>[-0.5977992, -0.23539285, 0.907273, -0.47049513, 0.014971605, 0.23559098, -0.5165641, 0.6012374, -0.19396734, 0.11967824, -0.21794248, -0.5974166, -0.24000311, -0.14988747, -0.13652301, -0.08345234, -0.029011866, -0.22144556, 0.49424616, -0.3557594, 0.18553649, 0.7068733, 0.10000275, 0.20848474, -0.38622683, -0.7041799, -0.17107925, 0.0027388125, -0.2594644, -0.80880195, 0.52357143, 0.633208, -0.37198177, 0.49539262, 0.31582838, 0.038150426, 0.0054668086, 0.19638565, 0.31096205, 0.32552624, -0.50583315, 0.04200145, -0.5340353, 0.3480782, -0.449025, -0.30906355, 0.034933023, 0.13928871, -0.32868642, -0.26979315, -0.09069662, 0.1215511, 0.2446547, 0.74671006, -0.022740688, 0.007868771, 0.39183417, -0.19339958, 0.0106611075, -0.2829762, 0.473272, -0.8125291, -0.111087635, 0.16367638, -0.23876174, -0.27851146, 0.47813916, -0.06789502, -0.6270386, 0.30929717, 0.168367, 0.31639224, 0.19746871, -0.4233837, 0.18601443, -0.004015191, -0.0079033915, -0.27503273, 0.70028424, 0.17812715, -0.12999964, -0.62430036, 0.5659527, -0.8702055, -0.17883942, -0.2781667, -0.28675705, -0.5839006, -0.034680694, 0.33538607, -0.6523417, -0.17381135, 0.23662305, 0.13109884, -0.58215773, -0.82424, -0.14210868, 0.13494083, 0.3174222, -0.27432403, -0.3320935, 0.54396963, -0.662566, 0.3620904, -0.3665294, -0.0052683963, 0.11732601, 0.66140157, 0.22541206, 0.37121657, 0.3289663, -0.5207844, 0.059851963, 0.9646343, 0.3658607, 0.4906175, -0.7556207, 0.25010654, -0.6792357, -0.20801215, 0.23494875, 0.04872305, -0.8715254, 0.31725046, 0.27759105, 0.4048888, 0.79578036, -0.15328544, 0.39296672, -0.8825809, 0.27643687, -0.0577524, -0.044609196, -0.31388742, -0.44378024, -0.32199198, -0.120329596, 0.40554094, -0.4225905, 0.49165773, -0.29000804, -0.50114167, 0.63243306, -0.5800213, -0.036838584, -0.3047636, 0.13311805, -0.64649904, -0.027077258, -0.39968616, 0.30159777, 0.36610046, -0.44906634, 0.315023, -0.05777235, -0.447833, -0.2516643, 0.26681107, 0.16091132, 0.09377735, 0.16609654, -1.2576976, -0.047906835, -0.36475816, 0.2848454, 0.1080093, -0.11717913, -0.5209122, -0.37066, -0.08836065, -0.8597287, -0.2610136, 0.1509282, -0.50580966, -0.39645255, -0.08036739, -0.32039794, 0.41679153, 0.22549486, -0.7186928, -0.17058988, -0.5139426, -0.00036613792, 0.031379703, 0.29994193, -0.28719503, -0.23258455, -0.8339979, -1.3437284, -0.3771264, -0.22992769, 0.42085165, 0.04852988, -0.011773163, 0.3778933, 0.5139701, 0.19771649, 0.30173036, -0.040972255, 0.094914205, -0.52190745, 0.44287452, 0.03660046, 0.7507897, -0.35533297, 0.62419593, -0.639708, 0.13871041, 0.28761542, 0.15220116, -0.23580143, 0.85658133, 0.2757357, 0.086051226, -0.034268748, 0.531192, -0.035431363, -0.6472689, -0.21447256, -0.23596275, 0.8269232, -0.11342652, 0.68754226, 0.0832154, -0.34535414, -0.9365034, 0.2609092, 0.37769276, 0.17448424, 0.20484948, -0.17097738, -0.3516324, -0.8092992, -0.9010569, 0.36755988, -0.15616772, 0.06258154, 0.07206833, 0.30705652, -0.11104085, -0.3225662, 0.3999615, -0.31966802, -0.1526378, 0.28393623, 0.18482219, 0.424354, -0.1871405, -0.6112425, -0.5196578, 0.8816228, 0.1831137, -0.07533551, -0.3641216, 0.003426151, -0.2982699, 0.22162268, 0.13879344, 0.13707149, -0.12756887, -0.08303957, -0.1788315, -0.117485926, 0.20932098, -0.084746055, -0.21834779, -0.2730982, -0.42868686, 0.10539645, 0.3359485, -0.23054035, -0.5013013, -0.10508474, -0.2548547, 0.00600618, 0.51823264, 0.1720825, 0.5237499, 0.8387145, 0.15041885, 0.6515419, 0.5059722, -0.15269122, 0.28571066, 0.2890952, 0.4303236, 0.17636406, 0.12213214, -0.5981756, -0.08170665, 0.19120355, 0.11367285, -0.018865, -1.5987065, 0.39229864, -0.24084365, -0.5144805, -0.4345654, -0.36776796, -0.07937458, 0.5118246, -0.198772, 0.21052651, 0.95980036, -0.13201196, 0.09229465, -0.5932666, -0.060097717, -0.03903521, 0.75966346, 0.26242653, -0.039180465, 0.05435131, -0.6879238, -0.20107886, -0.62688965, 0.30524185, 0.10853006, 0.3813836, -0.2565468, -0.12188804, 0.09726957, 0.4141283, 0.22752264, 0.224141, 0.027652645, 0.17683302, 0.08657701, -0.29511234, -0.6437887, -0.7226161, -1.1252831, 0.061031707, 0.12738499, 0.5816481, -0.75469756, -0.0041661276, -0.08764185, 0.0843897, -0.28830945, -0.43585405, 0.34423307, -0.30224746, 0.19050911, 0.46073017, 1.0079676, -0.13725285, 0.107085966, -0.41225123, -0.5664482, -0.35114223, -0.1631825, 0.45811287, 0.601715, 0.74323803, -0.26655567, 0.39342055, 0.17675096, -0.19888851, -0.16581424, 0.29982442, 0.33437335, 0.20691419, 0.45002788, -0.3431031, -0.3413302, -0.19020313, 0.30718902, -0.100774094, 0.12454597, 0.025191957, 0.22743893, 0.60157406, -0.5275176, -0.32939428, -0.58471745, -0.59239876, -0.0972141, 0.3537251, -0.68219715, 0.55033684, -0.14589691, -0.6924631, -1.2447836, 0.33606005, -0.9584845, 0.10876168, -0.12546775, 0.4965229, -0.2840094, 0.31812495, 0.02653179, -0.5031996, -0.07373808, 0.007885813, 0.40484303, -0.37784785, -0.7018233, -0.11155584, 0.5909777, -0.2821831, 0.7039988, -0.25905347, 0.4798103, -0.070730194, 0.048430264, 0.84964925, -0.2125144, -0.41624174, -0.5190357, -0.5271242, 0.21545276, -0.26811305, -0.49295917, -0.02928636, 0.51394475, -0.14862958, -0.061288495, -0.27014577, -0.3786879, -0.29794353, -1.0441388, 0.13235511, 0.09824616, 0.63714457, 0.22172293, 0.037518438, 0.5958406, 0.4602867, -0.06754273, -0.013167478, -0.35371047, 0.49737924, 0.3161908, -0.2036252, 0.23437464, 0.1773524, 0.08744405, 0.121324696, -0.22944658, 0.42575374, 0.060923, -0.076681376, 0.4694721, -0.09843751, -0.34120375, -0.52496225, -0.065377004, -0.55372393, -0.46950275, -0.1678539, -0.50048256, 0.49342003, -0.29894358, -0.3302715, 0.44502845, 0.89824355, 0.10018551, 0.5911566, 0.10971234, -0.0026693821, 0.20512585, 0.5573591, -0.37573022, 0.057085633, 0.1536661, -0.24052656, 0.4049465, 0.2704919, 0.2717656, 0.5659602, -0.27909812, 0.3150951, 0.07051061, -0.06075698, -0.29453874, -1.0984653, 0.75819665, -0.28298035, 0.34394932, -0.006763093, -0.53644985, 0.16365607, 0.11807029, 0.10078837, 0.5596183, -0.2033873, -0.4728315, 0.23063107, 0.62328494, -0.31568757, -0.2683272, -0.21518719, -0.26860952, 0.9781958, -0.31936368, -0.014031336, 0.37057745, -0.05654199, 0.48377246, -0.0676329, 0.16268554, -0.32171836, 0.007342377, -0.5956427, 0.14132582, -0.4436602, -0.4689396, -0.2426045, 0.5917495, 0.03216981, -0.15693276, 0.5087815, 0.28392878, 0.4743878, 0.9821471, -0.066314004, -0.089555606, -0.41623148, 0.4548656, -0.2724826, -0.2509722, 0.017210344, -0.69434327, 0.10763992, 0.576413, 0.07484661, 0.08277014, -0.2589841, 0.020375585, 0.29549137, -0.57529783, 0.26943547, -0.101727344, 0.8119195, -0.031715363, -0.09026568, 0.55338854, -0.44866568, 0.22351846, 0.6368708, -0.14540114, 0.30067393, -0.15873736, 0.56280106, 0.07282719, -0.21928068, 0.47003588, 0.8793777, -0.10508068, -0.20173474, -0.09070698, -0.63130516, -0.34677395, 0.0021505952, 0.25248215, -0.17385247, 0.6189066, 0.025336975, -0.10926311, 0.016631387, 0.14688732, -0.41793615, 0.4775485, -0.10104487, 0.2385726, 0.07990443, 0.17402604, -0.2952903, -0.24937432, 0.6780808, -0.35138202, 0.4382375, -0.04347634, -0.82585984, -0.114898264, -0.7202631, -0.64336914, -0.12706418, -0.18965638, 0.0957069, -0.004408136, -0.30622602, -0.70609146, 0.69073915, 0.25661045, -0.48226255, 0.020112842, 0.040332146, -0.524463, 0.078552134, -0.7488301, -0.1512514, 0.27937254, -1.3994459, -0.7148139, -0.972962, -0.30067027, -0.3892714, -0.6190835, -0.6865292, 0.52740705, -0.13624564, -0.54549646, -0.20777953, -0.28802893, 0.13183603, 0.39511883, -0.34931755, 0.16028693, 0.015995165, -0.64746314, 0.52624154, -0.52462465, -0.18294439, -0.4733967, -0.15583885, -0.44921255, 0.053155802, 0.48218036, -0.2564341, 0.033843003, -1.1293747, 0.22554228, 0.076140255, 0.13858157, -0.3534711, -0.18881136, -0.26188508, -0.25829512, 0.44403648, -0.33293736, -0.19516513, 0.36854908, -0.5567398, 0.2335815, 0.45386863, 0.871957, -0.5810921, -0.8986684, 0.39806664, 0.14911622, 0.4025104, 0.054906674, -0.14419411, 0.16571404, -0.07057056, -0.19000837, -0.015615338, -0.18013757, -0.3393126, 0.21428272, 0.3582404, -0.24225736, 0.49821442, -0.14992072, -0.21511431, 0.28484577, 0.62616533, -0.03514165, -0.5616898, -0.45366716, -0.12680319, -0.22596662, -0.17065492, -0.28268522, -0.57473296, -0.20953298, 0.14666767, 0.4883225, 0.6489359, 0.07877264, 0.0944322, 0.40809688, 0.06140407, -0.6359351, 0.5367171, -0.16103636, 0.28051475, -0.33859238, 0.23856544, 0.6085717, 0.5120231, 0.3874061, -0.49990815, 0.65551275, 0.017282335, -0.30102232, 0.3777038, 0.79279387, -0.7276866, 0.19848125, 0.31593078, -0.330685, 0.5446336, 0.29129368, -0.25909913, -0.044104524, -0.052485198, -0.06983082, 0.40731353, 0.24224424, -0.29906553, -0.40294218, -0.73062694, -0.09040181, -0.3427297, -0.3230342, -0.3425325, 0.28602514, 0.10432813, 0.021191308, -0.5364722, 0.4790677, -0.422383, -0.77357095, -0.18586564, -0.43337232, -0.68120444, -0.092331395, -0.27353388, -0.09494252, 0.0819694, -0.6095002, 0.06105926, 0.107063875, 0.3310387, -0.45386323, -0.12277162, -0.086642966, 0.23118457, -0.33542842, 0.1531525, -0.02561446, 0.7050992, -0.21260905, -0.6071505, 0.32066602, -0.55647665, -0.19326892, -0.547778, 0.24194336, -0.1878775, -0.12407683, 0.3620549, 0.5442368, 0.3044451, 0.25571492, -0.3086401, -0.39481273, 0.6468792, -0.029677594, 0.060137738, -0.21424377, -0.673873, -0.1875678, -0.14458756, -0.82337713, 0.8513794, 0.51587474, -0.076225065, 0.3595453, -0.4336254, 0.60289085, 0.048762232, 0.10661666, -0.123792075, -0.11112472]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>절대점도(absolute viscosity)의 정의는?</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>뉴턴의 점도법칙에 의하여 전단응력을 전단속도로 나누어 얻은 값을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>[-0.3478027, 0.18937802, 0.10346802, -0.1407493, 0.19905497, -0.32922673, 0.25405607, 0.10119341, 0.5444807, -0.119359754, -0.36925322, -0.40687808, 0.39374897, -0.00960773, -0.56694835, -0.22852913, -0.040359657, -0.3652905, 0.46613818, 0.026183873, -0.36490527, 0.24443118, 0.15326911, 0.3229406, -0.40115175, 0.39648172, -0.28962812, -0.2310305, 0.75437105, -0.4159177, -0.17597787, 0.4638396, -0.27543622, 0.4004578, -0.27771658, 0.45575786, -0.22228687, -0.69120526, 0.6590847, -0.49400258, 0.19016638, -0.4827729, -0.0067948895, -0.1711652, 0.13186625, -0.4716758, 0.110506415, -0.09377378, 0.33131588, 0.1144285, 0.08699932, -0.0036832183, -0.47806, -0.019990698, -0.71655875, -0.5564836, -0.069487974, -0.65288806, 0.08136994, 0.22298265, 0.49284458, -0.63236165, -0.24942107, -0.07356455, -0.04238463, -0.07472318, -0.13018723, 0.041514058, -0.2907827, -0.091348566, 0.35058776, -0.6608339, -0.055847585, -0.24585879, 0.34469652, -0.26539165, -0.22493184, -0.17750318, 0.7764982, 0.37446412, 1.12362, -0.29949117, -0.3814692, -0.22690623, 0.22514784, -0.24478276, 0.2533458, 0.07735647, 0.5712339, 0.01859297, 0.29156238, -0.12000902, -0.48373085, 0.5950515, -0.30524367, 0.6274151, 0.5116023, -0.031500593, 0.26070505, -0.111130096, 0.20031118, 0.7914813, 0.28859288, 0.68242085, 0.12320789, 0.12521924, -0.23171732, 0.061866183, 0.27548394, -0.15578134, -0.13737896, -0.57673097, -0.059005845, 0.06927707, 0.483193, -0.42037344, -0.074407384, -0.37661934, -0.101677105, 0.43955263, 0.20967352, -0.85399276, 0.10342066, -0.17480536, -0.112974145, 0.78990763, 0.2647759, -0.1892857, 0.53868926, -0.17595623, -0.074171975, -0.6552996, 0.06397853, -0.10893254, -0.45723027, -0.45467734, -0.07904992, -0.22835469, -0.39689508, 0.25323802, -0.5691936, 0.5130925, -0.019798893, -0.6161899, -0.17935356, 0.3700755, -0.061585296, 0.11955024, -0.82783806, -0.7280681, -0.35437095, -0.21142466, -0.5648384, -0.29242912, 0.1563895, -0.31372884, 0.6186921, -0.08936411, 0.20534396, 0.47431225, -0.05410536, -0.12451776, -0.20883965, -0.03204351, -0.36340985, -0.105140135, 0.26560563, 0.029170314, -0.25327045, -0.50041115, -0.84815377, -0.36349782, -0.011295455, 0.03856392, 0.36460048, 0.29176062, -0.33406657, -0.056442402, 0.111006856, -0.07056943, 0.65634656, -0.03624039, 0.02913335, -0.13253786, -0.25866932, -0.2771865, -0.09797485, -0.14683053, 0.07344699, 0.384878, -0.76460147, -0.028378855, -0.36693653, 0.1987086, 0.3656426, 0.17407858, -0.16814777, -0.21310218, -0.14243816, 0.51552427, -0.07912268, 0.5769018, -0.1551134, 0.4181245, 0.29191214, -0.3820306, 0.34658659, -0.7802664, -0.03040483, -0.3324334, 0.07654087, 0.77032506, -0.14547087, -0.030978024, -0.24140227, -0.59435546, 0.08081962, -0.071780846, 0.08463747, 0.4115401, -0.3919628, 0.17654437, 0.9907476, 0.46626768, -0.007777497, -0.38683322, 0.6120561, 0.12289824, 0.50097096, -0.20064266, 0.26592106, -0.19970773, 0.41705728, -0.55576736, 0.3018179, 0.18405728, 0.37309942, 0.30970535, -0.74580127, -0.40407935, 0.2836109, 0.19259278, 0.07820317, -0.25799546, 0.3656809, 0.017433757, -0.41751862, -0.80096304, 0.026574802, -0.7325344, -0.16495511, -0.19722614, 0.1840994, 0.009628507, 0.15216328, 0.14839312, 0.13381095, 0.8768997, -0.55097944, -0.34215903, -0.36718446, 0.03828924, -0.28151086, -0.16353956, -0.025796628, -0.3231131, 0.90419054, -0.31431752, -0.13000342, -0.23329087, -0.93427074, -0.13051347, 0.7548726, -0.30433527, -0.09374272, -0.2237151, 0.097373925, -0.0037053376, -0.23566496, -0.7971589, -0.09421151, 0.48966137, -0.8540889, -0.4060328, 0.010362342, 0.08476031, -0.17174812, 0.06760271, 0.022895778, -0.33187857, 0.2931444, 0.16580021, -0.04442129, -1.4184291, 0.3623213, -0.13383713, 0.20152254, -0.47303548, 0.3521598, 0.07225805, 0.32743356, -0.08228047, 1.4736089, -0.14152469, 0.5024211, 0.37068415, 0.022505641, -0.8457321, 0.21034071, 0.3579583, 0.4368629, 0.56129295, 0.37309706, 0.4590954, 0.250866, -0.7665592, 0.5241125, -0.26854974, 0.4542354, -0.32120854, 0.008069843, 0.9335271, -0.03276156, 0.063573405, 0.12573376, 0.39684325, -0.06170873, 0.25596556, -0.43064433, 0.47899666, -0.12884772, -0.8171159, -0.093944564, -0.13683379, 0.14423342, -0.53915644, 1.086497, -0.62549835, -0.20613399, 0.3600674, -0.06852652, -0.635814, 0.03500769, 0.3123978, 0.26706842, 0.3981331, 0.32524356, -0.8355301, 0.1692039, -0.43041563, 0.63250035, -0.19506207, 0.12707117, 0.3276279, 0.47677773, 0.0039404607, 0.5785225, 0.59591675, 0.41183457, -0.6258882, 1.2788852, -0.5279397, 0.14209154, 0.2924854, -0.49658585, -0.18728176, -0.6264289, 0.22982514, -0.7457575, -0.19554856, 0.16162601, 0.107756615, -0.84323037, -0.66378963, -0.15603518, -0.5160588, 0.29873484, 0.36104196, -0.3088381, -0.26521283, 0.34190136, 0.6829462, -0.07186662, -0.49717054, 0.36141217, -0.41994405, -0.23207326, 0.56132925, -0.10593164, 0.24797702, -0.09597375, -0.5393459, -0.101044394, 0.09909887, -0.898444, -0.08657416, -0.3624287, -0.27625325, -0.0754593, 0.35768318, 0.5833491, 0.6595918, 0.018605262, 0.030823667, -0.32587582, 0.31263828, -0.18792364, -0.23988934, 0.029227674, -0.8524664, 0.057123683, -0.09009564, -0.3144921, 0.0751036, 0.029088914, 0.14024374, 0.20658278, 0.16169307, 0.6612732, -0.09873952, -0.32533306, 0.39338264, 0.092374586, -0.5263077, -0.26727697, 0.34240612, 0.97615033, 0.44079256, 0.38986018, -0.37264323, 0.91611785, 0.36735243, 0.38489074, 0.24605441, -0.46304783, 0.5189163, -0.38820022, -0.38417062, -0.3461248, 0.123995066, 0.080811575, -0.11221592, 0.39540815, 0.39333457, -0.6056572, 0.2944089, -0.76136506, 0.61827195, 0.22426148, -0.7571297, -0.30936328, -0.053283982, -0.11731269, -0.015045231, -0.47684819, 0.44876957, -0.13718896, 0.19598389, 0.35571823, -0.36106008, -0.28403386, 0.3382841, -0.2674551, 0.12899181, 0.24982934, -0.45294905, -0.079422176, -0.013428849, 0.030492995, 0.13135478, -0.28432098, 0.05620996, 0.4215754, -0.11602881, -0.35731697, -0.15217273, -0.058967043, -0.2304858, -0.4873797, -0.13212185, -0.39965597, -0.07570203, 0.13361773, 0.46616116, 0.80756885, -0.08426229, -0.42468032, -0.24450651, 0.011355838, -0.3128269, -0.20412967, 0.06825451, -0.17775688, -0.11376919, -0.50315994, -0.2686294, -0.32116023, 0.7915082, -0.08398406, -0.06559579, -0.25792715, 0.8070288, -0.11089872, -0.32987386, 0.42406303, -0.27447328, -0.13204701, 0.42320386, -0.8319399, 0.0012456656, 0.16782837, -0.47858676, 0.3282128, 0.5584, 0.72661656, 0.2460444, 0.09908189, 0.18574496, -0.76696837, 0.5525318, 0.018062253, -0.43871516, 0.40767106, 0.25811678, 0.18221055, -0.44338647, -0.013801741, -0.063849404, -0.23199758, -0.116622984, -0.6816479, 0.3962427, -0.56832635, -0.61292434, -0.2572503, -0.3255431, -0.32027605, -0.12756872, 0.08081869, 0.04183402, 0.08177197, -0.5569682, 0.016756624, -0.7607232, 0.18372898, -0.17560656, 0.6351328, -0.04942141, 0.101496935, 0.14836161, -0.84310913, -0.66957676, 0.09519726, -0.40758047, -0.08271123, -0.001770356, -0.5389724, -0.49317852, -0.9431201, 0.57242423, -0.3518552, -0.06447366, 0.059719343, 0.4472131, -0.05210917, -0.1280177, 0.42677894, 0.32382804, 0.11296642, -0.2981401, 0.1753389, 0.67814076, 0.2774558, 0.4363106, -0.6026692, -0.7803728, -0.5401093, -0.450133, -0.014390206, -0.4046297, 0.20503247, 0.24914217, 0.40975556, -0.2867259, 0.65467423, 0.45806313, -0.12639768, 0.100653425, 0.28021345, 0.5185581, -0.74752885, -0.51217306, 0.04855763, 0.18010078, -0.516715, -0.4763752, 0.69693625, -0.47114992, -0.5427229, -0.38312635, 0.36272186, -0.13035485, 0.18462881, -0.17835493, -0.09595476, -0.4031743, -0.61541903, 0.2735458, 0.12741655, -0.0418258, -0.5830394, 0.24495697, -0.44083625, -0.62138903, -0.3561052, -0.086541094, -0.13923842, -0.96470994, -0.050725482, 0.34557804, 0.053189002, -0.36515945, -0.13772151, -0.589064, 0.13384095, 0.027648509, -0.5107871, 0.13485393, -0.52059364, -0.8134047, 0.5269203, 0.17592394, 0.4288706, -0.19165622, 0.018958125, 0.12860166, -0.54460317, 0.14778097, 0.21682778, -0.4278105, -0.1616247, 0.4647314, 0.09918828, -0.18991183, -0.58211803, -0.037786797, -0.07383631, 0.4305237, -0.43563595, 0.3168862, 0.19380054, -0.23435108, -0.6642331, -0.13974771, 0.20203987, -0.33731845, -0.1814563, 0.186929, 0.098808244, 0.30011922, -0.035502844, -0.19632265, 0.39342967, -0.15507887, -0.07050698, 0.19786873, -0.45891395, 0.05520969, 0.20094924, -0.19477221, 0.37311167, -0.18331715, -0.3230125, 0.5462445, -0.36724982, 0.015871447, -0.14336744, -0.14059937, 0.15797012, 0.047664866, -0.28850454, -0.12156663, 0.7414757, -0.08760377, -0.16486415, 0.12997326, -0.40421477, -0.018036801, 0.52590317, -0.6587587, 0.029094616, -0.61189044, 0.22399333, -0.2658519, 0.43850446, 0.3824873, -0.048801407, -0.011417741, 0.2875789, -0.8147354, 0.057462893, 0.18227117, -0.34740925, 0.34749162, -0.5990745, -0.3407274, 0.33666053, 0.031343903, -0.46826696, 0.11098566, 0.34296978, -0.11549179, 0.10874997, 0.47151905, 0.10106395, -0.72197884, 0.058136802, 0.38104364, -0.76343095, -0.6794523, 0.31830356, 0.5607269, -0.24958321, -0.03625766, -0.20045438, 0.11829698, 0.38208908, 0.32974482, -0.35417527, -0.7013209, -0.030815143, 0.40211135, -0.3653294, 0.35969633, -0.03792693, 0.46740636, -0.8517128, -0.27374315, -0.32835725, 0.07002753, -0.8142492, 0.18860553, -0.55925035, -0.36665988, 0.42053333, 0.23669687, 0.36589545, 0.44943276, 0.023242772, -0.2487632, 0.3410812, -0.05123998, -0.32174808, 0.4404954, -0.5026384, -0.082050405, -0.3168196, 0.23248522, 0.18951976, -0.56236047, 0.01746059, 0.31427345, -0.20603064, -0.23661073, 0.43650332, -0.060814463, 0.38775995, -0.10200989]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>패리노그래프(farinograph)에서 500FU 의 의미는?</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>밀가루 반죽 시 최적의 반죽 상태가 되었을 때를 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>[0.10100923, 0.22339618, 0.5045292, 0.07815486, -0.44542044, -0.20907356, -0.10256097, 0.015040105, 0.08391519, -0.6554974, -0.37244582, 0.545968, -0.27461103, -0.56516725, -0.111599304, 0.49923715, 0.3602741, 0.6025728, -0.0008705828, -0.33011705, -1.3618609, 0.18657972, -0.25319389, 0.07848783, -0.18018319, 0.020213794, -0.28686497, -0.78311604, 0.28361052, -0.7076035, -0.8832167, 0.3835514, -0.28500167, 0.15382504, 0.34853184, 0.31489348, -0.12540609, 0.59864855, 0.6799121, -0.26199207, -0.25334734, 0.05661991, -0.33001053, 0.48393553, 0.12728393, 0.3791308, 0.07892916, -0.17056836, -0.5191381, 0.60782087, 0.3463413, -0.9907502, -0.074222825, -0.112183765, -0.23728529, -0.4986233, -0.25272116, -0.86493534, -0.12778495, -0.22272201, 0.32028878, -1.0881566, 0.07283491, -0.07759402, -0.2670982, -0.20795886, 0.5809042, -0.101920396, -0.6029571, 0.18696256, 0.19274208, -0.029579248, 0.5258997, 0.34164956, 0.47275862, 0.043244775, -0.16302894, -0.40574276, 0.32874736, 0.35898516, -0.10940401, -0.36686218, -1.2296523, -0.2608531, -0.20325972, -0.36748305, -0.05042511, 0.6834283, -0.23470041, 0.010034538, -0.3335697, -0.6311681, -0.03784276, 0.5756372, -0.6479199, 0.22570063, 0.56804925, -0.18139061, 0.23307161, 0.558299, -0.065430954, 0.061590403, -0.3226036, 0.7001332, -0.13396266, 0.2873229, -0.10674272, 0.020151997, 0.5021021, -0.021598354, -0.43340248, -0.82594657, 0.48246202, -0.010696864, 0.6023218, -0.4427294, 0.3787084, -0.76474404, -0.02765266, 0.49339584, 0.599925, 0.3141985, -0.7544505, -0.1491241, -0.071460456, 0.34828824, 0.13942502, -0.50257224, -0.20138143, 0.4078043, -0.5138197, -0.016610729, 1.1041203, -0.23555155, 0.2684584, -0.6122394, 0.13403234, -0.34021464, 0.30421066, 0.3121835, -0.5081473, 0.2771047, -0.7267677, -0.36824745, -0.18090434, -0.18656382, 0.21464185, 0.19876602, 0.6290105, -0.45016885, 0.049088966, -0.27855882, -0.869013, 0.166516, -0.08699708, -0.94176614, 0.24228789, -0.5665163, -0.10855585, 0.08733882, 0.10364072, 0.11718109, 0.08468005, -0.13727568, -0.25229043, 0.189062, 0.28996995, 0.13014959, 0.087463304, -0.28702173, -0.65765154, -0.100508496, 0.27270547, -0.19199884, 0.045507945, 0.74576986, -0.49723533, -0.039513055, -0.91422313, 0.42166084, -0.27447718, 0.789336, 0.34377852, 0.48936835, 0.3983322, 0.16851877, 0.6041071, -0.15318756, -0.35405383, -0.10540009, -0.08244059, -0.22018024, -0.14685349, -0.12661834, 0.30100402, 0.31907642, 0.22816095, 0.62675583, -0.11830135, -0.66514105, 0.19228515, -0.39165726, -0.199041, -0.40614447, 0.21417227, 0.83946717, -0.8364961, -0.018378634, 0.3298803, -0.5718424, -0.04871613, 0.38155216, -0.64059675, -0.432754, -0.45533887, 0.49939328, -0.2575265, 0.17817287, 0.79729277, -0.482567, 0.8589549, -0.09612635, 0.41333282, 0.06470027, -0.5523251, -0.3536748, 0.2965168, -0.13708992, 0.024366006, -0.17522594, 0.20089127, 0.23782255, -0.24018851, -0.5281796, 0.5516967, 0.41041288, 0.08994347, 0.76601064, -0.047139436, 0.091312006, 0.16486599, 0.58042073, -0.37534267, -0.34937257, 0.040569782, 0.20325823, -0.16819826, -0.9898622, -0.19999982, 0.12773022, 0.2680767, 0.6090007, -0.22575526, 0.35410342, 0.003072381, 0.20095432, 0.33091444, 0.4164427, -0.0552732, -0.83470744, -0.40273553, -0.031558894, 0.7338882, 0.86477935, -0.038665783, -0.5877012, -0.25875628, -0.5428688, 0.028428897, -0.021047736, 0.4506195, -0.14121123, -0.41999277, 0.030499069, 0.21488869, -0.0818047, -0.18074374, 0.47831157, 0.04436329, -0.14332566, -0.28665164, -0.10331654, -0.17986739, 0.5972653, -0.20008092, -0.12544924, 0.2997273, -0.1401056, -0.20543645, -1.0194247, 0.23347738, -0.1015795, -0.363877, -1.5091225, -0.17156078, 0.414054, 0.15121803, 0.033674464, -0.26846862, -0.21296895, -0.13493343, -0.12688169, 0.85881275, -0.050747238, -0.07887083, 0.5320695, 0.124178514, -0.47255144, 0.0068118055, 0.18416624, 0.6393284, 0.36005315, -0.502902, -0.12570155, 0.15664464, -0.5615081, -0.47450975, 0.14244747, -0.755948, -0.47023755, 0.14483178, 0.31323647, 0.06952363, 0.20162, -0.119625285, -0.7727026, -0.39563793, -0.4285275, -0.27408487, 0.43896243, -0.23328565, -0.8049416, 0.19020039, 0.1469354, -0.29605344, -0.1459065, 0.40748683, -0.18026438, -0.80971503, 0.5546244, 0.21315886, -0.31798127, 0.21417704, 0.04505789, -0.225414, 0.3152137, 0.15971394, -0.30918112, -0.102824904, -0.45938513, 0.05888775, -0.07634882, 0.0433706, 0.027879694, 0.819203, 0.27150598, 0.67906946, 0.6803292, -0.2136169, 0.14500204, 0.414293, 0.112405546, 0.06819, -0.14082639, -0.53127974, 0.13671942, -0.4171591, 0.09170794, -0.65521216, 0.026791023, 0.23854208, -0.3574023, -0.47901714, -0.123389184, 0.48397455, 0.09744324, 0.038146682, 0.22939274, -0.021393862, 0.10264897, 0.3445019, 0.5665003, 0.73056394, -0.4312145, 0.06085817, -0.0074080643, -0.40891606, -0.07818245, -0.093917474, 0.38058797, -0.49915567, -0.36889637, -0.76872903, 0.16922988, 0.34781608, 0.029687764, -0.59498775, -0.3314628, -0.8935222, 0.43557423, 0.5521736, 0.8296583, 0.122051336, 0.48962024, -0.1657578, -0.8855938, 0.13419552, 0.10161414, -0.4087231, -0.29058233, 0.33028656, 0.03964714, -0.023353105, -0.023691023, -0.24934733, -0.089533225, -0.34634817, -0.047711186, 0.12519088, -0.05384448, -0.40872192, 0.58761823, 0.57025397, 0.54533356, 0.19973718, 0.39283434, 0.3248578, -0.4328435, 0.74657667, -0.02838621, 0.26513147, -0.25778228, 0.66966355, -0.47443125, -0.31539857, -0.5148134, -0.19270906, 0.17315423, -0.63777345, 0.43757096, 0.012191299, -0.41277686, 0.038648188, -0.10356437, -0.37730566, -0.5272153, -0.23037274, 1.2496067, -0.2706558, -0.57572186, -0.07335105, -0.34972754, -0.47859904, 0.733124, -0.39955312, 0.02483152, 0.45845878, -0.39451006, -0.39850476, 0.38776737, -0.17822887, 0.061374303, -0.09010694, -0.6870073, 0.17043135, -0.2560922, -0.19372585, 0.3083891, 0.22520345, 0.12638292, -0.2805372, 0.09159165, 0.24669921, -0.41356376, 0.0013684073, 0.44506803, 0.2506941, 0.5026694, -0.20229225, -0.58232117, 0.11419796, -0.14155562, 0.14151326, 0.4245524, 0.7449937, 0.29618466, -0.21604368, 0.21033426, 0.1864447, -0.014067159, -0.0756161, -0.5106992, -0.39267665, -0.11995705, 0.3797886, -0.21734358, 0.6502334, 0.41003588, -0.5430642, -0.115335725, 0.23614374, -0.23148255, -0.15456101, -0.5652245, -0.06544056, 0.07425176, 0.6593128, -0.42757848, -0.34320152, 0.0017347025, -0.44804135, -0.8573006, 0.52940905, 0.7115837, -0.43384725, -0.76659685, -0.6094169, 0.5297806, -0.1706754, 0.1950397, -0.3401255, -0.0919386, 0.6262697, -0.390863, 0.10409329, -0.38138932, 0.08397654, 0.042251002, -0.5682599, 0.08512978, -0.46356446, -0.13771106, 0.30854136, 0.42152223, 0.36781734, -0.59165144, 0.50486225, -0.09751744, 1.0995642, 0.25344935, 0.5589845, -0.16474983, -0.59271157, -0.13026825, 0.16846414, 0.17506216, 0.27128762, 0.24922399, -0.08968946, -0.23087887, -0.23859847, -0.10904489, -0.75476855, 0.024589041, -0.028400177, -0.4951292, 0.0051171584, -0.17434874, -0.17282175, -0.16936822, -0.42578378, -0.13108453, 0.18057452, -0.076900765, -0.058879524, -0.523219, 0.56265956, 0.1420828, 0.4140656, -0.19097486, -0.041042723, -0.035538036, -0.32348296, -0.19576205, -0.6146124, -0.5387128, -0.3707712, -0.50389796, 0.24837287, -0.36867374, 0.32349423, -0.21934584, -0.016649561, -0.18854919, 0.5385857, 0.085662834, -1.172286, -0.40242314, 0.07208568, -0.027245533, 0.409662, 0.18858387, 0.083978035, -0.016462443, -1.1977724, 0.07195488, 0.15344836, 0.20409548, 0.29854146, -0.21666369, 0.13601133, 0.32392415, 0.09194995, -0.071295254, -0.46040195, -0.44962764, 0.32012805, -0.6887182, -0.509827, 0.3298692, -0.024263632, -0.04864408, -0.054859005, -1.0358635, -0.40303355, -0.11240215, 0.41400695, -1.0762341, -0.03602452, 0.38149604, -0.0976576, 0.35454255, 0.10848968, -0.50681174, -0.27338257, -0.5310464, 0.18177345, -0.4290298, -0.75807273, 0.26291063, 0.23695755, -0.32052204, 0.4488284, 0.18529865, -0.5343246, -0.06300649, -0.017335733, 0.06547909, 0.00017880487, -1.4907223, -0.17864656, -0.35999432, 0.266915, -0.31088957, 0.28475583, -0.14561038, -0.12612319, 0.29829103, -0.1623107, 0.1002264, -0.28915235, -0.26696754, -0.23472655, -0.47631922, 0.3165088, 0.64582974, 0.30828992, 0.4842716, 0.07077914, -0.22064237, -0.4251074, -0.697496, 0.19057666, -0.83830345, -0.39899498, -0.15947819, -0.53643507, 0.48044914, -0.1500473, 0.6708078, 0.10885548, -1.0061184, -0.07355787, -0.27498212, 0.14239582, -0.6959682, 0.73902315, -0.4082897, 0.0029603813, -0.3699948, 0.7609158, -0.6403752, 0.24371894, 0.32164922, -0.66083986, 1.4326177, 0.07674938, 0.7101169, 0.47986785, 0.06906881, 0.3546892, -0.3266388, 0.17343199, 0.28163052, 0.73899394, 0.4667961, 0.12381172, 0.05862262, -1.386902, -0.890762, -0.05094715, -0.21343468, -0.2719855, -0.15655115, -0.09414582, -0.53544277, -0.050242834, 0.15197909, -0.55124, 0.020673068, -0.17718776, 0.7189976, -0.12867573, -0.5093559, -0.04880962, 0.0142629305, 0.80361277, -0.20393203, -0.3823542, -0.26864746, 0.35911626, 0.35730615, -0.24279997, -0.20995517, -0.4348932, -0.34066993, 0.6165192, 0.28056946, -0.8309809, -0.33705732, -0.33543682, -0.066245615, 0.791574, 0.3718076, 0.16396858, 0.5097727, -0.3387418, 0.25645927, -0.18983546, -0.35260913, -0.39145872, -0.10019499, 0.12338942, 0.75840807, 0.5412271, -0.48125666, 0.72170365, -0.07473136, 0.42873034, -0.016416883, 0.32331675, 0.17780717, 0.25630325, 0.22442584, -0.39526272, -0.21161875, 0.04897013, 0.5747007, -0.2687091, 0.111031644, 0.40013322, 0.0324048, 0.05545285, 0.21850246, 0.552749, 0.3124967, 0.48507658, 0.25099036]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TPA test로 어떤 물성 정보를 얻을 수 있나요?</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>시료의 부서짐성(fracturability), 경도(hardness), 부착성(adhensiveness), 응집성(cohesiveness), 탄력성(springiness), 점착성(gumminess), 씹힘성(chewiness), 순간복원력(resilience) 등의 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>2</v>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>[-0.14157195, -0.67579293, -0.111131504, -0.53229, -0.57947177, 0.06899874, -0.02010141, 0.2371893, 0.5841065, -0.14069195, -0.19447069, 0.25243077, -0.22005191, -0.07973498, -0.42310438, -0.24546102, 0.1653493, 0.28070775, -0.37252077, -0.7751752, -0.5089739, 0.14435422, 0.035492085, 0.4633354, 0.048867527, 0.006500978, -0.5149539, -0.17197433, -0.04073283, -0.68879366, 0.62621754, 0.099035695, -0.08237138, 0.49851438, -0.032154247, 0.32281432, -0.6535257, 0.24846381, -0.41355535, 0.23165922, -0.13194668, -0.69490737, 0.20475575, -0.121662155, 0.3012235, 0.65129733, 0.29175553, -0.08724474, 0.028305149, 0.44673193, -0.45959583, -0.2729327, -0.46787748, 0.5028042, -0.6038281, -0.508647, -0.24247019, -0.20736797, 0.15481412, -0.09589058, 0.29104462, -0.6933679, -0.16729295, 0.11776776, -0.56571525, 0.031770486, -0.14684281, 0.40953144, -0.031266965, -0.09032757, 0.091443606, -0.49947202, 0.08663676, -0.15262918, 0.07666374, -0.47711015, -0.49796104, -0.07879285, 0.21406442, 0.3638502, 0.5997991, -0.51880884, -0.98304254, -0.3733262, 0.09972527, -0.29742417, 0.07644172, -0.9644221, -0.5360506, -0.083534405, -0.40655914, -0.19154415, 0.03400622, -0.0565158, -0.84887075, -0.32269257, -0.30349302, 0.20668764, -0.1176847, -0.110003196, 0.054269224, 0.16053614, -0.26298213, 0.5538128, 0.11654861, -0.40447077, -0.59819984, 0.37610176, -0.151883, 0.31654218, 0.67770374, -0.6026782, 0.44451192, 0.0839721, 0.58144087, 0.6346284, -0.18378977, 0.17329766, -0.5207597, 0.80985427, 0.07824892, 0.08273615, 0.18505713, 0.26913553, -0.50960684, 0.18311948, 0.77883273, 0.11012167, 0.7727418, -0.5822554, 0.07724033, 0.1735036, 0.6166741, -0.28477108, -0.5632582, -0.6246468, 0.20525694, -0.3731417, 0.9059893, 0.9282535, -0.29407477, 0.03234906, -0.14504829, 0.18136373, -0.026810655, -0.39451504, 0.7702468, -0.32083893, 0.29071394, -0.509004, -0.069716595, -0.5336901, -0.98620075, -0.36306837, -0.019782107, -0.5178355, -0.3948442, -0.060863044, 0.22605412, -0.19185546, 0.44078642, 0.011544359, -0.11951643, 0.24931405, 0.12466254, 0.048351694, 0.72087747, -0.05070279, 0.37545213, 0.27877745, -0.39713752, 0.056109026, -0.07354977, 0.1058779, 0.28722906, -0.22535327, -0.65432435, 0.16487086, -0.1752515, -0.8140536, 0.35579464, 0.5399568, -0.25895476, 0.2543427, -0.05881869, -0.35172614, 1.071285, 0.08629509, -0.5292374, -0.3541906, 0.47477347, -0.24220338, -0.5602737, -0.0267985, -0.12448562, 0.73518795, -0.35777435, -0.081088245, -0.3281394, -0.42357847, -0.22238617, 0.6402952, 0.34231904, 0.27507803, 0.2681827, 0.56131375, 0.044046927, 0.20842113, 0.077725075, -0.3605636, -0.26384753, 0.096128315, -0.028213903, 0.21727349, 0.13877535, -0.85378504, 0.17099304, -0.053706206, 0.06759778, 0.11254986, 0.010498361, -0.19513687, 0.4178234, -0.23215224, -0.34678742, -0.77256626, 0.109946564, 0.4193923, 0.07312067, -0.0027545227, -0.17334044, -0.49642825, -0.4226965, -0.17423625, 0.44886243, -0.10352738, 0.98239404, 0.56544, -0.53201246, -0.3166567, 0.24086016, 0.13963823, -0.2969436, -0.44341102, -0.2281775, 0.12824546, 0.2102611, -0.26440975, 0.110056564, 0.027827865, -0.03934828, 0.22125234, -0.10747629, 0.094886854, 0.26422125, -0.12186947, 0.59452546, 0.6149246, -0.1913186, 0.37283295, -0.039873432, 0.20650041, -0.19733982, -0.1380258, -0.39193022, -0.4512296, 0.3753434, -0.853958, 0.059557926, -0.80271226, 0.013688081, -0.3444544, 0.21456327, 0.2216446, -0.6515428, 0.5586114, -0.033919834, 0.69384074, 0.19064182, -0.2095737, -0.031777997, 0.22852963, 0.051948626, 0.44569236, -0.06038564, -0.6685036, -0.12575208, -0.25612792, -0.37464333, -0.29629925, -0.38851547, 0.107904285, -0.20157301, -1.7700497, 0.41905645, -0.013727439, -0.4842999, -0.20927952, 0.6806555, 0.48961815, 0.9112343, 0.15505332, 0.34265605, 0.4069485, 0.6280634, -0.11516688, -0.030566748, -0.12770471, -0.15668546, 0.38077116, 0.16969024, 0.7644512, -0.43284497, 0.06299169, 0.2294173, -0.30199262, -0.1482492, 0.015525506, 0.25751936, -0.48658907, -0.37462524, 0.82629424, -0.37431175, -0.12768288, 0.17054944, 0.34163082, 0.16066322, -0.14787197, 0.6138018, -0.4380194, -1.0588684, -0.17840213, 0.6444297, -0.18755849, 0.068201125, -1.0828283, 0.4054048, -0.7458414, -0.23650897, -0.2265116, -0.2789336, 0.14959052, -0.32442927, 0.23198286, -0.023738077, 0.5824091, -0.4079894, -0.16355085, -0.29942477, -0.7444675, -0.40911344, 0.089033306, -0.038557034, -0.055136368, 0.9417094, -0.15222557, 0.6384704, 0.48282698, -0.28121838, -0.1075743, 0.85478914, -0.70596987, -0.15914924, -0.58367807, 0.030113682, -0.33916262, -0.99682736, 0.035446163, -0.24898636, 0.029244887, 0.04780269, -0.0991041, 0.47413936, -0.13039786, -0.42616472, 0.83697754, -0.2657129, -0.47283062, -0.30009356, 0.54901713, 0.40579072, 0.4467531, 0.26112708, -0.1472588, 0.11613661, -0.62184393, -0.4382113, 0.059481494, 0.23816656, 0.33990815, -0.020546302, -0.8608236, 1.7429653e-05, -0.5971757, -0.13155618, 0.19260697, 0.2775379, 0.25702894, -0.21958666, 0.21723898, 0.022426266, 0.20134339, 0.26337773, 0.20156068, -0.13663039, -0.25531545, 0.26552406, 0.18850975, -0.74536467, -0.30091518, -0.4409651, -0.20163517, -0.5238895, -0.35842982, -0.16539763, -0.24142145, -0.39077955, 0.4651669, 0.24470359, -0.16449918, 0.5111421, -0.75082195, 0.3078282, -0.31731284, -0.058110557, 0.4285491, 0.7321035, 0.09357062, 0.2847434, -0.16469193, 0.35098538, -0.6529183, 0.15717265, -0.110809274, -0.06555082, -0.7062203, 0.2586766, 0.25018045, -0.41578266, 0.57497233, 0.033294324, 0.39299002, -0.16188706, 0.21897748, 0.05286858, 0.07776381, 0.42611188, -0.24508329, -0.51018673, -0.9572208, -0.3989939, -0.7084315, -0.29906917, 0.049289603, -0.3065135, -0.5558743, 0.035547677, -0.3742993, -0.029961122, -0.016233444, -0.07376931, 0.70854187, 0.08791127, -0.7117311, 0.65122485, 0.12923592, -0.026264517, 1.057496, 0.39210358, 0.514018, -0.16839083, -0.17007725, 0.31276202, -0.023566121, -0.24578872, -0.5234497, -0.5997596, -0.06601352, -0.028978292, -0.030733014, -0.03854691, -0.21158166, 0.13167645, 0.533594, 0.31231797, -0.41936302, -0.35736713, -0.4623947, 0.19410773, 0.7391804, 0.60699815, -0.058735296, -0.29091525, -0.6268814, 0.69851, -0.34811544, -0.24901485, 0.8930847, -0.15708314, 0.6068789, 0.21997382, 0.20536236, -0.049127433, 0.101633675, -0.029531786, 0.3121445, 0.60801095, 0.37311587, -0.815907, 0.028270507, -0.38965535, -0.7358054, 0.28171968, 0.3935944, 0.065852545, 0.5519232, 0.6489873, -0.31290942, -0.021070726, 0.4498292, 0.34488973, -0.14331989, 0.38821453, 0.020471528, 0.32497507, 0.17445458, 0.24250987, 0.3199042, 0.13690828, -0.56969535, -0.1976895, 0.27264062, -0.15291049, -0.36311254, 0.48064718, -0.19217883, -0.40821823, 0.26916268, 0.11096615, 0.4176053, 0.67734456, 0.15605073, 0.07233676, -0.1717537, 0.046683263, 0.073896825, 0.29795676, 0.25942245, -0.0788008, -0.4227835, 0.19058956, 0.16461262, -0.09404863, -0.37721595, -0.19514668, -0.08450174, 0.15199648, -0.29496714, -1.5097146, 0.25874496, -0.2210875, 0.3232485, -0.5648964, -0.036241956, -0.48228556, 0.32071188, -0.27328706, 0.31524694, -0.30834436, 0.14456649, 0.31611535, 0.8861397, -0.18789518, 0.55952114, -0.1711018, -0.6136513, -1.2141054, -0.83124554, -0.2361948, -0.20642245, -0.18612593, 0.2985203, -0.20846528, -0.3439695, 0.57562494, -0.1448778, -0.8512576, -0.120794885, -0.22622962, 0.3445809, 0.057389323, -0.5021796, -0.041701555, 0.23079139, -0.7482207, -0.037704237, -0.21524048, -0.70204794, 0.31053585, 0.36898395, -0.48505607, 0.39397356, -0.14730324, 0.12315504, -0.6060837, -0.56329256, 0.7881589, -0.32381845, -0.37866044, -0.004049618, 0.095570914, 0.2795333, 0.4496998, -0.15302768, -0.65394753, 0.097974114, -0.18068354, -0.21059088, 0.16199954, 0.4557222, -0.41797224, -0.2941148, -0.07236251, -0.89966995, -0.6172935, -0.0412952, -0.49571857, -0.041197684, -0.58029574, -0.61516964, 0.45463717, -0.53352326, -0.09520473, -0.3498555, -0.29796284, -0.5304128, 0.28068075, 0.7339924, -0.3893924, -0.85757303, -0.60334826, 0.11190767, -0.33235398, -0.043563712, -0.44602498, 0.10950791, -0.33482322, 0.27304944, -0.5303333, 0.20831923, -0.2106146, 0.09747101, 0.2990612, -0.035947572, 0.2492503, 0.21171676, 0.41103914, 0.22056705, -0.4397069, -0.4836183, -0.32438123, 0.34028324, -0.40546617, -0.07530508, -0.5156929, -0.46561563, -0.4251442, -0.303119, -0.39848065, 0.30767378, 1.0394201, 0.2427134, 0.05936296, 0.21494095, -0.08198925, -0.6276145, 0.6149761, 0.2509382, 0.71914274, -0.18421708, 0.037590537, 0.7304416, 0.463024, -0.06736854, -0.21923138, 1.3600035, 0.048415538, 0.5872299, 0.063260294, -0.09246615, -0.3285268, -0.014517317, 0.38060388, -0.29940394, 0.7366141, 0.63650703, -0.1114742, -0.31891558, -0.18362808, -0.306782, 0.23566023, 0.38553163, -0.5685747, 0.023220418, -0.20559888, -0.5131343, -0.13236295, 0.20888162, -0.07661927, -0.1795874, -0.5821282, 0.18620169, -0.06359617, 0.059288464, -0.2915647, -0.6510026, -0.26178524, -0.31234872, -0.43542728, -0.29973227, 0.8916363, -0.04995198, -0.20720276, -0.1606189, -0.40590703, 0.1175472, 0.35705504, -0.57921904, -0.22103354, -0.72356653, -0.073491536, 0.22727148, -0.09770874, 0.11091973, 0.08904103, -0.11244229, 0.179378, -0.24555074, 0.29410625, -0.22709274, -0.45395622, 0.25582293, -0.20389591, -0.20674531, 0.754912, 0.6004724, -0.64021665, 0.7384613, 0.20366268, 0.16004989, 0.3486059, 0.07118239, -0.37619114, -0.14872372, -0.31236094, -0.12478557, 0.38442317, -0.10356545, 0.36990026, -0.5239187, 0.21646442, 0.18293564, 0.53212655, -0.2277361, 0.6797414, 0.84967554, 0.3960201, 0.16671655]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>전단희석 유체란?</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>전단속도가 증가함에 따라 점도가 감소하는 유체를 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>[-0.16694084, -0.21532744, 0.40990943, -0.14291781, -0.4688291, -0.06769228, 0.34163672, 0.05672247, -0.38509214, 0.14278677, -0.41378856, -0.3936941, -0.42688796, -0.29002988, -0.25128666, -0.71168876, -0.046681587, 0.6886128, 1.1287669, -0.37905863, -0.0011423174, 0.350277, 0.38524893, 0.3643664, -0.12196093, 0.36643404, -0.3732918, -0.34249136, 0.1684126, -0.6053746, 0.05402125, 1.0058771, -0.08087695, 0.24987859, 0.59260917, -0.179445, -0.79325336, -0.2753241, 0.3226551, -0.085872486, -0.11090396, 0.31504506, -0.4855669, 0.08388296, -0.033357248, 0.02620921, -0.0305425, -0.3860622, -0.15495859, -0.12706617, -0.07410899, -0.14359371, 0.6923119, 0.57515365, -0.32285002, -0.6672097, 0.18098831, -0.3306711, -0.13285802, -0.1325734, 0.41687182, -0.69199383, 0.40088555, -0.30955386, 0.4442652, -0.14783467, 0.09117105, 0.07007955, -0.907135, 0.4058495, 0.27161565, 0.23497902, 0.042439386, -0.4063841, 0.55443376, 0.19874927, -0.40045443, -0.02321174, 0.31570083, 0.06568961, 0.26356572, -0.6957473, 0.13714968, -0.63802016, 0.21818967, -0.31465012, 0.4820275, -0.52296305, -0.58938146, -0.15479062, -0.7490499, -0.028849088, -0.24357995, 0.29473382, -0.65886533, 0.44682282, -0.1946252, -0.17800458, 0.6800535, 0.2926725, -0.17517892, 0.71812445, -0.4664595, 1.0753025, 0.15532817, 0.32280415, -0.09761219, 0.539258, 0.6575603, -0.07666819, 1.010462, -0.54675156, 0.34881708, 0.07606916, -0.10033689, 0.19983837, -0.277362, 0.026548157, -0.280012, 0.42096108, 0.5370524, -0.637631, -0.3610553, 0.010741264, -0.5246346, 0.80466807, 0.43497354, 0.18451652, 0.5472343, 0.20669582, -0.010710031, -0.22011133, 0.5510156, -0.06815164, -0.3297643, -0.08976458, -0.074637786, 0.56403005, 0.09331086, 0.33986676, -0.012596861, -0.21816659, 0.046598233, -0.023752984, -0.4251567, -0.108827524, 0.14023899, -2.4184585e-05, -0.02762979, -0.28032732, -0.29584715, 0.08303496, -0.79071933, 0.0069875, -0.34897295, -0.98235404, -0.25395226, -0.2615769, 0.35910758, 0.17151569, 0.13096027, -0.19155322, -0.23991366, 0.09136029, -0.099971235, 0.020746239, 0.026873438, -0.10965954, 0.16735506, -0.2559812, -0.06460327, 0.3261602, -0.41815746, -0.32792762, 0.15691712, 0.24385513, -0.6590444, -0.24881032, -0.049654294, -0.21171501, 0.0969629, -0.63899946, -0.112837516, 0.745514, 0.2523759, 0.19019893, 0.05752248, -0.24992435, -1.1656482, -0.23910747, -0.14164966, -0.31147256, -0.01687032, -0.58224016, -0.34967992, 0.5258856, -0.04776696, -0.30772695, -0.29963183, -0.30692944, -0.88291615, 0.12864134, 0.39552844, 0.1181447, -0.2751882, 0.06737526, -0.6230254, 0.17555816, 0.5164944, -0.57161385, -0.1286158, 0.8116163, -0.03552299, -0.08772013, -0.60883963, -0.4393693, -0.86902535, -0.46853545, 0.092415445, -0.3122064, 0.4371661, 0.0011236966, 0.85426605, -0.33427754, -0.0897035, -0.25454774, -0.020984722, 0.51468885, 0.053535476, 0.20850474, -0.6163566, -0.6346221, -0.87573767, 0.03067269, 0.8335125, -0.2076197, 0.699749, 0.22157402, 0.13340193, -0.49805197, 0.10627433, 0.26830694, 0.06598862, -0.38893247, 0.742741, 0.19188035, 0.028595358, -0.491705, 0.013819726, -0.4704695, 0.17924383, 0.59593827, -0.41295514, 0.4472316, -0.0071802307, -0.67418957, -0.054398816, 0.78292257, -0.3592673, 0.48394597, -0.21505864, 0.26241714, 0.23278852, -0.23269236, -0.12918948, -0.06302159, -0.15983354, -0.35764623, 0.4536585, -0.17901006, -0.5244421, -0.94854665, 0.43651703, 0.30481982, -0.1911912, 0.7535341, -0.12930064, 0.5198776, 0.124675825, -0.002446401, 0.40203273, 0.45698884, 0.35054705, -0.11065843, -0.1814245, -0.033176817, -0.059346404, -0.24103181, -0.28603518, -0.518448, -0.72541183, -0.099036366, -0.044194534, -2.3778648, 0.1051461, 0.3020289, -0.42288947, -0.109310366, -0.6493669, 0.51694494, 0.33134347, -0.12124661, -0.58945805, 0.046478555, 0.5580549, 0.94812506, -0.5514919, -0.019020392, 0.38467526, 0.47226107, 0.72077286, -0.059221894, 0.021058865, -0.061173543, -0.1351422, -0.26693103, 0.25092483, 0.03587413, -0.3526022, 0.27378, 0.055102743, 0.48342523, -0.43396324, 0.6142623, 0.47408873, 0.37642086, -0.11056495, -0.09307118, -0.11522452, -0.26598784, -0.2321132, -0.70926166, 0.21452978, 0.0054497654, -0.16160765, -0.49261528, 0.9021062, 0.085907504, 0.5639226, -0.11408331, -0.20088592, -0.038157366, -0.8615486, 0.7249546, 0.5894154, 1.3851037, -0.303159, 0.31484744, 0.18174212, -0.6074409, -0.17065513, -0.12365, -0.34245226, 0.028461292, 0.17881261, 0.35744315, 0.5232407, 0.5116908, -0.0054883063, -0.6124968, 0.5219526, -0.115644276, 0.1338898, 0.28317085, -0.87739116, -0.48307532, -0.9466135, 0.3461312, 0.23125187, -0.8016218, -0.084071025, 0.036304086, 0.5086334, -0.79580754, -0.5275448, -0.24418835, -0.32035512, -0.06867791, 0.32857868, 0.053219967, 0.5665643, 0.88128537, -0.29321572, -0.5917751, 0.10842492, -0.14501986, 0.13350107, 0.0069084466, -0.56614417, -0.0030834936, 0.12682945, -0.20589338, -0.52753955, 0.042509876, -0.48704824, 0.119929686, 0.032670796, -0.48547947, -0.50666076, 0.20879354, -0.33504507, 0.34377646, -0.16854538, 0.6534285, -0.37477508, -0.7906459, 0.32931572, -0.6401772, -0.8009836, -0.1622688, -0.106374905, 0.14204247, -0.22182687, -0.05370781, 0.15240851, 0.22794059, -0.5530807, 0.28630435, -0.43003193, 0.008571312, -0.05840087, -0.40268642, 0.67965573, 0.66757375, 0.95038235, 0.5592459, -0.06851592, 0.51416403, -0.40477037, 0.29331464, 0.62338215, -0.016455766, 0.6694099, 0.5465649, -0.62347263, -0.8600297, 0.12716672, 0.39322272, -0.84375525, 0.27653772, 0.6513208, -0.09546537, -0.16492298, 0.31673533, -0.48151273, -0.2462936, -0.6286883, -0.40251714, -0.84103453, -0.71670014, -0.19115646, -0.81926644, -0.31130135, 0.7738615, -0.43847546, -0.09758125, 0.65026593, 0.4560996, 0.6968555, 0.38298357, -0.17929976, 0.49442333, -0.043920293, 0.18742728, -0.17625527, 0.31380975, -0.08534147, 0.6926555, 0.31986403, -0.12949547, -0.16024047, 0.045246992, 0.313161, -0.122223966, 0.055664107, -0.4786754, -0.57856655, 0.46453673, 0.34271404, 0.24712053, 0.4619918, -0.7500154, -0.058304973, 0.2674153, 0.5283465, -0.17203817, -0.80767894, -0.428835, 0.45448375, 0.22197026, -0.40425965, -0.44801188, 0.059933975, 0.16280082, 1.0179574, 0.1935895, 0.14027126, 0.6210603, -0.2241842, -0.40626723, 0.099059455, 0.23230007, -0.0027101487, -0.09745963, -0.36826882, -0.10092788, 0.19970407, -0.14390704, -0.41174987, 0.13918321, 0.1282725, -0.23052152, -0.028795868, 0.1414223, 0.19531474, 0.46401566, -0.23523611, -0.03342466, -0.056318067, 0.10410018, -0.437268, -0.7413031, -0.389235, -0.6122312, 0.41277638, 0.27977556, 0.19164976, -0.039776437, -0.029648192, 0.3106011, 0.34752575, -0.76720494, -0.18472087, 0.20846629, -0.013464373, -0.39503804, -0.74798137, 0.6395066, 0.35498673, 0.08007935, 0.71660787, 0.13665915, 0.7136836, -0.4231943, 0.031242952, -0.0030711908, -0.080056526, 0.41016883, -0.17812963, 0.09484768, -0.26462913, -0.72263485, -0.7055388, -0.1759767, -0.21915314, -0.294639, 0.056397375, -0.11820942, -0.6905099, 0.43326274, 0.04495788, 0.2828772, -0.69791436, -0.21388222, 0.00692052, 0.007767159, -0.10119569, 0.69590557, 0.06970397, -0.47309116, 0.5230863, -0.146362, -0.3734153, -0.19683927, -0.8061573, -0.82477534, -0.65823543, -0.38389206, 0.3485421, 0.14983895, 0.27446884, 0.8165196, 0.30865186, -0.05982254, 0.23776451, -0.0321423, -0.38453826, 0.06919547, -0.32411093, 0.69239485, 0.002635369, -0.63101906, -0.10428144, 0.11442163, -0.98603725, -0.70556927, -0.56991124, -0.5730138, -0.2135318, 0.25123453, -0.1406213, 0.6084988, 0.27620345, 0.115235396, -0.12044822, -0.6135818, 0.12042759, -0.24164143, -0.7428069, 0.57603043, 0.052488912, 0.30064872, 0.59797764, 0.029343363, 0.15139607, -0.24501684, -0.055944618, -0.6079817, -0.020752992, -0.0050658244, -0.30997968, 0.16093242, -0.075949, 0.2689418, -0.3016548, -0.37757856, -0.40300012, -0.26625642, 0.3678055, 0.08543549, 0.33014497, -0.41558158, -0.029413836, -0.022654, -0.3150888, 0.09672921, 0.16455646, 0.62669164, -0.7021461, -0.9614702, 0.27570224, -0.08159527, 0.68793476, -0.281641, 0.015359849, -0.17680912, -0.23667449, -0.039638095, -0.351574, 0.27764022, -0.5217589, -0.6944909, 0.6425572, 0.28547877, 0.7456113, -0.08497339, -0.49010637, -0.08586468, -0.092375614, -0.3043271, -0.12857924, 0.1717503, 0.17136662, -0.4482971, -0.37393492, 0.045042474, -0.06386674, 0.4257298, -0.095234364, -0.038298365, -0.32883418, -0.35934886, 0.6189418, 0.16333212, -0.6810793, -0.019708846, 0.6321806, -0.31203502, 0.5460161, -0.34091732, 0.15473276, -0.18589623, -0.17485894, 0.38649717, -0.52519256, 1.4109044, -0.07286061, 0.092728466, 0.036568444, 0.1520603, -0.5362953, -0.21369462, -5.9191138e-05, -0.9076522, 1.0795871, -0.44247106, 0.5539181, -0.1100892, 0.15242273, -0.40180737, 0.34016034, 0.3267349, -0.44774812, -0.4092016, -0.16182421, -0.5534966, -0.45226002, -0.10655013, 0.09573938, 0.25024658, -0.30763164, 0.16582811, -0.3454839, -0.3445227, -0.19908795, 0.3771067, -0.6550064, -0.049394917, -0.20706713, -0.9892093, 0.29588544, 0.09883431, -0.001529064, -0.50395703, -0.69342023, -0.11415337, 0.45273656, 0.010550495, -0.37925774, 0.12558177, 0.24677914, -0.55437773, 0.0047196485, 0.42453235, 0.26916572, -0.4859672, -0.489653, 0.3671753, -0.17057422, -0.2884114, -0.27812654, 0.1281752, -0.16632412, 0.19291565, 0.30754906, 0.6566697, 0.102604344, 0.41755933, 0.15373926, 0.010467067, 0.23448455, 0.5323487, -0.10009238, -0.54700905, -0.91833824, 0.06732119, -0.30709907, -0.050374135, 0.51262444, 0.20645276, 0.15342762, -0.092218846, -0.2196327, -0.008773905, 0.1666348, 0.48056328, 0.16647284, 0.042070344]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>shear thinning 유체란?</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>전단속도가 증가함에 따라 점도가 감소하는 유체를 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>[-0.047873, -0.33915806, 0.22324422, 0.2548486, -0.18781003, -0.4266252, 0.0463104, 0.37561178, -0.08010131, 0.017670397, 0.1022289, -0.06727724, -0.30935866, -0.41401204, 0.08922871, -0.49089074, 0.17981726, 0.66032463, 0.47552663, -0.43055233, 0.2897512, 0.37470707, 0.15389422, 0.26423383, -0.049319174, 0.21737142, -0.12040204, -0.27795395, 0.49823803, 0.26448104, -0.35770473, 0.56509775, -0.8140224, 0.24911821, 0.4631649, -0.47226438, -0.8115557, 0.035370488, 0.08607845, -0.30160522, -0.18599603, 0.012196967, -0.43607935, -0.090862274, -0.16766039, -0.2262924, 0.0037473007, 0.07280427, -0.3577751, -0.38570777, -0.026716804, -0.08166768, 0.4370752, 0.7968372, 0.10775201, -0.7938201, 0.016493384, -0.37744993, -0.028319072, 0.16353199, 0.46873993, -0.9456018, 0.034225192, -0.23058638, 0.26029003, -0.025822675, -0.25514728, 0.21895155, -0.46891552, 0.71162164, 0.45184714, 0.17066786, -0.1145183, -0.5897447, 0.23204593, -0.040101685, -0.13557473, 0.09948754, -0.31954244, 0.6181125, -0.27980334, -0.9636198, 0.11791964, -0.6599473, -0.08627243, -0.5454031, 0.4546854, -0.46671897, -0.79279435, 0.085369244, -0.57791173, 0.1223953, -0.24676469, 0.3144688, -0.48339516, 0.13859722, 0.21737508, 0.13513404, 1.148047, 0.3802251, -0.1865322, 0.24149501, -1.041997, 1.0126934, 0.22506753, 0.21707065, -0.26517338, 1.1243654, 1.110378, -0.44948536, 0.6227111, -0.4463404, 0.62297374, 0.08402666, 0.07012697, -0.020461844, -0.8607561, 0.17159182, -0.12871374, 0.38679802, 0.37872657, -0.57250756, -0.716785, 0.13935374, -0.61489666, 0.95982873, 0.78744376, -0.34910876, 0.011425665, -0.13907132, 0.02961404, -0.21989055, 0.70918524, -0.3980598, 0.048984367, -0.20240292, -0.15899754, 0.24753745, 0.25052202, 0.29703242, -0.13156524, -0.18065247, 0.025255537, 0.083978765, -0.45759463, -0.09113974, 0.22595689, -0.3090548, -0.082407996, -0.7248651, -0.18034326, 0.1760518, -0.66622007, 0.8220638, -0.024065586, -0.87493736, -0.3216802, -0.131923, 0.046200197, 0.20934644, 0.03295456, -0.7592955, 0.32715034, 0.03096566, 0.14150158, 0.1147007, 0.047551215, -0.34699413, -0.3913855, -0.64731896, 0.07602551, -0.25734943, 0.12303772, -0.7483347, -0.34096786, 0.2521713, -0.7205618, -0.27860585, -0.13347703, -0.15771736, -0.25442472, -0.13601795, -0.42021823, 0.18677428, 0.646809, 0.27583075, -0.063611075, -0.19943447, -0.846519, -0.31229138, -0.087396294, -0.42150936, -0.007379283, -0.35757452, -0.14426337, 0.8481326, 0.068716146, 0.0019775517, -0.4070569, -0.083526865, -1.0143888, 0.06405624, 0.3355246, 0.2253279, 0.032844026, -0.061469007, -0.7552011, 0.120383516, 0.35890204, -0.34794316, -0.46348065, 1.5265303, 0.51794153, -0.13287441, -0.34150156, -0.30486676, -0.9940256, -0.25832883, 0.086283945, -0.009042266, 0.95387316, -0.09021095, 0.8377675, -0.29796135, -0.34625974, -0.28155065, 0.1130116, 0.4440996, 0.37471753, 0.41449374, -0.7814387, -0.60902405, -0.18378997, -0.19424453, -0.16930969, -0.06257911, 0.46248785, 0.32880953, -0.11695029, 0.20472439, -0.121369936, 0.081868984, 0.23430285, -0.64992654, 0.66496956, -0.2943376, -0.2891343, -0.6958892, 0.15329036, -0.17236678, 0.07548571, 0.30683, -0.37540707, 0.003864783, -0.28925592, -0.6544981, 0.118044555, 0.7193788, -0.35652342, 0.7228632, -0.22215386, -0.10956402, -0.26652983, 0.09231911, -0.49934703, -0.023638126, -0.10204913, -0.39152107, 0.40044445, -0.19777276, -0.5900686, -0.637676, 0.8446023, 0.39396134, 0.22576647, 0.7334596, 0.21995445, 0.40054053, 0.14978318, 0.69012296, 0.4680004, 0.57983106, 0.3074297, 0.07633162, -0.09766348, 0.46524334, 0.13790318, -0.38227293, -0.5224893, -1.0586102, -0.30864805, -0.019665658, -0.3944521, -1.5921508, 0.24331376, 0.18895677, -0.19438222, 0.30624017, -0.5220397, 0.6083423, 0.38445988, -0.04742316, 0.010785328, 0.26322, -0.24742413, 0.8322733, 0.023540007, 0.17377773, -0.2472302, 0.65242064, 0.6966003, 0.06942117, -0.18753958, -0.37809867, 0.20687294, -0.6806858, -0.1860367, 0.21045306, -0.452132, 0.36528584, -0.15253547, 0.5049551, -0.40411702, -0.030608471, 0.78353095, 0.15144467, 0.0075413287, 0.03715708, 0.00018532872, -0.51826596, -0.24137983, -0.684505, -0.07130675, 0.30996507, -0.058497656, -0.6367077, 0.55136734, -0.35490924, 0.2517131, -0.074687526, -0.56718147, 0.17506558, -1.2607071, 0.7646979, 0.16251893, 1.413059, -0.027289307, 0.10222794, 0.2523896, -0.28485227, -0.21772406, -0.18685432, 0.3739223, -0.14934056, 0.7477839, 0.6123185, 0.30685338, 0.76440203, -0.1368042, -0.18208148, 0.2857965, 0.03917607, -0.16211697, 0.252354, -0.57916784, -0.119886875, -0.7927741, 0.03795121, -0.032871343, -0.10858448, -0.28029948, 0.4384256, 0.4723243, -1.2450732, -0.5701837, -0.17447717, -0.36848003, -0.09794539, 0.17415336, 0.034296103, 0.4670201, 0.83783597, -0.091417804, -0.9317398, 0.10578726, -0.53286475, -0.29146484, -0.10688996, -0.43491125, 0.01815756, -0.20155087, 0.01406534, -0.47740465, 0.27188194, -0.7856417, 0.06893115, -0.42961377, -0.14968368, -0.5246321, 0.2854545, -0.32355657, 0.49760255, 0.053167004, 0.75249153, -0.15124054, -0.2894662, 0.34211504, -0.6171295, -0.61749846, 0.1588585, 0.0008569181, -0.20231707, 0.11068487, -0.26890883, 0.44415268, 0.089371994, -0.27868232, 0.616548, -0.34410095, -0.117473744, -0.010399433, -0.54113716, 0.82474947, 0.5065285, 1.1965711, 0.26374424, 0.53737605, 0.36579958, 0.041467853, 0.2646673, -0.2410719, 0.030006379, 0.87779015, 0.081940226, -0.5128613, -0.8385994, 0.32749227, 0.113017894, -0.22818656, 0.3430528, 0.8096161, 0.02731412, -0.037160106, 0.17136736, -0.40533528, 0.14355615, -0.38390037, -0.76932627, -0.9260713, -0.74057674, -0.41298184, -0.78663784, -0.42642218, 0.33975074, -0.43283215, 0.18530913, 0.12348858, 0.21207516, 0.6132393, 0.40522367, 0.0012964278, -0.165765, -0.010041763, 0.20163374, -0.224014, 0.1827049, -0.4053785, 0.45867252, -0.029627789, 0.20459238, -0.14538382, 0.051455103, 0.66104406, -0.15370001, 0.13546729, -0.2724328, -0.20139988, 0.2553261, 0.06184896, -0.17524019, 0.22018686, -0.6739368, -0.030200293, 0.39770666, 0.40530634, -0.57834363, -0.47844416, -0.5478392, 0.3605629, 0.53267527, -0.3949921, -0.23072639, -0.10078883, 0.22388613, 1.0388504, -0.28570616, -0.058364052, 0.44024268, -0.022438249, -0.2668425, 0.14846277, 0.26905215, 0.45965004, -0.09562478, 0.077628985, -0.1095942, 0.301195, -0.3227957, -0.30370587, -0.3065876, 0.17550054, -0.5488831, -0.10339646, 0.4752195, 0.15015976, 0.51689035, -0.18096091, 0.121327184, -0.73014086, -0.09520482, 0.07214716, -0.28850123, -0.46883264, -0.22412956, 0.03403514, 0.34682116, 0.14536473, -0.016709538, -0.1653692, 0.23661888, 0.38773912, -1.0150135, 0.1710989, 0.73357046, 0.094201766, -0.24980673, -0.2232314, 0.48097643, 0.29638305, 0.28168145, -0.10665163, -0.35748488, 0.5625579, -0.07832855, -0.17949001, -0.41253582, 0.20192178, 0.36703542, 0.20215671, 0.26164192, 0.12193873, -0.004818693, -0.6160644, -0.5852683, -0.15799834, -0.65228665, -0.38685834, 0.08538406, -0.5383332, 0.58595735, -0.034798823, 0.3520611, -0.6348906, -0.1885915, 0.431434, -0.029525895, -0.05708778, 0.88376105, 0.04690817, -0.2965415, 0.4325204, -0.30723864, 0.07167934, -0.16457684, -0.22990593, -0.41946325, -0.4578901, -0.2790305, -0.010025409, -0.27453285, 0.08194633, 0.63984394, 0.17353569, -0.19011472, 0.5180914, -0.04715108, -0.13385957, 0.2835515, -0.7413374, 0.5028848, -0.08912081, -0.7701322, -0.012114543, 0.26016584, -0.95520353, -0.26348722, -0.81234235, -0.6734586, -0.6382436, -0.17669936, -0.76024663, 0.8406973, -0.124997094, -0.04711583, 0.1867782, -0.14995942, 0.36323723, 0.19668704, -0.4776466, 0.4656362, -0.28288227, -0.25342643, 0.37555814, -0.27034825, -0.1856093, -0.16179764, 0.3421463, -0.4265452, 0.35274807, 0.40977883, -0.6336481, 0.27037334, -0.6192681, 0.4761828, -0.2810976, -0.65087265, -0.7633515, -0.12533894, -0.3267678, -0.0031000674, -0.17156121, -0.81024486, 0.24816556, -0.5691075, 0.25757003, 0.16137837, 0.28059116, 0.82475865, -0.1633627, -1.208712, -0.38143796, -0.03112557, 0.55081755, -0.29105923, -0.006953314, 0.02344983, -0.16924283, 0.075670734, -0.4267767, 0.14216247, -0.07587037, -0.3067468, 0.51781607, 0.34790978, 0.07561314, -0.25789154, -0.569319, 0.33313102, -0.6085264, -0.109239504, -0.08704964, 0.101600245, -0.014672327, -0.6565495, -0.5877225, -0.47627106, 0.09190985, -0.14169322, -0.40364933, 0.018143829, 0.32264692, -0.5964071, 0.024155071, 0.056969233, -0.55349195, -0.31075025, 0.88318384, -0.62206864, 0.57461256, -0.21548298, -0.15139672, 0.44059545, 0.11190192, 0.44980335, -0.48364544, 1.34972, -0.18364036, 0.08014299, 0.143433, 0.14791577, -0.0069720848, -0.073467046, -0.22431011, -0.9193468, 1.20005, -0.103339866, 0.17728089, -0.21369858, 0.31831294, -0.61647385, 0.3004871, 0.59768885, -0.58892477, -0.22681022, 0.059785653, -0.7168895, -0.6103004, -0.23334186, -0.32910132, 0.25325716, 0.2548658, -0.197891, -0.60772, -0.14086905, -0.24277095, 0.10153117, -0.3047249, -0.25150847, -0.18854973, -0.44797105, 0.019108627, 0.22430575, -0.2995485, -0.1778036, -0.46658272, -0.6511657, 0.46696743, 0.16109811, 0.025375407, 0.08889559, 0.032870926, -0.20353612, -0.09291342, 0.65300435, 0.29812217, 0.19393937, -0.064448275, 0.67490244, -0.1702396, 0.15330085, -0.31625623, -0.16781695, -0.30287844, 0.4198416, 0.45682892, 0.6071451, 0.20107356, 0.3484602, 0.05461685, -0.4915502, 0.07548315, 0.29803595, -0.3811605, -0.111777976, -0.206786, 0.18154196, -0.24523982, -0.41197544, 1.0166681, 0.0014956832, 0.33150333, 0.020546257, 0.1303597, 0.092047654, 0.019342694, 0.12571646, -0.04759392, 0.040003695]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>전단농화 유체란?</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>전단속도가 증가함에 따라 점도가 증가하는 유체를 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>[-0.19870842, -0.23316252, 0.19505468, -0.33164477, -0.26259935, -0.17642353, 0.1887374, -0.08066621, 0.13400638, 0.45980904, -0.24485904, -0.34271413, -0.36621118, -0.20309289, 0.02508903, -0.33527356, -0.24058723, 0.6302767, 0.9475255, -0.6049461, 0.03865622, 0.3038816, 0.43241066, 0.29913282, -0.18394363, 0.49165967, -0.22371519, -0.37596565, 0.08167825, -0.66753733, 0.032084595, 0.6913773, -0.03459184, 0.37810963, 0.50346446, -0.28044593, -0.7752987, -0.1621307, 0.45757928, -0.14991307, -0.03413463, -0.10031459, -0.4444126, 0.16894977, -0.29033747, -0.35288987, -0.26487035, -0.019303259, -0.15448324, -0.04466351, -0.6051509, 0.03803198, 0.4132846, 0.7799566, -0.17602508, -0.8124139, 0.159221, -0.034085378, -0.15663989, -0.11159366, 0.24042429, -0.84447867, 0.740765, -0.28446472, 0.4219849, -0.06404721, 0.049788903, 0.24816781, -0.8369261, 0.39806718, 0.22856149, 0.4261803, 0.24718961, -0.36083043, 0.468781, 0.15981215, -0.642097, -0.29383028, 0.14187251, 0.5509131, -0.22497523, -0.50057673, 0.18223317, -0.9867902, -0.06688272, -1.0147374, 0.25595167, -0.50345343, -0.65777373, 0.009563278, -0.90873945, 0.11011315, -0.33812633, 0.2070661, -0.51677793, 0.27098715, 0.06386389, -0.07330781, 0.8957156, 0.5090444, 0.19189334, 0.30436382, -0.9970457, 1.0826616, -0.018261213, 0.3787903, -0.2607782, 0.73420167, 0.6388996, -0.24388781, 0.61298996, -0.57286286, 0.81391543, 0.4625377, 0.07382161, 0.29504243, -0.3601695, 0.53091747, 0.25226942, -0.0050466694, 0.53893566, -0.42240936, -0.85750103, -0.17898856, -0.15952946, 0.47616684, 0.8086186, 0.021895105, 0.12799317, 0.16162819, -0.3025184, -0.19500206, -0.08789625, 0.18593992, -0.31911954, -0.521027, -0.14799717, 0.3586331, -0.06904225, 0.61840117, 0.033085853, -0.043168135, -0.15189596, -0.14786726, -0.11570428, -0.6566461, 0.36562896, -0.061914135, -0.21503778, -0.807121, -0.68201685, 0.14199951, -0.48958698, 0.028611291, -0.22487351, -0.72873396, -0.09352374, -0.25905582, 0.18230668, -0.02032891, 0.39721566, -0.5017267, -0.27639714, -0.040576562, -0.042668875, 0.19316158, 0.30312246, 0.09050928, 0.27436578, 0.33537838, -0.4283785, -0.099990994, -0.1534292, -0.35686558, -0.032080375, 0.10888486, -0.71310085, -0.24962094, -0.0048915017, 0.06953184, 0.035176568, -0.4942601, 0.076962, 0.26528233, 0.37345666, 0.23575865, 0.28181073, -0.3708557, -0.9537963, -0.31695598, 0.0019926783, -0.45657647, -0.11280669, -0.6848259, -0.22287327, 0.6337619, -0.07466364, -0.14420268, -0.3745578, -0.1482425, -0.894171, -0.12921372, 0.067722835, -0.22022665, -0.3863327, 0.2494399, -0.70278686, 0.14426771, 0.5389102, -0.6334316, -0.3982846, 0.74194133, -0.45132786, -0.002539767, -0.2606429, -0.6205876, -1.1693304, -0.45571798, -0.06699174, -0.14808024, 0.6121543, 0.013089325, 0.65410817, -0.4923048, -0.07498623, -0.18045965, -0.031349637, 0.34025753, 0.3895756, 0.15690732, -1.079892, -0.42697546, -1.0349594, -0.27029002, 0.4136677, 0.15796062, 0.72476095, 0.23840785, 0.02940131, -0.53680694, -0.023309797, 0.5761784, -0.15408044, -0.23935708, 0.6479279, 0.37001905, 0.10281076, -0.5422271, -0.12135987, -0.44772223, 0.008323723, 0.27831805, -0.28219035, 0.26625428, -0.11077407, -0.42514518, 0.36275727, 0.5109061, 0.13774692, 0.37688053, -0.030731577, 0.2549193, 0.4193696, 0.094237044, -0.39867765, -0.3323072, -0.10540273, -0.64201176, 0.1447795, 0.19320792, -0.40665817, -0.676599, 0.53630483, 0.04569837, -0.10030657, 0.98787284, -0.16285999, 0.5238303, 0.35637367, 0.1847521, 0.42930162, 0.23451206, 0.0819114, -0.1980835, -0.021501957, 0.4462233, 0.016450504, -0.24289024, -0.504977, -0.3911218, -1.0417396, -0.36428025, -0.53965896, -1.5520762, -0.074842796, 0.49651054, -0.46165466, 0.3482798, -0.47032645, 0.5885287, 0.022531565, 0.17049521, -0.42552984, 0.19665843, 0.4621143, 0.55165786, -0.4200896, 0.16287844, 0.25217366, 0.845222, 0.68788254, -0.33053857, 0.06907819, -0.37589708, -0.16760613, -0.3396389, 0.37308082, 0.010989626, -0.22880113, -0.013985106, 0.10213059, 0.13875572, -0.13013427, 0.44667035, 0.78977376, 0.3974798, -0.060432676, -0.15300363, -0.24120753, -0.36747143, -0.101477146, -0.87415385, 0.3507155, 0.658353, -0.1853374, -0.5825527, 0.6053026, -0.1668015, 0.48935992, -0.14282942, 0.33115882, 0.14389472, -0.9701827, 1.2716081, 0.057649963, 1.3673347, -0.2861578, -0.11141848, -0.071717404, 0.0064849313, -0.3401824, -0.020650275, 0.13890997, 0.11630222, 0.22588299, 0.38156602, 0.40787068, 0.1884856, 0.028681247, -0.5592045, 0.51446044, 0.1681983, 0.25673273, 0.6469737, -0.7463277, 0.40971577, -1.0079492, -0.06258042, 0.08942861, -0.31642812, 0.15399837, 0.14447936, 0.008731388, -1.154295, -0.6661751, 0.13934797, -0.14297678, -0.056722827, 0.08263608, 0.19621345, 0.6626256, 1.1356581, -0.038800843, -1.2427384, -0.04034239, -0.16276021, 0.10686235, 0.06477672, -0.605323, 0.10091519, 0.27580008, 0.07338531, -0.56439555, 0.057844836, -0.10707426, -0.03285908, -0.2584074, -0.74642265, -0.43692532, 0.15099938, -0.63005847, 0.26136616, 0.06533302, 0.8368539, -0.45938456, -1.0398372, 0.42745262, -0.37993354, -0.9430362, -0.39625597, -0.22289962, -0.10963285, -0.12695523, -0.70043814, 0.16921422, 0.25324726, -0.2525268, 0.7183187, -0.6894786, 0.07043795, -0.34768042, -0.055190317, 0.4554944, 0.5466988, 1.1768427, 0.4457523, -0.063332826, 0.17826077, -0.2806148, 0.3088802, 0.5797535, -0.061653014, 0.4292392, 0.4052007, -0.52471334, -0.55614483, -0.06661066, 0.47095215, -0.53421205, 0.3827051, 0.8691303, -0.4581013, -0.108863644, 0.2112733, -0.7758977, -0.5883119, -0.44507822, -0.14752653, -0.48258805, -0.9154867, -0.119687825, -1.0032387, -0.18111104, 0.39047474, -0.17558637, 0.24717024, 0.45346007, 0.40271786, 0.24826407, 0.20028111, -0.15492222, 0.08024623, 0.23043483, -0.09859633, -0.065912716, 0.4338289, -0.06997039, 0.5592891, 0.5079334, -0.18839724, -0.6570996, 0.33281642, 0.51758564, -0.04360366, -0.05716429, -0.45427665, -0.5872285, 0.40957716, -0.06745693, 0.10860133, 0.008237471, -0.927358, -0.056257512, -0.20914102, 0.4095537, 0.22908331, -0.46478823, -0.35810402, 0.1691599, -0.02252835, -0.11361106, -0.0866478, -0.01166116, 0.17817226, 1.3246583, 0.06126807, 0.11589505, 0.49053258, 0.011319046, -0.59061015, 0.05383647, 0.14191025, 0.10623641, -0.21165921, -0.21793823, 0.32132155, 0.26469338, -0.19388643, -0.33546078, 0.16700847, -0.091235496, -0.36461586, 0.546168, 0.1740543, -0.059995428, 0.4606733, -0.032894336, 0.037557635, -0.13380282, 0.09244841, -0.45647117, -0.592087, -0.6215887, -0.7909206, 0.2883405, 0.2216242, 0.10669222, -0.2533764, -0.06909637, 0.30117893, 0.3442566, -0.69837403, -0.043864936, 0.48158985, 0.2306377, -0.10984892, -0.34909162, 0.7368946, 0.23867945, 0.06507389, 0.79631174, -0.2701373, 0.42318615, -0.654125, -0.040305045, 0.44045424, 0.36940017, 0.13380615, -0.10937555, 0.019740954, -0.30289933, -0.47882575, -0.39186504, -0.3220938, -0.20901133, -0.5598479, -0.027717441, -0.26031, -0.44955546, 0.68602836, 0.11699073, 0.1877234, -0.33939868, -0.1338213, -0.016630348, 0.2069032, -0.42796838, 0.47563267, -0.13150054, -0.37289453, 0.4267687, -0.115434825, -0.33942086, -0.23918933, -1.10039, -0.75524265, -0.7480337, -0.60460854, 0.24957108, -0.15114924, 0.015307255, 0.6112944, 0.024258994, 0.16915828, 0.28408712, 0.114486955, -0.19100785, 0.20108275, -0.25483522, 0.34142888, 0.45441857, -0.8123681, 0.23657583, 0.20476286, -0.7687427, -0.1746024, -1.1077993, -0.25638998, -0.25362545, -0.24888894, -0.2987201, 0.8251684, 0.31150278, 0.1290966, -0.1349755, -0.38629442, 0.3147162, 0.23243758, -0.57124084, 0.53808725, 0.0038309516, 0.17016485, 0.15565391, -0.06345538, 0.03188313, -0.15639715, 0.21593028, -0.48700428, -0.32938898, 0.077279806, -0.5277661, 0.02165799, -0.17617737, 0.29252088, -0.42202884, -0.30666724, -0.6058781, -0.3612591, -0.031160332, 0.06749696, 0.19097728, -0.21316221, 0.17226802, -0.045735158, -0.32148007, 0.32093847, 0.13031228, 0.8410368, -0.18363918, -0.9937587, -0.025232852, -0.062734574, 0.63779676, 0.09216939, -0.02011652, -0.24966846, -0.39752042, 0.32734883, -0.5142636, -0.11731846, -0.6399646, -0.5461445, 0.46991372, 0.10160115, 0.84061253, 0.50113904, -0.40759072, 0.2945674, -0.056434304, -0.31181362, 0.083909936, -0.031072404, 0.4360106, -0.6587006, -0.6363385, -0.18017752, 0.076920554, 0.5404724, -0.09160489, 0.23439206, -0.056379735, -0.41560274, 0.55276406, -0.15942079, -0.24992302, 0.25835353, 0.62083715, -0.3274505, 0.02968954, -0.4598915, 0.09870145, 0.23445669, -0.19127224, 0.28557152, -0.757312, 1.4731647, 0.3338719, 0.07510766, 0.056418356, 0.36278737, -0.46931553, -0.057345264, 0.43625122, -0.87512267, 0.9679178, -0.6023398, 0.18123566, 0.07380385, -0.25502858, 0.06425007, -0.13050956, 0.20401604, 0.063097216, -0.4407912, -0.1135147, -0.20296052, -0.16776927, 0.014632143, 0.087780796, 0.54230773, -0.336673, -0.0707645, -0.4694829, -0.55347186, -0.12741636, 0.022433829, -0.39290094, -0.31783035, -0.08940088, -0.7480707, 0.23082249, 0.43585753, 0.17223138, -0.5367919, -0.594346, -0.23046383, 0.60698545, 0.17152761, -0.27751014, -0.21892534, 0.13054246, -0.20793675, -0.18126723, 0.25053856, 0.34733498, -0.6225585, -0.64487547, 0.36231232, 0.054322854, -0.12602893, -0.18478155, 0.12961246, -0.23374152, 0.34372622, 0.038331307, 0.43332142, 0.06512827, 0.49473125, 0.17429614, -0.4358803, 0.06314739, 0.51427203, -0.20932364, -0.32744744, -0.73354036, 0.13582817, -0.21460776, -0.22201392, 0.81711143, 0.15347056, 0.35443547, 0.07984846, -0.07461637, -0.08978091, 0.4558887, 0.23142923, 0.30788472, 0.44416404]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>shear thickening 유체란?</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>전단속도가 증가함에 따라 점도가 증가하는 유체를 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>[0.03153155, -0.37725058, 0.28742182, -0.0072215875, -0.5011545, -0.24975744, -0.047980655, 0.4357792, 0.06690946, -0.03884066, -0.012984843, -0.45160082, -0.22134887, -0.36306036, 0.09856833, -0.40801162, 0.004062259, 0.7073459, 0.686285, -0.50820374, 0.12766801, 0.5267445, 0.25583693, 0.18966056, -0.043633416, 0.011765792, -0.15092641, -0.11206616, 0.39328063, 0.019409774, 0.009703506, 0.4241619, -0.5062918, 0.5377875, 0.45398673, -0.2624355, -0.40752736, -0.11773726, -0.059549678, -0.3053094, -0.169881, 0.24297062, -0.70915943, -0.23732491, -0.16410354, -0.45313635, 0.145852, -0.044009194, -0.2681067, -0.22868265, -0.08422173, -0.112108186, 0.5603235, 0.77492714, 0.165574, -0.47723207, 0.21579908, 0.124892, 0.1926065, -0.06578532, 0.46127015, -0.78309095, 0.22688827, -0.2841719, 0.5130379, 0.08979823, -0.35849494, 0.44780704, -0.81812954, 0.84226245, 0.54840857, 0.17634071, -0.12821154, -0.34308192, 0.020518607, 0.050552808, -0.25870794, 0.34756085, -0.27157736, 0.3596946, -0.18726483, -0.81536317, 0.34307435, -0.82805574, -0.18686758, -0.5208469, 0.39267114, -0.5715699, -0.8195037, 0.2280964, -0.6916475, 0.055212617, 0.17507493, 0.43768123, -0.51207817, 0.16177328, -0.07284179, -0.29781058, 0.87536675, 0.48682463, -0.17844816, 0.25923446, -0.6036199, 0.9948401, 0.31918138, 0.12499538, -0.22645012, 1.1250185, 0.9435639, -0.10705911, 0.8719927, -0.3530555, 0.4379729, 0.042700134, -0.07642157, -0.008453051, -0.7079435, 0.046255242, -0.2888086, 0.42978984, 0.4436282, -0.5680732, -0.55150276, -0.0008334477, -0.72401303, 0.98812926, 0.78980577, -0.15564589, 0.12334287, -0.13587673, 0.0052902075, 0.023027329, 0.66173893, -0.18400107, -0.074561745, 0.13703984, -0.09262573, 0.38134515, 0.4154393, 0.34116375, -0.36326155, -0.42387694, 0.24510457, 0.10330174, -0.60814583, -0.002598795, 0.21419853, -0.3946555, -0.17238873, -0.8890476, -0.17214964, 0.23118944, -0.9288076, 0.9891524, -0.08420079, -0.73307115, -0.3131772, -0.2666058, 0.36694148, 0.25950515, -0.20139076, -0.5194299, 0.21636981, 0.17896457, -0.2427927, 0.116738886, 0.076898076, -0.35894063, -0.10600321, -0.37342378, -0.08337565, -0.0087501705, 0.05893402, -0.71791506, -0.40480822, 0.18193349, -0.59880495, -0.12521525, -0.014025772, -0.5323874, -0.0143306395, -0.32496712, -0.27752998, 0.32152116, 0.39015618, 0.57097393, 0.03611986, -0.071660876, -0.93794274, -0.38633588, -0.07888791, -0.7337214, 0.09203872, -0.22244495, -0.2906083, 0.7180379, 0.09482705, -0.08272416, -0.37643215, -0.027949842, -1.1314231, -0.20718999, 0.25747, 0.16105355, -0.33600163, 0.31143734, -0.4539262, -0.081625246, 0.48755166, -0.1956902, -0.64611036, 1.1970061, 0.30475256, -0.009410071, -0.3959134, -0.3753915, -1.0628598, -0.29834235, -0.056621537, -0.099138945, 0.6298132, -0.40833578, 0.7850816, -0.50157833, -0.19848965, -0.43249372, 0.0011287653, 0.7506615, 0.29047582, 0.24337474, -0.7847777, -0.4429312, -0.25289556, -0.29141197, 0.0078573935, -0.027348286, 0.50747585, 0.18897286, -0.083102114, -0.15089817, 0.015742758, 0.24598126, 0.073825404, -0.5643606, 1.0722574, -0.044531424, -0.36012724, -0.47397134, 0.39293483, -0.47543105, -0.15619114, 0.70549196, -0.06009033, 0.08473349, -0.1658828, -0.46455964, 0.085623786, 0.90001035, -0.17389514, 0.5487084, -0.014169884, -0.108920865, -0.16476467, -0.16549028, -0.34587967, 0.20667776, -0.56376827, -0.71909916, 0.43322018, -0.090406574, -0.4157254, -0.5630504, 0.6107551, 0.38821468, 0.11225173, 0.8420757, 0.0013203641, 0.5148013, -0.0041476083, 0.8609895, 0.3445505, 0.19270128, 0.32454872, 0.12941724, -0.081900746, 0.3589656, -0.23503384, -0.45356014, -0.30799854, -0.5000281, -0.57361484, -0.19417077, -0.4360032, -1.3845456, 0.010235868, 0.114715554, -0.29155275, 0.20412955, -0.37359324, 0.7765959, 0.44586742, 0.15190199, -0.3171982, 0.3873769, -0.0039776606, 0.86724097, -0.42773104, 0.005402481, 0.30987552, 0.52753353, 0.72263795, 0.017808115, -0.2039103, -0.24518906, 0.035627045, -0.7240909, 0.003094959, 0.24648048, -0.45297983, 0.39584905, -0.07047147, 0.47582814, -0.57709694, 0.14061496, 0.5376847, 0.32917917, -0.14894807, -0.09269457, -0.12876336, -0.33289072, -0.31824577, -0.8691515, -0.21217464, 0.1189069, -0.10860582, -0.6833522, 0.6050831, -0.19021073, 0.25237095, -0.65144587, -0.5220894, 0.07639205, -1.3010839, 0.8879013, 0.12311233, 1.1231472, -0.4312788, 0.2347545, 0.1994598, -0.27362904, -0.3617969, -0.24734402, -0.15960607, -0.25542617, 0.5301582, 0.5369544, 0.3515918, 0.57542825, 0.012290654, -0.44745538, 0.35699338, 0.13313898, -0.08063492, 0.5696088, -0.50381815, -0.061394308, -0.69329476, 0.24610028, 0.107073955, -0.38246518, -0.20619626, 0.2675598, 0.5776548, -1.3376358, -0.7596991, 0.0033242486, -0.33839294, -0.038213965, 0.097777225, -0.028342513, 0.52973396, 0.86094093, -0.20052372, -0.88769984, 0.014671742, -0.7457623, -0.1837541, -0.100738525, -0.3431898, -0.06063725, 0.08982635, -0.045598853, -0.3247321, 0.27943456, -0.59754676, 0.1634204, -0.18586011, -0.38642406, -0.5891388, 0.39616072, -0.32927725, 0.3218594, -0.036922358, 0.92887497, -0.44305116, 0.05373734, 0.30854827, -0.615272, -0.63495773, 0.26694238, 0.0495141, -0.14177558, 0.03402919, -0.4301391, 0.2501313, -0.16169453, -0.3445206, 0.4208496, -0.42199677, 0.071699746, 0.14251548, -0.55706555, 0.76233995, 0.2546335, 0.87199634, 0.45630836, 0.43277818, 0.2128944, -0.08432668, 0.46941966, 0.01611927, 0.04953964, 0.70311594, 0.27053913, -0.46850058, -0.80109555, 0.21495228, 0.17087239, -0.3643818, 0.3416335, 0.6314791, -0.02533868, -0.1748874, 0.2616421, -0.4047177, 0.027631575, -0.30440256, -0.52034086, -0.5000218, -0.6730725, -0.16818698, -0.6950483, -0.50130963, 0.51945627, -0.4410537, 0.122194245, 0.23761602, 0.26558244, 0.5895085, 0.50898224, -0.0033380063, -0.030527556, -0.0081749, 0.3134905, -0.4182366, 0.24366127, -0.048536327, 0.7495146, 0.16925675, 0.17274687, -0.35086605, 0.1917625, 0.46213004, -0.0106126, -0.071784616, -0.5013411, -0.29986164, 0.54717195, 0.3344526, 0.027405107, 0.2911453, -0.8212585, -0.2581775, 0.19280626, 0.22621146, -0.46838343, -0.7990637, -0.524034, 0.40549377, 0.4257281, -0.2535996, -0.2676704, -0.19910188, 0.31671143, 1.1770102, 0.091903634, 0.16754837, 0.8095278, -0.13294226, -0.26891583, 0.20799455, 0.5279941, 0.23244864, 0.02064862, -0.09136501, 0.09167228, 0.13749938, -0.16916546, -0.60763955, -0.28311318, 0.14667371, -0.27112976, -0.29636744, 0.5584057, 0.17602877, 0.5844993, -0.074963145, 0.0227373, -0.37050143, 0.012575511, -0.11258504, -0.631009, -0.55038315, -0.60870415, -0.15052925, 0.24979776, 0.41359884, 0.16633487, -0.1927319, 0.42388466, 0.40921268, -1.0100089, -0.08958857, 0.6946608, 0.06932033, -0.13690427, -0.43807462, 0.6543327, 0.084785506, 0.16753791, 0.06332978, -0.25056124, 0.8543702, -0.23651318, -0.069377184, -0.30455628, 0.236159, 0.42585403, 0.06591547, 0.2629671, 0.09900825, -0.34456286, -0.46950862, -0.6315944, -0.4571372, -0.46394432, -0.24919614, -0.024137096, -0.36325386, 0.28395125, 0.1050559, 0.34534815, -0.6420319, -0.11815135, 0.32282427, -0.091417916, 0.033229068, 0.8525228, 0.18785128, -0.44206133, 0.6655748, -0.3504716, -0.27226794, -0.22156507, -0.7858729, -0.5631459, -0.6509795, -0.52202755, 0.11118999, 0.07989258, -0.06365751, 0.9001124, 0.11313497, -0.21044129, 0.4026325, -0.08841506, -0.28864977, -0.030701606, -0.63558555, 0.48922175, -0.3351613, -0.9724111, -0.15606345, 0.38194057, -0.8293431, -0.3945289, -0.7244099, -0.81178004, -0.44666627, -0.27477866, -0.8872737, 1.0395986, -0.17341438, 0.00563367, 0.32244003, -0.36580718, 0.28103557, 0.100215696, -0.49201533, 0.5620903, -0.12273371, -0.37457678, 0.16694313, 0.14835404, 0.038728878, -0.15677689, 0.29940656, -0.47963017, 0.15657811, 0.3805608, -0.61271334, 0.21032114, -0.62776905, 0.21305364, -0.33697295, -0.2570542, -0.71906227, -0.029263223, -0.16702633, -0.07280361, 0.09087061, -0.42513874, 0.0880774, -0.5883675, 0.02311725, 0.3206525, 0.31535733, 0.93499714, -0.35641178, -0.8734037, -0.2111773, 0.16696186, 0.36598256, -0.11764207, 0.032500293, -0.17481548, -0.38350633, 0.2452419, -0.031605933, 0.16665815, -0.1766353, -0.47333953, 0.6871815, 0.2537215, 0.27508762, 0.080051705, -0.5694078, 0.15540957, -0.4477741, -0.02694155, 0.10662082, 0.27884513, -0.033834558, -0.81477445, -0.567205, -0.26313522, -0.060747277, 0.11674857, -0.20972683, 0.057536002, 0.14512748, -0.70732325, 3.7934293e-05, 0.04625106, -0.7099304, -0.31981003, 0.7124272, -0.47539216, 0.4808924, -0.018147243, 0.04816815, 0.02812724, -0.016813803, 0.48144826, -0.64222676, 1.2219068, -0.11589357, -0.016800078, -0.17634432, 0.17527774, -0.2401653, 0.09457778, -0.27035692, -0.8743691, 1.0471772, -0.2758434, 0.15843536, -0.28578642, 0.50050026, -0.40720984, 0.10228694, 0.47689012, -0.58497494, -0.37192318, 0.068361096, -0.44715023, -0.6605878, -0.15408605, -0.2561879, 0.43066195, -0.1615658, -0.20582186, -0.6324301, -0.23976497, -0.25620586, 0.13447283, -0.6528347, -0.1330973, -0.264906, -0.5613684, 0.041635524, 0.3753174, 0.14989735, -0.26293775, -0.44610798, -0.2792202, 0.50574136, -0.0054149088, 0.04312835, -0.0025774413, 0.17155899, -0.2762818, -0.13654594, 0.59745324, 0.2772964, -0.16735707, -0.18563114, 0.6014653, -0.17863011, 0.24580713, -0.44238952, -0.24753705, 0.09380992, 0.3078318, 0.2964072, 0.48769233, 0.29268253, 0.22029695, 0.31962898, -0.36326885, -0.058493737, 0.24269193, -0.20564093, -0.29361942, -0.29434675, 0.33431327, -0.4562874, -0.36788365, 1.1030478, 0.018339664, -0.041934486, -0.11276024, 0.030542148, 0.27787897, 0.14295574, 0.3353891, 0.12028218, -0.11468973]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>틱소트로픽 유체란?</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>시간에 따라 점도가 감소하는 유체를 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2</v>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>[0.2611773, -0.42610142, 0.13400003, -0.41722158, -0.56933343, -0.42708242, -0.07983338, 0.89826435, 0.44506258, -0.08228353, -0.0677394, -0.3832449, -0.21575014, 0.07553747, -0.23185642, -0.1294381, -0.1262521, -0.09703794, 0.8653721, -0.822176, -0.48014757, 0.089797854, -0.15069385, 0.7108834, 0.19397403, -0.42291307, -0.31297892, -0.076948725, 0.16458501, -0.5976796, -0.2602893, 0.48290026, -0.045161113, 0.17325924, 0.4766939, 0.022557005, -0.30883664, -0.046710677, 0.10267252, -0.17625642, 0.17036036, -0.19816644, 0.043420475, -0.04042036, -0.77504474, -0.7381462, 0.011222336, 0.046126477, -0.28281415, 0.39953402, -0.28981072, 0.56304604, 0.9919942, 0.05146328, 0.29364455, -0.7891913, 0.28642666, 0.044843707, 0.44754022, -0.3657181, 0.7058993, -0.42026728, 0.40915486, 0.23955481, 0.6332932, -0.043128688, -0.58893013, 0.023796111, -0.870288, 0.41474307, 0.5663738, 0.26940158, 0.0009823707, 0.22885793, 0.32070103, 0.15953809, -0.06771605, -0.013981511, 0.013891763, 1.113197, 0.18045808, -0.42599514, 0.044340372, -0.806961, -0.22887675, -0.7085936, 0.68606675, -0.39957055, -0.9224885, -0.052238394, -0.48210654, -0.16723718, -0.07429457, 0.27462786, -0.9800519, 0.39828318, 0.07938109, -0.08664583, 0.98988277, 0.48319945, 0.26688558, 0.090518184, -0.3296907, 0.7515796, 0.49014145, -0.35458693, -0.010519498, 0.91262966, 0.9931047, -0.49071667, 0.33844453, -0.66562116, 0.19553329, 0.045948572, -0.45736176, 0.14172721, -0.27083087, 0.21067195, -0.009278057, 0.11430546, 0.009359313, -0.7178735, -1.2241309, 0.12991528, -0.0639969, 0.17365032, 0.9125633, 0.20882499, -0.3064468, -0.39065823, -0.37707093, 0.37892038, 0.49135864, -0.16572942, -0.37750426, 0.021711398, 0.005989046, 0.17723536, 0.5322922, 0.63105565, 0.06359886, -0.0032505277, -0.12506783, 0.10086176, -0.6304979, -0.1751789, 0.30120984, -0.12069403, -0.62731004, -0.6858809, -0.6864797, 0.4019849, -1.2968113, -0.19237503, -0.2018016, -0.80892557, -0.11796185, -0.40296113, 0.33807003, -0.1281898, -0.31672013, -0.23711056, 0.06760873, 0.17250519, 0.24809694, 0.05188367, 0.24571222, 0.021910569, -0.012920197, -0.6548773, 0.124516435, -0.31529346, -0.058902536, -0.24102364, 0.035917547, 0.45231396, -0.53244734, 0.09680264, -0.10408142, -0.7410123, 0.44349825, -0.28476036, -0.26795712, 0.23749171, 0.2743302, 0.45532423, -0.4798479, -0.30579504, -0.7372166, -0.47331586, 0.32684243, -0.6389483, -0.2948273, 0.03199117, -0.17517298, 0.34201854, -0.17020589, -0.26464155, -0.603451, -0.019800905, -1.0583227, -0.03472505, 0.15190099, -0.046449494, -0.0691505, 0.19263504, -0.2646013, -0.009041373, 0.49885783, -0.25660002, -0.28901592, 0.95039326, -0.0747066, 0.38658416, -0.0780482, -0.1891252, -0.4305083, -0.12788022, -0.46020406, -0.15419552, 0.25168118, 0.058761504, 0.4595076, -0.92200375, 0.28741738, -0.80438966, 0.4286767, 0.43586963, 0.26096457, -0.37279627, -0.77296895, -0.428136, -0.10640501, -0.23990498, 0.12998798, 0.3823475, 0.51165473, 0.19640344, -0.7109983, -0.35771567, 0.18617928, 0.4141997, -0.10069427, -0.50585407, 0.60481644, -0.020591283, -0.10181787, -0.5000368, 0.7694167, -0.70605177, -0.4114079, 0.8423153, 0.030837245, -0.37318552, 0.31964716, -0.12923977, -0.072742574, 0.839113, 0.2337608, 0.40740287, 0.06660141, 0.56605816, 0.1497782, -0.020485442, -0.45444474, 0.23530531, -0.37592533, -1.382577, 0.50867015, 0.024904134, -0.3834162, -0.05645148, 0.60670274, 0.023324989, -0.11216336, 0.062040593, -0.005911152, 0.26091066, -0.07017776, 0.51111573, 0.36728156, 0.48063982, 0.48006862, 0.039073817, 0.35054228, -0.0401611, 0.07330529, 0.024864798, -0.16942199, -0.5820374, -0.8633634, 0.42401296, -0.70551246, -1.6670207, -0.25410756, 0.04267843, -0.20317967, -0.094459906, -0.0101149, 0.32315567, 0.4211021, 0.4399463, 0.07482114, 0.30588537, 0.5458475, 0.36819375, -0.3584128, -0.19336736, 0.2966067, 0.5067642, 0.11657611, -0.6513283, 0.09945795, 0.25817022, 0.3012223, -0.12675792, -0.14660615, 0.059234858, -0.40493897, 0.21805927, -0.5666999, 0.24121444, -0.008298937, 0.25636277, 0.23775919, 0.035229776, 0.16097115, -0.24446814, 0.0544752, -0.2137212, 0.012633648, -0.68805456, 0.40183565, 0.33946848, -0.62918484, -0.366486, 0.33288455, -0.34324896, 0.3527013, -0.5667696, 0.05203367, 0.12975211, -1.2633715, 0.82319707, 0.09815972, 1.1007159, -0.01693142, -0.23145549, 0.1408837, -0.17044793, -0.3561654, -0.50569475, 0.07411591, 0.24173969, 0.41168216, 0.47273982, -0.05015314, 0.7600761, 0.23755792, -0.59670746, 0.7401243, 0.18275905, 0.30470327, 0.21677104, -0.5567165, 0.7679378, -0.34891927, 0.16828972, 0.36743408, 0.25525293, -0.2819195, -0.2021493, 0.10371801, -0.515348, -0.6531206, -0.0014814346, -0.36651498, 0.10756687, -0.644785, -0.004751557, 0.8230808, 0.8152721, -0.34978396, -1.0226729, 0.14231324, -0.46233007, 0.28285778, 0.06103015, -0.6963253, -0.014605473, -0.44220892, 0.18944335, -0.18038565, 0.07295415, -0.92756355, -0.22654721, -0.19664197, 0.035547085, 0.012395064, 0.09010792, 0.2583024, -0.22376421, 0.18458861, 1.2479136, 0.036928855, -0.3223823, 0.72076035, -0.6077547, -0.8523591, -0.2712107, -0.4426133, 0.022532089, -0.2421355, -0.40226984, 0.17850535, -0.5661619, -0.30959788, 0.5769932, -0.4882466, 0.041551586, 0.012021758, -0.052382432, 0.81048816, -0.5373149, 0.5298892, 0.730425, 0.3144697, -0.116955176, 0.285291, -0.18554407, 0.5360032, 0.11225963, 0.69771415, 0.4645804, -0.44483206, -0.7827647, -0.24684599, -0.081048876, -0.30594546, 0.502678, 0.7621715, -0.120959096, 0.48953235, 0.2955451, -0.14366227, -0.0233679, 0.010125036, 0.12458715, -0.14653656, -0.7567063, -0.3471806, -1.1100268, -0.38305077, 0.31064102, -0.20518544, 0.18563543, -0.009619754, 0.3620652, 0.01816696, 0.086255945, -0.10128554, -0.12381694, 0.013088058, -0.30356517, -0.013934412, 0.52799284, 0.4463304, 0.49741024, 0.2533057, 0.3871961, -0.7163309, 0.054370996, 0.4536098, 0.12808572, 0.13613394, -0.6553069, -0.21078336, 0.6211465, 0.14095443, 0.21796772, 0.2534015, -0.83297795, -0.04371671, -0.35245785, 0.17632347, -0.20984358, -0.7530427, -0.5336504, 0.123987876, 0.070871525, -0.4306188, -0.3034531, -0.34481126, -0.3360846, 1.132213, 0.32275274, -0.23119861, 0.50220364, -0.18868835, -0.047358904, -0.06738767, 0.4258207, 0.13375187, 0.42254913, 0.1391025, 0.07843837, 0.05875612, -0.3098148, -0.27483198, -0.18423271, -0.4346947, -0.5064158, -0.029335, 0.09003958, 0.11625494, 0.5313003, 0.5418271, 0.054262042, 0.4083175, 0.20808457, -0.61631733, -0.24921781, -0.47941944, -0.4604061, -0.49709967, 0.08422436, 0.38494343, -0.307442, -0.61712587, 0.50028765, 0.23297085, -0.50712496, 0.28913105, 0.39840043, 0.40585008, 0.07426936, -0.15813045, 0.8065622, 0.56629217, -0.08679721, 0.26888254, -0.10709629, 0.7792317, -0.234431, -0.6831978, -0.108901, 0.65475154, 0.6115291, -0.035102293, -0.59947896, -0.2382989, -0.16205812, -0.28878438, -0.59298575, -0.9685794, -0.1702439, 0.2063176, 0.24379182, -0.25766537, -0.043297, -0.2774658, -0.013219072, -0.3274266, -0.3899837, -0.047188893, 0.18661171, 0.054353144, 0.7467527, 0.10471736, -0.33166105, 0.5992682, 0.41901043, 0.028183447, 0.34223115, -0.12149068, -1.1235741, -0.62424916, -0.31234404, 0.24127239, -0.40532672, 0.010554571, 0.22086255, -0.42400852, 0.24735087, 0.7468848, -0.30756453, -0.5517495, -0.60297817, -0.4641682, 0.17981154, -0.4010201, -0.8170526, -0.12795517, 0.5944082, -0.42178944, 0.15431194, -0.6117901, -0.85707736, -0.33441627, -0.24902926, -0.52382725, 0.92783314, -0.2530924, 0.4044063, 0.59356815, -0.43763983, 0.31898087, 0.041006953, -0.22709434, 0.6445615, -0.08680525, -0.04413962, -0.0105654, 0.5984664, -0.60888296, 0.30162925, -0.3959273, -0.43717015, 0.061553948, -0.14824727, -0.4177075, 0.08680112, -0.44782892, 0.0119681535, 0.42845094, -0.14385797, -1.0418675, -0.59549236, -0.038949423, -0.11670201, 0.15417692, -0.7248426, 0.23995645, -0.15603246, -0.061545506, -0.16345108, 0.2782795, 0.5040994, -0.5375398, -0.7832935, -0.2077244, 0.048471365, -0.022022357, -0.56848055, -0.22799948, -0.11896703, -0.5413659, 0.02190864, -0.111472026, -0.04837534, -0.37900814, -0.028529644, 0.8710086, -0.4571021, 0.1845917, 0.107003056, -0.233703, 0.16700894, -0.8939408, -0.36870942, 0.37303, -0.09946484, 0.38065463, -0.79220283, -0.5204973, -0.007955976, -0.11683186, -0.09297628, 0.3676364, 0.011620426, 0.1750346, -0.10701254, 0.057649672, 0.238777, -0.09513235, -0.18984517, 0.50463027, -0.8692528, -0.036864776, -0.037396546, -0.10860338, 0.12108179, 0.19217852, -0.37674105, -0.18791145, 1.2276858, 0.11612574, 0.20622472, -0.30626282, 0.2683418, -0.67435133, 0.09948181, 0.19104967, -0.5998347, 0.9454743, 0.4137347, -0.26062548, -0.057731025, 0.22919032, -0.39508888, 0.044159774, 0.2782345, -0.35706025, -0.44236022, 0.023123566, -0.73927224, -0.74062645, 0.042115945, -0.29198703, 0.18401246, -0.06506447, -0.24602707, -0.59525806, -0.35672748, -0.17702954, 0.060094807, -0.27141234, -0.3402128, 0.68853986, -0.5732434, 0.08244881, -0.0014158123, 0.29803732, -0.17480445, -0.16352063, -0.094863415, 0.16836855, -0.44986475, 0.22355965, -0.24069797, 0.12085256, 0.073014855, 0.1546058, 0.078787744, 0.25176054, -0.39176333, -0.38767314, 0.19939978, 0.15507703, -0.19598828, 0.25525197, 0.3410607, 0.59389406, -0.19884232, 0.17398615, 0.3403827, 0.31062165, 0.58846295, 0.67638487, -0.04339382, 0.20869069, 0.093576774, 0.17965409, 0.10524305, -0.57831615, 0.26140392, -0.47002017, -0.48477548, 0.77817404, -0.41006848, 0.32018188, -0.23172277, -0.06863265, 0.25777325, 0.5526119, 0.33189577, 0.10879615, -0.41518223]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>thixotropic 유체란?</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>시간에 따라 점도가 감소하는 유체를 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>2</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>[0.14018671, -0.29537153, 0.18100372, -0.2265114, -0.19347551, -0.13092272, 0.097845085, 0.5654042, 0.2825089, -0.33829743, -0.08027413, -0.5350665, -0.25742537, -0.41054305, -0.22231522, -0.50821245, 0.0807634, 0.31012937, 0.7268527, -0.78732526, -0.6738051, 0.6800272, 0.14166997, -0.0023963272, -0.16963118, -0.27282304, -0.060810566, -0.08846959, 0.22668254, -0.42515478, 0.31571144, 0.35353172, -0.59833366, 0.093616605, 0.50405884, -0.20157163, -0.61040115, 0.11024723, 0.012606859, -0.37771994, -0.19656803, 0.0007033497, -0.44699544, 0.005271481, 0.09809023, -0.31174913, -0.038828216, 0.19291268, 0.06603928, -0.036715686, -0.35307738, 0.0902707, 0.57944834, 0.43964028, 0.11685681, -0.5396518, 0.0905879, 0.09963618, 0.27194506, -0.37236747, 0.6691693, -0.78331554, 0.27488393, -0.12889214, 0.25621977, 0.15608844, -0.33051458, 0.42462835, -0.74817884, 0.5581192, 0.47809562, 0.24640027, -0.11685538, -0.17458823, 0.18995614, 0.1868314, 0.11776034, 0.239814, -0.23315969, 0.9525533, 0.28320882, -0.56240785, -0.07864513, -0.93644047, -0.11407969, -0.26515627, 0.2742117, -0.35977706, -0.9285714, 0.17302737, -0.56419367, -0.09554984, 0.14187187, 0.344448, -0.7100632, 0.20825115, 0.29014653, -0.34916037, 1.0275421, 0.49328822, -0.20849891, 0.40407652, -0.7834544, 0.64888155, 0.4860658, -0.3895339, -0.39218852, 0.69068336, 0.8560635, -0.53420556, 0.68766475, -0.15301439, 0.63123685, 0.070258915, -0.013465484, 0.081746295, -0.4658541, 0.35968083, -0.38740474, 0.6637799, 0.46291488, -0.6245904, -0.5384517, 0.26253837, -0.5659571, 0.45044613, 0.90807134, 0.28148487, 0.3171055, -0.12400899, -0.13834243, 0.24277386, 0.6482476, -0.28872722, -0.020111784, 0.45624477, -0.0730232, 0.09173572, 0.6153007, 0.3652063, -0.45735988, -0.224561, -0.08666152, -0.01725601, -0.5920707, -0.6247109, 0.20620854, -0.037515342, -0.30343288, -0.7197486, -0.34457272, 0.22129571, -0.74672586, 0.4160232, 0.053851824, -0.71056604, -0.4773383, -0.27842188, 0.4270846, 0.3324432, 0.26102245, -0.36394587, -0.09750108, 0.19061978, -0.13069917, 0.29401052, -0.16794412, -0.14274694, -0.09163696, -0.78076494, 0.050141007, -0.105618455, -0.24120264, -0.6383728, 0.035274852, 0.12558255, -0.5693343, 0.05979793, -0.14642218, -0.67439604, 0.29227424, -0.1116817, -0.19470134, 0.069914125, 0.1589168, 0.5369674, -0.15523328, -0.12686798, -0.8177308, -0.11014314, 0.30662456, -0.52820396, -0.14146668, -0.08835177, -0.16913095, 0.8497308, 0.35128573, -0.11208719, -0.2676986, -0.23801282, -1.1185577, 0.1602023, 0.029822525, 0.2086345, -0.03839612, 0.47050944, -0.3652143, -0.086006016, 0.6329962, -0.4517478, -0.5489111, 1.1464868, -0.017583704, 0.08457833, -0.17518745, -0.25042725, -0.45975342, -0.09212869, -0.39099357, -0.2562428, 0.29685408, -0.14316249, 0.7974821, -0.7529663, -0.38528067, -0.14225042, -0.01608318, 0.44584078, -0.10571568, -0.13776353, -0.6533858, -0.5865259, -0.34553033, -0.4331759, 0.30891103, 0.01819394, 0.76603943, 0.3397352, -0.23907888, -0.18090169, 0.3367439, 0.37720838, 0.21541992, -0.34754157, 0.72336495, -0.009773755, -0.17145365, -0.8900728, 0.5395781, -0.6500217, -0.32817698, 0.80206406, -0.20370543, -0.004338032, 0.31747597, -0.27770418, -0.06953758, 0.9897065, -0.05332162, 0.39311996, -0.09648642, 0.3134378, -0.24467298, -0.2886485, -0.3457871, -0.27928567, -0.16230366, -1.3834714, 0.81547195, -0.10042326, -0.56556493, -0.5066904, 0.9198214, 0.5605699, 0.11197555, 0.80192345, -0.0955853, 0.25247967, -0.16034158, 0.51981443, 0.30045694, -0.029523397, 0.4566439, -0.03730458, -0.12522176, -0.03547079, -0.34335476, -0.090433896, -0.6300643, -0.7660583, -0.6698031, 0.14423259, -0.50279623, -1.705005, -0.1366096, 0.17412908, -0.35902, -0.064139925, -0.3677259, 0.81907165, 0.20476691, 0.0332271, -0.46424446, 0.46885514, 0.21351273, 0.944965, -0.15401426, -0.09452622, 0.30985832, 0.59441185, 0.5149663, -0.12419993, -0.28523442, -0.17080608, -0.064521864, -0.49775767, -0.21823108, 0.14877303, -0.43571097, 0.355992, 0.016062047, 0.21257882, -0.06802784, -0.050428934, 0.26152903, 0.0026364238, -0.12878034, -0.07700311, 0.077529326, -0.35450718, -0.15080072, -0.8043777, 0.3031954, 0.2825592, -0.39550614, -0.577744, 0.801383, -0.69176435, -0.07285549, -0.36555913, -0.36220178, -0.11055962, -1.5517238, 0.68221664, 0.26367328, 1.1126868, -0.20627812, -0.109866634, -0.116358995, -0.4995967, -0.27612633, -0.13271081, -0.18328054, -0.315574, 0.8006813, 0.40181845, 0.39316884, 0.5241398, 0.13873161, -0.4835636, 0.6532034, -0.15772621, 0.14586723, 0.6038074, -0.5132603, 0.43015233, -0.61515194, -0.12808932, 0.27037817, -0.095349774, -0.2716872, -0.01864261, 0.62558854, -0.86766356, -1.0616971, -0.1698291, -0.29940525, -0.10196187, -0.122190155, 0.23309925, 0.7320998, 0.6985238, 0.045405824, -0.84077847, 0.06189186, -0.6989169, -0.024914261, 0.35927442, -0.35380825, 0.26610065, 0.041443903, -0.06985361, -0.5949865, 0.2362678, -0.64720917, 0.17012784, -0.22610454, -0.16021301, -0.13257504, 0.34396827, -0.14202304, 0.10943673, 0.29692048, 0.80142677, -0.26430583, -0.12699182, 0.2508371, -0.5946896, -0.86835957, 0.375019, -0.11324515, -0.03628959, 0.2511167, -0.4022196, 0.116518, -0.20671749, -0.47766036, 0.7537, -0.57506496, -0.005286485, -0.15874064, -0.35078505, 0.9702927, -0.13801068, 0.7125106, 0.5426698, 0.4794004, 0.25495848, 0.04714546, 0.45177063, 0.22163966, -0.07298194, 0.8571722, 0.37244132, -0.4744153, -0.6596907, 0.21623075, -0.041388433, -0.5675495, 0.5895134, 0.54104376, 0.19545655, 0.117216386, -0.0018606335, -0.14534844, 0.023677155, -0.19039297, -0.22605935, -0.76975685, -0.6838959, -0.22612214, -0.46041703, -0.4232754, 0.5486506, -0.20282216, -0.1249754, 0.1409143, 0.18375134, 0.23003945, 0.5639038, 0.2687443, 0.084759206, -0.07989337, 0.24409112, -0.14547995, 0.28253073, -0.092171445, 0.60596496, 0.56618017, 0.31174153, -0.5149597, 0.173852, 0.10889344, 0.0462317, -0.08821972, -0.3439968, -0.31116512, -0.051816314, 0.25523677, 0.2108947, 0.37997872, -0.9165786, -0.11620965, 0.033672735, 0.32463917, -0.27807775, -0.72001755, -0.57303584, 0.3940814, 0.28272927, -0.38300112, -0.11246015, -0.055035807, -0.080177486, 1.3611249, 0.08322354, -0.09034667, 0.5228335, -0.07500127, -0.066835925, 0.2946008, 0.49807438, -0.020504152, 0.07143421, 0.1968515, 0.03505019, 0.33817396, -0.3412177, -0.32561162, -0.17834926, -0.021721117, -0.27196652, -0.12099767, 0.32594964, 0.1947021, 0.51162493, -0.014970688, 0.16553502, -0.3023906, 0.08848129, -0.36653188, -0.8319869, -0.42513293, -0.31210145, -0.22589341, -0.09724588, 0.053863965, -0.10890372, -0.066039406, 0.4163536, 0.07123097, -0.67287487, -0.1568661, 0.5518257, 0.3585586, -0.2861618, -0.44390425, 0.4202117, -0.09816356, 0.08721791, 0.0759565, -0.15547144, 0.524616, -0.41821757, -0.2491887, -0.1951565, 0.44373888, 0.6966105, -0.1483495, -0.067117244, 0.0766512, -0.42937666, -0.6593417, -0.5162314, -0.14997289, -0.43376833, -0.21031359, 0.22323605, -0.6622745, 0.0663523, -0.40020913, 0.12987849, -0.561859, -0.10994949, -0.0019111156, 0.27962556, -0.36310098, 0.8201889, 0.1617821, -0.25491086, 0.7649805, 0.20859465, -0.15978469, -0.423239, -0.9618088, -0.634861, -0.8126995, -0.36254582, 0.002524527, -0.19456291, -0.24237521, 0.58979356, 0.17075086, 0.09267877, 0.7597548, -0.039621755, -0.37822092, -0.107978866, -0.6244265, 0.39717838, -0.3521325, -0.8908367, -0.25829494, 0.4170209, -0.9322133, -0.40563923, -0.66331047, -0.8230851, -0.6058431, 0.11260413, -0.6957715, 0.69037, -0.27812704, 0.072511055, 0.19732477, -0.82025415, 0.3208015, 0.218012, -0.43118864, 0.55803007, -0.5973978, -0.010433276, 0.23055387, 0.43828052, 0.048194457, 0.29156718, -0.049753107, -0.5508072, -0.011031901, 0.28161225, -0.28910893, -0.12055594, 0.092637695, 0.22184916, -0.23606615, -0.3629437, -0.4941395, -0.28347868, 0.34338883, -0.084087595, 0.18960005, -0.48743138, 0.39751226, -0.37011307, -0.0049152956, 0.22409539, 0.36890042, 0.74486166, -0.3872065, -1.1706142, -0.2408998, 0.23693344, 0.21023786, -0.06780138, -0.09125646, 0.014151338, -0.330814, 0.05151577, -0.16603805, 0.10100482, -0.30412036, -0.21854421, 0.61631143, -0.144566, 0.1667319, 0.2427806, -0.5756863, 0.09885704, -0.28744105, -0.37320936, 0.18111472, -0.12582493, -0.16436878, -0.746961, -0.22511785, -0.0869592, -0.10142493, 0.028254371, -0.28674486, 0.20824835, 0.13420178, -0.38694072, 0.36199236, 0.17987353, -1.0130358, -0.42114845, 0.52538395, -0.50063235, -0.052336145, -0.039668933, 0.08305363, -0.046223946, 0.39232937, 0.17716326, -0.3864267, 1.6741679, 0.095149636, 0.36316293, 0.035728145, 0.40442514, -0.29625928, 0.02904885, 0.13639912, -0.7631737, 1.0241834, 0.40843448, -0.05345559, -0.2484887, 0.29618686, -0.44779596, 0.13059083, 0.5393676, -0.33361602, -0.40971375, -0.01643915, -0.626555, -0.7121913, 0.07006653, -0.25988525, 0.27354804, 0.26768872, 0.08863991, -0.6155557, -0.27244323, -0.17477766, 0.25695822, -0.6736382, -0.5255495, 0.17440411, -0.39522448, 0.37951228, 0.37318802, 0.08052367, -0.28712392, -0.44576186, -0.18684189, 0.45926723, -0.2697972, 0.1358997, -0.27545226, 0.14829433, 0.09816105, -0.13601944, 0.46283573, 0.31797025, -0.28753275, -0.4206685, 0.4079918, 0.01915817, 0.01072717, -0.062372528, -0.120846175, 0.5711678, -0.03958686, 0.04630612, 0.59209806, -0.18347932, 0.345469, 0.2424529, -0.56813747, -0.46563715, 0.3161013, 0.079522274, -0.0986086, -0.31023386, 0.13368371, -0.37586084, -0.27997586, 0.7981209, -0.07161562, -0.06576228, -0.33744845, 0.32803962, 0.23452134, 0.5404133, 0.14179668, -0.07702916, -0.30446187]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>레오펙틱 유체란?</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>시간에 따라 점도가 증가하는 유체를 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>2</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>[0.10872538, -0.27337435, 0.22672585, 0.09448297, -0.34353107, 0.1759847, -0.012278937, 0.603814, 0.26704827, -0.37001282, 0.023660101, -0.45783025, -0.3686919, -0.0033338852, -0.10930393, -0.13296506, 0.043601517, 0.58325416, 1.0290874, -0.42208648, -0.62572277, 0.8662464, 0.3770954, 0.37553173, -0.11408648, 0.47450578, -0.2234645, -0.21818194, 0.50387144, -0.787187, -0.18110381, -0.044524416, -0.039956667, 0.18572205, 0.51852226, -0.12542097, -0.7738856, 0.33622044, -0.10249817, -0.17489552, -0.22293282, -0.13494693, -0.6548539, 0.24538058, -0.0738037, -0.0676817, 0.05143898, -0.17874974, 0.32072437, -0.12828249, -0.32598042, -0.20316729, 0.4357871, 0.16476083, 0.22981778, -0.75898486, 0.0380681, -0.6180233, 0.17314282, 0.011587871, 0.89771754, -0.71127486, 0.13261423, -0.114967115, 0.58859175, -0.04882158, -0.34917405, 0.24183558, -0.6268396, 0.61878157, 0.042254616, 0.3124259, -0.14269829, -0.10367897, 0.48430791, 0.46614712, -0.31283647, -0.0491613, 0.06199328, 0.7447309, -0.05584888, -0.90921754, -0.02287554, -0.27283335, 0.01683316, -0.11146307, -0.084486365, -0.20535553, -0.13344796, 0.14188011, -0.17591259, -0.41823024, -0.1659227, 0.3303904, -0.54473054, 0.11919721, -0.022628509, 0.24234338, 1.2748469, 0.7298666, 0.13970082, 0.44021264, -0.8064517, 0.09970315, 0.15797457, -0.16998549, -0.30437395, 1.1946714, 0.55708563, -0.6274778, 0.48825428, 0.06838548, 0.9178477, -0.12939695, -0.069200516, 0.044602618, -0.9122147, -0.3148738, 0.2418762, 0.20651564, 0.18203163, -0.5603184, -0.055822916, 0.31659436, -1.0383412, 0.46350121, 0.80581665, -0.09862028, -0.14299884, -0.22983012, -0.09121907, 0.101303235, -0.101905026, -0.24032192, -0.4045505, 0.06718276, -0.055962726, 0.3179091, 0.85070646, 0.9601099, -0.22707778, -0.13343033, -0.044761658, -0.39600232, -0.46594167, -0.46483523, 0.7435347, -0.4538863, 0.088091604, -0.5782389, -0.52502716, 0.422193, -1.2480489, -0.14560574, 0.36882317, -0.37609258, -0.056674615, -0.5108482, 0.34889355, -0.022295088, -0.086552784, -0.20000933, -0.111151196, -0.09321034, -0.1537722, 0.0942899, 0.325299, 0.33657518, -0.15401639, -0.5749019, -0.157743, -0.37643164, 0.07352901, -0.27230716, 0.17841113, 0.5975732, -0.60256666, -0.103603065, 0.08323259, -0.06566139, -0.04587198, -0.103180766, -0.22734444, 0.37839913, 0.18964311, 0.421771, 0.29800898, -0.043367445, -1.0546069, -0.7096565, 0.3515713, -0.7047564, 0.40065795, -0.2862706, 0.03680004, 0.9242879, -0.036487557, -0.42044443, -0.18570258, -0.42373422, -0.99309236, 0.14678967, 0.3002941, 0.13617611, 0.09433225, 0.35711026, -0.41569102, -0.35521093, 0.2399637, -0.42135823, -0.13191116, 0.62171614, 0.04244569, 0.20989494, -0.012499522, -0.25594753, -0.38896862, -0.16750391, -0.036765743, -0.21155779, 0.67795926, -0.3113639, 0.4772253, -0.36882493, -0.3708802, -0.3345064, 0.0032388363, 0.12842846, -0.22748455, -0.06117131, -0.5211315, -0.608615, -0.4935959, -0.67634, 0.25503182, -0.03170519, 0.83080065, 0.148831, -0.0961528, -0.023180036, 0.2697749, 0.47941387, -0.03179369, -0.7909534, 0.0776543, 0.094629616, 0.020097077, -0.6552934, 0.3604074, -0.61764413, 0.18435255, 0.24408022, -0.043336134, -0.07499051, 0.280506, -0.12208109, -0.4148928, 1.1164634, 0.15979137, 0.6118646, -0.39948103, 0.183745, 0.13032827, -0.29150152, -0.21003097, -0.2578486, -0.11248245, -1.2989012, 0.662958, -0.4676787, -0.3695203, -0.4013033, 0.49698323, -0.0116754975, 0.22205418, 0.47339606, 0.34418595, -0.37990314, 0.21111658, -0.27902603, 0.7238824, -0.14432013, 0.16183665, -0.46768165, 0.014198918, -0.05621218, 0.36285403, 0.08569124, -0.15693162, -0.9999085, -0.21103156, -0.06712314, 1.4510006e-05, -1.7719716, 0.24837324, 0.74196535, -0.3046999, -0.5871693, -0.16525008, 0.37703183, 0.0027724411, 0.041182905, 0.13176882, 0.5844103, 0.38935643, 0.7043422, 0.15506025, -0.07064333, 0.31478232, 0.83967495, 0.6615954, 0.4374287, 0.054637246, 0.024123885, -0.10169278, -0.013806423, -0.43673855, -0.24220271, -0.064012945, 0.020246878, -0.35025194, 0.14294964, 0.08837444, -0.13870619, 0.27560303, 0.112843156, -0.5935848, -0.05974225, -0.40784335, -0.36672378, -0.47884676, -0.31108776, 0.13854727, -0.14631851, -0.3441284, -0.1392118, 0.62485725, -0.4394025, -0.102870144, -0.47037512, 0.22839852, -0.33409324, -0.99230206, 0.43021393, 0.3075831, 1.2558203, -0.3512936, -0.10286573, 0.079402655, -0.53709716, -0.38176548, -0.27555493, -0.08675639, 0.24400738, 0.6965355, 0.27784044, -0.033770904, 0.8920199, -0.29511887, -0.08466195, 0.7193564, -0.8865584, 0.2986985, 0.58996063, -0.4090621, 0.47116646, -0.7440123, 0.17716393, -0.2060711, -0.076119624, 0.29426607, -0.29346198, -0.1139011, -0.43493742, -0.5975851, 0.4912786, 0.14919174, 0.41105762, -0.3664262, 0.03820782, 0.46683747, 1.0182306, 0.3430534, -0.7520685, -0.09705512, -0.58683634, -0.005490919, 0.25071782, -0.6358431, 0.25384882, -0.54188395, -0.31580406, -0.37837774, 0.030109808, -0.1760782, -0.031069353, -0.16295357, 0.24591169, -0.51462543, 0.22104429, -0.07353252, 0.00015038624, 0.23429154, 0.37152934, -0.29285336, -0.3425708, 0.63780934, -0.7270851, -0.563691, 0.35428062, -0.10879935, 0.08698484, -0.08752583, -0.1095113, 0.08255455, 0.029176043, -0.638648, 0.7987258, -0.419246, -0.65354353, 0.45569673, -0.42498705, 0.8925826, -0.057776023, 0.13171597, 0.7630744, 0.4482985, 0.5506532, -0.029096026, 0.0886409, 0.48799554, -0.055167, 0.5669968, -0.011843871, -0.11946488, -0.82616246, -0.35296565, 0.062162377, -0.74789846, 0.7557045, 0.5579336, 0.25161865, 0.14750938, 0.4111054, -0.7088628, 0.027533222, -0.60221547, 0.043289423, -0.8436811, -0.42618138, -0.2637948, -0.72199696, -0.67134345, 0.47924066, -0.2365103, 0.40107787, 0.3897548, -0.06864137, 0.00033379393, 0.5754538, -0.37980527, 0.10634011, 0.42729887, -0.22252285, 0.11727088, 0.12740585, 0.36999977, 0.7639221, 0.4202428, 0.53239244, -0.42811406, 0.18610892, -0.25147772, -0.35351878, 0.14145757, -0.5795228, 0.5810517, -0.14709039, 0.34541643, -0.21949387, -0.048372258, -0.37776914, 0.08293718, 0.023531131, 0.23200518, 0.22213733, -0.18654887, -0.57208854, 0.367466, 0.26136634, -0.19006793, 0.19723669, -0.0020927405, 0.32791644, 0.79927474, 0.5637898, 0.12687397, 0.16235681, 0.0835875, -0.08140707, 0.1265223, 0.09247007, 0.06450011, -0.62614214, 0.3636058, -0.3178987, 0.31774625, 0.17593886, -0.45123258, 0.060057104, -0.20449753, -0.39305902, -0.09429221, 0.3941349, 0.27568945, 0.42098683, 0.32349145, 0.14795361, -0.77096754, 0.26515457, -0.65580016, -0.57879245, -0.49310076, -0.50160414, -0.43983528, -0.19122978, 0.11802215, 0.3350044, -0.33339426, 0.5755326, -0.053600386, -0.8029812, -0.58811957, 0.20205237, 0.2614342, -0.3936929, -0.34320822, 0.3351215, -0.2805773, 0.20802024, 0.39252323, 0.0071913116, 0.7206624, -0.3890601, -0.40970758, -0.029804273, 0.29757914, 0.65539306, -0.15771489, -0.1790382, -0.12412928, -0.5992844, -0.50916517, -0.795158, -0.51475674, -0.2622181, -0.64720196, -0.13890296, -0.64441556, 0.31541026, -0.32868257, 0.3612929, 0.18843511, 0.17786807, -0.14823988, 0.05242132, -0.0913149, 0.7879929, 0.20076749, -0.21028231, 0.7715729, 0.22256337, -0.29121858, -0.025513558, -0.25577798, -1.0041561, -0.5288855, -0.28608367, 0.16707845, -0.14394152, -0.004147412, 0.20452559, -0.00094801374, 0.09065216, 0.4280926, -0.23947637, -0.17992249, 0.013932191, -0.57472, 0.6451525, 0.069319084, -0.6589159, 0.59970766, 0.41154122, -0.7027962, -0.9805405, -0.91289914, -0.8798665, -0.19064668, 0.21684112, -0.39605716, 0.6631116, -0.2937985, 0.10932123, -0.034886613, -1.0043155, 0.54338425, -0.048732627, -0.36234716, 0.42254812, -0.22793464, 0.07021025, 0.1788994, 0.27789202, 0.08245568, 0.4789188, 0.08905563, -0.2780522, -0.049787596, 0.7216749, -0.46088633, -0.10943559, -0.2171098, 0.055795267, -0.23679142, -0.030034363, -0.7300745, -0.30162647, -0.0422557, 0.04933385, 0.017511178, -0.66571784, 0.7587581, -0.040065557, -0.1254266, -0.49337345, 0.2219556, 0.45411488, -0.6273575, -0.9920398, -0.49533716, 0.059051204, 0.29281843, -0.27511585, -0.3085572, -0.29293454, -0.62687504, -0.108362764, -0.4329057, 0.31514192, -0.47487143, -0.34747398, 0.12910825, -0.2092478, 0.23951992, 0.09367263, -0.33466196, 0.097152576, -0.3847866, -0.31481385, -0.40629995, -0.40767306, 0.5108553, -0.4133342, -0.17673597, -0.4091975, -0.64186263, 0.33496836, -0.22138806, 0.33859658, 0.3463534, -0.27911568, 0.21787752, -0.4486591, -0.39323884, -0.061744556, 0.27288067, -0.667359, 0.15403149, -0.41686445, -0.0804995, -0.27371532, -0.0860724, 0.015560002, -0.15308037, 1.105105, 0.16880548, -0.1693547, 0.72015244, 0.22614278, -0.5156749, -0.30681974, 0.4074875, -0.39810246, 0.8494941, 0.44880435, 0.10871048, -0.22433473, -0.15047379, -0.39604267, 0.28157848, 0.32391366, -0.6182488, -0.36192784, 0.21307611, -0.28366208, -0.1467897, -0.14026898, -0.23390678, 0.32754958, -0.41977125, -0.23639028, -0.8060772, -0.18108219, 0.06530568, -0.08806257, -0.35340104, -0.2591508, 0.27220592, -0.60941, 0.6729395, 0.070386, 0.06528185, -0.52674866, -0.46177992, -0.05175937, 0.539577, -0.25893223, -0.020751132, -0.117368296, 0.12906177, -0.10468413, 0.203251, 0.4964624, 0.048061118, -0.20016652, -0.17622031, -0.123955965, -0.07035114, -0.16672376, 0.0026228502, 0.10424502, 0.6672409, 0.31442443, -0.18640444, 0.6321734, -0.0122260265, 0.3396391, 0.3595264, -0.21396147, 0.07532727, 0.4280377, -0.13641605, -0.03389153, -0.33103645, -0.41392863, -0.27226394, -0.14599867, 0.39413273, 0.14577284, -0.076855525, -0.26900843, -0.060557466, 0.25444156, 0.35451892, 0.07762255, 0.25790384, 0.001197271]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>rheopectic 유체란?</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>시간에 따라 점도가 증가하는 유체를 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>2</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>[-0.14862393, -0.22473678, 0.39022285, -0.29563993, -0.3637837, 0.017201126, 0.08816128, 0.56263566, 0.43667865, -0.18908961, -0.31372634, -0.74947315, -0.40309295, -0.3834599, 0.019518053, -0.4447525, 0.23716763, 0.6445587, 0.7864276, -0.7048658, -0.17133209, 0.67181337, 0.08235486, 0.2553944, -0.21422689, -0.08556646, -0.5025679, -0.36339983, 0.42638978, -0.105687164, 0.18534873, 0.23391184, -0.3324747, 0.211902, 0.5131069, 0.023041692, -0.64328516, 0.0025280563, 0.23084024, -0.46546704, -0.11233167, 0.07898428, -0.5669209, 0.11413519, -0.12584527, -0.33338016, 0.14124489, 0.04103426, -0.15538041, -0.14181757, -0.16622327, -0.34699455, 0.542348, 0.6892334, 0.3377759, -0.4541494, 0.19718951, -0.0060702795, 0.27750343, -0.09042836, 0.61283076, -0.46618503, -0.113339745, -0.13125937, 0.55921185, 0.035655685, -0.50857496, 0.69269973, -0.83450395, 0.64836204, 0.48341298, 0.028086359, -0.19713093, -0.12611887, -0.020669308, 0.21164036, -0.23380467, 0.5269946, 0.014870468, 0.5889564, -0.16480477, -0.31934866, -0.08137161, -0.40699035, -0.38557252, -0.17887913, 0.45631838, -0.4888839, -0.59046626, 0.2566642, -0.27924246, -0.123713866, 0.026088204, 0.40458393, -0.7734257, 0.025772005, 0.029569853, -0.3268837, 1.1125735, 0.56728375, 0.28207844, -0.005129704, -0.7487844, 0.5774101, 0.1397722, -0.06852466, -0.1712564, 1.1023536, 0.7372228, -0.4581368, 0.7878028, -0.31554407, 0.3745238, -0.15564801, -0.17307363, 0.10985675, -0.5527795, -0.18924375, -0.48405346, 0.5684012, 0.5589696, -0.37915593, -0.23660259, 0.34679142, -0.9890127, 0.541464, 0.873298, -0.03369614, 0.41761675, -0.29793403, -0.24163799, 0.12120132, 0.43217665, -0.28617835, 0.22363174, 0.33770913, 0.13811466, 0.41573685, 0.5060001, 0.5981222, -0.59413725, -0.2362602, -0.04020209, 0.14541097, -0.72837865, -0.27836224, 0.1719031, -0.46285766, 0.016836334, -0.9914036, -0.49457365, 0.14462881, -0.92882234, 0.42959708, 0.04482105, -0.46715218, 0.08639872, -0.37395227, 0.45341486, -0.10630663, -0.17616054, -0.2623428, 0.044954695, 0.20591624, -0.20889863, 0.11823177, 0.53640926, -0.12463524, 0.05616852, -0.5867037, -0.19713517, -0.048358515, -0.424502, -0.6755377, 0.12864101, 0.16062841, -0.34162894, -0.0952042, 0.061389666, -0.3769192, 0.1023111, 0.04298314, -0.29676512, 0.31629062, 0.39444137, 0.5149686, -0.2393972, -0.12253978, -0.79230016, -0.29163316, -0.029323256, -0.57712066, 0.15134102, -0.4139699, -0.24413514, 0.7542728, 0.1607987, -0.24959747, -0.32995018, -0.29705176, -0.9641565, -0.23682933, 0.06490858, 0.33157346, -0.18455108, 0.49695954, -0.50946474, -0.13913608, 0.24912235, -0.39217755, -0.5390506, 1.038266, 0.28401378, 0.21280554, -0.3511371, -0.2641207, -0.91342163, -0.25810114, -0.24161741, -0.16410616, 0.39698926, -0.17090778, 0.56959814, -0.44038305, -0.1816566, -0.20008905, -0.21830292, 0.7488185, 0.058504026, 0.18109147, -0.2954114, -0.3364767, -0.3131721, -0.5774125, 0.2155308, -0.20541628, 0.9472619, 0.10714731, 0.033896632, -0.051896304, 0.19343485, 0.4034037, 0.44210905, -0.8023797, 0.4480719, 0.1824257, 0.004139781, -0.27024317, 0.62867117, -0.75059515, -0.15269282, 0.39760247, -0.033389587, -0.20374086, 0.31607273, -0.27164692, -0.10549669, 1.07389, 0.10083357, 0.5649183, -0.378024, 0.023636628, -0.011681387, -0.36270514, -0.16495399, 0.10565271, -0.37245718, -1.050389, 0.5418613, -0.20064552, -0.15658562, -0.5386283, 0.73883915, 0.4545278, 0.020727722, 0.6562831, -0.13565828, -0.14223713, -0.047195427, 0.65044516, 0.5115587, -0.11272373, 0.4493657, -0.11273918, -0.025822053, 0.11784514, -0.0038962732, -0.30736494, -0.34415534, -0.8000204, -0.4007586, -0.24864475, -0.32757217, -1.3928893, 0.030725855, 0.23459306, -0.52370864, -0.05033157, -0.28943667, 0.6746592, -0.02228365, 0.021749262, -0.23712632, 0.5577887, 0.10482039, 0.6442682, -0.508765, -0.029493485, 0.1466495, 0.30373544, 0.48072457, -0.042343926, -0.20631222, -0.22424261, -0.3758461, -0.5434723, -0.06856616, 0.12845023, -0.3290515, 0.16886076, -0.1421772, 0.175339, -0.07600401, 0.10979106, 0.45442754, 0.10232391, -0.32075506, -0.07487778, -0.3663457, -0.38208383, -0.2496449, -0.8045298, 0.2740808, 0.11881266, -0.31396645, -0.62209463, 0.46326298, -0.1513702, -0.10960636, -0.6376802, -0.5187134, -0.12288405, -1.5010909, 0.6959271, 0.28892672, 1.2763598, -0.41122165, 0.25669685, -0.12014155, -0.52470016, -0.26092428, -0.33857182, -0.5351027, -0.10212897, 0.67281044, 0.5317421, 0.5085851, 0.8446175, -0.21136944, -0.58155173, 0.45415702, -0.120437205, 0.22697027, 0.66778374, -0.41864347, -0.14821157, -0.6809782, 0.25858185, 0.017561387, -0.24163413, 0.095429875, 0.012991602, 0.430869, -1.0029432, -0.922577, -0.0018213987, -0.20699735, 0.13238901, 0.08394223, -0.11357615, 0.6660075, 0.81542623, -0.035943333, -0.9355024, 0.18448184, -0.61631334, -0.21003294, 0.0015793279, -0.24331865, -0.006628248, -0.08051832, -0.2941394, -0.629112, 0.5379704, -0.3663146, 0.24544731, -0.25710595, 0.07382529, -0.4808156, 0.2285933, -0.11448143, 0.25492874, 0.17619917, 0.7919458, -0.5442998, -0.047108635, 0.26376957, -0.31508702, -0.73845154, 0.17171142, -0.13246727, -0.06903383, -0.08113408, -0.3588215, 0.2699028, -0.19124092, -0.594149, 0.6752025, -0.0023212195, -0.26056704, -0.045144554, -0.20941338, 0.5822653, -0.10485997, 0.3682533, 0.550922, 0.47387376, 0.353553, 0.10180326, 0.51090556, 0.37329438, 0.02937203, 0.49032125, 0.1602903, -0.25289175, -0.7587492, 0.11613102, 0.13846123, -0.54930985, 0.48037443, 0.5573565, 0.07453447, 0.07379077, 0.21727388, -0.31274956, -0.15297909, -0.24197726, -0.3400728, -0.663382, -0.6728581, -0.22127664, -0.79822624, -0.62466204, 0.6901152, -0.5186001, 0.22128277, 0.22088881, 0.33559635, 0.12307048, 0.39975905, -0.06297178, 0.14335167, -0.0664764, -0.063876756, -0.13362738, 0.5130193, 0.21513572, 0.8243893, 0.21307726, 0.18966033, -0.58588284, 0.03141545, 0.20903654, 0.059426595, -0.16430677, -0.5310441, -0.37336227, 0.5258079, 0.54885083, 0.19771488, 0.1461617, -0.71323377, 0.015013298, 0.055303328, 0.39318854, -0.11634151, -1.1232319, -0.24972498, 0.67133135, 0.29084584, -0.21567023, -0.058421224, 0.22039846, 0.06732435, 1.3715842, 0.45985946, 0.08503083, 0.9967462, -0.0231541, -0.25084022, 0.28251702, 0.48145312, -0.042239435, -0.028590575, 0.035525285, -0.2583526, 0.25784078, -0.26237884, -0.56699914, -0.0576578, 0.1735641, -0.09593593, 0.20458284, 0.5096869, -0.056869626, 0.73012465, -0.31818223, 0.050678313, -0.18341562, 0.15810719, -0.28764042, -0.78075886, -0.45309386, -0.72127074, -0.3664356, 0.108205244, 0.21565242, 0.058489215, -0.33918, 0.2589805, 0.42167717, -0.940951, -0.3251189, 0.29854825, 0.56838787, -0.32209092, -0.61987627, 0.515674, -0.13535233, 0.075864956, 0.38133976, -0.4193407, 0.7486871, -0.5328759, -0.3399991, -0.31108695, 0.2868176, 0.6827266, -0.045296688, 0.18205494, -0.1934093, -0.47606236, -0.59112823, -0.27484593, -0.12206119, -0.48238716, -0.3186416, 0.0142161595, -0.447855, -0.03144954, -0.025967633, 0.053038668, -0.37696454, 0.09139688, 0.062409796, -0.0035730898, -0.13063398, 0.54006064, 0.20337148, -0.17634729, 0.8180822, -0.055723358, -0.100445256, -0.30049485, -0.70933634, -0.5512895, -0.75766027, -0.50693715, 0.11987479, -0.019462163, 0.051160563, 0.44727594, -0.042186346, -0.38540792, 0.47976905, 0.10277234, -0.18854015, -0.28946513, -0.39069653, 0.4809743, -0.34248027, -0.75838935, -0.10931398, -0.00092603115, -0.55619013, -0.6091465, -0.86832607, -1.020604, -0.25215143, 0.24500267, -0.628812, 1.1542922, -0.40525436, 0.15946363, 0.16006644, -0.9445421, 0.23824687, -0.074349284, -0.40115327, 0.49984837, -0.1860096, -0.08258389, 0.42105636, 0.3824891, -0.031289168, 0.26288968, 0.15667906, -0.23247632, 0.20107892, 0.28307852, -0.5794376, 0.12490568, -0.060992144, 0.09955218, -0.2383879, 0.025726264, -0.76867336, -0.12844057, 0.16869332, 0.106585644, 0.1252152, -0.39746702, 0.5322553, -0.21854694, 0.011318582, 0.25118136, 0.353817, 0.51007, -0.49915242, -1.0460305, -0.18427122, 0.1755162, 0.52305937, -0.087289646, -0.23408449, -0.19763175, -0.5290773, 0.4394389, 0.031424534, 0.1505817, -0.5355894, -0.7462715, 0.2116323, 0.189464, 0.22336908, 0.23451181, -0.6657892, 0.016968315, -0.11990497, -0.01391207, -0.21443336, -0.3807052, 0.0020820573, -0.5170047, -0.3551143, -0.08699866, -0.2640241, 0.1615417, -0.11601535, 0.41806087, -0.054766007, -0.5338489, 0.122194454, -0.12624234, -0.45344868, -0.33762783, 0.2717496, -0.3482439, 0.2201312, -0.06897499, -0.079083584, -0.22112262, -0.1739684, 0.2957615, -0.8221618, 1.64475, -0.05822457, -0.026266973, 0.14681116, 0.3073266, -0.2197179, 0.12944134, -0.107640825, -0.6922842, 0.7456363, 0.25756744, 0.13854115, -0.054266162, 0.58068156, -0.21591565, 0.23248224, 0.13924533, -0.754909, -0.62347186, 0.20989776, -0.49817285, -0.47185454, 0.08858042, -0.30327165, 0.76673853, -0.12294982, -0.13088094, -0.4406685, 0.10671778, -0.21536537, 0.2819956, -0.74416167, -0.23941922, -0.109293476, -1.0403587, 0.3449312, 0.5491701, -0.07474802, -0.500237, -0.4575839, 0.1628329, 0.52278113, -0.1330699, 0.17981203, 0.19361398, 0.4588639, -0.24928614, 0.22266988, 0.47898778, 0.16360524, -0.05664171, -0.038482275, 0.31240147, -0.10682569, -0.35406542, -0.13529247, 0.19421312, 0.38015118, 0.14016014, 0.04094603, 0.61719954, 0.23606125, 0.29541582, 0.17748532, -0.32831797, -0.06541013, 0.24115029, -0.26173848, -0.24655744, -0.28444862, -0.044791676, -0.65825504, -0.28137046, 0.9184448, 0.111601695, -0.2857322, -0.4519085, -0.13333958, 0.17841348, 0.116884254, 0.102235876, 0.24046846, -0.21572626]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>점탄성에서 G'의 의미는?</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>시료의 탄성을 나타내는 계수입니다.</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>2</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>[0.13330844, -0.43879673, 0.67840624, -0.1319996, 0.50785947, -0.031485293, 0.23114507, 0.103497475, -0.12006935, 0.14055355, -0.07789039, 0.03429806, -0.838543, -0.5644291, 0.14063537, 0.29622054, -0.29601115, 0.21584988, 0.08926388, -0.24787916, -0.59411937, -0.14246026, 0.58828914, 0.0046361997, -0.4156222, 0.30797276, -0.082182735, -0.30515108, -0.08661521, -0.4579713, 0.3012706, -0.16605464, -0.24941511, 0.24402402, 0.23418236, -0.2330058, -0.6790176, -0.67640895, 0.57670623, -0.11540096, 0.20530562, -0.57189167, 0.06341449, 0.7155836, -0.058309603, -0.40022632, -0.23286296, -0.069244325, 0.23257236, 0.6783981, -0.6085175, 0.23566253, 0.57753825, 0.06842584, 0.18773323, -0.4961393, 0.49216554, -0.9940155, -0.10561844, -0.14546633, 0.52326643, -0.85465926, -0.34733292, 0.769211, 0.19528799, -0.05558157, 0.4725224, -0.2951079, -0.47811258, -0.14037164, 0.0034521532, 0.33165872, 0.41254437, -0.13239236, 0.6338629, -0.066590555, -0.083339036, -0.3708148, 0.40090236, 0.34900644, -0.23986274, -0.31143984, -0.49658486, -0.62483025, 0.021571502, -0.7472872, 0.34441838, -0.3216789, -0.06758218, 0.29076174, -0.8930337, -0.47107258, 0.1344481, -0.0921972, -0.8411195, -0.6003892, -0.024399316, -0.42594144, 0.54795235, -0.4157728, -0.46024868, 0.59252185, 0.014108085, 0.6592485, -0.16064839, 0.02080337, -0.11937723, 0.6064262, 0.64500016, -0.5512996, 0.3591917, -0.16159256, 0.31207356, -0.08940969, 0.8200419, 0.45715117, -0.341489, 0.09311534, -0.0075407685, -0.28998175, 0.27031055, -0.7660926, -0.72344035, -0.44504237, -0.088924825, 0.13553895, 0.47493944, -0.5374511, 0.15087155, -0.118317164, 0.2302175, 0.14239289, 0.850805, 0.39803043, 0.023139844, -0.095611624, -0.29717764, 0.015448279, 0.32492924, 0.1927317, -0.154776, 0.31090167, 0.07073942, -0.0041188723, 0.065205656, 0.17647146, 0.17414503, 0.3337905, 0.18211131, -0.18953826, -0.15976217, -0.12688577, -0.88768655, -0.18054233, -0.22366665, -0.30182993, 0.27560604, 0.069730476, 0.21849532, 0.12869686, -0.031824656, -0.90269154, 0.10246151, -0.19910805, 0.073542915, 0.19752079, 0.1447369, 0.014935945, -0.433122, -0.2709175, -0.3887526, 0.027746184, -0.67276865, -0.049892087, 0.77346367, 0.40368664, 0.03287223, 0.32225916, -0.20082547, -0.48616004, -0.53149295, 0.45846477, -0.14586838, 0.80400604, 0.13582808, 0.21860002, -0.024126614, -0.056919083, -1.0966802, -0.524968, -0.6037475, -0.12014564, -0.048753947, 0.26571488, 0.1705335, 0.5563092, 0.1496407, -0.40631747, 0.2222474, 0.2232319, -1.1085567, 0.576093, 0.20714845, 0.7655971, 0.5923893, 0.58851177, -0.24365522, -0.6316253, 0.71645665, -0.2770098, 0.8784774, 1.0579637, -0.21625906, -0.13076873, -0.49440518, 0.806252, 0.14682294, -0.24778222, -0.36620358, -0.35562965, 0.28973678, 0.09284311, 0.4444926, 0.08122467, -0.054132868, -0.18949883, 0.5660034, -0.24779147, -0.13066506, 0.19574614, -0.21444048, -0.5459187, -0.90408033, -0.4163572, 0.630549, -0.021799626, 0.258535, -0.16509463, -0.043425035, -0.30526754, 0.4358344, 0.22512214, 0.270089, 0.1559679, 0.123989314, 0.046260465, -0.0676195, -0.6044131, 0.40251422, -0.51524335, 0.17123847, 0.78491896, -0.0115426155, -0.5101197, 0.22095849, 0.3616259, -0.4795623, 0.3651239, -0.3250008, -0.19906871, -0.3125126, -0.21063024, 0.44549325, 0.34149647, 0.06629431, 0.24130483, -0.15939592, -0.31370842, 0.29251853, -0.43323472, 0.10351805, -0.665808, -0.21637075, 0.13973103, 0.16515444, 0.2963424, -0.5932415, 0.3416821, 0.30187166, 0.6665554, -0.2782461, 0.15910675, 0.3426572, 0.16922496, 0.36593986, -0.23645149, 0.2833087, 0.13126308, 0.23008709, -0.44225666, -0.04861769, 0.3011932, 0.47988316, -2.1687548, -0.17285989, 0.09124607, -0.34937513, -0.8251395, -0.07598199, 0.09694139, 0.7186565, -0.62845963, 0.11688203, 0.06470763, -0.2045375, 0.3802551, -0.16388823, -0.23014218, -0.074242026, 0.9568036, -0.10602403, 0.06375272, -0.61369807, 0.059014905, 0.59956443, -0.3396409, -0.14372094, -0.16173328, -0.01757574, -0.11582122, -0.2693201, 0.19067329, -0.20654906, 0.41233838, -0.013830207, 0.34912255, -0.11336169, -0.011548228, -0.27266717, 0.366349, -0.5592533, -0.7732497, 0.33465263, 0.27180037, -0.12832376, -0.67327136, 0.13978551, -0.82291704, 0.33600554, 0.37916696, 0.6384879, -0.20609327, -0.78384715, 0.30126947, 0.53629804, 1.3563589, -0.34064624, 0.0010857383, 0.29381952, -0.07348568, -0.051837698, -0.44608846, -0.3563786, 0.6766436, 0.43339193, -0.29174927, -0.015609324, 0.41285083, 0.5028953, -0.2871338, 0.63190836, 0.44566378, -0.23504986, 0.3030469, -0.2855661, -0.5037661, -0.018995827, -0.6240498, 0.28092822, 0.027026089, -0.23253196, -0.14408289, -0.24618292, 0.11770622, -0.9526875, -0.012886614, -0.15176454, -0.022902017, 0.31134292, 0.2414908, 0.0036860008, 0.32471493, 0.29930925, -1.4248081, 0.3734679, -0.024824614, -0.09507853, 0.63043386, -0.07815354, 0.03319001, 0.011201779, 0.41864333, -0.07332786, 0.019398691, -1.1922742, -0.49779415, -0.04030825, 0.36783198, -0.2707995, 0.25000796, -0.11458326, 0.23050351, -0.45165423, 0.09542646, 0.102723695, -0.15478218, 0.6075261, 0.018752405, -0.4780569, -0.17358471, -0.4321035, -0.21941711, -0.5065036, 0.18646891, 0.344445, -0.12902541, 0.13567384, 0.11849105, -0.66109985, -0.19610955, -0.91207665, -0.08444303, 0.5441289, -0.4511381, 0.36394677, 0.13738407, 0.4586271, -0.075806595, 0.5614781, 0.029432824, 0.2493027, 0.15393825, 0.5830084, 0.09691157, -0.24123424, 0.12935688, 0.41623107, -0.41226315, -0.0099064, 0.06985276, 0.25742975, 0.16770709, 0.29284325, -0.3841398, -0.03256649, -0.59827894, 0.064683184, -0.0026599069, -0.8148853, -0.3842653, -0.114383034, -0.85501117, 0.0030908932, 0.29344818, -0.59398896, 0.2872676, 0.6186004, 0.12646985, -0.11223316, 0.49167407, -0.60878855, -0.20913494, 0.37842903, -0.4003645, -0.34540614, -0.21820249, 0.14046092, -0.20081909, 0.33944738, 0.49025515, -0.6908389, 0.09648996, 0.057511225, -0.38788435, -0.42915812, 0.018156953, -0.16878594, 0.5220259, -0.7732804, 0.6048908, -0.42588222, -0.44146165, -0.1675585, -0.42547855, -0.0118345795, -0.40175608, -0.38178554, 0.21283515, -0.109829344, 0.35351124, -0.91908675, -0.15723799, -0.09026743, -0.15125437, 0.056518298, -0.27674454, -0.431947, 0.32592565, -0.059323777, 0.30066046, -0.03801621, -0.026021818, -0.1410103, 0.23738076, -0.29719523, 0.49457812, -0.16790694, 0.10701776, -0.675015, 0.70551103, -0.5000158, -0.1962272, 0.42200541, 0.008995901, -0.11853427, 0.17220815, -0.3097629, -0.28279445, 0.42657447, 0.34674838, -0.5658983, -0.028738597, -0.086734116, 0.29184303, 0.0018455405, 0.1012462, 0.11165031, 0.061757296, 0.008058399, -0.044701204, 0.11348704, -0.35343394, 0.4500216, -0.19049947, 0.310286, -0.10048353, 0.012597525, -0.2558593, 0.19080462, 0.28490642, -0.38684073, -0.34192526, 0.830308, -0.6037917, 0.46993294, -0.7408488, 0.24058717, 0.2458599, -0.203961, -0.2868111, -0.7465438, -0.5254813, -1.0419663, -0.4968371, -0.46297047, -0.14535145, 0.07589359, -0.15105595, -0.55168545, 0.31446913, 0.35450736, 0.7291954, -0.10316802, 0.05646952, -0.6768294, -0.18028043, 0.75897425, 0.38552356, -0.120263256, 0.22722663, 0.1828381, 0.03625171, 0.07407203, 0.4596521, -0.6533274, -1.065841, -0.6812617, -0.15737617, -0.23128663, -0.8329234, -0.348665, 0.12255952, 0.5064765, -0.2134238, -0.21460636, 0.6832316, -0.070499904, 0.084062956, 0.3047151, 0.24996543, 0.17271876, -0.23880303, 0.24279821, 0.9077992, -1.4280723, -0.50113946, -0.35732558, -0.34911057, -0.043488953, 0.11030883, -0.17132026, 1.030714, 0.0035579738, -0.26594678, -0.6372919, -0.32923725, 0.50738794, 0.14216317, -0.39575973, -0.009708135, -0.041469637, -0.020535259, 0.4143974, -0.72757334, -0.7382209, -0.41565064, 0.30556217, -0.5635736, -0.48242489, 0.3553414, 0.054853737, 0.07777342, -0.5422409, 0.020203114, -0.525758, 0.042805225, -0.35787818, -0.082441054, 0.2621993, -0.78339034, 0.44425714, -0.49859408, 0.44734773, -0.0073061786, -0.41795576, -0.11227304, 0.40994775, -0.1497368, -0.42738152, -0.7098069, -0.13083968, -0.15771385, 0.019714741, -0.016704349, 0.16270627, 0.10540191, -0.53800005, -0.39458606, -0.20281516, -0.22295879, 0.18103635, -0.039247695, -0.017285943, -0.7152693, 0.8544139, -0.080000006, 0.2652911, 0.23589194, -0.34972855, 0.33544305, 0.054689903, -0.11376191, -0.14007945, -0.288818, 0.16667366, -0.72685665, -0.54874843, 0.053494036, 0.24539965, -0.008246892, 0.08795611, 0.19194363, -0.13749026, 0.4432298, 0.034049485, -0.3067343, 0.28723833, -0.07751507, 0.7221946, -0.13040082, 0.29907143, 0.29264823, 0.0602767, 0.26464412, -0.70892817, 0.9807639, -0.63332385, -0.028703561, -0.2833803, -0.43059316, -0.60169846, -0.1469971, 0.31078422, -0.61767143, 0.9714954, 0.47236875, -0.15126894, 0.30073324, 0.0053394907, -0.11090208, 0.30203927, 0.017776297, -1.0027575, -0.3630412, 0.33928087, -0.12175322, -0.34811786, -0.088208646, 0.36777356, -0.18742861, 0.09625473, 0.7440123, -0.4576809, -0.2888292, 0.22705819, -0.13012135, 0.3048388, 0.28254837, 0.07723021, -0.6604994, 0.12113186, -0.47547758, 0.15990631, -0.6012887, -0.00771245, 0.08413321, 0.0813328, -0.5396609, -0.22076122, 0.37947324, -0.11728338, 0.26411533, 0.2833962, -0.14426054, 0.50713235, 0.2710025, -0.69191146, 0.7980943, -0.8829479, 0.02549605, -0.050514612, -0.0909099, -0.32338, 0.12126533, 0.65069, 0.45690045, 0.29833373, 0.026443312, 0.0028971396, 0.31874892, 0.033472646, 0.04276071, -0.7285462, 0.45167446, 0.28495035, 0.3487195, -0.5884389, 0.30449024, 0.60252804, 0.16432756, 0.15088779, -0.18127684, -0.5493378, 0.49598742, -0.140056, 0.2167511, 0.0011128845, -0.22028077]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>점탄성에서 G"의 의미는?</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>시료의 점성을 나타내는 계수입니다.</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>2</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>[0.17417584, -0.41506994, 0.6319973, -0.15369618, 0.42257607, -0.027380561, 0.2758268, 0.09901672, -0.10803065, 0.026165709, -0.10784388, 0.03781012, -0.80259395, -0.57757765, 0.14039429, 0.26406667, -0.28940156, 0.1548353, -0.0383439, -0.18355127, -0.6444661, -0.16582762, 0.4533181, -0.011417278, -0.4124432, 0.32458684, -0.13861994, -0.20011514, -0.12482301, -0.43942007, 0.36038724, -0.12899333, -0.25386256, 0.29380774, 0.15000544, -0.2743806, -0.6256201, -0.7190635, 0.6647293, -0.13920808, 0.1218459, -0.51809305, 0.10681811, 0.721426, -0.08779952, -0.45361122, -0.26219136, -0.18461108, 0.31385028, 0.73609823, -0.5448306, 0.20679532, 0.6387976, 0.10118628, 0.2049552, -0.46888575, 0.490706, -0.985387, -0.060043667, -0.30027875, 0.53647715, -0.87616414, -0.46197736, 0.83483094, 0.25592357, 0.0080770105, 0.5140583, -0.29148135, -0.43131676, -0.21094614, 0.09160262, 0.28666356, 0.294688, -0.2511679, 0.7481739, -0.10341973, -0.07337144, -0.33445492, 0.49503168, 0.32069147, -0.15126254, -0.15216075, -0.45811734, -0.6967454, 0.025792984, -0.81440544, 0.32790902, -0.50479394, 0.0049145645, 0.18456145, -0.84257317, -0.44755352, 0.118520655, -0.12693685, -0.66346747, -0.64983815, 0.00061663985, -0.4128325, 0.58222836, -0.41534153, -0.42139876, 0.57740265, -0.018812763, 0.65798986, -0.15466888, 0.16451667, -0.20894243, 0.5474946, 0.60185, -0.6330878, 0.26090845, -0.12791361, 0.3604752, -0.037550043, 0.85856754, 0.41497812, -0.30390808, 0.10236987, -0.08638698, -0.23558326, 0.32865402, -0.7535276, -0.52524775, -0.36736265, -0.0272588, 0.0018566301, 0.5211012, -0.5085915, 0.18900412, -0.07931635, 0.22411937, 0.13892867, 0.920635, 0.3311878, 0.069570936, -0.28203335, -0.30487525, -0.023883304, 0.38160655, 0.17786284, -0.14919917, 0.23102899, 0.07947885, -0.14951892, 0.02191066, 0.26717335, 0.13273841, 0.36410728, 0.22300196, -0.0946132, -0.20924544, 0.024614604, -0.91435456, -0.34969676, -0.21964256, -0.26370862, 0.32207492, 0.06294376, 0.1989014, 0.053936586, -0.109588325, -0.8525154, 0.103025414, -0.35785422, -0.054094505, 0.19680099, 0.056925636, -0.026857182, -0.42216244, -0.23304255, -0.42790258, -0.005647503, -0.62411624, -0.030097937, 0.83307266, 0.34524512, 0.05003338, 0.42186782, -0.20447637, -0.53288096, -0.56625646, 0.44785976, -0.12925443, 0.86158323, 0.101184875, 0.18456233, -0.0038165834, -0.19327398, -1.0137562, -0.53133816, -0.54593176, -0.0895707, -0.08058167, 0.1889996, 0.1779868, 0.64447016, -0.0135894595, -0.37176982, 0.3873792, 0.27209595, -1.0496116, 0.47796977, 0.17779554, 0.8450598, 0.54859525, 0.6588977, -0.25737336, -0.66683793, 0.6915787, -0.31760588, 0.93150663, 1.0348096, -0.3305268, -0.15551858, -0.45463607, 0.7265734, 0.13340254, -0.23196733, -0.3974901, -0.35747373, 0.32372066, 0.053131863, 0.52348715, 0.052016407, -0.083051264, -0.25091016, 0.6514055, -0.21551704, -0.10969769, 0.07916992, -0.19901295, -0.59864134, -0.8777427, -0.4191668, 0.6249443, 0.046711873, 0.2781592, -0.17101116, -0.019228214, -0.38227975, 0.46147844, 0.13060312, 0.34510997, 0.07407775, 0.16319795, -0.07437532, -0.015108368, -0.67755276, 0.40901217, -0.55669856, 0.15296143, 0.9794662, 0.024889918, -0.5085822, 0.33002922, 0.28071678, -0.40574816, 0.37857798, -0.38127652, -0.19568788, -0.2700934, -0.22268651, 0.43906698, 0.30973148, 0.15075196, 0.1928473, -0.19045885, -0.26592502, 0.31133613, -0.25936404, 0.16421905, -0.70248705, -0.16222325, 0.16738789, 0.15731855, 0.2428934, -0.5102209, 0.34451845, 0.35559872, 0.61672205, -0.2361115, 0.12868747, 0.33696046, 0.17263307, 0.28317508, -0.36685255, 0.27305022, 0.17383225, 0.39535713, -0.47074613, 0.011034747, 0.29293954, 0.5152752, -2.318428, -0.21441476, 0.12609415, -0.34865436, -0.8319003, -0.22416508, 0.06895539, 0.7912348, -0.52633363, 0.16346055, 0.09711204, -0.2587873, 0.45751646, -0.22708796, -0.24256219, -0.11217004, 0.88529754, -0.14090703, 0.06447125, -0.52983683, 0.024803951, 0.6962907, -0.43139938, -0.004870765, -0.22730523, -0.14291067, -0.15683855, -0.23944174, 0.13409169, -0.26572523, 0.47346452, -0.07553645, 0.32189324, -0.070637055, -0.17342366, -0.33325723, 0.43379536, -0.66630095, -0.7531693, 0.35240445, 0.24349761, -0.24381824, -0.60199064, 0.14400981, -0.9584808, 0.28378478, 0.6012012, 0.58015203, -0.16586007, -0.66129917, 0.29810193, 0.5592975, 1.4246551, -0.33291814, 0.06895884, 0.21829082, -0.1271521, -0.11949155, -0.42254996, -0.40964547, 0.6804537, 0.55251914, -0.23022437, 0.13987863, 0.38294634, 0.50962067, -0.36176714, 0.543105, 0.5843389, -0.09461903, 0.24434596, -0.26899824, -0.63199705, -0.11046598, -0.5712506, 0.14818178, 0.06784723, -0.31397668, -0.18858342, -0.19418927, -0.0044909664, -0.8037893, 0.03000001, -0.34419522, -0.008301611, 0.33733872, 0.26996574, -0.01195149, 0.22688818, 0.23760307, -1.3889009, 0.44492972, -0.031109026, -0.07434071, 0.66360086, -0.17351252, 0.051131796, 0.03390434, 0.3876041, -0.15798192, -0.011916079, -1.0881323, -0.6204114, -0.010367022, 0.3131565, -0.36078382, 0.24800074, -0.16504873, 0.11031159, -0.37446913, 0.036124524, 0.124700755, -0.25508416, 0.54887015, -0.013060134, -0.45416555, -0.20558447, -0.36367404, -0.090243824, -0.5470731, 0.24878442, 0.46851608, -0.1562028, 0.10606519, 0.025248831, -0.5956412, -0.030572966, -0.9829064, -0.050517827, 0.5314477, -0.3539088, 0.4157056, 0.057560295, 0.5724499, -0.026399627, 0.5624272, 0.00840484, 0.3363184, 0.14546391, 0.603744, 0.0835085, -0.33751464, 0.041198734, 0.51117706, -0.354007, -0.049119473, -0.08518111, 0.30393347, 0.17509957, 0.35450912, -0.49423477, -0.24734503, -0.61850905, -0.018767305, -0.08989871, -0.7642059, -0.42683795, -0.028973343, -0.7808809, 0.015124325, 0.20077617, -0.6417344, 0.26104507, 0.6516385, 0.17490947, -0.13668431, 0.40288544, -0.5983673, -0.31615415, 0.3165603, -0.4156585, -0.27945107, -0.1570405, 0.15054494, -0.19350196, 0.25369492, 0.54343647, -0.57053447, 0.15718015, 0.18308169, -0.22332771, -0.4463468, -0.108815014, -0.33423316, 0.5676066, -0.74282855, 0.5402966, -0.3083339, -0.5455851, -0.090042055, -0.38026062, 0.15921393, -0.5286012, -0.3448181, 0.18670116, -0.059272915, 0.39313102, -0.9441038, -0.17070521, -0.08586859, -0.09293869, -0.00867391, -0.30887067, -0.3855368, 0.38764906, -0.044133503, 0.38336614, 0.09141334, -0.08085158, -0.113044105, 0.36523998, -0.3311147, 0.4628408, -0.16534767, 0.13039671, -0.4896066, 0.70875937, -0.5062478, -0.16317101, 0.33951685, 0.017835675, -0.1010809, 0.12420943, -0.299728, -0.2175144, 0.4401027, 0.33895335, -0.6137309, -0.13097028, 0.009685584, 0.24204709, 0.12658401, 0.16908298, 0.13674481, 0.014921586, 0.028612887, -0.03354682, 0.06476016, -0.22987841, 0.40412125, -0.20167851, 0.379656, -0.07922927, -0.039212227, -0.2553561, 0.16407144, 0.22504608, -0.46002963, -0.28826627, 0.6727105, -0.6025617, 0.44594085, -0.7364221, 0.29284316, 0.15169854, -0.2208146, -0.303487, -0.807832, -0.61770076, -1.043581, -0.52351344, -0.4025457, -0.043057185, 0.12929288, -0.038276237, -0.45246127, 0.32407495, 0.432238, 0.7415974, -0.07050629, 0.047984954, -0.6112126, -0.1489656, 0.8085126, 0.44100502, -0.097758, 0.15902543, 0.20706183, 0.017008828, 0.15736975, 0.40202415, -0.76044774, -1.0221523, -0.728378, -0.17053436, -0.15536417, -0.97509533, -0.32240474, 0.17546427, 0.5114992, -0.15629111, -0.18250865, 0.6785977, -0.13895537, 0.16870016, 0.24800868, 0.2490436, 0.26081946, -0.36795273, 0.30654287, 0.9202523, -1.2477857, -0.58833075, -0.33875537, -0.30330458, -0.051834766, 0.1322289, -0.11635661, 0.90589935, 0.16645698, -0.31263232, -0.67538077, -0.29091772, 0.48104736, 0.2123173, -0.4325963, 0.13308398, -0.056844722, -0.04557033, 0.3804517, -0.8059539, -0.6360225, -0.5329414, 0.22725534, -0.51318836, -0.52183086, 0.4377328, 0.023667475, 0.10078424, -0.5118766, -0.005275441, -0.44726446, -0.010405075, -0.2539875, -0.18702298, 0.32107553, -0.77306885, 0.42638588, -0.46231174, 0.46577683, 0.11071663, -0.44288674, -0.17322521, 0.29888144, -0.14773977, -0.3577082, -0.76420313, -0.13278599, -0.23765464, -0.00017464161, -0.037835464, 0.15735598, 0.029847227, -0.5071784, -0.37344733, -0.24354446, 0.032090474, 0.2285282, -0.043593377, -0.052118767, -0.77089757, 0.86395645, -0.06553318, 0.18146767, 0.1814063, -0.33779344, 0.30189583, -0.097478054, -0.093829416, -0.13672768, -0.2669464, 0.17974289, -0.75743365, -0.5038745, 0.11007201, 0.24215658, -0.04418345, 0.06844454, 0.3056799, -0.13497555, 0.51894957, 0.055533674, -0.34703186, 0.27206573, -0.11689416, 0.6234564, -0.1924559, 0.30978477, 0.29784825, 0.19176807, 0.20155753, -0.6768995, 1.0537381, -0.60029525, 0.054647777, -0.2871267, -0.3122329, -0.4423531, -0.084548004, 0.29412392, -0.5877914, 0.9396563, 0.4574373, -0.0778308, 0.29939374, -0.0017984671, -0.12435942, 0.24248461, -0.065353334, -1.0615293, -0.21572375, 0.31184772, -0.117056884, -0.40597376, 0.011572353, 0.3624315, -0.40997168, 0.04468815, 0.6585104, -0.5032878, -0.2962359, 0.2950324, -0.106665246, 0.31825075, 0.20606913, 0.053124234, -0.7767578, 0.029547201, -0.41091207, 0.19773154, -0.70741034, 0.0133957155, 0.14314212, 0.0665699, -0.5717353, -0.2410534, 0.3382957, -0.13807169, 0.111740924, 0.27089018, -0.14460954, 0.52878517, 0.29831222, -0.6891349, 0.77181107, -0.8389907, 0.11414149, 0.07081058, -0.10572705, -0.4633795, 0.15364555, 0.70356035, 0.5334855, 0.24783225, -0.033796594, 0.15859719, 0.21600832, -0.030269012, 0.11729499, -0.7509756, 0.6084637, 0.2558768, 0.18335272, -0.5878816, 0.3360577, 0.5148522, 0.26913413, 0.22811933, -0.20146972, -0.5206225, 0.49163154, -0.218924, 0.2523946, 0.055650737, -0.2433207]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>storage modulus의 의미는?</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>시료의 탄성을 나타내는 계수입니다.</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>2</v>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>[-0.13983758, -0.1526405, -0.42721078, -0.120658934, -0.42401958, 0.37082747, 0.4922937, 0.21276782, -0.37684906, 0.38559934, 0.06484083, 0.22743885, 0.09504389, -0.048564468, -0.12686105, 0.61406034, 0.2820821, 0.14402275, 0.65734243, -0.672687, -1.0009208, 0.5529584, 0.2604565, 0.8205952, 0.06045566, -0.26963547, -0.4990128, -0.58305424, 0.4766445, -0.59203327, 0.50847363, 0.10622617, -0.24517779, 0.3351951, 0.49349216, 0.025372183, -0.706917, -0.046201874, -0.122944884, -0.4491991, -0.3858082, 0.49940756, -0.56960183, 0.22769153, -0.3129021, 0.19748233, 0.034866903, -0.10594443, 0.042200714, 0.25301474, -0.636159, 0.12271526, 0.51673573, 0.040900603, -0.79835314, -0.37052187, -0.023775024, -0.49241892, 0.08654186, -0.55338377, 0.055521607, -0.7310219, -0.20644711, 0.29569635, -0.018831313, 0.36899045, -0.13068992, -0.17924263, -0.6948798, -0.05476165, -0.19112878, 0.07743911, 0.39749002, -0.46658722, 0.47633067, 0.26547813, 0.14810814, -0.80075663, 0.7257314, 0.2913083, -0.18475516, -0.36014196, -0.05780044, -0.82475954, -0.29697618, -0.2899092, -0.37316, 0.14107452, -0.33430132, 0.41816637, -0.17816623, -0.031981736, 0.17581452, 0.0977262, -0.61997575, 0.35060692, 0.010318178, 0.09713024, 0.68078464, 0.26588717, 0.4094478, 0.8559486, -0.069649346, 0.61729527, 0.5995474, 0.3530431, -0.45858547, 0.29923618, -0.018158687, -0.33493054, -0.29744717, -0.38741007, 0.3832622, -0.39426062, 0.16657461, 0.5058946, -0.3858744, -0.20672226, -0.41870666, 0.4118354, -0.12577488, -0.24968117, -0.8130457, 0.33295763, 0.18956304, 0.47286543, 0.37375557, 0.018587306, 0.29698852, 0.0044874772, 0.1306644, -0.0150680775, 0.17869307, 0.19942027, -0.16764076, -0.51214653, -0.017551085, 0.1092276, 0.04873313, -0.13570476, -0.37461248, -0.12256751, -0.116862595, 0.122946955, 0.17042, -0.50374025, 0.36088967, -0.1467853, 0.47543678, -0.124204665, -0.47351518, 0.34644243, -0.7974207, -0.2097668, 0.28215024, -0.8538149, -0.39210284, -0.28545198, -0.59315985, -0.19210501, -0.5154752, -0.6582292, -0.42650723, 0.34629464, -0.17197756, 0.23098296, 0.38619134, -0.07310671, 0.002983801, -0.67280215, -0.920808, -0.25165984, -0.10567176, -0.024700763, 0.1761198, 0.21170492, -0.20483975, 0.088041, -0.71870893, -0.42823938, -0.6069748, 0.6406862, 0.18811142, 0.6295596, 0.5509713, 0.14132859, 0.09889575, 0.045904826, -0.7190327, -0.26423147, -0.38800785, -0.12434152, 0.1631394, -0.62055784, -0.4204909, 0.59711653, -0.12868972, 0.054289, -0.32453123, -0.2968953, -0.538101, 0.12001804, -0.02336886, -0.009819291, 0.39057562, 0.56237453, -0.35762215, 0.16838376, 0.51174295, -0.36081612, 0.09769871, 0.16337958, 0.15287371, -0.07363641, -0.08152116, -0.46551254, -0.44828284, -0.052327666, 0.18675382, -0.81627685, 0.78245014, -0.59730285, 0.75482374, -0.3738308, -0.115409024, -0.11261577, -0.057546508, 0.31628868, -0.41689482, 0.18227488, -0.06206679, -0.38086048, -0.6628944, 0.63684684, 0.82340384, 0.16846944, 0.702287, 0.3406745, 0.019249462, -0.19052465, 0.50023466, 0.8715367, -0.06732435, -0.07577763, 0.24222536, -0.14852642, 0.54632455, -1.2436259, 0.1296492, -0.7835637, 0.24193585, 0.54650205, 0.07541158, -0.029881818, 0.4219257, -0.92150766, 0.5038825, 0.61189604, 0.27240863, -0.016079003, 0.19291468, 0.29153305, -0.031149874, 0.21312587, -0.22768019, -0.6791792, 0.18263958, -0.92649055, -0.13228334, -0.23758827, -0.06746056, -0.055797253, 0.25271666, 0.49964473, -0.14241056, -0.3884147, -0.3281236, 0.2639424, -0.110154785, 0.077804334, -0.115617774, -0.32682708, -0.17571205, 0.21088512, 0.006196491, -0.23639554, 0.39467052, -0.23055577, -0.031402424, -0.3285197, -0.10121885, -0.083178364, -0.6402587, -1.788848, 0.15031232, 0.12636243, -0.42560104, -0.6684863, -0.32091734, 0.35366663, 0.20176113, 0.5138924, 0.043530088, 1.0093778, -0.34766135, 0.5424915, 0.244412, 0.18519348, 0.2222547, 0.30454823, 0.68958426, -0.42690083, -0.22426601, -0.3113018, 0.16611953, -0.6095657, 0.10247609, -0.1384023, -0.15779863, 0.13087045, -0.3188616, 0.28690916, 0.18512504, -0.43064678, 0.47562265, 0.20498843, -0.69592786, 0.026501872, 0.0477156, 0.15083963, -0.54854083, -1.1794086, -0.23080164, 0.6154488, -0.114699714, -0.21554321, 0.25194165, 0.16558816, -0.022789063, 0.20870371, -0.32093206, 0.19104815, -0.47666693, 0.25248095, -0.15387759, 0.8295118, -0.3043563, -0.47210157, 0.538159, -0.45492736, 0.36373672, 0.068736635, 0.16406101, -0.13541515, 0.7071479, -0.19704628, 0.021758595, 0.20965998, 0.10847619, -0.1157876, 0.7173085, 0.0255811, 0.51811045, 0.20638758, -0.5274123, 0.43403268, -0.78730726, 0.34175023, 0.14144506, -0.15881835, -0.21339233, -0.65083164, 0.21761185, -0.6594258, 0.4318246, -0.025866235, 0.014689177, -0.24253476, 0.06586607, 0.21167819, 0.032954834, 0.30252215, -0.5908357, -0.99603176, 0.3500503, -0.94149417, -0.5213539, -0.09160327, 0.35361794, 0.31133154, -0.10524017, 0.04923742, -0.14022507, -0.18978196, -0.57715136, 0.26535398, 0.25232974, 0.26246428, -0.0046375417, 0.37364075, -0.024414375, 0.061285388, 0.3382345, 0.7508681, 0.23753996, -0.4925183, 0.5478074, -0.18940592, -0.6424586, 0.05782913, 0.08556821, -0.23812072, -0.3328533, -0.20453484, -0.4374483, -0.1078945, -0.27880988, 0.3194177, -0.8662853, -0.15144673, -0.6448016, 0.14107071, 0.8821871, 0.49949682, 0.53834563, 0.6842346, 0.3617495, -0.16363885, 0.61023486, -0.34994042, 0.67337847, 0.045657422, 0.3734409, 0.0074195513, -0.14686467, -0.5855587, 0.007318339, 0.06258139, 0.055493355, -0.28372362, 0.7591536, 0.03738487, -0.35269645, -0.32505706, -0.35957074, -0.23502769, 0.2376328, 0.17878385, -1.20177, -0.7293026, 0.48455712, -0.64109105, 0.47683987, 0.5184878, 0.45413506, 0.047520187, 0.2680056, 0.04096068, 0.18576336, -0.16179591, 0.20242928, 0.39074746, 0.20253628, -0.17581409, 0.30157945, 0.08756872, -0.6871117, 0.038108725, 0.24049051, 0.27984035, -0.38840982, 0.26120552, 0.2951126, -0.0861017, 0.6003402, 0.016470466, -0.27841875, 0.31520772, 0.1293938, -0.65893704, -0.58815295, -0.60874444, 0.52369994, -0.0737097, 0.27545923, 1.0814365, -0.5047516, -0.062252436, 0.13963273, 0.21402782, -0.616004, -0.38543448, -0.022694418, 0.35378286, 0.35987636, -0.74321324, 0.1623698, 0.5338518, -0.6473627, 0.5209591, -0.119241394, 0.11714813, 0.41320083, -0.15209138, -0.06906556, 0.27547053, 0.2889629, -0.028184773, 0.39506766, 0.6927938, 0.10894046, -0.023820257, -0.2649635, -0.013407727, -0.050485745, 0.24433385, -0.36952174, 0.026820382, -0.4196012, 0.43277335, -0.20611012, 0.028791571, 0.053549375, -0.025864875, 0.31347328, -0.2787946, -0.09355366, 0.051069986, 0.34662667, 0.092469245, -0.31805223, -0.0074331816, -0.17434178, 0.15931985, 0.33253196, -0.82344884, -0.22242121, 0.20095186, 0.5022952, 0.29745635, -0.018820865, -0.34664473, 0.10558909, -0.2935429, 0.29938492, 0.38851056, 0.21330875, 0.21700008, -0.030857703, -0.22087602, -0.37583342, -0.4543991, -0.6955621, 0.23524289, -0.55394, -0.107232295, 0.0591906, -0.20067136, -0.27674574, 0.64135253, 0.12432271, 0.012016349, -0.66436356, -0.15957685, -0.64918894, 0.08114397, -0.27089572, -0.17313431, 0.11652037, -0.25493577, -0.28068987, 0.31067362, -0.3337818, -0.15476207, -0.575898, -0.9103913, -0.9433051, -0.42042604, 0.28106555, -0.2603954, -0.11939681, 0.24524303, -0.19458859, 0.16284506, 0.092639126, 0.45168558, -0.66908836, 0.6520557, -0.63435346, -0.28933662, -0.23451303, -0.1693664, 0.09250597, 0.38109717, -0.6327464, -0.5522425, -0.7402231, -0.28208432, 0.17547397, 0.14045113, -0.017441677, 0.48715112, -0.47385418, -0.32957557, -0.5825425, -0.38424373, 0.012714929, -0.10139608, 0.13122039, 0.540531, -0.061484087, 0.28355804, 0.3000733, -1.325612, -0.004896882, 0.102333285, 0.20193648, -0.43093562, 0.1953712, 0.34054244, 0.31817365, -0.00446195, -0.28841045, -0.029162107, -0.3201407, -0.73559785, -0.27813286, -0.0853639, -0.5015099, -0.1520326, 0.48852828, -0.71870357, 0.3014944, -0.31197605, -0.48131308, 0.22387, -0.21656291, -0.063455425, -0.6388772, -1.1098396, -0.4758227, 0.25097966, 0.24674515, -0.36929598, 0.050891906, -0.49627426, -0.5079949, -0.24737136, -0.21232949, -0.22697465, -0.15911457, 0.12718244, 0.278457, -0.53448904, 0.76505995, 0.3097827, 0.1430297, 0.31326285, -0.024976015, -0.018722989, -0.22044075, 0.13445185, 0.020529997, -0.19608052, -0.4160671, 0.29109517, -0.42115745, -0.05183136, 0.40140402, 0.37112105, 0.2974747, -0.49635684, -0.083249755, 0.62330824, -1.0004886, -0.23832162, 0.45103654, -0.39244545, 0.33110234, -0.29722562, 0.19791631, 0.117732555, -0.08996093, 0.2523977, -0.3835763, 1.0865883, 0.0007685342, 0.2151323, 0.17356354, 0.46158043, -0.5457019, -0.22937195, 0.5444712, -0.42050615, 0.89071995, 0.021437287, 0.10453147, 1.2612077, -0.705324, -0.47709668, 0.025607035, -0.0584911, -0.51268554, -0.41362843, -0.6495878, -0.63354707, -0.08858368, 0.09963447, -0.6527656, 0.1165893, 0.790504, -0.15548314, -0.42498708, -0.039669853, -0.10296766, -0.12148395, 0.01827546, -0.66057825, -0.13859384, -0.20540835, -0.046123613, 0.20555253, -0.15501751, -0.60778403, 0.21563745, 0.20795079, 0.40622708, -0.26626024, 0.100432314, -0.02824839, 0.25244394, 0.035362076, 0.40745115, -0.103610635, -0.092948824, -0.39133346, -0.12762675, -0.073109105, -0.38989666, 0.29579112, -0.24230371, 0.20657766, -0.44144383, 0.5482995, 0.55582756, 0.6528148, 0.09994019, 0.73834467, 0.32955816, 0.20844698, 0.076200195, 0.36016735, -0.025908822, -0.16583748, -0.14200574, -0.14153253, -0.9921494, 0.14158656, 0.427713, 0.113544434, -0.24134012, -0.051828504, -0.29914096, -0.36294568, 0.17024301, 0.15705559, 0.34414804, 0.64861673]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>loss modulus의 의미는?</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>시료의 점성을 나타내는 계수입니다.</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>2</v>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>[-0.35174263, 0.28407815, 0.7969498, -0.059903633, 0.0994487, 0.57604575, 0.56213343, -0.25873417, 0.17019686, -0.13508946, 0.061267044, -0.1303188, -0.03602734, 0.0833757, -0.5721523, -0.08223189, 0.049963143, 0.21314572, -0.014559225, -0.24560378, -0.81216437, 0.6728332, -0.07825181, 0.29449296, -0.5023279, 0.19777487, -0.35717842, -0.2908325, 0.4728422, -0.51601624, 0.10532324, 0.27745378, -0.15022893, 0.5767859, 0.60751593, -0.24607654, -0.51617736, 0.55311674, 0.13170248, -0.6731058, 0.03635224, 0.24974889, -0.6558693, 0.2596915, -0.122283794, 0.092526086, 0.31242037, 0.20989999, -0.23774754, -0.123987466, -0.6298111, -0.12949206, 0.7855381, 0.305392, 0.2339804, -0.05005697, -0.0014476153, -0.11817606, -0.17456213, 0.05551161, 0.67149085, -0.92772603, 0.019968456, -0.29017195, -0.16304937, -0.017080752, 0.10792599, 0.3874198, -0.9234684, 0.05158821, 0.018843409, -0.031590566, -0.06074375, -0.06949448, 0.1389335, -0.141457, -0.07439778, -0.3169733, 0.084397696, 0.33612368, 0.24483548, -0.71907365, -0.4546087, -0.80265254, 0.05733708, -0.21998547, -0.2956986, -0.055707064, -0.43731582, 0.42860273, -0.5395673, -0.22269751, -0.11647589, 0.43169305, -1.1179467, 0.070124656, 0.35631955, -0.40474322, 0.7269528, 0.6925739, 0.14377695, 0.21420217, -0.68774277, 0.802908, -0.3296466, 1.0360723, 0.10046818, 0.81638145, 0.09071029, -0.39319932, 0.2366435, -0.18245015, 0.3572889, 0.05839412, 0.63393396, 0.52604735, -0.5911655, -0.0034723228, -0.11120594, 0.13094087, 0.66837, 0.066170625, -0.07703064, 0.24186069, -0.05987034, 0.2686771, 0.30148602, 0.08388967, 0.55185246, 0.2585304, -0.017631434, 0.029544175, 0.40787953, 0.0012407926, -0.072122306, -0.26569676, -0.16832246, 0.5322548, -0.20665936, 0.43095687, -0.6489208, -0.27272633, -0.19231991, -0.44850293, -0.025302203, -0.4409734, 0.30231473, -0.0907575, -0.09374506, -0.575913, -0.3981501, 0.29481313, -0.6909875, -0.36032826, 0.365954, -0.6952419, 0.41215256, -0.11399722, -0.5294537, -0.48677436, -0.24028319, -0.58015066, 0.13027613, 0.467308, -0.33850697, 0.30610582, 0.55701184, -0.27895615, 0.095351934, -0.71290475, -0.57279867, -0.19705734, -0.037088554, -0.7278894, 0.07480298, 0.70124704, -0.35163042, -0.05060389, -0.48733556, -0.035897832, 0.118112944, -0.5458486, 0.112813994, 0.3052839, -0.06346313, 0.4645397, 0.17701948, -0.14825112, -0.90075994, -0.32269722, 0.11686543, -0.3338141, -0.0769332, -0.16822572, 0.051231455, 0.7578985, -0.0080297915, 0.36373168, -0.69033384, -0.04646777, -0.6049934, 0.08066347, 0.21560656, 0.42415172, 0.03351806, 0.42445138, -0.3426766, 0.48020762, 0.65576446, -0.41105464, -0.19611827, 0.8219469, -0.21546474, -0.03812095, -0.21840471, -0.094731204, -0.40277907, 0.09626519, -0.41645956, -0.8134161, 0.9036854, -0.2711147, 1.127591, 0.08503025, -0.39591697, -0.23747382, 0.19235377, -0.0440856, -0.3254321, 0.47791436, -0.05531384, -0.63955826, -0.61683184, -0.55142057, 0.7925865, 0.007488359, 0.8188684, 0.20008345, 0.23559271, 0.031514887, 0.19262265, 1.0084924, -0.09287553, -0.09803036, -0.028814603, -0.112341754, 0.5143808, -0.77651787, -0.14708419, -0.7161852, 0.07416746, 0.4176733, 0.11662977, -0.12985063, 0.25782162, -0.023597287, -0.09078442, 0.43643978, 0.29370216, -0.12740375, -0.49749345, -0.055413105, -0.09084461, -0.1883235, 0.1911967, -0.19940282, -0.24170503, -0.7661095, 0.10938764, -0.06394893, -0.21067911, -0.49672925, 0.12624937, 0.25354254, 0.048117224, 0.47192365, -0.29842302, 0.86994433, 0.4039901, 0.105648085, -0.23517403, -0.02047533, 0.1607782, 0.10270774, -0.21433578, 0.25579488, 0.15890555, -0.5237684, -0.2110768, -0.3900446, -0.5509632, -0.34202862, 0.2795564, -1.9318683, 0.306259, 0.07412988, -0.264299, -0.20073265, -0.32005927, 0.40038967, -0.06793481, 0.3110112, -0.6799396, 0.35755104, -0.16200143, 0.61997473, -0.44682172, -0.31779614, 0.70975226, 0.21184193, 0.71083176, 0.11661145, -0.7621729, -0.20313506, -0.20391607, -0.38580284, 0.048175775, 0.028271621, -0.27919877, 0.10189319, -0.3024026, 0.48261815, 0.25941405, 0.3581653, 0.047337923, -0.11199825, -0.33635998, -0.07795321, -0.46914405, -0.20140897, -0.7501258, -1.0470623, -0.02261771, 0.07931939, 0.27737835, 0.016124243, 0.17040378, 0.27223676, -0.00095927244, 0.6455477, -0.012701019, 0.046908405, -0.5695931, 0.62203544, 0.4005225, 1.0717562, 0.14152224, -0.4944496, 0.06073803, -0.60740995, 0.10651768, 0.10506172, -0.08493472, 0.42569533, 0.43145803, -0.31722137, 0.11968431, 0.47733763, 0.4364439, -0.24875802, 0.63014215, 0.31875646, 0.33904958, 0.7796957, -0.2893359, -0.02455029, -0.6415134, -0.012274057, -0.14156038, -0.17298709, 0.04125377, -0.33366477, 0.003180474, -0.584631, -0.17015414, -0.19605255, -0.3758605, 0.20129575, 0.3074133, -0.6226192, 0.6342207, 0.29130226, -0.55265486, -0.9336187, 0.58535904, -0.9024477, -0.21258011, 0.20440654, 0.22189888, 0.1046245, 0.5582485, -0.25408044, -0.29939958, 0.06078789, -0.37438086, -0.34250912, -0.21802424, -0.3318269, -0.5747966, 0.11156955, 0.19557332, 0.44260266, 0.3335683, 0.48827145, -0.076930955, -0.70486933, 0.6669774, -0.12863733, -0.8281689, -0.21613193, 0.17853284, 0.047797527, 0.17087628, -0.5553871, -0.021348614, -0.20010181, -0.24392204, 0.10464304, -0.40167028, 0.3536248, -0.29801995, -0.06271855, 0.11268802, 0.4036245, 0.59237397, 0.65820485, -0.2705806, 0.046979293, 0.103318356, 0.009652769, 0.17126952, 0.07684632, 0.30047262, 0.26038215, -0.02900595, -0.6145291, 0.26419306, 0.100969404, -0.84140867, 0.16453049, 0.80964, 0.17590684, 0.12788759, 0.5557651, -0.26483372, -0.20314535, 0.17005947, -0.12098174, -1.3626803, -0.72067046, 0.659084, -0.27627182, -0.39625996, 0.09258285, -0.28497484, -0.011503231, 0.38201883, 0.47025022, 0.42343998, 0.0878105, -0.060813285, 0.26508614, -0.13906215, 0.09956494, -0.22213708, 0.33521843, -0.20387363, 0.3524363, 0.12237358, -0.27015403, -0.10077713, 0.17618771, 0.20094548, -0.0043877605, -0.089328095, -0.30981046, -0.5863877, 0.38031933, 0.29591253, -0.05108674, -0.06680101, -0.6836815, -0.23140071, 0.10878355, 0.59101653, -0.111721255, -0.8241434, -0.22661008, 0.51492816, 0.015094611, -0.25969246, -0.26839125, -0.111278415, 0.19265221, 0.9501465, -0.09905727, 0.110394694, 0.43336374, -0.13826984, 0.19214474, 0.7132236, 0.13297452, -0.49223664, 0.10754545, -0.108129025, -0.23840481, -0.08461328, -0.35925853, -0.4571437, 0.18853022, -0.24117695, 0.018832456, 0.083821304, -0.15299061, 0.18590236, 0.19133373, -0.365681, -0.051054712, -0.7266948, -0.25004604, -0.19687948, -0.78184515, 0.27979013, -0.3125949, -0.2050532, 0.20579289, -0.04484911, 0.08344853, -0.23033428, 0.07613122, -0.10594192, -0.90932524, -0.22744703, -0.034636207, 0.2922392, -0.33779043, 0.22993015, 0.0875864, -0.10576579, -0.13218841, 0.32334092, 0.0893601, 0.2677484, -0.061557885, -0.009640203, 0.40780488, 0.060826734, -0.114109226, -0.1556264, 0.1692527, -0.2433527, -0.19444856, -0.43491086, -0.10524242, 0.2747812, -0.2665528, -0.60281605, -0.33252013, 0.32455847, 0.7428321, -0.49360046, 0.16252063, -0.12195624, -0.017147373, 0.12047765, -0.20269856, -0.08824643, 0.5402535, -0.323207, 0.10824298, 0.33212492, -0.0032266027, -0.3481877, -0.035839587, -0.87560767, -0.4845483, -1.180606, -0.4161391, 0.8190845, -0.54591495, 0.5142799, 0.34522352, 0.09591741, 0.33369136, 0.22363223, 0.2746644, -0.4312477, 0.59686565, -0.33192, 0.124107406, -0.25681773, -0.6755893, -0.45980027, -0.35764572, -1.0760453, -0.9653372, -1.2006786, 0.16846985, 0.15690991, -0.0039044658, 0.1864377, 0.40362683, 0.10621783, -0.36993495, -0.53169435, -0.60772836, -0.0058527766, 0.23360445, -0.53495413, 0.46721056, -0.3455959, 0.020232083, 0.73514557, -0.6273146, 0.4258235, -0.06294198, -0.45332882, -0.68531257, 0.38294056, -0.055006966, -0.023035588, 0.55219734, -0.2429396, 0.45871732, -0.38643014, -0.22396976, -0.24098565, -0.4319745, 0.22610341, 0.13039938, 0.17208163, -0.40051138, 0.40013075, 0.43620405, -0.7903726, 0.296664, 0.3852462, 0.05529642, -0.69434744, -0.7993027, -0.32067198, 0.06728761, 0.3599413, -0.52910113, 0.32776058, -0.3080121, -0.48134935, -0.15593772, -0.15570861, 0.171987, -0.5625819, -0.0281696, 0.33413184, -0.3778598, 0.95792174, 0.21366109, -0.11294782, 0.26720607, 0.36574543, -0.13796954, -0.23540267, -0.43352655, 0.589377, -0.38490227, -0.41313478, 0.22688508, -0.7290087, 0.42300022, 0.21794462, 0.34183103, 0.23080902, -0.620123, 0.40276366, -0.010646657, -0.51555747, -0.23201479, 0.776449, -0.18464017, -0.26818618, -0.46795845, 0.3485581, -0.24353065, -0.028679647, 0.30593935, -0.7051813, 0.9922098, 0.044403736, 0.51695526, 0.95240843, 0.39063692, -0.7338041, -0.008024574, 0.23608667, -0.8409691, 0.4459705, 0.26675442, 0.07672325, 0.6316459, -0.15047082, -0.3395266, 0.42429638, 0.15151638, -0.55398923, -0.48613977, -0.0806891, 0.018938381, -0.03378463, -0.38436145, -0.31608632, 0.15595363, 0.3166865, 0.1410042, -0.239283, 0.006940235, 0.31461316, -0.020475749, -0.2373363, -0.83482075, -0.7028933, -0.8703306, -0.12734209, 0.2958382, -0.13992567, -0.82461375, 0.061463308, -0.16564064, 0.38882238, 0.33550832, -0.4281849, 0.04316794, 0.5223021, 0.056916352, -0.06975044, 0.34022906, 0.22742945, -0.5173236, -0.3323096, -0.1419202, -0.48478243, -0.1153437, -0.2829847, -0.13914911, -0.17743307, 0.9101162, 0.118859164, 0.19625473, 0.63709694, 0.19029225, -0.13472313, -0.42172134, -0.08948784, 0.09293988, 0.105937645, -0.35225728, -0.4621209, 0.020351209, -0.8316736, -0.21924792, 0.2571788, 0.32755053, -0.19831362, -0.124918394, -0.62424016, 0.2807179, 0.016683966, 0.07860561, -0.28198072, 0.90256846]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>정성민</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Good-looking guy</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>7</v>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>[0.43198657, -0.24790111, 0.17491087, -0.3031695, 0.4188595, -0.8277206, 0.14745753, -0.030351806, 0.40500337, -0.3953092, -0.38485909, 0.120026946, -0.40180022, 0.16825475, -0.30128127, 0.094088174, -0.47807175, 0.18310587, -0.056517374, -0.99573374, -0.13623315, -0.033810757, 1.4302981, 0.4140883, 0.20910493, 0.33788857, -0.37958544, -0.24625845, 0.2721845, -0.2235739, 0.32721502, -0.15319873, -0.1817951, -0.21886842, 0.8208811, 0.8383654, -0.3596328, -0.7410064, 0.05352603, -0.34231484, -0.5445656, 0.24839218, -0.0730186, 0.84019697, -0.350723, -0.42049247, -0.2602615, -0.31399983, -0.8364146, 0.51564, 0.17469427, -0.6966688, 0.36529312, 0.6321949, -0.02749005, -0.3229003, -0.44671977, -0.5286212, 0.02379192, -0.5043028, 0.011304465, -0.0692533, -0.4252032, 0.6228431, 0.5683771, 0.29895678, -0.07966608, -0.10704062, -0.3393137, 0.25359178, 0.10157557, 0.46538544, 0.45241377, -0.46671498, 0.09679534, -0.41041368, -0.25360063, 0.51826316, 0.92348635, -0.087117225, -0.6359417, -0.31899834, 0.19744545, -0.50321233, 0.608627, -0.23015505, 0.8505778, -0.58656347, -0.2254785, -0.12919997, -0.11513404, -0.106868014, -0.24612668, 0.15748295, -0.094327584, 0.3989541, 0.18655491, -0.2083204, 0.9224565, 0.31916764, 0.6385453, 0.4085266, -0.0045016594, -0.3232766, 0.21969853, 0.40871894, -0.2001606, -0.1368814, -0.5519013, -0.28911266, -0.008913176, -0.7592269, 0.032884263, -0.10944133, -0.3840205, -0.34399945, -0.51765466, -0.30864185, 0.256002, -0.18572256, 0.11399476, -0.17186816, -0.021120228, -0.07499154, -0.8913692, 0.7395593, 0.58487844, -0.672591, 0.3467399, -0.034558494, -0.37576136, 0.22749297, 0.44087732, -0.1819317, -0.75553596, -0.1883482, 0.14763087, 0.35523108, 0.009732202, 0.4525258, -0.037021615, 0.032044683, -0.04636071, 0.29958817, 0.20623125, -0.42583954, 0.72171503, -0.5603849, 0.11937486, -0.21047698, -0.5608658, 0.5844128, -0.018506877, -0.26366457, 0.2021352, -0.27588928, -0.14352736, -0.069952816, 0.72330576, 0.08565347, 0.2014988, -0.40595126, -0.36963302, -0.8119026, 0.0074458644, 0.17829789, -0.35748637, -0.2562492, 0.17717591, 0.14137447, -0.61521935, -0.0019995645, -0.10953987, -0.37209266, -0.0045032287, 0.41186023, -0.006488938, 0.7471414, 0.008436505, 0.35506997, -0.2990879, 0.970902, 0.44925436, 0.88450426, -0.36872986, 0.5509338, 0.17886229, -0.43271652, 0.3831715, -0.5792509, -0.035569258, 0.5062273, 0.077837795, -0.25735232, 0.22203901, 0.21697105, 0.7799597, -0.2899708, 0.38909656, 0.3643026, -0.7486243, -0.13812894, -0.1566219, -0.28603423, -0.50445455, -0.14639376, 0.19001281, 0.056183286, -0.42901188, 0.08513961, -0.031612545, 0.2645074, 0.3191471, -0.08172117, -0.4829839, -0.32084283, -0.32478017, -0.14865883, 0.7044211, 0.2784655, 0.34812698, -0.14364816, 0.54280055, -0.40255678, -0.26204264, -0.49959773, -0.033521112, 0.44987538, -0.23424955, 0.044042088, -0.2011181, -0.10842737, -0.22013187, -0.53685683, 0.22934401, -0.30280566, -0.3663265, -0.36710998, -0.070768595, -0.27588472, 0.14474207, 0.15666625, -0.21528728, -0.20401631, -0.09604825, -0.123841204, -0.16749418, -1.1032612, 0.5544467, -0.8072145, 0.639494, 0.4076633, -0.11377412, 0.051613078, 0.6231073, -0.57419807, -0.036995463, 0.6256316, 0.07122217, 0.16164836, 0.21226703, -0.6709962, 0.1477337, 0.655321, 0.5699861, 0.6035256, 0.36862144, -0.49975842, 1.1234728, 0.47978067, 0.08936149, -0.69068956, -0.12163643, -0.1861145, -0.10752267, -0.06932693, -0.028810322, 0.08119262, -0.091383114, 0.017337572, 0.5421338, 0.366448, 0.30111682, -0.074695885, -0.41129297, -0.1107741, 0.2867189, 0.20651846, 0.2931928, -0.70248973, -0.023190446, 0.41544774, -0.1677557, -2.0457783, 0.6808456, -0.18667716, -0.6132808, 0.2733644, -0.042298265, 0.30272117, 0.3279019, 0.9081663, -0.51734424, 0.18729159, -0.20335387, 0.035475068, -0.19736749, 0.12068942, -0.87170196, 0.57794744, 0.6606428, -0.22988641, 0.27999723, 0.23673318, 0.076303735, -0.53810966, 0.25420102, -0.3556346, 0.036430825, -0.6279106, -0.08475986, -0.1349371, -0.4429435, 0.1890848, -0.17026278, 0.48125595, -0.3016487, 0.024263058, -0.71321714, 0.7505319, -0.53755593, -0.6190677, 0.4104031, -0.16899405, -0.36438686, -0.1968963, -0.08082575, 0.04680342, -0.22274591, 0.53440535, 0.45748192, 0.7637097, -0.2534117, 0.2121222, 0.3324909, 2.7706032, -0.34977522, 0.69893, 0.035544608, -0.03451516, -0.5191159, -0.271887, -0.47312832, 0.018808026, -0.093931176, 0.7567917, 0.7772725, 0.14232752, -0.010538876, 0.24266186, -0.19347534, 0.09900084, 0.077631645, -0.36304373, -0.5544878, -0.35806227, 0.320689, 0.36806, -0.09380672, 0.06587356, 0.23158398, 0.46889424, 0.9067327, 0.08919415, 0.1288359, 0.63265914, 0.17480926, -0.0111141205, -0.24139681, 0.082771204, 0.05842343, 0.76604867, -0.2738095, -1.0918703, -0.18068638, -0.033618346, -0.013072945, -0.14080863, 0.16633539, 0.095720515, 0.022515967, 0.47246987, -0.8403068, -0.45389855, -0.5459521, 1.0350187, -0.452827, -0.79215026, -0.4296981, -0.681319, -0.12609103, -0.09688082, -0.5737277, 0.60689545, -0.29026133, -0.21428743, 0.4734895, -0.1827705, -0.22008629, 0.026831841, -0.9965485, 0.20141973, -0.85805047, -0.20120737, -0.32114685, -0.052587412, 0.67109525, 0.0758844, -0.006708272, 0.023117878, -0.21825007, -0.26969272, 0.6167537, -0.3692725, -0.49551606, 0.13244264, 0.44341016, -0.25724217, -0.5700346, 0.06489715, 0.13497317, 0.18605706, 0.12441493, 0.32425448, -1.0626785, -1.24693, -0.12999195, -0.0879886, 0.13943157, -0.13465478, 0.41574878, -0.36895564, 0.07633642, -0.17922474, -0.23675784, -0.015748352, -0.95232785, -0.13620138, -0.40194285, 0.36032525, -0.26251087, -0.42501712, -0.17273465, 0.05456683, -0.2673336, 0.20232868, 0.034794576, -0.2964149, 0.1863504, -0.4934246, 0.15488169, 0.5420689, -0.33925307, -0.75833684, -0.1606588, 0.57665575, -0.14225462, 0.3734311, 0.061079398, 0.21798792, -0.7672008, 0.10768354, 0.93335056, -0.093752265, 0.21254086, -0.43202552, 0.23699169, 0.3002872, -0.18170926, -0.4931, -0.0639522, -0.39631936, 0.60682005, -0.5565041, 0.8193597, 0.662547, -0.19710161, 0.4242371, -0.21809992, -0.15657075, 0.25355607, 0.43205136, -0.42873457, 0.19617447, 0.061700992, -0.45505863, -0.18203244, 0.021613028, -0.3341192, -0.3048098, -0.8572203, -0.28869602, -0.3581759, -0.6271858, -0.415196, 0.17183298, 0.13994588, -0.23047715, 0.025996588, 0.41773194, -0.03926587, -0.13085349, 0.5102787, 0.24348173, -0.07369508, -0.17119436, -0.7485561, -0.44316047, 0.06741133, 0.24562375, 0.31250834, 0.016122866, 0.48061353, 0.24266954, -0.2912299, 0.26574335, 0.3677189, -0.018764123, -0.40058035, -0.3882331, 0.5263026, 0.41391525, 0.050807443, 0.032195315, -0.08418515, 0.1995984, 0.18092935, -0.012335479, 0.16505441, 0.25760332, 0.024164766, -0.075723, 0.49399388, -0.49779096, -0.10489498, 0.41268978, -0.22559215, 0.25076532, 0.22074029, -0.74054146, 0.08767635, -0.33770365, 0.086570404, 0.058798864, -0.48936743, -0.3611582, 0.15920262, -0.7369316, -0.41392797, 0.37321317, 0.05539787, 0.2594112, -0.008581867, 0.14053991, -0.6927973, -0.56422824, 0.281645, 0.46496734, 0.57974195, -0.052059766, 0.30794924, -0.11403513, 0.14872617, 0.2092605, 0.15210144, -0.92400587, -0.7305512, -0.62111926, 0.17065765, -0.117934465, 0.40848202, 0.13439272, 0.23105033, -0.51606745, 0.193581, -0.21357611, 0.19349934, -0.0032459348, -0.560245, -0.18620421, 0.101774365, 0.17550261, 0.37507844, 0.004197823, -0.1269943, -0.074520014, -0.1812606, -0.4996947, 0.5950222, -0.028195523, -0.054845367, 0.3508955, -0.05256573, -0.25812215, -0.48035985, -0.0548397, 0.5891114, -0.9587176, 0.14874431, -0.2890654, 0.2954389, -0.057119165, -0.539713, -0.30942553, -0.14306104, -0.46286133, -0.18328865, 0.10539861, -0.17839593, 0.49154046, 0.6629013, 0.17469345, -0.34262055, -0.14228213, -0.16121082, 0.15398546, -0.05441832, -0.97085446, -0.20117247, 0.007951771, -0.1551055, -0.3267923, 0.03178037, 0.5071892, -0.05726754, -0.64772236, -0.14490326, -0.49852234, 0.33663136, -0.9297159, 0.1932338, -0.19250366, -0.4284654, -0.77434963, 0.01849389, 0.54204345, -0.42376307, 0.2358179, -0.3014575, -0.11209515, -1.1344053, -0.89937055, -0.5160595, -0.70919514, 0.4705681, 0.00829147, 0.16168563, 0.31783497, -0.5165868, 0.613538, -0.44572654, 0.39720613, 0.2789627, -0.069756925, 0.20242965, -0.27561477, -0.8297365, 0.13243301, 0.23552947, 0.09663392, -0.055139385, -0.10820079, -0.05906146, -0.43559617, -0.41158685, 0.11332576, -0.21289888, 0.12369994, 0.13826916, -0.5600495, 0.5324366, -0.10917119, -0.5252134, 0.5391221, 0.21862078, 0.59214383, 0.29834655, -0.29856536, 0.5231565, -0.85640335, -0.15284058, -0.3163088, 0.52036995, -0.7924765, 0.1252521, 0.6406524, 0.04311299, -0.45070782, -0.089434154, 0.010852927, 0.32812974, -0.54264337, 0.07121763, -0.45188344, -0.038838156, 0.23037553, -0.48190597, 0.17783862, -0.301548, 0.10371765, -0.9677471, -0.27330452, -0.49160627, 0.23560321, -0.4676368, -0.17117254, -0.53409827, 0.034892835, 0.027636359, -0.87388843, -0.13988116, 0.6025455, -0.7751597, -0.36216563, 0.30283448, -0.08224033, -0.3179049, -0.47997057, -0.93863106, -0.042992163, 0.23458204, 0.23192775, 0.34069103, 0.055920564, 0.25550538, 0.3917491, 0.104630925, 0.8320168, -0.3371636, -0.9131322, -0.16414835, 0.8921507, -0.37075183, 0.6586639, -0.012396812, 0.29029778, -0.25224707, 0.6008218, -0.108869016, 0.14861542, 0.2908248, 0.62942374, -0.26050454, -0.5064595, -0.22549185, 0.2738726, -0.061846584, 0.44901446, -0.1406491, -0.46886694, -0.21760559, 0.45603192, -0.07530661, 0.39263177, -0.06601786, 0.7213577, -0.42216253, 0.058552932]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>김민효</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Beautiful girl</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>7</v>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>[0.4001176, -0.50465196, 0.4440008, -0.13572793, 0.1515369, -0.13350981, -0.99635184, 0.367289, 0.09247908, -0.28674728, -0.47058305, 0.15014467, -0.04639995, 0.57870644, -0.37459654, -0.67787445, -0.34731585, 0.026948864, -0.046658896, -0.5046088, -0.24204573, -0.24739583, -0.008164221, 0.032506265, 0.15954013, -0.27927414, 0.22771767, -0.32933724, 0.12316801, -0.8261672, 0.45714396, -0.4635072, 0.15259302, -0.16717854, 0.9686236, 0.18911478, 0.007017486, -0.23171705, 0.6555454, -0.24186578, -0.63988674, 0.27558082, -0.538423, 0.21952549, -0.052330635, -0.2455346, -0.8840077, 0.23082136, -0.10268991, -0.17572409, 0.4721434, -0.6140334, 0.2891625, 0.5003412, 0.070528775, 0.31765008, 0.0054637603, -0.8179618, 0.55444056, 0.3632046, 0.3773241, -0.25683483, -0.07392715, 0.4880789, 0.5034794, -0.49314597, 0.05567213, -0.24872857, 0.36095226, 0.13277158, -0.13309006, 0.8496504, -0.20632944, -0.38045943, 0.2949346, -0.031949498, 0.36196053, 0.92401016, -0.030817538, 0.27899483, 0.18200588, -1.1110375, 0.1761013, -0.81603706, 0.44404978, -0.68025607, 0.3772695, -0.43412465, -0.72463274, -0.07542266, -0.025094088, 0.011853058, -0.5075201, 0.03519597, -0.38724345, 0.059941046, 0.3149224, -0.09415915, 0.2060458, 0.24431613, 0.058780033, -0.005831143, -1.1368804, -0.48407477, 0.36919564, 0.19178276, 0.100578316, 0.40120503, -0.055383038, 0.6330708, 0.21348804, -0.8548, -0.43327034, 0.32260883, -0.49566084, 0.2697323, -0.6129336, 0.06608419, 0.29987913, -0.31329995, -0.980487, -0.54370195, 0.5470811, 0.11167348, -0.6177571, 0.33852142, 0.6291721, -0.37376598, 0.2008071, -0.7420643, -0.0074095763, -0.3351404, -0.19906998, -0.04310436, -0.7049557, 0.016906977, -0.15286843, 0.31527132, 0.1394923, 0.22879809, 0.46999982, -0.48509592, 0.24318258, 0.21712998, 0.0053361785, -0.34235412, 0.3555103, -1.0319533, -0.42259365, 0.07394056, -0.26970714, 0.81888014, -0.19131501, -0.32120118, 0.741677, -0.25795323, -0.016755717, 0.20785613, 0.49097794, 0.44851208, -0.13187557, -0.07122747, 0.38051876, -0.6776302, -0.15418826, 0.43551528, -0.4324431, -0.45102912, 0.48481712, 0.22525723, 0.6194304, -0.26717287, -0.41289762, 0.06729379, -0.09304397, 0.19926217, 0.27717346, 0.48361167, -0.11184468, -0.30280206, -0.19150278, 0.3291996, 0.61884755, 0.48843038, -0.21447572, 0.009184601, -0.59705424, -0.16351578, -0.08056107, -0.20252727, -0.03233802, 0.7770747, 0.1858649, -0.1458321, 0.22661608, 0.28873807, 0.115762904, -0.3343826, 0.08415003, 0.15022086, -1.1579896, 0.12923548, -0.34178513, -0.011069024, -0.42692906, -0.055134714, 0.22927523, 0.20992789, -0.3045377, -0.008399488, -0.58039916, 0.80469334, 0.47777292, 0.22416867, -0.5529773, 0.28906193, -0.33703977, -0.54312164, -0.37163407, -0.14098454, 0.27531973, 0.7472458, -0.046640113, -0.3154367, -0.62631166, -0.57212085, -0.17230599, 0.65199834, -0.5282219, -0.26246047, -0.39100882, -0.39182916, -0.26738614, -0.93831193, -0.015580118, -0.28809813, -0.5760983, -0.22481948, -0.018638754, -0.5027219, 0.41852388, -0.23115638, -0.7054414, -0.28779095, -0.24409023, -0.46126908, 0.31685257, -0.7914777, 0.40465426, -0.66246486, 0.23610462, 0.6331763, -0.42083418, -0.13890174, 0.19625832, 0.400089, -0.21432376, 0.55476034, 0.20103517, 0.34529662, -0.09649575, -0.594881, -0.31059164, 0.04826129, -0.19966277, 0.36452222, 0.50475097, -0.44557092, 1.0863332, 0.75718606, -0.008804478, -0.069741994, 0.08309664, 0.15297155, -0.060107104, 0.07646024, 0.38232166, -0.18661048, -0.2109349, -0.16987774, 0.9308444, 0.10169565, 0.18480897, -0.084022924, 0.025010316, 0.07825264, -0.07373151, 0.77141017, 0.005886562, -0.5074719, -0.055369157, -0.054639995, 0.29181564, -2.046859, -0.0850077, -0.055334136, -0.30696213, -0.01937819, -0.62375337, 0.71915233, 0.048344694, 0.31000954, -0.019408181, 0.16537565, 0.0071343677, 0.2598869, -0.037662268, -0.10604848, -0.9865471, 0.29393157, 0.5301614, -0.050278094, 0.36952507, -0.13983175, -0.120758116, -0.42562282, -0.105500005, -0.9301864, -0.045030057, -0.047949404, -0.06252874, -0.40440387, -0.26838517, 0.31545377, -0.45881477, -0.17755926, -0.42049852, 0.35673177, -0.4679417, -0.25622138, -0.6497389, -0.35324883, 0.08040005, -0.01067847, -0.37578177, -0.4174902, 0.5644701, -0.3670478, -0.3572991, -0.012311164, 0.13238415, 0.69479835, -0.91128874, 0.34374693, 0.60386807, 2.5542989, 0.019943224, 0.20586255, -0.045052484, -0.54491264, -0.6306289, -0.47700095, -0.61207104, -0.24280593, -0.33076718, 0.42442623, 0.48242533, -0.11528394, -0.086419575, 0.31035903, -0.23609374, 0.2584693, 0.23312958, 0.15212306, -0.78910923, 0.119192034, -0.2493158, 0.12232289, 0.1836062, -0.40355408, 0.18750799, 0.48550433, 0.2598987, -0.21191621, 0.040919565, 0.5087924, 0.092904516, 0.10623966, 0.26676986, 0.23777412, 0.8871908, 0.55552995, -0.5735058, -1.0545884, 0.49105003, 0.93943745, 0.19957873, 0.26328737, -0.06273225, 0.111848876, -0.4332083, 0.35781994, -0.7957348, -0.37287182, -0.35444084, 0.9419848, -0.4754687, -0.7643481, -0.08794324, -0.14734654, -0.12895948, -0.22450846, -0.110872105, -0.13076285, -0.6734731, 0.17180598, 1.015314, -0.07962956, -0.88784677, -0.12900256, -0.99974453, -0.13077176, 0.22257745, 0.13663357, -0.17763805, 0.03011059, 0.69236726, 0.16130225, 0.38999364, -0.23155078, 0.317904, -0.7336343, 0.9810013, 0.1327031, -0.05429481, 0.314417, -0.3128441, -0.6867561, -0.34368515, 0.041224986, 0.12435961, -0.086845696, 0.26379848, -0.033529762, -0.1848188, -1.2890804, 0.06811683, 0.3083312, -0.6267786, 0.296907, 0.46737197, 0.3943328, 0.021065662, 0.63593566, -0.9921552, -0.42580292, -0.5739213, 0.003338837, -0.12637407, -0.21155724, -0.24675319, -0.3035509, 0.036544047, 0.13945773, 0.49264482, 0.41121104, 0.6225096, -0.12580113, 0.094071455, -0.18255953, -0.081056714, 0.3359998, -0.85615814, -0.3944028, 0.33398238, 0.8712648, 0.27157906, 0.36148888, 0.12743226, 0.70643294, 0.051813517, 0.017101668, 0.7981261, -0.109316975, 0.24429262, -0.25732866, 0.5248777, 0.20322561, 0.3768934, -1.0662048, 0.6442267, -0.5134852, -0.22528046, 0.1432455, 0.07586543, -0.21887115, 0.26528156, 0.035580955, 0.6724968, 0.27693722, -0.07240182, 0.25537232, -0.046384234, 0.15692899, 0.28936327, -0.36521316, -0.4400341, -0.47555447, -0.53979886, -0.027109865, -0.70610213, 0.67697626, -0.31884104, -0.13205302, 0.33930227, 0.19869488, 0.3853966, -0.26671052, 0.2518361, -0.10134764, -0.34969366, -0.11903551, 0.41046482, 0.024040714, 0.35556263, 0.27917102, 0.12404634, -0.7748928, -0.5204689, 0.7798572, -0.64302266, -0.41195035, -0.02826142, -0.41048336, -0.15058081, -0.16231892, 0.1818362, -0.058907147, -0.09459592, 0.65406376, 0.037040427, 0.10548421, -0.36042383, 0.7145778, 0.4485708, -0.355497, 0.6501716, -0.066131875, -0.16875315, 0.38538814, -0.14356995, 0.072211094, 0.36679414, -0.24159656, -0.390209, 0.17132112, 0.0620738, 0.3115871, 0.6559874, -0.09192127, 0.50674516, -0.5356246, -0.009506978, -0.5360983, 0.046797127, -0.28341144, -0.525754, -0.65821886, -0.18381739, 0.2185988, 0.035575993, 0.39576432, -0.3213002, -0.16531062, 0.3609387, -0.49867392, -0.17244133, 0.62281585, 0.82846177, 0.13357833, 0.56954813, 0.12037485, -0.538117, -0.24544261, -0.34248295, -0.36552146, -1.054326, -0.04546459, 0.45980036, -0.13940564, -0.40270466, 0.17942798, -0.09132411, -0.44429213, 0.78568465, -0.30895478, 0.63671553, 0.09693807, -0.23386112, 0.41806167, -0.66322833, -0.2829561, -0.08931215, 0.51074576, -0.19486254, -0.3804608, -0.33307838, -0.6534604, -0.086929455, 0.71281874, -0.3945915, 0.19838391, 0.56526387, -0.14883465, 0.4988772, -0.17238876, 0.6341681, -0.7512143, 0.14686051, 0.227197, 0.20882483, -0.15729862, -0.11721216, 0.25837186, 0.012658544, 0.20469874, -0.57172406, 0.6187307, 0.24196327, -0.17055358, 0.64057094, 0.27111733, -0.623091, -0.0517931, 0.421362, -0.15015787, -0.24233145, -0.49792814, 0.33631742, -0.026390458, -0.14701614, 0.026357742, -0.11020893, 0.0023694728, -0.056790613, -0.68069154, -0.1542166, -0.3904721, -0.08271471, -1.2931459, 0.21533903, -0.45318878, 0.23502879, -0.5306069, 0.093977906, 0.41990376, -0.53361434, -0.28802323, -0.030249633, -0.031090703, -1.0473986, -0.35278344, 0.26106888, -0.38250357, 0.29136115, 0.5417604, -0.18986952, -0.5952969, -0.01765591, 0.33821908, 0.22701952, -0.009716446, 0.7413558, -0.08465878, -0.31972384, 0.016817395, -0.4832318, 0.58942384, -0.9527894, 0.26445392, 0.361785, -0.07683505, 0.35165292, -0.034010462, -0.5953549, 0.31561726, 0.07821543, 0.3603714, -0.45100322, -0.12929626, 0.3563906, 0.09731953, -0.4799598, 0.76694447, 0.5946351, 0.47000402, 0.546945, -0.4645595, 0.9000157, -0.021346169, -0.4265899, 0.15592729, -0.5744945, -0.30721095, -0.099099986, 0.67194074, -0.09145881, -0.94291276, -0.87967443, 0.277042, -0.102089226, 0.38544866, 0.18384787, -0.13575234, -0.2415713, -0.30252448, -0.07742864, -0.5101855, -0.25053823, 0.21868202, -0.46692312, -0.3751012, -0.5939091, 0.29673544, 0.044634514, 0.19014612, -1.1960888, 0.12010743, -0.19747004, -0.21160418, -0.8605751, 0.6946875, -0.6404268, -0.091224246, 0.011999082, 0.10518883, -0.3155105, -0.82327217, -0.9414515, -0.4783622, 0.07576101, -0.49993822, -0.5658852, 0.027349891, 0.34046182, -0.34610194, 0.09622717, 0.62073517, 0.51646715, -0.36879116, -0.062481638, 0.8074702, -0.353745, 0.07792807, 0.0008582324, 0.4044068, -0.40938503, 0.5235248, 0.11031148, -0.061677583, -0.048834696, -0.19468689, 0.19551046, 0.16583571, -0.2660912, 0.097907975, 0.39739406, 0.21733856, 0.23932895, -0.39473695, -0.0566512, -0.065144554, 0.24617308, 0.7419095, 0.14471413, -0.3679428, -0.21323492, -0.3641786]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>이다연</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Beautiful girl</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>7</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>[0.12891127, -1.3048632, -0.18069461, -0.05896038, -0.20150271, -0.93174326, 0.15935639, 0.11371754, -0.4498487, -0.26541692, 0.25363252, 0.10379507, -0.29024875, 0.46122092, 0.046382073, -0.3122799, 0.114175834, 0.10229704, 0.6855064, -0.6651381, 0.69657683, 0.07579881, 0.12942794, 0.27948752, 0.2407212, -0.018681098, 0.11743899, 0.206546, 0.114221156, 0.44110537, -0.27334043, 0.035520762, -0.63925076, -0.68105525, 0.31386954, 0.35068136, -0.8114414, -0.15818842, -0.10508204, 0.39323473, 0.38573223, -0.092329554, 0.18420613, 0.87054396, -0.45613283, -0.79046285, -0.68641406, -0.08230652, -0.2863705, -0.41782302, 0.56311554, 0.27795637, 0.38400227, 0.17727089, 0.31206933, -0.5450197, 0.10339376, -0.71426, 0.77664167, -0.3206212, 0.9774189, -0.20024504, -0.39213815, -0.3280737, -0.2891338, 0.11249979, -0.015707288, -0.31276387, -0.6135373, -0.16564779, 0.81815326, 0.44806334, -0.042259738, -0.065936275, 0.17788966, -0.21844089, 0.055796463, 0.16641098, 0.25115, 0.64882255, -0.40224963, -0.31373116, -0.34038365, -0.91499954, 0.5468322, -0.26852638, 0.34220806, -0.33403245, -0.27815098, -0.22122774, -0.317532, -0.31687075, -0.6102732, -0.2496642, -0.7063187, -0.4216895, -0.15656856, 0.18137136, 0.7920348, 0.4406208, 0.5845265, 0.47558868, 0.25863585, 0.6060155, 0.4105477, -0.6327994, 0.064754345, 0.678597, 0.6818809, 0.24631289, 0.92113173, -0.4290869, 0.21796758, 0.1214595, -0.307608, -0.62940615, -1.2479346, -0.3498884, -0.027486939, -0.4879551, -0.2278801, -0.24246386, -0.44724354, 0.027021505, -0.25658354, 0.58339167, 0.33834204, -0.22671443, 0.58827525, -0.3516136, -0.082039356, -0.545503, 0.60581684, -0.38960022, -0.6046163, 0.445373, -0.20055394, -0.39107516, -0.6653883, 0.28174976, 0.2957845, -0.18782648, -0.09792146, 0.08494282, -0.10913493, 0.28792256, 1.0194961, -0.39692408, -0.5298865, -0.008272807, -0.09011252, 0.4670478, 0.33013046, 0.5420703, -0.23416474, -1.0311131, -0.45081338, -0.48944414, 0.49635148, -0.2194272, -0.7068304, -0.65583754, -0.47087657, -0.39323235, -0.35447615, -0.08518827, 0.20111932, 0.06267136, -0.27762663, 0.11856434, 0.61277044, -0.31470302, -0.12266825, 0.014244616, -1.4022181, 0.45724174, 0.27841675, 0.14972019, 0.0061480626, -0.1250339, -0.27381545, -0.4163253, 0.2075375, 0.10323562, 0.12491637, -0.35022724, -0.7645599, -0.3841374, 0.5648201, -0.5874897, 1.2637601, -0.6626245, -0.257616, -0.20217283, 0.11174009, -0.52829313, -0.08417289, 0.18970683, 0.15458196, 0.2719117, -0.6049068, -0.17998531, 0.088542566, -0.077229165, -0.24122028, -0.78350526, -0.24148288, -0.7425331, -0.027981259, -0.1873144, -0.5257735, 0.30321226, 0.8541634, -0.3194846, -0.05653009, 0.4173756, -0.45204023, 0.10315052, 0.5697646, 0.2651972, 0.7512466, -0.17814678, 0.2619564, -0.23849359, 0.30981004, 0.022114981, 0.23986402, 0.49520272, 0.19467336, -0.26555213, -0.4924216, 0.21141738, 0.57207656, 0.4504348, -0.0960152, 0.17442468, -0.40184897, -0.25291106, -0.5087261, -0.027847309, 0.20370144, -0.11754256, -0.36356252, -0.6546217, 0.48202252, -0.44701982, 0.0100207515, -0.71883833, -0.19727492, -0.8622819, 0.23673086, 0.4936136, 0.35426238, 0.23627752, -0.33177942, -1.2452474, 0.3238706, 0.3465217, -0.39092582, 0.21793805, -0.5766216, 0.061960198, -0.6863364, 0.6643879, 0.6524868, 0.06469114, 0.33139664, -0.18663356, -0.3692202, -0.026153129, -0.21183363, -0.26753166, -0.03822299, -0.64703876, 0.3236912, -0.092566706, -0.10661446, 0.29767957, -0.26789573, -0.383318, 0.59367186, 0.8860439, 0.29405877, -0.64916337, 0.8524399, 0.12997028, 0.50262487, 0.29733488, 0.36906818, -0.7015996, 0.12694761, 0.40941823, -0.42194304, -0.94079906, -0.0134499725, 0.14605293, 0.010999702, -0.5745649, -0.4498389, -0.2518943, 0.22175032, 0.46007553, -0.22647531, 0.40040758, 0.17370185, 0.55932945, -0.3342679, -0.26244274, -0.4047701, 0.49971566, -0.09078386, -0.12903786, 0.11695662, -0.19561478, 0.15864813, -0.61080724, 0.033353366, 0.14654917, 0.30771872, -0.2849737, -0.3141329, -0.37215513, 0.23856807, 0.5243828, 0.15489353, 0.2070308, -0.1984941, -0.4381377, -0.39733493, -0.06420088, 0.5504568, -0.7747395, 0.32639927, -0.09420409, -0.21098916, -0.27998012, 0.20675637, -0.6913677, 0.49850154, 0.03670796, 0.3170057, 0.46566948, -0.30105603, 0.26589453, 0.14884418, 2.5652018, 0.14899296, -0.35163742, 0.38933748, -0.13499147, -0.21765547, -0.56062835, -0.22491425, 0.06526713, -0.16867185, 0.10185645, -0.2166749, 0.26094216, -0.4456873, 0.011223383, -0.012828732, -0.14946778, 0.47385424, -1.1306812, -0.451676, 0.50844324, 0.020522391, 0.39482474, 0.13777773, 0.039078094, -0.07652925, 0.68182373, 0.74084795, -0.556514, -0.636099, 0.38108248, -0.39222008, -0.048907526, -0.46972662, -1.0502764, -0.5883572, 0.3280247, 0.58163893, -0.9061794, 0.05633232, 0.047328215, 0.51347655, 0.06382769, -0.37953305, -0.21670125, -0.19724663, 0.61750335, -0.24173833, -0.033662625, -0.724626, 0.5457875, -0.37730438, -0.51370215, -0.86694396, 0.1078915, -0.03657155, 0.21951045, -0.24418816, 0.83872104, -0.13095671, -0.101210475, -0.28943768, -0.12406722, -0.28340638, -0.3613778, -0.6141472, 0.64145976, 0.3894854, 0.054954115, -0.21013585, -0.080508284, 0.45624417, 0.23637235, 0.67237777, -0.32566705, -0.286169, 0.064528584, -0.37755874, -0.18279916, 0.123872146, 0.33287933, 0.11556229, 0.2122161, -0.013006918, 0.061771028, -0.2377978, 0.22606388, -0.2310738, 0.12953416, -0.09329274, -1.134242, -0.0114680305, -0.38387984, 0.58828163, 0.13462968, 0.006339673, -0.109158605, -0.042399764, 0.2488936, -0.4520145, 0.3520618, -0.28870767, 0.376599, 0.021890301, -0.4927149, -0.38433072, 0.39732054, 0.472889, 0.30760556, -0.43346852, 0.7201347, -0.93291384, 0.035324104, 0.14626017, 0.12830661, 0.75749284, -0.3604974, 0.1436357, -1.3524182, -0.0795085, 0.37532598, 0.58154154, 0.91426516, -0.67636365, 0.25939563, 0.06662119, -0.6760835, 0.8214541, 0.5377008, -0.106839135, -0.61815447, -0.016185883, -0.16842139, -0.42392153, -0.15755829, -0.46095914, -0.22013575, -0.22606151, 0.038325474, 0.6658065, 0.16341048, -0.3612536, 0.08316399, 0.06999941, 0.57806885, -0.17729193, -0.29991657, 0.35440224, 0.2624155, 0.020540789, -0.08201675, -0.3130425, 0.082840174, -0.18939772, -0.6969629, -0.34563196, -0.18828449, -0.51850665, -0.29543054, -0.14726923, -0.046789475, 0.25803757, 0.007924518, 0.4764873, -0.43816504, -0.46179464, 0.40188953, 0.9901463, 0.14970931, 0.5668887, 0.49209842, -0.4367394, -0.23001716, -0.41040927, 0.4599913, 0.13583417, 0.9983225, -0.5102752, 0.15133883, 0.056037378, 0.6097888, 0.42591003, -0.6281466, -0.2727883, 0.10831693, 0.22806492, -0.2098565, -0.46658304, -0.32129604, -0.40434253, 0.36823642, 0.32535255, 0.9053087, -0.060556967, 0.031139754, 0.21768868, -0.21619111, 0.31840172, -0.056274608, -0.54353213, -0.14723246, -0.17610648, 0.13216794, 0.1544163, 0.097228706, 0.21870136, 0.28502244, -0.76661575, -0.6382766, -0.15201247, 0.08727721, 0.02860808, -0.33235705, -0.5768968, 0.41952854, 0.11186129, 0.759912, -0.29448783, -0.0046596266, 0.15153188, 0.5878576, 0.05681098, 0.22467668, 0.53113514, 0.055363245, 0.093206204, 0.21123205, 0.4789928, 0.5257466, 0.18282178, -0.62077105, -0.3004142, 0.25395077, -0.052536763, -0.030596994, -0.2849176, 0.29813612, -0.166219, -0.93870944, 0.14838853, -0.15693198, -0.4621083, -0.51151884, 0.048473712, -0.08410069, 0.29593042, -0.04915063, 0.37825722, 0.17382461, 0.23832479, 0.38119698, 0.05044447, 0.3081742, 0.22757666, -0.2580831, -0.6851141, 1.0513805, 0.19562566, -0.45578286, 0.021921989, -0.4739496, -0.02058533, -0.009116329, -0.43156, -0.81050366, 0.601283, -0.59724975, 0.1857637, -0.3849465, 0.0870866, -0.6833283, -0.92293894, 0.08154879, -0.018831097, 0.8542465, -0.419087, -0.17535108, 0.015311883, 0.4274823, -0.027287554, -0.8485338, -0.6133478, 0.042983424, 0.44219536, 0.22806011, 0.217737, 0.6413206, 0.121176824, 0.30231002, -0.20967865, -0.1255239, 0.3903275, 0.32813257, -0.49167073, -0.74813807, 0.021281205, 0.06725327, -0.12997057, -0.32256234, -0.2639128, 0.22055484, 0.3102748, 0.58677816, -0.16105208, 0.07157782, -0.7931151, -0.25031137, -0.7631615, 0.5391153, -0.6751112, 0.17643282, -0.578892, -0.06778342, -0.14785314, 0.6732906, 0.47544134, 0.2825221, -0.36764786, -0.3486176, 0.29592055, 0.06242521, 0.0150067955, -0.4943179, 0.5198432, -0.17938282, 0.41493797, -0.67630154, 0.08679078, -0.44961807, -0.5929709, 0.18343851, -0.26947436, 0.58624494, -0.012216542, -0.1419407, -0.28854796, -0.15090056, -0.31650525, -0.04986329, 0.41039783, 0.96539706, -0.0070648734, -0.07103911, 0.3421394, -0.18292189, 0.48618203, -0.22613215, -0.02476361, -0.30968675, -0.29191196, -0.25894156, 0.5277761, -0.4642377, 0.6032045, 0.111102566, 0.008882513, -0.5677694, 0.06672642, -0.05721826, -0.09366413, -0.077497035, 0.36837777, -0.19232094, -1.0792131, -0.0696786, -0.42536917, -0.62243706, -0.50186664, 0.5101938, -0.16233039, 0.029490521, -0.12695006, 0.17516899, 0.47848144, -0.26954916, -0.021861028, -0.019956842, -1.0861928, -0.40389663, -0.06717646, -0.5047426, -0.3776822, -0.82284766, -0.75585306, 0.038604714, -0.3571843, 0.010963071, 0.43305892, 0.6478853, -0.29116753, -0.2726314, 0.26713327, 0.5858609, -0.36866218, -0.2332887, -0.0065537468, 0.36872262, -0.24847423, 0.27384508, 0.27046266, 0.39949262, 0.014268493, 0.38512462, 0.2512961, -0.23916268, 0.36140248, 0.38914004, -0.06764605, 0.1254589, -0.40368927, 0.28534588, -0.22461131, -0.2750466, 0.13158053, -0.55626696, -0.5051431, -0.034214202, 0.49929953, 0.289608, 0.055546027, 0.3893017, -0.7776406, -0.14896055]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>권혁진</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Good-looking guy</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>7</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>[0.42356017, -0.27744848, 0.86393535, -0.2932908, 0.47962907, -0.1543839, 0.04155738, 0.46286118, -0.15670547, -0.21769884, -0.2014262, 0.033048313, -0.76517475, 0.7577579, -0.7338139, -0.34529966, -0.15444282, 0.023851167, 0.52819455, -0.9178455, -0.30971295, -0.014889564, -0.16989261, -0.3596624, -0.7113597, -0.490555, -0.012126813, -0.12191419, 0.18609823, -0.7938105, 0.2323957, -0.3778374, -0.40811247, -0.15362982, 0.23797116, -0.116977885, -0.8600836, -0.32316196, 0.37337816, 0.15630293, -0.38532045, -0.58913195, 0.1902394, 0.90766484, 0.18321021, -0.6520942, -0.50177866, 1.1009663, -0.56582165, -0.30971655, 0.61281216, -0.16019274, 0.01723671, 0.33049464, 0.76430434, -0.2865919, 0.3674295, -0.8196918, -0.17300434, -0.6614787, 0.9656079, -0.38120225, -0.0033502206, -0.610572, 0.5568643, -0.2972505, -0.077368975, 0.6112482, -0.68826485, 0.044819515, 0.82387847, 0.36419585, 0.25462335, -0.60273314, 0.7940095, -0.48158923, 0.33757794, 0.63925, 0.92957985, 0.47743952, -0.1841749, -0.9495841, 0.8379747, -0.67919755, 0.4106468, -0.06594899, 0.56803125, 0.07868981, -0.41514972, -0.019874603, -0.13824245, -0.13135614, 0.16209427, 0.07158086, -0.72405744, -0.10699469, -0.1614325, -0.33503827, 0.9585117, 0.5336219, -0.21769945, 0.25322872, -0.65297747, 0.14749898, 0.6819139, 0.03325638, 0.24494801, 0.54128915, 1.187874, 0.35056853, 0.83908886, -0.5405921, -0.2975717, 0.17157254, 0.11499018, -0.378676, -0.32945934, 0.1534901, -0.3422575, 0.1908613, -0.025076188, -0.6594259, 1.0628996, -0.2697653, -0.5132318, 0.012687815, 0.71604335, 0.20146519, 0.5737637, -0.45634624, -0.2826878, -0.003303267, -0.7514215, -0.96362317, -0.13555929, 0.65475297, 0.1423561, -0.22479631, 0.06144806, 0.27240425, 0.6053649, 0.23207422, 0.5211809, -0.3249375, -0.5444327, 0.56494945, -0.35120514, -0.85541385, 0.17783561, 0.061421588, 0.11690858, 1.0641673, -0.038076364, 0.6947156, -0.2308585, -0.24253845, 0.020399377, -0.4724589, 0.5595602, 0.25312433, -0.018660717, 0.15849952, 0.8014819, -1.3964497, -0.0018289704, -0.0363093, 0.31771326, -0.27820408, 0.1742177, 0.050667755, 0.7478307, -0.18958348, -0.57132804, -0.5636734, -0.80319434, -0.14838046, 0.81610626, -0.48571587, -0.3932671, -0.33396634, -0.33256358, 0.14753523, -0.3301196, -0.083134264, -0.5277094, 0.38883236, -0.75914526, 0.19990638, -0.17606723, -0.7649532, 0.55742097, 0.3890412, -0.020171834, 0.46893948, -0.39313477, -0.050956655, -0.3473394, 0.34144527, 0.16938259, -0.31693935, -0.6123537, 0.1077616, 0.14491794, 0.083222285, -0.6616038, -0.010592105, -0.4064113, -0.48643225, -0.023582846, -0.43252748, -0.4063601, -0.1555721, 0.40785173, -0.28885198, -0.7100717, 0.26259017, -0.3910787, -0.43551084, 0.40470916, 0.3666675, 0.26094687, 0.24313012, 0.6263593, -0.83777845, -0.74325216, 0.54044294, -0.6094145, -0.1180634, -0.13544257, -0.22330023, 0.10859511, -0.37794182, -0.3275329, -0.4553203, 0.38616544, 0.2765454, -0.6986071, 0.18028595, -0.7406228, -0.046115108, 0.40476948, -0.5233681, 0.020504745, -0.23529525, 0.57728195, 0.04022579, 0.0015095007, -0.22499615, 0.5670988, -0.4380066, -0.16399893, 0.049431182, 0.12797415, -0.48260403, -0.39268774, -0.21828555, -0.43132603, 0.31058738, -0.29698443, 0.15659548, -0.07123873, 0.021020794, -0.5106466, -0.20892829, -0.012657929, 0.43527168, 0.10510649, -0.15369858, -0.2511991, 0.42990983, -0.22164421, -0.8251082, -0.18031853, 0.28086832, 0.36199734, 0.28367406, 0.4935711, 0.028193297, 0.14483993, 0.49104792, 0.28149778, 0.0062326016, 0.111861534, -0.35375935, -0.26713234, -0.2604511, 0.08882072, 0.47046587, -0.17448997, -0.36900494, 0.17003927, 0.7762294, 0.33986667, -1.2343132, 0.5188387, -0.04171943, -0.058330487, -0.6004979, -0.4875025, -0.40567875, 0.25880438, 0.7932383, -0.028969642, 0.24910755, 0.20757839, 0.41743836, -0.283324, 0.16722296, -0.41938904, 0.2867748, 0.042862374, -0.29685462, 0.4516064, -0.069803655, 0.35022914, -0.36886686, 0.1813694, -0.38634005, 0.5706878, -0.021589601, 0.7642232, -0.78663284, 0.18174814, 0.42548376, 0.37404191, -0.38225943, -0.53487456, 0.09578167, -0.5859028, 0.13485396, -0.42483658, -0.4168628, 0.22604027, -0.117459595, -0.62068206, -0.08808801, 0.4216007, 0.27739364, 0.6320606, -0.029326402, 0.22934723, 0.9490051, -0.09006599, 1.1073948, 1.346776, 2.5882955, 0.14793083, -0.41328567, -0.20706275, 0.23834331, -1.0496483, -0.02513375, -0.60758054, -0.028424479, -0.007229358, 0.017858211, -0.056762982, 0.38998938, -0.41126585, -0.5625949, 0.36447525, 0.18371542, -0.3455883, 0.2327671, -0.57196724, -0.3574199, -0.23157997, -0.16134939, -0.2890481, 0.02995302, 0.104468346, 0.55938953, 0.5605755, -0.2064034, -0.082205564, -0.3054142, -0.6353814, -0.20129259, 0.46912235, -0.8597971, 1.1485442, 0.25199404, -0.18395746, -1.0384963, 0.40960118, 0.12466474, -0.20121829, 0.044596616, -0.41716182, 0.15751788, -0.3137915, -0.20399752, -0.17430806, 0.17653942, -0.37447888, 0.718434, -0.58615917, 0.7706395, -0.2008715, -0.46162906, -0.29147166, -0.52482474, -0.7259312, 0.3369519, -0.3811944, -0.74877334, 0.23465626, -0.7746091, -0.6857667, 0.025664613, -0.59389234, 0.43805635, -0.069867045, -0.2767778, 0.317619, -0.26870114, -0.15668577, 0.51632875, 0.4501824, 0.26201844, -0.2687485, -0.28418455, 0.31156385, -0.20261514, 0.1377811, 0.17331676, -0.051363498, -0.44247755, -0.4952186, 0.14702709, 0.06410883, -0.08937371, 0.0025421418, 0.3374008, -0.27854326, -0.8103266, -0.26734453, 0.1085107, -0.370174, 0.41137174, 0.36817974, 0.06536105, 0.17910258, 0.16627614, -0.111711636, -0.50551414, -0.7274163, 0.7706011, -0.2121519, -0.16095217, -0.26997745, -0.72495246, -0.13680066, 0.34546596, 0.11698677, 0.91358924, 0.8135606, -0.029954985, -0.054613113, -0.234409, 0.022221338, 0.11905297, -0.29368043, 0.028892338, 0.114847764, 0.07663028, 0.005729899, 0.43951133, -0.03714957, -0.017501224, 0.041494444, -0.6168201, 0.7331879, -0.40785086, 0.36467347, -0.1561481, -0.1227656, 0.64962035, 0.2898114, -0.29485604, 0.728109, -0.2466013, -0.061059743, -0.74709684, -0.097415134, -0.08901973, 0.15055217, 0.59042275, 0.38109583, 0.05392226, -0.40414947, 0.5036973, -0.2518075, 0.6415753, -0.002152495, 0.44529447, -0.42536026, -0.46353513, -0.44602025, -0.5071972, 0.13134098, -0.010327347, 0.13720535, -0.29059395, -0.3993614, -0.0433851, 0.031600125, 0.008525863, 0.9476836, 0.16127983, -0.12568769, 0.6879891, 0.68799925, 0.8265844, -0.07617933, 0.05590923, -0.69734013, -0.17766431, -0.21352321, 0.223297, 0.19007868, -0.618127, -0.50471777, -0.54264885, -0.16097808, -0.79253066, 0.2425234, 0.28477925, -0.45621103, 0.2087861, 0.22232553, -0.29686588, 0.4903674, -0.42535722, 0.5976889, 0.31658378, 0.013119667, -0.060866177, -0.23847087, -0.2631317, 0.18680401, -0.4131724, 1.1528201, 0.05545581, -0.24023643, -0.21903747, -0.16152965, -0.12501802, 0.7999649, -0.218389, 0.31020665, -0.43982223, -0.19647266, 0.19645382, -0.54935515, -0.1295953, 0.64958656, -0.4018342, -0.13869198, 0.1343535, 0.18005738, -0.20073116, -0.31172055, -0.28315678, -0.21924078, -0.4545508, 0.17757407, 0.39251775, 0.47160804, 0.5891035, 0.6917863, -0.38384792, 0.098473325, 0.5148617, -0.37159413, -0.38133648, -0.06358667, 0.06376043, -0.0039345473, -0.2694352, 0.020685636, 0.37238717, 0.018513922, -0.8204492, 0.22663549, -0.21586104, -0.5076902, 0.47099733, -0.087059036, -0.34511048, -0.14704038, -0.42189842, -0.37734145, -0.09518391, -0.47548115, -0.82379234, -0.41691384, -0.15854438, -0.287674, -0.31526268, -0.68218005, 0.32150346, 0.66963315, -0.21860385, -0.11536212, -0.4318311, 0.48264557, -0.73953784, -0.18426125, 0.6459213, 0.42675957, 0.21980506, 0.10981074, 0.05271859, 0.3913499, -0.77059215, 0.06998735, 0.2513816, -0.363477, 0.6110326, 0.28380913, 0.4604413, -0.3532585, 0.3953904, -0.20915675, 0.15587796, -0.109543845, -0.09297615, 0.51084, 0.01791195, -0.24065612, 0.26630372, -0.29444438, -0.17257594, -0.28034824, -0.40211207, -0.32186976, -0.14246348, -0.0013868175, -0.6340446, -0.6720949, 0.0008042753, 0.2206488, 0.1500068, -0.059580717, 0.6112853, -0.20339082, 0.11125529, -0.5749564, -0.16671215, -0.83898115, -0.47337556, -0.52210796, 0.7287228, 0.2060124, 0.22097532, 0.4912851, -0.2676343, 0.050030246, 0.5230029, 0.4273172, 0.56211114, -0.13365898, -0.23812538, 0.4031914, -0.09751615, -0.73119676, 0.3848319, -0.16221045, 0.015609961, -0.2490834, -0.41980466, -0.14528233, -0.39377612, -0.38718337, 0.18266897, 0.23827839, -0.05745871, 0.03862196, -0.3236298, 0.3798952, 0.04547495, -0.3984863, 0.71094143, 0.005933917, 0.2185537, 0.36016178, -1.0592802, 0.39845592, -0.2936231, -0.004715804, -1.0079021, 0.12591657, -0.75114244, -0.18563025, 0.47168612, -0.40704662, 0.22193745, -0.1596492, -1.0322576, -0.21395618, -0.14665881, -0.31235558, -0.43854058, -0.33753672, 0.48382974, 0.68853664, -0.18590571, 0.09099042, 0.75572217, -0.87777483, 0.30431277, -0.16227448, 0.5112307, 0.15227115, -0.14943598, -0.45326975, 0.43604982, -0.14826748, -0.55424714, 0.076492265, 0.15482704, -0.48086616, -0.8523278, 0.44900286, 0.37122932, -0.4090201, -0.6509242, -0.5039041, 0.23853542, 0.16527577, -0.11288205, 0.096972935, -0.21677332, -0.43825567, -0.42031828, -0.059790943, 0.277263, 0.447216, -0.82536846, 0.28019425, -0.1754085, -0.73070073, 0.1821053, 0.17134339, 0.63599324, -0.18451361, 0.0870751, -0.042872824, 0.3511004, 0.13018712, 0.1209352, 0.0032709325, 0.040724933, -0.041813146, -0.80577636, -0.43836445, -0.20098579, 0.25896928, 0.26423964, -0.8770792, 0.030056734, 0.06893603, 0.036561165, -0.7606151, 0.22970274, -0.19103876, 0.44017756]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>양근혁</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Good-looking guy</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>7</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>[-0.2842064, -0.6387227, 0.37267107, -0.24147436, 0.49917477, -0.048600476, 0.57719576, 0.49358734, -0.31883764, -0.048203588, -0.036563348, 0.03910967, 0.0017498493, -0.2445939, 0.08442424, -0.0041732015, -0.35853004, 0.06684603, 0.30140793, -0.8639082, -0.5984639, -0.05867939, 0.8188863, -0.91388196, -0.5919471, 0.5653819, 0.035886087, -0.94945335, 0.23750854, -0.28453928, -0.12858048, -0.024587523, -0.14435497, 0.052008092, 0.9629773, 0.24542046, -0.57214415, -0.58673805, 0.4380242, 0.051420093, -0.25760144, 0.27417192, -0.40228286, 0.085466206, -0.25481787, -0.78890514, -0.21118581, 0.05786391, -1.0666988, 0.8468296, 0.31716344, -0.64939135, 0.3169716, 0.5537338, 0.03744621, -0.31413382, 0.3280006, -0.6783587, 0.6645446, 0.029720167, -0.0058033476, -0.8781396, -0.7395027, 0.4383987, 0.4372011, -0.58128804, -0.44930544, 0.17329356, 0.32448658, -0.3245364, 0.16312568, 0.7133431, 0.32801425, -0.7304125, 0.121598735, -0.21381417, 0.26604924, -0.12479609, 0.65223825, 0.006169945, -0.5614277, -1.2040217, -0.033816114, -0.51044744, -0.5008262, -0.46005648, 0.13935907, 0.01673823, -0.30552992, 0.4150733, -0.2607932, 0.3448435, -0.40949708, -0.16590504, -0.15873212, 0.5127251, 0.30889264, 0.19319887, 1.1659635, 0.15682963, 0.085861206, -0.3047319, -0.8623985, 0.09390302, 0.55544436, 0.796157, 0.06348043, 0.43816414, 0.34141174, -0.080592945, 0.25415713, -0.90083426, 0.3409437, -0.2234797, 0.015966982, 0.33610174, -0.09274969, -0.5587867, 0.34621704, -0.23262382, 0.16515593, -0.5507859, -0.01894873, 0.21215096, -0.059476733, -0.13037764, 0.47228885, -0.10610256, 0.64878476, 0.43717998, 0.019632911, -0.46617055, 0.5028955, -0.1320428, -0.28497657, -0.16905276, -0.42402458, 0.051706888, 0.50688535, -0.01484828, 0.21258709, -0.47200757, -0.15433067, -0.13084371, -0.25826684, 0.10459958, 0.44937855, -0.02293104, 0.24883524, 0.02028234, -0.5808822, 0.6529619, -0.3824193, -0.19550993, 0.2601966, -0.32471684, -0.08848644, 0.321803, 0.37959248, 0.3728296, 0.12731002, -0.20383987, 0.21749917, -0.9020842, 0.13461299, 0.16760352, -0.46224603, -0.044626646, 0.12678112, -0.029412428, -0.55432975, -0.116131805, -0.20468922, 0.06640007, 0.49753028, 0.8671192, -0.10015981, 0.18473394, -0.22864607, 0.6050827, -0.03692112, 0.50948673, 0.967356, 0.33367032, -0.2046152, 0.7705858, -0.30619764, -0.16533694, 0.03709678, -0.6789605, 0.4551631, 0.16513264, -0.09029846, -0.6753708, 0.36897492, 0.26032442, 0.109385535, 0.21448429, 0.30583143, -0.04065268, -0.55677533, -0.2877872, 0.19538453, -0.16590326, -0.4948949, -0.16220094, -0.3653861, -0.29728967, -0.29434487, -0.10318794, -0.24874887, 1.1156328, 0.4424917, -0.2837166, -0.7129275, 0.055500805, -0.062587336, -0.028966427, -0.19992311, -0.0071907206, 0.5769032, 0.09914859, 0.20902541, -0.4248148, -0.35815293, -0.54300946, 0.08285726, -0.06421265, -0.33027297, -0.3532438, -0.63087106, -0.56639737, -0.44173867, -0.7473031, -0.018511444, 0.1933815, -0.037009876, -0.09978284, -0.2187366, -0.5883559, 0.12849315, 0.13729195, -0.33035922, -0.016063774, 0.010766166, -0.3663253, -0.13693935, -0.7014791, 0.5252435, -0.9300972, -0.45206016, 0.80260146, -0.72770584, 0.36351103, -0.048657876, -0.24023004, -0.30679974, 0.29860824, 0.33698717, 0.36686462, -0.26062804, -0.23723337, 0.021155518, -0.26810628, -0.0039858995, -0.09292941, 0.7645848, -0.79362446, 0.69043857, 0.22622606, 0.068974055, -0.9003528, -0.46303177, -0.5508245, 0.009304556, 0.19899008, 0.6017256, 0.47394553, -0.10550225, 0.21770795, 1.0672662, -0.46926793, 0.021126729, -0.32148156, -0.09862606, -0.35731244, 0.36026523, 0.5343884, 0.058608063, -0.36863652, 0.2309748, 0.20821139, 0.74031645, -1.9059088, 0.104743674, 0.25995773, -0.29257375, -0.3992184, -0.33638293, 0.27300403, 0.19588315, -0.24517024, -0.26670066, 0.21216783, -0.15485033, 0.27316806, -0.3076138, -0.19777218, -0.8582765, 0.2261339, 0.10880865, -0.29027292, -0.11341383, 0.09943801, 0.13609387, -0.059530757, 0.4247582, -0.6234839, 0.0929566, -0.2327902, -0.23206595, -0.454477, -0.6896287, 0.3083413, -0.504692, 0.57864773, -0.29693145, 0.46907935, -0.37077555, 0.751734, -0.49763903, -0.1722295, 0.51383114, -0.13223663, 0.2971946, -0.33211052, 0.076199844, -0.61776817, -0.17255226, 0.11441381, 0.5222226, 0.6361733, -0.46826214, 0.5894388, 0.41984814, 2.1415133, 0.3689492, -0.25345552, -0.25333112, 0.25171164, -0.7095622, -0.6242126, -0.44500917, 0.23076577, 0.13134444, 0.46516332, 0.56169647, 0.12022436, 0.46403104, 0.018391497, 0.26877993, -0.34934255, 0.34953097, 0.10628079, -0.33789176, -0.49728125, 0.021149319, 0.021876147, -0.16777885, 0.6691732, -0.06754774, -0.28764585, 0.4196059, -0.43582574, -0.063930735, 0.4571733, 0.12024827, 0.10113046, -0.30512887, -0.43440217, 0.025256142, 0.4644269, 0.25256413, -1.0125152, 0.39930397, 0.10676577, -0.5386332, 0.82835543, 0.1507721, -0.087613635, -0.19109029, 0.09873145, -0.6815468, 0.045368604, -0.57417977, 0.42880565, -0.67394245, -0.07158722, -0.061773647, -0.4589959, 0.13815889, -0.0447165, 0.0079879435, -0.3101377, 0.07749463, 0.26944172, 0.13274339, -0.30315796, -0.29456407, 0.08314198, -0.8244282, -0.038341932, -0.5380486, -0.67191744, 0.015343961, -0.12636848, 0.183907, 0.15275916, 0.34601867, 0.20039523, -0.057768483, -0.8097235, 0.5945168, 0.39948934, 0.63568485, 0.8797612, 0.18312882, -0.6338182, 0.23194143, -0.032753874, 0.24009319, -0.5228928, 0.5800787, -0.3451084, -0.53458726, -1.1593201, -0.08382713, -0.22737868, -0.5343445, 0.78454345, 0.59620255, 0.05263294, 0.30850807, 0.351227, -0.97882843, 0.095547974, -0.6939351, -0.44783577, -0.5540758, 0.15778403, -0.48567986, -0.25689426, 0.43500167, -0.092877656, -0.06446541, 0.6568822, 0.45927233, -0.47656912, 0.62544096, -0.52104646, -0.06945677, -0.039076, -0.058281202, -0.31773576, -0.36659986, 0.73559684, -0.011210012, 0.0010177449, 0.6976167, 0.2819384, 0.18575794, 0.08194543, 0.76320946, -0.55717814, 0.46803468, 0.020299722, 0.005196791, -0.20269072, -0.2529598, -0.35614794, 0.2540535, 0.40817928, 0.83616114, -0.37897596, -0.020520065, 0.3169478, 0.029704338, 0.3523298, 0.18674013, 0.15840954, -0.8194746, 0.12406331, -0.37606555, -0.17906237, -0.22372833, -0.696282, -0.124648735, 0.16013186, -0.14408202, -0.5554367, -0.37538773, -0.063153, -0.25009432, -0.9395682, 0.12158225, 0.2554987, 0.049519837, -0.05576367, -0.016751945, 0.22576094, -0.1464282, -0.33159447, 0.37382025, -0.01867928, 0.7754682, 0.18004996, -0.35351083, -0.1683668, -0.5348176, 0.5836159, -0.12832484, 0.011136633, 0.01187782, 0.13559091, -0.69352615, -0.316472, -0.054998063, -0.081989124, -0.6519605, -0.22970612, 0.1249851, 0.1771298, 0.96536475, -0.14665523, 0.6827502, 0.12617339, 0.7675294, -0.05028392, -0.20371218, 0.07869818, 0.31204954, -0.8264923, 0.16608754, 0.06651471, 0.12683895, 0.744076, -0.20245154, -0.37894714, -0.06466725, 0.10175341, -0.22596197, -0.42320332, -0.5569155, 0.35289142, -0.04054148, -0.3134256, 0.5233171, -0.18068299, -0.8365048, -0.012937616, -0.32972378, 0.41783285, -0.32786837, 0.2373254, 0.14104977, -0.25478896, 0.5637478, 0.42832747, 0.5592184, 0.7543547, 0.82899827, 0.13352716, 0.5015682, -0.6171733, 0.057881653, -0.8546788, -0.6644534, -0.20669647, -0.10679488, -0.12944047, 0.17811355, -0.24045439, 0.29662257, -0.6946604, 0.03156957, -0.47630614, -0.21854134, 0.5155102, -0.16229084, -0.3584928, 0.5234435, -0.5358774, 0.70021236, 0.20289853, -0.09841083, -0.50929403, 0.007820651, -0.12444625, -0.16133589, 0.0068883626, -0.1387898, -0.2932581, 0.39026302, 0.47539005, -0.4725411, -0.31007168, 0.4502338, -0.51616156, 0.18595248, -0.02347896, 0.038553137, -0.47385797, 0.33957338, -0.75621444, 0.3001191, -0.684492, -0.17057279, -0.2904958, 0.5634167, 0.59426534, -0.10223659, 0.7842771, -0.96947116, 0.52546155, 0.07889875, -0.79169965, -0.5153357, -0.1606819, 0.42062846, -0.21350443, 0.44832572, 0.0704235, -0.008070737, 0.94399583, 0.1363647, -0.21696606, -0.20798762, -1.0699252, 0.044102408, -1.1665968, -0.4046603, -0.47998118, 0.17340526, -0.5170496, 0.6335845, -0.21964486, -0.8227941, -0.09596827, -0.5589314, 0.41434726, -0.60854155, -1.0001009, -0.71617424, -0.87939626, 0.40683693, 0.05866485, 0.6195158, 0.809641, -0.01771747, 0.3829911, -0.53989106, 0.31822962, 0.106208466, -0.2971242, 0.17464915, 0.4186768, -0.3207859, 0.4850499, 0.23080418, -0.11353986, -0.066323474, -0.26717335, 0.14461222, -0.13516483, -0.7361961, 0.01721244, 0.40111446, -0.015213904, 0.2859651, -0.2668345, 0.051254254, -0.05175109, 0.21483484, 0.54942393, 0.0077495053, 0.8230425, 0.27947277, -0.20449495, 0.59186095, -0.12331645, -0.9766245, -0.6820054, 0.17458573, -0.44925302, 0.18351379, 0.31022215, 0.16413313, -0.2799341, -0.50536036, -0.47381788, -0.76671976, -0.39996728, 0.021637361, -0.16293108, 0.24466553, 0.1788813, -0.31970388, -0.51094514, -0.2819747, -0.009586391, -0.5222025, 0.15243548, -0.16273579, 0.8889812, 0.6812846, -0.06503666, 0.02534312, -0.08146623, -0.29527396, -0.99491036, -0.3987681, 0.32008237, -0.78721654, -0.49783984, 0.16412246, -0.17364883, -0.15977529, -0.17887104, -0.23887888, 0.020696592, 0.17407165, 0.29106456, -0.03640833, 0.08409916, -0.047827046, 0.37694663, -0.38396764, -0.06698262, -0.2530613, -0.3178402, 0.19279964, 0.891642, -0.6348659, 0.3382242, 0.2290241, 0.5909791, -0.34124064, 0.28220177, 0.023257723, 0.12232015, -0.33983567, 0.3580343, -0.2940572, 0.30083063, -0.24131171, 0.30345857, 0.41933513, -0.18640971, -0.50762033, 0.36474344, -0.44289407, -0.24267188, -0.1696633, 0.81370276, 0.15540126, 0.25349274, -0.5304434, 0.33844045]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>김혜린</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Beautiful girl</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>7</v>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>[0.42772523, -0.6011535, -0.29880533, -0.57973504, 0.29254705, -0.40272504, 0.6888289, 0.16788478, -0.14950334, -0.09188531, 0.17502834, -0.06348574, -0.13094723, 0.6139821, -0.60897976, 0.45693874, 0.032358915, -0.38452715, 0.14218783, -0.9421925, 0.83937395, 0.35941732, 0.42501736, 0.4270806, 0.45293704, -0.3744245, -0.13957176, 0.15449515, 0.09208527, -0.18601218, 0.1892014, -0.53802454, -0.35417116, -0.5268273, 0.38794398, 0.46169323, -0.22745211, -0.1159042, 0.39380527, 0.03991723, -0.008865472, -0.17836806, -0.58869123, 0.5712897, 0.010388926, -0.81373733, 0.23137525, 0.006787984, -0.6114367, -0.43637604, 0.7493529, -0.23939174, -0.13723716, 0.59481263, -0.35048714, -1.0290176, 0.31597558, -0.56987494, 0.238661, -0.44461754, 0.8625959, 0.2891045, -0.43289512, -0.3207766, 0.02035585, -0.35632506, -0.022779945, -0.1347595, 0.04004703, 0.14063454, 0.9864795, 0.6248638, 0.20833722, -0.1617247, 0.033230245, -0.8771664, 0.028626323, 0.04877646, 0.90616024, 0.82962596, -0.19702652, -0.48465514, 0.33428642, -0.38797435, 0.468628, -0.71827924, 0.7859981, 0.08779309, -0.65598667, -0.165241, -0.6542155, -0.81965506, -0.7430091, -0.020611662, -1.0924642, -0.21168223, 0.08566612, -0.28063282, 0.6483774, 0.54553396, -0.09884551, 0.23659115, -0.38873667, 0.54941165, 0.39690542, -0.27719915, 0.14452308, 1.4103338, 0.9545931, 0.45702615, 0.83278483, -0.18068683, 0.17532814, -0.09217074, 0.2061275, -0.5184902, -1.0951672, -0.10489601, 0.38350525, -0.36448628, 0.4001839, -0.54705006, -0.39634913, -0.051611207, 0.0030693263, 0.5750339, 0.3888721, -0.36217716, 0.7197182, 0.6457953, -0.31321973, 0.6275651, 0.4046473, -0.35371658, -0.21128628, 0.26823944, 0.16479237, -0.21267192, -0.20332652, 0.39451304, 0.3600366, 0.013257731, 0.014717624, 0.51334083, -0.34080765, 0.49711806, 0.5313505, -0.3447839, -0.14705795, 0.1054465, 0.1599911, 0.7869405, 0.2779707, 0.9373116, -0.09043413, -0.8690691, -0.2227671, -0.7819469, 0.5395099, -0.18719351, -0.16186753, -0.63413036, 0.22920021, -0.32694077, -0.1543916, 0.074226275, -0.20710248, 0.03635195, 0.1482589, -0.68065214, 0.6531213, -0.113780886, 0.32970965, -0.23342574, -0.7738899, 0.16887036, 0.32194376, 0.08861088, -0.40295562, 0.13059825, -0.17951751, 0.29380387, 0.6500079, 0.5197934, -0.4451443, 0.124450535, -0.99822104, 0.33454376, 0.14732751, -0.8618873, 1.0240272, 0.006845735, -0.20934814, -0.1615594, -0.3966657, 0.02723056, 0.4732602, -0.046971917, 0.25350276, 0.07304756, -1.1729679, 0.04063049, 0.06228844, -0.15669426, -0.6780957, -1.7804595, -0.06732571, -0.14016485, -0.64859253, -0.15594968, -0.046161413, 0.2580676, 0.53513396, -0.38372165, 0.019054025, 0.10569853, -0.55328554, -0.017289523, 0.647504, -0.11597332, 0.434196, -0.29562354, 0.10204467, -0.3445759, -0.42512766, 0.22675899, 0.09009313, 0.44300234, -0.028573833, -0.15337017, -0.13322867, 0.35565495, 0.08803017, -0.6204157, 0.39621803, -0.21879461, 0.25878692, -0.045372017, -0.25130713, -0.38612008, 0.29663485, -0.3438581, 0.052509572, -0.57228345, 0.5130824, -0.37305817, -0.13484776, -0.43158853, -0.061941575, -0.49671185, 0.4559162, 0.40085906, 0.036434207, 0.12637094, -0.3407805, -0.48664647, -0.58511424, 0.70999867, -0.7854304, 0.3340804, -0.65163034, -0.5675534, -0.4959555, 0.2087247, 0.26527202, -0.06843445, 0.7625043, -0.826521, 0.46710336, -0.15219843, 0.03951283, -0.029732777, 0.25283536, 0.10039431, -0.1876845, 0.34332702, -0.09911185, 0.17920831, 0.029814862, 0.8698741, -0.26222208, 0.69170916, 0.35941082, -0.8006979, 0.6764013, 0.10212657, 0.27997538, 0.5873378, 0.28546065, -0.48526543, 0.040983103, 0.4051636, -0.070477694, -1.614791, 0.2895453, 0.08334075, -0.13585722, -0.06651345, -0.33907023, 0.061509207, 0.10756756, 0.8522289, -0.41038483, 0.41624296, 0.06361179, 0.24598187, -0.3604865, -0.28535467, -0.0757998, 0.8473817, -0.4033991, 0.45144787, 0.14034107, -0.037606232, -0.194235, -0.7815017, -0.31381422, -0.5718173, 0.22604595, -0.42281032, 0.4145371, -0.80716133, 0.6317607, 0.37976617, 0.18454315, 0.03038641, 0.31082577, -0.095806, -0.3430527, -0.0041107666, 0.23032984, -0.0074266307, 0.19223298, -0.40704864, 0.10302942, -0.49681827, -0.23145467, -0.77762616, -0.06857784, 0.07390018, 0.08690471, 0.4426422, -0.680475, 0.22697051, -0.08786706, 2.564826, -0.0334483, -0.43289304, 0.013577709, -0.04812164, -0.25478363, -0.03580319, -0.924223, 0.07470651, -0.67165124, 0.16769195, 0.28176185, -0.07689223, -0.57514817, 0.38043696, -0.0041924417, 0.20449746, 0.49222982, 0.023411524, -0.30098104, -0.17547683, 0.27000093, -0.12415749, 0.27634758, 0.79819036, -0.23626561, 0.6919017, 0.9457072, -0.68629795, -0.23766243, 0.18272312, 0.10993041, 0.20041923, -0.0563166, -0.80462754, -0.27862525, 0.55784655, -0.08154534, -0.6769075, 0.10140081, 0.42794698, -0.093392394, 0.017436981, -1.1100957, -0.4160363, -0.30875233, 0.9875419, -0.51314926, -0.12978029, -0.83134806, 0.44578928, -0.733947, -0.57229936, -0.3344365, -0.013682868, -0.16893937, -0.31580794, -0.28159964, 0.26620615, -0.17637634, -0.28731504, 0.05712203, -0.16165593, -0.2728877, -0.1321033, -0.67046523, -0.5136053, 0.13131514, 0.038217872, 0.017605571, -0.13521376, 0.53955233, 0.1383385, -0.057256814, 0.023326226, -0.30859733, -0.11427922, 0.040476564, -0.5445033, 0.6275257, 0.14913729, 0.4051929, -0.5099052, -0.48661917, 0.30552104, -0.23235947, -0.14186746, -0.07503562, 0.120827235, -0.5951807, -0.36076772, -0.013278179, -0.4334395, 0.08511092, 0.39218885, 0.6356182, -0.36767346, 0.14534926, -0.29645282, -0.27801043, 0.22614294, -0.45896387, 0.63387597, 0.011867125, -0.48796287, -0.3665593, -0.3634628, 0.30318534, 0.1004524, 0.009555202, 0.53363234, 0.46084422, -0.08370624, 0.34799844, 0.33058715, 0.40331498, -0.2521992, -0.09285645, -0.320955, -0.4033469, -0.13641459, 0.28822523, 0.42674974, -0.57016003, 0.14139593, -0.1676853, -0.43999434, 0.78046477, 0.2921375, 0.29655498, -0.4798629, -0.060903657, -0.21408664, -0.19844872, -0.45139927, -0.5424595, -0.3379941, -0.17892739, -0.4947524, 0.53614444, 0.70507556, -0.5058832, 0.7664405, 0.5681334, 0.11790194, -0.019136097, -0.13841003, 0.2515229, -0.22319813, 0.1568048, -0.4791072, -0.5322475, 0.016019706, -0.14049123, -0.8984604, -0.7724926, 0.009749867, -0.13448225, -0.22886904, -0.55282, 0.14463705, 0.14676781, -0.24473484, 0.59999067, -0.4711902, -0.40217474, 0.5115622, 0.33084992, 0.2525871, 0.202806, 0.73016715, -0.8270481, -0.36431935, -0.6380696, 0.26883036, 0.046861947, 0.20274208, -0.31391266, 0.2661312, -0.15036407, 0.29647624, 0.00930453, -0.0033674752, -0.23498148, 0.6396553, 0.1468615, 0.051659096, -0.19965824, 0.18489514, 0.1405642, -0.13170584, 0.7173645, 0.29924643, -0.2902334, 0.41491425, 0.2457948, -0.33556008, 0.47932, 0.6123108, -0.07332066, -0.23003948, 0.3120471, 0.5658691, 1.0506033, -0.2703159, 0.5258263, -0.3570183, -0.20415461, -0.23231897, -0.41033798, -0.24936506, -0.31827074, -0.69508505, -0.5314021, 0.84544516, -0.23069298, 1.1040602, 0.2806601, 0.10585572, -0.1493309, 0.2824732, 0.49431112, -0.15558396, 0.30304164, -0.26979575, 0.4585203, -0.18129149, 0.023546407, 0.39429227, 0.6037206, -0.2999138, -0.3671815, -0.18705343, -0.7423363, -0.1433667, -0.4484279, 0.44371247, 0.13566068, -0.7571677, 0.259507, -0.36990175, -0.603191, 0.06986019, 0.1458869, 0.0021518841, -0.0639221, -0.18865398, -0.15104672, 0.024725951, -0.074937046, 0.20190057, -0.017581549, 1.0766721, 0.14309216, -0.50815874, -0.4419381, 0.6255521, 0.25215513, -0.07209216, -0.15351805, -0.18001242, 0.37950766, -0.02029901, -0.54690826, -0.18668221, 0.5956299, -0.33248138, 0.19469897, -0.18730171, 0.16574416, -0.7048365, -0.6225889, 0.0709491, 0.38245454, 0.8379171, -0.11023845, -0.19677424, -0.6086856, 0.25661623, 0.52780116, -0.24847546, -0.8576269, -0.26825446, 0.30345196, -0.07607437, -0.0204696, 0.37791908, 0.017961986, 0.42568076, -0.12854345, -0.8111539, -0.14898641, 0.12153152, -0.43906856, -0.56951463, 0.12127747, 0.53281367, -0.116693795, -0.10704408, 0.05941717, 0.4075219, 0.11650462, 0.05751952, -0.25022268, -0.46433958, -0.7851132, -0.3029337, -0.6056152, 0.17231143, -0.33668822, -0.45245636, -0.1541144, -0.6361841, -0.17682761, 0.50869787, -0.07209918, 0.024072323, -0.8728051, -0.39671147, 0.45051205, -0.36219096, -0.6319524, -0.58367777, -0.16261344, -0.22123905, 0.5901876, -0.48432243, -0.29200163, -0.2433739, -0.12793012, 0.1279082, 0.25100577, 0.12188641, 0.11184785, -0.6308031, 0.18648955, 0.77720517, -0.36996728, 0.48786932, -0.13591158, 0.74767435, 0.30513456, -0.80877244, 0.19970337, -0.28631997, -0.1590801, -0.18064368, 0.27040845, 0.13645454, -0.13031305, 0.22924113, -0.15006547, 0.09451967, -0.23587987, 0.093673915, 0.029785754, -1.0454686, 0.22430179, -0.29184914, -0.08367782, -0.4197394, 0.37637812, -0.30743116, -0.8507342, 0.09102325, -0.4277023, -0.09981151, -0.044558644, 0.396729, -0.121865764, -0.33441028, -0.5764131, -0.031207703, -0.35367215, -0.30794173, -0.598676, -0.24285573, -0.548862, -0.12730527, -0.01674455, 0.021292597, -0.62904704, -0.8167336, -0.86847055, 0.14597875, -0.09579108, 0.18718715, 0.1710507, -0.0069162007, -0.08680928, -0.6793014, 0.2219264, 0.114369005, 0.04883963, -0.56005895, 0.026019908, 0.043944143, -0.6376777, 0.089984864, 0.3232276, -0.022187635, 0.08148248, -0.013058707, 0.47509685, -0.33086884, -0.12893401, 0.27616477, 0.4216963, 0.08207272, 0.07886597, 0.83437335, -0.1946309, -0.21064699, 0.12963405, 0.1833249, -0.57409334, 0.22076035, 0.9009217, -0.31073892, 0.30258715, 0.682858, -0.92207235, 0.121466845]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>박서우</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Beautiful girl</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>7</v>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>[0.07968915, -0.13780953, 0.49717242, 0.25162143, 0.704707, -0.35359234, 0.23102987, 1.2162666, -0.2917809, -0.05740436, -0.01790116, 0.64070296, -0.06475453, 0.33183256, 0.3738971, -0.27156746, -0.3883798, -0.44561732, 0.18193418, -0.90609276, 0.20413302, -0.5327415, 0.3692734, -0.16409437, 0.10866994, 0.026950732, -0.07226738, 0.078492105, 0.6094921, -0.19423442, -0.95473576, 0.48957014, -0.10589852, 0.1041092, 0.64973223, -0.13722312, 0.009606019, -0.5470639, 0.44450298, -0.46504968, -0.11760101, 0.2662757, -0.8125754, 0.03683344, 0.00030789152, -0.3814209, -0.61039823, 0.14171739, -0.6150322, 0.9011533, 0.48431748, -0.82723975, 0.4442901, -0.24440013, 0.10913727, -0.24627644, 0.46858865, -0.7374485, 0.20645322, -0.022580992, -0.08452441, -0.36801153, 0.16244988, -0.80592334, 0.5671824, -0.67055666, 0.25618744, 0.15351188, -0.24140066, 0.5400552, 0.53038836, 0.47373176, 0.67379355, 0.20205984, 0.04224646, 0.0032662153, -0.5511931, -0.155788, 0.3221028, -0.1515095, -0.15142292, -0.8261821, -0.22096236, -0.3712182, -0.06299523, -0.9394175, 0.09848878, 0.2272355, -0.4222932, -0.4710108, 0.21398222, 0.46112043, -0.50341785, -0.012933709, -0.5736392, 0.5556163, 0.33796543, -0.1787416, 0.42511025, -0.01033343, -0.2382505, -0.5334775, -0.64424247, -0.052323878, -0.44622397, 0.100273736, -0.0657187, 0.8264998, 0.98108035, -1.5144504, 0.0744472, -0.9711462, 0.0035596024, 0.027094148, 0.0055418685, -0.068798035, -0.09628853, -0.055689428, 0.09641116, 0.38735312, -0.15974376, -0.12111108, 0.5349217, -0.74330837, -0.12269701, 0.34711522, 0.72493064, 0.18319288, -0.047511384, -0.072250396, -0.4981144, -0.23259997, 1.0303011, 0.035733905, 0.47874516, 0.2916779, 0.12563601, -0.2725651, -0.023153547, -0.74792725, 0.15165284, -0.17701188, 0.33145696, -0.40988103, -0.8687778, -0.2516502, -0.2027787, -0.09661613, -0.045597263, -0.639906, 0.026850462, 0.48339343, 0.24617682, 0.28983828, -0.50184333, -0.20271268, 0.33938837, -0.074709475, 0.15604328, 0.26633883, -0.19632149, -0.062261656, 0.4510941, -0.10522172, -0.9128126, 0.23048592, 0.05112371, -0.094389, 0.22507058, -0.24497804, 0.6316538, -0.19127452, 0.128486, -0.5210491, 0.44982934, 0.42546067, -0.22792216, 0.112532526, -0.016953964, -0.4498624, 0.5575193, 0.06538278, 0.49895778, -0.009358997, -0.37694782, 0.4708091, -1.185096, -0.09557599, -0.21545222, -0.1103475, -0.14624405, 0.040250663, -0.9292276, -0.3343103, 0.65185785, 0.35354605, 0.27805147, -0.3564447, -0.2850689, 0.42629194, -0.6416039, -0.2834326, -0.028637502, -0.23760746, -0.23113883, 0.19530705, -0.3236614, -0.31496435, -0.0012819618, -0.44549525, -0.46517462, 1.1387497, 0.2798864, -0.21969153, -0.34898403, 0.056822367, 0.13550173, -0.20303988, -0.16919748, -0.015892975, 0.26175106, 0.29142562, 0.054628637, 0.21060799, 0.017156972, 0.2009542, 0.050315678, -0.12236179, 0.25578, -0.69779694, -0.74722517, 0.17334196, -0.48829496, -0.5476904, 0.357503, 0.31580192, -1.0010322, 0.4727616, 0.36662757, -0.25830424, 0.03854707, -0.03762085, -0.3371501, -0.22782159, 0.051211894, -0.34794196, -0.6095275, 0.037555017, 0.6564525, -0.32821864, 0.39060208, 0.11796546, -0.71053636, 0.4851107, 0.35894823, -0.8211898, -0.14209384, 0.059410993, -0.10745949, 0.2370812, 0.030335926, 0.28085223, 0.49336696, 0.021373412, -0.30239728, 0.50049305, 0.70633006, -0.34702933, 1.1548064, 0.34603608, 0.05274856, -0.7980082, 0.55750227, -0.45631814, -0.33496654, 0.51504326, 0.3423273, 0.26217264, 0.14433694, -0.086660355, 0.5417047, 0.67307, 0.308083, 0.294859, 0.044379108, 0.18676113, -0.34874988, 0.46062332, -0.78254944, -0.4919359, -0.28532854, 0.3487212, 0.42156124, -1.5078679, -0.8667561, 0.27506182, -0.07122202, 0.86215186, -1.2268171, 0.10750137, 0.75975746, 0.11930428, -0.19271149, -0.161576, 0.32253227, 0.18279988, -0.051401164, -0.0861668, -0.28616065, 0.08486003, -0.19520272, -0.11887313, 0.17633793, 0.1817428, 0.3380567, -0.3913352, 0.15364343, -0.026682936, -0.32736975, -0.22480538, -0.12693602, -0.10396555, -0.26557535, 0.30095, -0.1913456, 0.45431328, 0.15974993, 0.08454455, -0.36229026, 0.52025104, 0.085507065, 0.19007835, 0.8216015, -0.045011077, -0.06721352, -0.76483935, -0.021384241, 0.22333533, 0.2621866, 0.13487113, 0.6307239, 0.32449883, -0.39601263, 0.4164601, 0.84953225, 1.9497733, 0.5393321, -0.2856732, -0.09017539, -0.35758552, 0.13887279, -0.50875926, -0.24522999, -0.28157848, -0.26215538, 0.72536904, 0.2053932, 0.81748456, -0.5987553, 0.35387594, 0.78836155, 0.32388633, 0.019874252, 0.009581775, -0.76101273, -0.30865824, 0.2349948, -0.09111251, 0.37230644, 0.2582312, 0.36412966, 0.15519097, -0.27379593, -0.5813944, -0.16815029, 0.2508654, 0.4235923, 0.5427507, -0.4373846, -0.35497898, 0.7103134, -0.06331179, -0.15991926, -0.48960984, 0.18739557, 0.0846969, -0.022746556, 0.003925979, -0.6223652, -0.51644397, -0.50563246, 0.07862459, -0.42007756, 0.13510646, -0.24871944, 0.3135637, -0.6592676, -1.2369796, -0.18952191, 0.04922801, -0.084887005, 0.9138189, 0.37174428, -0.34641948, -0.40095964, 0.70113856, 0.40600902, -0.34730175, -0.6713473, 0.024042513, -0.5875351, -0.18714502, -0.34202385, -0.66549534, 0.7398339, -0.23431696, -0.5843693, -0.602323, 0.24674083, 0.31186265, 0.05965744, 0.035025485, 0.8979552, 0.25244585, 0.57199574, 0.8178086, -0.37340546, -0.94391465, -0.28917718, -0.39542896, 0.7177999, -0.70182014, 0.5181631, 0.32598227, -0.44672936, -1.0807351, -0.5835069, -0.5747994, -0.11797697, -0.3829415, 0.36081144, -0.27619883, -0.010703051, 0.6240944, -1.0244825, 0.13569492, -1.2418777, -0.46202576, -0.3910438, -0.57304144, -0.8675679, -0.23056652, -0.43929288, 0.23517121, -0.41434067, 0.4341782, -0.2986631, 0.39328355, 0.30824292, -0.25612754, 0.0051464066, -0.77554905, -0.7475481, 0.39660552, 0.19867116, -0.17458288, -0.26932648, -0.13498472, 0.46211374, -0.04734688, -0.17113008, -0.21749908, 1.0915215, 0.065068945, 0.18869737, 0.24856038, -0.16601935, 0.5817207, 0.47885096, -0.5287068, 0.61448395, -0.89846116, 0.0010497011, -0.28195626, 0.3925532, -0.37934256, -0.3948121, 0.114390686, 0.4817961, -0.13346957, -0.57959586, -0.42325938, -0.67377484, -0.035320062, -0.62878156, -0.6529166, 0.43971598, 0.6888603, -0.44316477, -0.5699259, -0.075902276, 0.5252942, 0.16482626, -0.03298376, 0.15888533, -0.108912155, 0.30050638, -0.30608302, -0.33206743, -0.16558488, 0.09956576, -0.42003825, 0.7863816, -0.10753715, 0.15682736, -0.31550133, 0.4383906, 0.1613031, -0.18154922, -0.29041788, -0.6531328, -0.5541785, 0.34025243, -0.24299243, -0.12040991, 0.27341467, -0.0067562144, -0.28384724, -0.5452298, 0.25562713, -0.5181793, -0.05550342, -0.0061409343, 0.5062938, 0.3898207, -0.29043204, 0.06352667, 0.9886615, 0.34715277, 0.5071547, 0.15530911, -0.115739405, 0.13875625, -0.091772795, -0.471427, 0.10068744, -0.34140527, -0.34111017, 0.25009164, -0.5917697, 0.5249878, -0.7023351, -0.008857794, -0.19105661, -0.7398879, -0.15535116, -0.12020706, -0.08136074, -0.15156588, 0.6084115, -0.71987176, -0.013071159, 0.0061068647, 0.095587075, -0.094510525, -0.24937607, -0.08698313, 0.4762669, 0.736638, 0.3409536, 1.0135972, 0.33997002, -0.102675095, 0.7137647, -0.46040842, -0.96280444, -0.86751604, -0.17697236, -0.50693667, 0.0967776, 0.30673718, 0.8054874, -0.083664194, -0.3128417, 0.3177193, -0.49340832, -0.010399811, -0.10979715, -0.07020186, 0.17284171, -0.083015166, -0.8336103, -0.55789936, -0.19828516, -1.3031703, 0.06569271, 0.15181485, -0.7459749, 0.11489399, -0.08191629, 0.14511342, 0.16045596, 0.40699816, 0.8694028, -0.22117978, 0.3085118, 0.36494228, -0.5704113, -0.14569671, -0.2678696, 0.24867539, -0.75709677, 0.14076504, -0.74907917, -0.052019615, -0.19437452, 0.66642714, -0.42299145, 0.30885485, 0.7160419, 0.6111381, 0.43012437, -0.87462515, 0.23569739, 0.46788543, -0.23127918, -0.7370924, -0.31826642, 0.20903623, 0.19114642, -0.039396964, 0.26183888, 0.1030647, 0.113538295, -0.05922003, -0.14850602, -0.3562711, -0.8359721, -0.011868712, -0.73324513, 0.03603835, 0.38569868, 0.6882443, -0.4295699, 0.41589814, 0.13099071, -0.6842426, -0.6171218, -0.49262375, 0.4504901, -0.1487064, -0.37822783, 0.2774216, 0.43060294, 0.320966, -0.0651393, 0.5526356, -0.6508828, 0.28978208, -0.16142184, 0.46425164, -0.29635417, 0.89700544, -0.6834277, -0.23361218, 0.6372205, 0.6640978, 0.8242005, 0.19770828, -0.20432617, -0.7440523, -0.6713584, 0.31964836, -0.18036734, 0.18508095, 0.17989999, 0.31273127, -0.41607302, -0.04776059, -0.99805325, 0.14424382, 0.2946252, 0.116817705, -0.025355272, -0.2612139, 0.3246517, 0.5068834, -0.11121413, 0.016601129, -0.21258011, -0.6653033, -0.32136074, -0.24754986, -0.0030290075, 0.27576452, 0.3743226, -0.052123465, -0.7548014, -0.11406846, -0.2580247, 0.16991015, -0.40519637, 0.267309, -0.16400304, 0.31701076, -0.3618353, -1.0944301, -0.06408709, 0.2870678, -0.009783308, -0.7748099, 0.18991724, -0.13570978, 0.15676102, 0.0636825, 0.10208944, -0.044455312, -0.20252891, -0.73996496, -0.41509184, -0.53479123, -0.30254817, 0.033047, -0.32580042, -0.20100455, -0.13529943, 0.13202932, -0.16918363, -0.017406184, -0.28931698, 0.2421129, -0.42011064, 0.47733593, 0.39597356, 0.53443646, -0.034622673, 0.03748586, 0.34948632, 0.11531058, -0.2559095, -0.11261266, 0.3756794, -0.6186269, 0.5397389, 0.054438032, 0.33259833, 0.9242835, 0.39467633, -0.28327775, -0.49695957, -0.22282973, -0.23826483, -0.1618129, -0.24135524, -0.07903569, 1.0051229, 0.2231386, 0.04506097, -0.47155154, -0.72148204, 0.16913185, 0.3196243, 0.0012849644, 0.5077577, -0.07868622, -0.30827364, -0.26170757, -0.026109777]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>황정인</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Good-looking guy</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>7</v>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>[0.18804595, -0.25077894, 0.4956804, -0.1271547, 0.80768794, -0.63773084, 0.027315399, 0.52535814, 0.056842256, -0.1114499, -0.3577919, -0.20386887, -0.36185038, 0.6209198, 0.22004247, -0.15167172, -0.06592133, 0.17167756, 0.44336343, -0.45943764, -0.26165864, 0.15054113, 0.50544924, 0.551301, -0.21088171, -0.10503783, -0.3241627, 0.2707825, 0.4119473, 0.089714706, -0.15622884, 0.26124433, -0.50651103, -0.030661326, 0.32764834, 0.6881789, -0.29081982, -0.65067804, 0.07524398, -0.5595512, -0.29590422, 0.433618, -0.770566, 0.52850014, -0.4866447, -0.21328396, -0.38371432, 0.40092552, -0.518936, -0.038311586, 0.6238104, -0.83760524, 0.48949215, 0.18960273, 0.5158808, 0.08143818, 0.029499095, -0.5503364, 0.37059873, -0.52169687, 0.7033127, -0.104669794, -0.6239586, -0.07353212, 0.69942474, 0.03399749, -0.4686675, 0.23399779, -0.3948285, 0.49533927, 0.47367656, 1.1669426, -0.03215894, -0.51072186, 0.55430835, -0.027038854, 0.07489486, 0.0476486, 0.72428995, 1.1230242, -0.019715678, -0.42528218, 0.6149249, -0.025942214, 0.5779339, -0.679124, 0.5210228, -0.88694847, -1.0874343, -0.33004272, -0.47593337, -0.15528157, 0.36718658, 0.082202286, -0.9333498, -0.4355477, 0.7193862, -0.28015226, 0.6028415, 0.39550504, -0.58208597, 0.53228486, -0.8532492, 0.07673677, -0.021781642, 0.14316317, 0.21685967, -0.05393335, 0.4339313, -0.71879464, 0.41472065, -0.5575508, -0.44487002, -0.25457713, -0.39957893, -0.4196819, -0.9101925, 0.13203679, 0.21065226, 0.17248394, 0.3413695, -0.94590974, -0.29803059, -0.03523906, 0.37350553, 0.3962773, 0.57357466, 0.16748632, -0.3905084, -0.34072423, -0.4478897, -0.21207069, 0.08756304, -0.26911348, -0.4773662, 0.78659964, 0.3538494, -0.12032934, -0.728104, -0.21798989, 0.37474754, 0.27394193, 0.4945846, -0.04183436, -0.15454128, 0.2787734, 0.39793083, -0.47641817, -0.043848194, 0.27978873, -0.3756122, 0.15647157, 0.11439414, 0.17978707, -0.13667843, -0.44110546, -0.37211737, -0.17933826, 1.1812339, 0.77001786, 0.13867994, 0.33198455, -0.016077457, -0.7238846, -0.20203884, 0.9617277, 0.1957365, -0.29053912, 0.62270904, -0.41982204, -0.27381665, -0.11454517, -0.15675232, -0.3877718, -0.46258566, 0.29198253, 0.3080971, 0.7087252, -0.41425714, 0.14255044, 0.37883422, 0.6082239, -0.051522415, 0.6061584, -0.42142895, 0.44870842, -0.567033, -0.09366016, -0.38418216, -0.54077303, -0.08719515, 0.5050317, 0.07943058, 0.51843536, 0.0664927, -0.4083242, 0.4272036, -0.10599548, 0.04137867, 0.46055692, -0.4367793, -0.5749165, -0.109792724, 0.22060044, -0.2887972, -0.65913314, -0.43324724, -0.4750687, -0.11752222, -0.18806386, -0.17767084, 0.8507607, 0.6277644, 0.15512785, 0.46120396, -0.4318864, 0.03057388, -0.12714748, -0.12606393, -0.46733177, -0.13565695, -0.3693004, 0.4713222, -0.47264454, -0.57302004, 0.08330455, 0.4748106, 0.076615065, 0.4712034, 0.3694619, -0.9244668, 0.095066294, -0.27937943, -0.51428217, 0.34365642, 0.03475393, -0.93630934, -0.06110262, -0.7377741, -0.43060985, 0.17159146, -0.27807683, 0.10820534, -0.3609773, 0.69429696, -0.44791996, -0.29228228, -0.067758575, 0.35878286, -0.6366264, 0.48684543, 0.7160606, 0.3212009, -0.1985175, 0.3340982, -0.5539988, -0.33511454, 0.09164232, -0.55267954, 0.7150419, -0.44335657, -0.015435286, -0.5580189, 0.2664261, 0.7422064, 0.63864076, 0.6004472, -0.11186263, 1.0952193, 0.51219904, 0.13942896, 0.11063993, 0.23826504, 0.20537964, -0.13388892, 0.03271749, -0.06016148, -0.15748505, 0.2666796, 0.113308474, 0.5970708, 0.37980697, 0.4466506, -0.43891475, -0.18860753, 0.17653874, 0.4872522, 0.0568505, -0.009487852, -0.44538137, -0.13271917, 0.42842847, 0.15790759, -1.1082833, 0.22736485, 0.09462536, -0.28160402, 0.042474613, -0.21021934, 0.78376305, 0.54210246, 0.46734518, 0.32352507, -0.24250793, 0.27422005, -0.053707816, -0.12636164, 0.6888768, -0.5700121, 0.41288278, 0.15041256, -0.06353977, 0.17353675, -0.026137926, -0.046056863, -0.57458043, -0.42394766, -0.21646169, 0.1243168, -0.14363514, -0.009292541, -0.5918807, -0.24317124, 0.19913077, -0.04377789, -0.37362823, -0.35243535, 0.43683806, -0.41489947, 0.34452686, -0.025880307, -0.36779007, 0.21232814, -0.4699044, -0.54432434, 0.32654548, -0.13339414, -0.5509963, -0.3104645, 0.37439078, 0.11705067, 0.56578845, -0.8685912, -0.23603188, -0.23100655, 1.9541979, 0.4585942, -0.28457582, 0.5667555, -0.74393684, -0.10152455, -0.17755178, -0.4478652, -0.30371547, -0.094296165, 0.5650044, -0.13348755, 0.08901122, 0.026593708, 0.43185574, 0.076886706, -0.5278628, 0.41232082, -0.49785066, -0.74821186, 0.50333226, -0.049314648, -0.20611922, -0.0055708457, 0.045789823, -0.06343328, 0.6831274, 0.54054344, -0.04416983, -1.0886229, 0.27018118, -0.056355298, 0.40867725, -0.30915573, -0.21769467, 0.428836, 0.5706402, 0.20723379, -1.2369804, 0.45575514, 0.898409, -0.041859686, 0.4986625, -0.030580446, -0.71296483, -0.24018657, 1.1817155, -0.36857384, -0.5745911, -0.80636954, 0.3920569, -0.62767583, -0.123513676, 0.12554112, 0.054233078, -0.6800966, 0.36272296, 0.40391493, 0.22244859, -0.5278433, -0.16279922, 0.53873765, -0.44132924, -0.6880672, -0.42277038, -0.75746167, -0.2729013, -0.4391933, -0.8732488, 0.6426022, -0.5198032, 0.027587248, -0.24029277, 0.006240844, 0.5031522, -0.38882276, -0.32633895, 0.8138058, -0.34259772, 0.18587327, 0.10674672, 0.04920396, -0.5838711, -0.19936162, 0.105445445, 0.37801313, -0.13356084, 0.3005304, 0.8188108, -0.8159171, -0.91318345, 0.106939085, -0.040002093, 0.68678355, -0.4428988, 0.9751101, 0.059968777, -0.5029782, 0.34407324, -0.4368713, 0.02838479, -0.4494081, -0.016713042, -0.41454062, -0.28489116, -0.6813338, -0.088945605, -0.799616, 0.11273453, -0.16584235, 0.46069998, 0.89422363, -0.21124876, 0.10225837, 0.19599476, 0.3672156, -1.247647, -0.28069907, -0.4101162, -0.14289518, 0.9019726, 0.51374733, 0.040780492, 0.29315132, 0.054771774, 0.358913, -0.41855264, 1.2485014, 0.053142007, 0.48418453, -0.03901506, 0.41706988, 0.27839962, -0.24513258, -0.576943, 0.22030602, -1.1244631, -0.047260214, -0.5111602, 0.76496714, 0.08584367, -0.47161305, 0.44328195, 0.6216518, 0.53689826, -0.5153986, 0.13897555, -0.67924094, 0.20585166, 0.16171113, -0.7115519, 0.05299628, 0.2962048, 0.08633601, -1.0140004, -0.1672304, 0.024268806, -0.36124554, -0.21716598, 0.12684302, -0.30879378, -0.012632439, -0.5036007, 0.84040916, -0.21878004, -0.50960433, 0.59665406, 0.7223503, 0.58792466, -0.065435834, 0.07530671, 0.3622266, -0.7007202, -0.4322927, 0.66380084, -0.43100607, -0.20410174, -0.58891666, 0.48716736, -0.52819425, 0.1393753, -0.35731703, -0.7816446, -0.077799626, -0.06370418, -0.044793382, 0.7589109, 0.35264468, 0.7146505, 0.007854538, 0.053682968, 0.12772247, 0.71386623, 0.1930885, 0.22994138, 0.35853818, -0.48558408, 0.065122955, 0.8209226, -0.19184151, -0.052871726, 0.31041315, -0.39387935, 0.74068904, -0.63470316, 0.067201145, -0.72814137, -0.15418002, -0.5372963, -0.35252446, -0.50633734, -0.070809335, -0.5080843, -0.508902, -0.106208816, -0.21691772, -0.028132277, -0.61786866, 0.8187997, 0.00958946, -0.5920497, 0.8279138, 0.49959433, 0.5969217, -0.113932796, 0.91953504, 0.11347017, 0.059288353, 0.16205661, 0.049186166, -0.5824798, -0.5687878, -0.30126527, -0.28543553, 0.06514708, -0.17398599, 0.38544756, 0.0068798, -0.7579216, 0.23761871, -0.016413368, -0.30718523, 0.143922, -0.39844996, 0.34627363, 0.41873217, -0.62820417, -0.5118137, -0.19633922, -0.7206836, -0.5245353, -0.19125545, -0.6921161, -0.547871, -0.17628317, -0.028170459, 0.3502626, 0.43106952, 0.52783585, -0.04019626, -0.294069, 0.5487519, -0.53677934, -0.19951901, -0.06871208, 0.17689577, -0.5101783, 0.08125326, -0.31075984, 0.43800354, -0.42405665, 0.1593117, 0.28714198, 0.31053904, 0.044572163, 0.52739173, 0.08232227, -0.7403499, -0.04748956, 0.5504317, -0.017158944, -0.6130419, -0.42238888, 0.05983046, 0.6206083, 0.50835073, -0.29184562, -0.25925756, 0.1848208, -0.3071426, -0.6093671, 0.30340397, -0.4600621, -0.57075614, -0.80477834, 0.0480029, 0.12728888, -0.08615294, -0.5340856, 0.23716824, 0.7583366, -0.22872199, 0.23601812, -0.61696404, 0.15710393, -0.7440998, -0.84603477, -0.25850543, 0.26581675, 0.16158958, -0.26969713, -0.092083596, -0.010037415, -0.100744426, 0.38822073, -0.58839005, -0.003981868, 0.38756126, -0.6586648, 0.016547062, -0.3971962, -0.6339537, 0.04986027, 0.55959, 0.10879411, 0.3120784, -0.74423695, 0.49266565, -0.16211154, -0.37051034, 0.018415919, 0.24897288, -0.4839448, -0.18918079, -0.4608602, 0.17200504, -0.5356696, -0.24179259, 0.048382998, -0.48016208, 1.0376563, 0.060961276, -0.3413006, 0.36505654, -0.55701464, -0.14749065, 0.09726246, -0.14294872, -0.07279777, 0.86086047, 0.122071885, -0.31603622, -1.1333745, -0.30191284, -0.42685935, 0.20817515, -0.06600131, 0.12738718, -0.34571996, -0.15427974, 0.11212676, -0.49824446, -0.041602023, 0.293548, -0.10777872, 0.0039393813, -0.19892186, -0.24159563, 0.25945854, 0.38974315, -0.07321212, -0.6581683, 0.040901057, 0.018040579, -0.5581967, -0.25131756, 0.25602996, -0.4801174, -0.7185498, -0.18230222, -0.15496162, -0.4074332, -0.46842057, -0.09139678, -0.3491541, 0.23676085, -0.4480371, -0.06189126, 0.129016, 0.009787008, 0.39565137, 0.12121585, 0.5755334, 0.15463136, -0.73686, -0.09299186, 0.2880907, -0.38730997, -0.16572438, -0.15330136, 0.0028250776, -0.060693555, 0.10855506, 0.38702023, -0.31978732, 0.68165845, 0.1533156, 0.3447488, -0.5586739, -0.3952196, 0.36127096, -0.37819558, -0.3054494, 0.19506782, -0.14168148, -1.1481634, -0.009225069, 0.5197817, 0.6290865, -0.045496054, -0.09661219, -0.63597167, -0.39847168]</t>
         </is>
       </c>
     </row>

--- a/rheology_dataset_em.xlsx
+++ b/rheology_dataset_em.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>embedding</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -501,6 +506,9 @@
           <t>[-0.37510443, -0.77338433, 0.59277123, -0.35786262, -0.12521341, -0.5053022, 0.14771359, 0.36545506, 0.15172288, -0.34170738, -0.7584302, -0.11001643, -0.7761047, -0.14770837, -0.091216505, 0.33651796, 0.40692937, -0.10602199, 0.4296074, -0.31994715, 0.30074197, 0.26233426, 0.4478217, 0.7488447, 0.03311114, 0.724925, 0.100861646, -0.22255194, 0.55832213, -0.17033912, -0.50248766, -0.08529184, -0.16063222, 0.01786918, 0.47078702, 0.42612183, -0.4034907, -0.15401983, -0.46814165, -0.14802842, -0.55316335, -0.09327125, -0.030440984, 0.51075155, -0.23175241, -1.0154573, -0.28128478, -0.29746646, 0.15240687, -0.13366096, -0.37161073, 0.17619938, 0.31966114, 0.6136667, -0.34167853, -0.07035042, 0.19830418, -0.233949, 0.8678436, -0.18708174, 0.59204584, 0.15269536, 0.04372346, 0.30872694, 0.71033937, 0.19727068, -0.37264347, 0.17845313, -0.8709523, 0.1798592, 0.5719039, 0.23945518, 0.41772604, -0.21030365, -0.027462825, -0.07659249, -0.5086141, 0.09819295, 0.027806448, 0.4154931, -0.41747797, -0.21563911, -0.023296019, -0.63602084, 0.0051321103, -0.5245644, -0.3833389, -0.06050915, 0.08858224, -0.59241575, -0.6595513, -0.441772, -0.39240113, -0.57498896, -0.22949634, -0.31347805, 0.32650632, 0.49007174, 0.25347254, 0.030807832, -0.10092879, -0.011488055, 0.43192777, 0.19335318, 0.12653123, 0.025908887, -0.27926484, 0.29054862, -0.64218295, -0.12421901, 0.17512171, -0.38610685, 0.36558256, -0.22430398, 0.10085044, -0.062321667, -0.42095506, 0.26882955, 0.04728149, -0.43738928, 0.14961524, -0.640419, -0.19601989, 0.09823525, -0.777114, 0.4873438, 0.5143021, -0.6809106, 0.19589083, -0.5162388, -0.065575, 0.15741664, -0.34594372, -0.06740497, -0.29453778, -0.95818996, 0.49686834, -0.07944491, 0.32469594, 0.4995915, 0.5720058, 0.06476919, -0.26026264, 0.122928835, -0.06594071, 0.2393529, 0.5236207, -0.5659984, -0.018552886, -0.19760096, -0.4444786, 1.0139906, -0.4591814, 0.024405101, -0.11814659, -0.46744958, -0.42088974, -0.21310596, 0.09915123, -0.008695937, -0.3380127, -0.30732659, 0.01952733, -0.37941632, 0.09086134, -0.58585596, 0.442621, -0.021628045, -0.20782925, -0.27857333, 0.09382849, 0.043520067, 0.1454837, -0.2552034, -0.04944955, 0.08372122, -0.61428684, 0.15927498, 0.27231088, 0.09482611, 0.19176002, 0.47118878, 0.4338685, -0.0008991311, -0.21729986, 0.19332416, -0.053922817, 0.25040343, -0.46568874, -0.80948883, 0.8085747, -0.16168962, 0.21634175, -0.39312175, -0.10450208, 0.20010245, -0.09301105, -0.27229288, -0.26737842, 0.28465283, -0.41121635, -0.09206722, 0.3802416, 0.36331454, 0.1987847, -0.10540569, -0.11999928, -0.5532791, 0.3297691, -0.826266, -0.007999902, 0.35240245, 0.608921, 0.10383815, 0.7633849, -0.22604483, -0.60109663, -0.2852002, 0.069794014, -0.16333966, 0.35001993, -0.19164883, 0.66482186, -0.44623283, -0.064963125, -0.7244223, 0.4635042, -0.0453279, -0.028215615, -0.3249371, -0.17570506, -0.26831326, -0.5664702, -0.22579634, -0.27370548, -0.433064, -0.1474035, 0.2774794, 0.28516635, -0.6379616, -0.18738787, 0.3196961, 0.36754382, -0.07168599, -0.08039445, -0.67950994, -0.18834777, -0.93251705, -0.01286972, -0.56695896, 0.30044052, 0.902365, -0.10348794, 0.09003214, 0.41525352, -0.97529197, -0.0769553, 0.37313142, -0.5194629, 0.33168983, -0.038116295, -0.013378288, -0.035069074, -0.13926058, -0.022910252, -0.042985618, 0.31231412, -0.46279275, 0.15894909, -0.4957718, -0.2854394, -0.5776302, 0.47722194, -0.22901951, -0.18858816, 0.15778857, -0.3070511, 0.8964979, 0.57180595, -0.19026566, 1.1278557, 0.8218429, 0.20412123, 0.17467181, 0.07297642, 0.17155933, -0.17605798, -0.07619181, -0.4249868, -0.92174244, 0.3443348, -0.042820204, -0.03103822, -0.33543396, -0.24835984, -0.056135044, -0.4761987, -0.1253383, -0.06940422, -0.7884281, 0.36149082, 0.1896137, -0.50807405, 0.30246606, 0.3439112, 0.2714412, -0.52150685, -0.39900044, -0.44482908, 0.14635576, 0.06889275, -0.6863356, -0.028664023, -0.09910449, 0.20753281, -0.16579966, 0.40862417, -0.49899212, -0.13377215, 0.35018405, -0.37137356, -0.1402177, 0.29603246, 0.0347133, 0.4803815, 0.35442355, 0.34516773, 0.03455786, -0.54485685, 0.27840203, -0.9135814, -1.0595433, 0.4932866, 0.00045303255, 0.025625372, 0.38501772, 0.06317153, -0.69660807, 0.4300879, -0.13498078, 0.33088002, 0.35809174, -0.69313127, 0.32377842, -0.0031241078, 1.6677723, 0.032876786, -0.4391478, 0.2373451, -0.33535135, 0.010237862, 0.3694156, 0.09802142, 0.23179467, 0.15270644, 0.22932069, 0.059282944, 0.5153766, -0.3303882, 0.01235341, 0.19249626, 0.37159014, 0.27669045, -0.041297313, -0.195468, 0.5251556, -1.1397237, 0.5492591, 0.3859731, 0.8751666, 0.3379515, -0.29934627, 0.6261735, -0.283842, -0.24237238, 0.1740073, -0.24201138, 0.563817, 0.09991715, 0.24196504, -0.11122956, 0.77656454, -0.305645, -0.81042725, -0.13914156, -0.5705282, -0.6912649, 0.19339688, -0.31130123, -0.10131993, 0.2135679, 0.45014417, 0.24316365, -0.0009962817, -1.2162571, -0.3137937, -0.6203291, -0.6652344, -0.39891994, -0.20678937, -0.17928374, -0.1726886, 0.13139053, 0.09759361, 0.05199787, 0.09226143, 0.36983022, -0.9750519, 0.09306084, 0.06768314, -1.0852433, -0.27532127, -0.23827338, -0.70945287, 0.047822814, -0.033276573, 0.096903056, 0.07361751, -0.3127185, 0.10078296, 0.23017216, -0.20124896, 0.76965755, -0.02554012, 0.32885632, 0.55390555, -0.6534407, -0.19340022, -0.028138762, 0.3084753, 0.29437602, 0.3028539, -0.2158119, 0.09444953, 0.26948985, -1.0570159, -0.15511565, -0.18233688, -0.26216847, -0.12825435, 0.112373255, 0.5201325, -0.19403125, 0.48828682, -0.56864446, 0.2903507, 0.14584675, -0.30548653, -0.5722957, 0.022078818, -0.58970875, -0.17536084, 0.051804226, -1.0111114, -0.3721834, 0.43508375, 0.7312536, 0.06123114, 0.1036286, -0.28544286, -0.34104788, -0.36517754, -0.5873768, -0.31606078, 0.15442687, 0.7442789, 0.24838202, 0.6472227, -0.13187866, 0.48303422, -0.2890426, -0.26402998, 0.18435906, 0.009280264, 0.23021041, -0.033376675, 0.11255788, -0.32043517, -0.042696808, 0.10325631, 0.07409848, -0.65364856, 0.23090905, -0.44994363, 0.3857018, 0.33637643, -0.40759134, -0.13653155, 0.22667675, -0.23787248, -0.012324152, 0.51588285, -0.24107003, 0.27149546, 0.09981064, -0.5188056, -0.2747369, 0.25603378, -0.20698984, 0.1165809, -0.06499203, -0.007834469, -0.25616333, -0.22764428, 0.13799913, 0.2283045, 0.10308323, 0.25973776, -0.16638461, 0.061374906, -0.6435953, 0.3270299, 0.82291865, 0.056385186, 0.36508486, 0.81371737, -0.13142152, -0.22677314, -0.32164684, 0.28013065, -1.0102303, -0.37811723, 0.31785926, 0.008125648, -0.28021413, 0.172072, 0.45479998, -0.36721084, -0.1606385, 0.34451652, -0.071452074, -0.26228362, -0.107578784, 0.3901938, 0.1223914, 0.4625719, -0.7986539, 0.44816932, -0.71698123, 0.47397402, 0.052875977, -0.45310876, 0.09136777, -0.39150086, -0.2220378, -0.08842797, 0.4506233, 0.322625, -0.53973633, -0.119203925, -0.17241196, -0.78084564, -0.38362202, -0.749708, -0.65037173, -0.4256471, 0.056782033, -0.2843618, -0.45847023, -0.22319375, 0.08754406, 0.92851144, -0.4223598, -0.007999174, -0.25096488, 0.3789316, 0.37777784, 0.2099623, -0.27951297, 0.1225545, 0.53100526, 0.016502907, 0.085320264, 0.041536067, -0.41445938, -0.8592171, -0.3828443, -0.5167667, 0.2145781, -0.35990533, -0.014324685, 0.42726398, 0.028030122, 0.021076223, 0.75461906, 0.22781157, 0.41693902, 0.7413547, -0.13294105, -0.45631263, 0.026379287, -0.13811441, 0.7156529, 0.25990105, -0.489108, -0.47014678, -0.43399858, -0.45896578, 0.028081713, -0.23102987, -0.14916594, 0.8064843, 0.04932648, -0.17300503, -0.4228014, -0.3660785, 0.81941265, -0.36663827, 0.038650565, 0.22808532, 0.26677847, -0.36459914, 0.2480458, 0.041401226, 0.28633413, 0.2826681, -0.53087455, 0.5796949, -0.109419204, 0.9177925, -0.585873, 0.11813545, -0.6971994, 0.6641615, -0.1374126, -0.2722223, 0.07048852, 0.006487856, 0.26397726, -0.13886863, 0.6022301, -0.30040815, 0.3377737, -0.55578166, 0.02590322, -0.5697344, 0.1425538, 0.08314848, 0.035256118, -0.48494613, -0.281583, -0.17346728, -0.0609861, 0.057659466, -0.068683326, -0.51289207, -0.3019134, -0.5748889, -0.2221684, -0.3519226, -0.16945887, 0.29407385, -0.23162712, 0.06240067, 0.38723505, -0.5533016, -0.27807435, 0.4057254, -0.06576263, 0.12784606, 0.2663768, -0.19853686, 0.16394143, -0.24439806, -0.09943286, -0.20142567, -0.26811156, -0.23985517, 0.58125585, 0.33173966, 0.7715427, 0.19334269, -0.20150639, -0.031262796, -0.32932875, -0.00826022, 0.5793806, 0.16168265, -0.0093987435, -0.49124154, -0.36726785, -0.18214174, 0.0101656215, -0.10522167, 0.05530021, 0.5959829, 0.42330393, -0.6803573, 0.13939188, -0.46496907, 0.20034437, 0.32674187, 0.6564996, -0.2001605, 0.23934986, 0.5629564, -0.020358762, 0.04728508, 0.16448699, -0.18537961, 0.24820451, -0.27353275, -0.5955836, -0.41379204, -0.018003002, -0.22017829, -0.28373003, -0.41050175, -0.070509695, 0.047187325, -0.7493929, -0.3480537, -0.3836727, 0.38334045, -0.22284712, -0.0016738772, -0.27507934, -0.14951073, 0.17676288, -0.87244755, 0.12124944, 0.03524938, -0.08199234, -0.20162983, 0.26786768, -0.43647575, 0.019690137, -0.25364226, -0.6995514, -0.0026986871, -0.44972482, -0.14755355, 0.20808749, 0.5338395, 0.31018177, 0.048010748, 0.4704461, 0.20387109, 0.083259396, 0.23881005, -0.5938236, -0.04696245, -0.14122598, 0.26968926, 0.44303036, -0.18759502, 0.17487748, 0.5831438, 0.7118885, 0.24205364, 0.33583984, 0.72938585, 0.24688685, 0.13539846, -0.077942096, -0.32022026, -0.4188535, -0.09441426, 0.5295149, -0.15065923, 0.12552162, -0.06180918, -0.63298017, -0.25043094, 0.15040404, 0.57923514, 0.32683465, -0.6508966]</t>
         </is>
       </c>
+      <c r="I2" t="n">
+        <v>0.2812762856483459</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -533,6 +541,9 @@
           <t>[0.0069260662, -1.0377825, 0.34661636, -0.21079275, 0.15136698, -0.56473076, 0.048994824, 0.30708447, 0.5464368, -0.64985406, -0.37713838, -0.6242519, -0.47166067, 0.32355767, -0.13263325, 0.37605485, -0.074903786, -0.2668693, 0.31864005, -0.40845174, 0.26535946, 0.15519747, 0.55910265, 0.58558375, -0.08368154, 0.5919824, -0.15135178, -0.24649271, 0.38890642, 0.094615296, -0.6547527, 0.0047285645, -0.1416299, 0.03785702, 0.57862145, 0.2739718, -0.74532366, -0.2166328, -0.40402466, -0.22597441, -0.42869505, -0.23112774, -0.044341173, 0.3707747, -0.118515514, -0.79657817, -0.36768135, -0.32480043, -0.09737879, 0.123070225, -0.44577652, 0.27372998, 0.3436697, 0.3652227, -0.37036854, -0.57318217, 0.28701845, -0.634615, 0.69383264, 0.08891691, 0.53022546, -0.2668091, 0.08931477, 0.39632294, 0.5505844, 0.23864183, -0.27508774, 0.060107745, -0.74393827, 0.7840836, 0.07055394, 0.2618056, 0.44408196, -0.38316092, 0.19830205, -0.38514048, -0.2932717, 0.165961, 0.47479114, 0.45311365, -0.50414836, 0.019687384, 0.24715629, -0.5947073, 0.21998353, -0.27757964, -0.41467825, -0.09208157, -0.21923251, -0.23178963, -0.7264004, -0.12375084, -0.0715815, -0.60273993, -0.17838539, -0.27502546, 0.29387024, 0.19159156, 0.18781418, 0.22617236, -0.33700246, -0.08995031, 0.23451734, 0.18858984, 0.31703913, -0.16981213, -0.25073478, 0.15938923, -0.6383174, -0.043205064, 0.52600616, -0.63565767, 0.051988564, 0.020000344, 0.2558649, -0.36572045, -0.20158303, 0.18852922, 0.11107929, -0.2576202, -0.016558092, -0.62868726, -0.0837296, 0.3442882, -0.24119163, 0.58811176, 0.5562434, -0.5475702, -0.35904092, -0.1225435, 0.13755755, 0.025548074, -0.25563258, 0.05457024, -0.4151341, -0.53421414, 0.252803, -0.4911223, 0.52537024, 0.62575257, 0.9439432, -0.16910101, -0.22502944, 0.19420728, -0.048430756, 0.22033508, 0.5732985, -0.36786017, 0.2754046, -0.27226406, -0.19219205, 0.5866418, -0.08845776, -0.0071794568, 0.24847424, -0.7875978, -0.5543607, -0.24012896, -0.030328363, 0.26548308, -0.32702228, 0.2276895, 0.077786975, -0.7336954, -0.032483503, -0.31457537, 0.6473452, -0.33212212, 0.13037303, -0.054022886, 0.26834607, -0.24144685, -0.027852377, -0.1543489, -0.29126924, 0.27530235, -0.51976717, 0.11055656, 0.29742834, 0.065818034, 0.15823826, 0.5120155, 0.1384227, 0.20383401, -0.021010783, 0.32661566, 0.09546295, 0.13734464, -0.6575222, -1.1258043, 0.45730096, 0.05120628, 0.3182799, -0.22829208, 0.037096016, 0.15623052, -0.39782456, -0.40597516, -0.07162027, 0.08897209, -0.56946725, -0.37466866, 0.25819135, 0.38326257, 0.14382029, -0.13315156, -0.07539022, -0.2089221, 0.34506172, -0.77713656, 0.26413262, 0.31115022, 0.18175915, 0.25765, 0.3343085, -0.13578162, -0.6142498, -0.10234509, 0.13299288, -0.2371943, 0.44319063, -0.49719208, 0.39134583, -0.5512296, -0.09327326, -0.48668194, 0.34153628, -0.21101165, -0.05191835, -0.107394025, -0.05177746, -0.48764792, -0.11372773, -0.35664943, -0.18699083, -0.19885154, -0.21780808, 0.34940138, 0.3539748, -0.5903094, 0.19477472, 0.20602293, -0.0048807086, -0.11245078, -0.17320497, -0.71410197, -0.50431734, -0.4734528, 0.36399224, -0.33790603, 0.20850515, 0.8367504, -0.06436737, 0.21628852, 0.09949637, -0.9322931, -0.019687403, 0.5087696, -0.6102505, -0.08286394, -0.018909425, 0.20551679, 0.028940309, 0.10310843, -0.28365663, -0.3329146, 0.2248939, -0.4064146, 0.2360522, -0.40033883, -0.42517462, -0.22611639, 0.3923294, -0.21394551, 0.19223814, 0.106077686, 0.13544509, 0.38116625, 0.6134248, 0.25112414, 0.5106533, 0.6804428, 0.1938694, 0.05583909, 0.2372679, -0.008450156, -0.18927462, -0.34585342, -0.15760328, -1.3493395, 0.22107148, -0.021658123, -0.16039476, -0.42299372, -0.08820493, -0.08421993, -0.21482888, 0.0053828745, 0.29542536, -0.17791763, 0.03207116, 0.4624291, -0.18256432, -0.15798049, 0.11355324, 0.5192931, -0.525525, -0.37278533, -0.7299995, 0.58314604, 0.41378516, -0.0728222, 0.17692187, -0.23846753, 0.18019268, -0.27829993, 0.36108536, 0.10628555, 0.21634082, 0.20922223, -0.89230424, -0.20604798, -0.14365986, 0.1903384, 0.34961367, 0.5342169, -0.117265664, 0.1612446, -0.69795567, 0.2957851, -0.5263926, -0.9781796, 0.3548011, -0.10837978, -0.040155172, 0.089039326, 0.13220677, -0.64472455, 0.658219, -0.11547824, 0.11126347, 0.37478843, -0.45306617, 0.31757423, 0.11965217, 2.2091413, 0.3288129, -0.25065508, 0.66272575, -0.62950075, -0.1342983, -0.2780158, 0.0047617345, -0.0074845217, 0.23092496, 0.43046647, 0.07087837, 0.99047786, -0.43074828, 0.009662896, 0.00047203302, -0.35856622, 0.39787036, -0.11879738, -0.47055346, 0.6845074, -0.87836874, 0.37937596, 0.21932018, 1.075046, 0.16480947, -0.08652554, 0.56315225, -0.33297974, -0.5930533, 0.3373703, -0.34251037, 0.40712324, 0.08567335, 0.18753603, 0.07674598, 0.768791, -0.2902166, -0.56779605, -0.15201533, -0.42318907, -0.26421797, 0.35725152, -0.2221967, -0.19379711, 0.122693375, 0.31275082, 0.30493513, -0.18427327, -0.9500371, -0.04751132, -0.6544624, -0.73560846, 0.012366303, -0.5929983, -0.08738677, 0.29185674, 0.064541675, 0.2377131, 0.22773859, 0.05740968, 0.7204146, -0.69849473, 0.13156886, -0.2433652, -1.1241938, -0.01021204, -0.53840905, -0.6156773, 0.20776275, -0.16237, 0.34822527, -0.010135603, -0.27409294, -0.12792444, 0.2793134, -0.38199192, 0.5959629, -0.49247622, 0.30650747, 0.50972474, -0.8663098, -0.26808426, -0.2299598, 0.6792513, 0.43635935, 0.47458214, -0.07482193, 0.0326187, -0.11463646, -0.98646945, -0.08938531, -0.22321638, -0.05966891, 0.09671372, 0.20171893, 0.09043815, -0.017207002, 0.5210346, -0.33667627, 0.21013467, 0.5197519, -0.039069243, -0.42413387, -0.20166159, -0.2675597, -0.6690643, -0.3229456, -0.77998817, -0.6729771, 0.05299636, 0.43271455, -0.32574958, 0.35247886, 0.042410843, -0.37514645, -0.5900424, -0.4107092, -0.35752207, 0.36967558, 0.2512277, 0.51867783, 0.12830111, -0.40554014, 0.17382059, -0.5041763, -0.3232541, 0.07089198, -0.07619533, 0.3874404, -0.18082303, -0.009758411, -0.28911328, -0.15673578, 0.17274621, -0.09383794, -0.69614494, 0.031175505, -0.47646713, 0.22033879, 0.0013760924, -0.41960636, 0.05347665, 0.23826675, -0.09190643, -0.17188601, 0.4883701, -0.2889905, 0.21960878, 0.54788196, -0.35109, -0.17213428, 0.15202278, -0.22844267, 0.018886238, -0.061599392, -0.14996287, -0.4709366, -0.339644, -0.03895407, -0.026046833, -0.28498438, 0.34254915, -0.39482468, 0.09518311, -0.47019386, 0.49390537, 0.69095, -0.04296486, 0.037255514, 1.0863547, -0.26201886, -0.15039301, -0.4630602, 0.13792339, -0.7281951, -0.4296475, 0.17120466, 0.023581196, -0.12861623, 0.21487239, 0.049399827, -0.41860056, 0.05496194, 0.37034696, 0.18102124, 0.16012898, 0.25358623, 0.59626627, -0.2602031, 0.042936075, -0.45901412, 0.508148, -0.10331519, 0.13395554, 0.33454558, -0.4952641, 0.4349503, -0.094254985, -0.120965935, 0.013920355, 0.30532438, 0.40540877, -0.057660766, -0.35257864, -0.11234599, -0.44280672, -0.38856712, -0.7473208, -0.55233866, -0.27060774, -0.57715213, -0.6471969, -0.68688077, -0.021778626, 0.068991, 0.6274809, -0.45377627, -0.26281148, -0.4450082, 0.12629798, 0.8452587, 0.3129714, 0.040637575, 0.26488414, 0.27012998, -0.08148963, -0.2503351, 0.29823363, -0.61735797, -0.6322118, -0.5250624, -0.3762962, 0.3626182, -0.33528662, -0.026309863, 0.5194236, 0.22763896, 0.18169238, 0.7214428, 0.25144944, 0.2361886, 0.8635937, -0.33050886, -0.35634986, -0.032600276, 0.30579266, 0.94209015, 0.45325842, -0.62864286, -0.27150923, -0.104606606, -0.26335502, 0.24678496, -0.078137144, -0.0568374, 0.5304171, 0.24853115, -0.052585077, -0.16018716, -0.6396109, 0.82351226, -0.18431748, -0.49703115, 0.554775, 0.2538899, -0.33747798, -0.22008947, -0.14434758, 0.6630708, 0.01057297, -0.3392601, 0.30024529, -0.44669908, 0.749347, -0.13642144, -0.077945605, -0.8519122, 0.39954132, -0.08721579, -0.0507916, 0.10880474, -0.33273992, 0.21739626, 0.2503734, 0.51684684, -0.3522517, 0.11225482, -0.9764581, -0.55140793, -0.46699563, 0.3897342, 0.4432199, 0.0003400095, -0.69887096, -0.42402464, -0.049470343, -0.30033022, 0.31354478, 0.08421938, -0.7038407, -0.2696873, -0.1059276, -0.39282244, -0.12540315, -0.4966832, 0.29993817, -0.33229938, 0.13724363, 0.14423259, -0.44010687, -0.4585824, 0.05831592, 0.053200413, -0.026261479, -0.05090285, -0.17034367, 0.46168727, -0.33130497, -0.55757535, -0.2207568, -0.24498074, -0.22919789, 0.75073284, 0.038396664, 0.57667017, 0.07502479, 0.084939405, 0.17572957, -0.6241461, 0.03502981, 0.6158358, -0.18639112, -0.11756573, -0.348614, -0.149986, -0.22745457, -0.2820639, 0.3002327, -0.35117775, 0.7818483, 0.28928518, -0.4018859, 0.3554967, -0.056425966, 0.08333322, 0.36984223, 0.64400226, -0.4116313, 0.37743527, 0.6539266, 0.096444145, -0.17701739, 0.06230268, -0.33976045, 0.59691346, -0.2346274, -0.18610904, -0.38317055, 0.2216502, 0.01193738, -0.39911467, -0.85094035, 0.39217028, -0.13016894, -0.40900755, 0.09061978, -0.8440369, -0.15700445, 0.11823809, -0.34816286, -0.1324677, 0.3722493, 0.040114284, -0.61591196, -0.0033331276, -0.23193061, -0.03189969, -0.5631303, -0.15704066, -0.53678334, -0.14975548, -0.117574334, -0.98560745, 0.2070978, -0.66344434, -0.21374798, -0.07089194, 0.04212887, 0.5291308, 0.1395256, 0.30981222, 0.5690006, -0.06882853, 0.5287659, -0.46929517, -0.09891032, 0.11669961, 0.05089764, 0.25139695, -0.037001025, 0.66736615, 0.38895553, 0.6029008, 0.20396432, 0.3483224, 0.39480546, 0.12423301, -0.04320416, -0.25490052, -0.4839708, -0.6911961, 0.039039787, 0.43283138, -0.2270989, 0.15743901, -0.04415568, -0.38191146, -0.102394916, -0.009414038, 0.77235824, 0.37785164, -0.57468575]</t>
         </is>
       </c>
+      <c r="I3" t="n">
+        <v>0.2488539218902588</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,16 +551,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>물성학이란?</t>
+          <t>Hello?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>물질의 변형과 흐름에 대한 학문입니다</t>
+          <t>안녕하세요?</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
@@ -562,8 +573,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[-0.27483538, -0.5575143, 0.06729993, -0.25729096, -0.37879044, -0.25989318, 0.51276684, -0.39009064, 0.2441032, -0.4347509, -0.14311238, -0.40028885, 0.10875955, -0.101591654, -0.019869378, -0.5442782, 0.26708648, 0.4117826, 0.5377715, -0.65011996, -0.07935464, 0.6796493, 0.5098974, 0.37957674, -0.04267495, 0.35614383, -0.16924235, -0.7143584, 0.052989848, -0.7714808, 0.43939206, 0.540224, 0.29870453, 0.25823873, 0.40500945, -0.07692395, -0.9237441, 0.2734716, 0.38063288, -0.59752727, -0.23595297, -0.324145, -0.0030246843, -0.014060937, 0.09672947, -0.036236465, 0.09316886, 0.048288785, -0.1270541, 0.24317084, -0.26086962, 0.10934377, 0.339069, 0.74098665, -0.064542085, -0.16465484, 0.08122274, -0.3284533, 0.18623683, -0.33401057, 0.6256417, -0.9806358, 0.024374295, 0.28707647, 0.44654593, -0.09190036, -0.31688452, 0.22035936, -0.055647574, 0.32023248, 0.14646398, 0.17098856, 0.077906474, -0.59676135, 0.054402538, -0.20361139, -0.38084203, 0.10568021, 0.0016905256, 0.70662904, 0.32742923, -0.586897, 0.37734592, -0.18265411, 0.31666344, -0.29018134, 0.079242304, -0.4852523, -0.71182024, -0.4121049, -0.42944935, -0.33534053, 0.120308585, -0.003058724, -0.77547413, -0.59131205, 0.22485873, 0.49712357, 0.28815994, 0.2387969, 0.18351163, 0.019513492, -0.16715395, 0.35861495, 0.38676453, -0.40670145, -0.61134064, 0.6089525, 0.4246364, -0.43221536, 0.5059783, -0.57464576, 0.8834592, -0.29289255, 0.2904908, 0.46097365, -0.2308206, -0.068262614, -0.33346793, 0.49512982, 0.22455353, -0.5623126, -0.2373307, 0.18778008, -0.20545802, 0.38367128, 0.40077326, 0.06682569, -0.1961817, -0.09178674, -0.11002323, 0.69120204, 0.69102204, -0.1369028, -0.19410375, -0.104245424, 0.38963965, 0.319989, 0.91124415, 0.67200863, -0.34183475, -0.28807756, -0.60696864, 0.09464311, -0.13915955, -0.23229486, 0.4997258, -0.08305869, 0.07724843, -0.3006243, -0.296681, -0.20331691, -0.69855654, -0.03133984, -0.047396336, -0.441817, -0.09958452, -0.39562792, 0.33743113, 0.47762996, 0.6947611, -0.25997785, -0.24012816, -0.02512296, -0.2721581, -0.49463898, 0.32297817, -0.10388861, -0.37715262, -0.21634007, -0.31947783, -0.18636769, 0.09188854, -0.2956776, 0.24095905, 0.089725204, -0.5543706, -0.1534775, 0.2838802, 0.007996625, 0.5331074, 0.012372337, 0.082538456, -0.076211676, -0.021226496, 0.5301857, 0.18267033, -0.4006482, -0.75822365, -0.4379001, 0.33146176, -0.59892845, 0.08180794, -0.44389403, 0.1534069, 0.6127627, -0.3443203, 0.12540661, -0.0151853785, 0.2561773, -1.1196785, -0.034212694, 0.0787655, 0.5936365, 0.02312561, 0.14638549, -0.24649745, -0.41058284, 0.6602767, -0.23878045, 0.017886508, 0.4976211, 0.248998, -0.002535887, -0.40435007, -0.5221064, -0.48092997, -0.21626438, 0.2563863, -0.40392542, -0.09099929, -0.5459009, 0.9959434, -0.4560513, -0.35350177, -0.39913782, 0.28281742, 0.65844643, -0.6354774, -0.05798305, 0.12558588, -0.79286397, -0.911612, -0.58055377, 0.23641065, -0.40827072, 0.43626583, 0.3626238, 0.31503743, -0.39483672, 0.351006, 0.24100664, 0.13583598, -0.35306665, 0.1944283, -0.23950683, -0.37877172, -0.58436793, 0.47624612, -0.5190161, 0.012672855, 0.606177, -0.067675486, -0.117250904, 0.17286827, -0.42669797, 0.13726898, 0.9228056, -0.32751545, 0.77466726, -0.2113815, 0.25497094, -0.3173898, 0.112080306, 0.047569722, -0.26569176, 0.16741806, -0.31978133, 0.66578615, -1.0824778, -0.4249689, -0.18373008, 0.57048565, -0.043217402, 0.041402247, 0.49633875, 0.057902917, 0.23637879, 0.032888364, 0.33204925, 0.060032435, 0.4018288, 0.14698237, -0.240691, -0.47977304, -0.49542132, -0.13785145, -0.26913178, -0.3113898, -0.3335157, -0.6294458, -0.15134628, -0.22200224, -1.6276547, -0.27039135, 0.49777097, -0.6678053, 0.15344408, 0.24508236, 0.80099374, -0.05245222, 0.14172336, -0.520422, 0.2385711, 0.11223097, 1.0807294, -0.12608221, -0.26314023, -0.08787303, 0.936345, 0.23627238, 0.08452977, -0.3189978, 0.07641842, 0.42048037, 0.19402978, -0.061136127, 0.16174316, -0.2577888, 0.1558872, -0.062910534, 0.48976976, 0.1517381, 0.21060656, 0.44606185, 0.07918146, -0.17904125, -0.17609131, -0.097510196, -0.13037746, -0.44167492, -0.37425184, 0.3191433, -0.05191713, -0.35158357, 0.037597258, 0.25431857, -0.61417353, -0.048706897, -0.0033779405, -0.057569847, -0.117690906, -1.1266432, 0.015044777, 0.15666053, 1.3725069, -0.32107636, -0.20929396, 0.05386348, -0.75445855, -0.047311887, -0.26049158, -0.28026545, 0.054012418, 0.72676754, 0.0019413596, 0.45010045, 0.7516143, -0.10622062, 0.023118485, 0.6266075, -1.0165817, -0.2268314, 0.27318802, -0.27182773, 0.19351338, -1.3620416, 0.14763579, -0.38941747, -0.17304222, -0.22759207, -0.68352526, 0.20696822, -0.32200816, -0.55669904, 0.39670599, 0.15948741, 0.37797457, 0.10694185, 0.928442, 0.016593961, 0.5359546, -0.2755768, -1.0730176, 0.4271202, -0.18339963, -0.3798124, 0.036696117, -0.27684098, -0.21679252, 0.59329927, -0.112614155, -0.37256545, -0.24076262, -0.7024428, 0.16704696, -0.113780096, -0.20489484, -0.49911702, 0.04656227, -0.5367528, 0.39882424, 0.47541463, 0.3197627, -0.31503615, -0.51727, 0.871725, -0.55399805, -0.5119171, 0.029576067, -0.4365036, 0.009516824, -0.1158825, -0.61306906, 0.07278596, -0.020320278, -0.67776495, 0.92595184, -0.7233688, -0.2787908, -0.090469465, -0.13297358, 0.14908636, -0.17195684, 0.018678091, 0.33306485, 0.53243065, -0.16750291, 0.46677268, 0.6132183, 0.4972543, -0.06200369, 0.96492165, -0.093445644, -0.029957708, -1.1992059, 0.18549651, 0.12498255, -0.11995801, 0.074897796, -0.035769403, 0.1846003, -0.21937506, 0.3274856, 0.08905797, -0.08008852, 0.24854931, -0.45655024, -0.7332895, -0.67460287, -0.64209116, -0.48062935, -0.54068035, -0.39719254, -0.77034867, -0.2887604, 0.26503515, -0.02096675, 0.88106996, 0.26178327, 0.24731272, 0.34276935, 0.15555397, -0.2843294, 0.114232086, 0.17771763, -0.09485935, 0.98743725, 0.5912009, 0.09483845, -0.3845673, 0.0043098405, 0.40556595, -0.7628172, -0.08205817, -0.6779652, -0.34833854, -0.08376046, -0.25944602, -0.04108802, 0.16432278, -0.3406861, 0.10132841, 0.25398618, 0.49732777, 0.01878149, -0.44654188, -0.5919266, 0.37533233, 0.3821757, -0.25474086, 0.35869014, -0.22982953, -0.43521142, 1.2359898, -0.06977246, -0.42889637, 0.95481676, -0.061125718, -0.21307969, -0.024801873, 0.5100354, -0.5611073, -0.71908015, -0.10772566, 0.04331362, 0.5201305, 0.121125504, -0.30030462, -0.26514253, -0.2969005, -0.4514475, 0.29360583, -0.083526775, -0.5786369, 0.07898986, 0.27622855, -0.14106525, -0.35380808, 0.09702863, 0.12020779, -0.4343564, 0.38486785, 0.266779, -0.74986404, -0.09048021, 0.07811713, 0.39483842, -0.15386875, 0.088635206, 0.18930821, -0.5124121, -0.06302741, -0.49728292, -0.26764727, -0.24333706, -0.2331986, 0.1049431, 0.147314, 0.18202336, 0.1629261, 0.38976082, 0.26633048, -0.49159873, -0.18408573, -0.061137952, -0.00378901, 0.69504315, -0.1852778, -0.7958852, 0.17018619, -0.3192372, 0.13872693, -0.33451182, -0.19064452, -0.4207685, 0.10601087, 0.07422942, -0.5110998, 0.69244826, -0.013008115, 0.059064843, -0.38726476, -0.25645417, -0.6747028, -0.37942713, 0.17385378, 0.87162906, -0.0375505, 0.3536392, 0.83749574, 0.22809145, 0.041571435, 0.65180135, -0.2859546, -1.1447066, -1.0249989, -0.20774147, 0.058785595, -0.02072528, 0.36356828, 0.23481339, 0.235867, 0.043925315, 0.60022354, -0.25043786, -0.8263006, 0.01633194, -0.34845734, 0.18194447, -0.3709116, -0.21587567, 0.340615, 0.3726156, -0.54228187, 0.31697443, -0.8331554, -0.613061, -0.4031286, 0.32964844, -0.31614083, 0.77862096, -0.20791484, -0.20326895, -0.34667403, -1.0337166, 0.86575854, -0.3444118, -0.418323, 0.07815246, -0.05438471, 0.36641407, 0.5095743, -0.21986005, -0.2906766, -0.061141707, 0.2774352, -0.2069466, -0.16598538, 0.54174566, -0.40018183, -0.3400101, -0.4243285, -0.05516686, -0.71554, -0.19243869, -0.61022633, -0.12728892, 0.34027094, -0.105593555, 0.5820111, -0.6247672, -0.0015423894, 0.23039123, -0.15312836, 0.028294336, 0.2864554, 0.31673396, -0.76993775, -1.1721314, -0.1853369, -0.255018, 0.07686092, 0.029360715, -0.645238, -0.1928204, -0.698422, 0.58314073, 0.33590806, 0.39419624, -0.32960284, -0.4079727, 0.35235634, -0.14307688, 0.052072328, -0.21798794, -0.18635194, 0.28640693, -0.4941822, -0.11100771, 0.13563697, 0.032524213, 0.08917625, -0.27851337, -0.83152986, -0.24921913, 0.14717734, 0.24986278, -0.407215, 0.62624335, 0.41959155, -0.19067112, 0.28083953, 0.048958614, -0.7686865, -0.4467709, 0.1428281, -0.055141047, 1.0467498, -0.08285468, 0.0710119, 0.024105545, -0.10250419, 0.19640326, -0.2651679, 1.453834, 0.3122226, -0.003348004, 0.39467782, 0.013495289, -0.57224655, -0.011636041, 0.8526532, -0.5084667, 0.24481472, 0.8478081, -0.31035322, -0.20872407, -0.026040643, -0.07233451, 0.68846804, 0.37781152, -0.4532252, -0.18969706, 0.02119138, -0.11477899, -0.48959485, 0.18648347, -0.4010131, 0.06300725, -0.20702375, -0.13633022, -0.5913256, -0.30676237, -0.28249392, -0.17277423, 0.12889177, -0.2955454, 0.115689486, -1.1103001, 0.39223024, -0.045461684, -0.33793384, -0.61020136, -0.24652772, 0.03417211, 0.9151843, -0.3639688, -0.046127297, 0.123784505, -0.1353876, -0.49813545, 0.05674209, 0.47143057, 0.64392006, 0.23750666, -0.3703612, 0.44725943, -0.13993081, -0.28510553, -0.19430657, 0.18517177, 0.10307763, 0.25588775, 0.8958021, 0.5144903, -0.23608579, 0.39291745, 0.505783, 0.4649707, 0.1483556, -0.012214499, -0.29741892, -0.09817095, -0.051678035, 0.41971034, -0.079588965, -0.2213245, 0.32398257, -0.16351411, -0.15824737, -0.52274996, -0.19138876, 0.024146285, 0.18398619, 0.76225084, 0.009169726, 0.39907956]</t>
-        </is>
+          <t>[-0.35179445, -0.4356664, 0.42785177, -0.38109124, 0.027271256, -0.56614405, 0.07258499, 0.019136233, 0.45747533, -0.4276887, -0.5310691, -0.54124445, -0.6749651, -0.5932045, 0.18700252, 0.34704947, 0.49400806, 0.089358054, 0.10685942, -0.7543188, 0.02470441, 0.320683, 0.19371498, 0.71603125, -0.40465248, 0.36928713, 0.06914056, -0.018329034, 0.16786264, -0.34325922, -0.080379836, -0.38796118, -0.18169792, 0.06202975, 0.6044944, 0.49331224, -0.6088609, -0.1713746, -0.30933568, -0.3165644, -0.16890408, -0.083964, -0.5602336, 0.11997158, -0.16597383, -0.30633983, -0.21177202, -0.23246996, 0.06637997, -0.31528938, -0.10908189, -0.49156418, 0.26687843, 1.2086273, 0.065358445, -0.024638837, 0.2915201, -0.2568341, 0.8462959, -0.07930944, 0.5425901, -0.033375986, -0.1599965, 0.46606866, 0.56786674, -0.02179273, -0.30915928, 0.11406731, -1.3547325, -0.045722377, 0.2484197, 0.17027809, -0.08799899, -0.49525008, -0.15467398, 0.4055083, -0.38050947, -0.30390862, 0.40992644, 0.31400868, -0.36495256, -0.22641414, -0.07292656, -0.54349434, -0.08644101, -0.45597187, 0.00039461255, 0.017012337, 0.03233835, -0.5590109, -0.723793, -0.49781775, -0.4557741, -0.47481143, -0.4809501, 0.037267417, 0.23880108, 0.108442016, 0.663342, -0.051406015, 0.28233922, 0.07108015, 0.2408408, 0.17488943, -0.20797805, 0.33465305, -0.15197319, 0.5352654, -0.8399095, 0.08126248, 0.33763158, -0.21261998, 0.44655955, 0.099009834, 0.03821738, -0.057899494, -0.17470486, -0.07219895, 0.07923537, 0.028463036, 0.34169006, -0.54497766, -0.0012451311, 0.06931308, -0.6148122, 0.43909988, 0.7418204, -0.6687103, -0.04479088, -0.39509073, 0.097243644, -0.07193405, -0.32462218, -0.2817866, -0.32398075, -0.7572131, 0.24590777, -0.27868837, -0.004109077, 0.4558806, 0.18208496, 0.20780861, -0.10553622, -0.41530076, -0.11636894, 0.15209757, 0.33059737, -0.4852221, -0.35619846, -0.06704832, -0.41562212, 0.6656129, -0.2879339, 0.057688247, -0.023431787, -0.22644348, -0.11490012, -0.51550394, -0.049408793, -0.1720984, -0.51198894, -0.0428233, 0.17952557, -0.26578373, 0.15107316, -0.42259142, 0.3650918, -0.05132851, -0.095943965, -0.15684056, -0.031229815, -0.009209986, 0.013326173, -0.6138863, 0.24465694, -0.18893905, -0.116113365, -0.007876615, 0.5393271, -0.12695187, 0.17679445, 0.48273823, 0.040930245, 0.09609983, -0.12549703, 0.31687525, -0.120114535, 0.28745928, -0.13893975, -0.84086865, 0.44562912, 0.30793425, -0.05071212, 0.22633177, 0.22465928, 0.018289035, 0.09409223, -0.15767466, 0.019639472, 0.1570742, -0.4561378, -0.10195617, 0.32327023, 0.35036913, 0.085838996, -0.060277104, -0.26067492, -0.5396195, 0.34423074, -0.19760014, -0.21972726, 0.71199226, 0.3428668, 0.22081977, 0.71244603, -0.2936025, -0.3756735, -0.121049635, 0.08241179, 0.13022406, 0.29823926, -0.27670488, 1.1563525, -0.2660493, -0.18739974, -0.5136072, 0.2547318, -0.33577535, -0.08018193, -0.362914, 0.20616488, -0.39266554, -0.56002337, -0.8625345, -0.17318921, -0.51660913, 0.028063366, 0.21937542, 0.20348465, -0.76303333, -0.5646884, 0.15479724, 0.28982255, -0.28853312, 0.02911424, -0.32814017, -0.31628117, -0.8330608, -0.017309302, -0.89896613, 0.44190362, 0.9744299, -0.14523675, 0.023136288, 0.32507327, -0.70314294, -0.556257, 0.35306886, -0.3013735, 0.29468644, -0.1350024, -0.5017279, -0.33413222, 0.12944102, 0.24055378, 0.32820785, -0.07986661, -0.2938867, 0.24604231, -0.38616455, -0.05049108, -0.5693025, 0.5004587, 0.05772717, 0.064597785, 0.30484584, -0.5441656, 0.5616553, 0.3514322, -0.28036967, 1.2421633, 0.39573446, 0.23764579, -0.4505906, 0.156294, 0.04618385, -0.4272785, -0.4041085, -0.15940629, -1.0559887, 0.3694814, 0.06507612, 0.12007146, -0.9435496, -0.15455298, -0.37142602, -0.47539055, -0.17119901, -0.25892207, -0.45549333, 0.5783909, 0.09449321, -0.10227072, 0.5894715, 0.31750914, 0.034271542, -0.8483508, -0.17382412, -0.039355878, 0.80071235, -0.007305175, -0.40156198, -0.027150363, 0.16007194, 0.22209978, -0.23753183, 0.29565117, -0.52473533, -0.1634631, 0.055055793, -0.40692428, 0.18273497, 0.091096304, -0.057753067, 0.46617034, 0.13699794, 0.0079486715, 0.22563004, -0.556499, 0.3336661, -0.20223232, -0.969824, 0.33500576, 0.04508386, -0.50079244, 0.047543127, -0.1082905, -0.2266803, 0.15933384, -0.051581595, 0.30606616, 0.4474975, -0.8563531, 0.3701119, 0.22842419, 1.8951191, 0.17477107, -0.3354968, 0.35559607, -0.14998351, -0.1371758, -0.13370384, -0.038340315, 0.5692231, 0.2298757, 0.4338267, 0.041343722, 0.5524874, 0.012572721, -0.011297569, 0.3291557, 0.38764572, 0.44101334, 0.19316876, 0.20358527, 0.25048032, -0.9821413, 0.8662334, 0.008036909, 0.3816596, 0.89489466, -0.16813974, 0.7606246, -0.7049441, -0.33201918, 0.030561157, -0.33236694, 0.59309214, -0.20294498, 0.12823738, -0.25162032, 0.5678949, 0.13955662, -0.86734456, 0.088785045, -0.16851772, -0.56823224, 0.33452913, -0.13288802, -0.13612469, 0.6189467, 0.41989043, -0.28639385, -0.61819184, -0.7453117, -0.48147857, -0.43767545, -0.7048254, -0.11340198, 0.09810514, -0.04694968, 0.035451323, -0.010942034, -0.16455193, 0.72254807, 0.15185232, 0.45213833, -0.8321903, 0.18136291, -0.41289142, -0.77841806, 0.0078006885, -0.46547088, -0.67290264, 0.16976471, 0.0060760826, 0.37016162, -0.11834929, 0.011581819, -0.2358474, 0.38054153, -0.054181665, 0.48697352, 0.15518077, 0.40594366, 0.8122523, -0.7111605, -0.2227831, -0.192028, 0.008507068, 0.28172737, 0.47882697, 0.0089504095, 0.24847174, -0.24161796, -0.90057254, -0.07673633, -0.20762004, -0.012957524, -0.0370905, 0.08925069, 0.59307486, -0.3619578, 0.4639021, -0.77522755, 0.047002178, 0.053300064, -0.5009763, -0.6194219, 0.09599794, -0.4708091, -0.1553988, 0.25398746, -0.45082116, -0.26362047, 0.2799113, 1.0998245, -0.2485246, 0.3621452, -0.3095086, -0.30985257, -0.108742215, -0.14053623, -0.6390899, -0.033299267, 0.44620827, 0.58536786, 0.42384672, -0.08017634, 0.6092708, -0.1665603, -0.278376, -0.124793835, -0.13149266, 0.24964428, -0.08203822, -0.11701816, -0.027034976, 0.012392956, 0.0723713, -0.28891084, -0.30777928, 0.2847862, -0.47462082, 0.15124471, -0.017777808, -0.5061777, -0.27663615, 0.5350259, -0.22548115, 0.24298625, 0.34064528, -0.31405318, 0.1551985, 0.20218022, -0.55966103, -0.21121319, 0.5341322, 0.15218063, -0.09342877, 0.037027936, -0.026901037, -0.039975315, -0.27127692, 0.20152123, -0.27625674, -0.13414542, 0.09958837, 0.02466335, 0.110898234, -0.30470046, 0.2756057, 0.8401637, -0.05842026, 0.41978467, 0.7492161, -0.28537086, 0.019847289, -0.56890184, 0.33750919, -0.61742514, 0.0034997512, 0.23866725, -0.27604908, -0.48021042, 0.34012282, 0.24808688, -0.23767132, -0.13473047, 0.2897229, -0.012364971, -0.7435309, -0.14429699, 0.27831206, 0.3625171, 0.8409422, -0.9203951, 0.33144855, -0.9034036, 0.3324217, 0.45864192, -0.2844403, 0.0713481, -0.56736284, 0.13539189, 0.08809348, 0.31091136, 0.5391216, -0.25434342, 0.04866991, -0.26339564, -0.7309668, -0.3295797, -1.0553364, -0.43046287, -0.13358876, -0.081144355, -0.11544678, -0.15768759, -0.35226527, 0.22678627, 0.8761239, -0.44003272, 0.26455376, 0.15944725, 0.30257913, 0.22162215, 0.26348236, -0.04632589, 0.07938406, 0.5783494, 0.21435373, 0.06760072, 0.64307064, -0.2528719, -1.0634496, -0.23586313, -0.4982222, 0.34822747, -0.51567227, -0.49594912, 0.6439478, -0.1222327, -0.029416896, 0.650227, -0.036796894, 0.103843264, 0.3228468, -0.5241857, -0.5344251, 0.12646623, -0.36430314, 0.2621327, 0.18169135, -0.37863937, -0.6943411, -0.2436469, -0.84158474, -0.054842174, -0.30972296, 0.07989681, 0.78324693, -0.093615055, -0.32507348, -0.24171112, -0.42571843, 0.6683127, -0.5101834, -0.40443507, 0.10827502, 0.36775315, -0.6100256, -0.3575429, 0.16660474, -0.3299734, 0.05197181, -0.7961981, -0.003982877, -0.116954185, 0.79771996, -0.603419, 0.02985461, -0.6012633, 0.5922287, -0.04254334, 0.01758874, -0.107597835, -0.29052183, 0.22500913, -0.046758432, 0.36930427, 0.0012422353, 0.43621543, -0.40741178, 0.13275753, -0.8520476, 0.3041191, -0.1392591, 0.02895549, -0.35566512, -0.44926038, -0.5683148, -0.26944783, -0.111767985, -0.24470103, 0.09069905, -0.5524952, -0.44946292, -0.6062274, -0.41615716, 0.1312475, 0.53459877, -0.031009117, 0.14053698, 0.24179554, -0.33483827, -0.22630888, -0.07456914, -0.115212075, 0.3318605, -0.07215021, -0.10163084, -0.041427214, -0.11824444, 0.004070483, -0.220868, -0.2448055, 0.0033636142, 0.55985826, -0.088530205, 0.73537284, 0.5841619, -0.30065957, 0.24460168, -0.20021123, -0.056348637, 0.38138524, -0.11042034, 0.22756557, -0.4769303, -0.4650912, -0.28508034, -0.07814892, 0.23719935, 0.37544015, 0.8592944, 0.27214083, -0.53795254, 0.5414366, -0.60595095, 0.6869287, 0.4789971, 0.27743298, -0.31403983, 0.26742706, 0.91033655, 0.0725485, -0.42404422, 0.10933573, 0.002020128, 0.4596932, -0.56058544, -0.73355055, -0.28009927, -0.018217748, -0.1392848, -0.20445251, -0.20523594, -0.56815344, 0.36028567, -0.3904545, -0.2136995, -0.17938562, 0.6250453, -0.24407922, 0.190484, -0.15267506, 0.14315328, 0.16868319, -0.85494804, -0.19943196, 0.123515464, 0.1847455, -0.5991865, 0.35268998, -0.35930443, 0.048228774, -0.43427134, -0.84891295, -0.1877271, -0.07354295, -0.046141136, 0.011628494, 0.18647893, 0.39823648, -0.084929235, 0.42608288, 0.56174785, 0.017170966, -0.22003345, -0.4348334, 0.037556157, 0.096113004, 0.52472764, 0.117131166, -0.17449029, -0.021496406, 0.34935126, 0.35463214, 0.15923113, 0.40702164, 0.54564786, 0.6872577, 0.03461337, -0.229899, -0.34888563, -0.5011932, -0.0997907, 0.040742952, 0.46310517, 0.21704225, -0.18847917, -0.44188341, 0.03594621, 0.37130764, 0.5147402, 0.017707586, -0.5268362]</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.27939772605896</v>
       </c>
     </row>
     <row r="5">
@@ -572,16 +586,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>물성학의 정의는?</t>
+          <t>What's up?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>물질의 변형과 흐름에 대한 학문입니다</t>
+          <t>안녕하세요?</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
@@ -594,8 +608,11 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[-0.43290207, -0.42784932, 0.12969638, -0.036350325, -0.29253113, -0.25891194, 0.30390495, -0.17621514, 0.27435672, -0.6182519, -0.26556528, -0.347217, -0.012066245, 0.119046606, -0.14632143, -0.6143916, 0.22733063, 0.42886913, 0.4025037, -0.5572796, -0.30590895, 0.55641025, 0.56047136, 0.16114993, -0.08926365, 0.29692286, -0.16801345, -0.6793506, 0.05053074, -0.9321481, 0.45767075, 0.60001665, 0.16878079, 0.02105299, 0.25597873, -0.08229784, -0.7624107, 0.09997645, 0.18023713, -0.504487, -0.25605565, -0.25735006, -0.007781398, -0.012820817, 0.19999945, -0.094953574, 0.05930982, 0.1500937, -0.0062878663, 0.025792046, 0.045442156, -0.154863, 0.17369695, 0.57004845, -0.17283575, -0.40054193, 0.362192, -0.33375645, 0.096598, -0.36434975, 0.59543455, -1.0277717, -0.04604551, 0.024971114, 0.40966284, -0.21979997, -0.06507417, 0.10307282, 0.028872695, 0.30062762, 0.15205151, 0.30074793, 0.18014723, -0.6597051, 0.3104285, -0.329682, -0.28279078, 0.09668205, 0.014555974, 0.4466728, 0.62547123, -0.55298096, 0.39619562, -0.3325183, 0.45428377, -0.29114383, 0.10244194, -0.48718724, -0.6191523, -0.22297056, -0.40714014, -0.4195054, 0.05904036, -0.007507271, -0.7436519, -0.69429195, 0.2244418, 0.53459686, 0.1354286, 0.2399435, -0.032264456, 0.22180027, -0.27024704, 0.3855227, 0.32126218, -0.53894585, -0.5549469, 0.58269155, 0.35360992, -0.35550055, 0.38703144, -0.5556128, 0.8903333, -0.20039286, 0.30882838, 0.721901, -0.33163685, 0.007788425, -0.27485365, 0.44795024, 0.32720265, -0.5399524, -0.35487723, 0.22955468, -0.068791784, 0.3244569, 0.13426812, 0.017579297, 0.14512765, -0.1251423, -0.099635534, 0.46561685, 0.6736178, -0.11703309, -0.23272869, -0.09083311, 0.3833528, 0.29461825, 0.90106606, 0.76848704, -0.44056457, -0.15892349, -0.40791622, -0.11059131, -0.3151938, -0.32764065, 0.36223564, -0.24045645, 0.15111744, -0.19812566, -0.11939715, -0.2683046, -0.69823486, -0.10448137, -0.07762918, -0.19914891, -0.007349024, -0.39933762, 0.43133393, 0.40805307, 0.7587467, -0.2836605, -0.3326794, 0.02601789, -0.36270702, -0.51484543, 0.31356686, -0.20943545, -0.58155704, -0.26958916, -0.32359293, -0.12605396, 0.2778971, -0.3408712, 0.20616807, 0.07744475, -0.57403123, -0.10455045, 0.35642183, 0.037812367, 0.44552305, 0.057333007, 0.08655464, 0.0074693244, -0.20744652, 0.48348776, 0.1849559, -0.4605078, -0.96053654, -0.30305687, 0.44989878, -0.71734375, 0.09050495, -0.45653433, 0.16036388, 0.6762617, -0.43370426, 0.18703736, -0.048753142, 0.24016635, -0.9110245, 0.25761983, 0.16559395, 0.64563257, -0.18085808, 0.3800192, -0.12604544, -0.27748138, 0.6349106, -0.21683148, 0.0683961, 0.5945069, 0.11515995, 0.00946128, -0.3825227, -0.3708242, -0.46947968, -0.17162278, 0.3063216, -0.37281543, 0.13772371, -0.4746151, 0.8086522, -0.17095979, -0.4224443, -0.34008446, 0.17963484, 0.65820307, -0.61014557, 0.2255134, 0.20143795, -0.76201266, -1.0224175, -0.5675457, 0.28426388, -0.62785995, 0.31843257, 0.48555982, 0.11090636, -0.39786685, 0.3285042, 0.5148064, 0.07997105, -0.3203674, 0.20060778, -0.38827458, -0.23732986, -0.39967686, 0.5356328, -0.53177494, 0.3052965, 0.46245638, -0.20967278, -0.11880502, 0.24099663, -0.037415605, 0.017103001, 0.88860965, -0.3656364, 0.59266794, -0.22209628, 0.37574628, -0.26506296, -0.024969397, 0.19196826, -0.09877871, 0.10191985, -0.22817728, 0.49540472, -1.0069544, -0.086132035, -0.28797427, 0.5038541, -0.14330313, 0.2022999, 0.5690843, -0.0015983151, 0.40336546, 0.18287939, 0.42293465, 0.17176604, 0.40345028, 0.114239484, -0.08108488, -0.34862912, -0.44666323, -0.07014403, -0.27780193, -0.5168858, -0.25429904, -0.37127665, -0.22816603, -0.22524397, -1.3829364, -0.14714324, 0.4804734, -0.8879862, 0.093475305, 0.054081354, 0.6973983, -0.28948814, 0.29304874, -0.61120725, 0.3501261, 0.112977415, 1.0585988, -0.11721979, -0.31020537, 0.0073121455, 0.7261082, 0.12978442, 0.26435104, -0.28828493, -0.11611904, 0.3519568, -0.043424524, -0.10821896, 0.14504422, -0.28244555, 0.18553059, -0.0039788396, 0.5168272, 0.10064148, 0.24494849, 0.4490368, 0.1400271, -0.36301085, -0.032347746, -0.09455141, -0.15870403, -0.8075159, -0.44364965, 0.3054696, -0.17550321, -0.32128146, 0.013162719, 0.29125836, -0.59578365, -0.08194712, 0.15467831, -0.12809514, -0.18527065, -1.0550545, -0.3675716, 0.13400722, 1.1165148, -0.49286875, -0.28262895, 0.09624982, -0.97396636, 0.05178041, -0.25912872, -0.3056899, -0.004618259, 0.8769968, -0.04675645, 0.39919844, 0.9034225, -0.012609462, 0.020055665, 0.59604776, -0.9779099, -0.2524546, 0.4841751, -0.17935804, 0.333415, -1.4360193, 0.23120607, -0.43744788, -0.25811467, -0.23760557, -0.69295746, 0.18184155, -0.27316722, -0.5669642, 0.1925687, -0.22317556, 0.23428175, 0.19524483, 0.8891593, 0.19348904, 0.44045502, -0.45522213, -0.96074826, 0.48963726, -0.13363658, -0.40070632, -0.028867457, -0.1791736, -0.2710651, 0.6843278, -0.2295369, -0.5119846, -0.15426861, -0.59301597, 0.19471247, 0.23254745, -0.16928671, -0.40707615, -0.029094385, -0.42194828, 0.4943275, 0.38914046, 0.2467764, -0.23392272, -0.4904861, 0.7434592, -0.27994204, -0.5826253, 0.007292274, -0.46743786, -0.1378631, -0.1549387, -0.47303036, 0.046543572, -0.023003016, -0.67579854, 0.67611206, -0.59879977, -0.42262897, -0.195665, -0.28720737, 0.39785668, -0.37394226, -0.12173806, 0.34565726, 0.51561064, -0.0022718725, 0.44945398, 0.71063447, 0.42159507, -0.20477492, 0.85096526, -0.066608824, -0.005349751, -1.0288128, 0.20440109, 0.18800096, 0.039157737, -0.053177845, -0.054883055, 0.14704557, -0.22006665, 0.39334524, 0.050248437, -0.0088524595, 0.15131259, -0.0656933, -0.88772345, -0.6589534, -0.7583401, -0.4647919, -0.716537, -0.2776643, -0.6312276, -0.17110865, 0.13312732, -0.0015462753, 0.9256559, 0.22936964, 0.010039393, 0.44401988, 0.15553287, -0.3794206, 0.18184656, 0.07324811, -0.02242274, 0.7869351, 0.5472518, 0.22198372, -0.13208541, 0.119847775, 0.4324211, -0.6829267, -0.041996703, -0.78400546, -0.42645445, -0.18835092, -0.264548, -0.079504095, 0.33131012, -0.2002461, 0.15235871, 0.30081293, 0.66348225, -0.1409719, -0.3279549, -0.5544491, 0.58480144, 0.46721384, -0.33781943, 0.4215685, -0.29106253, -0.47974527, 1.01294, -0.18094155, -0.4041676, 0.9591305, -0.2269037, -0.056583125, 0.03411951, 0.5339967, -0.75861186, -0.4527094, -0.21309617, 0.0223523, 0.40217254, 0.063527994, -0.36139542, -0.18184613, -0.1203842, -0.50812435, 0.12904572, -0.21404588, -0.5579511, 0.054140046, 0.4574407, -0.4638851, -0.32359686, 0.2334022, 0.37319887, -0.6291746, 0.56361127, 0.6610157, -0.48833096, 0.08388349, 0.097623736, 0.4365007, -0.100305766, -0.02270759, 0.012477353, -0.6407242, -0.060321067, -0.37560335, -0.37908697, -0.22412236, -0.232784, 0.00842587, 0.07773807, 0.07659536, 0.04687261, 0.31108844, 0.28843316, -0.45812953, 0.022363495, -0.23783138, -0.02377228, 0.49626935, -0.29270798, -0.5601152, -0.005578965, -0.38146618, 0.05231499, -0.28912762, -0.20376211, -0.21636185, -0.0016187956, 0.15712772, -0.61384475, 0.68629235, -0.21054567, 0.046554375, -0.37451813, -0.17254442, -0.6329414, -0.17229304, 0.16652891, 0.82531375, 0.14874129, 0.3000901, 0.6284681, 0.46419537, 0.0647177, 0.5141663, -0.46980244, -1.0084252, -1.1445208, -0.38149074, -0.078664094, -0.13175055, 0.39377752, 0.3244225, 0.32185575, -0.04755841, 0.8699589, -0.23028257, -0.9308544, 0.022382881, -0.14758904, 0.26019615, -0.31781524, 0.03560904, 0.08589658, 0.4645248, -0.70255524, 0.12569638, -0.71238446, -0.8500984, -0.60137486, 0.3987871, -0.35871893, 0.6408105, -0.09901283, -0.22670129, -0.4021825, -0.8981887, 0.68205804, -0.19256881, -0.33236706, 0.2851413, -0.05991833, 0.2832146, 0.4301044, -0.32429424, -0.33710343, -0.23839988, 0.2742096, 0.016662197, -0.09914532, 0.4891643, -0.37006855, -0.4187835, -0.48551443, -0.22607844, -0.87761194, -0.16629499, -0.27890274, 0.09705401, 0.22367471, -0.16786626, 0.40392527, -0.7080573, -0.20120293, 0.26778165, -0.048764177, -0.19502099, 0.3507065, 0.39092582, -0.85959584, -0.9711695, -0.07210339, -0.27803516, 0.060880993, -0.041530736, -0.4557556, -0.2128305, -0.6016763, 0.46112496, 0.5255867, 0.42740005, -0.2857652, -0.5800371, 0.45947, -0.12193293, -0.002163218, -0.31698325, -0.04306373, 0.30714682, -0.47184986, -0.093944564, 0.088001624, 0.0865644, -0.055711534, -0.19165066, -0.5693209, -0.2203284, -0.14188106, 0.22752121, -0.30866206, 0.6782694, 0.49249113, -0.13218795, 0.24532908, 0.22146036, -0.6828415, -0.5986172, 0.22750251, -0.09762775, 1.0509119, 0.030844944, 0.27603543, 0.10227136, -0.043229982, 0.050323524, -0.29015636, 1.3835034, 0.22110969, 0.029717658, 0.47957584, 0.010934462, -0.4758801, 0.09770043, 0.64300674, -0.32752195, 0.28339368, 0.7699989, -0.2560028, -0.16448864, -0.18432675, -0.07234033, 0.5921261, 0.3879817, -0.5067331, -0.023237577, -0.15227503, -0.010669423, -0.43094233, 0.29556867, -0.44567972, -0.10934262, -0.3409679, -0.008945897, -0.66542685, -0.19555531, -0.3548343, -0.23474294, 0.15635724, -0.33032334, -0.0053721154, -0.92344826, 0.47055224, -0.2934595, -0.42722476, -0.52554196, -0.41308126, -0.020418394, 1.1855857, -0.1504957, 0.04986252, 0.19360724, -0.066610485, -0.62423587, 0.18265887, 0.4797989, 0.6728083, 0.0723479, -0.37064195, 0.55551994, -0.10478655, -0.4099667, -0.22450678, 0.12132716, -0.027211707, 0.39825368, 1.0340123, 0.4803238, -0.2433122, 0.56003255, 0.4771488, 0.24834411, 0.19329555, -0.010620453, -0.3303146, -0.20347527, -0.0046562064, 0.4496327, -0.03315157, -0.23576826, 0.40688854, 0.03315058, -0.17737845, -0.2498284, -0.21154507, -0.009418149, 0.25766182, 0.72957253, 0.13811994, 0.17474663]</t>
-        </is>
+          <t>[-0.10638191, -0.08940905, 0.7006057, -0.6131363, 0.074795485, -0.47293943, 0.032417875, 0.23560263, -0.038388498, 0.28164238, 0.016655294, -0.38666245, -0.4751833, 0.37676412, -0.19928049, -0.28927207, -0.07871781, 0.06430798, 0.73467016, -0.53553486, 0.19527777, 0.77767044, 0.28704193, 0.47765344, -0.5152945, 0.50904727, -0.1809314, -0.27295864, 0.48021504, 0.05128358, -0.23736885, 0.15811467, -0.39997965, 0.23031266, 0.1557971, 0.21991065, -1.0058563, -0.3779607, -0.48854548, -0.13299097, -0.11817732, -0.17765005, -0.0860645, 0.27554917, -0.2911492, -0.57241344, -0.43187362, -0.05043108, 0.09700094, -0.07695009, -0.35984364, 0.29874867, 0.4087868, 1.0850024, -0.2021643, -0.43975645, 0.36898044, -0.27849272, 0.41895932, 0.144738, 0.26418623, -0.36420703, 0.27392378, 0.25824767, 0.35263565, 0.40248328, -0.31215858, 0.45374197, -0.6379704, 0.21689038, 0.63501364, 0.04026864, 0.36419675, -0.383482, 0.08289642, -0.117225, -0.62703717, -0.23788348, 0.7340795, 1.105904, -0.45477793, -0.17364563, -0.080206, -0.46204942, -0.19650653, -0.11752378, 0.3958847, -0.29389662, -0.18331425, -0.09506416, -0.8384816, -0.0836774, 0.07414538, -0.39240137, -0.4836643, 0.39506415, 0.32200766, 0.36080712, 0.50307053, 0.5844992, 0.10281241, -0.08733409, -0.24746183, 0.6239267, 0.16322947, 0.029331451, 0.24909352, 0.6401451, -0.30220872, -0.41593167, 0.3131395, -0.49861598, 0.3522574, 0.09434654, 0.25599593, -0.40671226, -0.298225, 0.09499121, 0.24903521, 0.25848976, 0.88336045, -1.1141752, -0.67724514, -0.04130527, -1.0146955, 0.26023957, 0.55941504, 0.08895754, 0.28582913, 0.060185526, -0.29358572, 0.14899583, -0.21375778, -0.7515189, -0.67689335, -0.46595296, 0.602025, -0.018143281, -0.2922544, 0.039927155, 0.33780584, -0.11774582, 0.01447214, -0.3983871, -0.3293529, 0.034447126, 0.12212573, -0.12883101, -0.48544756, -0.59952945, -0.508205, 0.12946354, 0.51423234, 0.3134096, -0.06964402, -0.81284755, -0.56602615, 0.31831032, 0.31749794, -0.054183584, -0.10719359, -0.45158577, 0.04027593, -0.10890799, 0.39553306, -0.10357307, 0.48994526, 0.031824563, -0.015552542, -0.407726, -0.0028178778, 0.15556417, -0.18390094, -0.45682842, 0.06907135, -0.28385943, -0.30007312, -0.2548999, 0.18989661, -0.738123, -0.011795936, 0.6003895, -0.145442, -0.15374728, -0.12762946, 0.19266494, 0.008005326, 0.21472554, -0.63062763, -0.061268747, 0.45447782, 0.3572814, 0.018213604, -0.32888275, -0.23595233, 0.09806996, -0.029178811, 0.02042053, -0.09629892, -0.0006637116, -0.9444242, -0.3574962, 0.7282013, 0.43499014, 0.47252685, -0.30468914, -0.71371263, -0.2792235, 0.16517265, -0.66956383, -0.85832363, 0.7597679, -0.26646706, -0.36829528, 0.15415944, -0.24709098, -0.4157869, 0.030762738, -0.12437081, 0.25544876, 0.33077922, -0.21899632, 0.9086937, -0.3044076, -0.41878822, -0.57572067, -0.025522303, -0.432852, 0.5078932, 0.28436968, -0.23145941, -0.9382266, 0.029124575, -1.3630781, -0.35252443, -0.2764749, -0.28654233, -0.061554465, -0.054765902, -0.41625625, -0.15267614, -0.3345313, 0.042880777, -0.37082714, -0.46093395, -0.23331472, -0.42057467, -0.4347842, 0.43579152, -0.8151034, 0.5816022, 0.4409648, -0.23789144, 0.49532613, -0.049340904, -0.81752414, -0.4011547, 0.23295906, -0.34463763, 0.46596295, 0.3822751, -0.34385538, -0.42810696, 0.30083403, -0.35955215, -0.045908306, 0.2787673, -0.6279569, 0.06267702, -0.25650403, -0.54376733, -0.37811518, 0.6548128, -0.12833028, 0.67762345, 0.4986823, -0.2562607, 0.7653943, 0.36641386, -0.08911781, 0.43940994, 0.30697456, -0.0124541735, -0.48390517, -0.59908235, 0.23612674, -0.04539472, -0.7950988, -0.23784347, -0.78816396, 0.079554744, 0.34764123, 0.053366724, -0.93913823, 0.017537171, -0.28651085, -0.1105231, 0.044819266, 0.19298945, -0.3678577, 0.37404722, -0.19300325, 0.052782934, 0.16311584, 0.009069986, 0.38783193, -0.4597513, -0.16018741, -0.5703521, 0.8958015, 0.5001407, -0.37221244, -0.14891765, -0.20201091, 0.07114648, -0.6973516, 0.26652345, -0.2444653, 0.22545981, 0.20430125, 0.14746025, 0.35132602, -0.44586465, -0.3016291, 0.4417291, 0.29081488, 0.011310054, -0.11205126, -0.099599585, 0.23593023, -0.36808923, -0.67097294, 0.25299302, 0.6961723, 0.1239155, -0.29244468, 0.47628328, -0.69003963, -0.14529335, -0.13333681, 0.14724307, 0.3045641, -0.985486, 0.42565557, 0.31407902, 1.8566862, 0.66657555, -0.32234547, 0.11349305, -0.054333113, -0.16514798, -0.27527887, 0.90093434, 0.22407123, 0.65908134, -0.11885027, 0.21029876, 0.64808255, 0.36044046, -0.3963653, 0.4136681, 0.23250093, 0.251515, -0.11923708, 0.08438437, 0.32798737, -0.95624405, 0.6946998, 0.08027918, 0.5534485, -0.22492723, 0.28637096, 0.53088367, -0.71236885, -0.7732362, -0.4333047, -0.13600977, 0.56727827, -0.22300029, -0.04055116, 0.26641372, 0.77037483, -0.0122965975, -1.0623673, 0.24611315, -0.46993247, -0.5314438, 0.24601497, -0.42946145, -0.010931356, -0.05814851, 0.14075603, -0.46231753, 0.12497675, -0.85918933, -0.27587032, -0.33746293, -0.3723081, -0.26952294, 0.123842694, -0.07077947, 0.066587225, -0.17181721, 0.059874278, 0.4461503, -0.21524265, 0.34176186, -0.7647131, 0.15285544, -0.038628574, -0.46335414, -0.028991997, 0.032190736, -0.41348428, 0.10505892, 0.021186775, 0.27090222, 0.6960193, -0.47546458, 0.30290684, -0.17853911, 0.021499287, 0.3115864, 0.5045207, 1.014095, 0.17561828, -0.07844961, 0.38016286, 0.37292853, 0.15736763, -0.015244262, 0.39905652, 0.2329601, 0.49518102, -0.47299272, -0.36514404, -0.008625467, -0.21174812, 0.29161808, 0.53639305, 0.59106696, 0.11286962, -0.09413438, 0.19246541, -0.3709876, 0.29176822, -0.21432786, -0.64797443, -0.7351449, -0.5877513, -0.29426813, -0.48819655, 0.35094115, -0.51280135, -0.7545546, -0.3502956, 0.43692794, 0.15093173, 0.039233975, 0.15175548, -0.33269376, -0.31477666, -0.5555128, -0.18355039, -0.08109498, 0.90795326, 0.29420492, 0.3129248, 0.14572236, 0.33359313, -0.030671874, -0.71034515, 0.49390832, 0.042523704, 0.20508799, -0.0021069646, -0.1908523, -0.14960371, -0.109607324, 0.02999465, -0.40169853, -0.3620057, -0.17116283, -0.6209058, 0.6641998, -0.06917815, -0.010013968, -0.7117852, 0.36873245, 0.28625226, -0.5945665, -0.08406331, -0.42295623, -0.046917584, 0.2646153, -0.6416231, -0.32253012, -0.20057528, 0.20547675, -0.7611561, -0.11919008, -0.051759344, 0.21907178, -0.55822986, 0.50120664, 0.31758013, 0.4226637, -0.28704795, -0.13613242, 0.15382454, 0.05282963, 0.11994656, 1.1258682, 0.12273618, 0.14819863, 0.3261157, -0.11133943, -0.014784081, -0.68748397, -0.72029394, -0.56981987, 0.24025397, -0.3603526, 0.026526758, -0.29324976, 0.25842, 0.08602749, -0.45221248, -0.33004323, -0.026678385, -0.35573348, -0.31525913, 0.68199503, 0.10502022, 0.048395425, 0.03796471, -0.11531089, 0.6194744, -0.3639884, 0.022272632, -0.34754658, -0.52206486, 1.0481642, 0.05583518, 0.21295182, 0.13832468, 0.3018522, 0.22347546, 0.07831036, 0.053750847, 0.14474629, -0.30936426, -0.33859047, -0.9944908, -0.16870996, -0.500809, 0.10736668, 0.061823513, -0.13255273, 0.24115767, -0.33187714, 0.4020852, -0.42247516, -0.10516714, 0.2902023, 0.26586685, 0.22560322, 0.33535147, 0.31365517, 0.07374648, 0.17249277, 0.122232, -0.13766061, -0.2839852, 0.09456132, -0.6318498, 0.020689895, 0.21590127, -0.11828573, -0.34162372, 0.0062021976, 0.20284645, -0.03620342, 0.21131779, 0.52571744, -0.37063214, 0.3030321, -0.022958448, -0.1295647, -0.51011974, 0.06835512, -0.93938434, 0.10218375, 0.6001892, -0.90082186, -0.385487, -0.17391644, -0.086760394, -0.0092758965, -0.40722916, -0.20154314, -0.04671177, -0.28266722, -0.86105144, -0.75414354, -0.5275345, 0.46288, 0.2532439, 0.43892765, 0.54348636, 0.05176752, -0.8751225, -0.059567936, -0.4154069, -0.10493542, 0.0023912762, -0.228985, 0.039577417, 0.27118295, 0.85198957, -0.027956953, -0.6180404, -0.6705472, 0.63437146, -0.17694521, -0.03166643, -0.23451257, -0.4463272, -0.2951828, -0.21819952, 0.04375691, -0.33789772, 0.56733465, -0.54476583, 0.1567129, -0.105043285, 0.15460546, 0.04896496, -0.7628874, -1.0135814, -0.11709134, -0.17449369, -0.3465097, 0.29190367, -0.27361822, -0.26569483, 0.5491883, -0.156939, -0.80431354, 0.53465176, 0.19441874, 0.23604038, 0.22718492, 0.2528893, 0.24663663, -0.040880922, -0.04880556, 0.5370626, -0.13665359, -0.19651566, -0.15047537, -0.47787496, 0.43052968, -0.17028311, -0.23623934, -0.19057855, -0.110388, 0.5559001, 0.23550726, -0.17783867, 0.7647632, 0.73025465, 0.1817485, 0.19741286, -0.5766106, 0.15604033, 0.6298095, -0.47480187, 0.12915204, -0.010192596, -0.61348575, 0.17413656, 0.82629853, 0.07198622, -0.049039897, 0.47221416, 0.72267216, -0.19906008, 0.18773256, -0.4654058, -0.03794664, -0.04853465, 0.122343674, -0.6268423, 0.5347167, 0.7392575, 0.064994484, -0.15069655, -0.06221192, -0.064583875, 0.25069138, -0.17475934, -0.5855311, 0.026843688, -0.42021042, -0.24403034, -0.09545161, -0.21367444, 0.080177195, 0.20656052, -0.16797698, -0.018256586, -0.4136543, 0.4687771, -0.45126107, 0.11462431, -0.22769749, -0.4388802, -0.1529828, -0.39887312, -0.47249338, -0.25845772, -0.11988258, -0.46900994, 0.18325606, -0.35006163, -0.3764152, 0.25674805, -0.36299926, -0.44533753, 0.29348093, 0.15901384, 0.1018603, -0.037931528, 0.3777082, 0.06615388, 0.21476397, 0.066796444, -0.1733022, 0.1500574, -0.16710815, 0.4258582, 0.24450421, -0.18175218, 0.65368855, 0.154503, 0.15150037, 0.26470253, -0.16184935, 0.09910357, -0.40828016, 0.020739598, -0.19569243, 0.18061495, 0.11216234, 0.2558898, -0.87857735, -0.11679012, 0.2897275, 0.34191015, 0.6106462, -0.055202484, 0.09751574, 0.3105726, -0.027717069, 0.11585283, 0.26945037, -0.085752316]</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2512794733047485</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rheology의 정의는?</t>
+          <t>물성학이란?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,8 +643,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[-0.54886514, -0.0897772, 0.5265508, -0.08862519, -0.30825147, 0.17130154, 0.102592774, 0.14487338, 0.16520096, -0.3326659, -0.045089863, -0.5436663, -0.19109675, -0.5067798, -0.5381097, -0.31539014, 0.5391884, 0.049459264, 0.38020384, -0.20494564, -0.83143246, 0.47647178, 0.22353591, -0.45117098, -0.12465068, -0.031524662, -0.19517934, 0.0617167, 0.35674846, -0.10128213, -0.21944553, 0.6290164, 0.014569691, -0.058545515, 0.5196932, 0.094826266, -0.6822353, -0.32391044, 0.50106275, -1.0104401, -0.3334529, -0.50545615, 0.04470699, 0.32214424, -0.03531535, -0.3833461, -0.3746439, -0.1442716, 0.13795431, -0.15803188, -0.0032834809, 0.061901134, 0.65595, 0.6357458, 0.770262, -0.5050089, 0.5065915, -1.0790122, -0.070520654, -0.14413449, 0.12872316, -0.65379214, -0.42862475, 0.24515183, 0.12144579, -0.044400595, -0.13762638, 0.18672314, -0.31883138, 0.66441715, 0.54484373, 0.1529364, 0.041775115, -0.18744758, -0.09757748, -0.41018304, 0.30932185, 0.04461591, 0.3154026, 0.21868569, -0.02971827, -0.11634559, -0.3844283, -0.34137923, -0.39304435, 0.6802809, 0.03151929, -0.3127177, -0.5662024, -0.09433764, -0.88406616, -0.65122694, -0.26750025, -0.13366911, -0.6236295, -0.765901, 0.55324244, -0.010141169, 0.5108754, -0.17557232, 0.37828958, 0.22362846, 0.2572191, 0.59254843, -0.39018324, 0.32756203, -0.40923446, 0.14033881, -0.44665438, -0.58659726, 0.8121655, -0.3565719, 0.32977185, -0.26567268, 0.17538504, 0.8903126, -0.51702, -0.43257937, -0.5749776, -0.20499922, 0.072096266, -0.19349511, -0.47240987, 0.9189858, -0.6181112, 0.51488, 0.46266297, -0.701546, 0.63129497, -0.06693827, 0.03458052, -0.7391476, 0.6673424, -0.2988322, -0.17805454, 0.029094914, -0.040091533, -0.061570246, 0.6292764, 0.51709706, -0.045650974, 0.022788009, 0.3900676, -0.16930251, 0.44873115, -0.17750692, 0.12239288, -0.6741376, -0.5024028, -0.21477664, -0.56378675, 0.19575666, -0.37958145, 0.6184284, -0.032846443, 0.006094334, 0.41331196, -0.4922465, -0.055213325, -0.28956705, -0.21473815, -0.3704498, 0.71468747, 0.24972256, 0.15034929, 0.19306575, 0.24757855, 0.1516698, -0.8806669, -0.839465, -0.24359734, 0.040928088, -0.5750401, -0.24226697, -0.23001266, 0.67857295, 0.40312994, -0.07833791, 0.23093922, 0.19259718, -0.15171774, 0.09416492, 0.092764765, 0.18065423, 0.20714748, 0.3350115, 0.14735071, -0.1392363, -0.21273988, -0.12195304, 0.010099671, -0.09386054, 0.51330435, -0.47867882, 0.15767413, 0.79129106, 0.1507475, -0.601799, -0.19135273, 0.07398371, -0.85696507, 0.6023283, 0.7055052, 0.7078045, -0.56093633, 0.60833097, 0.2960406, -0.36040938, 0.1372551, -0.7839426, -0.8642971, 0.5646282, 0.31479785, 0.5671718, -0.47490564, 1.0371782, -0.6064229, 0.018686892, -0.016798185, -0.17649081, 0.57300264, -0.2427249, 0.75017834, 0.14107054, -0.6436249, -0.04293802, 0.12762873, 0.28389868, 0.12942167, 0.36120054, 0.04731295, -0.33002388, -0.084742256, -0.21541215, 0.74252146, -0.2808896, 0.20774505, 0.16919893, 0.45346573, -0.6203242, -0.2881582, 0.9508972, 0.586159, -0.4855203, 0.22537354, 0.058790114, 0.046069972, -0.59474486, 0.60489804, -0.99246174, 0.5499226, 1.0575883, -0.883754, -0.36357045, 0.2031445, -0.10639109, -0.9993215, 0.9245784, -0.09500524, 0.09736957, -0.48782286, 0.48632902, -0.07489445, -0.36509955, -0.22003488, 0.6736627, 0.19117935, -0.609835, 0.4458343, -0.2993999, -0.110297255, -0.2618017, 0.24424314, 0.062129293, 0.29254562, 0.27833706, -0.36760968, -0.19970542, 0.07986274, 0.3716437, 0.41413462, 0.2721634, 0.71327066, 0.066262156, -0.02062081, 0.3558222, 0.64826274, 0.05198613, 0.39322093, -0.7553264, 0.32895443, -0.23082441, -0.2559647, -1.6046233, -0.3269077, 0.8403632, -0.6330425, -0.095037624, -0.21415155, 0.0649835, -0.7906222, 0.6379156, -0.39381832, 0.25729162, -0.010285098, 0.46809372, -0.42677093, -0.18620896, 0.40318716, 0.8579287, 0.09277156, -0.20742722, -0.1830266, -0.32801762, -0.086800724, -0.32630485, -0.15329045, -0.45585382, -0.42166138, -0.05383906, -0.017496852, 0.16732518, 0.5556786, 0.5934918, 0.5305747, -0.21985483, -0.17024474, 0.09557187, -0.4447003, -0.3240167, -0.24362043, -0.71945924, 0.84546876, -0.023764333, -0.25859347, -0.40064055, -0.031911988, -0.22367668, 0.22655576, 0.16487391, 0.13292922, -0.22781402, -0.49972555, -0.11289888, 0.14155968, 0.7949946, -0.36958635, 0.12532504, 0.022851791, -0.71953493, 0.030091695, -0.19694225, -0.268575, 0.43148398, 0.6744262, 0.36925277, 0.69192666, 0.5862715, -0.18013056, 0.096881956, 0.5941414, -0.3880706, 0.048682794, 0.18143375, -0.012134287, -0.38691574, -0.34827498, 0.7123049, -0.2933972, -0.077741906, -0.23895216, -0.07886516, -0.07872228, -0.7088571, -0.2192175, -0.12316365, -0.32864872, -0.2824696, -0.025360547, -0.56353635, 0.80074334, 0.5913823, -0.043372888, -0.5598174, 0.5332837, -0.5390356, -0.42681488, -0.18875761, -0.15225607, -0.158015, -0.06688607, -0.5430069, -0.20251036, -0.039430365, -0.44750798, -0.32278526, 0.12167614, 0.033449367, -0.3190571, -0.67879415, 0.41417646, 0.035199616, 0.5954639, 0.16136469, -0.5568233, 0.44510174, 0.70565593, -0.20605598, 0.0097977985, -0.17182322, -0.48504987, 0.10560351, -1.1551499, -0.59443766, -0.34774953, 0.043415077, 0.33353794, 0.51605654, 0.31620383, -0.36933112, 0.0038284378, 0.29964456, 0.18821236, 0.2016871, -0.1470722, 0.18316308, -0.13480528, 0.27822173, 0.33206585, 0.5549106, -0.0041578105, 0.57005, 0.42238325, -0.78209674, 0.71100956, -0.7484448, -0.15246288, 0.23656283, -0.4802272, 0.22441323, 0.24581872, -0.096694514, 0.56532323, 0.0826449, -0.82173514, -0.41738704, 0.19607858, -0.3516115, -0.9895363, -0.13977297, -0.3405763, -0.8775291, -0.08678969, -0.062790886, -0.02201929, 0.012258728, 0.55088305, 0.22168285, -0.18122521, 0.4720565, -0.3550061, -0.20064668, -0.044067398, -0.8695596, -0.060952518, 0.6757787, -0.06598804, -0.1165186, -0.62196195, 0.3565203, -0.26057634, -0.08920508, 0.17470077, -0.03882402, 0.43799204, -0.28869358, 0.09842846, 0.1688518, -0.019312732, 0.47284925, -0.098750435, -0.29016596, 0.83636385, -0.12742388, 1.0865695, -0.23405822, -0.60440713, 0.08074299, 0.572802, 0.4327391, -0.42803082, 0.07248697, 0.4550403, -0.22215874, 0.1616182, 0.35647658, -0.6100882, 0.80237466, -0.31398946, 0.7498136, 0.3470718, -0.3505057, -0.59463406, -0.168825, -0.08181667, -0.20077467, 0.054183517, -0.48866653, -0.54704964, 0.4125039, 0.14470457, -0.46399656, 0.5087151, -0.02920165, -0.24202459, 0.664843, -0.38672638, 0.10203746, -0.23895764, 0.07507025, -0.19670469, -0.28688562, -0.092374876, 0.367172, 8.311537e-05, 0.12675628, 0.011493463, 0.01384319, -0.18519297, -0.008313353, 0.8019154, -0.33167392, 0.19889933, 0.026709931, 0.5100516, -0.35069236, -0.2075972, 0.3742804, -0.12970679, 0.41535082, -0.3315242, -0.6330792, 0.45680395, -0.155707, -0.7271855, 0.4417548, -0.09176168, 0.46686262, -0.37333146, -0.103568494, -0.58701754, -0.19039355, -0.8226482, -0.4304355, 0.008137492, -0.29080474, -0.3519308, -0.0008568524, -0.5590755, -0.06173941, -0.28418243, 0.24481566, -0.44078887, -0.20986307, -0.12742679, 0.12458042, -0.2981007, 0.55126786, 0.5919316, 0.52701783, -0.19588923, 0.17564522, 0.09236833, -0.2341121, -0.12922294, -0.6973576, -0.7898229, -0.22297658, 0.31584752, -0.367831, 0.6715463, -0.52508146, -0.13020784, -0.91634464, 0.22795826, -0.029978748, -0.08251167, 0.09303149, 0.026688065, -0.08966067, -0.67319894, -0.40634117, 0.5434997, 0.05174033, -0.2639744, -1.043621, -0.487517, -0.10106328, -0.26600862, 0.21711206, -0.0015464856, 0.55778337, -0.09962952, -0.43592703, -0.5910337, -0.45167583, 0.5973091, -0.3230897, -0.4172757, 0.3454168, -0.1328888, -0.21078926, 0.60170376, 0.22260812, -0.27670023, 0.39815295, 0.06495854, 0.10047441, 0.47192138, 0.40228507, -0.75395626, 0.07353452, -0.22960912, -0.13788766, -0.35040125, -0.07686179, 0.22646935, -0.032118812, -0.17114301, 0.12227086, -0.1696111, -0.52028143, 0.69688845, 0.10583654, 0.0022592975, -0.44148958, 0.008012973, 0.06085904, -0.25700578, -0.91250443, 0.14074565, 0.06576594, -0.15274717, -0.1976303, -0.055637915, -0.61094445, -0.29566184, -0.6698838, 0.11154473, 0.24091768, -0.18885161, -0.58836436, 0.21045215, -0.45435148, 0.22213036, -0.13015905, -0.414773, 0.079025425, -0.18156864, 0.13194187, 0.048515406, 0.0005600883, 0.42513365, -0.755474, -0.1876222, -0.5008262, -0.6115937, 0.14166671, 0.10950824, 0.36012852, 0.2547375, -0.3606788, -0.20960964, -0.12585643, -0.31968725, -0.27288267, 0.7808398, -0.071082026, 0.62313473, 0.40707752, -0.040255383, -0.28386343, -0.06852769, 0.28412235, -0.31447375, 0.7546739, -0.12620263, -0.58623576, 0.18694721, 0.055632446, -0.3667773, 0.18635234, -0.21455011, -0.13748749, -0.014903471, 1.3462404, -0.2261219, -0.038421616, -0.1291763, -0.08641249, -0.086520895, 0.27008235, -1.0754074, -0.28941792, 0.48396778, -0.41519827, 0.28961614, -0.0778384, -0.5832348, 0.090525165, 0.17513683, 0.08229648, -0.3272412, 0.30011743, -0.012133815, -0.32936117, 0.063786924, -0.2176256, 0.4735514, -0.98297715, -0.09722345, -0.14776227, -0.5199956, -0.8357732, 0.10360585, -0.6482761, 0.2021396, -0.17157836, 0.58714944, 0.6832272, 0.43751806, -0.29247454, 0.23358996, 0.37040746, -0.09400924, 0.27019155, 0.014646611, 0.29948536, 0.1371271, -0.7560902, -0.07843337, 0.28801495, -0.5957508, -0.44926542, 0.010530595, 0.45621362, -0.42165896, -0.07645219, 0.2021015, 0.47313437, 0.5959906, 0.09457268, -0.6536734, 0.50121456, -0.2827701, 0.09095587, -0.5221433, 0.05244769, 0.31605586, 0.35869297, -0.06575037, 0.17909066, -0.41820922, 0.033504926, 0.16894704, 0.10804321, 0.14675708, -0.29897872]</t>
-        </is>
+          <t>[-0.27483538, -0.5575143, 0.06729993, -0.25729096, -0.37879044, -0.25989318, 0.51276684, -0.39009064, 0.2441032, -0.4347509, -0.14311238, -0.40028885, 0.10875955, -0.101591654, -0.019869378, -0.5442782, 0.26708648, 0.4117826, 0.5377715, -0.65011996, -0.07935464, 0.6796493, 0.5098974, 0.37957674, -0.04267495, 0.35614383, -0.16924235, -0.7143584, 0.052989848, -0.7714808, 0.43939206, 0.540224, 0.29870453, 0.25823873, 0.40500945, -0.07692395, -0.9237441, 0.2734716, 0.38063288, -0.59752727, -0.23595297, -0.324145, -0.0030246843, -0.014060937, 0.09672947, -0.036236465, 0.09316886, 0.048288785, -0.1270541, 0.24317084, -0.26086962, 0.10934377, 0.339069, 0.74098665, -0.064542085, -0.16465484, 0.08122274, -0.3284533, 0.18623683, -0.33401057, 0.6256417, -0.9806358, 0.024374295, 0.28707647, 0.44654593, -0.09190036, -0.31688452, 0.22035936, -0.055647574, 0.32023248, 0.14646398, 0.17098856, 0.077906474, -0.59676135, 0.054402538, -0.20361139, -0.38084203, 0.10568021, 0.0016905256, 0.70662904, 0.32742923, -0.586897, 0.37734592, -0.18265411, 0.31666344, -0.29018134, 0.079242304, -0.4852523, -0.71182024, -0.4121049, -0.42944935, -0.33534053, 0.120308585, -0.003058724, -0.77547413, -0.59131205, 0.22485873, 0.49712357, 0.28815994, 0.2387969, 0.18351163, 0.019513492, -0.16715395, 0.35861495, 0.38676453, -0.40670145, -0.61134064, 0.6089525, 0.4246364, -0.43221536, 0.5059783, -0.57464576, 0.8834592, -0.29289255, 0.2904908, 0.46097365, -0.2308206, -0.068262614, -0.33346793, 0.49512982, 0.22455353, -0.5623126, -0.2373307, 0.18778008, -0.20545802, 0.38367128, 0.40077326, 0.06682569, -0.1961817, -0.09178674, -0.11002323, 0.69120204, 0.69102204, -0.1369028, -0.19410375, -0.104245424, 0.38963965, 0.319989, 0.91124415, 0.67200863, -0.34183475, -0.28807756, -0.60696864, 0.09464311, -0.13915955, -0.23229486, 0.4997258, -0.08305869, 0.07724843, -0.3006243, -0.296681, -0.20331691, -0.69855654, -0.03133984, -0.047396336, -0.441817, -0.09958452, -0.39562792, 0.33743113, 0.47762996, 0.6947611, -0.25997785, -0.24012816, -0.02512296, -0.2721581, -0.49463898, 0.32297817, -0.10388861, -0.37715262, -0.21634007, -0.31947783, -0.18636769, 0.09188854, -0.2956776, 0.24095905, 0.089725204, -0.5543706, -0.1534775, 0.2838802, 0.007996625, 0.5331074, 0.012372337, 0.082538456, -0.076211676, -0.021226496, 0.5301857, 0.18267033, -0.4006482, -0.75822365, -0.4379001, 0.33146176, -0.59892845, 0.08180794, -0.44389403, 0.1534069, 0.6127627, -0.3443203, 0.12540661, -0.0151853785, 0.2561773, -1.1196785, -0.034212694, 0.0787655, 0.5936365, 0.02312561, 0.14638549, -0.24649745, -0.41058284, 0.6602767, -0.23878045, 0.017886508, 0.4976211, 0.248998, -0.002535887, -0.40435007, -0.5221064, -0.48092997, -0.21626438, 0.2563863, -0.40392542, -0.09099929, -0.5459009, 0.9959434, -0.4560513, -0.35350177, -0.39913782, 0.28281742, 0.65844643, -0.6354774, -0.05798305, 0.12558588, -0.79286397, -0.911612, -0.58055377, 0.23641065, -0.40827072, 0.43626583, 0.3626238, 0.31503743, -0.39483672, 0.351006, 0.24100664, 0.13583598, -0.35306665, 0.1944283, -0.23950683, -0.37877172, -0.58436793, 0.47624612, -0.5190161, 0.012672855, 0.606177, -0.067675486, -0.117250904, 0.17286827, -0.42669797, 0.13726898, 0.9228056, -0.32751545, 0.77466726, -0.2113815, 0.25497094, -0.3173898, 0.112080306, 0.047569722, -0.26569176, 0.16741806, -0.31978133, 0.66578615, -1.0824778, -0.4249689, -0.18373008, 0.57048565, -0.043217402, 0.041402247, 0.49633875, 0.057902917, 0.23637879, 0.032888364, 0.33204925, 0.060032435, 0.4018288, 0.14698237, -0.240691, -0.47977304, -0.49542132, -0.13785145, -0.26913178, -0.3113898, -0.3335157, -0.6294458, -0.15134628, -0.22200224, -1.6276547, -0.27039135, 0.49777097, -0.6678053, 0.15344408, 0.24508236, 0.80099374, -0.05245222, 0.14172336, -0.520422, 0.2385711, 0.11223097, 1.0807294, -0.12608221, -0.26314023, -0.08787303, 0.936345, 0.23627238, 0.08452977, -0.3189978, 0.07641842, 0.42048037, 0.19402978, -0.061136127, 0.16174316, -0.2577888, 0.1558872, -0.062910534, 0.48976976, 0.1517381, 0.21060656, 0.44606185, 0.07918146, -0.17904125, -0.17609131, -0.097510196, -0.13037746, -0.44167492, -0.37425184, 0.3191433, -0.05191713, -0.35158357, 0.037597258, 0.25431857, -0.61417353, -0.048706897, -0.0033779405, -0.057569847, -0.117690906, -1.1266432, 0.015044777, 0.15666053, 1.3725069, -0.32107636, -0.20929396, 0.05386348, -0.75445855, -0.047311887, -0.26049158, -0.28026545, 0.054012418, 0.72676754, 0.0019413596, 0.45010045, 0.7516143, -0.10622062, 0.023118485, 0.6266075, -1.0165817, -0.2268314, 0.27318802, -0.27182773, 0.19351338, -1.3620416, 0.14763579, -0.38941747, -0.17304222, -0.22759207, -0.68352526, 0.20696822, -0.32200816, -0.55669904, 0.39670599, 0.15948741, 0.37797457, 0.10694185, 0.928442, 0.016593961, 0.5359546, -0.2755768, -1.0730176, 0.4271202, -0.18339963, -0.3798124, 0.036696117, -0.27684098, -0.21679252, 0.59329927, -0.112614155, -0.37256545, -0.24076262, -0.7024428, 0.16704696, -0.113780096, -0.20489484, -0.49911702, 0.04656227, -0.5367528, 0.39882424, 0.47541463, 0.3197627, -0.31503615, -0.51727, 0.871725, -0.55399805, -0.5119171, 0.029576067, -0.4365036, 0.009516824, -0.1158825, -0.61306906, 0.07278596, -0.020320278, -0.67776495, 0.92595184, -0.7233688, -0.2787908, -0.090469465, -0.13297358, 0.14908636, -0.17195684, 0.018678091, 0.33306485, 0.53243065, -0.16750291, 0.46677268, 0.6132183, 0.4972543, -0.06200369, 0.96492165, -0.093445644, -0.029957708, -1.1992059, 0.18549651, 0.12498255, -0.11995801, 0.074897796, -0.035769403, 0.1846003, -0.21937506, 0.3274856, 0.08905797, -0.08008852, 0.24854931, -0.45655024, -0.7332895, -0.67460287, -0.64209116, -0.48062935, -0.54068035, -0.39719254, -0.77034867, -0.2887604, 0.26503515, -0.02096675, 0.88106996, 0.26178327, 0.24731272, 0.34276935, 0.15555397, -0.2843294, 0.114232086, 0.17771763, -0.09485935, 0.98743725, 0.5912009, 0.09483845, -0.3845673, 0.0043098405, 0.40556595, -0.7628172, -0.08205817, -0.6779652, -0.34833854, -0.08376046, -0.25944602, -0.04108802, 0.16432278, -0.3406861, 0.10132841, 0.25398618, 0.49732777, 0.01878149, -0.44654188, -0.5919266, 0.37533233, 0.3821757, -0.25474086, 0.35869014, -0.22982953, -0.43521142, 1.2359898, -0.06977246, -0.42889637, 0.95481676, -0.061125718, -0.21307969, -0.024801873, 0.5100354, -0.5611073, -0.71908015, -0.10772566, 0.04331362, 0.5201305, 0.121125504, -0.30030462, -0.26514253, -0.2969005, -0.4514475, 0.29360583, -0.083526775, -0.5786369, 0.07898986, 0.27622855, -0.14106525, -0.35380808, 0.09702863, 0.12020779, -0.4343564, 0.38486785, 0.266779, -0.74986404, -0.09048021, 0.07811713, 0.39483842, -0.15386875, 0.088635206, 0.18930821, -0.5124121, -0.06302741, -0.49728292, -0.26764727, -0.24333706, -0.2331986, 0.1049431, 0.147314, 0.18202336, 0.1629261, 0.38976082, 0.26633048, -0.49159873, -0.18408573, -0.061137952, -0.00378901, 0.69504315, -0.1852778, -0.7958852, 0.17018619, -0.3192372, 0.13872693, -0.33451182, -0.19064452, -0.4207685, 0.10601087, 0.07422942, -0.5110998, 0.69244826, -0.013008115, 0.059064843, -0.38726476, -0.25645417, -0.6747028, -0.37942713, 0.17385378, 0.87162906, -0.0375505, 0.3536392, 0.83749574, 0.22809145, 0.041571435, 0.65180135, -0.2859546, -1.1447066, -1.0249989, -0.20774147, 0.058785595, -0.02072528, 0.36356828, 0.23481339, 0.235867, 0.043925315, 0.60022354, -0.25043786, -0.8263006, 0.01633194, -0.34845734, 0.18194447, -0.3709116, -0.21587567, 0.340615, 0.3726156, -0.54228187, 0.31697443, -0.8331554, -0.613061, -0.4031286, 0.32964844, -0.31614083, 0.77862096, -0.20791484, -0.20326895, -0.34667403, -1.0337166, 0.86575854, -0.3444118, -0.418323, 0.07815246, -0.05438471, 0.36641407, 0.5095743, -0.21986005, -0.2906766, -0.061141707, 0.2774352, -0.2069466, -0.16598538, 0.54174566, -0.40018183, -0.3400101, -0.4243285, -0.05516686, -0.71554, -0.19243869, -0.61022633, -0.12728892, 0.34027094, -0.105593555, 0.5820111, -0.6247672, -0.0015423894, 0.23039123, -0.15312836, 0.028294336, 0.2864554, 0.31673396, -0.76993775, -1.1721314, -0.1853369, -0.255018, 0.07686092, 0.029360715, -0.645238, -0.1928204, -0.698422, 0.58314073, 0.33590806, 0.39419624, -0.32960284, -0.4079727, 0.35235634, -0.14307688, 0.052072328, -0.21798794, -0.18635194, 0.28640693, -0.4941822, -0.11100771, 0.13563697, 0.032524213, 0.08917625, -0.27851337, -0.83152986, -0.24921913, 0.14717734, 0.24986278, -0.407215, 0.62624335, 0.41959155, -0.19067112, 0.28083953, 0.048958614, -0.7686865, -0.4467709, 0.1428281, -0.055141047, 1.0467498, -0.08285468, 0.0710119, 0.024105545, -0.10250419, 0.19640326, -0.2651679, 1.453834, 0.3122226, -0.003348004, 0.39467782, 0.013495289, -0.57224655, -0.011636041, 0.8526532, -0.5084667, 0.24481472, 0.8478081, -0.31035322, -0.20872407, -0.026040643, -0.07233451, 0.68846804, 0.37781152, -0.4532252, -0.18969706, 0.02119138, -0.11477899, -0.48959485, 0.18648347, -0.4010131, 0.06300725, -0.20702375, -0.13633022, -0.5913256, -0.30676237, -0.28249392, -0.17277423, 0.12889177, -0.2955454, 0.115689486, -1.1103001, 0.39223024, -0.045461684, -0.33793384, -0.61020136, -0.24652772, 0.03417211, 0.9151843, -0.3639688, -0.046127297, 0.123784505, -0.1353876, -0.49813545, 0.05674209, 0.47143057, 0.64392006, 0.23750666, -0.3703612, 0.44725943, -0.13993081, -0.28510553, -0.19430657, 0.18517177, 0.10307763, 0.25588775, 0.8958021, 0.5144903, -0.23608579, 0.39291745, 0.505783, 0.4649707, 0.1483556, -0.012214499, -0.29741892, -0.09817095, -0.051678035, 0.41971034, -0.079588965, -0.2213245, 0.32398257, -0.16351411, -0.15824737, -0.52274996, -0.19138876, 0.024146285, 0.18398619, 0.76225084, 0.009169726, 0.39907956]</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.236428827047348</v>
       </c>
     </row>
     <row r="7">
@@ -636,12 +656,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>레오미터란?</t>
+          <t>물성학의 정의는?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>물성을 측정하는 기기를 통칭합니다.</t>
+          <t>물질의 변형과 흐름에 대한 학문입니다</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -652,8 +672,11 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[-0.0023564498, -0.22102602, 0.17461914, -0.20473431, 0.13635786, 0.19385354, 0.25956127, 0.0023127235, 0.37615624, -0.22063194, -0.32046404, -0.35025963, -0.2307316, 0.52173823, -0.4646561, -0.14948069, -0.028846204, 0.42959622, 0.6126346, -0.1374958, -0.3115249, 0.4527869, 0.2313223, 0.4999075, 0.09957707, 0.7193511, -0.23936492, -0.13446964, 0.9254341, -0.95392156, 0.043246914, -0.08867297, 0.057679325, 0.27266708, 0.5232107, 0.092624836, -0.79584104, -0.47957098, -0.3402206, -0.69031626, -0.19219293, 0.08175019, -1.0161089, 0.7621414, 0.00693581, 0.105494194, 0.0862058, -0.581135, -0.15658988, -0.17635383, -0.13572954, -0.17380393, 0.08008319, -0.04165779, 0.0034848202, -0.21384405, 0.096198566, -0.9985402, 0.088798486, 0.22040619, 0.5923734, -0.50203747, -0.7496255, 0.5996358, 0.56236273, -0.24151671, -0.28699505, 0.021366717, -0.3603016, 0.41220534, -0.09371304, 0.63021344, 0.3673412, -0.09240705, 0.7363258, 0.033820737, -0.22052813, -0.33796832, 0.8264208, -0.23201305, -0.014442283, -0.6304285, -0.17619538, -0.23603755, 0.057507288, 0.2097771, -0.29609868, 0.12192613, 0.50408465, 0.6062443, -0.40707436, -0.6687619, -0.22071612, 0.19689447, -0.09098005, -0.10641897, 3.3006072e-06, 0.1862696, 0.5714641, 0.4869168, -0.3426614, 0.4322883, -0.5593403, -0.0010248534, 0.11962805, 0.014557724, -0.24967052, 0.50961256, 0.08331358, -0.31656936, 0.25185692, -0.0053309775, 0.5118987, -0.50950384, 0.03607259, 0.2786511, -0.7840287, -0.32255474, 0.42431653, 0.12904815, 0.28035992, -0.68821293, 0.2893083, 0.4237008, -0.606849, 0.08744791, 0.28056553, -0.6421085, -0.73970586, -0.26795194, -0.02006855, -0.082862526, -0.06419896, 0.038690697, -0.79402584, -0.25012168, 0.010991752, -0.18041979, 0.41764164, 0.20491724, 0.1432725, -0.09762689, -0.034146216, -0.29411885, 0.019188896, -0.15224211, 0.9026424, -0.18119602, 0.16775964, -0.19379877, -0.43778944, 0.5271973, -0.9356646, -0.3671867, 0.5254749, 0.014977959, 0.07176603, -0.38674536, -0.12733673, 0.16455738, -0.13717686, 0.397704, -0.35090563, -0.54811686, 0.12680797, 0.12425164, 0.2648031, 0.41402924, -0.256609, -0.65278846, -0.1048511, -0.8744332, 0.1984172, -0.019902224, 0.2922015, 0.5269145, -0.5603052, 0.09561366, -0.19753337, 0.09652934, -0.595323, 0.6652189, -0.19041692, 0.56847864, 0.12068472, -0.0058880723, 0.5341468, -0.037053864, -0.91406995, -0.50372964, 0.2399304, -0.26842192, 0.477823, -0.053716034, -0.021679057, 0.86915374, -0.4938893, -0.25092345, -0.008891801, 0.02692466, -0.5332907, 0.4492416, 0.11587548, -0.17944412, 0.58705145, -0.19049089, -0.1687028, -0.42578566, 0.1085146, -0.8557539, 0.3473408, 0.8101967, -0.34400627, 0.19518675, -0.46416533, -0.50883603, -0.31816116, -0.34017968, 0.41679338, -0.26551166, 0.6779377, -0.013554241, 0.6093595, -0.106842674, -0.24672808, -0.4038804, 0.05454884, -0.0046962104, -0.098916344, 0.18993877, -0.44951966, -0.30563313, -0.060170833, -0.6479883, 0.086543344, -0.10239887, 0.32290238, -0.09697672, -0.6644135, -0.20253138, 0.3463315, 0.31706896, -0.2413138, -0.6524851, -0.43827066, 0.04028889, 0.023019046, -0.95913047, -0.2311486, -0.30014393, 0.42432228, 0.025207018, -0.015285417, -0.12077162, 0.0096639125, -0.5554512, -0.38102463, 1.089326, 0.13941191, 0.2410986, -0.7643917, -0.3436323, 0.1210295, -0.19693266, 0.07775506, 0.054460954, 0.41271713, -1.1319808, 0.70021915, -0.52871627, -0.5673743, 0.20710371, 0.15588449, -0.358389, -0.0756528, 0.29661283, 0.20492364, -0.26141962, 0.37089205, -0.37844864, 0.25669855, -0.030600747, -0.0922079, -0.4128958, 0.022059353, -0.48637888, 0.5040297, 0.20700037, 0.17054333, -0.6581226, 0.09742018, 0.09299878, -0.0702789, -1.122336, 0.44934034, 0.6594861, 0.25205198, -0.99369246, 0.29224542, 0.2778333, -0.016885763, 0.5485596, 0.46495688, 0.33932233, 0.11613221, 0.35645783, 0.1763487, -0.30244052, 0.025377907, 0.63650364, 0.7839656, 0.5384526, 0.15955094, 0.04400937, -0.35669482, -0.16315067, -0.38354206, -0.8105843, 0.13886027, -0.07688576, -0.8049237, 0.36518642, 0.0067732334, 0.035260737, -0.28146043, 0.09334079, -0.5822082, 0.37588373, -0.5463785, -0.22570805, -0.7586166, -0.13203377, 0.32712743, 0.12960309, -0.11111037, 0.30294478, 0.44309008, -0.675661, -0.39598384, -0.044308748, 0.9865315, -0.2774947, -0.43640265, 0.41421497, -0.4846728, 1.1511241, 0.121148326, -0.28754368, 0.39185452, -0.55120516, -0.5458829, 0.15743415, 0.1941198, 0.50395876, 0.23595685, -0.06317238, 0.1713311, 0.8524492, 0.14215015, 0.3231583, 0.19703056, -1.3432126, 0.8143471, 0.24391173, -0.39218533, 0.29155812, -0.4903488, -0.03867372, -0.11668291, 0.14882481, 0.51047516, -0.113094, -0.5434752, 0.15494786, 0.19981979, 0.29220054, 0.13666098, 0.54793, -0.21326418, -0.30650547, 0.6963623, 0.9629955, 0.3787849, -0.65848225, 0.008193031, -0.2114036, -0.19509888, 0.7287431, -0.6414076, 0.08703739, -0.70851994, -0.2529299, 0.40121546, 0.32667816, -0.54165787, -0.31199405, -0.1613251, 0.36760214, -0.7092504, -0.54061335, 0.14728631, -0.08303755, 0.18843865, -0.21105812, 0.17685974, -0.2704214, 0.47625148, -0.3932803, -0.14382939, -0.07542477, 0.11957687, 0.049704105, -0.5272947, -0.3465518, -0.008269106, 0.5646387, -0.13069801, 0.17097218, -0.6845514, -0.28145435, 0.2229504, -0.41106012, 0.63851714, -0.40764937, -0.050983217, 0.61532277, 0.075879194, 0.0767348, 0.37242723, -0.0645042, 0.50003296, -0.019832684, 0.23353057, -0.49812832, -0.05934878, -1.0899113, -0.71790886, -0.13233511, -0.4223586, 0.030730799, 0.55823845, -0.3266645, 0.5250017, 0.48490405, -1.2316439, -0.1396475, -0.16177727, 0.042531762, -0.939903, 0.07564916, -0.33282146, -0.94373083, -0.20433812, -0.026349341, -0.2563585, 0.34893838, 0.47205913, -0.21273388, -0.2863891, 0.264307, -0.6302988, -0.28780717, 0.2790435, -0.006811475, 0.20354898, 0.43605098, 0.43609032, -0.17778595, -0.47703817, 0.07124473, -0.8175891, -0.027302206, -0.0505735, -0.7898438, 0.15424435, -0.067514226, 1.1342946, -0.06719692, 0.24660055, -0.32972085, -1.1173242, -0.029524207, 0.36836323, 0.14157246, 0.26041165, 0.9653177, 0.3224124, -0.06261206, 0.4755068, 0.18646628, 0.072019786, 0.5110866, -0.07336905, 0.5433635, 0.09895357, 0.09995327, 0.2820579, -0.26285473, -0.00021020074, 0.058865625, -0.47248903, -0.07247939, 0.16925825, -0.9034682, 0.7626079, -0.27856615, 0.009327112, 0.018895037, -0.25798783, -0.11443781, -0.16675882, -0.05411753, 0.4157469, 0.6032191, 0.3205614, 0.1667925, 0.22472246, 0.11888047, -0.52373314, -0.16803163, -0.7517745, -0.21229012, -0.5309965, -0.1743338, -0.0046155155, -0.16468017, -0.001627254, 0.17531861, 0.13566239, 0.24544244, -0.07135672, 0.48279893, -0.2560997, 0.7541134, -0.081616394, -0.64628416, 0.008892079, -0.17278081, 0.2461489, 0.2764243, 0.24544765, -0.14323288, 0.72078484, -0.09416139, -0.4661866, 0.4194465, 0.5598495, -0.25218573, -0.3744835, 0.103212155, -0.42319784, -0.6578327, -0.14478196, -0.7866667, 0.09652091, -0.19994469, -0.7104804, -0.823886, -0.59967625, 0.5455116, -0.17393637, 0.6790181, 0.31022274, 0.15042533, -0.4548339, -0.07626744, 0.35665908, 0.5535182, 0.30375835, 0.4943336, 0.19903821, -0.08334244, -0.05016543, 0.30151188, 0.5179879, -1.1626127, -0.12938772, -0.087746836, 0.13380148, -0.58165437, 0.43203595, -0.13903518, -0.10592377, -0.038081888, 0.28721562, -0.40037724, 0.10842154, 0.4736283, -0.37978676, 0.50704324, 0.051365662, -0.10242307, 0.5501901, 0.2582165, -0.736505, -0.9024963, -0.9330904, -0.24491368, -0.050438955, 0.29038644, -0.10269713, 0.07268906, 0.19370449, -0.21289085, -0.14907202, -0.6679447, 1.027426, -0.14163636, -0.4794215, 0.45789513, -0.32401514, 0.09579718, -0.64298296, -0.2986529, 0.06827874, 0.3256696, -0.14399809, -0.2815803, -0.055473387, 0.76332504, 0.08941218, -0.26456922, -0.464357, -0.34152713, 0.026404202, 0.38603878, -0.09381381, -0.6470513, -0.25070894, 0.28810266, 0.10004357, -0.49317136, 0.32620278, -0.22969663, -0.10904985, -0.98164994, -0.33055636, -0.2622992, -0.27455792, -0.5959639, -0.524466, -0.43167076, 0.12837498, -0.31215823, -0.14472112, -0.11807229, -0.4049728, -0.1647072, -0.6568078, 0.44754338, -0.45526278, -0.24958654, -0.49458334, 0.11423489, 0.36544383, -0.12817152, 0.19237715, 0.24262214, -0.34310797, -0.10881158, -0.43575215, -0.5724712, 1.1047416, 0.06408048, -0.28133377, -0.874898, -0.84403545, 0.48955122, -0.040887572, 0.0011589652, 0.32400975, -0.39228907, 0.20376284, -0.2552503, -0.030109217, 0.32855716, 0.37455857, -0.14181562, -0.009277155, -0.37194896, -0.24569197, -0.17709696, 0.13632703, 0.40645424, 0.2889062, 0.5434057, -0.0026141752, -0.09158828, 1.379477, -0.5284669, 0.059563804, -0.46820602, 0.6328226, -0.621431, 0.62973326, 0.35974228, 0.40004435, 0.0049448735, -0.6863926, -0.32476524, 0.3542494, -0.16675335, -0.24084215, 0.028754206, 0.047422588, 0.09056748, 0.43081462, -0.52245134, 0.025533736, -0.0025708925, -0.27319363, -0.35753962, -0.27696362, 0.06261465, 0.3569175, -0.3054179, -0.08046529, 0.20861709, -0.06508496, -0.7628587, 0.20656045, -0.029762939, -0.58461905, -0.5325919, -0.42906132, -0.14416955, 0.31390163, 0.38016725, -0.48543528, 0.17735751, 0.08180276, 0.24933667, -0.47668564, 0.2325655, -0.26847866, 0.18558772, -0.037230622, -0.20241146, -0.360811, -0.024871968, -0.40988886, 0.39138016, 0.26670888, 0.2827981, -0.21614265, 0.38837922, 0.5994883, 0.38915947, 0.0709155, 0.12545648, 0.13888843, 0.49124685, -0.44171035, 0.22021417, 0.06259122, -0.7930069, -0.40084875, 0.11718627, 0.09513497, 0.36219144, -0.27978542, 0.1353613, -0.3010038, -0.31540945, 0.6442047, 0.0091498345, 0.32845154, 0.43211553]</t>
-        </is>
+          <t>[-0.43290207, -0.42784932, 0.12969638, -0.036350325, -0.29253113, -0.25891194, 0.30390495, -0.17621514, 0.27435672, -0.6182519, -0.26556528, -0.347217, -0.012066245, 0.119046606, -0.14632143, -0.6143916, 0.22733063, 0.42886913, 0.4025037, -0.5572796, -0.30590895, 0.55641025, 0.56047136, 0.16114993, -0.08926365, 0.29692286, -0.16801345, -0.6793506, 0.05053074, -0.9321481, 0.45767075, 0.60001665, 0.16878079, 0.02105299, 0.25597873, -0.08229784, -0.7624107, 0.09997645, 0.18023713, -0.504487, -0.25605565, -0.25735006, -0.007781398, -0.012820817, 0.19999945, -0.094953574, 0.05930982, 0.1500937, -0.0062878663, 0.025792046, 0.045442156, -0.154863, 0.17369695, 0.57004845, -0.17283575, -0.40054193, 0.362192, -0.33375645, 0.096598, -0.36434975, 0.59543455, -1.0277717, -0.04604551, 0.024971114, 0.40966284, -0.21979997, -0.06507417, 0.10307282, 0.028872695, 0.30062762, 0.15205151, 0.30074793, 0.18014723, -0.6597051, 0.3104285, -0.329682, -0.28279078, 0.09668205, 0.014555974, 0.4466728, 0.62547123, -0.55298096, 0.39619562, -0.3325183, 0.45428377, -0.29114383, 0.10244194, -0.48718724, -0.6191523, -0.22297056, -0.40714014, -0.4195054, 0.05904036, -0.007507271, -0.7436519, -0.69429195, 0.2244418, 0.53459686, 0.1354286, 0.2399435, -0.032264456, 0.22180027, -0.27024704, 0.3855227, 0.32126218, -0.53894585, -0.5549469, 0.58269155, 0.35360992, -0.35550055, 0.38703144, -0.5556128, 0.8903333, -0.20039286, 0.30882838, 0.721901, -0.33163685, 0.007788425, -0.27485365, 0.44795024, 0.32720265, -0.5399524, -0.35487723, 0.22955468, -0.068791784, 0.3244569, 0.13426812, 0.017579297, 0.14512765, -0.1251423, -0.099635534, 0.46561685, 0.6736178, -0.11703309, -0.23272869, -0.09083311, 0.3833528, 0.29461825, 0.90106606, 0.76848704, -0.44056457, -0.15892349, -0.40791622, -0.11059131, -0.3151938, -0.32764065, 0.36223564, -0.24045645, 0.15111744, -0.19812566, -0.11939715, -0.2683046, -0.69823486, -0.10448137, -0.07762918, -0.19914891, -0.007349024, -0.39933762, 0.43133393, 0.40805307, 0.7587467, -0.2836605, -0.3326794, 0.02601789, -0.36270702, -0.51484543, 0.31356686, -0.20943545, -0.58155704, -0.26958916, -0.32359293, -0.12605396, 0.2778971, -0.3408712, 0.20616807, 0.07744475, -0.57403123, -0.10455045, 0.35642183, 0.037812367, 0.44552305, 0.057333007, 0.08655464, 0.0074693244, -0.20744652, 0.48348776, 0.1849559, -0.4605078, -0.96053654, -0.30305687, 0.44989878, -0.71734375, 0.09050495, -0.45653433, 0.16036388, 0.6762617, -0.43370426, 0.18703736, -0.048753142, 0.24016635, -0.9110245, 0.25761983, 0.16559395, 0.64563257, -0.18085808, 0.3800192, -0.12604544, -0.27748138, 0.6349106, -0.21683148, 0.0683961, 0.5945069, 0.11515995, 0.00946128, -0.3825227, -0.3708242, -0.46947968, -0.17162278, 0.3063216, -0.37281543, 0.13772371, -0.4746151, 0.8086522, -0.17095979, -0.4224443, -0.34008446, 0.17963484, 0.65820307, -0.61014557, 0.2255134, 0.20143795, -0.76201266, -1.0224175, -0.5675457, 0.28426388, -0.62785995, 0.31843257, 0.48555982, 0.11090636, -0.39786685, 0.3285042, 0.5148064, 0.07997105, -0.3203674, 0.20060778, -0.38827458, -0.23732986, -0.39967686, 0.5356328, -0.53177494, 0.3052965, 0.46245638, -0.20967278, -0.11880502, 0.24099663, -0.037415605, 0.017103001, 0.88860965, -0.3656364, 0.59266794, -0.22209628, 0.37574628, -0.26506296, -0.024969397, 0.19196826, -0.09877871, 0.10191985, -0.22817728, 0.49540472, -1.0069544, -0.086132035, -0.28797427, 0.5038541, -0.14330313, 0.2022999, 0.5690843, -0.0015983151, 0.40336546, 0.18287939, 0.42293465, 0.17176604, 0.40345028, 0.114239484, -0.08108488, -0.34862912, -0.44666323, -0.07014403, -0.27780193, -0.5168858, -0.25429904, -0.37127665, -0.22816603, -0.22524397, -1.3829364, -0.14714324, 0.4804734, -0.8879862, 0.093475305, 0.054081354, 0.6973983, -0.28948814, 0.29304874, -0.61120725, 0.3501261, 0.112977415, 1.0585988, -0.11721979, -0.31020537, 0.0073121455, 0.7261082, 0.12978442, 0.26435104, -0.28828493, -0.11611904, 0.3519568, -0.043424524, -0.10821896, 0.14504422, -0.28244555, 0.18553059, -0.0039788396, 0.5168272, 0.10064148, 0.24494849, 0.4490368, 0.1400271, -0.36301085, -0.032347746, -0.09455141, -0.15870403, -0.8075159, -0.44364965, 0.3054696, -0.17550321, -0.32128146, 0.013162719, 0.29125836, -0.59578365, -0.08194712, 0.15467831, -0.12809514, -0.18527065, -1.0550545, -0.3675716, 0.13400722, 1.1165148, -0.49286875, -0.28262895, 0.09624982, -0.97396636, 0.05178041, -0.25912872, -0.3056899, -0.004618259, 0.8769968, -0.04675645, 0.39919844, 0.9034225, -0.012609462, 0.020055665, 0.59604776, -0.9779099, -0.2524546, 0.4841751, -0.17935804, 0.333415, -1.4360193, 0.23120607, -0.43744788, -0.25811467, -0.23760557, -0.69295746, 0.18184155, -0.27316722, -0.5669642, 0.1925687, -0.22317556, 0.23428175, 0.19524483, 0.8891593, 0.19348904, 0.44045502, -0.45522213, -0.96074826, 0.48963726, -0.13363658, -0.40070632, -0.028867457, -0.1791736, -0.2710651, 0.6843278, -0.2295369, -0.5119846, -0.15426861, -0.59301597, 0.19471247, 0.23254745, -0.16928671, -0.40707615, -0.029094385, -0.42194828, 0.4943275, 0.38914046, 0.2467764, -0.23392272, -0.4904861, 0.7434592, -0.27994204, -0.5826253, 0.007292274, -0.46743786, -0.1378631, -0.1549387, -0.47303036, 0.046543572, -0.023003016, -0.67579854, 0.67611206, -0.59879977, -0.42262897, -0.195665, -0.28720737, 0.39785668, -0.37394226, -0.12173806, 0.34565726, 0.51561064, -0.0022718725, 0.44945398, 0.71063447, 0.42159507, -0.20477492, 0.85096526, -0.066608824, -0.005349751, -1.0288128, 0.20440109, 0.18800096, 0.039157737, -0.053177845, -0.054883055, 0.14704557, -0.22006665, 0.39334524, 0.050248437, -0.0088524595, 0.15131259, -0.0656933, -0.88772345, -0.6589534, -0.7583401, -0.4647919, -0.716537, -0.2776643, -0.6312276, -0.17110865, 0.13312732, -0.0015462753, 0.9256559, 0.22936964, 0.010039393, 0.44401988, 0.15553287, -0.3794206, 0.18184656, 0.07324811, -0.02242274, 0.7869351, 0.5472518, 0.22198372, -0.13208541, 0.119847775, 0.4324211, -0.6829267, -0.041996703, -0.78400546, -0.42645445, -0.18835092, -0.264548, -0.079504095, 0.33131012, -0.2002461, 0.15235871, 0.30081293, 0.66348225, -0.1409719, -0.3279549, -0.5544491, 0.58480144, 0.46721384, -0.33781943, 0.4215685, -0.29106253, -0.47974527, 1.01294, -0.18094155, -0.4041676, 0.9591305, -0.2269037, -0.056583125, 0.03411951, 0.5339967, -0.75861186, -0.4527094, -0.21309617, 0.0223523, 0.40217254, 0.063527994, -0.36139542, -0.18184613, -0.1203842, -0.50812435, 0.12904572, -0.21404588, -0.5579511, 0.054140046, 0.4574407, -0.4638851, -0.32359686, 0.2334022, 0.37319887, -0.6291746, 0.56361127, 0.6610157, -0.48833096, 0.08388349, 0.097623736, 0.4365007, -0.100305766, -0.02270759, 0.012477353, -0.6407242, -0.060321067, -0.37560335, -0.37908697, -0.22412236, -0.232784, 0.00842587, 0.07773807, 0.07659536, 0.04687261, 0.31108844, 0.28843316, -0.45812953, 0.022363495, -0.23783138, -0.02377228, 0.49626935, -0.29270798, -0.5601152, -0.005578965, -0.38146618, 0.05231499, -0.28912762, -0.20376211, -0.21636185, -0.0016187956, 0.15712772, -0.61384475, 0.68629235, -0.21054567, 0.046554375, -0.37451813, -0.17254442, -0.6329414, -0.17229304, 0.16652891, 0.82531375, 0.14874129, 0.3000901, 0.6284681, 0.46419537, 0.0647177, 0.5141663, -0.46980244, -1.0084252, -1.1445208, -0.38149074, -0.078664094, -0.13175055, 0.39377752, 0.3244225, 0.32185575, -0.04755841, 0.8699589, -0.23028257, -0.9308544, 0.022382881, -0.14758904, 0.26019615, -0.31781524, 0.03560904, 0.08589658, 0.4645248, -0.70255524, 0.12569638, -0.71238446, -0.8500984, -0.60137486, 0.3987871, -0.35871893, 0.6408105, -0.09901283, -0.22670129, -0.4021825, -0.8981887, 0.68205804, -0.19256881, -0.33236706, 0.2851413, -0.05991833, 0.2832146, 0.4301044, -0.32429424, -0.33710343, -0.23839988, 0.2742096, 0.016662197, -0.09914532, 0.4891643, -0.37006855, -0.4187835, -0.48551443, -0.22607844, -0.87761194, -0.16629499, -0.27890274, 0.09705401, 0.22367471, -0.16786626, 0.40392527, -0.7080573, -0.20120293, 0.26778165, -0.048764177, -0.19502099, 0.3507065, 0.39092582, -0.85959584, -0.9711695, -0.07210339, -0.27803516, 0.060880993, -0.041530736, -0.4557556, -0.2128305, -0.6016763, 0.46112496, 0.5255867, 0.42740005, -0.2857652, -0.5800371, 0.45947, -0.12193293, -0.002163218, -0.31698325, -0.04306373, 0.30714682, -0.47184986, -0.093944564, 0.088001624, 0.0865644, -0.055711534, -0.19165066, -0.5693209, -0.2203284, -0.14188106, 0.22752121, -0.30866206, 0.6782694, 0.49249113, -0.13218795, 0.24532908, 0.22146036, -0.6828415, -0.5986172, 0.22750251, -0.09762775, 1.0509119, 0.030844944, 0.27603543, 0.10227136, -0.043229982, 0.050323524, -0.29015636, 1.3835034, 0.22110969, 0.029717658, 0.47957584, 0.010934462, -0.4758801, 0.09770043, 0.64300674, -0.32752195, 0.28339368, 0.7699989, -0.2560028, -0.16448864, -0.18432675, -0.07234033, 0.5921261, 0.3879817, -0.5067331, -0.023237577, -0.15227503, -0.010669423, -0.43094233, 0.29556867, -0.44567972, -0.10934262, -0.3409679, -0.008945897, -0.66542685, -0.19555531, -0.3548343, -0.23474294, 0.15635724, -0.33032334, -0.0053721154, -0.92344826, 0.47055224, -0.2934595, -0.42722476, -0.52554196, -0.41308126, -0.020418394, 1.1855857, -0.1504957, 0.04986252, 0.19360724, -0.066610485, -0.62423587, 0.18265887, 0.4797989, 0.6728083, 0.0723479, -0.37064195, 0.55551994, -0.10478655, -0.4099667, -0.22450678, 0.12132716, -0.027211707, 0.39825368, 1.0340123, 0.4803238, -0.2433122, 0.56003255, 0.4771488, 0.24834411, 0.19329555, -0.010620453, -0.3303146, -0.20347527, -0.0046562064, 0.4496327, -0.03315157, -0.23576826, 0.40688854, 0.03315058, -0.17737845, -0.2498284, -0.21154507, -0.009418149, 0.25766182, 0.72957253, 0.13811994, 0.17474663]</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2016463875770569</v>
       </c>
     </row>
     <row r="8">
@@ -662,12 +685,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rheometer란?</t>
+          <t>Rheology의 정의는?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>물성을 측정하는 기기를 통칭합니다.</t>
+          <t>물질의 변형과 흐름에 대한 학문입니다</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -678,8 +701,11 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[0.040086553, -0.22363555, 0.6421491, -0.859074, 0.10174708, 0.42158595, 0.6981038, 0.1987095, -0.12110046, -0.13386646, -0.34168783, -0.60161096, 0.19876447, -0.6610338, -0.2768041, 0.14038068, 0.50846004, 0.25259754, 0.28793296, -0.5832224, -0.32367185, 0.53208053, 0.34031737, 0.337327, -0.07915077, 0.4000504, -0.0968283, -0.13170014, 0.6271035, 0.380911, 0.0031255176, 1.1589004, -0.06993957, 0.2106751, 0.47973037, 0.19811437, -1.1221931, -0.25871438, 0.5505903, -0.63183933, 0.07068075, -0.31252304, -0.39950722, 0.4041045, 0.16249083, 0.19777513, 0.49938083, -0.5227518, -0.5323389, -0.24620748, -0.46272793, -0.37814003, 0.8340135, 0.5711557, -0.42843089, -0.2694213, 0.3343378, -0.5726214, 0.23640463, -0.30289182, 0.24820358, -0.7106317, -0.631697, 0.39065486, 0.45812064, 0.22695635, -0.10999513, 0.3899289, -0.3613513, 0.36499268, 0.20976761, 0.106007904, 0.19952047, -0.76513755, -0.1974897, -0.2629469, 0.4011455, 0.17924869, 1.239501, -0.06626247, 0.11170741, 0.11838791, -0.74611384, -0.2195491, -0.4586756, 0.61123765, -0.17240304, -0.37920788, 0.04261622, -0.046593662, -0.92035705, -0.17671159, -0.10216038, -0.14140004, -0.6537489, -0.21157743, 0.15581438, 0.11424267, 0.19973534, 0.11494462, 0.3092305, 0.25995418, 0.14886776, 0.5727776, 0.41270575, -0.1867768, -0.7445129, 0.41299498, 0.110522896, -0.6006291, 0.5555268, -0.24787807, 0.30833805, -0.7524605, 0.2573458, 0.45138925, -0.5347842, -0.530365, -0.27835605, 0.4945869, 0.37464908, -0.25445515, -0.65036196, 0.5972459, -0.47918862, 0.4291327, 0.92832446, -0.23241824, 0.06507044, -0.54075485, -0.25806418, 0.49128097, 0.45825168, -0.2770571, -0.55741096, -0.06965482, 0.030760638, -0.12523583, 0.33730936, 0.3638604, -0.031038303, 0.07827963, 0.22319996, 0.14217088, 0.104069255, -0.094404235, 0.22684066, -0.26219225, 0.077929735, -0.24942659, -0.42832413, 0.16360956, -0.26193625, 0.014415199, 0.2649719, -0.8392748, 0.059498098, -0.35874698, -0.31404436, 0.0016470775, -0.5677748, 0.085332416, -0.11331269, 0.18783136, -0.00047700666, -0.11792882, 0.6709922, -0.018716048, -0.16324422, -0.81768525, -0.3619454, -0.06318354, -0.41287583, 0.107710384, -0.031541992, 0.69933033, 0.054143257, -0.04082015, -0.5982437, 0.28228068, -0.5538965, 0.8134571, -0.44432718, -0.7127912, 0.49593893, 0.18406576, 0.22317247, -0.22849435, -0.49026847, -0.25734192, 0.07948488, 0.26923582, -0.08764922, 0.00043437956, -0.1455247, 0.7450222, -0.229967, -0.46076956, -0.04052088, 0.23572865, -0.39174625, 0.1001013, 0.14867029, 0.8628099, 0.50512755, -0.047658958, -0.0017565768, 0.15585817, 0.379013, -0.27474046, -0.45721984, 0.6598715, 0.27154532, -0.16944171, -0.26101604, 0.37007034, -0.25836128, 0.0105731, 0.57568914, -0.60815394, 0.5718842, 0.2560213, 0.29895136, -0.4337172, -0.23906563, -0.634386, 0.13133028, -0.062220514, 0.5106902, 0.21495886, -0.074164204, -0.39926726, -0.061534572, -0.21927603, 0.40661678, -0.40077606, 0.12289673, -0.11816621, 0.12674381, -0.6276649, -0.04105194, 0.21297702, 0.110672146, -0.3645702, -0.15373369, 0.4730434, -0.05121893, -0.2855884, 0.6896986, -0.3682712, 0.29669032, 0.5762534, -0.28649083, -0.05994041, 0.29983974, -0.60833937, -0.2421533, 0.6637701, 0.36263627, -0.09784386, -0.91835725, -0.15153177, -0.4713062, -0.021821557, 0.1413302, -0.32237878, 0.5160978, -0.6255754, 0.20808399, -0.22773026, -0.5425056, -0.12934372, 0.28866798, -0.07170447, -0.10489038, 0.09963871, -0.6296935, -0.0004178509, 0.24775313, 0.6638312, 0.16597337, 0.07116482, -0.03787148, -0.13493568, 0.09015188, 0.2843526, 0.5006005, 0.28088927, -0.053076364, -1.0108087, 0.38617274, 0.047176603, -0.08935244, -1.9356571, -0.32828027, 0.4671011, -0.36616638, -0.36817273, 0.013810468, 0.0033737104, -0.47088864, 0.51011235, -0.13434742, 0.5480205, -0.49553844, 0.48776984, -0.45202842, -0.095233515, 0.17955534, 0.71747464, 0.18562046, -0.18377754, -0.0075288676, -0.16189894, -0.46001238, 0.1651823, -0.36023057, -0.7601634, -0.1917771, -0.31531632, 0.22433351, 0.1532349, 0.34441707, -0.09238276, 0.5320219, -0.19223736, -0.53633386, 0.30241162, -0.58772266, -0.16693637, -0.2900331, -1.0598017, 0.92244047, 0.5416713, 0.2918557, -0.5717287, -0.5484636, -0.37831134, 0.6550453, -0.03406173, -0.27591828, -0.2158213, -0.95665693, -0.37431175, -0.022182908, 1.2355986, 0.25024232, 0.029577289, 0.71205354, -0.77269346, 0.23766112, -0.2213042, -0.17628908, 0.3457692, 0.5726733, 0.73786694, 0.87428546, 0.6068314, -0.20854917, 0.26792136, 0.55254894, -0.29467127, 0.5185761, 0.28071848, 0.12747082, -0.55972505, -0.55619735, 0.49832004, -0.032305904, -0.14068976, -0.058460705, -0.020868845, -0.31563488, -0.86185575, -0.33110422, -0.3019181, -0.34658778, 0.023019869, 0.19400413, -0.35826164, 0.014767288, 0.6319724, 0.0062698936, -0.8746138, 0.45289108, -0.6505072, -0.37673193, -0.4510671, -0.31599653, 0.10518227, -0.099646844, -0.32834277, -0.49568933, -0.0073106997, -0.43192112, 0.00537955, 0.073208496, 0.044929255, -0.13322029, -0.29593232, 0.320828, 0.48014465, -0.086970285, -0.2587985, 0.043930765, -0.22649619, 0.42030326, -0.18250012, -0.37015975, -0.43731514, -0.27933723, 0.1270512, -0.6565094, -0.16502057, 0.099312186, -0.052613005, -0.41805816, 0.2801696, 0.14818275, -0.3107353, -0.235531, -0.2538814, 0.44936606, 0.21151602, -0.004708004, -0.18589488, 0.2515271, -0.007086925, 0.6181347, -0.11559882, 0.512977, 0.4223452, 0.23265348, -0.62659776, -0.18899615, -0.8456268, 0.042867545, -0.10354695, -0.47991592, -0.019403953, 0.10477665, -0.2697357, 0.7876355, 0.1274077, -0.5299947, -0.5417096, 0.32378617, -0.077926174, -1.2560599, -0.03358241, -0.24898355, -0.6083212, 0.41521117, 0.20008835, -0.5097518, 0.6895604, 0.95470977, 0.14380768, 0.1848877, 0.13668403, -0.0045336653, -0.3995479, -0.26203316, -0.18637013, 0.33909672, 0.3668361, 0.11275151, 0.3351042, -0.22797109, 0.45441574, -0.86792254, -0.019760253, 0.3793256, -0.14122862, 0.10515455, -0.016948197, -0.098222844, 0.3920052, 0.21366692, -0.04296535, -0.4618994, -0.094389826, 0.38886008, 0.23411237, 0.71333456, 0.30049324, 0.07366219, 0.099555515, 0.4804762, 0.5953841, 0.17592505, -0.2080535, -0.14930123, -0.5177649, 0.78862596, 0.08430897, -0.37493113, 0.6970952, 0.12550172, -0.28517222, -0.1619693, 0.16664015, 0.1484138, -0.48574293, 0.5223743, -0.3785542, 0.0012186305, -0.3567146, -0.190606, -0.061390642, 0.018878676, -0.6032603, -0.107624784, 0.39963904, 0.32342595, 0.7962056, -0.5370589, 0.05235663, 0.32405087, -0.031890023, -0.65684325, -0.13927697, -0.24847887, 0.32584083, -0.12291227, 0.15951036, -0.28643847, 0.50535536, -0.06322757, -0.045748338, 0.6584775, 0.15381166, 0.4099248, -0.001229614, 0.26136634, -0.8914472, -0.47127065, 0.20790292, 0.48037207, 0.15719123, 0.19773641, -0.5208426, 0.16437143, 0.10985545, -0.13525163, 0.8055705, 0.57235837, 0.35881105, -0.12775627, -0.062122896, -0.38168144, -0.60489345, -0.59408927, -0.54516083, 0.33482203, -0.35704505, 0.028695434, -0.17582886, -0.64187825, -0.067195654, -0.04084955, 0.405101, -0.1603003, -0.46621534, -0.15253049, -0.4809316, 0.12219753, 0.37383625, 0.039679885, 0.626826, 0.37669152, 0.083847016, 0.33947912, 0.03375385, 0.32792, -1.1550803, -0.08655754, -0.7004883, 0.058918096, -0.48475224, 0.29906425, -0.028832544, 0.044093985, -0.85166657, 0.61062825, 0.18222234, 0.09033008, -0.08242144, 0.09614149, -0.3510567, -0.62092966, -0.09020621, 0.3163623, 0.43516403, -0.8453529, -0.77757096, -0.65647274, -0.6356835, 0.62725776, 0.3733959, -0.34165424, 0.07574375, -0.012272939, -0.040031552, -0.16822577, -0.6223115, 0.78735125, -0.78069973, -0.94891495, 0.1334253, -0.70482576, -0.40076205, 0.12924126, 0.114812866, -0.06604789, 0.096600495, -0.072634846, -0.46014836, 0.20283312, 0.50066864, -0.15258962, -0.08086732, -0.41750115, -0.2710768, -0.6389032, 0.15159082, 0.017164394, -0.10612952, -0.18337959, 0.13712704, 0.8429977, -0.29794168, 0.39474866, -0.37144023, 0.020697694, -0.030425198, 0.16284017, -0.1959407, -0.4515572, -1.2600086, -0.13452584, -0.10295704, 0.35211292, -0.40624222, -0.14389685, -0.54124075, -0.5332971, 0.3058344, -0.5420961, 0.07149538, -0.60763025, -0.79093987, -0.30719954, -0.24208522, 0.1611016, -0.30987856, -0.34670293, 0.051652633, -0.108468056, 0.06499213, -0.5250037, -0.17434102, 0.36918598, -0.5583073, -0.5391289, -0.67174023, -0.59484, -0.0110612195, 0.057268076, 0.39232045, 0.056638807, -0.41494915, 0.16035126, 0.18940143, -0.26111603, 0.1276285, 0.4836253, -0.1179922, 0.26776543, -0.09557903, 0.27169445, 0.003549138, 0.26573837, 0.20693997, -0.5849078, 1.2857225, -0.5975049, -0.17626347, 0.45108587, -0.19027492, -0.2236376, 0.10547729, 0.24030268, -0.3287425, 0.6204938, 0.6876083, 0.2399667, -0.027591093, -0.27462196, -0.1777626, 0.8296956, -0.36359906, -0.5913441, -0.53036726, -0.01249234, -0.3513926, 0.0007412182, 0.30144656, -0.6925705, -0.22171079, 0.12560505, 0.057480678, -0.16509485, 0.29202712, 0.0819835, -0.3439144, -0.029748641, 0.517654, 0.029914223, -1.2410976, -0.501705, 0.20951071, -0.6841106, -0.54706484, -0.5916418, -0.33106512, 0.31648126, 0.010821952, -0.21968506, 0.22246808, 0.17433494, -0.033785857, 0.42763433, 0.35462618, -0.24783479, 0.11663146, -0.12093155, 0.53773993, -0.07335499, -0.3442886, 0.019157972, 0.8090639, -0.16042855, 0.0797147, -0.31189212, 0.26957124, 0.43044126, -0.011079665, -0.23271188, 0.28515032, 0.9516423, 0.745323, -0.48409256, 0.39369094, -0.44984058, -0.31310114, -0.710459, 0.12962013, -0.0015654173, 0.4106322, -0.16396193, -0.5873673, -0.1691733, -0.056794725, 0.40887555, 0.08811679, -0.06625867, 0.10922197]</t>
-        </is>
+          <t>[-0.54886514, -0.0897772, 0.5265508, -0.08862519, -0.30825147, 0.17130154, 0.102592774, 0.14487338, 0.16520096, -0.3326659, -0.045089863, -0.5436663, -0.19109675, -0.5067798, -0.5381097, -0.31539014, 0.5391884, 0.049459264, 0.38020384, -0.20494564, -0.83143246, 0.47647178, 0.22353591, -0.45117098, -0.12465068, -0.031524662, -0.19517934, 0.0617167, 0.35674846, -0.10128213, -0.21944553, 0.6290164, 0.014569691, -0.058545515, 0.5196932, 0.094826266, -0.6822353, -0.32391044, 0.50106275, -1.0104401, -0.3334529, -0.50545615, 0.04470699, 0.32214424, -0.03531535, -0.3833461, -0.3746439, -0.1442716, 0.13795431, -0.15803188, -0.0032834809, 0.061901134, 0.65595, 0.6357458, 0.770262, -0.5050089, 0.5065915, -1.0790122, -0.070520654, -0.14413449, 0.12872316, -0.65379214, -0.42862475, 0.24515183, 0.12144579, -0.044400595, -0.13762638, 0.18672314, -0.31883138, 0.66441715, 0.54484373, 0.1529364, 0.041775115, -0.18744758, -0.09757748, -0.41018304, 0.30932185, 0.04461591, 0.3154026, 0.21868569, -0.02971827, -0.11634559, -0.3844283, -0.34137923, -0.39304435, 0.6802809, 0.03151929, -0.3127177, -0.5662024, -0.09433764, -0.88406616, -0.65122694, -0.26750025, -0.13366911, -0.6236295, -0.765901, 0.55324244, -0.010141169, 0.5108754, -0.17557232, 0.37828958, 0.22362846, 0.2572191, 0.59254843, -0.39018324, 0.32756203, -0.40923446, 0.14033881, -0.44665438, -0.58659726, 0.8121655, -0.3565719, 0.32977185, -0.26567268, 0.17538504, 0.8903126, -0.51702, -0.43257937, -0.5749776, -0.20499922, 0.072096266, -0.19349511, -0.47240987, 0.9189858, -0.6181112, 0.51488, 0.46266297, -0.701546, 0.63129497, -0.06693827, 0.03458052, -0.7391476, 0.6673424, -0.2988322, -0.17805454, 0.029094914, -0.040091533, -0.061570246, 0.6292764, 0.51709706, -0.045650974, 0.022788009, 0.3900676, -0.16930251, 0.44873115, -0.17750692, 0.12239288, -0.6741376, -0.5024028, -0.21477664, -0.56378675, 0.19575666, -0.37958145, 0.6184284, -0.032846443, 0.006094334, 0.41331196, -0.4922465, -0.055213325, -0.28956705, -0.21473815, -0.3704498, 0.71468747, 0.24972256, 0.15034929, 0.19306575, 0.24757855, 0.1516698, -0.8806669, -0.839465, -0.24359734, 0.040928088, -0.5750401, -0.24226697, -0.23001266, 0.67857295, 0.40312994, -0.07833791, 0.23093922, 0.19259718, -0.15171774, 0.09416492, 0.092764765, 0.18065423, 0.20714748, 0.3350115, 0.14735071, -0.1392363, -0.21273988, -0.12195304, 0.010099671, -0.09386054, 0.51330435, -0.47867882, 0.15767413, 0.79129106, 0.1507475, -0.601799, -0.19135273, 0.07398371, -0.85696507, 0.6023283, 0.7055052, 0.7078045, -0.56093633, 0.60833097, 0.2960406, -0.36040938, 0.1372551, -0.7839426, -0.8642971, 0.5646282, 0.31479785, 0.5671718, -0.47490564, 1.0371782, -0.6064229, 0.018686892, -0.016798185, -0.17649081, 0.57300264, -0.2427249, 0.75017834, 0.14107054, -0.6436249, -0.04293802, 0.12762873, 0.28389868, 0.12942167, 0.36120054, 0.04731295, -0.33002388, -0.084742256, -0.21541215, 0.74252146, -0.2808896, 0.20774505, 0.16919893, 0.45346573, -0.6203242, -0.2881582, 0.9508972, 0.586159, -0.4855203, 0.22537354, 0.058790114, 0.046069972, -0.59474486, 0.60489804, -0.99246174, 0.5499226, 1.0575883, -0.883754, -0.36357045, 0.2031445, -0.10639109, -0.9993215, 0.9245784, -0.09500524, 0.09736957, -0.48782286, 0.48632902, -0.07489445, -0.36509955, -0.22003488, 0.6736627, 0.19117935, -0.609835, 0.4458343, -0.2993999, -0.110297255, -0.2618017, 0.24424314, 0.062129293, 0.29254562, 0.27833706, -0.36760968, -0.19970542, 0.07986274, 0.3716437, 0.41413462, 0.2721634, 0.71327066, 0.066262156, -0.02062081, 0.3558222, 0.64826274, 0.05198613, 0.39322093, -0.7553264, 0.32895443, -0.23082441, -0.2559647, -1.6046233, -0.3269077, 0.8403632, -0.6330425, -0.095037624, -0.21415155, 0.0649835, -0.7906222, 0.6379156, -0.39381832, 0.25729162, -0.010285098, 0.46809372, -0.42677093, -0.18620896, 0.40318716, 0.8579287, 0.09277156, -0.20742722, -0.1830266, -0.32801762, -0.086800724, -0.32630485, -0.15329045, -0.45585382, -0.42166138, -0.05383906, -0.017496852, 0.16732518, 0.5556786, 0.5934918, 0.5305747, -0.21985483, -0.17024474, 0.09557187, -0.4447003, -0.3240167, -0.24362043, -0.71945924, 0.84546876, -0.023764333, -0.25859347, -0.40064055, -0.031911988, -0.22367668, 0.22655576, 0.16487391, 0.13292922, -0.22781402, -0.49972555, -0.11289888, 0.14155968, 0.7949946, -0.36958635, 0.12532504, 0.022851791, -0.71953493, 0.030091695, -0.19694225, -0.268575, 0.43148398, 0.6744262, 0.36925277, 0.69192666, 0.5862715, -0.18013056, 0.096881956, 0.5941414, -0.3880706, 0.048682794, 0.18143375, -0.012134287, -0.38691574, -0.34827498, 0.7123049, -0.2933972, -0.077741906, -0.23895216, -0.07886516, -0.07872228, -0.7088571, -0.2192175, -0.12316365, -0.32864872, -0.2824696, -0.025360547, -0.56353635, 0.80074334, 0.5913823, -0.043372888, -0.5598174, 0.5332837, -0.5390356, -0.42681488, -0.18875761, -0.15225607, -0.158015, -0.06688607, -0.5430069, -0.20251036, -0.039430365, -0.44750798, -0.32278526, 0.12167614, 0.033449367, -0.3190571, -0.67879415, 0.41417646, 0.035199616, 0.5954639, 0.16136469, -0.5568233, 0.44510174, 0.70565593, -0.20605598, 0.0097977985, -0.17182322, -0.48504987, 0.10560351, -1.1551499, -0.59443766, -0.34774953, 0.043415077, 0.33353794, 0.51605654, 0.31620383, -0.36933112, 0.0038284378, 0.29964456, 0.18821236, 0.2016871, -0.1470722, 0.18316308, -0.13480528, 0.27822173, 0.33206585, 0.5549106, -0.0041578105, 0.57005, 0.42238325, -0.78209674, 0.71100956, -0.7484448, -0.15246288, 0.23656283, -0.4802272, 0.22441323, 0.24581872, -0.096694514, 0.56532323, 0.0826449, -0.82173514, -0.41738704, 0.19607858, -0.3516115, -0.9895363, -0.13977297, -0.3405763, -0.8775291, -0.08678969, -0.062790886, -0.02201929, 0.012258728, 0.55088305, 0.22168285, -0.18122521, 0.4720565, -0.3550061, -0.20064668, -0.044067398, -0.8695596, -0.060952518, 0.6757787, -0.06598804, -0.1165186, -0.62196195, 0.3565203, -0.26057634, -0.08920508, 0.17470077, -0.03882402, 0.43799204, -0.28869358, 0.09842846, 0.1688518, -0.019312732, 0.47284925, -0.098750435, -0.29016596, 0.83636385, -0.12742388, 1.0865695, -0.23405822, -0.60440713, 0.08074299, 0.572802, 0.4327391, -0.42803082, 0.07248697, 0.4550403, -0.22215874, 0.1616182, 0.35647658, -0.6100882, 0.80237466, -0.31398946, 0.7498136, 0.3470718, -0.3505057, -0.59463406, -0.168825, -0.08181667, -0.20077467, 0.054183517, -0.48866653, -0.54704964, 0.4125039, 0.14470457, -0.46399656, 0.5087151, -0.02920165, -0.24202459, 0.664843, -0.38672638, 0.10203746, -0.23895764, 0.07507025, -0.19670469, -0.28688562, -0.092374876, 0.367172, 8.311537e-05, 0.12675628, 0.011493463, 0.01384319, -0.18519297, -0.008313353, 0.8019154, -0.33167392, 0.19889933, 0.026709931, 0.5100516, -0.35069236, -0.2075972, 0.3742804, -0.12970679, 0.41535082, -0.3315242, -0.6330792, 0.45680395, -0.155707, -0.7271855, 0.4417548, -0.09176168, 0.46686262, -0.37333146, -0.103568494, -0.58701754, -0.19039355, -0.8226482, -0.4304355, 0.008137492, -0.29080474, -0.3519308, -0.0008568524, -0.5590755, -0.06173941, -0.28418243, 0.24481566, -0.44078887, -0.20986307, -0.12742679, 0.12458042, -0.2981007, 0.55126786, 0.5919316, 0.52701783, -0.19588923, 0.17564522, 0.09236833, -0.2341121, -0.12922294, -0.6973576, -0.7898229, -0.22297658, 0.31584752, -0.367831, 0.6715463, -0.52508146, -0.13020784, -0.91634464, 0.22795826, -0.029978748, -0.08251167, 0.09303149, 0.026688065, -0.08966067, -0.67319894, -0.40634117, 0.5434997, 0.05174033, -0.2639744, -1.043621, -0.487517, -0.10106328, -0.26600862, 0.21711206, -0.0015464856, 0.55778337, -0.09962952, -0.43592703, -0.5910337, -0.45167583, 0.5973091, -0.3230897, -0.4172757, 0.3454168, -0.1328888, -0.21078926, 0.60170376, 0.22260812, -0.27670023, 0.39815295, 0.06495854, 0.10047441, 0.47192138, 0.40228507, -0.75395626, 0.07353452, -0.22960912, -0.13788766, -0.35040125, -0.07686179, 0.22646935, -0.032118812, -0.17114301, 0.12227086, -0.1696111, -0.52028143, 0.69688845, 0.10583654, 0.0022592975, -0.44148958, 0.008012973, 0.06085904, -0.25700578, -0.91250443, 0.14074565, 0.06576594, -0.15274717, -0.1976303, -0.055637915, -0.61094445, -0.29566184, -0.6698838, 0.11154473, 0.24091768, -0.18885161, -0.58836436, 0.21045215, -0.45435148, 0.22213036, -0.13015905, -0.414773, 0.079025425, -0.18156864, 0.13194187, 0.048515406, 0.0005600883, 0.42513365, -0.755474, -0.1876222, -0.5008262, -0.6115937, 0.14166671, 0.10950824, 0.36012852, 0.2547375, -0.3606788, -0.20960964, -0.12585643, -0.31968725, -0.27288267, 0.7808398, -0.071082026, 0.62313473, 0.40707752, -0.040255383, -0.28386343, -0.06852769, 0.28412235, -0.31447375, 0.7546739, -0.12620263, -0.58623576, 0.18694721, 0.055632446, -0.3667773, 0.18635234, -0.21455011, -0.13748749, -0.014903471, 1.3462404, -0.2261219, -0.038421616, -0.1291763, -0.08641249, -0.086520895, 0.27008235, -1.0754074, -0.28941792, 0.48396778, -0.41519827, 0.28961614, -0.0778384, -0.5832348, 0.090525165, 0.17513683, 0.08229648, -0.3272412, 0.30011743, -0.012133815, -0.32936117, 0.063786924, -0.2176256, 0.4735514, -0.98297715, -0.09722345, -0.14776227, -0.5199956, -0.8357732, 0.10360585, -0.6482761, 0.2021396, -0.17157836, 0.58714944, 0.6832272, 0.43751806, -0.29247454, 0.23358996, 0.37040746, -0.09400924, 0.27019155, 0.014646611, 0.29948536, 0.1371271, -0.7560902, -0.07843337, 0.28801495, -0.5957508, -0.44926542, 0.010530595, 0.45621362, -0.42165896, -0.07645219, 0.2021015, 0.47313437, 0.5959906, 0.09457268, -0.6536734, 0.50121456, -0.2827701, 0.09095587, -0.5221433, 0.05244769, 0.31605586, 0.35869297, -0.06575037, 0.17909066, -0.41820922, 0.033504926, 0.16894704, 0.10804321, 0.14675708, -0.29897872]</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1322651505470276</v>
       </c>
     </row>
     <row r="9">
@@ -688,12 +714,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TPA란?</t>
+          <t>식품 물성학이란?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Texture profile analysis</t>
+          <t>물질의 변형과 흐름에 대한 학문입니다</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -704,8 +730,11 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0.4885334, -0.11603614, 0.2511666, -0.30305386, -0.34362522, -0.050081413, 0.3188912, 0.76404923, 0.4751886, -0.17285335, -0.2155328, -0.08490473, -0.52112937, 0.20814234, -0.30167708, -0.14540413, -0.06460733, 0.13168643, 0.25948268, -1.0287849, -0.6278779, 0.058240455, 0.36083746, 0.10047832, -0.0026055078, 0.07033342, -0.10123489, -0.17302822, 0.96450996, -0.84660596, -0.17058848, -0.08814504, -0.025447607, 0.3729366, 0.27626196, 0.09471894, -0.57218, 0.089420654, -0.33137473, 0.1828603, 0.10448307, -0.59266084, 0.16355897, 0.073578775, 0.18550326, 0.007676676, 0.3492802, -0.39072287, 0.023468869, 0.6233842, -0.1265993, 0.24205196, -0.023913361, 0.4316875, -0.36046317, -0.844708, -0.39071357, -1.0317355, 0.2943777, -0.18773109, 0.29446566, -0.6841247, 0.07934774, 0.5602292, -0.31024867, -0.39779234, -0.7820325, 0.047475863, -0.034707714, 0.2174939, 0.36129963, -0.1755618, 0.45609346, -0.14170934, 0.37940493, -0.9352234, 0.028161263, -0.5098231, 0.24898864, 0.9504154, -0.14894171, -0.797942, -0.8480614, -0.8126077, -0.26923996, -0.27233124, 0.013319761, -0.4501276, -1.213358, -0.2961175, -0.3738071, 0.20253712, 0.21950345, -0.015078659, -0.28374, -0.18323822, -0.075198345, 0.16270894, 0.093613714, 0.17774312, -0.047182526, 0.1610366, -0.065746635, 0.33262733, -0.028250583, -0.1288283, -0.63305956, -0.11273381, -0.49240324, 0.24523707, 0.36004767, -1.008127, 0.20028527, 0.5554094, -0.27101722, -0.03710978, 0.050466884, 0.47504643, -0.1026448, 0.4884704, 0.29143366, 0.22451441, -0.22192872, 0.6755059, -0.56223255, 0.31262484, 1.1013864, 0.1424696, 0.27456608, -0.50515395, -0.040403564, 0.012183118, 0.24621366, -0.10992346, -0.47196782, -0.74672705, 0.38531193, -0.5088623, 0.5977191, 0.24844652, 0.32416388, 0.28257215, -0.15251447, -0.14506604, 0.540649, -0.03865852, 0.59323794, -0.16245116, -0.056780133, -0.566637, -0.29988995, 0.022838116, -0.79674894, 0.2573212, -0.028704727, -0.67731994, -0.26716033, 0.23293024, 0.34614506, -0.18182981, 0.4991264, -0.37109342, 0.11821569, -0.11244132, 0.26266667, 0.17318638, 0.59357995, -0.23354472, 0.5461173, 0.17384648, 0.04722759, -0.08448241, -0.11153951, 0.20275743, -0.06258676, 0.115576126, -0.04126553, -0.019533707, 0.16394255, -0.67651963, 0.014015156, 0.31414977, -0.43382052, 0.44561782, 0.1800158, -0.04651919, 0.57761306, 0.08854715, -0.36439928, -0.30603775, 0.32406726, 0.20198154, 0.1494198, -0.22077413, -0.29360044, 0.72808355, -0.14947076, 0.049168646, -0.4005898, -0.63691586, -0.048878044, 0.022402754, 0.60071504, 0.36209285, 0.6042838, 0.325693, -0.4440982, 0.070207745, -0.17337996, -0.60533905, -0.034046814, 0.93132013, 0.097009696, 0.21047051, 0.024842985, 0.007735466, -0.09331423, -0.13856314, -0.2229683, -0.001745599, 0.11161695, 0.14932707, 0.04977885, -0.35974348, 0.10560288, -0.7554681, 0.17391719, 0.41755626, 0.13505627, -0.39926967, -0.5354284, -0.07514741, -0.21907789, -0.6219506, 0.90046215, 0.50892127, 0.640693, 0.36513612, -0.5397989, -0.5001065, -0.15581013, 0.41950896, -0.41297475, -0.15241994, -0.22206073, 0.19899613, -0.09723526, -0.2889937, 0.35042787, -0.32966682, 0.17236269, 0.5475258, -0.45567465, 0.17975523, 0.16018343, -0.9855415, -0.33271107, 0.3711479, -0.70002896, 0.017387934, -0.006086389, -0.049539465, 0.085069954, 0.25377062, -0.68818855, -0.26349318, 0.12680261, -1.426835, 0.40310684, -0.6141007, -0.71351916, -0.5180694, 0.34561095, 0.3583562, -0.40449405, 0.8523887, 0.28901702, 0.21941751, -0.058133196, -0.19161393, 0.6386488, 0.359602, 0.21922083, 0.49411213, -0.016762128, -0.4981135, -0.18041037, -0.37083077, -0.280417, -0.52749974, -0.22666454, 0.20654304, -0.39177093, -1.1096077, 0.27091715, 0.06137311, -0.17791454, -0.10723001, 0.36885312, 0.04224668, 0.4457488, 0.30819103, -0.039256185, 0.34405303, 0.5741324, 0.1849159, -0.21718483, 0.114855565, -0.19112527, 0.4136912, 0.21060677, -0.002656389, 0.21538877, 0.26239964, 0.19362901, -0.046669547, -0.05036986, -0.53690416, -0.09029257, -0.101661004, -0.19005185, 0.32420075, 0.055035073, -0.17833017, 0.3969876, 0.42715254, 0.32738104, 0.33321753, 0.21385966, -0.4179351, -0.7219617, -0.2971972, 0.56056505, 0.09808987, 0.17834143, -0.52838486, 0.44249848, -0.4310424, -0.2049048, -0.18006746, -0.5477054, 0.29473835, -0.41113126, 0.6941972, -0.4569812, 1.242805, 0.015790896, -0.07163963, -0.32707784, -0.4654487, -0.8483301, -0.066575505, 0.1620688, 0.078553475, 0.5062613, -0.16166644, 0.54277045, 0.49465743, -0.3740714, -0.38381192, 0.6574344, -0.96539336, 0.4798795, -0.9433145, -0.28490415, 0.3959186, -0.35501707, 0.24940874, 0.35985306, 0.3920965, -0.12401152, 0.10106331, 0.8500075, -0.35823408, -0.61173606, 0.0457121, -0.7250075, -0.66831326, -0.21624161, -0.10359442, 0.89228445, 0.6526451, 0.040783025, -0.15814495, -0.085675664, -0.7033758, -0.17038834, 0.32817248, 0.1650917, 0.28830326, -0.74298173, -0.36444604, 0.2706101, -0.16018675, 0.026364595, 0.3495665, 0.2126442, 0.40720913, -0.24301879, -0.6757085, 0.59541816, -0.13836862, 0.45280036, 0.29908848, -0.41776755, -0.5473711, 0.43042898, -0.37777218, -0.57477826, -0.2270649, -0.849919, -0.07629036, -0.8635633, -0.43188098, -0.063109525, -0.4821135, -0.2260225, 0.77927035, -0.12941016, 0.17122169, 0.41828692, -0.7176607, 0.50416213, -0.53851753, 0.31573653, 0.6211794, 0.49129522, 0.49932036, 0.0069941827, -0.45760843, 0.31916532, 0.036963526, 0.6820325, 0.13251027, 0.149166, -0.66129637, -0.11568994, 0.2079109, -0.14704162, 0.7818608, 0.2771267, 0.24228191, 0.3775762, 0.107162766, -0.32599974, -0.2918907, -0.39061952, -0.8833048, -0.9255295, -1.108967, -0.5497353, -0.851161, 0.34671512, -0.047374442, -0.62633103, -0.6587823, 0.8186082, -0.10488271, -0.21169846, 0.32643387, -0.14201893, 0.062285144, -0.61152285, -0.69672936, 0.60036314, 0.2941086, 0.06337479, 1.1127139, -0.11741093, 0.5586703, -0.55130404, -0.121858425, -0.016277257, -0.015789272, 0.3541715, -0.22733723, -0.30572143, 0.12504886, 0.38607848, 0.13377906, 0.6292489, -0.2884449, 0.5246002, -0.14511342, 0.4956565, -0.14200167, -0.26469138, -0.5422291, -0.102481365, 0.22403228, -0.321534, -0.022581005, -0.31965622, 0.25018254, 0.6622656, -0.27020893, -0.21906729, 0.5989695, -0.4516835, 0.7276414, 0.08799386, -0.025237694, 0.14432937, -0.22288209, 0.03988947, 0.4935595, 0.5995271, -0.23435883, -0.48233715, 0.09578667, -0.101523936, -0.47804794, 0.74551183, -0.12006255, 0.075945534, 0.4008062, 0.12770502, -0.18722458, -0.3116354, 0.5387573, -0.49055168, -0.085525356, 0.14610694, -0.47886273, -0.010766834, -0.11870686, 0.8086951, -0.10672051, -0.054782417, -0.40686032, 0.112581275, 0.09613305, 0.20892853, -0.0940091, 0.8003257, -0.0816046, -0.15781733, 0.6698007, 0.50055766, 0.060164306, 0.2801762, -0.25690198, -0.034323547, -0.001974058, -0.7592694, 0.06663614, 0.1112395, 0.5706807, 0.19964404, 0.19739169, 0.20091438, -0.39245453, -0.53291875, -0.6050269, -0.578274, -0.42022052, -0.19622189, -0.57724434, -0.5615567, 0.18958545, 0.09638085, 0.46320888, -0.89467984, -0.3340344, -0.3703519, 0.58818984, -0.38579535, 0.18926243, 0.068527244, 0.20290332, -0.35014486, 0.23746574, 0.10367086, 0.21325767, 0.1263361, -0.66691756, -1.043198, -0.42913926, -0.19516653, -0.32644227, -0.21978335, 0.0121258395, -0.462603, -0.22189848, 0.8637641, -0.56743777, -0.6588631, -0.11022047, -0.23684381, -0.49810922, 0.1990747, -0.8001587, 0.06906921, -0.09644624, -0.5802385, -0.04504021, 0.25357038, -0.13862084, 0.043264214, -0.10970744, -0.5941724, 0.4425497, -0.16924728, 0.06987097, -0.89901596, -0.3508301, 1.0452162, -0.39414373, 0.050527927, 0.6561899, 0.13104981, -0.046209354, 0.30959573, -0.06675818, -0.41604754, 0.0743085, -0.6896371, -0.4195429, 0.18589135, 0.49302015, -0.024171809, 0.2814063, -0.41054735, -0.21576114, -0.16321413, -0.25754657, -0.10254536, -0.5432554, -0.07525734, -0.334554, 0.61999196, -0.4908599, 0.26421016, -0.85131717, -0.13631898, -0.27883437, 0.074662246, 0.48806635, -0.5179183, -0.86075383, -0.24847479, -0.3726217, -0.2771426, 0.12133432, -0.061537787, -0.8423831, -0.06562846, -0.13033326, -0.66729873, -0.08519676, -0.281975, -0.050435215, 0.79217696, -0.22553492, 0.30526808, 0.24636339, 0.63341063, -0.07726174, -0.14871624, -0.46087456, 0.10576537, 0.19432335, 0.4933537, -0.37345544, -0.8783471, -0.2955036, -0.42979407, -0.20549451, 0.14030565, 0.13879411, 0.9383761, -0.16829067, 0.07518154, 0.6417275, -0.2743506, -0.29780883, 1.0747975, -0.33571646, 0.7823264, 0.20264328, -0.53257376, 0.23356332, 0.3532515, 0.6053083, 0.044956177, 1.2569257, 0.4745244, -0.047113508, -0.028916577, 0.19918181, -0.123829015, 0.3928465, 0.44560578, -0.42202553, 0.9122791, 0.80628115, -0.3401345, -0.22115707, -0.4369501, -0.2802387, -0.50893146, 0.06265982, -0.51538044, -0.46200332, -0.3708078, -0.45200464, -0.11704438, -0.11307871, -0.11447147, 0.02782861, -0.008910462, 0.017106002, -0.42494026, 0.18517776, -0.5811972, -0.0129392585, 0.23632468, -0.7170189, -0.07660102, -0.89050007, 0.5770984, -0.15686077, -0.2213183, -0.32220525, 0.40205863, -0.23357742, -0.08433985, -0.4667021, -0.71952534, -0.4637549, 0.14901398, -0.02874546, 0.16437127, 0.31107807, 0.010703936, -0.081041574, 0.05976671, -0.052495155, 0.16079856, 0.1040011, -0.22649781, 0.5135649, -0.08228018, -0.39795196, 0.24215855, 0.23885645, -0.2310612, 0.8006139, 0.6019363, 0.545127, 0.17909081, -0.26487663, -0.3073562, -0.1946736, -0.85128623, -0.25623772, 0.44997975, -0.020184476, -0.19073933, -0.36075678, 0.10699437, 0.30974042, 0.019065859, 0.22457041, 0.6285601, 0.37750015, -0.055243447, 0.026250869]</t>
-        </is>
+          <t>[-0.36392117, -0.26564538, 0.25768554, -0.591819, -0.31556907, -0.69717765, 0.12614638, -0.61213773, 0.10201195, -0.7024376, 0.18407804, -0.06662505, 0.038012274, -0.17822962, -0.26415843, -0.16861728, 0.037882287, -0.19611469, 0.1641345, -0.42568558, 0.082654, -0.14684756, 0.1799919, 0.6565989, -0.1206719, -0.3042521, -0.20506743, -0.021361027, -0.20533498, -0.45573744, 1.2645978, 0.30806696, 0.20737156, 0.187539, 0.112420835, 0.054701857, -0.53489363, -0.21776277, 0.09904912, -0.07032474, -0.42856678, -0.048018746, 0.31610617, 0.364391, 0.124686904, -0.07920974, -0.13087343, 0.20968485, 0.11183556, 0.049652338, -0.3189274, 0.15945333, 0.31260076, 0.6271228, -0.16125266, -0.3346179, -0.14040501, 0.48195282, 0.116039835, -0.95114124, 0.2597226, -0.4729014, -0.15964158, -0.35946402, 0.23877472, -0.53118736, -0.44283658, 0.17534415, -0.10678217, 0.0712586, -0.16072083, -0.044166148, 0.4316601, -0.19892189, 0.051833946, -0.07029377, -0.1721721, 0.06989398, 0.2515519, 0.5973203, -0.23694529, 0.12315849, 0.31859058, -0.95040554, 0.62347406, -1.1113383, -0.1314075, -0.6889028, -0.9520234, 0.1362532, -0.27321202, -0.2541843, 0.15866609, 0.12063054, -0.24403872, -0.25679302, -0.3151213, 0.71453434, 0.29597318, -0.49585348, 0.029138127, -0.31796652, -0.28161895, 0.81999177, -0.06978306, -0.052521106, -0.32553062, -0.11554921, 0.12329001, -0.44251284, -0.22160815, -0.9115813, 0.5131028, -0.29661286, -0.25102726, 0.6141629, -0.16842858, -0.31069598, -0.0030508759, 0.23313788, 0.12244035, -0.3489295, -0.22086161, 0.30162245, 0.19221126, 0.06804498, 0.2440237, 0.060497012, 0.53216064, -0.5155708, 0.22010969, 1.136024, 0.48161098, 0.43246725, -0.5314715, -0.34429318, 0.10309862, 0.24514145, 0.8889156, 0.6544921, -0.25212017, 0.060003478, -0.45344278, 0.11414797, -0.3872614, -0.60962427, 0.36729464, -0.100956626, 0.087127864, -0.648522, -0.5664245, 0.14018148, -0.9292995, 0.27576885, -0.24805816, -0.2492876, -0.07811197, -0.16446628, 0.32165256, 0.20628732, 0.46021685, 0.48904806, -0.5921213, 0.057277508, 0.58815694, -0.971568, -0.02868445, -0.11418291, 0.29886916, -0.46544272, -0.757824, 0.16666074, 0.5338216, -0.29206923, -0.19615664, -0.050975773, -0.32796675, -0.089247555, -0.14428608, -0.14522076, 0.6184932, 0.37119788, -0.0608187, 0.10003066, 0.25601548, 0.5268187, -0.05867301, -0.44004273, -0.64120865, -0.53378594, 0.30678213, -0.9519507, -0.00058891374, -0.5672086, 0.14245339, 0.809595, -0.5324528, 0.76222694, -0.287073, 0.22131322, -0.6211081, 0.35510728, -0.3423136, 1.0570484, 0.1461538, 0.1747553, 0.09081214, -0.32936347, 0.3230176, -0.33307612, -0.061446443, 0.11094198, -0.17719941, 0.38690412, -0.4588091, -0.71632737, -0.47614303, -0.071313255, -0.22556373, 0.14109986, 0.3366331, -0.18182386, 0.39669636, -0.30836546, 0.21223757, -0.21819277, 0.44813925, 0.7782548, -0.3896479, 0.09856373, -0.13507889, -0.041607562, -0.34284526, -0.3565198, 0.12907733, -0.42307588, 0.62385345, 0.76599395, -0.3877621, 0.19775487, 0.16484404, -0.0681049, -0.2134414, -0.07067812, -0.49046957, 0.21901637, -0.044488277, -0.16191031, 0.105872184, -0.62178427, 0.051894423, 0.23140877, -0.2312975, -0.39427018, -0.12126291, -0.5129975, 0.21547575, 0.41939634, 0.024185658, 0.23754059, 0.22462195, 0.34800234, -0.1530808, 0.15476401, -0.5503529, -0.03304141, 0.38758144, -0.8553852, 0.19601773, -0.40369353, -0.55164397, -0.043937966, 0.67238057, 0.46280208, 0.065573305, 0.7698047, -0.6937544, 0.73752886, 0.18437673, 0.4753213, -0.39138734, 0.09719283, 0.38653776, 0.123550564, 0.34444577, -0.24755682, 0.37440923, -0.36345938, 0.031274598, -0.09907642, -0.60366845, -0.30847642, -0.105024725, -0.74462783, 0.25676623, -0.12962866, -1.4998245, 0.075952046, -0.044978302, 0.9617498, -0.09427026, 0.75744885, -0.18911725, 0.20225881, -0.20004681, 0.43672, -0.025509018, 0.22429389, -0.7020871, 1.0041424, 0.24291976, -0.18241699, -0.20805095, 0.22690007, -0.14824201, -0.28577876, 0.530495, 0.5445297, -0.38827124, 0.1820507, 0.18424775, 0.71450424, 0.09061428, -0.28599325, 0.4623109, 0.33640543, 0.24685661, 0.085863024, -0.4003444, -0.3410598, -0.51988554, -0.63712174, -0.036020204, -0.042361896, -0.7468575, -0.2510177, -0.10206318, -0.6055403, 0.017780337, 0.19127816, 0.18270132, -0.21403883, -0.46555483, -0.3417068, -0.6760641, 1.1771531, -0.12241297, -0.75191605, -0.11531779, -0.46069676, -0.53241974, -0.18420467, -0.39328977, -0.05303381, 0.15937105, -0.23270157, 0.33415174, 0.50002706, -0.010481902, -0.07074669, 0.64155596, -0.59997195, 0.0009649098, 0.34807894, -0.4475509, 0.33933675, -0.7606018, 0.5044208, 0.046588257, 0.21206266, 0.14635783, -0.59990937, -0.025855618, -0.86179477, -0.17298098, 0.043129772, 0.00088780123, -0.43977755, 0.16579339, 0.4710995, 0.1294925, 0.42763412, 0.3809467, -1.1213499, 0.63445956, -0.6742766, -0.2895259, -0.15623069, -0.18197605, 0.04879452, 0.60019475, 0.40179664, 0.2244468, -0.2619391, -0.5687369, 0.28491828, -0.18756999, -0.12265608, -0.42712337, 0.1341378, -0.04094751, -0.22855674, 0.13193454, 0.5830795, 0.5394832, -0.053816512, 0.21210425, -0.19101423, -0.30947462, -0.2646651, -0.12939008, 0.01935227, -0.16076484, -1.1635954, -0.06417281, -0.23271349, -1.1618379, 0.8774718, -0.7030124, -0.3388797, -0.032111373, -0.16159631, 0.7117, -0.05845946, 0.37180918, 0.004127524, 0.5390703, 0.10801948, 0.7795113, 0.43999767, 0.7967801, -0.42670134, 0.23303533, 0.032722186, 0.038198598, -0.6005229, 0.17016275, 0.036763284, 0.4649396, 0.17719205, 0.16492066, -0.7480561, -0.20765041, 0.29384604, 0.5549371, -0.022904979, 0.6120277, -0.44480002, -0.448674, -1.047726, -0.062496927, -0.5858376, -0.96968585, -0.06275256, -0.4578292, -0.37664858, 0.4795732, -0.040835872, 0.31821033, -0.46234977, -0.36721128, 0.307909, 0.086956054, -0.6344603, -0.3553751, 0.84744453, -0.2996406, 0.10006117, 0.3908595, 0.19219555, -0.36223087, -0.088692, -0.050994664, -0.332816, -0.08869515, -0.37832987, 0.14993776, 0.18281521, -0.6003261, 0.5061423, 0.031923253, -0.12782526, 0.30177668, 0.14687431, 0.8170913, 0.6965865, -0.33834106, -0.31019062, -0.029260674, 0.32009166, 0.098512016, 0.61929387, -0.04873906, -0.33747265, 1.0426513, -0.10067737, 0.22896624, 0.5052748, 0.34581074, 0.47717273, 0.34769297, 0.16458839, -0.118118525, 0.035056632, -0.35482436, -0.4191752, 0.5905791, -0.35284925, -0.42772925, -0.3108749, -0.5223654, -0.8450464, -0.11448712, 0.091930866, -0.44494832, 0.21889403, 0.64915955, -0.006346628, -0.016478218, 0.0651939, 0.40098956, 0.1733455, 0.44479486, 0.19874589, -0.2985064, -0.3289226, -0.16036397, -0.13488215, 0.16934936, 0.33990327, 0.5399528, -0.38714737, -0.14984438, 0.67612106, 0.21069811, 0.0032050675, -0.04108571, 0.023283256, 0.13343373, 0.62378454, -0.124773175, -0.1898928, 0.86710143, -0.10654509, -0.15163714, 0.045903597, 0.69308287, 0.31384882, -0.14177965, -0.8460862, -0.54444593, -0.10361047, -0.11066461, -0.47868183, -0.43495008, -0.14840114, 0.015092941, -0.15835738, -0.198328, -0.16309617, -0.06888184, 0.103619985, -0.75253177, -0.017804049, -0.6902741, 0.31811422, 0.3734469, 0.6468078, -0.03734537, -0.04291778, 0.25088525, 0.25927296, -0.3325257, 0.65558815, -0.1931027, -0.80743265, -0.83234227, -0.6613132, 0.17290398, -0.5952719, -0.22128227, 0.10523692, -0.28571236, 0.020222252, 0.59806174, 0.30140716, -0.8574303, -0.24303964, -0.8225648, -0.2611733, -0.30648404, -0.46852753, 0.17490844, -0.06773427, -0.6208394, 0.110726, -1.3188505, -0.5240401, -0.28084397, -0.21402627, -0.029615488, 0.7704368, -0.4377827, -0.08124435, -0.29211295, -0.63449955, 0.48631415, -0.31565654, -0.46400595, 0.038164634, 0.020442415, 0.40321258, 0.50997204, 0.10180262, 0.09756997, 0.34643957, 0.3201066, -0.12229738, -0.077224806, 0.42243028, -0.42990527, -0.2648359, -0.62482333, -0.2615218, -0.9458186, 0.14134732, 0.06195506, -0.30833542, -0.11300974, 0.12091626, 1.0720267, -0.5862582, -0.10071561, 0.07279524, -0.1744474, -0.04702787, -0.06420355, 0.54800934, -0.06252805, -0.8906077, -0.35779747, -0.22234927, 0.13081223, 0.17983644, -0.18641561, 0.06510167, -0.9747223, 0.3342312, 0.31882274, 0.11617294, 0.24081288, -0.048472844, 0.4942628, -0.19540565, 0.21736735, -0.004357429, -0.02618277, 0.57230115, -0.5587058, -0.34818876, -0.37795603, -0.08081348, 0.17961994, 0.0364144, -0.6688663, -0.94515747, 0.027798878, 0.009997358, -0.14426252, 0.60211843, 0.0041825646, -0.29966807, -0.006270604, -0.043291673, -0.16791165, -0.25529674, 0.31422254, 0.088915214, 0.7132644, -0.25234187, -0.58255607, 0.5708044, 0.48035234, 0.39522514, -0.35123488, 1.2297806, 0.274992, 0.36373746, 0.22130604, 0.22318275, -0.37459114, 0.3077851, 0.47181246, -0.5255685, 0.36695653, 0.62803257, -0.7801733, 0.37801912, -0.169614, 0.44817087, 0.27762046, 0.5761773, 0.3243071, -0.19993907, 0.033213273, -0.4407322, -0.22786188, 0.14829063, -0.58896065, -0.39653376, -0.1433886, -0.44504827, -0.6573339, -0.54418474, -0.28519583, 0.1748294, 0.14673811, -0.68164945, -0.0594515, -0.693064, 0.11218376, 0.451388, -0.17922957, 0.088790774, -0.35346034, 0.18902162, 0.47395387, -0.542436, 0.31363133, -0.116033874, -0.15027712, -0.42952916, -0.44354284, 0.07018556, 0.72452754, -0.03171073, -0.17459112, -0.008414296, 0.11272827, -0.2724527, -0.26112282, 0.273567, -0.5236242, 0.4973782, 0.019539727, -0.075016454, 0.0633213, 0.610013, 0.18340212, 0.40656316, -0.2700807, 0.15886675, 0.021043159, -0.25211895, 0.13396178, -0.07175336, -0.29600036, 0.1007351, 1.0211962, -0.25346673, 0.23732723, -0.28463677, -0.11868148, -0.712943, 0.6669939, 0.6346802, 0.5094438, 0.21804562]</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4044848680496216</v>
       </c>
     </row>
     <row r="10">
@@ -714,12 +743,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TPA란?</t>
+          <t>Food rheology 정의는?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>저작을 모방한 물성 측정 방법입니다.</t>
+          <t>물질의 변형과 흐름에 대한 학문입니다</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -730,8 +759,11 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[0.4885334, -0.11603614, 0.2511666, -0.30305386, -0.34362522, -0.050081413, 0.3188912, 0.76404923, 0.4751886, -0.17285335, -0.2155328, -0.08490473, -0.52112937, 0.20814234, -0.30167708, -0.14540413, -0.06460733, 0.13168643, 0.25948268, -1.0287849, -0.6278779, 0.058240455, 0.36083746, 0.10047832, -0.0026055078, 0.07033342, -0.10123489, -0.17302822, 0.96450996, -0.84660596, -0.17058848, -0.08814504, -0.025447607, 0.3729366, 0.27626196, 0.09471894, -0.57218, 0.089420654, -0.33137473, 0.1828603, 0.10448307, -0.59266084, 0.16355897, 0.073578775, 0.18550326, 0.007676676, 0.3492802, -0.39072287, 0.023468869, 0.6233842, -0.1265993, 0.24205196, -0.023913361, 0.4316875, -0.36046317, -0.844708, -0.39071357, -1.0317355, 0.2943777, -0.18773109, 0.29446566, -0.6841247, 0.07934774, 0.5602292, -0.31024867, -0.39779234, -0.7820325, 0.047475863, -0.034707714, 0.2174939, 0.36129963, -0.1755618, 0.45609346, -0.14170934, 0.37940493, -0.9352234, 0.028161263, -0.5098231, 0.24898864, 0.9504154, -0.14894171, -0.797942, -0.8480614, -0.8126077, -0.26923996, -0.27233124, 0.013319761, -0.4501276, -1.213358, -0.2961175, -0.3738071, 0.20253712, 0.21950345, -0.015078659, -0.28374, -0.18323822, -0.075198345, 0.16270894, 0.093613714, 0.17774312, -0.047182526, 0.1610366, -0.065746635, 0.33262733, -0.028250583, -0.1288283, -0.63305956, -0.11273381, -0.49240324, 0.24523707, 0.36004767, -1.008127, 0.20028527, 0.5554094, -0.27101722, -0.03710978, 0.050466884, 0.47504643, -0.1026448, 0.4884704, 0.29143366, 0.22451441, -0.22192872, 0.6755059, -0.56223255, 0.31262484, 1.1013864, 0.1424696, 0.27456608, -0.50515395, -0.040403564, 0.012183118, 0.24621366, -0.10992346, -0.47196782, -0.74672705, 0.38531193, -0.5088623, 0.5977191, 0.24844652, 0.32416388, 0.28257215, -0.15251447, -0.14506604, 0.540649, -0.03865852, 0.59323794, -0.16245116, -0.056780133, -0.566637, -0.29988995, 0.022838116, -0.79674894, 0.2573212, -0.028704727, -0.67731994, -0.26716033, 0.23293024, 0.34614506, -0.18182981, 0.4991264, -0.37109342, 0.11821569, -0.11244132, 0.26266667, 0.17318638, 0.59357995, -0.23354472, 0.5461173, 0.17384648, 0.04722759, -0.08448241, -0.11153951, 0.20275743, -0.06258676, 0.115576126, -0.04126553, -0.019533707, 0.16394255, -0.67651963, 0.014015156, 0.31414977, -0.43382052, 0.44561782, 0.1800158, -0.04651919, 0.57761306, 0.08854715, -0.36439928, -0.30603775, 0.32406726, 0.20198154, 0.1494198, -0.22077413, -0.29360044, 0.72808355, -0.14947076, 0.049168646, -0.4005898, -0.63691586, -0.048878044, 0.022402754, 0.60071504, 0.36209285, 0.6042838, 0.325693, -0.4440982, 0.070207745, -0.17337996, -0.60533905, -0.034046814, 0.93132013, 0.097009696, 0.21047051, 0.024842985, 0.007735466, -0.09331423, -0.13856314, -0.2229683, -0.001745599, 0.11161695, 0.14932707, 0.04977885, -0.35974348, 0.10560288, -0.7554681, 0.17391719, 0.41755626, 0.13505627, -0.39926967, -0.5354284, -0.07514741, -0.21907789, -0.6219506, 0.90046215, 0.50892127, 0.640693, 0.36513612, -0.5397989, -0.5001065, -0.15581013, 0.41950896, -0.41297475, -0.15241994, -0.22206073, 0.19899613, -0.09723526, -0.2889937, 0.35042787, -0.32966682, 0.17236269, 0.5475258, -0.45567465, 0.17975523, 0.16018343, -0.9855415, -0.33271107, 0.3711479, -0.70002896, 0.017387934, -0.006086389, -0.049539465, 0.085069954, 0.25377062, -0.68818855, -0.26349318, 0.12680261, -1.426835, 0.40310684, -0.6141007, -0.71351916, -0.5180694, 0.34561095, 0.3583562, -0.40449405, 0.8523887, 0.28901702, 0.21941751, -0.058133196, -0.19161393, 0.6386488, 0.359602, 0.21922083, 0.49411213, -0.016762128, -0.4981135, -0.18041037, -0.37083077, -0.280417, -0.52749974, -0.22666454, 0.20654304, -0.39177093, -1.1096077, 0.27091715, 0.06137311, -0.17791454, -0.10723001, 0.36885312, 0.04224668, 0.4457488, 0.30819103, -0.039256185, 0.34405303, 0.5741324, 0.1849159, -0.21718483, 0.114855565, -0.19112527, 0.4136912, 0.21060677, -0.002656389, 0.21538877, 0.26239964, 0.19362901, -0.046669547, -0.05036986, -0.53690416, -0.09029257, -0.101661004, -0.19005185, 0.32420075, 0.055035073, -0.17833017, 0.3969876, 0.42715254, 0.32738104, 0.33321753, 0.21385966, -0.4179351, -0.7219617, -0.2971972, 0.56056505, 0.09808987, 0.17834143, -0.52838486, 0.44249848, -0.4310424, -0.2049048, -0.18006746, -0.5477054, 0.29473835, -0.41113126, 0.6941972, -0.4569812, 1.242805, 0.015790896, -0.07163963, -0.32707784, -0.4654487, -0.8483301, -0.066575505, 0.1620688, 0.078553475, 0.5062613, -0.16166644, 0.54277045, 0.49465743, -0.3740714, -0.38381192, 0.6574344, -0.96539336, 0.4798795, -0.9433145, -0.28490415, 0.3959186, -0.35501707, 0.24940874, 0.35985306, 0.3920965, -0.12401152, 0.10106331, 0.8500075, -0.35823408, -0.61173606, 0.0457121, -0.7250075, -0.66831326, -0.21624161, -0.10359442, 0.89228445, 0.6526451, 0.040783025, -0.15814495, -0.085675664, -0.7033758, -0.17038834, 0.32817248, 0.1650917, 0.28830326, -0.74298173, -0.36444604, 0.2706101, -0.16018675, 0.026364595, 0.3495665, 0.2126442, 0.40720913, -0.24301879, -0.6757085, 0.59541816, -0.13836862, 0.45280036, 0.29908848, -0.41776755, -0.5473711, 0.43042898, -0.37777218, -0.57477826, -0.2270649, -0.849919, -0.07629036, -0.8635633, -0.43188098, -0.063109525, -0.4821135, -0.2260225, 0.77927035, -0.12941016, 0.17122169, 0.41828692, -0.7176607, 0.50416213, -0.53851753, 0.31573653, 0.6211794, 0.49129522, 0.49932036, 0.0069941827, -0.45760843, 0.31916532, 0.036963526, 0.6820325, 0.13251027, 0.149166, -0.66129637, -0.11568994, 0.2079109, -0.14704162, 0.7818608, 0.2771267, 0.24228191, 0.3775762, 0.107162766, -0.32599974, -0.2918907, -0.39061952, -0.8833048, -0.9255295, -1.108967, -0.5497353, -0.851161, 0.34671512, -0.047374442, -0.62633103, -0.6587823, 0.8186082, -0.10488271, -0.21169846, 0.32643387, -0.14201893, 0.062285144, -0.61152285, -0.69672936, 0.60036314, 0.2941086, 0.06337479, 1.1127139, -0.11741093, 0.5586703, -0.55130404, -0.121858425, -0.016277257, -0.015789272, 0.3541715, -0.22733723, -0.30572143, 0.12504886, 0.38607848, 0.13377906, 0.6292489, -0.2884449, 0.5246002, -0.14511342, 0.4956565, -0.14200167, -0.26469138, -0.5422291, -0.102481365, 0.22403228, -0.321534, -0.022581005, -0.31965622, 0.25018254, 0.6622656, -0.27020893, -0.21906729, 0.5989695, -0.4516835, 0.7276414, 0.08799386, -0.025237694, 0.14432937, -0.22288209, 0.03988947, 0.4935595, 0.5995271, -0.23435883, -0.48233715, 0.09578667, -0.101523936, -0.47804794, 0.74551183, -0.12006255, 0.075945534, 0.4008062, 0.12770502, -0.18722458, -0.3116354, 0.5387573, -0.49055168, -0.085525356, 0.14610694, -0.47886273, -0.010766834, -0.11870686, 0.8086951, -0.10672051, -0.054782417, -0.40686032, 0.112581275, 0.09613305, 0.20892853, -0.0940091, 0.8003257, -0.0816046, -0.15781733, 0.6698007, 0.50055766, 0.060164306, 0.2801762, -0.25690198, -0.034323547, -0.001974058, -0.7592694, 0.06663614, 0.1112395, 0.5706807, 0.19964404, 0.19739169, 0.20091438, -0.39245453, -0.53291875, -0.6050269, -0.578274, -0.42022052, -0.19622189, -0.57724434, -0.5615567, 0.18958545, 0.09638085, 0.46320888, -0.89467984, -0.3340344, -0.3703519, 0.58818984, -0.38579535, 0.18926243, 0.068527244, 0.20290332, -0.35014486, 0.23746574, 0.10367086, 0.21325767, 0.1263361, -0.66691756, -1.043198, -0.42913926, -0.19516653, -0.32644227, -0.21978335, 0.0121258395, -0.462603, -0.22189848, 0.8637641, -0.56743777, -0.6588631, -0.11022047, -0.23684381, -0.49810922, 0.1990747, -0.8001587, 0.06906921, -0.09644624, -0.5802385, -0.04504021, 0.25357038, -0.13862084, 0.043264214, -0.10970744, -0.5941724, 0.4425497, -0.16924728, 0.06987097, -0.89901596, -0.3508301, 1.0452162, -0.39414373, 0.050527927, 0.6561899, 0.13104981, -0.046209354, 0.30959573, -0.06675818, -0.41604754, 0.0743085, -0.6896371, -0.4195429, 0.18589135, 0.49302015, -0.024171809, 0.2814063, -0.41054735, -0.21576114, -0.16321413, -0.25754657, -0.10254536, -0.5432554, -0.07525734, -0.334554, 0.61999196, -0.4908599, 0.26421016, -0.85131717, -0.13631898, -0.27883437, 0.074662246, 0.48806635, -0.5179183, -0.86075383, -0.24847479, -0.3726217, -0.2771426, 0.12133432, -0.061537787, -0.8423831, -0.06562846, -0.13033326, -0.66729873, -0.08519676, -0.281975, -0.050435215, 0.79217696, -0.22553492, 0.30526808, 0.24636339, 0.63341063, -0.07726174, -0.14871624, -0.46087456, 0.10576537, 0.19432335, 0.4933537, -0.37345544, -0.8783471, -0.2955036, -0.42979407, -0.20549451, 0.14030565, 0.13879411, 0.9383761, -0.16829067, 0.07518154, 0.6417275, -0.2743506, -0.29780883, 1.0747975, -0.33571646, 0.7823264, 0.20264328, -0.53257376, 0.23356332, 0.3532515, 0.6053083, 0.044956177, 1.2569257, 0.4745244, -0.047113508, -0.028916577, 0.19918181, -0.123829015, 0.3928465, 0.44560578, -0.42202553, 0.9122791, 0.80628115, -0.3401345, -0.22115707, -0.4369501, -0.2802387, -0.50893146, 0.06265982, -0.51538044, -0.46200332, -0.3708078, -0.45200464, -0.11704438, -0.11307871, -0.11447147, 0.02782861, -0.008910462, 0.017106002, -0.42494026, 0.18517776, -0.5811972, -0.0129392585, 0.23632468, -0.7170189, -0.07660102, -0.89050007, 0.5770984, -0.15686077, -0.2213183, -0.32220525, 0.40205863, -0.23357742, -0.08433985, -0.4667021, -0.71952534, -0.4637549, 0.14901398, -0.02874546, 0.16437127, 0.31107807, 0.010703936, -0.081041574, 0.05976671, -0.052495155, 0.16079856, 0.1040011, -0.22649781, 0.5135649, -0.08228018, -0.39795196, 0.24215855, 0.23885645, -0.2310612, 0.8006139, 0.6019363, 0.545127, 0.17909081, -0.26487663, -0.3073562, -0.1946736, -0.85128623, -0.25623772, 0.44997975, -0.020184476, -0.19073933, -0.36075678, 0.10699437, 0.30974042, 0.019065859, 0.22457041, 0.6285601, 0.37750015, -0.055243447, 0.026250869]</t>
-        </is>
+          <t>[-0.4826448, -0.17517173, 0.20193347, 0.17458156, -0.038067352, -0.5133572, -0.12462182, 0.28401312, 0.31823474, -0.43561786, 0.32886365, -0.098122194, -0.10165707, -0.12316275, -0.55012596, 0.19619322, -0.036423646, -0.08297845, 0.33326545, -0.62078893, -0.39174744, -0.32555547, 0.17872523, -0.17624786, -0.5443308, -0.5527037, -0.3465313, -0.00996962, -0.20231196, -0.10748067, 0.99639845, 0.3811326, -0.106253065, -0.34980977, 0.09506219, 0.057593472, -0.1896013, -0.60407907, 0.1448089, -0.36819845, -0.35048687, -0.074838944, -0.08407179, 0.411656, -0.28468797, -0.22006425, -0.7182183, 0.14389464, -0.10726593, -0.03051556, 0.37012458, -0.42413417, 0.29924864, 0.5618081, 0.08628414, -0.4509923, 0.10142002, -0.10046323, -0.119753405, -0.87400216, 0.3078658, -0.42253152, -0.20899221, -0.7004024, 0.17768256, -0.30749696, -0.051678933, -0.19270408, -0.7788164, 0.27493733, -0.10712899, 0.009291967, 0.7262327, 0.12373619, 0.11416701, -0.44211262, 0.10560729, 0.2382662, 0.41901606, 0.14628561, -0.3598637, 0.08429723, -0.012921673, -1.0491921, 0.2091817, -0.53818023, 0.15941624, -0.15739596, -0.69713056, 0.42555007, -0.57260257, -0.60226786, 0.3175459, 0.086609595, -0.0905898, -0.34472114, -0.12104318, 0.21042398, 0.018062836, -0.5613214, -0.033547193, -0.2669195, -0.14759427, 0.6715701, -0.8566451, 0.20263061, -0.11351912, -0.3020409, -0.7544182, -0.48119363, -0.33613822, -0.85545045, 0.22825415, -0.016402528, -0.20704722, 0.4977166, -0.38558602, -0.53755385, -0.12902765, -0.34314615, 0.040625237, -0.028114473, -0.19885278, 0.42075735, 0.13229743, 0.17138352, 0.22851348, -0.30828366, 0.9742834, -0.37155366, 0.32073742, -0.0805986, 0.28381878, 0.35598388, -0.19222692, -0.7352393, -0.20788793, 0.1511273, 0.44863033, 1.0357913, -0.32810467, 0.047031865, 0.18668677, -0.50711906, -0.2899008, -0.5682807, -0.14583792, -0.78027594, -0.28711826, -0.7316604, -0.54819405, 0.4852416, -0.42036098, 0.5913683, -0.19758682, -0.103627905, 0.29924065, 0.015345508, 0.18028408, 0.01928767, -0.042846408, 0.54567254, -0.02908976, 0.29682755, 0.5117063, -0.56693685, -0.048315298, -0.13523719, 0.19030097, -0.81220245, -0.506237, 0.1042047, 0.42149025, -0.6338549, -0.2894572, 0.48493925, -0.051078975, -0.0513641, -0.045129035, -0.08184905, 0.43562183, 0.6847689, -0.18896458, 0.32571188, 0.46403784, 0.46011463, -0.14590517, 0.023060177, -0.6871063, -0.59877497, -0.112154245, -0.14027718, 0.092300124, -0.23097129, 0.38664827, 0.8992406, -0.21577242, 0.5630959, -0.21835868, 0.22886059, -0.55160606, 0.71484625, -0.048878133, 1.4162924, -0.49248528, 0.43095273, -0.12666818, -0.7437144, -0.062248964, -0.63088787, -0.33299485, 0.34179825, -0.46728888, 0.5253682, -0.57583725, 0.2103997, -0.297041, -0.31849775, -0.24261932, -0.067683995, 0.4778444, -0.0025017485, 0.56003326, 0.19419114, 0.046564322, -0.24833813, 0.27246982, 0.6531925, 0.12880526, 0.21689844, -0.23903362, 0.28722706, -0.29027143, -0.641768, 0.27643815, -0.41781387, 0.23264667, 0.7425662, 0.2540722, -0.17134765, -0.2883262, 0.23402457, 0.013501868, -0.02711525, -0.60306096, 0.39297828, -0.40796342, -0.008227503, 0.15418994, -0.64064956, 0.79865754, 0.41555065, -0.9071332, -0.32297397, 0.05837779, -0.37956265, -0.5072977, 0.13457508, 0.21563086, -0.2097843, -0.21261998, 0.3946879, 0.11145429, 0.0982274, -0.69292617, 0.101238586, 0.3181522, -0.51700634, 0.02358373, 0.09356688, -0.25809497, -0.08053564, 0.23203993, 0.29197437, 0.65618706, 0.7538776, -1.1568917, 0.65815246, 0.49167833, 0.8058647, -0.16167238, 0.037864797, 0.59685004, 0.45974326, 0.6108571, -0.15366638, 0.82927597, -0.39368513, -0.00819948, -0.12974343, 0.029273555, -0.3349399, 0.0023344487, -0.9354043, -0.043203987, -0.37442333, -1.3048093, -0.039406568, -0.75603265, 0.8428689, -0.22052345, 0.75194466, -0.014311339, 0.44599885, -0.45618924, 0.47839355, -0.21262567, 0.28449136, -0.28522748, 0.8548646, -0.17416564, -0.17657584, -0.1295885, -0.3893569, -0.21027271, -0.5596265, 0.1751667, -0.1876791, -0.18555026, 0.38630214, 0.54728955, 0.24124773, 0.074783295, -0.31708565, 0.3580646, -0.2107658, -0.1090801, 0.46396533, -0.4539546, -0.27775103, -0.38212806, -1.1681454, -0.085189834, -0.27252764, -0.6024161, -0.5337531, -0.23245907, -0.68646395, 0.15153301, 0.53808784, 0.38702315, -0.32256037, -0.64824665, -0.22159418, -0.39549434, 0.75138134, -0.49128762, -0.5195471, 0.1283461, -0.40585965, -0.5018765, -0.00041804314, -0.48960727, 0.0648221, 0.23266034, 0.048161853, 0.4565621, 0.50286853, -0.09417777, 0.3674658, 0.6875938, -0.26239696, 0.2906022, 0.13134179, -0.09117093, 0.1952275, 0.1426681, 1.165325, -0.4159781, 0.29710642, 0.5731286, -0.02202664, 0.020938847, -1.0774453, 0.118717, -0.31731075, -0.29645663, -0.18581018, -0.4599557, -0.25970745, 0.8403494, 0.28347418, 0.2596882, -0.8190007, 0.23623736, -0.24048261, -0.1827972, -0.12317832, -0.16271338, -0.021664832, 0.22130112, 0.753162, 0.115487695, -0.14123993, -0.33438927, 0.12993059, -0.10915995, -0.24837022, -0.13371879, -0.022673026, 0.3656562, -0.48636526, -0.09976463, 0.4209001, 0.5521169, 0.3949182, 0.44628912, 0.08055712, -0.1976924, -0.075144336, -0.2963425, -0.09510512, -0.5121004, -0.6527697, 0.16474138, 0.2067178, -0.49190363, 0.6460929, -0.22317787, -0.75104463, 0.06705966, -0.18068889, 0.89756334, 0.024006434, 0.3776915, 0.14993772, 0.13717446, 0.31146315, 0.6024515, 0.6425119, 0.30000955, -0.13834812, 0.60891074, -0.23775807, 0.085249744, -0.42208648, -0.0033664245, 0.091924414, 0.5091733, 0.11918578, 0.38930115, -0.7700101, 0.36219725, 0.33465728, 0.20633349, -0.45657787, -0.11089577, -0.494862, -0.499758, -0.76611555, -0.0006988421, -0.878739, -0.84759295, -0.2646265, -0.33197376, -0.3602609, 0.9148566, 0.36809883, 0.21974461, -0.10002434, -0.9056985, 0.42281356, 0.030876914, -0.5698246, -0.37639695, 0.82493985, -0.08403304, -0.5273317, -0.2131068, 0.62277544, -0.39306146, -0.091797695, -0.5847247, -0.022999411, 0.32775173, 0.26192167, 0.49124488, 0.26249367, -0.42608252, 0.30040076, -0.20852228, 0.00023513436, 0.3984576, 0.019905964, 1.3410833, 0.33011532, -0.13189456, -0.037081808, 0.11634604, 0.124445215, -0.25695515, 0.2447559, 0.62036574, -0.28578582, 0.3599588, -0.22420976, 0.23033962, 0.4380014, 0.034136884, 0.51860034, 0.5605509, -0.032883275, 0.024995256, 0.2641781, -0.47565728, -0.4910136, 0.11377504, -0.8648492, -0.6208538, 0.0297161, -0.28553444, -0.81779546, 0.041631106, 0.2038893, -0.3005052, 0.39314905, 0.06515523, 0.12646243, -0.5589701, 0.011139964, 0.5846863, 0.39456135, 0.5740333, 0.21310513, -0.02371293, -0.07232624, -0.17808573, -0.009548275, 0.09430672, 0.21958208, 0.79366934, -0.5961065, 0.16614506, 0.6289124, 0.5542143, -0.3329032, 0.14869015, 0.069701746, -0.42166004, 0.4897899, 0.2127914, -0.7542103, 0.8222861, -0.051252704, 0.12367022, -0.3975446, 0.4031795, 0.24973805, -0.101678826, -0.38804382, -1.0719173, -0.02090301, -0.39099747, -0.51585424, -0.17930463, 0.2129558, -0.4351973, -0.09895907, 0.30582768, -0.36250043, -0.18809643, 0.6176836, -0.7130097, -0.11163938, -0.21069214, 0.8500236, 0.49323583, 0.38520646, 0.1747999, 0.54495955, -0.118773915, -0.0751819, -0.30153397, 0.03704179, -0.64579517, -0.8255118, -0.7907127, -0.9017337, 0.26971298, -0.6991081, -0.0054925233, -0.3680988, -0.14441402, -0.3800027, 0.6726648, 0.26194122, -0.5282955, 0.2685205, -0.44896403, -0.5567852, -0.13173908, -0.609258, 0.32036933, 0.33775222, -0.69829607, -0.6937466, -0.9826396, -0.18207726, -0.22893302, -0.485861, 0.07423894, 0.49754, -0.22128694, -0.7389931, -0.6814052, -0.2152721, 0.28206745, -0.075224474, -0.977478, 0.46752295, -0.013818264, -0.17424193, 0.27476853, 0.24344437, -0.34160775, 0.27016646, -0.11982199, 0.02262732, -0.019296473, 0.24791436, -0.7486371, 0.07433815, -0.63336796, -0.045662373, -0.582198, 0.027984846, 0.52614796, -0.09399073, -0.23868096, 0.08788406, 0.35526618, -0.5027743, 0.11310749, 0.13440213, -0.3146122, -0.15331131, 0.066230476, 0.7450553, 0.18617015, -0.5879272, -0.30890435, -0.29524946, 0.08919169, 0.06308342, -0.034717344, -0.06775974, -0.21973976, -0.6274565, 0.5089482, -0.11223207, 0.11611353, -0.0030641102, 0.36709166, -0.21866243, 0.20987308, 0.18758495, -0.14660792, 0.51704407, -0.05023849, -0.3875031, -0.38266763, -0.17397352, 0.1726943, -0.0061624884, -0.10119338, -0.7407422, -0.2544724, -0.1827384, 0.014317843, 0.62844265, 0.19821875, -0.1422504, -0.092869386, 0.06165699, -0.031125233, -0.05117046, 0.2642699, 0.39182317, 0.63241345, 0.28277373, -0.45398253, 0.3094685, 0.71772635, 0.4472497, -0.35623902, 1.1610147, -0.054117076, -0.23157685, 0.19749144, 0.36450925, -0.18726498, 0.44358414, -0.37511188, -0.34689623, 0.23797147, 0.80428946, -0.4845357, 0.61016446, -0.15593512, 0.28191358, -0.03981345, 0.2044665, -0.06794929, -0.25996846, 0.18075159, -0.4137846, -0.08244285, -0.2982803, -0.21596208, -0.0768476, -0.12765539, -0.082637526, -0.24231584, -0.040866394, -0.061020385, -0.24627319, 0.05226276, -0.76953834, -0.2088851, -0.4735865, -0.15697023, 0.63817567, -0.054284215, 0.01100629, -0.1668642, 0.10602363, 0.08295825, -0.19521764, 0.7121987, -0.109135136, 0.07687185, -0.20446143, -0.39807004, 0.26094633, 0.7092811, 0.0390312, -0.036369245, 0.5714233, -0.15619361, -0.6499905, -0.1299204, -0.17869575, -0.7582189, 0.36374465, -0.050316155, -0.09699985, 0.35439676, 0.37919816, 0.004122019, 0.05640791, -0.06620969, 0.20167716, -0.08658625, -0.08738488, -0.091037765, -0.14751518, -0.17904204, 0.12205599, 1.0565624, 0.37563705, 0.27926552, -0.034487564, -0.51647615, -0.6855999, 0.6437778, 0.22872141, 0.23462264, 0.26137826]</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3162277340888977</v>
       </c>
     </row>
     <row r="11">
@@ -740,12 +772,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Texture profile analysis</t>
+          <t>레오미터란?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>저작을 모방한 물성 측정 방법입니다.</t>
+          <t>물성을 측정하는 기기를 통칭합니다.</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -756,8 +788,11 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[0.6726091, -0.22903202, -0.2968077, -0.24405096, -0.2650757, 0.43850192, -0.23096766, 0.11515281, -0.16237797, -0.790759, -0.04874988, -0.0776201, -0.14712867, 0.09700029, -0.6038639, 0.5379603, -0.011812225, 0.115114816, -0.06142132, -0.19974776, -1.07401, 0.37255943, -0.18640856, 0.107576996, -0.24815512, -0.93930495, 0.017107422, 0.24336945, -0.17684875, -0.040579174, 0.3301028, -0.15522324, -0.5774593, -0.07026598, -0.0011775765, -0.0011992123, -0.7687827, -0.07088068, 0.10346698, -0.36578587, -0.2583488, -0.06468696, 0.039833006, 0.18412389, -0.24544592, 0.74836636, -0.3670689, 0.3587892, -0.700983, 0.44061518, 0.025437009, -0.14088623, 0.4963322, -0.09623289, -0.32685715, 0.043648567, -0.7349606, -0.36634362, 0.28056276, -0.42968282, 0.26483068, -0.21422535, 0.070842214, 0.49901712, -0.28398564, -0.38023338, -0.3331729, -0.30616376, 0.14603385, -0.29307333, 0.25564596, 0.28935096, 0.44638994, -0.011192975, -0.17685783, 0.18469639, 0.021462802, -0.13237989, 0.71969235, 0.15743509, 0.40070906, -0.6160181, -0.4599286, -0.11529278, -0.47876674, -0.27949575, 0.16595821, -0.6149808, -0.79303074, 0.17113025, -0.17399955, -0.2676866, -0.28642198, -0.23450288, -0.2611852, 0.23640881, 0.18590383, 0.09283329, 0.3117789, -0.1187776, -0.5247385, -0.07302037, -0.14531454, 0.9271809, 0.3620934, 0.03052214, -0.50677305, 0.10689354, 0.45892018, 0.039701875, -0.046603657, -0.23582597, 0.023663439, -0.25549698, 0.62248063, 0.36809227, -0.40052462, -0.111046724, -0.29299703, 0.12226686, -0.7659139, -0.6204253, -0.423115, 0.3543959, -0.3272044, 0.15448835, 0.38453162, 0.4926507, 0.2449703, -0.52616066, -0.27333304, -0.10431874, 0.8333135, -0.38554665, -0.9401074, 0.24937235, -0.22271396, -0.121823356, 0.6464458, 0.41712752, 0.22685312, -0.5995916, 0.53671044, 0.28810886, 0.26967457, -0.26296416, 0.7593451, -0.28086355, 0.1423573, -0.08876285, -0.57919794, -0.16116644, -0.2589719, 0.016104905, 0.029799847, -0.44378737, 0.101676345, 0.42899868, 0.18126656, 0.1560029, 0.07711932, 0.12181249, -0.2584677, -0.16639414, -0.04497903, 0.18401437, 0.004647076, -0.11546698, 0.2729892, -0.7294655, -0.12041378, 0.24620257, 0.29557154, 0.76718765, -0.6368933, 0.9264605, 0.007296917, 0.16305853, -0.33802822, -0.335436, 0.46170065, 0.41136894, 0.093608506, -0.34144157, 0.34368575, 0.02903827, 0.25257695, -0.10105042, 0.6596078, -0.43443185, 0.11676849, 0.20473957, -0.37925673, 0.37753087, -0.28728944, 0.44537404, -0.81148756, 0.017972596, 0.56682575, -0.22366767, -0.4572487, 0.37753904, -0.22139272, 0.6282327, 0.44136044, 0.6264646, -0.6538296, -0.20214048, 0.1408397, -0.38993075, -1.0621886, 0.23757766, 0.18299814, -0.031931754, 0.5905871, 0.25434005, 0.638369, 0.47973844, -0.14574052, 0.005328849, -0.10809155, 0.1117621, 0.10818061, -0.019286186, 0.026428014, -0.7661876, -0.004646438, 0.8024016, 0.25882828, -0.13745487, -0.5339182, -0.2907729, -0.4040325, -0.069973394, 1.310535, 0.007496709, 0.80463123, 0.55034775, 0.26479247, -0.7884648, -0.20860082, 0.6135146, 0.19110551, 0.11929303, 0.11317664, 0.016432293, 0.43032864, -0.39206454, 0.4963442, 0.29977456, -0.0004580793, 0.30895782, -0.6436483, 0.19735478, 0.159113, -0.28736386, -0.25360537, 0.31745335, 0.024416568, -0.5383456, -0.28292197, 0.47819215, -0.53163475, -0.6492912, -0.3176393, -0.3223709, 0.621128, -0.319533, 0.2951998, -0.42011833, 0.15537858, 0.113663, 0.44414502, 0.23386782, 0.20459582, 0.1902012, -0.1942315, 0.16042429, -0.08908746, -0.5186791, 0.37003615, 0.2880488, -0.05703586, 0.018370707, 0.286145, -0.5640438, -0.15059118, -0.23520042, -0.25077128, -0.4677591, 0.43052423, 0.34944347, -0.30900264, -2.0872462, -0.13439673, -0.14172374, -0.0977149, -0.60637814, -0.033912823, 0.026254596, 0.18343934, 0.29407498, -0.26832047, 0.8653339, 0.5327601, 0.03926352, -0.45932344, -0.23562093, 0.06991467, 0.5990764, -0.44779614, -0.27391386, -0.8027478, -0.015524733, 0.39469194, -0.5961092, 0.03811626, -0.1244074, -0.11955855, -0.26172155, 0.4770857, 0.56100816, -0.25306603, 0.26006854, -0.62777334, 0.09476911, 0.004446041, -0.095749386, 0.43869153, -0.1930802, -0.44556695, -0.7394152, 0.80639803, -0.201336, -0.019168025, -0.8496444, -0.020505222, -0.35352817, -0.24824294, 0.2802935, -0.23019503, -0.15268718, -0.5023671, -0.106019616, 0.51414925, 0.91988236, 0.16492678, 0.17626712, 0.019458922, -0.20137958, 0.20466524, -0.67514515, -0.30682835, -0.13911761, 0.30925962, -0.15134138, 0.5304379, 0.15696922, -0.21947195, 0.2430338, 0.96652883, -0.35456374, -0.11283608, 0.11042015, -0.09582627, -0.26269868, -0.17918353, 0.68618816, -0.17538816, -0.2236709, -0.4239666, -0.18031022, -0.24885298, -0.30322018, 0.3009552, 0.38985145, 0.10565758, -0.51726675, 0.06493383, 0.02332818, 0.79065627, 0.35722134, 0.42629054, -0.53641087, -0.4103138, -0.47523987, 0.11172903, 0.19946527, 0.49833795, 0.19015656, -0.15444177, -0.59060997, -0.051450957, -0.07001105, 0.061202273, 0.16556233, 0.19100094, 0.41428795, 0.21867208, 0.38064864, 0.36933085, 0.35305375, -0.41380513, 0.09934661, 0.05140827, 0.068915196, 0.07276982, 0.6851399, -0.5041689, -0.24836016, -0.32815287, -0.43491614, -0.76989424, 0.41960242, 0.081914775, -0.3224722, 0.2751732, -0.3894374, 0.20052442, -0.43397415, 0.20459269, -0.5695709, 0.1252142, 0.123629354, -0.44031903, 0.6665431, 0.5429482, 0.32126638, 0.34013858, -0.34281698, 0.114939995, 0.10584805, 0.020228885, 0.0676605, -0.30808952, -0.1638909, 0.1314104, -0.028658645, -0.7306944, 0.2592993, -0.045046188, -0.38877127, 0.43444088, -0.357279, -0.21851377, -0.49993324, 0.3542944, 0.08401948, -0.10103347, -0.80412096, -0.79734784, -0.7059272, -0.3372234, 0.76933724, 0.5505569, -0.49759862, 0.3515074, -0.7844349, 0.02868224, -0.19763665, -0.36693898, 0.29679108, 0.30710796, -0.007977551, 0.25790143, 0.044098675, -0.17980137, 0.34923446, 0.41762152, 0.09058741, -0.2099083, -0.037694808, 0.48902044, -0.25424168, 0.44403073, 0.02603534, -0.27892348, 0.34743777, -0.42716962, -0.27651688, -1.5324439, -0.37433326, 0.35039192, -0.27477044, 0.5691962, 0.5716789, -0.2821321, -0.19182052, -0.1372599, 0.68511623, 0.42159262, -0.023770057, -0.30095047, -0.43516147, 0.19890231, -0.35765573, -0.09224393, 0.38168848, 0.28211647, 0.10177469, 0.044166334, 0.09189821, -0.23413795, -0.06460652, 0.21615623, 0.44314033, -0.08799246, -0.28118914, -0.363601, 0.114044905, -0.029048564, -0.9515535, -0.27090824, 0.90661544, 0.6236688, -0.04943875, 0.15517908, -0.19913465, 0.6716476, 0.31160885, -0.11080561, -0.08349543, 0.39713427, 0.68720156, 0.32843426, -0.43263882, -0.56338745, 0.13674603, 0.09277713, -1.1503137, -0.25290263, -0.037090335, 0.2632213, 0.36333972, 1.2923743, -0.82019496, 0.14789425, 0.010708739, 0.504905, 0.9298969, -0.1187015, -0.40410078, 0.68804526, -0.23842564, 0.11468086, 0.4397273, 0.35782498, -0.0046660225, 0.88377535, -0.5887752, -0.2671916, 0.40196344, -0.39026135, 0.2832511, -0.1309163, 0.20115323, -0.16594228, -0.061515633, -0.79073817, 0.48082495, -1.0506275, 0.1238438, -0.11183047, -0.43589708, -0.59690547, 0.46134272, -0.25114396, 0.47357473, -0.38107097, 0.3191127, 0.12760745, 0.62491333, 0.76013905, 0.11501659, 0.19101481, -0.22335096, -0.5252007, -1.0013499, 0.11715437, -0.5912559, 0.35087335, 0.21936521, -0.07156151, -0.13238299, 0.5228197, -0.0863264, -0.7048815, 0.045610547, -0.050816953, 0.5272659, -0.32903698, -0.6315493, 0.41745663, 0.21134669, -0.6473999, 0.11500285, -0.20345306, -0.6406427, -0.20235114, 0.3042032, 0.09335425, -0.27221882, -0.23282155, -0.09603036, -0.077646114, -0.32309726, 0.8627861, -0.1675212, -0.70170563, -0.30599496, 0.09274661, -0.57576555, 0.028667653, -0.17305182, -0.64657587, -0.1467966, 0.08890199, 0.08157998, 0.7688804, 0.14371213, 0.17872562, -0.054415356, -0.14459743, -0.0621775, 0.03638524, -0.10683063, -0.58158594, 0.19937533, -0.45682785, -0.75951385, 0.36802703, -0.28526357, 0.5577818, -0.31783837, -0.031303808, 0.08427482, -0.24066776, 0.26786488, 0.4844572, -0.33946216, -0.44378135, -0.5684921, 0.038108896, -0.41783664, 0.053465486, 0.46379086, 0.0018207702, -0.6109851, -0.36741382, 0.14298311, -0.3488163, 0.15104757, 0.6806448, -0.5682852, 0.1156621, 0.08956614, 0.47956276, -0.010261644, -0.9498392, 0.2530078, 0.34649178, 0.13417482, 0.26239145, -0.47776616, -0.58164304, -0.24363531, -0.52967143, -0.16386507, -0.28057376, -0.43597716, 0.7885012, -0.18305917, 0.069599755, 0.033819973, 0.19109993, -0.46644923, 0.40836012, -0.43949786, 0.5170115, -0.48152637, 0.585929, 0.27624094, 0.47541615, -0.6266343, 0.5739613, 0.19832025, -0.09265893, 0.5420584, -0.22807854, 0.02709533, -0.6535867, -0.35863188, -0.22602035, -0.54505473, 0.6645637, 0.4022597, 0.098583296, -0.12604104, -0.35824153, -0.19159012, 0.016799588, 0.43442422, -0.7614014, -0.69588536, -0.4799894, -1.06986, 0.0935764, 0.1754878, -0.8058697, -0.095204026, -1.3280936, 0.022884734, -0.13279554, 0.28333476, 0.021575868, -0.8648646, -0.14471865, -0.40864447, -0.15154625, -0.2056564, -0.036977466, -0.33671418, -0.62321997, -0.2903673, -0.041893132, -0.1767059, 0.06338466, -0.34854135, 0.3266493, -0.15982899, 0.58598924, -0.36678293, 0.046913102, -0.4889862, -0.033829052, 0.28181884, -0.1949984, -0.027112067, -0.05769014, -0.21312557, -0.13174202, 0.31983346, -0.48405325, -0.41353634, 0.6188814, 0.98005486, -0.29649282, -0.14365445, 0.54575664, 0.49809924, 0.20140864, -0.10196479, -0.25457272, 0.02201045, -0.224756, 0.28277814, 0.22118114, -0.2504163, -0.026430054, -0.85014343, 0.17023931, -0.35068056, 0.068129204, -0.43870717, 0.3507803, 0.5298933, 0.5999489, -0.098183826]</t>
-        </is>
+          <t>[-0.0023564498, -0.22102602, 0.17461914, -0.20473431, 0.13635786, 0.19385354, 0.25956127, 0.0023127235, 0.37615624, -0.22063194, -0.32046404, -0.35025963, -0.2307316, 0.52173823, -0.4646561, -0.14948069, -0.028846204, 0.42959622, 0.6126346, -0.1374958, -0.3115249, 0.4527869, 0.2313223, 0.4999075, 0.09957707, 0.7193511, -0.23936492, -0.13446964, 0.9254341, -0.95392156, 0.043246914, -0.08867297, 0.057679325, 0.27266708, 0.5232107, 0.092624836, -0.79584104, -0.47957098, -0.3402206, -0.69031626, -0.19219293, 0.08175019, -1.0161089, 0.7621414, 0.00693581, 0.105494194, 0.0862058, -0.581135, -0.15658988, -0.17635383, -0.13572954, -0.17380393, 0.08008319, -0.04165779, 0.0034848202, -0.21384405, 0.096198566, -0.9985402, 0.088798486, 0.22040619, 0.5923734, -0.50203747, -0.7496255, 0.5996358, 0.56236273, -0.24151671, -0.28699505, 0.021366717, -0.3603016, 0.41220534, -0.09371304, 0.63021344, 0.3673412, -0.09240705, 0.7363258, 0.033820737, -0.22052813, -0.33796832, 0.8264208, -0.23201305, -0.014442283, -0.6304285, -0.17619538, -0.23603755, 0.057507288, 0.2097771, -0.29609868, 0.12192613, 0.50408465, 0.6062443, -0.40707436, -0.6687619, -0.22071612, 0.19689447, -0.09098005, -0.10641897, 3.3006072e-06, 0.1862696, 0.5714641, 0.4869168, -0.3426614, 0.4322883, -0.5593403, -0.0010248534, 0.11962805, 0.014557724, -0.24967052, 0.50961256, 0.08331358, -0.31656936, 0.25185692, -0.0053309775, 0.5118987, -0.50950384, 0.03607259, 0.2786511, -0.7840287, -0.32255474, 0.42431653, 0.12904815, 0.28035992, -0.68821293, 0.2893083, 0.4237008, -0.606849, 0.08744791, 0.28056553, -0.6421085, -0.73970586, -0.26795194, -0.02006855, -0.082862526, -0.06419896, 0.038690697, -0.79402584, -0.25012168, 0.010991752, -0.18041979, 0.41764164, 0.20491724, 0.1432725, -0.09762689, -0.034146216, -0.29411885, 0.019188896, -0.15224211, 0.9026424, -0.18119602, 0.16775964, -0.19379877, -0.43778944, 0.5271973, -0.9356646, -0.3671867, 0.5254749, 0.014977959, 0.07176603, -0.38674536, -0.12733673, 0.16455738, -0.13717686, 0.397704, -0.35090563, -0.54811686, 0.12680797, 0.12425164, 0.2648031, 0.41402924, -0.256609, -0.65278846, -0.1048511, -0.8744332, 0.1984172, -0.019902224, 0.2922015, 0.5269145, -0.5603052, 0.09561366, -0.19753337, 0.09652934, -0.595323, 0.6652189, -0.19041692, 0.56847864, 0.12068472, -0.0058880723, 0.5341468, -0.037053864, -0.91406995, -0.50372964, 0.2399304, -0.26842192, 0.477823, -0.053716034, -0.021679057, 0.86915374, -0.4938893, -0.25092345, -0.008891801, 0.02692466, -0.5332907, 0.4492416, 0.11587548, -0.17944412, 0.58705145, -0.19049089, -0.1687028, -0.42578566, 0.1085146, -0.8557539, 0.3473408, 0.8101967, -0.34400627, 0.19518675, -0.46416533, -0.50883603, -0.31816116, -0.34017968, 0.41679338, -0.26551166, 0.6779377, -0.013554241, 0.6093595, -0.106842674, -0.24672808, -0.4038804, 0.05454884, -0.0046962104, -0.098916344, 0.18993877, -0.44951966, -0.30563313, -0.060170833, -0.6479883, 0.086543344, -0.10239887, 0.32290238, -0.09697672, -0.6644135, -0.20253138, 0.3463315, 0.31706896, -0.2413138, -0.6524851, -0.43827066, 0.04028889, 0.023019046, -0.95913047, -0.2311486, -0.30014393, 0.42432228, 0.025207018, -0.015285417, -0.12077162, 0.0096639125, -0.5554512, -0.38102463, 1.089326, 0.13941191, 0.2410986, -0.7643917, -0.3436323, 0.1210295, -0.19693266, 0.07775506, 0.054460954, 0.41271713, -1.1319808, 0.70021915, -0.52871627, -0.5673743, 0.20710371, 0.15588449, -0.358389, -0.0756528, 0.29661283, 0.20492364, -0.26141962, 0.37089205, -0.37844864, 0.25669855, -0.030600747, -0.0922079, -0.4128958, 0.022059353, -0.48637888, 0.5040297, 0.20700037, 0.17054333, -0.6581226, 0.09742018, 0.09299878, -0.0702789, -1.122336, 0.44934034, 0.6594861, 0.25205198, -0.99369246, 0.29224542, 0.2778333, -0.016885763, 0.5485596, 0.46495688, 0.33932233, 0.11613221, 0.35645783, 0.1763487, -0.30244052, 0.025377907, 0.63650364, 0.7839656, 0.5384526, 0.15955094, 0.04400937, -0.35669482, -0.16315067, -0.38354206, -0.8105843, 0.13886027, -0.07688576, -0.8049237, 0.36518642, 0.0067732334, 0.035260737, -0.28146043, 0.09334079, -0.5822082, 0.37588373, -0.5463785, -0.22570805, -0.7586166, -0.13203377, 0.32712743, 0.12960309, -0.11111037, 0.30294478, 0.44309008, -0.675661, -0.39598384, -0.044308748, 0.9865315, -0.2774947, -0.43640265, 0.41421497, -0.4846728, 1.1511241, 0.121148326, -0.28754368, 0.39185452, -0.55120516, -0.5458829, 0.15743415, 0.1941198, 0.50395876, 0.23595685, -0.06317238, 0.1713311, 0.8524492, 0.14215015, 0.3231583, 0.19703056, -1.3432126, 0.8143471, 0.24391173, -0.39218533, 0.29155812, -0.4903488, -0.03867372, -0.11668291, 0.14882481, 0.51047516, -0.113094, -0.5434752, 0.15494786, 0.19981979, 0.29220054, 0.13666098, 0.54793, -0.21326418, -0.30650547, 0.6963623, 0.9629955, 0.3787849, -0.65848225, 0.008193031, -0.2114036, -0.19509888, 0.7287431, -0.6414076, 0.08703739, -0.70851994, -0.2529299, 0.40121546, 0.32667816, -0.54165787, -0.31199405, -0.1613251, 0.36760214, -0.7092504, -0.54061335, 0.14728631, -0.08303755, 0.18843865, -0.21105812, 0.17685974, -0.2704214, 0.47625148, -0.3932803, -0.14382939, -0.07542477, 0.11957687, 0.049704105, -0.5272947, -0.3465518, -0.008269106, 0.5646387, -0.13069801, 0.17097218, -0.6845514, -0.28145435, 0.2229504, -0.41106012, 0.63851714, -0.40764937, -0.050983217, 0.61532277, 0.075879194, 0.0767348, 0.37242723, -0.0645042, 0.50003296, -0.019832684, 0.23353057, -0.49812832, -0.05934878, -1.0899113, -0.71790886, -0.13233511, -0.4223586, 0.030730799, 0.55823845, -0.3266645, 0.5250017, 0.48490405, -1.2316439, -0.1396475, -0.16177727, 0.042531762, -0.939903, 0.07564916, -0.33282146, -0.94373083, -0.20433812, -0.026349341, -0.2563585, 0.34893838, 0.47205913, -0.21273388, -0.2863891, 0.264307, -0.6302988, -0.28780717, 0.2790435, -0.006811475, 0.20354898, 0.43605098, 0.43609032, -0.17778595, -0.47703817, 0.07124473, -0.8175891, -0.027302206, -0.0505735, -0.7898438, 0.15424435, -0.067514226, 1.1342946, -0.06719692, 0.24660055, -0.32972085, -1.1173242, -0.029524207, 0.36836323, 0.14157246, 0.26041165, 0.9653177, 0.3224124, -0.06261206, 0.4755068, 0.18646628, 0.072019786, 0.5110866, -0.07336905, 0.5433635, 0.09895357, 0.09995327, 0.2820579, -0.26285473, -0.00021020074, 0.058865625, -0.47248903, -0.07247939, 0.16925825, -0.9034682, 0.7626079, -0.27856615, 0.009327112, 0.018895037, -0.25798783, -0.11443781, -0.16675882, -0.05411753, 0.4157469, 0.6032191, 0.3205614, 0.1667925, 0.22472246, 0.11888047, -0.52373314, -0.16803163, -0.7517745, -0.21229012, -0.5309965, -0.1743338, -0.0046155155, -0.16468017, -0.001627254, 0.17531861, 0.13566239, 0.24544244, -0.07135672, 0.48279893, -0.2560997, 0.7541134, -0.081616394, -0.64628416, 0.008892079, -0.17278081, 0.2461489, 0.2764243, 0.24544765, -0.14323288, 0.72078484, -0.09416139, -0.4661866, 0.4194465, 0.5598495, -0.25218573, -0.3744835, 0.103212155, -0.42319784, -0.6578327, -0.14478196, -0.7866667, 0.09652091, -0.19994469, -0.7104804, -0.823886, -0.59967625, 0.5455116, -0.17393637, 0.6790181, 0.31022274, 0.15042533, -0.4548339, -0.07626744, 0.35665908, 0.5535182, 0.30375835, 0.4943336, 0.19903821, -0.08334244, -0.05016543, 0.30151188, 0.5179879, -1.1626127, -0.12938772, -0.087746836, 0.13380148, -0.58165437, 0.43203595, -0.13903518, -0.10592377, -0.038081888, 0.28721562, -0.40037724, 0.10842154, 0.4736283, -0.37978676, 0.50704324, 0.051365662, -0.10242307, 0.5501901, 0.2582165, -0.736505, -0.9024963, -0.9330904, -0.24491368, -0.050438955, 0.29038644, -0.10269713, 0.07268906, 0.19370449, -0.21289085, -0.14907202, -0.6679447, 1.027426, -0.14163636, -0.4794215, 0.45789513, -0.32401514, 0.09579718, -0.64298296, -0.2986529, 0.06827874, 0.3256696, -0.14399809, -0.2815803, -0.055473387, 0.76332504, 0.08941218, -0.26456922, -0.464357, -0.34152713, 0.026404202, 0.38603878, -0.09381381, -0.6470513, -0.25070894, 0.28810266, 0.10004357, -0.49317136, 0.32620278, -0.22969663, -0.10904985, -0.98164994, -0.33055636, -0.2622992, -0.27455792, -0.5959639, -0.524466, -0.43167076, 0.12837498, -0.31215823, -0.14472112, -0.11807229, -0.4049728, -0.1647072, -0.6568078, 0.44754338, -0.45526278, -0.24958654, -0.49458334, 0.11423489, 0.36544383, -0.12817152, 0.19237715, 0.24262214, -0.34310797, -0.10881158, -0.43575215, -0.5724712, 1.1047416, 0.06408048, -0.28133377, -0.874898, -0.84403545, 0.48955122, -0.040887572, 0.0011589652, 0.32400975, -0.39228907, 0.20376284, -0.2552503, -0.030109217, 0.32855716, 0.37455857, -0.14181562, -0.009277155, -0.37194896, -0.24569197, -0.17709696, 0.13632703, 0.40645424, 0.2889062, 0.5434057, -0.0026141752, -0.09158828, 1.379477, -0.5284669, 0.059563804, -0.46820602, 0.6328226, -0.621431, 0.62973326, 0.35974228, 0.40004435, 0.0049448735, -0.6863926, -0.32476524, 0.3542494, -0.16675335, -0.24084215, 0.028754206, 0.047422588, 0.09056748, 0.43081462, -0.52245134, 0.025533736, -0.0025708925, -0.27319363, -0.35753962, -0.27696362, 0.06261465, 0.3569175, -0.3054179, -0.08046529, 0.20861709, -0.06508496, -0.7628587, 0.20656045, -0.029762939, -0.58461905, -0.5325919, -0.42906132, -0.14416955, 0.31390163, 0.38016725, -0.48543528, 0.17735751, 0.08180276, 0.24933667, -0.47668564, 0.2325655, -0.26847866, 0.18558772, -0.037230622, -0.20241146, -0.360811, -0.024871968, -0.40988886, 0.39138016, 0.26670888, 0.2827981, -0.21614265, 0.38837922, 0.5994883, 0.38915947, 0.0709155, 0.12545648, 0.13888843, 0.49124685, -0.44171035, 0.22021417, 0.06259122, -0.7930069, -0.40084875, 0.11718627, 0.09513497, 0.36219144, -0.27978542, 0.1353613, -0.3010038, -0.31540945, 0.6442047, 0.0091498345, 0.32845154, 0.43211553]</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1916880905628204</v>
       </c>
     </row>
     <row r="12">
@@ -766,24 +801,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Texture analyzer는 무엇이죠?</t>
+          <t>rheometer란?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>식품의 물성을 측정하는 대표 장치입니다.</t>
+          <t>물성을 측정하는 기기를 통칭합니다.</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>식풀물성학이란?</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[0.38710812, -0.5600051, -0.077770784, -0.24344571, -0.17384873, 0.29451075, -0.10321265, 0.16023733, 0.31723884, -0.6001947, -0.41446057, -0.42005485, 0.058524046, -0.05889704, -0.37318543, 0.124687545, 0.35492307, 0.049418937, 0.14110614, -0.029517744, -0.8815936, 0.15990601, 0.08692587, 0.36003727, -0.36890817, -0.7980931, -0.3193937, 0.38772535, -0.02417288, -0.23464713, 0.16889364, -0.025449004, -0.074586816, 0.035176758, 0.08766088, 0.02050422, -0.8510138, -0.359388, 0.1575275, -0.24443178, -0.1209799, -0.5227548, 0.05755808, 0.27763543, -0.1269385, 0.78495467, -0.18185689, 0.40231898, -0.30620542, 0.16636172, -0.59880674, 0.1622259, 0.37802628, 0.3127282, -0.34389487, -0.12341925, -0.29268375, -0.4557421, 0.21971586, -0.33403444, 0.6413238, -0.27943566, -0.13859388, 0.6263751, -0.067126885, -0.60629725, -0.5523579, 0.06791936, -0.047999337, -0.25862092, 0.076397724, 0.5385365, 0.4941193, 0.053418487, -0.2817475, -0.42404634, 0.14753537, 0.11538381, 0.774472, 0.45793265, 0.24762325, -0.7861579, -0.4151104, -0.0067602163, -0.60221225, -0.24593844, -0.035993252, -0.501073, -0.6566798, -0.061035376, -0.6716301, -0.37722948, -0.3605919, -0.010870049, -0.5848838, -0.23741578, -0.2460474, 0.09742515, 0.030716773, -0.22119984, -0.2787048, 0.19949014, 0.0011423137, 0.7282018, 0.40400526, -0.026502011, -0.40404168, 0.099771194, 0.3474499, -0.2912944, 0.55302685, -0.17011939, 0.18104926, -0.2962256, 0.021310583, 0.3911675, -0.26697713, 0.42703217, -0.33777982, 0.87565, -0.5257403, -0.090323254, -0.29806206, 0.6524578, 0.00027364213, -0.0069585084, 0.48440108, 0.4956651, 0.20219094, -0.551306, -0.21318774, 0.0703519, 0.887325, -0.2995858, -0.70299894, 0.20369232, 0.11741282, -0.48690334, 0.4128834, 0.37659773, 0.13679063, -0.42782196, 0.22907624, 0.31083488, 0.32210606, 0.08538606, 0.6945601, -0.20074189, 0.08320621, -0.4395964, -0.38977364, -0.2203353, -0.5908405, -0.078768946, 0.13710126, -0.4631127, -0.25982973, 0.24630222, 0.16727138, 0.18683751, -0.07265432, 0.6296575, -0.594334, 0.0014392463, 0.17290321, 0.027178247, 0.6463659, -0.1571265, 0.13763304, -0.70948356, -0.30395803, 0.2858939, -0.06336104, 0.2835782, -0.17345831, 0.25646365, -0.007284362, 0.08900504, -0.32814166, -0.45379972, 0.3499776, 0.68978363, 0.048204057, -0.17555419, 0.1651912, 0.048795275, 0.64986396, -0.32474875, -0.033736028, -0.1624138, 0.10263282, 0.29571217, -0.067167, 0.55612093, 0.081367224, 0.42063105, -0.1575038, 0.09544897, 0.27978468, -0.004869558, -0.70344704, 0.45709947, -0.14902428, 1.0746412, 0.6676043, 0.44303504, -0.2077382, -0.04389292, 0.17486377, 0.014273228, -0.6516625, 0.3358362, 0.36417884, 0.15583692, 0.6959126, -0.25648797, 0.4919228, 0.025005464, -0.122157454, -0.20546177, 0.13862574, -0.16398785, 0.42400843, 0.17704551, -0.16426083, -0.9162121, 0.4078449, 0.7368433, 0.31491214, -0.024016334, -0.39020786, -0.46561792, -0.2464069, -0.071717545, 1.1412605, -0.013303333, 0.30074754, 0.6283498, -0.17810333, -0.46824688, -0.16022821, 0.56534183, 0.2565388, -0.121434025, 0.063726194, 0.29167104, 0.2952027, -0.6559325, 0.52603525, -0.09399553, 0.3657947, 0.5537559, -0.56732315, -0.24998668, 0.1595357, -0.0737862, -0.0885345, 0.4677994, -0.20381305, -0.3254033, 0.020038115, 0.40922508, -0.60782444, -0.61838377, -0.711165, -0.23903868, 0.35656613, -0.56780505, 0.2826453, -0.5814708, -0.14393127, -0.25774914, 0.17623356, -0.17179379, -0.14148743, 0.31639755, -0.2906626, -0.15263478, -0.061692975, -0.25490734, 0.19065547, 0.3126115, 0.14478032, 0.23112948, 0.7406871, -0.34415403, -0.12040175, -0.2937097, -0.4645023, -0.44231677, 0.14910495, -0.006369319, -0.34732285, -1.4818877, 0.21365239, -0.16970861, -0.32784984, -0.52063787, 0.29851672, 0.17550954, 0.43259582, 0.39034837, 0.012401866, 0.4478098, 0.37662256, 0.12960295, -0.4415213, -0.47130874, 0.21749973, 0.20619246, -0.16549967, 0.07774371, -0.9163397, 0.227949, 0.20071831, -0.55115443, 0.009930169, -0.1521877, 0.04579617, -0.024241358, -0.8324981, 0.2943382, -0.030452799, 0.0846049, -0.30904472, 0.34868938, -0.16351397, 0.030184606, 0.14288568, -0.030372448, -0.44939584, -0.5817421, 1.1590388, -0.028591614, 0.13944796, -0.6015745, 0.16357593, -0.63676035, 0.275456, 0.38240767, -0.42222923, -0.23507214, -0.90023553, 0.019127341, -0.06719775, 0.7602483, 0.073323496, 0.044156585, 0.37614745, -0.51685554, -0.034413118, -0.38665798, -0.29325974, 0.11948324, 0.7070976, 0.26951033, 0.6543943, 0.2778756, -0.48986235, -0.3491226, 0.9086955, -0.6995172, -0.05972431, -0.15764189, 0.056993492, 0.06087462, -0.591273, 0.53887737, 0.045140505, 0.43165416, -0.17059298, -0.19478495, 0.053992383, -0.15608151, -0.16111027, 0.57487476, -0.34335804, -0.18000725, 0.043661404, -0.115904495, 0.5912041, 0.575643, 0.41623482, -1.0555209, -0.2268709, -0.472345, -0.29477763, 0.41286466, 0.28788865, 0.10119839, -0.028362315, -0.67960805, 0.104730986, -0.28965947, -0.18498206, 0.19177595, 0.10818748, 0.69160086, -0.07880397, 0.15030965, 0.4282607, 0.7608738, -0.023457851, 0.082088545, -0.12131026, 0.43254492, 0.4672052, 0.26473185, -0.4286188, -0.37407732, -0.46793532, -0.3810263, -0.6597689, 0.25186533, -0.16385414, -0.36757886, -0.45042253, 0.07682523, 0.04539459, -0.18773556, 0.100300886, -0.78733665, 0.109839246, -0.37404293, -0.49635383, 0.121155664, 0.3853145, 0.1448003, 0.5044786, -0.048951015, 0.5249852, -0.10951643, 0.2947169, -0.16711959, 0.20371304, 0.040919043, -0.01307324, -0.32207716, -0.33880916, 0.09239989, 0.17644425, -0.19626756, 0.07149043, -0.19010888, 0.3957311, -0.3472017, 0.6912372, -0.15073723, -0.31399214, -1.030484, -0.6947699, -0.74373114, -0.3646886, 0.60634816, 0.018070428, -0.15830854, 0.5766393, -0.613233, 0.008812599, 0.10376804, -0.011181528, -0.00624044, 0.024851171, 0.19950402, 0.44804642, 0.2763263, -0.08875351, 0.42457247, 0.0005104523, 0.2477172, -0.5636937, -0.49243528, 0.13625935, -0.070135735, 0.19527167, -0.22993824, -0.4817744, 0.012580359, -0.40986693, 0.016233815, -1.1380334, -0.34442073, 0.39514297, -0.052302368, 0.20916143, 0.029156927, -0.27752182, -0.49710542, -0.030077795, 0.5912545, 0.3880399, -0.11254465, -0.06160229, -0.5952789, 0.66687477, -0.27994806, -0.32204127, 0.5227291, 0.22789413, 0.28106585, 0.06989945, 0.37842926, -0.0016375612, -0.04574679, 0.15937552, 0.4664097, -0.16455203, -0.20856081, -0.5585192, 0.22081608, -0.15166642, -0.5788173, -0.3233606, 1.0192777, 0.3127776, 0.6651011, 0.2859634, -0.16312687, 0.3642844, 0.37503532, -0.1525413, -0.2966376, -0.008810029, 0.75385267, 0.18549564, 0.114618674, -0.28984958, -0.17024586, 0.16872689, -0.39493978, -0.21216579, 0.2903586, 0.04884814, 0.5311374, 0.5288773, -0.9596192, 0.062956646, 0.30812606, 0.8405993, 0.44290146, -0.026651496, -0.047980517, 0.5377583, -0.0049163583, 0.04777715, 0.10369634, 0.6606211, 0.4340265, 0.3381045, -0.70400417, -0.39682263, -0.039879303, -0.3841676, 0.18967164, -0.2358771, 0.2340327, -0.2276228, 0.13576217, -0.9381365, 0.124001406, -0.6750157, 0.2006789, -0.3294852, -0.17709789, -0.46622363, 0.26624247, -0.0716171, 0.19222292, -0.15378198, 0.14287129, 0.10860109, 0.58427787, 0.29566222, 0.29034162, 0.037318733, -0.26631436, -0.5477065, -0.6574115, 0.020575589, -0.4194661, 0.2678248, 0.40502682, -0.0825673, -0.3496922, 0.5714996, -0.3293031, -0.80221444, -0.088383645, -0.55441874, 0.40693995, -0.603642, -0.46782947, -0.053338632, 0.3058648, -0.5777041, 0.065799035, -0.13516961, -0.64492995, -0.25744474, 0.36138877, -0.038449332, 0.39887595, -0.032977838, 0.25235525, -0.018171893, -0.19451442, 0.8497033, -0.19890419, -0.5059694, -0.18124965, -0.009346638, -0.17484832, -0.0019997982, -0.16637929, -0.53861934, -0.032221228, -0.37120828, -0.30931094, 0.47787815, 0.049981534, 0.12854454, -0.51624113, -0.34183002, -0.6140597, -0.015734166, 0.2560806, -0.15384203, -0.013179693, -0.26500198, -0.5390761, 0.7410022, -0.54337513, 0.3178535, -0.46833527, -0.23909982, -0.6392229, 0.124109775, 0.36437467, 0.025032397, -0.605798, -0.65081775, 0.07030028, -0.25960633, -0.18736202, 0.07661274, 0.04696104, 0.046625845, -0.2042439, -0.4834059, -0.29449683, -0.39811903, -0.16903843, -0.010376733, -0.3082342, 0.16370809, -0.013021097, 0.21031794, 0.21488735, -0.9314131, 0.2397115, -0.0048317034, 0.2578361, -0.16083948, -0.37399608, -0.4320414, -0.6692275, -0.34897745, -0.55917317, 0.27266493, -0.00908418, 0.8009196, -0.268201, 0.20741834, 0.3302687, -0.18054579, -0.5403363, 0.73913455, -0.27321893, 0.6325129, -0.327723, -0.08913329, 0.5758694, 0.4802297, -0.39220205, 0.25146008, 0.45808002, -0.22741987, 0.23435958, -0.011078934, -0.1278124, -0.5989348, -0.065163, 0.007219581, -0.34486318, 0.7914626, 1.0037068, -0.30543163, 0.096700616, -0.096089914, -0.002644891, 0.24239175, 0.45072848, -0.82356447, -0.6396973, -0.0007723123, -0.7331812, 0.0820724, -0.3024759, -0.413317, -0.5905216, -0.93463737, -0.24565576, -0.31060088, 0.03613293, 0.048677474, -0.8430683, -0.3997652, -0.0635562, -0.14237328, -0.6422485, -0.03805814, -0.33900604, -0.110856205, -0.23010682, -0.3062035, -0.36913458, -0.008761755, -0.15630408, 0.36729428, 0.021391982, 0.003543894, -0.32895917, -0.21864063, -0.1959314, 0.0017530047, 0.053945586, 0.045842376, -0.08875047, 0.07862969, -0.03732869, -0.06386043, 0.6003726, -0.7343985, -0.4169946, 0.78218216, 0.6735072, 0.023280915, 0.41249767, 0.32114726, 0.11952123, 0.39245257, -0.15748887, -0.5610762, 0.06695819, -0.5223247, 0.32548374, -0.06817445, -0.37572387, 0.10736108, -0.7197957, -0.109496996, -0.3447372, 0.01823644, -0.128877, 0.8450819, 0.4171451, 0.3347417, -0.3408388]</t>
-        </is>
+          <t>[0.040086553, -0.22363555, 0.6421491, -0.859074, 0.10174708, 0.42158595, 0.6981038, 0.1987095, -0.12110046, -0.13386646, -0.34168783, -0.60161096, 0.19876447, -0.6610338, -0.2768041, 0.14038068, 0.50846004, 0.25259754, 0.28793296, -0.5832224, -0.32367185, 0.53208053, 0.34031737, 0.337327, -0.07915077, 0.4000504, -0.0968283, -0.13170014, 0.6271035, 0.380911, 0.0031255176, 1.1589004, -0.06993957, 0.2106751, 0.47973037, 0.19811437, -1.1221931, -0.25871438, 0.5505903, -0.63183933, 0.07068075, -0.31252304, -0.39950722, 0.4041045, 0.16249083, 0.19777513, 0.49938083, -0.5227518, -0.5323389, -0.24620748, -0.46272793, -0.37814003, 0.8340135, 0.5711557, -0.42843089, -0.2694213, 0.3343378, -0.5726214, 0.23640463, -0.30289182, 0.24820358, -0.7106317, -0.631697, 0.39065486, 0.45812064, 0.22695635, -0.10999513, 0.3899289, -0.3613513, 0.36499268, 0.20976761, 0.106007904, 0.19952047, -0.76513755, -0.1974897, -0.2629469, 0.4011455, 0.17924869, 1.239501, -0.06626247, 0.11170741, 0.11838791, -0.74611384, -0.2195491, -0.4586756, 0.61123765, -0.17240304, -0.37920788, 0.04261622, -0.046593662, -0.92035705, -0.17671159, -0.10216038, -0.14140004, -0.6537489, -0.21157743, 0.15581438, 0.11424267, 0.19973534, 0.11494462, 0.3092305, 0.25995418, 0.14886776, 0.5727776, 0.41270575, -0.1867768, -0.7445129, 0.41299498, 0.110522896, -0.6006291, 0.5555268, -0.24787807, 0.30833805, -0.7524605, 0.2573458, 0.45138925, -0.5347842, -0.530365, -0.27835605, 0.4945869, 0.37464908, -0.25445515, -0.65036196, 0.5972459, -0.47918862, 0.4291327, 0.92832446, -0.23241824, 0.06507044, -0.54075485, -0.25806418, 0.49128097, 0.45825168, -0.2770571, -0.55741096, -0.06965482, 0.030760638, -0.12523583, 0.33730936, 0.3638604, -0.031038303, 0.07827963, 0.22319996, 0.14217088, 0.104069255, -0.094404235, 0.22684066, -0.26219225, 0.077929735, -0.24942659, -0.42832413, 0.16360956, -0.26193625, 0.014415199, 0.2649719, -0.8392748, 0.059498098, -0.35874698, -0.31404436, 0.0016470775, -0.5677748, 0.085332416, -0.11331269, 0.18783136, -0.00047700666, -0.11792882, 0.6709922, -0.018716048, -0.16324422, -0.81768525, -0.3619454, -0.06318354, -0.41287583, 0.107710384, -0.031541992, 0.69933033, 0.054143257, -0.04082015, -0.5982437, 0.28228068, -0.5538965, 0.8134571, -0.44432718, -0.7127912, 0.49593893, 0.18406576, 0.22317247, -0.22849435, -0.49026847, -0.25734192, 0.07948488, 0.26923582, -0.08764922, 0.00043437956, -0.1455247, 0.7450222, -0.229967, -0.46076956, -0.04052088, 0.23572865, -0.39174625, 0.1001013, 0.14867029, 0.8628099, 0.50512755, -0.047658958, -0.0017565768, 0.15585817, 0.379013, -0.27474046, -0.45721984, 0.6598715, 0.27154532, -0.16944171, -0.26101604, 0.37007034, -0.25836128, 0.0105731, 0.57568914, -0.60815394, 0.5718842, 0.2560213, 0.29895136, -0.4337172, -0.23906563, -0.634386, 0.13133028, -0.062220514, 0.5106902, 0.21495886, -0.074164204, -0.39926726, -0.061534572, -0.21927603, 0.40661678, -0.40077606, 0.12289673, -0.11816621, 0.12674381, -0.6276649, -0.04105194, 0.21297702, 0.110672146, -0.3645702, -0.15373369, 0.4730434, -0.05121893, -0.2855884, 0.6896986, -0.3682712, 0.29669032, 0.5762534, -0.28649083, -0.05994041, 0.29983974, -0.60833937, -0.2421533, 0.6637701, 0.36263627, -0.09784386, -0.91835725, -0.15153177, -0.4713062, -0.021821557, 0.1413302, -0.32237878, 0.5160978, -0.6255754, 0.20808399, -0.22773026, -0.5425056, -0.12934372, 0.28866798, -0.07170447, -0.10489038, 0.09963871, -0.6296935, -0.0004178509, 0.24775313, 0.6638312, 0.16597337, 0.07116482, -0.03787148, -0.13493568, 0.09015188, 0.2843526, 0.5006005, 0.28088927, -0.053076364, -1.0108087, 0.38617274, 0.047176603, -0.08935244, -1.9356571, -0.32828027, 0.4671011, -0.36616638, -0.36817273, 0.013810468, 0.0033737104, -0.47088864, 0.51011235, -0.13434742, 0.5480205, -0.49553844, 0.48776984, -0.45202842, -0.095233515, 0.17955534, 0.71747464, 0.18562046, -0.18377754, -0.0075288676, -0.16189894, -0.46001238, 0.1651823, -0.36023057, -0.7601634, -0.1917771, -0.31531632, 0.22433351, 0.1532349, 0.34441707, -0.09238276, 0.5320219, -0.19223736, -0.53633386, 0.30241162, -0.58772266, -0.16693637, -0.2900331, -1.0598017, 0.92244047, 0.5416713, 0.2918557, -0.5717287, -0.5484636, -0.37831134, 0.6550453, -0.03406173, -0.27591828, -0.2158213, -0.95665693, -0.37431175, -0.022182908, 1.2355986, 0.25024232, 0.029577289, 0.71205354, -0.77269346, 0.23766112, -0.2213042, -0.17628908, 0.3457692, 0.5726733, 0.73786694, 0.87428546, 0.6068314, -0.20854917, 0.26792136, 0.55254894, -0.29467127, 0.5185761, 0.28071848, 0.12747082, -0.55972505, -0.55619735, 0.49832004, -0.032305904, -0.14068976, -0.058460705, -0.020868845, -0.31563488, -0.86185575, -0.33110422, -0.3019181, -0.34658778, 0.023019869, 0.19400413, -0.35826164, 0.014767288, 0.6319724, 0.0062698936, -0.8746138, 0.45289108, -0.6505072, -0.37673193, -0.4510671, -0.31599653, 0.10518227, -0.099646844, -0.32834277, -0.49568933, -0.0073106997, -0.43192112, 0.00537955, 0.073208496, 0.044929255, -0.13322029, -0.29593232, 0.320828, 0.48014465, -0.086970285, -0.2587985, 0.043930765, -0.22649619, 0.42030326, -0.18250012, -0.37015975, -0.43731514, -0.27933723, 0.1270512, -0.6565094, -0.16502057, 0.099312186, -0.052613005, -0.41805816, 0.2801696, 0.14818275, -0.3107353, -0.235531, -0.2538814, 0.44936606, 0.21151602, -0.004708004, -0.18589488, 0.2515271, -0.007086925, 0.6181347, -0.11559882, 0.512977, 0.4223452, 0.23265348, -0.62659776, -0.18899615, -0.8456268, 0.042867545, -0.10354695, -0.47991592, -0.019403953, 0.10477665, -0.2697357, 0.7876355, 0.1274077, -0.5299947, -0.5417096, 0.32378617, -0.077926174, -1.2560599, -0.03358241, -0.24898355, -0.6083212, 0.41521117, 0.20008835, -0.5097518, 0.6895604, 0.95470977, 0.14380768, 0.1848877, 0.13668403, -0.0045336653, -0.3995479, -0.26203316, -0.18637013, 0.33909672, 0.3668361, 0.11275151, 0.3351042, -0.22797109, 0.45441574, -0.86792254, -0.019760253, 0.3793256, -0.14122862, 0.10515455, -0.016948197, -0.098222844, 0.3920052, 0.21366692, -0.04296535, -0.4618994, -0.094389826, 0.38886008, 0.23411237, 0.71333456, 0.30049324, 0.07366219, 0.099555515, 0.4804762, 0.5953841, 0.17592505, -0.2080535, -0.14930123, -0.5177649, 0.78862596, 0.08430897, -0.37493113, 0.6970952, 0.12550172, -0.28517222, -0.1619693, 0.16664015, 0.1484138, -0.48574293, 0.5223743, -0.3785542, 0.0012186305, -0.3567146, -0.190606, -0.061390642, 0.018878676, -0.6032603, -0.107624784, 0.39963904, 0.32342595, 0.7962056, -0.5370589, 0.05235663, 0.32405087, -0.031890023, -0.65684325, -0.13927697, -0.24847887, 0.32584083, -0.12291227, 0.15951036, -0.28643847, 0.50535536, -0.06322757, -0.045748338, 0.6584775, 0.15381166, 0.4099248, -0.001229614, 0.26136634, -0.8914472, -0.47127065, 0.20790292, 0.48037207, 0.15719123, 0.19773641, -0.5208426, 0.16437143, 0.10985545, -0.13525163, 0.8055705, 0.57235837, 0.35881105, -0.12775627, -0.062122896, -0.38168144, -0.60489345, -0.59408927, -0.54516083, 0.33482203, -0.35704505, 0.028695434, -0.17582886, -0.64187825, -0.067195654, -0.04084955, 0.405101, -0.1603003, -0.46621534, -0.15253049, -0.4809316, 0.12219753, 0.37383625, 0.039679885, 0.626826, 0.37669152, 0.083847016, 0.33947912, 0.03375385, 0.32792, -1.1550803, -0.08655754, -0.7004883, 0.058918096, -0.48475224, 0.29906425, -0.028832544, 0.044093985, -0.85166657, 0.61062825, 0.18222234, 0.09033008, -0.08242144, 0.09614149, -0.3510567, -0.62092966, -0.09020621, 0.3163623, 0.43516403, -0.8453529, -0.77757096, -0.65647274, -0.6356835, 0.62725776, 0.3733959, -0.34165424, 0.07574375, -0.012272939, -0.040031552, -0.16822577, -0.6223115, 0.78735125, -0.78069973, -0.94891495, 0.1334253, -0.70482576, -0.40076205, 0.12924126, 0.114812866, -0.06604789, 0.096600495, -0.072634846, -0.46014836, 0.20283312, 0.50066864, -0.15258962, -0.08086732, -0.41750115, -0.2710768, -0.6389032, 0.15159082, 0.017164394, -0.10612952, -0.18337959, 0.13712704, 0.8429977, -0.29794168, 0.39474866, -0.37144023, 0.020697694, -0.030425198, 0.16284017, -0.1959407, -0.4515572, -1.2600086, -0.13452584, -0.10295704, 0.35211292, -0.40624222, -0.14389685, -0.54124075, -0.5332971, 0.3058344, -0.5420961, 0.07149538, -0.60763025, -0.79093987, -0.30719954, -0.24208522, 0.1611016, -0.30987856, -0.34670293, 0.051652633, -0.108468056, 0.06499213, -0.5250037, -0.17434102, 0.36918598, -0.5583073, -0.5391289, -0.67174023, -0.59484, -0.0110612195, 0.057268076, 0.39232045, 0.056638807, -0.41494915, 0.16035126, 0.18940143, -0.26111603, 0.1276285, 0.4836253, -0.1179922, 0.26776543, -0.09557903, 0.27169445, 0.003549138, 0.26573837, 0.20693997, -0.5849078, 1.2857225, -0.5975049, -0.17626347, 0.45108587, -0.19027492, -0.2236376, 0.10547729, 0.24030268, -0.3287425, 0.6204938, 0.6876083, 0.2399667, -0.027591093, -0.27462196, -0.1777626, 0.8296956, -0.36359906, -0.5913441, -0.53036726, -0.01249234, -0.3513926, 0.0007412182, 0.30144656, -0.6925705, -0.22171079, 0.12560505, 0.057480678, -0.16509485, 0.29202712, 0.0819835, -0.3439144, -0.029748641, 0.517654, 0.029914223, -1.2410976, -0.501705, 0.20951071, -0.6841106, -0.54706484, -0.5916418, -0.33106512, 0.31648126, 0.010821952, -0.21968506, 0.22246808, 0.17433494, -0.033785857, 0.42763433, 0.35462618, -0.24783479, 0.11663146, -0.12093155, 0.53773993, -0.07335499, -0.3442886, 0.019157972, 0.8090639, -0.16042855, 0.0797147, -0.31189212, 0.26957124, 0.43044126, -0.011079665, -0.23271188, 0.28515032, 0.9516423, 0.745323, -0.48409256, 0.39369094, -0.44984058, -0.31310114, -0.710459, 0.12962013, -0.0015654173, 0.4106322, -0.16396193, -0.5873673, -0.1691733, -0.056794725, 0.40887555, 0.08811679, -0.06625867, 0.10922197]</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1177692264318466</v>
       </c>
     </row>
     <row r="13">
@@ -792,24 +834,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Texture analyser는 무엇이죠?</t>
+          <t>TPA란?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>식품의 물성을 측정하는 대표 장치입니다.</t>
+          <t>Texture profile analysis를 의미하는 것 같습니다.</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>물성학 교재를 추천해주세요.</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[0.6813852, -0.65505517, 0.22202887, -0.32376048, 0.12807368, 0.39365324, 0.05497856, 0.29477882, 0.17341402, -0.5304877, -0.3838658, -0.31864336, -0.29746288, 0.2525377, -0.50290436, 0.15044604, 0.46508345, -0.21241303, 0.29286948, 0.032255523, -0.6929015, 0.18580663, 0.3125185, 0.23102975, -0.44958478, -0.51413137, -0.21569203, 0.14047824, 0.20928575, -0.4138719, 0.03353932, -0.21416858, -0.005282871, -0.19451222, 0.1357698, 0.15534261, -0.84706116, -0.24580178, 0.115742035, -0.17250447, -0.1000201, -0.42817825, 0.012775627, 0.20349936, -0.02328916, 0.5341242, -0.317395, 0.4981567, -0.35332742, 0.30996206, -0.4368779, 0.4072415, 0.47212332, 0.36086836, -0.25807127, -0.33064485, -0.4567782, -0.82479084, 0.29038268, -0.2743989, 0.6487509, -0.35907987, 0.10920912, 0.83041006, -0.16155836, -0.64417785, -0.58527327, 0.07226229, 0.056522515, -0.09896298, 0.03728505, 0.6310641, 0.82964104, -0.27439094, -0.44286463, -0.6437277, 0.44564697, 0.2462736, 0.9569324, 0.46750632, 0.023457473, -0.6914279, -0.17379467, -0.011379433, -0.66485673, -0.15008569, -0.023659894, -0.1173734, -1.0321711, 0.07217314, -0.79705626, -0.22103015, -0.10746241, -0.3553806, -0.4675729, -0.39827782, -0.23031959, 0.11336904, 0.42304, -0.27020568, -0.29365468, 0.35874325, -0.01723122, 0.51928526, 0.28578493, -0.106343254, -0.38086715, -0.10789519, 0.71988046, -0.42954615, 0.6649025, -0.38670322, -0.14515707, 0.053437777, -0.29230165, 0.09085936, -0.27358395, 0.36122403, -0.29324356, 0.7580062, -0.46120486, -0.037899025, -0.2990613, 0.78510207, 0.0012904768, 0.13546555, 0.6140143, 0.5127817, 0.3109507, -0.38814893, -0.32670885, -0.16223364, 0.91654605, -0.04385678, -0.5733159, 0.1919236, 0.08688497, -0.42005867, 0.53763545, 0.0998831, 0.13248055, -0.31473443, 0.16808519, 0.24306591, 0.290993, 0.4059294, 0.5953803, -0.15741648, 0.12949832, -0.34534648, -0.39535934, -0.077678, -0.49720457, -0.07047353, -0.23024891, -0.3835524, -0.18688455, 0.52275497, 0.13734655, 0.286375, -0.21210113, 0.5764517, -0.47586635, -0.0629027, 0.239967, -0.016959783, 0.63427967, 0.09426781, 0.15101406, -0.78983444, -0.30811745, 0.1868707, -0.0905608, 0.37551457, -0.44564128, 0.42983446, 0.31960514, 0.2860009, -0.2626234, -0.43155223, 0.25054303, 0.70852786, 0.117001235, -0.2659598, 0.19971666, 0.10573178, 0.4235862, -0.4462795, -0.07416604, -0.49523368, 0.12001891, 0.14398964, 0.093629904, 0.33748373, 0.11524175, 0.37103653, 0.12889467, -0.0074928873, 0.2957008, -0.02367195, -1.0997255, -0.079510935, -0.34530503, 1.0252329, 0.48913914, 0.37731203, -0.5885602, -0.105716154, 0.13390777, -0.25372356, -0.8186127, 0.36195213, 0.48207304, -0.043850917, 0.19569843, 0.07984649, 0.4010816, 0.038280036, -0.24594699, 0.14346646, 0.15845266, -0.1827549, 0.35940364, 0.29957578, 0.14285226, -0.57092726, 0.086147174, 0.6561675, 0.45852965, -0.3488963, -0.2188665, -0.6630474, 0.014075908, 0.025287284, 1.1255559, 0.061014798, 0.26317337, 0.5048641, -0.35651731, -0.63288414, -0.21539906, 0.68423355, 0.60500115, 0.01775657, 0.28438357, 0.015866714, 0.22011113, -0.8388529, 0.7786512, -0.18926157, 0.46325207, 0.38020587, -0.5929593, -0.4659585, 0.22422217, 0.061773006, 0.059592042, 0.528612, -0.2724665, -0.31280366, 0.2080834, 0.5421503, -0.32464856, -0.38010192, -0.943579, -0.25438145, 0.3355647, -0.8267583, 0.30065614, -0.62718755, -0.5157155, -0.053675212, 0.25502047, -0.18543804, -0.053428046, 0.3873343, 0.051083528, -0.12205702, -0.23296547, -0.3062615, 0.33681628, 0.30370474, 0.028801862, 0.25946116, 0.2877882, -0.519133, -0.23925652, -0.35393947, -0.6832671, -0.5225896, 0.25851208, 0.102685936, -0.3258145, -1.494194, 0.43650565, -0.2387552, -0.09273527, -0.6302515, 0.4484946, -0.20343874, 0.409143, 0.37322405, -0.2101845, 0.5485189, 0.48336533, 0.507561, -0.44782606, -0.39037606, 0.09619705, 0.25829977, 0.099218726, -0.24262059, -0.9472479, 0.22188315, 0.2274692, -0.44556734, 0.117287815, -0.34532142, 0.015179021, -0.043428313, -0.60509795, 0.45960543, 0.0787313, 0.13219021, -0.577985, 0.44655547, 0.044868387, -0.09166312, 0.36219725, -0.05844407, -0.54704666, -0.5193324, 1.124799, -0.014884399, 0.3057136, -0.46704242, 0.19788496, -0.5779711, 0.59515, 0.30534917, -0.7178735, -0.07619684, -0.6359467, -0.08256335, 0.0022440676, 0.79236, 0.34848067, -0.073333405, 0.34981626, -0.4345419, -0.092305526, -0.52528465, -0.28573915, 0.27194735, 0.59799343, 0.2493823, 0.95750576, 0.1236696, -0.38294768, -0.4728336, 0.7752219, -0.49177942, 0.07930523, -0.43057266, -0.03943671, 0.26448563, -0.61676896, 0.34129348, -0.10693852, 0.8634413, -0.29230183, -0.15299855, 0.1531607, 0.24326195, -0.2526541, 0.57380813, -0.26996973, -0.22989419, 0.36873695, -0.34619597, 0.7628664, 0.6699072, 0.42292356, -1.1824347, -0.023183078, -0.7447877, -0.30732754, 0.49158534, 0.38243127, 0.16162677, -0.17845848, -0.8323229, 0.25545135, -0.049253438, -0.47030607, 0.27166435, -0.16504526, 0.7925463, -0.109541476, -0.30635408, 0.3887937, 0.7787229, -0.03736332, 0.06213826, -0.39379007, 0.55737233, 0.41446668, 0.17416272, -0.4150448, -0.07344586, -0.7340799, -0.27161494, -0.5904644, 0.32985806, -0.0017618388, -0.46420607, -0.6928333, 0.013572736, -0.10487913, 0.17536342, 0.15024802, -1.0806568, 0.49205709, -0.4564805, -0.12827209, 0.24900351, 0.0975141, -0.028801326, 0.48926857, -0.0527297, 0.25908485, -0.2863069, 0.5075001, -0.047498982, 0.68704736, -0.10211359, 0.111798726, -0.2738974, -0.016229186, 0.1462884, 0.07747152, -0.3747901, 0.12808278, -0.23606001, 0.41563588, -0.59897286, 0.8408729, -0.3618347, -0.5141638, -1.007489, -0.6084857, -0.65124464, -0.28198487, 0.52775025, -0.213766, -0.12014147, 0.16477677, -0.81306857, 0.16277815, 0.2049507, -0.034776073, 0.041510396, -0.42894745, -0.05143077, 0.3030746, 0.25956714, -0.24019174, 0.1308008, -0.20588963, 0.27568185, -0.65333986, -0.518154, 0.54719526, -0.2698135, 0.24746753, -0.25233206, -0.3403984, 0.36565652, -0.3221565, -0.1001366, -0.8707321, -0.32944208, 0.25990146, -0.22477688, 0.31836256, 0.30254593, -0.23729284, -0.3492599, 0.004995014, 0.5149208, 0.054965053, 0.130073, -0.18496124, -0.47045118, 0.8279852, -0.09192252, -0.43541354, 0.6501264, 0.12577538, 0.17439474, -0.0724317, 0.46124244, -0.03676216, -0.21969189, 0.30936688, 0.47240067, -0.30068454, -0.18181035, -0.4336227, 0.2560273, -0.025926013, -0.56534994, -0.2615816, 0.93650275, 0.2356217, 0.418979, 0.05480779, -0.21735607, 0.56464815, 0.27054888, -0.4261873, -0.34457403, -0.16625555, 0.5758049, -0.0226526, 0.06154113, -0.14285538, -0.15156256, -0.16410848, -0.4563828, -0.064022444, 0.4082566, 0.37213692, 0.40524775, 0.6087591, -0.8948022, 0.17309618, 0.39254305, 0.8593337, 0.2035876, -0.15682869, 0.14687298, 0.86334044, 0.11842426, -0.19321108, 0.06992387, 0.4361465, 0.31894636, 0.39520794, -0.73058873, -0.62501436, -0.014583844, -0.5979567, -0.0033770981, -0.39692566, 0.3934973, -0.44834906, 0.06560717, -0.8244071, 0.15121447, -0.711359, 0.14562096, -0.5348261, -0.43600723, -0.5849567, 0.26493046, -0.07720673, 0.23750496, 0.22361736, 0.31430343, -0.104471385, 0.36762455, 0.5440387, 0.17117943, -0.057225414, -0.11858664, -0.5372041, -0.528758, 0.005372835, -0.6287427, 0.33652642, 0.21403901, -0.27399528, -0.043218393, 0.31612486, -0.3771474, -0.94568443, 0.022873236, -0.6968713, 0.10467497, -0.5731782, -0.544757, -0.0139154885, 0.16364396, -0.8185248, -0.019149678, -0.25111184, -0.517111, -0.038077183, 0.27532586, -0.18098064, 0.39727727, 0.10128409, 0.33732018, -0.19491439, -0.19581504, 0.82164395, -0.12134351, -0.26222652, -0.009895818, -0.15106943, -0.24358144, 0.14416194, -0.22153236, -0.5114307, -0.07391434, -0.2941389, -0.25633657, 0.58395, 0.25448564, 0.16929166, -0.28388113, -0.60031563, -0.3851227, 0.06375556, 0.42839178, -0.22927652, 0.04701271, -0.08358519, -0.44510436, 0.678934, -0.6146242, 0.30470857, -0.4779208, -0.2439775, -0.55893785, -0.049736835, 0.12633966, 0.12508297, -0.4485192, -0.653277, 0.11552827, -0.4390862, -0.09415257, 0.0029420618, -0.2578301, 0.12605089, -0.51047665, -0.3486219, -0.37426305, -0.7614473, -0.099327266, 0.23596999, -0.27242306, 0.40437385, 0.011355468, 0.24270765, 0.5138677, -0.8263227, 0.16587438, 0.16938958, 0.37925574, 0.08715039, -0.58275795, -0.6622568, -0.3906607, -0.6160728, -0.49264783, 0.30871797, 0.21473698, 0.7270075, -0.3030263, 0.33744287, 0.37998366, -0.4931232, -0.13201545, 0.8581231, -0.3352943, 0.6553031, -0.15765302, -0.02852927, 0.57535416, 0.37530017, -0.47122547, 0.18064788, 0.43429574, -0.010506973, 0.10964421, 0.15890394, 0.1898867, -0.49789205, -0.0054107993, 0.066006705, -0.76358616, 0.78275925, 0.745523, -0.6128351, -0.046986286, -0.046173446, -0.07903782, 0.10721283, 0.52673596, -0.8306168, -1.006468, 0.049600415, -0.6096381, 0.1267628, -0.67221934, -0.28578788, -0.34047696, -0.9543013, -0.31362677, -0.61314243, -0.0639673, 0.0067893094, -0.5599362, -0.35383645, -0.53843457, -0.2840461, -0.57389593, -0.18836541, -0.26146007, -0.0050892746, -0.2731468, -0.087006554, -0.45635024, 0.31654024, -0.1649077, 0.06571212, 0.10378783, 0.3088154, -0.4301636, -0.20862718, -0.33998686, 0.12280412, -0.008101685, -0.029335143, -0.31529573, 0.17161758, 0.18791844, -0.08218158, 0.46873394, -0.66693646, -0.6427075, 0.8878829, 0.9329986, 0.22458223, 0.60068095, 0.634415, -0.08061937, 0.18344012, 0.036762234, -0.71711797, 0.28197697, -0.33304328, 0.1719356, 0.28120264, -0.40254807, 0.23520651, -0.6465932, -0.201416, -0.35210928, 0.11677408, 0.012678853, 0.3056614, 0.49676824, 0.106286846, -0.36614642]</t>
-        </is>
+          <t>[0.4885334, -0.11603614, 0.2511666, -0.30305386, -0.34362522, -0.050081413, 0.3188912, 0.76404923, 0.4751886, -0.17285335, -0.2155328, -0.08490473, -0.52112937, 0.20814234, -0.30167708, -0.14540413, -0.06460733, 0.13168643, 0.25948268, -1.0287849, -0.6278779, 0.058240455, 0.36083746, 0.10047832, -0.0026055078, 0.07033342, -0.10123489, -0.17302822, 0.96450996, -0.84660596, -0.17058848, -0.08814504, -0.025447607, 0.3729366, 0.27626196, 0.09471894, -0.57218, 0.089420654, -0.33137473, 0.1828603, 0.10448307, -0.59266084, 0.16355897, 0.073578775, 0.18550326, 0.007676676, 0.3492802, -0.39072287, 0.023468869, 0.6233842, -0.1265993, 0.24205196, -0.023913361, 0.4316875, -0.36046317, -0.844708, -0.39071357, -1.0317355, 0.2943777, -0.18773109, 0.29446566, -0.6841247, 0.07934774, 0.5602292, -0.31024867, -0.39779234, -0.7820325, 0.047475863, -0.034707714, 0.2174939, 0.36129963, -0.1755618, 0.45609346, -0.14170934, 0.37940493, -0.9352234, 0.028161263, -0.5098231, 0.24898864, 0.9504154, -0.14894171, -0.797942, -0.8480614, -0.8126077, -0.26923996, -0.27233124, 0.013319761, -0.4501276, -1.213358, -0.2961175, -0.3738071, 0.20253712, 0.21950345, -0.015078659, -0.28374, -0.18323822, -0.075198345, 0.16270894, 0.093613714, 0.17774312, -0.047182526, 0.1610366, -0.065746635, 0.33262733, -0.028250583, -0.1288283, -0.63305956, -0.11273381, -0.49240324, 0.24523707, 0.36004767, -1.008127, 0.20028527, 0.5554094, -0.27101722, -0.03710978, 0.050466884, 0.47504643, -0.1026448, 0.4884704, 0.29143366, 0.22451441, -0.22192872, 0.6755059, -0.56223255, 0.31262484, 1.1013864, 0.1424696, 0.27456608, -0.50515395, -0.040403564, 0.012183118, 0.24621366, -0.10992346, -0.47196782, -0.74672705, 0.38531193, -0.5088623, 0.5977191, 0.24844652, 0.32416388, 0.28257215, -0.15251447, -0.14506604, 0.540649, -0.03865852, 0.59323794, -0.16245116, -0.056780133, -0.566637, -0.29988995, 0.022838116, -0.79674894, 0.2573212, -0.028704727, -0.67731994, -0.26716033, 0.23293024, 0.34614506, -0.18182981, 0.4991264, -0.37109342, 0.11821569, -0.11244132, 0.26266667, 0.17318638, 0.59357995, -0.23354472, 0.5461173, 0.17384648, 0.04722759, -0.08448241, -0.11153951, 0.20275743, -0.06258676, 0.115576126, -0.04126553, -0.019533707, 0.16394255, -0.67651963, 0.014015156, 0.31414977, -0.43382052, 0.44561782, 0.1800158, -0.04651919, 0.57761306, 0.08854715, -0.36439928, -0.30603775, 0.32406726, 0.20198154, 0.1494198, -0.22077413, -0.29360044, 0.72808355, -0.14947076, 0.049168646, -0.4005898, -0.63691586, -0.048878044, 0.022402754, 0.60071504, 0.36209285, 0.6042838, 0.325693, -0.4440982, 0.070207745, -0.17337996, -0.60533905, -0.034046814, 0.93132013, 0.097009696, 0.21047051, 0.024842985, 0.007735466, -0.09331423, -0.13856314, -0.2229683, -0.001745599, 0.11161695, 0.14932707, 0.04977885, -0.35974348, 0.10560288, -0.7554681, 0.17391719, 0.41755626, 0.13505627, -0.39926967, -0.5354284, -0.07514741, -0.21907789, -0.6219506, 0.90046215, 0.50892127, 0.640693, 0.36513612, -0.5397989, -0.5001065, -0.15581013, 0.41950896, -0.41297475, -0.15241994, -0.22206073, 0.19899613, -0.09723526, -0.2889937, 0.35042787, -0.32966682, 0.17236269, 0.5475258, -0.45567465, 0.17975523, 0.16018343, -0.9855415, -0.33271107, 0.3711479, -0.70002896, 0.017387934, -0.006086389, -0.049539465, 0.085069954, 0.25377062, -0.68818855, -0.26349318, 0.12680261, -1.426835, 0.40310684, -0.6141007, -0.71351916, -0.5180694, 0.34561095, 0.3583562, -0.40449405, 0.8523887, 0.28901702, 0.21941751, -0.058133196, -0.19161393, 0.6386488, 0.359602, 0.21922083, 0.49411213, -0.016762128, -0.4981135, -0.18041037, -0.37083077, -0.280417, -0.52749974, -0.22666454, 0.20654304, -0.39177093, -1.1096077, 0.27091715, 0.06137311, -0.17791454, -0.10723001, 0.36885312, 0.04224668, 0.4457488, 0.30819103, -0.039256185, 0.34405303, 0.5741324, 0.1849159, -0.21718483, 0.114855565, -0.19112527, 0.4136912, 0.21060677, -0.002656389, 0.21538877, 0.26239964, 0.19362901, -0.046669547, -0.05036986, -0.53690416, -0.09029257, -0.101661004, -0.19005185, 0.32420075, 0.055035073, -0.17833017, 0.3969876, 0.42715254, 0.32738104, 0.33321753, 0.21385966, -0.4179351, -0.7219617, -0.2971972, 0.56056505, 0.09808987, 0.17834143, -0.52838486, 0.44249848, -0.4310424, -0.2049048, -0.18006746, -0.5477054, 0.29473835, -0.41113126, 0.6941972, -0.4569812, 1.242805, 0.015790896, -0.07163963, -0.32707784, -0.4654487, -0.8483301, -0.066575505, 0.1620688, 0.078553475, 0.5062613, -0.16166644, 0.54277045, 0.49465743, -0.3740714, -0.38381192, 0.6574344, -0.96539336, 0.4798795, -0.9433145, -0.28490415, 0.3959186, -0.35501707, 0.24940874, 0.35985306, 0.3920965, -0.12401152, 0.10106331, 0.8500075, -0.35823408, -0.61173606, 0.0457121, -0.7250075, -0.66831326, -0.21624161, -0.10359442, 0.89228445, 0.6526451, 0.040783025, -0.15814495, -0.085675664, -0.7033758, -0.17038834, 0.32817248, 0.1650917, 0.28830326, -0.74298173, -0.36444604, 0.2706101, -0.16018675, 0.026364595, 0.3495665, 0.2126442, 0.40720913, -0.24301879, -0.6757085, 0.59541816, -0.13836862, 0.45280036, 0.29908848, -0.41776755, -0.5473711, 0.43042898, -0.37777218, -0.57477826, -0.2270649, -0.849919, -0.07629036, -0.8635633, -0.43188098, -0.063109525, -0.4821135, -0.2260225, 0.77927035, -0.12941016, 0.17122169, 0.41828692, -0.7176607, 0.50416213, -0.53851753, 0.31573653, 0.6211794, 0.49129522, 0.49932036, 0.0069941827, -0.45760843, 0.31916532, 0.036963526, 0.6820325, 0.13251027, 0.149166, -0.66129637, -0.11568994, 0.2079109, -0.14704162, 0.7818608, 0.2771267, 0.24228191, 0.3775762, 0.107162766, -0.32599974, -0.2918907, -0.39061952, -0.8833048, -0.9255295, -1.108967, -0.5497353, -0.851161, 0.34671512, -0.047374442, -0.62633103, -0.6587823, 0.8186082, -0.10488271, -0.21169846, 0.32643387, -0.14201893, 0.062285144, -0.61152285, -0.69672936, 0.60036314, 0.2941086, 0.06337479, 1.1127139, -0.11741093, 0.5586703, -0.55130404, -0.121858425, -0.016277257, -0.015789272, 0.3541715, -0.22733723, -0.30572143, 0.12504886, 0.38607848, 0.13377906, 0.6292489, -0.2884449, 0.5246002, -0.14511342, 0.4956565, -0.14200167, -0.26469138, -0.5422291, -0.102481365, 0.22403228, -0.321534, -0.022581005, -0.31965622, 0.25018254, 0.6622656, -0.27020893, -0.21906729, 0.5989695, -0.4516835, 0.7276414, 0.08799386, -0.025237694, 0.14432937, -0.22288209, 0.03988947, 0.4935595, 0.5995271, -0.23435883, -0.48233715, 0.09578667, -0.101523936, -0.47804794, 0.74551183, -0.12006255, 0.075945534, 0.4008062, 0.12770502, -0.18722458, -0.3116354, 0.5387573, -0.49055168, -0.085525356, 0.14610694, -0.47886273, -0.010766834, -0.11870686, 0.8086951, -0.10672051, -0.054782417, -0.40686032, 0.112581275, 0.09613305, 0.20892853, -0.0940091, 0.8003257, -0.0816046, -0.15781733, 0.6698007, 0.50055766, 0.060164306, 0.2801762, -0.25690198, -0.034323547, -0.001974058, -0.7592694, 0.06663614, 0.1112395, 0.5706807, 0.19964404, 0.19739169, 0.20091438, -0.39245453, -0.53291875, -0.6050269, -0.578274, -0.42022052, -0.19622189, -0.57724434, -0.5615567, 0.18958545, 0.09638085, 0.46320888, -0.89467984, -0.3340344, -0.3703519, 0.58818984, -0.38579535, 0.18926243, 0.068527244, 0.20290332, -0.35014486, 0.23746574, 0.10367086, 0.21325767, 0.1263361, -0.66691756, -1.043198, -0.42913926, -0.19516653, -0.32644227, -0.21978335, 0.0121258395, -0.462603, -0.22189848, 0.8637641, -0.56743777, -0.6588631, -0.11022047, -0.23684381, -0.49810922, 0.1990747, -0.8001587, 0.06906921, -0.09644624, -0.5802385, -0.04504021, 0.25357038, -0.13862084, 0.043264214, -0.10970744, -0.5941724, 0.4425497, -0.16924728, 0.06987097, -0.89901596, -0.3508301, 1.0452162, -0.39414373, 0.050527927, 0.6561899, 0.13104981, -0.046209354, 0.30959573, -0.06675818, -0.41604754, 0.0743085, -0.6896371, -0.4195429, 0.18589135, 0.49302015, -0.024171809, 0.2814063, -0.41054735, -0.21576114, -0.16321413, -0.25754657, -0.10254536, -0.5432554, -0.07525734, -0.334554, 0.61999196, -0.4908599, 0.26421016, -0.85131717, -0.13631898, -0.27883437, 0.074662246, 0.48806635, -0.5179183, -0.86075383, -0.24847479, -0.3726217, -0.2771426, 0.12133432, -0.061537787, -0.8423831, -0.06562846, -0.13033326, -0.66729873, -0.08519676, -0.281975, -0.050435215, 0.79217696, -0.22553492, 0.30526808, 0.24636339, 0.63341063, -0.07726174, -0.14871624, -0.46087456, 0.10576537, 0.19432335, 0.4933537, -0.37345544, -0.8783471, -0.2955036, -0.42979407, -0.20549451, 0.14030565, 0.13879411, 0.9383761, -0.16829067, 0.07518154, 0.6417275, -0.2743506, -0.29780883, 1.0747975, -0.33571646, 0.7823264, 0.20264328, -0.53257376, 0.23356332, 0.3532515, 0.6053083, 0.044956177, 1.2569257, 0.4745244, -0.047113508, -0.028916577, 0.19918181, -0.123829015, 0.3928465, 0.44560578, -0.42202553, 0.9122791, 0.80628115, -0.3401345, -0.22115707, -0.4369501, -0.2802387, -0.50893146, 0.06265982, -0.51538044, -0.46200332, -0.3708078, -0.45200464, -0.11704438, -0.11307871, -0.11447147, 0.02782861, -0.008910462, 0.017106002, -0.42494026, 0.18517776, -0.5811972, -0.0129392585, 0.23632468, -0.7170189, -0.07660102, -0.89050007, 0.5770984, -0.15686077, -0.2213183, -0.32220525, 0.40205863, -0.23357742, -0.08433985, -0.4667021, -0.71952534, -0.4637549, 0.14901398, -0.02874546, 0.16437127, 0.31107807, 0.010703936, -0.081041574, 0.05976671, -0.052495155, 0.16079856, 0.1040011, -0.22649781, 0.5135649, -0.08228018, -0.39795196, 0.24215855, 0.23885645, -0.2310612, 0.8006139, 0.6019363, 0.545127, 0.17909081, -0.26487663, -0.3073562, -0.1946736, -0.85128623, -0.25623772, 0.44997975, -0.020184476, -0.19073933, -0.36075678, 0.10699437, 0.30974042, 0.019065859, 0.22457041, 0.6285601, 0.37750015, -0.055243447, 0.026250869]</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1637933403253555</v>
       </c>
     </row>
     <row r="14">
@@ -818,24 +867,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>식품 물성 측정 기기는?</t>
+          <t>hi?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>다양한 장치가 있는데, 보편적으로 texture analyzer 를 추천합니다.</t>
+          <t>안녕하세요?</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hello?</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[-0.18089508, -0.5900386, 0.17993852, -0.7245032, -0.19455369, -0.47292784, -0.11462527, -0.5185354, -0.022468116, -0.09525918, -0.13263345, -0.09121365, -0.19078489, -0.13466269, -0.21483856, -0.02509795, 0.3002953, 0.1344393, -0.37697136, -0.62219214, -0.32800773, -0.15979838, 0.317102, 1.0950075, -0.56736195, -0.38147396, -0.39538172, 0.15661184, -0.10209963, -0.46858773, 0.85776764, 0.13707595, -0.15906484, 0.31452143, 0.13202333, 0.19608091, -0.5844386, -0.16757402, -0.17047885, 0.04437081, -0.5544381, 0.28413522, 0.15439384, 0.36957076, 0.29927337, 0.108327955, 0.4395675, 0.0154679185, -0.1984775, -0.02258783, -0.46018314, -0.04383598, 0.054476116, 0.5777687, -0.6760029, -0.18885577, 0.19876558, 0.12771672, 0.4083888, -0.46468845, 0.14500439, -0.34364316, -0.3371293, -0.25978807, 0.044380486, -0.63141185, -0.27065697, -0.31506464, -0.6507902, 0.21784271, -0.5287664, -0.27321994, 0.13121095, -0.35470068, 0.6176068, 0.23407109, -0.27130422, -0.0037128925, 0.44184786, 0.43588936, -0.28209665, -0.2976527, -0.040095646, -1.0194755, 0.31689933, -1.1147467, -0.402952, -0.6138307, -0.25856367, 0.2049811, -0.13520677, -0.052271314, -0.10251231, 0.1405359, -0.45346102, 0.52067655, -0.17030089, 0.26614994, 0.1519769, -0.0434253, -0.23569706, -0.030222366, -0.38403732, 0.9015, 0.43258068, -0.42811775, -0.24372666, 0.2396761, 0.053545725, -0.27089554, 0.115869254, -0.7255372, 0.11686519, -0.3882502, 0.057197265, 0.41633114, -0.2300364, -0.45409304, -0.18288857, 0.2164593, 0.33016562, -0.22035684, 0.10750096, 0.42704073, -0.094833985, 0.27453056, 0.41268757, -0.3018435, 0.5027602, -0.42790133, 0.037327185, 0.51666665, 0.19210576, 0.29929194, -0.55473375, -0.4132781, -0.07345683, -0.26748598, 0.60527694, 0.7509862, -0.37406382, 0.1504984, -0.26527023, 0.22080618, -0.22103888, -0.3080286, 0.22924, -0.32451883, 0.17338504, -0.71058685, -0.45409408, 0.13115695, -0.9557088, 0.034692626, -0.19709818, 0.1938294, -0.29860404, -0.4246037, 0.08929958, -0.2001294, 0.18761745, 0.34142503, -0.47653204, -0.05115274, 0.514807, -0.5241624, 0.50610435, 0.023754185, 0.7777803, -0.26682228, -0.49589074, -0.045693085, 0.6944794, -0.38419604, 0.0137794, -0.3177115, -0.59537834, -0.14683233, -0.39366955, -0.4537167, 0.43161097, 0.41579157, 0.16536437, 0.12156439, 0.5190085, 0.3013924, 0.42244133, 0.040528078, -0.69086856, -0.5709001, 0.6580226, -0.7044456, -0.32907665, -0.33695897, -0.051641688, 1.031736, -0.40712276, 0.3895716, -0.30962202, 0.18761641, -0.054598257, 0.51679856, -0.21403213, 0.8864352, 0.2969639, 0.21357688, 0.38156796, -0.036539767, 0.21959966, -0.26949868, 0.4307235, 0.452422, 0.11680523, -0.12990397, -0.13336256, -1.0051408, -0.4665363, -0.3005606, 0.18801974, 0.31864947, 0.41744062, -0.42382786, -0.13554676, -0.72509295, 0.15642701, -0.6499301, 0.25693962, 0.82873666, 0.26442423, 0.11133695, -0.15507573, -0.1012261, -0.319443, -0.32399714, 0.124960385, -0.6691499, 0.40588453, 0.57357967, -0.9151437, 0.19565915, -0.055002324, -0.05360542, -0.080881156, -0.13435449, -0.2173521, 0.061974924, 0.17110954, 0.05013697, 0.02828851, -0.17143923, -0.05523717, 0.06552979, 0.02154664, -0.33099908, -0.12448515, -0.50301856, 0.37224212, 0.13257334, 0.058544356, -0.14990298, 0.26500052, -0.023139024, -0.3801404, -0.21565282, 0.059840456, -0.31569305, 0.4919723, -0.51046807, -0.15625398, -0.4508353, -0.03542252, -0.16603172, 0.37417275, 0.22329704, -0.049132314, 0.7678806, -0.51531154, 0.6242005, 0.44543117, 0.43318504, -0.21789564, 0.3148801, 0.29045713, 0.40220818, 0.46854442, -0.38534784, 0.10526414, -0.28739068, -0.01497821, -0.43680742, -0.584798, -0.12036385, -0.25956306, -0.73885316, 0.1388987, -0.31934932, -0.78544074, -0.3631968, -0.21774791, 0.95430684, 0.30725515, 0.9599142, 0.16658087, 0.20231888, -0.1704389, 0.09625787, -0.18567751, -0.3897237, -0.6111874, 0.58745426, 0.2669229, 0.109057695, -0.19734687, 0.38907602, -0.3172222, -0.7135536, 0.3326186, 0.35236943, -0.0076150023, 0.24484822, -0.4668088, 0.28675655, -0.46450105, -0.65583014, 0.5686352, 0.63573146, 0.33756086, 0.06038232, -0.22493315, -0.20130932, -0.8477952, -0.5209996, 0.08715071, 0.052757874, -0.41204596, -0.69508886, -0.004003283, -0.2163118, -0.08613196, 0.09622845, 0.10675016, -0.1150879, -0.37566853, 0.33681247, -0.6564006, 1.6785929, 0.03224023, -0.39824653, 0.09466588, -0.5442671, -0.006513804, -0.17906764, -0.29534853, -0.28595626, 0.19522034, 0.025310714, -0.1667536, 0.71652937, 0.14041708, -0.21233442, 0.82924706, -0.122011065, -0.12454687, 0.6248623, 0.022039419, -0.22571251, -0.43628716, 0.4803753, 0.33926287, 0.4776443, 0.41498867, -0.5727522, -0.2733254, -0.7913544, -0.10314139, 0.03793908, -0.48188707, 0.030619264, -0.42658418, 0.53042066, 0.37321725, 0.73142445, 0.075656705, -1.1743312, 0.63198096, -0.6749517, -0.48216426, 0.103360094, -0.23179626, 0.25548095, 0.30823338, 0.2707937, 0.063509226, -0.40514156, -0.45292363, 0.3683286, 0.1309823, 0.030058093, 0.021711873, 0.3363693, 0.3992645, 0.28424707, -0.25638497, 0.6806493, 0.73074496, 0.041116565, 0.25340855, 0.13253202, -0.15396442, -0.2992204, -0.26385742, -0.09723084, -0.034622677, -0.694252, -0.16363049, -0.21738397, -0.88250834, 0.33562636, -0.20585698, -0.28589237, 0.25054052, -0.48652384, 0.9858924, -0.3619292, 0.23167065, 0.3176471, 0.49889362, -0.14514288, 0.611153, 0.19402635, 0.56827486, -0.73201597, 0.008753359, -0.3513509, -0.62204736, -0.26438835, 0.14024878, -0.02690481, 0.05035701, 0.26624092, 0.3392997, -0.2933991, -0.73597634, 0.19425382, 0.6618843, 0.1327045, 0.49419737, -0.34141007, -0.428896, -0.5020241, -0.09917171, -0.43322027, -0.6984434, -0.08940152, -0.4299623, -0.16136903, 0.3846766, -0.024875207, -0.13066214, -0.56452286, -0.20305282, 0.35755712, 0.2888802, -0.437, -0.14341052, 0.43735814, -0.03570421, 0.48441374, 0.55602086, 0.41649377, -0.12702411, -0.23310038, -0.337052, -0.03446831, -0.0062359474, -0.15331915, 0.23281042, 0.028298855, -0.24876963, -0.23900639, -0.13751823, 0.37086317, 0.4042041, 0.6504827, 0.2714127, 0.015529132, -0.33563328, -0.42174834, 0.021057332, 0.50941014, 0.5860427, 0.49825996, -0.48788774, -0.34728408, 0.9774956, -0.5854573, 0.10829088, 0.52805746, 0.26883885, 0.30113423, -0.024426877, 0.38957274, 0.17870401, 0.2909084, -0.18321806, -0.25469437, 0.5251614, 0.030575322, -0.28496042, -0.35760206, -0.4139222, -0.7804077, -0.40287882, -0.012916234, -0.111810975, 0.64630896, 0.6287937, -0.3898197, 0.06965414, 0.33995888, 0.44475645, -0.020839296, 0.060640916, 0.37416163, 0.47731176, -0.42565268, -0.31540903, 0.014955395, 0.8708529, 0.40925315, 0.06219501, -0.21396434, -0.5050086, 0.56276155, -0.016739033, -0.18445215, -0.09797872, 0.5825917, 0.36395705, 0.43346792, -0.056368604, -0.49181026, 0.88468814, -0.100762986, 0.30209032, 0.15123636, 0.6177176, 0.3067167, -0.0675126, -0.5847731, -0.26046693, -0.37940955, -0.0758039, -0.3159898, -0.59109, 0.07100912, -0.02250912, -0.3565877, -0.3801483, -0.5004453, -0.4014102, 0.42306927, -0.4230074, -0.037765905, -0.64346075, 0.18768585, 0.40486556, 0.31654084, 0.040197115, -0.08076392, 0.45164695, 0.5197124, -0.45061842, 0.7233889, -0.22736637, -0.7493971, -0.61943233, -1.1800504, 0.47997606, -0.7601299, -0.19024992, 0.64274514, -0.0605696, -0.11759509, 0.665419, 0.31180972, -0.48907962, 0.11326279, -0.48191378, 0.11950232, -0.010843847, -0.3894071, 0.12771648, 0.16594394, -0.79857844, -0.12780476, -0.9182377, -0.86882675, -0.31980765, -0.056103256, -0.2214563, -0.038074724, 0.20324992, -0.3244909, 0.00016763475, -0.27978933, 0.41634, -0.16454695, -0.53554237, -0.14756319, -0.46640015, 0.35767308, 0.08038556, 0.27442655, 0.23703116, 0.10024308, 0.24211237, -0.29409233, -0.06106036, 0.40749153, -0.7264261, -0.49612066, -0.3329896, -0.5470497, -0.85390466, -0.0417464, 0.10590728, 0.1729402, -0.31307894, 0.11293402, 0.76272064, -0.120574184, -0.43975386, -0.29942197, -0.3227723, -0.21998128, -0.08799548, 0.9785494, 0.47722352, -0.5336008, -0.8616401, -0.1782892, 0.28229344, -0.058352742, -0.14647418, 0.37039366, -0.7722261, 0.4074692, -0.2619846, -0.21045001, 0.43141866, 0.21482748, -0.032694977, -0.15196103, -0.32539585, -0.2862116, -0.031403635, 0.38239256, -0.5745722, 0.055896215, -0.3226241, -0.029293315, -0.26893908, -0.111046724, -0.34245354, -1.0006534, -0.16642568, -0.026003549, 0.16077657, 0.48190615, 0.05037364, 0.20483665, 0.066524945, 0.054914545, 0.23527053, -0.3696401, 0.70053566, 0.09646395, 0.23699014, -0.4102364, -0.81150615, 0.99220437, -0.0039065084, 0.20087327, -0.3453235, 1.1345172, -0.37053218, 0.50313926, 0.0026374012, -0.10368165, -0.26217216, 0.40415892, 0.21122749, -0.13676469, 0.59630716, 0.51215726, -0.42586297, -0.15966111, -0.0861417, 0.31288084, -0.18960628, -0.12683505, 0.26567414, -0.01593204, -0.2750746, -0.521599, -0.018218355, 0.4192288, -0.23669614, -0.25830853, -0.17474534, -0.39831132, -0.477186, -0.70806736, -0.13103037, -0.22963794, -0.031503543, 0.038736448, -0.2785744, -0.18213148, 0.0950421, 0.45802006, -0.26503575, -0.06849918, -0.625225, -0.13644935, 0.3508538, -0.29084283, 0.069510855, -0.30549645, -0.677696, -0.45708954, -0.4646795, -0.21358448, 0.40557122, -0.42487055, -0.34348375, 0.028657947, -0.015347172, 0.10400848, -0.16391431, 0.71624815, -0.5712374, 0.4657329, 0.022584358, -0.005467268, 0.053748842, 0.4512761, -0.2618197, 0.043855112, -0.1329537, 0.3481065, -0.13119002, -0.4118221, -0.2682758, -0.022477295, -0.3920062, 0.14953409, 0.9495329, -0.3702748, 0.46040976, -0.19908859, 0.0697905, -0.6748298, 0.7965111, 0.64357305, 1.0204542, 0.21661197]</t>
-        </is>
+          <t>[-0.29497948, -0.49669638, 0.054015808, -0.74700934, -0.04013094, -0.4596321, -0.38562983, 0.30459696, 0.2918735, -0.19903356, -0.64002866, -0.37893805, -0.44575876, -0.022358239, -0.070526764, 0.11419469, 0.16548088, -0.045358688, -0.12330414, -0.816296, 0.25548488, 0.59071547, 0.4956716, 0.9243721, -0.23441109, 0.36290786, 0.08181796, -0.11011976, 0.43463516, -0.21098542, 0.0837415, 0.29176205, -0.034792464, 0.14725265, 0.7620427, 0.6042808, -0.69926584, -0.3886515, -0.24052987, -0.4373642, -0.47765082, -0.27320173, -0.46328917, 0.050251625, 0.051763486, -0.6174444, 0.002614221, -0.18438852, 0.32260573, -0.18976685, -0.4863742, -0.07846971, 0.59431875, 0.9946438, -0.04689458, -0.0017429233, 0.23255213, -0.3126779, 0.6809041, 0.0084938705, 0.7080896, -0.36168116, -0.16631392, 0.8279835, 0.54135287, 0.19693717, -0.55662596, 0.09221356, -1.0873232, 0.33342472, 0.020820295, 0.4398335, -0.013406122, -0.50823396, 0.071421534, 0.17538944, -0.07746493, 0.18359903, 0.3707827, 0.11515763, -0.34274602, -0.18660657, 0.5380985, -0.6054865, -0.0071936743, -0.41473454, -0.037627615, -0.14874114, -0.027630117, -0.6884391, -0.63735557, -0.24671659, -0.35130382, -0.30592003, -0.422575, 0.026905367, 0.5190171, -0.020879963, 0.6472306, -0.10804851, 0.22772384, -0.03898991, 0.3785035, 0.50290096, 0.14831516, 0.13059458, -0.35803467, 0.41918454, -0.7226174, 0.3400516, 0.5520765, -0.36427397, 0.46476397, -0.31977186, 0.18855439, 0.022742605, -0.50806993, -0.20779283, -0.003580448, 0.2278004, 0.36366954, -0.86738837, -0.48646155, 0.15577498, -0.71647197, 0.66423726, 0.9787407, -0.5810355, -0.037361506, -0.31852913, -0.23228507, -0.0033440024, -0.3264053, -0.13515994, -0.40312713, -0.5064457, 0.37408376, -0.11753993, 0.19463654, 0.32262614, 0.4042925, -0.037757494, -0.24502106, -0.3743609, -0.07462975, -0.14976081, 0.5325516, -0.5136531, -0.23277266, -0.3421544, -0.26720265, 0.42929435, -0.38422966, 0.13912025, 0.1468163, -0.50562036, -0.37237957, -0.13849273, 0.046504226, -0.03063043, 0.070745304, -0.44752163, 0.050685067, -0.40504327, 0.4733983, -0.18704288, 0.70823836, -0.011924168, 0.009371543, -0.2626347, 0.24697189, -0.019811649, -0.15135989, -0.35524803, 0.23729034, 0.030189645, -0.105826974, -0.027574206, 0.39342773, -0.44184843, -0.04066358, 0.6014603, 0.00645618, 0.38512117, -0.021421079, 0.2799624, -0.22771375, -0.18765108, -0.58269763, -0.8591687, 0.27243516, 0.15460275, 0.02646417, -0.22878656, 0.15893154, 0.25532994, -0.06905421, -0.21261963, -0.14111958, 0.37794155, -0.6150975, 0.2389698, 0.46918648, 0.45146435, 0.28353253, -0.0029841438, -0.21426487, -0.05514667, 0.3009142, -0.44992876, -0.34279722, 0.83534336, 0.21832475, 0.23530066, 0.16419855, -0.11401068, -0.54580367, -0.25846872, 0.118910156, 0.29355866, 0.17334065, -0.2799669, 1.0692642, -0.5629988, -0.41499847, -0.6583706, 0.41986784, -0.0151081085, -0.13547142, -0.23494855, -0.079049304, -0.7505979, -0.5562166, -0.9562317, -0.1827678, -0.52137774, -0.17227003, 0.21843696, 0.25243652, -0.65329665, 0.050018, 0.16843489, 0.4242185, -0.1954324, -0.06984699, -0.36589277, -0.15942138, -0.62403196, 0.26603934, -0.59429073, 0.55862236, 0.8473975, -0.08247027, 0.38510224, 0.25643325, -0.60500497, -0.44786057, 0.41801134, -0.32585466, 0.34990105, -0.14522909, -0.32577714, -0.07547251, 0.25824752, 0.13852873, -0.23053439, 0.022653926, -0.26998731, 0.3635234, -0.050558515, -0.06890539, -0.33947265, 0.454827, 0.095195495, 0.16276145, 0.22941872, -0.39085054, 0.51037997, 0.3129046, -0.039051123, 0.80453664, 0.36820912, 0.3966106, -0.3192644, -0.04000644, 0.18157415, -0.069680825, -0.46337444, -0.18865994, -0.7803558, 0.2157077, 0.10844773, -0.17567651, -0.974525, 0.19925852, -0.20867996, -0.41983742, -0.17301224, 0.015062752, -0.32271323, 0.51452583, -0.08663775, -0.382404, 0.48470125, 0.055283643, 0.25280815, -0.8369123, -0.28089008, -0.14997756, 0.7624439, -0.08927107, -0.2251668, -0.022588873, -0.08366632, 0.26439267, -0.3720288, 0.19451769, -0.5929655, 0.32407743, 0.07397363, -0.5156333, 0.18504676, 0.04690034, -0.18387565, 0.31071112, 0.5449031, -0.20532167, 0.5054594, -0.86005723, -0.011406988, -0.5055168, -1.1840659, 0.38317266, 0.12613484, -0.2698069, -0.068875454, -0.08783388, -0.29389697, 0.00018106848, -0.061496653, 0.13405183, 0.24224707, -0.67535776, 0.3247698, 0.21582861, 2.351893, 0.16077359, -0.2432416, 0.37529916, -0.51749736, -0.29119968, 0.22175357, 0.13999274, 0.07961897, 0.3829506, 0.4215544, 0.3635017, 0.3734986, -0.13534437, 0.15156741, 0.5897268, 0.11991843, 0.5090257, -0.17663045, -0.021912182, 0.45073432, -0.7208788, 0.60561943, 0.004141414, 0.44109783, 0.40863594, -0.150125, 0.8522301, -0.7959072, -0.3492436, -0.268681, -0.38716614, 0.55937105, -0.08404245, 0.41819733, -0.22844326, 0.60366005, -0.09328639, -0.77720976, 0.0007275104, -0.36339504, -0.46337, 0.075627, -0.27523574, 0.10966039, 0.23858735, 0.5026912, 0.11007047, -0.3159608, -1.0597749, -0.22151211, -0.45241016, -0.6689306, -0.2620384, 0.019468674, -0.40552244, -0.19458704, 0.29315558, -0.14080437, 0.3516769, 0.07847373, 0.57989734, -0.78772736, 0.2070206, -0.28683224, -0.64086056, -0.086426295, -0.35832766, -0.80275565, 0.049632438, 0.010516902, 0.2941473, 0.2665843, -0.3551286, -0.26388702, 0.36906394, -0.36778513, 0.3719924, -0.44167715, 0.2763023, 0.44610223, -0.8101093, 0.280367, 0.06367549, 0.18673894, 0.289094, 0.1002954, 0.012879431, 0.2657101, -0.35457858, -1.0193285, -0.15190963, 0.2863086, -0.11384444, 0.025227869, 0.37410226, 0.48623648, -0.11124313, 0.52888453, -0.46358657, 0.04428353, 0.16419709, -0.7129852, -0.480249, 0.1224802, -0.36795437, -0.49226084, 0.21040645, -0.75080013, -0.73134583, -0.054265536, 1.1536165, -0.08793323, 0.32566473, -0.04162433, -0.02379248, -0.0055083483, -0.17785497, -0.46787095, -0.24357419, 0.450097, 0.59339774, 0.50219846, -0.009463429, 0.40186223, -0.3678401, -0.26609167, 0.0169145, -0.09329362, 0.158314, 0.0027072728, -0.1762555, 0.05102458, 0.26012588, 0.0010249645, -0.1630057, -0.5418509, 0.2938816, -0.05461524, 0.24257421, -0.102826044, -0.42577967, -0.22460487, 0.12252198, 0.07121559, 0.12863293, 0.38853157, -0.47393113, 0.0754505, 0.5480077, -0.8128565, -0.31662747, 0.20105386, -0.19879195, 0.30901045, 0.049864195, 0.011284781, 0.00045866967, -0.38180944, 0.3542351, -0.18793924, -0.04847319, 0.17122313, -0.27184668, 0.16696772, -0.2730125, 0.24769, 0.54838246, -0.014615966, -0.023751985, 0.88354874, -0.35562634, -0.15263104, -0.46900988, 0.16117117, -0.26633793, -0.27367887, 0.32490295, 0.03857795, -0.33343098, 0.27380732, 0.14999528, -0.065131426, -0.14359358, 0.28916052, 0.102711655, -0.87739307, -0.09719254, 0.38567692, 0.29392034, 0.06879832, -0.56214905, 0.53164196, -0.73953885, 0.37243497, 0.29273954, -0.32948256, 0.44606772, -0.07989673, -0.11503871, -0.02419585, 0.27088147, 0.6257208, -0.026086247, -0.113445, -0.19986942, -0.6640588, -0.44409245, -0.81513536, -0.30581295, -0.46156222, -0.14006892, -0.108244754, -0.42334127, 0.17351273, 0.06670964, 0.5634433, -0.1823816, 0.10671562, -0.2292444, 0.18750544, 0.42638126, 0.5562647, -0.14230138, -0.013773739, 0.4638142, 0.36847422, 0.11921857, 0.31892496, -0.27767855, -0.8134844, -0.6184817, -0.36096075, 0.5838399, -0.31836808, -0.2772055, 0.66316926, -0.14042285, -0.23669478, 0.6057147, -0.2956649, 0.23010007, 0.44775724, -0.6547561, -0.57613856, 0.17458849, -0.22877482, 0.6050526, 0.3244515, -0.52851576, -0.30425283, -0.21191406, -0.80276954, -0.018824536, -0.08395891, -0.08139857, 0.6677121, -0.40869063, -0.9580269, -0.14544535, -0.5327109, 0.710993, -0.2804934, -0.27808964, 0.3319532, 0.3572085, -0.4664902, -0.26191798, 0.01947599, -0.15167113, 0.05256368, -0.65963554, 0.41937485, 0.13262025, 0.8783797, -0.4033708, -0.45272103, -0.6921021, 0.30206022, -0.21060757, -0.041417636, 0.14144003, -0.25888643, 0.23660728, -0.04045803, 0.045392424, -0.06690982, 0.21414396, -0.9104837, -0.072958514, -0.64570737, 0.08896325, 0.039961174, -0.115990244, -0.8999098, -0.529597, -0.1106532, -0.4505281, 0.20259032, -0.47702426, -0.008929199, -0.44489318, -0.4556951, -0.42580968, -0.28537223, -0.10158805, 0.3483948, -0.036753666, 0.3280136, 0.2817877, -0.45586324, -0.2429585, 0.13472345, 0.01364443, 0.25062153, 0.05465882, -0.41971263, 0.0027585656, 0.03643791, -0.3742115, -0.5370962, -0.045980625, 0.050887693, 0.6682776, 0.09247272, 0.4395635, 0.38202465, -0.4060691, -0.1497561, -0.23787281, 0.21153477, 0.32199812, -0.16795038, -0.20554905, -0.22367093, -0.2920205, -0.3014987, 0.13335171, 0.0998355, -0.22886832, 1.1101851, 0.2595653, -0.46547303, 0.20597187, -0.43465647, 0.2702896, 0.2729263, 0.18971606, -0.44657642, 0.3990832, 0.82769096, 0.10224302, -0.3104759, 0.22738823, -0.15258247, 0.6004431, -0.2576924, -0.75896704, -0.46426105, -0.2387443, -0.2280756, -0.38216916, -0.3244234, -0.493124, -0.11254642, -0.39905843, 0.048683323, -0.30568737, 0.5682173, -0.11211576, 0.12478073, 0.029782623, 0.34128493, -0.010190606, -0.81777173, -0.24799952, -0.056317568, 0.08464413, -0.78654724, 0.37927464, -0.3944312, 0.14429894, -0.5737194, -0.615311, -0.040446434, -0.40826935, -0.23276624, 0.30318052, 0.26289353, 0.23031041, 0.005270007, 0.2594443, 0.6412462, -0.30247602, -0.08911251, -0.3988557, 0.109956995, 0.1943933, 0.46861774, 0.52071977, 0.2669571, -0.10278734, 0.59100115, 0.14067724, 0.013918745, 0.35544783, 0.36211115, 0.31924433, -0.08738162, 0.024404977, -0.37074435, -0.74111485, 0.046270482, 0.4866922, 0.36065146, 0.26065272, -0.19256778, -0.32966688, 0.20861402, 0.41738462, 0.47533685, 0.057504833, -0.4376256]</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.3111881613731384</v>
       </c>
     </row>
     <row r="15">
@@ -844,24 +900,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>식품 물성 측정 장치는?</t>
+          <t>Texture profile analysis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>다양한 장치가 있는데, 보편적으로 texture analyzer 를 추천합니다.</t>
+          <t>저작을 모방한 물성 측정 방법으로 시료를 2번 눌러 물성을 측정하는 방법입니다.</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>식품 점도는 어떻게 측정하나요?</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[-0.23906857, -0.521544, 0.15166576, -0.7127284, -0.18477726, -0.51940984, -0.15941088, -0.5053481, 0.008428167, -0.34057352, -0.30270207, -0.1769926, -0.11565953, -0.056491844, -0.25629508, -0.17486578, 0.18354627, 0.062874526, -0.33869866, -0.6002647, -0.4141424, -0.12143854, 0.13642819, 1.1428454, -0.67885864, -0.44965655, -0.26238945, 0.3241553, -0.05684264, -0.5998665, 1.1519622, 0.036908053, -0.1832661, 0.36944658, 0.16417892, 0.22670895, -0.6139482, -0.14941938, -0.06343505, 0.092337124, -0.5835015, 0.3014672, 0.19479339, 0.32082072, 0.25027812, 0.33322415, 0.27614117, 0.011170823, -0.107600845, -0.11362954, -0.47141397, -0.027151778, 0.0007850677, 0.54906297, -0.6407602, -0.10671794, 0.20371604, 0.30929682, 0.39906803, -0.6631048, 0.25606358, -0.32915804, -0.31642395, -0.2657706, 0.1972487, -0.6336604, -0.30836856, -0.12057707, -0.68278337, 0.1816417, -0.52845436, -0.18148226, 0.2545235, -0.24882287, 0.57118005, 0.2732427, -0.3433746, -0.009294851, 0.3761914, 0.52237993, -0.31609568, -0.23282059, -0.026178796, -1.0108181, 0.28105927, -1.0463594, -0.3569405, -0.6393422, -0.22743805, 0.26746318, -0.07468318, -0.21537341, -0.18949643, 0.12598453, -0.52477014, 0.41799197, -0.27298817, 0.36446774, 0.198665, -0.1332569, -0.23561017, -0.10677556, -0.4650582, 0.96835285, 0.46285275, -0.31365696, -0.29662472, 0.27072027, 0.12338429, -0.30735582, 0.13019389, -0.6765968, 0.3655166, -0.3651747, 0.16349599, 0.4558886, -0.31151786, -0.41442135, -0.08499119, 0.18538111, 0.15025145, -0.16426073, 0.10310154, 0.4878818, -0.13469207, 0.24238685, 0.40656096, -0.2434625, 0.51040417, -0.4555972, 0.120633245, 0.58973336, 0.345268, 0.34939507, -0.61130553, -0.3491655, -0.13405429, -0.26481995, 0.66066384, 0.6764781, -0.44608772, 0.17477739, -0.11238878, 0.22406133, -0.4666438, -0.25149846, 0.34308562, -0.3295691, 0.13685386, -0.5609647, -0.26568562, 0.060334206, -0.9294213, 0.0016638371, -0.09636445, 0.16118209, -0.21777885, -0.41055772, 0.12680188, -0.039953135, 0.17098041, 0.5012085, -0.60625446, -0.11371977, 0.58837247, -0.6038047, 0.5730414, 0.057495527, 0.73810494, -0.3445643, -0.51027113, -0.109682746, 0.74796325, -0.27117562, 0.18115981, -0.3281635, -0.53635484, -0.10395053, -0.40872848, -0.4956052, 0.41930825, 0.42644385, 0.28825057, 0.071624964, 0.55999136, 0.25315765, 0.2779268, -0.03577326, -0.71197087, -0.5161871, 0.6342447, -0.5439362, -0.3468331, -0.25763345, 0.06502385, 1.0830729, -0.53126174, 0.34298724, -0.28890947, 0.16235922, -0.17835172, 0.6233879, -0.3889867, 0.8312176, 0.40622517, 0.39388597, 0.36882907, -0.14675872, 0.30364108, -0.39100063, 0.45206293, 0.41487488, 0.033286892, -0.08470691, -0.21504936, -0.9889926, -0.33872253, -0.21713267, 0.15738997, 0.41034874, 0.4208627, -0.30806696, 0.033147845, -0.71198356, 0.15583614, -0.49799055, 0.35945842, 0.9066894, 0.12415102, 0.05248777, -0.022148972, -0.12383078, -0.25898218, -0.17237335, 0.07446941, -0.61715174, 0.5365719, 0.52978665, -0.9186223, 0.09020539, -0.12430331, -0.1419833, -0.32620397, -0.05896701, -0.24014372, 0.08525515, 0.20270115, 0.22838221, 0.02874342, -0.2907025, -0.0032921385, 0.13121809, 0.03577662, -0.3568371, -0.040234733, -0.5075848, 0.3583187, 0.22174531, 0.04593423, -0.11709668, 0.14052719, -0.012181312, -0.4915734, -0.16179334, -0.063005954, -0.38381004, 0.46561277, -0.53907484, -0.18795982, -0.32017195, 0.04126192, -0.02556976, 0.32792795, 0.1657557, -0.21176349, 0.5946208, -0.6010043, 0.6020763, 0.46162975, 0.23189323, -0.31351832, 0.21770905, 0.3001012, 0.3679717, 0.4738777, -0.41103226, 0.032934155, -0.39157173, -0.087436974, -0.37230238, -0.4917052, -0.14181533, -0.22121446, -0.8277526, 0.15904401, -0.33533183, -0.8569712, -0.31816092, -0.33328688, 0.9697822, 0.3487766, 0.960657, 0.15626977, 0.24170388, -0.26433095, 0.04084704, -0.17989169, -0.27003524, -0.4971836, 0.817618, 0.2528361, 0.18473348, -0.15026477, 0.2631337, -0.33180928, -0.7302182, 0.31422243, 0.23247825, -0.10953042, 0.22954294, -0.43507153, 0.3959053, -0.40304744, -0.6513906, 0.47488308, 0.5622415, 0.40357342, 0.23407534, -0.33776188, -0.30383515, -0.9282923, -0.515641, 0.073247716, 0.1214094, -0.51531196, -0.64460695, 0.05052992, -0.33968803, -0.1809248, 0.13084142, 0.16419643, -0.12690999, -0.44308, 0.25532353, -0.61853254, 1.7369022, -0.06432964, -0.4939227, 0.071909614, -0.42663965, -0.15376197, -0.15965354, -0.2646429, -0.22665869, 0.18446228, 0.15208581, 0.014692253, 0.7390325, 0.1552797, -0.24319202, 0.7677157, -0.16842169, -0.070510596, 0.5812609, -0.09772977, -0.13446277, -0.39636856, 0.526733, 0.3229993, 0.34071243, 0.44629124, -0.50727427, -0.25622818, -0.846008, 0.07992833, 0.033681653, -0.3361498, -0.11134113, -0.30623245, 0.41691703, 0.24279097, 0.72270834, 0.11485115, -1.200638, 0.7059965, -0.7652133, -0.30906495, 0.02711085, -0.20242406, 0.3493313, 0.30140278, 0.3619403, 0.102506086, -0.51285416, -0.41334438, 0.20952876, 0.25467497, -0.049531225, -0.23830527, 0.4136523, 0.33540237, 0.32076, -0.28582677, 0.77264553, 0.7695725, 0.021619108, 0.21474828, 0.09034088, -0.11183858, -0.3185096, -0.1407147, -0.084661305, -0.061942738, -0.78988713, -0.22098155, -0.20750567, -0.84866595, 0.37644613, -0.20063305, -0.23271288, 0.22292572, -0.40471366, 0.91520953, -0.14471471, 0.19622473, 0.25506645, 0.41443574, 0.031787124, 0.7629459, 0.013575243, 0.69059926, -0.75095123, 0.051386252, -0.28722984, -0.67464143, -0.3821841, 0.19627182, -0.21147889, 0.15503639, 0.14970748, 0.3264057, -0.42469734, -0.6491301, 0.2919349, 0.51062554, 0.16532493, 0.49192742, -0.22609244, -0.32449436, -0.5564973, -0.05315384, -0.66133577, -0.8174785, 0.12666534, -0.4677957, -0.093013234, 0.4267834, -0.11503932, -0.1797167, -0.59068614, -0.3871199, 0.35489044, 0.30940568, -0.46202707, -0.18484238, 0.5385877, -0.11126476, 0.3555976, 0.5618732, 0.3559048, -0.19701529, -0.114612035, -0.25385454, -0.05289634, -0.056965385, -0.20419866, 0.17733508, 0.11243983, -0.34319946, -0.21169901, -0.39361942, 0.3624162, 0.2655244, 0.56308365, 0.35447124, 0.12985665, -0.33971953, -0.22145802, -0.06327399, 0.47379643, 0.5761166, 0.35182562, -0.4052245, -0.5487269, 0.92296493, -0.33475104, 0.15341419, 0.59837896, 0.15025122, 0.23464483, -0.038681146, 0.41646275, 0.27197665, 0.31478608, -0.2144528, -0.3701093, 0.393826, -0.032611314, -0.33643734, -0.25354183, -0.45228386, -0.8606567, -0.33978766, 0.16917652, 0.02363061, 0.6950214, 0.4803039, -0.3632282, 0.2551452, 0.3208834, 0.4055832, 0.027628165, 0.119538106, 0.32398865, 0.563069, -0.26861754, -0.24811567, -0.03465501, 0.655698, 0.4091771, 0.15094025, -0.2768129, -0.48754132, 0.5820712, -0.016388671, -0.20071384, -0.27375615, 0.4642682, 0.17219847, 0.46585834, 0.09218972, -0.34390947, 0.94299984, -0.15344515, 0.3423617, 0.117365055, 0.60309345, 0.27670628, -0.030636184, -0.5617674, -0.26301625, -0.44809887, -0.16041052, -0.24117327, -0.44116056, 0.0028128326, -0.06647583, -0.259071, -0.3266084, -0.49885193, -0.37341404, 0.35094044, -0.43058217, -0.052260093, -0.5137514, 0.3536998, 0.29867768, 0.28675932, -0.09386925, -0.1713277, 0.2806073, 0.5084273, -0.4832842, 0.7544593, -0.27863443, -0.6718328, -0.5124234, -1.3267163, 0.37863493, -0.82809174, -0.28306296, 0.48944172, -0.06305829, -0.13673688, 0.70458657, 0.37001333, -0.54229724, 0.08753635, -0.5755923, -0.0013796339, 0.23793228, -0.35148537, 0.043754518, 0.09366056, -0.7745464, -0.1788379, -1.0100169, -0.9834192, -0.39133245, 0.027104363, -0.24992892, 0.18945253, -0.00818889, -0.44042417, 0.1617015, -0.22091098, 0.44940773, -0.19663447, -0.4785007, -0.23132282, -0.38217464, 0.43846905, 0.13217045, 0.17205842, 0.18038586, 0.0033949646, 0.49725458, -0.35170963, 0.017659616, 0.32635915, -0.5126912, -0.4878869, -0.28154537, -0.50616586, -0.8221641, 0.0026433368, 0.15055707, -0.09125482, -0.35488495, 0.12078839, 0.5924126, -0.23019242, -0.32717255, -0.30922744, -0.369607, -0.24853022, 0.08601568, 0.978544, 0.39107287, -0.55875546, -0.950016, -0.20806265, 0.27719033, -0.107986696, -0.08303864, 0.30701578, -0.89118385, 0.35734698, -0.2111969, -0.1162052, 0.2589576, 0.20790043, -0.02156941, -0.207253, -0.10047574, -0.10592233, 0.05171456, 0.4412771, -0.47587436, 0.05222528, -0.3449813, -0.19440204, -0.17376307, 0.07395362, -0.29394817, -1.0188775, -0.11193219, 0.002825588, 0.104024224, 0.46412054, 0.01232279, 0.13255058, 0.081753, -0.062980145, 0.2465828, -0.29715255, 0.5828873, 0.23008639, 0.24327803, -0.4389758, -0.67441547, 0.8933911, 0.052082375, 0.2284028, -0.33207583, 1.0875373, -0.3754276, 0.48447418, -0.13264579, 0.0733421, -0.21899109, 0.39627245, 0.16621852, -0.14859255, 0.63937867, 0.43162465, -0.6368181, 0.0069087753, -0.08740672, 0.40641478, -0.11328268, -0.023685707, 0.17409433, -0.10411303, -0.3803245, -0.46666846, 0.12825435, 0.3406565, -0.14964277, -0.28572014, -0.2998408, -0.385376, -0.3634776, -0.6722532, -0.16475596, -0.14423826, -0.13902813, -0.029745089, -0.39708197, -0.14442185, 0.13092797, 0.5168345, -0.17083131, -0.057941947, -0.77898824, -0.20549828, 0.39321503, -0.36682135, 0.25810453, -0.24150413, -0.53696615, -0.44506025, -0.48831373, -0.25565526, 0.36958134, -0.4311835, -0.2549903, -0.10148898, -0.06617277, 0.038521886, -0.15636876, 0.6188871, -0.4111128, 0.5276452, -0.09588688, 0.10169339, -0.031428184, 0.44696835, -0.13715354, -0.061550293, -0.11426466, 0.3499053, 0.006989335, -0.39425442, -0.24308906, -0.012795915, -0.38561606, 0.10956468, 0.9777994, -0.35398996, 0.40477479, -0.14484297, -0.030893113, -0.6583775, 0.70653707, 0.6473757, 0.8395513, 0.32451934]</t>
-        </is>
+          <t>[0.6726091, -0.22903202, -0.2968077, -0.24405096, -0.2650757, 0.43850192, -0.23096766, 0.11515281, -0.16237797, -0.790759, -0.04874988, -0.0776201, -0.14712867, 0.09700029, -0.6038639, 0.5379603, -0.011812225, 0.115114816, -0.06142132, -0.19974776, -1.07401, 0.37255943, -0.18640856, 0.107576996, -0.24815512, -0.93930495, 0.017107422, 0.24336945, -0.17684875, -0.040579174, 0.3301028, -0.15522324, -0.5774593, -0.07026598, -0.0011775765, -0.0011992123, -0.7687827, -0.07088068, 0.10346698, -0.36578587, -0.2583488, -0.06468696, 0.039833006, 0.18412389, -0.24544592, 0.74836636, -0.3670689, 0.3587892, -0.700983, 0.44061518, 0.025437009, -0.14088623, 0.4963322, -0.09623289, -0.32685715, 0.043648567, -0.7349606, -0.36634362, 0.28056276, -0.42968282, 0.26483068, -0.21422535, 0.070842214, 0.49901712, -0.28398564, -0.38023338, -0.3331729, -0.30616376, 0.14603385, -0.29307333, 0.25564596, 0.28935096, 0.44638994, -0.011192975, -0.17685783, 0.18469639, 0.021462802, -0.13237989, 0.71969235, 0.15743509, 0.40070906, -0.6160181, -0.4599286, -0.11529278, -0.47876674, -0.27949575, 0.16595821, -0.6149808, -0.79303074, 0.17113025, -0.17399955, -0.2676866, -0.28642198, -0.23450288, -0.2611852, 0.23640881, 0.18590383, 0.09283329, 0.3117789, -0.1187776, -0.5247385, -0.07302037, -0.14531454, 0.9271809, 0.3620934, 0.03052214, -0.50677305, 0.10689354, 0.45892018, 0.039701875, -0.046603657, -0.23582597, 0.023663439, -0.25549698, 0.62248063, 0.36809227, -0.40052462, -0.111046724, -0.29299703, 0.12226686, -0.7659139, -0.6204253, -0.423115, 0.3543959, -0.3272044, 0.15448835, 0.38453162, 0.4926507, 0.2449703, -0.52616066, -0.27333304, -0.10431874, 0.8333135, -0.38554665, -0.9401074, 0.24937235, -0.22271396, -0.121823356, 0.6464458, 0.41712752, 0.22685312, -0.5995916, 0.53671044, 0.28810886, 0.26967457, -0.26296416, 0.7593451, -0.28086355, 0.1423573, -0.08876285, -0.57919794, -0.16116644, -0.2589719, 0.016104905, 0.029799847, -0.44378737, 0.101676345, 0.42899868, 0.18126656, 0.1560029, 0.07711932, 0.12181249, -0.2584677, -0.16639414, -0.04497903, 0.18401437, 0.004647076, -0.11546698, 0.2729892, -0.7294655, -0.12041378, 0.24620257, 0.29557154, 0.76718765, -0.6368933, 0.9264605, 0.007296917, 0.16305853, -0.33802822, -0.335436, 0.46170065, 0.41136894, 0.093608506, -0.34144157, 0.34368575, 0.02903827, 0.25257695, -0.10105042, 0.6596078, -0.43443185, 0.11676849, 0.20473957, -0.37925673, 0.37753087, -0.28728944, 0.44537404, -0.81148756, 0.017972596, 0.56682575, -0.22366767, -0.4572487, 0.37753904, -0.22139272, 0.6282327, 0.44136044, 0.6264646, -0.6538296, -0.20214048, 0.1408397, -0.38993075, -1.0621886, 0.23757766, 0.18299814, -0.031931754, 0.5905871, 0.25434005, 0.638369, 0.47973844, -0.14574052, 0.005328849, -0.10809155, 0.1117621, 0.10818061, -0.019286186, 0.026428014, -0.7661876, -0.004646438, 0.8024016, 0.25882828, -0.13745487, -0.5339182, -0.2907729, -0.4040325, -0.069973394, 1.310535, 0.007496709, 0.80463123, 0.55034775, 0.26479247, -0.7884648, -0.20860082, 0.6135146, 0.19110551, 0.11929303, 0.11317664, 0.016432293, 0.43032864, -0.39206454, 0.4963442, 0.29977456, -0.0004580793, 0.30895782, -0.6436483, 0.19735478, 0.159113, -0.28736386, -0.25360537, 0.31745335, 0.024416568, -0.5383456, -0.28292197, 0.47819215, -0.53163475, -0.6492912, -0.3176393, -0.3223709, 0.621128, -0.319533, 0.2951998, -0.42011833, 0.15537858, 0.113663, 0.44414502, 0.23386782, 0.20459582, 0.1902012, -0.1942315, 0.16042429, -0.08908746, -0.5186791, 0.37003615, 0.2880488, -0.05703586, 0.018370707, 0.286145, -0.5640438, -0.15059118, -0.23520042, -0.25077128, -0.4677591, 0.43052423, 0.34944347, -0.30900264, -2.0872462, -0.13439673, -0.14172374, -0.0977149, -0.60637814, -0.033912823, 0.026254596, 0.18343934, 0.29407498, -0.26832047, 0.8653339, 0.5327601, 0.03926352, -0.45932344, -0.23562093, 0.06991467, 0.5990764, -0.44779614, -0.27391386, -0.8027478, -0.015524733, 0.39469194, -0.5961092, 0.03811626, -0.1244074, -0.11955855, -0.26172155, 0.4770857, 0.56100816, -0.25306603, 0.26006854, -0.62777334, 0.09476911, 0.004446041, -0.095749386, 0.43869153, -0.1930802, -0.44556695, -0.7394152, 0.80639803, -0.201336, -0.019168025, -0.8496444, -0.020505222, -0.35352817, -0.24824294, 0.2802935, -0.23019503, -0.15268718, -0.5023671, -0.106019616, 0.51414925, 0.91988236, 0.16492678, 0.17626712, 0.019458922, -0.20137958, 0.20466524, -0.67514515, -0.30682835, -0.13911761, 0.30925962, -0.15134138, 0.5304379, 0.15696922, -0.21947195, 0.2430338, 0.96652883, -0.35456374, -0.11283608, 0.11042015, -0.09582627, -0.26269868, -0.17918353, 0.68618816, -0.17538816, -0.2236709, -0.4239666, -0.18031022, -0.24885298, -0.30322018, 0.3009552, 0.38985145, 0.10565758, -0.51726675, 0.06493383, 0.02332818, 0.79065627, 0.35722134, 0.42629054, -0.53641087, -0.4103138, -0.47523987, 0.11172903, 0.19946527, 0.49833795, 0.19015656, -0.15444177, -0.59060997, -0.051450957, -0.07001105, 0.061202273, 0.16556233, 0.19100094, 0.41428795, 0.21867208, 0.38064864, 0.36933085, 0.35305375, -0.41380513, 0.09934661, 0.05140827, 0.068915196, 0.07276982, 0.6851399, -0.5041689, -0.24836016, -0.32815287, -0.43491614, -0.76989424, 0.41960242, 0.081914775, -0.3224722, 0.2751732, -0.3894374, 0.20052442, -0.43397415, 0.20459269, -0.5695709, 0.1252142, 0.123629354, -0.44031903, 0.6665431, 0.5429482, 0.32126638, 0.34013858, -0.34281698, 0.114939995, 0.10584805, 0.020228885, 0.0676605, -0.30808952, -0.1638909, 0.1314104, -0.028658645, -0.7306944, 0.2592993, -0.045046188, -0.38877127, 0.43444088, -0.357279, -0.21851377, -0.49993324, 0.3542944, 0.08401948, -0.10103347, -0.80412096, -0.79734784, -0.7059272, -0.3372234, 0.76933724, 0.5505569, -0.49759862, 0.3515074, -0.7844349, 0.02868224, -0.19763665, -0.36693898, 0.29679108, 0.30710796, -0.007977551, 0.25790143, 0.044098675, -0.17980137, 0.34923446, 0.41762152, 0.09058741, -0.2099083, -0.037694808, 0.48902044, -0.25424168, 0.44403073, 0.02603534, -0.27892348, 0.34743777, -0.42716962, -0.27651688, -1.5324439, -0.37433326, 0.35039192, -0.27477044, 0.5691962, 0.5716789, -0.2821321, -0.19182052, -0.1372599, 0.68511623, 0.42159262, -0.023770057, -0.30095047, -0.43516147, 0.19890231, -0.35765573, -0.09224393, 0.38168848, 0.28211647, 0.10177469, 0.044166334, 0.09189821, -0.23413795, -0.06460652, 0.21615623, 0.44314033, -0.08799246, -0.28118914, -0.363601, 0.114044905, -0.029048564, -0.9515535, -0.27090824, 0.90661544, 0.6236688, -0.04943875, 0.15517908, -0.19913465, 0.6716476, 0.31160885, -0.11080561, -0.08349543, 0.39713427, 0.68720156, 0.32843426, -0.43263882, -0.56338745, 0.13674603, 0.09277713, -1.1503137, -0.25290263, -0.037090335, 0.2632213, 0.36333972, 1.2923743, -0.82019496, 0.14789425, 0.010708739, 0.504905, 0.9298969, -0.1187015, -0.40410078, 0.68804526, -0.23842564, 0.11468086, 0.4397273, 0.35782498, -0.0046660225, 0.88377535, -0.5887752, -0.2671916, 0.40196344, -0.39026135, 0.2832511, -0.1309163, 0.20115323, -0.16594228, -0.061515633, -0.79073817, 0.48082495, -1.0506275, 0.1238438, -0.11183047, -0.43589708, -0.59690547, 0.46134272, -0.25114396, 0.47357473, -0.38107097, 0.3191127, 0.12760745, 0.62491333, 0.76013905, 0.11501659, 0.19101481, -0.22335096, -0.5252007, -1.0013499, 0.11715437, -0.5912559, 0.35087335, 0.21936521, -0.07156151, -0.13238299, 0.5228197, -0.0863264, -0.7048815, 0.045610547, -0.050816953, 0.5272659, -0.32903698, -0.6315493, 0.41745663, 0.21134669, -0.6473999, 0.11500285, -0.20345306, -0.6406427, -0.20235114, 0.3042032, 0.09335425, -0.27221882, -0.23282155, -0.09603036, -0.077646114, -0.32309726, 0.8627861, -0.1675212, -0.70170563, -0.30599496, 0.09274661, -0.57576555, 0.028667653, -0.17305182, -0.64657587, -0.1467966, 0.08890199, 0.08157998, 0.7688804, 0.14371213, 0.17872562, -0.054415356, -0.14459743, -0.0621775, 0.03638524, -0.10683063, -0.58158594, 0.19937533, -0.45682785, -0.75951385, 0.36802703, -0.28526357, 0.5577818, -0.31783837, -0.031303808, 0.08427482, -0.24066776, 0.26786488, 0.4844572, -0.33946216, -0.44378135, -0.5684921, 0.038108896, -0.41783664, 0.053465486, 0.46379086, 0.0018207702, -0.6109851, -0.36741382, 0.14298311, -0.3488163, 0.15104757, 0.6806448, -0.5682852, 0.1156621, 0.08956614, 0.47956276, -0.010261644, -0.9498392, 0.2530078, 0.34649178, 0.13417482, 0.26239145, -0.47776616, -0.58164304, -0.24363531, -0.52967143, -0.16386507, -0.28057376, -0.43597716, 0.7885012, -0.18305917, 0.069599755, 0.033819973, 0.19109993, -0.46644923, 0.40836012, -0.43949786, 0.5170115, -0.48152637, 0.585929, 0.27624094, 0.47541615, -0.6266343, 0.5739613, 0.19832025, -0.09265893, 0.5420584, -0.22807854, 0.02709533, -0.6535867, -0.35863188, -0.22602035, -0.54505473, 0.6645637, 0.4022597, 0.098583296, -0.12604104, -0.35824153, -0.19159012, 0.016799588, 0.43442422, -0.7614014, -0.69588536, -0.4799894, -1.06986, 0.0935764, 0.1754878, -0.8058697, -0.095204026, -1.3280936, 0.022884734, -0.13279554, 0.28333476, 0.021575868, -0.8648646, -0.14471865, -0.40864447, -0.15154625, -0.2056564, -0.036977466, -0.33671418, -0.62321997, -0.2903673, -0.041893132, -0.1767059, 0.06338466, -0.34854135, 0.3266493, -0.15982899, 0.58598924, -0.36678293, 0.046913102, -0.4889862, -0.033829052, 0.28181884, -0.1949984, -0.027112067, -0.05769014, -0.21312557, -0.13174202, 0.31983346, -0.48405325, -0.41353634, 0.6188814, 0.98005486, -0.29649282, -0.14365445, 0.54575664, 0.49809924, 0.20140864, -0.10196479, -0.25457272, 0.02201045, -0.224756, 0.28277814, 0.22118114, -0.2504163, -0.026430054, -0.85014343, 0.17023931, -0.35068056, 0.068129204, -0.43870717, 0.3507803, 0.5298933, 0.5999489, -0.098183826]</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1049728915095329</v>
       </c>
     </row>
     <row r="16">
@@ -870,24 +933,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>점도는 어떻게 측정하나요?</t>
+          <t>Texture analyzer는 무엇이죠?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>회전형 점도계를 고려해 보시죠.</t>
+          <t>식품의 물성을 측정하는 대표 장치입니다.</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>what's up?</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[-0.08294659, -0.23402815, 0.6442835, -0.55079985, 0.49848518, -0.12253289, 0.25834376, -0.08707752, 0.26456866, -0.11447735, -0.4753282, 0.0999246, 0.4524358, -0.07687895, -0.386733, 0.20310001, -0.1199374, 0.0061246245, -0.8632244, -0.043602068, -0.39500412, -0.094395325, 0.32788348, 0.31434703, -0.4111634, -0.084045276, -0.5529601, -0.45604977, 0.105844975, -0.63877696, 0.1952852, -0.2080979, -0.64304626, 0.34581858, 0.008588296, 0.25501585, 0.5185056, -0.052154668, 0.1266481, -0.14378938, -0.50987995, -0.3213017, 0.0011507332, 0.54600567, 0.3107334, -0.32634193, 0.19550028, 0.26934475, -0.512212, -0.055590052, -0.8594905, -0.009889727, 0.04291505, 0.41181225, -0.5328791, -0.5113652, 0.25118932, 0.11503426, -0.17005016, -0.18484166, -0.1254914, -0.8404215, 0.07692538, 0.28111693, -0.23345919, -0.09824618, 0.266046, 0.12668043, -0.55741805, 0.27520576, 0.22819488, -0.5128901, -0.38081664, -0.4488093, 0.66424346, -0.3308701, -0.06746107, -0.22071645, 0.1769382, 0.14136052, 0.2254202, -0.13482746, -0.8976375, -0.43148407, 0.07431033, -0.92532843, -0.15248092, -0.24349794, 0.5516469, 0.38806865, -0.23874469, -0.0714775, -0.30657884, 0.22643828, -0.36410576, 0.27787158, 0.089127526, -0.61798394, 0.15146221, 0.03816658, 0.03446, 0.6695229, -0.72381, 0.7705128, 0.10328265, -0.20552377, 0.06967079, 0.3387209, 0.39389557, 0.17185393, 0.2928992, -0.1821732, 0.10664799, -0.01699256, 0.11991918, -0.4657628, 0.06503807, -0.6829693, 0.002956571, 0.23087311, 0.78850293, -0.31350827, -0.3203893, -0.16360721, -0.16848436, 0.5801524, 0.4494505, -0.31829524, 0.5657256, -0.3837769, -0.3393175, 0.14617845, 0.8457902, -0.0024073715, 0.02066421, -0.59747493, 0.10918596, -0.5431079, -0.29905576, 0.6218454, -0.15133555, -0.07232727, 0.072260246, -0.15523097, 0.01202206, 0.34842393, 0.6791117, 0.12369803, -0.13462687, -0.58866936, 0.0840264, -0.08644533, -0.3399037, -0.165435, 0.6356988, -0.32071942, -0.12567773, -0.28313035, -0.035781004, -0.48047248, -0.17564622, -0.46207398, 0.2672535, -0.05766496, 0.4293427, 0.18219693, 0.15483281, 0.29257676, -0.555497, -0.36020473, -0.4555532, -0.36353055, 0.0346481, -0.4049882, 0.4195198, 0.17455892, -0.78867877, -0.14538395, -0.65081763, -0.3778514, 0.38385835, 0.13897873, -0.17664167, -0.37420338, -0.062280297, 0.08831322, 0.3201123, 0.022629604, -0.48277014, -0.013047096, 0.1843462, -1.171063, -0.5104076, 0.27539426, 0.6220017, 0.73033345, -0.10243168, -0.25322825, -0.12653749, 0.39622518, 0.033493157, 0.8667718, -0.3488829, 0.010871688, 0.58243096, -0.1405702, 0.19327128, -0.29869717, 0.72017884, 0.14764988, 0.471139, 0.5423409, -0.4074556, -0.03721689, 0.041444365, -0.8749757, -0.44379455, -0.45701274, 0.33770293, -0.2482641, -0.14952107, -0.21135089, 0.5798954, -0.18799272, 0.07347668, -0.805402, 0.46689105, -0.0067996206, 0.8661621, -0.2003859, 0.18861744, -0.2766487, 0.0009787992, -0.562129, 0.29806834, 0.035130627, 0.2582554, 0.7275452, -0.79761666, -0.26390165, 0.07274507, 0.008710803, -0.1786294, 0.086208776, 0.4694416, 0.2785965, 0.0016422853, -0.60218585, -0.16233876, -0.2939351, -0.22857681, 0.11918869, 0.60896266, -0.07705206, 0.8340642, 0.027343553, 0.14871548, 0.6115668, 0.2644611, -0.27664787, 0.14706334, 0.07584841, -0.15266646, 0.21428283, -0.25943774, -0.3191301, 0.5059672, -0.6749086, -0.15368168, -0.67053396, -0.12317266, -0.07145761, 0.39265886, 0.11494185, -0.1084618, 0.22448778, -0.05044798, 0.72022533, 0.19204083, 0.4517873, -0.16877985, 0.6798085, -0.4958497, 0.18483596, 0.778086, 0.061365645, -0.14813295, -0.36244592, 0.37567073, -0.37287784, -0.34980142, 0.38171282, -0.11163832, -1.3575871, 0.07390912, 0.09469993, 0.25759906, -0.0674502, 0.65663314, 0.4305626, 0.34333053, 0.36280948, 0.6991596, -0.023769598, 0.10931202, 0.17362772, -0.32591373, -0.6239607, -0.41308743, 0.0248245, 0.9171696, 0.70292246, 0.3188551, 0.43853393, -0.092978135, -0.6260654, 0.1318725, 0.026602928, 0.4581185, -0.02413485, -0.2708066, 0.540522, -0.3271931, -0.4272028, -0.21952292, 0.9174881, 0.18740408, -0.31927174, -0.0867664, 0.0051542968, -1.0814419, -0.28869328, 0.14176773, -0.10104535, -0.21046314, -0.7280834, 0.6460659, -0.81381863, -0.2479231, 0.28123552, -0.13415895, -0.1907808, -0.26264364, 0.84805614, 0.28238815, 0.9289444, -0.019244213, -0.4084832, -0.0908819, -0.3237038, 0.17025793, 0.0021485686, 0.24186695, 0.19788317, 0.8908661, 0.40389305, -0.15933618, 1.2147213, 0.41125876, -0.21967319, 0.87787074, 0.13989983, -0.018773014, 0.7958359, -0.28532252, -0.45728883, -0.843516, -0.38412565, -0.055011384, 0.23906657, 0.13737457, -0.16838305, -0.19009566, -0.106953405, -0.44249374, 0.102298595, 0.17227094, 0.5048532, -0.47308117, -0.24278875, 0.34939623, 0.7651404, 0.18210803, -0.5243042, 0.63788813, -0.4441402, -0.2562149, 0.04497952, 0.10239478, -0.002551803, -0.1372155, -0.16222389, 0.31247625, -0.17586009, -0.9636816, 0.09203404, -0.5846642, -0.27324122, -0.24339278, 0.7311013, 0.45536438, 0.07665019, -0.12580465, 0.21808422, 0.39390436, -0.07708548, 0.05384987, 0.12060894, -0.034263127, -0.86022455, -0.16755942, -0.4306901, -0.3916778, 0.11199429, -0.5623899, -0.08171518, -0.0025351346, -0.22703373, -0.22644608, -0.12641627, -0.02351127, -0.277139, 0.45960408, -0.47062522, -0.025229866, 0.15506849, 0.6074551, -0.24655107, 0.80809325, -0.18670747, 0.68947774, 0.18987441, -0.09882295, -0.32348076, -0.47802132, -0.09447764, 0.029344212, -0.29483828, -0.576764, 0.009890045, 0.62941587, 0.41871053, 0.14403374, 0.13856706, -0.34960026, 0.016287256, 0.2441382, 0.438186, -0.05090226, -0.43259424, -0.04081531, -0.08872193, -0.46788788, -0.24886608, -0.40507832, 0.5786356, -0.19224653, 0.17282784, -0.43845168, 0.08989842, -0.040944606, 0.034493383, 0.06607874, -0.07031238, 0.18431015, -0.28296694, 0.52199334, 0.77724075, 0.06836793, 0.16992053, -0.37944388, -0.36958355, 0.17871492, -0.08110295, -0.8639429, -0.21531253, 0.26216343, 0.18067971, -0.6777198, 0.47199026, -0.29978016, 0.025034403, 0.17370388, 0.5431425, 0.5055641, -0.6438519, -0.058749903, 0.11070807, 0.048437305, 0.35593152, 0.8110409, -0.25926387, -0.50019705, 0.067276075, 0.20311472, -0.4507462, -0.31591764, 0.72611696, -0.17569868, -0.37262326, 0.1104121, 0.44108972, 0.3903356, 0.3660289, -0.25484997, 0.15604088, -0.05456101, 0.16560905, -0.2476176, -0.02600202, -0.23858282, -0.117595986, 0.3523856, 0.53671473, 0.43102163, 0.84833544, 0.05001702, -0.2684782, -0.36071163, 0.69806767, -0.49161243, -0.27622122, 0.19628459, 0.1737397, 0.17281717, -0.43782893, -0.5982114, -0.035127543, 0.3448134, 0.20968886, -0.13913006, 0.34421614, -0.41012502, 0.2897313, 0.104297265, -0.08994175, -0.22386432, 0.24329285, 0.69785726, -0.22225097, 0.23780525, -0.5409701, 0.34567672, -0.49469417, 0.20898315, -0.17302635, 0.5722539, 0.25876936, -0.34703237, -0.47712374, -0.16471389, -0.6892928, -0.022824595, -0.736675, 0.3790217, -0.17971313, 0.013873652, -0.6044235, -0.72807044, 0.09426657, 0.16552421, 0.1288888, -0.49239153, 0.5706481, -0.1589578, -0.34128675, 0.034629174, 0.004372108, -0.14229959, 0.0362458, 0.9607196, 0.5176314, -0.59001577, 0.85218287, -0.13008443, -0.9689242, -0.8787961, -1.3635571, -0.03892439, -0.48786575, -0.0760987, 0.64298534, 0.13029248, -0.8195753, 0.74130666, 0.2215416, -0.48718676, -0.20260783, -0.5241045, -0.25236613, 0.31670696, -0.5876891, 0.3115439, 0.23989344, -0.7661911, -0.64282256, 0.21761553, -0.6800617, -0.24669933, -0.56456244, -0.096025415, 0.15283151, -0.05583071, -0.013207582, 0.1585683, -0.5679357, -0.05568918, -0.18995567, -0.2836718, 0.058006745, -1.2360141, -0.30720526, -0.054512095, -0.8622425, -0.27523524, 0.0973256, -0.5180377, -0.8563267, -0.63351744, 0.31980434, -0.52634275, -0.2790397, 0.2362136, -0.79241985, -0.6333274, -0.55290425, 0.12444539, -0.2895501, 0.09106218, -0.59003866, 0.7313972, 0.054334737, 0.18808287, -0.3594564, -0.18230493, 0.10674286, -0.35233817, 0.8257624, 0.40811223, -0.9620005, -0.76031905, 0.15041037, 0.4941662, -0.5802328, -0.20965283, 0.67796296, -0.31392926, 0.9524382, -0.64237726, -0.18647511, 0.22077724, 0.23791811, -0.35585484, 0.2942212, 0.080246136, -0.27503946, 0.006198874, 0.27541122, -0.73874, 0.052865088, -0.4513662, -0.55795085, 0.6311598, -0.31677565, -0.3458526, -0.7524689, -0.58904386, -0.2657532, 0.5164274, 0.1657033, 0.22875957, -0.15838356, -0.31509468, 0.2297093, -0.13521029, -0.05353763, 0.22919777, -0.16978475, -0.26788867, -0.20760374, -0.32494897, 0.20297225, 0.73982304, 0.3336755, -0.87806094, 1.4362981, -0.85121715, -0.0636118, 0.26907903, -0.39652115, -0.2680191, -0.008642423, 0.4162709, -0.13003473, 0.87525684, 0.29340902, 0.28049108, -0.75276434, -0.21777824, -0.6718527, -0.07107707, 0.46198696, -0.47319326, 0.29390627, -0.29693708, 0.070628405, 0.17554715, 0.2581197, -0.60843647, -0.043052983, -0.39524326, 0.049080037, -0.00924312, -0.13071494, 0.3643841, -0.8305108, 0.10673988, 0.4354802, -0.091940686, -0.29771328, 0.4270676, 0.5813019, -0.34474015, -0.3035909, -0.12430388, -0.14743826, 0.66632265, 0.5939205, -0.3109564, -0.59629935, -0.505299, 0.29151386, -0.6461901, 0.1411961, 0.18882158, -0.18961366, -0.4785084, -0.18252173, -0.56063616, -0.049791276, -0.23791905, 0.074346855, -0.18114898, -0.22323361, 0.53642654, -0.17964199, 0.3028267, 0.6873098, 0.19836988, -0.5158987, 0.0077413274, 0.31134906, 0.060500123, 0.35869884, -0.34930745, -0.2334404, -0.20393157, 0.22828022, 0.19957317, -0.6858946, 0.4847908, 0.13567838, 0.100524165, -0.26621613, 0.20539263, 0.3355426, 0.559507, -0.3521033]</t>
-        </is>
+          <t>[0.38710812, -0.5600051, -0.077770784, -0.24344571, -0.17384873, 0.29451075, -0.10321265, 0.16023733, 0.31723884, -0.6001947, -0.41446057, -0.42005485, 0.058524046, -0.05889704, -0.37318543, 0.124687545, 0.35492307, 0.049418937, 0.14110614, -0.029517744, -0.8815936, 0.15990601, 0.08692587, 0.36003727, -0.36890817, -0.7980931, -0.3193937, 0.38772535, -0.02417288, -0.23464713, 0.16889364, -0.025449004, -0.074586816, 0.035176758, 0.08766088, 0.02050422, -0.8510138, -0.359388, 0.1575275, -0.24443178, -0.1209799, -0.5227548, 0.05755808, 0.27763543, -0.1269385, 0.78495467, -0.18185689, 0.40231898, -0.30620542, 0.16636172, -0.59880674, 0.1622259, 0.37802628, 0.3127282, -0.34389487, -0.12341925, -0.29268375, -0.4557421, 0.21971586, -0.33403444, 0.6413238, -0.27943566, -0.13859388, 0.6263751, -0.067126885, -0.60629725, -0.5523579, 0.06791936, -0.047999337, -0.25862092, 0.076397724, 0.5385365, 0.4941193, 0.053418487, -0.2817475, -0.42404634, 0.14753537, 0.11538381, 0.774472, 0.45793265, 0.24762325, -0.7861579, -0.4151104, -0.0067602163, -0.60221225, -0.24593844, -0.035993252, -0.501073, -0.6566798, -0.061035376, -0.6716301, -0.37722948, -0.3605919, -0.010870049, -0.5848838, -0.23741578, -0.2460474, 0.09742515, 0.030716773, -0.22119984, -0.2787048, 0.19949014, 0.0011423137, 0.7282018, 0.40400526, -0.026502011, -0.40404168, 0.099771194, 0.3474499, -0.2912944, 0.55302685, -0.17011939, 0.18104926, -0.2962256, 0.021310583, 0.3911675, -0.26697713, 0.42703217, -0.33777982, 0.87565, -0.5257403, -0.090323254, -0.29806206, 0.6524578, 0.00027364213, -0.0069585084, 0.48440108, 0.4956651, 0.20219094, -0.551306, -0.21318774, 0.0703519, 0.887325, -0.2995858, -0.70299894, 0.20369232, 0.11741282, -0.48690334, 0.4128834, 0.37659773, 0.13679063, -0.42782196, 0.22907624, 0.31083488, 0.32210606, 0.08538606, 0.6945601, -0.20074189, 0.08320621, -0.4395964, -0.38977364, -0.2203353, -0.5908405, -0.078768946, 0.13710126, -0.4631127, -0.25982973, 0.24630222, 0.16727138, 0.18683751, -0.07265432, 0.6296575, -0.594334, 0.0014392463, 0.17290321, 0.027178247, 0.6463659, -0.1571265, 0.13763304, -0.70948356, -0.30395803, 0.2858939, -0.06336104, 0.2835782, -0.17345831, 0.25646365, -0.007284362, 0.08900504, -0.32814166, -0.45379972, 0.3499776, 0.68978363, 0.048204057, -0.17555419, 0.1651912, 0.048795275, 0.64986396, -0.32474875, -0.033736028, -0.1624138, 0.10263282, 0.29571217, -0.067167, 0.55612093, 0.081367224, 0.42063105, -0.1575038, 0.09544897, 0.27978468, -0.004869558, -0.70344704, 0.45709947, -0.14902428, 1.0746412, 0.6676043, 0.44303504, -0.2077382, -0.04389292, 0.17486377, 0.014273228, -0.6516625, 0.3358362, 0.36417884, 0.15583692, 0.6959126, -0.25648797, 0.4919228, 0.025005464, -0.122157454, -0.20546177, 0.13862574, -0.16398785, 0.42400843, 0.17704551, -0.16426083, -0.9162121, 0.4078449, 0.7368433, 0.31491214, -0.024016334, -0.39020786, -0.46561792, -0.2464069, -0.071717545, 1.1412605, -0.013303333, 0.30074754, 0.6283498, -0.17810333, -0.46824688, -0.16022821, 0.56534183, 0.2565388, -0.121434025, 0.063726194, 0.29167104, 0.2952027, -0.6559325, 0.52603525, -0.09399553, 0.3657947, 0.5537559, -0.56732315, -0.24998668, 0.1595357, -0.0737862, -0.0885345, 0.4677994, -0.20381305, -0.3254033, 0.020038115, 0.40922508, -0.60782444, -0.61838377, -0.711165, -0.23903868, 0.35656613, -0.56780505, 0.2826453, -0.5814708, -0.14393127, -0.25774914, 0.17623356, -0.17179379, -0.14148743, 0.31639755, -0.2906626, -0.15263478, -0.061692975, -0.25490734, 0.19065547, 0.3126115, 0.14478032, 0.23112948, 0.7406871, -0.34415403, -0.12040175, -0.2937097, -0.4645023, -0.44231677, 0.14910495, -0.006369319, -0.34732285, -1.4818877, 0.21365239, -0.16970861, -0.32784984, -0.52063787, 0.29851672, 0.17550954, 0.43259582, 0.39034837, 0.012401866, 0.4478098, 0.37662256, 0.12960295, -0.4415213, -0.47130874, 0.21749973, 0.20619246, -0.16549967, 0.07774371, -0.9163397, 0.227949, 0.20071831, -0.55115443, 0.009930169, -0.1521877, 0.04579617, -0.024241358, -0.8324981, 0.2943382, -0.030452799, 0.0846049, -0.30904472, 0.34868938, -0.16351397, 0.030184606, 0.14288568, -0.030372448, -0.44939584, -0.5817421, 1.1590388, -0.028591614, 0.13944796, -0.6015745, 0.16357593, -0.63676035, 0.275456, 0.38240767, -0.42222923, -0.23507214, -0.90023553, 0.019127341, -0.06719775, 0.7602483, 0.073323496, 0.044156585, 0.37614745, -0.51685554, -0.034413118, -0.38665798, -0.29325974, 0.11948324, 0.7070976, 0.26951033, 0.6543943, 0.2778756, -0.48986235, -0.3491226, 0.9086955, -0.6995172, -0.05972431, -0.15764189, 0.056993492, 0.06087462, -0.591273, 0.53887737, 0.045140505, 0.43165416, -0.17059298, -0.19478495, 0.053992383, -0.15608151, -0.16111027, 0.57487476, -0.34335804, -0.18000725, 0.043661404, -0.115904495, 0.5912041, 0.575643, 0.41623482, -1.0555209, -0.2268709, -0.472345, -0.29477763, 0.41286466, 0.28788865, 0.10119839, -0.028362315, -0.67960805, 0.104730986, -0.28965947, -0.18498206, 0.19177595, 0.10818748, 0.69160086, -0.07880397, 0.15030965, 0.4282607, 0.7608738, -0.023457851, 0.082088545, -0.12131026, 0.43254492, 0.4672052, 0.26473185, -0.4286188, -0.37407732, -0.46793532, -0.3810263, -0.6597689, 0.25186533, -0.16385414, -0.36757886, -0.45042253, 0.07682523, 0.04539459, -0.18773556, 0.100300886, -0.78733665, 0.109839246, -0.37404293, -0.49635383, 0.121155664, 0.3853145, 0.1448003, 0.5044786, -0.048951015, 0.5249852, -0.10951643, 0.2947169, -0.16711959, 0.20371304, 0.040919043, -0.01307324, -0.32207716, -0.33880916, 0.09239989, 0.17644425, -0.19626756, 0.07149043, -0.19010888, 0.3957311, -0.3472017, 0.6912372, -0.15073723, -0.31399214, -1.030484, -0.6947699, -0.74373114, -0.3646886, 0.60634816, 0.018070428, -0.15830854, 0.5766393, -0.613233, 0.008812599, 0.10376804, -0.011181528, -0.00624044, 0.024851171, 0.19950402, 0.44804642, 0.2763263, -0.08875351, 0.42457247, 0.0005104523, 0.2477172, -0.5636937, -0.49243528, 0.13625935, -0.070135735, 0.19527167, -0.22993824, -0.4817744, 0.012580359, -0.40986693, 0.016233815, -1.1380334, -0.34442073, 0.39514297, -0.052302368, 0.20916143, 0.029156927, -0.27752182, -0.49710542, -0.030077795, 0.5912545, 0.3880399, -0.11254465, -0.06160229, -0.5952789, 0.66687477, -0.27994806, -0.32204127, 0.5227291, 0.22789413, 0.28106585, 0.06989945, 0.37842926, -0.0016375612, -0.04574679, 0.15937552, 0.4664097, -0.16455203, -0.20856081, -0.5585192, 0.22081608, -0.15166642, -0.5788173, -0.3233606, 1.0192777, 0.3127776, 0.6651011, 0.2859634, -0.16312687, 0.3642844, 0.37503532, -0.1525413, -0.2966376, -0.008810029, 0.75385267, 0.18549564, 0.114618674, -0.28984958, -0.17024586, 0.16872689, -0.39493978, -0.21216579, 0.2903586, 0.04884814, 0.5311374, 0.5288773, -0.9596192, 0.062956646, 0.30812606, 0.8405993, 0.44290146, -0.026651496, -0.047980517, 0.5377583, -0.0049163583, 0.04777715, 0.10369634, 0.6606211, 0.4340265, 0.3381045, -0.70400417, -0.39682263, -0.039879303, -0.3841676, 0.18967164, -0.2358771, 0.2340327, -0.2276228, 0.13576217, -0.9381365, 0.124001406, -0.6750157, 0.2006789, -0.3294852, -0.17709789, -0.46622363, 0.26624247, -0.0716171, 0.19222292, -0.15378198, 0.14287129, 0.10860109, 0.58427787, 0.29566222, 0.29034162, 0.037318733, -0.26631436, -0.5477065, -0.6574115, 0.020575589, -0.4194661, 0.2678248, 0.40502682, -0.0825673, -0.3496922, 0.5714996, -0.3293031, -0.80221444, -0.088383645, -0.55441874, 0.40693995, -0.603642, -0.46782947, -0.053338632, 0.3058648, -0.5777041, 0.065799035, -0.13516961, -0.64492995, -0.25744474, 0.36138877, -0.038449332, 0.39887595, -0.032977838, 0.25235525, -0.018171893, -0.19451442, 0.8497033, -0.19890419, -0.5059694, -0.18124965, -0.009346638, -0.17484832, -0.0019997982, -0.16637929, -0.53861934, -0.032221228, -0.37120828, -0.30931094, 0.47787815, 0.049981534, 0.12854454, -0.51624113, -0.34183002, -0.6140597, -0.015734166, 0.2560806, -0.15384203, -0.013179693, -0.26500198, -0.5390761, 0.7410022, -0.54337513, 0.3178535, -0.46833527, -0.23909982, -0.6392229, 0.124109775, 0.36437467, 0.025032397, -0.605798, -0.65081775, 0.07030028, -0.25960633, -0.18736202, 0.07661274, 0.04696104, 0.046625845, -0.2042439, -0.4834059, -0.29449683, -0.39811903, -0.16903843, -0.010376733, -0.3082342, 0.16370809, -0.013021097, 0.21031794, 0.21488735, -0.9314131, 0.2397115, -0.0048317034, 0.2578361, -0.16083948, -0.37399608, -0.4320414, -0.6692275, -0.34897745, -0.55917317, 0.27266493, -0.00908418, 0.8009196, -0.268201, 0.20741834, 0.3302687, -0.18054579, -0.5403363, 0.73913455, -0.27321893, 0.6325129, -0.327723, -0.08913329, 0.5758694, 0.4802297, -0.39220205, 0.25146008, 0.45808002, -0.22741987, 0.23435958, -0.011078934, -0.1278124, -0.5989348, -0.065163, 0.007219581, -0.34486318, 0.7914626, 1.0037068, -0.30543163, 0.096700616, -0.096089914, -0.002644891, 0.24239175, 0.45072848, -0.82356447, -0.6396973, -0.0007723123, -0.7331812, 0.0820724, -0.3024759, -0.413317, -0.5905216, -0.93463737, -0.24565576, -0.31060088, 0.03613293, 0.048677474, -0.8430683, -0.3997652, -0.0635562, -0.14237328, -0.6422485, -0.03805814, -0.33900604, -0.110856205, -0.23010682, -0.3062035, -0.36913458, -0.008761755, -0.15630408, 0.36729428, 0.021391982, 0.003543894, -0.32895917, -0.21864063, -0.1959314, 0.0017530047, 0.053945586, 0.045842376, -0.08875047, 0.07862969, -0.03732869, -0.06386043, 0.6003726, -0.7343985, -0.4169946, 0.78218216, 0.6735072, 0.023280915, 0.41249767, 0.32114726, 0.11952123, 0.39245257, -0.15748887, -0.5610762, 0.06695819, -0.5223247, 0.32548374, -0.06817445, -0.37572387, 0.10736108, -0.7197957, -0.109496996, -0.3447372, 0.01823644, -0.128877, 0.8450819, 0.4171451, 0.3347417, -0.3408388]</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1783934086561203</v>
       </c>
     </row>
     <row r="17">
@@ -896,24 +966,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>점도는 어떻게 측정하나요?</t>
+          <t>Texture analyser는 무엇이죠?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Brookfield 점도계를 고려해 보시죠.</t>
+          <t>식품의 물성을 측정하는 대표 장치입니다.</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>빵의 촉촉함?</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[-0.08294659, -0.23402815, 0.6442835, -0.55079985, 0.49848518, -0.12253289, 0.25834376, -0.08707752, 0.26456866, -0.11447735, -0.4753282, 0.0999246, 0.4524358, -0.07687895, -0.386733, 0.20310001, -0.1199374, 0.0061246245, -0.8632244, -0.043602068, -0.39500412, -0.094395325, 0.32788348, 0.31434703, -0.4111634, -0.084045276, -0.5529601, -0.45604977, 0.105844975, -0.63877696, 0.1952852, -0.2080979, -0.64304626, 0.34581858, 0.008588296, 0.25501585, 0.5185056, -0.052154668, 0.1266481, -0.14378938, -0.50987995, -0.3213017, 0.0011507332, 0.54600567, 0.3107334, -0.32634193, 0.19550028, 0.26934475, -0.512212, -0.055590052, -0.8594905, -0.009889727, 0.04291505, 0.41181225, -0.5328791, -0.5113652, 0.25118932, 0.11503426, -0.17005016, -0.18484166, -0.1254914, -0.8404215, 0.07692538, 0.28111693, -0.23345919, -0.09824618, 0.266046, 0.12668043, -0.55741805, 0.27520576, 0.22819488, -0.5128901, -0.38081664, -0.4488093, 0.66424346, -0.3308701, -0.06746107, -0.22071645, 0.1769382, 0.14136052, 0.2254202, -0.13482746, -0.8976375, -0.43148407, 0.07431033, -0.92532843, -0.15248092, -0.24349794, 0.5516469, 0.38806865, -0.23874469, -0.0714775, -0.30657884, 0.22643828, -0.36410576, 0.27787158, 0.089127526, -0.61798394, 0.15146221, 0.03816658, 0.03446, 0.6695229, -0.72381, 0.7705128, 0.10328265, -0.20552377, 0.06967079, 0.3387209, 0.39389557, 0.17185393, 0.2928992, -0.1821732, 0.10664799, -0.01699256, 0.11991918, -0.4657628, 0.06503807, -0.6829693, 0.002956571, 0.23087311, 0.78850293, -0.31350827, -0.3203893, -0.16360721, -0.16848436, 0.5801524, 0.4494505, -0.31829524, 0.5657256, -0.3837769, -0.3393175, 0.14617845, 0.8457902, -0.0024073715, 0.02066421, -0.59747493, 0.10918596, -0.5431079, -0.29905576, 0.6218454, -0.15133555, -0.07232727, 0.072260246, -0.15523097, 0.01202206, 0.34842393, 0.6791117, 0.12369803, -0.13462687, -0.58866936, 0.0840264, -0.08644533, -0.3399037, -0.165435, 0.6356988, -0.32071942, -0.12567773, -0.28313035, -0.035781004, -0.48047248, -0.17564622, -0.46207398, 0.2672535, -0.05766496, 0.4293427, 0.18219693, 0.15483281, 0.29257676, -0.555497, -0.36020473, -0.4555532, -0.36353055, 0.0346481, -0.4049882, 0.4195198, 0.17455892, -0.78867877, -0.14538395, -0.65081763, -0.3778514, 0.38385835, 0.13897873, -0.17664167, -0.37420338, -0.062280297, 0.08831322, 0.3201123, 0.022629604, -0.48277014, -0.013047096, 0.1843462, -1.171063, -0.5104076, 0.27539426, 0.6220017, 0.73033345, -0.10243168, -0.25322825, -0.12653749, 0.39622518, 0.033493157, 0.8667718, -0.3488829, 0.010871688, 0.58243096, -0.1405702, 0.19327128, -0.29869717, 0.72017884, 0.14764988, 0.471139, 0.5423409, -0.4074556, -0.03721689, 0.041444365, -0.8749757, -0.44379455, -0.45701274, 0.33770293, -0.2482641, -0.14952107, -0.21135089, 0.5798954, -0.18799272, 0.07347668, -0.805402, 0.46689105, -0.0067996206, 0.8661621, -0.2003859, 0.18861744, -0.2766487, 0.0009787992, -0.562129, 0.29806834, 0.035130627, 0.2582554, 0.7275452, -0.79761666, -0.26390165, 0.07274507, 0.008710803, -0.1786294, 0.086208776, 0.4694416, 0.2785965, 0.0016422853, -0.60218585, -0.16233876, -0.2939351, -0.22857681, 0.11918869, 0.60896266, -0.07705206, 0.8340642, 0.027343553, 0.14871548, 0.6115668, 0.2644611, -0.27664787, 0.14706334, 0.07584841, -0.15266646, 0.21428283, -0.25943774, -0.3191301, 0.5059672, -0.6749086, -0.15368168, -0.67053396, -0.12317266, -0.07145761, 0.39265886, 0.11494185, -0.1084618, 0.22448778, -0.05044798, 0.72022533, 0.19204083, 0.4517873, -0.16877985, 0.6798085, -0.4958497, 0.18483596, 0.778086, 0.061365645, -0.14813295, -0.36244592, 0.37567073, -0.37287784, -0.34980142, 0.38171282, -0.11163832, -1.3575871, 0.07390912, 0.09469993, 0.25759906, -0.0674502, 0.65663314, 0.4305626, 0.34333053, 0.36280948, 0.6991596, -0.023769598, 0.10931202, 0.17362772, -0.32591373, -0.6239607, -0.41308743, 0.0248245, 0.9171696, 0.70292246, 0.3188551, 0.43853393, -0.092978135, -0.6260654, 0.1318725, 0.026602928, 0.4581185, -0.02413485, -0.2708066, 0.540522, -0.3271931, -0.4272028, -0.21952292, 0.9174881, 0.18740408, -0.31927174, -0.0867664, 0.0051542968, -1.0814419, -0.28869328, 0.14176773, -0.10104535, -0.21046314, -0.7280834, 0.6460659, -0.81381863, -0.2479231, 0.28123552, -0.13415895, -0.1907808, -0.26264364, 0.84805614, 0.28238815, 0.9289444, -0.019244213, -0.4084832, -0.0908819, -0.3237038, 0.17025793, 0.0021485686, 0.24186695, 0.19788317, 0.8908661, 0.40389305, -0.15933618, 1.2147213, 0.41125876, -0.21967319, 0.87787074, 0.13989983, -0.018773014, 0.7958359, -0.28532252, -0.45728883, -0.843516, -0.38412565, -0.055011384, 0.23906657, 0.13737457, -0.16838305, -0.19009566, -0.106953405, -0.44249374, 0.102298595, 0.17227094, 0.5048532, -0.47308117, -0.24278875, 0.34939623, 0.7651404, 0.18210803, -0.5243042, 0.63788813, -0.4441402, -0.2562149, 0.04497952, 0.10239478, -0.002551803, -0.1372155, -0.16222389, 0.31247625, -0.17586009, -0.9636816, 0.09203404, -0.5846642, -0.27324122, -0.24339278, 0.7311013, 0.45536438, 0.07665019, -0.12580465, 0.21808422, 0.39390436, -0.07708548, 0.05384987, 0.12060894, -0.034263127, -0.86022455, -0.16755942, -0.4306901, -0.3916778, 0.11199429, -0.5623899, -0.08171518, -0.0025351346, -0.22703373, -0.22644608, -0.12641627, -0.02351127, -0.277139, 0.45960408, -0.47062522, -0.025229866, 0.15506849, 0.6074551, -0.24655107, 0.80809325, -0.18670747, 0.68947774, 0.18987441, -0.09882295, -0.32348076, -0.47802132, -0.09447764, 0.029344212, -0.29483828, -0.576764, 0.009890045, 0.62941587, 0.41871053, 0.14403374, 0.13856706, -0.34960026, 0.016287256, 0.2441382, 0.438186, -0.05090226, -0.43259424, -0.04081531, -0.08872193, -0.46788788, -0.24886608, -0.40507832, 0.5786356, -0.19224653, 0.17282784, -0.43845168, 0.08989842, -0.040944606, 0.034493383, 0.06607874, -0.07031238, 0.18431015, -0.28296694, 0.52199334, 0.77724075, 0.06836793, 0.16992053, -0.37944388, -0.36958355, 0.17871492, -0.08110295, -0.8639429, -0.21531253, 0.26216343, 0.18067971, -0.6777198, 0.47199026, -0.29978016, 0.025034403, 0.17370388, 0.5431425, 0.5055641, -0.6438519, -0.058749903, 0.11070807, 0.048437305, 0.35593152, 0.8110409, -0.25926387, -0.50019705, 0.067276075, 0.20311472, -0.4507462, -0.31591764, 0.72611696, -0.17569868, -0.37262326, 0.1104121, 0.44108972, 0.3903356, 0.3660289, -0.25484997, 0.15604088, -0.05456101, 0.16560905, -0.2476176, -0.02600202, -0.23858282, -0.117595986, 0.3523856, 0.53671473, 0.43102163, 0.84833544, 0.05001702, -0.2684782, -0.36071163, 0.69806767, -0.49161243, -0.27622122, 0.19628459, 0.1737397, 0.17281717, -0.43782893, -0.5982114, -0.035127543, 0.3448134, 0.20968886, -0.13913006, 0.34421614, -0.41012502, 0.2897313, 0.104297265, -0.08994175, -0.22386432, 0.24329285, 0.69785726, -0.22225097, 0.23780525, -0.5409701, 0.34567672, -0.49469417, 0.20898315, -0.17302635, 0.5722539, 0.25876936, -0.34703237, -0.47712374, -0.16471389, -0.6892928, -0.022824595, -0.736675, 0.3790217, -0.17971313, 0.013873652, -0.6044235, -0.72807044, 0.09426657, 0.16552421, 0.1288888, -0.49239153, 0.5706481, -0.1589578, -0.34128675, 0.034629174, 0.004372108, -0.14229959, 0.0362458, 0.9607196, 0.5176314, -0.59001577, 0.85218287, -0.13008443, -0.9689242, -0.8787961, -1.3635571, -0.03892439, -0.48786575, -0.0760987, 0.64298534, 0.13029248, -0.8195753, 0.74130666, 0.2215416, -0.48718676, -0.20260783, -0.5241045, -0.25236613, 0.31670696, -0.5876891, 0.3115439, 0.23989344, -0.7661911, -0.64282256, 0.21761553, -0.6800617, -0.24669933, -0.56456244, -0.096025415, 0.15283151, -0.05583071, -0.013207582, 0.1585683, -0.5679357, -0.05568918, -0.18995567, -0.2836718, 0.058006745, -1.2360141, -0.30720526, -0.054512095, -0.8622425, -0.27523524, 0.0973256, -0.5180377, -0.8563267, -0.63351744, 0.31980434, -0.52634275, -0.2790397, 0.2362136, -0.79241985, -0.6333274, -0.55290425, 0.12444539, -0.2895501, 0.09106218, -0.59003866, 0.7313972, 0.054334737, 0.18808287, -0.3594564, -0.18230493, 0.10674286, -0.35233817, 0.8257624, 0.40811223, -0.9620005, -0.76031905, 0.15041037, 0.4941662, -0.5802328, -0.20965283, 0.67796296, -0.31392926, 0.9524382, -0.64237726, -0.18647511, 0.22077724, 0.23791811, -0.35585484, 0.2942212, 0.080246136, -0.27503946, 0.006198874, 0.27541122, -0.73874, 0.052865088, -0.4513662, -0.55795085, 0.6311598, -0.31677565, -0.3458526, -0.7524689, -0.58904386, -0.2657532, 0.5164274, 0.1657033, 0.22875957, -0.15838356, -0.31509468, 0.2297093, -0.13521029, -0.05353763, 0.22919777, -0.16978475, -0.26788867, -0.20760374, -0.32494897, 0.20297225, 0.73982304, 0.3336755, -0.87806094, 1.4362981, -0.85121715, -0.0636118, 0.26907903, -0.39652115, -0.2680191, -0.008642423, 0.4162709, -0.13003473, 0.87525684, 0.29340902, 0.28049108, -0.75276434, -0.21777824, -0.6718527, -0.07107707, 0.46198696, -0.47319326, 0.29390627, -0.29693708, 0.070628405, 0.17554715, 0.2581197, -0.60843647, -0.043052983, -0.39524326, 0.049080037, -0.00924312, -0.13071494, 0.3643841, -0.8305108, 0.10673988, 0.4354802, -0.091940686, -0.29771328, 0.4270676, 0.5813019, -0.34474015, -0.3035909, -0.12430388, -0.14743826, 0.66632265, 0.5939205, -0.3109564, -0.59629935, -0.505299, 0.29151386, -0.6461901, 0.1411961, 0.18882158, -0.18961366, -0.4785084, -0.18252173, -0.56063616, -0.049791276, -0.23791905, 0.074346855, -0.18114898, -0.22323361, 0.53642654, -0.17964199, 0.3028267, 0.6873098, 0.19836988, -0.5158987, 0.0077413274, 0.31134906, 0.060500123, 0.35869884, -0.34930745, -0.2334404, -0.20393157, 0.22828022, 0.19957317, -0.6858946, 0.4847908, 0.13567838, 0.100524165, -0.26621613, 0.20539263, 0.3355426, 0.559507, -0.3521033]</t>
-        </is>
+          <t>[0.6813852, -0.65505517, 0.22202887, -0.32376048, 0.12807368, 0.39365324, 0.05497856, 0.29477882, 0.17341402, -0.5304877, -0.3838658, -0.31864336, -0.29746288, 0.2525377, -0.50290436, 0.15044604, 0.46508345, -0.21241303, 0.29286948, 0.032255523, -0.6929015, 0.18580663, 0.3125185, 0.23102975, -0.44958478, -0.51413137, -0.21569203, 0.14047824, 0.20928575, -0.4138719, 0.03353932, -0.21416858, -0.005282871, -0.19451222, 0.1357698, 0.15534261, -0.84706116, -0.24580178, 0.115742035, -0.17250447, -0.1000201, -0.42817825, 0.012775627, 0.20349936, -0.02328916, 0.5341242, -0.317395, 0.4981567, -0.35332742, 0.30996206, -0.4368779, 0.4072415, 0.47212332, 0.36086836, -0.25807127, -0.33064485, -0.4567782, -0.82479084, 0.29038268, -0.2743989, 0.6487509, -0.35907987, 0.10920912, 0.83041006, -0.16155836, -0.64417785, -0.58527327, 0.07226229, 0.056522515, -0.09896298, 0.03728505, 0.6310641, 0.82964104, -0.27439094, -0.44286463, -0.6437277, 0.44564697, 0.2462736, 0.9569324, 0.46750632, 0.023457473, -0.6914279, -0.17379467, -0.011379433, -0.66485673, -0.15008569, -0.023659894, -0.1173734, -1.0321711, 0.07217314, -0.79705626, -0.22103015, -0.10746241, -0.3553806, -0.4675729, -0.39827782, -0.23031959, 0.11336904, 0.42304, -0.27020568, -0.29365468, 0.35874325, -0.01723122, 0.51928526, 0.28578493, -0.106343254, -0.38086715, -0.10789519, 0.71988046, -0.42954615, 0.6649025, -0.38670322, -0.14515707, 0.053437777, -0.29230165, 0.09085936, -0.27358395, 0.36122403, -0.29324356, 0.7580062, -0.46120486, -0.037899025, -0.2990613, 0.78510207, 0.0012904768, 0.13546555, 0.6140143, 0.5127817, 0.3109507, -0.38814893, -0.32670885, -0.16223364, 0.91654605, -0.04385678, -0.5733159, 0.1919236, 0.08688497, -0.42005867, 0.53763545, 0.0998831, 0.13248055, -0.31473443, 0.16808519, 0.24306591, 0.290993, 0.4059294, 0.5953803, -0.15741648, 0.12949832, -0.34534648, -0.39535934, -0.077678, -0.49720457, -0.07047353, -0.23024891, -0.3835524, -0.18688455, 0.52275497, 0.13734655, 0.286375, -0.21210113, 0.5764517, -0.47586635, -0.0629027, 0.239967, -0.016959783, 0.63427967, 0.09426781, 0.15101406, -0.78983444, -0.30811745, 0.1868707, -0.0905608, 0.37551457, -0.44564128, 0.42983446, 0.31960514, 0.2860009, -0.2626234, -0.43155223, 0.25054303, 0.70852786, 0.117001235, -0.2659598, 0.19971666, 0.10573178, 0.4235862, -0.4462795, -0.07416604, -0.49523368, 0.12001891, 0.14398964, 0.093629904, 0.33748373, 0.11524175, 0.37103653, 0.12889467, -0.0074928873, 0.2957008, -0.02367195, -1.0997255, -0.079510935, -0.34530503, 1.0252329, 0.48913914, 0.37731203, -0.5885602, -0.105716154, 0.13390777, -0.25372356, -0.8186127, 0.36195213, 0.48207304, -0.043850917, 0.19569843, 0.07984649, 0.4010816, 0.038280036, -0.24594699, 0.14346646, 0.15845266, -0.1827549, 0.35940364, 0.29957578, 0.14285226, -0.57092726, 0.086147174, 0.6561675, 0.45852965, -0.3488963, -0.2188665, -0.6630474, 0.014075908, 0.025287284, 1.1255559, 0.061014798, 0.26317337, 0.5048641, -0.35651731, -0.63288414, -0.21539906, 0.68423355, 0.60500115, 0.01775657, 0.28438357, 0.015866714, 0.22011113, -0.8388529, 0.7786512, -0.18926157, 0.46325207, 0.38020587, -0.5929593, -0.4659585, 0.22422217, 0.061773006, 0.059592042, 0.528612, -0.2724665, -0.31280366, 0.2080834, 0.5421503, -0.32464856, -0.38010192, -0.943579, -0.25438145, 0.3355647, -0.8267583, 0.30065614, -0.62718755, -0.5157155, -0.053675212, 0.25502047, -0.18543804, -0.053428046, 0.3873343, 0.051083528, -0.12205702, -0.23296547, -0.3062615, 0.33681628, 0.30370474, 0.028801862, 0.25946116, 0.2877882, -0.519133, -0.23925652, -0.35393947, -0.6832671, -0.5225896, 0.25851208, 0.102685936, -0.3258145, -1.494194, 0.43650565, -0.2387552, -0.09273527, -0.6302515, 0.4484946, -0.20343874, 0.409143, 0.37322405, -0.2101845, 0.5485189, 0.48336533, 0.507561, -0.44782606, -0.39037606, 0.09619705, 0.25829977, 0.099218726, -0.24262059, -0.9472479, 0.22188315, 0.2274692, -0.44556734, 0.117287815, -0.34532142, 0.015179021, -0.043428313, -0.60509795, 0.45960543, 0.0787313, 0.13219021, -0.577985, 0.44655547, 0.044868387, -0.09166312, 0.36219725, -0.05844407, -0.54704666, -0.5193324, 1.124799, -0.014884399, 0.3057136, -0.46704242, 0.19788496, -0.5779711, 0.59515, 0.30534917, -0.7178735, -0.07619684, -0.6359467, -0.08256335, 0.0022440676, 0.79236, 0.34848067, -0.073333405, 0.34981626, -0.4345419, -0.092305526, -0.52528465, -0.28573915, 0.27194735, 0.59799343, 0.2493823, 0.95750576, 0.1236696, -0.38294768, -0.4728336, 0.7752219, -0.49177942, 0.07930523, -0.43057266, -0.03943671, 0.26448563, -0.61676896, 0.34129348, -0.10693852, 0.8634413, -0.29230183, -0.15299855, 0.1531607, 0.24326195, -0.2526541, 0.57380813, -0.26996973, -0.22989419, 0.36873695, -0.34619597, 0.7628664, 0.6699072, 0.42292356, -1.1824347, -0.023183078, -0.7447877, -0.30732754, 0.49158534, 0.38243127, 0.16162677, -0.17845848, -0.8323229, 0.25545135, -0.049253438, -0.47030607, 0.27166435, -0.16504526, 0.7925463, -0.109541476, -0.30635408, 0.3887937, 0.7787229, -0.03736332, 0.06213826, -0.39379007, 0.55737233, 0.41446668, 0.17416272, -0.4150448, -0.07344586, -0.7340799, -0.27161494, -0.5904644, 0.32985806, -0.0017618388, -0.46420607, -0.6928333, 0.013572736, -0.10487913, 0.17536342, 0.15024802, -1.0806568, 0.49205709, -0.4564805, -0.12827209, 0.24900351, 0.0975141, -0.028801326, 0.48926857, -0.0527297, 0.25908485, -0.2863069, 0.5075001, -0.047498982, 0.68704736, -0.10211359, 0.111798726, -0.2738974, -0.016229186, 0.1462884, 0.07747152, -0.3747901, 0.12808278, -0.23606001, 0.41563588, -0.59897286, 0.8408729, -0.3618347, -0.5141638, -1.007489, -0.6084857, -0.65124464, -0.28198487, 0.52775025, -0.213766, -0.12014147, 0.16477677, -0.81306857, 0.16277815, 0.2049507, -0.034776073, 0.041510396, -0.42894745, -0.05143077, 0.3030746, 0.25956714, -0.24019174, 0.1308008, -0.20588963, 0.27568185, -0.65333986, -0.518154, 0.54719526, -0.2698135, 0.24746753, -0.25233206, -0.3403984, 0.36565652, -0.3221565, -0.1001366, -0.8707321, -0.32944208, 0.25990146, -0.22477688, 0.31836256, 0.30254593, -0.23729284, -0.3492599, 0.004995014, 0.5149208, 0.054965053, 0.130073, -0.18496124, -0.47045118, 0.8279852, -0.09192252, -0.43541354, 0.6501264, 0.12577538, 0.17439474, -0.0724317, 0.46124244, -0.03676216, -0.21969189, 0.30936688, 0.47240067, -0.30068454, -0.18181035, -0.4336227, 0.2560273, -0.025926013, -0.56534994, -0.2615816, 0.93650275, 0.2356217, 0.418979, 0.05480779, -0.21735607, 0.56464815, 0.27054888, -0.4261873, -0.34457403, -0.16625555, 0.5758049, -0.0226526, 0.06154113, -0.14285538, -0.15156256, -0.16410848, -0.4563828, -0.064022444, 0.4082566, 0.37213692, 0.40524775, 0.6087591, -0.8948022, 0.17309618, 0.39254305, 0.8593337, 0.2035876, -0.15682869, 0.14687298, 0.86334044, 0.11842426, -0.19321108, 0.06992387, 0.4361465, 0.31894636, 0.39520794, -0.73058873, -0.62501436, -0.014583844, -0.5979567, -0.0033770981, -0.39692566, 0.3934973, -0.44834906, 0.06560717, -0.8244071, 0.15121447, -0.711359, 0.14562096, -0.5348261, -0.43600723, -0.5849567, 0.26493046, -0.07720673, 0.23750496, 0.22361736, 0.31430343, -0.104471385, 0.36762455, 0.5440387, 0.17117943, -0.057225414, -0.11858664, -0.5372041, -0.528758, 0.005372835, -0.6287427, 0.33652642, 0.21403901, -0.27399528, -0.043218393, 0.31612486, -0.3771474, -0.94568443, 0.022873236, -0.6968713, 0.10467497, -0.5731782, -0.544757, -0.0139154885, 0.16364396, -0.8185248, -0.019149678, -0.25111184, -0.517111, -0.038077183, 0.27532586, -0.18098064, 0.39727727, 0.10128409, 0.33732018, -0.19491439, -0.19581504, 0.82164395, -0.12134351, -0.26222652, -0.009895818, -0.15106943, -0.24358144, 0.14416194, -0.22153236, -0.5114307, -0.07391434, -0.2941389, -0.25633657, 0.58395, 0.25448564, 0.16929166, -0.28388113, -0.60031563, -0.3851227, 0.06375556, 0.42839178, -0.22927652, 0.04701271, -0.08358519, -0.44510436, 0.678934, -0.6146242, 0.30470857, -0.4779208, -0.2439775, -0.55893785, -0.049736835, 0.12633966, 0.12508297, -0.4485192, -0.653277, 0.11552827, -0.4390862, -0.09415257, 0.0029420618, -0.2578301, 0.12605089, -0.51047665, -0.3486219, -0.37426305, -0.7614473, -0.099327266, 0.23596999, -0.27242306, 0.40437385, 0.011355468, 0.24270765, 0.5138677, -0.8263227, 0.16587438, 0.16938958, 0.37925574, 0.08715039, -0.58275795, -0.6622568, -0.3906607, -0.6160728, -0.49264783, 0.30871797, 0.21473698, 0.7270075, -0.3030263, 0.33744287, 0.37998366, -0.4931232, -0.13201545, 0.8581231, -0.3352943, 0.6553031, -0.15765302, -0.02852927, 0.57535416, 0.37530017, -0.47122547, 0.18064788, 0.43429574, -0.010506973, 0.10964421, 0.15890394, 0.1898867, -0.49789205, -0.0054107993, 0.066006705, -0.76358616, 0.78275925, 0.745523, -0.6128351, -0.046986286, -0.046173446, -0.07903782, 0.10721283, 0.52673596, -0.8306168, -1.006468, 0.049600415, -0.6096381, 0.1267628, -0.67221934, -0.28578788, -0.34047696, -0.9543013, -0.31362677, -0.61314243, -0.0639673, 0.0067893094, -0.5599362, -0.35383645, -0.53843457, -0.2840461, -0.57389593, -0.18836541, -0.26146007, -0.0050892746, -0.2731468, -0.087006554, -0.45635024, 0.31654024, -0.1649077, 0.06571212, 0.10378783, 0.3088154, -0.4301636, -0.20862718, -0.33998686, 0.12280412, -0.008101685, -0.029335143, -0.31529573, 0.17161758, 0.18791844, -0.08218158, 0.46873394, -0.66693646, -0.6427075, 0.8878829, 0.9329986, 0.22458223, 0.60068095, 0.634415, -0.08061937, 0.18344012, 0.036762234, -0.71711797, 0.28197697, -0.33304328, 0.1719356, 0.28120264, -0.40254807, 0.23520651, -0.6465932, -0.201416, -0.35210928, 0.11677408, 0.012678853, 0.3056614, 0.49676824, 0.106286846, -0.36614642]</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1811186522245407</v>
       </c>
     </row>
     <row r="18">
@@ -922,12 +999,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>점도 측정 장치에는 어느 것이 있나요?</t>
+          <t>식품 물성 측정 기기는?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>오리피스 점도계, 보스트윅 점도계, 회전형 점도계 등이 있습니다.</t>
+          <t>다양한 장치가 있는데, 보편적으로 texture analyzer 를 추천합니다.</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -938,8 +1015,11 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[0.060694985, -0.23113355, 0.40575653, -0.7099961, 0.34560034, -0.070824645, -0.12753507, -0.03252227, 0.03850331, -0.15384598, -0.64594173, 0.13139813, 0.073388785, -0.1527717, -0.318024, 0.15840834, -0.13864389, 0.08655882, -0.62201893, -0.25781336, -0.44811732, -0.017506126, 0.41794822, 0.91517174, -0.45602086, -0.16245557, -0.6163265, -0.13247532, -0.06271819, -0.35777518, -0.28905305, -0.21401851, -0.6539274, 0.5477237, 0.21180521, 0.34783366, 0.21482445, -0.040136464, 0.0799649, -0.24127486, -0.4810302, 0.068972155, -0.060147688, 0.39294156, 0.3429268, -0.20138814, 0.4389507, -0.07209111, -0.66332245, -0.05740042, -0.66872704, -0.40512994, -0.13093288, 0.58574665, -0.6133039, -0.272701, 0.5288193, -0.066823795, -0.033942915, 0.11148581, 0.05185555, -0.7997789, -0.09485708, 0.45936826, -0.18735225, 0.044331033, 0.29603237, -0.18181683, -0.57496065, 0.4574763, 0.014736704, -0.7924299, -0.20866495, -0.44055638, 0.8244427, 0.007937247, -0.08943575, -0.0076553854, 0.367624, -0.14489348, 0.0024988889, -0.5472892, -1.0282359, -0.23294695, 0.0010834341, -0.7941383, -0.22808339, -0.2861475, 0.36453238, 0.16527592, -0.17707597, -0.1608622, 0.08098429, 0.100494765, -0.5214962, 0.84968364, 0.0042364663, -0.5599421, 0.09416245, 0.48551887, -0.044882074, 0.79902226, -0.4714728, 0.6868505, 0.5872694, -0.24808094, -0.082410425, 0.57628787, 0.16069217, 0.1608757, 0.22504392, -0.15026833, 0.21809395, -0.25300974, 0.35554108, -0.40253535, 0.08534979, -0.46798044, -0.3881336, 0.3708262, 0.7548877, -0.3506803, -0.08618677, 0.066130884, -0.6265926, 0.8663352, 0.58760923, -0.22251974, 0.52217954, -0.055732027, -0.41614762, -0.05064615, 0.71308035, -0.04838778, -0.43774664, -0.378988, -0.17466635, -0.4152743, -0.55075085, 0.4588088, -0.261492, -0.17811623, 0.1328532, -0.084915966, 0.13435012, 0.34786743, 0.6000177, 0.036789812, -0.30062696, -0.5713135, 0.104986034, -0.1707363, -0.4940298, -0.4821175, 0.10866227, -0.35752165, -0.34092918, -0.43428236, -0.043620262, -0.15621905, -0.14748403, -0.28222832, -0.20488946, -0.06512184, 0.5361202, 0.2121941, 0.47329548, 0.22158323, -0.012209226, -0.5119583, -0.47046033, -0.080438346, 0.1866573, -0.236694, 0.5782528, 0.14583643, -0.7013857, 0.020001661, -0.69217414, -0.27619138, 0.08453438, 0.4851588, 0.08814201, -0.27747905, 0.2355842, -0.1629128, 0.4123576, 0.011494607, -0.5889673, 0.007928147, 0.44788182, -0.60868984, -0.45967168, -0.11269472, 0.47081077, 0.9257792, 0.031076776, -0.22875355, -0.06760822, 0.31482056, 0.1940277, 0.43627316, -0.19575977, -0.20775755, 0.70310324, 0.16592884, 0.35773122, -0.56769186, 0.7084182, 0.13954367, 0.8091275, 0.6483296, 0.084957205, -0.4390984, 0.1381122, -0.4848499, -0.5107227, -0.28222957, 0.4608866, -0.29152113, 0.1476907, -0.378901, 0.36686197, -0.5464564, 0.18039757, -0.62292415, 0.1787991, 0.10877587, 0.7025279, 0.11734105, -0.087225646, -0.16328166, 0.038620643, -0.05643773, 0.07020693, 0.0036317667, 0.24758203, 0.1789361, -0.62177813, 0.08887955, 0.1728618, 0.23800959, -0.077590816, 0.06403252, 0.35489768, -0.049868885, 0.069496125, -0.5884598, 0.2404868, -0.100909285, -0.16309564, -0.094120294, 0.48702374, 0.116915375, 0.5916798, 0.040961195, 0.40050894, 0.6765223, 0.27983984, -0.5053351, -0.14064316, -0.25077653, -0.08770247, -0.12478047, -0.16105992, -0.35393187, 0.4637142, -0.59364897, -0.36357385, -0.5683058, -0.3271761, -0.07399627, 0.24568075, 0.19555984, -0.34010765, -0.056671035, 0.026502907, 0.679603, 0.25098526, 0.2707634, -0.11773002, 0.531881, -0.33161652, 0.018900847, 0.30400366, 0.14071149, -0.27707407, -0.23325136, 0.6253807, -0.7350302, -0.44602007, 0.14329351, -0.3369793, -1.9440522, -0.26125658, -0.10065361, 0.45519578, -0.20995654, 0.2931582, 0.32617232, 0.55823106, 0.36687738, 0.74479926, 0.21789862, 0.30107018, 0.1149956, -0.07574694, -0.7916561, -0.19659595, 0.2153359, 1.0724877, 0.43658763, 0.25320613, 0.3293621, -0.23376808, -0.6238854, 0.21514487, -0.05143382, 0.3666138, -0.015951242, -0.1750711, 0.17095357, -0.7471155, -0.37050822, -0.15803893, 0.6789177, 0.1355129, -0.43937546, -0.20727219, 0.18180032, -0.8872158, -0.550332, 0.2687439, 0.09608218, 0.1168566, -0.70261437, 0.49202034, -0.6613994, -0.6253699, 0.14611357, -0.4094713, -0.03620713, -0.4452061, 0.95669806, 0.26608706, 0.66858083, -0.048533186, -0.31477123, 0.15214805, -0.28916284, 0.39348745, -0.19146472, 0.08989761, -0.06197193, 0.8176249, 0.5528765, -0.29993317, 1.0722877, 0.4643431, -0.20592077, 0.6356538, 0.4132956, -0.25226134, 0.6154996, -0.23404975, -0.5344755, -0.74674815, -0.2739259, 0.2827676, -0.029071178, 0.23023847, -0.17042497, -0.26201382, -0.24727075, -0.14240223, 0.27190673, 0.22975688, 0.33726606, -0.19904432, -0.04258114, 0.37699047, 0.8094108, 0.0845397, -0.8374409, 0.69995135, -0.413156, -0.3976978, 0.18759356, 0.15471616, 0.1816979, -0.30386958, -0.27874357, 0.1429664, -0.31310585, -0.68495065, 0.25946367, -0.19588265, 0.072070934, -0.26626414, 0.63083595, 0.6199806, 0.40830722, -0.38170367, 0.23392424, 0.46678016, 0.0036195735, 0.3864894, 0.07848222, 0.12311886, -0.85459083, -0.09443425, -0.5416644, -0.35072786, 0.19183801, -0.4674292, 0.10704398, 0.14218871, -0.37846926, -0.034996875, -0.001929162, 0.08520427, -0.39837816, 0.61126834, -0.38422537, -0.09844894, 0.22720858, 0.66356176, -0.4203078, 0.6092648, -0.22916159, 0.5891648, -0.10157813, 0.0039180694, -0.5561914, -0.6653095, -0.281816, -0.12040958, -0.45270923, -0.38336167, -0.31715667, 0.4497505, 0.2715843, -0.10343688, 0.08814673, -0.20400698, 0.21511704, 0.12238885, 0.54296803, -0.14761089, -0.32029197, 0.056871668, -0.34718865, -0.3689011, -0.15809774, -0.36652154, 0.31241882, -0.26241904, -0.04240707, -0.37738326, -0.03895741, 0.055255134, 0.20134167, 0.23468092, 0.32189575, 0.18081278, -0.33972448, 0.42093933, 0.9390694, 0.30125847, 0.30197918, -0.2842117, -0.46340883, 0.13228144, 0.15643936, -0.67468715, -0.14255966, 0.24561228, -0.1653317, -0.4940496, -0.115187086, -0.5464505, 0.35157356, 0.24820478, 0.4308603, 0.3093248, -0.6553272, -0.2582881, -0.026170181, -0.21094592, 0.5451896, 0.72641146, -0.21484119, -0.7831604, 0.031190164, 0.5102495, -0.32983944, -0.21579316, 1.0146471, -0.31447047, -0.5129588, 0.10438432, 0.70169455, 0.27193898, 0.2806965, 0.19573154, 0.32469317, -0.11279941, 0.48978347, -0.3327994, 0.07713757, -0.1101763, -0.43365327, 0.08703283, 0.2814949, 0.37419906, 0.9056298, 0.102454804, -0.27141866, -0.0072627463, 0.58586514, -0.06162622, -0.23310536, 0.049868807, 0.43345678, 0.5698711, -0.27956882, -0.4398154, 0.0721579, 0.4092726, -0.09862306, -0.03604779, 0.21651487, -0.083386384, 0.15912732, -0.30737206, -0.12302124, -0.14299151, 0.1759523, 0.5657286, -0.19168732, 0.284304, -0.63034594, 0.37999347, -0.40909043, 0.64113945, 0.19259967, 0.6140088, 0.3777518, -0.42729867, -0.39531332, -0.24675867, -0.6101124, -0.3108968, -0.50267214, 0.019401375, -0.21267346, -0.09401491, -0.45024493, -0.52373004, 0.035718184, 0.23558895, 0.17813085, -0.33500102, 0.023357915, -0.16072072, -0.4008861, 0.11678681, -0.12174682, -0.017491188, 0.029583698, 0.9401504, 0.44586962, -0.36702603, 0.6112198, -0.17493601, -1.0007035, -0.9502658, -1.4998909, 0.12653053, -0.6733868, -0.119974226, 0.692815, 0.33263084, -0.82849234, 0.61935765, 0.30407676, -0.51787, 0.013913574, -0.21036787, -0.05668683, 0.2935799, -0.4337472, 0.372085, 0.3415831, -0.9220997, -0.6091592, 0.022168847, -0.8673338, -0.25588512, -0.21186139, -0.44132927, 0.05623757, 0.11223445, 0.067396015, 0.3844773, -0.17857495, -0.24571468, -0.108031705, -0.34683827, 0.14092442, -1.0863554, -0.26166755, 0.09089146, -0.64694625, -0.23543276, 0.0053999005, -0.49858493, -0.44288033, -0.45247275, 0.31620345, -0.29920468, -0.12387321, 0.0343435, -0.7668415, -0.6104089, -0.6290542, 0.20485835, -0.11027057, -0.18088242, -0.55977196, 0.39909932, -0.30419138, -0.17537782, -0.45921418, -0.35539073, 0.13640592, 0.05890237, 1.0907744, 0.25264928, -0.9504216, -1.0574012, -0.0632744, 0.6826486, -0.7749015, -0.33142456, 0.45250612, -0.39474136, 0.7744809, -0.5570555, -0.11838169, 0.15787274, 0.4210275, -0.55800766, 0.078221545, -0.17449519, -0.39144078, -0.01323927, 0.4690483, -0.7192608, -0.06338559, -0.14825974, -0.5312093, 0.3835092, -0.40254638, -0.18022536, -0.5400323, -0.4389831, -0.14216094, 0.4843059, 0.4002477, 0.18120864, -0.07686725, -0.09081769, 0.091331854, -0.25647342, 0.062241904, 0.7610244, -0.31420067, -0.47373745, -0.22633241, 0.13087758, 0.26290387, 0.20348437, 0.21774054, -0.6791109, 1.31493, -0.8607815, 0.07555151, 0.021320695, -0.547599, -0.014170727, 0.14647941, 0.10914018, -0.3963544, 0.9478445, -0.019351104, 0.079509355, -0.5542057, 0.1322561, -0.8709031, -0.23276876, -0.07343324, -0.8565455, 0.41042927, -0.7454183, -0.35933357, 0.14438479, 0.6766237, -0.3749857, 0.20175728, -0.14360043, -0.120213985, 0.12292835, -0.17323694, 0.075006984, -0.6011592, 0.0019188107, 0.5723812, -0.18281452, 0.047463562, 0.18087535, 0.78023, -0.5801466, -0.66548055, -0.6324729, -0.48922622, 0.57948995, 0.25802913, -0.36396542, -0.45256248, -0.3800947, 0.47801092, -0.23639533, 0.037226457, 0.2218358, -0.098902754, -0.34867173, -0.3122682, -0.3661232, 0.11673047, -0.192452, 0.23775584, 0.15572712, 0.13677566, 0.36726263, -0.3845936, 0.37136993, 0.5093799, 0.27685353, -0.4185142, -0.061798327, 0.27701247, -0.081517324, 0.029891856, -0.33576205, -0.05199402, -0.095707014, 0.19853176, 0.17556672, -0.63832885, 0.6352768, 0.12357431, 0.2986769, -0.12672573, 0.122309305, 0.28122118, 0.61453176, -0.4004091]</t>
-        </is>
+          <t>[-0.18089508, -0.5900386, 0.17993852, -0.7245032, -0.19455369, -0.47292784, -0.11462527, -0.5185354, -0.022468116, -0.09525918, -0.13263345, -0.09121365, -0.19078489, -0.13466269, -0.21483856, -0.02509795, 0.3002953, 0.1344393, -0.37697136, -0.62219214, -0.32800773, -0.15979838, 0.317102, 1.0950075, -0.56736195, -0.38147396, -0.39538172, 0.15661184, -0.10209963, -0.46858773, 0.85776764, 0.13707595, -0.15906484, 0.31452143, 0.13202333, 0.19608091, -0.5844386, -0.16757402, -0.17047885, 0.04437081, -0.5544381, 0.28413522, 0.15439384, 0.36957076, 0.29927337, 0.108327955, 0.4395675, 0.0154679185, -0.1984775, -0.02258783, -0.46018314, -0.04383598, 0.054476116, 0.5777687, -0.6760029, -0.18885577, 0.19876558, 0.12771672, 0.4083888, -0.46468845, 0.14500439, -0.34364316, -0.3371293, -0.25978807, 0.044380486, -0.63141185, -0.27065697, -0.31506464, -0.6507902, 0.21784271, -0.5287664, -0.27321994, 0.13121095, -0.35470068, 0.6176068, 0.23407109, -0.27130422, -0.0037128925, 0.44184786, 0.43588936, -0.28209665, -0.2976527, -0.040095646, -1.0194755, 0.31689933, -1.1147467, -0.402952, -0.6138307, -0.25856367, 0.2049811, -0.13520677, -0.052271314, -0.10251231, 0.1405359, -0.45346102, 0.52067655, -0.17030089, 0.26614994, 0.1519769, -0.0434253, -0.23569706, -0.030222366, -0.38403732, 0.9015, 0.43258068, -0.42811775, -0.24372666, 0.2396761, 0.053545725, -0.27089554, 0.115869254, -0.7255372, 0.11686519, -0.3882502, 0.057197265, 0.41633114, -0.2300364, -0.45409304, -0.18288857, 0.2164593, 0.33016562, -0.22035684, 0.10750096, 0.42704073, -0.094833985, 0.27453056, 0.41268757, -0.3018435, 0.5027602, -0.42790133, 0.037327185, 0.51666665, 0.19210576, 0.29929194, -0.55473375, -0.4132781, -0.07345683, -0.26748598, 0.60527694, 0.7509862, -0.37406382, 0.1504984, -0.26527023, 0.22080618, -0.22103888, -0.3080286, 0.22924, -0.32451883, 0.17338504, -0.71058685, -0.45409408, 0.13115695, -0.9557088, 0.034692626, -0.19709818, 0.1938294, -0.29860404, -0.4246037, 0.08929958, -0.2001294, 0.18761745, 0.34142503, -0.47653204, -0.05115274, 0.514807, -0.5241624, 0.50610435, 0.023754185, 0.7777803, -0.26682228, -0.49589074, -0.045693085, 0.6944794, -0.38419604, 0.0137794, -0.3177115, -0.59537834, -0.14683233, -0.39366955, -0.4537167, 0.43161097, 0.41579157, 0.16536437, 0.12156439, 0.5190085, 0.3013924, 0.42244133, 0.040528078, -0.69086856, -0.5709001, 0.6580226, -0.7044456, -0.32907665, -0.33695897, -0.051641688, 1.031736, -0.40712276, 0.3895716, -0.30962202, 0.18761641, -0.054598257, 0.51679856, -0.21403213, 0.8864352, 0.2969639, 0.21357688, 0.38156796, -0.036539767, 0.21959966, -0.26949868, 0.4307235, 0.452422, 0.11680523, -0.12990397, -0.13336256, -1.0051408, -0.4665363, -0.3005606, 0.18801974, 0.31864947, 0.41744062, -0.42382786, -0.13554676, -0.72509295, 0.15642701, -0.6499301, 0.25693962, 0.82873666, 0.26442423, 0.11133695, -0.15507573, -0.1012261, -0.319443, -0.32399714, 0.124960385, -0.6691499, 0.40588453, 0.57357967, -0.9151437, 0.19565915, -0.055002324, -0.05360542, -0.080881156, -0.13435449, -0.2173521, 0.061974924, 0.17110954, 0.05013697, 0.02828851, -0.17143923, -0.05523717, 0.06552979, 0.02154664, -0.33099908, -0.12448515, -0.50301856, 0.37224212, 0.13257334, 0.058544356, -0.14990298, 0.26500052, -0.023139024, -0.3801404, -0.21565282, 0.059840456, -0.31569305, 0.4919723, -0.51046807, -0.15625398, -0.4508353, -0.03542252, -0.16603172, 0.37417275, 0.22329704, -0.049132314, 0.7678806, -0.51531154, 0.6242005, 0.44543117, 0.43318504, -0.21789564, 0.3148801, 0.29045713, 0.40220818, 0.46854442, -0.38534784, 0.10526414, -0.28739068, -0.01497821, -0.43680742, -0.584798, -0.12036385, -0.25956306, -0.73885316, 0.1388987, -0.31934932, -0.78544074, -0.3631968, -0.21774791, 0.95430684, 0.30725515, 0.9599142, 0.16658087, 0.20231888, -0.1704389, 0.09625787, -0.18567751, -0.3897237, -0.6111874, 0.58745426, 0.2669229, 0.109057695, -0.19734687, 0.38907602, -0.3172222, -0.7135536, 0.3326186, 0.35236943, -0.0076150023, 0.24484822, -0.4668088, 0.28675655, -0.46450105, -0.65583014, 0.5686352, 0.63573146, 0.33756086, 0.06038232, -0.22493315, -0.20130932, -0.8477952, -0.5209996, 0.08715071, 0.052757874, -0.41204596, -0.69508886, -0.004003283, -0.2163118, -0.08613196, 0.09622845, 0.10675016, -0.1150879, -0.37566853, 0.33681247, -0.6564006, 1.6785929, 0.03224023, -0.39824653, 0.09466588, -0.5442671, -0.006513804, -0.17906764, -0.29534853, -0.28595626, 0.19522034, 0.025310714, -0.1667536, 0.71652937, 0.14041708, -0.21233442, 0.82924706, -0.122011065, -0.12454687, 0.6248623, 0.022039419, -0.22571251, -0.43628716, 0.4803753, 0.33926287, 0.4776443, 0.41498867, -0.5727522, -0.2733254, -0.7913544, -0.10314139, 0.03793908, -0.48188707, 0.030619264, -0.42658418, 0.53042066, 0.37321725, 0.73142445, 0.075656705, -1.1743312, 0.63198096, -0.6749517, -0.48216426, 0.103360094, -0.23179626, 0.25548095, 0.30823338, 0.2707937, 0.063509226, -0.40514156, -0.45292363, 0.3683286, 0.1309823, 0.030058093, 0.021711873, 0.3363693, 0.3992645, 0.28424707, -0.25638497, 0.6806493, 0.73074496, 0.041116565, 0.25340855, 0.13253202, -0.15396442, -0.2992204, -0.26385742, -0.09723084, -0.034622677, -0.694252, -0.16363049, -0.21738397, -0.88250834, 0.33562636, -0.20585698, -0.28589237, 0.25054052, -0.48652384, 0.9858924, -0.3619292, 0.23167065, 0.3176471, 0.49889362, -0.14514288, 0.611153, 0.19402635, 0.56827486, -0.73201597, 0.008753359, -0.3513509, -0.62204736, -0.26438835, 0.14024878, -0.02690481, 0.05035701, 0.26624092, 0.3392997, -0.2933991, -0.73597634, 0.19425382, 0.6618843, 0.1327045, 0.49419737, -0.34141007, -0.428896, -0.5020241, -0.09917171, -0.43322027, -0.6984434, -0.08940152, -0.4299623, -0.16136903, 0.3846766, -0.024875207, -0.13066214, -0.56452286, -0.20305282, 0.35755712, 0.2888802, -0.437, -0.14341052, 0.43735814, -0.03570421, 0.48441374, 0.55602086, 0.41649377, -0.12702411, -0.23310038, -0.337052, -0.03446831, -0.0062359474, -0.15331915, 0.23281042, 0.028298855, -0.24876963, -0.23900639, -0.13751823, 0.37086317, 0.4042041, 0.6504827, 0.2714127, 0.015529132, -0.33563328, -0.42174834, 0.021057332, 0.50941014, 0.5860427, 0.49825996, -0.48788774, -0.34728408, 0.9774956, -0.5854573, 0.10829088, 0.52805746, 0.26883885, 0.30113423, -0.024426877, 0.38957274, 0.17870401, 0.2909084, -0.18321806, -0.25469437, 0.5251614, 0.030575322, -0.28496042, -0.35760206, -0.4139222, -0.7804077, -0.40287882, -0.012916234, -0.111810975, 0.64630896, 0.6287937, -0.3898197, 0.06965414, 0.33995888, 0.44475645, -0.020839296, 0.060640916, 0.37416163, 0.47731176, -0.42565268, -0.31540903, 0.014955395, 0.8708529, 0.40925315, 0.06219501, -0.21396434, -0.5050086, 0.56276155, -0.016739033, -0.18445215, -0.09797872, 0.5825917, 0.36395705, 0.43346792, -0.056368604, -0.49181026, 0.88468814, -0.100762986, 0.30209032, 0.15123636, 0.6177176, 0.3067167, -0.0675126, -0.5847731, -0.26046693, -0.37940955, -0.0758039, -0.3159898, -0.59109, 0.07100912, -0.02250912, -0.3565877, -0.3801483, -0.5004453, -0.4014102, 0.42306927, -0.4230074, -0.037765905, -0.64346075, 0.18768585, 0.40486556, 0.31654084, 0.040197115, -0.08076392, 0.45164695, 0.5197124, -0.45061842, 0.7233889, -0.22736637, -0.7493971, -0.61943233, -1.1800504, 0.47997606, -0.7601299, -0.19024992, 0.64274514, -0.0605696, -0.11759509, 0.665419, 0.31180972, -0.48907962, 0.11326279, -0.48191378, 0.11950232, -0.010843847, -0.3894071, 0.12771648, 0.16594394, -0.79857844, -0.12780476, -0.9182377, -0.86882675, -0.31980765, -0.056103256, -0.2214563, -0.038074724, 0.20324992, -0.3244909, 0.00016763475, -0.27978933, 0.41634, -0.16454695, -0.53554237, -0.14756319, -0.46640015, 0.35767308, 0.08038556, 0.27442655, 0.23703116, 0.10024308, 0.24211237, -0.29409233, -0.06106036, 0.40749153, -0.7264261, -0.49612066, -0.3329896, -0.5470497, -0.85390466, -0.0417464, 0.10590728, 0.1729402, -0.31307894, 0.11293402, 0.76272064, -0.120574184, -0.43975386, -0.29942197, -0.3227723, -0.21998128, -0.08799548, 0.9785494, 0.47722352, -0.5336008, -0.8616401, -0.1782892, 0.28229344, -0.058352742, -0.14647418, 0.37039366, -0.7722261, 0.4074692, -0.2619846, -0.21045001, 0.43141866, 0.21482748, -0.032694977, -0.15196103, -0.32539585, -0.2862116, -0.031403635, 0.38239256, -0.5745722, 0.055896215, -0.3226241, -0.029293315, -0.26893908, -0.111046724, -0.34245354, -1.0006534, -0.16642568, -0.026003549, 0.16077657, 0.48190615, 0.05037364, 0.20483665, 0.066524945, 0.054914545, 0.23527053, -0.3696401, 0.70053566, 0.09646395, 0.23699014, -0.4102364, -0.81150615, 0.99220437, -0.0039065084, 0.20087327, -0.3453235, 1.1345172, -0.37053218, 0.50313926, 0.0026374012, -0.10368165, -0.26217216, 0.40415892, 0.21122749, -0.13676469, 0.59630716, 0.51215726, -0.42586297, -0.15966111, -0.0861417, 0.31288084, -0.18960628, -0.12683505, 0.26567414, -0.01593204, -0.2750746, -0.521599, -0.018218355, 0.4192288, -0.23669614, -0.25830853, -0.17474534, -0.39831132, -0.477186, -0.70806736, -0.13103037, -0.22963794, -0.031503543, 0.038736448, -0.2785744, -0.18213148, 0.0950421, 0.45802006, -0.26503575, -0.06849918, -0.625225, -0.13644935, 0.3508538, -0.29084283, 0.069510855, -0.30549645, -0.677696, -0.45708954, -0.4646795, -0.21358448, 0.40557122, -0.42487055, -0.34348375, 0.028657947, -0.015347172, 0.10400848, -0.16391431, 0.71624815, -0.5712374, 0.4657329, 0.022584358, -0.005467268, 0.053748842, 0.4512761, -0.2618197, 0.043855112, -0.1329537, 0.3481065, -0.13119002, -0.4118221, -0.2682758, -0.022477295, -0.3920062, 0.14953409, 0.9495329, -0.3702748, 0.46040976, -0.19908859, 0.0697905, -0.6748298, 0.7965111, 0.64357305, 1.0204542, 0.21661197]</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3467423915863037</v>
       </c>
     </row>
     <row r="19">
@@ -948,24 +1028,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>점탄성이 무엇이죠?</t>
+          <t>식품 물성 측정 장치는?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Viscoelasticity를 의미합니다.</t>
+          <t>다양한 장치가 있는데, 보편적으로 texture analyzer 를 추천합니다.</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[0.052185517, -0.37008393, 0.69081306, -0.43496436, 0.117184624, -0.2033031, 0.19061199, -0.3308664, 0.20545228, -0.231116, -0.31498218, 0.046174698, -0.40320933, 0.025529958, 0.055348482, -0.045979932, -0.20568106, 0.2451442, 0.35588706, -0.19374838, 0.14222391, 0.25003102, 0.21698047, 0.9458829, -0.45514816, 0.29112685, -0.49495888, -0.1461732, 0.1143807, -0.45905983, -0.0058806986, -0.21996349, -0.21708073, 0.42791212, 0.4674333, 0.18484627, -0.31881368, -0.22169818, 0.24863932, 0.0029597217, -0.16690819, -0.28012475, 0.010471225, 0.6401579, -0.2075291, -0.8107719, -0.0659177, -0.2383444, 0.020628115, 0.29003936, -0.92866355, 0.26930577, 0.8830304, 0.58051383, -0.3166876, -0.26119882, 0.18474248, -0.68651384, 0.26608986, 0.34443393, -0.14669119, -0.6087331, -0.05675798, 0.7605435, -0.16809359, 0.43634573, -0.37883574, 0.09199587, -0.95657253, 0.09251037, 0.18983723, -0.14051528, 0.45289278, -0.3995282, 0.42441642, -0.1828061, -0.21486014, -0.35630137, 0.15025982, 0.75273275, -0.34106216, -0.2243573, -0.54268056, -0.45100886, 0.17172222, -0.6054391, 0.024101213, -0.34389195, -0.65062004, 0.3301479, -0.47259098, -0.09255223, -0.06358332, 0.34423625, -0.764164, 0.08080569, 0.07979278, -0.449252, 0.3580175, 0.040794726, -0.29785436, 0.31486034, -0.025600007, 0.55833673, 0.059361286, 0.15353568, -0.3367542, 0.59058404, 0.3431229, -0.119450726, 0.39616638, -0.5363297, 0.049227424, -0.11886748, 0.24261345, 0.13895209, -0.23849933, 0.1514087, -0.05295716, 0.001237919, 0.32587832, -0.43404323, -0.6321437, -0.17925885, -0.47318092, 0.111869186, 0.82594866, -0.36570847, -0.0015339537, 0.32241923, 0.08382007, 0.38632858, 1.0600768, -0.063345574, -0.033185873, -0.06464941, 0.0719405, 0.037111994, 0.18085998, 0.43970147, 0.09849168, 0.16758317, 0.022982044, 0.3710514, 0.24791616, 0.2334697, 0.33652744, 0.1963529, -0.07963278, -0.1925084, -0.2349783, 0.21874832, -0.9456407, -0.13346145, 0.37431285, -0.3935229, -0.22479868, -0.076893285, 0.09004435, -0.043682262, 0.053065315, -0.94017136, 0.0895825, -0.094134316, 0.47727197, 0.12202915, 0.07473544, -0.09147236, 0.3374373, 0.049906645, -0.1925757, -0.06536904, 0.034896538, -0.052044243, 0.4065337, 0.25123954, -0.8052344, 0.31220236, -0.17558962, -0.45019415, -0.10178443, 0.3468711, -0.06332767, 0.13913716, -0.2730585, 0.29470313, -0.09348851, -0.54192585, -0.66997087, -0.34359336, 0.02715366, -0.39006832, 0.030134873, -0.0073638028, 0.086536035, 0.3913336, 0.02740003, 0.0366493, 0.05769664, 0.06655204, -0.867359, 0.3515446, 0.1861363, 0.16151519, 0.8581301, -0.1576526, -0.37735742, -0.26231384, 0.93242764, -0.27997434, 0.61196494, 0.899283, -0.3426386, -0.09032592, -0.15112765, -0.20509958, -0.31376374, -0.15192994, -0.085955344, -0.17984514, 0.18635091, -0.12762791, 0.6888416, 0.062351823, 0.21461171, -0.54487866, 0.32768747, -0.23326248, 0.27705604, -0.36384496, -0.32647225, -1.003318, -0.6506458, -0.657478, 0.61456406, 0.074434176, 0.25399214, -0.063483015, 0.14675052, -0.7214842, 0.93503433, -0.055205356, 0.10209356, -0.06481981, -0.13536912, 0.03972212, -0.2547283, -1.4585364, 0.3675862, -0.5133544, -0.11544296, 0.61933607, -0.04099888, -0.0005046096, 0.624995, -0.67851776, -0.055561192, 0.6524529, -0.1897527, 0.01281985, 0.28232187, 0.020914497, 0.09267713, 0.4725843, -0.29626024, -0.12539457, 0.2226713, -0.71872675, 0.47170666, -0.45624453, -0.39878708, -0.49871737, 0.17936254, -0.3019962, -0.115255386, -0.029634532, 0.27281094, 0.43218777, 0.071052395, 0.41580805, -0.25586313, 0.47550428, 0.6224894, -0.085180454, 0.5084294, -0.11275359, -0.48709795, 0.052104965, 0.12010513, -1.0644393, -0.10030641, 0.118998736, 0.2564769, -2.3080766, -0.48922533, -0.090557575, 0.12619434, -0.000650184, 0.17377898, 0.14583868, 0.9617936, -0.3115974, 0.24597403, -0.12898773, -0.2685649, 0.51392853, -0.5398111, -0.8433239, -0.15173265, 1.0053189, 0.39829794, 0.138494, -0.22967155, 0.66962266, 0.12434035, -0.50430024, 0.37860718, 0.32677308, -0.02748279, 0.166149, -0.21179658, 0.40232033, -0.14051735, 0.0026549597, -0.068513736, 0.94052166, -0.23169059, -0.42359948, -0.035463683, 0.49026686, -0.4550312, -0.28668648, 0.22361165, -0.21571377, 0.06723973, -0.8147094, 0.5841989, -0.76566386, 0.19186565, 0.27945188, 0.20125085, -0.16700517, -0.7952779, 0.45471007, 0.4010966, 1.380356, 0.2830929, -0.18366589, 0.30026746, -0.081557274, 0.16415778, -0.49662054, -0.09995839, 0.6235819, 0.60479426, 0.23101918, 0.3558277, 0.57280225, -0.13998862, 0.0059221718, 0.21250129, 0.14342463, -0.3157295, -0.05110363, -0.6563707, -0.44631433, -0.3931981, -0.2168845, 0.40241608, 0.2452757, -0.34338522, -0.15934655, 0.366983, -0.24152385, -1.0144129, 0.18857917, 0.2013974, 0.46848196, 0.09181886, 0.6234326, -0.21954864, 0.7580657, -0.24529141, -0.9236619, 0.5427073, 0.12081814, -0.06761595, 0.20454355, 0.13851245, -0.08909779, -0.14272608, 0.07939335, -0.14259267, -0.389758, -1.1179434, 0.015995422, -0.70036995, 0.075764865, -0.41043675, 0.10277699, 0.5157683, 0.22976357, -0.014374223, 0.37411687, 0.12662892, -0.33163366, 0.6363628, -0.5704675, 0.08560597, -0.3196011, -0.2336517, -0.43604502, -0.6664497, -0.17362946, 0.24036129, 0.0035676227, 0.32690063, 0.2100103, -0.46503055, -0.1330606, -0.77587247, -0.4760711, 0.24730995, -0.08484282, 0.51583767, 0.18657014, 0.3735412, 0.07530699, 0.45760712, -0.4343708, 0.6438377, 0.33165085, 0.56557447, 0.08439144, -0.14530183, -0.5566428, -0.08050361, -0.5821253, -0.41949743, 0.007419204, 0.4813915, -0.011589999, 0.07888833, 0.26941603, -0.080023974, -0.3563567, 0.3331785, 0.27104706, -0.59934884, -0.30393422, -0.105071776, -0.43714657, 0.20591444, 0.2109397, -0.6851783, -0.13416693, 0.44437116, 0.3160008, 0.2799698, 0.5424666, -0.018343007, 0.30683753, -0.1674432, -0.3263387, 0.017323246, -0.07512483, 0.49089372, 0.7705152, -0.1262684, 0.13100432, -0.75748324, -0.4255574, 0.2006744, -0.40840694, -0.83202815, -0.081249565, 0.002785772, 0.13672057, -0.34504026, 0.1041913, 0.07547262, -0.41875663, 0.19193546, -0.41438085, 0.28834507, -0.40052956, 0.15647143, -0.09335963, 0.25791714, 0.3364476, -0.46065876, -0.37131518, -0.5048928, -0.11083327, 0.53445375, -0.22524974, -0.33310506, 0.31192958, -0.6929196, -0.208267, -0.17903338, 0.37688726, -0.06403583, 0.15660499, -0.39457628, 0.18224043, 0.28152764, 0.3263642, -0.42381275, -0.1312534, 0.17984843, 0.026027935, 0.67116123, -0.38720855, 0.17999443, 0.6813328, -0.43154722, -0.3294925, 0.08192738, 0.2620948, -1.0042052, 0.12997386, -0.19397193, -0.39755958, 0.008223455, -0.021102598, -0.23503134, 0.29829037, -0.30808246, 0.26926818, 0.12685125, 0.01463942, 0.19434616, -0.18162932, -0.07388087, 0.23733322, 0.2152777, 0.63355297, 0.6286199, 0.027277501, 0.20156983, -0.21570267, 0.36568162, -0.24633704, -0.16577525, -0.594877, 0.721405, 0.6373566, -0.30503932, -0.3932209, -0.09121689, -0.530594, -0.56688666, -0.90778947, -0.15873271, -0.44832665, 0.00968076, -0.45092148, -0.89391303, 0.21908446, 0.37972006, 1.0590086, -0.3406578, -0.07255134, -0.35396445, -0.14555958, 0.12231374, 0.57901645, 0.08914161, -0.30974692, 0.40481883, -0.12510112, -0.19784907, 0.48959053, -0.5750969, -0.96674854, -1.1797395, -0.7219905, 0.33709192, -0.67463726, -0.23234361, 0.53452075, 0.20110196, -0.12763338, -0.18321826, -0.024475135, 0.0006941855, -0.37432104, 0.035987202, -0.62511885, 0.06125664, -0.21269585, 0.5921279, 0.7556856, -0.6621358, -0.3281483, -0.19012181, -0.3130206, 0.4832492, 0.13020562, -0.08913281, 0.53591186, -0.32952654, 0.17128581, -0.28797698, -0.46797472, 0.99993896, -0.57255846, -0.19889154, -0.11123284, -0.6362543, -0.22513673, -0.22614795, -0.6640037, -0.55795336, 0.06256773, -0.015961245, -0.5362744, -0.37763345, 0.13923617, 0.24760434, -0.0077269324, -0.4080034, 0.015543282, -0.49036783, -0.04412404, -0.54314613, -0.3388432, 0.34663546, -0.4892522, 0.51118267, -0.5017798, 0.4323598, -0.29117674, -0.67249197, -0.075007826, 0.58964115, 0.01853772, -0.271793, -1.1060817, -0.28881487, 0.03650333, 0.047616795, -0.397143, -0.42504653, -0.100192815, -0.42519337, 0.26863864, -0.39963114, 0.37337148, -0.17470855, -0.07279894, 0.45593658, -0.27017683, 0.48130634, -0.4620932, 0.1025882, 0.09167985, -0.3867579, -0.068047136, 0.12652841, -0.4429652, 0.21687852, -0.18600093, -0.18662101, -0.59198564, -0.41784918, 0.22200043, 0.38738313, 0.40269312, 0.33683214, -0.040302314, 0.05765061, 0.33897054, -0.7722187, 0.13439237, 0.104871005, -0.23480044, 0.19587594, -0.50818306, -0.09049032, 0.18863052, 0.32138503, 0.25862834, -0.89404446, 0.678842, -0.11648977, 0.3060352, 0.116012454, -0.3700303, -0.7446329, -0.33703554, 0.98771065, -0.5872891, 1.2459712, 0.40510523, -0.15742765, -0.9487929, 0.30621508, -0.32546607, 0.20639855, 0.55837715, -0.68565506, -0.054621484, -0.024146173, -0.2520043, -0.52785665, -0.19889444, 0.19733638, 0.7290981, -0.40877387, 0.093962476, -0.5613123, -0.08888837, -0.22000392, -0.21260393, 0.3246735, -0.021298869, 0.04212504, -0.7483048, -0.34449977, 0.24873087, -0.22284862, -0.15695158, -0.19189835, -0.23712867, 0.07457039, -0.048560344, -0.27867863, -0.46066272, 0.10236698, -0.09915478, -0.08440489, 0.19676198, 0.967952, -0.2931345, -0.15186772, 0.36958778, -0.40544686, -0.20541917, -0.0652029, 0.62656206, 0.15071584, -0.06622079, 0.9303939, -0.15059811, 0.59854084, 0.42792952, 0.3587248, 0.05763542, -0.13625649, 0.16284439, -0.54382545, 0.30166575, 0.0027812293, 0.084544405, -0.65500873, 0.054928496, 0.49778715, -0.38949665, 0.44566303, -0.32463038, -0.3623729, -0.09559942, -0.20506124, 0.26360247, -0.08721969, 0.068853065]</t>
-        </is>
+          <t>[-0.23906857, -0.521544, 0.15166576, -0.7127284, -0.18477726, -0.51940984, -0.15941088, -0.5053481, 0.008428167, -0.34057352, -0.30270207, -0.1769926, -0.11565953, -0.056491844, -0.25629508, -0.17486578, 0.18354627, 0.062874526, -0.33869866, -0.6002647, -0.4141424, -0.12143854, 0.13642819, 1.1428454, -0.67885864, -0.44965655, -0.26238945, 0.3241553, -0.05684264, -0.5998665, 1.1519622, 0.036908053, -0.1832661, 0.36944658, 0.16417892, 0.22670895, -0.6139482, -0.14941938, -0.06343505, 0.092337124, -0.5835015, 0.3014672, 0.19479339, 0.32082072, 0.25027812, 0.33322415, 0.27614117, 0.011170823, -0.107600845, -0.11362954, -0.47141397, -0.027151778, 0.0007850677, 0.54906297, -0.6407602, -0.10671794, 0.20371604, 0.30929682, 0.39906803, -0.6631048, 0.25606358, -0.32915804, -0.31642395, -0.2657706, 0.1972487, -0.6336604, -0.30836856, -0.12057707, -0.68278337, 0.1816417, -0.52845436, -0.18148226, 0.2545235, -0.24882287, 0.57118005, 0.2732427, -0.3433746, -0.009294851, 0.3761914, 0.52237993, -0.31609568, -0.23282059, -0.026178796, -1.0108181, 0.28105927, -1.0463594, -0.3569405, -0.6393422, -0.22743805, 0.26746318, -0.07468318, -0.21537341, -0.18949643, 0.12598453, -0.52477014, 0.41799197, -0.27298817, 0.36446774, 0.198665, -0.1332569, -0.23561017, -0.10677556, -0.4650582, 0.96835285, 0.46285275, -0.31365696, -0.29662472, 0.27072027, 0.12338429, -0.30735582, 0.13019389, -0.6765968, 0.3655166, -0.3651747, 0.16349599, 0.4558886, -0.31151786, -0.41442135, -0.08499119, 0.18538111, 0.15025145, -0.16426073, 0.10310154, 0.4878818, -0.13469207, 0.24238685, 0.40656096, -0.2434625, 0.51040417, -0.4555972, 0.120633245, 0.58973336, 0.345268, 0.34939507, -0.61130553, -0.3491655, -0.13405429, -0.26481995, 0.66066384, 0.6764781, -0.44608772, 0.17477739, -0.11238878, 0.22406133, -0.4666438, -0.25149846, 0.34308562, -0.3295691, 0.13685386, -0.5609647, -0.26568562, 0.060334206, -0.9294213, 0.0016638371, -0.09636445, 0.16118209, -0.21777885, -0.41055772, 0.12680188, -0.039953135, 0.17098041, 0.5012085, -0.60625446, -0.11371977, 0.58837247, -0.6038047, 0.5730414, 0.057495527, 0.73810494, -0.3445643, -0.51027113, -0.109682746, 0.74796325, -0.27117562, 0.18115981, -0.3281635, -0.53635484, -0.10395053, -0.40872848, -0.4956052, 0.41930825, 0.42644385, 0.28825057, 0.071624964, 0.55999136, 0.25315765, 0.2779268, -0.03577326, -0.71197087, -0.5161871, 0.6342447, -0.5439362, -0.3468331, -0.25763345, 0.06502385, 1.0830729, -0.53126174, 0.34298724, -0.28890947, 0.16235922, -0.17835172, 0.6233879, -0.3889867, 0.8312176, 0.40622517, 0.39388597, 0.36882907, -0.14675872, 0.30364108, -0.39100063, 0.45206293, 0.41487488, 0.033286892, -0.08470691, -0.21504936, -0.9889926, -0.33872253, -0.21713267, 0.15738997, 0.41034874, 0.4208627, -0.30806696, 0.033147845, -0.71198356, 0.15583614, -0.49799055, 0.35945842, 0.9066894, 0.12415102, 0.05248777, -0.022148972, -0.12383078, -0.25898218, -0.17237335, 0.07446941, -0.61715174, 0.5365719, 0.52978665, -0.9186223, 0.09020539, -0.12430331, -0.1419833, -0.32620397, -0.05896701, -0.24014372, 0.08525515, 0.20270115, 0.22838221, 0.02874342, -0.2907025, -0.0032921385, 0.13121809, 0.03577662, -0.3568371, -0.040234733, -0.5075848, 0.3583187, 0.22174531, 0.04593423, -0.11709668, 0.14052719, -0.012181312, -0.4915734, -0.16179334, -0.063005954, -0.38381004, 0.46561277, -0.53907484, -0.18795982, -0.32017195, 0.04126192, -0.02556976, 0.32792795, 0.1657557, -0.21176349, 0.5946208, -0.6010043, 0.6020763, 0.46162975, 0.23189323, -0.31351832, 0.21770905, 0.3001012, 0.3679717, 0.4738777, -0.41103226, 0.032934155, -0.39157173, -0.087436974, -0.37230238, -0.4917052, -0.14181533, -0.22121446, -0.8277526, 0.15904401, -0.33533183, -0.8569712, -0.31816092, -0.33328688, 0.9697822, 0.3487766, 0.960657, 0.15626977, 0.24170388, -0.26433095, 0.04084704, -0.17989169, -0.27003524, -0.4971836, 0.817618, 0.2528361, 0.18473348, -0.15026477, 0.2631337, -0.33180928, -0.7302182, 0.31422243, 0.23247825, -0.10953042, 0.22954294, -0.43507153, 0.3959053, -0.40304744, -0.6513906, 0.47488308, 0.5622415, 0.40357342, 0.23407534, -0.33776188, -0.30383515, -0.9282923, -0.515641, 0.073247716, 0.1214094, -0.51531196, -0.64460695, 0.05052992, -0.33968803, -0.1809248, 0.13084142, 0.16419643, -0.12690999, -0.44308, 0.25532353, -0.61853254, 1.7369022, -0.06432964, -0.4939227, 0.071909614, -0.42663965, -0.15376197, -0.15965354, -0.2646429, -0.22665869, 0.18446228, 0.15208581, 0.014692253, 0.7390325, 0.1552797, -0.24319202, 0.7677157, -0.16842169, -0.070510596, 0.5812609, -0.09772977, -0.13446277, -0.39636856, 0.526733, 0.3229993, 0.34071243, 0.44629124, -0.50727427, -0.25622818, -0.846008, 0.07992833, 0.033681653, -0.3361498, -0.11134113, -0.30623245, 0.41691703, 0.24279097, 0.72270834, 0.11485115, -1.200638, 0.7059965, -0.7652133, -0.30906495, 0.02711085, -0.20242406, 0.3493313, 0.30140278, 0.3619403, 0.102506086, -0.51285416, -0.41334438, 0.20952876, 0.25467497, -0.049531225, -0.23830527, 0.4136523, 0.33540237, 0.32076, -0.28582677, 0.77264553, 0.7695725, 0.021619108, 0.21474828, 0.09034088, -0.11183858, -0.3185096, -0.1407147, -0.084661305, -0.061942738, -0.78988713, -0.22098155, -0.20750567, -0.84866595, 0.37644613, -0.20063305, -0.23271288, 0.22292572, -0.40471366, 0.91520953, -0.14471471, 0.19622473, 0.25506645, 0.41443574, 0.031787124, 0.7629459, 0.013575243, 0.69059926, -0.75095123, 0.051386252, -0.28722984, -0.67464143, -0.3821841, 0.19627182, -0.21147889, 0.15503639, 0.14970748, 0.3264057, -0.42469734, -0.6491301, 0.2919349, 0.51062554, 0.16532493, 0.49192742, -0.22609244, -0.32449436, -0.5564973, -0.05315384, -0.66133577, -0.8174785, 0.12666534, -0.4677957, -0.093013234, 0.4267834, -0.11503932, -0.1797167, -0.59068614, -0.3871199, 0.35489044, 0.30940568, -0.46202707, -0.18484238, 0.5385877, -0.11126476, 0.3555976, 0.5618732, 0.3559048, -0.19701529, -0.114612035, -0.25385454, -0.05289634, -0.056965385, -0.20419866, 0.17733508, 0.11243983, -0.34319946, -0.21169901, -0.39361942, 0.3624162, 0.2655244, 0.56308365, 0.35447124, 0.12985665, -0.33971953, -0.22145802, -0.06327399, 0.47379643, 0.5761166, 0.35182562, -0.4052245, -0.5487269, 0.92296493, -0.33475104, 0.15341419, 0.59837896, 0.15025122, 0.23464483, -0.038681146, 0.41646275, 0.27197665, 0.31478608, -0.2144528, -0.3701093, 0.393826, -0.032611314, -0.33643734, -0.25354183, -0.45228386, -0.8606567, -0.33978766, 0.16917652, 0.02363061, 0.6950214, 0.4803039, -0.3632282, 0.2551452, 0.3208834, 0.4055832, 0.027628165, 0.119538106, 0.32398865, 0.563069, -0.26861754, -0.24811567, -0.03465501, 0.655698, 0.4091771, 0.15094025, -0.2768129, -0.48754132, 0.5820712, -0.016388671, -0.20071384, -0.27375615, 0.4642682, 0.17219847, 0.46585834, 0.09218972, -0.34390947, 0.94299984, -0.15344515, 0.3423617, 0.117365055, 0.60309345, 0.27670628, -0.030636184, -0.5617674, -0.26301625, -0.44809887, -0.16041052, -0.24117327, -0.44116056, 0.0028128326, -0.06647583, -0.259071, -0.3266084, -0.49885193, -0.37341404, 0.35094044, -0.43058217, -0.052260093, -0.5137514, 0.3536998, 0.29867768, 0.28675932, -0.09386925, -0.1713277, 0.2806073, 0.5084273, -0.4832842, 0.7544593, -0.27863443, -0.6718328, -0.5124234, -1.3267163, 0.37863493, -0.82809174, -0.28306296, 0.48944172, -0.06305829, -0.13673688, 0.70458657, 0.37001333, -0.54229724, 0.08753635, -0.5755923, -0.0013796339, 0.23793228, -0.35148537, 0.043754518, 0.09366056, -0.7745464, -0.1788379, -1.0100169, -0.9834192, -0.39133245, 0.027104363, -0.24992892, 0.18945253, -0.00818889, -0.44042417, 0.1617015, -0.22091098, 0.44940773, -0.19663447, -0.4785007, -0.23132282, -0.38217464, 0.43846905, 0.13217045, 0.17205842, 0.18038586, 0.0033949646, 0.49725458, -0.35170963, 0.017659616, 0.32635915, -0.5126912, -0.4878869, -0.28154537, -0.50616586, -0.8221641, 0.0026433368, 0.15055707, -0.09125482, -0.35488495, 0.12078839, 0.5924126, -0.23019242, -0.32717255, -0.30922744, -0.369607, -0.24853022, 0.08601568, 0.978544, 0.39107287, -0.55875546, -0.950016, -0.20806265, 0.27719033, -0.107986696, -0.08303864, 0.30701578, -0.89118385, 0.35734698, -0.2111969, -0.1162052, 0.2589576, 0.20790043, -0.02156941, -0.207253, -0.10047574, -0.10592233, 0.05171456, 0.4412771, -0.47587436, 0.05222528, -0.3449813, -0.19440204, -0.17376307, 0.07395362, -0.29394817, -1.0188775, -0.11193219, 0.002825588, 0.104024224, 0.46412054, 0.01232279, 0.13255058, 0.081753, -0.062980145, 0.2465828, -0.29715255, 0.5828873, 0.23008639, 0.24327803, -0.4389758, -0.67441547, 0.8933911, 0.052082375, 0.2284028, -0.33207583, 1.0875373, -0.3754276, 0.48447418, -0.13264579, 0.0733421, -0.21899109, 0.39627245, 0.16621852, -0.14859255, 0.63937867, 0.43162465, -0.6368181, 0.0069087753, -0.08740672, 0.40641478, -0.11328268, -0.023685707, 0.17409433, -0.10411303, -0.3803245, -0.46666846, 0.12825435, 0.3406565, -0.14964277, -0.28572014, -0.2998408, -0.385376, -0.3634776, -0.6722532, -0.16475596, -0.14423826, -0.13902813, -0.029745089, -0.39708197, -0.14442185, 0.13092797, 0.5168345, -0.17083131, -0.057941947, -0.77898824, -0.20549828, 0.39321503, -0.36682135, 0.25810453, -0.24150413, -0.53696615, -0.44506025, -0.48831373, -0.25565526, 0.36958134, -0.4311835, -0.2549903, -0.10148898, -0.06617277, 0.038521886, -0.15636876, 0.6188871, -